--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnD'Amore\Source\Repos\ccda-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254756E-B5D7-45B1-A401-0C3A3E79F2DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3D576-5464-48AC-88AB-D35409D82788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12925,7 +12925,7 @@
         <v>836</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" ref="G194:G257" si="12">E194&amp;"-"&amp;F194</f>
+        <f t="shared" ref="G194:G216" si="12">E194&amp;"-"&amp;F194</f>
         <v>831-836</v>
       </c>
       <c r="H194" t="s">
@@ -12938,7 +12938,7 @@
         <v>553</v>
       </c>
       <c r="K194" t="str">
-        <f t="shared" ref="K194:K257" si="13">B194&amp;" "&amp;D194&amp;" "&amp;J194</f>
+        <f t="shared" ref="K194:K240" si="13">B194&amp;" "&amp;D194&amp;" "&amp;J194</f>
         <v>Smoking Status - Meaningful Use  2.16.840.1.113883.10.20.22.4.78 CONF:1098-14806;CONF:1098-14807;CONF:1098-14815;CONF:1098-14816;CONF:1098-32573;CONF:1098-32401;CONF:1098-19170;CONF:1098-31039;CONF:1098-32157;CONF:1098-14809;CONF:1098-19116;CONF:1098-31928;CONF:1098-32894;CONF:1098-32895;CONF:1098-32896;CONF:1098-32897;CONF:1098-14810;CONF:1098-14817;CONF:1098-31019;CONF:1098-31148</v>
       </c>
       <c r="M194" t="str">
@@ -14744,8 +14744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB6032-5C0F-4521-92AE-0A81726C47DD}">
   <dimension ref="A1:I240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnD'Amore\Source\Repos\ccda-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3D576-5464-48AC-88AB-D35409D82788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3DA3E5-9FA2-4D21-9276-E8D52B6B73CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="cda_search" sheetId="4" r:id="rId2"/>
-    <sheet name="pub_releases_dates" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="cda_search" sheetId="4" r:id="rId3"/>
+    <sheet name="pub_releases_dates" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1294">
   <si>
     <t>Template_Type</t>
   </si>
@@ -3360,6 +3361,561 @@
   </si>
   <si>
     <t>2.16.840.1.113883.10.20.22.4.319|http://cdasearch.hl7.org/sections/Medical%20Equipment</t>
+  </si>
+  <si>
+    <t>Birth Sex Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@classCode&lt;/b&gt;=&lt;b&gt;"OBS"&lt;/b&gt; (CodeSystem: &lt;b&gt;HL7ActClass 2.16.840.1.113883.5.6&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:3250-18230)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@moodCode&lt;/b&gt;=&lt;b&gt;"EVN"&lt;/b&gt; (CodeSystem: &lt;b&gt;HL7ActMood 2.16.840.1.113883.5.1001&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:3250-18231)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:3250-18232)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.4.200"&lt;/b&gt;&lt;b&gt; (CONF:3250-18233)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2016-06-01"&lt;/b&gt;&lt;b&gt; (CONF:3250-32949)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:3250-18234)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"76689-9"&lt;/b&gt; Sex Assigned At Birth&lt;b&gt; (CONF:3250-18235)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@codeSystem&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.6.1"&lt;/b&gt; (CodeSystem: &lt;b&gt;LOINC 2.16.840.1.113883.6.1&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:3250-21163)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;statusCode&lt;/b&gt;&lt;b&gt; (CONF:3250-18124)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This statusCode &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"completed"&lt;/b&gt; Completed (CodeSystem: &lt;b&gt;HL7ActStatus 2.16.840.1.113883.5.14&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:3250-18125)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;value&lt;/b&gt; with @xsi:type="CD", where the code &lt;b&gt;SHALL&lt;/b&gt; be selected from ValueSet ONC Administrative Sex&lt;b&gt; 2.16.840.1.113762.1.4.1&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt; 2016-06-01&lt;b&gt; (CONF:3250-32947)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;&lt;p&gt;If value/@code not from value set ONC Administrative Sex 2.16.840.1.113762.1.4.1 STATIC 2016-06-01, then value/@nullFlavor SHALL be ?NK?(CONF:3250-32948).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Care Team Member Act</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@classCode&lt;/b&gt;=&lt;b&gt;"PCPR"&lt;/b&gt; Provision of Care&lt;b&gt; (CONF:4435-53)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@moodCode&lt;/b&gt;=&lt;b&gt;"EVN"&lt;/b&gt; Event&lt;b&gt; (CONF:4435-54)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:4435-45)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.4.500.1"&lt;/b&gt;&lt;b&gt; (CONF:4435-66)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2019-07-01"&lt;/b&gt;&lt;b&gt; (CONF:4435-67)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4435-162)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:4435-27)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"85847-2"&lt;/b&gt; Patient Care team information (CodeSystem: &lt;b&gt;LOINC 2.16.840.1.113883.6.1&lt;/b&gt;)&lt;b&gt; (CONF:4435-48)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@codeSystem&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.6.1"&lt;/b&gt; LOINC&lt;b&gt; (CONF:4435-49)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;statusCode&lt;/b&gt;&lt;b&gt; (CONF:4435-62)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This statusCode &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;, which &lt;b&gt;SHALL&lt;/b&gt; be selected from ValueSet ActStatus&lt;b&gt; 2.16.840.1.113883.1.11.15933&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt; 2019-05-27&lt;b&gt; (CONF:4435-68)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;effectiveTime&lt;/b&gt;&lt;b&gt; (CONF:4435-33)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This effectiveTime &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;low&lt;/b&gt;&lt;b&gt; (CONF:4435-167)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This effectiveTime &lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;high&lt;/b&gt;&lt;b&gt; (CONF:4435-168)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;performer&lt;/b&gt;&lt;b&gt; (CONF:4435-160)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;sdtc:functionCode&lt;/b&gt;, which &lt;b&gt;SHOULD&lt;/b&gt; be selected from ValueSet Care Team Member Function&lt;b&gt; 2.16.840.1.113762.1.4.1099.30&lt;/b&gt;&lt;b&gt; DYNAMIC&lt;/b&gt;&lt;b&gt; (CONF:4435-161)&lt;/b&gt;.&lt;br/&gt;Note: 	This sdtc:functionCode represents the function or role of the member on the care team. For example, the care team member roles on the care team can be a caregiver and a professional nurse or a primary care provider and the care coordinator.  &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;participant&lt;/b&gt;&lt;b&gt; (CONF:4435-76)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"IND"&lt;/b&gt; Indirect Target (CodeSystem: &lt;b&gt;HL7ParticipationType 2.16.840.1.113883.5.90&lt;/b&gt;)&lt;b&gt; (CONF:4435-78)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;functionCode&lt;/b&gt;, which &lt;b&gt;SHALL&lt;/b&gt; be selected from ValueSet Care Team Member Function&lt;b&gt; 2.16.840.1.113762.1.4.1099.30&lt;/b&gt;&lt;b&gt; DYNAMIC&lt;/b&gt;&lt;b&gt; (CONF:4435-169)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;p&gt;This participantRole SHALL contain exactly one [1..1] @nullFlavor=&amp;quot;NI&amp;quot; No Information. (CONF:4435-172).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;participant&lt;/b&gt;&lt;b&gt; (CONF:4435-171)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"LOC"&lt;/b&gt; Location (CodeSystem: &lt;b&gt;HL7ParticipationType 2.16.840.1.113883.5.90&lt;/b&gt;)&lt;b&gt; (CONF:4435-174)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;participantRole&lt;/b&gt;&lt;b&gt; (CONF:4435-173)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;entryRelationship&lt;/b&gt;&lt;b&gt; (CONF:4435-86)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"REFR"&lt;/b&gt; Refers to (CodeSystem: &lt;b&gt;HL7ActRelationshipType 2.16.840.1.113883.5.1002&lt;/b&gt;)&lt;b&gt; (CONF:4435-87)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;encounter&lt;/b&gt;&lt;b&gt; (CONF:4435-88)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This encounter &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4435-89)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;p&gt;If the id does not match an encounter/id from an encounter elsewhere within the same document and the id does not contain @nullFlavor=NA, then this entry SHALL conform to the Encounter Activity (V3) (identifier: 2.16.840.1.113883.10.20.22.4.49) (CONF:4435-90).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;entryRelationship&lt;/b&gt;&lt;b&gt; (CONF:4435-91)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"REFR"&lt;/b&gt; Refers to (CodeSystem: &lt;b&gt;HL7ActRelationshipType 2.16.840.1.113883.5.1002&lt;/b&gt;)&lt;b&gt; (CONF:4435-92)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1]  Note Activity&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.202)&lt;/b&gt;&lt;b&gt; (CONF:4435-93)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;entryRelationship&lt;/b&gt;&lt;b&gt; (CONF:4435-94)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"REFR"&lt;/b&gt; Refers to (CodeSystem: &lt;b&gt;HL7ActRelationshipType 2.16.840.1.113883.5.1002&lt;/b&gt;)&lt;b&gt; (CONF:4435-96)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1]  Care Team Member Schedule Observation&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.500.3)&lt;/b&gt;&lt;b&gt; (CONF:4435-95)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Care Team Member Schedule Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@classCode&lt;/b&gt;=&lt;b&gt;"OBS"&lt;/b&gt; (CodeSystem: &lt;b&gt;HL7ActClass 2.16.840.1.113883.5.6&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:4435-24)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@moodCode&lt;/b&gt;=&lt;b&gt;"EVN"&lt;/b&gt; (CodeSystem: &lt;b&gt;HL7ActMood 2.16.840.1.113883.5.1001&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:4435-25)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:4435-12)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.4.500.3"&lt;/b&gt;&lt;b&gt; (CONF:4435-18)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2019-07-01"&lt;/b&gt;&lt;b&gt; (CONF:4435-19)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:4435-13)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"57203-2"&lt;/b&gt; Episode Timing [CMS Assessment]&lt;b&gt; (CONF:4435-20)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@codeSystem&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.6.1"&lt;/b&gt; LOINC&lt;b&gt; (CONF:4435-21)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;text&lt;/b&gt;&lt;b&gt; (CONF:4435-15)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This text &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;reference&lt;/b&gt;&lt;b&gt; (CONF:4435-16)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This reference &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@value&lt;/b&gt;&lt;b&gt; (CONF:4435-26)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;statusCode&lt;/b&gt;&lt;b&gt; (CONF:4435-11)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This statusCode &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"completed"&lt;/b&gt; Completed (CodeSystem: &lt;b&gt;HL7ActStatus 2.16.840.1.113883.5.14&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:4435-17)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;value&lt;/b&gt; with @xsi:type="TS"&lt;b&gt; (CONF:4435-14)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>Care Team Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@classCode&lt;/b&gt;=&lt;b&gt;"CLUSTER"&lt;/b&gt; CLUSTER (CodeSystem: &lt;b&gt;HL7ActClass 2.16.840.1.113883.5.6&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:4435-124)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@moodCode&lt;/b&gt;=&lt;b&gt;"EVN"&lt;/b&gt; Event (CodeSystem: &lt;b&gt;HL7ActMood 2.16.840.1.113883.5.1001&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:4435-125)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:4435-112)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.4.500"&lt;/b&gt;&lt;b&gt; (CONF:4435-117)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2019-07-01"&lt;/b&gt;&lt;b&gt; (CONF:4435-118)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4435-126)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:4435-114)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"86744-0"&lt;/b&gt; Care Team&lt;b&gt; (CONF:4435-120)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@codeSystem&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.6.1"&lt;/b&gt; LOINC (CodeSystem: &lt;b&gt;LOINC 2.16.840.1.113883.6.1&lt;/b&gt;)&lt;b&gt; (CONF:4435-121)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;originalText&lt;/b&gt;&lt;b&gt; (CONF:4435-154)&lt;/b&gt; such that it&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;reference&lt;/b&gt;&lt;b&gt; (CONF:4435-155)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This reference &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@value&lt;/b&gt;&lt;b&gt; (CONF:4435-156)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;statusCode&lt;/b&gt;&lt;b&gt; (CONF:4435-113)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This statusCode &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;, which &lt;b&gt;SHALL&lt;/b&gt; be selected from ValueSet ActStatus&lt;b&gt; 2.16.840.1.113883.1.11.15933&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;&lt;b&gt; (CONF:4435-119)&lt;/b&gt;.&lt;br/&gt;Note: When statusCode has a value set, its value MAY be rendered in the narrative.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;effectiveTime&lt;/b&gt;&lt;b&gt; (CONF:4435-127)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This effectiveTime &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;low&lt;/b&gt;&lt;b&gt; (CONF:4435-157)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This effectiveTime &lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;high&lt;/b&gt;&lt;b&gt; (CONF:4435-158)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHOULD&lt;/b&gt; contain zero or more [0..*]  Author Participation&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.119)&lt;/b&gt;&lt;b&gt; (CONF:4435-116)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHOULD&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;participant&lt;/b&gt;&lt;b&gt; (CONF:4435-128)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"PPRF"&lt;/b&gt; Primary Performer (CodeSystem: &lt;b&gt;HL7ParticipationType 2.16.840.1.113883.5.90&lt;/b&gt;)&lt;b&gt; (CONF:4435-129)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;functionCode&lt;/b&gt;, which &lt;b&gt;SHOULD&lt;/b&gt; be selected from ValueSet Care Team Member Function&lt;b&gt; 2.16.840.1.113762.1.4.1099.30&lt;/b&gt;&lt;b&gt; DYNAMIC&lt;/b&gt;&lt;b&gt; (CONF:4435-130)&lt;/b&gt;.&lt;br/&gt;Note: Describes the person's, caregiver's or health care provider's functional role on the care team.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;participantRole&lt;/b&gt;&lt;b&gt; (CONF:4435-131)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This participantRole &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4435-132)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;p&gt;This id SHALL match at least one of the member's id in the Care Team Member act template (CONF:4435-133).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;participant&lt;/b&gt;&lt;b&gt; (CONF:4435-134)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"LOC"&lt;/b&gt; Location (CodeSystem: &lt;b&gt;HL7ParticipationType 2.16.840.1.113883.5.90&lt;/b&gt;)&lt;b&gt; (CONF:4435-137)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;participantRole&lt;/b&gt;&lt;b&gt; (CONF:4435-135)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This participantRole &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4435-138)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This participantRole &lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;addr&lt;/b&gt;&lt;b&gt; (CONF:4435-139)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This participantRole &lt;b&gt;SHOULD&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;telecom&lt;/b&gt;&lt;b&gt; (CONF:4435-140)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This participantRole &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;playingEntity&lt;/b&gt;&lt;b&gt; (CONF:4435-136)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This playingEntity &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@classCode&lt;/b&gt;=&lt;b&gt;"PLC"&lt;/b&gt; Place (CodeSystem: &lt;b&gt;HL7EntityClass 2.16.840.1.113883.5.41&lt;/b&gt;)&lt;b&gt; (CONF:4435-141)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This playingEntity &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;name&lt;/b&gt;&lt;b&gt; (CONF:4435-142)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;component&lt;/b&gt;&lt;b&gt; (CONF:4435-110)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1]  Care Team Type Observation&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.500.2)&lt;/b&gt;&lt;b&gt; (CONF:4435-163)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;component&lt;/b&gt;&lt;b&gt; (CONF:4435-146)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1]  Entry Reference&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.122)&lt;/b&gt;&lt;b&gt; (CONF:4435-147)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;component&lt;/b&gt;&lt;b&gt; (CONF:4435-148)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;encounter&lt;/b&gt;&lt;b&gt; (CONF:4435-164)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This encounter &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4435-165)&lt;/b&gt;.&lt;br/&gt;Note: 1.	If the id does not match an encounter/id from an encounter elsewhere within the same document and the id does not contain @nullFlavor=NA, then this entry SHALL conform to the Encounter Activity (V3) (identifier: 2.16.840.1.113883.10.20.22.4.49) (CONF:4435-145).&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;component&lt;/b&gt;&lt;b&gt; (CONF:4435-150)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1]  Note Activity&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.202)&lt;/b&gt;&lt;b&gt; (CONF:4435-151)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;component&lt;/b&gt;&lt;b&gt; (CONF:4435-152)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1]  Care Team Member Act&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.500.1)&lt;/b&gt;&lt;b&gt; (CONF:4435-166)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Care Team Type Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@classCode&lt;/b&gt;=&lt;b&gt;"OBS"&lt;/b&gt; Observation (CodeSystem: &lt;b&gt;HL7ActClass 2.16.840.1.113883.5.6&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:4435-101)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@moodCode&lt;/b&gt;=&lt;b&gt;"EVN"&lt;/b&gt; Event (CodeSystem: &lt;b&gt;HL7ActMood 2.16.840.1.113883.5.1001&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:4435-102)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:4435-99)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;" 2.16.840.1.113883.10.20.22.4.500.2"&lt;/b&gt;&lt;b&gt; (CONF:4435-106)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2019-07-01"&lt;/b&gt;&lt;b&gt; (CONF:4435-108)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:4435-97)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"86744-0"&lt;/b&gt; Care Team&lt;b&gt; (CONF:4435-103)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@codeSystem&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.6.1"&lt;/b&gt; LOINC (CodeSystem: &lt;b&gt;LOINC 2.16.840.1.113883.6.1&lt;/b&gt;)&lt;b&gt; (CONF:4435-104)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;statusCode&lt;/b&gt;&lt;b&gt; (CONF:4435-100)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This statusCode &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"completed"&lt;/b&gt; Completed (CodeSystem: &lt;b&gt;HL7ActStatus 2.16.840.1.113883.5.14&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:4435-107)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;value&lt;/b&gt; with @xsi:type="CD"&lt;b&gt; (CONF:4435-98)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;, which &lt;b&gt;SHALL&lt;/b&gt; be selected from ValueSet Care Team Category&lt;b&gt; 2.16.840.1.113883.4.642.3.155&lt;/b&gt;&lt;b&gt; DYNAMIC&lt;/b&gt;&lt;b&gt; (CONF:4435-109)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Note Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@classCode&lt;/b&gt;=&lt;b&gt;"ACT"&lt;/b&gt; Act&lt;b&gt; (CONF:3250-16899)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@moodCode&lt;/b&gt;=&lt;b&gt;"EVN"&lt;/b&gt; Event&lt;b&gt; (CONF:3250-16900)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:3250-16933)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.4.202"&lt;/b&gt;&lt;b&gt; (CONF:3250-16934)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2016-11-01"&lt;/b&gt;&lt;b&gt; (CONF:3250-16937)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:3250-16895)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"34109-9"&lt;/b&gt; Note (CodeSystem: &lt;b&gt;LOINC 2.16.840.1.113883.6.1&lt;/b&gt;)&lt;b&gt; (CONF:3250-16940)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@codeSystem&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.6.1"&lt;/b&gt; LOINC&lt;b&gt; (CONF:3250-16941)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHOULD&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;translation&lt;/b&gt;, which &lt;b&gt;SHALL&lt;/b&gt; be selected from ValueSet Note Types&lt;b&gt; 2.16.840.1.113883.11.20.9.68&lt;/b&gt;&lt;b&gt; DYNAMIC&lt;/b&gt;&lt;b&gt; (CONF:3250-16939)&lt;/b&gt; such that it&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;p&gt;When the Note Activity is within a Note Section, the code SHOULD match or specialize the section code (CONF:3250-16942).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;p&gt;If the Note Activity is within a typically narrative-only section, the code MAY match the section code (CONF:3250-16943).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;text&lt;/b&gt;&lt;b&gt; (CONF:3250-16896)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This text &lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@mediaType&lt;/b&gt;, which &lt;b&gt;SHOULD&lt;/b&gt; be selected from ValueSet SupportedFileFormats&lt;b&gt; 2.16.840.1.113883.11.20.7.1&lt;/b&gt;&lt;b&gt; DYNAMIC&lt;/b&gt;&lt;b&gt; (CONF:3250-16906)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;p&gt;If @mediaType is present, the text SHALL contain exactly one [1..1] @representation=&amp;quot;B64&amp;quot; and mixed content corresponding to the contents of the note (CONF:3250-16912).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This text &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;reference&lt;/b&gt;&lt;b&gt; (CONF:3250-16897)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This reference &lt;b&gt;SHALL NOT&lt;/b&gt; contain [0..0] &lt;b&gt;@nullFlavor&lt;/b&gt;&lt;b&gt; (CONF:3250-16920)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This reference &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@value&lt;/b&gt;&lt;b&gt; (CONF:3250-16898)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;p&gt;This reference/@value SHALL begin with a '#' and SHALL point to its corresponding narrative (using the approach defined in CDA Release 2, section 4.3.5.1) (CONF:3250-16902).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;statusCode&lt;/b&gt;&lt;b&gt; (CONF:3250-16916)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;effectiveTime&lt;/b&gt;&lt;b&gt; (CONF:3250-16903)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This effectiveTime &lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@value&lt;/b&gt;&lt;b&gt; (CONF:3250-16917)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*]  Author Participation&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.119)&lt;/b&gt;&lt;b&gt; (CONF:3250-16913)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;participant&lt;/b&gt;&lt;b&gt; (CONF:3250-16923)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"LA"&lt;/b&gt; Legal Authenticator&lt;b&gt; (CONF:3250-16925)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1]  US Realm Date and Time (DT.US.FIELDED)&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.5.3)&lt;/b&gt;&lt;b&gt; (CONF:3250-16926)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;participantRole&lt;/b&gt;&lt;b&gt; (CONF:3250-16924)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This participantRole &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:3250-16927)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This participantRole &lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;playingEntity&lt;/b&gt;&lt;b&gt; (CONF:3250-16928)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;The playingEntity, if present, &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*]  US Realm Person Name (PN.US.FIELDED)&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.5.1.1)&lt;/b&gt;&lt;b&gt; (CONF:3250-16929)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;p&gt;If no id matches an author or participant elsewhere in the document, then playingEntity SHALL be present (CONF:3250-16930).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHOULD&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;entryRelationship&lt;/b&gt;&lt;b&gt; (CONF:3250-16907)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"COMP"&lt;/b&gt;&lt;b&gt; (CONF:3250-16921)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@inversionInd&lt;/b&gt;=&lt;b&gt;"true"&lt;/b&gt;&lt;b&gt; (CONF:3250-16922)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@negationInd&lt;/b&gt;&lt;b&gt; (CONF:3250-16931)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;encounter&lt;/b&gt;&lt;b&gt; (CONF:3250-16908)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This encounter &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:3250-16909)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;p&gt;If the id does not match an encounter/id from the Encounters Section within the same document and the id does not contain @nullFlavor=NA, then this entry SHALL conform to the Encounter Activity (V3) (identifier: 2.16.840.1.113883.10.20.22.4.49) (CONF:3250-16914).&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;MAY&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;reference&lt;/b&gt;&lt;b&gt; (CONF:3250-16910)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;externalDocument&lt;/b&gt;&lt;b&gt; (CONF:3250-16911)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This externalDocument &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:3250-16915)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This externalDocument &lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:3250-16918)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Section Time Range Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@classCode&lt;/b&gt;=&lt;b&gt;"OBS"&lt;/b&gt; (CodeSystem: &lt;b&gt;HL7ActClass 2.16.840.1.113883.5.6&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:3250-32960)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@moodCode&lt;/b&gt;=&lt;b&gt;"EVN"&lt;/b&gt; (CodeSystem: &lt;b&gt;HL7ActMood 2.16.840.1.113883.5.1001&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:3250-32961)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:3250-32951)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.4.201"&lt;/b&gt;&lt;b&gt; (CONF:3250-32955)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2016-06-01"&lt;/b&gt;&lt;b&gt; (CONF:3250-32956)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:3250-32952)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"82607-3"&lt;/b&gt; Section Time Range (CodeSystem: &lt;b&gt;LOINC 2.16.840.1.113883.6.1&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:3250-32957)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This code &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@codeSystem&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.6.1"&lt;/b&gt; (CodeSystem: &lt;b&gt;LOINC 2.16.840.1.113883.6.1&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:3250-32958)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;text&lt;/b&gt;&lt;b&gt; (CONF:3250-32962)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This text &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;reference&lt;/b&gt;&lt;b&gt; (CONF:3250-32963)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This reference &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@value&lt;/b&gt;&lt;b&gt; (CONF:3250-32964)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;statusCode&lt;/b&gt;&lt;b&gt; (CONF:3250-32950)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This statusCode &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"completed"&lt;/b&gt; Completed (CodeSystem: &lt;b&gt;HL7ActStatus 2.16.840.1.113883.5.14&lt;/b&gt;&lt;b&gt; STATIC&lt;/b&gt;)&lt;b&gt; (CONF:3250-32954)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;value&lt;/b&gt; with @xsi:type="IVL_TS"&lt;b&gt; (CONF:3250-32953)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This value &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;low&lt;/b&gt;&lt;b&gt; (CONF:3250-32965)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This value &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;high&lt;/b&gt;&lt;b&gt; (CONF:3250-32966)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Care Teams Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:4435-3)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.2.500"&lt;/b&gt;&lt;b&gt; (CONF:4435-7)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2019-07-01"&lt;/b&gt;&lt;b&gt; (CONF:4435-8)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:4435-5)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"85847-2"&lt;/b&gt; Patient Care team information (CodeSystem: &lt;b&gt;LOINC 2.16.840.1.113883.6.1&lt;/b&gt;)&lt;b&gt; (CONF:4435-9)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@codeSystem&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.6.1"&lt;/b&gt; (CodeSystem: &lt;b&gt;LOINC 2.16.840.1.113883.6.1&lt;/b&gt;)&lt;b&gt; (CONF:4435-10)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;title&lt;/b&gt;&lt;b&gt; (CONF:4435-4)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;text&lt;/b&gt;&lt;b&gt; (CONF:4435-6)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHOULD&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;entry&lt;/b&gt;&lt;b&gt; (CONF:4435-1)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1]  Care Team Organizer&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.500)&lt;/b&gt;&lt;b&gt; (CONF:4435-159)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Notes Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:3250-16935)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.2.65"&lt;/b&gt;&lt;b&gt; (CONF:3250-16936)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2016-11-01"&lt;/b&gt;&lt;b&gt; (CONF:3250-16938)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;code&lt;/b&gt;, which &lt;b&gt;SHOULD&lt;/b&gt; be selected from ValueSet Note Types&lt;b&gt; 2.16.840.1.113883.11.20.9.68&lt;/b&gt;&lt;b&gt; (CONF:3250-16892)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;title&lt;/b&gt;&lt;b&gt; (CONF:3250-16891)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;text&lt;/b&gt;&lt;b&gt; (CONF:3250-16894)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;entry&lt;/b&gt;&lt;b&gt; (CONF:3250-16904)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1]  Note Activity&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.4.202)&lt;/b&gt;&lt;b&gt; (CONF:3250-16905)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.22.5.7</t>
+  </si>
+  <si>
+    <t>Provenance - Assembler Participation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@typeCode&lt;/b&gt;=&lt;b&gt;"DEV"&lt;/b&gt; Device&lt;b&gt; (CONF:4440-55)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:4440-40)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.5.7"&lt;/b&gt;&lt;b&gt; (CONF:4440-44)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2020-05-19"&lt;/b&gt;&lt;b&gt; (CONF:4440-53)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;functionCode&lt;/b&gt;&lt;b&gt; (CONF:4440-38)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This functionCode &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;=&lt;b&gt;"assembler"&lt;/b&gt; Assembler&lt;b&gt; (CONF:4440-45)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This functionCode &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@codeSystem&lt;/b&gt; (CodeSystem: &lt;b&gt;ProvenanceParticipantType 2.16.840.1.113883.4.642.4.1131&lt;/b&gt;)&lt;b&gt; (CONF:4440-41)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;time&lt;/b&gt;&lt;b&gt; (CONF:4440-42)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;associatedEntity&lt;/b&gt;&lt;b&gt; (CONF:4440-39)&lt;/b&gt;.&lt;br/&gt;Note: The template does not require any elements from the associatedEntity since the information is recorded in the scopingOrganization.&lt;ul&gt;&lt;li&gt;This associatedEntity &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@classCode&lt;/b&gt;=&lt;b&gt;"OWN"&lt;/b&gt; Owned Entity&lt;b&gt; (CONF:4440-54)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This associatedEntity &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;scopingOrganization&lt;/b&gt;&lt;b&gt; (CONF:4440-43)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This scopingOrganization &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4440-50)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This scopingOrganization &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;name&lt;/b&gt;&lt;b&gt; (CONF:4440-51)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This scopingOrganization &lt;b&gt;SHOULD&lt;/b&gt; contain zero or more [0..*] &lt;b&gt;telecom&lt;/b&gt;&lt;b&gt; (CONF:4440-52)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This scopingOrganization &lt;b&gt;SHOULD&lt;/b&gt; contain zero or more [0..*]  US Realm Address (AD.US.FIELDED)&lt;b&gt; (identifier: 2.16.840.1.113883.10.20.22.5.2)&lt;/b&gt;&lt;b&gt; (CONF:4440-47)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Provenance - Author Participation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;templateId&lt;/b&gt;&lt;b&gt; (CONF:4440-6)&lt;/b&gt; such that it&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.10.20.22.5.6"&lt;/b&gt;&lt;b&gt; (CONF:4440-15)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@extension&lt;/b&gt;=&lt;b&gt;"2019-10-01"&lt;/b&gt;&lt;b&gt; (CONF:4440-36)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;time&lt;/b&gt;&lt;b&gt; (CONF:4440-7)&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;assignedAuthor&lt;/b&gt;&lt;b&gt; (CONF:4440-1)&lt;/b&gt;.&lt;ul&gt;&lt;li&gt;This assignedAuthor &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4440-2)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This assignedAuthor &lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4440-20)&lt;/b&gt; such that it&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@nullFlavor&lt;/b&gt;=&lt;b&gt;"UNK"&lt;/b&gt; Unknown (CodeSystem: &lt;b&gt;HL7NullFlavor 2.16.840.1.113883.5.1008&lt;/b&gt;)&lt;b&gt; (CONF:4440-21)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.4.6"&lt;/b&gt; National Provider Identifier&lt;b&gt; (CONF:4440-22)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@extension&lt;/b&gt;&lt;b&gt; (CONF:4440-23)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This assignedAuthor &lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;code&lt;/b&gt;&lt;b&gt; (CONF:4440-33)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;The code, if present, &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@code&lt;/b&gt;, which &lt;b&gt;SHOULD&lt;/b&gt; be selected from ValueSet Personal And Legal Relationship Role Type&lt;b&gt; 2.16.840.1.113883.11.20.12.1&lt;/b&gt;&lt;b&gt; DYNAMIC&lt;/b&gt;&lt;b&gt; (CONF:4440-34)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This assignedAuthor &lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;assignedPerson&lt;/b&gt;&lt;b&gt; (CONF:4440-3)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;The assignedPerson, if present, &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;name&lt;/b&gt;&lt;b&gt; (CONF:4440-9)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;Such names &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;family&lt;/b&gt;&lt;b&gt; (CONF:4440-17)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Such names &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;given&lt;/b&gt;&lt;b&gt; (CONF:4440-18)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This assignedAuthor &lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;assignedAuthoringDevice&lt;/b&gt;&lt;b&gt; (CONF:4440-32)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This assignedAuthor &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;representedOrganization&lt;/b&gt;&lt;b&gt; (CONF:4440-4)&lt;/b&gt;.&lt;/li&gt;&lt;ul&gt;&lt;li&gt;This representedOrganization &lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@nullFlavor&lt;/b&gt;&lt;b&gt; (CONF:4440-35)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This representedOrganization &lt;b&gt;SHALL&lt;/b&gt; contain at least one [1..*] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4440-10)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This representedOrganization &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4440-24)&lt;/b&gt; such that it&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@nullFlavor&lt;/b&gt;=&lt;b&gt;"UNK"&lt;/b&gt; Unknown (CodeSystem: &lt;b&gt;HL7NullFlavor 2.16.840.1.113883.5.1008&lt;/b&gt;)&lt;b&gt; (CONF:4440-25)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.4.2"&lt;/b&gt; Tax ID Number&lt;b&gt; (CONF:4440-26)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@extension&lt;/b&gt;&lt;b&gt; (CONF:4440-27)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This representedOrganization &lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;id&lt;/b&gt;&lt;b&gt; (CONF:4440-28)&lt;/b&gt; such that it&lt;/li&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;MAY&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@nullFlavor&lt;/b&gt;=&lt;b&gt;"UNK"&lt;/b&gt; Unknown (CodeSystem: &lt;b&gt;HL7NullFlavor 2.16.840.1.113883.5.1008&lt;/b&gt;)&lt;b&gt; (CONF:4440-29)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;@root&lt;/b&gt;=&lt;b&gt;"2.16.840.1.113883.4.6"&lt;/b&gt; National Provider Identifier &lt;b&gt; (CONF:4440-30)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;SHOULD&lt;/b&gt; contain zero or one [0..1] &lt;b&gt;@extension&lt;/b&gt;&lt;b&gt; (CONF:4440-31)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This representedOrganization &lt;b&gt;SHALL&lt;/b&gt; contain exactly one [1..1] &lt;b&gt;name&lt;/b&gt;&lt;b&gt; (CONF:4440-11)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;This representedOrganization &lt;b&gt;SHOULD&lt;/b&gt; contain at least one [1..*] &lt;b&gt;telecom&lt;/b&gt;&lt;b&gt; (CONF:4440-12)&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>CONF:3250-18230;</t>
+  </si>
+  <si>
+    <t>CONF:3250-18231;</t>
+  </si>
+  <si>
+    <t>CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;</t>
+  </si>
+  <si>
+    <t>CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;</t>
+  </si>
+  <si>
+    <t>CONF:3250-18124;CONF:3250-18125;</t>
+  </si>
+  <si>
+    <t>CONF:3250-32947;CONF:3250-32948;</t>
+  </si>
+  <si>
+    <t>CONF:4435-53;</t>
+  </si>
+  <si>
+    <t>CONF:4435-54;</t>
+  </si>
+  <si>
+    <t>CONF:4435-45;CONF:4435-66;CONF:4435-67;</t>
+  </si>
+  <si>
+    <t>CONF:4435-162;</t>
+  </si>
+  <si>
+    <t>CONF:4435-27;CONF:4435-48;CONF:4435-49;</t>
+  </si>
+  <si>
+    <t>CONF:4435-62;CONF:4435-68;</t>
+  </si>
+  <si>
+    <t>CONF:4435-33;CONF:4435-167;CONF:4435-168;</t>
+  </si>
+  <si>
+    <t>CONF:4435-160;CONF:4435-161;</t>
+  </si>
+  <si>
+    <t>CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;</t>
+  </si>
+  <si>
+    <t>CONF:4435-171;CONF:4435-174;CONF:4435-173;</t>
+  </si>
+  <si>
+    <t>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</t>
+  </si>
+  <si>
+    <t>CONF:4435-91;CONF:4435-92;CONF:4435-93;</t>
+  </si>
+  <si>
+    <t>CONF:4435-94;CONF:4435-96;CONF:4435-95;</t>
+  </si>
+  <si>
+    <t>CONF:4435-24;</t>
+  </si>
+  <si>
+    <t>CONF:4435-25;</t>
+  </si>
+  <si>
+    <t>CONF:4435-12;CONF:4435-18;CONF:4435-19;</t>
+  </si>
+  <si>
+    <t>CONF:4435-13;CONF:4435-20;CONF:4435-21;</t>
+  </si>
+  <si>
+    <t>CONF:4435-15;CONF:4435-16;CONF:4435-26;</t>
+  </si>
+  <si>
+    <t>CONF:4435-11;CONF:4435-17;</t>
+  </si>
+  <si>
+    <t>CONF:4435-14;</t>
+  </si>
+  <si>
+    <t>CONF:4435-124;</t>
+  </si>
+  <si>
+    <t>CONF:4435-125;</t>
+  </si>
+  <si>
+    <t>CONF:4435-112;CONF:4435-117;CONF:4435-118;</t>
+  </si>
+  <si>
+    <t>CONF:4435-126;</t>
+  </si>
+  <si>
+    <t>CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;</t>
+  </si>
+  <si>
+    <t>CONF:4435-113;CONF:4435-119;</t>
+  </si>
+  <si>
+    <t>CONF:4435-127;CONF:4435-157;CONF:4435-158;</t>
+  </si>
+  <si>
+    <t>CONF:4435-116;</t>
+  </si>
+  <si>
+    <t>CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;</t>
+  </si>
+  <si>
+    <t>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</t>
+  </si>
+  <si>
+    <t>CONF:4435-110;CONF:4435-163;</t>
+  </si>
+  <si>
+    <t>CONF:4435-146;CONF:4435-147;</t>
+  </si>
+  <si>
+    <t>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</t>
+  </si>
+  <si>
+    <t>CONF:4435-150;CONF:4435-151;</t>
+  </si>
+  <si>
+    <t>CONF:4435-152;CONF:4435-166;</t>
+  </si>
+  <si>
+    <t>CONF:4435-101;</t>
+  </si>
+  <si>
+    <t>CONF:4435-102;</t>
+  </si>
+  <si>
+    <t>CONF:4435-99;CONF:4435-106;CONF:4435-108;</t>
+  </si>
+  <si>
+    <t>CONF:4435-97;CONF:4435-103;CONF:4435-104;</t>
+  </si>
+  <si>
+    <t>CONF:4435-100;CONF:4435-107;</t>
+  </si>
+  <si>
+    <t>CONF:4435-98;CONF:4435-109;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16899;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16900;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16916;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16903;CONF:3250-16917;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16913;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</t>
+  </si>
+  <si>
+    <t>CONF:3250-32960;</t>
+  </si>
+  <si>
+    <t>CONF:3250-32961;</t>
+  </si>
+  <si>
+    <t>CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;</t>
+  </si>
+  <si>
+    <t>CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;</t>
+  </si>
+  <si>
+    <t>CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;</t>
+  </si>
+  <si>
+    <t>CONF:3250-32950;CONF:3250-32954;</t>
+  </si>
+  <si>
+    <t>CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</t>
+  </si>
+  <si>
+    <t>CONF:4435-3;CONF:4435-7;CONF:4435-8;</t>
+  </si>
+  <si>
+    <t>CONF:4435-5;CONF:4435-9;CONF:4435-10;</t>
+  </si>
+  <si>
+    <t>CONF:4435-4;</t>
+  </si>
+  <si>
+    <t>CONF:4435-6;</t>
+  </si>
+  <si>
+    <t>CONF:4435-1;CONF:4435-159;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16892;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16891;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16894;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16904;CONF:3250-16905;</t>
+  </si>
+  <si>
+    <t>CONF:4440-55;</t>
+  </si>
+  <si>
+    <t>CONF:4440-40;CONF:4440-44;CONF:4440-53;</t>
+  </si>
+  <si>
+    <t>CONF:4440-38;CONF:4440-45;CONF:4440-41;</t>
+  </si>
+  <si>
+    <t>CONF:4440-42;</t>
+  </si>
+  <si>
+    <t>CONF:4440-39;CONF:4440-54;CONF:4440-43;CONF:4440-50;CONF:4440-51;CONF:4440-52;CONF:4440-47;</t>
+  </si>
+  <si>
+    <t>CONF:4440-6;CONF:4440-15;CONF:4440-36;</t>
+  </si>
+  <si>
+    <t>CONF:4440-7;</t>
+  </si>
+  <si>
+    <t>CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</t>
+  </si>
+  <si>
+    <t>CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</t>
+  </si>
+  <si>
+    <t>CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;</t>
+  </si>
+  <si>
+    <t>CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;</t>
+  </si>
+  <si>
+    <t>CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;</t>
+  </si>
+  <si>
+    <t>CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;</t>
+  </si>
+  <si>
+    <t>CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</t>
+  </si>
+  <si>
+    <t>CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</t>
   </si>
 </sst>
 </file>
@@ -4203,22 +4759,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L216" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M218" sqref="M218:M240"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="79.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="255.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="79.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="255.7109375" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -13963,13 +14521,17 @@
         <f>"CG_A_"&amp;E217-1000&amp;"-"&amp;F217-1000</f>
         <v>CG_A_5-7</v>
       </c>
+      <c r="J217" t="str">
+        <f>VLOOKUP(D218,Sheet1!$A$86:$E$96,5,0)</f>
+        <v>CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;</v>
+      </c>
       <c r="K217" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 </v>
+        <v>Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;</v>
       </c>
       <c r="M217" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:216, template_type:'Section', name:'Care Teams Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.500[CG_A_5-7', name2:'Care Teams Section (Companion Guide)', template:'2.16.840.1.113883.10.20.22.2.500', pageStart:1005, pages:'CG_A_5-7', search:'Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 ' },</v>
+        <v>{ id:216, template_type:'Section', name:'Care Teams Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.500[CG_A_5-7', name2:'Care Teams Section (Companion Guide)', template:'2.16.840.1.113883.10.20.22.2.500', pageStart:1005, pages:'CG_A_5-7', search:'Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;' },</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
@@ -13996,13 +14558,17 @@
         <f t="shared" ref="G218:G225" si="16">"CG_A_"&amp;E218-1000&amp;"-"&amp;F218-1000</f>
         <v>CG_A_7-9</v>
       </c>
+      <c r="J218" t="str">
+        <f>VLOOKUP(D219,Sheet1!$A$86:$E$96,5,0)</f>
+        <v>CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;</v>
+      </c>
       <c r="K218" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 </v>
+        <v>Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;</v>
       </c>
       <c r="M218" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:217, template_type:'Section', name:'Notes Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.65[CG_A_7-9', name2:'Notes Section (Companion Guide)', template:'2.16.840.1.113883.10.20.22.2.65', pageStart:1007, pages:'CG_A_7-9', search:'Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 ' },</v>
+        <v>{ id:217, template_type:'Section', name:'Notes Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.65[CG_A_7-9', name2:'Notes Section (Companion Guide)', template:'2.16.840.1.113883.10.20.22.2.65', pageStart:1007, pages:'CG_A_7-9', search:'Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;' },</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
@@ -14029,13 +14595,16 @@
         <f t="shared" si="16"/>
         <v>CG_A_10-11</v>
       </c>
+      <c r="J219" t="s">
+        <v>1288</v>
+      </c>
       <c r="K219" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 </v>
+        <v>Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
       </c>
       <c r="M219" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:218, template_type:'Entry', name:'Birth Sex Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.200[CG_A_10-11', name2:'Birth Sex Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.200', pageStart:1010, pages:'CG_A_10-11', search:'Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 ' },</v>
+        <v>{ id:218, template_type:'Entry', name:'Birth Sex Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.200[CG_A_10-11', name2:'Birth Sex Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.200', pageStart:1010, pages:'CG_A_10-11', search:'Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;' },</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
@@ -14062,13 +14631,16 @@
         <f t="shared" si="16"/>
         <v>CG_A_12-16</v>
       </c>
+      <c r="J220" t="s">
+        <v>1289</v>
+      </c>
       <c r="K220" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 </v>
+        <v>Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;</v>
       </c>
       <c r="M220" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:219, template_type:'Entry', name:'Care Team Member Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.1[CG_A_12-16', name2:'Care Team Member Act (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500.1', pageStart:1012, pages:'CG_A_12-16', search:'Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 ' },</v>
+        <v>{ id:219, template_type:'Entry', name:'Care Team Member Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.1[CG_A_12-16', name2:'Care Team Member Act (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500.1', pageStart:1012, pages:'CG_A_12-16', search:'Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;' },</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -14095,13 +14667,16 @@
         <f t="shared" si="16"/>
         <v>CG_A_17-18</v>
       </c>
+      <c r="J221" t="s">
+        <v>1290</v>
+      </c>
       <c r="K221" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 </v>
+        <v>Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;</v>
       </c>
       <c r="M221" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:220, template_type:'Entry', name:'Care Team Member Schedule Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.3[CG_A_17-18', name2:'Care Team Member Schedule Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500.3', pageStart:1017, pages:'CG_A_17-18', search:'Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 ' },</v>
+        <v>{ id:220, template_type:'Entry', name:'Care Team Member Schedule Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.3[CG_A_17-18', name2:'Care Team Member Schedule Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500.3', pageStart:1017, pages:'CG_A_17-18', search:'Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;' },</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -14128,13 +14703,16 @@
         <f t="shared" si="16"/>
         <v>CG_A_18-24</v>
       </c>
+      <c r="J222" t="s">
+        <v>1291</v>
+      </c>
       <c r="K222" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 </v>
+        <v>Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;</v>
       </c>
       <c r="M222" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:221, template_type:'Entry', name:'Care Team Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.500[CG_A_18-24', name2:'Care Team Organizer (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500', pageStart:1018, pages:'CG_A_18-24', search:'Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 ' },</v>
+        <v>{ id:221, template_type:'Entry', name:'Care Team Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.500[CG_A_18-24', name2:'Care Team Organizer (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500', pageStart:1018, pages:'CG_A_18-24', search:'Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;' },</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -14161,13 +14739,16 @@
         <f t="shared" si="16"/>
         <v>CG_A_25-26</v>
       </c>
+      <c r="J223" t="s">
+        <v>1292</v>
+      </c>
       <c r="K223" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 </v>
+        <v>Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
       </c>
       <c r="M223" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:222, template_type:'Entry', name:'Care Team Type Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.2[CG_A_25-26', name2:'Care Team Type Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500.2', pageStart:1025, pages:'CG_A_25-26', search:'Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 ' },</v>
+        <v>{ id:222, template_type:'Entry', name:'Care Team Type Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.2[CG_A_25-26', name2:'Care Team Type Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500.2', pageStart:1025, pages:'CG_A_25-26', search:'Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;' },</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -14194,13 +14775,16 @@
         <f t="shared" si="16"/>
         <v>CG_A_26-35</v>
       </c>
+      <c r="J224" t="s">
+        <v>1293</v>
+      </c>
       <c r="K224" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 </v>
+        <v>Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</v>
       </c>
       <c r="M224" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:223, template_type:'Entry', name:'Note Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.202[CG_A_26-35', name2:'Note Activity (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.202', pageStart:1026, pages:'CG_A_26-35', search:'Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 ' },</v>
+        <v>{ id:223, template_type:'Entry', name:'Note Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.202[CG_A_26-35', name2:'Note Activity (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.202', pageStart:1026, pages:'CG_A_26-35', search:'Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;' },</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -14689,13 +15273,16 @@
         <f t="shared" si="18"/>
         <v>CG_B_41-43</v>
       </c>
+      <c r="J239" t="s">
+        <v>1287</v>
+      </c>
       <c r="K239" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 </v>
+        <v>Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</v>
       </c>
       <c r="M239" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:238, template_type:'Other', name:'Serial Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.319[CG_B_41-43', name2:'Serial Number Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.319', pageStart:1141, pages:'CG_B_41-43', search:'Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 ' },</v>
+        <v>{ id:238, template_type:'Other', name:'Serial Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.319[CG_B_41-43', name2:'Serial Number Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.319', pageStart:1141, pages:'CG_B_41-43', search:'Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;' },</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -14722,13 +15309,16 @@
         <f>"CG_C_"&amp;E240-1200&amp;"-"&amp;F240-1200</f>
         <v>CG_C_5-7</v>
       </c>
+      <c r="J240" t="s">
+        <v>1287</v>
+      </c>
       <c r="K240" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Author Provenance (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 </v>
+        <v>Author Provenance (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</v>
       </c>
       <c r="M240" t="str">
         <f t="shared" si="14"/>
-        <v>{ id:239, template_type:'Other', name:'Author Provenance (Companion Guide) [2.16.840.1.113883.10.20.22.5.6[CG_C_5-7', name2:'Author Provenance (Companion Guide)', template:'2.16.840.1.113883.10.20.22.5.6', pageStart:1205, pages:'CG_C_5-7', search:'Author Provenance (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 ' },</v>
+        <v>{ id:239, template_type:'Other', name:'Author Provenance (Companion Guide) [2.16.840.1.113883.10.20.22.5.6[CG_C_5-7', name2:'Author Provenance (Companion Guide)', template:'2.16.840.1.113883.10.20.22.5.6', pageStart:1205, pages:'CG_C_5-7', search:'Author Provenance (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;' },</v>
       </c>
     </row>
   </sheetData>
@@ -14741,10 +15331,6620 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950666A2-EBFB-468C-BA88-745DCF5F6AAF}">
+  <dimension ref="A1:T96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G26" si="0">IF(A2=A1,F2)</f>
+        <v>CONF:3250-18231;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:H26" si="1">IF(A3=A1,F3)</f>
+        <v>CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" ref="I1:I26" si="2">IF(A4=A1,F4)</f>
+        <v>CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" ref="J1:J26" si="3">IF(A5=A1,F5)</f>
+        <v>CONF:3250-18124;CONF:3250-18125;</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:K26" si="4">IF(A6=A1,F6)</f>
+        <v>CONF:3250-32947;CONF:3250-32948;</v>
+      </c>
+      <c r="L1" t="b">
+        <f t="shared" ref="L1:L26" si="5">IF(A7=A1,F7)</f>
+        <v>0</v>
+      </c>
+      <c r="M1" t="b">
+        <f t="shared" ref="M1:M26" si="6">IF(A8=A1,F8)</f>
+        <v>0</v>
+      </c>
+      <c r="N1" t="b">
+        <f t="shared" ref="N1:N26" si="7">IF(A9=A1,F9)</f>
+        <v>0</v>
+      </c>
+      <c r="O1" t="b">
+        <f t="shared" ref="O1:O26" si="8">IF(A10=A1,F10)</f>
+        <v>0</v>
+      </c>
+      <c r="P1" t="b">
+        <f t="shared" ref="P1:P26" si="9">IF(A11=A1,F11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q1" t="b">
+        <f t="shared" ref="Q1:Q26" si="10">IF(A12=A1,F12)</f>
+        <v>0</v>
+      </c>
+      <c r="R1" t="b">
+        <f t="shared" ref="R1:R26" si="11">IF(A13=A1,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="S1" t="b">
+        <f t="shared" ref="S1:S26" si="12">IF(A14=A1,F14)</f>
+        <v>0</v>
+      </c>
+      <c r="T1" t="b">
+        <f t="shared" ref="T1:T26" si="13">IF(A15=A1,F15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B2">
+        <f>+IF(A2=A1,B1+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:3250-18124;CONF:3250-18125;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:3250-32947;CONF:3250-32948;</v>
+      </c>
+      <c r="K2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="14">+IF(A3=A2,B2+1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:3250-18124;CONF:3250-18125;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:3250-32947;CONF:3250-32948;</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:3250-18124;CONF:3250-18125;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:3250-32947;CONF:3250-32948;</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:3250-32947;CONF:3250-32948;</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>927</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-54;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-45;CONF:4435-66;CONF:4435-67;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-162;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-27;CONF:4435-48;CONF:4435-49;</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-62;CONF:4435-68;</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>CONF:4435-33;CONF:4435-167;CONF:4435-168;</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="6"/>
+        <v>CONF:4435-160;CONF:4435-161;</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v>CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="8"/>
+        <v>CONF:4435-171;CONF:4435-174;CONF:4435-173;</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="9"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="10"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="11"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="S7" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>927</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-45;CONF:4435-66;CONF:4435-67;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-162;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-27;CONF:4435-48;CONF:4435-49;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-62;CONF:4435-68;</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-33;CONF:4435-167;CONF:4435-168;</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>CONF:4435-160;CONF:4435-161;</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="6"/>
+        <v>CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
+        <v>CONF:4435-171;CONF:4435-174;CONF:4435-173;</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="8"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="9"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="10"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="R8" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>927</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-162;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-27;CONF:4435-48;CONF:4435-49;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-62;CONF:4435-68;</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-33;CONF:4435-167;CONF:4435-168;</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-160;CONF:4435-161;</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v>CONF:4435-171;CONF:4435-174;CONF:4435-173;</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="7"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="8"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="9"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="Q9" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-27;CONF:4435-48;CONF:4435-49;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-62;CONF:4435-68;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-33;CONF:4435-167;CONF:4435-168;</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-160;CONF:4435-161;</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>CONF:4435-171;CONF:4435-174;CONF:4435-173;</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="7"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="8"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="P10" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T10" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>927</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-62;CONF:4435-68;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-33;CONF:4435-167;CONF:4435-168;</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-160;CONF:4435-161;</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-171;CONF:4435-174;CONF:4435-173;</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="O11" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T11" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>927</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-33;CONF:4435-167;CONF:4435-168;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-160;CONF:4435-161;</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-171;CONF:4435-174;CONF:4435-173;</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="N12" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-160;CONF:4435-161;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-171;CONF:4435-174;CONF:4435-173;</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>927</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-171;CONF:4435-174;CONF:4435-173;</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>927</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-171;CONF:4435-174;CONF:4435-173;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="K15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>927</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T16" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>927</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-91;CONF:4435-92;CONF:4435-93;</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T17" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>927</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="H18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>927</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T19" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>928</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-25;</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-12;CONF:4435-18;CONF:4435-19;</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-13;CONF:4435-20;CONF:4435-21;</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-15;CONF:4435-16;CONF:4435-26;</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-11;CONF:4435-17;</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
+        <v>CONF:4435-14;</v>
+      </c>
+      <c r="M20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>928</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-12;CONF:4435-18;CONF:4435-19;</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-13;CONF:4435-20;CONF:4435-21;</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-15;CONF:4435-16;CONF:4435-26;</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-11;CONF:4435-17;</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>CONF:4435-14;</v>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T21" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>928</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-13;CONF:4435-20;CONF:4435-21;</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-15;CONF:4435-16;CONF:4435-26;</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-11;CONF:4435-17;</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>CONF:4435-14;</v>
+      </c>
+      <c r="K22" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>928</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-15;CONF:4435-16;CONF:4435-26;</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-11;CONF:4435-17;</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>CONF:4435-14;</v>
+      </c>
+      <c r="J23" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>928</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-11;CONF:4435-17;</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>CONF:4435-14;</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>928</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>CONF:4435-14;</v>
+      </c>
+      <c r="H25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T25" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>928</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>929</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(A28=A27,F28)</f>
+        <v>CONF:4435-125;</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(A29=A27,F29)</f>
+        <v>CONF:4435-112;CONF:4435-117;CONF:4435-118;</v>
+      </c>
+      <c r="I27" t="str">
+        <f>IF(A30=A27,F30)</f>
+        <v>CONF:4435-126;</v>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(A31=A27,F31)</f>
+        <v>CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;</v>
+      </c>
+      <c r="K27" t="str">
+        <f>IF(A32=A27,F32)</f>
+        <v>CONF:4435-113;CONF:4435-119;</v>
+      </c>
+      <c r="L27" t="str">
+        <f>IF(A33=A27,F33)</f>
+        <v>CONF:4435-127;CONF:4435-157;CONF:4435-158;</v>
+      </c>
+      <c r="M27" t="str">
+        <f>IF(A34=A27,F34)</f>
+        <v>CONF:4435-116;</v>
+      </c>
+      <c r="N27" t="str">
+        <f>IF(A35=A27,F35)</f>
+        <v>CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;</v>
+      </c>
+      <c r="O27" t="str">
+        <f>IF(A36=A27,F36)</f>
+        <v>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</v>
+      </c>
+      <c r="P27" t="str">
+        <f>IF(A37=A27,F37)</f>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>IF(A38=A27,F38)</f>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="R27" t="str">
+        <f>IF(A39=A27,F39)</f>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="S27" t="str">
+        <f>IF(A40=A27,F40)</f>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="T27" t="str">
+        <f>IF(A41=A27,F41)</f>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>929</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ref="G28:G83" si="15">IF(A29=A28,F29)</f>
+        <v>CONF:4435-112;CONF:4435-117;CONF:4435-118;</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" ref="H28:H83" si="16">IF(A30=A28,F30)</f>
+        <v>CONF:4435-126;</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I83" si="17">IF(A31=A28,F31)</f>
+        <v>CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ref="J28:J83" si="18">IF(A32=A28,F32)</f>
+        <v>CONF:4435-113;CONF:4435-119;</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" ref="K28:K83" si="19">IF(A33=A28,F33)</f>
+        <v>CONF:4435-127;CONF:4435-157;CONF:4435-158;</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" ref="L28:L83" si="20">IF(A34=A28,F34)</f>
+        <v>CONF:4435-116;</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" ref="M28:M83" si="21">IF(A35=A28,F35)</f>
+        <v>CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" ref="N28:N83" si="22">IF(A36=A28,F36)</f>
+        <v>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" ref="O28:O83" si="23">IF(A37=A28,F37)</f>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" ref="P28:P83" si="24">IF(A38=A28,F38)</f>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ref="Q28:Q83" si="25">IF(A39=A28,F39)</f>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" ref="R28:R83" si="26">IF(A40=A28,F40)</f>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" ref="S28:S83" si="27">IF(A41=A28,F41)</f>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="T28" t="b">
+        <f t="shared" ref="T28:T83" si="28">IF(A42=A28,F42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>929</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-126;</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-113;CONF:4435-119;</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-127;CONF:4435-157;CONF:4435-158;</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:4435-116;</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="22"/>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="23"/>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="24"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="25"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="26"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="S29" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T29" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>929</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-113;CONF:4435-119;</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-127;CONF:4435-157;CONF:4435-158;</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-116;</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="22"/>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="23"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="24"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="25"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="R30" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T30" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>929</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-113;CONF:4435-119;</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-127;CONF:4435-157;CONF:4435-158;</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-116;</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="22"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="23"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="24"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="Q31" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T31" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>929</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-127;CONF:4435-157;CONF:4435-158;</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-116;</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="22"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="23"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="P32" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R32" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S32" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T32" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>929</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-116;</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="22"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="O33" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R33" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S33" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T33" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>929</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="N34" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O34" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R34" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S34" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T34" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>929</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="M35" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O35" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T35" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>929</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-110;CONF:4435-163;</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="L36" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O36" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R36" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S36" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T36" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>929</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-146;CONF:4435-147;</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="K37" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N37" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O37" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R37" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T37" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>929</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="J38" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N38" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O38" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R38" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T38" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>929</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-150;CONF:4435-151;</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R39" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S39" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T39" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>929</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="H40" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R40" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S40" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T40" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>929</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G41" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N41" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S41" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T41" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>930</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-102;</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-99;CONF:4435-106;CONF:4435-108;</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-97;CONF:4435-103;CONF:4435-104;</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-100;CONF:4435-107;</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:4435-98;CONF:4435-109;</v>
+      </c>
+      <c r="L42" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T42" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>930</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-99;CONF:4435-106;CONF:4435-108;</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-97;CONF:4435-103;CONF:4435-104;</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-100;CONF:4435-107;</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-98;CONF:4435-109;</v>
+      </c>
+      <c r="K43" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R43" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S43" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T43" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>930</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-97;CONF:4435-103;CONF:4435-104;</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-100;CONF:4435-107;</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-98;CONF:4435-109;</v>
+      </c>
+      <c r="J44" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R44" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S44" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>930</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-100;CONF:4435-107;</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-98;CONF:4435-109;</v>
+      </c>
+      <c r="I45" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R45" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S45" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T45" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>930</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-98;CONF:4435-109;</v>
+      </c>
+      <c r="H46" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R46" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S46" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>930</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G47" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R47" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S47" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T47" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>931</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16900;</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:3250-16916;</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:3250-16903;CONF:3250-16917;</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:3250-16913;</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="22"/>
+        <v>CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="23"/>
+        <v>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="24"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="Q48" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S48" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>931</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-16916;</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:3250-16903;CONF:3250-16917;</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:3250-16913;</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="22"/>
+        <v>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="23"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="P49" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R49" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S49" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T49" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>931</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16916;</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-16903;CONF:3250-16917;</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:3250-16913;</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="22"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="O50" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R50" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S50" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T50" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>931</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16916;</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16903;CONF:3250-16917;</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-16913;</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="21"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="N51" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R51" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S51" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T51" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>931</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16916;</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16903;CONF:3250-16917;</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16913;</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="M52" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O52" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R52" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S52" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T52" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>931</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16903;CONF:3250-16917;</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16913;</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="L53" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O53" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R53" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S53" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T53" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>931</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16913;</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="K54" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O54" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R54" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S54" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T54" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>931</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="J55" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O55" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R55" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S55" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T55" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>931</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="I56" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O56" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R56" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S56" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T56" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>931</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="H57" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N57" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O57" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R57" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S57" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T57" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>931</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G58" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N58" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O58" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R58" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S58" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T58" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>932</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-32961;</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:3250-32950;CONF:3250-32954;</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="20"/>
+        <v>CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</v>
+      </c>
+      <c r="M59" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N59" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O59" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R59" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S59" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T59" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>932</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-32950;CONF:3250-32954;</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="19"/>
+        <v>CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</v>
+      </c>
+      <c r="L60" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N60" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O60" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R60" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S60" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T60" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>932</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-32950;CONF:3250-32954;</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</v>
+      </c>
+      <c r="K61" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N61" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O61" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R61" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S61" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T61" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>932</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-32950;CONF:3250-32954;</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</v>
+      </c>
+      <c r="J62" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N62" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O62" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R62" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S62" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T62" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>932</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-32950;CONF:3250-32954;</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</v>
+      </c>
+      <c r="I63" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N63" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O63" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R63" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S63" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T63" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>932</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</v>
+      </c>
+      <c r="H64" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N64" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O64" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R64" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S64" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T64" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>932</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G65" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N65" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O65" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R65" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S65" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T65" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>924</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-5;CONF:4435-9;CONF:4435-10;</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-4;</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-6;</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4435-1;CONF:4435-159;</v>
+      </c>
+      <c r="K66" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N66" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O66" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R66" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S66" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T66" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>924</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B83" si="29">+IF(A67=A66,B66+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-4;</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-6;</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4435-1;CONF:4435-159;</v>
+      </c>
+      <c r="J67" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N67" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O67" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R67" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S67" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T67" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>924</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-6;</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4435-1;CONF:4435-159;</v>
+      </c>
+      <c r="I68" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N68" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O68" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R68" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S68" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T68" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>924</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4435-1;CONF:4435-159;</v>
+      </c>
+      <c r="H69" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N69" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O69" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R69" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S69" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T69" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>924</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G70" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N70" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O70" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R70" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S70" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T70" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>925</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16892;</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16891;</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16894;</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:3250-16904;CONF:3250-16905;</v>
+      </c>
+      <c r="K71" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N71" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O71" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R71" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S71" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T71" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>925</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16891;</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16894;</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:3250-16904;CONF:3250-16905;</v>
+      </c>
+      <c r="J72" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N72" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O72" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R72" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S72" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T72" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>925</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16894;</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:3250-16904;CONF:3250-16905;</v>
+      </c>
+      <c r="I73" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N73" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O73" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R73" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S73" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T73" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>925</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:3250-16904;CONF:3250-16905;</v>
+      </c>
+      <c r="H74" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N74" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O74" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R74" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S74" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T74" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>925</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G75" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N75" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O75" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R75" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S75" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T75" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4440-40;CONF:4440-44;CONF:4440-53;</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4440-38;CONF:4440-45;CONF:4440-41;</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4440-42;</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="18"/>
+        <v>CONF:4440-39;CONF:4440-54;CONF:4440-43;CONF:4440-50;CONF:4440-51;CONF:4440-52;CONF:4440-47;</v>
+      </c>
+      <c r="K76" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N76" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O76" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R76" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S76" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T76" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4440-38;CONF:4440-45;CONF:4440-41;</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4440-42;</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="17"/>
+        <v>CONF:4440-39;CONF:4440-54;CONF:4440-43;CONF:4440-50;CONF:4440-51;CONF:4440-52;CONF:4440-47;</v>
+      </c>
+      <c r="J77" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N77" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O77" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R77" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S77" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T77" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4440-42;</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4440-39;CONF:4440-54;CONF:4440-43;CONF:4440-50;CONF:4440-51;CONF:4440-52;CONF:4440-47;</v>
+      </c>
+      <c r="I78" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N78" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O78" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R78" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S78" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T78" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4440-39;CONF:4440-54;CONF:4440-43;CONF:4440-50;CONF:4440-51;CONF:4440-52;CONF:4440-47;</v>
+      </c>
+      <c r="H79" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N79" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O79" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R79" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S79" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T79" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G80" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N80" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O80" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R80" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S80" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T80" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>933</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4440-7;</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="16"/>
+        <v>CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</v>
+      </c>
+      <c r="I81" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N81" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O81" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R81" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S81" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T81" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>933</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="15"/>
+        <v>CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</v>
+      </c>
+      <c r="H82" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N82" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O82" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R82" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S82" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T82" t="str">
+        <f t="shared" si="28"/>
+        <v>CONF:4440-6;CONF:4440-15;CONF:4440-36;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>933</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G83" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K83" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N83" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O83" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R83" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="27"/>
+        <v>CONF:4440-6;CONF:4440-15;CONF:4440-36;</v>
+      </c>
+      <c r="T83" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>926</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E86" t="str">
+        <f>F86&amp;G86&amp;H86&amp;I86&amp;J86&amp;K86&amp;L86&amp;M86&amp;N86&amp;O86&amp;P86&amp;Q86&amp;R86&amp;S86&amp;T86</f>
+        <v>CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>927</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" ref="E87:E96" si="30">F87&amp;G87&amp;H87&amp;I87&amp;J87&amp;K87&amp;L87&amp;M87&amp;N87&amp;O87&amp;P87&amp;Q87&amp;R87&amp;S87&amp;T87</f>
+        <v>CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1218</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1221</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>928</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="30"/>
+        <v>CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>929</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="30"/>
+        <v>CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1236</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1238</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1239</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1241</v>
+      </c>
+      <c r="R89" t="s">
+        <v>1242</v>
+      </c>
+      <c r="S89" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T89" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>930</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="30"/>
+        <v>CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>931</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="30"/>
+        <v>CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M91" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1260</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>932</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="30"/>
+        <v>CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>924</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="30"/>
+        <v>CONF:4435-3;CONF:4435-7;CONF:4435-8;CONF:4435-5;CONF:4435-9;CONF:4435-10;CONF:4435-4;CONF:4435-6;CONF:4435-1;CONF:4435-159;</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>925</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="30"/>
+        <v>CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="30"/>
+        <v>CONF:4440-55;CONF:4440-40;CONF:4440-44;CONF:4440-53;CONF:4440-38;CONF:4440-45;CONF:4440-41;CONF:4440-42;CONF:4440-39;CONF:4440-54;CONF:4440-43;CONF:4440-50;CONF:4440-51;CONF:4440-52;CONF:4440-47;</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>933</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="30"/>
+        <v>CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:T168">
+    <sortCondition ref="B86:B168"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB6032-5C0F-4521-92AE-0A81726C47DD}">
   <dimension ref="A1:I240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
@@ -20143,7 +27343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79E7374-245A-4438-BAF7-491F432597FE}">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Repos\ccda-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F80BF7E-0FE7-441F-8A54-519945057B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F436ABB-7915-4E93-822D-5EC39CEBDC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -6141,11 +6141,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -6505,7 +6504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M240"/>
     </sheetView>
   </sheetViews>
@@ -6585,7 +6584,7 @@
       <c r="E2">
         <v>87</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="3" t="str">
         <f>VLOOKUP(D2,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>87-101</v>
       </c>
@@ -6603,8 +6602,8 @@
         <v>Care Plan  2.16.840.1.113883.10.20.22.1.15 CONF:1198-28741;CONF:1198-28742;CONF:1198-32877;CONF:1198-32934;CONF:1198-28745;CONF:1198-32959;CONF:1198-32321;CONF:1198-32322;CONF:1198-31993;CONF:1198-31994;CONF:1198-31996;CONF:1198-31997;CONF:1198-31998;CONF:1198-31999;CONF:1198-32320;CONF:1198-32000;CONF:1198-32001;CONF:1198-32002;CONF:1198-32003;CONF:1198-31910;CONF:1198-31911;CONF:1198-31912;CONF:1198-31913;CONF:1198-31914;CONF:1198-31915;CONF:1198-31916;CONF:1198-31917;CONF:1198-31918;CONF:1198-31677;CONF:1198-31678;CONF:1198-31679;CONF:1198-31680;CONF:1198-31681;CONF:1198-31682;CONF:1198-31683;CONF:1198-31686;CONF:1198-31684;CONF:1198-31685;CONF:1198-32367;CONF:1198-31895;CONF:1198-31896;CONF:1198-31897;CONF:1198-31898;CONF:1198-31899;CONF:1198-31900;CONF:1198-31901;CONF:1198-31902;CONF:1198-31903;CONF:1198-31904;CONF:1198-32330;CONF:1198-32331;CONF:1198-31905;CONF:1198-31907;CONF:1198-31908;CONF:1198-31909;CONF:1198-32328;CONF:1198-32329;CONF:1198-29893;CONF:1198-31889;CONF:1198-29894;CONF:1198-32949;CONF:1198-29895;CONF:1198-29896;CONF:1198-32004;CONF:1198-32005;CONF:1198-32007;CONF:1198-28753;CONF:1198-28754;CONF:1198-28755;CONF:1198-28756;CONF:1198-28761;CONF:1198-28762;CONF:1198-28763;CONF:1198-28764;CONF:1198-29596;CONF:1198-29597;CONF:1198-31044</v>
       </c>
       <c r="M2" t="str">
-        <f>"{ id:"&amp;A2&amp;", template_type:'"&amp;C2&amp;"', name:'"&amp;B2&amp;" ["&amp;D2&amp;"["&amp;G2&amp;"', name2:'"&amp;B2&amp;"', template:'"&amp;D2&amp;"', pageStart:"&amp;E2&amp;", pages:'"&amp;G2&amp;"', search:'"&amp;K2&amp;"' },"</f>
-        <v>{ id:1, template_type:'Document', name:'Care Plan  [2.16.840.1.113883.10.20.22.1.15[87-101', name2:'Care Plan ', template:'2.16.840.1.113883.10.20.22.1.15', pageStart:87, pages:'87-101', search:'Care Plan  2.16.840.1.113883.10.20.22.1.15 CONF:1198-28741;CONF:1198-28742;CONF:1198-32877;CONF:1198-32934;CONF:1198-28745;CONF:1198-32959;CONF:1198-32321;CONF:1198-32322;CONF:1198-31993;CONF:1198-31994;CONF:1198-31996;CONF:1198-31997;CONF:1198-31998;CONF:1198-31999;CONF:1198-32320;CONF:1198-32000;CONF:1198-32001;CONF:1198-32002;CONF:1198-32003;CONF:1198-31910;CONF:1198-31911;CONF:1198-31912;CONF:1198-31913;CONF:1198-31914;CONF:1198-31915;CONF:1198-31916;CONF:1198-31917;CONF:1198-31918;CONF:1198-31677;CONF:1198-31678;CONF:1198-31679;CONF:1198-31680;CONF:1198-31681;CONF:1198-31682;CONF:1198-31683;CONF:1198-31686;CONF:1198-31684;CONF:1198-31685;CONF:1198-32367;CONF:1198-31895;CONF:1198-31896;CONF:1198-31897;CONF:1198-31898;CONF:1198-31899;CONF:1198-31900;CONF:1198-31901;CONF:1198-31902;CONF:1198-31903;CONF:1198-31904;CONF:1198-32330;CONF:1198-32331;CONF:1198-31905;CONF:1198-31907;CONF:1198-31908;CONF:1198-31909;CONF:1198-32328;CONF:1198-32329;CONF:1198-29893;CONF:1198-31889;CONF:1198-29894;CONF:1198-32949;CONF:1198-29895;CONF:1198-29896;CONF:1198-32004;CONF:1198-32005;CONF:1198-32007;CONF:1198-28753;CONF:1198-28754;CONF:1198-28755;CONF:1198-28756;CONF:1198-28761;CONF:1198-28762;CONF:1198-28763;CONF:1198-28764;CONF:1198-29596;CONF:1198-29597;CONF:1198-31044' },</v>
+        <f>"{ 'id': '"&amp;A2&amp;"', 'template_type': '"&amp;C2&amp;"', 'name': '"&amp;B2&amp;" ["&amp;D2&amp;"["&amp;G2&amp;"', 'name2': '"&amp;B2&amp;"', 'template': '"&amp;D2&amp;"', 'pageStart': '"&amp;E2&amp;"', 'pages': '"&amp;G2&amp;"', 'search': '"&amp;K2&amp;"' },"</f>
+        <v>{ 'id': '1', 'template_type': 'Document', 'name': 'Care Plan  [2.16.840.1.113883.10.20.22.1.15[87-101', 'name2': 'Care Plan ', 'template': '2.16.840.1.113883.10.20.22.1.15', 'pageStart': '87', 'pages': '87-101', 'search': 'Care Plan  2.16.840.1.113883.10.20.22.1.15 CONF:1198-28741;CONF:1198-28742;CONF:1198-32877;CONF:1198-32934;CONF:1198-28745;CONF:1198-32959;CONF:1198-32321;CONF:1198-32322;CONF:1198-31993;CONF:1198-31994;CONF:1198-31996;CONF:1198-31997;CONF:1198-31998;CONF:1198-31999;CONF:1198-32320;CONF:1198-32000;CONF:1198-32001;CONF:1198-32002;CONF:1198-32003;CONF:1198-31910;CONF:1198-31911;CONF:1198-31912;CONF:1198-31913;CONF:1198-31914;CONF:1198-31915;CONF:1198-31916;CONF:1198-31917;CONF:1198-31918;CONF:1198-31677;CONF:1198-31678;CONF:1198-31679;CONF:1198-31680;CONF:1198-31681;CONF:1198-31682;CONF:1198-31683;CONF:1198-31686;CONF:1198-31684;CONF:1198-31685;CONF:1198-32367;CONF:1198-31895;CONF:1198-31896;CONF:1198-31897;CONF:1198-31898;CONF:1198-31899;CONF:1198-31900;CONF:1198-31901;CONF:1198-31902;CONF:1198-31903;CONF:1198-31904;CONF:1198-32330;CONF:1198-32331;CONF:1198-31905;CONF:1198-31907;CONF:1198-31908;CONF:1198-31909;CONF:1198-32328;CONF:1198-32329;CONF:1198-29893;CONF:1198-31889;CONF:1198-29894;CONF:1198-32949;CONF:1198-29895;CONF:1198-29896;CONF:1198-32004;CONF:1198-32005;CONF:1198-32007;CONF:1198-28753;CONF:1198-28754;CONF:1198-28755;CONF:1198-28756;CONF:1198-28761;CONF:1198-28762;CONF:1198-28763;CONF:1198-28764;CONF:1198-29596;CONF:1198-29597;CONF:1198-31044' },</v>
       </c>
       <c r="N2" t="str">
         <f>"'"&amp;D2&amp;"',"</f>
@@ -6624,10 +6623,10 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>101</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="3" t="str">
         <f>VLOOKUP(D3,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>101-117</v>
       </c>
@@ -6645,8 +6644,8 @@
         <v>Consultation Note   2.16.840.1.113883.10.20.22.1.4 CONF:1198-8375;CONF:1198-10040;CONF:1198-32502;CONF:1198-32935;CONF:1198-17176;CONF:1198-31656;CONF:1198-31657;CONF:1198-31658;CONF:1198-31659;CONF:1198-31660;CONF:1198-31661;CONF:1198-31662;CONF:1198-31663;CONF:1198-31664;CONF:1198-31665;CONF:1198-8382;CONF:1198-29923;CONF:1198-29924;CONF:1198-8386;CONF:1198-8387;CONF:1198-8388;CONF:1198-8389;CONF:1198-8391;CONF:1198-32904;CONF:1198-32905;CONF:1198-8392;CONF:1198-32902;CONF:1198-32906;CONF:1198-8397;CONF:1198-28895;CONF:1198-28896;CONF:1198-28897;CONF:1198-28898;CONF:1198-28899;CONF:1198-28900;CONF:1198-28901;CONF:1198-28904;CONF:1198-28905;CONF:1198-28906;CONF:1198-28907;CONF:1198-28908;CONF:1198-28909;CONF:1198-28910;CONF:1198-28911;CONF:1198-28912;CONF:1198-28913;CONF:1198-28915;CONF:1198-28916;CONF:1198-28917;CONF:1198-28918;CONF:1198-28919;CONF:1198-28920;CONF:1198-28921;CONF:1198-28922;CONF:1198-28923;CONF:1198-28924;CONF:1198-28925;CONF:1198-28926;CONF:1198-28928;CONF:1198-28929;CONF:1198-28930;CONF:1198-28931;CONF:1198-28932;CONF:1198-28933;CONF:1198-28934;CONF:1198-28935;CONF:1198-28936;CONF:1198-28937;CONF:1198-28942;CONF:1198-28943;CONF:1198-28944;CONF:1198-28945;CONF:1198-30237;CONF:1198-30238;CONF:1198-30904;CONF:1198-30905;CONF:1198-30906;CONF:1198-30907;CONF:1198-30909;CONF:1198-30910;CONF:1198-28939;CONF:1198-28940;CONF:1198-9504;CONF:1198-9501</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="1">"{ id:"&amp;A3&amp;", template_type:'"&amp;C3&amp;"', name:'"&amp;B3&amp;" ["&amp;D3&amp;"["&amp;G3&amp;"', name2:'"&amp;B3&amp;"', template:'"&amp;D3&amp;"', pageStart:"&amp;E3&amp;", pages:'"&amp;G3&amp;"', search:'"&amp;K3&amp;"' },"</f>
-        <v>{ id:2, template_type:'Document', name:'Consultation Note   [2.16.840.1.113883.10.20.22.1.4[101-117', name2:'Consultation Note  ', template:'2.16.840.1.113883.10.20.22.1.4', pageStart:101, pages:'101-117', search:'Consultation Note   2.16.840.1.113883.10.20.22.1.4 CONF:1198-8375;CONF:1198-10040;CONF:1198-32502;CONF:1198-32935;CONF:1198-17176;CONF:1198-31656;CONF:1198-31657;CONF:1198-31658;CONF:1198-31659;CONF:1198-31660;CONF:1198-31661;CONF:1198-31662;CONF:1198-31663;CONF:1198-31664;CONF:1198-31665;CONF:1198-8382;CONF:1198-29923;CONF:1198-29924;CONF:1198-8386;CONF:1198-8387;CONF:1198-8388;CONF:1198-8389;CONF:1198-8391;CONF:1198-32904;CONF:1198-32905;CONF:1198-8392;CONF:1198-32902;CONF:1198-32906;CONF:1198-8397;CONF:1198-28895;CONF:1198-28896;CONF:1198-28897;CONF:1198-28898;CONF:1198-28899;CONF:1198-28900;CONF:1198-28901;CONF:1198-28904;CONF:1198-28905;CONF:1198-28906;CONF:1198-28907;CONF:1198-28908;CONF:1198-28909;CONF:1198-28910;CONF:1198-28911;CONF:1198-28912;CONF:1198-28913;CONF:1198-28915;CONF:1198-28916;CONF:1198-28917;CONF:1198-28918;CONF:1198-28919;CONF:1198-28920;CONF:1198-28921;CONF:1198-28922;CONF:1198-28923;CONF:1198-28924;CONF:1198-28925;CONF:1198-28926;CONF:1198-28928;CONF:1198-28929;CONF:1198-28930;CONF:1198-28931;CONF:1198-28932;CONF:1198-28933;CONF:1198-28934;CONF:1198-28935;CONF:1198-28936;CONF:1198-28937;CONF:1198-28942;CONF:1198-28943;CONF:1198-28944;CONF:1198-28945;CONF:1198-30237;CONF:1198-30238;CONF:1198-30904;CONF:1198-30905;CONF:1198-30906;CONF:1198-30907;CONF:1198-30909;CONF:1198-30910;CONF:1198-28939;CONF:1198-28940;CONF:1198-9504;CONF:1198-9501' },</v>
+        <f t="shared" ref="M3:M66" si="1">"{ 'id': '"&amp;A3&amp;"', 'template_type': '"&amp;C3&amp;"', 'name': '"&amp;B3&amp;" ["&amp;D3&amp;"["&amp;G3&amp;"', 'name2': '"&amp;B3&amp;"', 'template': '"&amp;D3&amp;"', 'pageStart': '"&amp;E3&amp;"', 'pages': '"&amp;G3&amp;"', 'search': '"&amp;K3&amp;"' },"</f>
+        <v>{ 'id': '2', 'template_type': 'Document', 'name': 'Consultation Note   [2.16.840.1.113883.10.20.22.1.4[101-117', 'name2': 'Consultation Note  ', 'template': '2.16.840.1.113883.10.20.22.1.4', 'pageStart': '101', 'pages': '101-117', 'search': 'Consultation Note   2.16.840.1.113883.10.20.22.1.4 CONF:1198-8375;CONF:1198-10040;CONF:1198-32502;CONF:1198-32935;CONF:1198-17176;CONF:1198-31656;CONF:1198-31657;CONF:1198-31658;CONF:1198-31659;CONF:1198-31660;CONF:1198-31661;CONF:1198-31662;CONF:1198-31663;CONF:1198-31664;CONF:1198-31665;CONF:1198-8382;CONF:1198-29923;CONF:1198-29924;CONF:1198-8386;CONF:1198-8387;CONF:1198-8388;CONF:1198-8389;CONF:1198-8391;CONF:1198-32904;CONF:1198-32905;CONF:1198-8392;CONF:1198-32902;CONF:1198-32906;CONF:1198-8397;CONF:1198-28895;CONF:1198-28896;CONF:1198-28897;CONF:1198-28898;CONF:1198-28899;CONF:1198-28900;CONF:1198-28901;CONF:1198-28904;CONF:1198-28905;CONF:1198-28906;CONF:1198-28907;CONF:1198-28908;CONF:1198-28909;CONF:1198-28910;CONF:1198-28911;CONF:1198-28912;CONF:1198-28913;CONF:1198-28915;CONF:1198-28916;CONF:1198-28917;CONF:1198-28918;CONF:1198-28919;CONF:1198-28920;CONF:1198-28921;CONF:1198-28922;CONF:1198-28923;CONF:1198-28924;CONF:1198-28925;CONF:1198-28926;CONF:1198-28928;CONF:1198-28929;CONF:1198-28930;CONF:1198-28931;CONF:1198-28932;CONF:1198-28933;CONF:1198-28934;CONF:1198-28935;CONF:1198-28936;CONF:1198-28937;CONF:1198-28942;CONF:1198-28943;CONF:1198-28944;CONF:1198-28945;CONF:1198-30237;CONF:1198-30238;CONF:1198-30904;CONF:1198-30905;CONF:1198-30906;CONF:1198-30907;CONF:1198-30909;CONF:1198-30910;CONF:1198-28939;CONF:1198-28940;CONF:1198-9504;CONF:1198-9501' },</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N66" si="2">"'"&amp;D3&amp;"',"</f>
@@ -6666,10 +6665,10 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>117</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <f>VLOOKUP(D4,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>117-127</v>
       </c>
@@ -6688,7 +6687,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:3, template_type:'Document', name:'Continuity of Care Document (CCD)   [2.16.840.1.113883.10.20.22.1.2[117-127', name2:'Continuity of Care Document (CCD)  ', template:'2.16.840.1.113883.10.20.22.1.2', pageStart:117, pages:'117-127', search:'Continuity of Care Document (CCD)   2.16.840.1.113883.10.20.22.1.2 CONF:1198-8450;CONF:1198-10038;CONF:1198-32516;CONF:1198-32936;CONF:1198-17180;CONF:1198-17181;CONF:1198-32138;CONF:1198-9442;CONF:1198-9443;CONF:1198-8456;CONF:1198-8457;CONF:1198-8452;CONF:1198-8480;CONF:1198-8453;CONF:1198-8481;CONF:1198-8454;CONF:1198-8455;CONF:1198-8482;CONF:1198-8458;CONF:1198-8459;CONF:1198-30882;CONF:1198-32466;CONF:1198-32467;CONF:1198-30659;CONF:1198-30660;CONF:1198-30661;CONF:1198-30662;CONF:1198-30663;CONF:1198-30664;CONF:1198-30665;CONF:1198-30666;CONF:1198-30667;CONF:1198-30668;CONF:1198-30669;CONF:1198-30670;CONF:1198-30671;CONF:1198-30672;CONF:1198-30673;CONF:1198-30674;CONF:1198-30675;CONF:1198-30676;CONF:1198-30677;CONF:1198-30678;CONF:1198-30679;CONF:1198-30680;CONF:1198-30681;CONF:1198-30682;CONF:1198-30683;CONF:1198-30684;CONF:1198-30685;CONF:1198-30686;CONF:1198-30687;CONF:1198-30688;CONF:1198-30689;CONF:1198-30690;CONF:1198-32143;CONF:1198-32144;CONF:1198-32624;CONF:1198-32625' },</v>
+        <v>{ 'id': '3', 'template_type': 'Document', 'name': 'Continuity of Care Document (CCD)   [2.16.840.1.113883.10.20.22.1.2[117-127', 'name2': 'Continuity of Care Document (CCD)  ', 'template': '2.16.840.1.113883.10.20.22.1.2', 'pageStart': '117', 'pages': '117-127', 'search': 'Continuity of Care Document (CCD)   2.16.840.1.113883.10.20.22.1.2 CONF:1198-8450;CONF:1198-10038;CONF:1198-32516;CONF:1198-32936;CONF:1198-17180;CONF:1198-17181;CONF:1198-32138;CONF:1198-9442;CONF:1198-9443;CONF:1198-8456;CONF:1198-8457;CONF:1198-8452;CONF:1198-8480;CONF:1198-8453;CONF:1198-8481;CONF:1198-8454;CONF:1198-8455;CONF:1198-8482;CONF:1198-8458;CONF:1198-8459;CONF:1198-30882;CONF:1198-32466;CONF:1198-32467;CONF:1198-30659;CONF:1198-30660;CONF:1198-30661;CONF:1198-30662;CONF:1198-30663;CONF:1198-30664;CONF:1198-30665;CONF:1198-30666;CONF:1198-30667;CONF:1198-30668;CONF:1198-30669;CONF:1198-30670;CONF:1198-30671;CONF:1198-30672;CONF:1198-30673;CONF:1198-30674;CONF:1198-30675;CONF:1198-30676;CONF:1198-30677;CONF:1198-30678;CONF:1198-30679;CONF:1198-30680;CONF:1198-30681;CONF:1198-30682;CONF:1198-30683;CONF:1198-30684;CONF:1198-30685;CONF:1198-30686;CONF:1198-30687;CONF:1198-30688;CONF:1198-30689;CONF:1198-30690;CONF:1198-32143;CONF:1198-32144;CONF:1198-32624;CONF:1198-32625' },</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
@@ -6708,10 +6707,10 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>127</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="G5" s="3" t="str">
         <f>VLOOKUP(D5,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>127-139</v>
       </c>
@@ -6730,7 +6729,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:4, template_type:'Document', name:'Diagnostic Imaging Report   [2.16.840.1.113883.10.20.22.1.5[127-139', name2:'Diagnostic Imaging Report  ', template:'2.16.840.1.113883.10.20.22.1.5', pageStart:127, pages:'127-139', search:'Diagnostic Imaging Report   2.16.840.1.113883.10.20.22.1.5 CONF:1198-8404;CONF:1198-10042;CONF:1198-32515;CONF:1198-32937;CONF:1198-30932;CONF:1198-30933;CONF:1198-30934;CONF:1198-30935;CONF:1198-14833;CONF:1198-14834;CONF:1198-8410;CONF:1198-8411;CONF:1198-8412;CONF:1198-8413;CONF:1198-8414;CONF:1198-31198;CONF:1198-31199;CONF:1198-31200;CONF:1198-30936;CONF:1198-30937;CONF:1198-30938;CONF:1198-8416;CONF:1198-8431;CONF:1198-8430;CONF:1198-8418;CONF:1198-8419;CONF:1198-8420;CONF:1198-8422;CONF:1198-8432;CONF:1198-32089;CONF:1198-32090;CONF:1198-10031;CONF:1198-10032;CONF:1198-8433;CONF:1198-30939;CONF:1198-30940;CONF:1198-30941;CONF:1198-30942;CONF:1198-30943;CONF:1198-30945;CONF:1198-30946;CONF:1198-30947;CONF:1198-30948;CONF:1198-14907;CONF:1198-30695;CONF:1198-30696;CONF:1198-30697;CONF:1198-30698;CONF:1198-30699;CONF:1198-31206;CONF:1198-31055;CONF:1198-31056;CONF:1198-31057;CONF:1198-31207;CONF:1198-31058;CONF:1198-31059;CONF:1198-31060;CONF:1198-31061;CONF:1198-31062;CONF:1198-31215;CONF:1198-31216;CONF:1198-31217;CONF:1198-31218;CONF:1198-31213;CONF:1198-31214;CONF:1198-31357;CONF:1198-31358;CONF:1198-31359;CONF:1198-31360;CONF:1198-31361;CONF:1198-31362;CONF:1198-31363;CONF:1198-31364;CONF:1198-31208;CONF:1198-31210;CONF:1198-31211;CONF:1198-31212' },</v>
+        <v>{ 'id': '4', 'template_type': 'Document', 'name': 'Diagnostic Imaging Report   [2.16.840.1.113883.10.20.22.1.5[127-139', 'name2': 'Diagnostic Imaging Report  ', 'template': '2.16.840.1.113883.10.20.22.1.5', 'pageStart': '127', 'pages': '127-139', 'search': 'Diagnostic Imaging Report   2.16.840.1.113883.10.20.22.1.5 CONF:1198-8404;CONF:1198-10042;CONF:1198-32515;CONF:1198-32937;CONF:1198-30932;CONF:1198-30933;CONF:1198-30934;CONF:1198-30935;CONF:1198-14833;CONF:1198-14834;CONF:1198-8410;CONF:1198-8411;CONF:1198-8412;CONF:1198-8413;CONF:1198-8414;CONF:1198-31198;CONF:1198-31199;CONF:1198-31200;CONF:1198-30936;CONF:1198-30937;CONF:1198-30938;CONF:1198-8416;CONF:1198-8431;CONF:1198-8430;CONF:1198-8418;CONF:1198-8419;CONF:1198-8420;CONF:1198-8422;CONF:1198-8432;CONF:1198-32089;CONF:1198-32090;CONF:1198-10031;CONF:1198-10032;CONF:1198-8433;CONF:1198-30939;CONF:1198-30940;CONF:1198-30941;CONF:1198-30942;CONF:1198-30943;CONF:1198-30945;CONF:1198-30946;CONF:1198-30947;CONF:1198-30948;CONF:1198-14907;CONF:1198-30695;CONF:1198-30696;CONF:1198-30697;CONF:1198-30698;CONF:1198-30699;CONF:1198-31206;CONF:1198-31055;CONF:1198-31056;CONF:1198-31057;CONF:1198-31207;CONF:1198-31058;CONF:1198-31059;CONF:1198-31060;CONF:1198-31061;CONF:1198-31062;CONF:1198-31215;CONF:1198-31216;CONF:1198-31217;CONF:1198-31218;CONF:1198-31213;CONF:1198-31214;CONF:1198-31357;CONF:1198-31358;CONF:1198-31359;CONF:1198-31360;CONF:1198-31361;CONF:1198-31362;CONF:1198-31363;CONF:1198-31364;CONF:1198-31208;CONF:1198-31210;CONF:1198-31211;CONF:1198-31212' },</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
@@ -6750,10 +6749,10 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>139</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="G6" s="3" t="str">
         <f>VLOOKUP(D6,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>139-153</v>
       </c>
@@ -6772,7 +6771,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:5, template_type:'Document', name:'Discharge Summary  [2.16.840.1.113883.10.20.22.1.8[139-153', name2:'Discharge Summary ', template:'2.16.840.1.113883.10.20.22.1.8', pageStart:139, pages:'139-153', search:'Discharge Summary  2.16.840.1.113883.10.20.22.1.8 CONF:1198-8463;CONF:1198-10044;CONF:1198-32517;CONF:1198-32938;CONF:1198-17178;CONF:1198-17179;CONF:1198-8467;CONF:1198-8469;CONF:1198-8471;CONF:1198-8472;CONF:1198-32611;CONF:1198-8473;CONF:1198-8475;CONF:1198-8476;CONF:1198-8479;CONF:1198-32613;CONF:1198-32898;CONF:1198-8478;CONF:1198-32615;CONF:1198-32899;CONF:1198-9539;CONF:1198-30518;CONF:1198-30519;CONF:1198-30520;CONF:1198-30521;CONF:1198-30522;CONF:1198-30523;CONF:1198-30524;CONF:1198-30525;CONF:1198-30526;CONF:1198-30527;CONF:1198-30528;CONF:1198-30529;CONF:1198-30530;CONF:1198-30531;CONF:1198-30532;CONF:1198-30533;CONF:1198-30534;CONF:1198-30535;CONF:1198-30536;CONF:1198-30537;CONF:1198-30538;CONF:1198-30539;CONF:1198-30540;CONF:1198-30541;CONF:1198-30542;CONF:1198-30543;CONF:1198-30544;CONF:1198-30545;CONF:1198-30546;CONF:1198-30547;CONF:1198-30548;CONF:1198-30549;CONF:1198-30550;CONF:1198-30551;CONF:1198-30552;CONF:1198-30553;CONF:1198-30554;CONF:1198-30555;CONF:1198-30556;CONF:1198-30557;CONF:1198-30558;CONF:1198-30559;CONF:1198-30560;CONF:1198-30561;CONF:1198-30562;CONF:1198-30563;CONF:1198-30564;CONF:1198-30565;CONF:1198-30566;CONF:1198-30567;CONF:1198-30568;CONF:1198-31586;CONF:1198-31587;CONF:1198-30569' },</v>
+        <v>{ 'id': '5', 'template_type': 'Document', 'name': 'Discharge Summary  [2.16.840.1.113883.10.20.22.1.8[139-153', 'name2': 'Discharge Summary ', 'template': '2.16.840.1.113883.10.20.22.1.8', 'pageStart': '139', 'pages': '139-153', 'search': 'Discharge Summary  2.16.840.1.113883.10.20.22.1.8 CONF:1198-8463;CONF:1198-10044;CONF:1198-32517;CONF:1198-32938;CONF:1198-17178;CONF:1198-17179;CONF:1198-8467;CONF:1198-8469;CONF:1198-8471;CONF:1198-8472;CONF:1198-32611;CONF:1198-8473;CONF:1198-8475;CONF:1198-8476;CONF:1198-8479;CONF:1198-32613;CONF:1198-32898;CONF:1198-8478;CONF:1198-32615;CONF:1198-32899;CONF:1198-9539;CONF:1198-30518;CONF:1198-30519;CONF:1198-30520;CONF:1198-30521;CONF:1198-30522;CONF:1198-30523;CONF:1198-30524;CONF:1198-30525;CONF:1198-30526;CONF:1198-30527;CONF:1198-30528;CONF:1198-30529;CONF:1198-30530;CONF:1198-30531;CONF:1198-30532;CONF:1198-30533;CONF:1198-30534;CONF:1198-30535;CONF:1198-30536;CONF:1198-30537;CONF:1198-30538;CONF:1198-30539;CONF:1198-30540;CONF:1198-30541;CONF:1198-30542;CONF:1198-30543;CONF:1198-30544;CONF:1198-30545;CONF:1198-30546;CONF:1198-30547;CONF:1198-30548;CONF:1198-30549;CONF:1198-30550;CONF:1198-30551;CONF:1198-30552;CONF:1198-30553;CONF:1198-30554;CONF:1198-30555;CONF:1198-30556;CONF:1198-30557;CONF:1198-30558;CONF:1198-30559;CONF:1198-30560;CONF:1198-30561;CONF:1198-30562;CONF:1198-30563;CONF:1198-30564;CONF:1198-30565;CONF:1198-30566;CONF:1198-30567;CONF:1198-30568;CONF:1198-31586;CONF:1198-31587;CONF:1198-30569' },</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
@@ -6792,10 +6791,10 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>153</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="3" t="str">
         <f>VLOOKUP(D7,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>153-164</v>
       </c>
@@ -6814,7 +6813,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:6, template_type:'Document', name:'History and Physical   [2.16.840.1.113883.10.20.22.1.3[153-164', name2:'History and Physical  ', template:'2.16.840.1.113883.10.20.22.1.3', pageStart:153, pages:'153-164', search:'History and Physical   2.16.840.1.113883.10.20.22.1.3 CONF:1198-8283;CONF:1198-10046;CONF:1198-32518;CONF:1198-32939;CONF:1198-17185;CONF:1198-17186;CONF:1198-32482;CONF:1198-32483;CONF:1198-8286;CONF:1198-8333;CONF:1198-8336;CONF:1198-8338;CONF:1198-8339;CONF:1198-8340;CONF:1198-8341;CONF:1198-8345;CONF:1198-8348;CONF:1198-8342;CONF:1198-8343;CONF:1198-8344;CONF:1198-8349;CONF:1198-30570;CONF:1198-30571;CONF:1198-30572;CONF:1198-30573;CONF:1198-30574;CONF:1198-30575;CONF:1198-30576;CONF:1198-30577;CONF:1198-30578;CONF:1198-30579;CONF:1198-30580;CONF:1198-30581;CONF:1198-30582;CONF:1198-30583;CONF:1198-30584;CONF:1198-30585;CONF:1198-30586;CONF:1198-30587;CONF:1198-30588;CONF:1198-30589;CONF:1198-30590;CONF:1198-30591;CONF:1198-30592;CONF:1198-30593;CONF:1198-31385;CONF:1198-30595;CONF:1198-30596;CONF:1198-30597;CONF:1198-30598;CONF:1198-30599;CONF:1198-30600;CONF:1198-30601;CONF:1198-30602;CONF:1198-30603;CONF:1198-30604;CONF:1198-30605;CONF:1198-30606;CONF:1198-30607;CONF:1198-30608;CONF:1198-30609;CONF:1198-30610;CONF:1198-30611;CONF:1198-30612;CONF:1198-30613;CONF:1198-30614;CONF:1198-30615;CONF:1198-30616' },</v>
+        <v>{ 'id': '6', 'template_type': 'Document', 'name': 'History and Physical   [2.16.840.1.113883.10.20.22.1.3[153-164', 'name2': 'History and Physical  ', 'template': '2.16.840.1.113883.10.20.22.1.3', 'pageStart': '153', 'pages': '153-164', 'search': 'History and Physical   2.16.840.1.113883.10.20.22.1.3 CONF:1198-8283;CONF:1198-10046;CONF:1198-32518;CONF:1198-32939;CONF:1198-17185;CONF:1198-17186;CONF:1198-32482;CONF:1198-32483;CONF:1198-8286;CONF:1198-8333;CONF:1198-8336;CONF:1198-8338;CONF:1198-8339;CONF:1198-8340;CONF:1198-8341;CONF:1198-8345;CONF:1198-8348;CONF:1198-8342;CONF:1198-8343;CONF:1198-8344;CONF:1198-8349;CONF:1198-30570;CONF:1198-30571;CONF:1198-30572;CONF:1198-30573;CONF:1198-30574;CONF:1198-30575;CONF:1198-30576;CONF:1198-30577;CONF:1198-30578;CONF:1198-30579;CONF:1198-30580;CONF:1198-30581;CONF:1198-30582;CONF:1198-30583;CONF:1198-30584;CONF:1198-30585;CONF:1198-30586;CONF:1198-30587;CONF:1198-30588;CONF:1198-30589;CONF:1198-30590;CONF:1198-30591;CONF:1198-30592;CONF:1198-30593;CONF:1198-31385;CONF:1198-30595;CONF:1198-30596;CONF:1198-30597;CONF:1198-30598;CONF:1198-30599;CONF:1198-30600;CONF:1198-30601;CONF:1198-30602;CONF:1198-30603;CONF:1198-30604;CONF:1198-30605;CONF:1198-30606;CONF:1198-30607;CONF:1198-30608;CONF:1198-30609;CONF:1198-30610;CONF:1198-30611;CONF:1198-30612;CONF:1198-30613;CONF:1198-30614;CONF:1198-30615;CONF:1198-30616' },</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
@@ -6834,10 +6833,10 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>164</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="3" t="str">
         <f>VLOOKUP(D8,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>164-176</v>
       </c>
@@ -6856,7 +6855,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:7, template_type:'Document', name:'Operative Note   [2.16.840.1.113883.10.20.22.1.7[164-176', name2:'Operative Note  ', template:'2.16.840.1.113883.10.20.22.1.7', pageStart:164, pages:'164-176', search:'Operative Note   2.16.840.1.113883.10.20.22.1.7 CONF:1198-8483;CONF:1198-10048;CONF:1198-32519;CONF:1198-32940;CONF:1198-17187;CONF:1198-17188;CONF:1198-8486;CONF:1198-8493;CONF:1198-8494;CONF:1198-8488;CONF:1198-10058;CONF:1198-10060;CONF:1198-8489;CONF:1198-8495;CONF:1198-32963;CONF:1198-10917;CONF:1198-8490;CONF:1198-32736;CONF:1198-32738;CONF:1198-32964;CONF:1198-32737;CONF:1198-32739;CONF:1198-8487;CONF:1198-32404;CONF:1198-32408;CONF:1198-32405;CONF:1198-32409;CONF:1198-32410;CONF:1198-32411;CONF:1198-9585;CONF:1198-30485;CONF:1198-30486;CONF:1198-30487;CONF:1198-30488;CONF:1198-30489;CONF:1198-30490;CONF:1198-30491;CONF:1198-30492;CONF:1198-30493;CONF:1198-30494;CONF:1198-30495;CONF:1198-30496;CONF:1198-30497;CONF:1198-30498;CONF:1198-30499;CONF:1198-30500;CONF:1198-30501;CONF:1198-30502;CONF:1198-30503;CONF:1198-30504;CONF:1198-30505;CONF:1198-30506;CONF:1198-30507;CONF:1198-30508;CONF:1198-30509;CONF:1198-30510;CONF:1198-30511;CONF:1198-30512;CONF:1198-30513;CONF:1198-30514;CONF:1198-30515;CONF:1198-30516;CONF:1198-30517' },</v>
+        <v>{ 'id': '7', 'template_type': 'Document', 'name': 'Operative Note   [2.16.840.1.113883.10.20.22.1.7[164-176', 'name2': 'Operative Note  ', 'template': '2.16.840.1.113883.10.20.22.1.7', 'pageStart': '164', 'pages': '164-176', 'search': 'Operative Note   2.16.840.1.113883.10.20.22.1.7 CONF:1198-8483;CONF:1198-10048;CONF:1198-32519;CONF:1198-32940;CONF:1198-17187;CONF:1198-17188;CONF:1198-8486;CONF:1198-8493;CONF:1198-8494;CONF:1198-8488;CONF:1198-10058;CONF:1198-10060;CONF:1198-8489;CONF:1198-8495;CONF:1198-32963;CONF:1198-10917;CONF:1198-8490;CONF:1198-32736;CONF:1198-32738;CONF:1198-32964;CONF:1198-32737;CONF:1198-32739;CONF:1198-8487;CONF:1198-32404;CONF:1198-32408;CONF:1198-32405;CONF:1198-32409;CONF:1198-32410;CONF:1198-32411;CONF:1198-9585;CONF:1198-30485;CONF:1198-30486;CONF:1198-30487;CONF:1198-30488;CONF:1198-30489;CONF:1198-30490;CONF:1198-30491;CONF:1198-30492;CONF:1198-30493;CONF:1198-30494;CONF:1198-30495;CONF:1198-30496;CONF:1198-30497;CONF:1198-30498;CONF:1198-30499;CONF:1198-30500;CONF:1198-30501;CONF:1198-30502;CONF:1198-30503;CONF:1198-30504;CONF:1198-30505;CONF:1198-30506;CONF:1198-30507;CONF:1198-30508;CONF:1198-30509;CONF:1198-30510;CONF:1198-30511;CONF:1198-30512;CONF:1198-30513;CONF:1198-30514;CONF:1198-30515;CONF:1198-30516;CONF:1198-30517' },</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
@@ -6876,10 +6875,10 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>176</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="3" t="str">
         <f>VLOOKUP(D9,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>176-192</v>
       </c>
@@ -6898,7 +6897,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:8, template_type:'Document', name:'Procedure Note   [2.16.840.1.113883.10.20.22.1.6[176-192', name2:'Procedure Note  ', template:'2.16.840.1.113883.10.20.22.1.6', pageStart:176, pages:'176-192', search:'Procedure Note   2.16.840.1.113883.10.20.22.1.6 CONF:1198-8496;CONF:1198-10050;CONF:1198-32520;CONF:1198-32941;CONF:1198-17182;CONF:1198-17183;CONF:1198-8504;CONF:1198-8505;CONF:1198-8506;CONF:1198-8507;CONF:1198-8508;CONF:1198-8510;CONF:1198-10061;CONF:1198-10062;CONF:1198-26449;CONF:1198-8513;CONF:1198-8514;CONF:1198-8515;CONF:1198-8520;CONF:1198-8521;CONF:1198-14911;CONF:1198-14912;CONF:1198-32732;CONF:1198-32734;CONF:1198-32733;CONF:1198-32735;CONF:1198-8511;CONF:1198-32412;CONF:1198-32413;CONF:1198-32414;CONF:1198-32415;CONF:1198-32416;CONF:1198-32417;CONF:1198-30871;CONF:1198-30872;CONF:1198-32395;CONF:1198-30873;CONF:1198-30874;CONF:1198-30875;CONF:1198-30876;CONF:1198-30877;CONF:1198-30878;CONF:1198-9588;CONF:1198-30352;CONF:1198-30353;CONF:1198-30387;CONF:1198-30355;CONF:1198-30356;CONF:1198-30357;CONF:1198-30358;CONF:1198-30359;CONF:1198-30360;CONF:1198-30361;CONF:1198-30362;CONF:1198-30363;CONF:1198-30364;CONF:1198-30365;CONF:1198-30366;CONF:1198-30367;CONF:1198-30368;CONF:1198-30369;CONF:1198-30370;CONF:1198-30371;CONF:1198-30372;CONF:1198-30373;CONF:1198-30374;CONF:1198-30375;CONF:1198-30376;CONF:1198-30377;CONF:1198-30378;CONF:1198-30379;CONF:1198-30380;CONF:1198-30381;CONF:1198-30382;CONF:1198-30383;CONF:1198-30384;CONF:1198-30388;CONF:1198-30389;CONF:1198-30390;CONF:1198-30391;CONF:1198-30392;CONF:1198-30393;CONF:1198-30394;CONF:1198-30395;CONF:1198-30396;CONF:1198-30397;CONF:1198-30398;CONF:1198-30399;CONF:1198-30400;CONF:1198-30401;CONF:1198-30402;CONF:1198-30403;CONF:1198-30404;CONF:1198-30405;CONF:1198-30406;CONF:1198-30407;CONF:1198-30408;CONF:1198-30409;CONF:1198-30410;CONF:1198-30411;CONF:1198-30412;CONF:1198-30414;CONF:1198-30415' },</v>
+        <v>{ 'id': '8', 'template_type': 'Document', 'name': 'Procedure Note   [2.16.840.1.113883.10.20.22.1.6[176-192', 'name2': 'Procedure Note  ', 'template': '2.16.840.1.113883.10.20.22.1.6', 'pageStart': '176', 'pages': '176-192', 'search': 'Procedure Note   2.16.840.1.113883.10.20.22.1.6 CONF:1198-8496;CONF:1198-10050;CONF:1198-32520;CONF:1198-32941;CONF:1198-17182;CONF:1198-17183;CONF:1198-8504;CONF:1198-8505;CONF:1198-8506;CONF:1198-8507;CONF:1198-8508;CONF:1198-8510;CONF:1198-10061;CONF:1198-10062;CONF:1198-26449;CONF:1198-8513;CONF:1198-8514;CONF:1198-8515;CONF:1198-8520;CONF:1198-8521;CONF:1198-14911;CONF:1198-14912;CONF:1198-32732;CONF:1198-32734;CONF:1198-32733;CONF:1198-32735;CONF:1198-8511;CONF:1198-32412;CONF:1198-32413;CONF:1198-32414;CONF:1198-32415;CONF:1198-32416;CONF:1198-32417;CONF:1198-30871;CONF:1198-30872;CONF:1198-32395;CONF:1198-30873;CONF:1198-30874;CONF:1198-30875;CONF:1198-30876;CONF:1198-30877;CONF:1198-30878;CONF:1198-9588;CONF:1198-30352;CONF:1198-30353;CONF:1198-30387;CONF:1198-30355;CONF:1198-30356;CONF:1198-30357;CONF:1198-30358;CONF:1198-30359;CONF:1198-30360;CONF:1198-30361;CONF:1198-30362;CONF:1198-30363;CONF:1198-30364;CONF:1198-30365;CONF:1198-30366;CONF:1198-30367;CONF:1198-30368;CONF:1198-30369;CONF:1198-30370;CONF:1198-30371;CONF:1198-30372;CONF:1198-30373;CONF:1198-30374;CONF:1198-30375;CONF:1198-30376;CONF:1198-30377;CONF:1198-30378;CONF:1198-30379;CONF:1198-30380;CONF:1198-30381;CONF:1198-30382;CONF:1198-30383;CONF:1198-30384;CONF:1198-30388;CONF:1198-30389;CONF:1198-30390;CONF:1198-30391;CONF:1198-30392;CONF:1198-30393;CONF:1198-30394;CONF:1198-30395;CONF:1198-30396;CONF:1198-30397;CONF:1198-30398;CONF:1198-30399;CONF:1198-30400;CONF:1198-30401;CONF:1198-30402;CONF:1198-30403;CONF:1198-30404;CONF:1198-30405;CONF:1198-30406;CONF:1198-30407;CONF:1198-30408;CONF:1198-30409;CONF:1198-30410;CONF:1198-30411;CONF:1198-30412;CONF:1198-30414;CONF:1198-30415' },</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
@@ -6918,10 +6917,10 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>192</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="3" t="str">
         <f>VLOOKUP(D10,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>192-202</v>
       </c>
@@ -6940,7 +6939,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:9, template_type:'Document', name:'Progress Note  [2.16.840.1.113883.10.20.22.1.9[192-202', name2:'Progress Note ', template:'2.16.840.1.113883.10.20.22.1.9', pageStart:192, pages:'192-202', search:'Progress Note  2.16.840.1.113883.10.20.22.1.9 CONF:1198-7588;CONF:1198-10052;CONF:1198-32521;CONF:1198-32942;CONF:1198-17189;CONF:1198-17190;CONF:1198-7603;CONF:1198-7604;CONF:1198-26420;CONF:1198-9480;CONF:1198-10068;CONF:1198-9481;CONF:1198-9482;CONF:1198-10066;CONF:1198-7595;CONF:1198-7596;CONF:1198-7597;CONF:1198-7598;CONF:1198-7599;CONF:1198-30879;CONF:1198-30880;CONF:1198-30881;CONF:1198-9591;CONF:1198-30617;CONF:1198-30618;CONF:1198-30619;CONF:1198-30620;CONF:1198-30621;CONF:1198-30622;CONF:1198-30623;CONF:1198-30624;CONF:1198-30625;CONF:1198-30626;CONF:1198-30627;CONF:1198-30628;CONF:1198-30629;CONF:1198-30639;CONF:1198-31386;CONF:1198-30641;CONF:1198-30642;CONF:1198-30643;CONF:1198-30644;CONF:1198-30645;CONF:1198-30646;CONF:1198-30647;CONF:1198-30648;CONF:1198-30649;CONF:1198-30650;CONF:1198-30651;CONF:1198-30652;CONF:1198-30653;CONF:1198-30654;CONF:1198-30655;CONF:1198-30656;CONF:1198-32626;CONF:1198-32627;CONF:1198-30657;CONF:1198-30658' },</v>
+        <v>{ 'id': '9', 'template_type': 'Document', 'name': 'Progress Note  [2.16.840.1.113883.10.20.22.1.9[192-202', 'name2': 'Progress Note ', 'template': '2.16.840.1.113883.10.20.22.1.9', 'pageStart': '192', 'pages': '192-202', 'search': 'Progress Note  2.16.840.1.113883.10.20.22.1.9 CONF:1198-7588;CONF:1198-10052;CONF:1198-32521;CONF:1198-32942;CONF:1198-17189;CONF:1198-17190;CONF:1198-7603;CONF:1198-7604;CONF:1198-26420;CONF:1198-9480;CONF:1198-10068;CONF:1198-9481;CONF:1198-9482;CONF:1198-10066;CONF:1198-7595;CONF:1198-7596;CONF:1198-7597;CONF:1198-7598;CONF:1198-7599;CONF:1198-30879;CONF:1198-30880;CONF:1198-30881;CONF:1198-9591;CONF:1198-30617;CONF:1198-30618;CONF:1198-30619;CONF:1198-30620;CONF:1198-30621;CONF:1198-30622;CONF:1198-30623;CONF:1198-30624;CONF:1198-30625;CONF:1198-30626;CONF:1198-30627;CONF:1198-30628;CONF:1198-30629;CONF:1198-30639;CONF:1198-31386;CONF:1198-30641;CONF:1198-30642;CONF:1198-30643;CONF:1198-30644;CONF:1198-30645;CONF:1198-30646;CONF:1198-30647;CONF:1198-30648;CONF:1198-30649;CONF:1198-30650;CONF:1198-30651;CONF:1198-30652;CONF:1198-30653;CONF:1198-30654;CONF:1198-30655;CONF:1198-30656;CONF:1198-32626;CONF:1198-32627;CONF:1198-30657;CONF:1198-30658' },</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
@@ -6960,10 +6959,10 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>202</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G11" s="3" t="str">
         <f>VLOOKUP(D11,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>202-215</v>
       </c>
@@ -6982,7 +6981,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:10, template_type:'Document', name:'Referral Note  [2.16.840.1.113883.10.20.22.1.14[202-215', name2:'Referral Note ', template:'2.16.840.1.113883.10.20.22.1.14', pageStart:202, pages:'202-215', search:'Referral Note  2.16.840.1.113883.10.20.22.1.14 CONF:1198-28947;CONF:1198-28948;CONF:1198-32911;CONF:1198-32943;CONF:1198-28949;CONF:1198-31589;CONF:1198-31590;CONF:1198-31591;CONF:1198-31592;CONF:1198-31593;CONF:1198-31594;CONF:1198-31642;CONF:1198-31924;CONF:1198-31643;CONF:1198-31925;CONF:1198-31644;CONF:1198-31645;CONF:1198-31647;CONF:1198-31648;CONF:1198-31649;CONF:1198-32419;CONF:1198-31650;CONF:1198-31651;CONF:1198-31652;CONF:1198-31653;CONF:1198-31654;CONF:1198-31655;CONF:1198-29062;CONF:1198-29063;CONF:1198-29066;CONF:1198-29067;CONF:1198-29068;CONF:1198-29069;CONF:1198-29074;CONF:1198-29075;CONF:1198-29076;CONF:1198-29077;CONF:1198-29082;CONF:1198-29083;CONF:1198-29086;CONF:1198-29087;CONF:1198-29088;CONF:1198-29089;CONF:1198-29090;CONF:1198-29091;CONF:1198-29092;CONF:1198-29093;CONF:1198-29094;CONF:1198-29095;CONF:1198-29096;CONF:1198-29097;CONF:1198-29098;CONF:1198-29099;CONF:1198-29100;CONF:1198-29101;CONF:1198-30780;CONF:1198-30781;CONF:1198-30796;CONF:1198-30926;CONF:1198-30798;CONF:1198-30799;CONF:1198-30911;CONF:1198-30912;CONF:1198-30913;CONF:1198-30914;CONF:1198-30915;CONF:1198-30916;CONF:1198-30917;CONF:1198-30918;CONF:1198-30919;CONF:1198-30920;CONF:1198-30922;CONF:1198-30923;CONF:1198-30924;CONF:1198-30925;CONF:1198-29102;CONF:1198-29103' },</v>
+        <v>{ 'id': '10', 'template_type': 'Document', 'name': 'Referral Note  [2.16.840.1.113883.10.20.22.1.14[202-215', 'name2': 'Referral Note ', 'template': '2.16.840.1.113883.10.20.22.1.14', 'pageStart': '202', 'pages': '202-215', 'search': 'Referral Note  2.16.840.1.113883.10.20.22.1.14 CONF:1198-28947;CONF:1198-28948;CONF:1198-32911;CONF:1198-32943;CONF:1198-28949;CONF:1198-31589;CONF:1198-31590;CONF:1198-31591;CONF:1198-31592;CONF:1198-31593;CONF:1198-31594;CONF:1198-31642;CONF:1198-31924;CONF:1198-31643;CONF:1198-31925;CONF:1198-31644;CONF:1198-31645;CONF:1198-31647;CONF:1198-31648;CONF:1198-31649;CONF:1198-32419;CONF:1198-31650;CONF:1198-31651;CONF:1198-31652;CONF:1198-31653;CONF:1198-31654;CONF:1198-31655;CONF:1198-29062;CONF:1198-29063;CONF:1198-29066;CONF:1198-29067;CONF:1198-29068;CONF:1198-29069;CONF:1198-29074;CONF:1198-29075;CONF:1198-29076;CONF:1198-29077;CONF:1198-29082;CONF:1198-29083;CONF:1198-29086;CONF:1198-29087;CONF:1198-29088;CONF:1198-29089;CONF:1198-29090;CONF:1198-29091;CONF:1198-29092;CONF:1198-29093;CONF:1198-29094;CONF:1198-29095;CONF:1198-29096;CONF:1198-29097;CONF:1198-29098;CONF:1198-29099;CONF:1198-29100;CONF:1198-29101;CONF:1198-30780;CONF:1198-30781;CONF:1198-30796;CONF:1198-30926;CONF:1198-30798;CONF:1198-30799;CONF:1198-30911;CONF:1198-30912;CONF:1198-30913;CONF:1198-30914;CONF:1198-30915;CONF:1198-30916;CONF:1198-30917;CONF:1198-30918;CONF:1198-30919;CONF:1198-30920;CONF:1198-30922;CONF:1198-30923;CONF:1198-30924;CONF:1198-30925;CONF:1198-29102;CONF:1198-29103' },</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
@@ -7002,10 +7001,10 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>215</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="G12" s="3" t="str">
         <f>VLOOKUP(D12,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>215-229</v>
       </c>
@@ -7024,7 +7023,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:11, template_type:'Document', name:'Transfer Summary   [2.16.840.1.113883.10.20.22.1.13[215-229', name2:'Transfer Summary  ', template:'2.16.840.1.113883.10.20.22.1.13', pageStart:215, pages:'215-229', search:'Transfer Summary   2.16.840.1.113883.10.20.22.1.13 CONF:1198-28239;CONF:1198-28240;CONF:1198-32907;CONF:1198-32946;CONF:1198-28243;CONF:1198-29838;CONF:1198-31599;CONF:1198-31872;CONF:1198-31600;CONF:1198-31873;CONF:1198-31601;CONF:1198-31602;CONF:1198-31626;CONF:1198-31627;CONF:1198-31628;CONF:1198-31641;CONF:1198-31629;CONF:1198-31630;CONF:1198-31631;CONF:1198-31632;CONF:1198-31633;CONF:1198-31634;CONF:1198-31570;CONF:1198-31571;CONF:1198-31572;CONF:1198-32650;CONF:1198-31574;CONF:1198-31575;CONF:1198-32651;CONF:1198-28251;CONF:1198-28252;CONF:1198-28253;CONF:1198-28254;CONF:1198-28255;CONF:1198-28256;CONF:1198-28257;CONF:1198-28258;CONF:1198-28261;CONF:1198-28262;CONF:1198-28263;CONF:1198-28264;CONF:1198-28265;CONF:1198-28266;CONF:1198-28271;CONF:1198-28272;CONF:1198-28273;CONF:1198-28274;CONF:1198-28275;CONF:1198-28276;CONF:1198-28277;CONF:1198-28278;CONF:1198-28279;CONF:1198-28280;CONF:1198-28281;CONF:1198-28282;CONF:1198-28283;CONF:1198-28284;CONF:1198-28285;CONF:1198-28286;CONF:1198-28287;CONF:1198-28288;CONF:1198-28289;CONF:1198-28290;CONF:1198-28291;CONF:1198-28292;CONF:1198-28327;CONF:1198-28328;CONF:1198-28838;CONF:1198-28839;CONF:1198-30239;CONF:1198-30240;CONF:1198-30776;CONF:1198-30777;CONF:1198-31342;CONF:1198-31343;CONF:1198-31561;CONF:1198-31562;CONF:1198-31563;CONF:1198-31564;CONF:1198-31565;CONF:1198-31566;CONF:1198-31567;CONF:1198-31568;CONF:1198-32445;CONF:1198-32446;CONF:1198-32447;CONF:1198-32448;CONF:1198-32648;CONF:1198-32649;CONF:1198-31582;CONF:1198-31583' },</v>
+        <v>{ 'id': '11', 'template_type': 'Document', 'name': 'Transfer Summary   [2.16.840.1.113883.10.20.22.1.13[215-229', 'name2': 'Transfer Summary  ', 'template': '2.16.840.1.113883.10.20.22.1.13', 'pageStart': '215', 'pages': '215-229', 'search': 'Transfer Summary   2.16.840.1.113883.10.20.22.1.13 CONF:1198-28239;CONF:1198-28240;CONF:1198-32907;CONF:1198-32946;CONF:1198-28243;CONF:1198-29838;CONF:1198-31599;CONF:1198-31872;CONF:1198-31600;CONF:1198-31873;CONF:1198-31601;CONF:1198-31602;CONF:1198-31626;CONF:1198-31627;CONF:1198-31628;CONF:1198-31641;CONF:1198-31629;CONF:1198-31630;CONF:1198-31631;CONF:1198-31632;CONF:1198-31633;CONF:1198-31634;CONF:1198-31570;CONF:1198-31571;CONF:1198-31572;CONF:1198-32650;CONF:1198-31574;CONF:1198-31575;CONF:1198-32651;CONF:1198-28251;CONF:1198-28252;CONF:1198-28253;CONF:1198-28254;CONF:1198-28255;CONF:1198-28256;CONF:1198-28257;CONF:1198-28258;CONF:1198-28261;CONF:1198-28262;CONF:1198-28263;CONF:1198-28264;CONF:1198-28265;CONF:1198-28266;CONF:1198-28271;CONF:1198-28272;CONF:1198-28273;CONF:1198-28274;CONF:1198-28275;CONF:1198-28276;CONF:1198-28277;CONF:1198-28278;CONF:1198-28279;CONF:1198-28280;CONF:1198-28281;CONF:1198-28282;CONF:1198-28283;CONF:1198-28284;CONF:1198-28285;CONF:1198-28286;CONF:1198-28287;CONF:1198-28288;CONF:1198-28289;CONF:1198-28290;CONF:1198-28291;CONF:1198-28292;CONF:1198-28327;CONF:1198-28328;CONF:1198-28838;CONF:1198-28839;CONF:1198-30239;CONF:1198-30240;CONF:1198-30776;CONF:1198-30777;CONF:1198-31342;CONF:1198-31343;CONF:1198-31561;CONF:1198-31562;CONF:1198-31563;CONF:1198-31564;CONF:1198-31565;CONF:1198-31566;CONF:1198-31567;CONF:1198-31568;CONF:1198-32445;CONF:1198-32446;CONF:1198-32447;CONF:1198-32448;CONF:1198-32648;CONF:1198-32649;CONF:1198-31582;CONF:1198-31583' },</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
@@ -7044,10 +7043,10 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>229</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="G13" s="3" t="str">
         <f>VLOOKUP(D13,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>229-233</v>
       </c>
@@ -7066,7 +7065,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:12, template_type:'Document', name:'Unstructured Document   [2.16.840.1.113883.10.20.22.1.10[229-233', name2:'Unstructured Document  ', template:'2.16.840.1.113883.10.20.22.1.10', pageStart:229, pages:'229-233', search:'Unstructured Document   2.16.840.1.113883.10.20.22.1.10 CONF:1198-7710;CONF:1198-10054;CONF:1198-32522;CONF:1198-32944;CONF:1198-31089;CONF:1198-31090;CONF:1198-31091;CONF:1198-31096;CONF:1198-31097;CONF:1198-31098;CONF:1198-31085;CONF:1198-31086;CONF:1198-31087;CONF:1198-7624;CONF:1198-7623' },</v>
+        <v>{ 'id': '12', 'template_type': 'Document', 'name': 'Unstructured Document   [2.16.840.1.113883.10.20.22.1.10[229-233', 'name2': 'Unstructured Document  ', 'template': '2.16.840.1.113883.10.20.22.1.10', 'pageStart': '229', 'pages': '229-233', 'search': 'Unstructured Document   2.16.840.1.113883.10.20.22.1.10 CONF:1198-7710;CONF:1198-10054;CONF:1198-32522;CONF:1198-32944;CONF:1198-31089;CONF:1198-31090;CONF:1198-31091;CONF:1198-31096;CONF:1198-31097;CONF:1198-31098;CONF:1198-31085;CONF:1198-31086;CONF:1198-31087;CONF:1198-7624;CONF:1198-7623' },</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
@@ -7086,10 +7085,10 @@
       <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>255</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="G14" s="3" t="str">
         <f>VLOOKUP(D14,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>255-257</v>
       </c>
@@ -7108,7 +7107,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:13, template_type:'Section', name:'Admission Diagnosis Section  [2.16.840.1.113883.10.20.22.2.43[255-257', name2:'Admission Diagnosis Section ', template:'2.16.840.1.113883.10.20.22.2.43', pageStart:255, pages:'255-257', search:'Admission Diagnosis Section  2.16.840.1.113883.10.20.22.2.43 CONF:1198-9930;CONF:1198-10391;CONF:1198-32563;CONF:1198-15479;CONF:1198-15480;CONF:1198-30865;CONF:1198-32749;CONF:1198-32750;CONF:1198-32751;CONF:1198-9932;CONF:1198-9933;CONF:1198-9934;CONF:1198-15481' },</v>
+        <v>{ 'id': '13', 'template_type': 'Section', 'name': 'Admission Diagnosis Section  [2.16.840.1.113883.10.20.22.2.43[255-257', 'name2': 'Admission Diagnosis Section ', 'template': '2.16.840.1.113883.10.20.22.2.43', 'pageStart': '255', 'pages': '255-257', 'search': 'Admission Diagnosis Section  2.16.840.1.113883.10.20.22.2.43 CONF:1198-9930;CONF:1198-10391;CONF:1198-32563;CONF:1198-15479;CONF:1198-15480;CONF:1198-30865;CONF:1198-32749;CONF:1198-32750;CONF:1198-32751;CONF:1198-9932;CONF:1198-9933;CONF:1198-9934;CONF:1198-15481' },</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
@@ -7128,10 +7127,10 @@
       <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>257</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="G15" s="3" t="str">
         <f>VLOOKUP(D15,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>257-258</v>
       </c>
@@ -7150,7 +7149,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:14, template_type:'Section', name:'Admission Medications Section (entries optional)   [2.16.840.1.113883.10.20.22.2.44[257-258', name2:'Admission Medications Section (entries optional)  ', template:'2.16.840.1.113883.10.20.22.2.44', pageStart:257, pages:'257-258', search:'Admission Medications Section (entries optional)   2.16.840.1.113883.10.20.22.2.44 CONF:1198-10098;CONF:1198-10392;CONF:1198-32560;CONF:1198-15482;CONF:1198-15483;CONF:1198-32142;CONF:1198-10100;CONF:1198-10101;CONF:1198-10102;CONF:1198-15484' },</v>
+        <v>{ 'id': '14', 'template_type': 'Section', 'name': 'Admission Medications Section (entries optional)   [2.16.840.1.113883.10.20.22.2.44[257-258', 'name2': 'Admission Medications Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.44', 'pageStart': '257', 'pages': '257-258', 'search': 'Admission Medications Section (entries optional)   2.16.840.1.113883.10.20.22.2.44 CONF:1198-10098;CONF:1198-10392;CONF:1198-32560;CONF:1198-15482;CONF:1198-15483;CONF:1198-32142;CONF:1198-10100;CONF:1198-10101;CONF:1198-10102;CONF:1198-15484' },</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
@@ -7170,10 +7169,10 @@
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>258</v>
       </c>
-      <c r="G16" s="4" t="str">
+      <c r="G16" s="3" t="str">
         <f>VLOOKUP(D16,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>258-260</v>
       </c>
@@ -7192,7 +7191,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:15, template_type:'Section', name:'Advance Directives Section (entries optional)  [2.16.840.1.113883.10.20.22.2.21[258-260', name2:'Advance Directives Section (entries optional) ', template:'2.16.840.1.113883.10.20.22.2.21', pageStart:258, pages:'258-260', search:'Advance Directives Section (entries optional)  2.16.840.1.113883.10.20.22.2.21 CONF:1198-7928;CONF:1198-10376;CONF:1198-32497;CONF:1198-15340;CONF:1198-15342;CONF:1198-30812;CONF:1198-7930;CONF:1198-7931;CONF:1198-7957;CONF:1198-15443;CONF:1198-32891;CONF:1198-32892' },</v>
+        <v>{ 'id': '15', 'template_type': 'Section', 'name': 'Advance Directives Section (entries optional)  [2.16.840.1.113883.10.20.22.2.21[258-260', 'name2': 'Advance Directives Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.21', 'pageStart': '258', 'pages': '258-260', 'search': 'Advance Directives Section (entries optional)  2.16.840.1.113883.10.20.22.2.21 CONF:1198-7928;CONF:1198-10376;CONF:1198-32497;CONF:1198-15340;CONF:1198-15342;CONF:1198-30812;CONF:1198-7930;CONF:1198-7931;CONF:1198-7957;CONF:1198-15443;CONF:1198-32891;CONF:1198-32892' },</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
@@ -7212,10 +7211,10 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>260</v>
       </c>
-      <c r="G17" s="4" t="str">
+      <c r="G17" s="3" t="str">
         <f>VLOOKUP(D17,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>260-263</v>
       </c>
@@ -7234,7 +7233,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:16, template_type:'Section', name:'Advance Directives Section (entries required)  [2.16.840.1.113883.10.20.22.2.21.1[260-263', name2:'Advance Directives Section (entries required) ', template:'2.16.840.1.113883.10.20.22.2.21.1', pageStart:260, pages:'260-263', search:'Advance Directives Section (entries required)  2.16.840.1.113883.10.20.22.2.21.1 CONF:1198-32800;CONF:1198-30227;CONF:1198-30228;CONF:1198-32512;CONF:1198-32929;CONF:1198-32930;CONF:1198-32931;CONF:1198-32932;CONF:1198-32933;CONF:1198-30235;CONF:1198-30236;CONF:1198-32420;CONF:1198-32881' },</v>
+        <v>{ 'id': '16', 'template_type': 'Section', 'name': 'Advance Directives Section (entries required)  [2.16.840.1.113883.10.20.22.2.21.1[260-263', 'name2': 'Advance Directives Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.21.1', 'pageStart': '260', 'pages': '260-263', 'search': 'Advance Directives Section (entries required)  2.16.840.1.113883.10.20.22.2.21.1 CONF:1198-32800;CONF:1198-30227;CONF:1198-30228;CONF:1198-32512;CONF:1198-32929;CONF:1198-32930;CONF:1198-32931;CONF:1198-32932;CONF:1198-32933;CONF:1198-30235;CONF:1198-30236;CONF:1198-32420;CONF:1198-32881' },</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
@@ -7254,10 +7253,10 @@
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>263</v>
       </c>
-      <c r="G18" s="4" t="str">
+      <c r="G18" s="3" t="str">
         <f>VLOOKUP(D18,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>263-264</v>
       </c>
@@ -7276,7 +7275,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:17, template_type:'Section', name:'Allergies and Intolerances Section (entries optional)   [2.16.840.1.113883.10.20.22.2.6[263-264', name2:'Allergies and Intolerances Section (entries optional)  ', template:'2.16.840.1.113883.10.20.22.2.6', pageStart:263, pages:'263-264', search:'Allergies and Intolerances Section (entries optional)   2.16.840.1.113883.10.20.22.2.6 CONF:1198-7800;CONF:1198-10378;CONF:1198-32544;CONF:1198-15345;CONF:1198-15346;CONF:1198-32139;CONF:1198-7802;CONF:1198-7803;CONF:1198-7804;CONF:1198-15444' },</v>
+        <v>{ 'id': '17', 'template_type': 'Section', 'name': 'Allergies and Intolerances Section (entries optional)   [2.16.840.1.113883.10.20.22.2.6[263-264', 'name2': 'Allergies and Intolerances Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.6', 'pageStart': '263', 'pages': '263-264', 'search': 'Allergies and Intolerances Section (entries optional)   2.16.840.1.113883.10.20.22.2.6 CONF:1198-7800;CONF:1198-10378;CONF:1198-32544;CONF:1198-15345;CONF:1198-15346;CONF:1198-32139;CONF:1198-7802;CONF:1198-7803;CONF:1198-7804;CONF:1198-15444' },</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
@@ -7296,10 +7295,10 @@
       <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>264</v>
       </c>
-      <c r="G19" s="4" t="str">
+      <c r="G19" s="3" t="str">
         <f>VLOOKUP(D19,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>264-266</v>
       </c>
@@ -7318,7 +7317,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:18, template_type:'Section', name:'Allergies and Intolerances Section (entries required)  [2.16.840.1.113883.10.20.22.2.6.1[264-266', name2:'Allergies and Intolerances Section (entries required) ', template:'2.16.840.1.113883.10.20.22.2.6.1', pageStart:264, pages:'264-266', search:'Allergies and Intolerances Section (entries required)  2.16.840.1.113883.10.20.22.2.6.1 CONF:1198-32824;CONF:1198-7527;CONF:1198-10379;CONF:1198-32545;CONF:1198-15349;CONF:1198-15350;CONF:1198-32140;CONF:1198-7534;CONF:1198-7530;CONF:1198-7531;CONF:1198-15446' },</v>
+        <v>{ 'id': '18', 'template_type': 'Section', 'name': 'Allergies and Intolerances Section (entries required)  [2.16.840.1.113883.10.20.22.2.6.1[264-266', 'name2': 'Allergies and Intolerances Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.6.1', 'pageStart': '264', 'pages': '264-266', 'search': 'Allergies and Intolerances Section (entries required)  2.16.840.1.113883.10.20.22.2.6.1 CONF:1198-32824;CONF:1198-7527;CONF:1198-10379;CONF:1198-32545;CONF:1198-15349;CONF:1198-15350;CONF:1198-32140;CONF:1198-7534;CONF:1198-7530;CONF:1198-7531;CONF:1198-15446' },</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
@@ -7338,10 +7337,10 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>266</v>
       </c>
-      <c r="G20" s="4" t="str">
+      <c r="G20" s="3" t="str">
         <f>VLOOKUP(D20,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>266-269</v>
       </c>
@@ -7360,7 +7359,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:19, template_type:'Section', name:'Anesthesia Section  [2.16.840.1.113883.10.20.22.2.25[266-269', name2:'Anesthesia Section ', template:'2.16.840.1.113883.10.20.22.2.25', pageStart:266, pages:'266-269', search:'Anesthesia Section  2.16.840.1.113883.10.20.22.2.25 CONF:1098-8066;CONF:1098-10380;CONF:1098-32531;CONF:1098-15351;CONF:1098-15352;CONF:1098-30830;CONF:1098-8068;CONF:1098-8069;CONF:1098-8092;CONF:1098-15447;CONF:1098-8094;CONF:1098-31127' },</v>
+        <v>{ 'id': '19', 'template_type': 'Section', 'name': 'Anesthesia Section  [2.16.840.1.113883.10.20.22.2.25[266-269', 'name2': 'Anesthesia Section ', 'template': '2.16.840.1.113883.10.20.22.2.25', 'pageStart': '266', 'pages': '266-269', 'search': 'Anesthesia Section  2.16.840.1.113883.10.20.22.2.25 CONF:1098-8066;CONF:1098-10380;CONF:1098-32531;CONF:1098-15351;CONF:1098-15352;CONF:1098-30830;CONF:1098-8068;CONF:1098-8069;CONF:1098-8092;CONF:1098-15447;CONF:1098-8094;CONF:1098-31127' },</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
@@ -7380,10 +7379,10 @@
       <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>269</v>
       </c>
-      <c r="G21" s="4" t="str">
+      <c r="G21" s="3" t="str">
         <f>VLOOKUP(D21,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>269-270</v>
       </c>
@@ -7402,7 +7401,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:20, template_type:'Section', name:'Assessment and Plan Section   [2.16.840.1.113883.10.20.22.2.9[269-270', name2:'Assessment and Plan Section  ', template:'2.16.840.1.113883.10.20.22.2.9', pageStart:269, pages:'269-270', search:'Assessment and Plan Section   2.16.840.1.113883.10.20.22.2.9 CONF:1098-7705;CONF:1098-10381;CONF:1098-32583;CONF:1098-15353;CONF:1098-15354;CONF:1098-32141;CONF:1098-7707;CONF:1098-7708;CONF:1098-15448' },</v>
+        <v>{ 'id': '20', 'template_type': 'Section', 'name': 'Assessment and Plan Section   [2.16.840.1.113883.10.20.22.2.9[269-270', 'name2': 'Assessment and Plan Section  ', 'template': '2.16.840.1.113883.10.20.22.2.9', 'pageStart': '269', 'pages': '269-270', 'search': 'Assessment and Plan Section   2.16.840.1.113883.10.20.22.2.9 CONF:1098-7705;CONF:1098-10381;CONF:1098-32583;CONF:1098-15353;CONF:1098-15354;CONF:1098-32141;CONF:1098-7707;CONF:1098-7708;CONF:1098-15448' },</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
@@ -7422,10 +7421,10 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>270</v>
       </c>
-      <c r="G22" s="4" t="str">
+      <c r="G22" s="3" t="str">
         <f>VLOOKUP(D22,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>270-272</v>
       </c>
@@ -7444,7 +7443,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:21, template_type:'Section', name:'Assessment Section  [2.16.840.1.113883.10.20.22.2.8[270-272', name2:'Assessment Section ', template:'2.16.840.1.113883.10.20.22.2.8', pageStart:270, pages:'270-272', search:'Assessment Section  2.16.840.1.113883.10.20.22.2.8 CONF:81-7711;CONF:81-10382;CONF:81-14757;CONF:81-14758;CONF:81-26472;CONF:81-16774;CONF:81-7713' },</v>
+        <v>{ 'id': '21', 'template_type': 'Section', 'name': 'Assessment Section  [2.16.840.1.113883.10.20.22.2.8[270-272', 'name2': 'Assessment Section ', 'template': '2.16.840.1.113883.10.20.22.2.8', 'pageStart': '270', 'pages': '270-272', 'search': 'Assessment Section  2.16.840.1.113883.10.20.22.2.8 CONF:81-7711;CONF:81-10382;CONF:81-14757;CONF:81-14758;CONF:81-26472;CONF:81-16774;CONF:81-7713' },</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
@@ -7464,10 +7463,10 @@
       <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>272</v>
       </c>
-      <c r="G23" s="4" t="str">
+      <c r="G23" s="3" t="str">
         <f>VLOOKUP(D23,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>272-273</v>
       </c>
@@ -7486,7 +7485,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:22, template_type:'Section', name:'Chief Complaint and Reason for Visit Section  [2.16.840.1.113883.10.20.22.2.13[272-273', name2:'Chief Complaint and Reason for Visit Section ', template:'2.16.840.1.113883.10.20.22.2.13', pageStart:272, pages:'272-273', search:'Chief Complaint and Reason for Visit Section  2.16.840.1.113883.10.20.22.2.13 CONF:81-7840;CONF:81-10383;CONF:81-15449;CONF:81-15450;CONF:81-26473;CONF:81-7842;CONF:81-7843' },</v>
+        <v>{ 'id': '22', 'template_type': 'Section', 'name': 'Chief Complaint and Reason for Visit Section  [2.16.840.1.113883.10.20.22.2.13[272-273', 'name2': 'Chief Complaint and Reason for Visit Section ', 'template': '2.16.840.1.113883.10.20.22.2.13', 'pageStart': '272', 'pages': '272-273', 'search': 'Chief Complaint and Reason for Visit Section  2.16.840.1.113883.10.20.22.2.13 CONF:81-7840;CONF:81-10383;CONF:81-15449;CONF:81-15450;CONF:81-26473;CONF:81-7842;CONF:81-7843' },</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
@@ -7506,10 +7505,10 @@
       <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>273</v>
       </c>
-      <c r="G24" s="4" t="str">
+      <c r="G24" s="3" t="str">
         <f>VLOOKUP(D24,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>273-274</v>
       </c>
@@ -7528,7 +7527,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:23, template_type:'Section', name:'Chief Complaint Section [1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1[273-274', name2:'Chief Complaint Section', template:'1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1', pageStart:273, pages:'273-274', search:'Chief Complaint Section 1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1 CONF:81-7832;CONF:81-10453;CONF:81-15451;CONF:81-15452;CONF:81-26474;CONF:81-7834;CONF:81-7835' },</v>
+        <v>{ 'id': '23', 'template_type': 'Section', 'name': 'Chief Complaint Section [1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1[273-274', 'name2': 'Chief Complaint Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1', 'pageStart': '273', 'pages': '273-274', 'search': 'Chief Complaint Section 1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1 CONF:81-7832;CONF:81-10453;CONF:81-15451;CONF:81-15452;CONF:81-26474;CONF:81-7834;CONF:81-7835' },</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
@@ -7548,10 +7547,10 @@
       <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>274</v>
       </c>
-      <c r="G25" s="4" t="str">
+      <c r="G25" s="3" t="str">
         <f>VLOOKUP(D25,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>274-276</v>
       </c>
@@ -7570,7 +7569,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:24, template_type:'Section', name:'Complications Section  [2.16.840.1.113883.10.20.22.2.37[274-276', name2:'Complications Section ', template:'2.16.840.1.113883.10.20.22.2.37', pageStart:274, pages:'274-276', search:'Complications Section  2.16.840.1.113883.10.20.22.2.37 CONF:1198-8174;CONF:1198-10384;CONF:1198-32538;CONF:1198-15453;CONF:1198-15454;CONF:1198-30860;CONF:1198-8176;CONF:1198-8177;CONF:1198-8795;CONF:1198-15455' },</v>
+        <v>{ 'id': '24', 'template_type': 'Section', 'name': 'Complications Section  [2.16.840.1.113883.10.20.22.2.37[274-276', 'name2': 'Complications Section ', 'template': '2.16.840.1.113883.10.20.22.2.37', 'pageStart': '274', 'pages': '274-276', 'search': 'Complications Section  2.16.840.1.113883.10.20.22.2.37 CONF:1198-8174;CONF:1198-10384;CONF:1198-32538;CONF:1198-15453;CONF:1198-15454;CONF:1198-30860;CONF:1198-8176;CONF:1198-8177;CONF:1198-8795;CONF:1198-15455' },</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
@@ -7590,10 +7589,10 @@
       <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>276</v>
       </c>
-      <c r="G26" s="4" t="str">
+      <c r="G26" s="3" t="str">
         <f>VLOOKUP(D26,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>276-278</v>
       </c>
@@ -7612,7 +7611,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:25, template_type:'Section', name:'Course of Care Section [2.16.840.1.113883.10.20.22.2.64[276-278', name2:'Course of Care Section', template:'2.16.840.1.113883.10.20.22.2.64', pageStart:276, pages:'276-278', search:'Course of Care Section 2.16.840.1.113883.10.20.22.2.64 CONF:1098-32640;CONF:1098-32642;CONF:1098-32641;CONF:1098-32645;CONF:1098-32646;CONF:1098-32643;CONF:1098-32644' },</v>
+        <v>{ 'id': '25', 'template_type': 'Section', 'name': 'Course of Care Section [2.16.840.1.113883.10.20.22.2.64[276-278', 'name2': 'Course of Care Section', 'template': '2.16.840.1.113883.10.20.22.2.64', 'pageStart': '276', 'pages': '276-278', 'search': 'Course of Care Section 2.16.840.1.113883.10.20.22.2.64 CONF:1098-32640;CONF:1098-32642;CONF:1098-32641;CONF:1098-32645;CONF:1098-32646;CONF:1098-32643;CONF:1098-32644' },</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="2"/>
@@ -7632,10 +7631,10 @@
       <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>278</v>
       </c>
-      <c r="G27" s="4" t="str">
+      <c r="G27" s="3" t="str">
         <f>VLOOKUP(D27,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>278-281</v>
       </c>
@@ -7654,7 +7653,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:26, template_type:'Section', name:'DICOM Object Catalog Section - DCM 121181  [2.16.840.1.113883.10.20.6.1.1[278-281', name2:'DICOM Object Catalog Section - DCM 121181 ', template:'2.16.840.1.113883.10.20.6.1.1', pageStart:278, pages:'278-281', search:'DICOM Object Catalog Section - DCM 121181  2.16.840.1.113883.10.20.6.1.1 CONF:81-8525;CONF:81-10454;CONF:81-15456;CONF:81-15457;CONF:81-26475;CONF:81-8530;CONF:81-15458;CONF:81-8527' },</v>
+        <v>{ 'id': '26', 'template_type': 'Section', 'name': 'DICOM Object Catalog Section - DCM 121181  [2.16.840.1.113883.10.20.6.1.1[278-281', 'name2': 'DICOM Object Catalog Section - DCM 121181 ', 'template': '2.16.840.1.113883.10.20.6.1.1', 'pageStart': '278', 'pages': '278-281', 'search': 'DICOM Object Catalog Section - DCM 121181  2.16.840.1.113883.10.20.6.1.1 CONF:81-8525;CONF:81-10454;CONF:81-15456;CONF:81-15457;CONF:81-26475;CONF:81-8530;CONF:81-15458;CONF:81-8527' },</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="2"/>
@@ -7674,10 +7673,10 @@
       <c r="D28" t="s">
         <v>654</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>281</v>
       </c>
-      <c r="G28" s="4" t="str">
+      <c r="G28" s="3" t="str">
         <f>VLOOKUP(D28,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>281-283</v>
       </c>
@@ -7696,7 +7695,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:27, template_type:'Section', name:'Discharge Diagnosis Section  [2.16.840.1.113883.10.20.22.2.24[281-283', name2:'Discharge Diagnosis Section ', template:'2.16.840.1.113883.10.20.22.2.24', pageStart:281, pages:'281-283', search:'Discharge Diagnosis Section  2.16.840.1.113883.10.20.22.2.24 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
+        <v>{ 'id': '27', 'template_type': 'Section', 'name': 'Discharge Diagnosis Section  [2.16.840.1.113883.10.20.22.2.24[281-283', 'name2': 'Discharge Diagnosis Section ', 'template': '2.16.840.1.113883.10.20.22.2.24', 'pageStart': '281', 'pages': '281-283', 'search': 'Discharge Diagnosis Section  2.16.840.1.113883.10.20.22.2.24 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
@@ -7716,10 +7715,10 @@
       <c r="D29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>283</v>
       </c>
-      <c r="G29" s="4" t="str">
+      <c r="G29" s="3" t="str">
         <f>VLOOKUP(D29,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>283-284</v>
       </c>
@@ -7738,7 +7737,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:28, template_type:'Section', name:'Discharge Diet Section (DEPRECATED)  [1.3.6.1.4.1.19376.1.5.3.1.3.33[283-284', name2:'Discharge Diet Section (DEPRECATED) ', template:'1.3.6.1.4.1.19376.1.5.3.1.3.33', pageStart:283, pages:'283-284', search:'Discharge Diet Section (DEPRECATED)  1.3.6.1.4.1.19376.1.5.3.1.3.33 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
+        <v>{ 'id': '28', 'template_type': 'Section', 'name': 'Discharge Diet Section (DEPRECATED)  [1.3.6.1.4.1.19376.1.5.3.1.3.33[283-284', 'name2': 'Discharge Diet Section (DEPRECATED) ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.33', 'pageStart': '283', 'pages': '283-284', 'search': 'Discharge Diet Section (DEPRECATED)  1.3.6.1.4.1.19376.1.5.3.1.3.33 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
@@ -7758,10 +7757,10 @@
       <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>284</v>
       </c>
-      <c r="G30" s="4" t="str">
+      <c r="G30" s="3" t="str">
         <f>VLOOKUP(D30,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>284-286</v>
       </c>
@@ -7780,7 +7779,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:29, template_type:'Section', name:'Discharge Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.11[284-286', name2:'Discharge Medications Section (entries optional) ', template:'2.16.840.1.113883.10.20.22.2.11', pageStart:284, pages:'284-286', search:'Discharge Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.11 CONF:1198-7816;CONF:1198-10396;CONF:1198-32561;CONF:1198-15359;CONF:1198-15360;CONF:1198-32480;CONF:1198-32854;CONF:1198-32855;CONF:1198-32856;CONF:1198-7818;CONF:1198-7819;CONF:1198-7820;CONF:1198-15490' },</v>
+        <v>{ 'id': '29', 'template_type': 'Section', 'name': 'Discharge Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.11[284-286', 'name2': 'Discharge Medications Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.11', 'pageStart': '284', 'pages': '284-286', 'search': 'Discharge Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.11 CONF:1198-7816;CONF:1198-10396;CONF:1198-32561;CONF:1198-15359;CONF:1198-15360;CONF:1198-32480;CONF:1198-32854;CONF:1198-32855;CONF:1198-32856;CONF:1198-7818;CONF:1198-7819;CONF:1198-7820;CONF:1198-15490' },</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="2"/>
@@ -7800,10 +7799,10 @@
       <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>286</v>
       </c>
-      <c r="G31" s="4" t="str">
+      <c r="G31" s="3" t="str">
         <f>VLOOKUP(D31,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>286-289</v>
       </c>
@@ -7822,7 +7821,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:30, template_type:'Section', name:'Discharge Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.11.1[286-289', name2:'Discharge Medications Section (entries required)  ', template:'2.16.840.1.113883.10.20.22.2.11.1', pageStart:286, pages:'286-289', search:'Discharge Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.11.1 CONF:1198-32812;CONF:1198-7822;CONF:1198-10397;CONF:1198-32562;CONF:1198-15361;CONF:1198-15362;CONF:1198-32145;CONF:1198-32857;CONF:1198-32858;CONF:1198-32859;CONF:1198-7824;CONF:1198-7825;CONF:1198-7826;CONF:1198-15491' },</v>
+        <v>{ 'id': '30', 'template_type': 'Section', 'name': 'Discharge Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.11.1[286-289', 'name2': 'Discharge Medications Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.11.1', 'pageStart': '286', 'pages': '286-289', 'search': 'Discharge Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.11.1 CONF:1198-32812;CONF:1198-7822;CONF:1198-10397;CONF:1198-32562;CONF:1198-15361;CONF:1198-15362;CONF:1198-32145;CONF:1198-32857;CONF:1198-32858;CONF:1198-32859;CONF:1198-7824;CONF:1198-7825;CONF:1198-7826;CONF:1198-15491' },</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="2"/>
@@ -7842,10 +7841,10 @@
       <c r="D32" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>289</v>
       </c>
-      <c r="G32" s="4" t="str">
+      <c r="G32" s="3" t="str">
         <f>VLOOKUP(D32,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>289-290</v>
       </c>
@@ -7864,7 +7863,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:31, template_type:'Section', name:'Encounters Section (entries optional)  [2.16.840.1.113883.10.20.22.2.22[289-290', name2:'Encounters Section (entries optional) ', template:'2.16.840.1.113883.10.20.22.2.22', pageStart:289, pages:'289-290', search:'Encounters Section (entries optional)  2.16.840.1.113883.10.20.22.2.22 CONF:1198-7940;CONF:1198-10386;CONF:1198-32547;CONF:1198-15461;CONF:1198-15462;CONF:1198-31136;CONF:1198-7942;CONF:1198-7943;CONF:1198-7951;CONF:1198-15465' },</v>
+        <v>{ 'id': '31', 'template_type': 'Section', 'name': 'Encounters Section (entries optional)  [2.16.840.1.113883.10.20.22.2.22[289-290', 'name2': 'Encounters Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.22', 'pageStart': '289', 'pages': '289-290', 'search': 'Encounters Section (entries optional)  2.16.840.1.113883.10.20.22.2.22 CONF:1198-7940;CONF:1198-10386;CONF:1198-32547;CONF:1198-15461;CONF:1198-15462;CONF:1198-31136;CONF:1198-7942;CONF:1198-7943;CONF:1198-7951;CONF:1198-15465' },</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
@@ -7884,10 +7883,10 @@
       <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>290</v>
       </c>
-      <c r="G33" s="4" t="str">
+      <c r="G33" s="3" t="str">
         <f>VLOOKUP(D33,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>290-292</v>
       </c>
@@ -7906,7 +7905,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:32, template_type:'Section', name:'Encounters Section (entries required)   [2.16.840.1.113883.10.20.22.2.22.1[290-292', name2:'Encounters Section (entries required)  ', template:'2.16.840.1.113883.10.20.22.2.22.1', pageStart:290, pages:'290-292', search:'Encounters Section (entries required)   2.16.840.1.113883.10.20.22.2.22.1 CONF:1198-32815;CONF:1198-8705;CONF:1198-10387;CONF:1198-32548;CONF:1198-15466;CONF:1198-15467;CONF:1198-31137;CONF:1198-8707;CONF:1198-8708;CONF:1198-8709;CONF:1198-15468' },</v>
+        <v>{ 'id': '32', 'template_type': 'Section', 'name': 'Encounters Section (entries required)   [2.16.840.1.113883.10.20.22.2.22.1[290-292', 'name2': 'Encounters Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.22.1', 'pageStart': '290', 'pages': '290-292', 'search': 'Encounters Section (entries required)   2.16.840.1.113883.10.20.22.2.22.1 CONF:1198-32815;CONF:1198-8705;CONF:1198-10387;CONF:1198-32548;CONF:1198-15466;CONF:1198-15467;CONF:1198-31137;CONF:1198-8707;CONF:1198-8708;CONF:1198-8709;CONF:1198-15468' },</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
@@ -7926,10 +7925,10 @@
       <c r="D34" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>292</v>
       </c>
-      <c r="G34" s="4" t="str">
+      <c r="G34" s="3" t="str">
         <f>VLOOKUP(D34,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>292-294</v>
       </c>
@@ -7948,7 +7947,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:33, template_type:'Section', name:'Family History Section   [2.16.840.1.113883.10.20.22.2.15[292-294', name2:'Family History Section  ', template:'2.16.840.1.113883.10.20.22.2.15', pageStart:292, pages:'292-294', search:'Family History Section   2.16.840.1.113883.10.20.22.2.15 CONF:1198-7932;CONF:1198-10388;CONF:1198-32607;CONF:1198-15469;CONF:1198-15470;CONF:1198-32481;CONF:1198-7934;CONF:1198-7935;CONF:1198-32430;CONF:1198-32431' },</v>
+        <v>{ 'id': '33', 'template_type': 'Section', 'name': 'Family History Section   [2.16.840.1.113883.10.20.22.2.15[292-294', 'name2': 'Family History Section  ', 'template': '2.16.840.1.113883.10.20.22.2.15', 'pageStart': '292', 'pages': '292-294', 'search': 'Family History Section   2.16.840.1.113883.10.20.22.2.15 CONF:1198-7932;CONF:1198-10388;CONF:1198-32607;CONF:1198-15469;CONF:1198-15470;CONF:1198-32481;CONF:1198-7934;CONF:1198-7935;CONF:1198-32430;CONF:1198-32431' },</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="2"/>
@@ -7968,10 +7967,10 @@
       <c r="D35" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>294</v>
       </c>
-      <c r="G35" s="4" t="str">
+      <c r="G35" s="3" t="str">
         <f>VLOOKUP(D35,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>294-296</v>
       </c>
@@ -7990,7 +7989,7 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:34, template_type:'Section', name:'Fetus Subject Context [2.16.840.1.113883.10.20.6.2.3[294-296', name2:'Fetus Subject Context', template:'2.16.840.1.113883.10.20.6.2.3', pageStart:294, pages:'294-296', search:'Fetus Subject Context 2.16.840.1.113883.10.20.6.2.3 CONF:81-9189;CONF:81-10535;CONF:81-9190;CONF:81-26455;CONF:81-26476;CONF:81-9191;CONF:81-15347' },</v>
+        <v>{ 'id': '34', 'template_type': 'Section', 'name': 'Fetus Subject Context [2.16.840.1.113883.10.20.6.2.3[294-296', 'name2': 'Fetus Subject Context', 'template': '2.16.840.1.113883.10.20.6.2.3', 'pageStart': '294', 'pages': '294-296', 'search': 'Fetus Subject Context 2.16.840.1.113883.10.20.6.2.3 CONF:81-9189;CONF:81-10535;CONF:81-9190;CONF:81-26455;CONF:81-26476;CONF:81-9191;CONF:81-15347' },</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
@@ -8010,10 +8009,10 @@
       <c r="D36" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>296</v>
       </c>
-      <c r="G36" s="4" t="str">
+      <c r="G36" s="3" t="str">
         <f>VLOOKUP(D36,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>296-297</v>
       </c>
@@ -8032,7 +8031,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:35, template_type:'Section', name:'Findings Section (DIR) [2.16.840.1.113883.10.20.6.1.2[296-297', name2:'Findings Section (DIR)', template:'2.16.840.1.113883.10.20.6.1.2', pageStart:296, pages:'296-297', search:'Findings Section (DIR) 2.16.840.1.113883.10.20.6.1.2 CONF:81-8531;CONF:81-10456;CONF:81-8532' },</v>
+        <v>{ 'id': '35', 'template_type': 'Section', 'name': 'Findings Section (DIR) [2.16.840.1.113883.10.20.6.1.2[296-297', 'name2': 'Findings Section (DIR)', 'template': '2.16.840.1.113883.10.20.6.1.2', 'pageStart': '296', 'pages': '296-297', 'search': 'Findings Section (DIR) 2.16.840.1.113883.10.20.6.1.2 CONF:81-8531;CONF:81-10456;CONF:81-8532' },</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
@@ -8052,10 +8051,10 @@
       <c r="D37" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>297</v>
       </c>
-      <c r="G37" s="4" t="str">
+      <c r="G37" s="3" t="str">
         <f>VLOOKUP(D37,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>297-302</v>
       </c>
@@ -8074,7 +8073,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:36, template_type:'Section', name:'Functional Status Section   [2.16.840.1.113883.10.20.22.2.14[297-302', name2:'Functional Status Section  ', template:'2.16.840.1.113883.10.20.22.2.14', pageStart:297, pages:'297-302', search:'Functional Status Section   2.16.840.1.113883.10.20.22.2.14 CONF:1098-7920;CONF:1098-10389;CONF:1098-32567;CONF:1098-14578;CONF:1098-14579;CONF:1098-30866;CONF:1098-7922;CONF:1098-7923;CONF:1098-14414;CONF:1098-14415;CONF:1098-14418;CONF:1098-14419;CONF:1098-14426;CONF:1098-14427;CONF:1098-14580;CONF:1098-14581;CONF:1098-14582;CONF:1098-30783;CONF:1098-32792;CONF:1098-31009;CONF:1098-16779;CONF:1098-31011;CONF:1098-14424;CONF:1098-14425;CONF:1098-14422;CONF:1098-14423;CONF:1098-16777;CONF:1098-16778' },</v>
+        <v>{ 'id': '36', 'template_type': 'Section', 'name': 'Functional Status Section   [2.16.840.1.113883.10.20.22.2.14[297-302', 'name2': 'Functional Status Section  ', 'template': '2.16.840.1.113883.10.20.22.2.14', 'pageStart': '297', 'pages': '297-302', 'search': 'Functional Status Section   2.16.840.1.113883.10.20.22.2.14 CONF:1098-7920;CONF:1098-10389;CONF:1098-32567;CONF:1098-14578;CONF:1098-14579;CONF:1098-30866;CONF:1098-7922;CONF:1098-7923;CONF:1098-14414;CONF:1098-14415;CONF:1098-14418;CONF:1098-14419;CONF:1098-14426;CONF:1098-14427;CONF:1098-14580;CONF:1098-14581;CONF:1098-14582;CONF:1098-30783;CONF:1098-32792;CONF:1098-31009;CONF:1098-16779;CONF:1098-31011;CONF:1098-14424;CONF:1098-14425;CONF:1098-14422;CONF:1098-14423;CONF:1098-16777;CONF:1098-16778' },</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
@@ -8094,10 +8093,10 @@
       <c r="D38" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>302</v>
       </c>
-      <c r="G38" s="4" t="str">
+      <c r="G38" s="3" t="str">
         <f>VLOOKUP(D38,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>302-303</v>
       </c>
@@ -8116,7 +8115,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:37, template_type:'Section', name:'General Status Section [2.16.840.1.113883.10.20.2.5[302-303', name2:'General Status Section', template:'2.16.840.1.113883.10.20.2.5', pageStart:302, pages:'302-303', search:'General Status Section 2.16.840.1.113883.10.20.2.5 CONF:81-7985;CONF:81-10457;CONF:81-15472;CONF:81-15473;CONF:81-26477;CONF:81-7987;CONF:81-7988' },</v>
+        <v>{ 'id': '37', 'template_type': 'Section', 'name': 'General Status Section [2.16.840.1.113883.10.20.2.5[302-303', 'name2': 'General Status Section', 'template': '2.16.840.1.113883.10.20.2.5', 'pageStart': '302', 'pages': '302-303', 'search': 'General Status Section 2.16.840.1.113883.10.20.2.5 CONF:81-7985;CONF:81-10457;CONF:81-15472;CONF:81-15473;CONF:81-26477;CONF:81-7987;CONF:81-7988' },</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="2"/>
@@ -8136,10 +8135,10 @@
       <c r="D39" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>303</v>
       </c>
-      <c r="G39" s="4" t="str">
+      <c r="G39" s="3" t="str">
         <f>VLOOKUP(D39,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>303-305</v>
       </c>
@@ -8158,7 +8157,7 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:38, template_type:'Section', name:'Goals Section [2.16.840.1.113883.10.20.22.2.60[303-305', name2:'Goals Section', template:'2.16.840.1.113883.10.20.22.2.60', pageStart:303, pages:'303-305', search:'Goals Section 2.16.840.1.113883.10.20.22.2.60 CONF:1098-32819;CONF:1098-29584;CONF:1098-29585;CONF:1098-29586;CONF:1098-29587;CONF:1098-29588;CONF:1098-30721;CONF:1098-30722;CONF:1098-30719;CONF:1098-30720' },</v>
+        <v>{ 'id': '38', 'template_type': 'Section', 'name': 'Goals Section [2.16.840.1.113883.10.20.22.2.60[303-305', 'name2': 'Goals Section', 'template': '2.16.840.1.113883.10.20.22.2.60', 'pageStart': '303', 'pages': '303-305', 'search': 'Goals Section 2.16.840.1.113883.10.20.22.2.60 CONF:1098-32819;CONF:1098-29584;CONF:1098-29585;CONF:1098-29586;CONF:1098-29587;CONF:1098-29588;CONF:1098-30721;CONF:1098-30722;CONF:1098-30719;CONF:1098-30720' },</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="2"/>
@@ -8178,10 +8177,10 @@
       <c r="D40" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>305</v>
       </c>
-      <c r="G40" s="4" t="str">
+      <c r="G40" s="3" t="str">
         <f>VLOOKUP(D40,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>305-308</v>
       </c>
@@ -8200,7 +8199,7 @@
       </c>
       <c r="M40" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:39, template_type:'Section', name:'Health Concerns Section   [2.16.840.1.113883.10.20.22.2.58[305-308', name2:'Health Concerns Section  ', template:'2.16.840.1.113883.10.20.22.2.58', pageStart:305, pages:'305-308', search:'Health Concerns Section   2.16.840.1.113883.10.20.22.2.58 CONF:1198-32802;CONF:1198-28804;CONF:1198-28805;CONF:1198-32862;CONF:1198-28806;CONF:1198-28807;CONF:1198-28808;CONF:1198-28809;CONF:1198-28810;CONF:1198-30483;CONF:1198-30484;CONF:1198-30768;CONF:1198-30769;CONF:1198-32308;CONF:1198-32309' },</v>
+        <v>{ 'id': '39', 'template_type': 'Section', 'name': 'Health Concerns Section   [2.16.840.1.113883.10.20.22.2.58[305-308', 'name2': 'Health Concerns Section  ', 'template': '2.16.840.1.113883.10.20.22.2.58', 'pageStart': '305', 'pages': '305-308', 'search': 'Health Concerns Section   2.16.840.1.113883.10.20.22.2.58 CONF:1198-32802;CONF:1198-28804;CONF:1198-28805;CONF:1198-32862;CONF:1198-28806;CONF:1198-28807;CONF:1198-28808;CONF:1198-28809;CONF:1198-28810;CONF:1198-30483;CONF:1198-30484;CONF:1198-30768;CONF:1198-30769;CONF:1198-32308;CONF:1198-32309' },</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
@@ -8220,10 +8219,10 @@
       <c r="D41" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>308</v>
       </c>
-      <c r="G41" s="4" t="str">
+      <c r="G41" s="3" t="str">
         <f>VLOOKUP(D41,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>308-310</v>
       </c>
@@ -8242,7 +8241,7 @@
       </c>
       <c r="M41" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:40, template_type:'Section', name:'Health Status Evaluations and Outcomes Section [2.16.840.1.113883.10.20.22.2.61[308-310', name2:'Health Status Evaluations and Outcomes Section', template:'2.16.840.1.113883.10.20.22.2.61', pageStart:308, pages:'308-310', search:'Health Status Evaluations and Outcomes Section 2.16.840.1.113883.10.20.22.2.61 CONF:1098-32821;CONF:1098-29578;CONF:1098-29579;CONF:1098-29580;CONF:1098-29581;CONF:1098-29582;CONF:1098-29589;CONF:1098-29590;CONF:1098-31227;CONF:1098-31228' },</v>
+        <v>{ 'id': '40', 'template_type': 'Section', 'name': 'Health Status Evaluations and Outcomes Section [2.16.840.1.113883.10.20.22.2.61[308-310', 'name2': 'Health Status Evaluations and Outcomes Section', 'template': '2.16.840.1.113883.10.20.22.2.61', 'pageStart': '308', 'pages': '308-310', 'search': 'Health Status Evaluations and Outcomes Section 2.16.840.1.113883.10.20.22.2.61 CONF:1098-32821;CONF:1098-29578;CONF:1098-29579;CONF:1098-29580;CONF:1098-29581;CONF:1098-29582;CONF:1098-29589;CONF:1098-29590;CONF:1098-31227;CONF:1098-31228' },</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -8262,10 +8261,10 @@
       <c r="D42" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>310</v>
       </c>
-      <c r="G42" s="4" t="str">
+      <c r="G42" s="3" t="str">
         <f>VLOOKUP(D42,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>310-312</v>
       </c>
@@ -8284,7 +8283,7 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:41, template_type:'Section', name:'History of Present Illness Section [1.3.6.1.4.1.19376.1.5.3.1.3.4[310-312', name2:'History of Present Illness Section', template:'1.3.6.1.4.1.19376.1.5.3.1.3.4', pageStart:310, pages:'310-312', search:'History of Present Illness Section 1.3.6.1.4.1.19376.1.5.3.1.3.4 CONF:81-7848;CONF:81-10458;CONF:81-15477;CONF:81-15478;CONF:81-26478;CONF:81-7850;CONF:81-7851' },</v>
+        <v>{ 'id': '41', 'template_type': 'Section', 'name': 'History of Present Illness Section [1.3.6.1.4.1.19376.1.5.3.1.3.4[310-312', 'name2': 'History of Present Illness Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.4', 'pageStart': '310', 'pages': '310-312', 'search': 'History of Present Illness Section 1.3.6.1.4.1.19376.1.5.3.1.3.4 CONF:81-7848;CONF:81-10458;CONF:81-15477;CONF:81-15478;CONF:81-26478;CONF:81-7850;CONF:81-7851' },</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="2"/>
@@ -8304,10 +8303,10 @@
       <c r="D43" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
         <v>312</v>
       </c>
-      <c r="G43" s="4" t="str">
+      <c r="G43" s="3" t="str">
         <f>VLOOKUP(D43,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>312-314</v>
       </c>
@@ -8326,7 +8325,7 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:42, template_type:'Section', name:'Hospital Consultations Section [2.16.840.1.113883.10.20.22.2.42[312-314', name2:'Hospital Consultations Section', template:'2.16.840.1.113883.10.20.22.2.42', pageStart:312, pages:'312-314', search:'Hospital Consultations Section 2.16.840.1.113883.10.20.22.2.42 CONF:81-9915;CONF:81-10393;CONF:81-15485;CONF:81-15486;CONF:81-26479;CONF:81-9917;CONF:81-9918' },</v>
+        <v>{ 'id': '42', 'template_type': 'Section', 'name': 'Hospital Consultations Section [2.16.840.1.113883.10.20.22.2.42[312-314', 'name2': 'Hospital Consultations Section', 'template': '2.16.840.1.113883.10.20.22.2.42', 'pageStart': '312', 'pages': '312-314', 'search': 'Hospital Consultations Section 2.16.840.1.113883.10.20.22.2.42 CONF:81-9915;CONF:81-10393;CONF:81-15485;CONF:81-15486;CONF:81-26479;CONF:81-9917;CONF:81-9918' },</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="2"/>
@@ -8346,10 +8345,10 @@
       <c r="D44" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44">
         <v>314</v>
       </c>
-      <c r="G44" s="4" t="str">
+      <c r="G44" s="3" t="str">
         <f>VLOOKUP(D44,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>314-315</v>
       </c>
@@ -8368,7 +8367,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:43, template_type:'Section', name:'Hospital Course Section  [1.3.6.1.4.1.19376.1.5.3.1.3.5[314-315', name2:'Hospital Course Section ', template:'1.3.6.1.4.1.19376.1.5.3.1.3.5', pageStart:314, pages:'314-315', search:'Hospital Course Section  1.3.6.1.4.1.19376.1.5.3.1.3.5 CONF:81-7852;CONF:81-10459;CONF:81-15487;CONF:81-15488;CONF:81-26480;CONF:81-7854;CONF:81-7855' },</v>
+        <v>{ 'id': '43', 'template_type': 'Section', 'name': 'Hospital Course Section  [1.3.6.1.4.1.19376.1.5.3.1.3.5[314-315', 'name2': 'Hospital Course Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.5', 'pageStart': '314', 'pages': '314-315', 'search': 'Hospital Course Section  1.3.6.1.4.1.19376.1.5.3.1.3.5 CONF:81-7852;CONF:81-10459;CONF:81-15487;CONF:81-15488;CONF:81-26480;CONF:81-7854;CONF:81-7855' },</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
@@ -8388,10 +8387,10 @@
       <c r="D45" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45">
         <v>315</v>
       </c>
-      <c r="G45" s="4" t="str">
+      <c r="G45" s="3" t="str">
         <f>VLOOKUP(D45,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>315-316</v>
       </c>
@@ -8410,7 +8409,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:44, template_type:'Section', name:'Hospital Discharge Instructions Section  [2.16.840.1.113883.10.20.22.2.41[315-316', name2:'Hospital Discharge Instructions Section ', template:'2.16.840.1.113883.10.20.22.2.41', pageStart:315, pages:'315-316', search:'Hospital Discharge Instructions Section  2.16.840.1.113883.10.20.22.2.41 CONF:81-9919;CONF:81-10395;CONF:81-15357;CONF:81-15358;CONF:81-26481;CONF:81-9921;CONF:81-9922' },</v>
+        <v>{ 'id': '44', 'template_type': 'Section', 'name': 'Hospital Discharge Instructions Section  [2.16.840.1.113883.10.20.22.2.41[315-316', 'name2': 'Hospital Discharge Instructions Section ', 'template': '2.16.840.1.113883.10.20.22.2.41', 'pageStart': '315', 'pages': '315-316', 'search': 'Hospital Discharge Instructions Section  2.16.840.1.113883.10.20.22.2.41 CONF:81-9919;CONF:81-10395;CONF:81-15357;CONF:81-15358;CONF:81-26481;CONF:81-9921;CONF:81-9922' },</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
@@ -8430,10 +8429,10 @@
       <c r="D46" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46">
         <v>316</v>
       </c>
-      <c r="G46" s="4" t="str">
+      <c r="G46" s="3" t="str">
         <f>VLOOKUP(D46,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>316-318</v>
       </c>
@@ -8452,7 +8451,7 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:45, template_type:'Section', name:'Hospital Discharge Physical Section  [1.3.6.1.4.1.19376.1.5.3.1.3.26[316-318', name2:'Hospital Discharge Physical Section ', template:'1.3.6.1.4.1.19376.1.5.3.1.3.26', pageStart:316, pages:'316-318', search:'Hospital Discharge Physical Section  1.3.6.1.4.1.19376.1.5.3.1.3.26 CONF:81-7971;CONF:81-10460;CONF:81-15363;CONF:81-15364;CONF:81-26482;CONF:81-7973;CONF:81-7974' },</v>
+        <v>{ 'id': '45', 'template_type': 'Section', 'name': 'Hospital Discharge Physical Section  [1.3.6.1.4.1.19376.1.5.3.1.3.26[316-318', 'name2': 'Hospital Discharge Physical Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.26', 'pageStart': '316', 'pages': '316-318', 'search': 'Hospital Discharge Physical Section  1.3.6.1.4.1.19376.1.5.3.1.3.26 CONF:81-7971;CONF:81-10460;CONF:81-15363;CONF:81-15364;CONF:81-26482;CONF:81-7973;CONF:81-7974' },</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
@@ -8472,10 +8471,10 @@
       <c r="D47" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47">
         <v>318</v>
       </c>
-      <c r="G47" s="4" t="str">
+      <c r="G47" s="3" t="str">
         <f>VLOOKUP(D47,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>318-320</v>
       </c>
@@ -8494,7 +8493,7 @@
       </c>
       <c r="M47" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:46, template_type:'Section', name:'Hospital Discharge Studies Summary Section [2.16.840.1.113883.10.20.22.2.16[318-320', name2:'Hospital Discharge Studies Summary Section', template:'2.16.840.1.113883.10.20.22.2.16', pageStart:318, pages:'318-320', search:'Hospital Discharge Studies Summary Section 2.16.840.1.113883.10.20.22.2.16 CONF:81-7910;CONF:81-10398;CONF:81-15365;CONF:81-15366;CONF:81-26483;CONF:81-7912;CONF:81-7913' },</v>
+        <v>{ 'id': '46', 'template_type': 'Section', 'name': 'Hospital Discharge Studies Summary Section [2.16.840.1.113883.10.20.22.2.16[318-320', 'name2': 'Hospital Discharge Studies Summary Section', 'template': '2.16.840.1.113883.10.20.22.2.16', 'pageStart': '318', 'pages': '318-320', 'search': 'Hospital Discharge Studies Summary Section 2.16.840.1.113883.10.20.22.2.16 CONF:81-7910;CONF:81-10398;CONF:81-15365;CONF:81-15366;CONF:81-26483;CONF:81-7912;CONF:81-7913' },</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="2"/>
@@ -8514,10 +8513,10 @@
       <c r="D48" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <v>320</v>
       </c>
-      <c r="G48" s="4" t="str">
+      <c r="G48" s="3" t="str">
         <f>VLOOKUP(D48,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>320-321</v>
       </c>
@@ -8536,7 +8535,7 @@
       </c>
       <c r="M48" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:47, template_type:'Section', name:'Immunizations Section (entries optional)   [2.16.840.1.113883.10.20.22.2.2[320-321', name2:'Immunizations Section (entries optional)  ', template:'2.16.840.1.113883.10.20.22.2.2', pageStart:320, pages:'320-321', search:'Immunizations Section (entries optional)   2.16.840.1.113883.10.20.22.2.2 CONF:1198-7965;CONF:1198-10399;CONF:1198-32529;CONF:1198-15367;CONF:1198-15368;CONF:1198-32146;CONF:1198-7967;CONF:1198-7968;CONF:1198-7969;CONF:1198-15494' },</v>
+        <v>{ 'id': '47', 'template_type': 'Section', 'name': 'Immunizations Section (entries optional)   [2.16.840.1.113883.10.20.22.2.2[320-321', 'name2': 'Immunizations Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.2', 'pageStart': '320', 'pages': '320-321', 'search': 'Immunizations Section (entries optional)   2.16.840.1.113883.10.20.22.2.2 CONF:1198-7965;CONF:1198-10399;CONF:1198-32529;CONF:1198-15367;CONF:1198-15368;CONF:1198-32146;CONF:1198-7967;CONF:1198-7968;CONF:1198-7969;CONF:1198-15494' },</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="2"/>
@@ -8556,10 +8555,10 @@
       <c r="D49" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <v>321</v>
       </c>
-      <c r="G49" s="4" t="str">
+      <c r="G49" s="3" t="str">
         <f>VLOOKUP(D49,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>321-325</v>
       </c>
@@ -8578,7 +8577,7 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:48, template_type:'Section', name:'Immunizations Section (entries required)  [2.16.840.1.113883.10.20.22.2.2.1[321-325', name2:'Immunizations Section (entries required) ', template:'2.16.840.1.113883.10.20.22.2.2.1', pageStart:321, pages:'321-325', search:'Immunizations Section (entries required)  2.16.840.1.113883.10.20.22.2.2.1 CONF:1198-32833;CONF:1198-9015;CONF:1198-10400;CONF:1198-32530;CONF:1198-15369;CONF:1198-15370;CONF:1198-32147;CONF:1198-9017;CONF:1198-9018;CONF:1198-9019;CONF:1198-15495' },</v>
+        <v>{ 'id': '48', 'template_type': 'Section', 'name': 'Immunizations Section (entries required)  [2.16.840.1.113883.10.20.22.2.2.1[321-325', 'name2': 'Immunizations Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.2.1', 'pageStart': '321', 'pages': '321-325', 'search': 'Immunizations Section (entries required)  2.16.840.1.113883.10.20.22.2.2.1 CONF:1198-32833;CONF:1198-9015;CONF:1198-10400;CONF:1198-32530;CONF:1198-15369;CONF:1198-15370;CONF:1198-32147;CONF:1198-9017;CONF:1198-9018;CONF:1198-9019;CONF:1198-15495' },</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="2"/>
@@ -8598,10 +8597,10 @@
       <c r="D50" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50">
         <v>325</v>
       </c>
-      <c r="G50" s="4" t="str">
+      <c r="G50" s="3" t="str">
         <f>VLOOKUP(D50,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>325-326</v>
       </c>
@@ -8620,7 +8619,7 @@
       </c>
       <c r="M50" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:49, template_type:'Section', name:'Implants Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.33[325-326', name2:'Implants Section (DEPRECATED) ', template:'2.16.840.1.113883.10.20.22.2.33', pageStart:325, pages:'325-326', search:'Implants Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.33 CONF:1098-8042;CONF:1098-32608;CONF:1098-32609;CONF:1098-15371;CONF:1098-15372;CONF:1098-26471;CONF:1098-8044;CONF:1098-8045' },</v>
+        <v>{ 'id': '49', 'template_type': 'Section', 'name': 'Implants Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.33[325-326', 'name2': 'Implants Section (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.2.33', 'pageStart': '325', 'pages': '325-326', 'search': 'Implants Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.33 CONF:1098-8042;CONF:1098-32608;CONF:1098-32609;CONF:1098-15371;CONF:1098-15372;CONF:1098-26471;CONF:1098-8044;CONF:1098-8045' },</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="2"/>
@@ -8640,10 +8639,10 @@
       <c r="D51" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51">
         <v>326</v>
       </c>
-      <c r="G51" s="4" t="str">
+      <c r="G51" s="3" t="str">
         <f>VLOOKUP(D51,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>326-328</v>
       </c>
@@ -8662,7 +8661,7 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:50, template_type:'Section', name:'Instructions Section   [2.16.840.1.113883.10.20.22.2.45[326-328', name2:'Instructions Section  ', template:'2.16.840.1.113883.10.20.22.2.45', pageStart:326, pages:'326-328', search:'Instructions Section   2.16.840.1.113883.10.20.22.2.45 CONF:1098-32835;CONF:1098-10112;CONF:1098-31384;CONF:1098-32599;CONF:1098-15375;CONF:1098-15376;CONF:1098-32148;CONF:1098-10114;CONF:1098-10115;CONF:1098-10116;CONF:1098-31398' },</v>
+        <v>{ 'id': '50', 'template_type': 'Section', 'name': 'Instructions Section   [2.16.840.1.113883.10.20.22.2.45[326-328', 'name2': 'Instructions Section  ', 'template': '2.16.840.1.113883.10.20.22.2.45', 'pageStart': '326', 'pages': '326-328', 'search': 'Instructions Section   2.16.840.1.113883.10.20.22.2.45 CONF:1098-32835;CONF:1098-10112;CONF:1098-31384;CONF:1098-32599;CONF:1098-15375;CONF:1098-15376;CONF:1098-32148;CONF:1098-10114;CONF:1098-10115;CONF:1098-10116;CONF:1098-31398' },</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="2"/>
@@ -8682,10 +8681,10 @@
       <c r="D52" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52">
         <v>328</v>
       </c>
-      <c r="G52" s="4" t="str">
+      <c r="G52" s="3" t="str">
         <f>VLOOKUP(D52,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>328-330</v>
       </c>
@@ -8704,7 +8703,7 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:51, template_type:'Section', name:'Interventions Section  [2.16.840.1.113883.10.20.21.2.3[328-330', name2:'Interventions Section ', template:'2.16.840.1.113883.10.20.21.2.3', pageStart:328, pages:'328-330', search:'Interventions Section  2.16.840.1.113883.10.20.21.2.3 CONF:1198-8680;CONF:1198-10461;CONF:1198-32559;CONF:1198-15377;CONF:1198-15378;CONF:1198-30864;CONF:1198-8682;CONF:1198-8683;CONF:1198-30996;CONF:1198-30997;CONF:1198-32730;CONF:1198-32731;CONF:1198-32402;CONF:1198-32403' },</v>
+        <v>{ 'id': '51', 'template_type': 'Section', 'name': 'Interventions Section  [2.16.840.1.113883.10.20.21.2.3[328-330', 'name2': 'Interventions Section ', 'template': '2.16.840.1.113883.10.20.21.2.3', 'pageStart': '328', 'pages': '328-330', 'search': 'Interventions Section  2.16.840.1.113883.10.20.21.2.3 CONF:1198-8680;CONF:1198-10461;CONF:1198-32559;CONF:1198-15377;CONF:1198-15378;CONF:1198-30864;CONF:1198-8682;CONF:1198-8683;CONF:1198-30996;CONF:1198-30997;CONF:1198-32730;CONF:1198-32731;CONF:1198-32402;CONF:1198-32403' },</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="2"/>
@@ -8724,10 +8723,10 @@
       <c r="D53" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53">
         <v>330</v>
       </c>
-      <c r="G53" s="4" t="str">
+      <c r="G53" s="3" t="str">
         <f>VLOOKUP(D53,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>330-331</v>
       </c>
@@ -8746,7 +8745,7 @@
       </c>
       <c r="M53" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:52, template_type:'Section', name:'Medical (General) History Section  [2.16.840.1.113883.10.20.22.2.39[330-331', name2:'Medical (General) History Section ', template:'2.16.840.1.113883.10.20.22.2.39', pageStart:330, pages:'330-331', search:'Medical (General) History Section  2.16.840.1.113883.10.20.22.2.39 CONF:81-8160;CONF:81-10403;CONF:81-15379;CONF:81-15380;CONF:81-26484;CONF:81-8162;CONF:81-8163' },</v>
+        <v>{ 'id': '52', 'template_type': 'Section', 'name': 'Medical (General) History Section  [2.16.840.1.113883.10.20.22.2.39[330-331', 'name2': 'Medical (General) History Section ', 'template': '2.16.840.1.113883.10.20.22.2.39', 'pageStart': '330', 'pages': '330-331', 'search': 'Medical (General) History Section  2.16.840.1.113883.10.20.22.2.39 CONF:81-8160;CONF:81-10403;CONF:81-15379;CONF:81-15380;CONF:81-26484;CONF:81-8162;CONF:81-8163' },</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="2"/>
@@ -8766,10 +8765,10 @@
       <c r="D54" t="s">
         <v>113</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54">
         <v>331</v>
       </c>
-      <c r="G54" s="4" t="str">
+      <c r="G54" s="3" t="str">
         <f>VLOOKUP(D54,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>331-334</v>
       </c>
@@ -8788,7 +8787,7 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:53, template_type:'Section', name:'Medical Equipment Section   [2.16.840.1.113883.10.20.22.2.23[331-334', name2:'Medical Equipment Section  ', template:'2.16.840.1.113883.10.20.22.2.23', pageStart:331, pages:'331-334', search:'Medical Equipment Section   2.16.840.1.113883.10.20.22.2.23 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
+        <v>{ 'id': '53', 'template_type': 'Section', 'name': 'Medical Equipment Section   [2.16.840.1.113883.10.20.22.2.23[331-334', 'name2': 'Medical Equipment Section  ', 'template': '2.16.840.1.113883.10.20.22.2.23', 'pageStart': '331', 'pages': '331-334', 'search': 'Medical Equipment Section   2.16.840.1.113883.10.20.22.2.23 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="2"/>
@@ -8808,10 +8807,10 @@
       <c r="D55" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55">
         <v>334</v>
       </c>
-      <c r="G55" s="4" t="str">
+      <c r="G55" s="3" t="str">
         <f>VLOOKUP(D55,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>334-337</v>
       </c>
@@ -8830,7 +8829,7 @@
       </c>
       <c r="M55" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:54, template_type:'Section', name:'Medications Administered Section   [2.16.840.1.113883.10.20.22.2.38[334-337', name2:'Medications Administered Section  ', template:'2.16.840.1.113883.10.20.22.2.38', pageStart:334, pages:'334-337', search:'Medications Administered Section   2.16.840.1.113883.10.20.22.2.38 CONF:1098-8152;CONF:1098-10405;CONF:1098-32525;CONF:1098-15383;CONF:1098-15384;CONF:1098-30829;CONF:1098-8154;CONF:1098-8155;CONF:1098-8156;CONF:1098-15499' },</v>
+        <v>{ 'id': '54', 'template_type': 'Section', 'name': 'Medications Administered Section   [2.16.840.1.113883.10.20.22.2.38[334-337', 'name2': 'Medications Administered Section  ', 'template': '2.16.840.1.113883.10.20.22.2.38', 'pageStart': '334', 'pages': '334-337', 'search': 'Medications Administered Section   2.16.840.1.113883.10.20.22.2.38 CONF:1098-8152;CONF:1098-10405;CONF:1098-32525;CONF:1098-15383;CONF:1098-15384;CONF:1098-30829;CONF:1098-8154;CONF:1098-8155;CONF:1098-8156;CONF:1098-15499' },</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="2"/>
@@ -8850,10 +8849,10 @@
       <c r="D56" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56">
         <v>337</v>
       </c>
-      <c r="G56" s="4" t="str">
+      <c r="G56" s="3" t="str">
         <f>VLOOKUP(D56,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>337-338</v>
       </c>
@@ -8872,7 +8871,7 @@
       </c>
       <c r="M56" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:55, template_type:'Section', name:'Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.1[337-338', name2:'Medications Section (entries optional) ', template:'2.16.840.1.113883.10.20.22.2.1', pageStart:337, pages:'337-338', search:'Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.1 CONF:1098-7791;CONF:1098-10432;CONF:1098-32500;CONF:1098-15385;CONF:1098-15386;CONF:1098-30824;CONF:1098-7793;CONF:1098-7794;CONF:1098-7795;CONF:1098-10076' },</v>
+        <v>{ 'id': '55', 'template_type': 'Section', 'name': 'Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.1[337-338', 'name2': 'Medications Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.1', 'pageStart': '337', 'pages': '337-338', 'search': 'Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.1 CONF:1098-7791;CONF:1098-10432;CONF:1098-32500;CONF:1098-15385;CONF:1098-15386;CONF:1098-30824;CONF:1098-7793;CONF:1098-7794;CONF:1098-7795;CONF:1098-10076' },</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="2"/>
@@ -8892,10 +8891,10 @@
       <c r="D57" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57">
         <v>338</v>
       </c>
-      <c r="G57" s="4" t="str">
+      <c r="G57" s="3" t="str">
         <f>VLOOKUP(D57,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>338-340</v>
       </c>
@@ -8914,7 +8913,7 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:56, template_type:'Section', name:'Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.1.1[338-340', name2:'Medications Section (entries required)  ', template:'2.16.840.1.113883.10.20.22.2.1.1', pageStart:338, pages:'338-340', search:'Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.1.1 CONF:1098-32845;CONF:1098-7568;CONF:1098-10433;CONF:1098-32499;CONF:1098-15387;CONF:1098-15388;CONF:1098-30825;CONF:1098-7570;CONF:1098-7571;CONF:1098-7572;CONF:1098-10077' },</v>
+        <v>{ 'id': '56', 'template_type': 'Section', 'name': 'Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.1.1[338-340', 'name2': 'Medications Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.1.1', 'pageStart': '338', 'pages': '338-340', 'search': 'Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.1.1 CONF:1098-32845;CONF:1098-7568;CONF:1098-10433;CONF:1098-32499;CONF:1098-15387;CONF:1098-15388;CONF:1098-30825;CONF:1098-7570;CONF:1098-7571;CONF:1098-7572;CONF:1098-10077' },</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="2"/>
@@ -8934,10 +8933,10 @@
       <c r="D58" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
         <v>340</v>
       </c>
-      <c r="G58" s="4" t="str">
+      <c r="G58" s="3" t="str">
         <f>VLOOKUP(D58,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>340-345</v>
       </c>
@@ -8956,7 +8955,7 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:57, template_type:'Section', name:'Mental Status Section   [2.16.840.1.113883.10.20.22.2.56[340-345', name2:'Mental Status Section  ', template:'2.16.840.1.113883.10.20.22.2.56', pageStart:340, pages:'340-345', search:'Mental Status Section   2.16.840.1.113883.10.20.22.2.56 CONF:1198-28293;CONF:1198-28294;CONF:1198-32793;CONF:1198-28295;CONF:1198-28296;CONF:1198-30826;CONF:1198-28297;CONF:1198-28298;CONF:1198-28301;CONF:1198-28302;CONF:1198-28305;CONF:1198-28306;CONF:1198-28313;CONF:1198-28314' },</v>
+        <v>{ 'id': '57', 'template_type': 'Section', 'name': 'Mental Status Section   [2.16.840.1.113883.10.20.22.2.56[340-345', 'name2': 'Mental Status Section  ', 'template': '2.16.840.1.113883.10.20.22.2.56', 'pageStart': '340', 'pages': '340-345', 'search': 'Mental Status Section   2.16.840.1.113883.10.20.22.2.56 CONF:1198-28293;CONF:1198-28294;CONF:1198-32793;CONF:1198-28295;CONF:1198-28296;CONF:1198-30826;CONF:1198-28297;CONF:1198-28298;CONF:1198-28301;CONF:1198-28302;CONF:1198-28305;CONF:1198-28306;CONF:1198-28313;CONF:1198-28314' },</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="2"/>
@@ -8976,10 +8975,10 @@
       <c r="D59" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59">
         <v>345</v>
       </c>
-      <c r="G59" s="4" t="str">
+      <c r="G59" s="3" t="str">
         <f>VLOOKUP(D59,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>345-347</v>
       </c>
@@ -8998,7 +8997,7 @@
       </c>
       <c r="M59" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:58, template_type:'Section', name:'Nutrition Section [2.16.840.1.113883.10.20.22.2.57[345-347', name2:'Nutrition Section', template:'2.16.840.1.113883.10.20.22.2.57', pageStart:345, pages:'345-347', search:'Nutrition Section 2.16.840.1.113883.10.20.22.2.57 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
+        <v>{ 'id': '58', 'template_type': 'Section', 'name': 'Nutrition Section [2.16.840.1.113883.10.20.22.2.57[345-347', 'name2': 'Nutrition Section', 'template': '2.16.840.1.113883.10.20.22.2.57', 'pageStart': '345', 'pages': '345-347', 'search': 'Nutrition Section 2.16.840.1.113883.10.20.22.2.57 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="2"/>
@@ -9018,10 +9017,10 @@
       <c r="D60" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60">
         <v>347</v>
       </c>
-      <c r="G60" s="4" t="str">
+      <c r="G60" s="3" t="str">
         <f>VLOOKUP(D60,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>347-348</v>
       </c>
@@ -9040,7 +9039,7 @@
       </c>
       <c r="M60" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:59, template_type:'Section', name:'Objective Section [2.16.840.1.113883.10.20.21.2.1[347-348', name2:'Objective Section', template:'2.16.840.1.113883.10.20.21.2.1', pageStart:347, pages:'347-348', search:'Objective Section 2.16.840.1.113883.10.20.21.2.1 CONF:81-7869;CONF:81-10462;CONF:81-15389;CONF:81-15390;CONF:81-26485;CONF:81-7871;CONF:81-7872' },</v>
+        <v>{ 'id': '59', 'template_type': 'Section', 'name': 'Objective Section [2.16.840.1.113883.10.20.21.2.1[347-348', 'name2': 'Objective Section', 'template': '2.16.840.1.113883.10.20.21.2.1', 'pageStart': '347', 'pages': '347-348', 'search': 'Objective Section 2.16.840.1.113883.10.20.21.2.1 CONF:81-7869;CONF:81-10462;CONF:81-15389;CONF:81-15390;CONF:81-26485;CONF:81-7871;CONF:81-7872' },</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="2"/>
@@ -9060,10 +9059,10 @@
       <c r="D61" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61">
         <v>348</v>
       </c>
-      <c r="G61" s="4" t="str">
+      <c r="G61" s="3" t="str">
         <f>VLOOKUP(D61,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>348-349</v>
       </c>
@@ -9082,7 +9081,7 @@
       </c>
       <c r="M61" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:60, template_type:'Section', name:'Observer Context  [2.16.840.1.113883.10.20.6.2.4[348-349', name2:'Observer Context ', template:'2.16.840.1.113883.10.20.6.2.4', pageStart:348, pages:'348-349', search:'Observer Context  2.16.840.1.113883.10.20.6.2.4 CONF:81-9194;CONF:81-10536;CONF:81-9196;CONF:81-9198' },</v>
+        <v>{ 'id': '60', 'template_type': 'Section', 'name': 'Observer Context  [2.16.840.1.113883.10.20.6.2.4[348-349', 'name2': 'Observer Context ', 'template': '2.16.840.1.113883.10.20.6.2.4', 'pageStart': '348', 'pages': '348-349', 'search': 'Observer Context  2.16.840.1.113883.10.20.6.2.4 CONF:81-9194;CONF:81-10536;CONF:81-9196;CONF:81-9198' },</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="2"/>
@@ -9102,10 +9101,10 @@
       <c r="D62" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
         <v>349</v>
       </c>
-      <c r="G62" s="4" t="str">
+      <c r="G62" s="3" t="str">
         <f>VLOOKUP(D62,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>349-350</v>
       </c>
@@ -9124,7 +9123,7 @@
       </c>
       <c r="M62" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:61, template_type:'Section', name:'Operative Note Fluids Section [2.16.840.1.113883.10.20.7.12[349-350', name2:'Operative Note Fluids Section', template:'2.16.840.1.113883.10.20.7.12', pageStart:349, pages:'349-350', search:'Operative Note Fluids Section 2.16.840.1.113883.10.20.7.12 CONF:81-8030;CONF:81-10463;CONF:81-15391;CONF:81-15392;CONF:81-26486;CONF:81-8032;CONF:81-8033;CONF:81-8052' },</v>
+        <v>{ 'id': '61', 'template_type': 'Section', 'name': 'Operative Note Fluids Section [2.16.840.1.113883.10.20.7.12[349-350', 'name2': 'Operative Note Fluids Section', 'template': '2.16.840.1.113883.10.20.7.12', 'pageStart': '349', 'pages': '349-350', 'search': 'Operative Note Fluids Section 2.16.840.1.113883.10.20.7.12 CONF:81-8030;CONF:81-10463;CONF:81-15391;CONF:81-15392;CONF:81-26486;CONF:81-8032;CONF:81-8033;CONF:81-8052' },</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="2"/>
@@ -9144,10 +9143,10 @@
       <c r="D63" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63">
         <v>350</v>
       </c>
-      <c r="G63" s="4" t="str">
+      <c r="G63" s="3" t="str">
         <f>VLOOKUP(D63,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>350-352</v>
       </c>
@@ -9166,7 +9165,7 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:62, template_type:'Section', name:'Operative Note Surgical Procedure Section [2.16.840.1.113883.10.20.7.14[350-352', name2:'Operative Note Surgical Procedure Section', template:'2.16.840.1.113883.10.20.7.14', pageStart:350, pages:'350-352', search:'Operative Note Surgical Procedure Section 2.16.840.1.113883.10.20.7.14 CONF:81-8034;CONF:81-10464;CONF:81-15393;CONF:81-15394;CONF:81-26487;CONF:81-8036;CONF:81-8037;CONF:81-8054' },</v>
+        <v>{ 'id': '62', 'template_type': 'Section', 'name': 'Operative Note Surgical Procedure Section [2.16.840.1.113883.10.20.7.14[350-352', 'name2': 'Operative Note Surgical Procedure Section', 'template': '2.16.840.1.113883.10.20.7.14', 'pageStart': '350', 'pages': '350-352', 'search': 'Operative Note Surgical Procedure Section 2.16.840.1.113883.10.20.7.14 CONF:81-8034;CONF:81-10464;CONF:81-15393;CONF:81-15394;CONF:81-26487;CONF:81-8036;CONF:81-8037;CONF:81-8054' },</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="2"/>
@@ -9186,10 +9185,10 @@
       <c r="D64" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64">
         <v>352</v>
       </c>
-      <c r="G64" s="4" t="str">
+      <c r="G64" s="3" t="str">
         <f>VLOOKUP(D64,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>352-353</v>
       </c>
@@ -9208,7 +9207,7 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:63, template_type:'Section', name:'Past Medical History  [2.16.840.1.113883.10.20.22.2.20[352-353', name2:'Past Medical History ', template:'2.16.840.1.113883.10.20.22.2.20', pageStart:352, pages:'352-353', search:'Past Medical History  2.16.840.1.113883.10.20.22.2.20 CONF:1198-7828;CONF:1198-10390;CONF:1198-32536;CONF:1198-15474;CONF:1198-15475;CONF:1198-30831;CONF:1198-7830;CONF:1198-7831;CONF:1198-8791;CONF:1198-15476' },</v>
+        <v>{ 'id': '63', 'template_type': 'Section', 'name': 'Past Medical History  [2.16.840.1.113883.10.20.22.2.20[352-353', 'name2': 'Past Medical History ', 'template': '2.16.840.1.113883.10.20.22.2.20', 'pageStart': '352', 'pages': '352-353', 'search': 'Past Medical History  2.16.840.1.113883.10.20.22.2.20 CONF:1198-7828;CONF:1198-10390;CONF:1198-32536;CONF:1198-15474;CONF:1198-15475;CONF:1198-30831;CONF:1198-7830;CONF:1198-7831;CONF:1198-8791;CONF:1198-15476' },</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="2"/>
@@ -9228,10 +9227,10 @@
       <c r="D65" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65">
         <v>353</v>
       </c>
-      <c r="G65" s="4" t="str">
+      <c r="G65" s="3" t="str">
         <f>VLOOKUP(D65,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>353-356</v>
       </c>
@@ -9250,7 +9249,7 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:64, template_type:'Section', name:'Payers Section  [2.16.840.1.113883.10.20.22.2.18[353-356', name2:'Payers Section ', template:'2.16.840.1.113883.10.20.22.2.18', pageStart:353, pages:'353-356', search:'Payers Section  2.16.840.1.113883.10.20.22.2.18 CONF:1198-7924;CONF:1198-10434;CONF:1198-32597;CONF:1198-15395;CONF:1198-15396;CONF:1198-32149;CONF:1198-7926;CONF:1198-7927;CONF:1198-7959;CONF:1198-15501' },</v>
+        <v>{ 'id': '64', 'template_type': 'Section', 'name': 'Payers Section  [2.16.840.1.113883.10.20.22.2.18[353-356', 'name2': 'Payers Section ', 'template': '2.16.840.1.113883.10.20.22.2.18', 'pageStart': '353', 'pages': '353-356', 'search': 'Payers Section  2.16.840.1.113883.10.20.22.2.18 CONF:1198-7924;CONF:1198-10434;CONF:1198-32597;CONF:1198-15395;CONF:1198-15396;CONF:1198-32149;CONF:1198-7926;CONF:1198-7927;CONF:1198-7959;CONF:1198-15501' },</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="2"/>
@@ -9270,10 +9269,10 @@
       <c r="D66" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66">
         <v>356</v>
       </c>
-      <c r="G66" s="4" t="str">
+      <c r="G66" s="3" t="str">
         <f>VLOOKUP(D66,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>356-360</v>
       </c>
@@ -9292,7 +9291,7 @@
       </c>
       <c r="M66" t="str">
         <f t="shared" si="1"/>
-        <v>{ id:65, template_type:'Section', name:'Physical Exam Section   [2.16.840.1.113883.10.20.2.10[356-360', name2:'Physical Exam Section  ', template:'2.16.840.1.113883.10.20.2.10', pageStart:356, pages:'356-360', search:'Physical Exam Section   2.16.840.1.113883.10.20.2.10 CONF:1198-7806;CONF:1198-10465;CONF:1198-32587;CONF:1198-15397;CONF:1198-15398;CONF:1198-30931;CONF:1198-7808;CONF:1198-7809;CONF:1198-31926;CONF:1198-31927;CONF:1198-32434;CONF:1198-32435;CONF:1198-32436;CONF:1198-32437;CONF:1198-32438' },</v>
+        <v>{ 'id': '65', 'template_type': 'Section', 'name': 'Physical Exam Section   [2.16.840.1.113883.10.20.2.10[356-360', 'name2': 'Physical Exam Section  ', 'template': '2.16.840.1.113883.10.20.2.10', 'pageStart': '356', 'pages': '356-360', 'search': 'Physical Exam Section   2.16.840.1.113883.10.20.2.10 CONF:1198-7806;CONF:1198-10465;CONF:1198-32587;CONF:1198-15397;CONF:1198-15398;CONF:1198-30931;CONF:1198-7808;CONF:1198-7809;CONF:1198-31926;CONF:1198-31927;CONF:1198-32434;CONF:1198-32435;CONF:1198-32436;CONF:1198-32437;CONF:1198-32438' },</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="2"/>
@@ -9312,10 +9311,10 @@
       <c r="D67" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67">
         <v>360</v>
       </c>
-      <c r="G67" s="4" t="str">
+      <c r="G67" s="3" t="str">
         <f>VLOOKUP(D67,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>360-365</v>
       </c>
@@ -9333,8 +9332,8 @@
         <v>Plan of Treatment Section  2.16.840.1.113883.10.20.22.2.10 CONF:1098-7723;CONF:1098-10435;CONF:1098-32501;CONF:1098-14749;CONF:1098-14750;CONF:1098-30813;CONF:1098-16986;CONF:1098-7725;CONF:1098-7726;CONF:1098-14751;CONF:1098-8805;CONF:1098-30472;CONF:1098-8807;CONF:1098-30473;CONF:1098-8809;CONF:1098-30474;CONF:1098-8811;CONF:1098-30475;CONF:1098-8813;CONF:1098-30476;CONF:1098-14695;CONF:1098-31397;CONF:1098-29621;CONF:1098-30868;CONF:1098-31841;CONF:1098-31864;CONF:1098-32353;CONF:1098-32354;CONF:1098-32887;CONF:1098-32888</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M130" si="4">"{ id:"&amp;A67&amp;", template_type:'"&amp;C67&amp;"', name:'"&amp;B67&amp;" ["&amp;D67&amp;"["&amp;G67&amp;"', name2:'"&amp;B67&amp;"', template:'"&amp;D67&amp;"', pageStart:"&amp;E67&amp;", pages:'"&amp;G67&amp;"', search:'"&amp;K67&amp;"' },"</f>
-        <v>{ id:66, template_type:'Section', name:'Plan of Treatment Section  [2.16.840.1.113883.10.20.22.2.10[360-365', name2:'Plan of Treatment Section ', template:'2.16.840.1.113883.10.20.22.2.10', pageStart:360, pages:'360-365', search:'Plan of Treatment Section  2.16.840.1.113883.10.20.22.2.10 CONF:1098-7723;CONF:1098-10435;CONF:1098-32501;CONF:1098-14749;CONF:1098-14750;CONF:1098-30813;CONF:1098-16986;CONF:1098-7725;CONF:1098-7726;CONF:1098-14751;CONF:1098-8805;CONF:1098-30472;CONF:1098-8807;CONF:1098-30473;CONF:1098-8809;CONF:1098-30474;CONF:1098-8811;CONF:1098-30475;CONF:1098-8813;CONF:1098-30476;CONF:1098-14695;CONF:1098-31397;CONF:1098-29621;CONF:1098-30868;CONF:1098-31841;CONF:1098-31864;CONF:1098-32353;CONF:1098-32354;CONF:1098-32887;CONF:1098-32888' },</v>
+        <f t="shared" ref="M67:M130" si="4">"{ 'id': '"&amp;A67&amp;"', 'template_type': '"&amp;C67&amp;"', 'name': '"&amp;B67&amp;" ["&amp;D67&amp;"["&amp;G67&amp;"', 'name2': '"&amp;B67&amp;"', 'template': '"&amp;D67&amp;"', 'pageStart': '"&amp;E67&amp;"', 'pages': '"&amp;G67&amp;"', 'search': '"&amp;K67&amp;"' },"</f>
+        <v>{ 'id': '66', 'template_type': 'Section', 'name': 'Plan of Treatment Section  [2.16.840.1.113883.10.20.22.2.10[360-365', 'name2': 'Plan of Treatment Section ', 'template': '2.16.840.1.113883.10.20.22.2.10', 'pageStart': '360', 'pages': '360-365', 'search': 'Plan of Treatment Section  2.16.840.1.113883.10.20.22.2.10 CONF:1098-7723;CONF:1098-10435;CONF:1098-32501;CONF:1098-14749;CONF:1098-14750;CONF:1098-30813;CONF:1098-16986;CONF:1098-7725;CONF:1098-7726;CONF:1098-14751;CONF:1098-8805;CONF:1098-30472;CONF:1098-8807;CONF:1098-30473;CONF:1098-8809;CONF:1098-30474;CONF:1098-8811;CONF:1098-30475;CONF:1098-8813;CONF:1098-30476;CONF:1098-14695;CONF:1098-31397;CONF:1098-29621;CONF:1098-30868;CONF:1098-31841;CONF:1098-31864;CONF:1098-32353;CONF:1098-32354;CONF:1098-32887;CONF:1098-32888' },</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" ref="N67:N130" si="5">"'"&amp;D67&amp;"',"</f>
@@ -9354,10 +9353,10 @@
       <c r="D68" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68">
         <v>365</v>
       </c>
-      <c r="G68" s="4" t="str">
+      <c r="G68" s="3" t="str">
         <f>VLOOKUP(D68,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>365-367</v>
       </c>
@@ -9376,7 +9375,7 @@
       </c>
       <c r="M68" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:67, template_type:'Section', name:'Planned Procedure Section   [2.16.840.1.113883.10.20.22.2.30[365-367', name2:'Planned Procedure Section  ', template:'2.16.840.1.113883.10.20.22.2.30', pageStart:365, pages:'365-367', search:'Planned Procedure Section   2.16.840.1.113883.10.20.22.2.30 CONF:1098-8082;CONF:1098-10436;CONF:1098-32590;CONF:1098-15399;CONF:1098-15400;CONF:1098-32151;CONF:1098-8084;CONF:1098-8085;CONF:1098-8744;CONF:1098-15502' },</v>
+        <v>{ 'id': '67', 'template_type': 'Section', 'name': 'Planned Procedure Section   [2.16.840.1.113883.10.20.22.2.30[365-367', 'name2': 'Planned Procedure Section  ', 'template': '2.16.840.1.113883.10.20.22.2.30', 'pageStart': '365', 'pages': '365-367', 'search': 'Planned Procedure Section   2.16.840.1.113883.10.20.22.2.30 CONF:1098-8082;CONF:1098-10436;CONF:1098-32590;CONF:1098-15399;CONF:1098-15400;CONF:1098-32151;CONF:1098-8084;CONF:1098-8085;CONF:1098-8744;CONF:1098-15502' },</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="5"/>
@@ -9396,10 +9395,10 @@
       <c r="D69" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69">
         <v>367</v>
       </c>
-      <c r="G69" s="4" t="str">
+      <c r="G69" s="3" t="str">
         <f>VLOOKUP(D69,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>367-368</v>
       </c>
@@ -9418,7 +9417,7 @@
       </c>
       <c r="M69" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:68, template_type:'Section', name:'Postoperative Diagnosis Section [2.16.840.1.113883.10.20.22.2.35[367-368', name2:'Postoperative Diagnosis Section', template:'2.16.840.1.113883.10.20.22.2.35', pageStart:367, pages:'367-368', search:'Postoperative Diagnosis Section 2.16.840.1.113883.10.20.22.2.35 CONF:81-8101;CONF:81-10437;CONF:81-15401;CONF:81-15402;CONF:81-26488;CONF:81-8103;CONF:81-8104' },</v>
+        <v>{ 'id': '68', 'template_type': 'Section', 'name': 'Postoperative Diagnosis Section [2.16.840.1.113883.10.20.22.2.35[367-368', 'name2': 'Postoperative Diagnosis Section', 'template': '2.16.840.1.113883.10.20.22.2.35', 'pageStart': '367', 'pages': '367-368', 'search': 'Postoperative Diagnosis Section 2.16.840.1.113883.10.20.22.2.35 CONF:81-8101;CONF:81-10437;CONF:81-15401;CONF:81-15402;CONF:81-26488;CONF:81-8103;CONF:81-8104' },</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="5"/>
@@ -9438,10 +9437,10 @@
       <c r="D70" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70">
         <v>368</v>
       </c>
-      <c r="G70" s="4" t="str">
+      <c r="G70" s="3" t="str">
         <f>VLOOKUP(D70,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>368-370</v>
       </c>
@@ -9460,7 +9459,7 @@
       </c>
       <c r="M70" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:69, template_type:'Section', name:'Postprocedure Diagnosis Section   [2.16.840.1.113883.10.20.22.2.36[368-370', name2:'Postprocedure Diagnosis Section  ', template:'2.16.840.1.113883.10.20.22.2.36', pageStart:368, pages:'368-370', search:'Postprocedure Diagnosis Section   2.16.840.1.113883.10.20.22.2.36 CONF:1198-8167;CONF:1198-10438;CONF:1198-32550;CONF:1198-15403;CONF:1198-15404;CONF:1198-30862;CONF:1198-8170;CONF:1198-8171;CONF:1198-8762;CONF:1198-15503' },</v>
+        <v>{ 'id': '69', 'template_type': 'Section', 'name': 'Postprocedure Diagnosis Section   [2.16.840.1.113883.10.20.22.2.36[368-370', 'name2': 'Postprocedure Diagnosis Section  ', 'template': '2.16.840.1.113883.10.20.22.2.36', 'pageStart': '368', 'pages': '368-370', 'search': 'Postprocedure Diagnosis Section   2.16.840.1.113883.10.20.22.2.36 CONF:1198-8167;CONF:1198-10438;CONF:1198-32550;CONF:1198-15403;CONF:1198-15404;CONF:1198-30862;CONF:1198-8170;CONF:1198-8171;CONF:1198-8762;CONF:1198-15503' },</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="5"/>
@@ -9480,10 +9479,10 @@
       <c r="D71" t="s">
         <v>147</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71">
         <v>370</v>
       </c>
-      <c r="G71" s="4" t="str">
+      <c r="G71" s="3" t="str">
         <f>VLOOKUP(D71,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>370-372</v>
       </c>
@@ -9502,7 +9501,7 @@
       </c>
       <c r="M71" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:70, template_type:'Section', name:'Preoperative Diagnosis Section   [2.16.840.1.113883.10.20.22.2.34[370-372', name2:'Preoperative Diagnosis Section  ', template:'2.16.840.1.113883.10.20.22.2.34', pageStart:370, pages:'370-372', search:'Preoperative Diagnosis Section   2.16.840.1.113883.10.20.22.2.34 CONF:1198-8097;CONF:1198-10439;CONF:1198-32551;CONF:1198-15405;CONF:1198-15406;CONF:1198-30863;CONF:1198-8099;CONF:1198-8100;CONF:1198-10096;CONF:1198-15504' },</v>
+        <v>{ 'id': '70', 'template_type': 'Section', 'name': 'Preoperative Diagnosis Section   [2.16.840.1.113883.10.20.22.2.34[370-372', 'name2': 'Preoperative Diagnosis Section  ', 'template': '2.16.840.1.113883.10.20.22.2.34', 'pageStart': '370', 'pages': '370-372', 'search': 'Preoperative Diagnosis Section   2.16.840.1.113883.10.20.22.2.34 CONF:1198-8097;CONF:1198-10439;CONF:1198-32551;CONF:1198-15405;CONF:1198-15406;CONF:1198-30863;CONF:1198-8099;CONF:1198-8100;CONF:1198-10096;CONF:1198-15504' },</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="5"/>
@@ -9522,10 +9521,10 @@
       <c r="D72" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72">
         <v>372</v>
       </c>
-      <c r="G72" s="4" t="str">
+      <c r="G72" s="3" t="str">
         <f>VLOOKUP(D72,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>372-374</v>
       </c>
@@ -9544,7 +9543,7 @@
       </c>
       <c r="M72" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:71, template_type:'Section', name:'Problem Section (entries optional)  [2.16.840.1.113883.10.20.22.2.5[372-374', name2:'Problem Section (entries optional) ', template:'2.16.840.1.113883.10.20.22.2.5', pageStart:372, pages:'372-374', search:'Problem Section (entries optional)  2.16.840.1.113883.10.20.22.2.5 CONF:1198-7877;CONF:1198-10440;CONF:1198-32511;CONF:1198-15407;CONF:1198-15408;CONF:1198-31141;CONF:1198-7879;CONF:1198-7880;CONF:1198-7881;CONF:1198-15505;CONF:1198-30481;CONF:1198-30482' },</v>
+        <v>{ 'id': '71', 'template_type': 'Section', 'name': 'Problem Section (entries optional)  [2.16.840.1.113883.10.20.22.2.5[372-374', 'name2': 'Problem Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.5', 'pageStart': '372', 'pages': '372-374', 'search': 'Problem Section (entries optional)  2.16.840.1.113883.10.20.22.2.5 CONF:1198-7877;CONF:1198-10440;CONF:1198-32511;CONF:1198-15407;CONF:1198-15408;CONF:1198-31141;CONF:1198-7879;CONF:1198-7880;CONF:1198-7881;CONF:1198-15505;CONF:1198-30481;CONF:1198-30482' },</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="5"/>
@@ -9564,10 +9563,10 @@
       <c r="D73" t="s">
         <v>151</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73">
         <v>374</v>
       </c>
-      <c r="G73" s="4" t="str">
+      <c r="G73" s="3" t="str">
         <f>VLOOKUP(D73,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>374-378</v>
       </c>
@@ -9586,7 +9585,7 @@
       </c>
       <c r="M73" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:72, template_type:'Section', name:'Problem Section (entries required)   [2.16.840.1.113883.10.20.22.2.5.1[374-378', name2:'Problem Section (entries required)  ', template:'2.16.840.1.113883.10.20.22.2.5.1', pageStart:374, pages:'374-378', search:'Problem Section (entries required)   2.16.840.1.113883.10.20.22.2.5.1 CONF:1198-32864;CONF:1198-9179;CONF:1198-10441;CONF:1198-32510;CONF:1198-15409;CONF:1198-15410;CONF:1198-31142;CONF:1198-9181;CONF:1198-9182;CONF:1198-9183;CONF:1198-15506;CONF:1198-30479;CONF:1198-30480' },</v>
+        <v>{ 'id': '72', 'template_type': 'Section', 'name': 'Problem Section (entries required)   [2.16.840.1.113883.10.20.22.2.5.1[374-378', 'name2': 'Problem Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.5.1', 'pageStart': '374', 'pages': '374-378', 'search': 'Problem Section (entries required)   2.16.840.1.113883.10.20.22.2.5.1 CONF:1198-32864;CONF:1198-9179;CONF:1198-10441;CONF:1198-32510;CONF:1198-15409;CONF:1198-15410;CONF:1198-31142;CONF:1198-9181;CONF:1198-9182;CONF:1198-9183;CONF:1198-15506;CONF:1198-30479;CONF:1198-30480' },</v>
       </c>
       <c r="N73" t="str">
         <f t="shared" si="5"/>
@@ -9606,10 +9605,10 @@
       <c r="D74" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74">
         <v>378</v>
       </c>
-      <c r="G74" s="4" t="str">
+      <c r="G74" s="3" t="str">
         <f>VLOOKUP(D74,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>378-380</v>
       </c>
@@ -9628,7 +9627,7 @@
       </c>
       <c r="M74" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:73, template_type:'Section', name:'Procedure Description Section [2.16.840.1.113883.10.20.22.2.27[378-380', name2:'Procedure Description Section', template:'2.16.840.1.113883.10.20.22.2.27', pageStart:378, pages:'378-380', search:'Procedure Description Section 2.16.840.1.113883.10.20.22.2.27 CONF:81-8062;CONF:81-10442;CONF:81-15411;CONF:81-15412;CONF:81-26489;CONF:81-8064;CONF:81-8065' },</v>
+        <v>{ 'id': '73', 'template_type': 'Section', 'name': 'Procedure Description Section [2.16.840.1.113883.10.20.22.2.27[378-380', 'name2': 'Procedure Description Section', 'template': '2.16.840.1.113883.10.20.22.2.27', 'pageStart': '378', 'pages': '378-380', 'search': 'Procedure Description Section 2.16.840.1.113883.10.20.22.2.27 CONF:81-8062;CONF:81-10442;CONF:81-15411;CONF:81-15412;CONF:81-26489;CONF:81-8064;CONF:81-8065' },</v>
       </c>
       <c r="N74" t="str">
         <f t="shared" si="5"/>
@@ -9648,10 +9647,10 @@
       <c r="D75" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75">
         <v>380</v>
       </c>
-      <c r="G75" s="4" t="str">
+      <c r="G75" s="3" t="str">
         <f>VLOOKUP(D75,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>380-381</v>
       </c>
@@ -9670,7 +9669,7 @@
       </c>
       <c r="M75" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:74, template_type:'Section', name:'Procedure Disposition Section  [2.16.840.1.113883.10.20.18.2.12[380-381', name2:'Procedure Disposition Section ', template:'2.16.840.1.113883.10.20.18.2.12', pageStart:380, pages:'380-381', search:'Procedure Disposition Section  2.16.840.1.113883.10.20.18.2.12 CONF:81-8070;CONF:81-10466;CONF:81-15413;CONF:81-15414;CONF:81-26490;CONF:81-8072;CONF:81-8073' },</v>
+        <v>{ 'id': '74', 'template_type': 'Section', 'name': 'Procedure Disposition Section  [2.16.840.1.113883.10.20.18.2.12[380-381', 'name2': 'Procedure Disposition Section ', 'template': '2.16.840.1.113883.10.20.18.2.12', 'pageStart': '380', 'pages': '380-381', 'search': 'Procedure Disposition Section  2.16.840.1.113883.10.20.18.2.12 CONF:81-8070;CONF:81-10466;CONF:81-15413;CONF:81-15414;CONF:81-26490;CONF:81-8072;CONF:81-8073' },</v>
       </c>
       <c r="N75" t="str">
         <f t="shared" si="5"/>
@@ -9690,10 +9689,10 @@
       <c r="D76" t="s">
         <v>157</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76">
         <v>381</v>
       </c>
-      <c r="G76" s="4" t="str">
+      <c r="G76" s="3" t="str">
         <f>VLOOKUP(D76,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>381-382</v>
       </c>
@@ -9712,7 +9711,7 @@
       </c>
       <c r="M76" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:75, template_type:'Section', name:'Procedure Estimated Blood Loss Section [2.16.840.1.113883.10.20.18.2.9[381-382', name2:'Procedure Estimated Blood Loss Section', template:'2.16.840.1.113883.10.20.18.2.9', pageStart:381, pages:'381-382', search:'Procedure Estimated Blood Loss Section 2.16.840.1.113883.10.20.18.2.9 CONF:81-8074;CONF:81-10467;CONF:81-15415;CONF:81-15416;CONF:81-26491;CONF:81-8076;CONF:81-8077;CONF:81-8741' },</v>
+        <v>{ 'id': '75', 'template_type': 'Section', 'name': 'Procedure Estimated Blood Loss Section [2.16.840.1.113883.10.20.18.2.9[381-382', 'name2': 'Procedure Estimated Blood Loss Section', 'template': '2.16.840.1.113883.10.20.18.2.9', 'pageStart': '381', 'pages': '381-382', 'search': 'Procedure Estimated Blood Loss Section 2.16.840.1.113883.10.20.18.2.9 CONF:81-8074;CONF:81-10467;CONF:81-15415;CONF:81-15416;CONF:81-26491;CONF:81-8076;CONF:81-8077;CONF:81-8741' },</v>
       </c>
       <c r="N76" t="str">
         <f t="shared" si="5"/>
@@ -9732,10 +9731,10 @@
       <c r="D77" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77">
         <v>382</v>
       </c>
-      <c r="G77" s="4" t="str">
+      <c r="G77" s="3" t="str">
         <f>VLOOKUP(D77,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>382-384</v>
       </c>
@@ -9754,7 +9753,7 @@
       </c>
       <c r="M77" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:76, template_type:'Section', name:'Procedure Findings Section   [2.16.840.1.113883.10.20.22.2.28[382-384', name2:'Procedure Findings Section  ', template:'2.16.840.1.113883.10.20.22.2.28', pageStart:382, pages:'382-384', search:'Procedure Findings Section   2.16.840.1.113883.10.20.22.2.28 CONF:1198-8078;CONF:1198-10443;CONF:1198-32537;CONF:1198-15417;CONF:1198-15418;CONF:1198-30859;CONF:1198-8080;CONF:1198-8081;CONF:1198-8090;CONF:1198-15507' },</v>
+        <v>{ 'id': '76', 'template_type': 'Section', 'name': 'Procedure Findings Section   [2.16.840.1.113883.10.20.22.2.28[382-384', 'name2': 'Procedure Findings Section  ', 'template': '2.16.840.1.113883.10.20.22.2.28', 'pageStart': '382', 'pages': '382-384', 'search': 'Procedure Findings Section   2.16.840.1.113883.10.20.22.2.28 CONF:1198-8078;CONF:1198-10443;CONF:1198-32537;CONF:1198-15417;CONF:1198-15418;CONF:1198-30859;CONF:1198-8080;CONF:1198-8081;CONF:1198-8090;CONF:1198-15507' },</v>
       </c>
       <c r="N77" t="str">
         <f t="shared" si="5"/>
@@ -9774,10 +9773,10 @@
       <c r="D78" t="s">
         <v>161</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78">
         <v>384</v>
       </c>
-      <c r="G78" s="4" t="str">
+      <c r="G78" s="3" t="str">
         <f>VLOOKUP(D78,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>384-385</v>
       </c>
@@ -9796,7 +9795,7 @@
       </c>
       <c r="M78" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:77, template_type:'Section', name:'Procedure Implants Section [2.16.840.1.113883.10.20.22.2.40[384-385', name2:'Procedure Implants Section', template:'2.16.840.1.113883.10.20.22.2.40', pageStart:384, pages:'384-385', search:'Procedure Implants Section 2.16.840.1.113883.10.20.22.2.40 CONF:81-8178;CONF:81-10444;CONF:81-15373;CONF:81-15374;CONF:81-26492;CONF:81-8180;CONF:81-8181;CONF:81-8769' },</v>
+        <v>{ 'id': '77', 'template_type': 'Section', 'name': 'Procedure Implants Section [2.16.840.1.113883.10.20.22.2.40[384-385', 'name2': 'Procedure Implants Section', 'template': '2.16.840.1.113883.10.20.22.2.40', 'pageStart': '384', 'pages': '384-385', 'search': 'Procedure Implants Section 2.16.840.1.113883.10.20.22.2.40 CONF:81-8178;CONF:81-10444;CONF:81-15373;CONF:81-15374;CONF:81-26492;CONF:81-8180;CONF:81-8181;CONF:81-8769' },</v>
       </c>
       <c r="N78" t="str">
         <f t="shared" si="5"/>
@@ -9816,10 +9815,10 @@
       <c r="D79" t="s">
         <v>163</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79">
         <v>385</v>
       </c>
-      <c r="G79" s="4" t="str">
+      <c r="G79" s="3" t="str">
         <f>VLOOKUP(D79,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>385-387</v>
       </c>
@@ -9838,7 +9837,7 @@
       </c>
       <c r="M79" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:78, template_type:'Section', name:'Procedure Indications Section  [2.16.840.1.113883.10.20.22.2.29[385-387', name2:'Procedure Indications Section ', template:'2.16.840.1.113883.10.20.22.2.29', pageStart:385, pages:'385-387', search:'Procedure Indications Section  2.16.840.1.113883.10.20.22.2.29 CONF:1098-8058;CONF:1098-10445;CONF:1098-32572;CONF:1098-15419;CONF:1098-15420;CONF:1098-30827;CONF:1098-8060;CONF:1098-8061;CONF:1098-8743;CONF:1098-15508' },</v>
+        <v>{ 'id': '78', 'template_type': 'Section', 'name': 'Procedure Indications Section  [2.16.840.1.113883.10.20.22.2.29[385-387', 'name2': 'Procedure Indications Section ', 'template': '2.16.840.1.113883.10.20.22.2.29', 'pageStart': '385', 'pages': '385-387', 'search': 'Procedure Indications Section  2.16.840.1.113883.10.20.22.2.29 CONF:1098-8058;CONF:1098-10445;CONF:1098-32572;CONF:1098-15419;CONF:1098-15420;CONF:1098-30827;CONF:1098-8060;CONF:1098-8061;CONF:1098-8743;CONF:1098-15508' },</v>
       </c>
       <c r="N79" t="str">
         <f t="shared" si="5"/>
@@ -9858,10 +9857,10 @@
       <c r="D80" t="s">
         <v>165</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80">
         <v>387</v>
       </c>
-      <c r="G80" s="4" t="str">
+      <c r="G80" s="3" t="str">
         <f>VLOOKUP(D80,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>387-388</v>
       </c>
@@ -9880,7 +9879,7 @@
       </c>
       <c r="M80" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:79, template_type:'Section', name:'Procedure Specimens Taken Section [2.16.840.1.113883.10.20.22.2.31[387-388', name2:'Procedure Specimens Taken Section', template:'2.16.840.1.113883.10.20.22.2.31', pageStart:387, pages:'387-388', search:'Procedure Specimens Taken Section 2.16.840.1.113883.10.20.22.2.31 CONF:81-8086;CONF:81-10446;CONF:81-15421;CONF:81-15422;CONF:81-26493;CONF:81-8088;CONF:81-8089;CONF:81-8742' },</v>
+        <v>{ 'id': '79', 'template_type': 'Section', 'name': 'Procedure Specimens Taken Section [2.16.840.1.113883.10.20.22.2.31[387-388', 'name2': 'Procedure Specimens Taken Section', 'template': '2.16.840.1.113883.10.20.22.2.31', 'pageStart': '387', 'pages': '387-388', 'search': 'Procedure Specimens Taken Section 2.16.840.1.113883.10.20.22.2.31 CONF:81-8086;CONF:81-10446;CONF:81-15421;CONF:81-15422;CONF:81-26493;CONF:81-8088;CONF:81-8089;CONF:81-8742' },</v>
       </c>
       <c r="N80" t="str">
         <f t="shared" si="5"/>
@@ -9900,10 +9899,10 @@
       <c r="D81" t="s">
         <v>167</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81">
         <v>388</v>
       </c>
-      <c r="G81" s="4" t="str">
+      <c r="G81" s="3" t="str">
         <f>VLOOKUP(D81,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>388-390</v>
       </c>
@@ -9922,7 +9921,7 @@
       </c>
       <c r="M81" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:80, template_type:'Section', name:'Procedures Section (entries optional)   [2.16.840.1.113883.10.20.22.2.7[388-390', name2:'Procedures Section (entries optional)  ', template:'2.16.840.1.113883.10.20.22.2.7', pageStart:388, pages:'388-390', search:'Procedures Section (entries optional)   2.16.840.1.113883.10.20.22.2.7 CONF:1098-6270;CONF:1098-6271;CONF:1098-32532;CONF:1098-15423;CONF:1098-15424;CONF:1098-31139;CONF:1098-17184;CONF:1098-6273;CONF:1098-6274;CONF:1098-15509;CONF:1098-6278;CONF:1098-15510;CONF:1098-8533;CONF:1098-15511' },</v>
+        <v>{ 'id': '80', 'template_type': 'Section', 'name': 'Procedures Section (entries optional)   [2.16.840.1.113883.10.20.22.2.7[388-390', 'name2': 'Procedures Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.7', 'pageStart': '388', 'pages': '388-390', 'search': 'Procedures Section (entries optional)   2.16.840.1.113883.10.20.22.2.7 CONF:1098-6270;CONF:1098-6271;CONF:1098-32532;CONF:1098-15423;CONF:1098-15424;CONF:1098-31139;CONF:1098-17184;CONF:1098-6273;CONF:1098-6274;CONF:1098-15509;CONF:1098-6278;CONF:1098-15510;CONF:1098-8533;CONF:1098-15511' },</v>
       </c>
       <c r="N81" t="str">
         <f t="shared" si="5"/>
@@ -9942,10 +9941,10 @@
       <c r="D82" t="s">
         <v>169</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82">
         <v>390</v>
       </c>
-      <c r="G82" s="4" t="str">
+      <c r="G82" s="3" t="str">
         <f>VLOOKUP(D82,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>390-393</v>
       </c>
@@ -9964,7 +9963,7 @@
       </c>
       <c r="M82" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:81, template_type:'Section', name:'Procedures Section (entries required)  [2.16.840.1.113883.10.20.22.2.7.1[390-393', name2:'Procedures Section (entries required) ', template:'2.16.840.1.113883.10.20.22.2.7.1', pageStart:390, pages:'390-393', search:'Procedures Section (entries required)  2.16.840.1.113883.10.20.22.2.7.1 CONF:1098-32876;CONF:1098-7891;CONF:1098-10447;CONF:1098-32533;CONF:1098-15425;CONF:1098-15426;CONF:1098-31138;CONF:1098-7893;CONF:1098-7894;CONF:1098-7895;CONF:1098-32877;CONF:1098-32878;CONF:1098-15512' },</v>
+        <v>{ 'id': '81', 'template_type': 'Section', 'name': 'Procedures Section (entries required)  [2.16.840.1.113883.10.20.22.2.7.1[390-393', 'name2': 'Procedures Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.7.1', 'pageStart': '390', 'pages': '390-393', 'search': 'Procedures Section (entries required)  2.16.840.1.113883.10.20.22.2.7.1 CONF:1098-32876;CONF:1098-7891;CONF:1098-10447;CONF:1098-32533;CONF:1098-15425;CONF:1098-15426;CONF:1098-31138;CONF:1098-7893;CONF:1098-7894;CONF:1098-7895;CONF:1098-32877;CONF:1098-32878;CONF:1098-15512' },</v>
       </c>
       <c r="N82" t="str">
         <f t="shared" si="5"/>
@@ -9984,10 +9983,10 @@
       <c r="D83" t="s">
         <v>171</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83">
         <v>393</v>
       </c>
-      <c r="G83" s="4" t="str">
+      <c r="G83" s="3" t="str">
         <f>VLOOKUP(D83,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>393-395</v>
       </c>
@@ -10006,7 +10005,7 @@
       </c>
       <c r="M83" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:82, template_type:'Section', name:'Reason for Referral Section  [1.3.6.1.4.1.19376.1.5.3.1.3.1[393-395', name2:'Reason for Referral Section ', template:'1.3.6.1.4.1.19376.1.5.3.1.3.1', pageStart:393, pages:'393-395', search:'Reason for Referral Section  1.3.6.1.4.1.19376.1.5.3.1.3.1 CONF:1098-7844;CONF:1098-10468;CONF:1098-32571;CONF:1098-15427;CONF:1098-15428;CONF:1098-30867;CONF:1098-7846;CONF:1098-7847;CONF:1098-30808;CONF:1098-30897' },</v>
+        <v>{ 'id': '82', 'template_type': 'Section', 'name': 'Reason for Referral Section  [1.3.6.1.4.1.19376.1.5.3.1.3.1[393-395', 'name2': 'Reason for Referral Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.1', 'pageStart': '393', 'pages': '393-395', 'search': 'Reason for Referral Section  1.3.6.1.4.1.19376.1.5.3.1.3.1 CONF:1098-7844;CONF:1098-10468;CONF:1098-32571;CONF:1098-15427;CONF:1098-15428;CONF:1098-30867;CONF:1098-7846;CONF:1098-7847;CONF:1098-30808;CONF:1098-30897' },</v>
       </c>
       <c r="N83" t="str">
         <f t="shared" si="5"/>
@@ -10026,10 +10025,10 @@
       <c r="D84" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84">
         <v>395</v>
       </c>
-      <c r="G84" s="4" t="str">
+      <c r="G84" s="3" t="str">
         <f>VLOOKUP(D84,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>395-397</v>
       </c>
@@ -10048,7 +10047,7 @@
       </c>
       <c r="M84" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:83, template_type:'Section', name:'Reason for Visit Section [2.16.840.1.113883.10.20.22.2.12[395-397', name2:'Reason for Visit Section', template:'2.16.840.1.113883.10.20.22.2.12', pageStart:395, pages:'395-397', search:'Reason for Visit Section 2.16.840.1.113883.10.20.22.2.12 CONF:81-7836;CONF:81-10448;CONF:81-15429;CONF:81-15430;CONF:81-26494;CONF:81-7838;CONF:81-7839' },</v>
+        <v>{ 'id': '83', 'template_type': 'Section', 'name': 'Reason for Visit Section [2.16.840.1.113883.10.20.22.2.12[395-397', 'name2': 'Reason for Visit Section', 'template': '2.16.840.1.113883.10.20.22.2.12', 'pageStart': '395', 'pages': '395-397', 'search': 'Reason for Visit Section 2.16.840.1.113883.10.20.22.2.12 CONF:81-7836;CONF:81-10448;CONF:81-15429;CONF:81-15430;CONF:81-26494;CONF:81-7838;CONF:81-7839' },</v>
       </c>
       <c r="N84" t="str">
         <f t="shared" si="5"/>
@@ -10068,10 +10067,10 @@
       <c r="D85" t="s">
         <v>175</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85">
         <v>397</v>
       </c>
-      <c r="G85" s="4" t="str">
+      <c r="G85" s="3" t="str">
         <f>VLOOKUP(D85,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>397-399</v>
       </c>
@@ -10090,7 +10089,7 @@
       </c>
       <c r="M85" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:84, template_type:'Section', name:'Results Section (entries optional)  [2.16.840.1.113883.10.20.22.2.3[397-399', name2:'Results Section (entries optional) ', template:'2.16.840.1.113883.10.20.22.2.3', pageStart:397, pages:'397-399', search:'Results Section (entries optional)  2.16.840.1.113883.10.20.22.2.3 CONF:1198-7116;CONF:1198-9136;CONF:1198-32591;CONF:1198-15431;CONF:1198-15432;CONF:1198-31041;CONF:1198-8891;CONF:1198-7118;CONF:1198-7119;CONF:1198-15515' },</v>
+        <v>{ 'id': '84', 'template_type': 'Section', 'name': 'Results Section (entries optional)  [2.16.840.1.113883.10.20.22.2.3[397-399', 'name2': 'Results Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.3', 'pageStart': '397', 'pages': '397-399', 'search': 'Results Section (entries optional)  2.16.840.1.113883.10.20.22.2.3 CONF:1198-7116;CONF:1198-9136;CONF:1198-32591;CONF:1198-15431;CONF:1198-15432;CONF:1198-31041;CONF:1198-8891;CONF:1198-7118;CONF:1198-7119;CONF:1198-15515' },</v>
       </c>
       <c r="N85" t="str">
         <f t="shared" si="5"/>
@@ -10110,10 +10109,10 @@
       <c r="D86" t="s">
         <v>177</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86">
         <v>399</v>
       </c>
-      <c r="G86" s="4" t="str">
+      <c r="G86" s="3" t="str">
         <f>VLOOKUP(D86,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>399-401</v>
       </c>
@@ -10132,7 +10131,7 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:85, template_type:'Section', name:'Results Section (entries required)   [2.16.840.1.113883.10.20.22.2.3.1[399-401', name2:'Results Section (entries required)  ', template:'2.16.840.1.113883.10.20.22.2.3.1', pageStart:399, pages:'399-401', search:'Results Section (entries required)   2.16.840.1.113883.10.20.22.2.3.1 CONF:1198-32875;CONF:1198-7108;CONF:1198-9137;CONF:1198-32592;CONF:1198-15433;CONF:1198-15434;CONF:1198-31040;CONF:1198-8892;CONF:1198-7111;CONF:1198-7112;CONF:1198-15516' },</v>
+        <v>{ 'id': '85', 'template_type': 'Section', 'name': 'Results Section (entries required)   [2.16.840.1.113883.10.20.22.2.3.1[399-401', 'name2': 'Results Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.3.1', 'pageStart': '399', 'pages': '399-401', 'search': 'Results Section (entries required)   2.16.840.1.113883.10.20.22.2.3.1 CONF:1198-32875;CONF:1198-7108;CONF:1198-9137;CONF:1198-32592;CONF:1198-15433;CONF:1198-15434;CONF:1198-31040;CONF:1198-8892;CONF:1198-7111;CONF:1198-7112;CONF:1198-15516' },</v>
       </c>
       <c r="N86" t="str">
         <f t="shared" si="5"/>
@@ -10152,10 +10151,10 @@
       <c r="D87" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87">
         <v>401</v>
       </c>
-      <c r="G87" s="4" t="str">
+      <c r="G87" s="3" t="str">
         <f>VLOOKUP(D87,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>401-403</v>
       </c>
@@ -10174,7 +10173,7 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:86, template_type:'Section', name:'Review of Systems Section [1.3.6.1.4.1.19376.1.5.3.1.3.18[401-403', name2:'Review of Systems Section', template:'1.3.6.1.4.1.19376.1.5.3.1.3.18', pageStart:401, pages:'401-403', search:'Review of Systems Section 1.3.6.1.4.1.19376.1.5.3.1.3.18 CONF:81-7812;CONF:81-10469;CONF:81-15435;CONF:81-15436;CONF:81-26495;CONF:81-7814;CONF:81-7815' },</v>
+        <v>{ 'id': '86', 'template_type': 'Section', 'name': 'Review of Systems Section [1.3.6.1.4.1.19376.1.5.3.1.3.18[401-403', 'name2': 'Review of Systems Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.18', 'pageStart': '401', 'pages': '401-403', 'search': 'Review of Systems Section 1.3.6.1.4.1.19376.1.5.3.1.3.18 CONF:81-7812;CONF:81-10469;CONF:81-15435;CONF:81-15436;CONF:81-26495;CONF:81-7814;CONF:81-7815' },</v>
       </c>
       <c r="N87" t="str">
         <f t="shared" si="5"/>
@@ -10194,10 +10193,10 @@
       <c r="D88" t="s">
         <v>181</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88">
         <v>403</v>
       </c>
-      <c r="G88" s="4" t="str">
+      <c r="G88" s="3" t="str">
         <f>VLOOKUP(D88,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>403-407</v>
       </c>
@@ -10216,7 +10215,7 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:87, template_type:'Section', name:'Social History Section  [2.16.840.1.113883.10.20.22.2.17[403-407', name2:'Social History Section ', template:'2.16.840.1.113883.10.20.22.2.17', pageStart:403, pages:'403-407', search:'Social History Section  2.16.840.1.113883.10.20.22.2.17 CONF:1198-7936;CONF:1198-10449;CONF:1198-32494;CONF:1198-14819;CONF:1198-14820;CONF:1198-30814;CONF:1198-7938;CONF:1198-7939;CONF:1198-7953;CONF:1198-14821;CONF:1198-9132;CONF:1198-14822;CONF:1198-14823;CONF:1198-14824;CONF:1198-16816;CONF:1198-16817;CONF:1198-28361;CONF:1198-28362;CONF:1198-28366;CONF:1198-28367;CONF:1198-28825;CONF:1198-28826' },</v>
+        <v>{ 'id': '87', 'template_type': 'Section', 'name': 'Social History Section  [2.16.840.1.113883.10.20.22.2.17[403-407', 'name2': 'Social History Section ', 'template': '2.16.840.1.113883.10.20.22.2.17', 'pageStart': '403', 'pages': '403-407', 'search': 'Social History Section  2.16.840.1.113883.10.20.22.2.17 CONF:1198-7936;CONF:1198-10449;CONF:1198-32494;CONF:1198-14819;CONF:1198-14820;CONF:1198-30814;CONF:1198-7938;CONF:1198-7939;CONF:1198-7953;CONF:1198-14821;CONF:1198-9132;CONF:1198-14822;CONF:1198-14823;CONF:1198-14824;CONF:1198-16816;CONF:1198-16817;CONF:1198-28361;CONF:1198-28362;CONF:1198-28366;CONF:1198-28367;CONF:1198-28825;CONF:1198-28826' },</v>
       </c>
       <c r="N88" t="str">
         <f t="shared" si="5"/>
@@ -10236,10 +10235,10 @@
       <c r="D89" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89">
         <v>407</v>
       </c>
-      <c r="G89" s="4" t="str">
+      <c r="G89" s="3" t="str">
         <f>VLOOKUP(D89,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>407-408</v>
       </c>
@@ -10258,7 +10257,7 @@
       </c>
       <c r="M89" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:88, template_type:'Section', name:'Subjective Section [2.16.840.1.113883.10.20.21.2.2[407-408', name2:'Subjective Section', template:'2.16.840.1.113883.10.20.21.2.2', pageStart:407, pages:'407-408', search:'Subjective Section 2.16.840.1.113883.10.20.21.2.2 CONF:81-7873;CONF:81-10470;CONF:81-15437;CONF:81-15438;CONF:81-26496;CONF:81-7875;CONF:81-7876' },</v>
+        <v>{ 'id': '88', 'template_type': 'Section', 'name': 'Subjective Section [2.16.840.1.113883.10.20.21.2.2[407-408', 'name2': 'Subjective Section', 'template': '2.16.840.1.113883.10.20.21.2.2', 'pageStart': '407', 'pages': '407-408', 'search': 'Subjective Section 2.16.840.1.113883.10.20.21.2.2 CONF:81-7873;CONF:81-10470;CONF:81-15437;CONF:81-15438;CONF:81-26496;CONF:81-7875;CONF:81-7876' },</v>
       </c>
       <c r="N89" t="str">
         <f t="shared" si="5"/>
@@ -10278,10 +10277,10 @@
       <c r="D90" t="s">
         <v>185</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90">
         <v>408</v>
       </c>
-      <c r="G90" s="4" t="str">
+      <c r="G90" s="3" t="str">
         <f>VLOOKUP(D90,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>408-409</v>
       </c>
@@ -10300,7 +10299,7 @@
       </c>
       <c r="M90" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:89, template_type:'Section', name:'Surgery Description Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.26[408-409', name2:'Surgery Description Section (DEPRECATED) ', template:'2.16.840.1.113883.10.20.22.2.26', pageStart:408, pages:'408-409', search:'Surgery Description Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.26 CONF:1098-8022;CONF:1098-10450;CONF:1098-32893;CONF:1098-15439;CONF:1098-15440;CONF:1098-26497;CONF:1098-8024;CONF:1098-8025' },</v>
+        <v>{ 'id': '89', 'template_type': 'Section', 'name': 'Surgery Description Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.26[408-409', 'name2': 'Surgery Description Section (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.2.26', 'pageStart': '408', 'pages': '408-409', 'search': 'Surgery Description Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.26 CONF:1098-8022;CONF:1098-10450;CONF:1098-32893;CONF:1098-15439;CONF:1098-15440;CONF:1098-26497;CONF:1098-8024;CONF:1098-8025' },</v>
       </c>
       <c r="N90" t="str">
         <f t="shared" si="5"/>
@@ -10320,10 +10319,10 @@
       <c r="D91" t="s">
         <v>187</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91">
         <v>409</v>
       </c>
-      <c r="G91" s="4" t="str">
+      <c r="G91" s="3" t="str">
         <f>VLOOKUP(D91,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>409-411</v>
       </c>
@@ -10342,7 +10341,7 @@
       </c>
       <c r="M91" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:90, template_type:'Section', name:'Surgical Drains Section [2.16.840.1.113883.10.20.7.13[409-411', name2:'Surgical Drains Section', template:'2.16.840.1.113883.10.20.7.13', pageStart:409, pages:'409-411', search:'Surgical Drains Section 2.16.840.1.113883.10.20.7.13 CONF:81-8038;CONF:81-10473;CONF:81-15441;CONF:81-15442;CONF:81-26498;CONF:81-8040;CONF:81-8041;CONF:81-8056' },</v>
+        <v>{ 'id': '90', 'template_type': 'Section', 'name': 'Surgical Drains Section [2.16.840.1.113883.10.20.7.13[409-411', 'name2': 'Surgical Drains Section', 'template': '2.16.840.1.113883.10.20.7.13', 'pageStart': '409', 'pages': '409-411', 'search': 'Surgical Drains Section 2.16.840.1.113883.10.20.7.13 CONF:81-8038;CONF:81-10473;CONF:81-15441;CONF:81-15442;CONF:81-26498;CONF:81-8040;CONF:81-8041;CONF:81-8056' },</v>
       </c>
       <c r="N91" t="str">
         <f t="shared" si="5"/>
@@ -10362,10 +10361,10 @@
       <c r="D92" t="s">
         <v>189</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>411</v>
       </c>
-      <c r="G92" s="4" t="str">
+      <c r="G92" s="3" t="str">
         <f>VLOOKUP(D92,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>411-412</v>
       </c>
@@ -10384,7 +10383,7 @@
       </c>
       <c r="M92" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:91, template_type:'Section', name:'Vital Signs Section (entries optional)  [2.16.840.1.113883.10.20.22.2.4[411-412', name2:'Vital Signs Section (entries optional) ', template:'2.16.840.1.113883.10.20.22.2.4', pageStart:411, pages:'411-412', search:'Vital Signs Section (entries optional)  2.16.840.1.113883.10.20.22.2.4 CONF:1198-7268;CONF:1198-10451;CONF:1198-32584;CONF:1198-15242;CONF:1198-15243;CONF:1198-30902;CONF:1198-9966;CONF:1198-7270;CONF:1198-7271;CONF:1198-15517' },</v>
+        <v>{ 'id': '91', 'template_type': 'Section', 'name': 'Vital Signs Section (entries optional)  [2.16.840.1.113883.10.20.22.2.4[411-412', 'name2': 'Vital Signs Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.4', 'pageStart': '411', 'pages': '411-412', 'search': 'Vital Signs Section (entries optional)  2.16.840.1.113883.10.20.22.2.4 CONF:1198-7268;CONF:1198-10451;CONF:1198-32584;CONF:1198-15242;CONF:1198-15243;CONF:1198-30902;CONF:1198-9966;CONF:1198-7270;CONF:1198-7271;CONF:1198-15517' },</v>
       </c>
       <c r="N92" t="str">
         <f t="shared" si="5"/>
@@ -10404,10 +10403,10 @@
       <c r="D93" t="s">
         <v>191</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
         <v>412</v>
       </c>
-      <c r="G93" s="4" t="str">
+      <c r="G93" s="3" t="str">
         <f>VLOOKUP(D93,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>412-415</v>
       </c>
@@ -10426,7 +10425,7 @@
       </c>
       <c r="M93" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:92, template_type:'Section', name:'Vital Signs Section (entries required)   [2.16.840.1.113883.10.20.22.2.4.1[412-415', name2:'Vital Signs Section (entries required)  ', template:'2.16.840.1.113883.10.20.22.2.4.1', pageStart:412, pages:'412-415', search:'Vital Signs Section (entries required)   2.16.840.1.113883.10.20.22.2.4.1 CONF:1198-32874;CONF:1198-7273;CONF:1198-10452;CONF:1198-32585;CONF:1198-15962;CONF:1198-15963;CONF:1198-30903;CONF:1198-9967;CONF:1198-7275;CONF:1198-7276;CONF:1198-15964' },</v>
+        <v>{ 'id': '92', 'template_type': 'Section', 'name': 'Vital Signs Section (entries required)   [2.16.840.1.113883.10.20.22.2.4.1[412-415', 'name2': 'Vital Signs Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.4.1', 'pageStart': '412', 'pages': '412-415', 'search': 'Vital Signs Section (entries required)   2.16.840.1.113883.10.20.22.2.4.1 CONF:1198-32874;CONF:1198-7273;CONF:1198-10452;CONF:1198-32585;CONF:1198-15962;CONF:1198-15963;CONF:1198-30903;CONF:1198-9967;CONF:1198-7275;CONF:1198-7276;CONF:1198-15964' },</v>
       </c>
       <c r="N93" t="str">
         <f t="shared" si="5"/>
@@ -10446,10 +10445,10 @@
       <c r="D94" t="s">
         <v>193</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94">
         <v>415</v>
       </c>
-      <c r="G94" s="4" t="str">
+      <c r="G94" s="3" t="str">
         <f>VLOOKUP(D94,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>415-417</v>
       </c>
@@ -10468,7 +10467,7 @@
       </c>
       <c r="M94" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:93, template_type:'Entry', name:'Admission Medication   [2.16.840.1.113883.10.20.22.4.36[415-417', name2:'Admission Medication  ', template:'2.16.840.1.113883.10.20.22.4.36', pageStart:415, pages:'415-417', search:'Admission Medication   2.16.840.1.113883.10.20.22.4.36 CONF:1098-7698;CONF:1098-7699;CONF:1098-16758;CONF:1098-16759;CONF:1098-32524;CONF:1098-15518;CONF:1098-15519;CONF:1098-32152;CONF:1098-7701;CONF:1098-7702;CONF:1098-15520' },</v>
+        <v>{ 'id': '93', 'template_type': 'Entry', 'name': 'Admission Medication   [2.16.840.1.113883.10.20.22.4.36[415-417', 'name2': 'Admission Medication  ', 'template': '2.16.840.1.113883.10.20.22.4.36', 'pageStart': '415', 'pages': '415-417', 'search': 'Admission Medication   2.16.840.1.113883.10.20.22.4.36 CONF:1098-7698;CONF:1098-7699;CONF:1098-16758;CONF:1098-16759;CONF:1098-32524;CONF:1098-15518;CONF:1098-15519;CONF:1098-32152;CONF:1098-7701;CONF:1098-7702;CONF:1098-15520' },</v>
       </c>
       <c r="N94" t="str">
         <f t="shared" si="5"/>
@@ -10488,10 +10487,10 @@
       <c r="D95" t="s">
         <v>195</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
         <v>417</v>
       </c>
-      <c r="G95" s="4" t="str">
+      <c r="G95" s="3" t="str">
         <f>VLOOKUP(D95,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>417-426</v>
       </c>
@@ -10510,7 +10509,7 @@
       </c>
       <c r="M95" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:94, template_type:'Entry', name:'Advance Directive Observation   [2.16.840.1.113883.10.20.22.4.48[417-426', name2:'Advance Directive Observation  ', template:'2.16.840.1.113883.10.20.22.4.48', pageStart:417, pages:'417-426', search:'Advance Directive Observation   2.16.840.1.113883.10.20.22.4.48 CONF:1198-8648;CONF:1198-8649;CONF:1198-8655;CONF:1198-10485;CONF:1198-32496;CONF:1198-8654;CONF:1198-8651;CONF:1198-32842;CONF:1198-32843;CONF:1198-32844;CONF:1198-8652;CONF:1198-19082;CONF:1198-8656;CONF:1198-28719;CONF:1198-15521;CONF:1198-32449;CONF:1198-30804;CONF:1198-32493;CONF:1198-32406;CONF:1198-8662;CONF:1198-8663;CONF:1198-8664;CONF:1198-10486;CONF:1198-8665;CONF:1198-8666;CONF:1198-8825;CONF:1198-28446;CONF:1198-28451;CONF:1198-28428;CONF:1198-28454;CONF:1198-8667;CONF:1198-8668;CONF:1198-8669;CONF:1198-8670;CONF:1198-28440;CONF:1198-8671;CONF:1198-8672;CONF:1198-8824;CONF:1198-28444;CONF:1198-8673;CONF:1198-8692;CONF:1198-8694;CONF:1198-8693;CONF:1198-8695;CONF:1198-8696;CONF:1198-8697;CONF:1198-8698;CONF:1198-8699' },</v>
+        <v>{ 'id': '94', 'template_type': 'Entry', 'name': 'Advance Directive Observation   [2.16.840.1.113883.10.20.22.4.48[417-426', 'name2': 'Advance Directive Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.48', 'pageStart': '417', 'pages': '417-426', 'search': 'Advance Directive Observation   2.16.840.1.113883.10.20.22.4.48 CONF:1198-8648;CONF:1198-8649;CONF:1198-8655;CONF:1198-10485;CONF:1198-32496;CONF:1198-8654;CONF:1198-8651;CONF:1198-32842;CONF:1198-32843;CONF:1198-32844;CONF:1198-8652;CONF:1198-19082;CONF:1198-8656;CONF:1198-28719;CONF:1198-15521;CONF:1198-32449;CONF:1198-30804;CONF:1198-32493;CONF:1198-32406;CONF:1198-8662;CONF:1198-8663;CONF:1198-8664;CONF:1198-10486;CONF:1198-8665;CONF:1198-8666;CONF:1198-8825;CONF:1198-28446;CONF:1198-28451;CONF:1198-28428;CONF:1198-28454;CONF:1198-8667;CONF:1198-8668;CONF:1198-8669;CONF:1198-8670;CONF:1198-28440;CONF:1198-8671;CONF:1198-8672;CONF:1198-8824;CONF:1198-28444;CONF:1198-8673;CONF:1198-8692;CONF:1198-8694;CONF:1198-8693;CONF:1198-8695;CONF:1198-8696;CONF:1198-8697;CONF:1198-8698;CONF:1198-8699' },</v>
       </c>
       <c r="N95" t="str">
         <f t="shared" si="5"/>
@@ -10530,10 +10529,10 @@
       <c r="D96" t="s">
         <v>197</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
         <v>426</v>
       </c>
-      <c r="G96" s="4" t="str">
+      <c r="G96" s="3" t="str">
         <f>VLOOKUP(D96,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>426-430</v>
       </c>
@@ -10552,7 +10551,7 @@
       </c>
       <c r="M96" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:95, template_type:'Entry', name:'Advance Directive Organizer  [2.16.840.1.113883.10.20.22.4.108[426-430', name2:'Advance Directive Organizer ', template:'2.16.840.1.113883.10.20.22.4.108', pageStart:426, pages:'426-430', search:'Advance Directive Organizer  2.16.840.1.113883.10.20.22.4.108 CONF:1198-28410;CONF:1198-28411;CONF:1198-28412;CONF:1198-28413;CONF:1198-32876;CONF:1198-28414;CONF:1198-28415;CONF:1198-31230;CONF:1198-31231;CONF:1198-28418;CONF:1198-31346;CONF:1198-32407;CONF:1198-28420;CONF:1198-28421' },</v>
+        <v>{ 'id': '95', 'template_type': 'Entry', 'name': 'Advance Directive Organizer  [2.16.840.1.113883.10.20.22.4.108[426-430', 'name2': 'Advance Directive Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.108', 'pageStart': '426', 'pages': '426-430', 'search': 'Advance Directive Organizer  2.16.840.1.113883.10.20.22.4.108 CONF:1198-28410;CONF:1198-28411;CONF:1198-28412;CONF:1198-28413;CONF:1198-32876;CONF:1198-28414;CONF:1198-28415;CONF:1198-31230;CONF:1198-31231;CONF:1198-28418;CONF:1198-31346;CONF:1198-32407;CONF:1198-28420;CONF:1198-28421' },</v>
       </c>
       <c r="N96" t="str">
         <f t="shared" si="5"/>
@@ -10572,10 +10571,10 @@
       <c r="D97" t="s">
         <v>199</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
         <v>430</v>
       </c>
-      <c r="G97" s="4" t="str">
+      <c r="G97" s="3" t="str">
         <f>VLOOKUP(D97,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>430-432</v>
       </c>
@@ -10594,7 +10593,7 @@
       </c>
       <c r="M97" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:96, template_type:'Entry', name:'Age Observation [2.16.840.1.113883.10.20.22.4.31[430-432', name2:'Age Observation', template:'2.16.840.1.113883.10.20.22.4.31', pageStart:430, pages:'430-432', search:'Age Observation 2.16.840.1.113883.10.20.22.4.31 CONF:81-7613;CONF:81-7614;CONF:81-7899;CONF:81-10487;CONF:81-7615;CONF:81-16776;CONF:81-26499;CONF:81-15965;CONF:81-15966;CONF:81-7617;CONF:81-7618' },</v>
+        <v>{ 'id': '96', 'template_type': 'Entry', 'name': 'Age Observation [2.16.840.1.113883.10.20.22.4.31[430-432', 'name2': 'Age Observation', 'template': '2.16.840.1.113883.10.20.22.4.31', 'pageStart': '430', 'pages': '430-432', 'search': 'Age Observation 2.16.840.1.113883.10.20.22.4.31 CONF:81-7613;CONF:81-7614;CONF:81-7899;CONF:81-10487;CONF:81-7615;CONF:81-16776;CONF:81-26499;CONF:81-15965;CONF:81-15966;CONF:81-7617;CONF:81-7618' },</v>
       </c>
       <c r="N97" t="str">
         <f t="shared" si="5"/>
@@ -10614,10 +10613,10 @@
       <c r="D98" t="s">
         <v>201</v>
       </c>
-      <c r="E98" s="3">
-        <v>432</v>
-      </c>
-      <c r="G98" s="4" t="str">
+      <c r="E98">
+        <v>432</v>
+      </c>
+      <c r="G98" s="3" t="str">
         <f>VLOOKUP(D98,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>432-436</v>
       </c>
@@ -10636,7 +10635,7 @@
       </c>
       <c r="M98" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:97, template_type:'Entry', name:'Allergy Concern Act  [2.16.840.1.113883.10.20.22.4.30[432-436', name2:'Allergy Concern Act ', template:'2.16.840.1.113883.10.20.22.4.30', pageStart:432, pages:'432-436', search:'Allergy Concern Act  2.16.840.1.113883.10.20.22.4.30 CONF:1198-7469;CONF:1198-7470;CONF:1198-7471;CONF:1198-10489;CONF:1198-32543;CONF:1198-7472;CONF:1198-7477;CONF:1198-19158;CONF:1198-32154;CONF:1198-7485;CONF:1198-19086;CONF:1198-7498;CONF:1198-7504;CONF:1198-10085;CONF:1198-31145;CONF:1198-7509;CONF:1198-7915;CONF:1198-14925' },</v>
+        <v>{ 'id': '97', 'template_type': 'Entry', 'name': 'Allergy Concern Act  [2.16.840.1.113883.10.20.22.4.30[432-436', 'name2': 'Allergy Concern Act ', 'template': '2.16.840.1.113883.10.20.22.4.30', 'pageStart': '432', 'pages': '432-436', 'search': 'Allergy Concern Act  2.16.840.1.113883.10.20.22.4.30 CONF:1198-7469;CONF:1198-7470;CONF:1198-7471;CONF:1198-10489;CONF:1198-32543;CONF:1198-7472;CONF:1198-7477;CONF:1198-19158;CONF:1198-32154;CONF:1198-7485;CONF:1198-19086;CONF:1198-7498;CONF:1198-7504;CONF:1198-10085;CONF:1198-31145;CONF:1198-7509;CONF:1198-7915;CONF:1198-14925' },</v>
       </c>
       <c r="N98" t="str">
         <f t="shared" si="5"/>
@@ -10656,10 +10655,10 @@
       <c r="D99" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>436</v>
       </c>
-      <c r="G99" s="4" t="str">
+      <c r="G99" s="3" t="str">
         <f>VLOOKUP(D99,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>436-438</v>
       </c>
@@ -10678,7 +10677,7 @@
       </c>
       <c r="M99" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:98, template_type:'Entry', name:'Allergy Status Observation  [2.16.840.1.113883.10.20.22.4.28[436-438', name2:'Allergy Status Observation ', template:'2.16.840.1.113883.10.20.22.4.28', pageStart:436, pages:'436-438', search:'Allergy Status Observation  2.16.840.1.113883.10.20.22.4.28 CONF:1198-7318;CONF:1198-7319;CONF:1198-7317;CONF:1198-10490;CONF:1198-32962;CONF:1198-7320;CONF:1198-19131;CONF:1198-32155;CONF:1198-7321;CONF:1198-19087;CONF:1198-7322' },</v>
+        <v>{ 'id': '98', 'template_type': 'Entry', 'name': 'Allergy Status Observation  [2.16.840.1.113883.10.20.22.4.28[436-438', 'name2': 'Allergy Status Observation ', 'template': '2.16.840.1.113883.10.20.22.4.28', 'pageStart': '436', 'pages': '436-438', 'search': 'Allergy Status Observation  2.16.840.1.113883.10.20.22.4.28 CONF:1198-7318;CONF:1198-7319;CONF:1198-7317;CONF:1198-10490;CONF:1198-32962;CONF:1198-7320;CONF:1198-19131;CONF:1198-32155;CONF:1198-7321;CONF:1198-19087;CONF:1198-7322' },</v>
       </c>
       <c r="N99" t="str">
         <f t="shared" si="5"/>
@@ -10698,10 +10697,10 @@
       <c r="D100" t="s">
         <v>205</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>438</v>
       </c>
-      <c r="G100" s="4" t="str">
+      <c r="G100" s="3" t="str">
         <f>VLOOKUP(D100,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>438-441</v>
       </c>
@@ -10720,7 +10719,7 @@
       </c>
       <c r="M100" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:99, template_type:'Entry', name:'Assessment Scale Observation  [2.16.840.1.113883.10.20.22.4.69[438-441', name2:'Assessment Scale Observation ', template:'2.16.840.1.113883.10.20.22.4.69', pageStart:438, pages:'438-441', search:'Assessment Scale Observation  2.16.840.1.113883.10.20.22.4.69 CONF:81-14434;CONF:81-14435;CONF:81-14436;CONF:81-14437;CONF:81-14438;CONF:81-14439;CONF:81-14440;CONF:81-14637;CONF:81-14444;CONF:81-19088;CONF:81-14445;CONF:81-14450;CONF:81-14459;CONF:81-14888;CONF:81-14460;CONF:81-14451;CONF:81-16741;CONF:81-16742;CONF:81-16799;CONF:81-16800;CONF:81-16801;CONF:81-16802;CONF:81-16803;CONF:81-16804' },</v>
+        <v>{ 'id': '99', 'template_type': 'Entry', 'name': 'Assessment Scale Observation  [2.16.840.1.113883.10.20.22.4.69[438-441', 'name2': 'Assessment Scale Observation ', 'template': '2.16.840.1.113883.10.20.22.4.69', 'pageStart': '438', 'pages': '438-441', 'search': 'Assessment Scale Observation  2.16.840.1.113883.10.20.22.4.69 CONF:81-14434;CONF:81-14435;CONF:81-14436;CONF:81-14437;CONF:81-14438;CONF:81-14439;CONF:81-14440;CONF:81-14637;CONF:81-14444;CONF:81-19088;CONF:81-14445;CONF:81-14450;CONF:81-14459;CONF:81-14888;CONF:81-14460;CONF:81-14451;CONF:81-16741;CONF:81-16742;CONF:81-16799;CONF:81-16800;CONF:81-16801;CONF:81-16802;CONF:81-16803;CONF:81-16804' },</v>
       </c>
       <c r="N100" t="str">
         <f t="shared" si="5"/>
@@ -10740,10 +10739,10 @@
       <c r="D101" t="s">
         <v>207</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>441</v>
       </c>
-      <c r="G101" s="4" t="str">
+      <c r="G101" s="3" t="str">
         <f>VLOOKUP(D101,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>441-443</v>
       </c>
@@ -10762,7 +10761,7 @@
       </c>
       <c r="M101" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:100, template_type:'Entry', name:'Assessment Scale Supporting Observation [2.16.840.1.113883.10.20.22.4.86[441-443', name2:'Assessment Scale Supporting Observation', template:'2.16.840.1.113883.10.20.22.4.86', pageStart:441, pages:'441-443', search:'Assessment Scale Supporting Observation 2.16.840.1.113883.10.20.22.4.86 CONF:81-16715;CONF:81-16716;CONF:81-16722;CONF:81-16723;CONF:81-16724;CONF:81-19178;CONF:81-19179;CONF:81-19180;CONF:81-16720;CONF:81-19089;CONF:81-16754;CONF:81-16755' },</v>
+        <v>{ 'id': '100', 'template_type': 'Entry', 'name': 'Assessment Scale Supporting Observation [2.16.840.1.113883.10.20.22.4.86[441-443', 'name2': 'Assessment Scale Supporting Observation', 'template': '2.16.840.1.113883.10.20.22.4.86', 'pageStart': '441', 'pages': '441-443', 'search': 'Assessment Scale Supporting Observation 2.16.840.1.113883.10.20.22.4.86 CONF:81-16715;CONF:81-16716;CONF:81-16722;CONF:81-16723;CONF:81-16724;CONF:81-19178;CONF:81-19179;CONF:81-19180;CONF:81-16720;CONF:81-19089;CONF:81-16754;CONF:81-16755' },</v>
       </c>
       <c r="N101" t="str">
         <f t="shared" si="5"/>
@@ -10782,10 +10781,10 @@
       <c r="D102" t="s">
         <v>209</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>443</v>
       </c>
-      <c r="G102" s="4" t="str">
+      <c r="G102" s="3" t="str">
         <f>VLOOKUP(D102,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>443-444</v>
       </c>
@@ -10804,7 +10803,7 @@
       </c>
       <c r="M102" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:101, template_type:'Entry', name:'Authorization Activity [2.16.840.1.113883.10.20.1.19[443-444', name2:'Authorization Activity', template:'2.16.840.1.113883.10.20.1.19', pageStart:443, pages:'443-444', search:'Authorization Activity 2.16.840.1.113883.10.20.1.19 CONF:81-8944;CONF:81-8945;CONF:81-8946;CONF:81-10529;CONF:81-8947;CONF:81-8948;CONF:81-8949;CONF:81-8951;CONF:81-8952' },</v>
+        <v>{ 'id': '101', 'template_type': 'Entry', 'name': 'Authorization Activity [2.16.840.1.113883.10.20.1.19[443-444', 'name2': 'Authorization Activity', 'template': '2.16.840.1.113883.10.20.1.19', 'pageStart': '443', 'pages': '443-444', 'search': 'Authorization Activity 2.16.840.1.113883.10.20.1.19 CONF:81-8944;CONF:81-8945;CONF:81-8946;CONF:81-10529;CONF:81-8947;CONF:81-8948;CONF:81-8949;CONF:81-8951;CONF:81-8952' },</v>
       </c>
       <c r="N102" t="str">
         <f t="shared" si="5"/>
@@ -10824,10 +10823,10 @@
       <c r="D103" t="s">
         <v>211</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>444</v>
       </c>
-      <c r="G103" s="4" t="str">
+      <c r="G103" s="3" t="str">
         <f>VLOOKUP(D103,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>444-445</v>
       </c>
@@ -10846,7 +10845,7 @@
       </c>
       <c r="M103" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:102, template_type:'Entry', name:'Boundary Observation  [2.16.840.1.113883.10.20.6.2.11[444-445', name2:'Boundary Observation ', template:'2.16.840.1.113883.10.20.6.2.11', pageStart:444, pages:'444-445', search:'Boundary Observation  2.16.840.1.113883.10.20.6.2.11 CONF:81-9282;CONF:81-9283;CONF:81-9284;CONF:81-19157;CONF:81-9285' },</v>
+        <v>{ 'id': '102', 'template_type': 'Entry', 'name': 'Boundary Observation  [2.16.840.1.113883.10.20.6.2.11[444-445', 'name2': 'Boundary Observation ', 'template': '2.16.840.1.113883.10.20.6.2.11', 'pageStart': '444', 'pages': '444-445', 'search': 'Boundary Observation  2.16.840.1.113883.10.20.6.2.11 CONF:81-9282;CONF:81-9283;CONF:81-9284;CONF:81-19157;CONF:81-9285' },</v>
       </c>
       <c r="N103" t="str">
         <f t="shared" si="5"/>
@@ -10866,10 +10865,10 @@
       <c r="D104" t="s">
         <v>213</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>445</v>
       </c>
-      <c r="G104" s="4" t="str">
+      <c r="G104" s="3" t="str">
         <f>VLOOKUP(D104,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>445-447</v>
       </c>
@@ -10888,7 +10887,7 @@
       </c>
       <c r="M104" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:103, template_type:'Entry', name:'Caregiver Characteristics  [2.16.840.1.113883.10.20.22.4.72[445-447', name2:'Caregiver Characteristics ', template:'2.16.840.1.113883.10.20.22.4.72', pageStart:445, pages:'445-447', search:'Caregiver Characteristics  2.16.840.1.113883.10.20.22.4.72 CONF:81-14219;CONF:81-14220;CONF:81-14221;CONF:81-14222;CONF:81-14223;CONF:81-14230;CONF:81-26513;CONF:81-14233;CONF:81-19090;CONF:81-14599;CONF:81-14600;CONF:81-14227;CONF:81-26451;CONF:81-14830;CONF:81-14831;CONF:81-14832;CONF:81-14228;CONF:81-14229' },</v>
+        <v>{ 'id': '103', 'template_type': 'Entry', 'name': 'Caregiver Characteristics  [2.16.840.1.113883.10.20.22.4.72[445-447', 'name2': 'Caregiver Characteristics ', 'template': '2.16.840.1.113883.10.20.22.4.72', 'pageStart': '445', 'pages': '445-447', 'search': 'Caregiver Characteristics  2.16.840.1.113883.10.20.22.4.72 CONF:81-14219;CONF:81-14220;CONF:81-14221;CONF:81-14222;CONF:81-14223;CONF:81-14230;CONF:81-26513;CONF:81-14233;CONF:81-19090;CONF:81-14599;CONF:81-14600;CONF:81-14227;CONF:81-26451;CONF:81-14830;CONF:81-14831;CONF:81-14832;CONF:81-14228;CONF:81-14229' },</v>
       </c>
       <c r="N104" t="str">
         <f t="shared" si="5"/>
@@ -10908,10 +10907,10 @@
       <c r="D105" t="s">
         <v>215</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105">
         <v>447</v>
       </c>
-      <c r="G105" s="4" t="str">
+      <c r="G105" s="3" t="str">
         <f>VLOOKUP(D105,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>447-450</v>
       </c>
@@ -10930,7 +10929,7 @@
       </c>
       <c r="M105" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:104, template_type:'Entry', name:'Characteristics of Home Environment [2.16.840.1.113883.10.20.22.4.109[447-450', name2:'Characteristics of Home Environment', template:'2.16.840.1.113883.10.20.22.4.109', pageStart:447, pages:'447-450', search:'Characteristics of Home Environment 2.16.840.1.113883.10.20.22.4.109 CONF:1098-27890;CONF:1098-27891;CONF:1098-27892;CONF:1098-27893;CONF:1098-27894;CONF:1098-31352;CONF:1098-31353;CONF:1098-31354;CONF:1098-27901;CONF:1098-27902;CONF:1098-28823' },</v>
+        <v>{ 'id': '104', 'template_type': 'Entry', 'name': 'Characteristics of Home Environment [2.16.840.1.113883.10.20.22.4.109[447-450', 'name2': 'Characteristics of Home Environment', 'template': '2.16.840.1.113883.10.20.22.4.109', 'pageStart': '447', 'pages': '447-450', 'search': 'Characteristics of Home Environment 2.16.840.1.113883.10.20.22.4.109 CONF:1098-27890;CONF:1098-27891;CONF:1098-27892;CONF:1098-27893;CONF:1098-27894;CONF:1098-31352;CONF:1098-31353;CONF:1098-31354;CONF:1098-27901;CONF:1098-27902;CONF:1098-28823' },</v>
       </c>
       <c r="N105" t="str">
         <f t="shared" si="5"/>
@@ -10950,10 +10949,10 @@
       <c r="D106" t="s">
         <v>217</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106">
         <v>450</v>
       </c>
-      <c r="G106" s="4" t="str">
+      <c r="G106" s="3" t="str">
         <f>VLOOKUP(D106,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>450-452</v>
       </c>
@@ -10972,7 +10971,7 @@
       </c>
       <c r="M106" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:105, template_type:'Entry', name:'Code Observations  [2.16.840.1.113883.10.20.6.2.13[450-452', name2:'Code Observations ', template:'2.16.840.1.113883.10.20.6.2.13', pageStart:450, pages:'450-452', search:'Code Observations  2.16.840.1.113883.10.20.6.2.13 CONF:81-9304;CONF:81-9305;CONF:81-15523;CONF:81-15524;CONF:81-19181;CONF:81-9309;CONF:81-9308;CONF:81-9311;CONF:81-9312;CONF:81-16083;CONF:81-9314;CONF:81-9315;CONF:81-16084;CONF:81-9310' },</v>
+        <v>{ 'id': '105', 'template_type': 'Entry', 'name': 'Code Observations  [2.16.840.1.113883.10.20.6.2.13[450-452', 'name2': 'Code Observations ', 'template': '2.16.840.1.113883.10.20.6.2.13', 'pageStart': '450', 'pages': '450-452', 'search': 'Code Observations  2.16.840.1.113883.10.20.6.2.13 CONF:81-9304;CONF:81-9305;CONF:81-15523;CONF:81-15524;CONF:81-19181;CONF:81-9309;CONF:81-9308;CONF:81-9311;CONF:81-9312;CONF:81-16083;CONF:81-9314;CONF:81-9315;CONF:81-16084;CONF:81-9310' },</v>
       </c>
       <c r="N106" t="str">
         <f t="shared" si="5"/>
@@ -10992,10 +10991,10 @@
       <c r="D107" t="s">
         <v>219</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107">
         <v>452</v>
       </c>
-      <c r="G107" s="4" t="str">
+      <c r="G107" s="3" t="str">
         <f>VLOOKUP(D107,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>452-455</v>
       </c>
@@ -11014,7 +11013,7 @@
       </c>
       <c r="M107" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:106, template_type:'Entry', name:'Cognitive Status Problem Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.73[452-455', name2:'Cognitive Status Problem Observation (DEPRECATED) ', template:'2.16.840.1.113883.10.20.22.4.73', pageStart:452, pages:'452-455', search:'Cognitive Status Problem Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.73 CONF:1098-14319;CONF:1098-14320;CONF:1098-14344;CONF:1098-14346;CONF:1098-14347;CONF:1098-32600;CONF:1098-14321;CONF:1098-14804;CONF:1098-14805;CONF:1098-14341;CONF:1098-15532;CONF:1098-15533;CONF:1098-15534;CONF:1098-14323;CONF:1098-19091;CONF:1098-14324;CONF:1098-26458;CONF:1098-26459;CONF:1098-14349;CONF:1098-14693' },</v>
+        <v>{ 'id': '106', 'template_type': 'Entry', 'name': 'Cognitive Status Problem Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.73[452-455', 'name2': 'Cognitive Status Problem Observation (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.4.73', 'pageStart': '452', 'pages': '452-455', 'search': 'Cognitive Status Problem Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.73 CONF:1098-14319;CONF:1098-14320;CONF:1098-14344;CONF:1098-14346;CONF:1098-14347;CONF:1098-32600;CONF:1098-14321;CONF:1098-14804;CONF:1098-14805;CONF:1098-14341;CONF:1098-15532;CONF:1098-15533;CONF:1098-15534;CONF:1098-14323;CONF:1098-19091;CONF:1098-14324;CONF:1098-26458;CONF:1098-26459;CONF:1098-14349;CONF:1098-14693' },</v>
       </c>
       <c r="N107" t="str">
         <f t="shared" si="5"/>
@@ -11034,10 +11033,10 @@
       <c r="D108" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108">
         <v>455</v>
       </c>
-      <c r="G108" s="4" t="str">
+      <c r="G108" s="3" t="str">
         <f>VLOOKUP(D108,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>455-457</v>
       </c>
@@ -11056,7 +11055,7 @@
       </c>
       <c r="M108" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:107, template_type:'Entry', name:'Comment Activity [2.16.840.1.113883.10.20.22.4.64[455-457', name2:'Comment Activity', template:'2.16.840.1.113883.10.20.22.4.64', pageStart:455, pages:'455-457', search:'Comment Activity 2.16.840.1.113883.10.20.22.4.64 CONF:81-9425;CONF:81-9426;CONF:81-9427;CONF:81-10491;CONF:81-9428;CONF:81-19159;CONF:81-26501;CONF:81-9430;CONF:81-15967;CONF:81-15968;CONF:81-15969;CONF:81-9431;CONF:81-9433;CONF:81-9429' },</v>
+        <v>{ 'id': '107', 'template_type': 'Entry', 'name': 'Comment Activity [2.16.840.1.113883.10.20.22.4.64[455-457', 'name2': 'Comment Activity', 'template': '2.16.840.1.113883.10.20.22.4.64', 'pageStart': '455', 'pages': '455-457', 'search': 'Comment Activity 2.16.840.1.113883.10.20.22.4.64 CONF:81-9425;CONF:81-9426;CONF:81-9427;CONF:81-10491;CONF:81-9428;CONF:81-19159;CONF:81-26501;CONF:81-9430;CONF:81-15967;CONF:81-15968;CONF:81-15969;CONF:81-9431;CONF:81-9433;CONF:81-9429' },</v>
       </c>
       <c r="N108" t="str">
         <f t="shared" si="5"/>
@@ -11076,10 +11075,10 @@
       <c r="D109" t="s">
         <v>223</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109">
         <v>457</v>
       </c>
-      <c r="G109" s="4" t="str">
+      <c r="G109" s="3" t="str">
         <f>VLOOKUP(D109,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>457-460</v>
       </c>
@@ -11098,7 +11097,7 @@
       </c>
       <c r="M109" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:108, template_type:'Entry', name:'Coverage Activity  [2.16.840.1.113883.10.20.22.4.60[457-460', name2:'Coverage Activity ', template:'2.16.840.1.113883.10.20.22.4.60', pageStart:457, pages:'457-460', search:'Coverage Activity  2.16.840.1.113883.10.20.22.4.60 CONF:1198-8872;CONF:1198-8873;CONF:1198-8897;CONF:1198-10492;CONF:1198-32596;CONF:1198-8874;CONF:1198-8876;CONF:1198-19160;CONF:1198-32156;CONF:1198-8875;CONF:1198-19094;CONF:1198-8878;CONF:1198-8879;CONF:1198-17174;CONF:1198-17175;CONF:1198-15528' },</v>
+        <v>{ 'id': '108', 'template_type': 'Entry', 'name': 'Coverage Activity  [2.16.840.1.113883.10.20.22.4.60[457-460', 'name2': 'Coverage Activity ', 'template': '2.16.840.1.113883.10.20.22.4.60', 'pageStart': '457', 'pages': '457-460', 'search': 'Coverage Activity  2.16.840.1.113883.10.20.22.4.60 CONF:1198-8872;CONF:1198-8873;CONF:1198-8897;CONF:1198-10492;CONF:1198-32596;CONF:1198-8874;CONF:1198-8876;CONF:1198-19160;CONF:1198-32156;CONF:1198-8875;CONF:1198-19094;CONF:1198-8878;CONF:1198-8879;CONF:1198-17174;CONF:1198-17175;CONF:1198-15528' },</v>
       </c>
       <c r="N109" t="str">
         <f t="shared" si="5"/>
@@ -11118,10 +11117,10 @@
       <c r="D110" t="s">
         <v>225</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110">
         <v>460</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="G110" s="3" t="str">
         <f>VLOOKUP(D110,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>460-462</v>
       </c>
@@ -11140,7 +11139,7 @@
       </c>
       <c r="M110" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:109, template_type:'Entry', name:'Criticality Observation [2.16.840.1.113883.10.20.22.4.145[460-462', name2:'Criticality Observation', template:'2.16.840.1.113883.10.20.22.4.145', pageStart:460, pages:'460-462', search:'Criticality Observation 2.16.840.1.113883.10.20.22.4.145 CONF:81-32921;CONF:81-32922;CONF:81-32918;CONF:81-32923;CONF:81-32919;CONF:81-32925;CONF:81-32926;CONF:81-32920;CONF:81-32927;CONF:81-32928' },</v>
+        <v>{ 'id': '109', 'template_type': 'Entry', 'name': 'Criticality Observation [2.16.840.1.113883.10.20.22.4.145[460-462', 'name2': 'Criticality Observation', 'template': '2.16.840.1.113883.10.20.22.4.145', 'pageStart': '460', 'pages': '460-462', 'search': 'Criticality Observation 2.16.840.1.113883.10.20.22.4.145 CONF:81-32921;CONF:81-32922;CONF:81-32918;CONF:81-32923;CONF:81-32919;CONF:81-32925;CONF:81-32926;CONF:81-32920;CONF:81-32927;CONF:81-32928' },</v>
       </c>
       <c r="N110" t="str">
         <f t="shared" si="5"/>
@@ -11160,10 +11159,10 @@
       <c r="D111" t="s">
         <v>227</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111">
         <v>462</v>
       </c>
-      <c r="G111" s="4" t="str">
+      <c r="G111" s="3" t="str">
         <f>VLOOKUP(D111,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>462-463</v>
       </c>
@@ -11182,7 +11181,7 @@
       </c>
       <c r="M111" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:110, template_type:'Entry', name:'Cultural and Religious Observation  [2.16.840.1.113883.10.20.22.4.111[462-463', name2:'Cultural and Religious Observation ', template:'2.16.840.1.113883.10.20.22.4.111', pageStart:462, pages:'462-463', search:'Cultural and Religious Observation  2.16.840.1.113883.10.20.22.4.111 CONF:1098-27924;CONF:1098-27925;CONF:1098-27926;CONF:1098-27927;CONF:1098-27928;CONF:1098-27929;CONF:1098-27930;CONF:1098-27931;CONF:1098-27936;CONF:1098-27937;CONF:1098-28442;CONF:1098-32487' },</v>
+        <v>{ 'id': '110', 'template_type': 'Entry', 'name': 'Cultural and Religious Observation  [2.16.840.1.113883.10.20.22.4.111[462-463', 'name2': 'Cultural and Religious Observation ', 'template': '2.16.840.1.113883.10.20.22.4.111', 'pageStart': '462', 'pages': '462-463', 'search': 'Cultural and Religious Observation  2.16.840.1.113883.10.20.22.4.111 CONF:1098-27924;CONF:1098-27925;CONF:1098-27926;CONF:1098-27927;CONF:1098-27928;CONF:1098-27929;CONF:1098-27930;CONF:1098-27931;CONF:1098-27936;CONF:1098-27937;CONF:1098-28442;CONF:1098-32487' },</v>
       </c>
       <c r="N111" t="str">
         <f t="shared" si="5"/>
@@ -11202,10 +11201,10 @@
       <c r="D112" t="s">
         <v>229</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112">
         <v>463</v>
       </c>
-      <c r="G112" s="4" t="str">
+      <c r="G112" s="3" t="str">
         <f>VLOOKUP(D112,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>463-467</v>
       </c>
@@ -11224,7 +11223,7 @@
       </c>
       <c r="M112" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:111, template_type:'Entry', name:'Deceased Observation   [2.16.840.1.113883.10.20.22.4.79[463-467', name2:'Deceased Observation  ', template:'2.16.840.1.113883.10.20.22.4.79', pageStart:463, pages:'463-467', search:'Deceased Observation   2.16.840.1.113883.10.20.22.4.79 CONF:1198-14851;CONF:1198-14852;CONF:1198-14871;CONF:1198-14872;CONF:1198-32541;CONF:1198-14873;CONF:1198-14853;CONF:1198-19135;CONF:1198-32158;CONF:1198-14854;CONF:1198-19095;CONF:1198-14855;CONF:1198-14874;CONF:1198-14857;CONF:1198-15142;CONF:1198-14868;CONF:1198-14875;CONF:1198-32900;CONF:1198-14870' },</v>
+        <v>{ 'id': '111', 'template_type': 'Entry', 'name': 'Deceased Observation   [2.16.840.1.113883.10.20.22.4.79[463-467', 'name2': 'Deceased Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.79', 'pageStart': '463', 'pages': '463-467', 'search': 'Deceased Observation   2.16.840.1.113883.10.20.22.4.79 CONF:1198-14851;CONF:1198-14852;CONF:1198-14871;CONF:1198-14872;CONF:1198-32541;CONF:1198-14873;CONF:1198-14853;CONF:1198-19135;CONF:1198-32158;CONF:1198-14854;CONF:1198-19095;CONF:1198-14855;CONF:1198-14874;CONF:1198-14857;CONF:1198-15142;CONF:1198-14868;CONF:1198-14875;CONF:1198-32900;CONF:1198-14870' },</v>
       </c>
       <c r="N112" t="str">
         <f t="shared" si="5"/>
@@ -11244,10 +11243,10 @@
       <c r="D113" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113">
         <v>467</v>
       </c>
-      <c r="G113" s="4" t="str">
+      <c r="G113" s="3" t="str">
         <f>VLOOKUP(D113,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>467-470</v>
       </c>
@@ -11266,7 +11265,7 @@
       </c>
       <c r="M113" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:112, template_type:'Entry', name:'Discharge Medication  [2.16.840.1.113883.10.20.22.4.35[467-470', name2:'Discharge Medication ', template:'2.16.840.1.113883.10.20.22.4.35', pageStart:467, pages:'467-470', search:'Discharge Medication  2.16.840.1.113883.10.20.22.4.35 CONF:1198-7689;CONF:1198-7690;CONF:1198-16760;CONF:1198-16761;CONF:1198-32513;CONF:1198-7691;CONF:1198-19161;CONF:1198-32159;CONF:1198-32952;CONF:1198-32953;CONF:1198-32954;CONF:1198-32779;CONF:1198-32780;CONF:1198-7692;CONF:1198-7693;CONF:1198-15525' },</v>
+        <v>{ 'id': '112', 'template_type': 'Entry', 'name': 'Discharge Medication  [2.16.840.1.113883.10.20.22.4.35[467-470', 'name2': 'Discharge Medication ', 'template': '2.16.840.1.113883.10.20.22.4.35', 'pageStart': '467', 'pages': '467-470', 'search': 'Discharge Medication  2.16.840.1.113883.10.20.22.4.35 CONF:1198-7689;CONF:1198-7690;CONF:1198-16760;CONF:1198-16761;CONF:1198-32513;CONF:1198-7691;CONF:1198-19161;CONF:1198-32159;CONF:1198-32952;CONF:1198-32953;CONF:1198-32954;CONF:1198-32779;CONF:1198-32780;CONF:1198-7692;CONF:1198-7693;CONF:1198-15525' },</v>
       </c>
       <c r="N113" t="str">
         <f t="shared" si="5"/>
@@ -11286,10 +11285,10 @@
       <c r="D114" t="s">
         <v>233</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114">
         <v>470</v>
       </c>
-      <c r="G114" s="4" t="str">
+      <c r="G114" s="3" t="str">
         <f>VLOOKUP(D114,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>470-474</v>
       </c>
@@ -11308,7 +11307,7 @@
       </c>
       <c r="M114" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:113, template_type:'Entry', name:'Drug Monitoring Act [2.16.840.1.113883.10.20.22.4.123[470-474', name2:'Drug Monitoring Act', template:'2.16.840.1.113883.10.20.22.4.123', pageStart:470, pages:'470-474', search:'Drug Monitoring Act 2.16.840.1.113883.10.20.22.4.123 CONF:1098-30823;CONF:1098-28656;CONF:1098-28657;CONF:1098-28658;CONF:1098-31920;CONF:1098-28660;CONF:1098-30818;CONF:1098-30819;CONF:1098-31921;CONF:1098-32358;CONF:1098-31922;CONF:1098-28661;CONF:1098-28663;CONF:1098-28662;CONF:1098-28664;CONF:1098-28665;CONF:1098-28667;CONF:1098-28668;CONF:1098-28669' },</v>
+        <v>{ 'id': '113', 'template_type': 'Entry', 'name': 'Drug Monitoring Act [2.16.840.1.113883.10.20.22.4.123[470-474', 'name2': 'Drug Monitoring Act', 'template': '2.16.840.1.113883.10.20.22.4.123', 'pageStart': '470', 'pages': '470-474', 'search': 'Drug Monitoring Act 2.16.840.1.113883.10.20.22.4.123 CONF:1098-30823;CONF:1098-28656;CONF:1098-28657;CONF:1098-28658;CONF:1098-31920;CONF:1098-28660;CONF:1098-30818;CONF:1098-30819;CONF:1098-31921;CONF:1098-32358;CONF:1098-31922;CONF:1098-28661;CONF:1098-28663;CONF:1098-28662;CONF:1098-28664;CONF:1098-28665;CONF:1098-28667;CONF:1098-28668;CONF:1098-28669' },</v>
       </c>
       <c r="N114" t="str">
         <f t="shared" si="5"/>
@@ -11328,10 +11327,10 @@
       <c r="D115" t="s">
         <v>235</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115">
         <v>474</v>
       </c>
-      <c r="G115" s="4" t="str">
+      <c r="G115" s="3" t="str">
         <f>VLOOKUP(D115,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>474-475</v>
       </c>
@@ -11350,7 +11349,7 @@
       </c>
       <c r="M115" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:114, template_type:'Entry', name:'Drug Vehicle  [2.16.840.1.113883.10.20.22.4.24[474-475', name2:'Drug Vehicle ', template:'2.16.840.1.113883.10.20.22.4.24', pageStart:474, pages:'474-475', search:'Drug Vehicle  2.16.840.1.113883.10.20.22.4.24 CONF:81-7490;CONF:81-7495;CONF:81-10493;CONF:81-19137;CONF:81-19138;CONF:81-26502;CONF:81-7492;CONF:81-7493;CONF:81-7494;CONF:81-10087' },</v>
+        <v>{ 'id': '114', 'template_type': 'Entry', 'name': 'Drug Vehicle  [2.16.840.1.113883.10.20.22.4.24[474-475', 'name2': 'Drug Vehicle ', 'template': '2.16.840.1.113883.10.20.22.4.24', 'pageStart': '474', 'pages': '474-475', 'search': 'Drug Vehicle  2.16.840.1.113883.10.20.22.4.24 CONF:81-7490;CONF:81-7495;CONF:81-10493;CONF:81-19137;CONF:81-19138;CONF:81-26502;CONF:81-7492;CONF:81-7493;CONF:81-7494;CONF:81-10087' },</v>
       </c>
       <c r="N115" t="str">
         <f t="shared" si="5"/>
@@ -11370,10 +11369,10 @@
       <c r="D116" t="s">
         <v>237</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116">
         <v>475</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="G116" s="3" t="str">
         <f>VLOOKUP(D116,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>475-487</v>
       </c>
@@ -11392,7 +11391,7 @@
       </c>
       <c r="M116" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:115, template_type:'Entry', name:'Encounter Activity  [2.16.840.1.113883.10.20.22.4.49[475-487', name2:'Encounter Activity ', template:'2.16.840.1.113883.10.20.22.4.49', pageStart:475, pages:'475-487', search:'Encounter Activity  2.16.840.1.113883.10.20.22.4.49 CONF:1198-8710;CONF:1198-8711;CONF:1198-8712;CONF:1198-26353;CONF:1198-32546;CONF:1198-8713;CONF:1198-8714;CONF:1198-8719;CONF:1198-15970;CONF:1198-15971;CONF:1198-15972;CONF:1198-32323;CONF:1198-8715;CONF:1198-32176;CONF:1198-32177;CONF:1198-32377;CONF:1198-8725;CONF:1198-8726;CONF:1198-8727;CONF:1198-8738;CONF:1198-8740;CONF:1198-14903;CONF:1198-8722;CONF:1198-8723;CONF:1198-14899;CONF:1198-15492;CONF:1198-15973' },</v>
+        <v>{ 'id': '115', 'template_type': 'Entry', 'name': 'Encounter Activity  [2.16.840.1.113883.10.20.22.4.49[475-487', 'name2': 'Encounter Activity ', 'template': '2.16.840.1.113883.10.20.22.4.49', 'pageStart': '475', 'pages': '475-487', 'search': 'Encounter Activity  2.16.840.1.113883.10.20.22.4.49 CONF:1198-8710;CONF:1198-8711;CONF:1198-8712;CONF:1198-26353;CONF:1198-32546;CONF:1198-8713;CONF:1198-8714;CONF:1198-8719;CONF:1198-15970;CONF:1198-15971;CONF:1198-15972;CONF:1198-32323;CONF:1198-8715;CONF:1198-32176;CONF:1198-32177;CONF:1198-32377;CONF:1198-8725;CONF:1198-8726;CONF:1198-8727;CONF:1198-8738;CONF:1198-8740;CONF:1198-14903;CONF:1198-8722;CONF:1198-8723;CONF:1198-14899;CONF:1198-15492;CONF:1198-15973' },</v>
       </c>
       <c r="N116" t="str">
         <f t="shared" si="5"/>
@@ -11412,10 +11411,10 @@
       <c r="D117" t="s">
         <v>239</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117">
         <v>487</v>
       </c>
-      <c r="G117" s="4" t="str">
+      <c r="G117" s="3" t="str">
         <f>VLOOKUP(D117,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>487-489</v>
       </c>
@@ -11434,7 +11433,7 @@
       </c>
       <c r="M117" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:116, template_type:'Entry', name:'Encounter Diagnosis  [2.16.840.1.113883.10.20.22.4.80[487-489', name2:'Encounter Diagnosis ', template:'2.16.840.1.113883.10.20.22.4.80', pageStart:487, pages:'487-489', search:'Encounter Diagnosis  2.16.840.1.113883.10.20.22.4.80 CONF:1198-14889;CONF:1198-14890;CONF:1198-14895;CONF:1198-14896;CONF:1198-32542;CONF:1198-19182;CONF:1198-19183;CONF:1198-32160;CONF:1198-14892;CONF:1198-14893;CONF:1198-14898' },</v>
+        <v>{ 'id': '116', 'template_type': 'Entry', 'name': 'Encounter Diagnosis  [2.16.840.1.113883.10.20.22.4.80[487-489', 'name2': 'Encounter Diagnosis ', 'template': '2.16.840.1.113883.10.20.22.4.80', 'pageStart': '487', 'pages': '487-489', 'search': 'Encounter Diagnosis  2.16.840.1.113883.10.20.22.4.80 CONF:1198-14889;CONF:1198-14890;CONF:1198-14895;CONF:1198-14896;CONF:1198-32542;CONF:1198-19182;CONF:1198-19183;CONF:1198-32160;CONF:1198-14892;CONF:1198-14893;CONF:1198-14898' },</v>
       </c>
       <c r="N117" t="str">
         <f t="shared" si="5"/>
@@ -11454,10 +11453,10 @@
       <c r="D118" t="s">
         <v>241</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118">
         <v>489</v>
       </c>
-      <c r="G118" s="4" t="str">
+      <c r="G118" s="3" t="str">
         <f>VLOOKUP(D118,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>489-494</v>
       </c>
@@ -11476,7 +11475,7 @@
       </c>
       <c r="M118" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:117, template_type:'Entry', name:'Entry Reference  [2.16.840.1.113883.10.20.22.4.122[489-494', name2:'Entry Reference ', template:'2.16.840.1.113883.10.20.22.4.122', pageStart:489, pages:'489-494', search:'Entry Reference  2.16.840.1.113883.10.20.22.4.122 CONF:1098-31485;CONF:1098-31486;CONF:1098-31487;CONF:1098-31488;CONF:1098-31489;CONF:1098-31490;CONF:1098-31491;CONF:1098-31498;CONF:1098-31499' },</v>
+        <v>{ 'id': '117', 'template_type': 'Entry', 'name': 'Entry Reference  [2.16.840.1.113883.10.20.22.4.122[489-494', 'name2': 'Entry Reference ', 'template': '2.16.840.1.113883.10.20.22.4.122', 'pageStart': '489', 'pages': '489-494', 'search': 'Entry Reference  2.16.840.1.113883.10.20.22.4.122 CONF:1098-31485;CONF:1098-31486;CONF:1098-31487;CONF:1098-31488;CONF:1098-31489;CONF:1098-31490;CONF:1098-31491;CONF:1098-31498;CONF:1098-31499' },</v>
       </c>
       <c r="N118" t="str">
         <f t="shared" si="5"/>
@@ -11496,10 +11495,10 @@
       <c r="D119" t="s">
         <v>243</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119">
         <v>494</v>
       </c>
-      <c r="G119" s="4" t="str">
+      <c r="G119" s="3" t="str">
         <f>VLOOKUP(D119,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>494-495</v>
       </c>
@@ -11518,7 +11517,7 @@
       </c>
       <c r="M119" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:118, template_type:'Entry', name:'Estimated Date of Delivery  [2.16.840.1.113883.10.20.15.3.1[494-495', name2:'Estimated Date of Delivery ', template:'2.16.840.1.113883.10.20.15.3.1', pageStart:494, pages:'494-495', search:'Estimated Date of Delivery  2.16.840.1.113883.10.20.15.3.1 CONF:81-444;CONF:81-445;CONF:81-16762;CONF:81-16763;CONF:81-19139;CONF:81-19140;CONF:81-26503;CONF:81-448;CONF:81-19096;CONF:81-450' },</v>
+        <v>{ 'id': '118', 'template_type': 'Entry', 'name': 'Estimated Date of Delivery  [2.16.840.1.113883.10.20.15.3.1[494-495', 'name2': 'Estimated Date of Delivery ', 'template': '2.16.840.1.113883.10.20.15.3.1', 'pageStart': '494', 'pages': '494-495', 'search': 'Estimated Date of Delivery  2.16.840.1.113883.10.20.15.3.1 CONF:81-444;CONF:81-445;CONF:81-16762;CONF:81-16763;CONF:81-19139;CONF:81-19140;CONF:81-26503;CONF:81-448;CONF:81-19096;CONF:81-450' },</v>
       </c>
       <c r="N119" t="str">
         <f t="shared" si="5"/>
@@ -11538,10 +11537,10 @@
       <c r="D120" t="s">
         <v>245</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120">
         <v>495</v>
       </c>
-      <c r="G120" s="4" t="str">
+      <c r="G120" s="3" t="str">
         <f>VLOOKUP(D120,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>495-497</v>
       </c>
@@ -11560,7 +11559,7 @@
       </c>
       <c r="M120" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:119, template_type:'Entry', name:'External Document Reference  [2.16.840.1.113883.10.20.22.4.115[495-497', name2:'External Document Reference ', template:'2.16.840.1.113883.10.20.22.4.115', pageStart:495, pages:'495-497', search:'External Document Reference  2.16.840.1.113883.10.20.22.4.115 CONF:1098-31931;CONF:1098-31932;CONF:1098-32748;CONF:1098-32750;CONF:1098-32749;CONF:1098-32751;CONF:1098-31933;CONF:1098-32752;CONF:1098-32753' },</v>
+        <v>{ 'id': '119', 'template_type': 'Entry', 'name': 'External Document Reference  [2.16.840.1.113883.10.20.22.4.115[495-497', 'name2': 'External Document Reference ', 'template': '2.16.840.1.113883.10.20.22.4.115', 'pageStart': '495', 'pages': '495-497', 'search': 'External Document Reference  2.16.840.1.113883.10.20.22.4.115 CONF:1098-31931;CONF:1098-31932;CONF:1098-32748;CONF:1098-32750;CONF:1098-32749;CONF:1098-32751;CONF:1098-31933;CONF:1098-32752;CONF:1098-32753' },</v>
       </c>
       <c r="N120" t="str">
         <f t="shared" si="5"/>
@@ -11580,10 +11579,10 @@
       <c r="D121" t="s">
         <v>247</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121">
         <v>497</v>
       </c>
-      <c r="G121" s="4" t="str">
+      <c r="G121" s="3" t="str">
         <f>VLOOKUP(D121,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>497-499</v>
       </c>
@@ -11602,7 +11601,7 @@
       </c>
       <c r="M121" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:120, template_type:'Entry', name:'Family History Death Observation  [2.16.840.1.113883.10.20.22.4.47[497-499', name2:'Family History Death Observation ', template:'2.16.840.1.113883.10.20.22.4.47', pageStart:497, pages:'497-499', search:'Family History Death Observation  2.16.840.1.113883.10.20.22.4.47 CONF:81-8621;CONF:81-8622;CONF:81-8623;CONF:81-10495;CONF:81-19141;CONF:81-19142;CONF:81-26504;CONF:81-8625;CONF:81-19097;CONF:81-8626;CONF:81-26470' },</v>
+        <v>{ 'id': '120', 'template_type': 'Entry', 'name': 'Family History Death Observation  [2.16.840.1.113883.10.20.22.4.47[497-499', 'name2': 'Family History Death Observation ', 'template': '2.16.840.1.113883.10.20.22.4.47', 'pageStart': '497', 'pages': '497-499', 'search': 'Family History Death Observation  2.16.840.1.113883.10.20.22.4.47 CONF:81-8621;CONF:81-8622;CONF:81-8623;CONF:81-10495;CONF:81-19141;CONF:81-19142;CONF:81-26504;CONF:81-8625;CONF:81-19097;CONF:81-8626;CONF:81-26470' },</v>
       </c>
       <c r="N121" t="str">
         <f t="shared" si="5"/>
@@ -11622,10 +11621,10 @@
       <c r="D122" t="s">
         <v>249</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122">
         <v>499</v>
       </c>
-      <c r="G122" s="4" t="str">
+      <c r="G122" s="3" t="str">
         <f>VLOOKUP(D122,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>499-504</v>
       </c>
@@ -11644,7 +11643,7 @@
       </c>
       <c r="M122" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:121, template_type:'Entry', name:'Family History Observation   [2.16.840.1.113883.10.20.22.4.46[499-504', name2:'Family History Observation  ', template:'2.16.840.1.113883.10.20.22.4.46', pageStart:499, pages:'499-504', search:'Family History Observation   2.16.840.1.113883.10.20.22.4.46 CONF:1198-8586;CONF:1198-8587;CONF:1198-8599;CONF:1198-10496;CONF:1198-32605;CONF:1198-8592;CONF:1198-32427;CONF:1198-32847;CONF:1198-8590;CONF:1198-19098;CONF:1198-8593;CONF:1198-8591;CONF:1198-8675;CONF:1198-8676;CONF:1198-8677;CONF:1198-15526;CONF:1198-8678;CONF:1198-8679;CONF:1198-15527' },</v>
+        <v>{ 'id': '121', 'template_type': 'Entry', 'name': 'Family History Observation   [2.16.840.1.113883.10.20.22.4.46[499-504', 'name2': 'Family History Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.46', 'pageStart': '499', 'pages': '499-504', 'search': 'Family History Observation   2.16.840.1.113883.10.20.22.4.46 CONF:1198-8586;CONF:1198-8587;CONF:1198-8599;CONF:1198-10496;CONF:1198-32605;CONF:1198-8592;CONF:1198-32427;CONF:1198-32847;CONF:1198-8590;CONF:1198-19098;CONF:1198-8593;CONF:1198-8591;CONF:1198-8675;CONF:1198-8676;CONF:1198-8677;CONF:1198-15526;CONF:1198-8678;CONF:1198-8679;CONF:1198-15527' },</v>
       </c>
       <c r="N122" t="str">
         <f t="shared" si="5"/>
@@ -11664,10 +11663,10 @@
       <c r="D123" t="s">
         <v>251</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123">
         <v>504</v>
       </c>
-      <c r="G123" s="4" t="str">
+      <c r="G123" s="3" t="str">
         <f>VLOOKUP(D123,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>504-508</v>
       </c>
@@ -11686,7 +11685,7 @@
       </c>
       <c r="M123" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:122, template_type:'Entry', name:'Family History Organizer  [2.16.840.1.113883.10.20.22.4.45[504-508', name2:'Family History Organizer ', template:'2.16.840.1.113883.10.20.22.4.45', pageStart:504, pages:'504-508', search:'Family History Organizer  2.16.840.1.113883.10.20.22.4.45 CONF:1198-8600;CONF:1198-8601;CONF:1198-8604;CONF:1198-10497;CONF:1198-32606;CONF:1198-32485;CONF:1198-8602;CONF:1198-19099;CONF:1198-8609;CONF:1198-15244;CONF:1198-15245;CONF:1198-15246;CONF:1198-15248;CONF:1198-15974;CONF:1198-15976;CONF:1198-15249;CONF:1198-15981;CONF:1198-15982;CONF:1198-15983;CONF:1198-32428;CONF:1198-32429' },</v>
+        <v>{ 'id': '122', 'template_type': 'Entry', 'name': 'Family History Organizer  [2.16.840.1.113883.10.20.22.4.45[504-508', 'name2': 'Family History Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.45', 'pageStart': '504', 'pages': '504-508', 'search': 'Family History Organizer  2.16.840.1.113883.10.20.22.4.45 CONF:1198-8600;CONF:1198-8601;CONF:1198-8604;CONF:1198-10497;CONF:1198-32606;CONF:1198-32485;CONF:1198-8602;CONF:1198-19099;CONF:1198-8609;CONF:1198-15244;CONF:1198-15245;CONF:1198-15246;CONF:1198-15248;CONF:1198-15974;CONF:1198-15976;CONF:1198-15249;CONF:1198-15981;CONF:1198-15982;CONF:1198-15983;CONF:1198-32428;CONF:1198-32429' },</v>
       </c>
       <c r="N123" t="str">
         <f t="shared" si="5"/>
@@ -11706,10 +11705,10 @@
       <c r="D124" t="s">
         <v>253</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124">
         <v>508</v>
       </c>
-      <c r="G124" s="4" t="str">
+      <c r="G124" s="3" t="str">
         <f>VLOOKUP(D124,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>508-511</v>
       </c>
@@ -11728,7 +11727,7 @@
       </c>
       <c r="M124" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:123, template_type:'Entry', name:'Functional Status Observation   [2.16.840.1.113883.10.20.22.4.67[508-511', name2:'Functional Status Observation  ', template:'2.16.840.1.113883.10.20.22.4.67', pageStart:508, pages:'508-511', search:'Functional Status Observation   2.16.840.1.113883.10.20.22.4.67 CONF:1098-13905;CONF:1098-13906;CONF:1098-13889;CONF:1098-13890;CONF:1098-32568;CONF:1098-13907;CONF:1098-13908;CONF:1098-31522;CONF:1098-31523;CONF:1098-13929;CONF:1098-19101;CONF:1098-13930;CONF:1098-13932;CONF:1098-14234;CONF:1098-13936;CONF:1098-13892;CONF:1098-14596;CONF:1098-14218;CONF:1098-13895;CONF:1098-14597;CONF:1098-13897;CONF:1098-14465;CONF:1098-14598;CONF:1098-14466;CONF:1098-13937' },</v>
+        <v>{ 'id': '123', 'template_type': 'Entry', 'name': 'Functional Status Observation   [2.16.840.1.113883.10.20.22.4.67[508-511', 'name2': 'Functional Status Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.67', 'pageStart': '508', 'pages': '508-511', 'search': 'Functional Status Observation   2.16.840.1.113883.10.20.22.4.67 CONF:1098-13905;CONF:1098-13906;CONF:1098-13889;CONF:1098-13890;CONF:1098-32568;CONF:1098-13907;CONF:1098-13908;CONF:1098-31522;CONF:1098-31523;CONF:1098-13929;CONF:1098-19101;CONF:1098-13930;CONF:1098-13932;CONF:1098-14234;CONF:1098-13936;CONF:1098-13892;CONF:1098-14596;CONF:1098-14218;CONF:1098-13895;CONF:1098-14597;CONF:1098-13897;CONF:1098-14465;CONF:1098-14598;CONF:1098-14466;CONF:1098-13937' },</v>
       </c>
       <c r="N124" t="str">
         <f t="shared" si="5"/>
@@ -11748,10 +11747,10 @@
       <c r="D125" t="s">
         <v>255</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125">
         <v>511</v>
       </c>
-      <c r="G125" s="4" t="str">
+      <c r="G125" s="3" t="str">
         <f>VLOOKUP(D125,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>511-515</v>
       </c>
@@ -11770,7 +11769,7 @@
       </c>
       <c r="M125" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:124, template_type:'Entry', name:'Functional Status Organizer  [2.16.840.1.113883.10.20.22.4.66[511-515', name2:'Functional Status Organizer ', template:'2.16.840.1.113883.10.20.22.4.66', pageStart:511, pages:'511-515', search:'Functional Status Organizer  2.16.840.1.113883.10.20.22.4.66 CONF:1098-14355;CONF:1098-14357;CONF:1098-14361;CONF:1098-14362;CONF:1098-32569;CONF:1098-14363;CONF:1098-14364;CONF:1098-31417;CONF:1098-14358;CONF:1098-31434;CONF:1098-31585;CONF:1098-14359;CONF:1098-14368;CONF:1098-31432;CONF:1098-31433' },</v>
+        <v>{ 'id': '124', 'template_type': 'Entry', 'name': 'Functional Status Organizer  [2.16.840.1.113883.10.20.22.4.66[511-515', 'name2': 'Functional Status Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.66', 'pageStart': '511', 'pages': '511-515', 'search': 'Functional Status Organizer  2.16.840.1.113883.10.20.22.4.66 CONF:1098-14355;CONF:1098-14357;CONF:1098-14361;CONF:1098-14362;CONF:1098-32569;CONF:1098-14363;CONF:1098-14364;CONF:1098-31417;CONF:1098-14358;CONF:1098-31434;CONF:1098-31585;CONF:1098-14359;CONF:1098-14368;CONF:1098-31432;CONF:1098-31433' },</v>
       </c>
       <c r="N125" t="str">
         <f t="shared" si="5"/>
@@ -11790,10 +11789,10 @@
       <c r="D126" t="s">
         <v>257</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126">
         <v>515</v>
       </c>
-      <c r="G126" s="4" t="str">
+      <c r="G126" s="3" t="str">
         <f>VLOOKUP(D126,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>515-518</v>
       </c>
@@ -11812,7 +11811,7 @@
       </c>
       <c r="M126" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:125, template_type:'Entry', name:'Functional Status Problem Observation (DEPRECATED) [2.16.840.1.113883.10.20.22.4.68[515-518', name2:'Functional Status Problem Observation (DEPRECATED)', template:'2.16.840.1.113883.10.20.22.4.68', pageStart:515, pages:'515-518', search:'Functional Status Problem Observation (DEPRECATED) 2.16.840.1.113883.10.20.22.4.68 CONF:1098-14282;CONF:1098-14283;CONF:1098-14307;CONF:1098-14312;CONF:1098-14313;CONF:1098-32601;CONF:1098-14284;CONF:1098-14314;CONF:1098-14315;CONF:1098-14304;CONF:1098-15552;CONF:1098-15553;CONF:1098-15554;CONF:1098-14286;CONF:1098-19100;CONF:1098-14287;CONF:1098-26456;CONF:1098-26457;CONF:1098-14291;CONF:1098-14292;CONF:1098-14293;CONF:1098-14316' },</v>
+        <v>{ 'id': '125', 'template_type': 'Entry', 'name': 'Functional Status Problem Observation (DEPRECATED) [2.16.840.1.113883.10.20.22.4.68[515-518', 'name2': 'Functional Status Problem Observation (DEPRECATED)', 'template': '2.16.840.1.113883.10.20.22.4.68', 'pageStart': '515', 'pages': '515-518', 'search': 'Functional Status Problem Observation (DEPRECATED) 2.16.840.1.113883.10.20.22.4.68 CONF:1098-14282;CONF:1098-14283;CONF:1098-14307;CONF:1098-14312;CONF:1098-14313;CONF:1098-32601;CONF:1098-14284;CONF:1098-14314;CONF:1098-14315;CONF:1098-14304;CONF:1098-15552;CONF:1098-15553;CONF:1098-15554;CONF:1098-14286;CONF:1098-19100;CONF:1098-14287;CONF:1098-26456;CONF:1098-26457;CONF:1098-14291;CONF:1098-14292;CONF:1098-14293;CONF:1098-14316' },</v>
       </c>
       <c r="N126" t="str">
         <f t="shared" si="5"/>
@@ -11832,10 +11831,10 @@
       <c r="D127" t="s">
         <v>259</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127">
         <v>518</v>
       </c>
-      <c r="G127" s="4" t="str">
+      <c r="G127" s="3" t="str">
         <f>VLOOKUP(D127,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>518-524</v>
       </c>
@@ -11854,7 +11853,7 @@
       </c>
       <c r="M127" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:126, template_type:'Entry', name:'Goal Observation  [2.16.840.1.113883.10.20.22.4.121[518-524', name2:'Goal Observation ', template:'2.16.840.1.113883.10.20.22.4.121', pageStart:518, pages:'518-524', search:'Goal Observation  2.16.840.1.113883.10.20.22.4.121 CONF:1098-30418;CONF:1098-30419;CONF:1098-8583;CONF:1098-10512;CONF:1098-32332;CONF:1098-30784;CONF:1098-32333;CONF:1098-32334;CONF:1098-32335;CONF:1098-32743;CONF:1098-30995;CONF:1098-30701;CONF:1098-30702;CONF:1098-30703;CONF:1098-30704;CONF:1098-30705;CONF:1098-32879;CONF:1098-30785;CONF:1098-30786;CONF:1098-30787;CONF:1098-31448;CONF:1098-31449;CONF:1098-32880;CONF:1098-31559;CONF:1098-31560;CONF:1098-31588;CONF:1098-32754;CONF:1098-32755;CONF:1098-32756' },</v>
+        <v>{ 'id': '126', 'template_type': 'Entry', 'name': 'Goal Observation  [2.16.840.1.113883.10.20.22.4.121[518-524', 'name2': 'Goal Observation ', 'template': '2.16.840.1.113883.10.20.22.4.121', 'pageStart': '518', 'pages': '518-524', 'search': 'Goal Observation  2.16.840.1.113883.10.20.22.4.121 CONF:1098-30418;CONF:1098-30419;CONF:1098-8583;CONF:1098-10512;CONF:1098-32332;CONF:1098-30784;CONF:1098-32333;CONF:1098-32334;CONF:1098-32335;CONF:1098-32743;CONF:1098-30995;CONF:1098-30701;CONF:1098-30702;CONF:1098-30703;CONF:1098-30704;CONF:1098-30705;CONF:1098-32879;CONF:1098-30785;CONF:1098-30786;CONF:1098-30787;CONF:1098-31448;CONF:1098-31449;CONF:1098-32880;CONF:1098-31559;CONF:1098-31560;CONF:1098-31588;CONF:1098-32754;CONF:1098-32755;CONF:1098-32756' },</v>
       </c>
       <c r="N127" t="str">
         <f t="shared" si="5"/>
@@ -11874,10 +11873,10 @@
       <c r="D128" t="s">
         <v>261</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128">
         <v>524</v>
       </c>
-      <c r="G128" s="4" t="str">
+      <c r="G128" s="3" t="str">
         <f>VLOOKUP(D128,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>524-528</v>
       </c>
@@ -11896,7 +11895,7 @@
       </c>
       <c r="M128" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:127, template_type:'Entry', name:'Handoff Communication Participants  [2.16.840.1.113883.10.20.22.4.141[524-528', name2:'Handoff Communication Participants ', template:'2.16.840.1.113883.10.20.22.4.141', pageStart:524, pages:'524-528', search:'Handoff Communication Participants  2.16.840.1.113883.10.20.22.4.141 CONF:1098-30832;CONF:1098-30833;CONF:1098-30834;CONF:1098-30835;CONF:1098-30836;CONF:1098-30837;CONF:1098-30838;CONF:1098-31668;CONF:1098-31669;CONF:1098-31670;CONF:1098-31672;CONF:1098-31673;CONF:1098-31674;CONF:1098-31675;CONF:1098-32422;CONF:1098-31676;CONF:1098-32392;CONF:1098-32393;CONF:1098-32394' },</v>
+        <v>{ 'id': '127', 'template_type': 'Entry', 'name': 'Handoff Communication Participants  [2.16.840.1.113883.10.20.22.4.141[524-528', 'name2': 'Handoff Communication Participants ', 'template': '2.16.840.1.113883.10.20.22.4.141', 'pageStart': '524', 'pages': '524-528', 'search': 'Handoff Communication Participants  2.16.840.1.113883.10.20.22.4.141 CONF:1098-30832;CONF:1098-30833;CONF:1098-30834;CONF:1098-30835;CONF:1098-30836;CONF:1098-30837;CONF:1098-30838;CONF:1098-31668;CONF:1098-31669;CONF:1098-31670;CONF:1098-31672;CONF:1098-31673;CONF:1098-31674;CONF:1098-31675;CONF:1098-32422;CONF:1098-31676;CONF:1098-32392;CONF:1098-32393;CONF:1098-32394' },</v>
       </c>
       <c r="N128" t="str">
         <f t="shared" si="5"/>
@@ -11916,10 +11915,10 @@
       <c r="D129" t="s">
         <v>263</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129">
         <v>528</v>
       </c>
-      <c r="G129" s="4" t="str">
+      <c r="G129" s="3" t="str">
         <f>VLOOKUP(D129,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>528-544</v>
       </c>
@@ -11938,7 +11937,7 @@
       </c>
       <c r="M129" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:128, template_type:'Entry', name:'Health Concern Act   [2.16.840.1.113883.10.20.22.4.132[528-544', name2:'Health Concern Act  ', template:'2.16.840.1.113883.10.20.22.4.132', pageStart:528, pages:'528-544', search:'Health Concern Act   2.16.840.1.113883.10.20.22.4.132 CONF:1198-30750;CONF:1198-30751;CONF:1198-30752;CONF:1198-30753;CONF:1198-32861;CONF:1198-30754;CONF:1198-32310;CONF:1198-32311;CONF:1198-32312;CONF:1198-30758;CONF:1198-32313;CONF:1198-30759;CONF:1198-31546;CONF:1198-30761;CONF:1198-30762;CONF:1198-31001;CONF:1198-31007;CONF:1198-31008;CONF:1198-31186;CONF:1198-31157;CONF:1198-31158;CONF:1198-32106;CONF:1198-32860;CONF:1198-31160;CONF:1198-31161;CONF:1198-32107;CONF:1198-32745;CONF:1198-31190;CONF:1198-31191;CONF:1198-31192;CONF:1198-31232;CONF:1198-31264;CONF:1198-31265;CONF:1198-31234;CONF:1198-31268;CONF:1198-31273;CONF:1198-31235;CONF:1198-31269;CONF:1198-31275;CONF:1198-31236;CONF:1198-31270;CONF:1198-31277;CONF:1198-31237;CONF:1198-31279;CONF:1198-31280;CONF:1198-31238;CONF:1198-31282;CONF:1198-31283;CONF:1198-31241;CONF:1198-31291;CONF:1198-31292;CONF:1198-31244;CONF:1198-31300;CONF:1198-31301;CONF:1198-31246;CONF:1198-31306;CONF:1198-31307;CONF:1198-31247;CONF:1198-31309;CONF:1198-31310;CONF:1198-31248;CONF:1198-31312;CONF:1198-31313;CONF:1198-31250;CONF:1198-31318;CONF:1198-31319;CONF:1198-31251;CONF:1198-31321;CONF:1198-31322;CONF:1198-31252;CONF:1198-31324;CONF:1198-31325;CONF:1198-31253;CONF:1198-31327;CONF:1198-31328;CONF:1198-31254;CONF:1198-32955;CONF:1198-31331;CONF:1198-31255;CONF:1198-31333;CONF:1198-31334;CONF:1198-31256;CONF:1198-31336;CONF:1198-31337;CONF:1198-31257;CONF:1198-31339;CONF:1198-31340;CONF:1198-31365;CONF:1198-31366;CONF:1198-31367;CONF:1198-31368;CONF:1198-31369;CONF:1198-31370;CONF:1198-31371;CONF:1198-31372;CONF:1198-31373;CONF:1198-31374;CONF:1198-31375;CONF:1198-31376;CONF:1198-31377;CONF:1198-31378;CONF:1198-31379;CONF:1198-31380;CONF:1198-31381;CONF:1198-31382;CONF:1198-31442;CONF:1198-31443;CONF:1198-31444;CONF:1198-31544;CONF:1198-31547;CONF:1198-31548;CONF:1198-31549;CONF:1198-31550;CONF:1198-31551;CONF:1198-32757;CONF:1198-32758;CONF:1198-32759' },</v>
+        <v>{ 'id': '128', 'template_type': 'Entry', 'name': 'Health Concern Act   [2.16.840.1.113883.10.20.22.4.132[528-544', 'name2': 'Health Concern Act  ', 'template': '2.16.840.1.113883.10.20.22.4.132', 'pageStart': '528', 'pages': '528-544', 'search': 'Health Concern Act   2.16.840.1.113883.10.20.22.4.132 CONF:1198-30750;CONF:1198-30751;CONF:1198-30752;CONF:1198-30753;CONF:1198-32861;CONF:1198-30754;CONF:1198-32310;CONF:1198-32311;CONF:1198-32312;CONF:1198-30758;CONF:1198-32313;CONF:1198-30759;CONF:1198-31546;CONF:1198-30761;CONF:1198-30762;CONF:1198-31001;CONF:1198-31007;CONF:1198-31008;CONF:1198-31186;CONF:1198-31157;CONF:1198-31158;CONF:1198-32106;CONF:1198-32860;CONF:1198-31160;CONF:1198-31161;CONF:1198-32107;CONF:1198-32745;CONF:1198-31190;CONF:1198-31191;CONF:1198-31192;CONF:1198-31232;CONF:1198-31264;CONF:1198-31265;CONF:1198-31234;CONF:1198-31268;CONF:1198-31273;CONF:1198-31235;CONF:1198-31269;CONF:1198-31275;CONF:1198-31236;CONF:1198-31270;CONF:1198-31277;CONF:1198-31237;CONF:1198-31279;CONF:1198-31280;CONF:1198-31238;CONF:1198-31282;CONF:1198-31283;CONF:1198-31241;CONF:1198-31291;CONF:1198-31292;CONF:1198-31244;CONF:1198-31300;CONF:1198-31301;CONF:1198-31246;CONF:1198-31306;CONF:1198-31307;CONF:1198-31247;CONF:1198-31309;CONF:1198-31310;CONF:1198-31248;CONF:1198-31312;CONF:1198-31313;CONF:1198-31250;CONF:1198-31318;CONF:1198-31319;CONF:1198-31251;CONF:1198-31321;CONF:1198-31322;CONF:1198-31252;CONF:1198-31324;CONF:1198-31325;CONF:1198-31253;CONF:1198-31327;CONF:1198-31328;CONF:1198-31254;CONF:1198-32955;CONF:1198-31331;CONF:1198-31255;CONF:1198-31333;CONF:1198-31334;CONF:1198-31256;CONF:1198-31336;CONF:1198-31337;CONF:1198-31257;CONF:1198-31339;CONF:1198-31340;CONF:1198-31365;CONF:1198-31366;CONF:1198-31367;CONF:1198-31368;CONF:1198-31369;CONF:1198-31370;CONF:1198-31371;CONF:1198-31372;CONF:1198-31373;CONF:1198-31374;CONF:1198-31375;CONF:1198-31376;CONF:1198-31377;CONF:1198-31378;CONF:1198-31379;CONF:1198-31380;CONF:1198-31381;CONF:1198-31382;CONF:1198-31442;CONF:1198-31443;CONF:1198-31444;CONF:1198-31544;CONF:1198-31547;CONF:1198-31548;CONF:1198-31549;CONF:1198-31550;CONF:1198-31551;CONF:1198-32757;CONF:1198-32758;CONF:1198-32759' },</v>
       </c>
       <c r="N129" t="str">
         <f t="shared" si="5"/>
@@ -11958,10 +11957,10 @@
       <c r="D130" t="s">
         <v>265</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130">
         <v>544</v>
       </c>
-      <c r="G130" s="4" t="str">
+      <c r="G130" s="3" t="str">
         <f>VLOOKUP(D130,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>544-547</v>
       </c>
@@ -11980,7 +11979,7 @@
       </c>
       <c r="M130" t="str">
         <f t="shared" si="4"/>
-        <v>{ id:129, template_type:'Entry', name:'Health Status Observation  [2.16.840.1.113883.10.20.22.4.5[544-547', name2:'Health Status Observation ', template:'2.16.840.1.113883.10.20.22.4.5', pageStart:544, pages:'544-547', search:'Health Status Observation  2.16.840.1.113883.10.20.22.4.5 CONF:1098-9057;CONF:1098-9072;CONF:1098-16756;CONF:1098-16757;CONF:1098-32558;CONF:1098-32486;CONF:1098-19143;CONF:1098-19144;CONF:1098-32161;CONF:1098-9074;CONF:1098-19103;CONF:1098-9075' },</v>
+        <v>{ 'id': '129', 'template_type': 'Entry', 'name': 'Health Status Observation  [2.16.840.1.113883.10.20.22.4.5[544-547', 'name2': 'Health Status Observation ', 'template': '2.16.840.1.113883.10.20.22.4.5', 'pageStart': '544', 'pages': '544-547', 'search': 'Health Status Observation  2.16.840.1.113883.10.20.22.4.5 CONF:1098-9057;CONF:1098-9072;CONF:1098-16756;CONF:1098-16757;CONF:1098-32558;CONF:1098-32486;CONF:1098-19143;CONF:1098-19144;CONF:1098-32161;CONF:1098-9074;CONF:1098-19103;CONF:1098-9075' },</v>
       </c>
       <c r="N130" t="str">
         <f t="shared" si="5"/>
@@ -12000,10 +11999,10 @@
       <c r="D131" t="s">
         <v>267</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131">
         <v>547</v>
       </c>
-      <c r="G131" s="4" t="str">
+      <c r="G131" s="3" t="str">
         <f>VLOOKUP(D131,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>547-548</v>
       </c>
@@ -12021,8 +12020,8 @@
         <v>Highest Pressure Ulcer Stage 2.16.840.1.113883.10.20.22.4.77 CONF:81-14726;CONF:81-14727;CONF:81-14728;CONF:81-14729;CONF:81-14730;CONF:81-14731;CONF:81-14732;CONF:81-14733</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" ref="M131:M194" si="7">"{ id:"&amp;A131&amp;", template_type:'"&amp;C131&amp;"', name:'"&amp;B131&amp;" ["&amp;D131&amp;"["&amp;G131&amp;"', name2:'"&amp;B131&amp;"', template:'"&amp;D131&amp;"', pageStart:"&amp;E131&amp;", pages:'"&amp;G131&amp;"', search:'"&amp;K131&amp;"' },"</f>
-        <v>{ id:130, template_type:'Entry', name:'Highest Pressure Ulcer Stage [2.16.840.1.113883.10.20.22.4.77[547-548', name2:'Highest Pressure Ulcer Stage', template:'2.16.840.1.113883.10.20.22.4.77', pageStart:547, pages:'547-548', search:'Highest Pressure Ulcer Stage 2.16.840.1.113883.10.20.22.4.77 CONF:81-14726;CONF:81-14727;CONF:81-14728;CONF:81-14729;CONF:81-14730;CONF:81-14731;CONF:81-14732;CONF:81-14733' },</v>
+        <f t="shared" ref="M131:M194" si="7">"{ 'id': '"&amp;A131&amp;"', 'template_type': '"&amp;C131&amp;"', 'name': '"&amp;B131&amp;" ["&amp;D131&amp;"["&amp;G131&amp;"', 'name2': '"&amp;B131&amp;"', 'template': '"&amp;D131&amp;"', 'pageStart': '"&amp;E131&amp;"', 'pages': '"&amp;G131&amp;"', 'search': '"&amp;K131&amp;"' },"</f>
+        <v>{ 'id': '130', 'template_type': 'Entry', 'name': 'Highest Pressure Ulcer Stage [2.16.840.1.113883.10.20.22.4.77[547-548', 'name2': 'Highest Pressure Ulcer Stage', 'template': '2.16.840.1.113883.10.20.22.4.77', 'pageStart': '547', 'pages': '547-548', 'search': 'Highest Pressure Ulcer Stage 2.16.840.1.113883.10.20.22.4.77 CONF:81-14726;CONF:81-14727;CONF:81-14728;CONF:81-14729;CONF:81-14730;CONF:81-14731;CONF:81-14732;CONF:81-14733' },</v>
       </c>
       <c r="N131" t="str">
         <f t="shared" ref="N131:N194" si="8">"'"&amp;D131&amp;"',"</f>
@@ -12042,10 +12041,10 @@
       <c r="D132" t="s">
         <v>269</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132">
         <v>548</v>
       </c>
-      <c r="G132" s="4" t="str">
+      <c r="G132" s="3" t="str">
         <f>VLOOKUP(D132,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>548-550</v>
       </c>
@@ -12064,7 +12063,7 @@
       </c>
       <c r="M132" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:131, template_type:'Entry', name:'Hospital Admission Diagnosis  [2.16.840.1.113883.10.20.22.4.34[548-550', name2:'Hospital Admission Diagnosis ', template:'2.16.840.1.113883.10.20.22.4.34', pageStart:548, pages:'548-550', search:'Hospital Admission Diagnosis  2.16.840.1.113883.10.20.22.4.34 CONF:1198-7671;CONF:1198-7672;CONF:1198-16747;CONF:1198-16748;CONF:1198-32535;CONF:1198-19145;CONF:1198-19146;CONF:1198-32162;CONF:1198-7674;CONF:1198-7675;CONF:1198-15535' },</v>
+        <v>{ 'id': '131', 'template_type': 'Entry', 'name': 'Hospital Admission Diagnosis  [2.16.840.1.113883.10.20.22.4.34[548-550', 'name2': 'Hospital Admission Diagnosis ', 'template': '2.16.840.1.113883.10.20.22.4.34', 'pageStart': '548', 'pages': '548-550', 'search': 'Hospital Admission Diagnosis  2.16.840.1.113883.10.20.22.4.34 CONF:1198-7671;CONF:1198-7672;CONF:1198-16747;CONF:1198-16748;CONF:1198-32535;CONF:1198-19145;CONF:1198-19146;CONF:1198-32162;CONF:1198-7674;CONF:1198-7675;CONF:1198-15535' },</v>
       </c>
       <c r="N132" t="str">
         <f t="shared" si="8"/>
@@ -12084,10 +12083,10 @@
       <c r="D133" t="s">
         <v>271</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133">
         <v>550</v>
       </c>
-      <c r="G133" s="4" t="str">
+      <c r="G133" s="3" t="str">
         <f>VLOOKUP(D133,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>550-553</v>
       </c>
@@ -12106,7 +12105,7 @@
       </c>
       <c r="M133" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:132, template_type:'Entry', name:'Hospital Discharge Diagnosis   [2.16.840.1.113883.10.20.22.4.33[550-553', name2:'Hospital Discharge Diagnosis  ', template:'2.16.840.1.113883.10.20.22.4.33', pageStart:550, pages:'550-553', search:'Hospital Discharge Diagnosis   2.16.840.1.113883.10.20.22.4.33 CONF:1198-7663;CONF:1198-7664;CONF:1198-16764;CONF:1198-16765;CONF:1198-32534;CONF:1198-19147;CONF:1198-19148;CONF:1198-32163;CONF:1198-7666;CONF:1198-7667;CONF:1198-15536' },</v>
+        <v>{ 'id': '132', 'template_type': 'Entry', 'name': 'Hospital Discharge Diagnosis   [2.16.840.1.113883.10.20.22.4.33[550-553', 'name2': 'Hospital Discharge Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.33', 'pageStart': '550', 'pages': '550-553', 'search': 'Hospital Discharge Diagnosis   2.16.840.1.113883.10.20.22.4.33 CONF:1198-7663;CONF:1198-7664;CONF:1198-16764;CONF:1198-16765;CONF:1198-32534;CONF:1198-19147;CONF:1198-19148;CONF:1198-32163;CONF:1198-7666;CONF:1198-7667;CONF:1198-15536' },</v>
       </c>
       <c r="N133" t="str">
         <f t="shared" si="8"/>
@@ -12126,10 +12125,10 @@
       <c r="D134" t="s">
         <v>273</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134">
         <v>553</v>
       </c>
-      <c r="G134" s="4" t="str">
+      <c r="G134" s="3" t="str">
         <f>VLOOKUP(D134,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>553-567</v>
       </c>
@@ -12148,7 +12147,7 @@
       </c>
       <c r="M134" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:133, template_type:'Entry', name:'Immunization Activity   [2.16.840.1.113883.10.20.22.4.52[553-567', name2:'Immunization Activity  ', template:'2.16.840.1.113883.10.20.22.4.52', pageStart:553, pages:'553-567', search:'Immunization Activity   2.16.840.1.113883.10.20.22.4.52 CONF:1198-8826;CONF:1198-8827;CONF:1198-8985;CONF:1198-8828;CONF:1198-10498;CONF:1198-32528;CONF:1198-8829;CONF:1198-8830;CONF:1198-8833;CONF:1198-32359;CONF:1198-8834;CONF:1198-8838;CONF:1198-8839;CONF:1198-32960;CONF:1198-8840;CONF:1198-8841;CONF:1198-8842;CONF:1198-8846;CONF:1198-8847;CONF:1198-15546;CONF:1198-8849;CONF:1198-31151;CONF:1198-8850;CONF:1198-8851;CONF:1198-15547;CONF:1198-8853;CONF:1198-8854;CONF:1198-15537;CONF:1198-8856;CONF:1198-8857;CONF:1198-8858;CONF:1198-31392;CONF:1198-8860;CONF:1198-8861;CONF:1198-15539;CONF:1198-8863;CONF:1198-8864;CONF:1198-15540;CONF:1198-8866;CONF:1198-8867;CONF:1198-15541;CONF:1198-8988;CONF:1198-8989;CONF:1198-15542;CONF:1198-31510;CONF:1198-31511;CONF:1198-31512;CONF:1198-31513;CONF:1198-31514;CONF:1198-8869;CONF:1198-8870;CONF:1198-15548' },</v>
+        <v>{ 'id': '133', 'template_type': 'Entry', 'name': 'Immunization Activity   [2.16.840.1.113883.10.20.22.4.52[553-567', 'name2': 'Immunization Activity  ', 'template': '2.16.840.1.113883.10.20.22.4.52', 'pageStart': '553', 'pages': '553-567', 'search': 'Immunization Activity   2.16.840.1.113883.10.20.22.4.52 CONF:1198-8826;CONF:1198-8827;CONF:1198-8985;CONF:1198-8828;CONF:1198-10498;CONF:1198-32528;CONF:1198-8829;CONF:1198-8830;CONF:1198-8833;CONF:1198-32359;CONF:1198-8834;CONF:1198-8838;CONF:1198-8839;CONF:1198-32960;CONF:1198-8840;CONF:1198-8841;CONF:1198-8842;CONF:1198-8846;CONF:1198-8847;CONF:1198-15546;CONF:1198-8849;CONF:1198-31151;CONF:1198-8850;CONF:1198-8851;CONF:1198-15547;CONF:1198-8853;CONF:1198-8854;CONF:1198-15537;CONF:1198-8856;CONF:1198-8857;CONF:1198-8858;CONF:1198-31392;CONF:1198-8860;CONF:1198-8861;CONF:1198-15539;CONF:1198-8863;CONF:1198-8864;CONF:1198-15540;CONF:1198-8866;CONF:1198-8867;CONF:1198-15541;CONF:1198-8988;CONF:1198-8989;CONF:1198-15542;CONF:1198-31510;CONF:1198-31511;CONF:1198-31512;CONF:1198-31513;CONF:1198-31514;CONF:1198-8869;CONF:1198-8870;CONF:1198-15548' },</v>
       </c>
       <c r="N134" t="str">
         <f t="shared" si="8"/>
@@ -12168,10 +12167,10 @@
       <c r="D135" t="s">
         <v>275</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135">
         <v>567</v>
       </c>
-      <c r="G135" s="4" t="str">
+      <c r="G135" s="3" t="str">
         <f>VLOOKUP(D135,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>567-573</v>
       </c>
@@ -12190,7 +12189,7 @@
       </c>
       <c r="M135" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:134, template_type:'Entry', name:'Immunization Medication Information   [2.16.840.1.113883.10.20.22.4.54[567-573', name2:'Immunization Medication Information  ', template:'2.16.840.1.113883.10.20.22.4.54', pageStart:567, pages:'567-573', search:'Immunization Medication Information   2.16.840.1.113883.10.20.22.4.54 CONF:1098-9002;CONF:1098-9004;CONF:1098-10499;CONF:1098-32602;CONF:1098-9005;CONF:1098-9006;CONF:1098-9007;CONF:1098-31543;CONF:1098-31881;CONF:1098-9014;CONF:1098-9012' },</v>
+        <v>{ 'id': '134', 'template_type': 'Entry', 'name': 'Immunization Medication Information   [2.16.840.1.113883.10.20.22.4.54[567-573', 'name2': 'Immunization Medication Information  ', 'template': '2.16.840.1.113883.10.20.22.4.54', 'pageStart': '567', 'pages': '567-573', 'search': 'Immunization Medication Information   2.16.840.1.113883.10.20.22.4.54 CONF:1098-9002;CONF:1098-9004;CONF:1098-10499;CONF:1098-32602;CONF:1098-9005;CONF:1098-9006;CONF:1098-9007;CONF:1098-31543;CONF:1098-31881;CONF:1098-9014;CONF:1098-9012' },</v>
       </c>
       <c r="N135" t="str">
         <f t="shared" si="8"/>
@@ -12210,10 +12209,10 @@
       <c r="D136" t="s">
         <v>277</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136">
         <v>573</v>
       </c>
-      <c r="G136" s="4" t="str">
+      <c r="G136" s="3" t="str">
         <f>VLOOKUP(D136,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>573-575</v>
       </c>
@@ -12232,7 +12231,7 @@
       </c>
       <c r="M136" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:135, template_type:'Entry', name:'Immunization Refusal Reason  [2.16.840.1.113883.10.20.22.4.53[573-575', name2:'Immunization Refusal Reason ', template:'2.16.840.1.113883.10.20.22.4.53', pageStart:573, pages:'573-575', search:'Immunization Refusal Reason  2.16.840.1.113883.10.20.22.4.53 CONF:81-8991;CONF:81-8992;CONF:81-8993;CONF:81-10500;CONF:81-8994;CONF:81-8995;CONF:81-8996;CONF:81-19104' },</v>
+        <v>{ 'id': '135', 'template_type': 'Entry', 'name': 'Immunization Refusal Reason  [2.16.840.1.113883.10.20.22.4.53[573-575', 'name2': 'Immunization Refusal Reason ', 'template': '2.16.840.1.113883.10.20.22.4.53', 'pageStart': '573', 'pages': '573-575', 'search': 'Immunization Refusal Reason  2.16.840.1.113883.10.20.22.4.53 CONF:81-8991;CONF:81-8992;CONF:81-8993;CONF:81-10500;CONF:81-8994;CONF:81-8995;CONF:81-8996;CONF:81-19104' },</v>
       </c>
       <c r="N136" t="str">
         <f t="shared" si="8"/>
@@ -12252,10 +12251,10 @@
       <c r="D137" t="s">
         <v>279</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137">
         <v>575</v>
       </c>
-      <c r="G137" s="4" t="str">
+      <c r="G137" s="3" t="str">
         <f>VLOOKUP(D137,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>575-578</v>
       </c>
@@ -12274,7 +12273,7 @@
       </c>
       <c r="M137" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:136, template_type:'Entry', name:'Indication   [2.16.840.1.113883.10.20.22.4.19[575-578', name2:'Indication  ', template:'2.16.840.1.113883.10.20.22.4.19', pageStart:575, pages:'575-578', search:'Indication   2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489' },</v>
+        <v>{ 'id': '136', 'template_type': 'Entry', 'name': 'Indication   [2.16.840.1.113883.10.20.22.4.19[575-578', 'name2': 'Indication  ', 'template': '2.16.840.1.113883.10.20.22.4.19', 'pageStart': '575', 'pages': '575-578', 'search': 'Indication   2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489' },</v>
       </c>
       <c r="N137" t="str">
         <f t="shared" si="8"/>
@@ -12294,10 +12293,10 @@
       <c r="D138" t="s">
         <v>281</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138">
         <v>578</v>
       </c>
-      <c r="G138" s="4" t="str">
+      <c r="G138" s="3" t="str">
         <f>VLOOKUP(D138,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>578-581</v>
       </c>
@@ -12316,7 +12315,7 @@
       </c>
       <c r="M138" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:137, template_type:'Entry', name:'Instruction  [2.16.840.1.113883.10.20.22.4.20[578-581', name2:'Instruction ', template:'2.16.840.1.113883.10.20.22.4.20', pageStart:578, pages:'578-581', search:'Instruction  2.16.840.1.113883.10.20.22.4.20 CONF:1098-7391;CONF:1098-7392;CONF:1098-7393;CONF:1098-10503;CONF:1098-32598;CONF:1098-16884;CONF:1098-7396;CONF:1098-19106' },</v>
+        <v>{ 'id': '137', 'template_type': 'Entry', 'name': 'Instruction  [2.16.840.1.113883.10.20.22.4.20[578-581', 'name2': 'Instruction ', 'template': '2.16.840.1.113883.10.20.22.4.20', 'pageStart': '578', 'pages': '578-581', 'search': 'Instruction  2.16.840.1.113883.10.20.22.4.20 CONF:1098-7391;CONF:1098-7392;CONF:1098-7393;CONF:1098-10503;CONF:1098-32598;CONF:1098-16884;CONF:1098-7396;CONF:1098-19106' },</v>
       </c>
       <c r="N138" t="str">
         <f t="shared" si="8"/>
@@ -12336,10 +12335,10 @@
       <c r="D139" t="s">
         <v>283</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139">
         <v>581</v>
       </c>
-      <c r="G139" s="4" t="str">
+      <c r="G139" s="3" t="str">
         <f>VLOOKUP(D139,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>581-590</v>
       </c>
@@ -12358,7 +12357,7 @@
       </c>
       <c r="M139" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:138, template_type:'Entry', name:'Intervention Act   [2.16.840.1.113883.10.20.22.4.131[581-590', name2:'Intervention Act  ', template:'2.16.840.1.113883.10.20.22.4.131', pageStart:581, pages:'581-590', search:'Intervention Act   2.16.840.1.113883.10.20.22.4.131 CONF:1198-30971;CONF:1198-30972;CONF:1198-30973;CONF:1198-30974;CONF:1198-32916;CONF:1198-30975;CONF:1198-30976;CONF:1198-30977;CONF:1198-30978;CONF:1198-30979;CONF:1198-32316;CONF:1198-31624;CONF:1198-31552;CONF:1198-30980;CONF:1198-30981;CONF:1198-30982;CONF:1198-30984;CONF:1198-30985;CONF:1198-30986;CONF:1198-30988;CONF:1198-30989;CONF:1198-30990;CONF:1198-30991;CONF:1198-30992;CONF:1198-30993;CONF:1198-31154;CONF:1198-31155;CONF:1198-32460;CONF:1198-31164;CONF:1198-31165;CONF:1198-31166;CONF:1198-31168;CONF:1198-31169;CONF:1198-31170;CONF:1198-31171;CONF:1198-31172;CONF:1198-31173;CONF:1198-31174;CONF:1198-32956;CONF:1198-31176;CONF:1198-31177;CONF:1198-31178;CONF:1198-31179;CONF:1198-31413;CONF:1198-31414;CONF:1198-31545;CONF:1198-31554;CONF:1198-31555;CONF:1198-31621;CONF:1198-31622;CONF:1198-31623;CONF:1198-32459;CONF:1198-32317;CONF:1198-32318;CONF:1198-32319;CONF:1198-32914;CONF:1198-32773;CONF:1198-32915;CONF:1198-32760;CONF:1198-32761;CONF:1198-32762' },</v>
+        <v>{ 'id': '138', 'template_type': 'Entry', 'name': 'Intervention Act   [2.16.840.1.113883.10.20.22.4.131[581-590', 'name2': 'Intervention Act  ', 'template': '2.16.840.1.113883.10.20.22.4.131', 'pageStart': '581', 'pages': '581-590', 'search': 'Intervention Act   2.16.840.1.113883.10.20.22.4.131 CONF:1198-30971;CONF:1198-30972;CONF:1198-30973;CONF:1198-30974;CONF:1198-32916;CONF:1198-30975;CONF:1198-30976;CONF:1198-30977;CONF:1198-30978;CONF:1198-30979;CONF:1198-32316;CONF:1198-31624;CONF:1198-31552;CONF:1198-30980;CONF:1198-30981;CONF:1198-30982;CONF:1198-30984;CONF:1198-30985;CONF:1198-30986;CONF:1198-30988;CONF:1198-30989;CONF:1198-30990;CONF:1198-30991;CONF:1198-30992;CONF:1198-30993;CONF:1198-31154;CONF:1198-31155;CONF:1198-32460;CONF:1198-31164;CONF:1198-31165;CONF:1198-31166;CONF:1198-31168;CONF:1198-31169;CONF:1198-31170;CONF:1198-31171;CONF:1198-31172;CONF:1198-31173;CONF:1198-31174;CONF:1198-32956;CONF:1198-31176;CONF:1198-31177;CONF:1198-31178;CONF:1198-31179;CONF:1198-31413;CONF:1198-31414;CONF:1198-31545;CONF:1198-31554;CONF:1198-31555;CONF:1198-31621;CONF:1198-31622;CONF:1198-31623;CONF:1198-32459;CONF:1198-32317;CONF:1198-32318;CONF:1198-32319;CONF:1198-32914;CONF:1198-32773;CONF:1198-32915;CONF:1198-32760;CONF:1198-32761;CONF:1198-32762' },</v>
       </c>
       <c r="N139" t="str">
         <f t="shared" si="8"/>
@@ -12378,10 +12377,10 @@
       <c r="D140" t="s">
         <v>651</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140">
         <v>590</v>
       </c>
-      <c r="G140" s="4" t="str">
+      <c r="G140" s="3" t="str">
         <f>VLOOKUP(D140,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>590-594</v>
       </c>
@@ -12400,7 +12399,7 @@
       </c>
       <c r="M140" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:139, template_type:'Entry', name:'Medical Equipment Organizer [2.16.840.1.113883.10.20.22.4.135[590-594', name2:'Medical Equipment Organizer', template:'2.16.840.1.113883.10.20.22.4.135', pageStart:590, pages:'590-594', search:'Medical Equipment Organizer 2.16.840.1.113883.10.20.22.4.135 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
+        <v>{ 'id': '139', 'template_type': 'Entry', 'name': 'Medical Equipment Organizer [2.16.840.1.113883.10.20.22.4.135[590-594', 'name2': 'Medical Equipment Organizer', 'template': '2.16.840.1.113883.10.20.22.4.135', 'pageStart': '590', 'pages': '590-594', 'search': 'Medical Equipment Organizer 2.16.840.1.113883.10.20.22.4.135 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
       </c>
       <c r="N140" t="str">
         <f t="shared" si="8"/>
@@ -12420,10 +12419,10 @@
       <c r="D141" t="s">
         <v>286</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141">
         <v>594</v>
       </c>
-      <c r="G141" s="4" t="str">
+      <c r="G141" s="3" t="str">
         <f>VLOOKUP(D141,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>594-604</v>
       </c>
@@ -12442,7 +12441,7 @@
       </c>
       <c r="M141" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:140, template_type:'Entry', name:'Medication Activity  [2.16.840.1.113883.10.20.22.4.16[594-604', name2:'Medication Activity ', template:'2.16.840.1.113883.10.20.22.4.16', pageStart:594, pages:'594-604', search:'Medication Activity  2.16.840.1.113883.10.20.22.4.16 CONF:1098-7496;CONF:1098-7497;CONF:1098-7499;CONF:1098-10504;CONF:1098-32498;CONF:1098-7500;CONF:1098-7506;CONF:1098-7507;CONF:1098-32360;CONF:1098-7508;CONF:1098-32775;CONF:1098-32776;CONF:1098-32777;CONF:1098-32890;CONF:1098-7513;CONF:1098-9106;CONF:1098-28499;CONF:1098-7555;CONF:1098-7514;CONF:1098-32950;CONF:1098-7515;CONF:1098-7516;CONF:1098-7526;CONF:1098-16878;CONF:1098-16879;CONF:1098-7517;CONF:1098-7525;CONF:1098-7518;CONF:1098-7519;CONF:1098-7520;CONF:1098-16085;CONF:1098-7522;CONF:1098-31150;CONF:1098-7523;CONF:1098-7524;CONF:1098-16086;CONF:1098-7536;CONF:1098-7537;CONF:1098-16087;CONF:1098-7539;CONF:1098-7540;CONF:1098-7542;CONF:1098-31387;CONF:1098-7543;CONF:1098-7547;CONF:1098-16089;CONF:1098-7549;CONF:1098-7553;CONF:1098-16090;CONF:1098-7552;CONF:1098-7544;CONF:1098-16091;CONF:1098-30820;CONF:1098-30821;CONF:1098-30822;CONF:1098-31515;CONF:1098-31516;CONF:1098-31517;CONF:1098-31518;CONF:1098-31519;CONF:1098-32907;CONF:1098-32908;CONF:1098-32909;CONF:1098-31520;CONF:1098-31882;CONF:1098-31883;CONF:1098-30800' },</v>
+        <v>{ 'id': '140', 'template_type': 'Entry', 'name': 'Medication Activity  [2.16.840.1.113883.10.20.22.4.16[594-604', 'name2': 'Medication Activity ', 'template': '2.16.840.1.113883.10.20.22.4.16', 'pageStart': '594', 'pages': '594-604', 'search': 'Medication Activity  2.16.840.1.113883.10.20.22.4.16 CONF:1098-7496;CONF:1098-7497;CONF:1098-7499;CONF:1098-10504;CONF:1098-32498;CONF:1098-7500;CONF:1098-7506;CONF:1098-7507;CONF:1098-32360;CONF:1098-7508;CONF:1098-32775;CONF:1098-32776;CONF:1098-32777;CONF:1098-32890;CONF:1098-7513;CONF:1098-9106;CONF:1098-28499;CONF:1098-7555;CONF:1098-7514;CONF:1098-32950;CONF:1098-7515;CONF:1098-7516;CONF:1098-7526;CONF:1098-16878;CONF:1098-16879;CONF:1098-7517;CONF:1098-7525;CONF:1098-7518;CONF:1098-7519;CONF:1098-7520;CONF:1098-16085;CONF:1098-7522;CONF:1098-31150;CONF:1098-7523;CONF:1098-7524;CONF:1098-16086;CONF:1098-7536;CONF:1098-7537;CONF:1098-16087;CONF:1098-7539;CONF:1098-7540;CONF:1098-7542;CONF:1098-31387;CONF:1098-7543;CONF:1098-7547;CONF:1098-16089;CONF:1098-7549;CONF:1098-7553;CONF:1098-16090;CONF:1098-7552;CONF:1098-7544;CONF:1098-16091;CONF:1098-30820;CONF:1098-30821;CONF:1098-30822;CONF:1098-31515;CONF:1098-31516;CONF:1098-31517;CONF:1098-31518;CONF:1098-31519;CONF:1098-32907;CONF:1098-32908;CONF:1098-32909;CONF:1098-31520;CONF:1098-31882;CONF:1098-31883;CONF:1098-30800' },</v>
       </c>
       <c r="N141" t="str">
         <f t="shared" si="8"/>
@@ -12462,10 +12461,10 @@
       <c r="D142" t="s">
         <v>288</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142">
         <v>604</v>
       </c>
-      <c r="G142" s="4" t="str">
+      <c r="G142" s="3" t="str">
         <f>VLOOKUP(D142,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>604-607</v>
       </c>
@@ -12484,7 +12483,7 @@
       </c>
       <c r="M142" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:141, template_type:'Entry', name:'Medication Dispense   [2.16.840.1.113883.10.20.22.4.18[604-607', name2:'Medication Dispense  ', template:'2.16.840.1.113883.10.20.22.4.18', pageStart:604, pages:'604-607', search:'Medication Dispense   2.16.840.1.113883.10.20.22.4.18 CONF:1098-7451;CONF:1098-7452;CONF:1098-7453;CONF:1098-10505;CONF:1098-32580;CONF:1098-7454;CONF:1098-7455;CONF:1098-32361;CONF:1098-7456;CONF:1098-7457;CONF:1098-7458;CONF:1098-7459;CONF:1098-15607;CONF:1098-9331;CONF:1098-31696;CONF:1098-7461;CONF:1098-7467;CONF:1098-7468;CONF:1098-10565;CONF:1098-7473;CONF:1098-7474;CONF:1098-15606;CONF:1098-9333' },</v>
+        <v>{ 'id': '141', 'template_type': 'Entry', 'name': 'Medication Dispense   [2.16.840.1.113883.10.20.22.4.18[604-607', 'name2': 'Medication Dispense  ', 'template': '2.16.840.1.113883.10.20.22.4.18', 'pageStart': '604', 'pages': '604-607', 'search': 'Medication Dispense   2.16.840.1.113883.10.20.22.4.18 CONF:1098-7451;CONF:1098-7452;CONF:1098-7453;CONF:1098-10505;CONF:1098-32580;CONF:1098-7454;CONF:1098-7455;CONF:1098-32361;CONF:1098-7456;CONF:1098-7457;CONF:1098-7458;CONF:1098-7459;CONF:1098-15607;CONF:1098-9331;CONF:1098-31696;CONF:1098-7461;CONF:1098-7467;CONF:1098-7468;CONF:1098-10565;CONF:1098-7473;CONF:1098-7474;CONF:1098-15606;CONF:1098-9333' },</v>
       </c>
       <c r="N142" t="str">
         <f t="shared" si="8"/>
@@ -12504,10 +12503,10 @@
       <c r="D143" t="s">
         <v>290</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143">
         <v>607</v>
       </c>
-      <c r="G143" s="4" t="str">
+      <c r="G143" s="3" t="str">
         <f>VLOOKUP(D143,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>607-609</v>
       </c>
@@ -12526,7 +12525,7 @@
       </c>
       <c r="M143" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:142, template_type:'Entry', name:'Medication Free Text Sig  [2.16.840.1.113883.10.20.22.4.147[607-609', name2:'Medication Free Text Sig ', template:'2.16.840.1.113883.10.20.22.4.147', pageStart:607, pages:'607-609', search:'Medication Free Text Sig  2.16.840.1.113883.10.20.22.4.147 CONF:81-32770;CONF:81-32771;CONF:81-32753;CONF:81-32772;CONF:81-32775;CONF:81-32780;CONF:81-32781;CONF:81-32754;CONF:81-32755;CONF:81-32756;CONF:81-32774;CONF:81-32776;CONF:81-32777;CONF:81-32778;CONF:81-32779' },</v>
+        <v>{ 'id': '142', 'template_type': 'Entry', 'name': 'Medication Free Text Sig  [2.16.840.1.113883.10.20.22.4.147[607-609', 'name2': 'Medication Free Text Sig ', 'template': '2.16.840.1.113883.10.20.22.4.147', 'pageStart': '607', 'pages': '607-609', 'search': 'Medication Free Text Sig  2.16.840.1.113883.10.20.22.4.147 CONF:81-32770;CONF:81-32771;CONF:81-32753;CONF:81-32772;CONF:81-32775;CONF:81-32780;CONF:81-32781;CONF:81-32754;CONF:81-32755;CONF:81-32756;CONF:81-32774;CONF:81-32776;CONF:81-32777;CONF:81-32778;CONF:81-32779' },</v>
       </c>
       <c r="N143" t="str">
         <f t="shared" si="8"/>
@@ -12546,10 +12545,10 @@
       <c r="D144" t="s">
         <v>292</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144">
         <v>609</v>
       </c>
-      <c r="G144" s="4" t="str">
+      <c r="G144" s="3" t="str">
         <f>VLOOKUP(D144,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>609-617</v>
       </c>
@@ -12568,7 +12567,7 @@
       </c>
       <c r="M144" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:143, template_type:'Entry', name:'Medication Information   [2.16.840.1.113883.10.20.22.4.23[609-617', name2:'Medication Information  ', template:'2.16.840.1.113883.10.20.22.4.23', pageStart:609, pages:'609-617', search:'Medication Information   2.16.840.1.113883.10.20.22.4.23 CONF:1098-7408;CONF:1098-7409;CONF:1098-10506;CONF:1098-32579;CONF:1098-7410;CONF:1098-7411;CONF:1098-7412;CONF:1098-31884;CONF:1098-7416' },</v>
+        <v>{ 'id': '143', 'template_type': 'Entry', 'name': 'Medication Information   [2.16.840.1.113883.10.20.22.4.23[609-617', 'name2': 'Medication Information  ', 'template': '2.16.840.1.113883.10.20.22.4.23', 'pageStart': '609', 'pages': '609-617', 'search': 'Medication Information   2.16.840.1.113883.10.20.22.4.23 CONF:1098-7408;CONF:1098-7409;CONF:1098-10506;CONF:1098-32579;CONF:1098-7410;CONF:1098-7411;CONF:1098-7412;CONF:1098-31884;CONF:1098-7416' },</v>
       </c>
       <c r="N144" t="str">
         <f t="shared" si="8"/>
@@ -12588,10 +12587,10 @@
       <c r="D145" t="s">
         <v>294</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145">
         <v>617</v>
       </c>
-      <c r="G145" s="4" t="str">
+      <c r="G145" s="3" t="str">
         <f>VLOOKUP(D145,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>617-620</v>
       </c>
@@ -12610,7 +12609,7 @@
       </c>
       <c r="M145" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:144, template_type:'Entry', name:'Medication Supply Order  [2.16.840.1.113883.10.20.22.4.17[617-620', name2:'Medication Supply Order ', template:'2.16.840.1.113883.10.20.22.4.17', pageStart:617, pages:'617-620', search:'Medication Supply Order  2.16.840.1.113883.10.20.22.4.17 CONF:1098-7427;CONF:1098-7428;CONF:1098-7429;CONF:1098-10507;CONF:1098-32578;CONF:1098-7430;CONF:1098-7432;CONF:1098-32362;CONF:1098-15143;CONF:1098-15144;CONF:1098-7434;CONF:1098-7436;CONF:1098-7439;CONF:1098-16093;CONF:1098-9334;CONF:1098-31695;CONF:1098-16870;CONF:1098-7438;CONF:1098-7442;CONF:1098-7444;CONF:1098-7445;CONF:1098-31391' },</v>
+        <v>{ 'id': '144', 'template_type': 'Entry', 'name': 'Medication Supply Order  [2.16.840.1.113883.10.20.22.4.17[617-620', 'name2': 'Medication Supply Order ', 'template': '2.16.840.1.113883.10.20.22.4.17', 'pageStart': '617', 'pages': '617-620', 'search': 'Medication Supply Order  2.16.840.1.113883.10.20.22.4.17 CONF:1098-7427;CONF:1098-7428;CONF:1098-7429;CONF:1098-10507;CONF:1098-32578;CONF:1098-7430;CONF:1098-7432;CONF:1098-32362;CONF:1098-15143;CONF:1098-15144;CONF:1098-7434;CONF:1098-7436;CONF:1098-7439;CONF:1098-16093;CONF:1098-9334;CONF:1098-31695;CONF:1098-16870;CONF:1098-7438;CONF:1098-7442;CONF:1098-7444;CONF:1098-7445;CONF:1098-31391' },</v>
       </c>
       <c r="N145" t="str">
         <f t="shared" si="8"/>
@@ -12630,10 +12629,10 @@
       <c r="D146" t="s">
         <v>296</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146">
         <v>620</v>
       </c>
-      <c r="G146" s="4" t="str">
+      <c r="G146" s="3" t="str">
         <f>VLOOKUP(D146,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>620-625</v>
       </c>
@@ -12652,7 +12651,7 @@
       </c>
       <c r="M146" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:145, template_type:'Entry', name:'Mental Status Observation   [2.16.840.1.113883.10.20.22.4.74[620-625', name2:'Mental Status Observation  ', template:'2.16.840.1.113883.10.20.22.4.74', pageStart:620, pages:'620-625', search:'Mental Status Observation   2.16.840.1.113883.10.20.22.4.74 CONF:1198-14249;CONF:1198-14250;CONF:1198-14255;CONF:1198-14256;CONF:1198-32565;CONF:1198-14257;CONF:1198-14591;CONF:1198-32788;CONF:1198-32789;CONF:1198-32790;CONF:1198-32791;CONF:1198-32792;CONF:1198-14254;CONF:1198-19092;CONF:1198-14261;CONF:1198-14263;CONF:1198-14271;CONF:1198-14266;CONF:1198-14469;CONF:1198-14595;CONF:1198-14470;CONF:1198-14267' },</v>
+        <v>{ 'id': '145', 'template_type': 'Entry', 'name': 'Mental Status Observation   [2.16.840.1.113883.10.20.22.4.74[620-625', 'name2': 'Mental Status Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.74', 'pageStart': '620', 'pages': '620-625', 'search': 'Mental Status Observation   2.16.840.1.113883.10.20.22.4.74 CONF:1198-14249;CONF:1198-14250;CONF:1198-14255;CONF:1198-14256;CONF:1198-32565;CONF:1198-14257;CONF:1198-14591;CONF:1198-32788;CONF:1198-32789;CONF:1198-32790;CONF:1198-32791;CONF:1198-32792;CONF:1198-14254;CONF:1198-19092;CONF:1198-14261;CONF:1198-14263;CONF:1198-14271;CONF:1198-14266;CONF:1198-14469;CONF:1198-14595;CONF:1198-14470;CONF:1198-14267' },</v>
       </c>
       <c r="N146" t="str">
         <f t="shared" si="8"/>
@@ -12672,10 +12671,10 @@
       <c r="D147" t="s">
         <v>298</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147">
         <v>625</v>
       </c>
-      <c r="G147" s="4" t="str">
+      <c r="G147" s="3" t="str">
         <f>VLOOKUP(D147,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>625-628</v>
       </c>
@@ -12694,7 +12693,7 @@
       </c>
       <c r="M147" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:146, template_type:'Entry', name:'Mental Status Organizer  [2.16.840.1.113883.10.20.22.4.75[625-628', name2:'Mental Status Organizer ', template:'2.16.840.1.113883.10.20.22.4.75', pageStart:625, pages:'625-628', search:'Mental Status Organizer  2.16.840.1.113883.10.20.22.4.75 CONF:1198-14369;CONF:1198-14371;CONF:1198-14375;CONF:1198-14376;CONF:1198-32566;CONF:1198-14377;CONF:1198-14378;CONF:1198-14697;CONF:1198-14698;CONF:1198-14372;CONF:1198-19093;CONF:1198-32424;CONF:1198-32426;CONF:1198-14373;CONF:1198-14381' },</v>
+        <v>{ 'id': '146', 'template_type': 'Entry', 'name': 'Mental Status Organizer  [2.16.840.1.113883.10.20.22.4.75[625-628', 'name2': 'Mental Status Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.75', 'pageStart': '625', 'pages': '625-628', 'search': 'Mental Status Organizer  2.16.840.1.113883.10.20.22.4.75 CONF:1198-14369;CONF:1198-14371;CONF:1198-14375;CONF:1198-14376;CONF:1198-32566;CONF:1198-14377;CONF:1198-14378;CONF:1198-14697;CONF:1198-14698;CONF:1198-14372;CONF:1198-19093;CONF:1198-32424;CONF:1198-32426;CONF:1198-14373;CONF:1198-14381' },</v>
       </c>
       <c r="N147" t="str">
         <f t="shared" si="8"/>
@@ -12714,10 +12713,10 @@
       <c r="D148" t="s">
         <v>300</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148">
         <v>628</v>
       </c>
-      <c r="G148" s="4" t="str">
+      <c r="G148" s="3" t="str">
         <f>VLOOKUP(D148,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>628-631</v>
       </c>
@@ -12736,7 +12735,7 @@
       </c>
       <c r="M148" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:147, template_type:'Entry', name:'Non-Medicinal Supply Activity  [2.16.840.1.113883.10.20.22.4.50[628-631', name2:'Non-Medicinal Supply Activity ', template:'2.16.840.1.113883.10.20.22.4.50', pageStart:628, pages:'628-631', search:'Non-Medicinal Supply Activity  2.16.840.1.113883.10.20.22.4.50 CONF:1098-8745;CONF:1098-8746;CONF:1098-8747;CONF:1098-10509;CONF:1098-32514;CONF:1098-8748;CONF:1098-8749;CONF:1098-32363;CONF:1098-15498;CONF:1098-16867;CONF:1098-8751;CONF:1098-8752;CONF:1098-8754;CONF:1098-15900;CONF:1098-30277;CONF:1098-30278;CONF:1098-30279;CONF:1098-31393' },</v>
+        <v>{ 'id': '147', 'template_type': 'Entry', 'name': 'Non-Medicinal Supply Activity  [2.16.840.1.113883.10.20.22.4.50[628-631', 'name2': 'Non-Medicinal Supply Activity ', 'template': '2.16.840.1.113883.10.20.22.4.50', 'pageStart': '628', 'pages': '628-631', 'search': 'Non-Medicinal Supply Activity  2.16.840.1.113883.10.20.22.4.50 CONF:1098-8745;CONF:1098-8746;CONF:1098-8747;CONF:1098-10509;CONF:1098-32514;CONF:1098-8748;CONF:1098-8749;CONF:1098-32363;CONF:1098-15498;CONF:1098-16867;CONF:1098-8751;CONF:1098-8752;CONF:1098-8754;CONF:1098-15900;CONF:1098-30277;CONF:1098-30278;CONF:1098-30279;CONF:1098-31393' },</v>
       </c>
       <c r="N148" t="str">
         <f t="shared" si="8"/>
@@ -12756,10 +12755,10 @@
       <c r="D149" t="s">
         <v>302</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149">
         <v>631</v>
       </c>
-      <c r="G149" s="4" t="str">
+      <c r="G149" s="3" t="str">
         <f>VLOOKUP(D149,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>631-635</v>
       </c>
@@ -12778,7 +12777,7 @@
       </c>
       <c r="M149" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:148, template_type:'Entry', name:'Number of Pressure Ulcers Observation  [2.16.840.1.113883.10.20.22.4.76[631-635', name2:'Number of Pressure Ulcers Observation ', template:'2.16.840.1.113883.10.20.22.4.76', pageStart:631, pages:'631-635', search:'Number of Pressure Ulcers Observation  2.16.840.1.113883.10.20.22.4.76 CONF:1198-14705;CONF:1198-14706;CONF:1198-14707;CONF:1198-14708;CONF:1198-32604;CONF:1198-14709;CONF:1198-14767;CONF:1198-14768;CONF:1198-32164;CONF:1198-32849;CONF:1198-32850;CONF:1198-32851;CONF:1198-14714;CONF:1198-19108;CONF:1198-14715;CONF:1198-14771;CONF:1198-14717;CONF:1198-14718;CONF:1198-14719;CONF:1198-14720;CONF:1198-14721;CONF:1198-14722;CONF:1198-31930;CONF:1198-14725' },</v>
+        <v>{ 'id': '148', 'template_type': 'Entry', 'name': 'Number of Pressure Ulcers Observation  [2.16.840.1.113883.10.20.22.4.76[631-635', 'name2': 'Number of Pressure Ulcers Observation ', 'template': '2.16.840.1.113883.10.20.22.4.76', 'pageStart': '631', 'pages': '631-635', 'search': 'Number of Pressure Ulcers Observation  2.16.840.1.113883.10.20.22.4.76 CONF:1198-14705;CONF:1198-14706;CONF:1198-14707;CONF:1198-14708;CONF:1198-32604;CONF:1198-14709;CONF:1198-14767;CONF:1198-14768;CONF:1198-32164;CONF:1198-32849;CONF:1198-32850;CONF:1198-32851;CONF:1198-14714;CONF:1198-19108;CONF:1198-14715;CONF:1198-14771;CONF:1198-14717;CONF:1198-14718;CONF:1198-14719;CONF:1198-14720;CONF:1198-14721;CONF:1198-14722;CONF:1198-31930;CONF:1198-14725' },</v>
       </c>
       <c r="N149" t="str">
         <f t="shared" si="8"/>
@@ -12798,10 +12797,10 @@
       <c r="D150" t="s">
         <v>304</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150">
         <v>635</v>
       </c>
-      <c r="G150" s="4" t="str">
+      <c r="G150" s="3" t="str">
         <f>VLOOKUP(D150,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>635-638</v>
       </c>
@@ -12820,7 +12819,7 @@
       </c>
       <c r="M150" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:149, template_type:'Entry', name:'Nutrition Assessment [2.16.840.1.113883.10.20.22.4.138[635-638', name2:'Nutrition Assessment', template:'2.16.840.1.113883.10.20.22.4.138', pageStart:635, pages:'635-638', search:'Nutrition Assessment 2.16.840.1.113883.10.20.22.4.138 CONF:1098-32914;CONF:1098-32915;CONF:1098-32916;CONF:1098-32917;CONF:1098-32918;CONF:1098-32919;CONF:1098-32926;CONF:1098-32927;CONF:1098-32920;CONF:1098-32921;CONF:1098-32923;CONF:1098-32922;CONF:1098-32925;CONF:1098-32924' },</v>
+        <v>{ 'id': '149', 'template_type': 'Entry', 'name': 'Nutrition Assessment [2.16.840.1.113883.10.20.22.4.138[635-638', 'name2': 'Nutrition Assessment', 'template': '2.16.840.1.113883.10.20.22.4.138', 'pageStart': '635', 'pages': '635-638', 'search': 'Nutrition Assessment 2.16.840.1.113883.10.20.22.4.138 CONF:1098-32914;CONF:1098-32915;CONF:1098-32916;CONF:1098-32917;CONF:1098-32918;CONF:1098-32919;CONF:1098-32926;CONF:1098-32927;CONF:1098-32920;CONF:1098-32921;CONF:1098-32923;CONF:1098-32922;CONF:1098-32925;CONF:1098-32924' },</v>
       </c>
       <c r="N150" t="str">
         <f t="shared" si="8"/>
@@ -12840,10 +12839,10 @@
       <c r="D151" t="s">
         <v>652</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151">
         <v>638</v>
       </c>
-      <c r="G151" s="4" t="str">
+      <c r="G151" s="3" t="str">
         <f>VLOOKUP(D151,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>638-643</v>
       </c>
@@ -12862,7 +12861,7 @@
       </c>
       <c r="M151" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:150, template_type:'Entry', name:'Nutrition Recommendation [2.16.840.1.113883.10.20.22.4.130[638-643', name2:'Nutrition Recommendation', template:'2.16.840.1.113883.10.20.22.4.130', pageStart:638, pages:'638-643', search:'Nutrition Recommendation 2.16.840.1.113883.10.20.22.4.130 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
+        <v>{ 'id': '150', 'template_type': 'Entry', 'name': 'Nutrition Recommendation [2.16.840.1.113883.10.20.22.4.130[638-643', 'name2': 'Nutrition Recommendation', 'template': '2.16.840.1.113883.10.20.22.4.130', 'pageStart': '638', 'pages': '638-643', 'search': 'Nutrition Recommendation 2.16.840.1.113883.10.20.22.4.130 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
       </c>
       <c r="N151" t="str">
         <f t="shared" si="8"/>
@@ -12882,10 +12881,10 @@
       <c r="D152" t="s">
         <v>307</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152">
         <v>643</v>
       </c>
-      <c r="G152" s="4" t="str">
+      <c r="G152" s="3" t="str">
         <f>VLOOKUP(D152,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>643-647</v>
       </c>
@@ -12904,7 +12903,7 @@
       </c>
       <c r="M152" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:151, template_type:'Entry', name:'Nutritional Status Observation [2.16.840.1.113883.10.20.22.4.124[643-647', name2:'Nutritional Status Observation', template:'2.16.840.1.113883.10.20.22.4.124', pageStart:643, pages:'643-647', search:'Nutritional Status Observation 2.16.840.1.113883.10.20.22.4.124 CONF:1098-29841;CONF:1098-29842;CONF:1098-29843;CONF:1098-29844;CONF:1098-29845;CONF:1098-29846;CONF:1098-29897;CONF:1098-29898;CONF:1098-29852;CONF:1098-29853;CONF:1098-31867;CONF:1098-29854;CONF:1098-30323;CONF:1098-30335;CONF:1098-30336' },</v>
+        <v>{ 'id': '151', 'template_type': 'Entry', 'name': 'Nutritional Status Observation [2.16.840.1.113883.10.20.22.4.124[643-647', 'name2': 'Nutritional Status Observation', 'template': '2.16.840.1.113883.10.20.22.4.124', 'pageStart': '643', 'pages': '643-647', 'search': 'Nutritional Status Observation 2.16.840.1.113883.10.20.22.4.124 CONF:1098-29841;CONF:1098-29842;CONF:1098-29843;CONF:1098-29844;CONF:1098-29845;CONF:1098-29846;CONF:1098-29897;CONF:1098-29898;CONF:1098-29852;CONF:1098-29853;CONF:1098-31867;CONF:1098-29854;CONF:1098-30323;CONF:1098-30335;CONF:1098-30336' },</v>
       </c>
       <c r="N152" t="str">
         <f t="shared" si="8"/>
@@ -12924,10 +12923,10 @@
       <c r="D153" t="s">
         <v>309</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153">
         <v>647</v>
       </c>
-      <c r="G153" s="4" t="str">
+      <c r="G153" s="3" t="str">
         <f>VLOOKUP(D153,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>647-651</v>
       </c>
@@ -12946,7 +12945,7 @@
       </c>
       <c r="M153" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:152, template_type:'Entry', name:'Outcome Observation [2.16.840.1.113883.10.20.22.4.144[647-651', name2:'Outcome Observation', template:'2.16.840.1.113883.10.20.22.4.144', pageStart:647, pages:'647-651', search:'Outcome Observation 2.16.840.1.113883.10.20.22.4.144 CONF:1098-31219;CONF:1098-31220;CONF:1098-31221;CONF:1098-31222;CONF:1098-31223;CONF:1098-32746;CONF:1098-32747;CONF:1098-31553;CONF:1098-31224;CONF:1098-31225;CONF:1098-32465;CONF:1098-32461;CONF:1098-31427;CONF:1098-31428;CONF:1098-31429;CONF:1098-31430;CONF:1098-31688;CONF:1098-31689;CONF:1098-31690;CONF:1098-32462;CONF:1098-32763;CONF:1098-32764;CONF:1098-32765;CONF:1098-32782' },</v>
+        <v>{ 'id': '152', 'template_type': 'Entry', 'name': 'Outcome Observation [2.16.840.1.113883.10.20.22.4.144[647-651', 'name2': 'Outcome Observation', 'template': '2.16.840.1.113883.10.20.22.4.144', 'pageStart': '647', 'pages': '647-651', 'search': 'Outcome Observation 2.16.840.1.113883.10.20.22.4.144 CONF:1098-31219;CONF:1098-31220;CONF:1098-31221;CONF:1098-31222;CONF:1098-31223;CONF:1098-32746;CONF:1098-32747;CONF:1098-31553;CONF:1098-31224;CONF:1098-31225;CONF:1098-32465;CONF:1098-32461;CONF:1098-31427;CONF:1098-31428;CONF:1098-31429;CONF:1098-31430;CONF:1098-31688;CONF:1098-31689;CONF:1098-31690;CONF:1098-32462;CONF:1098-32763;CONF:1098-32764;CONF:1098-32765;CONF:1098-32782' },</v>
       </c>
       <c r="N153" t="str">
         <f t="shared" si="8"/>
@@ -12966,10 +12965,10 @@
       <c r="D154" t="s">
         <v>311</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154">
         <v>651</v>
       </c>
-      <c r="G154" s="4" t="str">
+      <c r="G154" s="3" t="str">
         <f>VLOOKUP(D154,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>651-660</v>
       </c>
@@ -12988,7 +12987,7 @@
       </c>
       <c r="M154" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:153, template_type:'Entry', name:'Patient Referral Act  [2.16.840.1.113883.10.20.22.4.140[651-660', name2:'Patient Referral Act ', template:'2.16.840.1.113883.10.20.22.4.140', pageStart:651, pages:'651-660', search:'Patient Referral Act  2.16.840.1.113883.10.20.22.4.140 CONF:1098-30884;CONF:1098-30885;CONF:1098-30886;CONF:1098-30887;CONF:1098-30888;CONF:1098-30889;CONF:1098-30892;CONF:1098-31598;CONF:1098-30893;CONF:1098-32623;CONF:1098-31612;CONF:1098-32635;CONF:1098-32638;CONF:1098-32636;CONF:1098-32637;CONF:1098-31604;CONF:1098-31613;CONF:1098-31605;CONF:1098-31606;CONF:1098-31607;CONF:1098-31608;CONF:1098-31619;CONF:1098-31620;CONF:1098-31614;CONF:1098-31615;CONF:1098-32443;CONF:1098-31611;CONF:1098-31635;CONF:1098-31636;CONF:1098-32634' },</v>
+        <v>{ 'id': '153', 'template_type': 'Entry', 'name': 'Patient Referral Act  [2.16.840.1.113883.10.20.22.4.140[651-660', 'name2': 'Patient Referral Act ', 'template': '2.16.840.1.113883.10.20.22.4.140', 'pageStart': '651', 'pages': '651-660', 'search': 'Patient Referral Act  2.16.840.1.113883.10.20.22.4.140 CONF:1098-30884;CONF:1098-30885;CONF:1098-30886;CONF:1098-30887;CONF:1098-30888;CONF:1098-30889;CONF:1098-30892;CONF:1098-31598;CONF:1098-30893;CONF:1098-32623;CONF:1098-31612;CONF:1098-32635;CONF:1098-32638;CONF:1098-32636;CONF:1098-32637;CONF:1098-31604;CONF:1098-31613;CONF:1098-31605;CONF:1098-31606;CONF:1098-31607;CONF:1098-31608;CONF:1098-31619;CONF:1098-31620;CONF:1098-31614;CONF:1098-31615;CONF:1098-32443;CONF:1098-31611;CONF:1098-31635;CONF:1098-31636;CONF:1098-32634' },</v>
       </c>
       <c r="N154" t="str">
         <f t="shared" si="8"/>
@@ -13008,10 +13007,10 @@
       <c r="D155" t="s">
         <v>313</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155">
         <v>660</v>
       </c>
-      <c r="G155" s="4" t="str">
+      <c r="G155" s="3" t="str">
         <f>VLOOKUP(D155,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>660-663</v>
       </c>
@@ -13030,7 +13029,7 @@
       </c>
       <c r="M155" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:154, template_type:'Entry', name:'Planned Act   [2.16.840.1.113883.10.20.22.4.39[660-663', name2:'Planned Act  ', template:'2.16.840.1.113883.10.20.22.4.39', pageStart:660, pages:'660-663', search:'Planned Act   2.16.840.1.113883.10.20.22.4.39 CONF:1098-8538;CONF:1098-8539;CONF:1098-30430;CONF:1098-30431;CONF:1098-32552;CONF:1098-8546;CONF:1098-31687;CONF:1098-32030;CONF:1098-30432;CONF:1098-32019;CONF:1098-30433;CONF:1098-30435;CONF:1098-32020;CONF:1098-31067;CONF:1098-31068;CONF:1098-31069;CONF:1098-32021;CONF:1098-32022;CONF:1098-32023;CONF:1098-32024;CONF:1098-32025;CONF:1098-32026' },</v>
+        <v>{ 'id': '154', 'template_type': 'Entry', 'name': 'Planned Act   [2.16.840.1.113883.10.20.22.4.39[660-663', 'name2': 'Planned Act  ', 'template': '2.16.840.1.113883.10.20.22.4.39', 'pageStart': '660', 'pages': '660-663', 'search': 'Planned Act   2.16.840.1.113883.10.20.22.4.39 CONF:1098-8538;CONF:1098-8539;CONF:1098-30430;CONF:1098-30431;CONF:1098-32552;CONF:1098-8546;CONF:1098-31687;CONF:1098-32030;CONF:1098-30432;CONF:1098-32019;CONF:1098-30433;CONF:1098-30435;CONF:1098-32020;CONF:1098-31067;CONF:1098-31068;CONF:1098-31069;CONF:1098-32021;CONF:1098-32022;CONF:1098-32023;CONF:1098-32024;CONF:1098-32025;CONF:1098-32026' },</v>
       </c>
       <c r="N155" t="str">
         <f t="shared" si="8"/>
@@ -13050,10 +13049,10 @@
       <c r="D156" t="s">
         <v>315</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156">
         <v>663</v>
       </c>
-      <c r="G156" s="4" t="str">
+      <c r="G156" s="3" t="str">
         <f>VLOOKUP(D156,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>663-667</v>
       </c>
@@ -13072,7 +13071,7 @@
       </c>
       <c r="M156" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:155, template_type:'Entry', name:'Planned Coverage [2.16.840.1.113883.10.20.22.4.129[663-667', name2:'Planned Coverage', template:'2.16.840.1.113883.10.20.22.4.129', pageStart:663, pages:'663-667', search:'Planned Coverage 2.16.840.1.113883.10.20.22.4.129 CONF:1098-31945;CONF:1098-31946;CONF:1098-31947;CONF:1098-31948;CONF:1098-31950;CONF:1098-31951;CONF:1098-31952;CONF:1098-31953;CONF:1098-31954;CONF:1098-31955;CONF:1098-32178;CONF:1098-31967;CONF:1098-31968;CONF:1098-31969;CONF:1098-31970;CONF:1098-31971;CONF:1098-31972;CONF:1098-31973;CONF:1098-31974;CONF:1098-31975' },</v>
+        <v>{ 'id': '155', 'template_type': 'Entry', 'name': 'Planned Coverage [2.16.840.1.113883.10.20.22.4.129[663-667', 'name2': 'Planned Coverage', 'template': '2.16.840.1.113883.10.20.22.4.129', 'pageStart': '663', 'pages': '663-667', 'search': 'Planned Coverage 2.16.840.1.113883.10.20.22.4.129 CONF:1098-31945;CONF:1098-31946;CONF:1098-31947;CONF:1098-31948;CONF:1098-31950;CONF:1098-31951;CONF:1098-31952;CONF:1098-31953;CONF:1098-31954;CONF:1098-31955;CONF:1098-32178;CONF:1098-31967;CONF:1098-31968;CONF:1098-31969;CONF:1098-31970;CONF:1098-31971;CONF:1098-31972;CONF:1098-31973;CONF:1098-31974;CONF:1098-31975' },</v>
       </c>
       <c r="N156" t="str">
         <f t="shared" si="8"/>
@@ -13092,10 +13091,10 @@
       <c r="D157" t="s">
         <v>317</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157">
         <v>667</v>
       </c>
-      <c r="G157" s="4" t="str">
+      <c r="G157" s="3" t="str">
         <f>VLOOKUP(D157,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>667-671</v>
       </c>
@@ -13114,7 +13113,7 @@
       </c>
       <c r="M157" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:156, template_type:'Entry', name:'Planned Encounter   [2.16.840.1.113883.10.20.22.4.40[667-671', name2:'Planned Encounter  ', template:'2.16.840.1.113883.10.20.22.4.40', pageStart:667, pages:'667-671', search:'Planned Encounter   2.16.840.1.113883.10.20.22.4.40 CONF:1098-8564;CONF:1098-8565;CONF:1098-30437;CONF:1098-30438;CONF:1098-32553;CONF:1098-8567;CONF:1098-31032;CONF:1098-30439;CONF:1098-31880;CONF:1098-30440;CONF:1098-30442;CONF:1098-31874;CONF:1098-32045;CONF:1098-30443;CONF:1098-31875;CONF:1098-31876;CONF:1098-31033;CONF:1098-31034;CONF:1098-31035;CONF:1098-31877;CONF:1098-31878;CONF:1098-31879' },</v>
+        <v>{ 'id': '156', 'template_type': 'Entry', 'name': 'Planned Encounter   [2.16.840.1.113883.10.20.22.4.40[667-671', 'name2': 'Planned Encounter  ', 'template': '2.16.840.1.113883.10.20.22.4.40', 'pageStart': '667', 'pages': '667-671', 'search': 'Planned Encounter   2.16.840.1.113883.10.20.22.4.40 CONF:1098-8564;CONF:1098-8565;CONF:1098-30437;CONF:1098-30438;CONF:1098-32553;CONF:1098-8567;CONF:1098-31032;CONF:1098-30439;CONF:1098-31880;CONF:1098-30440;CONF:1098-30442;CONF:1098-31874;CONF:1098-32045;CONF:1098-30443;CONF:1098-31875;CONF:1098-31876;CONF:1098-31033;CONF:1098-31034;CONF:1098-31035;CONF:1098-31877;CONF:1098-31878;CONF:1098-31879' },</v>
       </c>
       <c r="N157" t="str">
         <f t="shared" si="8"/>
@@ -13134,10 +13133,10 @@
       <c r="D158" t="s">
         <v>319</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158">
         <v>671</v>
       </c>
-      <c r="G158" s="4" t="str">
+      <c r="G158" s="3" t="str">
         <f>VLOOKUP(D158,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>671-677</v>
       </c>
@@ -13156,7 +13155,7 @@
       </c>
       <c r="M158" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:157, template_type:'Entry', name:'Planned Immunization Activity  [2.16.840.1.113883.10.20.22.4.120[671-677', name2:'Planned Immunization Activity ', template:'2.16.840.1.113883.10.20.22.4.120', pageStart:671, pages:'671-677', search:'Planned Immunization Activity  2.16.840.1.113883.10.20.22.4.120 CONF:1098-32091;CONF:1098-32097;CONF:1098-32098;CONF:1098-32099;CONF:1098-32100;CONF:1098-32101;CONF:1098-32102;CONF:1098-32103;CONF:1098-32126;CONF:1098-32127;CONF:1098-32951;CONF:1098-32128;CONF:1098-32129;CONF:1098-32130;CONF:1098-32131;CONF:1098-32132;CONF:1098-32104;CONF:1098-32105;CONF:1098-32108;CONF:1098-32109;CONF:1098-32110;CONF:1098-32114;CONF:1098-32115;CONF:1098-32116;CONF:1098-32117;CONF:1098-32118;CONF:1098-32119;CONF:1098-32123;CONF:1098-32124;CONF:1098-32125' },</v>
+        <v>{ 'id': '157', 'template_type': 'Entry', 'name': 'Planned Immunization Activity  [2.16.840.1.113883.10.20.22.4.120[671-677', 'name2': 'Planned Immunization Activity ', 'template': '2.16.840.1.113883.10.20.22.4.120', 'pageStart': '671', 'pages': '671-677', 'search': 'Planned Immunization Activity  2.16.840.1.113883.10.20.22.4.120 CONF:1098-32091;CONF:1098-32097;CONF:1098-32098;CONF:1098-32099;CONF:1098-32100;CONF:1098-32101;CONF:1098-32102;CONF:1098-32103;CONF:1098-32126;CONF:1098-32127;CONF:1098-32951;CONF:1098-32128;CONF:1098-32129;CONF:1098-32130;CONF:1098-32131;CONF:1098-32132;CONF:1098-32104;CONF:1098-32105;CONF:1098-32108;CONF:1098-32109;CONF:1098-32110;CONF:1098-32114;CONF:1098-32115;CONF:1098-32116;CONF:1098-32117;CONF:1098-32118;CONF:1098-32119;CONF:1098-32123;CONF:1098-32124;CONF:1098-32125' },</v>
       </c>
       <c r="N158" t="str">
         <f t="shared" si="8"/>
@@ -13176,10 +13175,10 @@
       <c r="D159" t="s">
         <v>321</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159">
         <v>677</v>
       </c>
-      <c r="G159" s="4" t="str">
+      <c r="G159" s="3" t="str">
         <f>VLOOKUP(D159,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>677-686</v>
       </c>
@@ -13198,7 +13197,7 @@
       </c>
       <c r="M159" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:158, template_type:'Entry', name:'Planned Intervention Act   [2.16.840.1.113883.10.20.22.4.146[677-686', name2:'Planned Intervention Act  ', template:'2.16.840.1.113883.10.20.22.4.146', pageStart:677, pages:'677-686', search:'Planned Intervention Act   2.16.840.1.113883.10.20.22.4.146 CONF:1198-32678;CONF:1198-32679;CONF:1198-32653;CONF:1198-32680;CONF:1198-32912;CONF:1198-32681;CONF:1198-32654;CONF:1198-32682;CONF:1198-32683;CONF:1198-32655;CONF:1198-32684;CONF:1198-32723;CONF:1198-32719;CONF:1198-32652;CONF:1198-32685;CONF:1198-32677;CONF:1198-32656;CONF:1198-32686;CONF:1198-32687;CONF:1198-32657;CONF:1198-32688;CONF:1198-32689;CONF:1198-32658;CONF:1198-32690;CONF:1198-32691;CONF:1198-32659;CONF:1198-32692;CONF:1198-32693;CONF:1198-32660;CONF:1198-32694;CONF:1198-32695;CONF:1198-32661;CONF:1198-32696;CONF:1198-32697;CONF:1198-32662;CONF:1198-32698;CONF:1198-32699;CONF:1198-32663;CONF:1198-32957;CONF:1198-32701;CONF:1198-32664;CONF:1198-32702;CONF:1198-32703;CONF:1198-32665;CONF:1198-32704;CONF:1198-32705;CONF:1198-32666;CONF:1198-32706;CONF:1198-32707;CONF:1198-32667;CONF:1198-32708;CONF:1198-32709;CONF:1198-32668;CONF:1198-32710;CONF:1198-32711;CONF:1198-32669;CONF:1198-32712;CONF:1198-32713;CONF:1198-32670;CONF:1198-32714;CONF:1198-32715;CONF:1198-32671;CONF:1198-32716;CONF:1198-32672;CONF:1198-32717;CONF:1198-32718;CONF:1198-32673;CONF:1198-32720;CONF:1198-32721;CONF:1198-32722;CONF:1198-32675;CONF:1198-32726;CONF:1198-32727;CONF:1198-32676;CONF:1198-32728;CONF:1198-32729;CONF:1198-32766;CONF:1198-32767;CONF:1198-32768' },</v>
+        <v>{ 'id': '158', 'template_type': 'Entry', 'name': 'Planned Intervention Act   [2.16.840.1.113883.10.20.22.4.146[677-686', 'name2': 'Planned Intervention Act  ', 'template': '2.16.840.1.113883.10.20.22.4.146', 'pageStart': '677', 'pages': '677-686', 'search': 'Planned Intervention Act   2.16.840.1.113883.10.20.22.4.146 CONF:1198-32678;CONF:1198-32679;CONF:1198-32653;CONF:1198-32680;CONF:1198-32912;CONF:1198-32681;CONF:1198-32654;CONF:1198-32682;CONF:1198-32683;CONF:1198-32655;CONF:1198-32684;CONF:1198-32723;CONF:1198-32719;CONF:1198-32652;CONF:1198-32685;CONF:1198-32677;CONF:1198-32656;CONF:1198-32686;CONF:1198-32687;CONF:1198-32657;CONF:1198-32688;CONF:1198-32689;CONF:1198-32658;CONF:1198-32690;CONF:1198-32691;CONF:1198-32659;CONF:1198-32692;CONF:1198-32693;CONF:1198-32660;CONF:1198-32694;CONF:1198-32695;CONF:1198-32661;CONF:1198-32696;CONF:1198-32697;CONF:1198-32662;CONF:1198-32698;CONF:1198-32699;CONF:1198-32663;CONF:1198-32957;CONF:1198-32701;CONF:1198-32664;CONF:1198-32702;CONF:1198-32703;CONF:1198-32665;CONF:1198-32704;CONF:1198-32705;CONF:1198-32666;CONF:1198-32706;CONF:1198-32707;CONF:1198-32667;CONF:1198-32708;CONF:1198-32709;CONF:1198-32668;CONF:1198-32710;CONF:1198-32711;CONF:1198-32669;CONF:1198-32712;CONF:1198-32713;CONF:1198-32670;CONF:1198-32714;CONF:1198-32715;CONF:1198-32671;CONF:1198-32716;CONF:1198-32672;CONF:1198-32717;CONF:1198-32718;CONF:1198-32673;CONF:1198-32720;CONF:1198-32721;CONF:1198-32722;CONF:1198-32675;CONF:1198-32726;CONF:1198-32727;CONF:1198-32676;CONF:1198-32728;CONF:1198-32729;CONF:1198-32766;CONF:1198-32767;CONF:1198-32768' },</v>
       </c>
       <c r="N159" t="str">
         <f t="shared" si="8"/>
@@ -13218,10 +13217,10 @@
       <c r="D160" t="s">
         <v>323</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160">
         <v>686</v>
       </c>
-      <c r="G160" s="4" t="str">
+      <c r="G160" s="3" t="str">
         <f>VLOOKUP(D160,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>686-692</v>
       </c>
@@ -13240,7 +13239,7 @@
       </c>
       <c r="M160" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:159, template_type:'Entry', name:'Planned Medication Activity  [2.16.840.1.113883.10.20.22.4.42[686-692', name2:'Planned Medication Activity ', template:'2.16.840.1.113883.10.20.22.4.42', pageStart:686, pages:'686-692', search:'Planned Medication Activity  2.16.840.1.113883.10.20.22.4.42 CONF:1098-8572;CONF:1098-8573;CONF:1098-30465;CONF:1098-30466;CONF:1098-32557;CONF:1098-8575;CONF:1098-32087;CONF:1098-32088;CONF:1098-30468;CONF:1098-32944;CONF:1098-32948;CONF:1098-32949;CONF:1098-32947;CONF:1098-32943;CONF:1098-32945;CONF:1098-32946;CONF:1098-32066;CONF:1098-32067;CONF:1098-32952;CONF:1098-32078;CONF:1098-32068;CONF:1098-32133;CONF:1098-32079;CONF:1098-32134;CONF:1098-32080;CONF:1098-32081;CONF:1098-32082;CONF:1098-32083;CONF:1098-30470;CONF:1098-32046;CONF:1098-31104;CONF:1098-31105;CONF:1098-31106;CONF:1098-32069;CONF:1098-32070;CONF:1098-32071;CONF:1098-32072;CONF:1098-32073;CONF:1098-32074;CONF:1098-32084;CONF:1098-32085;CONF:1098-32086' },</v>
+        <v>{ 'id': '159', 'template_type': 'Entry', 'name': 'Planned Medication Activity  [2.16.840.1.113883.10.20.22.4.42[686-692', 'name2': 'Planned Medication Activity ', 'template': '2.16.840.1.113883.10.20.22.4.42', 'pageStart': '686', 'pages': '686-692', 'search': 'Planned Medication Activity  2.16.840.1.113883.10.20.22.4.42 CONF:1098-8572;CONF:1098-8573;CONF:1098-30465;CONF:1098-30466;CONF:1098-32557;CONF:1098-8575;CONF:1098-32087;CONF:1098-32088;CONF:1098-30468;CONF:1098-32944;CONF:1098-32948;CONF:1098-32949;CONF:1098-32947;CONF:1098-32943;CONF:1098-32945;CONF:1098-32946;CONF:1098-32066;CONF:1098-32067;CONF:1098-32952;CONF:1098-32078;CONF:1098-32068;CONF:1098-32133;CONF:1098-32079;CONF:1098-32134;CONF:1098-32080;CONF:1098-32081;CONF:1098-32082;CONF:1098-32083;CONF:1098-30470;CONF:1098-32046;CONF:1098-31104;CONF:1098-31105;CONF:1098-31106;CONF:1098-32069;CONF:1098-32070;CONF:1098-32071;CONF:1098-32072;CONF:1098-32073;CONF:1098-32074;CONF:1098-32084;CONF:1098-32085;CONF:1098-32086' },</v>
       </c>
       <c r="N160" t="str">
         <f t="shared" si="8"/>
@@ -13260,10 +13259,10 @@
       <c r="D161" t="s">
         <v>325</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161">
         <v>692</v>
       </c>
-      <c r="G161" s="4" t="str">
+      <c r="G161" s="3" t="str">
         <f>VLOOKUP(D161,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>692-697</v>
       </c>
@@ -13282,7 +13281,7 @@
       </c>
       <c r="M161" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:160, template_type:'Entry', name:'Planned Observation   [2.16.840.1.113883.10.20.22.4.44[692-697', name2:'Planned Observation  ', template:'2.16.840.1.113883.10.20.22.4.44', pageStart:692, pages:'692-697', search:'Planned Observation   2.16.840.1.113883.10.20.22.4.44 CONF:1098-8581;CONF:1098-8582;CONF:1098-30451;CONF:1098-30452;CONF:1098-32555;CONF:1098-8584;CONF:1098-31030;CONF:1098-30453;CONF:1098-32032;CONF:1098-30454;CONF:1098-31031;CONF:1098-32043;CONF:1098-32044;CONF:1098-30456;CONF:1098-32033;CONF:1098-31073;CONF:1098-31074;CONF:1098-31075;CONF:1098-32034;CONF:1098-32035;CONF:1098-32036;CONF:1098-32037;CONF:1098-32038;CONF:1098-32039;CONF:1098-32040;CONF:1098-32041;CONF:1098-32042' },</v>
+        <v>{ 'id': '160', 'template_type': 'Entry', 'name': 'Planned Observation   [2.16.840.1.113883.10.20.22.4.44[692-697', 'name2': 'Planned Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.44', 'pageStart': '692', 'pages': '692-697', 'search': 'Planned Observation   2.16.840.1.113883.10.20.22.4.44 CONF:1098-8581;CONF:1098-8582;CONF:1098-30451;CONF:1098-30452;CONF:1098-32555;CONF:1098-8584;CONF:1098-31030;CONF:1098-30453;CONF:1098-32032;CONF:1098-30454;CONF:1098-31031;CONF:1098-32043;CONF:1098-32044;CONF:1098-30456;CONF:1098-32033;CONF:1098-31073;CONF:1098-31074;CONF:1098-31075;CONF:1098-32034;CONF:1098-32035;CONF:1098-32036;CONF:1098-32037;CONF:1098-32038;CONF:1098-32039;CONF:1098-32040;CONF:1098-32041;CONF:1098-32042' },</v>
       </c>
       <c r="N161" t="str">
         <f t="shared" si="8"/>
@@ -13302,10 +13301,10 @@
       <c r="D162" t="s">
         <v>327</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162">
         <v>697</v>
       </c>
-      <c r="G162" s="4" t="str">
+      <c r="G162" s="3" t="str">
         <f>VLOOKUP(D162,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>697-703</v>
       </c>
@@ -13324,7 +13323,7 @@
       </c>
       <c r="M162" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:161, template_type:'Entry', name:'Planned Procedure   [2.16.840.1.113883.10.20.22.4.41[697-703', name2:'Planned Procedure  ', template:'2.16.840.1.113883.10.20.22.4.41', pageStart:697, pages:'697-703', search:'Planned Procedure   2.16.840.1.113883.10.20.22.4.41 CONF:1098-8568;CONF:1098-8569;CONF:1098-30444;CONF:1098-30445;CONF:1098-32554;CONF:1098-8571;CONF:1098-31976;CONF:1098-31977;CONF:1098-30446;CONF:1098-31978;CONF:1098-30447;CONF:1098-31980;CONF:1098-31981;CONF:1098-30449;CONF:1098-31979;CONF:1098-31079;CONF:1098-31080;CONF:1098-31081;CONF:1098-31982;CONF:1098-31983;CONF:1098-31984;CONF:1098-31985;CONF:1098-31986;CONF:1098-31987;CONF:1098-31989;CONF:1098-31990;CONF:1098-31991;CONF:1098-31992' },</v>
+        <v>{ 'id': '161', 'template_type': 'Entry', 'name': 'Planned Procedure   [2.16.840.1.113883.10.20.22.4.41[697-703', 'name2': 'Planned Procedure  ', 'template': '2.16.840.1.113883.10.20.22.4.41', 'pageStart': '697', 'pages': '697-703', 'search': 'Planned Procedure   2.16.840.1.113883.10.20.22.4.41 CONF:1098-8568;CONF:1098-8569;CONF:1098-30444;CONF:1098-30445;CONF:1098-32554;CONF:1098-8571;CONF:1098-31976;CONF:1098-31977;CONF:1098-30446;CONF:1098-31978;CONF:1098-30447;CONF:1098-31980;CONF:1098-31981;CONF:1098-30449;CONF:1098-31979;CONF:1098-31079;CONF:1098-31080;CONF:1098-31081;CONF:1098-31982;CONF:1098-31983;CONF:1098-31984;CONF:1098-31985;CONF:1098-31986;CONF:1098-31987;CONF:1098-31989;CONF:1098-31990;CONF:1098-31991;CONF:1098-31992' },</v>
       </c>
       <c r="N162" t="str">
         <f t="shared" si="8"/>
@@ -13344,10 +13343,10 @@
       <c r="D163" t="s">
         <v>329</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163">
         <v>703</v>
       </c>
-      <c r="G163" s="4" t="str">
+      <c r="G163" s="3" t="str">
         <f>VLOOKUP(D163,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>703-709</v>
       </c>
@@ -13366,7 +13365,7 @@
       </c>
       <c r="M163" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:162, template_type:'Entry', name:'Planned Supply  [2.16.840.1.113883.10.20.22.4.43[703-709', name2:'Planned Supply ', template:'2.16.840.1.113883.10.20.22.4.43', pageStart:703, pages:'703-709', search:'Planned Supply  2.16.840.1.113883.10.20.22.4.43 CONF:1098-8577;CONF:1098-8578;CONF:1098-30463;CONF:1098-30464;CONF:1098-32556;CONF:1098-8580;CONF:1098-30458;CONF:1098-32047;CONF:1098-30459;CONF:1098-32063;CONF:1098-32064;CONF:1098-32049;CONF:1098-32050;CONF:1098-32092;CONF:1098-32051;CONF:1098-32052;CONF:1098-32093;CONF:1098-32325;CONF:1098-32048;CONF:1098-31129;CONF:1098-32094;CONF:1098-32095;CONF:1098-32096;CONF:1098-31110;CONF:1098-31111;CONF:1098-31112;CONF:1098-32054;CONF:1098-32055;CONF:1098-32056;CONF:1098-32057;CONF:1098-32058;CONF:1098-32059;CONF:1098-32060;CONF:1098-32061;CONF:1098-32062' },</v>
+        <v>{ 'id': '162', 'template_type': 'Entry', 'name': 'Planned Supply  [2.16.840.1.113883.10.20.22.4.43[703-709', 'name2': 'Planned Supply ', 'template': '2.16.840.1.113883.10.20.22.4.43', 'pageStart': '703', 'pages': '703-709', 'search': 'Planned Supply  2.16.840.1.113883.10.20.22.4.43 CONF:1098-8577;CONF:1098-8578;CONF:1098-30463;CONF:1098-30464;CONF:1098-32556;CONF:1098-8580;CONF:1098-30458;CONF:1098-32047;CONF:1098-30459;CONF:1098-32063;CONF:1098-32064;CONF:1098-32049;CONF:1098-32050;CONF:1098-32092;CONF:1098-32051;CONF:1098-32052;CONF:1098-32093;CONF:1098-32325;CONF:1098-32048;CONF:1098-31129;CONF:1098-32094;CONF:1098-32095;CONF:1098-32096;CONF:1098-31110;CONF:1098-31111;CONF:1098-31112;CONF:1098-32054;CONF:1098-32055;CONF:1098-32056;CONF:1098-32057;CONF:1098-32058;CONF:1098-32059;CONF:1098-32060;CONF:1098-32061;CONF:1098-32062' },</v>
       </c>
       <c r="N163" t="str">
         <f t="shared" si="8"/>
@@ -13386,10 +13385,10 @@
       <c r="D164" t="s">
         <v>331</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164">
         <v>709</v>
       </c>
-      <c r="G164" s="4" t="str">
+      <c r="G164" s="3" t="str">
         <f>VLOOKUP(D164,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>709-721</v>
       </c>
@@ -13408,7 +13407,7 @@
       </c>
       <c r="M164" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:163, template_type:'Entry', name:'Policy Activity  [2.16.840.1.113883.10.20.22.4.61[709-721', name2:'Policy Activity ', template:'2.16.840.1.113883.10.20.22.4.61', pageStart:709, pages:'709-721', search:'Policy Activity  2.16.840.1.113883.10.20.22.4.61 CONF:1198-8898;CONF:1198-8899;CONF:1198-8900;CONF:1198-10516;CONF:1198-32595;CONF:1198-8901;CONF:1198-8903;CONF:1198-32852;CONF:1198-8902;CONF:1198-19109;CONF:1198-8906;CONF:1198-8907;CONF:1198-16808;CONF:1198-16809;CONF:1198-8908;CONF:1198-8909;CONF:1198-8914;CONF:1198-15992;CONF:1198-8910;CONF:1198-8911;CONF:1198-8912;CONF:1198-8913;CONF:1198-8961;CONF:1198-16810;CONF:1198-16811;CONF:1198-8963;CONF:1198-8962;CONF:1198-8968;CONF:1198-16096;CONF:1198-32165;CONF:1198-8964;CONF:1198-8965;CONF:1198-8967;CONF:1198-8916;CONF:1198-8917;CONF:1198-16812;CONF:1198-16814;CONF:1198-8918;CONF:1198-8919;CONF:1198-8920;CONF:1198-8921;CONF:1198-8922;CONF:1198-8984;CONF:1198-8923;CONF:1198-16078;CONF:1198-8956;CONF:1198-10484;CONF:1198-8932;CONF:1198-8930;CONF:1198-31344;CONF:1198-31345;CONF:1198-8934;CONF:1198-8935;CONF:1198-16813;CONF:1198-16815;CONF:1198-8938;CONF:1198-8936;CONF:1198-8937;CONF:1198-10120;CONF:1198-8925;CONF:1198-10483;CONF:1198-17139;CONF:1198-8939;CONF:1198-8940;CONF:1198-8942;CONF:1198-8943' },</v>
+        <v>{ 'id': '163', 'template_type': 'Entry', 'name': 'Policy Activity  [2.16.840.1.113883.10.20.22.4.61[709-721', 'name2': 'Policy Activity ', 'template': '2.16.840.1.113883.10.20.22.4.61', 'pageStart': '709', 'pages': '709-721', 'search': 'Policy Activity  2.16.840.1.113883.10.20.22.4.61 CONF:1198-8898;CONF:1198-8899;CONF:1198-8900;CONF:1198-10516;CONF:1198-32595;CONF:1198-8901;CONF:1198-8903;CONF:1198-32852;CONF:1198-8902;CONF:1198-19109;CONF:1198-8906;CONF:1198-8907;CONF:1198-16808;CONF:1198-16809;CONF:1198-8908;CONF:1198-8909;CONF:1198-8914;CONF:1198-15992;CONF:1198-8910;CONF:1198-8911;CONF:1198-8912;CONF:1198-8913;CONF:1198-8961;CONF:1198-16810;CONF:1198-16811;CONF:1198-8963;CONF:1198-8962;CONF:1198-8968;CONF:1198-16096;CONF:1198-32165;CONF:1198-8964;CONF:1198-8965;CONF:1198-8967;CONF:1198-8916;CONF:1198-8917;CONF:1198-16812;CONF:1198-16814;CONF:1198-8918;CONF:1198-8919;CONF:1198-8920;CONF:1198-8921;CONF:1198-8922;CONF:1198-8984;CONF:1198-8923;CONF:1198-16078;CONF:1198-8956;CONF:1198-10484;CONF:1198-8932;CONF:1198-8930;CONF:1198-31344;CONF:1198-31345;CONF:1198-8934;CONF:1198-8935;CONF:1198-16813;CONF:1198-16815;CONF:1198-8938;CONF:1198-8936;CONF:1198-8937;CONF:1198-10120;CONF:1198-8925;CONF:1198-10483;CONF:1198-17139;CONF:1198-8939;CONF:1198-8940;CONF:1198-8942;CONF:1198-8943' },</v>
       </c>
       <c r="N164" t="str">
         <f t="shared" si="8"/>
@@ -13428,10 +13427,10 @@
       <c r="D165" t="s">
         <v>333</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165">
         <v>721</v>
       </c>
-      <c r="G165" s="4" t="str">
+      <c r="G165" s="3" t="str">
         <f>VLOOKUP(D165,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>721-723</v>
       </c>
@@ -13450,7 +13449,7 @@
       </c>
       <c r="M165" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:164, template_type:'Entry', name:'Postprocedure Diagnosis   [2.16.840.1.113883.10.20.22.4.51[721-723', name2:'Postprocedure Diagnosis  ', template:'2.16.840.1.113883.10.20.22.4.51', pageStart:721, pages:'721-723', search:'Postprocedure Diagnosis   2.16.840.1.113883.10.20.22.4.51 CONF:1198-8756;CONF:1198-8757;CONF:1198-16766;CONF:1198-16767;CONF:1198-32539;CONF:1198-19151;CONF:1198-19152;CONF:1198-32166;CONF:1198-8759;CONF:1198-8760;CONF:1198-15583' },</v>
+        <v>{ 'id': '164', 'template_type': 'Entry', 'name': 'Postprocedure Diagnosis   [2.16.840.1.113883.10.20.22.4.51[721-723', 'name2': 'Postprocedure Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.51', 'pageStart': '721', 'pages': '721-723', 'search': 'Postprocedure Diagnosis   2.16.840.1.113883.10.20.22.4.51 CONF:1198-8756;CONF:1198-8757;CONF:1198-16766;CONF:1198-16767;CONF:1198-32539;CONF:1198-19151;CONF:1198-19152;CONF:1198-32166;CONF:1198-8759;CONF:1198-8760;CONF:1198-15583' },</v>
       </c>
       <c r="N165" t="str">
         <f t="shared" si="8"/>
@@ -13470,10 +13469,10 @@
       <c r="D166" t="s">
         <v>335</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166">
         <v>723</v>
       </c>
-      <c r="G166" s="4" t="str">
+      <c r="G166" s="3" t="str">
         <f>VLOOKUP(D166,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>723-725</v>
       </c>
@@ -13492,7 +13491,7 @@
       </c>
       <c r="M166" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:165, template_type:'Entry', name:'Precondition for Substance Administration   [2.16.840.1.113883.10.20.22.4.25[723-725', name2:'Precondition for Substance Administration  ', template:'2.16.840.1.113883.10.20.22.4.25', pageStart:723, pages:'723-725', search:'Precondition for Substance Administration   2.16.840.1.113883.10.20.22.4.25 CONF:1098-7372;CONF:1098-10517;CONF:1098-32603;CONF:1098-32396;CONF:1098-32397;CONF:1098-32398;CONF:1098-7369' },</v>
+        <v>{ 'id': '165', 'template_type': 'Entry', 'name': 'Precondition for Substance Administration   [2.16.840.1.113883.10.20.22.4.25[723-725', 'name2': 'Precondition for Substance Administration  ', 'template': '2.16.840.1.113883.10.20.22.4.25', 'pageStart': '723', 'pages': '723-725', 'search': 'Precondition for Substance Administration   2.16.840.1.113883.10.20.22.4.25 CONF:1098-7372;CONF:1098-10517;CONF:1098-32603;CONF:1098-32396;CONF:1098-32397;CONF:1098-32398;CONF:1098-7369' },</v>
       </c>
       <c r="N166" t="str">
         <f t="shared" si="8"/>
@@ -13512,10 +13511,10 @@
       <c r="D167" t="s">
         <v>337</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167">
         <v>725</v>
       </c>
-      <c r="G167" s="4" t="str">
+      <c r="G167" s="3" t="str">
         <f>VLOOKUP(D167,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>725-727</v>
       </c>
@@ -13534,7 +13533,7 @@
       </c>
       <c r="M167" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:166, template_type:'Entry', name:'Pregnancy Observation [2.16.840.1.113883.10.20.15.3.8[725-727', name2:'Pregnancy Observation', template:'2.16.840.1.113883.10.20.15.3.8', pageStart:725, pages:'725-727', search:'Pregnancy Observation 2.16.840.1.113883.10.20.15.3.8 CONF:81-451;CONF:81-452;CONF:81-16768;CONF:81-16868;CONF:81-19153;CONF:81-19154;CONF:81-26505;CONF:81-455;CONF:81-19110;CONF:81-2018;CONF:81-457;CONF:81-458;CONF:81-459;CONF:81-15584' },</v>
+        <v>{ 'id': '166', 'template_type': 'Entry', 'name': 'Pregnancy Observation [2.16.840.1.113883.10.20.15.3.8[725-727', 'name2': 'Pregnancy Observation', 'template': '2.16.840.1.113883.10.20.15.3.8', 'pageStart': '725', 'pages': '725-727', 'search': 'Pregnancy Observation 2.16.840.1.113883.10.20.15.3.8 CONF:81-451;CONF:81-452;CONF:81-16768;CONF:81-16868;CONF:81-19153;CONF:81-19154;CONF:81-26505;CONF:81-455;CONF:81-19110;CONF:81-2018;CONF:81-457;CONF:81-458;CONF:81-459;CONF:81-15584' },</v>
       </c>
       <c r="N167" t="str">
         <f t="shared" si="8"/>
@@ -13554,10 +13553,10 @@
       <c r="D168" t="s">
         <v>339</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168">
         <v>727</v>
       </c>
-      <c r="G168" s="4" t="str">
+      <c r="G168" s="3" t="str">
         <f>VLOOKUP(D168,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>727-729</v>
       </c>
@@ -13576,7 +13575,7 @@
       </c>
       <c r="M168" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:167, template_type:'Entry', name:'Preoperative Diagnosis   [2.16.840.1.113883.10.20.22.4.65[727-729', name2:'Preoperative Diagnosis  ', template:'2.16.840.1.113883.10.20.22.4.65', pageStart:727, pages:'727-729', search:'Preoperative Diagnosis   2.16.840.1.113883.10.20.22.4.65 CONF:1198-10090;CONF:1198-10091;CONF:1198-16770;CONF:1198-16771;CONF:1198-32540;CONF:1198-19155;CONF:1198-19156;CONF:1198-32167;CONF:1198-10093;CONF:1198-10094;CONF:1198-15605' },</v>
+        <v>{ 'id': '167', 'template_type': 'Entry', 'name': 'Preoperative Diagnosis   [2.16.840.1.113883.10.20.22.4.65[727-729', 'name2': 'Preoperative Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.65', 'pageStart': '727', 'pages': '727-729', 'search': 'Preoperative Diagnosis   2.16.840.1.113883.10.20.22.4.65 CONF:1198-10090;CONF:1198-10091;CONF:1198-16770;CONF:1198-16771;CONF:1198-32540;CONF:1198-19155;CONF:1198-19156;CONF:1198-32167;CONF:1198-10093;CONF:1198-10094;CONF:1198-15605' },</v>
       </c>
       <c r="N168" t="str">
         <f t="shared" si="8"/>
@@ -13596,10 +13595,10 @@
       <c r="D169" t="s">
         <v>341</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169">
         <v>729</v>
       </c>
-      <c r="G169" s="4" t="str">
+      <c r="G169" s="3" t="str">
         <f>VLOOKUP(D169,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>729-735</v>
       </c>
@@ -13618,7 +13617,7 @@
       </c>
       <c r="M169" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:168, template_type:'Entry', name:'Pressure Ulcer Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.70[729-735', name2:'Pressure Ulcer Observation (DEPRECATED) ', template:'2.16.840.1.113883.10.20.22.4.70', pageStart:729, pages:'729-735', search:'Pressure Ulcer Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.70 CONF:1098-14383;CONF:1098-14384;CONF:1098-14385;CONF:1098-14387;CONF:1098-14388;CONF:1098-32594;CONF:1098-14389;CONF:1098-14759;CONF:1098-14760;CONF:1098-14391;CONF:1098-14392;CONF:1098-15585;CONF:1098-15586;CONF:1098-14394;CONF:1098-19111;CONF:1098-14395;CONF:1098-14396;CONF:1098-14797;CONF:1098-14798;CONF:1098-14799;CONF:1098-14800;CONF:1098-14801;CONF:1098-14802;CONF:1098-14803;CONF:1098-14410;CONF:1098-14411;CONF:1098-14619;CONF:1098-14685;CONF:1098-14686;CONF:1098-14620;CONF:1098-14621;CONF:1098-14622;CONF:1098-14601;CONF:1098-14602;CONF:1098-14623;CONF:1098-14687;CONF:1098-14688;CONF:1098-14624;CONF:1098-14625;CONF:1098-14626;CONF:1098-14605;CONF:1098-14606;CONF:1098-14627;CONF:1098-14689;CONF:1098-14690;CONF:1098-14628;CONF:1098-14629;CONF:1098-14630' },</v>
+        <v>{ 'id': '168', 'template_type': 'Entry', 'name': 'Pressure Ulcer Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.70[729-735', 'name2': 'Pressure Ulcer Observation (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.4.70', 'pageStart': '729', 'pages': '729-735', 'search': 'Pressure Ulcer Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.70 CONF:1098-14383;CONF:1098-14384;CONF:1098-14385;CONF:1098-14387;CONF:1098-14388;CONF:1098-32594;CONF:1098-14389;CONF:1098-14759;CONF:1098-14760;CONF:1098-14391;CONF:1098-14392;CONF:1098-15585;CONF:1098-15586;CONF:1098-14394;CONF:1098-19111;CONF:1098-14395;CONF:1098-14396;CONF:1098-14797;CONF:1098-14798;CONF:1098-14799;CONF:1098-14800;CONF:1098-14801;CONF:1098-14802;CONF:1098-14803;CONF:1098-14410;CONF:1098-14411;CONF:1098-14619;CONF:1098-14685;CONF:1098-14686;CONF:1098-14620;CONF:1098-14621;CONF:1098-14622;CONF:1098-14601;CONF:1098-14602;CONF:1098-14623;CONF:1098-14687;CONF:1098-14688;CONF:1098-14624;CONF:1098-14625;CONF:1098-14626;CONF:1098-14605;CONF:1098-14606;CONF:1098-14627;CONF:1098-14689;CONF:1098-14690;CONF:1098-14628;CONF:1098-14629;CONF:1098-14630' },</v>
       </c>
       <c r="N169" t="str">
         <f t="shared" si="8"/>
@@ -13638,10 +13637,10 @@
       <c r="D170" t="s">
         <v>343</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170">
         <v>735</v>
       </c>
-      <c r="G170" s="4" t="str">
+      <c r="G170" s="3" t="str">
         <f>VLOOKUP(D170,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>735-738</v>
       </c>
@@ -13660,7 +13659,7 @@
       </c>
       <c r="M170" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:169, template_type:'Entry', name:'Priority Preference [2.16.840.1.113883.10.20.22.4.143[735-738', name2:'Priority Preference', template:'2.16.840.1.113883.10.20.22.4.143', pageStart:735, pages:'735-738', search:'Priority Preference 2.16.840.1.113883.10.20.22.4.143 CONF:1098-30949;CONF:1098-30950;CONF:1098-30951;CONF:1098-30952;CONF:1098-30953;CONF:1098-30954;CONF:1098-30955;CONF:1098-30956;CONF:1098-32327;CONF:1098-30957;CONF:1098-30958' },</v>
+        <v>{ 'id': '169', 'template_type': 'Entry', 'name': 'Priority Preference [2.16.840.1.113883.10.20.22.4.143[735-738', 'name2': 'Priority Preference', 'template': '2.16.840.1.113883.10.20.22.4.143', 'pageStart': '735', 'pages': '735-738', 'search': 'Priority Preference 2.16.840.1.113883.10.20.22.4.143 CONF:1098-30949;CONF:1098-30950;CONF:1098-30951;CONF:1098-30952;CONF:1098-30953;CONF:1098-30954;CONF:1098-30955;CONF:1098-30956;CONF:1098-32327;CONF:1098-30957;CONF:1098-30958' },</v>
       </c>
       <c r="N170" t="str">
         <f t="shared" si="8"/>
@@ -13680,10 +13679,10 @@
       <c r="D171" t="s">
         <v>345</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171">
         <v>738</v>
       </c>
-      <c r="G171" s="4" t="str">
+      <c r="G171" s="3" t="str">
         <f>VLOOKUP(D171,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>738-743</v>
       </c>
@@ -13702,7 +13701,7 @@
       </c>
       <c r="M171" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:170, template_type:'Entry', name:'Problem Concern Act  [2.16.840.1.113883.10.20.22.4.3[738-743', name2:'Problem Concern Act ', template:'2.16.840.1.113883.10.20.22.4.3', pageStart:738, pages:'738-743', search:'Problem Concern Act  2.16.840.1.113883.10.20.22.4.3 CONF:1198-9024;CONF:1198-9025;CONF:1198-16772;CONF:1198-16773;CONF:1198-32509;CONF:1198-9026;CONF:1198-9027;CONF:1198-19184;CONF:1198-32168;CONF:1198-9029;CONF:1198-31525;CONF:1198-9030;CONF:1198-9032;CONF:1198-9033;CONF:1198-31146;CONF:1198-9034;CONF:1198-9035;CONF:1198-15980;CONF:1198-31638;CONF:1198-31639;CONF:1198-31640' },</v>
+        <v>{ 'id': '170', 'template_type': 'Entry', 'name': 'Problem Concern Act  [2.16.840.1.113883.10.20.22.4.3[738-743', 'name2': 'Problem Concern Act ', 'template': '2.16.840.1.113883.10.20.22.4.3', 'pageStart': '738', 'pages': '738-743', 'search': 'Problem Concern Act  2.16.840.1.113883.10.20.22.4.3 CONF:1198-9024;CONF:1198-9025;CONF:1198-16772;CONF:1198-16773;CONF:1198-32509;CONF:1198-9026;CONF:1198-9027;CONF:1198-19184;CONF:1198-32168;CONF:1198-9029;CONF:1198-31525;CONF:1198-9030;CONF:1198-9032;CONF:1198-9033;CONF:1198-31146;CONF:1198-9034;CONF:1198-9035;CONF:1198-15980;CONF:1198-31638;CONF:1198-31639;CONF:1198-31640' },</v>
       </c>
       <c r="N171" t="str">
         <f t="shared" si="8"/>
@@ -13722,10 +13721,10 @@
       <c r="D172" t="s">
         <v>347</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172">
         <v>743</v>
       </c>
-      <c r="G172" s="4" t="str">
+      <c r="G172" s="3" t="str">
         <f>VLOOKUP(D172,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>743-750</v>
       </c>
@@ -13744,7 +13743,7 @@
       </c>
       <c r="M172" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:171, template_type:'Entry', name:'Problem Observation   [2.16.840.1.113883.10.20.22.4.4[743-750', name2:'Problem Observation  ', template:'2.16.840.1.113883.10.20.22.4.4', pageStart:743, pages:'743-750', search:'Problem Observation   2.16.840.1.113883.10.20.22.4.4 CONF:1198-9041;CONF:1198-9042;CONF:1198-10139;CONF:1198-14926;CONF:1198-14927;CONF:1198-32508;CONF:1198-9043;CONF:1198-9045;CONF:1198-32950;CONF:1198-9049;CONF:1198-19112;CONF:1198-9050;CONF:1198-15603;CONF:1198-15604;CONF:1198-9058;CONF:1198-31871;CONF:1198-31870;CONF:1198-16749;CONF:1198-16750;CONF:1198-31147;CONF:1198-9059;CONF:1198-9060;CONF:1198-9069;CONF:1198-15590;CONF:1198-29951;CONF:1198-31531;CONF:1198-29952;CONF:1198-31063;CONF:1198-31532;CONF:1198-31064;CONF:1198-9063;CONF:1198-9068;CONF:1198-15591' },</v>
+        <v>{ 'id': '171', 'template_type': 'Entry', 'name': 'Problem Observation   [2.16.840.1.113883.10.20.22.4.4[743-750', 'name2': 'Problem Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.4', 'pageStart': '743', 'pages': '743-750', 'search': 'Problem Observation   2.16.840.1.113883.10.20.22.4.4 CONF:1198-9041;CONF:1198-9042;CONF:1198-10139;CONF:1198-14926;CONF:1198-14927;CONF:1198-32508;CONF:1198-9043;CONF:1198-9045;CONF:1198-32950;CONF:1198-9049;CONF:1198-19112;CONF:1198-9050;CONF:1198-15603;CONF:1198-15604;CONF:1198-9058;CONF:1198-31871;CONF:1198-31870;CONF:1198-16749;CONF:1198-16750;CONF:1198-31147;CONF:1198-9059;CONF:1198-9060;CONF:1198-9069;CONF:1198-15590;CONF:1198-29951;CONF:1198-31531;CONF:1198-29952;CONF:1198-31063;CONF:1198-31532;CONF:1198-31064;CONF:1198-9063;CONF:1198-9068;CONF:1198-15591' },</v>
       </c>
       <c r="N172" t="str">
         <f t="shared" si="8"/>
@@ -13764,10 +13763,10 @@
       <c r="D173" t="s">
         <v>349</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173">
         <v>750</v>
       </c>
-      <c r="G173" s="4" t="str">
+      <c r="G173" s="3" t="str">
         <f>VLOOKUP(D173,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>750-756</v>
       </c>
@@ -13786,7 +13785,7 @@
       </c>
       <c r="M173" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:172, template_type:'Entry', name:'Longitudinal Care Wound Observation   [2.16.840.1.113883.10.20.22.4.114[750-756', name2:'Longitudinal Care Wound Observation  ', template:'2.16.840.1.113883.10.20.22.4.114', pageStart:750, pages:'750-756', search:'Longitudinal Care Wound Observation   2.16.840.1.113883.10.20.22.4.114 CONF:1198-31012;CONF:1198-31013;CONF:1198-32947;CONF:1198-29474;CONF:1198-32913;CONF:1198-29476;CONF:1198-29477;CONF:1198-31010;CONF:1198-29485;CONF:1198-29488;CONF:1198-29490;CONF:1198-29491;CONF:1198-29492;CONF:1198-31524;CONF:1198-29493;CONF:1198-29494;CONF:1198-31542;CONF:1198-29495;CONF:1198-29496;CONF:1198-29497;CONF:1198-29503;CONF:1198-29504;CONF:1198-29505;CONF:1198-31890;CONF:1198-31891;CONF:1198-31892;CONF:1198-31893;CONF:1198-31894;CONF:1198-31919' },</v>
+        <v>{ 'id': '172', 'template_type': 'Entry', 'name': 'Longitudinal Care Wound Observation   [2.16.840.1.113883.10.20.22.4.114[750-756', 'name2': 'Longitudinal Care Wound Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.114', 'pageStart': '750', 'pages': '750-756', 'search': 'Longitudinal Care Wound Observation   2.16.840.1.113883.10.20.22.4.114 CONF:1198-31012;CONF:1198-31013;CONF:1198-32947;CONF:1198-29474;CONF:1198-32913;CONF:1198-29476;CONF:1198-29477;CONF:1198-31010;CONF:1198-29485;CONF:1198-29488;CONF:1198-29490;CONF:1198-29491;CONF:1198-29492;CONF:1198-31524;CONF:1198-29493;CONF:1198-29494;CONF:1198-31542;CONF:1198-29495;CONF:1198-29496;CONF:1198-29497;CONF:1198-29503;CONF:1198-29504;CONF:1198-29505;CONF:1198-31890;CONF:1198-31891;CONF:1198-31892;CONF:1198-31893;CONF:1198-31894;CONF:1198-31919' },</v>
       </c>
       <c r="N173" t="str">
         <f t="shared" si="8"/>
@@ -13806,10 +13805,10 @@
       <c r="D174" t="s">
         <v>351</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174">
         <v>756</v>
       </c>
-      <c r="G174" s="4" t="str">
+      <c r="G174" s="3" t="str">
         <f>VLOOKUP(D174,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>756-758</v>
       </c>
@@ -13828,7 +13827,7 @@
       </c>
       <c r="M174" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:173, template_type:'Entry', name:'Problem Status  [2.16.840.1.113883.10.20.22.4.6[756-758', name2:'Problem Status ', template:'2.16.840.1.113883.10.20.22.4.6', pageStart:756, pages:'756-758', search:'Problem Status  2.16.840.1.113883.10.20.22.4.6 CONF:1198-7357;CONF:1198-7358;CONF:1198-7359;CONF:1198-10518;CONF:1198-32961;CONF:1198-19162;CONF:1198-19163;CONF:1198-7364;CONF:1198-19113;CONF:1198-7365' },</v>
+        <v>{ 'id': '173', 'template_type': 'Entry', 'name': 'Problem Status  [2.16.840.1.113883.10.20.22.4.6[756-758', 'name2': 'Problem Status ', 'template': '2.16.840.1.113883.10.20.22.4.6', 'pageStart': '756', 'pages': '756-758', 'search': 'Problem Status  2.16.840.1.113883.10.20.22.4.6 CONF:1198-7357;CONF:1198-7358;CONF:1198-7359;CONF:1198-10518;CONF:1198-32961;CONF:1198-19162;CONF:1198-19163;CONF:1198-7364;CONF:1198-19113;CONF:1198-7365' },</v>
       </c>
       <c r="N174" t="str">
         <f t="shared" si="8"/>
@@ -13848,10 +13847,10 @@
       <c r="D175" t="s">
         <v>353</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175">
         <v>758</v>
       </c>
-      <c r="G175" s="4" t="str">
+      <c r="G175" s="3" t="str">
         <f>VLOOKUP(D175,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>758-765</v>
       </c>
@@ -13870,7 +13869,7 @@
       </c>
       <c r="M175" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:174, template_type:'Entry', name:'Procedure Activity Act   [2.16.840.1.113883.10.20.22.4.12[758-765', name2:'Procedure Activity Act  ', template:'2.16.840.1.113883.10.20.22.4.12', pageStart:758, pages:'758-765', search:'Procedure Activity Act   2.16.840.1.113883.10.20.22.4.12 CONF:1098-8289;CONF:1098-8290;CONF:1098-8291;CONF:1098-10519;CONF:1098-32505;CONF:1098-8292;CONF:1098-8293;CONF:1098-19186;CONF:1098-19187;CONF:1098-19188;CONF:1098-19189;CONF:1098-19190;CONF:1098-8298;CONF:1098-32364;CONF:1098-8299;CONF:1098-8300;CONF:1098-8301;CONF:1098-8302;CONF:1098-8303;CONF:1098-8304;CONF:1098-8305;CONF:1098-8306;CONF:1098-8307;CONF:1098-8308;CONF:1098-8310;CONF:1098-8309;CONF:1098-32477;CONF:1098-8311;CONF:1098-8312;CONF:1098-15599;CONF:1098-8314;CONF:1098-8315;CONF:1098-8316;CONF:1098-8317;CONF:1098-8318;CONF:1098-8319;CONF:1098-8320;CONF:1098-16849;CONF:1098-8322;CONF:1098-8323;CONF:1098-8324;CONF:1098-31396;CONF:1098-8326;CONF:1098-8327;CONF:1098-15601;CONF:1098-8329;CONF:1098-8330;CONF:1098-15602' },</v>
+        <v>{ 'id': '174', 'template_type': 'Entry', 'name': 'Procedure Activity Act   [2.16.840.1.113883.10.20.22.4.12[758-765', 'name2': 'Procedure Activity Act  ', 'template': '2.16.840.1.113883.10.20.22.4.12', 'pageStart': '758', 'pages': '758-765', 'search': 'Procedure Activity Act   2.16.840.1.113883.10.20.22.4.12 CONF:1098-8289;CONF:1098-8290;CONF:1098-8291;CONF:1098-10519;CONF:1098-32505;CONF:1098-8292;CONF:1098-8293;CONF:1098-19186;CONF:1098-19187;CONF:1098-19188;CONF:1098-19189;CONF:1098-19190;CONF:1098-8298;CONF:1098-32364;CONF:1098-8299;CONF:1098-8300;CONF:1098-8301;CONF:1098-8302;CONF:1098-8303;CONF:1098-8304;CONF:1098-8305;CONF:1098-8306;CONF:1098-8307;CONF:1098-8308;CONF:1098-8310;CONF:1098-8309;CONF:1098-32477;CONF:1098-8311;CONF:1098-8312;CONF:1098-15599;CONF:1098-8314;CONF:1098-8315;CONF:1098-8316;CONF:1098-8317;CONF:1098-8318;CONF:1098-8319;CONF:1098-8320;CONF:1098-16849;CONF:1098-8322;CONF:1098-8323;CONF:1098-8324;CONF:1098-31396;CONF:1098-8326;CONF:1098-8327;CONF:1098-15601;CONF:1098-8329;CONF:1098-8330;CONF:1098-15602' },</v>
       </c>
       <c r="N175" t="str">
         <f t="shared" si="8"/>
@@ -13890,10 +13889,10 @@
       <c r="D176" t="s">
         <v>355</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176">
         <v>765</v>
       </c>
-      <c r="G176" s="4" t="str">
+      <c r="G176" s="3" t="str">
         <f>VLOOKUP(D176,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>765-772</v>
       </c>
@@ -13912,7 +13911,7 @@
       </c>
       <c r="M176" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:175, template_type:'Entry', name:'Procedure Activity Observation   [2.16.840.1.113883.10.20.22.4.13[765-772', name2:'Procedure Activity Observation  ', template:'2.16.840.1.113883.10.20.22.4.13', pageStart:765, pages:'765-772', search:'Procedure Activity Observation   2.16.840.1.113883.10.20.22.4.13 CONF:1098-8282;CONF:1098-8237;CONF:1098-8238;CONF:1098-10520;CONF:1098-32507;CONF:1098-8239;CONF:1098-19197;CONF:1098-19198;CONF:1098-19199;CONF:1098-19200;CONF:1098-19201;CONF:1098-19202;CONF:1098-8245;CONF:1098-32365;CONF:1098-8246;CONF:1098-8247;CONF:1098-16846;CONF:1098-32778;CONF:1098-8248;CONF:1098-8249;CONF:1098-8250;CONF:1098-8251;CONF:1098-8252;CONF:1098-8253;CONF:1098-8254;CONF:1098-8255;CONF:1098-8256;CONF:1098-8257;CONF:1098-8258;CONF:1098-8260;CONF:1098-8259;CONF:1098-32478;CONF:1098-8261;CONF:1098-8262;CONF:1098-15904;CONF:1098-8264;CONF:1098-8265;CONF:1098-8266;CONF:1098-8267;CONF:1098-8268;CONF:1098-8269;CONF:1098-8270;CONF:1098-16847;CONF:1098-8272;CONF:1098-8273;CONF:1098-8274;CONF:1098-31394;CONF:1098-8276;CONF:1098-8277;CONF:1098-15906;CONF:1098-8279;CONF:1098-8280;CONF:1098-15907;CONF:1098-32470;CONF:1098-32471;CONF:1098-32472' },</v>
+        <v>{ 'id': '175', 'template_type': 'Entry', 'name': 'Procedure Activity Observation   [2.16.840.1.113883.10.20.22.4.13[765-772', 'name2': 'Procedure Activity Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.13', 'pageStart': '765', 'pages': '765-772', 'search': 'Procedure Activity Observation   2.16.840.1.113883.10.20.22.4.13 CONF:1098-8282;CONF:1098-8237;CONF:1098-8238;CONF:1098-10520;CONF:1098-32507;CONF:1098-8239;CONF:1098-19197;CONF:1098-19198;CONF:1098-19199;CONF:1098-19200;CONF:1098-19201;CONF:1098-19202;CONF:1098-8245;CONF:1098-32365;CONF:1098-8246;CONF:1098-8247;CONF:1098-16846;CONF:1098-32778;CONF:1098-8248;CONF:1098-8249;CONF:1098-8250;CONF:1098-8251;CONF:1098-8252;CONF:1098-8253;CONF:1098-8254;CONF:1098-8255;CONF:1098-8256;CONF:1098-8257;CONF:1098-8258;CONF:1098-8260;CONF:1098-8259;CONF:1098-32478;CONF:1098-8261;CONF:1098-8262;CONF:1098-15904;CONF:1098-8264;CONF:1098-8265;CONF:1098-8266;CONF:1098-8267;CONF:1098-8268;CONF:1098-8269;CONF:1098-8270;CONF:1098-16847;CONF:1098-8272;CONF:1098-8273;CONF:1098-8274;CONF:1098-31394;CONF:1098-8276;CONF:1098-8277;CONF:1098-15906;CONF:1098-8279;CONF:1098-8280;CONF:1098-15907;CONF:1098-32470;CONF:1098-32471;CONF:1098-32472' },</v>
       </c>
       <c r="N176" t="str">
         <f t="shared" si="8"/>
@@ -13932,10 +13931,10 @@
       <c r="D177" t="s">
         <v>357</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177">
         <v>772</v>
       </c>
-      <c r="G177" s="4" t="str">
+      <c r="G177" s="3" t="str">
         <f>VLOOKUP(D177,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>772-779</v>
       </c>
@@ -13954,7 +13953,7 @@
       </c>
       <c r="M177" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:176, template_type:'Entry', name:'Procedure Activity Procedure   [2.16.840.1.113883.10.20.22.4.14[772-779', name2:'Procedure Activity Procedure  ', template:'2.16.840.1.113883.10.20.22.4.14', pageStart:772, pages:'772-779', search:'Procedure Activity Procedure   2.16.840.1.113883.10.20.22.4.14 CONF:1098-7652;CONF:1098-7653;CONF:1098-7654;CONF:1098-10521;CONF:1098-32506;CONF:1098-7655;CONF:1098-7656;CONF:1098-19203;CONF:1098-19204;CONF:1098-19205;CONF:1098-19206;CONF:1098-19207;CONF:1098-7661;CONF:1098-32366;CONF:1098-7662;CONF:1098-7668;CONF:1098-7670;CONF:1098-7890;CONF:1098-7683;CONF:1098-7697;CONF:1098-7704;CONF:1098-7716;CONF:1098-29744;CONF:1098-16842;CONF:1098-7718;CONF:1098-7720;CONF:1098-7722;CONF:1098-7731;CONF:1098-7732;CONF:1098-7733;CONF:1098-7734;CONF:1098-7735;CONF:1098-7737;CONF:1098-7736;CONF:1098-32479;CONF:1098-7751;CONF:1098-7752;CONF:1098-15911;CONF:1098-7765;CONF:1098-7766;CONF:1098-15912;CONF:1098-7768;CONF:1098-7769;CONF:1098-8009;CONF:1098-7770;CONF:1098-7771;CONF:1098-7772;CONF:1098-7773;CONF:1098-16843;CONF:1098-7775;CONF:1098-7776;CONF:1098-7777;CONF:1098-31395;CONF:1098-7779;CONF:1098-7780;CONF:1098-15914;CONF:1098-7886;CONF:1098-7887;CONF:1098-15915;CONF:1098-32473;CONF:1098-32474;CONF:1098-32475' },</v>
+        <v>{ 'id': '176', 'template_type': 'Entry', 'name': 'Procedure Activity Procedure   [2.16.840.1.113883.10.20.22.4.14[772-779', 'name2': 'Procedure Activity Procedure  ', 'template': '2.16.840.1.113883.10.20.22.4.14', 'pageStart': '772', 'pages': '772-779', 'search': 'Procedure Activity Procedure   2.16.840.1.113883.10.20.22.4.14 CONF:1098-7652;CONF:1098-7653;CONF:1098-7654;CONF:1098-10521;CONF:1098-32506;CONF:1098-7655;CONF:1098-7656;CONF:1098-19203;CONF:1098-19204;CONF:1098-19205;CONF:1098-19206;CONF:1098-19207;CONF:1098-7661;CONF:1098-32366;CONF:1098-7662;CONF:1098-7668;CONF:1098-7670;CONF:1098-7890;CONF:1098-7683;CONF:1098-7697;CONF:1098-7704;CONF:1098-7716;CONF:1098-29744;CONF:1098-16842;CONF:1098-7718;CONF:1098-7720;CONF:1098-7722;CONF:1098-7731;CONF:1098-7732;CONF:1098-7733;CONF:1098-7734;CONF:1098-7735;CONF:1098-7737;CONF:1098-7736;CONF:1098-32479;CONF:1098-7751;CONF:1098-7752;CONF:1098-15911;CONF:1098-7765;CONF:1098-7766;CONF:1098-15912;CONF:1098-7768;CONF:1098-7769;CONF:1098-8009;CONF:1098-7770;CONF:1098-7771;CONF:1098-7772;CONF:1098-7773;CONF:1098-16843;CONF:1098-7775;CONF:1098-7776;CONF:1098-7777;CONF:1098-31395;CONF:1098-7779;CONF:1098-7780;CONF:1098-15914;CONF:1098-7886;CONF:1098-7887;CONF:1098-15915;CONF:1098-32473;CONF:1098-32474;CONF:1098-32475' },</v>
       </c>
       <c r="N177" t="str">
         <f t="shared" si="8"/>
@@ -13974,10 +13973,10 @@
       <c r="D178" t="s">
         <v>359</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178">
         <v>779</v>
       </c>
-      <c r="G178" s="4" t="str">
+      <c r="G178" s="3" t="str">
         <f>VLOOKUP(D178,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>779-781</v>
       </c>
@@ -13996,7 +13995,7 @@
       </c>
       <c r="M178" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:177, template_type:'Entry', name:'Procedure Context [2.16.840.1.113883.10.20.6.2.5[779-781', name2:'Procedure Context', template:'2.16.840.1.113883.10.20.6.2.5', pageStart:779, pages:'779-781', search:'Procedure Context 2.16.840.1.113883.10.20.6.2.5 CONF:81-26452;CONF:81-26453;CONF:81-9200;CONF:81-10530;CONF:81-9201;CONF:81-9203;CONF:81-17173;CONF:81-9199' },</v>
+        <v>{ 'id': '177', 'template_type': 'Entry', 'name': 'Procedure Context [2.16.840.1.113883.10.20.6.2.5[779-781', 'name2': 'Procedure Context', 'template': '2.16.840.1.113883.10.20.6.2.5', 'pageStart': '779', 'pages': '779-781', 'search': 'Procedure Context 2.16.840.1.113883.10.20.6.2.5 CONF:81-26452;CONF:81-26453;CONF:81-9200;CONF:81-10530;CONF:81-9201;CONF:81-9203;CONF:81-17173;CONF:81-9199' },</v>
       </c>
       <c r="N178" t="str">
         <f t="shared" si="8"/>
@@ -14016,10 +14015,10 @@
       <c r="D179" t="s">
         <v>361</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179">
         <v>781</v>
       </c>
-      <c r="G179" s="4" t="str">
+      <c r="G179" s="3" t="str">
         <f>VLOOKUP(D179,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>781-783</v>
       </c>
@@ -14038,7 +14037,7 @@
       </c>
       <c r="M179" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:178, template_type:'Entry', name:'Product Instance [2.16.840.1.113883.10.20.22.4.37[781-783', name2:'Product Instance', template:'2.16.840.1.113883.10.20.22.4.37', pageStart:781, pages:'781-783', search:'Product Instance 2.16.840.1.113883.10.20.22.4.37 CONF:81-7900;CONF:81-7901;CONF:81-10522;CONF:81-7902;CONF:81-7903;CONF:81-16837;CONF:81-7905;CONF:81-7908' },</v>
+        <v>{ 'id': '178', 'template_type': 'Entry', 'name': 'Product Instance [2.16.840.1.113883.10.20.22.4.37[781-783', 'name2': 'Product Instance', 'template': '2.16.840.1.113883.10.20.22.4.37', 'pageStart': '781', 'pages': '781-783', 'search': 'Product Instance 2.16.840.1.113883.10.20.22.4.37 CONF:81-7900;CONF:81-7901;CONF:81-10522;CONF:81-7902;CONF:81-7903;CONF:81-16837;CONF:81-7905;CONF:81-7908' },</v>
       </c>
       <c r="N179" t="str">
         <f t="shared" si="8"/>
@@ -14058,10 +14057,10 @@
       <c r="D180" t="s">
         <v>363</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180">
         <v>783</v>
       </c>
-      <c r="G180" s="4" t="str">
+      <c r="G180" s="3" t="str">
         <f>VLOOKUP(D180,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>783-785</v>
       </c>
@@ -14080,7 +14079,7 @@
       </c>
       <c r="M180" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:179, template_type:'Entry', name:'Prognosis Observation [2.16.840.1.113883.10.20.22.4.113[783-785', name2:'Prognosis Observation', template:'2.16.840.1.113883.10.20.22.4.113', pageStart:783, pages:'783-785', search:'Prognosis Observation 2.16.840.1.113883.10.20.22.4.113 CONF:1098-29035;CONF:1098-29036;CONF:1098-29037;CONF:1098-29038;CONF:1098-29039;CONF:1098-29468;CONF:1098-31349;CONF:1098-31350;CONF:1098-31351;CONF:1098-31123;CONF:1098-29469' },</v>
+        <v>{ 'id': '179', 'template_type': 'Entry', 'name': 'Prognosis Observation [2.16.840.1.113883.10.20.22.4.113[783-785', 'name2': 'Prognosis Observation', 'template': '2.16.840.1.113883.10.20.22.4.113', 'pageStart': '783', 'pages': '783-785', 'search': 'Prognosis Observation 2.16.840.1.113883.10.20.22.4.113 CONF:1098-29035;CONF:1098-29036;CONF:1098-29037;CONF:1098-29038;CONF:1098-29039;CONF:1098-29468;CONF:1098-31349;CONF:1098-31350;CONF:1098-31351;CONF:1098-31123;CONF:1098-29469' },</v>
       </c>
       <c r="N180" t="str">
         <f t="shared" si="8"/>
@@ -14100,10 +14099,10 @@
       <c r="D181" t="s">
         <v>365</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181">
         <v>785</v>
       </c>
-      <c r="G181" s="4" t="str">
+      <c r="G181" s="3" t="str">
         <f>VLOOKUP(D181,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>785-787</v>
       </c>
@@ -14122,7 +14121,7 @@
       </c>
       <c r="M181" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:180, template_type:'Entry', name:'Progress Toward Goal Observation  [2.16.840.1.113883.10.20.22.4.110[785-787', name2:'Progress Toward Goal Observation ', template:'2.16.840.1.113883.10.20.22.4.110', pageStart:785, pages:'785-787', search:'Progress Toward Goal Observation  2.16.840.1.113883.10.20.22.4.110 CONF:1098-31418;CONF:1098-31419;CONF:1098-31420;CONF:1098-31421;CONF:1098-31422;CONF:1098-31423;CONF:1098-31424;CONF:1098-31425;CONF:1098-31609;CONF:1098-31610;CONF:1098-31426' },</v>
+        <v>{ 'id': '180', 'template_type': 'Entry', 'name': 'Progress Toward Goal Observation  [2.16.840.1.113883.10.20.22.4.110[785-787', 'name2': 'Progress Toward Goal Observation ', 'template': '2.16.840.1.113883.10.20.22.4.110', 'pageStart': '785', 'pages': '785-787', 'search': 'Progress Toward Goal Observation  2.16.840.1.113883.10.20.22.4.110 CONF:1098-31418;CONF:1098-31419;CONF:1098-31420;CONF:1098-31421;CONF:1098-31422;CONF:1098-31423;CONF:1098-31424;CONF:1098-31425;CONF:1098-31609;CONF:1098-31610;CONF:1098-31426' },</v>
       </c>
       <c r="N181" t="str">
         <f t="shared" si="8"/>
@@ -14142,10 +14141,10 @@
       <c r="D182" t="s">
         <v>367</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182">
         <v>787</v>
       </c>
-      <c r="G182" s="4" t="str">
+      <c r="G182" s="3" t="str">
         <f>VLOOKUP(D182,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>787-789</v>
       </c>
@@ -14164,7 +14163,7 @@
       </c>
       <c r="M182" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:181, template_type:'Entry', name:'Purpose of Reference Observation [2.16.840.1.113883.10.20.6.2.9[787-789', name2:'Purpose of Reference Observation', template:'2.16.840.1.113883.10.20.6.2.9', pageStart:787, pages:'787-789', search:'Purpose of Reference Observation 2.16.840.1.113883.10.20.6.2.9 CONF:81-9264;CONF:81-9265;CONF:81-9266;CONF:81-10531;CONF:81-9267;CONF:81-19208;CONF:81-19209;CONF:81-9273' },</v>
+        <v>{ 'id': '181', 'template_type': 'Entry', 'name': 'Purpose of Reference Observation [2.16.840.1.113883.10.20.6.2.9[787-789', 'name2': 'Purpose of Reference Observation', 'template': '2.16.840.1.113883.10.20.6.2.9', 'pageStart': '787', 'pages': '787-789', 'search': 'Purpose of Reference Observation 2.16.840.1.113883.10.20.6.2.9 CONF:81-9264;CONF:81-9265;CONF:81-9266;CONF:81-10531;CONF:81-9267;CONF:81-19208;CONF:81-19209;CONF:81-9273' },</v>
       </c>
       <c r="N182" t="str">
         <f t="shared" si="8"/>
@@ -14184,10 +14183,10 @@
       <c r="D183" t="s">
         <v>369</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183">
         <v>789</v>
       </c>
-      <c r="G183" s="4" t="str">
+      <c r="G183" s="3" t="str">
         <f>VLOOKUP(D183,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>789-793</v>
       </c>
@@ -14206,7 +14205,7 @@
       </c>
       <c r="M183" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:182, template_type:'Entry', name:'Quantity Measurement Observation  [2.16.840.1.113883.10.20.6.2.14[789-793', name2:'Quantity Measurement Observation ', template:'2.16.840.1.113883.10.20.6.2.14', pageStart:789, pages:'789-793', search:'Quantity Measurement Observation  2.16.840.1.113883.10.20.6.2.14 CONF:81-9317;CONF:81-9318;CONF:81-9319;CONF:81-10532;CONF:81-9320;CONF:81-19210;CONF:81-9326;CONF:81-9324;CONF:81-9327;CONF:81-9328;CONF:81-15916' },</v>
+        <v>{ 'id': '182', 'template_type': 'Entry', 'name': 'Quantity Measurement Observation  [2.16.840.1.113883.10.20.6.2.14[789-793', 'name2': 'Quantity Measurement Observation ', 'template': '2.16.840.1.113883.10.20.6.2.14', 'pageStart': '789', 'pages': '789-793', 'search': 'Quantity Measurement Observation  2.16.840.1.113883.10.20.6.2.14 CONF:81-9317;CONF:81-9318;CONF:81-9319;CONF:81-10532;CONF:81-9320;CONF:81-19210;CONF:81-9326;CONF:81-9324;CONF:81-9327;CONF:81-9328;CONF:81-15916' },</v>
       </c>
       <c r="N183" t="str">
         <f t="shared" si="8"/>
@@ -14226,10 +14225,10 @@
       <c r="D184" t="s">
         <v>371</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184">
         <v>793</v>
       </c>
-      <c r="G184" s="4" t="str">
+      <c r="G184" s="3" t="str">
         <f>VLOOKUP(D184,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>793-797</v>
       </c>
@@ -14248,7 +14247,7 @@
       </c>
       <c r="M184" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:183, template_type:'Entry', name:'Reaction Observation   [2.16.840.1.113883.10.20.22.4.9[793-797', name2:'Reaction Observation  ', template:'2.16.840.1.113883.10.20.22.4.9', pageStart:793, pages:'793-797', search:'Reaction Observation   2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922' },</v>
+        <v>{ 'id': '183', 'template_type': 'Entry', 'name': 'Reaction Observation   [2.16.840.1.113883.10.20.22.4.9[793-797', 'name2': 'Reaction Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.9', 'pageStart': '793', 'pages': '793-797', 'search': 'Reaction Observation   2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922' },</v>
       </c>
       <c r="N184" t="str">
         <f t="shared" si="8"/>
@@ -14268,10 +14267,10 @@
       <c r="D185" t="s">
         <v>373</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185">
         <v>797</v>
       </c>
-      <c r="G185" s="4" t="str">
+      <c r="G185" s="3" t="str">
         <f>VLOOKUP(D185,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>797-798</v>
       </c>
@@ -14290,7 +14289,7 @@
       </c>
       <c r="M185" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:184, template_type:'Entry', name:'Referenced Frames Observation [2.16.840.1.113883.10.20.6.2.10[797-798', name2:'Referenced Frames Observation', template:'2.16.840.1.113883.10.20.6.2.10', pageStart:797, pages:'797-798', search:'Referenced Frames Observation 2.16.840.1.113883.10.20.6.2.10 CONF:81-9276;CONF:81-9277;CONF:81-19164;CONF:81-19165;CONF:81-9279;CONF:81-9280;CONF:81-15923' },</v>
+        <v>{ 'id': '184', 'template_type': 'Entry', 'name': 'Referenced Frames Observation [2.16.840.1.113883.10.20.6.2.10[797-798', 'name2': 'Referenced Frames Observation', 'template': '2.16.840.1.113883.10.20.6.2.10', 'pageStart': '797', 'pages': '797-798', 'search': 'Referenced Frames Observation 2.16.840.1.113883.10.20.6.2.10 CONF:81-9276;CONF:81-9277;CONF:81-19164;CONF:81-19165;CONF:81-9279;CONF:81-9280;CONF:81-15923' },</v>
       </c>
       <c r="N185" t="str">
         <f t="shared" si="8"/>
@@ -14310,10 +14309,10 @@
       <c r="D186" t="s">
         <v>375</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186">
         <v>798</v>
       </c>
-      <c r="G186" s="4" t="str">
+      <c r="G186" s="3" t="str">
         <f>VLOOKUP(D186,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>798-803</v>
       </c>
@@ -14332,7 +14331,7 @@
       </c>
       <c r="M186" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:185, template_type:'Entry', name:'Result Observation  [2.16.840.1.113883.10.20.22.4.2[798-803', name2:'Result Observation ', template:'2.16.840.1.113883.10.20.22.4.2', pageStart:798, pages:'798-803', search:'Result Observation  2.16.840.1.113883.10.20.22.4.2 CONF:1198-7130;CONF:1198-7131;CONF:1198-7136;CONF:1198-9138;CONF:1198-32575;CONF:1198-7137;CONF:1198-7133;CONF:1198-19212;CONF:1198-7134;CONF:1198-14849;CONF:1198-7140;CONF:1198-7143;CONF:1198-31484;CONF:1198-31866;CONF:1198-32610;CONF:1198-7147;CONF:1198-32476;CONF:1198-7148;CONF:1198-7153;CONF:1198-7149;CONF:1198-7150;CONF:1198-7151;CONF:1198-7152;CONF:1198-32175' },</v>
+        <v>{ 'id': '185', 'template_type': 'Entry', 'name': 'Result Observation  [2.16.840.1.113883.10.20.22.4.2[798-803', 'name2': 'Result Observation ', 'template': '2.16.840.1.113883.10.20.22.4.2', 'pageStart': '798', 'pages': '798-803', 'search': 'Result Observation  2.16.840.1.113883.10.20.22.4.2 CONF:1198-7130;CONF:1198-7131;CONF:1198-7136;CONF:1198-9138;CONF:1198-32575;CONF:1198-7137;CONF:1198-7133;CONF:1198-19212;CONF:1198-7134;CONF:1198-14849;CONF:1198-7140;CONF:1198-7143;CONF:1198-31484;CONF:1198-31866;CONF:1198-32610;CONF:1198-7147;CONF:1198-32476;CONF:1198-7148;CONF:1198-7153;CONF:1198-7149;CONF:1198-7150;CONF:1198-7151;CONF:1198-7152;CONF:1198-32175' },</v>
       </c>
       <c r="N186" t="str">
         <f t="shared" si="8"/>
@@ -14352,10 +14351,10 @@
       <c r="D187" t="s">
         <v>377</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187">
         <v>803</v>
       </c>
-      <c r="G187" s="4" t="str">
+      <c r="G187" s="3" t="str">
         <f>VLOOKUP(D187,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>803-807</v>
       </c>
@@ -14374,7 +14373,7 @@
       </c>
       <c r="M187" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:186, template_type:'Entry', name:'Result Organizer   [2.16.840.1.113883.10.20.22.4.1[803-807', name2:'Result Organizer  ', template:'2.16.840.1.113883.10.20.22.4.1', pageStart:803, pages:'803-807', search:'Result Organizer   2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850' },</v>
+        <v>{ 'id': '186', 'template_type': 'Entry', 'name': 'Result Organizer   [2.16.840.1.113883.10.20.22.4.1[803-807', 'name2': 'Result Organizer  ', 'template': '2.16.840.1.113883.10.20.22.4.1', 'pageStart': '803', 'pages': '803-807', 'search': 'Result Organizer   2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850' },</v>
       </c>
       <c r="N187" t="str">
         <f t="shared" si="8"/>
@@ -14394,10 +14393,10 @@
       <c r="D188" t="s">
         <v>379</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188">
         <v>807</v>
       </c>
-      <c r="G188" s="4" t="str">
+      <c r="G188" s="3" t="str">
         <f>VLOOKUP(D188,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>807-823</v>
       </c>
@@ -14416,7 +14415,7 @@
       </c>
       <c r="M188" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:187, template_type:'Entry', name:'Risk Concern Act   [2.16.840.1.113883.10.20.22.4.136[807-823', name2:'Risk Concern Act  ', template:'2.16.840.1.113883.10.20.22.4.136', pageStart:807, pages:'807-823', search:'Risk Concern Act   2.16.840.1.113883.10.20.22.4.136 CONF:1198-32220;CONF:1198-32221;CONF:1198-32180;CONF:1198-32222;CONF:1198-32910;CONF:1198-32223;CONF:1198-32305;CONF:1198-32306;CONF:1198-32307;CONF:1198-32225;CONF:1198-32314;CONF:1198-32226;CONF:1198-32300;CONF:1198-32179;CONF:1198-32227;CONF:1198-32219;CONF:1198-32181;CONF:1198-32228;CONF:1198-32229;CONF:1198-32182;CONF:1198-32230;CONF:1198-32231;CONF:1198-32183;CONF:1198-32232;CONF:1198-32233;CONF:1198-32184;CONF:1198-32234;CONF:1198-32235;CONF:1198-32185;CONF:1198-32236;CONF:1198-32237;CONF:1198-32186;CONF:1198-32238;CONF:1198-32239;CONF:1198-32188;CONF:1198-32242;CONF:1198-32243;CONF:1198-32189;CONF:1198-32244;CONF:1198-32245;CONF:1198-32190;CONF:1198-32246;CONF:1198-32247;CONF:1198-32191;CONF:1198-32248;CONF:1198-32249;CONF:1198-32192;CONF:1198-32250;CONF:1198-32251;CONF:1198-32193;CONF:1198-32252;CONF:1198-32253;CONF:1198-32195;CONF:1198-32256;CONF:1198-32257;CONF:1198-32197;CONF:1198-32260;CONF:1198-32261;CONF:1198-32198;CONF:1198-32262;CONF:1198-32263;CONF:1198-32199;CONF:1198-32264;CONF:1198-32265;CONF:1198-32200;CONF:1198-32266;CONF:1198-32267;CONF:1198-32201;CONF:1198-32268;CONF:1198-32269;CONF:1198-32202;CONF:1198-32270;CONF:1198-32271;CONF:1198-32203;CONF:1198-32272;CONF:1198-32273;CONF:1198-32204;CONF:1198-32958;CONF:1198-32275;CONF:1198-32205;CONF:1198-32276;CONF:1198-32277;CONF:1198-32206;CONF:1198-32278;CONF:1198-32279;CONF:1198-32207;CONF:1198-32280;CONF:1198-32281;CONF:1198-32208;CONF:1198-32282;CONF:1198-32283;CONF:1198-32209;CONF:1198-32284;CONF:1198-32285;CONF:1198-32210;CONF:1198-32286;CONF:1198-32287;CONF:1198-32211;CONF:1198-32288;CONF:1198-32289;CONF:1198-32212;CONF:1198-32290;CONF:1198-32291;CONF:1198-32213;CONF:1198-32292;CONF:1198-32293;CONF:1198-32214;CONF:1198-32294;CONF:1198-32295;CONF:1198-32215;CONF:1198-32296;CONF:1198-32297;CONF:1198-32216;CONF:1198-32298;CONF:1198-32299;CONF:1198-32217;CONF:1198-32301;CONF:1198-32302;CONF:1198-32769;CONF:1198-32908;CONF:1198-32909' },</v>
+        <v>{ 'id': '187', 'template_type': 'Entry', 'name': 'Risk Concern Act   [2.16.840.1.113883.10.20.22.4.136[807-823', 'name2': 'Risk Concern Act  ', 'template': '2.16.840.1.113883.10.20.22.4.136', 'pageStart': '807', 'pages': '807-823', 'search': 'Risk Concern Act   2.16.840.1.113883.10.20.22.4.136 CONF:1198-32220;CONF:1198-32221;CONF:1198-32180;CONF:1198-32222;CONF:1198-32910;CONF:1198-32223;CONF:1198-32305;CONF:1198-32306;CONF:1198-32307;CONF:1198-32225;CONF:1198-32314;CONF:1198-32226;CONF:1198-32300;CONF:1198-32179;CONF:1198-32227;CONF:1198-32219;CONF:1198-32181;CONF:1198-32228;CONF:1198-32229;CONF:1198-32182;CONF:1198-32230;CONF:1198-32231;CONF:1198-32183;CONF:1198-32232;CONF:1198-32233;CONF:1198-32184;CONF:1198-32234;CONF:1198-32235;CONF:1198-32185;CONF:1198-32236;CONF:1198-32237;CONF:1198-32186;CONF:1198-32238;CONF:1198-32239;CONF:1198-32188;CONF:1198-32242;CONF:1198-32243;CONF:1198-32189;CONF:1198-32244;CONF:1198-32245;CONF:1198-32190;CONF:1198-32246;CONF:1198-32247;CONF:1198-32191;CONF:1198-32248;CONF:1198-32249;CONF:1198-32192;CONF:1198-32250;CONF:1198-32251;CONF:1198-32193;CONF:1198-32252;CONF:1198-32253;CONF:1198-32195;CONF:1198-32256;CONF:1198-32257;CONF:1198-32197;CONF:1198-32260;CONF:1198-32261;CONF:1198-32198;CONF:1198-32262;CONF:1198-32263;CONF:1198-32199;CONF:1198-32264;CONF:1198-32265;CONF:1198-32200;CONF:1198-32266;CONF:1198-32267;CONF:1198-32201;CONF:1198-32268;CONF:1198-32269;CONF:1198-32202;CONF:1198-32270;CONF:1198-32271;CONF:1198-32203;CONF:1198-32272;CONF:1198-32273;CONF:1198-32204;CONF:1198-32958;CONF:1198-32275;CONF:1198-32205;CONF:1198-32276;CONF:1198-32277;CONF:1198-32206;CONF:1198-32278;CONF:1198-32279;CONF:1198-32207;CONF:1198-32280;CONF:1198-32281;CONF:1198-32208;CONF:1198-32282;CONF:1198-32283;CONF:1198-32209;CONF:1198-32284;CONF:1198-32285;CONF:1198-32210;CONF:1198-32286;CONF:1198-32287;CONF:1198-32211;CONF:1198-32288;CONF:1198-32289;CONF:1198-32212;CONF:1198-32290;CONF:1198-32291;CONF:1198-32213;CONF:1198-32292;CONF:1198-32293;CONF:1198-32214;CONF:1198-32294;CONF:1198-32295;CONF:1198-32215;CONF:1198-32296;CONF:1198-32297;CONF:1198-32216;CONF:1198-32298;CONF:1198-32299;CONF:1198-32217;CONF:1198-32301;CONF:1198-32302;CONF:1198-32769;CONF:1198-32908;CONF:1198-32909' },</v>
       </c>
       <c r="N188" t="str">
         <f t="shared" si="8"/>
@@ -14436,10 +14435,10 @@
       <c r="D189" t="s">
         <v>381</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189">
         <v>823</v>
       </c>
-      <c r="G189" s="4" t="str">
+      <c r="G189" s="3" t="str">
         <f>VLOOKUP(D189,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>823-826</v>
       </c>
@@ -14458,7 +14457,7 @@
       </c>
       <c r="M189" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:188, template_type:'Entry', name:'Self-Care Activities (ADL and IADL) [2.16.840.1.113883.10.20.22.4.128[823-826', name2:'Self-Care Activities (ADL and IADL)', template:'2.16.840.1.113883.10.20.22.4.128', pageStart:823, pages:'823-826', search:'Self-Care Activities (ADL and IADL) 2.16.840.1.113883.10.20.22.4.128 CONF:1098-31389;CONF:1098-31390;CONF:1098-28190;CONF:1098-28457;CONF:1098-28153;CONF:1098-32490;CONF:1098-32491;CONF:1098-32492;CONF:1098-28042;CONF:1098-32469' },</v>
+        <v>{ 'id': '188', 'template_type': 'Entry', 'name': 'Self-Care Activities (ADL and IADL) [2.16.840.1.113883.10.20.22.4.128[823-826', 'name2': 'Self-Care Activities (ADL and IADL)', 'template': '2.16.840.1.113883.10.20.22.4.128', 'pageStart': '823', 'pages': '823-826', 'search': 'Self-Care Activities (ADL and IADL) 2.16.840.1.113883.10.20.22.4.128 CONF:1098-31389;CONF:1098-31390;CONF:1098-28190;CONF:1098-28457;CONF:1098-28153;CONF:1098-32490;CONF:1098-32491;CONF:1098-32492;CONF:1098-28042;CONF:1098-32469' },</v>
       </c>
       <c r="N189" t="str">
         <f t="shared" si="8"/>
@@ -14478,10 +14477,10 @@
       <c r="D190" t="s">
         <v>383</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190">
         <v>826</v>
       </c>
-      <c r="G190" s="4" t="str">
+      <c r="G190" s="3" t="str">
         <f>VLOOKUP(D190,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>826-831</v>
       </c>
@@ -14500,7 +14499,7 @@
       </c>
       <c r="M190" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:189, template_type:'Entry', name:'Sensory Status [2.16.840.1.113883.10.20.22.4.127[826-831', name2:'Sensory Status', template:'2.16.840.1.113883.10.20.22.4.127', pageStart:826, pages:'826-831', search:'Sensory Status 2.16.840.1.113883.10.20.22.4.127 CONF:1098-31017;CONF:1098-31018;CONF:1098-27959;CONF:1098-27960;CONF:1098-27962;CONF:1098-31437;CONF:1098-31438;CONF:1098-31441;CONF:1098-32630;CONF:1098-32631;CONF:1098-27974;CONF:1098-31439;CONF:1098-27984;CONF:1098-27985;CONF:1098-27986' },</v>
+        <v>{ 'id': '189', 'template_type': 'Entry', 'name': 'Sensory Status [2.16.840.1.113883.10.20.22.4.127[826-831', 'name2': 'Sensory Status', 'template': '2.16.840.1.113883.10.20.22.4.127', 'pageStart': '826', 'pages': '826-831', 'search': 'Sensory Status 2.16.840.1.113883.10.20.22.4.127 CONF:1098-31017;CONF:1098-31018;CONF:1098-27959;CONF:1098-27960;CONF:1098-27962;CONF:1098-31437;CONF:1098-31438;CONF:1098-31441;CONF:1098-32630;CONF:1098-32631;CONF:1098-27974;CONF:1098-31439;CONF:1098-27984;CONF:1098-27985;CONF:1098-27986' },</v>
       </c>
       <c r="N190" t="str">
         <f t="shared" si="8"/>
@@ -14520,10 +14519,10 @@
       <c r="D191" t="s">
         <v>385</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191">
         <v>831</v>
       </c>
-      <c r="G191" s="4" t="str">
+      <c r="G191" s="3" t="str">
         <f>VLOOKUP(D191,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>831-834</v>
       </c>
@@ -14542,7 +14541,7 @@
       </c>
       <c r="M191" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:190, template_type:'Entry', name:'Series Act  [2.16.840.1.113883.10.20.22.4.63[831-834', name2:'Series Act ', template:'2.16.840.1.113883.10.20.22.4.63', pageStart:831, pages:'831-834', search:'Series Act  2.16.840.1.113883.10.20.22.4.63 CONF:81-9222;CONF:81-9223;CONF:81-10918;CONF:81-10919;CONF:81-9224;CONF:81-9225;CONF:81-9226;CONF:81-19166;CONF:81-19167;CONF:81-26461;CONF:81-26462;CONF:81-26463;CONF:81-26464;CONF:81-26465;CONF:81-26466;CONF:81-9233;CONF:81-9235;CONF:81-9237;CONF:81-9238;CONF:81-15927' },</v>
+        <v>{ 'id': '190', 'template_type': 'Entry', 'name': 'Series Act  [2.16.840.1.113883.10.20.22.4.63[831-834', 'name2': 'Series Act ', 'template': '2.16.840.1.113883.10.20.22.4.63', 'pageStart': '831', 'pages': '831-834', 'search': 'Series Act  2.16.840.1.113883.10.20.22.4.63 CONF:81-9222;CONF:81-9223;CONF:81-10918;CONF:81-10919;CONF:81-9224;CONF:81-9225;CONF:81-9226;CONF:81-19166;CONF:81-19167;CONF:81-26461;CONF:81-26462;CONF:81-26463;CONF:81-26464;CONF:81-26465;CONF:81-26466;CONF:81-9233;CONF:81-9235;CONF:81-9237;CONF:81-9238;CONF:81-15927' },</v>
       </c>
       <c r="N191" t="str">
         <f t="shared" si="8"/>
@@ -14562,10 +14561,10 @@
       <c r="D192" t="s">
         <v>387</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192">
         <v>834</v>
       </c>
-      <c r="G192" s="4" t="str">
+      <c r="G192" s="3" t="str">
         <f>VLOOKUP(D192,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>834-837</v>
       </c>
@@ -14584,7 +14583,7 @@
       </c>
       <c r="M192" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:191, template_type:'Entry', name:'Service Delivery Location [2.16.840.1.113883.10.20.22.4.32[834-837', name2:'Service Delivery Location', template:'2.16.840.1.113883.10.20.22.4.32', pageStart:834, pages:'834-837', search:'Service Delivery Location 2.16.840.1.113883.10.20.22.4.32 CONF:81-7758;CONF:81-7635;CONF:81-10524;CONF:81-16850;CONF:81-7760;CONF:81-7761;CONF:81-7762;CONF:81-7763;CONF:81-16037' },</v>
+        <v>{ 'id': '191', 'template_type': 'Entry', 'name': 'Service Delivery Location [2.16.840.1.113883.10.20.22.4.32[834-837', 'name2': 'Service Delivery Location', 'template': '2.16.840.1.113883.10.20.22.4.32', 'pageStart': '834', 'pages': '834-837', 'search': 'Service Delivery Location 2.16.840.1.113883.10.20.22.4.32 CONF:81-7758;CONF:81-7635;CONF:81-10524;CONF:81-16850;CONF:81-7760;CONF:81-7761;CONF:81-7762;CONF:81-7763;CONF:81-16037' },</v>
       </c>
       <c r="N192" t="str">
         <f t="shared" si="8"/>
@@ -14604,10 +14603,10 @@
       <c r="D193" t="s">
         <v>389</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193">
         <v>837</v>
       </c>
-      <c r="G193" s="4" t="str">
+      <c r="G193" s="3" t="str">
         <f>VLOOKUP(D193,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>837-840</v>
       </c>
@@ -14626,7 +14625,7 @@
       </c>
       <c r="M193" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:192, template_type:'Entry', name:'Severity Observation   [2.16.840.1.113883.10.20.22.4.8[837-840', name2:'Severity Observation  ', template:'2.16.840.1.113883.10.20.22.4.8', pageStart:837, pages:'837-840', search:'Severity Observation   2.16.840.1.113883.10.20.22.4.8 CONF:1098-7345;CONF:1098-7346;CONF:1098-7347;CONF:1098-10525;CONF:1098-32577;CONF:1098-19168;CONF:1098-19169;CONF:1098-32170;CONF:1098-7352;CONF:1098-19115;CONF:1098-7356' },</v>
+        <v>{ 'id': '192', 'template_type': 'Entry', 'name': 'Severity Observation   [2.16.840.1.113883.10.20.22.4.8[837-840', 'name2': 'Severity Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.8', 'pageStart': '837', 'pages': '837-840', 'search': 'Severity Observation   2.16.840.1.113883.10.20.22.4.8 CONF:1098-7345;CONF:1098-7346;CONF:1098-7347;CONF:1098-10525;CONF:1098-32577;CONF:1098-19168;CONF:1098-19169;CONF:1098-32170;CONF:1098-7352;CONF:1098-19115;CONF:1098-7356' },</v>
       </c>
       <c r="N193" t="str">
         <f t="shared" si="8"/>
@@ -14646,10 +14645,10 @@
       <c r="D194" t="s">
         <v>391</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194">
         <v>840</v>
       </c>
-      <c r="G194" s="4" t="str">
+      <c r="G194" s="3" t="str">
         <f>VLOOKUP(D194,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>840-844</v>
       </c>
@@ -14668,7 +14667,7 @@
       </c>
       <c r="M194" t="str">
         <f t="shared" si="7"/>
-        <v>{ id:193, template_type:'Entry', name:'Smoking Status - Meaningful Use  [2.16.840.1.113883.10.20.22.4.78[840-844', name2:'Smoking Status - Meaningful Use ', template:'2.16.840.1.113883.10.20.22.4.78', pageStart:840, pages:'840-844', search:'Smoking Status - Meaningful Use  2.16.840.1.113883.10.20.22.4.78 CONF:1098-14806;CONF:1098-14807;CONF:1098-14815;CONF:1098-14816;CONF:1098-32573;CONF:1098-32401;CONF:1098-19170;CONF:1098-31039;CONF:1098-32157;CONF:1098-14809;CONF:1098-19116;CONF:1098-31928;CONF:1098-32894;CONF:1098-32895;CONF:1098-32896;CONF:1098-32897;CONF:1098-14810;CONF:1098-14817;CONF:1098-31019;CONF:1098-31148' },</v>
+        <v>{ 'id': '193', 'template_type': 'Entry', 'name': 'Smoking Status - Meaningful Use  [2.16.840.1.113883.10.20.22.4.78[840-844', 'name2': 'Smoking Status - Meaningful Use ', 'template': '2.16.840.1.113883.10.20.22.4.78', 'pageStart': '840', 'pages': '840-844', 'search': 'Smoking Status - Meaningful Use  2.16.840.1.113883.10.20.22.4.78 CONF:1098-14806;CONF:1098-14807;CONF:1098-14815;CONF:1098-14816;CONF:1098-32573;CONF:1098-32401;CONF:1098-19170;CONF:1098-31039;CONF:1098-32157;CONF:1098-14809;CONF:1098-19116;CONF:1098-31928;CONF:1098-32894;CONF:1098-32895;CONF:1098-32896;CONF:1098-32897;CONF:1098-14810;CONF:1098-14817;CONF:1098-31019;CONF:1098-31148' },</v>
       </c>
       <c r="N194" t="str">
         <f t="shared" si="8"/>
@@ -14688,10 +14687,10 @@
       <c r="D195" t="s">
         <v>393</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195">
         <v>844</v>
       </c>
-      <c r="G195" s="4" t="str">
+      <c r="G195" s="3" t="str">
         <f>VLOOKUP(D195,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>844-848</v>
       </c>
@@ -14709,8 +14708,8 @@
         <v>Social History Observation   2.16.840.1.113883.10.20.22.4.38 CONF:1198-8548;CONF:1198-8549;CONF:1198-8550;CONF:1198-10526;CONF:1198-32495;CONF:1198-8551;CONF:1198-8558;CONF:1198-32951;CONF:1198-8553;CONF:1198-19117;CONF:1198-31868;CONF:1198-8559;CONF:1198-8555;CONF:1198-31869</v>
       </c>
       <c r="M195" t="str">
-        <f t="shared" ref="M195:M240" si="10">"{ id:"&amp;A195&amp;", template_type:'"&amp;C195&amp;"', name:'"&amp;B195&amp;" ["&amp;D195&amp;"["&amp;G195&amp;"', name2:'"&amp;B195&amp;"', template:'"&amp;D195&amp;"', pageStart:"&amp;E195&amp;", pages:'"&amp;G195&amp;"', search:'"&amp;K195&amp;"' },"</f>
-        <v>{ id:194, template_type:'Entry', name:'Social History Observation   [2.16.840.1.113883.10.20.22.4.38[844-848', name2:'Social History Observation  ', template:'2.16.840.1.113883.10.20.22.4.38', pageStart:844, pages:'844-848', search:'Social History Observation   2.16.840.1.113883.10.20.22.4.38 CONF:1198-8548;CONF:1198-8549;CONF:1198-8550;CONF:1198-10526;CONF:1198-32495;CONF:1198-8551;CONF:1198-8558;CONF:1198-32951;CONF:1198-8553;CONF:1198-19117;CONF:1198-31868;CONF:1198-8559;CONF:1198-8555;CONF:1198-31869' },</v>
+        <f t="shared" ref="M195:M240" si="10">"{ 'id': '"&amp;A195&amp;"', 'template_type': '"&amp;C195&amp;"', 'name': '"&amp;B195&amp;" ["&amp;D195&amp;"["&amp;G195&amp;"', 'name2': '"&amp;B195&amp;"', 'template': '"&amp;D195&amp;"', 'pageStart': '"&amp;E195&amp;"', 'pages': '"&amp;G195&amp;"', 'search': '"&amp;K195&amp;"' },"</f>
+        <v>{ 'id': '194', 'template_type': 'Entry', 'name': 'Social History Observation   [2.16.840.1.113883.10.20.22.4.38[844-848', 'name2': 'Social History Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.38', 'pageStart': '844', 'pages': '844-848', 'search': 'Social History Observation   2.16.840.1.113883.10.20.22.4.38 CONF:1198-8548;CONF:1198-8549;CONF:1198-8550;CONF:1198-10526;CONF:1198-32495;CONF:1198-8551;CONF:1198-8558;CONF:1198-32951;CONF:1198-8553;CONF:1198-19117;CONF:1198-31868;CONF:1198-8559;CONF:1198-8555;CONF:1198-31869' },</v>
       </c>
       <c r="N195" t="str">
         <f t="shared" ref="N195:N216" si="11">"'"&amp;D195&amp;"',"</f>
@@ -14730,10 +14729,10 @@
       <c r="D196" t="s">
         <v>395</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196">
         <v>848</v>
       </c>
-      <c r="G196" s="4" t="str">
+      <c r="G196" s="3" t="str">
         <f>VLOOKUP(D196,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>848-851</v>
       </c>
@@ -14752,7 +14751,7 @@
       </c>
       <c r="M196" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:195, template_type:'Entry', name:'SOP Instance Observation [2.16.840.1.113883.10.20.6.2.8[848-851', name2:'SOP Instance Observation', template:'2.16.840.1.113883.10.20.6.2.8', pageStart:848, pages:'848-851', search:'SOP Instance Observation 2.16.840.1.113883.10.20.6.2.8 CONF:81-9240;CONF:81-9241;CONF:81-9242;CONF:81-9244;CONF:81-19225;CONF:81-19226;CONF:81-19227;CONF:81-9246;CONF:81-9247;CONF:81-9248;CONF:81-9249;CONF:81-9250;CONF:81-9251;CONF:81-9252;CONF:81-9253;CONF:81-9254;CONF:81-9255;CONF:81-9257;CONF:81-9258;CONF:81-15935;CONF:81-9260;CONF:81-9261;CONF:81-15936;CONF:81-9263' },</v>
+        <v>{ 'id': '195', 'template_type': 'Entry', 'name': 'SOP Instance Observation [2.16.840.1.113883.10.20.6.2.8[848-851', 'name2': 'SOP Instance Observation', 'template': '2.16.840.1.113883.10.20.6.2.8', 'pageStart': '848', 'pages': '848-851', 'search': 'SOP Instance Observation 2.16.840.1.113883.10.20.6.2.8 CONF:81-9240;CONF:81-9241;CONF:81-9242;CONF:81-9244;CONF:81-19225;CONF:81-19226;CONF:81-19227;CONF:81-9246;CONF:81-9247;CONF:81-9248;CONF:81-9249;CONF:81-9250;CONF:81-9251;CONF:81-9252;CONF:81-9253;CONF:81-9254;CONF:81-9255;CONF:81-9257;CONF:81-9258;CONF:81-15935;CONF:81-9260;CONF:81-9261;CONF:81-15936;CONF:81-9263' },</v>
       </c>
       <c r="N196" t="str">
         <f t="shared" si="11"/>
@@ -14772,10 +14771,10 @@
       <c r="D197" t="s">
         <v>397</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197">
         <v>851</v>
       </c>
-      <c r="G197" s="4" t="str">
+      <c r="G197" s="3" t="str">
         <f>VLOOKUP(D197,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>851-853</v>
       </c>
@@ -14794,7 +14793,7 @@
       </c>
       <c r="M197" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:196, template_type:'Entry', name:'Study Act [2.16.840.1.113883.10.20.6.2.6[851-853', name2:'Study Act', template:'2.16.840.1.113883.10.20.6.2.6', pageStart:851, pages:'851-853', search:'Study Act 2.16.840.1.113883.10.20.6.2.6 CONF:81-9207;CONF:81-9208;CONF:81-9209;CONF:81-10533;CONF:81-9210;CONF:81-9213;CONF:81-9211;CONF:81-19172;CONF:81-19173;CONF:81-26506;CONF:81-9215;CONF:81-15995;CONF:81-15996;CONF:81-15997;CONF:81-9216;CONF:81-9219;CONF:81-9220;CONF:81-15937' },</v>
+        <v>{ 'id': '196', 'template_type': 'Entry', 'name': 'Study Act [2.16.840.1.113883.10.20.6.2.6[851-853', 'name2': 'Study Act', 'template': '2.16.840.1.113883.10.20.6.2.6', 'pageStart': '851', 'pages': '851-853', 'search': 'Study Act 2.16.840.1.113883.10.20.6.2.6 CONF:81-9207;CONF:81-9208;CONF:81-9209;CONF:81-10533;CONF:81-9210;CONF:81-9213;CONF:81-9211;CONF:81-19172;CONF:81-19173;CONF:81-26506;CONF:81-9215;CONF:81-15995;CONF:81-15996;CONF:81-15997;CONF:81-9216;CONF:81-9219;CONF:81-9220;CONF:81-15937' },</v>
       </c>
       <c r="N197" t="str">
         <f t="shared" si="11"/>
@@ -14814,10 +14813,10 @@
       <c r="D198" t="s">
         <v>399</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198">
         <v>853</v>
       </c>
-      <c r="G198" s="4" t="str">
+      <c r="G198" s="3" t="str">
         <f>VLOOKUP(D198,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>853-855</v>
       </c>
@@ -14836,7 +14835,7 @@
       </c>
       <c r="M198" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:197, template_type:'Entry', name:'Substance Administered Act [2.16.840.1.113883.10.20.22.4.118[853-855', name2:'Substance Administered Act', template:'2.16.840.1.113883.10.20.22.4.118', pageStart:853, pages:'853-855', search:'Substance Administered Act 2.16.840.1.113883.10.20.22.4.118 CONF:1098-31500;CONF:1098-31501;CONF:1098-31502;CONF:1098-31503;CONF:1098-31504;CONF:1098-31506;CONF:1098-31507;CONF:1098-31508;CONF:1098-31505;CONF:1098-31509' },</v>
+        <v>{ 'id': '197', 'template_type': 'Entry', 'name': 'Substance Administered Act [2.16.840.1.113883.10.20.22.4.118[853-855', 'name2': 'Substance Administered Act', 'template': '2.16.840.1.113883.10.20.22.4.118', 'pageStart': '853', 'pages': '853-855', 'search': 'Substance Administered Act 2.16.840.1.113883.10.20.22.4.118 CONF:1098-31500;CONF:1098-31501;CONF:1098-31502;CONF:1098-31503;CONF:1098-31504;CONF:1098-31506;CONF:1098-31507;CONF:1098-31508;CONF:1098-31505;CONF:1098-31509' },</v>
       </c>
       <c r="N198" t="str">
         <f t="shared" si="11"/>
@@ -14856,10 +14855,10 @@
       <c r="D199" t="s">
         <v>401</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199">
         <v>855</v>
       </c>
-      <c r="G199" s="4" t="str">
+      <c r="G199" s="3" t="str">
         <f>VLOOKUP(D199,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>855-862</v>
       </c>
@@ -14878,7 +14877,7 @@
       </c>
       <c r="M199" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:198, template_type:'Entry', name:'Substance or Device Allergy - Intolerance Observation   [2.16.840.1.113883.10.20.24.3.90[855-862', name2:'Substance or Device Allergy - Intolerance Observation  ', template:'2.16.840.1.113883.10.20.24.3.90', pageStart:855, pages:'855-862', search:'Substance or Device Allergy - Intolerance Observation   2.16.840.1.113883.10.20.24.3.90 CONF:1098-16303;CONF:1098-16304;CONF:1098-16305;CONF:1098-16306;CONF:1098-32527;CONF:1098-16307;CONF:1098-16345;CONF:1098-16346;CONF:1098-32171;CONF:1098-16308;CONF:1098-26354;CONF:1098-16309;CONF:1098-31536;CONF:1098-31537;CONF:1098-16312;CONF:1098-16317;CONF:1098-31144;CONF:1098-16318;CONF:1098-16319;CONF:1098-16320;CONF:1098-16321;CONF:1098-16322;CONF:1098-16323;CONF:1098-16324;CONF:1098-16333;CONF:1098-16335;CONF:1098-16334;CONF:1098-16336;CONF:1098-16337;CONF:1098-16339;CONF:1098-16338;CONF:1098-16340;CONF:1098-16341;CONF:1098-16342;CONF:1098-16343;CONF:1098-16344;CONF:1098-32935;CONF:1098-32936;CONF:1098-32937;CONF:1098-32938' },</v>
+        <v>{ 'id': '198', 'template_type': 'Entry', 'name': 'Substance or Device Allergy - Intolerance Observation   [2.16.840.1.113883.10.20.24.3.90[855-862', 'name2': 'Substance or Device Allergy - Intolerance Observation  ', 'template': '2.16.840.1.113883.10.20.24.3.90', 'pageStart': '855', 'pages': '855-862', 'search': 'Substance or Device Allergy - Intolerance Observation   2.16.840.1.113883.10.20.24.3.90 CONF:1098-16303;CONF:1098-16304;CONF:1098-16305;CONF:1098-16306;CONF:1098-32527;CONF:1098-16307;CONF:1098-16345;CONF:1098-16346;CONF:1098-32171;CONF:1098-16308;CONF:1098-26354;CONF:1098-16309;CONF:1098-31536;CONF:1098-31537;CONF:1098-16312;CONF:1098-16317;CONF:1098-31144;CONF:1098-16318;CONF:1098-16319;CONF:1098-16320;CONF:1098-16321;CONF:1098-16322;CONF:1098-16323;CONF:1098-16324;CONF:1098-16333;CONF:1098-16335;CONF:1098-16334;CONF:1098-16336;CONF:1098-16337;CONF:1098-16339;CONF:1098-16338;CONF:1098-16340;CONF:1098-16341;CONF:1098-16342;CONF:1098-16343;CONF:1098-16344;CONF:1098-32935;CONF:1098-32936;CONF:1098-32937;CONF:1098-32938' },</v>
       </c>
       <c r="N199" t="str">
         <f t="shared" si="11"/>
@@ -14898,10 +14897,10 @@
       <c r="D200" t="s">
         <v>403</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200">
         <v>862</v>
       </c>
-      <c r="G200" s="4" t="str">
+      <c r="G200" s="3" t="str">
         <f>VLOOKUP(D200,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>862-868</v>
       </c>
@@ -14920,7 +14919,7 @@
       </c>
       <c r="M200" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:199, template_type:'Entry', name:'Allergy - Intolerance Observation  [2.16.840.1.113883.10.20.22.4.7[862-868', name2:'Allergy - Intolerance Observation ', template:'2.16.840.1.113883.10.20.22.4.7', pageStart:862, pages:'862-868', search:'Allergy - Intolerance Observation  2.16.840.1.113883.10.20.22.4.7 CONF:1098-7379;CONF:1098-7380;CONF:1098-31526;CONF:1098-7381;CONF:1098-10488;CONF:1098-32526;CONF:1098-7382;CONF:1098-15947;CONF:1098-15948;CONF:1098-32153;CONF:1098-19084;CONF:1098-19085;CONF:1098-7387;CONF:1098-31538;CONF:1098-31539;CONF:1098-7390;CONF:1098-31143;CONF:1098-7402;CONF:1098-7403;CONF:1098-7404;CONF:1098-7405;CONF:1098-7406;CONF:1098-7407;CONF:1098-7419;CONF:1098-32939;CONF:1098-32940;CONF:1098-32941;CONF:1098-32942;CONF:1098-9961;CONF:1098-9962;CONF:1098-9964;CONF:1098-15956;CONF:1098-7447;CONF:1098-7907;CONF:1098-7449;CONF:1098-15955;CONF:1098-32910;CONF:1098-32911;CONF:1098-32912;CONF:1098-32913' },</v>
+        <v>{ 'id': '199', 'template_type': 'Entry', 'name': 'Allergy - Intolerance Observation  [2.16.840.1.113883.10.20.22.4.7[862-868', 'name2': 'Allergy - Intolerance Observation ', 'template': '2.16.840.1.113883.10.20.22.4.7', 'pageStart': '862', 'pages': '862-868', 'search': 'Allergy - Intolerance Observation  2.16.840.1.113883.10.20.22.4.7 CONF:1098-7379;CONF:1098-7380;CONF:1098-31526;CONF:1098-7381;CONF:1098-10488;CONF:1098-32526;CONF:1098-7382;CONF:1098-15947;CONF:1098-15948;CONF:1098-32153;CONF:1098-19084;CONF:1098-19085;CONF:1098-7387;CONF:1098-31538;CONF:1098-31539;CONF:1098-7390;CONF:1098-31143;CONF:1098-7402;CONF:1098-7403;CONF:1098-7404;CONF:1098-7405;CONF:1098-7406;CONF:1098-7407;CONF:1098-7419;CONF:1098-32939;CONF:1098-32940;CONF:1098-32941;CONF:1098-32942;CONF:1098-9961;CONF:1098-9962;CONF:1098-9964;CONF:1098-15956;CONF:1098-7447;CONF:1098-7907;CONF:1098-7449;CONF:1098-15955;CONF:1098-32910;CONF:1098-32911;CONF:1098-32912;CONF:1098-32913' },</v>
       </c>
       <c r="N200" t="str">
         <f t="shared" si="11"/>
@@ -14940,10 +14939,10 @@
       <c r="D201" t="s">
         <v>405</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201">
         <v>868</v>
       </c>
-      <c r="G201" s="4" t="str">
+      <c r="G201" s="3" t="str">
         <f>VLOOKUP(D201,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>868-871</v>
       </c>
@@ -14962,7 +14961,7 @@
       </c>
       <c r="M201" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:200, template_type:'Entry', name:'Text Observation [2.16.840.1.113883.10.20.6.2.12[868-871', name2:'Text Observation', template:'2.16.840.1.113883.10.20.6.2.12', pageStart:868, pages:'868-871', search:'Text Observation 2.16.840.1.113883.10.20.6.2.12 CONF:81-9288;CONF:81-9289;CONF:81-9290;CONF:81-10534;CONF:81-9291;CONF:81-9295;CONF:81-15938;CONF:81-15939;CONF:81-15940;CONF:81-9294;CONF:81-9292;CONF:81-9298;CONF:81-9299;CONF:81-15941;CONF:81-9301;CONF:81-9302;CONF:81-15942' },</v>
+        <v>{ 'id': '200', 'template_type': 'Entry', 'name': 'Text Observation [2.16.840.1.113883.10.20.6.2.12[868-871', 'name2': 'Text Observation', 'template': '2.16.840.1.113883.10.20.6.2.12', 'pageStart': '868', 'pages': '868-871', 'search': 'Text Observation 2.16.840.1.113883.10.20.6.2.12 CONF:81-9288;CONF:81-9289;CONF:81-9290;CONF:81-10534;CONF:81-9291;CONF:81-9295;CONF:81-15938;CONF:81-15939;CONF:81-15940;CONF:81-9294;CONF:81-9292;CONF:81-9298;CONF:81-9299;CONF:81-15941;CONF:81-9301;CONF:81-9302;CONF:81-15942' },</v>
       </c>
       <c r="N201" t="str">
         <f t="shared" si="11"/>
@@ -14982,10 +14981,10 @@
       <c r="D202" t="s">
         <v>407</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202">
         <v>871</v>
       </c>
-      <c r="G202" s="4" t="str">
+      <c r="G202" s="3" t="str">
         <f>VLOOKUP(D202,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>871-875</v>
       </c>
@@ -15004,7 +15003,7 @@
       </c>
       <c r="M202" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:201, template_type:'Entry', name:'Tobacco Use  [2.16.840.1.113883.10.20.22.4.85[871-875', name2:'Tobacco Use ', template:'2.16.840.1.113883.10.20.22.4.85', pageStart:871, pages:'871-875', search:'Tobacco Use  2.16.840.1.113883.10.20.22.4.85 CONF:1098-16558;CONF:1098-16559;CONF:1098-16566;CONF:1098-16567;CONF:1098-32589;CONF:1098-32400;CONF:1098-19174;CONF:1098-19175;CONF:1098-32172;CONF:1098-16561;CONF:1098-19118;CONF:1098-16564;CONF:1098-16565;CONF:1098-31431;CONF:1098-16562;CONF:1098-31152' },</v>
+        <v>{ 'id': '201', 'template_type': 'Entry', 'name': 'Tobacco Use  [2.16.840.1.113883.10.20.22.4.85[871-875', 'name2': 'Tobacco Use ', 'template': '2.16.840.1.113883.10.20.22.4.85', 'pageStart': '871', 'pages': '871-875', 'search': 'Tobacco Use  2.16.840.1.113883.10.20.22.4.85 CONF:1098-16558;CONF:1098-16559;CONF:1098-16566;CONF:1098-16567;CONF:1098-32589;CONF:1098-32400;CONF:1098-19174;CONF:1098-19175;CONF:1098-32172;CONF:1098-16561;CONF:1098-19118;CONF:1098-16564;CONF:1098-16565;CONF:1098-31431;CONF:1098-16562;CONF:1098-31152' },</v>
       </c>
       <c r="N202" t="str">
         <f t="shared" si="11"/>
@@ -15024,10 +15023,10 @@
       <c r="D203" t="s">
         <v>409</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203">
         <v>875</v>
       </c>
-      <c r="G203" s="4" t="str">
+      <c r="G203" s="3" t="str">
         <f>VLOOKUP(D203,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>875-879</v>
       </c>
@@ -15046,7 +15045,7 @@
       </c>
       <c r="M203" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:202, template_type:'Entry', name:'Vital Sign Observation  [2.16.840.1.113883.10.20.22.4.27[875-879', name2:'Vital Sign Observation ', template:'2.16.840.1.113883.10.20.22.4.27', pageStart:875, pages:'875-879', search:'Vital Sign Observation  2.16.840.1.113883.10.20.22.4.27 CONF:1098-7297;CONF:1098-7298;CONF:1098-7299;CONF:1098-10527;CONF:1098-32574;CONF:1098-7300;CONF:1098-7301;CONF:1098-32934;CONF:1098-7303;CONF:1098-19119;CONF:1098-7304;CONF:1098-7305;CONF:1098-31579;CONF:1098-7307;CONF:1098-32886;CONF:1098-7308;CONF:1098-7309;CONF:1098-7310' },</v>
+        <v>{ 'id': '202', 'template_type': 'Entry', 'name': 'Vital Sign Observation  [2.16.840.1.113883.10.20.22.4.27[875-879', 'name2': 'Vital Sign Observation ', 'template': '2.16.840.1.113883.10.20.22.4.27', 'pageStart': '875', 'pages': '875-879', 'search': 'Vital Sign Observation  2.16.840.1.113883.10.20.22.4.27 CONF:1098-7297;CONF:1098-7298;CONF:1098-7299;CONF:1098-10527;CONF:1098-32574;CONF:1098-7300;CONF:1098-7301;CONF:1098-32934;CONF:1098-7303;CONF:1098-19119;CONF:1098-7304;CONF:1098-7305;CONF:1098-31579;CONF:1098-7307;CONF:1098-32886;CONF:1098-7308;CONF:1098-7309;CONF:1098-7310' },</v>
       </c>
       <c r="N203" t="str">
         <f t="shared" si="11"/>
@@ -15066,10 +15065,10 @@
       <c r="D204" t="s">
         <v>411</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204">
         <v>879</v>
       </c>
-      <c r="G204" s="4" t="str">
+      <c r="G204" s="3" t="str">
         <f>VLOOKUP(D204,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>879-883</v>
       </c>
@@ -15088,7 +15087,7 @@
       </c>
       <c r="M204" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:203, template_type:'Entry', name:'Vital Signs Organizer  [2.16.840.1.113883.10.20.22.4.26[879-883', name2:'Vital Signs Organizer ', template:'2.16.840.1.113883.10.20.22.4.26', pageStart:879, pages:'879-883', search:'Vital Signs Organizer  2.16.840.1.113883.10.20.22.4.26 CONF:1198-7279;CONF:1198-7280;CONF:1198-7281;CONF:1198-10528;CONF:1198-32582;CONF:1198-7282;CONF:1198-32740;CONF:1198-32741;CONF:1198-32742;CONF:1198-32743;CONF:1198-32744;CONF:1198-32746;CONF:1198-7284;CONF:1198-19120;CONF:1198-7288;CONF:1198-31153;CONF:1198-7285;CONF:1198-15946' },</v>
+        <v>{ 'id': '203', 'template_type': 'Entry', 'name': 'Vital Signs Organizer  [2.16.840.1.113883.10.20.22.4.26[879-883', 'name2': 'Vital Signs Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.26', 'pageStart': '879', 'pages': '879-883', 'search': 'Vital Signs Organizer  2.16.840.1.113883.10.20.22.4.26 CONF:1198-7279;CONF:1198-7280;CONF:1198-7281;CONF:1198-10528;CONF:1198-32582;CONF:1198-7282;CONF:1198-32740;CONF:1198-32741;CONF:1198-32742;CONF:1198-32743;CONF:1198-32744;CONF:1198-32746;CONF:1198-7284;CONF:1198-19120;CONF:1198-7288;CONF:1198-31153;CONF:1198-7285;CONF:1198-15946' },</v>
       </c>
       <c r="N204" t="str">
         <f t="shared" si="11"/>
@@ -15108,10 +15107,10 @@
       <c r="D205" t="s">
         <v>413</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205">
         <v>883</v>
       </c>
-      <c r="G205" s="4" t="str">
+      <c r="G205" s="3" t="str">
         <f>VLOOKUP(D205,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>883-885</v>
       </c>
@@ -15130,7 +15129,7 @@
       </c>
       <c r="M205" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:204, template_type:'Entry', name:'Wound Characteristic [2.16.840.1.113883.10.20.22.4.134[883-885', name2:'Wound Characteristic', template:'2.16.840.1.113883.10.20.22.4.134', pageStart:883, pages:'883-885', search:'Wound Characteristic 2.16.840.1.113883.10.20.22.4.134 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
+        <v>{ 'id': '204', 'template_type': 'Entry', 'name': 'Wound Characteristic [2.16.840.1.113883.10.20.22.4.134[883-885', 'name2': 'Wound Characteristic', 'template': '2.16.840.1.113883.10.20.22.4.134', 'pageStart': '883', 'pages': '883-885', 'search': 'Wound Characteristic 2.16.840.1.113883.10.20.22.4.134 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
       </c>
       <c r="N205" t="str">
         <f t="shared" si="11"/>
@@ -15150,10 +15149,10 @@
       <c r="D206" t="s">
         <v>653</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206">
         <v>885</v>
       </c>
-      <c r="G206" s="4" t="str">
+      <c r="G206" s="3" t="str">
         <f>VLOOKUP(D206,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>885-888</v>
       </c>
@@ -15172,7 +15171,7 @@
       </c>
       <c r="M206" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:205, template_type:'Entry', name:'Wound Measurement Observation [2.16.840.1.113883.10.20.22.4.133[885-888', name2:'Wound Measurement Observation', template:'2.16.840.1.113883.10.20.22.4.133', pageStart:885, pages:'885-888', search:'Wound Measurement Observation 2.16.840.1.113883.10.20.22.4.133 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
+        <v>{ 'id': '205', 'template_type': 'Entry', 'name': 'Wound Measurement Observation [2.16.840.1.113883.10.20.22.4.133[885-888', 'name2': 'Wound Measurement Observation', 'template': '2.16.840.1.113883.10.20.22.4.133', 'pageStart': '885', 'pages': '885-888', 'search': 'Wound Measurement Observation 2.16.840.1.113883.10.20.22.4.133 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
       </c>
       <c r="N206" t="str">
         <f t="shared" si="11"/>
@@ -15195,7 +15194,7 @@
       <c r="E207">
         <v>41</v>
       </c>
-      <c r="G207" s="4" t="str">
+      <c r="G207" s="3" t="str">
         <f>VLOOKUP(D207,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>41-87</v>
       </c>
@@ -15214,7 +15213,7 @@
       </c>
       <c r="M207" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:206, template_type:'Other', name:'US Realm Header  [2.16.840.1.113883.10.20.22.1.1[41-87', name2:'US Realm Header ', template:'2.16.840.1.113883.10.20.22.1.1', pageStart:41, pages:'41-87', search:'US Realm Header  2.16.840.1.113883.10.20.22.1.1 CONF:1198-16791;CONF:1198-5361;CONF:1198-5250;CONF:1198-5251;CONF:1198-5252;CONF:1198-10036;CONF:1198-32503;CONF:1198-5363;CONF:1198-9991;CONF:1198-5253;CONF:1198-9992;CONF:1198-32948;CONF:1198-5254;CONF:1198-5256;CONF:1198-5259;CONF:1198-5372;CONF:1198-5261;CONF:1198-6380;CONF:1198-5264;CONF:1198-6387;CONF:1198-5266;CONF:1198-5267;CONF:1198-5268;CONF:1198-5271;CONF:1198-5280;CONF:1198-5375;CONF:1198-5283;CONF:1198-5284;CONF:1198-6394;CONF:1198-5298;CONF:1198-5299;CONF:1198-5300;CONF:1198-32418;CONF:1198-5303;CONF:1198-5317;CONF:1198-5322;CONF:1198-7263;CONF:1198-31347;CONF:1198-5323;CONF:1198-32901;CONF:1198-5325;CONF:1198-5326;CONF:1198-5359;CONF:1198-5382;CONF:1198-7993;CONF:1198-5385;CONF:1198-5386;CONF:1198-5395;CONF:1198-5396;CONF:1198-5397;CONF:1198-5404;CONF:1198-5402;CONF:1198-5403;CONF:1198-5406;CONF:1198-5407;CONF:1198-5409;CONF:1198-9965;CONF:1198-5414;CONF:1198-5416;CONF:1198-5417;CONF:1198-16820;CONF:1198-5419;CONF:1198-5420;CONF:1198-7994;CONF:1198-5422;CONF:1198-5444;CONF:1198-5445;CONF:1198-5448;CONF:1198-5449;CONF:1198-32882;CONF:1198-32883;CONF:1198-32884;CONF:1198-32885;CONF:1198-16787;CONF:1198-16788;CONF:1198-5452;CONF:1198-5428;CONF:1198-7995;CONF:1198-5430;CONF:1198-16789;CONF:1198-16783;CONF:1198-16784;CONF:1198-16785;CONF:1198-16790;CONF:1198-5441;CONF:1198-5442;CONF:1198-5443;CONF:1198-16821;CONF:1198-32173;CONF:1198-5460;CONF:1198-5466;CONF:1198-7996;CONF:1198-5469;CONF:1198-5470;CONF:1198-8001;CONF:1198-8002;CONF:1198-9945;CONF:1198-9946;CONF:1198-32174;CONF:1198-8220;CONF:1198-8221;CONF:1198-8222;CONF:1198-31355;CONF:1198-31356;CONF:1198-5519;CONF:1198-5520;CONF:1198-5521;CONF:1198-5522;CONF:1198-16822;CONF:1198-5524;CONF:1198-5525;CONF:1198-7998;CONF:1198-5559;CONF:1198-5565;CONF:1198-5566;CONF:1198-32399;CONF:1198-5567;CONF:1198-5568;CONF:1198-5577;CONF:1198-5578;CONF:1198-5579;CONF:1198-5580;CONF:1198-5583;CONF:1198-5584;CONF:1198-30810;CONF:1198-5585;CONF:1198-5586;CONF:1198-16823;CONF:1198-17000;CONF:1198-5589;CONF:1198-5595;CONF:1198-7999;CONF:1198-5597;CONF:1198-5598;CONF:1198-5607;CONF:1198-5608;CONF:1198-5610;CONF:1198-5611;CONF:1198-30811;CONF:1198-5612;CONF:1198-5613;CONF:1198-16824;CONF:1198-16825;CONF:1198-16826;CONF:1198-5616;CONF:1198-5622;CONF:1198-8000;CONF:1198-5624;CONF:1198-5625;CONF:1198-10003;CONF:1198-10004;CONF:1198-10006;CONF:1198-10007;CONF:1198-9952;CONF:1198-9953;CONF:1198-9954;CONF:1198-14835;CONF:1198-14836;CONF:1198-14837;CONF:1198-14838;CONF:1198-14839;CONF:1198-14840;CONF:1198-16818;CONF:1198-32889;CONF:1198-14841;CONF:1198-14846;CONF:1198-14847;CONF:1198-14842;CONF:1198-16792;CONF:1198-16793;CONF:1198-16794;CONF:1198-16795;CONF:1198-16797;CONF:1198-16798;CONF:1198-9955;CONF:1198-9956;CONF:1198-9959;CONF:1198-9958' },</v>
+        <v>{ 'id': '206', 'template_type': 'Other', 'name': 'US Realm Header  [2.16.840.1.113883.10.20.22.1.1[41-87', 'name2': 'US Realm Header ', 'template': '2.16.840.1.113883.10.20.22.1.1', 'pageStart': '41', 'pages': '41-87', 'search': 'US Realm Header  2.16.840.1.113883.10.20.22.1.1 CONF:1198-16791;CONF:1198-5361;CONF:1198-5250;CONF:1198-5251;CONF:1198-5252;CONF:1198-10036;CONF:1198-32503;CONF:1198-5363;CONF:1198-9991;CONF:1198-5253;CONF:1198-9992;CONF:1198-32948;CONF:1198-5254;CONF:1198-5256;CONF:1198-5259;CONF:1198-5372;CONF:1198-5261;CONF:1198-6380;CONF:1198-5264;CONF:1198-6387;CONF:1198-5266;CONF:1198-5267;CONF:1198-5268;CONF:1198-5271;CONF:1198-5280;CONF:1198-5375;CONF:1198-5283;CONF:1198-5284;CONF:1198-6394;CONF:1198-5298;CONF:1198-5299;CONF:1198-5300;CONF:1198-32418;CONF:1198-5303;CONF:1198-5317;CONF:1198-5322;CONF:1198-7263;CONF:1198-31347;CONF:1198-5323;CONF:1198-32901;CONF:1198-5325;CONF:1198-5326;CONF:1198-5359;CONF:1198-5382;CONF:1198-7993;CONF:1198-5385;CONF:1198-5386;CONF:1198-5395;CONF:1198-5396;CONF:1198-5397;CONF:1198-5404;CONF:1198-5402;CONF:1198-5403;CONF:1198-5406;CONF:1198-5407;CONF:1198-5409;CONF:1198-9965;CONF:1198-5414;CONF:1198-5416;CONF:1198-5417;CONF:1198-16820;CONF:1198-5419;CONF:1198-5420;CONF:1198-7994;CONF:1198-5422;CONF:1198-5444;CONF:1198-5445;CONF:1198-5448;CONF:1198-5449;CONF:1198-32882;CONF:1198-32883;CONF:1198-32884;CONF:1198-32885;CONF:1198-16787;CONF:1198-16788;CONF:1198-5452;CONF:1198-5428;CONF:1198-7995;CONF:1198-5430;CONF:1198-16789;CONF:1198-16783;CONF:1198-16784;CONF:1198-16785;CONF:1198-16790;CONF:1198-5441;CONF:1198-5442;CONF:1198-5443;CONF:1198-16821;CONF:1198-32173;CONF:1198-5460;CONF:1198-5466;CONF:1198-7996;CONF:1198-5469;CONF:1198-5470;CONF:1198-8001;CONF:1198-8002;CONF:1198-9945;CONF:1198-9946;CONF:1198-32174;CONF:1198-8220;CONF:1198-8221;CONF:1198-8222;CONF:1198-31355;CONF:1198-31356;CONF:1198-5519;CONF:1198-5520;CONF:1198-5521;CONF:1198-5522;CONF:1198-16822;CONF:1198-5524;CONF:1198-5525;CONF:1198-7998;CONF:1198-5559;CONF:1198-5565;CONF:1198-5566;CONF:1198-32399;CONF:1198-5567;CONF:1198-5568;CONF:1198-5577;CONF:1198-5578;CONF:1198-5579;CONF:1198-5580;CONF:1198-5583;CONF:1198-5584;CONF:1198-30810;CONF:1198-5585;CONF:1198-5586;CONF:1198-16823;CONF:1198-17000;CONF:1198-5589;CONF:1198-5595;CONF:1198-7999;CONF:1198-5597;CONF:1198-5598;CONF:1198-5607;CONF:1198-5608;CONF:1198-5610;CONF:1198-5611;CONF:1198-30811;CONF:1198-5612;CONF:1198-5613;CONF:1198-16824;CONF:1198-16825;CONF:1198-16826;CONF:1198-5616;CONF:1198-5622;CONF:1198-8000;CONF:1198-5624;CONF:1198-5625;CONF:1198-10003;CONF:1198-10004;CONF:1198-10006;CONF:1198-10007;CONF:1198-9952;CONF:1198-9953;CONF:1198-9954;CONF:1198-14835;CONF:1198-14836;CONF:1198-14837;CONF:1198-14838;CONF:1198-14839;CONF:1198-14840;CONF:1198-16818;CONF:1198-32889;CONF:1198-14841;CONF:1198-14846;CONF:1198-14847;CONF:1198-14842;CONF:1198-16792;CONF:1198-16793;CONF:1198-16794;CONF:1198-16795;CONF:1198-16797;CONF:1198-16798;CONF:1198-9955;CONF:1198-9956;CONF:1198-9959;CONF:1198-9958' },</v>
       </c>
       <c r="N207" t="str">
         <f t="shared" si="11"/>
@@ -15234,10 +15233,10 @@
       <c r="D208" t="s">
         <v>32</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E208">
         <v>233</v>
       </c>
-      <c r="G208" s="4" t="str">
+      <c r="G208" s="3" t="str">
         <f>VLOOKUP(D208,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>233-255</v>
       </c>
@@ -15256,7 +15255,7 @@
       </c>
       <c r="M208" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:207, template_type:'Other', name:'US Realm Header for Patient Generated Document  [2.16.840.1.113883.10.20.29.1[233-255', name2:'US Realm Header for Patient Generated Document ', template:'2.16.840.1.113883.10.20.29.1', pageStart:233, pages:'233-255', search:'US Realm Header for Patient Generated Document  2.16.840.1.113883.10.20.29.1 CONF:1198-28458;CONF:1198-28459;CONF:1198-32917;CONF:1198-32945;CONF:1198-28460;CONF:1198-28461;CONF:1198-28462;CONF:1198-28465;CONF:1198-28469;CONF:1198-28470;CONF:1198-28473;CONF:1198-28474;CONF:1198-28475;CONF:1198-28476;CONF:1198-28477;CONF:1198-28478;CONF:1198-28479;CONF:1198-28481;CONF:1198-28676;CONF:1198-28678;CONF:1198-28679;CONF:1198-28680;CONF:1198-28681;CONF:1198-28682;CONF:1198-28683;CONF:1198-28684;CONF:1198-28685;CONF:1198-28686;CONF:1198-28687;CONF:1198-28688;CONF:1198-28690;CONF:1198-28691;CONF:1198-28692;CONF:1198-28693;CONF:1198-28694;CONF:1198-28695;CONF:1198-28696;CONF:1198-28697;CONF:1198-28698;CONF:1198-28699;CONF:1198-28700;CONF:1198-28701;CONF:1198-28702;CONF:1198-28703;CONF:1198-28704;CONF:1198-28705;CONF:1198-28706;CONF:1198-28707;CONF:1198-28708;CONF:1198-28709;CONF:1198-28710;CONF:1198-28711;CONF:1198-28712;CONF:1198-28713;CONF:1198-28714;CONF:1198-28715;CONF:1198-28716;CONF:1198-28718' },</v>
+        <v>{ 'id': '207', 'template_type': 'Other', 'name': 'US Realm Header for Patient Generated Document  [2.16.840.1.113883.10.20.29.1[233-255', 'name2': 'US Realm Header for Patient Generated Document ', 'template': '2.16.840.1.113883.10.20.29.1', 'pageStart': '233', 'pages': '233-255', 'search': 'US Realm Header for Patient Generated Document  2.16.840.1.113883.10.20.29.1 CONF:1198-28458;CONF:1198-28459;CONF:1198-32917;CONF:1198-32945;CONF:1198-28460;CONF:1198-28461;CONF:1198-28462;CONF:1198-28465;CONF:1198-28469;CONF:1198-28470;CONF:1198-28473;CONF:1198-28474;CONF:1198-28475;CONF:1198-28476;CONF:1198-28477;CONF:1198-28478;CONF:1198-28479;CONF:1198-28481;CONF:1198-28676;CONF:1198-28678;CONF:1198-28679;CONF:1198-28680;CONF:1198-28681;CONF:1198-28682;CONF:1198-28683;CONF:1198-28684;CONF:1198-28685;CONF:1198-28686;CONF:1198-28687;CONF:1198-28688;CONF:1198-28690;CONF:1198-28691;CONF:1198-28692;CONF:1198-28693;CONF:1198-28694;CONF:1198-28695;CONF:1198-28696;CONF:1198-28697;CONF:1198-28698;CONF:1198-28699;CONF:1198-28700;CONF:1198-28701;CONF:1198-28702;CONF:1198-28703;CONF:1198-28704;CONF:1198-28705;CONF:1198-28706;CONF:1198-28707;CONF:1198-28708;CONF:1198-28709;CONF:1198-28710;CONF:1198-28711;CONF:1198-28712;CONF:1198-28713;CONF:1198-28714;CONF:1198-28715;CONF:1198-28716;CONF:1198-28718' },</v>
       </c>
       <c r="N208" t="str">
         <f t="shared" si="11"/>
@@ -15276,10 +15275,10 @@
       <c r="D209" t="s">
         <v>416</v>
       </c>
-      <c r="E209" s="3">
+      <c r="E209">
         <v>888</v>
       </c>
-      <c r="G209" s="4" t="str">
+      <c r="G209" s="3" t="str">
         <f>VLOOKUP(D209,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>888-892</v>
       </c>
@@ -15298,7 +15297,7 @@
       </c>
       <c r="M209" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:208, template_type:'Other', name:'Author Participation [2.16.840.1.113883.10.20.22.4.119[888-892', name2:'Author Participation', template:'2.16.840.1.113883.10.20.22.4.119', pageStart:888, pages:'888-892', search:'Author Participation 2.16.840.1.113883.10.20.22.4.119 CONF:1098-32017;CONF:1098-32018;CONF:1098-31471;CONF:1098-31472;CONF:1098-31473;CONF:1098-32628;CONF:1098-31671;CONF:1098-32315;CONF:1098-31474;CONF:1098-31475;CONF:1098-31476;CONF:1098-31478;CONF:1098-31479;CONF:1098-31480;CONF:1098-31481' },</v>
+        <v>{ 'id': '208', 'template_type': 'Other', 'name': 'Author Participation [2.16.840.1.113883.10.20.22.4.119[888-892', 'name2': 'Author Participation', 'template': '2.16.840.1.113883.10.20.22.4.119', 'pageStart': '888', 'pages': '888-892', 'search': 'Author Participation 2.16.840.1.113883.10.20.22.4.119 CONF:1098-32017;CONF:1098-32018;CONF:1098-31471;CONF:1098-31472;CONF:1098-31473;CONF:1098-32628;CONF:1098-31671;CONF:1098-32315;CONF:1098-31474;CONF:1098-31475;CONF:1098-31476;CONF:1098-31478;CONF:1098-31479;CONF:1098-31480;CONF:1098-31481' },</v>
       </c>
       <c r="N209" t="str">
         <f t="shared" si="11"/>
@@ -15318,10 +15317,10 @@
       <c r="D210" t="s">
         <v>418</v>
       </c>
-      <c r="E210" s="3">
+      <c r="E210">
         <v>892</v>
       </c>
-      <c r="G210" s="4" t="str">
+      <c r="G210" s="3" t="str">
         <f>VLOOKUP(D210,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>892-894</v>
       </c>
@@ -15340,7 +15339,7 @@
       </c>
       <c r="M210" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:209, template_type:'Other', name:'Physician of Record Participant   [2.16.840.1.113883.10.20.6.2.2[892-894', name2:'Physician of Record Participant  ', template:'2.16.840.1.113883.10.20.6.2.2', pageStart:892, pages:'892-894', search:'Physician of Record Participant   2.16.840.1.113883.10.20.6.2.2 CONF:1098-8881;CONF:1098-16072;CONF:1098-16073;CONF:1098-32586;CONF:1098-8886;CONF:1098-8887;CONF:1098-31203;CONF:1098-8888;CONF:1098-8889;CONF:1098-30928;CONF:1098-30929;CONF:1098-16074;CONF:1098-16075' },</v>
+        <v>{ 'id': '209', 'template_type': 'Other', 'name': 'Physician of Record Participant   [2.16.840.1.113883.10.20.6.2.2[892-894', 'name2': 'Physician of Record Participant  ', 'template': '2.16.840.1.113883.10.20.6.2.2', 'pageStart': '892', 'pages': '892-894', 'search': 'Physician of Record Participant   2.16.840.1.113883.10.20.6.2.2 CONF:1098-8881;CONF:1098-16072;CONF:1098-16073;CONF:1098-32586;CONF:1098-8886;CONF:1098-8887;CONF:1098-31203;CONF:1098-8888;CONF:1098-8889;CONF:1098-30928;CONF:1098-30929;CONF:1098-16074;CONF:1098-16075' },</v>
       </c>
       <c r="N210" t="str">
         <f t="shared" si="11"/>
@@ -15360,10 +15359,10 @@
       <c r="D211" t="s">
         <v>420</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211">
         <v>894</v>
       </c>
-      <c r="G211" s="4" t="str">
+      <c r="G211" s="3" t="str">
         <f>VLOOKUP(D211,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>894-896</v>
       </c>
@@ -15382,7 +15381,7 @@
       </c>
       <c r="M211" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:210, template_type:'Other', name:'Physician Reading Study Performer   [2.16.840.1.113883.10.20.6.2.1[894-896', name2:'Physician Reading Study Performer  ', template:'2.16.840.1.113883.10.20.6.2.1', pageStart:894, pages:'894-896', search:'Physician Reading Study Performer   2.16.840.1.113883.10.20.6.2.1 CONF:1098-8424;CONF:1098-30773;CONF:1098-30774;CONF:1098-32564;CONF:1098-8425;CONF:1098-8426;CONF:1098-10033;CONF:1098-8427;CONF:1098-8428;CONF:1098-8429;CONF:1098-32135' },</v>
+        <v>{ 'id': '210', 'template_type': 'Other', 'name': 'Physician Reading Study Performer   [2.16.840.1.113883.10.20.6.2.1[894-896', 'name2': 'Physician Reading Study Performer  ', 'template': '2.16.840.1.113883.10.20.6.2.1', 'pageStart': '894', 'pages': '894-896', 'search': 'Physician Reading Study Performer   2.16.840.1.113883.10.20.6.2.1 CONF:1098-8424;CONF:1098-30773;CONF:1098-30774;CONF:1098-32564;CONF:1098-8425;CONF:1098-8426;CONF:1098-10033;CONF:1098-8427;CONF:1098-8428;CONF:1098-8429;CONF:1098-32135' },</v>
       </c>
       <c r="N211" t="str">
         <f t="shared" si="11"/>
@@ -15402,10 +15401,10 @@
       <c r="D212" t="s">
         <v>422</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212">
         <v>896</v>
       </c>
-      <c r="G212" s="4" t="str">
+      <c r="G212" s="3" t="str">
         <f>VLOOKUP(D212,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>896-900</v>
       </c>
@@ -15424,7 +15423,7 @@
       </c>
       <c r="M212" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:211, template_type:'Other', name:'US Realm Address (AD.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.2[896-900', name2:'US Realm Address (AD.US.FIELDED) ', template:'2.16.840.1.113883.10.20.22.5.2', pageStart:896, pages:'896-900', search:'US Realm Address (AD.US.FIELDED)  2.16.840.1.113883.10.20.22.5.2 CONF:81-7290;CONF:81-7295;CONF:81-7293;CONF:81-10024;CONF:81-7292;CONF:81-7294;CONF:81-10025;CONF:81-7291;CONF:81-7296' },</v>
+        <v>{ 'id': '211', 'template_type': 'Other', 'name': 'US Realm Address (AD.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.2[896-900', 'name2': 'US Realm Address (AD.US.FIELDED) ', 'template': '2.16.840.1.113883.10.20.22.5.2', 'pageStart': '896', 'pages': '896-900', 'search': 'US Realm Address (AD.US.FIELDED)  2.16.840.1.113883.10.20.22.5.2 CONF:81-7290;CONF:81-7295;CONF:81-7293;CONF:81-10024;CONF:81-7292;CONF:81-7294;CONF:81-10025;CONF:81-7291;CONF:81-7296' },</v>
       </c>
       <c r="N212" t="str">
         <f t="shared" si="11"/>
@@ -15444,10 +15443,10 @@
       <c r="D213" t="s">
         <v>424</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213">
         <v>900</v>
       </c>
-      <c r="G213" s="4" t="str">
+      <c r="G213" s="3" t="str">
         <f>VLOOKUP(D213,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>900-900</v>
       </c>
@@ -15466,7 +15465,7 @@
       </c>
       <c r="M213" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:212, template_type:'Other', name:'US Realm Date and Time (DT.US.FIELDED) [2.16.840.1.113883.10.20.22.5.3[900-900', name2:'US Realm Date and Time (DT.US.FIELDED)', template:'2.16.840.1.113883.10.20.22.5.3', pageStart:900, pages:'900-900', search:'US Realm Date and Time (DT.US.FIELDED) 2.16.840.1.113883.10.20.22.5.3 CONF:81-10078;CONF:81-10079;CONF:81-10080;CONF:81-10081' },</v>
+        <v>{ 'id': '212', 'template_type': 'Other', 'name': 'US Realm Date and Time (DT.US.FIELDED) [2.16.840.1.113883.10.20.22.5.3[900-900', 'name2': 'US Realm Date and Time (DT.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.3', 'pageStart': '900', 'pages': '900-900', 'search': 'US Realm Date and Time (DT.US.FIELDED) 2.16.840.1.113883.10.20.22.5.3 CONF:81-10078;CONF:81-10079;CONF:81-10080;CONF:81-10081' },</v>
       </c>
       <c r="N213" t="str">
         <f t="shared" si="11"/>
@@ -15486,10 +15485,10 @@
       <c r="D214" t="s">
         <v>426</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214">
         <v>900</v>
       </c>
-      <c r="G214" s="4" t="str">
+      <c r="G214" s="3" t="str">
         <f>VLOOKUP(D214,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>900-901</v>
       </c>
@@ -15508,7 +15507,7 @@
       </c>
       <c r="M214" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:213, template_type:'Other', name:'US Realm Date and Time (DTM.US.FIELDED) [2.16.840.1.113883.10.20.22.5.4[900-901', name2:'US Realm Date and Time (DTM.US.FIELDED)', template:'2.16.840.1.113883.10.20.22.5.4', pageStart:900, pages:'900-901', search:'US Realm Date and Time (DTM.US.FIELDED) 2.16.840.1.113883.10.20.22.5.4 CONF:81-10127;CONF:81-10128;CONF:81-10129;CONF:81-10130' },</v>
+        <v>{ 'id': '213', 'template_type': 'Other', 'name': 'US Realm Date and Time (DTM.US.FIELDED) [2.16.840.1.113883.10.20.22.5.4[900-901', 'name2': 'US Realm Date and Time (DTM.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.4', 'pageStart': '900', 'pages': '900-901', 'search': 'US Realm Date and Time (DTM.US.FIELDED) 2.16.840.1.113883.10.20.22.5.4 CONF:81-10127;CONF:81-10128;CONF:81-10129;CONF:81-10130' },</v>
       </c>
       <c r="N214" t="str">
         <f t="shared" si="11"/>
@@ -15528,10 +15527,10 @@
       <c r="D215" t="s">
         <v>428</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E215">
         <v>901</v>
       </c>
-      <c r="G215" s="4" t="str">
+      <c r="G215" s="3" t="str">
         <f>VLOOKUP(D215,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>901-904</v>
       </c>
@@ -15550,7 +15549,7 @@
       </c>
       <c r="M215" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:214, template_type:'Other', name:'US Realm Patient Name (PTN.US.FIELDED) [2.16.840.1.113883.10.20.22.5.1[901-904', name2:'US Realm Patient Name (PTN.US.FIELDED)', template:'2.16.840.1.113883.10.20.22.5.1', pageStart:901, pages:'901-904', search:'US Realm Patient Name (PTN.US.FIELDED) 2.16.840.1.113883.10.20.22.5.1 CONF:81-7154;CONF:81-7159;CONF:81-7160;CONF:81-7157;CONF:81-7158;CONF:81-7163;CONF:81-7155;CONF:81-7156;CONF:81-7161;CONF:81-7162;CONF:81-7278' },</v>
+        <v>{ 'id': '214', 'template_type': 'Other', 'name': 'US Realm Patient Name (PTN.US.FIELDED) [2.16.840.1.113883.10.20.22.5.1[901-904', 'name2': 'US Realm Patient Name (PTN.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.1', 'pageStart': '901', 'pages': '901-904', 'search': 'US Realm Patient Name (PTN.US.FIELDED) 2.16.840.1.113883.10.20.22.5.1 CONF:81-7154;CONF:81-7159;CONF:81-7160;CONF:81-7157;CONF:81-7158;CONF:81-7163;CONF:81-7155;CONF:81-7156;CONF:81-7161;CONF:81-7162;CONF:81-7278' },</v>
       </c>
       <c r="N215" t="str">
         <f t="shared" si="11"/>
@@ -15570,10 +15569,10 @@
       <c r="D216" t="s">
         <v>430</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E216">
         <v>904</v>
       </c>
-      <c r="G216" s="4" t="str">
+      <c r="G216" s="3" t="str">
         <f>VLOOKUP(D216,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
         <v>904-904</v>
       </c>
@@ -15592,7 +15591,7 @@
       </c>
       <c r="M216" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:215, template_type:'Other', name:'US Realm Person Name (PN.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.1.1[904-904', name2:'US Realm Person Name (PN.US.FIELDED) ', template:'2.16.840.1.113883.10.20.22.5.1.1', pageStart:904, pages:'904-904', search:'US Realm Person Name (PN.US.FIELDED)  2.16.840.1.113883.10.20.22.5.1.1 CONF:81-9368;CONF:81-9371;CONF:81-9372' },</v>
+        <v>{ 'id': '215', 'template_type': 'Other', 'name': 'US Realm Person Name (PN.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.1.1[904-904', 'name2': 'US Realm Person Name (PN.US.FIELDED) ', 'template': '2.16.840.1.113883.10.20.22.5.1.1', 'pageStart': '904', 'pages': '904-904', 'search': 'US Realm Person Name (PN.US.FIELDED)  2.16.840.1.113883.10.20.22.5.1.1 CONF:81-9368;CONF:81-9371;CONF:81-9372' },</v>
       </c>
       <c r="N216" t="str">
         <f t="shared" si="11"/>
@@ -15631,7 +15630,7 @@
       </c>
       <c r="M217" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:216, template_type:'Section', name:'Care Teams Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.500[CG_A_5-7', name2:'Care Teams Section (Companion Guide)', template:'2.16.840.1.113883.10.20.22.2.500', pageStart:1005, pages:'CG_A_5-7', search:'Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 CONF:4435-3;CONF:4435-7;CONF:4435-8;CONF:4435-5;CONF:4435-9;CONF:4435-10;CONF:4435-4;CONF:4435-6;CONF:4435-1;CONF:4435-159;' },</v>
+        <v>{ 'id': '216', 'template_type': 'Section', 'name': 'Care Teams Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.500[CG_A_5-7', 'name2': 'Care Teams Section (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.2.500', 'pageStart': '1005', 'pages': 'CG_A_5-7', 'search': 'Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 CONF:4435-3;CONF:4435-7;CONF:4435-8;CONF:4435-5;CONF:4435-9;CONF:4435-10;CONF:4435-4;CONF:4435-6;CONF:4435-1;CONF:4435-159;' },</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
@@ -15668,7 +15667,7 @@
       </c>
       <c r="M218" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:217, template_type:'Section', name:'Notes Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.65[CG_A_7-9', name2:'Notes Section (Companion Guide)', template:'2.16.840.1.113883.10.20.22.2.65', pageStart:1007, pages:'CG_A_7-9', search:'Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;' },</v>
+        <v>{ 'id': '217', 'template_type': 'Section', 'name': 'Notes Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.65[CG_A_7-9', 'name2': 'Notes Section (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.2.65', 'pageStart': '1007', 'pages': 'CG_A_7-9', 'search': 'Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;' },</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
@@ -15705,7 +15704,7 @@
       </c>
       <c r="M219" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:218, template_type:'Entry', name:'Birth Sex Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.200[CG_A_10-11', name2:'Birth Sex Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.200', pageStart:1010, pages:'CG_A_10-11', search:'Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;' },</v>
+        <v>{ 'id': '218', 'template_type': 'Entry', 'name': 'Birth Sex Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.200[CG_A_10-11', 'name2': 'Birth Sex Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.200', 'pageStart': '1010', 'pages': 'CG_A_10-11', 'search': 'Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;' },</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
@@ -15741,7 +15740,7 @@
       </c>
       <c r="M220" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:219, template_type:'Entry', name:'Care Team Member Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.1[CG_A_12-16', name2:'Care Team Member Act (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500.1', pageStart:1012, pages:'CG_A_12-16', search:'Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;' },</v>
+        <v>{ 'id': '219', 'template_type': 'Entry', 'name': 'Care Team Member Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.1[CG_A_12-16', 'name2': 'Care Team Member Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.1', 'pageStart': '1012', 'pages': 'CG_A_12-16', 'search': 'Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;' },</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -15777,7 +15776,7 @@
       </c>
       <c r="M221" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:220, template_type:'Entry', name:'Care Team Member Schedule Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.3[CG_A_17-18', name2:'Care Team Member Schedule Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500.3', pageStart:1017, pages:'CG_A_17-18', search:'Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;' },</v>
+        <v>{ 'id': '220', 'template_type': 'Entry', 'name': 'Care Team Member Schedule Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.3[CG_A_17-18', 'name2': 'Care Team Member Schedule Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.3', 'pageStart': '1017', 'pages': 'CG_A_17-18', 'search': 'Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;' },</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -15813,7 +15812,7 @@
       </c>
       <c r="M222" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:221, template_type:'Entry', name:'Care Team Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.500[CG_A_18-24', name2:'Care Team Organizer (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500', pageStart:1018, pages:'CG_A_18-24', search:'Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;' },</v>
+        <v>{ 'id': '221', 'template_type': 'Entry', 'name': 'Care Team Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.500[CG_A_18-24', 'name2': 'Care Team Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500', 'pageStart': '1018', 'pages': 'CG_A_18-24', 'search': 'Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;' },</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -15849,7 +15848,7 @@
       </c>
       <c r="M223" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:222, template_type:'Entry', name:'Care Team Type Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.2[CG_A_25-26', name2:'Care Team Type Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.500.2', pageStart:1025, pages:'CG_A_25-26', search:'Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;' },</v>
+        <v>{ 'id': '222', 'template_type': 'Entry', 'name': 'Care Team Type Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.2[CG_A_25-26', 'name2': 'Care Team Type Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.2', 'pageStart': '1025', 'pages': 'CG_A_25-26', 'search': 'Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;' },</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -15885,7 +15884,7 @@
       </c>
       <c r="M224" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:223, template_type:'Entry', name:'Note Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.202[CG_A_26-35', name2:'Note Activity (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.202', pageStart:1026, pages:'CG_A_26-35', search:'Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;' },</v>
+        <v>{ 'id': '223', 'template_type': 'Entry', 'name': 'Note Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.202[CG_A_26-35', 'name2': 'Note Activity (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.202', 'pageStart': '1026', 'pages': 'CG_A_26-35', 'search': 'Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;' },</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -15921,7 +15920,7 @@
       </c>
       <c r="M225" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:224, template_type:'Entry', name:'Section Time Range Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.201[CG_A_35-37', name2:'Section Time Range Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.201', pageStart:1035, pages:'CG_A_35-37', search:'Section Time Range Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.201 CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;' },</v>
+        <v>{ 'id': '224', 'template_type': 'Entry', 'name': 'Section Time Range Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.201[CG_A_35-37', 'name2': 'Section Time Range Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.201', 'pageStart': '1035', 'pages': 'CG_A_35-37', 'search': 'Section Time Range Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.201 CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;' },</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -15957,7 +15956,7 @@
       </c>
       <c r="M226" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:225, template_type:'Entry', name:'UDI Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.311[CG_B_6-16', name2:'UDI Organizer (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.311', pageStart:1106, pages:'CG_B_6-16', search:'UDI Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.311 CONF:4437-3482;CONF:4437-3483;CONF:4437-3480;CONF:4437-3484;CONF:4437-3485;CONF:4437-3541;CONF:4437-3542;CONF:4437-3481;CONF:4437-3486;CONF:4437-3487;CONF:4437-3490;CONF:4437-3543;CONF:4437-3488;CONF:4437-3489;CONF:4437-3513;CONF:4437-3514;CONF:4437-3515;CONF:4437-3516;CONF:4437-3517;CONF:4437-3518;CONF:4437-3525;CONF:4437-3526;CONF:4437-3523;CONF:4437-3524;CONF:4437-3521;CONF:4437-3522;CONF:4437-3519;CONF:4437-3520;CONF:4437-3535;CONF:4437-3536;CONF:4437-3527;CONF:4437-3528;CONF:4437-3529;CONF:4437-3530;CONF:4437-3533;CONF:4437-3534;CONF:4437-3531;CONF:4437-3532;' },</v>
+        <v>{ 'id': '225', 'template_type': 'Entry', 'name': 'UDI Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.311[CG_B_6-16', 'name2': 'UDI Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.311', 'pageStart': '1106', 'pages': 'CG_B_6-16', 'search': 'UDI Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.311 CONF:4437-3482;CONF:4437-3483;CONF:4437-3480;CONF:4437-3484;CONF:4437-3485;CONF:4437-3541;CONF:4437-3542;CONF:4437-3481;CONF:4437-3486;CONF:4437-3487;CONF:4437-3490;CONF:4437-3543;CONF:4437-3488;CONF:4437-3489;CONF:4437-3513;CONF:4437-3514;CONF:4437-3515;CONF:4437-3516;CONF:4437-3517;CONF:4437-3518;CONF:4437-3525;CONF:4437-3526;CONF:4437-3523;CONF:4437-3524;CONF:4437-3521;CONF:4437-3522;CONF:4437-3519;CONF:4437-3520;CONF:4437-3535;CONF:4437-3536;CONF:4437-3527;CONF:4437-3528;CONF:4437-3529;CONF:4437-3530;CONF:4437-3533;CONF:4437-3534;CONF:4437-3531;CONF:4437-3532;' },</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -15993,7 +15992,7 @@
       </c>
       <c r="M227" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:226, template_type:'Other', name:'Brand Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.301[CG_B_17-18', name2:'Brand Name Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.301', pageStart:1117, pages:'CG_B_17-18', search:'Brand Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.301 CONF:4437-3403;CONF:4437-3405;CONF:4437-3406;CONF:4437-3404;CONF:4437-3407;CONF:4437-3408;CONF:4437-3409;CONF:4437-3410;CONF:4437-3411;' },</v>
+        <v>{ 'id': '226', 'template_type': 'Other', 'name': 'Brand Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.301[CG_B_17-18', 'name2': 'Brand Name Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.301', 'pageStart': '1117', 'pages': 'CG_B_17-18', 'search': 'Brand Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.301 CONF:4437-3403;CONF:4437-3405;CONF:4437-3406;CONF:4437-3404;CONF:4437-3407;CONF:4437-3408;CONF:4437-3409;CONF:4437-3410;CONF:4437-3411;' },</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -16029,7 +16028,7 @@
       </c>
       <c r="M228" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:227, template_type:'Other', name:'Catalog Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.302[CG_B_18-20', name2:'Catalog Number Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.302', pageStart:1118, pages:'CG_B_18-20', search:'Catalog Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.302 CONF:4437-3432;CONF:4437-3434;CONF:4437-3435;CONF:4437-3433;CONF:4437-3436;CONF:4437-3437;CONF:4437-3438;CONF:4437-3439;CONF:4437-3440;' },</v>
+        <v>{ 'id': '227', 'template_type': 'Other', 'name': 'Catalog Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.302[CG_B_18-20', 'name2': 'Catalog Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.302', 'pageStart': '1118', 'pages': 'CG_B_18-20', 'search': 'Catalog Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.302 CONF:4437-3432;CONF:4437-3434;CONF:4437-3435;CONF:4437-3433;CONF:4437-3436;CONF:4437-3437;CONF:4437-3438;CONF:4437-3439;CONF:4437-3440;' },</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -16065,7 +16064,7 @@
       </c>
       <c r="M229" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:228, template_type:'Other', name:'Company Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.303[CG_B_20-22', name2:'Company Name Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.303', pageStart:1120, pages:'CG_B_20-22', search:'Company Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.303 CONF:4437-3441;CONF:4437-3443;CONF:4437-3444;CONF:4437-3442;CONF:4437-3445;CONF:4437-3446;CONF:4437-3447;CONF:4437-3448;CONF:4437-3449;' },</v>
+        <v>{ 'id': '228', 'template_type': 'Other', 'name': 'Company Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.303[CG_B_20-22', 'name2': 'Company Name Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.303', 'pageStart': '1120', 'pages': 'CG_B_20-22', 'search': 'Company Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.303 CONF:4437-3441;CONF:4437-3443;CONF:4437-3444;CONF:4437-3442;CONF:4437-3445;CONF:4437-3446;CONF:4437-3447;CONF:4437-3448;CONF:4437-3449;' },</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -16101,7 +16100,7 @@
       </c>
       <c r="M230" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:229, template_type:'Other', name:'Device Identifier Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.304[CG_B_22-24', name2:'Device Identifier Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.304', pageStart:1122, pages:'CG_B_22-24', search:'Device Identifier Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.304 CONF:4437-3421;CONF:4437-3424;CONF:4437-3425;CONF:4437-3422;CONF:4437-3426;CONF:4437-3427;CONF:4437-3428;CONF:4437-3429;CONF:4437-3423;CONF:4437-3430;CONF:4437-3431;CONF:4437-3540;' },</v>
+        <v>{ 'id': '229', 'template_type': 'Other', 'name': 'Device Identifier Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.304[CG_B_22-24', 'name2': 'Device Identifier Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.304', 'pageStart': '1122', 'pages': 'CG_B_22-24', 'search': 'Device Identifier Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.304 CONF:4437-3421;CONF:4437-3424;CONF:4437-3425;CONF:4437-3422;CONF:4437-3426;CONF:4437-3427;CONF:4437-3428;CONF:4437-3429;CONF:4437-3423;CONF:4437-3430;CONF:4437-3431;CONF:4437-3540;' },</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -16137,7 +16136,7 @@
       </c>
       <c r="M231" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:230, template_type:'Other', name:'Distinct Identification Code Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.308[CG_B_25-26', name2:'Distinct Identification Code Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.308', pageStart:1125, pages:'CG_B_25-26', search:'Distinct Identification Code Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.308 CONF:4437-3348;CONF:4437-3350;CONF:4437-3351;CONF:4437-3349;CONF:4437-3355;CONF:4437-3352;CONF:4437-3353;CONF:4437-3354;CONF:4437-3340;' },</v>
+        <v>{ 'id': '230', 'template_type': 'Other', 'name': 'Distinct Identification Code Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.308[CG_B_25-26', 'name2': 'Distinct Identification Code Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.308', 'pageStart': '1125', 'pages': 'CG_B_25-26', 'search': 'Distinct Identification Code Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.308 CONF:4437-3348;CONF:4437-3350;CONF:4437-3351;CONF:4437-3349;CONF:4437-3355;CONF:4437-3352;CONF:4437-3353;CONF:4437-3354;CONF:4437-3340;' },</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -16173,7 +16172,7 @@
       </c>
       <c r="M232" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:231, template_type:'Other', name:'Expiration Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.309[CG_B_26-28', name2:'Expiration Date Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.309', pageStart:1126, pages:'CG_B_26-28', search:'Expiration Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.309 CONF:4437-3393;CONF:4437-3396;CONF:4437-3397;CONF:4437-3394;CONF:4437-3398;CONF:4437-3399;CONF:4437-3400;CONF:4437-3401;CONF:4437-3395;CONF:4437-3402;' },</v>
+        <v>{ 'id': '231', 'template_type': 'Other', 'name': 'Expiration Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.309[CG_B_26-28', 'name2': 'Expiration Date Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.309', 'pageStart': '1126', 'pages': 'CG_B_26-28', 'search': 'Expiration Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.309 CONF:4437-3393;CONF:4437-3396;CONF:4437-3397;CONF:4437-3394;CONF:4437-3398;CONF:4437-3399;CONF:4437-3400;CONF:4437-3401;CONF:4437-3395;CONF:4437-3402;' },</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -16209,7 +16208,7 @@
       </c>
       <c r="M233" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:232, template_type:'Other', name:'Implantable Device Status Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.305[CG_B_28-30', name2:'Implantable Device Status Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.305', pageStart:1128, pages:'CG_B_28-30', search:'Implantable Device Status Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.305 CONF:4437-3502;CONF:4437-3505;CONF:4437-3506;CONF:4437-3503;CONF:4437-3507;CONF:4437-3508;CONF:4437-3509;CONF:4437-3510;CONF:4437-3504;CONF:4437-3511;CONF:4437-3512;CONF:4437-3539;' },</v>
+        <v>{ 'id': '232', 'template_type': 'Other', 'name': 'Implantable Device Status Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.305[CG_B_28-30', 'name2': 'Implantable Device Status Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.305', 'pageStart': '1128', 'pages': 'CG_B_28-30', 'search': 'Implantable Device Status Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.305 CONF:4437-3502;CONF:4437-3505;CONF:4437-3506;CONF:4437-3503;CONF:4437-3507;CONF:4437-3508;CONF:4437-3509;CONF:4437-3510;CONF:4437-3504;CONF:4437-3511;CONF:4437-3512;CONF:4437-3539;' },</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -16245,7 +16244,7 @@
       </c>
       <c r="M234" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:233, template_type:'Other', name:'Latex Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.314[CG_B_31-33', name2:'Latex Safety Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.314', pageStart:1131, pages:'CG_B_31-33', search:'Latex Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.314 CONF:4437-3491;CONF:4437-3494;CONF:4437-3495;CONF:4437-3492;CONF:4437-3496;CONF:4437-3497;CONF:4437-3498;CONF:4437-3499;CONF:4437-3493;CONF:4437-3500;CONF:4437-3501;CONF:4437-3538;' },</v>
+        <v>{ 'id': '233', 'template_type': 'Other', 'name': 'Latex Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.314[CG_B_31-33', 'name2': 'Latex Safety Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.314', 'pageStart': '1131', 'pages': 'CG_B_31-33', 'search': 'Latex Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.314 CONF:4437-3491;CONF:4437-3494;CONF:4437-3495;CONF:4437-3492;CONF:4437-3496;CONF:4437-3497;CONF:4437-3498;CONF:4437-3499;CONF:4437-3493;CONF:4437-3500;CONF:4437-3501;CONF:4437-3538;' },</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -16281,7 +16280,7 @@
       </c>
       <c r="M235" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:234, template_type:'Other', name:'Lot or Batch Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.315[CG_B_33-35', name2:'Lot or Batch Number Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.315', pageStart:1133, pages:'CG_B_33-35', search:'Lot or Batch Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.315 CONF:4437-3450;CONF:4437-3452;CONF:4437-3453;CONF:4437-3451;CONF:4437-3454;CONF:4437-3455;CONF:4437-3456;CONF:4437-3457;CONF:4437-3458;' },</v>
+        <v>{ 'id': '234', 'template_type': 'Other', 'name': 'Lot or Batch Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.315[CG_B_33-35', 'name2': 'Lot or Batch Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.315', 'pageStart': '1133', 'pages': 'CG_B_33-35', 'search': 'Lot or Batch Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.315 CONF:4437-3450;CONF:4437-3452;CONF:4437-3453;CONF:4437-3451;CONF:4437-3454;CONF:4437-3455;CONF:4437-3456;CONF:4437-3457;CONF:4437-3458;' },</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -16317,7 +16316,7 @@
       </c>
       <c r="M236" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:235, template_type:'Other', name:'Manufacturing Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.316[CG_B_35-37', name2:'Manufacturing Date Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.316', pageStart:1135, pages:'CG_B_35-37', search:'Manufacturing Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.316 CONF:4437-3459;CONF:4437-3462;CONF:4437-3463;CONF:4437-3460;CONF:4437-3464;CONF:4437-3465;CONF:4437-3466;CONF:4437-3467;CONF:4437-3461;CONF:4437-3468;' },</v>
+        <v>{ 'id': '235', 'template_type': 'Other', 'name': 'Manufacturing Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.316[CG_B_35-37', 'name2': 'Manufacturing Date Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.316', 'pageStart': '1135', 'pages': 'CG_B_35-37', 'search': 'Manufacturing Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.316 CONF:4437-3459;CONF:4437-3462;CONF:4437-3463;CONF:4437-3460;CONF:4437-3464;CONF:4437-3465;CONF:4437-3466;CONF:4437-3467;CONF:4437-3461;CONF:4437-3468;' },</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -16353,7 +16352,7 @@
       </c>
       <c r="M237" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:236, template_type:'Other', name:'Model Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.317[CG_B_37-39', name2:'Model Number Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.317', pageStart:1137, pages:'CG_B_37-39', search:'Model Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.317 CONF:4437-3412;CONF:4437-3414;CONF:4437-3415;CONF:4437-3413;CONF:4437-3416;CONF:4437-3417;CONF:4437-3418;CONF:4437-3419;CONF:4437-3420;' },</v>
+        <v>{ 'id': '236', 'template_type': 'Other', 'name': 'Model Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.317[CG_B_37-39', 'name2': 'Model Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.317', 'pageStart': '1137', 'pages': 'CG_B_37-39', 'search': 'Model Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.317 CONF:4437-3412;CONF:4437-3414;CONF:4437-3415;CONF:4437-3413;CONF:4437-3416;CONF:4437-3417;CONF:4437-3418;CONF:4437-3419;CONF:4437-3420;' },</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -16389,7 +16388,7 @@
       </c>
       <c r="M238" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:237, template_type:'Other', name:'MRI Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.318[CG_B_39-41', name2:'MRI Safety Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.318', pageStart:1139, pages:'CG_B_39-41', search:'MRI Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.318 CONF:4437-3469;CONF:4437-3471;CONF:4437-3472;CONF:4437-3470;CONF:4437-3473;CONF:4437-3474;CONF:4437-3475;CONF:4437-3476;CONF:4437-3477;CONF:4437-3478;CONF:4437-3479;CONF:4437-3537;' },</v>
+        <v>{ 'id': '237', 'template_type': 'Other', 'name': 'MRI Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.318[CG_B_39-41', 'name2': 'MRI Safety Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.318', 'pageStart': '1139', 'pages': 'CG_B_39-41', 'search': 'MRI Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.318 CONF:4437-3469;CONF:4437-3471;CONF:4437-3472;CONF:4437-3470;CONF:4437-3473;CONF:4437-3474;CONF:4437-3475;CONF:4437-3476;CONF:4437-3477;CONF:4437-3478;CONF:4437-3479;CONF:4437-3537;' },</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -16425,7 +16424,7 @@
       </c>
       <c r="M239" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:238, template_type:'Other', name:'Serial Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.319[CG_B_41-43', name2:'Serial Number Observation (Companion Guide)', template:'2.16.840.1.113883.10.20.22.4.319', pageStart:1141, pages:'CG_B_41-43', search:'Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 CONF:4437-3373;CONF:4437-3377;CONF:4437-3368;CONF:4437-3374;CONF:4437-3378;CONF:4437-3369;CONF:4437-3370;CONF:4437-3379;CONF:4437-3372;' },</v>
+        <v>{ 'id': '238', 'template_type': 'Other', 'name': 'Serial Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.319[CG_B_41-43', 'name2': 'Serial Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.319', 'pageStart': '1141', 'pages': 'CG_B_41-43', 'search': 'Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 CONF:4437-3373;CONF:4437-3377;CONF:4437-3368;CONF:4437-3374;CONF:4437-3378;CONF:4437-3369;CONF:4437-3370;CONF:4437-3379;CONF:4437-3372;' },</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -16461,7 +16460,7 @@
       </c>
       <c r="M240" t="str">
         <f t="shared" si="10"/>
-        <v>{ id:239, template_type:'Other', name:'Author Provenance (Companion Guide) [2.16.840.1.113883.10.20.22.5.6[CG_C_5-7', name2:'Author Provenance (Companion Guide)', template:'2.16.840.1.113883.10.20.22.5.6', pageStart:1205, pages:'CG_C_5-7', search:'Author Provenance (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;' },</v>
+        <v>{ 'id': '239', 'template_type': 'Other', 'name': 'Author Provenance (Companion Guide) [2.16.840.1.113883.10.20.22.5.6[CG_C_5-7', 'name2': 'Author Provenance (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.5.6', 'pageStart': '1205', 'pages': 'CG_C_5-7', 'search': 'Author Provenance (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;' },</v>
       </c>
     </row>
   </sheetData>
@@ -29452,7 +29451,7 @@
         <f>LEFT(A3,LEN(A3)-3)</f>
         <v>Consultation Note (V3)</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>101</v>
       </c>
       <c r="D3" t="s">
@@ -29479,7 +29478,7 @@
         <f t="shared" ref="B4:B58" si="0">LEFT(A4,LEN(A4)-3)</f>
         <v xml:space="preserve">Continuity of Care Document (CCD) (V3) </v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>117</v>
       </c>
       <c r="D4" t="s">
@@ -29506,7 +29505,7 @@
         <f t="shared" si="0"/>
         <v>Diagnostic Imaging Report (V3)</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>127</v>
       </c>
       <c r="D5" t="s">
@@ -29533,7 +29532,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Discharge Summary (V3) </v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>139</v>
       </c>
       <c r="D6" t="s">
@@ -29560,7 +29559,7 @@
         <f t="shared" si="0"/>
         <v>History and Physical (V3)</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>153</v>
       </c>
       <c r="D7" t="s">
@@ -29587,7 +29586,7 @@
         <f t="shared" si="0"/>
         <v>Operative Note (V3)</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>164</v>
       </c>
       <c r="D8" t="s">
@@ -29614,7 +29613,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Procedure Note (V3) </v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>176</v>
       </c>
       <c r="D9" t="s">
@@ -29641,7 +29640,7 @@
         <f t="shared" si="0"/>
         <v>Progress Note (V3)</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>192</v>
       </c>
       <c r="D10" t="s">
@@ -29668,7 +29667,7 @@
         <f t="shared" si="0"/>
         <v>Referral Note (V2)</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>202</v>
       </c>
       <c r="D11" t="s">
@@ -29695,7 +29694,7 @@
         <f t="shared" si="0"/>
         <v>Transfer Summary (V2)</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>215</v>
       </c>
       <c r="D12" t="s">
@@ -29722,7 +29721,7 @@
         <f t="shared" si="0"/>
         <v>Unstructured Document (V3)</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>229</v>
       </c>
       <c r="D13" t="s">
@@ -29749,7 +29748,7 @@
         <f t="shared" si="0"/>
         <v>US Realm Header for Patient Generated Document (V2)</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>233</v>
       </c>
       <c r="D14" t="s">
@@ -29776,7 +29775,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Admission Diagnosis Section (V3) </v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>255</v>
       </c>
       <c r="D15" t="s">
@@ -29803,7 +29802,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Admission Medications Section (entries optional) (V3) </v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>257</v>
       </c>
       <c r="D16" t="s">
@@ -29830,7 +29829,7 @@
         <f t="shared" si="0"/>
         <v>Advance Directives Section (entries optional) (V3)</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>258</v>
       </c>
       <c r="D17" t="s">
@@ -29857,7 +29856,7 @@
         <f t="shared" si="0"/>
         <v>Advance Directives Section (entries required) (V3)</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>260</v>
       </c>
       <c r="D18" t="s">
@@ -29884,7 +29883,7 @@
         <f t="shared" si="0"/>
         <v>Allergies and Intolerances Section (entries optional) (V3)</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>263</v>
       </c>
       <c r="D19" t="s">
@@ -29911,7 +29910,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Allergies and Intolerances Section (entries required) (V3) </v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>264</v>
       </c>
       <c r="D20" t="s">
@@ -29938,7 +29937,7 @@
         <f t="shared" si="0"/>
         <v>Anesthesia Section (V2)</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>266</v>
       </c>
       <c r="D21" t="s">
@@ -29965,7 +29964,7 @@
         <f t="shared" si="0"/>
         <v>Assessment and Plan Section (V2)</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>269</v>
       </c>
       <c r="D22" t="s">
@@ -29992,7 +29991,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Assessment Section </v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>270</v>
       </c>
       <c r="D23" t="s">
@@ -30019,7 +30018,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Chief Complaint and Reason for Visit Section </v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>272</v>
       </c>
       <c r="D24" t="s">
@@ -30046,7 +30045,7 @@
         <f t="shared" si="0"/>
         <v>Chief Complaint Section</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>273</v>
       </c>
       <c r="D25" t="s">
@@ -30073,7 +30072,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Complications Section (V3) </v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>274</v>
       </c>
       <c r="D26" t="s">
@@ -30100,7 +30099,7 @@
         <f t="shared" si="0"/>
         <v>Course of Care Section</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>276</v>
       </c>
       <c r="D27" t="s">
@@ -30127,7 +30126,7 @@
         <f t="shared" si="0"/>
         <v>DICOM Object Catalog Section - DCM 121181</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>278</v>
       </c>
       <c r="D28" t="s">
@@ -30154,7 +30153,7 @@
         <f t="shared" si="0"/>
         <v>Discharge Diagnosis Section (V3)</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>281</v>
       </c>
       <c r="D29" t="s">
@@ -30181,7 +30180,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Discharge Diet Section (DEPRECATED) </v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>283</v>
       </c>
       <c r="D30" t="s">
@@ -30208,7 +30207,7 @@
         <f t="shared" si="0"/>
         <v>Discharge Medications Section (entries optional) (V3)</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>284</v>
       </c>
       <c r="D31" t="s">
@@ -30235,7 +30234,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Discharge Medications Section (entries required) (V3) </v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>286</v>
       </c>
       <c r="D32" t="s">
@@ -30262,7 +30261,7 @@
         <f t="shared" si="0"/>
         <v>Encounters Section (entries optional) (V3)</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>289</v>
       </c>
       <c r="D33" t="s">
@@ -30289,7 +30288,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Encounters Section (entries required) (V3) </v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>290</v>
       </c>
       <c r="D34" t="s">
@@ -30316,7 +30315,7 @@
         <f t="shared" si="0"/>
         <v>Family History Section (V3)</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>292</v>
       </c>
       <c r="D35" t="s">
@@ -30343,7 +30342,7 @@
         <f t="shared" si="0"/>
         <v>Fetus Subject Context</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>294</v>
       </c>
       <c r="D36" t="s">
@@ -30370,7 +30369,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Findings Section (DIR) </v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>296</v>
       </c>
       <c r="D37" t="s">
@@ -30397,7 +30396,7 @@
         <f t="shared" si="0"/>
         <v>Functional Status Section (V2)</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>297</v>
       </c>
       <c r="D38" t="s">
@@ -30424,7 +30423,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">General Status Section </v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>302</v>
       </c>
       <c r="D39" t="s">
@@ -30451,7 +30450,7 @@
         <f t="shared" si="0"/>
         <v>Goals Section</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>303</v>
       </c>
       <c r="D40" t="s">
@@ -30478,7 +30477,7 @@
         <f t="shared" si="0"/>
         <v>Health Concerns Section (V2)</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>305</v>
       </c>
       <c r="D41" t="s">
@@ -30505,7 +30504,7 @@
         <f t="shared" si="0"/>
         <v>Health Status Evaluations and Outcomes Section</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>308</v>
       </c>
       <c r="D42" t="s">
@@ -30532,7 +30531,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">History of Present Illness Section </v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>310</v>
       </c>
       <c r="D43" t="s">
@@ -30559,7 +30558,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Hospital Consultations Section </v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>312</v>
       </c>
       <c r="D44" t="s">
@@ -30586,7 +30585,7 @@
         <f t="shared" si="0"/>
         <v>Hospital Course Section</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>314</v>
       </c>
       <c r="D45" t="s">
@@ -30613,7 +30612,7 @@
         <f t="shared" si="0"/>
         <v>Hospital Discharge Instructions Section</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>315</v>
       </c>
       <c r="D46" t="s">
@@ -30640,7 +30639,7 @@
         <f t="shared" si="0"/>
         <v>Hospital Discharge Physical Section</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>316</v>
       </c>
       <c r="D47" t="s">
@@ -30667,7 +30666,7 @@
         <f t="shared" si="0"/>
         <v>Hospital Discharge Studies Summary Section</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>318</v>
       </c>
       <c r="D48" t="s">
@@ -30694,7 +30693,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Immunizations Section (entries optional) (V3) </v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>320</v>
       </c>
       <c r="D49" t="s">
@@ -30721,7 +30720,7 @@
         <f t="shared" si="0"/>
         <v>Immunizations Section (entries required) (V3)</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>321</v>
       </c>
       <c r="D50" t="s">
@@ -30748,7 +30747,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Implants Section (DEPRECATED) </v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>325</v>
       </c>
       <c r="D51" t="s">
@@ -30775,7 +30774,7 @@
         <f t="shared" si="0"/>
         <v>Instructions Section (V2)</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>326</v>
       </c>
       <c r="D52" t="s">
@@ -30802,7 +30801,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Interventions Section (V3) </v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>328</v>
       </c>
       <c r="D53" t="s">
@@ -30829,7 +30828,7 @@
         <f t="shared" si="0"/>
         <v>Medical (General) History Section</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>330</v>
       </c>
       <c r="D54" t="s">
@@ -30856,7 +30855,7 @@
         <f t="shared" si="0"/>
         <v>Medical Equipment Section (V2)</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>331</v>
       </c>
       <c r="D55" t="s">
@@ -30883,7 +30882,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Medications Administered Section (V2) </v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>334</v>
       </c>
       <c r="D56" t="s">
@@ -30910,7 +30909,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Medications Section (entries optional) (V2) </v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>337</v>
       </c>
       <c r="D57" t="s">
@@ -30937,7 +30936,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Medications Section (entries required) (V2) </v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>338</v>
       </c>
       <c r="D58" t="s">
@@ -30964,7 +30963,7 @@
         <f t="shared" ref="B59:B122" si="1">LEFT(A59,LEN(A59)-3)</f>
         <v>Mental Status Section (V2)</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <v>340</v>
       </c>
       <c r="D59" t="s">
@@ -30991,7 +30990,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Nutrition Section </v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>345</v>
       </c>
       <c r="D60" t="s">
@@ -31018,7 +31017,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Objective Section </v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>347</v>
       </c>
       <c r="D61" t="s">
@@ -31045,7 +31044,7 @@
         <f t="shared" si="1"/>
         <v>Observer Context</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>348</v>
       </c>
       <c r="D62" t="s">
@@ -31072,7 +31071,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Operative Note Fluids Section </v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63">
         <v>349</v>
       </c>
       <c r="D63" t="s">
@@ -31099,7 +31098,7 @@
         <f t="shared" si="1"/>
         <v>Operative Note Surgical Procedure Section</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>350</v>
       </c>
       <c r="D64" t="s">
@@ -31126,7 +31125,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Past Medical History (V3) </v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>352</v>
       </c>
       <c r="D65" t="s">
@@ -31153,7 +31152,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Payers Section (V3) </v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <v>353</v>
       </c>
       <c r="D66" t="s">
@@ -31180,7 +31179,7 @@
         <f t="shared" si="1"/>
         <v>Physical Exam Section (V3)</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67">
         <v>356</v>
       </c>
       <c r="D67" t="s">
@@ -31207,7 +31206,7 @@
         <f t="shared" si="1"/>
         <v>Plan of Treatment Section (V2)</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <v>360</v>
       </c>
       <c r="D68" t="s">
@@ -31234,7 +31233,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Planned Procedure Section (V2) </v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69">
         <v>365</v>
       </c>
       <c r="D69" t="s">
@@ -31261,7 +31260,7 @@
         <f t="shared" si="1"/>
         <v>Postoperative Diagnosis Section</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70">
         <v>367</v>
       </c>
       <c r="D70" t="s">
@@ -31288,7 +31287,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Postprocedure Diagnosis Section (V3) </v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71">
         <v>368</v>
       </c>
       <c r="D71" t="s">
@@ -31315,7 +31314,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Preoperative Diagnosis Section (V3) </v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <v>370</v>
       </c>
       <c r="D72" t="s">
@@ -31342,7 +31341,7 @@
         <f t="shared" si="1"/>
         <v>Problem Section (entries optional) (V3)</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>372</v>
       </c>
       <c r="D73" t="s">
@@ -31369,7 +31368,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> Problem Section (entries required) (V3) </v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <v>374</v>
       </c>
       <c r="D74" t="s">
@@ -31396,7 +31395,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Procedure Description Section </v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>378</v>
       </c>
       <c r="D75" t="s">
@@ -31423,7 +31422,7 @@
         <f t="shared" si="1"/>
         <v>Procedure Disposition Section</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>380</v>
       </c>
       <c r="D76" t="s">
@@ -31450,7 +31449,7 @@
         <f t="shared" si="1"/>
         <v>Procedure Estimated Blood Loss Section</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <v>381</v>
       </c>
       <c r="D77" t="s">
@@ -31477,7 +31476,7 @@
         <f t="shared" si="1"/>
         <v>Procedure Findings Section (V3)</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>382</v>
       </c>
       <c r="D78" t="s">
@@ -31504,7 +31503,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Procedure Implants Section </v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <v>384</v>
       </c>
       <c r="D79" t="s">
@@ -31531,7 +31530,7 @@
         <f t="shared" si="1"/>
         <v>Procedure Indications Section (V2)</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80">
         <v>385</v>
       </c>
       <c r="D80" t="s">
@@ -31558,7 +31557,7 @@
         <f t="shared" si="1"/>
         <v>Procedure Specimens Taken Section</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81">
         <v>387</v>
       </c>
       <c r="D81" t="s">
@@ -31585,7 +31584,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Procedures Section (entries optional) (V2) </v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82">
         <v>388</v>
       </c>
       <c r="D82" t="s">
@@ -31612,7 +31611,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> Procedures Section (entries required) (V2)</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83">
         <v>390</v>
       </c>
       <c r="D83" t="s">
@@ -31639,7 +31638,7 @@
         <f t="shared" si="1"/>
         <v>Reason for Referral Section (V2)</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <v>393</v>
       </c>
       <c r="D84" t="s">
@@ -31666,7 +31665,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Reason for Visit Section </v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85">
         <v>395</v>
       </c>
       <c r="D85" t="s">
@@ -31693,7 +31692,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Results Section (entries optional) (V3) </v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86">
         <v>397</v>
       </c>
       <c r="D86" t="s">
@@ -31720,7 +31719,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> Results Section (entries required) (V3) </v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87">
         <v>399</v>
       </c>
       <c r="D87" t="s">
@@ -31747,7 +31746,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Review of Systems Section </v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88">
         <v>401</v>
       </c>
       <c r="D88" t="s">
@@ -31774,7 +31773,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Social History Section (V3) </v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>403</v>
       </c>
       <c r="D89" t="s">
@@ -31801,7 +31800,7 @@
         <f t="shared" si="1"/>
         <v>Subjective Section</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>407</v>
       </c>
       <c r="D90" t="s">
@@ -31828,7 +31827,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Surgery Description Section (DEPRECATED) </v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>408</v>
       </c>
       <c r="D91" t="s">
@@ -31855,7 +31854,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Surgical Drains Section </v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>409</v>
       </c>
       <c r="D92" t="s">
@@ -31882,7 +31881,7 @@
         <f t="shared" si="1"/>
         <v>Vital Signs Section (entries optional) (V3)</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>411</v>
       </c>
       <c r="D93" t="s">
@@ -31909,7 +31908,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Vital Signs Section (entries required) (V3) </v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>412</v>
       </c>
       <c r="D94" t="s">
@@ -31936,7 +31935,7 @@
         <f t="shared" si="1"/>
         <v>Admission Medication (V2)</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>415</v>
       </c>
       <c r="D95" t="s">
@@ -31963,7 +31962,7 @@
         <f t="shared" si="1"/>
         <v>Advance Directive Observation (V3)</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>417</v>
       </c>
       <c r="D96" t="s">
@@ -31990,7 +31989,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Advance Directive Organizer (V2) </v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>426</v>
       </c>
       <c r="D97" t="s">
@@ -32017,7 +32016,7 @@
         <f t="shared" si="1"/>
         <v>Age Observation</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>430</v>
       </c>
       <c r="D98" t="s">
@@ -32044,7 +32043,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Allergy Concern Act (V3) </v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>432</v>
       </c>
       <c r="D99" t="s">
@@ -32071,7 +32070,7 @@
         <f t="shared" si="1"/>
         <v>Allergy Status Observation</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>436</v>
       </c>
       <c r="D100" t="s">
@@ -32098,7 +32097,7 @@
         <f t="shared" si="1"/>
         <v>Assessment Scale Observation</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>438</v>
       </c>
       <c r="D101" t="s">
@@ -32125,7 +32124,7 @@
         <f t="shared" si="1"/>
         <v>Assessment Scale Supporting Observation</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>441</v>
       </c>
       <c r="D102" t="s">
@@ -32152,7 +32151,7 @@
         <f t="shared" si="1"/>
         <v>Authorization Activity</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>443</v>
       </c>
       <c r="D103" t="s">
@@ -32179,7 +32178,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Boundary Observation </v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>444</v>
       </c>
       <c r="D104" t="s">
@@ -32206,7 +32205,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Caregiver Characteristics </v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105">
         <v>445</v>
       </c>
       <c r="D105" t="s">
@@ -32233,7 +32232,7 @@
         <f t="shared" si="1"/>
         <v>Characteristics of Home Environment</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106">
         <v>447</v>
       </c>
       <c r="D106" t="s">
@@ -32260,7 +32259,7 @@
         <f t="shared" si="1"/>
         <v>Code Observations</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107">
         <v>450</v>
       </c>
       <c r="D107" t="s">
@@ -32287,7 +32286,7 @@
         <f t="shared" si="1"/>
         <v>Cognitive Status Problem Observation (DEPRECATED)</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108">
         <v>452</v>
       </c>
       <c r="D108" t="s">
@@ -32314,7 +32313,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Comment Activity </v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109">
         <v>455</v>
       </c>
       <c r="D109" t="s">
@@ -32341,7 +32340,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Coverage Activity (V3) </v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110">
         <v>457</v>
       </c>
       <c r="D110" t="s">
@@ -32368,7 +32367,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Criticality Observation </v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111">
         <v>460</v>
       </c>
       <c r="D111" t="s">
@@ -32395,7 +32394,7 @@
         <f t="shared" si="1"/>
         <v>Cultural and Religious Observation</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112">
         <v>462</v>
       </c>
       <c r="D112" t="s">
@@ -32422,7 +32421,7 @@
         <f t="shared" si="1"/>
         <v>Deceased Observation (V3)</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113">
         <v>463</v>
       </c>
       <c r="D113" t="s">
@@ -32449,7 +32448,7 @@
         <f t="shared" si="1"/>
         <v>Discharge Medication (V3)</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114">
         <v>467</v>
       </c>
       <c r="D114" t="s">
@@ -32476,7 +32475,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Drug Monitoring Act </v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115">
         <v>470</v>
       </c>
       <c r="D115" t="s">
@@ -32503,7 +32502,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Drug Vehicle </v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116">
         <v>474</v>
       </c>
       <c r="D116" t="s">
@@ -32530,7 +32529,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Encounter Activity (V3) </v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117">
         <v>475</v>
       </c>
       <c r="D117" t="s">
@@ -32557,7 +32556,7 @@
         <f t="shared" si="1"/>
         <v>Encounter Diagnosis (V3)</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118">
         <v>487</v>
       </c>
       <c r="D118" t="s">
@@ -32584,7 +32583,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Entry Reference </v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119">
         <v>489</v>
       </c>
       <c r="D119" t="s">
@@ -32611,7 +32610,7 @@
         <f t="shared" si="1"/>
         <v>Estimated Date of Delivery</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120">
         <v>494</v>
       </c>
       <c r="D120" t="s">
@@ -32638,7 +32637,7 @@
         <f t="shared" si="1"/>
         <v>External Document Reference</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121">
         <v>495</v>
       </c>
       <c r="D121" t="s">
@@ -32665,7 +32664,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Family History Death Observation </v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122">
         <v>497</v>
       </c>
       <c r="D122" t="s">
@@ -32692,7 +32691,7 @@
         <f t="shared" ref="B123:B186" si="2">LEFT(A123,LEN(A123)-3)</f>
         <v>Family History Observation (V3)</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123">
         <v>499</v>
       </c>
       <c r="D123" t="s">
@@ -32719,7 +32718,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Family History Organizer (V3) </v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124">
         <v>504</v>
       </c>
       <c r="D124" t="s">
@@ -32746,7 +32745,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Functional Status Observation (V2) </v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125">
         <v>508</v>
       </c>
       <c r="D125" t="s">
@@ -32773,7 +32772,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Functional Status Organizer (V2) </v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126">
         <v>511</v>
       </c>
       <c r="D126" t="s">
@@ -32800,7 +32799,7 @@
         <f t="shared" si="2"/>
         <v>Functional Status Problem Observation (DEPRECATED)</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127">
         <v>515</v>
       </c>
       <c r="D127" t="s">
@@ -32827,7 +32826,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Goal Observation </v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128">
         <v>518</v>
       </c>
       <c r="D128" t="s">
@@ -32854,7 +32853,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Handoff Communication Participants </v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129">
         <v>524</v>
       </c>
       <c r="D129" t="s">
@@ -32881,7 +32880,7 @@
         <f t="shared" si="2"/>
         <v>Health Concern Act (V2)</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130">
         <v>528</v>
       </c>
       <c r="D130" t="s">
@@ -32908,7 +32907,7 @@
         <f t="shared" si="2"/>
         <v>Health Status Observation (V2)</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131">
         <v>544</v>
       </c>
       <c r="D131" t="s">
@@ -32935,7 +32934,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Highest Pressure Ulcer Stage </v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132">
         <v>547</v>
       </c>
       <c r="D132" t="s">
@@ -32962,7 +32961,7 @@
         <f t="shared" si="2"/>
         <v>Hospital Admission Diagnosis (V3)</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133">
         <v>548</v>
       </c>
       <c r="D133" t="s">
@@ -32989,7 +32988,7 @@
         <f t="shared" si="2"/>
         <v>Hospital Discharge Diagnosis (V3)</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134">
         <v>550</v>
       </c>
       <c r="D134" t="s">
@@ -33016,7 +33015,7 @@
         <f t="shared" si="2"/>
         <v>Immunization Activity (V3)</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135">
         <v>553</v>
       </c>
       <c r="D135" t="s">
@@ -33043,7 +33042,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Immunization Medication Information (V2) </v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136">
         <v>567</v>
       </c>
       <c r="D136" t="s">
@@ -33070,7 +33069,7 @@
         <f t="shared" si="2"/>
         <v>Immunization Refusal Reason</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137">
         <v>573</v>
       </c>
       <c r="D137" t="s">
@@ -33097,7 +33096,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Indication (V2) </v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138">
         <v>575</v>
       </c>
       <c r="D138" t="s">
@@ -33124,7 +33123,7 @@
         <f t="shared" si="2"/>
         <v>Instruction (V2)</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139">
         <v>578</v>
       </c>
       <c r="D139" t="s">
@@ -33151,7 +33150,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Intervention Act (V2) </v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140">
         <v>581</v>
       </c>
       <c r="D140" t="s">
@@ -33178,7 +33177,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Medical Equipment Organizer </v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141">
         <v>590</v>
       </c>
       <c r="D141" t="s">
@@ -33205,7 +33204,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Medication Activity (V2) </v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142">
         <v>594</v>
       </c>
       <c r="D142" t="s">
@@ -33232,7 +33231,7 @@
         <f t="shared" si="2"/>
         <v>Medication Dispense (V2)</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143">
         <v>604</v>
       </c>
       <c r="D143" t="s">
@@ -33259,7 +33258,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Medication Free Text Sig </v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144">
         <v>607</v>
       </c>
       <c r="D144" t="s">
@@ -33286,7 +33285,7 @@
         <f t="shared" si="2"/>
         <v>Medication Information (V2)</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145">
         <v>609</v>
       </c>
       <c r="D145" t="s">
@@ -33313,7 +33312,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Medication Supply Order (V2) </v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146">
         <v>617</v>
       </c>
       <c r="D146" t="s">
@@ -33340,7 +33339,7 @@
         <f t="shared" si="2"/>
         <v>Mental Status Observation (V3)</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147">
         <v>620</v>
       </c>
       <c r="D147" t="s">
@@ -33367,7 +33366,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Mental Status Organizer (V3) </v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148">
         <v>625</v>
       </c>
       <c r="D148" t="s">
@@ -33394,7 +33393,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Non-Medicinal Supply Activity (V2) </v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149">
         <v>628</v>
       </c>
       <c r="D149" t="s">
@@ -33421,7 +33420,7 @@
         <f t="shared" si="2"/>
         <v>Number of Pressure Ulcers Observation (V3)</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150">
         <v>631</v>
       </c>
       <c r="D150" t="s">
@@ -33448,7 +33447,7 @@
         <f t="shared" si="2"/>
         <v>Nutrition Assessment</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151">
         <v>635</v>
       </c>
       <c r="D151" t="s">
@@ -33475,7 +33474,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Nutrition Recommendation </v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152">
         <v>638</v>
       </c>
       <c r="D152" t="s">
@@ -33502,7 +33501,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Nutritional Status Observation </v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153">
         <v>643</v>
       </c>
       <c r="D153" t="s">
@@ -33529,7 +33528,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Outcome Observation </v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154">
         <v>647</v>
       </c>
       <c r="D154" t="s">
@@ -33556,7 +33555,7 @@
         <f t="shared" si="2"/>
         <v>Patient Referral Act</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155">
         <v>651</v>
       </c>
       <c r="D155" t="s">
@@ -33583,7 +33582,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Planned Act (V2) </v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156">
         <v>660</v>
       </c>
       <c r="D156" t="s">
@@ -33610,7 +33609,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Planned Coverage </v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157">
         <v>663</v>
       </c>
       <c r="D157" t="s">
@@ -33637,7 +33636,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Planned Encounter (V2) </v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158">
         <v>667</v>
       </c>
       <c r="D158" t="s">
@@ -33664,7 +33663,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Planned Immunization Activity </v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159">
         <v>671</v>
       </c>
       <c r="D159" t="s">
@@ -33691,7 +33690,7 @@
         <f t="shared" si="2"/>
         <v>Planned Intervention Act (V2)</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160">
         <v>677</v>
       </c>
       <c r="D160" t="s">
@@ -33718,7 +33717,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Planned Medication Activity (V2) </v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161">
         <v>686</v>
       </c>
       <c r="D161" t="s">
@@ -33745,7 +33744,7 @@
         <f t="shared" si="2"/>
         <v>Planned Observation (V2)</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162">
         <v>692</v>
       </c>
       <c r="D162" t="s">
@@ -33772,7 +33771,7 @@
         <f t="shared" si="2"/>
         <v>Planned Procedure (V2)</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163">
         <v>697</v>
       </c>
       <c r="D163" t="s">
@@ -33799,7 +33798,7 @@
         <f t="shared" si="2"/>
         <v>Planned Supply (V2)</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164">
         <v>703</v>
       </c>
       <c r="D164" t="s">
@@ -33826,7 +33825,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Policy Activity (V3) </v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165">
         <v>709</v>
       </c>
       <c r="D165" t="s">
@@ -33853,7 +33852,7 @@
         <f t="shared" si="2"/>
         <v>Postprocedure Diagnosis (V3)</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166">
         <v>721</v>
       </c>
       <c r="D166" t="s">
@@ -33880,7 +33879,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Precondition for Substance Administration (V2) </v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167">
         <v>723</v>
       </c>
       <c r="D167" t="s">
@@ -33907,7 +33906,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Pregnancy Observation </v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168">
         <v>725</v>
       </c>
       <c r="D168" t="s">
@@ -33934,7 +33933,7 @@
         <f t="shared" si="2"/>
         <v>Preoperative Diagnosis (V3)</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169">
         <v>727</v>
       </c>
       <c r="D169" t="s">
@@ -33961,7 +33960,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Pressure Ulcer Observation (DEPRECATED) </v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170">
         <v>729</v>
       </c>
       <c r="D170" t="s">
@@ -33988,7 +33987,7 @@
         <f t="shared" si="2"/>
         <v>Priority Preference</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171">
         <v>735</v>
       </c>
       <c r="D171" t="s">
@@ -34015,7 +34014,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Problem Concern Act (V3) </v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172">
         <v>738</v>
       </c>
       <c r="D172" t="s">
@@ -34042,7 +34041,7 @@
         <f t="shared" si="2"/>
         <v>Problem Observation (V3)</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173">
         <v>743</v>
       </c>
       <c r="D173" t="s">
@@ -34069,7 +34068,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Longitudinal Care Wound Observation (V2) </v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174">
         <v>750</v>
       </c>
       <c r="D174" t="s">
@@ -34096,7 +34095,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Problem Status </v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175">
         <v>756</v>
       </c>
       <c r="D175" t="s">
@@ -34123,7 +34122,7 @@
         <f t="shared" si="2"/>
         <v>Procedure Activity Act (V2)</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176">
         <v>758</v>
       </c>
       <c r="D176" t="s">
@@ -34150,7 +34149,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Procedure Activity Observation (V2) </v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177">
         <v>765</v>
       </c>
       <c r="D177" t="s">
@@ -34177,7 +34176,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Procedure Activity Procedure (V2) </v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178">
         <v>772</v>
       </c>
       <c r="D178" t="s">
@@ -34204,7 +34203,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Procedure Context </v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179">
         <v>779</v>
       </c>
       <c r="D179" t="s">
@@ -34231,7 +34230,7 @@
         <f t="shared" si="2"/>
         <v>Product Instance</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180">
         <v>781</v>
       </c>
       <c r="D180" t="s">
@@ -34258,7 +34257,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Prognosis Observation </v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181">
         <v>783</v>
       </c>
       <c r="D181" t="s">
@@ -34285,7 +34284,7 @@
         <f t="shared" si="2"/>
         <v>Progress Toward Goal Observation</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182">
         <v>785</v>
       </c>
       <c r="D182" t="s">
@@ -34312,7 +34311,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Purpose of Reference Observation </v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183">
         <v>787</v>
       </c>
       <c r="D183" t="s">
@@ -34339,7 +34338,7 @@
         <f t="shared" si="2"/>
         <v>Quantity Measurement Observation</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184">
         <v>789</v>
       </c>
       <c r="D184" t="s">
@@ -34366,7 +34365,7 @@
         <f t="shared" si="2"/>
         <v>Reaction Observation (V2)</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185">
         <v>793</v>
       </c>
       <c r="D185" t="s">
@@ -34393,7 +34392,7 @@
         <f t="shared" si="2"/>
         <v>Referenced Frames Observation</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186">
         <v>797</v>
       </c>
       <c r="D186" t="s">
@@ -34420,7 +34419,7 @@
         <f t="shared" ref="B187:B215" si="3">LEFT(A187,LEN(A187)-3)</f>
         <v xml:space="preserve">Result Observation (V3) </v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187">
         <v>798</v>
       </c>
       <c r="D187" t="s">
@@ -34447,7 +34446,7 @@
         <f t="shared" si="3"/>
         <v>Result Organizer (V3)</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188">
         <v>803</v>
       </c>
       <c r="D188" t="s">
@@ -34474,7 +34473,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Risk Concern Act (V2) </v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189">
         <v>807</v>
       </c>
       <c r="D189" t="s">
@@ -34501,7 +34500,7 @@
         <f t="shared" si="3"/>
         <v>Self-Care Activities (ADL and IADL)</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190">
         <v>823</v>
       </c>
       <c r="D190" t="s">
@@ -34528,7 +34527,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Sensory Status </v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191">
         <v>826</v>
       </c>
       <c r="D191" t="s">
@@ -34555,7 +34554,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Series Act </v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192">
         <v>831</v>
       </c>
       <c r="D192" t="s">
@@ -34582,7 +34581,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Service Delivery Location </v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193">
         <v>834</v>
       </c>
       <c r="D193" t="s">
@@ -34609,7 +34608,7 @@
         <f t="shared" si="3"/>
         <v>Severity Observation (V2)</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194">
         <v>837</v>
       </c>
       <c r="D194" t="s">
@@ -34636,7 +34635,7 @@
         <f t="shared" si="3"/>
         <v>Smoking Status - Meaningful Use (V2)</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195">
         <v>840</v>
       </c>
       <c r="D195" t="s">
@@ -34663,7 +34662,7 @@
         <f t="shared" si="3"/>
         <v>Social History Observation (V3)</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196">
         <v>844</v>
       </c>
       <c r="D196" t="s">
@@ -34690,7 +34689,7 @@
         <f t="shared" si="3"/>
         <v>SOP Instance Observation</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197">
         <v>848</v>
       </c>
       <c r="D197" t="s">
@@ -34717,7 +34716,7 @@
         <f t="shared" si="3"/>
         <v>Study Act</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198">
         <v>851</v>
       </c>
       <c r="D198" t="s">
@@ -34744,7 +34743,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Substance Administered Act </v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199">
         <v>853</v>
       </c>
       <c r="D199" t="s">
@@ -34771,7 +34770,7 @@
         <f t="shared" si="3"/>
         <v>Substance or Device Allergy - Intolerance Observation (V2)</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200">
         <v>855</v>
       </c>
       <c r="D200" t="s">
@@ -34798,7 +34797,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Allergy - Intolerance Observation (V2) </v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201">
         <v>862</v>
       </c>
       <c r="D201" t="s">
@@ -34825,7 +34824,7 @@
         <f t="shared" si="3"/>
         <v>Text Observation</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202">
         <v>868</v>
       </c>
       <c r="D202" t="s">
@@ -34852,7 +34851,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Tobacco Use (V2) </v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203">
         <v>871</v>
       </c>
       <c r="D203" t="s">
@@ -34879,7 +34878,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Vital Sign Observation (V2) </v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204">
         <v>875</v>
       </c>
       <c r="D204" t="s">
@@ -34906,7 +34905,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Vital Signs Organizer (V3) </v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205">
         <v>879</v>
       </c>
       <c r="D205" t="s">
@@ -34933,7 +34932,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Wound Characteristic </v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206">
         <v>883</v>
       </c>
       <c r="D206" t="s">
@@ -34960,7 +34959,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Wound Measurement Observation </v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207">
         <v>885</v>
       </c>
       <c r="D207" t="s">
@@ -34987,7 +34986,7 @@
         <f t="shared" si="3"/>
         <v>Author Participation</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208">
         <v>888</v>
       </c>
       <c r="D208" t="s">
@@ -35014,7 +35013,7 @@
         <f t="shared" si="3"/>
         <v>Physician of Record Participant (V2)</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209">
         <v>892</v>
       </c>
       <c r="D209" t="s">
@@ -35041,7 +35040,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Physician Reading Study Performer (V2) </v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210">
         <v>894</v>
       </c>
       <c r="D210" t="s">
@@ -35068,7 +35067,7 @@
         <f t="shared" si="3"/>
         <v>US Realm Address (ADUSFIELDED)</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211">
         <v>896</v>
       </c>
       <c r="D211" t="s">
@@ -35095,7 +35094,7 @@
         <f t="shared" si="3"/>
         <v>US Realm Date and Time (DTUSFIELDED)</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212">
         <v>900</v>
       </c>
       <c r="D212" t="s">
@@ -35122,7 +35121,7 @@
         <f t="shared" si="3"/>
         <v>US Realm Date and Time (DTMUSFIELDED)</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213">
         <v>900</v>
       </c>
       <c r="D213" t="s">
@@ -35149,7 +35148,7 @@
         <f t="shared" si="3"/>
         <v>US Realm Patient Name (PTNUSFIELDED)</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214">
         <v>901</v>
       </c>
       <c r="D214" t="s">
@@ -35176,7 +35175,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">US Realm Person Name (PNUSFIELDED) </v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215">
         <v>904</v>
       </c>
       <c r="D215" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Repos\ccda-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F436ABB-7915-4E93-822D-5EC39CEBDC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4AABBD-354C-4B35-9C52-711CA3E4E557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="pub_releases_dates" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="2022_New_Pages" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1869">
   <si>
     <t>Template_Type</t>
   </si>
@@ -6504,8 +6505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M240"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G216" sqref="D2:G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35461,4 +35462,3245 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16808B2F-A187-4C43-8DFB-56A6B23E538C}">
+  <dimension ref="H16:K230"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:K230"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="16" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>87</v>
+      </c>
+      <c r="J16">
+        <v>101</v>
+      </c>
+      <c r="K16" t="str">
+        <f>"{ 'index':'"&amp;H16&amp;"', 'start':"&amp;I16&amp;", 'end':"&amp;J16&amp;"},"</f>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.15', 'start':87, 'end':101},</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>101</v>
+      </c>
+      <c r="J17">
+        <v>117</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ref="K17:K80" si="0">"{ 'index':'"&amp;H17&amp;"', 'start':"&amp;I17&amp;", 'end':"&amp;J17&amp;"},"</f>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.4', 'start':101, 'end':117},</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>117</v>
+      </c>
+      <c r="J18">
+        <v>127</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.2', 'start':117, 'end':127},</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>127</v>
+      </c>
+      <c r="J19">
+        <v>139</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.5', 'start':127, 'end':139},</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>139</v>
+      </c>
+      <c r="J20">
+        <v>153</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.8', 'start':139, 'end':153},</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>153</v>
+      </c>
+      <c r="J21">
+        <v>164</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.3', 'start':153, 'end':164},</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>164</v>
+      </c>
+      <c r="J22">
+        <v>176</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.7', 'start':164, 'end':176},</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>176</v>
+      </c>
+      <c r="J23">
+        <v>192</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.6', 'start':176, 'end':192},</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>192</v>
+      </c>
+      <c r="J24">
+        <v>202</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.9', 'start':192, 'end':202},</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25">
+        <v>202</v>
+      </c>
+      <c r="J25">
+        <v>215</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.14', 'start':202, 'end':215},</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26">
+        <v>215</v>
+      </c>
+      <c r="J26">
+        <v>229</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.13', 'start':215, 'end':229},</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>229</v>
+      </c>
+      <c r="J27">
+        <v>233</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.10', 'start':229, 'end':233},</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+      <c r="J28">
+        <v>257</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.43', 'start':255, 'end':257},</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <v>257</v>
+      </c>
+      <c r="J29">
+        <v>258</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.44', 'start':257, 'end':258},</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30">
+        <v>258</v>
+      </c>
+      <c r="J30">
+        <v>260</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.21', 'start':258, 'end':260},</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>260</v>
+      </c>
+      <c r="J31">
+        <v>263</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.21.1', 'start':260, 'end':263},</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>263</v>
+      </c>
+      <c r="J32">
+        <v>264</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.6', 'start':263, 'end':264},</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33">
+        <v>264</v>
+      </c>
+      <c r="J33">
+        <v>266</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.6.1', 'start':264, 'end':266},</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34">
+        <v>266</v>
+      </c>
+      <c r="J34">
+        <v>269</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.25', 'start':266, 'end':269},</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35">
+        <v>269</v>
+      </c>
+      <c r="J35">
+        <v>270</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.9', 'start':269, 'end':270},</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <v>270</v>
+      </c>
+      <c r="J36">
+        <v>272</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.8', 'start':270, 'end':272},</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37">
+        <v>272</v>
+      </c>
+      <c r="J37">
+        <v>273</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.13', 'start':272, 'end':273},</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38">
+        <v>273</v>
+      </c>
+      <c r="J38">
+        <v>274</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1', 'start':273, 'end':274},</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39">
+        <v>274</v>
+      </c>
+      <c r="J39">
+        <v>276</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.37', 'start':274, 'end':276},</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40">
+        <v>276</v>
+      </c>
+      <c r="J40">
+        <v>278</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.64', 'start':276, 'end':278},</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41">
+        <v>278</v>
+      </c>
+      <c r="J41">
+        <v>281</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.1.1', 'start':278, 'end':281},</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>654</v>
+      </c>
+      <c r="I42">
+        <v>281</v>
+      </c>
+      <c r="J42">
+        <v>283</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.24', 'start':281, 'end':283},</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43">
+        <v>283</v>
+      </c>
+      <c r="J43">
+        <v>284</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'1.3.6.1.4.1.19376.1.5.3.1.3.33', 'start':283, 'end':284},</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44">
+        <v>284</v>
+      </c>
+      <c r="J44">
+        <v>286</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.11', 'start':284, 'end':286},</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45">
+        <v>286</v>
+      </c>
+      <c r="J45">
+        <v>289</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.11.1', 'start':286, 'end':289},</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46">
+        <v>289</v>
+      </c>
+      <c r="J46">
+        <v>290</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.22', 'start':289, 'end':290},</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47">
+        <v>290</v>
+      </c>
+      <c r="J47">
+        <v>292</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.22.1', 'start':290, 'end':292},</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48">
+        <v>292</v>
+      </c>
+      <c r="J48">
+        <v>294</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.15', 'start':292, 'end':294},</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>294</v>
+      </c>
+      <c r="J49">
+        <v>296</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.3', 'start':294, 'end':296},</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50">
+        <v>296</v>
+      </c>
+      <c r="J50">
+        <v>297</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.1.2', 'start':296, 'end':297},</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51">
+        <v>297</v>
+      </c>
+      <c r="J51">
+        <v>302</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.14', 'start':297, 'end':302},</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52">
+        <v>302</v>
+      </c>
+      <c r="J52">
+        <v>303</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.2.5', 'start':302, 'end':303},</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53">
+        <v>303</v>
+      </c>
+      <c r="J53">
+        <v>305</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.60', 'start':303, 'end':305},</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54">
+        <v>305</v>
+      </c>
+      <c r="J54">
+        <v>308</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.58', 'start':305, 'end':308},</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55">
+        <v>308</v>
+      </c>
+      <c r="J55">
+        <v>310</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.61', 'start':308, 'end':310},</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56">
+        <v>310</v>
+      </c>
+      <c r="J56">
+        <v>312</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'1.3.6.1.4.1.19376.1.5.3.1.3.4', 'start':310, 'end':312},</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57">
+        <v>312</v>
+      </c>
+      <c r="J57">
+        <v>314</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.42', 'start':312, 'end':314},</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58">
+        <v>314</v>
+      </c>
+      <c r="J58">
+        <v>315</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'1.3.6.1.4.1.19376.1.5.3.1.3.5', 'start':314, 'end':315},</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59">
+        <v>315</v>
+      </c>
+      <c r="J59">
+        <v>316</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.41', 'start':315, 'end':316},</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I60">
+        <v>316</v>
+      </c>
+      <c r="J60">
+        <v>318</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'1.3.6.1.4.1.19376.1.5.3.1.3.26', 'start':316, 'end':318},</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>99</v>
+      </c>
+      <c r="I61">
+        <v>318</v>
+      </c>
+      <c r="J61">
+        <v>320</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.16', 'start':318, 'end':320},</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62">
+        <v>320</v>
+      </c>
+      <c r="J62">
+        <v>321</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.2', 'start':320, 'end':321},</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>103</v>
+      </c>
+      <c r="I63">
+        <v>321</v>
+      </c>
+      <c r="J63">
+        <v>325</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.2.1', 'start':321, 'end':325},</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64">
+        <v>325</v>
+      </c>
+      <c r="J64">
+        <v>326</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.33', 'start':325, 'end':326},</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>107</v>
+      </c>
+      <c r="I65">
+        <v>326</v>
+      </c>
+      <c r="J65">
+        <v>328</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.45', 'start':326, 'end':328},</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66">
+        <v>328</v>
+      </c>
+      <c r="J66">
+        <v>330</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.21.2.3', 'start':328, 'end':330},</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>111</v>
+      </c>
+      <c r="I67">
+        <v>330</v>
+      </c>
+      <c r="J67">
+        <v>331</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.39', 'start':330, 'end':331},</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>113</v>
+      </c>
+      <c r="I68">
+        <v>331</v>
+      </c>
+      <c r="J68">
+        <v>334</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.23', 'start':331, 'end':334},</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>115</v>
+      </c>
+      <c r="I69">
+        <v>334</v>
+      </c>
+      <c r="J69">
+        <v>337</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.38', 'start':334, 'end':337},</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>117</v>
+      </c>
+      <c r="I70">
+        <v>337</v>
+      </c>
+      <c r="J70">
+        <v>338</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.1', 'start':337, 'end':338},</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>119</v>
+      </c>
+      <c r="I71">
+        <v>338</v>
+      </c>
+      <c r="J71">
+        <v>340</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.1.1', 'start':338, 'end':340},</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>121</v>
+      </c>
+      <c r="I72">
+        <v>340</v>
+      </c>
+      <c r="J72">
+        <v>345</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.56', 'start':340, 'end':345},</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>123</v>
+      </c>
+      <c r="I73">
+        <v>345</v>
+      </c>
+      <c r="J73">
+        <v>347</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.57', 'start':345, 'end':347},</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I74">
+        <v>347</v>
+      </c>
+      <c r="J74">
+        <v>348</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.21.2.1', 'start':347, 'end':348},</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>127</v>
+      </c>
+      <c r="I75">
+        <v>348</v>
+      </c>
+      <c r="J75">
+        <v>349</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.4', 'start':348, 'end':349},</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76">
+        <v>349</v>
+      </c>
+      <c r="J76">
+        <v>350</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.7.12', 'start':349, 'end':350},</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>131</v>
+      </c>
+      <c r="I77">
+        <v>350</v>
+      </c>
+      <c r="J77">
+        <v>352</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.7.14', 'start':350, 'end':352},</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>133</v>
+      </c>
+      <c r="I78">
+        <v>352</v>
+      </c>
+      <c r="J78">
+        <v>353</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.20', 'start':352, 'end':353},</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>135</v>
+      </c>
+      <c r="I79">
+        <v>353</v>
+      </c>
+      <c r="J79">
+        <v>356</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.18', 'start':353, 'end':356},</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>137</v>
+      </c>
+      <c r="I80">
+        <v>356</v>
+      </c>
+      <c r="J80">
+        <v>360</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="0"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.2.10', 'start':356, 'end':360},</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>139</v>
+      </c>
+      <c r="I81">
+        <v>360</v>
+      </c>
+      <c r="J81">
+        <v>365</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" ref="K81:K144" si="1">"{ 'index':'"&amp;H81&amp;"', 'start':"&amp;I81&amp;", 'end':"&amp;J81&amp;"},"</f>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.10', 'start':360, 'end':365},</v>
+      </c>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I82">
+        <v>365</v>
+      </c>
+      <c r="J82">
+        <v>367</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.30', 'start':365, 'end':367},</v>
+      </c>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83">
+        <v>367</v>
+      </c>
+      <c r="J83">
+        <v>368</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.35', 'start':367, 'end':368},</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>145</v>
+      </c>
+      <c r="I84">
+        <v>368</v>
+      </c>
+      <c r="J84">
+        <v>370</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.36', 'start':368, 'end':370},</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>147</v>
+      </c>
+      <c r="I85">
+        <v>370</v>
+      </c>
+      <c r="J85">
+        <v>372</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.34', 'start':370, 'end':372},</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>149</v>
+      </c>
+      <c r="I86">
+        <v>372</v>
+      </c>
+      <c r="J86">
+        <v>374</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.5', 'start':372, 'end':374},</v>
+      </c>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>151</v>
+      </c>
+      <c r="I87">
+        <v>374</v>
+      </c>
+      <c r="J87">
+        <v>378</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.5.1', 'start':374, 'end':378},</v>
+      </c>
+    </row>
+    <row r="88" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>153</v>
+      </c>
+      <c r="I88">
+        <v>378</v>
+      </c>
+      <c r="J88">
+        <v>380</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.27', 'start':378, 'end':380},</v>
+      </c>
+    </row>
+    <row r="89" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>155</v>
+      </c>
+      <c r="I89">
+        <v>380</v>
+      </c>
+      <c r="J89">
+        <v>381</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.18.2.12', 'start':380, 'end':381},</v>
+      </c>
+    </row>
+    <row r="90" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90">
+        <v>381</v>
+      </c>
+      <c r="J90">
+        <v>382</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.18.2.9', 'start':381, 'end':382},</v>
+      </c>
+    </row>
+    <row r="91" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>159</v>
+      </c>
+      <c r="I91">
+        <v>382</v>
+      </c>
+      <c r="J91">
+        <v>384</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.28', 'start':382, 'end':384},</v>
+      </c>
+    </row>
+    <row r="92" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>161</v>
+      </c>
+      <c r="I92">
+        <v>384</v>
+      </c>
+      <c r="J92">
+        <v>385</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.40', 'start':384, 'end':385},</v>
+      </c>
+    </row>
+    <row r="93" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>163</v>
+      </c>
+      <c r="I93">
+        <v>385</v>
+      </c>
+      <c r="J93">
+        <v>387</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.29', 'start':385, 'end':387},</v>
+      </c>
+    </row>
+    <row r="94" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>165</v>
+      </c>
+      <c r="I94">
+        <v>387</v>
+      </c>
+      <c r="J94">
+        <v>388</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.31', 'start':387, 'end':388},</v>
+      </c>
+    </row>
+    <row r="95" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>167</v>
+      </c>
+      <c r="I95">
+        <v>388</v>
+      </c>
+      <c r="J95">
+        <v>390</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.7', 'start':388, 'end':390},</v>
+      </c>
+    </row>
+    <row r="96" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>169</v>
+      </c>
+      <c r="I96">
+        <v>390</v>
+      </c>
+      <c r="J96">
+        <v>393</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.7.1', 'start':390, 'end':393},</v>
+      </c>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>171</v>
+      </c>
+      <c r="I97">
+        <v>393</v>
+      </c>
+      <c r="J97">
+        <v>395</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'1.3.6.1.4.1.19376.1.5.3.1.3.1', 'start':393, 'end':395},</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>173</v>
+      </c>
+      <c r="I98">
+        <v>395</v>
+      </c>
+      <c r="J98">
+        <v>397</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.12', 'start':395, 'end':397},</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>175</v>
+      </c>
+      <c r="I99">
+        <v>397</v>
+      </c>
+      <c r="J99">
+        <v>399</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.3', 'start':397, 'end':399},</v>
+      </c>
+    </row>
+    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>177</v>
+      </c>
+      <c r="I100">
+        <v>399</v>
+      </c>
+      <c r="J100">
+        <v>401</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.3.1', 'start':399, 'end':401},</v>
+      </c>
+    </row>
+    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>179</v>
+      </c>
+      <c r="I101">
+        <v>401</v>
+      </c>
+      <c r="J101">
+        <v>403</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'1.3.6.1.4.1.19376.1.5.3.1.3.18', 'start':401, 'end':403},</v>
+      </c>
+    </row>
+    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>181</v>
+      </c>
+      <c r="I102">
+        <v>403</v>
+      </c>
+      <c r="J102">
+        <v>407</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.17', 'start':403, 'end':407},</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>183</v>
+      </c>
+      <c r="I103">
+        <v>407</v>
+      </c>
+      <c r="J103">
+        <v>408</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.21.2.2', 'start':407, 'end':408},</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>185</v>
+      </c>
+      <c r="I104">
+        <v>408</v>
+      </c>
+      <c r="J104">
+        <v>409</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.26', 'start':408, 'end':409},</v>
+      </c>
+    </row>
+    <row r="105" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>187</v>
+      </c>
+      <c r="I105">
+        <v>409</v>
+      </c>
+      <c r="J105">
+        <v>411</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.7.13', 'start':409, 'end':411},</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>189</v>
+      </c>
+      <c r="I106">
+        <v>411</v>
+      </c>
+      <c r="J106">
+        <v>412</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.4', 'start':411, 'end':412},</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>191</v>
+      </c>
+      <c r="I107">
+        <v>412</v>
+      </c>
+      <c r="J107">
+        <v>415</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.2.4.1', 'start':412, 'end':415},</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>193</v>
+      </c>
+      <c r="I108">
+        <v>415</v>
+      </c>
+      <c r="J108">
+        <v>417</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.36', 'start':415, 'end':417},</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>195</v>
+      </c>
+      <c r="I109">
+        <v>417</v>
+      </c>
+      <c r="J109">
+        <v>426</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.48', 'start':417, 'end':426},</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>197</v>
+      </c>
+      <c r="I110">
+        <v>426</v>
+      </c>
+      <c r="J110">
+        <v>430</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.108', 'start':426, 'end':430},</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>199</v>
+      </c>
+      <c r="I111">
+        <v>430</v>
+      </c>
+      <c r="J111">
+        <v>432</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.31', 'start':430, 'end':432},</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>201</v>
+      </c>
+      <c r="I112">
+        <v>432</v>
+      </c>
+      <c r="J112">
+        <v>436</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.30', 'start':432, 'end':436},</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>203</v>
+      </c>
+      <c r="I113">
+        <v>436</v>
+      </c>
+      <c r="J113">
+        <v>438</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.28', 'start':436, 'end':438},</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>205</v>
+      </c>
+      <c r="I114">
+        <v>438</v>
+      </c>
+      <c r="J114">
+        <v>441</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.69', 'start':438, 'end':441},</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>207</v>
+      </c>
+      <c r="I115">
+        <v>441</v>
+      </c>
+      <c r="J115">
+        <v>443</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.86', 'start':441, 'end':443},</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>209</v>
+      </c>
+      <c r="I116">
+        <v>443</v>
+      </c>
+      <c r="J116">
+        <v>444</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.1.19', 'start':443, 'end':444},</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>211</v>
+      </c>
+      <c r="I117">
+        <v>444</v>
+      </c>
+      <c r="J117">
+        <v>445</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.11', 'start':444, 'end':445},</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>213</v>
+      </c>
+      <c r="I118">
+        <v>445</v>
+      </c>
+      <c r="J118">
+        <v>447</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.72', 'start':445, 'end':447},</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>215</v>
+      </c>
+      <c r="I119">
+        <v>447</v>
+      </c>
+      <c r="J119">
+        <v>450</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.109', 'start':447, 'end':450},</v>
+      </c>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>217</v>
+      </c>
+      <c r="I120">
+        <v>450</v>
+      </c>
+      <c r="J120">
+        <v>452</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.13', 'start':450, 'end':452},</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>219</v>
+      </c>
+      <c r="I121">
+        <v>452</v>
+      </c>
+      <c r="J121">
+        <v>455</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.73', 'start':452, 'end':455},</v>
+      </c>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>221</v>
+      </c>
+      <c r="I122">
+        <v>455</v>
+      </c>
+      <c r="J122">
+        <v>457</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.64', 'start':455, 'end':457},</v>
+      </c>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>223</v>
+      </c>
+      <c r="I123">
+        <v>457</v>
+      </c>
+      <c r="J123">
+        <v>460</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.60', 'start':457, 'end':460},</v>
+      </c>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>225</v>
+      </c>
+      <c r="I124">
+        <v>460</v>
+      </c>
+      <c r="J124">
+        <v>462</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.145', 'start':460, 'end':462},</v>
+      </c>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>227</v>
+      </c>
+      <c r="I125">
+        <v>462</v>
+      </c>
+      <c r="J125">
+        <v>463</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.111', 'start':462, 'end':463},</v>
+      </c>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>229</v>
+      </c>
+      <c r="I126">
+        <v>463</v>
+      </c>
+      <c r="J126">
+        <v>467</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.79', 'start':463, 'end':467},</v>
+      </c>
+    </row>
+    <row r="127" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>231</v>
+      </c>
+      <c r="I127">
+        <v>467</v>
+      </c>
+      <c r="J127">
+        <v>470</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.35', 'start':467, 'end':470},</v>
+      </c>
+    </row>
+    <row r="128" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>233</v>
+      </c>
+      <c r="I128">
+        <v>470</v>
+      </c>
+      <c r="J128">
+        <v>474</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.123', 'start':470, 'end':474},</v>
+      </c>
+    </row>
+    <row r="129" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>235</v>
+      </c>
+      <c r="I129">
+        <v>474</v>
+      </c>
+      <c r="J129">
+        <v>475</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.24', 'start':474, 'end':475},</v>
+      </c>
+    </row>
+    <row r="130" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>237</v>
+      </c>
+      <c r="I130">
+        <v>475</v>
+      </c>
+      <c r="J130">
+        <v>487</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.49', 'start':475, 'end':487},</v>
+      </c>
+    </row>
+    <row r="131" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>239</v>
+      </c>
+      <c r="I131">
+        <v>487</v>
+      </c>
+      <c r="J131">
+        <v>489</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.80', 'start':487, 'end':489},</v>
+      </c>
+    </row>
+    <row r="132" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>241</v>
+      </c>
+      <c r="I132">
+        <v>489</v>
+      </c>
+      <c r="J132">
+        <v>494</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.122', 'start':489, 'end':494},</v>
+      </c>
+    </row>
+    <row r="133" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>243</v>
+      </c>
+      <c r="I133">
+        <v>494</v>
+      </c>
+      <c r="J133">
+        <v>495</v>
+      </c>
+      <c r="K133" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.15.3.1', 'start':494, 'end':495},</v>
+      </c>
+    </row>
+    <row r="134" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>245</v>
+      </c>
+      <c r="I134">
+        <v>495</v>
+      </c>
+      <c r="J134">
+        <v>497</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.115', 'start':495, 'end':497},</v>
+      </c>
+    </row>
+    <row r="135" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>247</v>
+      </c>
+      <c r="I135">
+        <v>497</v>
+      </c>
+      <c r="J135">
+        <v>499</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.47', 'start':497, 'end':499},</v>
+      </c>
+    </row>
+    <row r="136" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>249</v>
+      </c>
+      <c r="I136">
+        <v>499</v>
+      </c>
+      <c r="J136">
+        <v>504</v>
+      </c>
+      <c r="K136" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.46', 'start':499, 'end':504},</v>
+      </c>
+    </row>
+    <row r="137" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>251</v>
+      </c>
+      <c r="I137">
+        <v>504</v>
+      </c>
+      <c r="J137">
+        <v>508</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.45', 'start':504, 'end':508},</v>
+      </c>
+    </row>
+    <row r="138" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>253</v>
+      </c>
+      <c r="I138">
+        <v>508</v>
+      </c>
+      <c r="J138">
+        <v>511</v>
+      </c>
+      <c r="K138" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.67', 'start':508, 'end':511},</v>
+      </c>
+    </row>
+    <row r="139" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>255</v>
+      </c>
+      <c r="I139">
+        <v>511</v>
+      </c>
+      <c r="J139">
+        <v>515</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.66', 'start':511, 'end':515},</v>
+      </c>
+    </row>
+    <row r="140" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>257</v>
+      </c>
+      <c r="I140">
+        <v>515</v>
+      </c>
+      <c r="J140">
+        <v>518</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.68', 'start':515, 'end':518},</v>
+      </c>
+    </row>
+    <row r="141" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>259</v>
+      </c>
+      <c r="I141">
+        <v>518</v>
+      </c>
+      <c r="J141">
+        <v>524</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.121', 'start':518, 'end':524},</v>
+      </c>
+    </row>
+    <row r="142" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I142">
+        <v>524</v>
+      </c>
+      <c r="J142">
+        <v>528</v>
+      </c>
+      <c r="K142" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.141', 'start':524, 'end':528},</v>
+      </c>
+    </row>
+    <row r="143" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>263</v>
+      </c>
+      <c r="I143">
+        <v>528</v>
+      </c>
+      <c r="J143">
+        <v>544</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.132', 'start':528, 'end':544},</v>
+      </c>
+    </row>
+    <row r="144" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>265</v>
+      </c>
+      <c r="I144">
+        <v>544</v>
+      </c>
+      <c r="J144">
+        <v>547</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="1"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.5', 'start':544, 'end':547},</v>
+      </c>
+    </row>
+    <row r="145" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>267</v>
+      </c>
+      <c r="I145">
+        <v>547</v>
+      </c>
+      <c r="J145">
+        <v>548</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" ref="K145:K208" si="2">"{ 'index':'"&amp;H145&amp;"', 'start':"&amp;I145&amp;", 'end':"&amp;J145&amp;"},"</f>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.77', 'start':547, 'end':548},</v>
+      </c>
+    </row>
+    <row r="146" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>269</v>
+      </c>
+      <c r="I146">
+        <v>548</v>
+      </c>
+      <c r="J146">
+        <v>550</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.34', 'start':548, 'end':550},</v>
+      </c>
+    </row>
+    <row r="147" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>271</v>
+      </c>
+      <c r="I147">
+        <v>550</v>
+      </c>
+      <c r="J147">
+        <v>553</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.33', 'start':550, 'end':553},</v>
+      </c>
+    </row>
+    <row r="148" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>273</v>
+      </c>
+      <c r="I148">
+        <v>553</v>
+      </c>
+      <c r="J148">
+        <v>567</v>
+      </c>
+      <c r="K148" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.52', 'start':553, 'end':567},</v>
+      </c>
+    </row>
+    <row r="149" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>275</v>
+      </c>
+      <c r="I149">
+        <v>567</v>
+      </c>
+      <c r="J149">
+        <v>573</v>
+      </c>
+      <c r="K149" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.54', 'start':567, 'end':573},</v>
+      </c>
+    </row>
+    <row r="150" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>277</v>
+      </c>
+      <c r="I150">
+        <v>573</v>
+      </c>
+      <c r="J150">
+        <v>575</v>
+      </c>
+      <c r="K150" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.53', 'start':573, 'end':575},</v>
+      </c>
+    </row>
+    <row r="151" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>279</v>
+      </c>
+      <c r="I151">
+        <v>575</v>
+      </c>
+      <c r="J151">
+        <v>578</v>
+      </c>
+      <c r="K151" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.19', 'start':575, 'end':578},</v>
+      </c>
+    </row>
+    <row r="152" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>281</v>
+      </c>
+      <c r="I152">
+        <v>578</v>
+      </c>
+      <c r="J152">
+        <v>581</v>
+      </c>
+      <c r="K152" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.20', 'start':578, 'end':581},</v>
+      </c>
+    </row>
+    <row r="153" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>283</v>
+      </c>
+      <c r="I153">
+        <v>581</v>
+      </c>
+      <c r="J153">
+        <v>590</v>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.131', 'start':581, 'end':590},</v>
+      </c>
+    </row>
+    <row r="154" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>651</v>
+      </c>
+      <c r="I154">
+        <v>590</v>
+      </c>
+      <c r="J154">
+        <v>594</v>
+      </c>
+      <c r="K154" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.135', 'start':590, 'end':594},</v>
+      </c>
+    </row>
+    <row r="155" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>286</v>
+      </c>
+      <c r="I155">
+        <v>594</v>
+      </c>
+      <c r="J155">
+        <v>604</v>
+      </c>
+      <c r="K155" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.16', 'start':594, 'end':604},</v>
+      </c>
+    </row>
+    <row r="156" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>288</v>
+      </c>
+      <c r="I156">
+        <v>604</v>
+      </c>
+      <c r="J156">
+        <v>607</v>
+      </c>
+      <c r="K156" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.18', 'start':604, 'end':607},</v>
+      </c>
+    </row>
+    <row r="157" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>290</v>
+      </c>
+      <c r="I157">
+        <v>607</v>
+      </c>
+      <c r="J157">
+        <v>609</v>
+      </c>
+      <c r="K157" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.147', 'start':607, 'end':609},</v>
+      </c>
+    </row>
+    <row r="158" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>292</v>
+      </c>
+      <c r="I158">
+        <v>609</v>
+      </c>
+      <c r="J158">
+        <v>617</v>
+      </c>
+      <c r="K158" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.23', 'start':609, 'end':617},</v>
+      </c>
+    </row>
+    <row r="159" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>294</v>
+      </c>
+      <c r="I159">
+        <v>617</v>
+      </c>
+      <c r="J159">
+        <v>620</v>
+      </c>
+      <c r="K159" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.17', 'start':617, 'end':620},</v>
+      </c>
+    </row>
+    <row r="160" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>296</v>
+      </c>
+      <c r="I160">
+        <v>620</v>
+      </c>
+      <c r="J160">
+        <v>625</v>
+      </c>
+      <c r="K160" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.74', 'start':620, 'end':625},</v>
+      </c>
+    </row>
+    <row r="161" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>298</v>
+      </c>
+      <c r="I161">
+        <v>625</v>
+      </c>
+      <c r="J161">
+        <v>628</v>
+      </c>
+      <c r="K161" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.75', 'start':625, 'end':628},</v>
+      </c>
+    </row>
+    <row r="162" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>300</v>
+      </c>
+      <c r="I162">
+        <v>628</v>
+      </c>
+      <c r="J162">
+        <v>631</v>
+      </c>
+      <c r="K162" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.50', 'start':628, 'end':631},</v>
+      </c>
+    </row>
+    <row r="163" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>302</v>
+      </c>
+      <c r="I163">
+        <v>631</v>
+      </c>
+      <c r="J163">
+        <v>635</v>
+      </c>
+      <c r="K163" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.76', 'start':631, 'end':635},</v>
+      </c>
+    </row>
+    <row r="164" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>304</v>
+      </c>
+      <c r="I164">
+        <v>635</v>
+      </c>
+      <c r="J164">
+        <v>638</v>
+      </c>
+      <c r="K164" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.138', 'start':635, 'end':638},</v>
+      </c>
+    </row>
+    <row r="165" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>652</v>
+      </c>
+      <c r="I165">
+        <v>638</v>
+      </c>
+      <c r="J165">
+        <v>643</v>
+      </c>
+      <c r="K165" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.130', 'start':638, 'end':643},</v>
+      </c>
+    </row>
+    <row r="166" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>307</v>
+      </c>
+      <c r="I166">
+        <v>643</v>
+      </c>
+      <c r="J166">
+        <v>647</v>
+      </c>
+      <c r="K166" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.124', 'start':643, 'end':647},</v>
+      </c>
+    </row>
+    <row r="167" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>309</v>
+      </c>
+      <c r="I167">
+        <v>647</v>
+      </c>
+      <c r="J167">
+        <v>651</v>
+      </c>
+      <c r="K167" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.144', 'start':647, 'end':651},</v>
+      </c>
+    </row>
+    <row r="168" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>311</v>
+      </c>
+      <c r="I168">
+        <v>651</v>
+      </c>
+      <c r="J168">
+        <v>660</v>
+      </c>
+      <c r="K168" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.140', 'start':651, 'end':660},</v>
+      </c>
+    </row>
+    <row r="169" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>313</v>
+      </c>
+      <c r="I169">
+        <v>660</v>
+      </c>
+      <c r="J169">
+        <v>663</v>
+      </c>
+      <c r="K169" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.39', 'start':660, 'end':663},</v>
+      </c>
+    </row>
+    <row r="170" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>315</v>
+      </c>
+      <c r="I170">
+        <v>663</v>
+      </c>
+      <c r="J170">
+        <v>667</v>
+      </c>
+      <c r="K170" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.129', 'start':663, 'end':667},</v>
+      </c>
+    </row>
+    <row r="171" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>317</v>
+      </c>
+      <c r="I171">
+        <v>667</v>
+      </c>
+      <c r="J171">
+        <v>671</v>
+      </c>
+      <c r="K171" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.40', 'start':667, 'end':671},</v>
+      </c>
+    </row>
+    <row r="172" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>319</v>
+      </c>
+      <c r="I172">
+        <v>671</v>
+      </c>
+      <c r="J172">
+        <v>677</v>
+      </c>
+      <c r="K172" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.120', 'start':671, 'end':677},</v>
+      </c>
+    </row>
+    <row r="173" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>321</v>
+      </c>
+      <c r="I173">
+        <v>677</v>
+      </c>
+      <c r="J173">
+        <v>686</v>
+      </c>
+      <c r="K173" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.146', 'start':677, 'end':686},</v>
+      </c>
+    </row>
+    <row r="174" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>323</v>
+      </c>
+      <c r="I174">
+        <v>686</v>
+      </c>
+      <c r="J174">
+        <v>692</v>
+      </c>
+      <c r="K174" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.42', 'start':686, 'end':692},</v>
+      </c>
+    </row>
+    <row r="175" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>325</v>
+      </c>
+      <c r="I175">
+        <v>692</v>
+      </c>
+      <c r="J175">
+        <v>697</v>
+      </c>
+      <c r="K175" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.44', 'start':692, 'end':697},</v>
+      </c>
+    </row>
+    <row r="176" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>327</v>
+      </c>
+      <c r="I176">
+        <v>697</v>
+      </c>
+      <c r="J176">
+        <v>703</v>
+      </c>
+      <c r="K176" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.41', 'start':697, 'end':703},</v>
+      </c>
+    </row>
+    <row r="177" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>329</v>
+      </c>
+      <c r="I177">
+        <v>703</v>
+      </c>
+      <c r="J177">
+        <v>709</v>
+      </c>
+      <c r="K177" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.43', 'start':703, 'end':709},</v>
+      </c>
+    </row>
+    <row r="178" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>331</v>
+      </c>
+      <c r="I178">
+        <v>709</v>
+      </c>
+      <c r="J178">
+        <v>721</v>
+      </c>
+      <c r="K178" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.61', 'start':709, 'end':721},</v>
+      </c>
+    </row>
+    <row r="179" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>333</v>
+      </c>
+      <c r="I179">
+        <v>721</v>
+      </c>
+      <c r="J179">
+        <v>723</v>
+      </c>
+      <c r="K179" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.51', 'start':721, 'end':723},</v>
+      </c>
+    </row>
+    <row r="180" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>335</v>
+      </c>
+      <c r="I180">
+        <v>723</v>
+      </c>
+      <c r="J180">
+        <v>725</v>
+      </c>
+      <c r="K180" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.25', 'start':723, 'end':725},</v>
+      </c>
+    </row>
+    <row r="181" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
+        <v>337</v>
+      </c>
+      <c r="I181">
+        <v>725</v>
+      </c>
+      <c r="J181">
+        <v>727</v>
+      </c>
+      <c r="K181" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.15.3.8', 'start':725, 'end':727},</v>
+      </c>
+    </row>
+    <row r="182" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>339</v>
+      </c>
+      <c r="I182">
+        <v>727</v>
+      </c>
+      <c r="J182">
+        <v>729</v>
+      </c>
+      <c r="K182" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.65', 'start':727, 'end':729},</v>
+      </c>
+    </row>
+    <row r="183" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>341</v>
+      </c>
+      <c r="I183">
+        <v>729</v>
+      </c>
+      <c r="J183">
+        <v>735</v>
+      </c>
+      <c r="K183" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.70', 'start':729, 'end':735},</v>
+      </c>
+    </row>
+    <row r="184" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>343</v>
+      </c>
+      <c r="I184">
+        <v>735</v>
+      </c>
+      <c r="J184">
+        <v>738</v>
+      </c>
+      <c r="K184" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.143', 'start':735, 'end':738},</v>
+      </c>
+    </row>
+    <row r="185" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>345</v>
+      </c>
+      <c r="I185">
+        <v>738</v>
+      </c>
+      <c r="J185">
+        <v>743</v>
+      </c>
+      <c r="K185" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.3', 'start':738, 'end':743},</v>
+      </c>
+    </row>
+    <row r="186" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>347</v>
+      </c>
+      <c r="I186">
+        <v>743</v>
+      </c>
+      <c r="J186">
+        <v>750</v>
+      </c>
+      <c r="K186" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.4', 'start':743, 'end':750},</v>
+      </c>
+    </row>
+    <row r="187" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>349</v>
+      </c>
+      <c r="I187">
+        <v>750</v>
+      </c>
+      <c r="J187">
+        <v>756</v>
+      </c>
+      <c r="K187" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.114', 'start':750, 'end':756},</v>
+      </c>
+    </row>
+    <row r="188" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>351</v>
+      </c>
+      <c r="I188">
+        <v>756</v>
+      </c>
+      <c r="J188">
+        <v>758</v>
+      </c>
+      <c r="K188" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.6', 'start':756, 'end':758},</v>
+      </c>
+    </row>
+    <row r="189" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>353</v>
+      </c>
+      <c r="I189">
+        <v>758</v>
+      </c>
+      <c r="J189">
+        <v>765</v>
+      </c>
+      <c r="K189" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.12', 'start':758, 'end':765},</v>
+      </c>
+    </row>
+    <row r="190" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>355</v>
+      </c>
+      <c r="I190">
+        <v>765</v>
+      </c>
+      <c r="J190">
+        <v>772</v>
+      </c>
+      <c r="K190" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.13', 'start':765, 'end':772},</v>
+      </c>
+    </row>
+    <row r="191" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>357</v>
+      </c>
+      <c r="I191">
+        <v>772</v>
+      </c>
+      <c r="J191">
+        <v>779</v>
+      </c>
+      <c r="K191" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.14', 'start':772, 'end':779},</v>
+      </c>
+    </row>
+    <row r="192" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>359</v>
+      </c>
+      <c r="I192">
+        <v>779</v>
+      </c>
+      <c r="J192">
+        <v>781</v>
+      </c>
+      <c r="K192" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.5', 'start':779, 'end':781},</v>
+      </c>
+    </row>
+    <row r="193" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>361</v>
+      </c>
+      <c r="I193">
+        <v>781</v>
+      </c>
+      <c r="J193">
+        <v>783</v>
+      </c>
+      <c r="K193" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.37', 'start':781, 'end':783},</v>
+      </c>
+    </row>
+    <row r="194" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>363</v>
+      </c>
+      <c r="I194">
+        <v>783</v>
+      </c>
+      <c r="J194">
+        <v>785</v>
+      </c>
+      <c r="K194" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.113', 'start':783, 'end':785},</v>
+      </c>
+    </row>
+    <row r="195" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>365</v>
+      </c>
+      <c r="I195">
+        <v>785</v>
+      </c>
+      <c r="J195">
+        <v>787</v>
+      </c>
+      <c r="K195" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.110', 'start':785, 'end':787},</v>
+      </c>
+    </row>
+    <row r="196" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>367</v>
+      </c>
+      <c r="I196">
+        <v>787</v>
+      </c>
+      <c r="J196">
+        <v>789</v>
+      </c>
+      <c r="K196" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.9', 'start':787, 'end':789},</v>
+      </c>
+    </row>
+    <row r="197" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>369</v>
+      </c>
+      <c r="I197">
+        <v>789</v>
+      </c>
+      <c r="J197">
+        <v>793</v>
+      </c>
+      <c r="K197" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.14', 'start':789, 'end':793},</v>
+      </c>
+    </row>
+    <row r="198" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>371</v>
+      </c>
+      <c r="I198">
+        <v>793</v>
+      </c>
+      <c r="J198">
+        <v>797</v>
+      </c>
+      <c r="K198" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.9', 'start':793, 'end':797},</v>
+      </c>
+    </row>
+    <row r="199" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>373</v>
+      </c>
+      <c r="I199">
+        <v>797</v>
+      </c>
+      <c r="J199">
+        <v>798</v>
+      </c>
+      <c r="K199" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.10', 'start':797, 'end':798},</v>
+      </c>
+    </row>
+    <row r="200" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>375</v>
+      </c>
+      <c r="I200">
+        <v>798</v>
+      </c>
+      <c r="J200">
+        <v>803</v>
+      </c>
+      <c r="K200" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.2', 'start':798, 'end':803},</v>
+      </c>
+    </row>
+    <row r="201" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>377</v>
+      </c>
+      <c r="I201">
+        <v>803</v>
+      </c>
+      <c r="J201">
+        <v>807</v>
+      </c>
+      <c r="K201" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.1', 'start':803, 'end':807},</v>
+      </c>
+    </row>
+    <row r="202" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>379</v>
+      </c>
+      <c r="I202">
+        <v>807</v>
+      </c>
+      <c r="J202">
+        <v>823</v>
+      </c>
+      <c r="K202" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.136', 'start':807, 'end':823},</v>
+      </c>
+    </row>
+    <row r="203" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>381</v>
+      </c>
+      <c r="I203">
+        <v>823</v>
+      </c>
+      <c r="J203">
+        <v>826</v>
+      </c>
+      <c r="K203" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.128', 'start':823, 'end':826},</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>383</v>
+      </c>
+      <c r="I204">
+        <v>826</v>
+      </c>
+      <c r="J204">
+        <v>831</v>
+      </c>
+      <c r="K204" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.127', 'start':826, 'end':831},</v>
+      </c>
+    </row>
+    <row r="205" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>385</v>
+      </c>
+      <c r="I205">
+        <v>831</v>
+      </c>
+      <c r="J205">
+        <v>834</v>
+      </c>
+      <c r="K205" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.63', 'start':831, 'end':834},</v>
+      </c>
+    </row>
+    <row r="206" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>387</v>
+      </c>
+      <c r="I206">
+        <v>834</v>
+      </c>
+      <c r="J206">
+        <v>837</v>
+      </c>
+      <c r="K206" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.32', 'start':834, 'end':837},</v>
+      </c>
+    </row>
+    <row r="207" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>389</v>
+      </c>
+      <c r="I207">
+        <v>837</v>
+      </c>
+      <c r="J207">
+        <v>840</v>
+      </c>
+      <c r="K207" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.8', 'start':837, 'end':840},</v>
+      </c>
+    </row>
+    <row r="208" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>391</v>
+      </c>
+      <c r="I208">
+        <v>840</v>
+      </c>
+      <c r="J208">
+        <v>844</v>
+      </c>
+      <c r="K208" t="str">
+        <f t="shared" si="2"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.78', 'start':840, 'end':844},</v>
+      </c>
+    </row>
+    <row r="209" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>393</v>
+      </c>
+      <c r="I209">
+        <v>844</v>
+      </c>
+      <c r="J209">
+        <v>848</v>
+      </c>
+      <c r="K209" t="str">
+        <f t="shared" ref="K209:K230" si="3">"{ 'index':'"&amp;H209&amp;"', 'start':"&amp;I209&amp;", 'end':"&amp;J209&amp;"},"</f>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.38', 'start':844, 'end':848},</v>
+      </c>
+    </row>
+    <row r="210" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>395</v>
+      </c>
+      <c r="I210">
+        <v>848</v>
+      </c>
+      <c r="J210">
+        <v>851</v>
+      </c>
+      <c r="K210" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.8', 'start':848, 'end':851},</v>
+      </c>
+    </row>
+    <row r="211" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>397</v>
+      </c>
+      <c r="I211">
+        <v>851</v>
+      </c>
+      <c r="J211">
+        <v>853</v>
+      </c>
+      <c r="K211" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.6', 'start':851, 'end':853},</v>
+      </c>
+    </row>
+    <row r="212" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>399</v>
+      </c>
+      <c r="I212">
+        <v>853</v>
+      </c>
+      <c r="J212">
+        <v>855</v>
+      </c>
+      <c r="K212" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.118', 'start':853, 'end':855},</v>
+      </c>
+    </row>
+    <row r="213" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>401</v>
+      </c>
+      <c r="I213">
+        <v>855</v>
+      </c>
+      <c r="J213">
+        <v>862</v>
+      </c>
+      <c r="K213" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.24.3.90', 'start':855, 'end':862},</v>
+      </c>
+    </row>
+    <row r="214" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H214" t="s">
+        <v>403</v>
+      </c>
+      <c r="I214">
+        <v>862</v>
+      </c>
+      <c r="J214">
+        <v>868</v>
+      </c>
+      <c r="K214" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.7', 'start':862, 'end':868},</v>
+      </c>
+    </row>
+    <row r="215" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>405</v>
+      </c>
+      <c r="I215">
+        <v>868</v>
+      </c>
+      <c r="J215">
+        <v>871</v>
+      </c>
+      <c r="K215" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.12', 'start':868, 'end':871},</v>
+      </c>
+    </row>
+    <row r="216" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>407</v>
+      </c>
+      <c r="I216">
+        <v>871</v>
+      </c>
+      <c r="J216">
+        <v>875</v>
+      </c>
+      <c r="K216" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.85', 'start':871, 'end':875},</v>
+      </c>
+    </row>
+    <row r="217" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H217" t="s">
+        <v>409</v>
+      </c>
+      <c r="I217">
+        <v>875</v>
+      </c>
+      <c r="J217">
+        <v>879</v>
+      </c>
+      <c r="K217" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.27', 'start':875, 'end':879},</v>
+      </c>
+    </row>
+    <row r="218" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>411</v>
+      </c>
+      <c r="I218">
+        <v>879</v>
+      </c>
+      <c r="J218">
+        <v>883</v>
+      </c>
+      <c r="K218" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.26', 'start':879, 'end':883},</v>
+      </c>
+    </row>
+    <row r="219" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>413</v>
+      </c>
+      <c r="I219">
+        <v>883</v>
+      </c>
+      <c r="J219">
+        <v>885</v>
+      </c>
+      <c r="K219" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.134', 'start':883, 'end':885},</v>
+      </c>
+    </row>
+    <row r="220" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>653</v>
+      </c>
+      <c r="I220">
+        <v>885</v>
+      </c>
+      <c r="J220">
+        <v>888</v>
+      </c>
+      <c r="K220" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.133', 'start':885, 'end':888},</v>
+      </c>
+    </row>
+    <row r="221" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H221" t="s">
+        <v>6</v>
+      </c>
+      <c r="I221">
+        <v>41</v>
+      </c>
+      <c r="J221">
+        <v>87</v>
+      </c>
+      <c r="K221" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.1.1', 'start':41, 'end':87},</v>
+      </c>
+    </row>
+    <row r="222" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H222" t="s">
+        <v>32</v>
+      </c>
+      <c r="I222">
+        <v>233</v>
+      </c>
+      <c r="J222">
+        <v>255</v>
+      </c>
+      <c r="K222" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.29.1', 'start':233, 'end':255},</v>
+      </c>
+    </row>
+    <row r="223" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H223" t="s">
+        <v>416</v>
+      </c>
+      <c r="I223">
+        <v>888</v>
+      </c>
+      <c r="J223">
+        <v>892</v>
+      </c>
+      <c r="K223" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.4.119', 'start':888, 'end':892},</v>
+      </c>
+    </row>
+    <row r="224" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H224" t="s">
+        <v>418</v>
+      </c>
+      <c r="I224">
+        <v>892</v>
+      </c>
+      <c r="J224">
+        <v>894</v>
+      </c>
+      <c r="K224" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.2', 'start':892, 'end':894},</v>
+      </c>
+    </row>
+    <row r="225" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H225" t="s">
+        <v>420</v>
+      </c>
+      <c r="I225">
+        <v>894</v>
+      </c>
+      <c r="J225">
+        <v>896</v>
+      </c>
+      <c r="K225" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.6.2.1', 'start':894, 'end':896},</v>
+      </c>
+    </row>
+    <row r="226" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>422</v>
+      </c>
+      <c r="I226">
+        <v>896</v>
+      </c>
+      <c r="J226">
+        <v>900</v>
+      </c>
+      <c r="K226" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.5.2', 'start':896, 'end':900},</v>
+      </c>
+    </row>
+    <row r="227" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H227" t="s">
+        <v>424</v>
+      </c>
+      <c r="I227">
+        <v>900</v>
+      </c>
+      <c r="J227">
+        <v>900</v>
+      </c>
+      <c r="K227" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.5.3', 'start':900, 'end':900},</v>
+      </c>
+    </row>
+    <row r="228" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H228" t="s">
+        <v>426</v>
+      </c>
+      <c r="I228">
+        <v>900</v>
+      </c>
+      <c r="J228">
+        <v>901</v>
+      </c>
+      <c r="K228" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.5.4', 'start':900, 'end':901},</v>
+      </c>
+    </row>
+    <row r="229" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H229" t="s">
+        <v>428</v>
+      </c>
+      <c r="I229">
+        <v>901</v>
+      </c>
+      <c r="J229">
+        <v>904</v>
+      </c>
+      <c r="K229" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.5.1', 'start':901, 'end':904},</v>
+      </c>
+    </row>
+    <row r="230" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H230" t="s">
+        <v>430</v>
+      </c>
+      <c r="I230">
+        <v>904</v>
+      </c>
+      <c r="J230">
+        <v>904</v>
+      </c>
+      <c r="K230" t="str">
+        <f t="shared" si="3"/>
+        <v>{ 'index':'2.16.840.1.113883.10.20.22.5.1.1', 'start':904, 'end':904},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Repos\ccda-search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnD'Amore\Source\Repos\ccda-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4AABBD-354C-4B35-9C52-711CA3E4E557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F595A-8B1E-4A77-B4CA-2AA2F6C3FD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="1911">
   <si>
     <t>Template_Type</t>
   </si>
@@ -5644,6 +5644,132 @@
   </si>
   <si>
     <t>41-87</t>
+  </si>
+  <si>
+    <t>US Realm Header (Companion Guide)</t>
+  </si>
+  <si>
+    <t>US Realm Header for Patient Generated Document (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Assessment Scale Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Assessment Scale Supporting Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>CG_A_68-73</t>
+  </si>
+  <si>
+    <t>CG_A_73-74</t>
+  </si>
+  <si>
+    <t>CG_A_10-61</t>
+  </si>
+  <si>
+    <t>Provenance - Author Participation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Provenance - Assembler Participation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Related Person Relationship and Name Participant (Companion Guide)</t>
+  </si>
+  <si>
+    <t>:2.16.840.1.113883.10.20.22.5.8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.22.4.502</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.22.4.505</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.22.4.281</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.24.3.88</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.22.4.507</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.22.4.504</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.22.4.503</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.34.3.45</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.22.4.501</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.10.20.22.4.506</t>
+  </si>
+  <si>
+    <t>Tribal Affiliation Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Sexual Orientation Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Gender Identity Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Basic Occupation Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Basic Industry Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Sex Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Reason (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Pregnancy Intention in Next Year (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Disability Status Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Date of Diagnosis Act (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Social History Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Result Organizer (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Risk Concern Act (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Problem Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Policy Activity (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Planned Procedure (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Medication Dispense (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Indication  (Companion Guide) (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Health Concern Act (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Goal Observation (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Coverage Activity (Companion Guide)</t>
   </si>
 </sst>
 </file>
@@ -6503,15 +6629,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N240"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G216" sqref="D2:G216"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
@@ -6570,9 +6696,6 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -6604,7 +6727,7 @@
       </c>
       <c r="M2" t="str">
         <f>"{ 'id': '"&amp;A2&amp;"', 'template_type': '"&amp;C2&amp;"', 'name': '"&amp;B2&amp;" ["&amp;D2&amp;"["&amp;G2&amp;"', 'name2': '"&amp;B2&amp;"', 'template': '"&amp;D2&amp;"', 'pageStart': '"&amp;E2&amp;"', 'pages': '"&amp;G2&amp;"', 'search': '"&amp;K2&amp;"' },"</f>
-        <v>{ 'id': '1', 'template_type': 'Document', 'name': 'Care Plan  [2.16.840.1.113883.10.20.22.1.15[87-101', 'name2': 'Care Plan ', 'template': '2.16.840.1.113883.10.20.22.1.15', 'pageStart': '87', 'pages': '87-101', 'search': 'Care Plan  2.16.840.1.113883.10.20.22.1.15 CONF:1198-28741;CONF:1198-28742;CONF:1198-32877;CONF:1198-32934;CONF:1198-28745;CONF:1198-32959;CONF:1198-32321;CONF:1198-32322;CONF:1198-31993;CONF:1198-31994;CONF:1198-31996;CONF:1198-31997;CONF:1198-31998;CONF:1198-31999;CONF:1198-32320;CONF:1198-32000;CONF:1198-32001;CONF:1198-32002;CONF:1198-32003;CONF:1198-31910;CONF:1198-31911;CONF:1198-31912;CONF:1198-31913;CONF:1198-31914;CONF:1198-31915;CONF:1198-31916;CONF:1198-31917;CONF:1198-31918;CONF:1198-31677;CONF:1198-31678;CONF:1198-31679;CONF:1198-31680;CONF:1198-31681;CONF:1198-31682;CONF:1198-31683;CONF:1198-31686;CONF:1198-31684;CONF:1198-31685;CONF:1198-32367;CONF:1198-31895;CONF:1198-31896;CONF:1198-31897;CONF:1198-31898;CONF:1198-31899;CONF:1198-31900;CONF:1198-31901;CONF:1198-31902;CONF:1198-31903;CONF:1198-31904;CONF:1198-32330;CONF:1198-32331;CONF:1198-31905;CONF:1198-31907;CONF:1198-31908;CONF:1198-31909;CONF:1198-32328;CONF:1198-32329;CONF:1198-29893;CONF:1198-31889;CONF:1198-29894;CONF:1198-32949;CONF:1198-29895;CONF:1198-29896;CONF:1198-32004;CONF:1198-32005;CONF:1198-32007;CONF:1198-28753;CONF:1198-28754;CONF:1198-28755;CONF:1198-28756;CONF:1198-28761;CONF:1198-28762;CONF:1198-28763;CONF:1198-28764;CONF:1198-29596;CONF:1198-29597;CONF:1198-31044' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Care Plan  [2.16.840.1.113883.10.20.22.1.15[87-101', 'name2': 'Care Plan ', 'template': '2.16.840.1.113883.10.20.22.1.15', 'pageStart': '87', 'pages': '87-101', 'search': 'Care Plan  2.16.840.1.113883.10.20.22.1.15 CONF:1198-28741;CONF:1198-28742;CONF:1198-32877;CONF:1198-32934;CONF:1198-28745;CONF:1198-32959;CONF:1198-32321;CONF:1198-32322;CONF:1198-31993;CONF:1198-31994;CONF:1198-31996;CONF:1198-31997;CONF:1198-31998;CONF:1198-31999;CONF:1198-32320;CONF:1198-32000;CONF:1198-32001;CONF:1198-32002;CONF:1198-32003;CONF:1198-31910;CONF:1198-31911;CONF:1198-31912;CONF:1198-31913;CONF:1198-31914;CONF:1198-31915;CONF:1198-31916;CONF:1198-31917;CONF:1198-31918;CONF:1198-31677;CONF:1198-31678;CONF:1198-31679;CONF:1198-31680;CONF:1198-31681;CONF:1198-31682;CONF:1198-31683;CONF:1198-31686;CONF:1198-31684;CONF:1198-31685;CONF:1198-32367;CONF:1198-31895;CONF:1198-31896;CONF:1198-31897;CONF:1198-31898;CONF:1198-31899;CONF:1198-31900;CONF:1198-31901;CONF:1198-31902;CONF:1198-31903;CONF:1198-31904;CONF:1198-32330;CONF:1198-32331;CONF:1198-31905;CONF:1198-31907;CONF:1198-31908;CONF:1198-31909;CONF:1198-32328;CONF:1198-32329;CONF:1198-29893;CONF:1198-31889;CONF:1198-29894;CONF:1198-32949;CONF:1198-29895;CONF:1198-29896;CONF:1198-32004;CONF:1198-32005;CONF:1198-32007;CONF:1198-28753;CONF:1198-28754;CONF:1198-28755;CONF:1198-28756;CONF:1198-28761;CONF:1198-28762;CONF:1198-28763;CONF:1198-28764;CONF:1198-29596;CONF:1198-29597;CONF:1198-31044' },</v>
       </c>
       <c r="N2" t="str">
         <f>"'"&amp;D2&amp;"',"</f>
@@ -6612,9 +6735,6 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -6646,7 +6766,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M66" si="1">"{ 'id': '"&amp;A3&amp;"', 'template_type': '"&amp;C3&amp;"', 'name': '"&amp;B3&amp;" ["&amp;D3&amp;"["&amp;G3&amp;"', 'name2': '"&amp;B3&amp;"', 'template': '"&amp;D3&amp;"', 'pageStart': '"&amp;E3&amp;"', 'pages': '"&amp;G3&amp;"', 'search': '"&amp;K3&amp;"' },"</f>
-        <v>{ 'id': '2', 'template_type': 'Document', 'name': 'Consultation Note   [2.16.840.1.113883.10.20.22.1.4[101-117', 'name2': 'Consultation Note  ', 'template': '2.16.840.1.113883.10.20.22.1.4', 'pageStart': '101', 'pages': '101-117', 'search': 'Consultation Note   2.16.840.1.113883.10.20.22.1.4 CONF:1198-8375;CONF:1198-10040;CONF:1198-32502;CONF:1198-32935;CONF:1198-17176;CONF:1198-31656;CONF:1198-31657;CONF:1198-31658;CONF:1198-31659;CONF:1198-31660;CONF:1198-31661;CONF:1198-31662;CONF:1198-31663;CONF:1198-31664;CONF:1198-31665;CONF:1198-8382;CONF:1198-29923;CONF:1198-29924;CONF:1198-8386;CONF:1198-8387;CONF:1198-8388;CONF:1198-8389;CONF:1198-8391;CONF:1198-32904;CONF:1198-32905;CONF:1198-8392;CONF:1198-32902;CONF:1198-32906;CONF:1198-8397;CONF:1198-28895;CONF:1198-28896;CONF:1198-28897;CONF:1198-28898;CONF:1198-28899;CONF:1198-28900;CONF:1198-28901;CONF:1198-28904;CONF:1198-28905;CONF:1198-28906;CONF:1198-28907;CONF:1198-28908;CONF:1198-28909;CONF:1198-28910;CONF:1198-28911;CONF:1198-28912;CONF:1198-28913;CONF:1198-28915;CONF:1198-28916;CONF:1198-28917;CONF:1198-28918;CONF:1198-28919;CONF:1198-28920;CONF:1198-28921;CONF:1198-28922;CONF:1198-28923;CONF:1198-28924;CONF:1198-28925;CONF:1198-28926;CONF:1198-28928;CONF:1198-28929;CONF:1198-28930;CONF:1198-28931;CONF:1198-28932;CONF:1198-28933;CONF:1198-28934;CONF:1198-28935;CONF:1198-28936;CONF:1198-28937;CONF:1198-28942;CONF:1198-28943;CONF:1198-28944;CONF:1198-28945;CONF:1198-30237;CONF:1198-30238;CONF:1198-30904;CONF:1198-30905;CONF:1198-30906;CONF:1198-30907;CONF:1198-30909;CONF:1198-30910;CONF:1198-28939;CONF:1198-28940;CONF:1198-9504;CONF:1198-9501' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Consultation Note   [2.16.840.1.113883.10.20.22.1.4[101-117', 'name2': 'Consultation Note  ', 'template': '2.16.840.1.113883.10.20.22.1.4', 'pageStart': '101', 'pages': '101-117', 'search': 'Consultation Note   2.16.840.1.113883.10.20.22.1.4 CONF:1198-8375;CONF:1198-10040;CONF:1198-32502;CONF:1198-32935;CONF:1198-17176;CONF:1198-31656;CONF:1198-31657;CONF:1198-31658;CONF:1198-31659;CONF:1198-31660;CONF:1198-31661;CONF:1198-31662;CONF:1198-31663;CONF:1198-31664;CONF:1198-31665;CONF:1198-8382;CONF:1198-29923;CONF:1198-29924;CONF:1198-8386;CONF:1198-8387;CONF:1198-8388;CONF:1198-8389;CONF:1198-8391;CONF:1198-32904;CONF:1198-32905;CONF:1198-8392;CONF:1198-32902;CONF:1198-32906;CONF:1198-8397;CONF:1198-28895;CONF:1198-28896;CONF:1198-28897;CONF:1198-28898;CONF:1198-28899;CONF:1198-28900;CONF:1198-28901;CONF:1198-28904;CONF:1198-28905;CONF:1198-28906;CONF:1198-28907;CONF:1198-28908;CONF:1198-28909;CONF:1198-28910;CONF:1198-28911;CONF:1198-28912;CONF:1198-28913;CONF:1198-28915;CONF:1198-28916;CONF:1198-28917;CONF:1198-28918;CONF:1198-28919;CONF:1198-28920;CONF:1198-28921;CONF:1198-28922;CONF:1198-28923;CONF:1198-28924;CONF:1198-28925;CONF:1198-28926;CONF:1198-28928;CONF:1198-28929;CONF:1198-28930;CONF:1198-28931;CONF:1198-28932;CONF:1198-28933;CONF:1198-28934;CONF:1198-28935;CONF:1198-28936;CONF:1198-28937;CONF:1198-28942;CONF:1198-28943;CONF:1198-28944;CONF:1198-28945;CONF:1198-30237;CONF:1198-30238;CONF:1198-30904;CONF:1198-30905;CONF:1198-30906;CONF:1198-30907;CONF:1198-30909;CONF:1198-30910;CONF:1198-28939;CONF:1198-28940;CONF:1198-9504;CONF:1198-9501' },</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N66" si="2">"'"&amp;D3&amp;"',"</f>
@@ -6654,9 +6774,6 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -6688,7 +6805,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '3', 'template_type': 'Document', 'name': 'Continuity of Care Document (CCD)   [2.16.840.1.113883.10.20.22.1.2[117-127', 'name2': 'Continuity of Care Document (CCD)  ', 'template': '2.16.840.1.113883.10.20.22.1.2', 'pageStart': '117', 'pages': '117-127', 'search': 'Continuity of Care Document (CCD)   2.16.840.1.113883.10.20.22.1.2 CONF:1198-8450;CONF:1198-10038;CONF:1198-32516;CONF:1198-32936;CONF:1198-17180;CONF:1198-17181;CONF:1198-32138;CONF:1198-9442;CONF:1198-9443;CONF:1198-8456;CONF:1198-8457;CONF:1198-8452;CONF:1198-8480;CONF:1198-8453;CONF:1198-8481;CONF:1198-8454;CONF:1198-8455;CONF:1198-8482;CONF:1198-8458;CONF:1198-8459;CONF:1198-30882;CONF:1198-32466;CONF:1198-32467;CONF:1198-30659;CONF:1198-30660;CONF:1198-30661;CONF:1198-30662;CONF:1198-30663;CONF:1198-30664;CONF:1198-30665;CONF:1198-30666;CONF:1198-30667;CONF:1198-30668;CONF:1198-30669;CONF:1198-30670;CONF:1198-30671;CONF:1198-30672;CONF:1198-30673;CONF:1198-30674;CONF:1198-30675;CONF:1198-30676;CONF:1198-30677;CONF:1198-30678;CONF:1198-30679;CONF:1198-30680;CONF:1198-30681;CONF:1198-30682;CONF:1198-30683;CONF:1198-30684;CONF:1198-30685;CONF:1198-30686;CONF:1198-30687;CONF:1198-30688;CONF:1198-30689;CONF:1198-30690;CONF:1198-32143;CONF:1198-32144;CONF:1198-32624;CONF:1198-32625' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Continuity of Care Document (CCD)   [2.16.840.1.113883.10.20.22.1.2[117-127', 'name2': 'Continuity of Care Document (CCD)  ', 'template': '2.16.840.1.113883.10.20.22.1.2', 'pageStart': '117', 'pages': '117-127', 'search': 'Continuity of Care Document (CCD)   2.16.840.1.113883.10.20.22.1.2 CONF:1198-8450;CONF:1198-10038;CONF:1198-32516;CONF:1198-32936;CONF:1198-17180;CONF:1198-17181;CONF:1198-32138;CONF:1198-9442;CONF:1198-9443;CONF:1198-8456;CONF:1198-8457;CONF:1198-8452;CONF:1198-8480;CONF:1198-8453;CONF:1198-8481;CONF:1198-8454;CONF:1198-8455;CONF:1198-8482;CONF:1198-8458;CONF:1198-8459;CONF:1198-30882;CONF:1198-32466;CONF:1198-32467;CONF:1198-30659;CONF:1198-30660;CONF:1198-30661;CONF:1198-30662;CONF:1198-30663;CONF:1198-30664;CONF:1198-30665;CONF:1198-30666;CONF:1198-30667;CONF:1198-30668;CONF:1198-30669;CONF:1198-30670;CONF:1198-30671;CONF:1198-30672;CONF:1198-30673;CONF:1198-30674;CONF:1198-30675;CONF:1198-30676;CONF:1198-30677;CONF:1198-30678;CONF:1198-30679;CONF:1198-30680;CONF:1198-30681;CONF:1198-30682;CONF:1198-30683;CONF:1198-30684;CONF:1198-30685;CONF:1198-30686;CONF:1198-30687;CONF:1198-30688;CONF:1198-30689;CONF:1198-30690;CONF:1198-32143;CONF:1198-32144;CONF:1198-32624;CONF:1198-32625' },</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
@@ -6696,9 +6813,6 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -6730,7 +6844,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '4', 'template_type': 'Document', 'name': 'Diagnostic Imaging Report   [2.16.840.1.113883.10.20.22.1.5[127-139', 'name2': 'Diagnostic Imaging Report  ', 'template': '2.16.840.1.113883.10.20.22.1.5', 'pageStart': '127', 'pages': '127-139', 'search': 'Diagnostic Imaging Report   2.16.840.1.113883.10.20.22.1.5 CONF:1198-8404;CONF:1198-10042;CONF:1198-32515;CONF:1198-32937;CONF:1198-30932;CONF:1198-30933;CONF:1198-30934;CONF:1198-30935;CONF:1198-14833;CONF:1198-14834;CONF:1198-8410;CONF:1198-8411;CONF:1198-8412;CONF:1198-8413;CONF:1198-8414;CONF:1198-31198;CONF:1198-31199;CONF:1198-31200;CONF:1198-30936;CONF:1198-30937;CONF:1198-30938;CONF:1198-8416;CONF:1198-8431;CONF:1198-8430;CONF:1198-8418;CONF:1198-8419;CONF:1198-8420;CONF:1198-8422;CONF:1198-8432;CONF:1198-32089;CONF:1198-32090;CONF:1198-10031;CONF:1198-10032;CONF:1198-8433;CONF:1198-30939;CONF:1198-30940;CONF:1198-30941;CONF:1198-30942;CONF:1198-30943;CONF:1198-30945;CONF:1198-30946;CONF:1198-30947;CONF:1198-30948;CONF:1198-14907;CONF:1198-30695;CONF:1198-30696;CONF:1198-30697;CONF:1198-30698;CONF:1198-30699;CONF:1198-31206;CONF:1198-31055;CONF:1198-31056;CONF:1198-31057;CONF:1198-31207;CONF:1198-31058;CONF:1198-31059;CONF:1198-31060;CONF:1198-31061;CONF:1198-31062;CONF:1198-31215;CONF:1198-31216;CONF:1198-31217;CONF:1198-31218;CONF:1198-31213;CONF:1198-31214;CONF:1198-31357;CONF:1198-31358;CONF:1198-31359;CONF:1198-31360;CONF:1198-31361;CONF:1198-31362;CONF:1198-31363;CONF:1198-31364;CONF:1198-31208;CONF:1198-31210;CONF:1198-31211;CONF:1198-31212' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Diagnostic Imaging Report   [2.16.840.1.113883.10.20.22.1.5[127-139', 'name2': 'Diagnostic Imaging Report  ', 'template': '2.16.840.1.113883.10.20.22.1.5', 'pageStart': '127', 'pages': '127-139', 'search': 'Diagnostic Imaging Report   2.16.840.1.113883.10.20.22.1.5 CONF:1198-8404;CONF:1198-10042;CONF:1198-32515;CONF:1198-32937;CONF:1198-30932;CONF:1198-30933;CONF:1198-30934;CONF:1198-30935;CONF:1198-14833;CONF:1198-14834;CONF:1198-8410;CONF:1198-8411;CONF:1198-8412;CONF:1198-8413;CONF:1198-8414;CONF:1198-31198;CONF:1198-31199;CONF:1198-31200;CONF:1198-30936;CONF:1198-30937;CONF:1198-30938;CONF:1198-8416;CONF:1198-8431;CONF:1198-8430;CONF:1198-8418;CONF:1198-8419;CONF:1198-8420;CONF:1198-8422;CONF:1198-8432;CONF:1198-32089;CONF:1198-32090;CONF:1198-10031;CONF:1198-10032;CONF:1198-8433;CONF:1198-30939;CONF:1198-30940;CONF:1198-30941;CONF:1198-30942;CONF:1198-30943;CONF:1198-30945;CONF:1198-30946;CONF:1198-30947;CONF:1198-30948;CONF:1198-14907;CONF:1198-30695;CONF:1198-30696;CONF:1198-30697;CONF:1198-30698;CONF:1198-30699;CONF:1198-31206;CONF:1198-31055;CONF:1198-31056;CONF:1198-31057;CONF:1198-31207;CONF:1198-31058;CONF:1198-31059;CONF:1198-31060;CONF:1198-31061;CONF:1198-31062;CONF:1198-31215;CONF:1198-31216;CONF:1198-31217;CONF:1198-31218;CONF:1198-31213;CONF:1198-31214;CONF:1198-31357;CONF:1198-31358;CONF:1198-31359;CONF:1198-31360;CONF:1198-31361;CONF:1198-31362;CONF:1198-31363;CONF:1198-31364;CONF:1198-31208;CONF:1198-31210;CONF:1198-31211;CONF:1198-31212' },</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
@@ -6738,9 +6852,6 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -6772,7 +6883,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '5', 'template_type': 'Document', 'name': 'Discharge Summary  [2.16.840.1.113883.10.20.22.1.8[139-153', 'name2': 'Discharge Summary ', 'template': '2.16.840.1.113883.10.20.22.1.8', 'pageStart': '139', 'pages': '139-153', 'search': 'Discharge Summary  2.16.840.1.113883.10.20.22.1.8 CONF:1198-8463;CONF:1198-10044;CONF:1198-32517;CONF:1198-32938;CONF:1198-17178;CONF:1198-17179;CONF:1198-8467;CONF:1198-8469;CONF:1198-8471;CONF:1198-8472;CONF:1198-32611;CONF:1198-8473;CONF:1198-8475;CONF:1198-8476;CONF:1198-8479;CONF:1198-32613;CONF:1198-32898;CONF:1198-8478;CONF:1198-32615;CONF:1198-32899;CONF:1198-9539;CONF:1198-30518;CONF:1198-30519;CONF:1198-30520;CONF:1198-30521;CONF:1198-30522;CONF:1198-30523;CONF:1198-30524;CONF:1198-30525;CONF:1198-30526;CONF:1198-30527;CONF:1198-30528;CONF:1198-30529;CONF:1198-30530;CONF:1198-30531;CONF:1198-30532;CONF:1198-30533;CONF:1198-30534;CONF:1198-30535;CONF:1198-30536;CONF:1198-30537;CONF:1198-30538;CONF:1198-30539;CONF:1198-30540;CONF:1198-30541;CONF:1198-30542;CONF:1198-30543;CONF:1198-30544;CONF:1198-30545;CONF:1198-30546;CONF:1198-30547;CONF:1198-30548;CONF:1198-30549;CONF:1198-30550;CONF:1198-30551;CONF:1198-30552;CONF:1198-30553;CONF:1198-30554;CONF:1198-30555;CONF:1198-30556;CONF:1198-30557;CONF:1198-30558;CONF:1198-30559;CONF:1198-30560;CONF:1198-30561;CONF:1198-30562;CONF:1198-30563;CONF:1198-30564;CONF:1198-30565;CONF:1198-30566;CONF:1198-30567;CONF:1198-30568;CONF:1198-31586;CONF:1198-31587;CONF:1198-30569' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Discharge Summary  [2.16.840.1.113883.10.20.22.1.8[139-153', 'name2': 'Discharge Summary ', 'template': '2.16.840.1.113883.10.20.22.1.8', 'pageStart': '139', 'pages': '139-153', 'search': 'Discharge Summary  2.16.840.1.113883.10.20.22.1.8 CONF:1198-8463;CONF:1198-10044;CONF:1198-32517;CONF:1198-32938;CONF:1198-17178;CONF:1198-17179;CONF:1198-8467;CONF:1198-8469;CONF:1198-8471;CONF:1198-8472;CONF:1198-32611;CONF:1198-8473;CONF:1198-8475;CONF:1198-8476;CONF:1198-8479;CONF:1198-32613;CONF:1198-32898;CONF:1198-8478;CONF:1198-32615;CONF:1198-32899;CONF:1198-9539;CONF:1198-30518;CONF:1198-30519;CONF:1198-30520;CONF:1198-30521;CONF:1198-30522;CONF:1198-30523;CONF:1198-30524;CONF:1198-30525;CONF:1198-30526;CONF:1198-30527;CONF:1198-30528;CONF:1198-30529;CONF:1198-30530;CONF:1198-30531;CONF:1198-30532;CONF:1198-30533;CONF:1198-30534;CONF:1198-30535;CONF:1198-30536;CONF:1198-30537;CONF:1198-30538;CONF:1198-30539;CONF:1198-30540;CONF:1198-30541;CONF:1198-30542;CONF:1198-30543;CONF:1198-30544;CONF:1198-30545;CONF:1198-30546;CONF:1198-30547;CONF:1198-30548;CONF:1198-30549;CONF:1198-30550;CONF:1198-30551;CONF:1198-30552;CONF:1198-30553;CONF:1198-30554;CONF:1198-30555;CONF:1198-30556;CONF:1198-30557;CONF:1198-30558;CONF:1198-30559;CONF:1198-30560;CONF:1198-30561;CONF:1198-30562;CONF:1198-30563;CONF:1198-30564;CONF:1198-30565;CONF:1198-30566;CONF:1198-30567;CONF:1198-30568;CONF:1198-31586;CONF:1198-31587;CONF:1198-30569' },</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
@@ -6780,9 +6891,6 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -6814,7 +6922,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '6', 'template_type': 'Document', 'name': 'History and Physical   [2.16.840.1.113883.10.20.22.1.3[153-164', 'name2': 'History and Physical  ', 'template': '2.16.840.1.113883.10.20.22.1.3', 'pageStart': '153', 'pages': '153-164', 'search': 'History and Physical   2.16.840.1.113883.10.20.22.1.3 CONF:1198-8283;CONF:1198-10046;CONF:1198-32518;CONF:1198-32939;CONF:1198-17185;CONF:1198-17186;CONF:1198-32482;CONF:1198-32483;CONF:1198-8286;CONF:1198-8333;CONF:1198-8336;CONF:1198-8338;CONF:1198-8339;CONF:1198-8340;CONF:1198-8341;CONF:1198-8345;CONF:1198-8348;CONF:1198-8342;CONF:1198-8343;CONF:1198-8344;CONF:1198-8349;CONF:1198-30570;CONF:1198-30571;CONF:1198-30572;CONF:1198-30573;CONF:1198-30574;CONF:1198-30575;CONF:1198-30576;CONF:1198-30577;CONF:1198-30578;CONF:1198-30579;CONF:1198-30580;CONF:1198-30581;CONF:1198-30582;CONF:1198-30583;CONF:1198-30584;CONF:1198-30585;CONF:1198-30586;CONF:1198-30587;CONF:1198-30588;CONF:1198-30589;CONF:1198-30590;CONF:1198-30591;CONF:1198-30592;CONF:1198-30593;CONF:1198-31385;CONF:1198-30595;CONF:1198-30596;CONF:1198-30597;CONF:1198-30598;CONF:1198-30599;CONF:1198-30600;CONF:1198-30601;CONF:1198-30602;CONF:1198-30603;CONF:1198-30604;CONF:1198-30605;CONF:1198-30606;CONF:1198-30607;CONF:1198-30608;CONF:1198-30609;CONF:1198-30610;CONF:1198-30611;CONF:1198-30612;CONF:1198-30613;CONF:1198-30614;CONF:1198-30615;CONF:1198-30616' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'History and Physical   [2.16.840.1.113883.10.20.22.1.3[153-164', 'name2': 'History and Physical  ', 'template': '2.16.840.1.113883.10.20.22.1.3', 'pageStart': '153', 'pages': '153-164', 'search': 'History and Physical   2.16.840.1.113883.10.20.22.1.3 CONF:1198-8283;CONF:1198-10046;CONF:1198-32518;CONF:1198-32939;CONF:1198-17185;CONF:1198-17186;CONF:1198-32482;CONF:1198-32483;CONF:1198-8286;CONF:1198-8333;CONF:1198-8336;CONF:1198-8338;CONF:1198-8339;CONF:1198-8340;CONF:1198-8341;CONF:1198-8345;CONF:1198-8348;CONF:1198-8342;CONF:1198-8343;CONF:1198-8344;CONF:1198-8349;CONF:1198-30570;CONF:1198-30571;CONF:1198-30572;CONF:1198-30573;CONF:1198-30574;CONF:1198-30575;CONF:1198-30576;CONF:1198-30577;CONF:1198-30578;CONF:1198-30579;CONF:1198-30580;CONF:1198-30581;CONF:1198-30582;CONF:1198-30583;CONF:1198-30584;CONF:1198-30585;CONF:1198-30586;CONF:1198-30587;CONF:1198-30588;CONF:1198-30589;CONF:1198-30590;CONF:1198-30591;CONF:1198-30592;CONF:1198-30593;CONF:1198-31385;CONF:1198-30595;CONF:1198-30596;CONF:1198-30597;CONF:1198-30598;CONF:1198-30599;CONF:1198-30600;CONF:1198-30601;CONF:1198-30602;CONF:1198-30603;CONF:1198-30604;CONF:1198-30605;CONF:1198-30606;CONF:1198-30607;CONF:1198-30608;CONF:1198-30609;CONF:1198-30610;CONF:1198-30611;CONF:1198-30612;CONF:1198-30613;CONF:1198-30614;CONF:1198-30615;CONF:1198-30616' },</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
@@ -6822,9 +6930,6 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -6856,7 +6961,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '7', 'template_type': 'Document', 'name': 'Operative Note   [2.16.840.1.113883.10.20.22.1.7[164-176', 'name2': 'Operative Note  ', 'template': '2.16.840.1.113883.10.20.22.1.7', 'pageStart': '164', 'pages': '164-176', 'search': 'Operative Note   2.16.840.1.113883.10.20.22.1.7 CONF:1198-8483;CONF:1198-10048;CONF:1198-32519;CONF:1198-32940;CONF:1198-17187;CONF:1198-17188;CONF:1198-8486;CONF:1198-8493;CONF:1198-8494;CONF:1198-8488;CONF:1198-10058;CONF:1198-10060;CONF:1198-8489;CONF:1198-8495;CONF:1198-32963;CONF:1198-10917;CONF:1198-8490;CONF:1198-32736;CONF:1198-32738;CONF:1198-32964;CONF:1198-32737;CONF:1198-32739;CONF:1198-8487;CONF:1198-32404;CONF:1198-32408;CONF:1198-32405;CONF:1198-32409;CONF:1198-32410;CONF:1198-32411;CONF:1198-9585;CONF:1198-30485;CONF:1198-30486;CONF:1198-30487;CONF:1198-30488;CONF:1198-30489;CONF:1198-30490;CONF:1198-30491;CONF:1198-30492;CONF:1198-30493;CONF:1198-30494;CONF:1198-30495;CONF:1198-30496;CONF:1198-30497;CONF:1198-30498;CONF:1198-30499;CONF:1198-30500;CONF:1198-30501;CONF:1198-30502;CONF:1198-30503;CONF:1198-30504;CONF:1198-30505;CONF:1198-30506;CONF:1198-30507;CONF:1198-30508;CONF:1198-30509;CONF:1198-30510;CONF:1198-30511;CONF:1198-30512;CONF:1198-30513;CONF:1198-30514;CONF:1198-30515;CONF:1198-30516;CONF:1198-30517' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Operative Note   [2.16.840.1.113883.10.20.22.1.7[164-176', 'name2': 'Operative Note  ', 'template': '2.16.840.1.113883.10.20.22.1.7', 'pageStart': '164', 'pages': '164-176', 'search': 'Operative Note   2.16.840.1.113883.10.20.22.1.7 CONF:1198-8483;CONF:1198-10048;CONF:1198-32519;CONF:1198-32940;CONF:1198-17187;CONF:1198-17188;CONF:1198-8486;CONF:1198-8493;CONF:1198-8494;CONF:1198-8488;CONF:1198-10058;CONF:1198-10060;CONF:1198-8489;CONF:1198-8495;CONF:1198-32963;CONF:1198-10917;CONF:1198-8490;CONF:1198-32736;CONF:1198-32738;CONF:1198-32964;CONF:1198-32737;CONF:1198-32739;CONF:1198-8487;CONF:1198-32404;CONF:1198-32408;CONF:1198-32405;CONF:1198-32409;CONF:1198-32410;CONF:1198-32411;CONF:1198-9585;CONF:1198-30485;CONF:1198-30486;CONF:1198-30487;CONF:1198-30488;CONF:1198-30489;CONF:1198-30490;CONF:1198-30491;CONF:1198-30492;CONF:1198-30493;CONF:1198-30494;CONF:1198-30495;CONF:1198-30496;CONF:1198-30497;CONF:1198-30498;CONF:1198-30499;CONF:1198-30500;CONF:1198-30501;CONF:1198-30502;CONF:1198-30503;CONF:1198-30504;CONF:1198-30505;CONF:1198-30506;CONF:1198-30507;CONF:1198-30508;CONF:1198-30509;CONF:1198-30510;CONF:1198-30511;CONF:1198-30512;CONF:1198-30513;CONF:1198-30514;CONF:1198-30515;CONF:1198-30516;CONF:1198-30517' },</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
@@ -6864,9 +6969,6 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -6898,7 +7000,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '8', 'template_type': 'Document', 'name': 'Procedure Note   [2.16.840.1.113883.10.20.22.1.6[176-192', 'name2': 'Procedure Note  ', 'template': '2.16.840.1.113883.10.20.22.1.6', 'pageStart': '176', 'pages': '176-192', 'search': 'Procedure Note   2.16.840.1.113883.10.20.22.1.6 CONF:1198-8496;CONF:1198-10050;CONF:1198-32520;CONF:1198-32941;CONF:1198-17182;CONF:1198-17183;CONF:1198-8504;CONF:1198-8505;CONF:1198-8506;CONF:1198-8507;CONF:1198-8508;CONF:1198-8510;CONF:1198-10061;CONF:1198-10062;CONF:1198-26449;CONF:1198-8513;CONF:1198-8514;CONF:1198-8515;CONF:1198-8520;CONF:1198-8521;CONF:1198-14911;CONF:1198-14912;CONF:1198-32732;CONF:1198-32734;CONF:1198-32733;CONF:1198-32735;CONF:1198-8511;CONF:1198-32412;CONF:1198-32413;CONF:1198-32414;CONF:1198-32415;CONF:1198-32416;CONF:1198-32417;CONF:1198-30871;CONF:1198-30872;CONF:1198-32395;CONF:1198-30873;CONF:1198-30874;CONF:1198-30875;CONF:1198-30876;CONF:1198-30877;CONF:1198-30878;CONF:1198-9588;CONF:1198-30352;CONF:1198-30353;CONF:1198-30387;CONF:1198-30355;CONF:1198-30356;CONF:1198-30357;CONF:1198-30358;CONF:1198-30359;CONF:1198-30360;CONF:1198-30361;CONF:1198-30362;CONF:1198-30363;CONF:1198-30364;CONF:1198-30365;CONF:1198-30366;CONF:1198-30367;CONF:1198-30368;CONF:1198-30369;CONF:1198-30370;CONF:1198-30371;CONF:1198-30372;CONF:1198-30373;CONF:1198-30374;CONF:1198-30375;CONF:1198-30376;CONF:1198-30377;CONF:1198-30378;CONF:1198-30379;CONF:1198-30380;CONF:1198-30381;CONF:1198-30382;CONF:1198-30383;CONF:1198-30384;CONF:1198-30388;CONF:1198-30389;CONF:1198-30390;CONF:1198-30391;CONF:1198-30392;CONF:1198-30393;CONF:1198-30394;CONF:1198-30395;CONF:1198-30396;CONF:1198-30397;CONF:1198-30398;CONF:1198-30399;CONF:1198-30400;CONF:1198-30401;CONF:1198-30402;CONF:1198-30403;CONF:1198-30404;CONF:1198-30405;CONF:1198-30406;CONF:1198-30407;CONF:1198-30408;CONF:1198-30409;CONF:1198-30410;CONF:1198-30411;CONF:1198-30412;CONF:1198-30414;CONF:1198-30415' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Procedure Note   [2.16.840.1.113883.10.20.22.1.6[176-192', 'name2': 'Procedure Note  ', 'template': '2.16.840.1.113883.10.20.22.1.6', 'pageStart': '176', 'pages': '176-192', 'search': 'Procedure Note   2.16.840.1.113883.10.20.22.1.6 CONF:1198-8496;CONF:1198-10050;CONF:1198-32520;CONF:1198-32941;CONF:1198-17182;CONF:1198-17183;CONF:1198-8504;CONF:1198-8505;CONF:1198-8506;CONF:1198-8507;CONF:1198-8508;CONF:1198-8510;CONF:1198-10061;CONF:1198-10062;CONF:1198-26449;CONF:1198-8513;CONF:1198-8514;CONF:1198-8515;CONF:1198-8520;CONF:1198-8521;CONF:1198-14911;CONF:1198-14912;CONF:1198-32732;CONF:1198-32734;CONF:1198-32733;CONF:1198-32735;CONF:1198-8511;CONF:1198-32412;CONF:1198-32413;CONF:1198-32414;CONF:1198-32415;CONF:1198-32416;CONF:1198-32417;CONF:1198-30871;CONF:1198-30872;CONF:1198-32395;CONF:1198-30873;CONF:1198-30874;CONF:1198-30875;CONF:1198-30876;CONF:1198-30877;CONF:1198-30878;CONF:1198-9588;CONF:1198-30352;CONF:1198-30353;CONF:1198-30387;CONF:1198-30355;CONF:1198-30356;CONF:1198-30357;CONF:1198-30358;CONF:1198-30359;CONF:1198-30360;CONF:1198-30361;CONF:1198-30362;CONF:1198-30363;CONF:1198-30364;CONF:1198-30365;CONF:1198-30366;CONF:1198-30367;CONF:1198-30368;CONF:1198-30369;CONF:1198-30370;CONF:1198-30371;CONF:1198-30372;CONF:1198-30373;CONF:1198-30374;CONF:1198-30375;CONF:1198-30376;CONF:1198-30377;CONF:1198-30378;CONF:1198-30379;CONF:1198-30380;CONF:1198-30381;CONF:1198-30382;CONF:1198-30383;CONF:1198-30384;CONF:1198-30388;CONF:1198-30389;CONF:1198-30390;CONF:1198-30391;CONF:1198-30392;CONF:1198-30393;CONF:1198-30394;CONF:1198-30395;CONF:1198-30396;CONF:1198-30397;CONF:1198-30398;CONF:1198-30399;CONF:1198-30400;CONF:1198-30401;CONF:1198-30402;CONF:1198-30403;CONF:1198-30404;CONF:1198-30405;CONF:1198-30406;CONF:1198-30407;CONF:1198-30408;CONF:1198-30409;CONF:1198-30410;CONF:1198-30411;CONF:1198-30412;CONF:1198-30414;CONF:1198-30415' },</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
@@ -6906,9 +7008,6 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -6940,7 +7039,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '9', 'template_type': 'Document', 'name': 'Progress Note  [2.16.840.1.113883.10.20.22.1.9[192-202', 'name2': 'Progress Note ', 'template': '2.16.840.1.113883.10.20.22.1.9', 'pageStart': '192', 'pages': '192-202', 'search': 'Progress Note  2.16.840.1.113883.10.20.22.1.9 CONF:1198-7588;CONF:1198-10052;CONF:1198-32521;CONF:1198-32942;CONF:1198-17189;CONF:1198-17190;CONF:1198-7603;CONF:1198-7604;CONF:1198-26420;CONF:1198-9480;CONF:1198-10068;CONF:1198-9481;CONF:1198-9482;CONF:1198-10066;CONF:1198-7595;CONF:1198-7596;CONF:1198-7597;CONF:1198-7598;CONF:1198-7599;CONF:1198-30879;CONF:1198-30880;CONF:1198-30881;CONF:1198-9591;CONF:1198-30617;CONF:1198-30618;CONF:1198-30619;CONF:1198-30620;CONF:1198-30621;CONF:1198-30622;CONF:1198-30623;CONF:1198-30624;CONF:1198-30625;CONF:1198-30626;CONF:1198-30627;CONF:1198-30628;CONF:1198-30629;CONF:1198-30639;CONF:1198-31386;CONF:1198-30641;CONF:1198-30642;CONF:1198-30643;CONF:1198-30644;CONF:1198-30645;CONF:1198-30646;CONF:1198-30647;CONF:1198-30648;CONF:1198-30649;CONF:1198-30650;CONF:1198-30651;CONF:1198-30652;CONF:1198-30653;CONF:1198-30654;CONF:1198-30655;CONF:1198-30656;CONF:1198-32626;CONF:1198-32627;CONF:1198-30657;CONF:1198-30658' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Progress Note  [2.16.840.1.113883.10.20.22.1.9[192-202', 'name2': 'Progress Note ', 'template': '2.16.840.1.113883.10.20.22.1.9', 'pageStart': '192', 'pages': '192-202', 'search': 'Progress Note  2.16.840.1.113883.10.20.22.1.9 CONF:1198-7588;CONF:1198-10052;CONF:1198-32521;CONF:1198-32942;CONF:1198-17189;CONF:1198-17190;CONF:1198-7603;CONF:1198-7604;CONF:1198-26420;CONF:1198-9480;CONF:1198-10068;CONF:1198-9481;CONF:1198-9482;CONF:1198-10066;CONF:1198-7595;CONF:1198-7596;CONF:1198-7597;CONF:1198-7598;CONF:1198-7599;CONF:1198-30879;CONF:1198-30880;CONF:1198-30881;CONF:1198-9591;CONF:1198-30617;CONF:1198-30618;CONF:1198-30619;CONF:1198-30620;CONF:1198-30621;CONF:1198-30622;CONF:1198-30623;CONF:1198-30624;CONF:1198-30625;CONF:1198-30626;CONF:1198-30627;CONF:1198-30628;CONF:1198-30629;CONF:1198-30639;CONF:1198-31386;CONF:1198-30641;CONF:1198-30642;CONF:1198-30643;CONF:1198-30644;CONF:1198-30645;CONF:1198-30646;CONF:1198-30647;CONF:1198-30648;CONF:1198-30649;CONF:1198-30650;CONF:1198-30651;CONF:1198-30652;CONF:1198-30653;CONF:1198-30654;CONF:1198-30655;CONF:1198-30656;CONF:1198-32626;CONF:1198-32627;CONF:1198-30657;CONF:1198-30658' },</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
@@ -6948,9 +7047,6 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -6982,7 +7078,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '10', 'template_type': 'Document', 'name': 'Referral Note  [2.16.840.1.113883.10.20.22.1.14[202-215', 'name2': 'Referral Note ', 'template': '2.16.840.1.113883.10.20.22.1.14', 'pageStart': '202', 'pages': '202-215', 'search': 'Referral Note  2.16.840.1.113883.10.20.22.1.14 CONF:1198-28947;CONF:1198-28948;CONF:1198-32911;CONF:1198-32943;CONF:1198-28949;CONF:1198-31589;CONF:1198-31590;CONF:1198-31591;CONF:1198-31592;CONF:1198-31593;CONF:1198-31594;CONF:1198-31642;CONF:1198-31924;CONF:1198-31643;CONF:1198-31925;CONF:1198-31644;CONF:1198-31645;CONF:1198-31647;CONF:1198-31648;CONF:1198-31649;CONF:1198-32419;CONF:1198-31650;CONF:1198-31651;CONF:1198-31652;CONF:1198-31653;CONF:1198-31654;CONF:1198-31655;CONF:1198-29062;CONF:1198-29063;CONF:1198-29066;CONF:1198-29067;CONF:1198-29068;CONF:1198-29069;CONF:1198-29074;CONF:1198-29075;CONF:1198-29076;CONF:1198-29077;CONF:1198-29082;CONF:1198-29083;CONF:1198-29086;CONF:1198-29087;CONF:1198-29088;CONF:1198-29089;CONF:1198-29090;CONF:1198-29091;CONF:1198-29092;CONF:1198-29093;CONF:1198-29094;CONF:1198-29095;CONF:1198-29096;CONF:1198-29097;CONF:1198-29098;CONF:1198-29099;CONF:1198-29100;CONF:1198-29101;CONF:1198-30780;CONF:1198-30781;CONF:1198-30796;CONF:1198-30926;CONF:1198-30798;CONF:1198-30799;CONF:1198-30911;CONF:1198-30912;CONF:1198-30913;CONF:1198-30914;CONF:1198-30915;CONF:1198-30916;CONF:1198-30917;CONF:1198-30918;CONF:1198-30919;CONF:1198-30920;CONF:1198-30922;CONF:1198-30923;CONF:1198-30924;CONF:1198-30925;CONF:1198-29102;CONF:1198-29103' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Referral Note  [2.16.840.1.113883.10.20.22.1.14[202-215', 'name2': 'Referral Note ', 'template': '2.16.840.1.113883.10.20.22.1.14', 'pageStart': '202', 'pages': '202-215', 'search': 'Referral Note  2.16.840.1.113883.10.20.22.1.14 CONF:1198-28947;CONF:1198-28948;CONF:1198-32911;CONF:1198-32943;CONF:1198-28949;CONF:1198-31589;CONF:1198-31590;CONF:1198-31591;CONF:1198-31592;CONF:1198-31593;CONF:1198-31594;CONF:1198-31642;CONF:1198-31924;CONF:1198-31643;CONF:1198-31925;CONF:1198-31644;CONF:1198-31645;CONF:1198-31647;CONF:1198-31648;CONF:1198-31649;CONF:1198-32419;CONF:1198-31650;CONF:1198-31651;CONF:1198-31652;CONF:1198-31653;CONF:1198-31654;CONF:1198-31655;CONF:1198-29062;CONF:1198-29063;CONF:1198-29066;CONF:1198-29067;CONF:1198-29068;CONF:1198-29069;CONF:1198-29074;CONF:1198-29075;CONF:1198-29076;CONF:1198-29077;CONF:1198-29082;CONF:1198-29083;CONF:1198-29086;CONF:1198-29087;CONF:1198-29088;CONF:1198-29089;CONF:1198-29090;CONF:1198-29091;CONF:1198-29092;CONF:1198-29093;CONF:1198-29094;CONF:1198-29095;CONF:1198-29096;CONF:1198-29097;CONF:1198-29098;CONF:1198-29099;CONF:1198-29100;CONF:1198-29101;CONF:1198-30780;CONF:1198-30781;CONF:1198-30796;CONF:1198-30926;CONF:1198-30798;CONF:1198-30799;CONF:1198-30911;CONF:1198-30912;CONF:1198-30913;CONF:1198-30914;CONF:1198-30915;CONF:1198-30916;CONF:1198-30917;CONF:1198-30918;CONF:1198-30919;CONF:1198-30920;CONF:1198-30922;CONF:1198-30923;CONF:1198-30924;CONF:1198-30925;CONF:1198-29102;CONF:1198-29103' },</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
@@ -6990,9 +7086,6 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -7024,7 +7117,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '11', 'template_type': 'Document', 'name': 'Transfer Summary   [2.16.840.1.113883.10.20.22.1.13[215-229', 'name2': 'Transfer Summary  ', 'template': '2.16.840.1.113883.10.20.22.1.13', 'pageStart': '215', 'pages': '215-229', 'search': 'Transfer Summary   2.16.840.1.113883.10.20.22.1.13 CONF:1198-28239;CONF:1198-28240;CONF:1198-32907;CONF:1198-32946;CONF:1198-28243;CONF:1198-29838;CONF:1198-31599;CONF:1198-31872;CONF:1198-31600;CONF:1198-31873;CONF:1198-31601;CONF:1198-31602;CONF:1198-31626;CONF:1198-31627;CONF:1198-31628;CONF:1198-31641;CONF:1198-31629;CONF:1198-31630;CONF:1198-31631;CONF:1198-31632;CONF:1198-31633;CONF:1198-31634;CONF:1198-31570;CONF:1198-31571;CONF:1198-31572;CONF:1198-32650;CONF:1198-31574;CONF:1198-31575;CONF:1198-32651;CONF:1198-28251;CONF:1198-28252;CONF:1198-28253;CONF:1198-28254;CONF:1198-28255;CONF:1198-28256;CONF:1198-28257;CONF:1198-28258;CONF:1198-28261;CONF:1198-28262;CONF:1198-28263;CONF:1198-28264;CONF:1198-28265;CONF:1198-28266;CONF:1198-28271;CONF:1198-28272;CONF:1198-28273;CONF:1198-28274;CONF:1198-28275;CONF:1198-28276;CONF:1198-28277;CONF:1198-28278;CONF:1198-28279;CONF:1198-28280;CONF:1198-28281;CONF:1198-28282;CONF:1198-28283;CONF:1198-28284;CONF:1198-28285;CONF:1198-28286;CONF:1198-28287;CONF:1198-28288;CONF:1198-28289;CONF:1198-28290;CONF:1198-28291;CONF:1198-28292;CONF:1198-28327;CONF:1198-28328;CONF:1198-28838;CONF:1198-28839;CONF:1198-30239;CONF:1198-30240;CONF:1198-30776;CONF:1198-30777;CONF:1198-31342;CONF:1198-31343;CONF:1198-31561;CONF:1198-31562;CONF:1198-31563;CONF:1198-31564;CONF:1198-31565;CONF:1198-31566;CONF:1198-31567;CONF:1198-31568;CONF:1198-32445;CONF:1198-32446;CONF:1198-32447;CONF:1198-32448;CONF:1198-32648;CONF:1198-32649;CONF:1198-31582;CONF:1198-31583' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Transfer Summary   [2.16.840.1.113883.10.20.22.1.13[215-229', 'name2': 'Transfer Summary  ', 'template': '2.16.840.1.113883.10.20.22.1.13', 'pageStart': '215', 'pages': '215-229', 'search': 'Transfer Summary   2.16.840.1.113883.10.20.22.1.13 CONF:1198-28239;CONF:1198-28240;CONF:1198-32907;CONF:1198-32946;CONF:1198-28243;CONF:1198-29838;CONF:1198-31599;CONF:1198-31872;CONF:1198-31600;CONF:1198-31873;CONF:1198-31601;CONF:1198-31602;CONF:1198-31626;CONF:1198-31627;CONF:1198-31628;CONF:1198-31641;CONF:1198-31629;CONF:1198-31630;CONF:1198-31631;CONF:1198-31632;CONF:1198-31633;CONF:1198-31634;CONF:1198-31570;CONF:1198-31571;CONF:1198-31572;CONF:1198-32650;CONF:1198-31574;CONF:1198-31575;CONF:1198-32651;CONF:1198-28251;CONF:1198-28252;CONF:1198-28253;CONF:1198-28254;CONF:1198-28255;CONF:1198-28256;CONF:1198-28257;CONF:1198-28258;CONF:1198-28261;CONF:1198-28262;CONF:1198-28263;CONF:1198-28264;CONF:1198-28265;CONF:1198-28266;CONF:1198-28271;CONF:1198-28272;CONF:1198-28273;CONF:1198-28274;CONF:1198-28275;CONF:1198-28276;CONF:1198-28277;CONF:1198-28278;CONF:1198-28279;CONF:1198-28280;CONF:1198-28281;CONF:1198-28282;CONF:1198-28283;CONF:1198-28284;CONF:1198-28285;CONF:1198-28286;CONF:1198-28287;CONF:1198-28288;CONF:1198-28289;CONF:1198-28290;CONF:1198-28291;CONF:1198-28292;CONF:1198-28327;CONF:1198-28328;CONF:1198-28838;CONF:1198-28839;CONF:1198-30239;CONF:1198-30240;CONF:1198-30776;CONF:1198-30777;CONF:1198-31342;CONF:1198-31343;CONF:1198-31561;CONF:1198-31562;CONF:1198-31563;CONF:1198-31564;CONF:1198-31565;CONF:1198-31566;CONF:1198-31567;CONF:1198-31568;CONF:1198-32445;CONF:1198-32446;CONF:1198-32447;CONF:1198-32448;CONF:1198-32648;CONF:1198-32649;CONF:1198-31582;CONF:1198-31583' },</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
@@ -7032,9 +7125,6 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -7066,7 +7156,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '12', 'template_type': 'Document', 'name': 'Unstructured Document   [2.16.840.1.113883.10.20.22.1.10[229-233', 'name2': 'Unstructured Document  ', 'template': '2.16.840.1.113883.10.20.22.1.10', 'pageStart': '229', 'pages': '229-233', 'search': 'Unstructured Document   2.16.840.1.113883.10.20.22.1.10 CONF:1198-7710;CONF:1198-10054;CONF:1198-32522;CONF:1198-32944;CONF:1198-31089;CONF:1198-31090;CONF:1198-31091;CONF:1198-31096;CONF:1198-31097;CONF:1198-31098;CONF:1198-31085;CONF:1198-31086;CONF:1198-31087;CONF:1198-7624;CONF:1198-7623' },</v>
+        <v>{ 'id': '', 'template_type': 'Document', 'name': 'Unstructured Document   [2.16.840.1.113883.10.20.22.1.10[229-233', 'name2': 'Unstructured Document  ', 'template': '2.16.840.1.113883.10.20.22.1.10', 'pageStart': '229', 'pages': '229-233', 'search': 'Unstructured Document   2.16.840.1.113883.10.20.22.1.10 CONF:1198-7710;CONF:1198-10054;CONF:1198-32522;CONF:1198-32944;CONF:1198-31089;CONF:1198-31090;CONF:1198-31091;CONF:1198-31096;CONF:1198-31097;CONF:1198-31098;CONF:1198-31085;CONF:1198-31086;CONF:1198-31087;CONF:1198-7624;CONF:1198-7623' },</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
@@ -7074,9 +7164,6 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -7108,7 +7195,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '13', 'template_type': 'Section', 'name': 'Admission Diagnosis Section  [2.16.840.1.113883.10.20.22.2.43[255-257', 'name2': 'Admission Diagnosis Section ', 'template': '2.16.840.1.113883.10.20.22.2.43', 'pageStart': '255', 'pages': '255-257', 'search': 'Admission Diagnosis Section  2.16.840.1.113883.10.20.22.2.43 CONF:1198-9930;CONF:1198-10391;CONF:1198-32563;CONF:1198-15479;CONF:1198-15480;CONF:1198-30865;CONF:1198-32749;CONF:1198-32750;CONF:1198-32751;CONF:1198-9932;CONF:1198-9933;CONF:1198-9934;CONF:1198-15481' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Admission Diagnosis Section  [2.16.840.1.113883.10.20.22.2.43[255-257', 'name2': 'Admission Diagnosis Section ', 'template': '2.16.840.1.113883.10.20.22.2.43', 'pageStart': '255', 'pages': '255-257', 'search': 'Admission Diagnosis Section  2.16.840.1.113883.10.20.22.2.43 CONF:1198-9930;CONF:1198-10391;CONF:1198-32563;CONF:1198-15479;CONF:1198-15480;CONF:1198-30865;CONF:1198-32749;CONF:1198-32750;CONF:1198-32751;CONF:1198-9932;CONF:1198-9933;CONF:1198-9934;CONF:1198-15481' },</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
@@ -7116,9 +7203,6 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -7150,7 +7234,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '14', 'template_type': 'Section', 'name': 'Admission Medications Section (entries optional)   [2.16.840.1.113883.10.20.22.2.44[257-258', 'name2': 'Admission Medications Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.44', 'pageStart': '257', 'pages': '257-258', 'search': 'Admission Medications Section (entries optional)   2.16.840.1.113883.10.20.22.2.44 CONF:1198-10098;CONF:1198-10392;CONF:1198-32560;CONF:1198-15482;CONF:1198-15483;CONF:1198-32142;CONF:1198-10100;CONF:1198-10101;CONF:1198-10102;CONF:1198-15484' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Admission Medications Section (entries optional)   [2.16.840.1.113883.10.20.22.2.44[257-258', 'name2': 'Admission Medications Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.44', 'pageStart': '257', 'pages': '257-258', 'search': 'Admission Medications Section (entries optional)   2.16.840.1.113883.10.20.22.2.44 CONF:1198-10098;CONF:1198-10392;CONF:1198-32560;CONF:1198-15482;CONF:1198-15483;CONF:1198-32142;CONF:1198-10100;CONF:1198-10101;CONF:1198-10102;CONF:1198-15484' },</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
@@ -7158,9 +7242,6 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
@@ -7192,17 +7273,14 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '15', 'template_type': 'Section', 'name': 'Advance Directives Section (entries optional)  [2.16.840.1.113883.10.20.22.2.21[258-260', 'name2': 'Advance Directives Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.21', 'pageStart': '258', 'pages': '258-260', 'search': 'Advance Directives Section (entries optional)  2.16.840.1.113883.10.20.22.2.21 CONF:1198-7928;CONF:1198-10376;CONF:1198-32497;CONF:1198-15340;CONF:1198-15342;CONF:1198-30812;CONF:1198-7930;CONF:1198-7931;CONF:1198-7957;CONF:1198-15443;CONF:1198-32891;CONF:1198-32892' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Advance Directives Section (entries optional)  [2.16.840.1.113883.10.20.22.2.21[258-260', 'name2': 'Advance Directives Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.21', 'pageStart': '258', 'pages': '258-260', 'search': 'Advance Directives Section (entries optional)  2.16.840.1.113883.10.20.22.2.21 CONF:1198-7928;CONF:1198-10376;CONF:1198-32497;CONF:1198-15340;CONF:1198-15342;CONF:1198-30812;CONF:1198-7930;CONF:1198-7931;CONF:1198-7957;CONF:1198-15443;CONF:1198-32891;CONF:1198-32892' },</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.21',</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -7234,17 +7312,14 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '16', 'template_type': 'Section', 'name': 'Advance Directives Section (entries required)  [2.16.840.1.113883.10.20.22.2.21.1[260-263', 'name2': 'Advance Directives Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.21.1', 'pageStart': '260', 'pages': '260-263', 'search': 'Advance Directives Section (entries required)  2.16.840.1.113883.10.20.22.2.21.1 CONF:1198-32800;CONF:1198-30227;CONF:1198-30228;CONF:1198-32512;CONF:1198-32929;CONF:1198-32930;CONF:1198-32931;CONF:1198-32932;CONF:1198-32933;CONF:1198-30235;CONF:1198-30236;CONF:1198-32420;CONF:1198-32881' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Advance Directives Section (entries required)  [2.16.840.1.113883.10.20.22.2.21.1[260-263', 'name2': 'Advance Directives Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.21.1', 'pageStart': '260', 'pages': '260-263', 'search': 'Advance Directives Section (entries required)  2.16.840.1.113883.10.20.22.2.21.1 CONF:1198-32800;CONF:1198-30227;CONF:1198-30228;CONF:1198-32512;CONF:1198-32929;CONF:1198-32930;CONF:1198-32931;CONF:1198-32932;CONF:1198-32933;CONF:1198-30235;CONF:1198-30236;CONF:1198-32420;CONF:1198-32881' },</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.21.1',</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -7276,17 +7351,14 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '17', 'template_type': 'Section', 'name': 'Allergies and Intolerances Section (entries optional)   [2.16.840.1.113883.10.20.22.2.6[263-264', 'name2': 'Allergies and Intolerances Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.6', 'pageStart': '263', 'pages': '263-264', 'search': 'Allergies and Intolerances Section (entries optional)   2.16.840.1.113883.10.20.22.2.6 CONF:1198-7800;CONF:1198-10378;CONF:1198-32544;CONF:1198-15345;CONF:1198-15346;CONF:1198-32139;CONF:1198-7802;CONF:1198-7803;CONF:1198-7804;CONF:1198-15444' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Allergies and Intolerances Section (entries optional)   [2.16.840.1.113883.10.20.22.2.6[263-264', 'name2': 'Allergies and Intolerances Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.6', 'pageStart': '263', 'pages': '263-264', 'search': 'Allergies and Intolerances Section (entries optional)   2.16.840.1.113883.10.20.22.2.6 CONF:1198-7800;CONF:1198-10378;CONF:1198-32544;CONF:1198-15345;CONF:1198-15346;CONF:1198-32139;CONF:1198-7802;CONF:1198-7803;CONF:1198-7804;CONF:1198-15444' },</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.6',</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>43</v>
       </c>
@@ -7318,17 +7390,14 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '18', 'template_type': 'Section', 'name': 'Allergies and Intolerances Section (entries required)  [2.16.840.1.113883.10.20.22.2.6.1[264-266', 'name2': 'Allergies and Intolerances Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.6.1', 'pageStart': '264', 'pages': '264-266', 'search': 'Allergies and Intolerances Section (entries required)  2.16.840.1.113883.10.20.22.2.6.1 CONF:1198-32824;CONF:1198-7527;CONF:1198-10379;CONF:1198-32545;CONF:1198-15349;CONF:1198-15350;CONF:1198-32140;CONF:1198-7534;CONF:1198-7530;CONF:1198-7531;CONF:1198-15446' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Allergies and Intolerances Section (entries required)  [2.16.840.1.113883.10.20.22.2.6.1[264-266', 'name2': 'Allergies and Intolerances Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.6.1', 'pageStart': '264', 'pages': '264-266', 'search': 'Allergies and Intolerances Section (entries required)  2.16.840.1.113883.10.20.22.2.6.1 CONF:1198-32824;CONF:1198-7527;CONF:1198-10379;CONF:1198-32545;CONF:1198-15349;CONF:1198-15350;CONF:1198-32140;CONF:1198-7534;CONF:1198-7530;CONF:1198-7531;CONF:1198-15446' },</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.6.1',</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>45</v>
       </c>
@@ -7360,17 +7429,14 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '19', 'template_type': 'Section', 'name': 'Anesthesia Section  [2.16.840.1.113883.10.20.22.2.25[266-269', 'name2': 'Anesthesia Section ', 'template': '2.16.840.1.113883.10.20.22.2.25', 'pageStart': '266', 'pages': '266-269', 'search': 'Anesthesia Section  2.16.840.1.113883.10.20.22.2.25 CONF:1098-8066;CONF:1098-10380;CONF:1098-32531;CONF:1098-15351;CONF:1098-15352;CONF:1098-30830;CONF:1098-8068;CONF:1098-8069;CONF:1098-8092;CONF:1098-15447;CONF:1098-8094;CONF:1098-31127' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Anesthesia Section  [2.16.840.1.113883.10.20.22.2.25[266-269', 'name2': 'Anesthesia Section ', 'template': '2.16.840.1.113883.10.20.22.2.25', 'pageStart': '266', 'pages': '266-269', 'search': 'Anesthesia Section  2.16.840.1.113883.10.20.22.2.25 CONF:1098-8066;CONF:1098-10380;CONF:1098-32531;CONF:1098-15351;CONF:1098-15352;CONF:1098-30830;CONF:1098-8068;CONF:1098-8069;CONF:1098-8092;CONF:1098-15447;CONF:1098-8094;CONF:1098-31127' },</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.25',</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>47</v>
       </c>
@@ -7402,17 +7468,14 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '20', 'template_type': 'Section', 'name': 'Assessment and Plan Section   [2.16.840.1.113883.10.20.22.2.9[269-270', 'name2': 'Assessment and Plan Section  ', 'template': '2.16.840.1.113883.10.20.22.2.9', 'pageStart': '269', 'pages': '269-270', 'search': 'Assessment and Plan Section   2.16.840.1.113883.10.20.22.2.9 CONF:1098-7705;CONF:1098-10381;CONF:1098-32583;CONF:1098-15353;CONF:1098-15354;CONF:1098-32141;CONF:1098-7707;CONF:1098-7708;CONF:1098-15448' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Assessment and Plan Section   [2.16.840.1.113883.10.20.22.2.9[269-270', 'name2': 'Assessment and Plan Section  ', 'template': '2.16.840.1.113883.10.20.22.2.9', 'pageStart': '269', 'pages': '269-270', 'search': 'Assessment and Plan Section   2.16.840.1.113883.10.20.22.2.9 CONF:1098-7705;CONF:1098-10381;CONF:1098-32583;CONF:1098-15353;CONF:1098-15354;CONF:1098-32141;CONF:1098-7707;CONF:1098-7708;CONF:1098-15448' },</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.9',</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>49</v>
       </c>
@@ -7444,17 +7507,14 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '21', 'template_type': 'Section', 'name': 'Assessment Section  [2.16.840.1.113883.10.20.22.2.8[270-272', 'name2': 'Assessment Section ', 'template': '2.16.840.1.113883.10.20.22.2.8', 'pageStart': '270', 'pages': '270-272', 'search': 'Assessment Section  2.16.840.1.113883.10.20.22.2.8 CONF:81-7711;CONF:81-10382;CONF:81-14757;CONF:81-14758;CONF:81-26472;CONF:81-16774;CONF:81-7713' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Assessment Section  [2.16.840.1.113883.10.20.22.2.8[270-272', 'name2': 'Assessment Section ', 'template': '2.16.840.1.113883.10.20.22.2.8', 'pageStart': '270', 'pages': '270-272', 'search': 'Assessment Section  2.16.840.1.113883.10.20.22.2.8 CONF:81-7711;CONF:81-10382;CONF:81-14757;CONF:81-14758;CONF:81-26472;CONF:81-16774;CONF:81-7713' },</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.8',</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>51</v>
       </c>
@@ -7486,17 +7546,14 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '22', 'template_type': 'Section', 'name': 'Chief Complaint and Reason for Visit Section  [2.16.840.1.113883.10.20.22.2.13[272-273', 'name2': 'Chief Complaint and Reason for Visit Section ', 'template': '2.16.840.1.113883.10.20.22.2.13', 'pageStart': '272', 'pages': '272-273', 'search': 'Chief Complaint and Reason for Visit Section  2.16.840.1.113883.10.20.22.2.13 CONF:81-7840;CONF:81-10383;CONF:81-15449;CONF:81-15450;CONF:81-26473;CONF:81-7842;CONF:81-7843' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Chief Complaint and Reason for Visit Section  [2.16.840.1.113883.10.20.22.2.13[272-273', 'name2': 'Chief Complaint and Reason for Visit Section ', 'template': '2.16.840.1.113883.10.20.22.2.13', 'pageStart': '272', 'pages': '272-273', 'search': 'Chief Complaint and Reason for Visit Section  2.16.840.1.113883.10.20.22.2.13 CONF:81-7840;CONF:81-10383;CONF:81-15449;CONF:81-15450;CONF:81-26473;CONF:81-7842;CONF:81-7843' },</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.13',</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -7528,17 +7585,14 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '23', 'template_type': 'Section', 'name': 'Chief Complaint Section [1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1[273-274', 'name2': 'Chief Complaint Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1', 'pageStart': '273', 'pages': '273-274', 'search': 'Chief Complaint Section 1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1 CONF:81-7832;CONF:81-10453;CONF:81-15451;CONF:81-15452;CONF:81-26474;CONF:81-7834;CONF:81-7835' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Chief Complaint Section [1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1[273-274', 'name2': 'Chief Complaint Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1', 'pageStart': '273', 'pages': '273-274', 'search': 'Chief Complaint Section 1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1 CONF:81-7832;CONF:81-10453;CONF:81-15451;CONF:81-15452;CONF:81-26474;CONF:81-7834;CONF:81-7835' },</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1',</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>55</v>
       </c>
@@ -7570,17 +7624,14 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '24', 'template_type': 'Section', 'name': 'Complications Section  [2.16.840.1.113883.10.20.22.2.37[274-276', 'name2': 'Complications Section ', 'template': '2.16.840.1.113883.10.20.22.2.37', 'pageStart': '274', 'pages': '274-276', 'search': 'Complications Section  2.16.840.1.113883.10.20.22.2.37 CONF:1198-8174;CONF:1198-10384;CONF:1198-32538;CONF:1198-15453;CONF:1198-15454;CONF:1198-30860;CONF:1198-8176;CONF:1198-8177;CONF:1198-8795;CONF:1198-15455' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Complications Section  [2.16.840.1.113883.10.20.22.2.37[274-276', 'name2': 'Complications Section ', 'template': '2.16.840.1.113883.10.20.22.2.37', 'pageStart': '274', 'pages': '274-276', 'search': 'Complications Section  2.16.840.1.113883.10.20.22.2.37 CONF:1198-8174;CONF:1198-10384;CONF:1198-32538;CONF:1198-15453;CONF:1198-15454;CONF:1198-30860;CONF:1198-8176;CONF:1198-8177;CONF:1198-8795;CONF:1198-15455' },</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.37',</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>57</v>
       </c>
@@ -7612,17 +7663,14 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '25', 'template_type': 'Section', 'name': 'Course of Care Section [2.16.840.1.113883.10.20.22.2.64[276-278', 'name2': 'Course of Care Section', 'template': '2.16.840.1.113883.10.20.22.2.64', 'pageStart': '276', 'pages': '276-278', 'search': 'Course of Care Section 2.16.840.1.113883.10.20.22.2.64 CONF:1098-32640;CONF:1098-32642;CONF:1098-32641;CONF:1098-32645;CONF:1098-32646;CONF:1098-32643;CONF:1098-32644' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Course of Care Section [2.16.840.1.113883.10.20.22.2.64[276-278', 'name2': 'Course of Care Section', 'template': '2.16.840.1.113883.10.20.22.2.64', 'pageStart': '276', 'pages': '276-278', 'search': 'Course of Care Section 2.16.840.1.113883.10.20.22.2.64 CONF:1098-32640;CONF:1098-32642;CONF:1098-32641;CONF:1098-32645;CONF:1098-32646;CONF:1098-32643;CONF:1098-32644' },</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.64',</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -7654,17 +7702,14 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '26', 'template_type': 'Section', 'name': 'DICOM Object Catalog Section - DCM 121181  [2.16.840.1.113883.10.20.6.1.1[278-281', 'name2': 'DICOM Object Catalog Section - DCM 121181 ', 'template': '2.16.840.1.113883.10.20.6.1.1', 'pageStart': '278', 'pages': '278-281', 'search': 'DICOM Object Catalog Section - DCM 121181  2.16.840.1.113883.10.20.6.1.1 CONF:81-8525;CONF:81-10454;CONF:81-15456;CONF:81-15457;CONF:81-26475;CONF:81-8530;CONF:81-15458;CONF:81-8527' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'DICOM Object Catalog Section - DCM 121181  [2.16.840.1.113883.10.20.6.1.1[278-281', 'name2': 'DICOM Object Catalog Section - DCM 121181 ', 'template': '2.16.840.1.113883.10.20.6.1.1', 'pageStart': '278', 'pages': '278-281', 'search': 'DICOM Object Catalog Section - DCM 121181  2.16.840.1.113883.10.20.6.1.1 CONF:81-8525;CONF:81-10454;CONF:81-15456;CONF:81-15457;CONF:81-26475;CONF:81-8530;CONF:81-15458;CONF:81-8527' },</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.6.1.1',</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -7696,17 +7741,14 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '27', 'template_type': 'Section', 'name': 'Discharge Diagnosis Section  [2.16.840.1.113883.10.20.22.2.24[281-283', 'name2': 'Discharge Diagnosis Section ', 'template': '2.16.840.1.113883.10.20.22.2.24', 'pageStart': '281', 'pages': '281-283', 'search': 'Discharge Diagnosis Section  2.16.840.1.113883.10.20.22.2.24 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Discharge Diagnosis Section  [2.16.840.1.113883.10.20.22.2.24[281-283', 'name2': 'Discharge Diagnosis Section ', 'template': '2.16.840.1.113883.10.20.22.2.24', 'pageStart': '281', 'pages': '281-283', 'search': 'Discharge Diagnosis Section  2.16.840.1.113883.10.20.22.2.24 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.24',</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>63</v>
       </c>
@@ -7738,17 +7780,14 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '28', 'template_type': 'Section', 'name': 'Discharge Diet Section (DEPRECATED)  [1.3.6.1.4.1.19376.1.5.3.1.3.33[283-284', 'name2': 'Discharge Diet Section (DEPRECATED) ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.33', 'pageStart': '283', 'pages': '283-284', 'search': 'Discharge Diet Section (DEPRECATED)  1.3.6.1.4.1.19376.1.5.3.1.3.33 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Discharge Diet Section (DEPRECATED)  [1.3.6.1.4.1.19376.1.5.3.1.3.33[283-284', 'name2': 'Discharge Diet Section (DEPRECATED) ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.33', 'pageStart': '283', 'pages': '283-284', 'search': 'Discharge Diet Section (DEPRECATED)  1.3.6.1.4.1.19376.1.5.3.1.3.33 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.33',</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>64</v>
       </c>
@@ -7780,17 +7819,14 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '29', 'template_type': 'Section', 'name': 'Discharge Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.11[284-286', 'name2': 'Discharge Medications Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.11', 'pageStart': '284', 'pages': '284-286', 'search': 'Discharge Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.11 CONF:1198-7816;CONF:1198-10396;CONF:1198-32561;CONF:1198-15359;CONF:1198-15360;CONF:1198-32480;CONF:1198-32854;CONF:1198-32855;CONF:1198-32856;CONF:1198-7818;CONF:1198-7819;CONF:1198-7820;CONF:1198-15490' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Discharge Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.11[284-286', 'name2': 'Discharge Medications Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.11', 'pageStart': '284', 'pages': '284-286', 'search': 'Discharge Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.11 CONF:1198-7816;CONF:1198-10396;CONF:1198-32561;CONF:1198-15359;CONF:1198-15360;CONF:1198-32480;CONF:1198-32854;CONF:1198-32855;CONF:1198-32856;CONF:1198-7818;CONF:1198-7819;CONF:1198-7820;CONF:1198-15490' },</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.11',</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>66</v>
       </c>
@@ -7822,17 +7858,14 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '30', 'template_type': 'Section', 'name': 'Discharge Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.11.1[286-289', 'name2': 'Discharge Medications Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.11.1', 'pageStart': '286', 'pages': '286-289', 'search': 'Discharge Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.11.1 CONF:1198-32812;CONF:1198-7822;CONF:1198-10397;CONF:1198-32562;CONF:1198-15361;CONF:1198-15362;CONF:1198-32145;CONF:1198-32857;CONF:1198-32858;CONF:1198-32859;CONF:1198-7824;CONF:1198-7825;CONF:1198-7826;CONF:1198-15491' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Discharge Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.11.1[286-289', 'name2': 'Discharge Medications Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.11.1', 'pageStart': '286', 'pages': '286-289', 'search': 'Discharge Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.11.1 CONF:1198-32812;CONF:1198-7822;CONF:1198-10397;CONF:1198-32562;CONF:1198-15361;CONF:1198-15362;CONF:1198-32145;CONF:1198-32857;CONF:1198-32858;CONF:1198-32859;CONF:1198-7824;CONF:1198-7825;CONF:1198-7826;CONF:1198-15491' },</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.11.1',</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>68</v>
       </c>
@@ -7864,17 +7897,14 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '31', 'template_type': 'Section', 'name': 'Encounters Section (entries optional)  [2.16.840.1.113883.10.20.22.2.22[289-290', 'name2': 'Encounters Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.22', 'pageStart': '289', 'pages': '289-290', 'search': 'Encounters Section (entries optional)  2.16.840.1.113883.10.20.22.2.22 CONF:1198-7940;CONF:1198-10386;CONF:1198-32547;CONF:1198-15461;CONF:1198-15462;CONF:1198-31136;CONF:1198-7942;CONF:1198-7943;CONF:1198-7951;CONF:1198-15465' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Encounters Section (entries optional)  [2.16.840.1.113883.10.20.22.2.22[289-290', 'name2': 'Encounters Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.22', 'pageStart': '289', 'pages': '289-290', 'search': 'Encounters Section (entries optional)  2.16.840.1.113883.10.20.22.2.22 CONF:1198-7940;CONF:1198-10386;CONF:1198-32547;CONF:1198-15461;CONF:1198-15462;CONF:1198-31136;CONF:1198-7942;CONF:1198-7943;CONF:1198-7951;CONF:1198-15465' },</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.22',</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>70</v>
       </c>
@@ -7906,17 +7936,14 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '32', 'template_type': 'Section', 'name': 'Encounters Section (entries required)   [2.16.840.1.113883.10.20.22.2.22.1[290-292', 'name2': 'Encounters Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.22.1', 'pageStart': '290', 'pages': '290-292', 'search': 'Encounters Section (entries required)   2.16.840.1.113883.10.20.22.2.22.1 CONF:1198-32815;CONF:1198-8705;CONF:1198-10387;CONF:1198-32548;CONF:1198-15466;CONF:1198-15467;CONF:1198-31137;CONF:1198-8707;CONF:1198-8708;CONF:1198-8709;CONF:1198-15468' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Encounters Section (entries required)   [2.16.840.1.113883.10.20.22.2.22.1[290-292', 'name2': 'Encounters Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.22.1', 'pageStart': '290', 'pages': '290-292', 'search': 'Encounters Section (entries required)   2.16.840.1.113883.10.20.22.2.22.1 CONF:1198-32815;CONF:1198-8705;CONF:1198-10387;CONF:1198-32548;CONF:1198-15466;CONF:1198-15467;CONF:1198-31137;CONF:1198-8707;CONF:1198-8708;CONF:1198-8709;CONF:1198-15468' },</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.22.1',</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>72</v>
       </c>
@@ -7948,17 +7975,14 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '33', 'template_type': 'Section', 'name': 'Family History Section   [2.16.840.1.113883.10.20.22.2.15[292-294', 'name2': 'Family History Section  ', 'template': '2.16.840.1.113883.10.20.22.2.15', 'pageStart': '292', 'pages': '292-294', 'search': 'Family History Section   2.16.840.1.113883.10.20.22.2.15 CONF:1198-7932;CONF:1198-10388;CONF:1198-32607;CONF:1198-15469;CONF:1198-15470;CONF:1198-32481;CONF:1198-7934;CONF:1198-7935;CONF:1198-32430;CONF:1198-32431' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Family History Section   [2.16.840.1.113883.10.20.22.2.15[292-294', 'name2': 'Family History Section  ', 'template': '2.16.840.1.113883.10.20.22.2.15', 'pageStart': '292', 'pages': '292-294', 'search': 'Family History Section   2.16.840.1.113883.10.20.22.2.15 CONF:1198-7932;CONF:1198-10388;CONF:1198-32607;CONF:1198-15469;CONF:1198-15470;CONF:1198-32481;CONF:1198-7934;CONF:1198-7935;CONF:1198-32430;CONF:1198-32431' },</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.15',</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>74</v>
       </c>
@@ -7990,17 +8014,14 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '34', 'template_type': 'Section', 'name': 'Fetus Subject Context [2.16.840.1.113883.10.20.6.2.3[294-296', 'name2': 'Fetus Subject Context', 'template': '2.16.840.1.113883.10.20.6.2.3', 'pageStart': '294', 'pages': '294-296', 'search': 'Fetus Subject Context 2.16.840.1.113883.10.20.6.2.3 CONF:81-9189;CONF:81-10535;CONF:81-9190;CONF:81-26455;CONF:81-26476;CONF:81-9191;CONF:81-15347' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Fetus Subject Context [2.16.840.1.113883.10.20.6.2.3[294-296', 'name2': 'Fetus Subject Context', 'template': '2.16.840.1.113883.10.20.6.2.3', 'pageStart': '294', 'pages': '294-296', 'search': 'Fetus Subject Context 2.16.840.1.113883.10.20.6.2.3 CONF:81-9189;CONF:81-10535;CONF:81-9190;CONF:81-26455;CONF:81-26476;CONF:81-9191;CONF:81-15347' },</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.6.2.3',</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>76</v>
       </c>
@@ -8032,17 +8053,14 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '35', 'template_type': 'Section', 'name': 'Findings Section (DIR) [2.16.840.1.113883.10.20.6.1.2[296-297', 'name2': 'Findings Section (DIR)', 'template': '2.16.840.1.113883.10.20.6.1.2', 'pageStart': '296', 'pages': '296-297', 'search': 'Findings Section (DIR) 2.16.840.1.113883.10.20.6.1.2 CONF:81-8531;CONF:81-10456;CONF:81-8532' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Findings Section (DIR) [2.16.840.1.113883.10.20.6.1.2[296-297', 'name2': 'Findings Section (DIR)', 'template': '2.16.840.1.113883.10.20.6.1.2', 'pageStart': '296', 'pages': '296-297', 'search': 'Findings Section (DIR) 2.16.840.1.113883.10.20.6.1.2 CONF:81-8531;CONF:81-10456;CONF:81-8532' },</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.6.1.2',</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>78</v>
       </c>
@@ -8074,17 +8092,14 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '36', 'template_type': 'Section', 'name': 'Functional Status Section   [2.16.840.1.113883.10.20.22.2.14[297-302', 'name2': 'Functional Status Section  ', 'template': '2.16.840.1.113883.10.20.22.2.14', 'pageStart': '297', 'pages': '297-302', 'search': 'Functional Status Section   2.16.840.1.113883.10.20.22.2.14 CONF:1098-7920;CONF:1098-10389;CONF:1098-32567;CONF:1098-14578;CONF:1098-14579;CONF:1098-30866;CONF:1098-7922;CONF:1098-7923;CONF:1098-14414;CONF:1098-14415;CONF:1098-14418;CONF:1098-14419;CONF:1098-14426;CONF:1098-14427;CONF:1098-14580;CONF:1098-14581;CONF:1098-14582;CONF:1098-30783;CONF:1098-32792;CONF:1098-31009;CONF:1098-16779;CONF:1098-31011;CONF:1098-14424;CONF:1098-14425;CONF:1098-14422;CONF:1098-14423;CONF:1098-16777;CONF:1098-16778' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Functional Status Section   [2.16.840.1.113883.10.20.22.2.14[297-302', 'name2': 'Functional Status Section  ', 'template': '2.16.840.1.113883.10.20.22.2.14', 'pageStart': '297', 'pages': '297-302', 'search': 'Functional Status Section   2.16.840.1.113883.10.20.22.2.14 CONF:1098-7920;CONF:1098-10389;CONF:1098-32567;CONF:1098-14578;CONF:1098-14579;CONF:1098-30866;CONF:1098-7922;CONF:1098-7923;CONF:1098-14414;CONF:1098-14415;CONF:1098-14418;CONF:1098-14419;CONF:1098-14426;CONF:1098-14427;CONF:1098-14580;CONF:1098-14581;CONF:1098-14582;CONF:1098-30783;CONF:1098-32792;CONF:1098-31009;CONF:1098-16779;CONF:1098-31011;CONF:1098-14424;CONF:1098-14425;CONF:1098-14422;CONF:1098-14423;CONF:1098-16777;CONF:1098-16778' },</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.14',</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>80</v>
       </c>
@@ -8116,17 +8131,14 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '37', 'template_type': 'Section', 'name': 'General Status Section [2.16.840.1.113883.10.20.2.5[302-303', 'name2': 'General Status Section', 'template': '2.16.840.1.113883.10.20.2.5', 'pageStart': '302', 'pages': '302-303', 'search': 'General Status Section 2.16.840.1.113883.10.20.2.5 CONF:81-7985;CONF:81-10457;CONF:81-15472;CONF:81-15473;CONF:81-26477;CONF:81-7987;CONF:81-7988' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'General Status Section [2.16.840.1.113883.10.20.2.5[302-303', 'name2': 'General Status Section', 'template': '2.16.840.1.113883.10.20.2.5', 'pageStart': '302', 'pages': '302-303', 'search': 'General Status Section 2.16.840.1.113883.10.20.2.5 CONF:81-7985;CONF:81-10457;CONF:81-15472;CONF:81-15473;CONF:81-26477;CONF:81-7987;CONF:81-7988' },</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.2.5',</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>82</v>
       </c>
@@ -8158,17 +8170,14 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '38', 'template_type': 'Section', 'name': 'Goals Section [2.16.840.1.113883.10.20.22.2.60[303-305', 'name2': 'Goals Section', 'template': '2.16.840.1.113883.10.20.22.2.60', 'pageStart': '303', 'pages': '303-305', 'search': 'Goals Section 2.16.840.1.113883.10.20.22.2.60 CONF:1098-32819;CONF:1098-29584;CONF:1098-29585;CONF:1098-29586;CONF:1098-29587;CONF:1098-29588;CONF:1098-30721;CONF:1098-30722;CONF:1098-30719;CONF:1098-30720' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Goals Section [2.16.840.1.113883.10.20.22.2.60[303-305', 'name2': 'Goals Section', 'template': '2.16.840.1.113883.10.20.22.2.60', 'pageStart': '303', 'pages': '303-305', 'search': 'Goals Section 2.16.840.1.113883.10.20.22.2.60 CONF:1098-32819;CONF:1098-29584;CONF:1098-29585;CONF:1098-29586;CONF:1098-29587;CONF:1098-29588;CONF:1098-30721;CONF:1098-30722;CONF:1098-30719;CONF:1098-30720' },</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.60',</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>84</v>
       </c>
@@ -8200,17 +8209,14 @@
       </c>
       <c r="M40" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '39', 'template_type': 'Section', 'name': 'Health Concerns Section   [2.16.840.1.113883.10.20.22.2.58[305-308', 'name2': 'Health Concerns Section  ', 'template': '2.16.840.1.113883.10.20.22.2.58', 'pageStart': '305', 'pages': '305-308', 'search': 'Health Concerns Section   2.16.840.1.113883.10.20.22.2.58 CONF:1198-32802;CONF:1198-28804;CONF:1198-28805;CONF:1198-32862;CONF:1198-28806;CONF:1198-28807;CONF:1198-28808;CONF:1198-28809;CONF:1198-28810;CONF:1198-30483;CONF:1198-30484;CONF:1198-30768;CONF:1198-30769;CONF:1198-32308;CONF:1198-32309' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Health Concerns Section   [2.16.840.1.113883.10.20.22.2.58[305-308', 'name2': 'Health Concerns Section  ', 'template': '2.16.840.1.113883.10.20.22.2.58', 'pageStart': '305', 'pages': '305-308', 'search': 'Health Concerns Section   2.16.840.1.113883.10.20.22.2.58 CONF:1198-32802;CONF:1198-28804;CONF:1198-28805;CONF:1198-32862;CONF:1198-28806;CONF:1198-28807;CONF:1198-28808;CONF:1198-28809;CONF:1198-28810;CONF:1198-30483;CONF:1198-30484;CONF:1198-30768;CONF:1198-30769;CONF:1198-32308;CONF:1198-32309' },</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.58',</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>86</v>
       </c>
@@ -8242,17 +8248,14 @@
       </c>
       <c r="M41" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '40', 'template_type': 'Section', 'name': 'Health Status Evaluations and Outcomes Section [2.16.840.1.113883.10.20.22.2.61[308-310', 'name2': 'Health Status Evaluations and Outcomes Section', 'template': '2.16.840.1.113883.10.20.22.2.61', 'pageStart': '308', 'pages': '308-310', 'search': 'Health Status Evaluations and Outcomes Section 2.16.840.1.113883.10.20.22.2.61 CONF:1098-32821;CONF:1098-29578;CONF:1098-29579;CONF:1098-29580;CONF:1098-29581;CONF:1098-29582;CONF:1098-29589;CONF:1098-29590;CONF:1098-31227;CONF:1098-31228' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Health Status Evaluations and Outcomes Section [2.16.840.1.113883.10.20.22.2.61[308-310', 'name2': 'Health Status Evaluations and Outcomes Section', 'template': '2.16.840.1.113883.10.20.22.2.61', 'pageStart': '308', 'pages': '308-310', 'search': 'Health Status Evaluations and Outcomes Section 2.16.840.1.113883.10.20.22.2.61 CONF:1098-32821;CONF:1098-29578;CONF:1098-29579;CONF:1098-29580;CONF:1098-29581;CONF:1098-29582;CONF:1098-29589;CONF:1098-29590;CONF:1098-31227;CONF:1098-31228' },</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.61',</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>88</v>
       </c>
@@ -8284,17 +8287,14 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '41', 'template_type': 'Section', 'name': 'History of Present Illness Section [1.3.6.1.4.1.19376.1.5.3.1.3.4[310-312', 'name2': 'History of Present Illness Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.4', 'pageStart': '310', 'pages': '310-312', 'search': 'History of Present Illness Section 1.3.6.1.4.1.19376.1.5.3.1.3.4 CONF:81-7848;CONF:81-10458;CONF:81-15477;CONF:81-15478;CONF:81-26478;CONF:81-7850;CONF:81-7851' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'History of Present Illness Section [1.3.6.1.4.1.19376.1.5.3.1.3.4[310-312', 'name2': 'History of Present Illness Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.4', 'pageStart': '310', 'pages': '310-312', 'search': 'History of Present Illness Section 1.3.6.1.4.1.19376.1.5.3.1.3.4 CONF:81-7848;CONF:81-10458;CONF:81-15477;CONF:81-15478;CONF:81-26478;CONF:81-7850;CONF:81-7851' },</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.4',</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>90</v>
       </c>
@@ -8326,17 +8326,14 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '42', 'template_type': 'Section', 'name': 'Hospital Consultations Section [2.16.840.1.113883.10.20.22.2.42[312-314', 'name2': 'Hospital Consultations Section', 'template': '2.16.840.1.113883.10.20.22.2.42', 'pageStart': '312', 'pages': '312-314', 'search': 'Hospital Consultations Section 2.16.840.1.113883.10.20.22.2.42 CONF:81-9915;CONF:81-10393;CONF:81-15485;CONF:81-15486;CONF:81-26479;CONF:81-9917;CONF:81-9918' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Hospital Consultations Section [2.16.840.1.113883.10.20.22.2.42[312-314', 'name2': 'Hospital Consultations Section', 'template': '2.16.840.1.113883.10.20.22.2.42', 'pageStart': '312', 'pages': '312-314', 'search': 'Hospital Consultations Section 2.16.840.1.113883.10.20.22.2.42 CONF:81-9915;CONF:81-10393;CONF:81-15485;CONF:81-15486;CONF:81-26479;CONF:81-9917;CONF:81-9918' },</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.42',</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>92</v>
       </c>
@@ -8368,17 +8365,14 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '43', 'template_type': 'Section', 'name': 'Hospital Course Section  [1.3.6.1.4.1.19376.1.5.3.1.3.5[314-315', 'name2': 'Hospital Course Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.5', 'pageStart': '314', 'pages': '314-315', 'search': 'Hospital Course Section  1.3.6.1.4.1.19376.1.5.3.1.3.5 CONF:81-7852;CONF:81-10459;CONF:81-15487;CONF:81-15488;CONF:81-26480;CONF:81-7854;CONF:81-7855' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Hospital Course Section  [1.3.6.1.4.1.19376.1.5.3.1.3.5[314-315', 'name2': 'Hospital Course Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.5', 'pageStart': '314', 'pages': '314-315', 'search': 'Hospital Course Section  1.3.6.1.4.1.19376.1.5.3.1.3.5 CONF:81-7852;CONF:81-10459;CONF:81-15487;CONF:81-15488;CONF:81-26480;CONF:81-7854;CONF:81-7855' },</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.5',</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>94</v>
       </c>
@@ -8410,17 +8404,14 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '44', 'template_type': 'Section', 'name': 'Hospital Discharge Instructions Section  [2.16.840.1.113883.10.20.22.2.41[315-316', 'name2': 'Hospital Discharge Instructions Section ', 'template': '2.16.840.1.113883.10.20.22.2.41', 'pageStart': '315', 'pages': '315-316', 'search': 'Hospital Discharge Instructions Section  2.16.840.1.113883.10.20.22.2.41 CONF:81-9919;CONF:81-10395;CONF:81-15357;CONF:81-15358;CONF:81-26481;CONF:81-9921;CONF:81-9922' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Hospital Discharge Instructions Section  [2.16.840.1.113883.10.20.22.2.41[315-316', 'name2': 'Hospital Discharge Instructions Section ', 'template': '2.16.840.1.113883.10.20.22.2.41', 'pageStart': '315', 'pages': '315-316', 'search': 'Hospital Discharge Instructions Section  2.16.840.1.113883.10.20.22.2.41 CONF:81-9919;CONF:81-10395;CONF:81-15357;CONF:81-15358;CONF:81-26481;CONF:81-9921;CONF:81-9922' },</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.41',</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>96</v>
       </c>
@@ -8452,17 +8443,14 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '45', 'template_type': 'Section', 'name': 'Hospital Discharge Physical Section  [1.3.6.1.4.1.19376.1.5.3.1.3.26[316-318', 'name2': 'Hospital Discharge Physical Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.26', 'pageStart': '316', 'pages': '316-318', 'search': 'Hospital Discharge Physical Section  1.3.6.1.4.1.19376.1.5.3.1.3.26 CONF:81-7971;CONF:81-10460;CONF:81-15363;CONF:81-15364;CONF:81-26482;CONF:81-7973;CONF:81-7974' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Hospital Discharge Physical Section  [1.3.6.1.4.1.19376.1.5.3.1.3.26[316-318', 'name2': 'Hospital Discharge Physical Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.26', 'pageStart': '316', 'pages': '316-318', 'search': 'Hospital Discharge Physical Section  1.3.6.1.4.1.19376.1.5.3.1.3.26 CONF:81-7971;CONF:81-10460;CONF:81-15363;CONF:81-15364;CONF:81-26482;CONF:81-7973;CONF:81-7974' },</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.26',</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>98</v>
       </c>
@@ -8494,17 +8482,14 @@
       </c>
       <c r="M47" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '46', 'template_type': 'Section', 'name': 'Hospital Discharge Studies Summary Section [2.16.840.1.113883.10.20.22.2.16[318-320', 'name2': 'Hospital Discharge Studies Summary Section', 'template': '2.16.840.1.113883.10.20.22.2.16', 'pageStart': '318', 'pages': '318-320', 'search': 'Hospital Discharge Studies Summary Section 2.16.840.1.113883.10.20.22.2.16 CONF:81-7910;CONF:81-10398;CONF:81-15365;CONF:81-15366;CONF:81-26483;CONF:81-7912;CONF:81-7913' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Hospital Discharge Studies Summary Section [2.16.840.1.113883.10.20.22.2.16[318-320', 'name2': 'Hospital Discharge Studies Summary Section', 'template': '2.16.840.1.113883.10.20.22.2.16', 'pageStart': '318', 'pages': '318-320', 'search': 'Hospital Discharge Studies Summary Section 2.16.840.1.113883.10.20.22.2.16 CONF:81-7910;CONF:81-10398;CONF:81-15365;CONF:81-15366;CONF:81-26483;CONF:81-7912;CONF:81-7913' },</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.16',</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>100</v>
       </c>
@@ -8536,17 +8521,14 @@
       </c>
       <c r="M48" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '47', 'template_type': 'Section', 'name': 'Immunizations Section (entries optional)   [2.16.840.1.113883.10.20.22.2.2[320-321', 'name2': 'Immunizations Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.2', 'pageStart': '320', 'pages': '320-321', 'search': 'Immunizations Section (entries optional)   2.16.840.1.113883.10.20.22.2.2 CONF:1198-7965;CONF:1198-10399;CONF:1198-32529;CONF:1198-15367;CONF:1198-15368;CONF:1198-32146;CONF:1198-7967;CONF:1198-7968;CONF:1198-7969;CONF:1198-15494' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Immunizations Section (entries optional)   [2.16.840.1.113883.10.20.22.2.2[320-321', 'name2': 'Immunizations Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.2', 'pageStart': '320', 'pages': '320-321', 'search': 'Immunizations Section (entries optional)   2.16.840.1.113883.10.20.22.2.2 CONF:1198-7965;CONF:1198-10399;CONF:1198-32529;CONF:1198-15367;CONF:1198-15368;CONF:1198-32146;CONF:1198-7967;CONF:1198-7968;CONF:1198-7969;CONF:1198-15494' },</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.2',</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>102</v>
       </c>
@@ -8578,17 +8560,14 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '48', 'template_type': 'Section', 'name': 'Immunizations Section (entries required)  [2.16.840.1.113883.10.20.22.2.2.1[321-325', 'name2': 'Immunizations Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.2.1', 'pageStart': '321', 'pages': '321-325', 'search': 'Immunizations Section (entries required)  2.16.840.1.113883.10.20.22.2.2.1 CONF:1198-32833;CONF:1198-9015;CONF:1198-10400;CONF:1198-32530;CONF:1198-15369;CONF:1198-15370;CONF:1198-32147;CONF:1198-9017;CONF:1198-9018;CONF:1198-9019;CONF:1198-15495' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Immunizations Section (entries required)  [2.16.840.1.113883.10.20.22.2.2.1[321-325', 'name2': 'Immunizations Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.2.1', 'pageStart': '321', 'pages': '321-325', 'search': 'Immunizations Section (entries required)  2.16.840.1.113883.10.20.22.2.2.1 CONF:1198-32833;CONF:1198-9015;CONF:1198-10400;CONF:1198-32530;CONF:1198-15369;CONF:1198-15370;CONF:1198-32147;CONF:1198-9017;CONF:1198-9018;CONF:1198-9019;CONF:1198-15495' },</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.2.1',</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>104</v>
       </c>
@@ -8620,17 +8599,14 @@
       </c>
       <c r="M50" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '49', 'template_type': 'Section', 'name': 'Implants Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.33[325-326', 'name2': 'Implants Section (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.2.33', 'pageStart': '325', 'pages': '325-326', 'search': 'Implants Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.33 CONF:1098-8042;CONF:1098-32608;CONF:1098-32609;CONF:1098-15371;CONF:1098-15372;CONF:1098-26471;CONF:1098-8044;CONF:1098-8045' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Implants Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.33[325-326', 'name2': 'Implants Section (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.2.33', 'pageStart': '325', 'pages': '325-326', 'search': 'Implants Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.33 CONF:1098-8042;CONF:1098-32608;CONF:1098-32609;CONF:1098-15371;CONF:1098-15372;CONF:1098-26471;CONF:1098-8044;CONF:1098-8045' },</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.33',</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>106</v>
       </c>
@@ -8662,17 +8638,14 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '50', 'template_type': 'Section', 'name': 'Instructions Section   [2.16.840.1.113883.10.20.22.2.45[326-328', 'name2': 'Instructions Section  ', 'template': '2.16.840.1.113883.10.20.22.2.45', 'pageStart': '326', 'pages': '326-328', 'search': 'Instructions Section   2.16.840.1.113883.10.20.22.2.45 CONF:1098-32835;CONF:1098-10112;CONF:1098-31384;CONF:1098-32599;CONF:1098-15375;CONF:1098-15376;CONF:1098-32148;CONF:1098-10114;CONF:1098-10115;CONF:1098-10116;CONF:1098-31398' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Instructions Section   [2.16.840.1.113883.10.20.22.2.45[326-328', 'name2': 'Instructions Section  ', 'template': '2.16.840.1.113883.10.20.22.2.45', 'pageStart': '326', 'pages': '326-328', 'search': 'Instructions Section   2.16.840.1.113883.10.20.22.2.45 CONF:1098-32835;CONF:1098-10112;CONF:1098-31384;CONF:1098-32599;CONF:1098-15375;CONF:1098-15376;CONF:1098-32148;CONF:1098-10114;CONF:1098-10115;CONF:1098-10116;CONF:1098-31398' },</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.45',</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>108</v>
       </c>
@@ -8704,17 +8677,14 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '51', 'template_type': 'Section', 'name': 'Interventions Section  [2.16.840.1.113883.10.20.21.2.3[328-330', 'name2': 'Interventions Section ', 'template': '2.16.840.1.113883.10.20.21.2.3', 'pageStart': '328', 'pages': '328-330', 'search': 'Interventions Section  2.16.840.1.113883.10.20.21.2.3 CONF:1198-8680;CONF:1198-10461;CONF:1198-32559;CONF:1198-15377;CONF:1198-15378;CONF:1198-30864;CONF:1198-8682;CONF:1198-8683;CONF:1198-30996;CONF:1198-30997;CONF:1198-32730;CONF:1198-32731;CONF:1198-32402;CONF:1198-32403' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Interventions Section  [2.16.840.1.113883.10.20.21.2.3[328-330', 'name2': 'Interventions Section ', 'template': '2.16.840.1.113883.10.20.21.2.3', 'pageStart': '328', 'pages': '328-330', 'search': 'Interventions Section  2.16.840.1.113883.10.20.21.2.3 CONF:1198-8680;CONF:1198-10461;CONF:1198-32559;CONF:1198-15377;CONF:1198-15378;CONF:1198-30864;CONF:1198-8682;CONF:1198-8683;CONF:1198-30996;CONF:1198-30997;CONF:1198-32730;CONF:1198-32731;CONF:1198-32402;CONF:1198-32403' },</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.21.2.3',</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>110</v>
       </c>
@@ -8746,17 +8716,14 @@
       </c>
       <c r="M53" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '52', 'template_type': 'Section', 'name': 'Medical (General) History Section  [2.16.840.1.113883.10.20.22.2.39[330-331', 'name2': 'Medical (General) History Section ', 'template': '2.16.840.1.113883.10.20.22.2.39', 'pageStart': '330', 'pages': '330-331', 'search': 'Medical (General) History Section  2.16.840.1.113883.10.20.22.2.39 CONF:81-8160;CONF:81-10403;CONF:81-15379;CONF:81-15380;CONF:81-26484;CONF:81-8162;CONF:81-8163' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Medical (General) History Section  [2.16.840.1.113883.10.20.22.2.39[330-331', 'name2': 'Medical (General) History Section ', 'template': '2.16.840.1.113883.10.20.22.2.39', 'pageStart': '330', 'pages': '330-331', 'search': 'Medical (General) History Section  2.16.840.1.113883.10.20.22.2.39 CONF:81-8160;CONF:81-10403;CONF:81-15379;CONF:81-15380;CONF:81-26484;CONF:81-8162;CONF:81-8163' },</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.39',</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>112</v>
       </c>
@@ -8788,17 +8755,14 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '53', 'template_type': 'Section', 'name': 'Medical Equipment Section   [2.16.840.1.113883.10.20.22.2.23[331-334', 'name2': 'Medical Equipment Section  ', 'template': '2.16.840.1.113883.10.20.22.2.23', 'pageStart': '331', 'pages': '331-334', 'search': 'Medical Equipment Section   2.16.840.1.113883.10.20.22.2.23 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Medical Equipment Section   [2.16.840.1.113883.10.20.22.2.23[331-334', 'name2': 'Medical Equipment Section  ', 'template': '2.16.840.1.113883.10.20.22.2.23', 'pageStart': '331', 'pages': '331-334', 'search': 'Medical Equipment Section   2.16.840.1.113883.10.20.22.2.23 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.23',</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>114</v>
       </c>
@@ -8830,17 +8794,14 @@
       </c>
       <c r="M55" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '54', 'template_type': 'Section', 'name': 'Medications Administered Section   [2.16.840.1.113883.10.20.22.2.38[334-337', 'name2': 'Medications Administered Section  ', 'template': '2.16.840.1.113883.10.20.22.2.38', 'pageStart': '334', 'pages': '334-337', 'search': 'Medications Administered Section   2.16.840.1.113883.10.20.22.2.38 CONF:1098-8152;CONF:1098-10405;CONF:1098-32525;CONF:1098-15383;CONF:1098-15384;CONF:1098-30829;CONF:1098-8154;CONF:1098-8155;CONF:1098-8156;CONF:1098-15499' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Medications Administered Section   [2.16.840.1.113883.10.20.22.2.38[334-337', 'name2': 'Medications Administered Section  ', 'template': '2.16.840.1.113883.10.20.22.2.38', 'pageStart': '334', 'pages': '334-337', 'search': 'Medications Administered Section   2.16.840.1.113883.10.20.22.2.38 CONF:1098-8152;CONF:1098-10405;CONF:1098-32525;CONF:1098-15383;CONF:1098-15384;CONF:1098-30829;CONF:1098-8154;CONF:1098-8155;CONF:1098-8156;CONF:1098-15499' },</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.38',</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>116</v>
       </c>
@@ -8872,17 +8833,14 @@
       </c>
       <c r="M56" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '55', 'template_type': 'Section', 'name': 'Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.1[337-338', 'name2': 'Medications Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.1', 'pageStart': '337', 'pages': '337-338', 'search': 'Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.1 CONF:1098-7791;CONF:1098-10432;CONF:1098-32500;CONF:1098-15385;CONF:1098-15386;CONF:1098-30824;CONF:1098-7793;CONF:1098-7794;CONF:1098-7795;CONF:1098-10076' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.1[337-338', 'name2': 'Medications Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.1', 'pageStart': '337', 'pages': '337-338', 'search': 'Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.1 CONF:1098-7791;CONF:1098-10432;CONF:1098-32500;CONF:1098-15385;CONF:1098-15386;CONF:1098-30824;CONF:1098-7793;CONF:1098-7794;CONF:1098-7795;CONF:1098-10076' },</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.1',</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>118</v>
       </c>
@@ -8914,17 +8872,14 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '56', 'template_type': 'Section', 'name': 'Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.1.1[338-340', 'name2': 'Medications Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.1.1', 'pageStart': '338', 'pages': '338-340', 'search': 'Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.1.1 CONF:1098-32845;CONF:1098-7568;CONF:1098-10433;CONF:1098-32499;CONF:1098-15387;CONF:1098-15388;CONF:1098-30825;CONF:1098-7570;CONF:1098-7571;CONF:1098-7572;CONF:1098-10077' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.1.1[338-340', 'name2': 'Medications Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.1.1', 'pageStart': '338', 'pages': '338-340', 'search': 'Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.1.1 CONF:1098-32845;CONF:1098-7568;CONF:1098-10433;CONF:1098-32499;CONF:1098-15387;CONF:1098-15388;CONF:1098-30825;CONF:1098-7570;CONF:1098-7571;CONF:1098-7572;CONF:1098-10077' },</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.1.1',</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>120</v>
       </c>
@@ -8956,17 +8911,14 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '57', 'template_type': 'Section', 'name': 'Mental Status Section   [2.16.840.1.113883.10.20.22.2.56[340-345', 'name2': 'Mental Status Section  ', 'template': '2.16.840.1.113883.10.20.22.2.56', 'pageStart': '340', 'pages': '340-345', 'search': 'Mental Status Section   2.16.840.1.113883.10.20.22.2.56 CONF:1198-28293;CONF:1198-28294;CONF:1198-32793;CONF:1198-28295;CONF:1198-28296;CONF:1198-30826;CONF:1198-28297;CONF:1198-28298;CONF:1198-28301;CONF:1198-28302;CONF:1198-28305;CONF:1198-28306;CONF:1198-28313;CONF:1198-28314' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Mental Status Section   [2.16.840.1.113883.10.20.22.2.56[340-345', 'name2': 'Mental Status Section  ', 'template': '2.16.840.1.113883.10.20.22.2.56', 'pageStart': '340', 'pages': '340-345', 'search': 'Mental Status Section   2.16.840.1.113883.10.20.22.2.56 CONF:1198-28293;CONF:1198-28294;CONF:1198-32793;CONF:1198-28295;CONF:1198-28296;CONF:1198-30826;CONF:1198-28297;CONF:1198-28298;CONF:1198-28301;CONF:1198-28302;CONF:1198-28305;CONF:1198-28306;CONF:1198-28313;CONF:1198-28314' },</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.56',</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>122</v>
       </c>
@@ -8998,17 +8950,14 @@
       </c>
       <c r="M59" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '58', 'template_type': 'Section', 'name': 'Nutrition Section [2.16.840.1.113883.10.20.22.2.57[345-347', 'name2': 'Nutrition Section', 'template': '2.16.840.1.113883.10.20.22.2.57', 'pageStart': '345', 'pages': '345-347', 'search': 'Nutrition Section 2.16.840.1.113883.10.20.22.2.57 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Nutrition Section [2.16.840.1.113883.10.20.22.2.57[345-347', 'name2': 'Nutrition Section', 'template': '2.16.840.1.113883.10.20.22.2.57', 'pageStart': '345', 'pages': '345-347', 'search': 'Nutrition Section 2.16.840.1.113883.10.20.22.2.57 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.57',</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>124</v>
       </c>
@@ -9040,17 +8989,14 @@
       </c>
       <c r="M60" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '59', 'template_type': 'Section', 'name': 'Objective Section [2.16.840.1.113883.10.20.21.2.1[347-348', 'name2': 'Objective Section', 'template': '2.16.840.1.113883.10.20.21.2.1', 'pageStart': '347', 'pages': '347-348', 'search': 'Objective Section 2.16.840.1.113883.10.20.21.2.1 CONF:81-7869;CONF:81-10462;CONF:81-15389;CONF:81-15390;CONF:81-26485;CONF:81-7871;CONF:81-7872' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Objective Section [2.16.840.1.113883.10.20.21.2.1[347-348', 'name2': 'Objective Section', 'template': '2.16.840.1.113883.10.20.21.2.1', 'pageStart': '347', 'pages': '347-348', 'search': 'Objective Section 2.16.840.1.113883.10.20.21.2.1 CONF:81-7869;CONF:81-10462;CONF:81-15389;CONF:81-15390;CONF:81-26485;CONF:81-7871;CONF:81-7872' },</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.21.2.1',</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>126</v>
       </c>
@@ -9082,17 +9028,14 @@
       </c>
       <c r="M61" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '60', 'template_type': 'Section', 'name': 'Observer Context  [2.16.840.1.113883.10.20.6.2.4[348-349', 'name2': 'Observer Context ', 'template': '2.16.840.1.113883.10.20.6.2.4', 'pageStart': '348', 'pages': '348-349', 'search': 'Observer Context  2.16.840.1.113883.10.20.6.2.4 CONF:81-9194;CONF:81-10536;CONF:81-9196;CONF:81-9198' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Observer Context  [2.16.840.1.113883.10.20.6.2.4[348-349', 'name2': 'Observer Context ', 'template': '2.16.840.1.113883.10.20.6.2.4', 'pageStart': '348', 'pages': '348-349', 'search': 'Observer Context  2.16.840.1.113883.10.20.6.2.4 CONF:81-9194;CONF:81-10536;CONF:81-9196;CONF:81-9198' },</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.6.2.4',</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>128</v>
       </c>
@@ -9124,17 +9067,14 @@
       </c>
       <c r="M62" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '61', 'template_type': 'Section', 'name': 'Operative Note Fluids Section [2.16.840.1.113883.10.20.7.12[349-350', 'name2': 'Operative Note Fluids Section', 'template': '2.16.840.1.113883.10.20.7.12', 'pageStart': '349', 'pages': '349-350', 'search': 'Operative Note Fluids Section 2.16.840.1.113883.10.20.7.12 CONF:81-8030;CONF:81-10463;CONF:81-15391;CONF:81-15392;CONF:81-26486;CONF:81-8032;CONF:81-8033;CONF:81-8052' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Operative Note Fluids Section [2.16.840.1.113883.10.20.7.12[349-350', 'name2': 'Operative Note Fluids Section', 'template': '2.16.840.1.113883.10.20.7.12', 'pageStart': '349', 'pages': '349-350', 'search': 'Operative Note Fluids Section 2.16.840.1.113883.10.20.7.12 CONF:81-8030;CONF:81-10463;CONF:81-15391;CONF:81-15392;CONF:81-26486;CONF:81-8032;CONF:81-8033;CONF:81-8052' },</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.7.12',</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>130</v>
       </c>
@@ -9166,17 +9106,14 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '62', 'template_type': 'Section', 'name': 'Operative Note Surgical Procedure Section [2.16.840.1.113883.10.20.7.14[350-352', 'name2': 'Operative Note Surgical Procedure Section', 'template': '2.16.840.1.113883.10.20.7.14', 'pageStart': '350', 'pages': '350-352', 'search': 'Operative Note Surgical Procedure Section 2.16.840.1.113883.10.20.7.14 CONF:81-8034;CONF:81-10464;CONF:81-15393;CONF:81-15394;CONF:81-26487;CONF:81-8036;CONF:81-8037;CONF:81-8054' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Operative Note Surgical Procedure Section [2.16.840.1.113883.10.20.7.14[350-352', 'name2': 'Operative Note Surgical Procedure Section', 'template': '2.16.840.1.113883.10.20.7.14', 'pageStart': '350', 'pages': '350-352', 'search': 'Operative Note Surgical Procedure Section 2.16.840.1.113883.10.20.7.14 CONF:81-8034;CONF:81-10464;CONF:81-15393;CONF:81-15394;CONF:81-26487;CONF:81-8036;CONF:81-8037;CONF:81-8054' },</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.7.14',</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>132</v>
       </c>
@@ -9208,17 +9145,14 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '63', 'template_type': 'Section', 'name': 'Past Medical History  [2.16.840.1.113883.10.20.22.2.20[352-353', 'name2': 'Past Medical History ', 'template': '2.16.840.1.113883.10.20.22.2.20', 'pageStart': '352', 'pages': '352-353', 'search': 'Past Medical History  2.16.840.1.113883.10.20.22.2.20 CONF:1198-7828;CONF:1198-10390;CONF:1198-32536;CONF:1198-15474;CONF:1198-15475;CONF:1198-30831;CONF:1198-7830;CONF:1198-7831;CONF:1198-8791;CONF:1198-15476' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Past Medical History  [2.16.840.1.113883.10.20.22.2.20[352-353', 'name2': 'Past Medical History ', 'template': '2.16.840.1.113883.10.20.22.2.20', 'pageStart': '352', 'pages': '352-353', 'search': 'Past Medical History  2.16.840.1.113883.10.20.22.2.20 CONF:1198-7828;CONF:1198-10390;CONF:1198-32536;CONF:1198-15474;CONF:1198-15475;CONF:1198-30831;CONF:1198-7830;CONF:1198-7831;CONF:1198-8791;CONF:1198-15476' },</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.20',</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>134</v>
       </c>
@@ -9250,17 +9184,14 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '64', 'template_type': 'Section', 'name': 'Payers Section  [2.16.840.1.113883.10.20.22.2.18[353-356', 'name2': 'Payers Section ', 'template': '2.16.840.1.113883.10.20.22.2.18', 'pageStart': '353', 'pages': '353-356', 'search': 'Payers Section  2.16.840.1.113883.10.20.22.2.18 CONF:1198-7924;CONF:1198-10434;CONF:1198-32597;CONF:1198-15395;CONF:1198-15396;CONF:1198-32149;CONF:1198-7926;CONF:1198-7927;CONF:1198-7959;CONF:1198-15501' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Payers Section  [2.16.840.1.113883.10.20.22.2.18[353-356', 'name2': 'Payers Section ', 'template': '2.16.840.1.113883.10.20.22.2.18', 'pageStart': '353', 'pages': '353-356', 'search': 'Payers Section  2.16.840.1.113883.10.20.22.2.18 CONF:1198-7924;CONF:1198-10434;CONF:1198-32597;CONF:1198-15395;CONF:1198-15396;CONF:1198-32149;CONF:1198-7926;CONF:1198-7927;CONF:1198-7959;CONF:1198-15501' },</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.18',</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>136</v>
       </c>
@@ -9292,17 +9223,14 @@
       </c>
       <c r="M66" t="str">
         <f t="shared" si="1"/>
-        <v>{ 'id': '65', 'template_type': 'Section', 'name': 'Physical Exam Section   [2.16.840.1.113883.10.20.2.10[356-360', 'name2': 'Physical Exam Section  ', 'template': '2.16.840.1.113883.10.20.2.10', 'pageStart': '356', 'pages': '356-360', 'search': 'Physical Exam Section   2.16.840.1.113883.10.20.2.10 CONF:1198-7806;CONF:1198-10465;CONF:1198-32587;CONF:1198-15397;CONF:1198-15398;CONF:1198-30931;CONF:1198-7808;CONF:1198-7809;CONF:1198-31926;CONF:1198-31927;CONF:1198-32434;CONF:1198-32435;CONF:1198-32436;CONF:1198-32437;CONF:1198-32438' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Physical Exam Section   [2.16.840.1.113883.10.20.2.10[356-360', 'name2': 'Physical Exam Section  ', 'template': '2.16.840.1.113883.10.20.2.10', 'pageStart': '356', 'pages': '356-360', 'search': 'Physical Exam Section   2.16.840.1.113883.10.20.2.10 CONF:1198-7806;CONF:1198-10465;CONF:1198-32587;CONF:1198-15397;CONF:1198-15398;CONF:1198-30931;CONF:1198-7808;CONF:1198-7809;CONF:1198-31926;CONF:1198-31927;CONF:1198-32434;CONF:1198-32435;CONF:1198-32436;CONF:1198-32437;CONF:1198-32438' },</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.2.10',</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>138</v>
       </c>
@@ -9334,17 +9262,14 @@
       </c>
       <c r="M67" t="str">
         <f t="shared" ref="M67:M130" si="4">"{ 'id': '"&amp;A67&amp;"', 'template_type': '"&amp;C67&amp;"', 'name': '"&amp;B67&amp;" ["&amp;D67&amp;"["&amp;G67&amp;"', 'name2': '"&amp;B67&amp;"', 'template': '"&amp;D67&amp;"', 'pageStart': '"&amp;E67&amp;"', 'pages': '"&amp;G67&amp;"', 'search': '"&amp;K67&amp;"' },"</f>
-        <v>{ 'id': '66', 'template_type': 'Section', 'name': 'Plan of Treatment Section  [2.16.840.1.113883.10.20.22.2.10[360-365', 'name2': 'Plan of Treatment Section ', 'template': '2.16.840.1.113883.10.20.22.2.10', 'pageStart': '360', 'pages': '360-365', 'search': 'Plan of Treatment Section  2.16.840.1.113883.10.20.22.2.10 CONF:1098-7723;CONF:1098-10435;CONF:1098-32501;CONF:1098-14749;CONF:1098-14750;CONF:1098-30813;CONF:1098-16986;CONF:1098-7725;CONF:1098-7726;CONF:1098-14751;CONF:1098-8805;CONF:1098-30472;CONF:1098-8807;CONF:1098-30473;CONF:1098-8809;CONF:1098-30474;CONF:1098-8811;CONF:1098-30475;CONF:1098-8813;CONF:1098-30476;CONF:1098-14695;CONF:1098-31397;CONF:1098-29621;CONF:1098-30868;CONF:1098-31841;CONF:1098-31864;CONF:1098-32353;CONF:1098-32354;CONF:1098-32887;CONF:1098-32888' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Plan of Treatment Section  [2.16.840.1.113883.10.20.22.2.10[360-365', 'name2': 'Plan of Treatment Section ', 'template': '2.16.840.1.113883.10.20.22.2.10', 'pageStart': '360', 'pages': '360-365', 'search': 'Plan of Treatment Section  2.16.840.1.113883.10.20.22.2.10 CONF:1098-7723;CONF:1098-10435;CONF:1098-32501;CONF:1098-14749;CONF:1098-14750;CONF:1098-30813;CONF:1098-16986;CONF:1098-7725;CONF:1098-7726;CONF:1098-14751;CONF:1098-8805;CONF:1098-30472;CONF:1098-8807;CONF:1098-30473;CONF:1098-8809;CONF:1098-30474;CONF:1098-8811;CONF:1098-30475;CONF:1098-8813;CONF:1098-30476;CONF:1098-14695;CONF:1098-31397;CONF:1098-29621;CONF:1098-30868;CONF:1098-31841;CONF:1098-31864;CONF:1098-32353;CONF:1098-32354;CONF:1098-32887;CONF:1098-32888' },</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" ref="N67:N130" si="5">"'"&amp;D67&amp;"',"</f>
         <v>'2.16.840.1.113883.10.20.22.2.10',</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>140</v>
       </c>
@@ -9376,17 +9301,14 @@
       </c>
       <c r="M68" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '67', 'template_type': 'Section', 'name': 'Planned Procedure Section   [2.16.840.1.113883.10.20.22.2.30[365-367', 'name2': 'Planned Procedure Section  ', 'template': '2.16.840.1.113883.10.20.22.2.30', 'pageStart': '365', 'pages': '365-367', 'search': 'Planned Procedure Section   2.16.840.1.113883.10.20.22.2.30 CONF:1098-8082;CONF:1098-10436;CONF:1098-32590;CONF:1098-15399;CONF:1098-15400;CONF:1098-32151;CONF:1098-8084;CONF:1098-8085;CONF:1098-8744;CONF:1098-15502' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Planned Procedure Section   [2.16.840.1.113883.10.20.22.2.30[365-367', 'name2': 'Planned Procedure Section  ', 'template': '2.16.840.1.113883.10.20.22.2.30', 'pageStart': '365', 'pages': '365-367', 'search': 'Planned Procedure Section   2.16.840.1.113883.10.20.22.2.30 CONF:1098-8082;CONF:1098-10436;CONF:1098-32590;CONF:1098-15399;CONF:1098-15400;CONF:1098-32151;CONF:1098-8084;CONF:1098-8085;CONF:1098-8744;CONF:1098-15502' },</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.30',</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>142</v>
       </c>
@@ -9418,17 +9340,14 @@
       </c>
       <c r="M69" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '68', 'template_type': 'Section', 'name': 'Postoperative Diagnosis Section [2.16.840.1.113883.10.20.22.2.35[367-368', 'name2': 'Postoperative Diagnosis Section', 'template': '2.16.840.1.113883.10.20.22.2.35', 'pageStart': '367', 'pages': '367-368', 'search': 'Postoperative Diagnosis Section 2.16.840.1.113883.10.20.22.2.35 CONF:81-8101;CONF:81-10437;CONF:81-15401;CONF:81-15402;CONF:81-26488;CONF:81-8103;CONF:81-8104' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Postoperative Diagnosis Section [2.16.840.1.113883.10.20.22.2.35[367-368', 'name2': 'Postoperative Diagnosis Section', 'template': '2.16.840.1.113883.10.20.22.2.35', 'pageStart': '367', 'pages': '367-368', 'search': 'Postoperative Diagnosis Section 2.16.840.1.113883.10.20.22.2.35 CONF:81-8101;CONF:81-10437;CONF:81-15401;CONF:81-15402;CONF:81-26488;CONF:81-8103;CONF:81-8104' },</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.35',</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>144</v>
       </c>
@@ -9460,17 +9379,14 @@
       </c>
       <c r="M70" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '69', 'template_type': 'Section', 'name': 'Postprocedure Diagnosis Section   [2.16.840.1.113883.10.20.22.2.36[368-370', 'name2': 'Postprocedure Diagnosis Section  ', 'template': '2.16.840.1.113883.10.20.22.2.36', 'pageStart': '368', 'pages': '368-370', 'search': 'Postprocedure Diagnosis Section   2.16.840.1.113883.10.20.22.2.36 CONF:1198-8167;CONF:1198-10438;CONF:1198-32550;CONF:1198-15403;CONF:1198-15404;CONF:1198-30862;CONF:1198-8170;CONF:1198-8171;CONF:1198-8762;CONF:1198-15503' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Postprocedure Diagnosis Section   [2.16.840.1.113883.10.20.22.2.36[368-370', 'name2': 'Postprocedure Diagnosis Section  ', 'template': '2.16.840.1.113883.10.20.22.2.36', 'pageStart': '368', 'pages': '368-370', 'search': 'Postprocedure Diagnosis Section   2.16.840.1.113883.10.20.22.2.36 CONF:1198-8167;CONF:1198-10438;CONF:1198-32550;CONF:1198-15403;CONF:1198-15404;CONF:1198-30862;CONF:1198-8170;CONF:1198-8171;CONF:1198-8762;CONF:1198-15503' },</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.36',</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>146</v>
       </c>
@@ -9502,17 +9418,14 @@
       </c>
       <c r="M71" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '70', 'template_type': 'Section', 'name': 'Preoperative Diagnosis Section   [2.16.840.1.113883.10.20.22.2.34[370-372', 'name2': 'Preoperative Diagnosis Section  ', 'template': '2.16.840.1.113883.10.20.22.2.34', 'pageStart': '370', 'pages': '370-372', 'search': 'Preoperative Diagnosis Section   2.16.840.1.113883.10.20.22.2.34 CONF:1198-8097;CONF:1198-10439;CONF:1198-32551;CONF:1198-15405;CONF:1198-15406;CONF:1198-30863;CONF:1198-8099;CONF:1198-8100;CONF:1198-10096;CONF:1198-15504' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Preoperative Diagnosis Section   [2.16.840.1.113883.10.20.22.2.34[370-372', 'name2': 'Preoperative Diagnosis Section  ', 'template': '2.16.840.1.113883.10.20.22.2.34', 'pageStart': '370', 'pages': '370-372', 'search': 'Preoperative Diagnosis Section   2.16.840.1.113883.10.20.22.2.34 CONF:1198-8097;CONF:1198-10439;CONF:1198-32551;CONF:1198-15405;CONF:1198-15406;CONF:1198-30863;CONF:1198-8099;CONF:1198-8100;CONF:1198-10096;CONF:1198-15504' },</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.34',</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>148</v>
       </c>
@@ -9544,17 +9457,14 @@
       </c>
       <c r="M72" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '71', 'template_type': 'Section', 'name': 'Problem Section (entries optional)  [2.16.840.1.113883.10.20.22.2.5[372-374', 'name2': 'Problem Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.5', 'pageStart': '372', 'pages': '372-374', 'search': 'Problem Section (entries optional)  2.16.840.1.113883.10.20.22.2.5 CONF:1198-7877;CONF:1198-10440;CONF:1198-32511;CONF:1198-15407;CONF:1198-15408;CONF:1198-31141;CONF:1198-7879;CONF:1198-7880;CONF:1198-7881;CONF:1198-15505;CONF:1198-30481;CONF:1198-30482' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Problem Section (entries optional)  [2.16.840.1.113883.10.20.22.2.5[372-374', 'name2': 'Problem Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.5', 'pageStart': '372', 'pages': '372-374', 'search': 'Problem Section (entries optional)  2.16.840.1.113883.10.20.22.2.5 CONF:1198-7877;CONF:1198-10440;CONF:1198-32511;CONF:1198-15407;CONF:1198-15408;CONF:1198-31141;CONF:1198-7879;CONF:1198-7880;CONF:1198-7881;CONF:1198-15505;CONF:1198-30481;CONF:1198-30482' },</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.5',</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>150</v>
       </c>
@@ -9586,17 +9496,14 @@
       </c>
       <c r="M73" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '72', 'template_type': 'Section', 'name': 'Problem Section (entries required)   [2.16.840.1.113883.10.20.22.2.5.1[374-378', 'name2': 'Problem Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.5.1', 'pageStart': '374', 'pages': '374-378', 'search': 'Problem Section (entries required)   2.16.840.1.113883.10.20.22.2.5.1 CONF:1198-32864;CONF:1198-9179;CONF:1198-10441;CONF:1198-32510;CONF:1198-15409;CONF:1198-15410;CONF:1198-31142;CONF:1198-9181;CONF:1198-9182;CONF:1198-9183;CONF:1198-15506;CONF:1198-30479;CONF:1198-30480' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Problem Section (entries required)   [2.16.840.1.113883.10.20.22.2.5.1[374-378', 'name2': 'Problem Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.5.1', 'pageStart': '374', 'pages': '374-378', 'search': 'Problem Section (entries required)   2.16.840.1.113883.10.20.22.2.5.1 CONF:1198-32864;CONF:1198-9179;CONF:1198-10441;CONF:1198-32510;CONF:1198-15409;CONF:1198-15410;CONF:1198-31142;CONF:1198-9181;CONF:1198-9182;CONF:1198-9183;CONF:1198-15506;CONF:1198-30479;CONF:1198-30480' },</v>
       </c>
       <c r="N73" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.5.1',</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>152</v>
       </c>
@@ -9628,17 +9535,14 @@
       </c>
       <c r="M74" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '73', 'template_type': 'Section', 'name': 'Procedure Description Section [2.16.840.1.113883.10.20.22.2.27[378-380', 'name2': 'Procedure Description Section', 'template': '2.16.840.1.113883.10.20.22.2.27', 'pageStart': '378', 'pages': '378-380', 'search': 'Procedure Description Section 2.16.840.1.113883.10.20.22.2.27 CONF:81-8062;CONF:81-10442;CONF:81-15411;CONF:81-15412;CONF:81-26489;CONF:81-8064;CONF:81-8065' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Procedure Description Section [2.16.840.1.113883.10.20.22.2.27[378-380', 'name2': 'Procedure Description Section', 'template': '2.16.840.1.113883.10.20.22.2.27', 'pageStart': '378', 'pages': '378-380', 'search': 'Procedure Description Section 2.16.840.1.113883.10.20.22.2.27 CONF:81-8062;CONF:81-10442;CONF:81-15411;CONF:81-15412;CONF:81-26489;CONF:81-8064;CONF:81-8065' },</v>
       </c>
       <c r="N74" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.27',</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>154</v>
       </c>
@@ -9670,17 +9574,14 @@
       </c>
       <c r="M75" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '74', 'template_type': 'Section', 'name': 'Procedure Disposition Section  [2.16.840.1.113883.10.20.18.2.12[380-381', 'name2': 'Procedure Disposition Section ', 'template': '2.16.840.1.113883.10.20.18.2.12', 'pageStart': '380', 'pages': '380-381', 'search': 'Procedure Disposition Section  2.16.840.1.113883.10.20.18.2.12 CONF:81-8070;CONF:81-10466;CONF:81-15413;CONF:81-15414;CONF:81-26490;CONF:81-8072;CONF:81-8073' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Procedure Disposition Section  [2.16.840.1.113883.10.20.18.2.12[380-381', 'name2': 'Procedure Disposition Section ', 'template': '2.16.840.1.113883.10.20.18.2.12', 'pageStart': '380', 'pages': '380-381', 'search': 'Procedure Disposition Section  2.16.840.1.113883.10.20.18.2.12 CONF:81-8070;CONF:81-10466;CONF:81-15413;CONF:81-15414;CONF:81-26490;CONF:81-8072;CONF:81-8073' },</v>
       </c>
       <c r="N75" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.18.2.12',</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>156</v>
       </c>
@@ -9712,17 +9613,14 @@
       </c>
       <c r="M76" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '75', 'template_type': 'Section', 'name': 'Procedure Estimated Blood Loss Section [2.16.840.1.113883.10.20.18.2.9[381-382', 'name2': 'Procedure Estimated Blood Loss Section', 'template': '2.16.840.1.113883.10.20.18.2.9', 'pageStart': '381', 'pages': '381-382', 'search': 'Procedure Estimated Blood Loss Section 2.16.840.1.113883.10.20.18.2.9 CONF:81-8074;CONF:81-10467;CONF:81-15415;CONF:81-15416;CONF:81-26491;CONF:81-8076;CONF:81-8077;CONF:81-8741' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Procedure Estimated Blood Loss Section [2.16.840.1.113883.10.20.18.2.9[381-382', 'name2': 'Procedure Estimated Blood Loss Section', 'template': '2.16.840.1.113883.10.20.18.2.9', 'pageStart': '381', 'pages': '381-382', 'search': 'Procedure Estimated Blood Loss Section 2.16.840.1.113883.10.20.18.2.9 CONF:81-8074;CONF:81-10467;CONF:81-15415;CONF:81-15416;CONF:81-26491;CONF:81-8076;CONF:81-8077;CONF:81-8741' },</v>
       </c>
       <c r="N76" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.18.2.9',</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>158</v>
       </c>
@@ -9754,17 +9652,14 @@
       </c>
       <c r="M77" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '76', 'template_type': 'Section', 'name': 'Procedure Findings Section   [2.16.840.1.113883.10.20.22.2.28[382-384', 'name2': 'Procedure Findings Section  ', 'template': '2.16.840.1.113883.10.20.22.2.28', 'pageStart': '382', 'pages': '382-384', 'search': 'Procedure Findings Section   2.16.840.1.113883.10.20.22.2.28 CONF:1198-8078;CONF:1198-10443;CONF:1198-32537;CONF:1198-15417;CONF:1198-15418;CONF:1198-30859;CONF:1198-8080;CONF:1198-8081;CONF:1198-8090;CONF:1198-15507' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Procedure Findings Section   [2.16.840.1.113883.10.20.22.2.28[382-384', 'name2': 'Procedure Findings Section  ', 'template': '2.16.840.1.113883.10.20.22.2.28', 'pageStart': '382', 'pages': '382-384', 'search': 'Procedure Findings Section   2.16.840.1.113883.10.20.22.2.28 CONF:1198-8078;CONF:1198-10443;CONF:1198-32537;CONF:1198-15417;CONF:1198-15418;CONF:1198-30859;CONF:1198-8080;CONF:1198-8081;CONF:1198-8090;CONF:1198-15507' },</v>
       </c>
       <c r="N77" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.28',</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>160</v>
       </c>
@@ -9796,17 +9691,14 @@
       </c>
       <c r="M78" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '77', 'template_type': 'Section', 'name': 'Procedure Implants Section [2.16.840.1.113883.10.20.22.2.40[384-385', 'name2': 'Procedure Implants Section', 'template': '2.16.840.1.113883.10.20.22.2.40', 'pageStart': '384', 'pages': '384-385', 'search': 'Procedure Implants Section 2.16.840.1.113883.10.20.22.2.40 CONF:81-8178;CONF:81-10444;CONF:81-15373;CONF:81-15374;CONF:81-26492;CONF:81-8180;CONF:81-8181;CONF:81-8769' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Procedure Implants Section [2.16.840.1.113883.10.20.22.2.40[384-385', 'name2': 'Procedure Implants Section', 'template': '2.16.840.1.113883.10.20.22.2.40', 'pageStart': '384', 'pages': '384-385', 'search': 'Procedure Implants Section 2.16.840.1.113883.10.20.22.2.40 CONF:81-8178;CONF:81-10444;CONF:81-15373;CONF:81-15374;CONF:81-26492;CONF:81-8180;CONF:81-8181;CONF:81-8769' },</v>
       </c>
       <c r="N78" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.40',</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>162</v>
       </c>
@@ -9838,17 +9730,14 @@
       </c>
       <c r="M79" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '78', 'template_type': 'Section', 'name': 'Procedure Indications Section  [2.16.840.1.113883.10.20.22.2.29[385-387', 'name2': 'Procedure Indications Section ', 'template': '2.16.840.1.113883.10.20.22.2.29', 'pageStart': '385', 'pages': '385-387', 'search': 'Procedure Indications Section  2.16.840.1.113883.10.20.22.2.29 CONF:1098-8058;CONF:1098-10445;CONF:1098-32572;CONF:1098-15419;CONF:1098-15420;CONF:1098-30827;CONF:1098-8060;CONF:1098-8061;CONF:1098-8743;CONF:1098-15508' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Procedure Indications Section  [2.16.840.1.113883.10.20.22.2.29[385-387', 'name2': 'Procedure Indications Section ', 'template': '2.16.840.1.113883.10.20.22.2.29', 'pageStart': '385', 'pages': '385-387', 'search': 'Procedure Indications Section  2.16.840.1.113883.10.20.22.2.29 CONF:1098-8058;CONF:1098-10445;CONF:1098-32572;CONF:1098-15419;CONF:1098-15420;CONF:1098-30827;CONF:1098-8060;CONF:1098-8061;CONF:1098-8743;CONF:1098-15508' },</v>
       </c>
       <c r="N79" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.29',</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>164</v>
       </c>
@@ -9880,17 +9769,14 @@
       </c>
       <c r="M80" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '79', 'template_type': 'Section', 'name': 'Procedure Specimens Taken Section [2.16.840.1.113883.10.20.22.2.31[387-388', 'name2': 'Procedure Specimens Taken Section', 'template': '2.16.840.1.113883.10.20.22.2.31', 'pageStart': '387', 'pages': '387-388', 'search': 'Procedure Specimens Taken Section 2.16.840.1.113883.10.20.22.2.31 CONF:81-8086;CONF:81-10446;CONF:81-15421;CONF:81-15422;CONF:81-26493;CONF:81-8088;CONF:81-8089;CONF:81-8742' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Procedure Specimens Taken Section [2.16.840.1.113883.10.20.22.2.31[387-388', 'name2': 'Procedure Specimens Taken Section', 'template': '2.16.840.1.113883.10.20.22.2.31', 'pageStart': '387', 'pages': '387-388', 'search': 'Procedure Specimens Taken Section 2.16.840.1.113883.10.20.22.2.31 CONF:81-8086;CONF:81-10446;CONF:81-15421;CONF:81-15422;CONF:81-26493;CONF:81-8088;CONF:81-8089;CONF:81-8742' },</v>
       </c>
       <c r="N80" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.31',</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>166</v>
       </c>
@@ -9922,17 +9808,14 @@
       </c>
       <c r="M81" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '80', 'template_type': 'Section', 'name': 'Procedures Section (entries optional)   [2.16.840.1.113883.10.20.22.2.7[388-390', 'name2': 'Procedures Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.7', 'pageStart': '388', 'pages': '388-390', 'search': 'Procedures Section (entries optional)   2.16.840.1.113883.10.20.22.2.7 CONF:1098-6270;CONF:1098-6271;CONF:1098-32532;CONF:1098-15423;CONF:1098-15424;CONF:1098-31139;CONF:1098-17184;CONF:1098-6273;CONF:1098-6274;CONF:1098-15509;CONF:1098-6278;CONF:1098-15510;CONF:1098-8533;CONF:1098-15511' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Procedures Section (entries optional)   [2.16.840.1.113883.10.20.22.2.7[388-390', 'name2': 'Procedures Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.7', 'pageStart': '388', 'pages': '388-390', 'search': 'Procedures Section (entries optional)   2.16.840.1.113883.10.20.22.2.7 CONF:1098-6270;CONF:1098-6271;CONF:1098-32532;CONF:1098-15423;CONF:1098-15424;CONF:1098-31139;CONF:1098-17184;CONF:1098-6273;CONF:1098-6274;CONF:1098-15509;CONF:1098-6278;CONF:1098-15510;CONF:1098-8533;CONF:1098-15511' },</v>
       </c>
       <c r="N81" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.7',</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>168</v>
       </c>
@@ -9964,17 +9847,14 @@
       </c>
       <c r="M82" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '81', 'template_type': 'Section', 'name': 'Procedures Section (entries required)  [2.16.840.1.113883.10.20.22.2.7.1[390-393', 'name2': 'Procedures Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.7.1', 'pageStart': '390', 'pages': '390-393', 'search': 'Procedures Section (entries required)  2.16.840.1.113883.10.20.22.2.7.1 CONF:1098-32876;CONF:1098-7891;CONF:1098-10447;CONF:1098-32533;CONF:1098-15425;CONF:1098-15426;CONF:1098-31138;CONF:1098-7893;CONF:1098-7894;CONF:1098-7895;CONF:1098-32877;CONF:1098-32878;CONF:1098-15512' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Procedures Section (entries required)  [2.16.840.1.113883.10.20.22.2.7.1[390-393', 'name2': 'Procedures Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.7.1', 'pageStart': '390', 'pages': '390-393', 'search': 'Procedures Section (entries required)  2.16.840.1.113883.10.20.22.2.7.1 CONF:1098-32876;CONF:1098-7891;CONF:1098-10447;CONF:1098-32533;CONF:1098-15425;CONF:1098-15426;CONF:1098-31138;CONF:1098-7893;CONF:1098-7894;CONF:1098-7895;CONF:1098-32877;CONF:1098-32878;CONF:1098-15512' },</v>
       </c>
       <c r="N82" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.7.1',</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>170</v>
       </c>
@@ -10006,17 +9886,14 @@
       </c>
       <c r="M83" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '82', 'template_type': 'Section', 'name': 'Reason for Referral Section  [1.3.6.1.4.1.19376.1.5.3.1.3.1[393-395', 'name2': 'Reason for Referral Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.1', 'pageStart': '393', 'pages': '393-395', 'search': 'Reason for Referral Section  1.3.6.1.4.1.19376.1.5.3.1.3.1 CONF:1098-7844;CONF:1098-10468;CONF:1098-32571;CONF:1098-15427;CONF:1098-15428;CONF:1098-30867;CONF:1098-7846;CONF:1098-7847;CONF:1098-30808;CONF:1098-30897' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Reason for Referral Section  [1.3.6.1.4.1.19376.1.5.3.1.3.1[393-395', 'name2': 'Reason for Referral Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.1', 'pageStart': '393', 'pages': '393-395', 'search': 'Reason for Referral Section  1.3.6.1.4.1.19376.1.5.3.1.3.1 CONF:1098-7844;CONF:1098-10468;CONF:1098-32571;CONF:1098-15427;CONF:1098-15428;CONF:1098-30867;CONF:1098-7846;CONF:1098-7847;CONF:1098-30808;CONF:1098-30897' },</v>
       </c>
       <c r="N83" t="str">
         <f t="shared" si="5"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.1',</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>172</v>
       </c>
@@ -10048,17 +9925,14 @@
       </c>
       <c r="M84" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '83', 'template_type': 'Section', 'name': 'Reason for Visit Section [2.16.840.1.113883.10.20.22.2.12[395-397', 'name2': 'Reason for Visit Section', 'template': '2.16.840.1.113883.10.20.22.2.12', 'pageStart': '395', 'pages': '395-397', 'search': 'Reason for Visit Section 2.16.840.1.113883.10.20.22.2.12 CONF:81-7836;CONF:81-10448;CONF:81-15429;CONF:81-15430;CONF:81-26494;CONF:81-7838;CONF:81-7839' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Reason for Visit Section [2.16.840.1.113883.10.20.22.2.12[395-397', 'name2': 'Reason for Visit Section', 'template': '2.16.840.1.113883.10.20.22.2.12', 'pageStart': '395', 'pages': '395-397', 'search': 'Reason for Visit Section 2.16.840.1.113883.10.20.22.2.12 CONF:81-7836;CONF:81-10448;CONF:81-15429;CONF:81-15430;CONF:81-26494;CONF:81-7838;CONF:81-7839' },</v>
       </c>
       <c r="N84" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.12',</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>174</v>
       </c>
@@ -10090,17 +9964,14 @@
       </c>
       <c r="M85" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '84', 'template_type': 'Section', 'name': 'Results Section (entries optional)  [2.16.840.1.113883.10.20.22.2.3[397-399', 'name2': 'Results Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.3', 'pageStart': '397', 'pages': '397-399', 'search': 'Results Section (entries optional)  2.16.840.1.113883.10.20.22.2.3 CONF:1198-7116;CONF:1198-9136;CONF:1198-32591;CONF:1198-15431;CONF:1198-15432;CONF:1198-31041;CONF:1198-8891;CONF:1198-7118;CONF:1198-7119;CONF:1198-15515' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Results Section (entries optional)  [2.16.840.1.113883.10.20.22.2.3[397-399', 'name2': 'Results Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.3', 'pageStart': '397', 'pages': '397-399', 'search': 'Results Section (entries optional)  2.16.840.1.113883.10.20.22.2.3 CONF:1198-7116;CONF:1198-9136;CONF:1198-32591;CONF:1198-15431;CONF:1198-15432;CONF:1198-31041;CONF:1198-8891;CONF:1198-7118;CONF:1198-7119;CONF:1198-15515' },</v>
       </c>
       <c r="N85" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.3',</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>176</v>
       </c>
@@ -10132,17 +10003,14 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '85', 'template_type': 'Section', 'name': 'Results Section (entries required)   [2.16.840.1.113883.10.20.22.2.3.1[399-401', 'name2': 'Results Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.3.1', 'pageStart': '399', 'pages': '399-401', 'search': 'Results Section (entries required)   2.16.840.1.113883.10.20.22.2.3.1 CONF:1198-32875;CONF:1198-7108;CONF:1198-9137;CONF:1198-32592;CONF:1198-15433;CONF:1198-15434;CONF:1198-31040;CONF:1198-8892;CONF:1198-7111;CONF:1198-7112;CONF:1198-15516' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Results Section (entries required)   [2.16.840.1.113883.10.20.22.2.3.1[399-401', 'name2': 'Results Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.3.1', 'pageStart': '399', 'pages': '399-401', 'search': 'Results Section (entries required)   2.16.840.1.113883.10.20.22.2.3.1 CONF:1198-32875;CONF:1198-7108;CONF:1198-9137;CONF:1198-32592;CONF:1198-15433;CONF:1198-15434;CONF:1198-31040;CONF:1198-8892;CONF:1198-7111;CONF:1198-7112;CONF:1198-15516' },</v>
       </c>
       <c r="N86" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.3.1',</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>178</v>
       </c>
@@ -10174,17 +10042,14 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '86', 'template_type': 'Section', 'name': 'Review of Systems Section [1.3.6.1.4.1.19376.1.5.3.1.3.18[401-403', 'name2': 'Review of Systems Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.18', 'pageStart': '401', 'pages': '401-403', 'search': 'Review of Systems Section 1.3.6.1.4.1.19376.1.5.3.1.3.18 CONF:81-7812;CONF:81-10469;CONF:81-15435;CONF:81-15436;CONF:81-26495;CONF:81-7814;CONF:81-7815' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Review of Systems Section [1.3.6.1.4.1.19376.1.5.3.1.3.18[401-403', 'name2': 'Review of Systems Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.18', 'pageStart': '401', 'pages': '401-403', 'search': 'Review of Systems Section 1.3.6.1.4.1.19376.1.5.3.1.3.18 CONF:81-7812;CONF:81-10469;CONF:81-15435;CONF:81-15436;CONF:81-26495;CONF:81-7814;CONF:81-7815' },</v>
       </c>
       <c r="N87" t="str">
         <f t="shared" si="5"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.18',</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>180</v>
       </c>
@@ -10216,17 +10081,14 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '87', 'template_type': 'Section', 'name': 'Social History Section  [2.16.840.1.113883.10.20.22.2.17[403-407', 'name2': 'Social History Section ', 'template': '2.16.840.1.113883.10.20.22.2.17', 'pageStart': '403', 'pages': '403-407', 'search': 'Social History Section  2.16.840.1.113883.10.20.22.2.17 CONF:1198-7936;CONF:1198-10449;CONF:1198-32494;CONF:1198-14819;CONF:1198-14820;CONF:1198-30814;CONF:1198-7938;CONF:1198-7939;CONF:1198-7953;CONF:1198-14821;CONF:1198-9132;CONF:1198-14822;CONF:1198-14823;CONF:1198-14824;CONF:1198-16816;CONF:1198-16817;CONF:1198-28361;CONF:1198-28362;CONF:1198-28366;CONF:1198-28367;CONF:1198-28825;CONF:1198-28826' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Social History Section  [2.16.840.1.113883.10.20.22.2.17[403-407', 'name2': 'Social History Section ', 'template': '2.16.840.1.113883.10.20.22.2.17', 'pageStart': '403', 'pages': '403-407', 'search': 'Social History Section  2.16.840.1.113883.10.20.22.2.17 CONF:1198-7936;CONF:1198-10449;CONF:1198-32494;CONF:1198-14819;CONF:1198-14820;CONF:1198-30814;CONF:1198-7938;CONF:1198-7939;CONF:1198-7953;CONF:1198-14821;CONF:1198-9132;CONF:1198-14822;CONF:1198-14823;CONF:1198-14824;CONF:1198-16816;CONF:1198-16817;CONF:1198-28361;CONF:1198-28362;CONF:1198-28366;CONF:1198-28367;CONF:1198-28825;CONF:1198-28826' },</v>
       </c>
       <c r="N88" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.17',</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>182</v>
       </c>
@@ -10258,17 +10120,14 @@
       </c>
       <c r="M89" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '88', 'template_type': 'Section', 'name': 'Subjective Section [2.16.840.1.113883.10.20.21.2.2[407-408', 'name2': 'Subjective Section', 'template': '2.16.840.1.113883.10.20.21.2.2', 'pageStart': '407', 'pages': '407-408', 'search': 'Subjective Section 2.16.840.1.113883.10.20.21.2.2 CONF:81-7873;CONF:81-10470;CONF:81-15437;CONF:81-15438;CONF:81-26496;CONF:81-7875;CONF:81-7876' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Subjective Section [2.16.840.1.113883.10.20.21.2.2[407-408', 'name2': 'Subjective Section', 'template': '2.16.840.1.113883.10.20.21.2.2', 'pageStart': '407', 'pages': '407-408', 'search': 'Subjective Section 2.16.840.1.113883.10.20.21.2.2 CONF:81-7873;CONF:81-10470;CONF:81-15437;CONF:81-15438;CONF:81-26496;CONF:81-7875;CONF:81-7876' },</v>
       </c>
       <c r="N89" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.21.2.2',</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>184</v>
       </c>
@@ -10300,17 +10159,14 @@
       </c>
       <c r="M90" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '89', 'template_type': 'Section', 'name': 'Surgery Description Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.26[408-409', 'name2': 'Surgery Description Section (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.2.26', 'pageStart': '408', 'pages': '408-409', 'search': 'Surgery Description Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.26 CONF:1098-8022;CONF:1098-10450;CONF:1098-32893;CONF:1098-15439;CONF:1098-15440;CONF:1098-26497;CONF:1098-8024;CONF:1098-8025' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Surgery Description Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.26[408-409', 'name2': 'Surgery Description Section (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.2.26', 'pageStart': '408', 'pages': '408-409', 'search': 'Surgery Description Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.26 CONF:1098-8022;CONF:1098-10450;CONF:1098-32893;CONF:1098-15439;CONF:1098-15440;CONF:1098-26497;CONF:1098-8024;CONF:1098-8025' },</v>
       </c>
       <c r="N90" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.26',</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>186</v>
       </c>
@@ -10342,17 +10198,14 @@
       </c>
       <c r="M91" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '90', 'template_type': 'Section', 'name': 'Surgical Drains Section [2.16.840.1.113883.10.20.7.13[409-411', 'name2': 'Surgical Drains Section', 'template': '2.16.840.1.113883.10.20.7.13', 'pageStart': '409', 'pages': '409-411', 'search': 'Surgical Drains Section 2.16.840.1.113883.10.20.7.13 CONF:81-8038;CONF:81-10473;CONF:81-15441;CONF:81-15442;CONF:81-26498;CONF:81-8040;CONF:81-8041;CONF:81-8056' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Surgical Drains Section [2.16.840.1.113883.10.20.7.13[409-411', 'name2': 'Surgical Drains Section', 'template': '2.16.840.1.113883.10.20.7.13', 'pageStart': '409', 'pages': '409-411', 'search': 'Surgical Drains Section 2.16.840.1.113883.10.20.7.13 CONF:81-8038;CONF:81-10473;CONF:81-15441;CONF:81-15442;CONF:81-26498;CONF:81-8040;CONF:81-8041;CONF:81-8056' },</v>
       </c>
       <c r="N91" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.7.13',</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>188</v>
       </c>
@@ -10384,17 +10237,14 @@
       </c>
       <c r="M92" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '91', 'template_type': 'Section', 'name': 'Vital Signs Section (entries optional)  [2.16.840.1.113883.10.20.22.2.4[411-412', 'name2': 'Vital Signs Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.4', 'pageStart': '411', 'pages': '411-412', 'search': 'Vital Signs Section (entries optional)  2.16.840.1.113883.10.20.22.2.4 CONF:1198-7268;CONF:1198-10451;CONF:1198-32584;CONF:1198-15242;CONF:1198-15243;CONF:1198-30902;CONF:1198-9966;CONF:1198-7270;CONF:1198-7271;CONF:1198-15517' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Vital Signs Section (entries optional)  [2.16.840.1.113883.10.20.22.2.4[411-412', 'name2': 'Vital Signs Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.4', 'pageStart': '411', 'pages': '411-412', 'search': 'Vital Signs Section (entries optional)  2.16.840.1.113883.10.20.22.2.4 CONF:1198-7268;CONF:1198-10451;CONF:1198-32584;CONF:1198-15242;CONF:1198-15243;CONF:1198-30902;CONF:1198-9966;CONF:1198-7270;CONF:1198-7271;CONF:1198-15517' },</v>
       </c>
       <c r="N92" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.4',</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>190</v>
       </c>
@@ -10426,17 +10276,14 @@
       </c>
       <c r="M93" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '92', 'template_type': 'Section', 'name': 'Vital Signs Section (entries required)   [2.16.840.1.113883.10.20.22.2.4.1[412-415', 'name2': 'Vital Signs Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.4.1', 'pageStart': '412', 'pages': '412-415', 'search': 'Vital Signs Section (entries required)   2.16.840.1.113883.10.20.22.2.4.1 CONF:1198-32874;CONF:1198-7273;CONF:1198-10452;CONF:1198-32585;CONF:1198-15962;CONF:1198-15963;CONF:1198-30903;CONF:1198-9967;CONF:1198-7275;CONF:1198-7276;CONF:1198-15964' },</v>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Vital Signs Section (entries required)   [2.16.840.1.113883.10.20.22.2.4.1[412-415', 'name2': 'Vital Signs Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.4.1', 'pageStart': '412', 'pages': '412-415', 'search': 'Vital Signs Section (entries required)   2.16.840.1.113883.10.20.22.2.4.1 CONF:1198-32874;CONF:1198-7273;CONF:1198-10452;CONF:1198-32585;CONF:1198-15962;CONF:1198-15963;CONF:1198-30903;CONF:1198-9967;CONF:1198-7275;CONF:1198-7276;CONF:1198-15964' },</v>
       </c>
       <c r="N93" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.2.4.1',</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>192</v>
       </c>
@@ -10468,17 +10315,14 @@
       </c>
       <c r="M94" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '93', 'template_type': 'Entry', 'name': 'Admission Medication   [2.16.840.1.113883.10.20.22.4.36[415-417', 'name2': 'Admission Medication  ', 'template': '2.16.840.1.113883.10.20.22.4.36', 'pageStart': '415', 'pages': '415-417', 'search': 'Admission Medication   2.16.840.1.113883.10.20.22.4.36 CONF:1098-7698;CONF:1098-7699;CONF:1098-16758;CONF:1098-16759;CONF:1098-32524;CONF:1098-15518;CONF:1098-15519;CONF:1098-32152;CONF:1098-7701;CONF:1098-7702;CONF:1098-15520' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Admission Medication   [2.16.840.1.113883.10.20.22.4.36[415-417', 'name2': 'Admission Medication  ', 'template': '2.16.840.1.113883.10.20.22.4.36', 'pageStart': '415', 'pages': '415-417', 'search': 'Admission Medication   2.16.840.1.113883.10.20.22.4.36 CONF:1098-7698;CONF:1098-7699;CONF:1098-16758;CONF:1098-16759;CONF:1098-32524;CONF:1098-15518;CONF:1098-15519;CONF:1098-32152;CONF:1098-7701;CONF:1098-7702;CONF:1098-15520' },</v>
       </c>
       <c r="N94" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.36',</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>194</v>
       </c>
@@ -10510,17 +10354,14 @@
       </c>
       <c r="M95" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '94', 'template_type': 'Entry', 'name': 'Advance Directive Observation   [2.16.840.1.113883.10.20.22.4.48[417-426', 'name2': 'Advance Directive Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.48', 'pageStart': '417', 'pages': '417-426', 'search': 'Advance Directive Observation   2.16.840.1.113883.10.20.22.4.48 CONF:1198-8648;CONF:1198-8649;CONF:1198-8655;CONF:1198-10485;CONF:1198-32496;CONF:1198-8654;CONF:1198-8651;CONF:1198-32842;CONF:1198-32843;CONF:1198-32844;CONF:1198-8652;CONF:1198-19082;CONF:1198-8656;CONF:1198-28719;CONF:1198-15521;CONF:1198-32449;CONF:1198-30804;CONF:1198-32493;CONF:1198-32406;CONF:1198-8662;CONF:1198-8663;CONF:1198-8664;CONF:1198-10486;CONF:1198-8665;CONF:1198-8666;CONF:1198-8825;CONF:1198-28446;CONF:1198-28451;CONF:1198-28428;CONF:1198-28454;CONF:1198-8667;CONF:1198-8668;CONF:1198-8669;CONF:1198-8670;CONF:1198-28440;CONF:1198-8671;CONF:1198-8672;CONF:1198-8824;CONF:1198-28444;CONF:1198-8673;CONF:1198-8692;CONF:1198-8694;CONF:1198-8693;CONF:1198-8695;CONF:1198-8696;CONF:1198-8697;CONF:1198-8698;CONF:1198-8699' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Advance Directive Observation   [2.16.840.1.113883.10.20.22.4.48[417-426', 'name2': 'Advance Directive Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.48', 'pageStart': '417', 'pages': '417-426', 'search': 'Advance Directive Observation   2.16.840.1.113883.10.20.22.4.48 CONF:1198-8648;CONF:1198-8649;CONF:1198-8655;CONF:1198-10485;CONF:1198-32496;CONF:1198-8654;CONF:1198-8651;CONF:1198-32842;CONF:1198-32843;CONF:1198-32844;CONF:1198-8652;CONF:1198-19082;CONF:1198-8656;CONF:1198-28719;CONF:1198-15521;CONF:1198-32449;CONF:1198-30804;CONF:1198-32493;CONF:1198-32406;CONF:1198-8662;CONF:1198-8663;CONF:1198-8664;CONF:1198-10486;CONF:1198-8665;CONF:1198-8666;CONF:1198-8825;CONF:1198-28446;CONF:1198-28451;CONF:1198-28428;CONF:1198-28454;CONF:1198-8667;CONF:1198-8668;CONF:1198-8669;CONF:1198-8670;CONF:1198-28440;CONF:1198-8671;CONF:1198-8672;CONF:1198-8824;CONF:1198-28444;CONF:1198-8673;CONF:1198-8692;CONF:1198-8694;CONF:1198-8693;CONF:1198-8695;CONF:1198-8696;CONF:1198-8697;CONF:1198-8698;CONF:1198-8699' },</v>
       </c>
       <c r="N95" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.48',</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>196</v>
       </c>
@@ -10552,17 +10393,14 @@
       </c>
       <c r="M96" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '95', 'template_type': 'Entry', 'name': 'Advance Directive Organizer  [2.16.840.1.113883.10.20.22.4.108[426-430', 'name2': 'Advance Directive Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.108', 'pageStart': '426', 'pages': '426-430', 'search': 'Advance Directive Organizer  2.16.840.1.113883.10.20.22.4.108 CONF:1198-28410;CONF:1198-28411;CONF:1198-28412;CONF:1198-28413;CONF:1198-32876;CONF:1198-28414;CONF:1198-28415;CONF:1198-31230;CONF:1198-31231;CONF:1198-28418;CONF:1198-31346;CONF:1198-32407;CONF:1198-28420;CONF:1198-28421' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Advance Directive Organizer  [2.16.840.1.113883.10.20.22.4.108[426-430', 'name2': 'Advance Directive Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.108', 'pageStart': '426', 'pages': '426-430', 'search': 'Advance Directive Organizer  2.16.840.1.113883.10.20.22.4.108 CONF:1198-28410;CONF:1198-28411;CONF:1198-28412;CONF:1198-28413;CONF:1198-32876;CONF:1198-28414;CONF:1198-28415;CONF:1198-31230;CONF:1198-31231;CONF:1198-28418;CONF:1198-31346;CONF:1198-32407;CONF:1198-28420;CONF:1198-28421' },</v>
       </c>
       <c r="N96" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.108',</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>198</v>
       </c>
@@ -10594,17 +10432,14 @@
       </c>
       <c r="M97" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '96', 'template_type': 'Entry', 'name': 'Age Observation [2.16.840.1.113883.10.20.22.4.31[430-432', 'name2': 'Age Observation', 'template': '2.16.840.1.113883.10.20.22.4.31', 'pageStart': '430', 'pages': '430-432', 'search': 'Age Observation 2.16.840.1.113883.10.20.22.4.31 CONF:81-7613;CONF:81-7614;CONF:81-7899;CONF:81-10487;CONF:81-7615;CONF:81-16776;CONF:81-26499;CONF:81-15965;CONF:81-15966;CONF:81-7617;CONF:81-7618' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Age Observation [2.16.840.1.113883.10.20.22.4.31[430-432', 'name2': 'Age Observation', 'template': '2.16.840.1.113883.10.20.22.4.31', 'pageStart': '430', 'pages': '430-432', 'search': 'Age Observation 2.16.840.1.113883.10.20.22.4.31 CONF:81-7613;CONF:81-7614;CONF:81-7899;CONF:81-10487;CONF:81-7615;CONF:81-16776;CONF:81-26499;CONF:81-15965;CONF:81-15966;CONF:81-7617;CONF:81-7618' },</v>
       </c>
       <c r="N97" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.31',</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>200</v>
       </c>
@@ -10636,17 +10471,14 @@
       </c>
       <c r="M98" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '97', 'template_type': 'Entry', 'name': 'Allergy Concern Act  [2.16.840.1.113883.10.20.22.4.30[432-436', 'name2': 'Allergy Concern Act ', 'template': '2.16.840.1.113883.10.20.22.4.30', 'pageStart': '432', 'pages': '432-436', 'search': 'Allergy Concern Act  2.16.840.1.113883.10.20.22.4.30 CONF:1198-7469;CONF:1198-7470;CONF:1198-7471;CONF:1198-10489;CONF:1198-32543;CONF:1198-7472;CONF:1198-7477;CONF:1198-19158;CONF:1198-32154;CONF:1198-7485;CONF:1198-19086;CONF:1198-7498;CONF:1198-7504;CONF:1198-10085;CONF:1198-31145;CONF:1198-7509;CONF:1198-7915;CONF:1198-14925' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Allergy Concern Act  [2.16.840.1.113883.10.20.22.4.30[432-436', 'name2': 'Allergy Concern Act ', 'template': '2.16.840.1.113883.10.20.22.4.30', 'pageStart': '432', 'pages': '432-436', 'search': 'Allergy Concern Act  2.16.840.1.113883.10.20.22.4.30 CONF:1198-7469;CONF:1198-7470;CONF:1198-7471;CONF:1198-10489;CONF:1198-32543;CONF:1198-7472;CONF:1198-7477;CONF:1198-19158;CONF:1198-32154;CONF:1198-7485;CONF:1198-19086;CONF:1198-7498;CONF:1198-7504;CONF:1198-10085;CONF:1198-31145;CONF:1198-7509;CONF:1198-7915;CONF:1198-14925' },</v>
       </c>
       <c r="N98" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.30',</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>202</v>
       </c>
@@ -10678,19 +10510,16 @@
       </c>
       <c r="M99" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '98', 'template_type': 'Entry', 'name': 'Allergy Status Observation  [2.16.840.1.113883.10.20.22.4.28[436-438', 'name2': 'Allergy Status Observation ', 'template': '2.16.840.1.113883.10.20.22.4.28', 'pageStart': '436', 'pages': '436-438', 'search': 'Allergy Status Observation  2.16.840.1.113883.10.20.22.4.28 CONF:1198-7318;CONF:1198-7319;CONF:1198-7317;CONF:1198-10490;CONF:1198-32962;CONF:1198-7320;CONF:1198-19131;CONF:1198-32155;CONF:1198-7321;CONF:1198-19087;CONF:1198-7322' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Allergy Status Observation  [2.16.840.1.113883.10.20.22.4.28[436-438', 'name2': 'Allergy Status Observation ', 'template': '2.16.840.1.113883.10.20.22.4.28', 'pageStart': '436', 'pages': '436-438', 'search': 'Allergy Status Observation  2.16.840.1.113883.10.20.22.4.28 CONF:1198-7318;CONF:1198-7319;CONF:1198-7317;CONF:1198-10490;CONF:1198-32962;CONF:1198-7320;CONF:1198-19131;CONF:1198-32155;CONF:1198-7321;CONF:1198-19087;CONF:1198-7322' },</v>
       </c>
       <c r="N99" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.28',</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>204</v>
+        <v>1871</v>
       </c>
       <c r="C100" t="s">
         <v>432</v>
@@ -10699,11 +10528,13 @@
         <v>205</v>
       </c>
       <c r="E100">
-        <v>438</v>
-      </c>
-      <c r="G100" s="3" t="str">
-        <f>VLOOKUP(D100,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>438-441</v>
+        <v>1068</v>
+      </c>
+      <c r="F100">
+        <v>1073</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1873</v>
       </c>
       <c r="H100" t="s">
         <v>795</v>
@@ -10716,23 +10547,20 @@
       </c>
       <c r="K100" t="str">
         <f t="shared" si="3"/>
-        <v>Assessment Scale Observation  2.16.840.1.113883.10.20.22.4.69 CONF:81-14434;CONF:81-14435;CONF:81-14436;CONF:81-14437;CONF:81-14438;CONF:81-14439;CONF:81-14440;CONF:81-14637;CONF:81-14444;CONF:81-19088;CONF:81-14445;CONF:81-14450;CONF:81-14459;CONF:81-14888;CONF:81-14460;CONF:81-14451;CONF:81-16741;CONF:81-16742;CONF:81-16799;CONF:81-16800;CONF:81-16801;CONF:81-16802;CONF:81-16803;CONF:81-16804</v>
+        <v>Assessment Scale Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.69 CONF:81-14434;CONF:81-14435;CONF:81-14436;CONF:81-14437;CONF:81-14438;CONF:81-14439;CONF:81-14440;CONF:81-14637;CONF:81-14444;CONF:81-19088;CONF:81-14445;CONF:81-14450;CONF:81-14459;CONF:81-14888;CONF:81-14460;CONF:81-14451;CONF:81-16741;CONF:81-16742;CONF:81-16799;CONF:81-16800;CONF:81-16801;CONF:81-16802;CONF:81-16803;CONF:81-16804</v>
       </c>
       <c r="M100" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '99', 'template_type': 'Entry', 'name': 'Assessment Scale Observation  [2.16.840.1.113883.10.20.22.4.69[438-441', 'name2': 'Assessment Scale Observation ', 'template': '2.16.840.1.113883.10.20.22.4.69', 'pageStart': '438', 'pages': '438-441', 'search': 'Assessment Scale Observation  2.16.840.1.113883.10.20.22.4.69 CONF:81-14434;CONF:81-14435;CONF:81-14436;CONF:81-14437;CONF:81-14438;CONF:81-14439;CONF:81-14440;CONF:81-14637;CONF:81-14444;CONF:81-19088;CONF:81-14445;CONF:81-14450;CONF:81-14459;CONF:81-14888;CONF:81-14460;CONF:81-14451;CONF:81-16741;CONF:81-16742;CONF:81-16799;CONF:81-16800;CONF:81-16801;CONF:81-16802;CONF:81-16803;CONF:81-16804' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Assessment Scale Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.69[CG_A_68-73', 'name2': 'Assessment Scale Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.69', 'pageStart': '1068', 'pages': 'CG_A_68-73', 'search': 'Assessment Scale Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.69 CONF:81-14434;CONF:81-14435;CONF:81-14436;CONF:81-14437;CONF:81-14438;CONF:81-14439;CONF:81-14440;CONF:81-14637;CONF:81-14444;CONF:81-19088;CONF:81-14445;CONF:81-14450;CONF:81-14459;CONF:81-14888;CONF:81-14460;CONF:81-14451;CONF:81-16741;CONF:81-16742;CONF:81-16799;CONF:81-16800;CONF:81-16801;CONF:81-16802;CONF:81-16803;CONF:81-16804' },</v>
       </c>
       <c r="N100" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.69',</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>206</v>
+        <v>1872</v>
       </c>
       <c r="C101" t="s">
         <v>432</v>
@@ -10741,11 +10569,13 @@
         <v>207</v>
       </c>
       <c r="E101">
-        <v>441</v>
-      </c>
-      <c r="G101" s="3" t="str">
-        <f>VLOOKUP(D101,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>441-443</v>
+        <v>1073</v>
+      </c>
+      <c r="F101">
+        <v>1074</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1874</v>
       </c>
       <c r="H101" t="s">
         <v>796</v>
@@ -10758,21 +10588,18 @@
       </c>
       <c r="K101" t="str">
         <f t="shared" si="3"/>
-        <v>Assessment Scale Supporting Observation 2.16.840.1.113883.10.20.22.4.86 CONF:81-16715;CONF:81-16716;CONF:81-16722;CONF:81-16723;CONF:81-16724;CONF:81-19178;CONF:81-19179;CONF:81-19180;CONF:81-16720;CONF:81-19089;CONF:81-16754;CONF:81-16755</v>
+        <v>Assessment Scale Supporting Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.86 CONF:81-16715;CONF:81-16716;CONF:81-16722;CONF:81-16723;CONF:81-16724;CONF:81-19178;CONF:81-19179;CONF:81-19180;CONF:81-16720;CONF:81-19089;CONF:81-16754;CONF:81-16755</v>
       </c>
       <c r="M101" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '100', 'template_type': 'Entry', 'name': 'Assessment Scale Supporting Observation [2.16.840.1.113883.10.20.22.4.86[441-443', 'name2': 'Assessment Scale Supporting Observation', 'template': '2.16.840.1.113883.10.20.22.4.86', 'pageStart': '441', 'pages': '441-443', 'search': 'Assessment Scale Supporting Observation 2.16.840.1.113883.10.20.22.4.86 CONF:81-16715;CONF:81-16716;CONF:81-16722;CONF:81-16723;CONF:81-16724;CONF:81-19178;CONF:81-19179;CONF:81-19180;CONF:81-16720;CONF:81-19089;CONF:81-16754;CONF:81-16755' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Assessment Scale Supporting Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.86[CG_A_73-74', 'name2': 'Assessment Scale Supporting Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.86', 'pageStart': '1073', 'pages': 'CG_A_73-74', 'search': 'Assessment Scale Supporting Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.86 CONF:81-16715;CONF:81-16716;CONF:81-16722;CONF:81-16723;CONF:81-16724;CONF:81-19178;CONF:81-19179;CONF:81-19180;CONF:81-16720;CONF:81-19089;CONF:81-16754;CONF:81-16755' },</v>
       </c>
       <c r="N101" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.86',</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>208</v>
       </c>
@@ -10804,17 +10631,14 @@
       </c>
       <c r="M102" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '101', 'template_type': 'Entry', 'name': 'Authorization Activity [2.16.840.1.113883.10.20.1.19[443-444', 'name2': 'Authorization Activity', 'template': '2.16.840.1.113883.10.20.1.19', 'pageStart': '443', 'pages': '443-444', 'search': 'Authorization Activity 2.16.840.1.113883.10.20.1.19 CONF:81-8944;CONF:81-8945;CONF:81-8946;CONF:81-10529;CONF:81-8947;CONF:81-8948;CONF:81-8949;CONF:81-8951;CONF:81-8952' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Authorization Activity [2.16.840.1.113883.10.20.1.19[443-444', 'name2': 'Authorization Activity', 'template': '2.16.840.1.113883.10.20.1.19', 'pageStart': '443', 'pages': '443-444', 'search': 'Authorization Activity 2.16.840.1.113883.10.20.1.19 CONF:81-8944;CONF:81-8945;CONF:81-8946;CONF:81-10529;CONF:81-8947;CONF:81-8948;CONF:81-8949;CONF:81-8951;CONF:81-8952' },</v>
       </c>
       <c r="N102" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.1.19',</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>210</v>
       </c>
@@ -10846,17 +10670,14 @@
       </c>
       <c r="M103" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '102', 'template_type': 'Entry', 'name': 'Boundary Observation  [2.16.840.1.113883.10.20.6.2.11[444-445', 'name2': 'Boundary Observation ', 'template': '2.16.840.1.113883.10.20.6.2.11', 'pageStart': '444', 'pages': '444-445', 'search': 'Boundary Observation  2.16.840.1.113883.10.20.6.2.11 CONF:81-9282;CONF:81-9283;CONF:81-9284;CONF:81-19157;CONF:81-9285' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Boundary Observation  [2.16.840.1.113883.10.20.6.2.11[444-445', 'name2': 'Boundary Observation ', 'template': '2.16.840.1.113883.10.20.6.2.11', 'pageStart': '444', 'pages': '444-445', 'search': 'Boundary Observation  2.16.840.1.113883.10.20.6.2.11 CONF:81-9282;CONF:81-9283;CONF:81-9284;CONF:81-19157;CONF:81-9285' },</v>
       </c>
       <c r="N103" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.6.2.11',</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>212</v>
       </c>
@@ -10888,17 +10709,14 @@
       </c>
       <c r="M104" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '103', 'template_type': 'Entry', 'name': 'Caregiver Characteristics  [2.16.840.1.113883.10.20.22.4.72[445-447', 'name2': 'Caregiver Characteristics ', 'template': '2.16.840.1.113883.10.20.22.4.72', 'pageStart': '445', 'pages': '445-447', 'search': 'Caregiver Characteristics  2.16.840.1.113883.10.20.22.4.72 CONF:81-14219;CONF:81-14220;CONF:81-14221;CONF:81-14222;CONF:81-14223;CONF:81-14230;CONF:81-26513;CONF:81-14233;CONF:81-19090;CONF:81-14599;CONF:81-14600;CONF:81-14227;CONF:81-26451;CONF:81-14830;CONF:81-14831;CONF:81-14832;CONF:81-14228;CONF:81-14229' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Caregiver Characteristics  [2.16.840.1.113883.10.20.22.4.72[445-447', 'name2': 'Caregiver Characteristics ', 'template': '2.16.840.1.113883.10.20.22.4.72', 'pageStart': '445', 'pages': '445-447', 'search': 'Caregiver Characteristics  2.16.840.1.113883.10.20.22.4.72 CONF:81-14219;CONF:81-14220;CONF:81-14221;CONF:81-14222;CONF:81-14223;CONF:81-14230;CONF:81-26513;CONF:81-14233;CONF:81-19090;CONF:81-14599;CONF:81-14600;CONF:81-14227;CONF:81-26451;CONF:81-14830;CONF:81-14831;CONF:81-14832;CONF:81-14228;CONF:81-14229' },</v>
       </c>
       <c r="N104" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.72',</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>214</v>
       </c>
@@ -10930,17 +10748,14 @@
       </c>
       <c r="M105" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '104', 'template_type': 'Entry', 'name': 'Characteristics of Home Environment [2.16.840.1.113883.10.20.22.4.109[447-450', 'name2': 'Characteristics of Home Environment', 'template': '2.16.840.1.113883.10.20.22.4.109', 'pageStart': '447', 'pages': '447-450', 'search': 'Characteristics of Home Environment 2.16.840.1.113883.10.20.22.4.109 CONF:1098-27890;CONF:1098-27891;CONF:1098-27892;CONF:1098-27893;CONF:1098-27894;CONF:1098-31352;CONF:1098-31353;CONF:1098-31354;CONF:1098-27901;CONF:1098-27902;CONF:1098-28823' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Characteristics of Home Environment [2.16.840.1.113883.10.20.22.4.109[447-450', 'name2': 'Characteristics of Home Environment', 'template': '2.16.840.1.113883.10.20.22.4.109', 'pageStart': '447', 'pages': '447-450', 'search': 'Characteristics of Home Environment 2.16.840.1.113883.10.20.22.4.109 CONF:1098-27890;CONF:1098-27891;CONF:1098-27892;CONF:1098-27893;CONF:1098-27894;CONF:1098-31352;CONF:1098-31353;CONF:1098-31354;CONF:1098-27901;CONF:1098-27902;CONF:1098-28823' },</v>
       </c>
       <c r="N105" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.109',</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>216</v>
       </c>
@@ -10972,17 +10787,14 @@
       </c>
       <c r="M106" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '105', 'template_type': 'Entry', 'name': 'Code Observations  [2.16.840.1.113883.10.20.6.2.13[450-452', 'name2': 'Code Observations ', 'template': '2.16.840.1.113883.10.20.6.2.13', 'pageStart': '450', 'pages': '450-452', 'search': 'Code Observations  2.16.840.1.113883.10.20.6.2.13 CONF:81-9304;CONF:81-9305;CONF:81-15523;CONF:81-15524;CONF:81-19181;CONF:81-9309;CONF:81-9308;CONF:81-9311;CONF:81-9312;CONF:81-16083;CONF:81-9314;CONF:81-9315;CONF:81-16084;CONF:81-9310' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Code Observations  [2.16.840.1.113883.10.20.6.2.13[450-452', 'name2': 'Code Observations ', 'template': '2.16.840.1.113883.10.20.6.2.13', 'pageStart': '450', 'pages': '450-452', 'search': 'Code Observations  2.16.840.1.113883.10.20.6.2.13 CONF:81-9304;CONF:81-9305;CONF:81-15523;CONF:81-15524;CONF:81-19181;CONF:81-9309;CONF:81-9308;CONF:81-9311;CONF:81-9312;CONF:81-16083;CONF:81-9314;CONF:81-9315;CONF:81-16084;CONF:81-9310' },</v>
       </c>
       <c r="N106" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.6.2.13',</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>218</v>
       </c>
@@ -11014,17 +10826,14 @@
       </c>
       <c r="M107" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '106', 'template_type': 'Entry', 'name': 'Cognitive Status Problem Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.73[452-455', 'name2': 'Cognitive Status Problem Observation (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.4.73', 'pageStart': '452', 'pages': '452-455', 'search': 'Cognitive Status Problem Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.73 CONF:1098-14319;CONF:1098-14320;CONF:1098-14344;CONF:1098-14346;CONF:1098-14347;CONF:1098-32600;CONF:1098-14321;CONF:1098-14804;CONF:1098-14805;CONF:1098-14341;CONF:1098-15532;CONF:1098-15533;CONF:1098-15534;CONF:1098-14323;CONF:1098-19091;CONF:1098-14324;CONF:1098-26458;CONF:1098-26459;CONF:1098-14349;CONF:1098-14693' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Cognitive Status Problem Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.73[452-455', 'name2': 'Cognitive Status Problem Observation (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.4.73', 'pageStart': '452', 'pages': '452-455', 'search': 'Cognitive Status Problem Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.73 CONF:1098-14319;CONF:1098-14320;CONF:1098-14344;CONF:1098-14346;CONF:1098-14347;CONF:1098-32600;CONF:1098-14321;CONF:1098-14804;CONF:1098-14805;CONF:1098-14341;CONF:1098-15532;CONF:1098-15533;CONF:1098-15534;CONF:1098-14323;CONF:1098-19091;CONF:1098-14324;CONF:1098-26458;CONF:1098-26459;CONF:1098-14349;CONF:1098-14693' },</v>
       </c>
       <c r="N107" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.73',</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>220</v>
       </c>
@@ -11056,19 +10865,16 @@
       </c>
       <c r="M108" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '107', 'template_type': 'Entry', 'name': 'Comment Activity [2.16.840.1.113883.10.20.22.4.64[455-457', 'name2': 'Comment Activity', 'template': '2.16.840.1.113883.10.20.22.4.64', 'pageStart': '455', 'pages': '455-457', 'search': 'Comment Activity 2.16.840.1.113883.10.20.22.4.64 CONF:81-9425;CONF:81-9426;CONF:81-9427;CONF:81-10491;CONF:81-9428;CONF:81-19159;CONF:81-26501;CONF:81-9430;CONF:81-15967;CONF:81-15968;CONF:81-15969;CONF:81-9431;CONF:81-9433;CONF:81-9429' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Comment Activity [2.16.840.1.113883.10.20.22.4.64[455-457', 'name2': 'Comment Activity', 'template': '2.16.840.1.113883.10.20.22.4.64', 'pageStart': '455', 'pages': '455-457', 'search': 'Comment Activity 2.16.840.1.113883.10.20.22.4.64 CONF:81-9425;CONF:81-9426;CONF:81-9427;CONF:81-10491;CONF:81-9428;CONF:81-19159;CONF:81-26501;CONF:81-9430;CONF:81-15967;CONF:81-15968;CONF:81-15969;CONF:81-9431;CONF:81-9433;CONF:81-9429' },</v>
       </c>
       <c r="N108" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.64',</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>222</v>
+        <v>1910</v>
       </c>
       <c r="C109" t="s">
         <v>432</v>
@@ -11077,11 +10883,14 @@
         <v>223</v>
       </c>
       <c r="E109">
-        <v>457</v>
-      </c>
-      <c r="G109" s="3" t="str">
-        <f>VLOOKUP(D109,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>457-460</v>
+        <v>1097</v>
+      </c>
+      <c r="F109">
+        <v>1100</v>
+      </c>
+      <c r="G109" t="str">
+        <f>"CG_A_"&amp;E109-1000&amp;"-"&amp;F109-1000</f>
+        <v>CG_A_97-100</v>
       </c>
       <c r="H109" t="s">
         <v>802</v>
@@ -11094,21 +10903,18 @@
       </c>
       <c r="K109" t="str">
         <f t="shared" si="3"/>
-        <v>Coverage Activity  2.16.840.1.113883.10.20.22.4.60 CONF:1198-8872;CONF:1198-8873;CONF:1198-8897;CONF:1198-10492;CONF:1198-32596;CONF:1198-8874;CONF:1198-8876;CONF:1198-19160;CONF:1198-32156;CONF:1198-8875;CONF:1198-19094;CONF:1198-8878;CONF:1198-8879;CONF:1198-17174;CONF:1198-17175;CONF:1198-15528</v>
+        <v>Coverage Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.60 CONF:1198-8872;CONF:1198-8873;CONF:1198-8897;CONF:1198-10492;CONF:1198-32596;CONF:1198-8874;CONF:1198-8876;CONF:1198-19160;CONF:1198-32156;CONF:1198-8875;CONF:1198-19094;CONF:1198-8878;CONF:1198-8879;CONF:1198-17174;CONF:1198-17175;CONF:1198-15528</v>
       </c>
       <c r="M109" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '108', 'template_type': 'Entry', 'name': 'Coverage Activity  [2.16.840.1.113883.10.20.22.4.60[457-460', 'name2': 'Coverage Activity ', 'template': '2.16.840.1.113883.10.20.22.4.60', 'pageStart': '457', 'pages': '457-460', 'search': 'Coverage Activity  2.16.840.1.113883.10.20.22.4.60 CONF:1198-8872;CONF:1198-8873;CONF:1198-8897;CONF:1198-10492;CONF:1198-32596;CONF:1198-8874;CONF:1198-8876;CONF:1198-19160;CONF:1198-32156;CONF:1198-8875;CONF:1198-19094;CONF:1198-8878;CONF:1198-8879;CONF:1198-17174;CONF:1198-17175;CONF:1198-15528' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Coverage Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.60[CG_A_97-100', 'name2': 'Coverage Activity (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.60', 'pageStart': '1097', 'pages': 'CG_A_97-100', 'search': 'Coverage Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.60 CONF:1198-8872;CONF:1198-8873;CONF:1198-8897;CONF:1198-10492;CONF:1198-32596;CONF:1198-8874;CONF:1198-8876;CONF:1198-19160;CONF:1198-32156;CONF:1198-8875;CONF:1198-19094;CONF:1198-8878;CONF:1198-8879;CONF:1198-17174;CONF:1198-17175;CONF:1198-15528' },</v>
       </c>
       <c r="N109" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.60',</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>224</v>
       </c>
@@ -11140,17 +10946,14 @@
       </c>
       <c r="M110" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '109', 'template_type': 'Entry', 'name': 'Criticality Observation [2.16.840.1.113883.10.20.22.4.145[460-462', 'name2': 'Criticality Observation', 'template': '2.16.840.1.113883.10.20.22.4.145', 'pageStart': '460', 'pages': '460-462', 'search': 'Criticality Observation 2.16.840.1.113883.10.20.22.4.145 CONF:81-32921;CONF:81-32922;CONF:81-32918;CONF:81-32923;CONF:81-32919;CONF:81-32925;CONF:81-32926;CONF:81-32920;CONF:81-32927;CONF:81-32928' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Criticality Observation [2.16.840.1.113883.10.20.22.4.145[460-462', 'name2': 'Criticality Observation', 'template': '2.16.840.1.113883.10.20.22.4.145', 'pageStart': '460', 'pages': '460-462', 'search': 'Criticality Observation 2.16.840.1.113883.10.20.22.4.145 CONF:81-32921;CONF:81-32922;CONF:81-32918;CONF:81-32923;CONF:81-32919;CONF:81-32925;CONF:81-32926;CONF:81-32920;CONF:81-32927;CONF:81-32928' },</v>
       </c>
       <c r="N110" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.145',</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>226</v>
       </c>
@@ -11182,17 +10985,14 @@
       </c>
       <c r="M111" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '110', 'template_type': 'Entry', 'name': 'Cultural and Religious Observation  [2.16.840.1.113883.10.20.22.4.111[462-463', 'name2': 'Cultural and Religious Observation ', 'template': '2.16.840.1.113883.10.20.22.4.111', 'pageStart': '462', 'pages': '462-463', 'search': 'Cultural and Religious Observation  2.16.840.1.113883.10.20.22.4.111 CONF:1098-27924;CONF:1098-27925;CONF:1098-27926;CONF:1098-27927;CONF:1098-27928;CONF:1098-27929;CONF:1098-27930;CONF:1098-27931;CONF:1098-27936;CONF:1098-27937;CONF:1098-28442;CONF:1098-32487' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Cultural and Religious Observation  [2.16.840.1.113883.10.20.22.4.111[462-463', 'name2': 'Cultural and Religious Observation ', 'template': '2.16.840.1.113883.10.20.22.4.111', 'pageStart': '462', 'pages': '462-463', 'search': 'Cultural and Religious Observation  2.16.840.1.113883.10.20.22.4.111 CONF:1098-27924;CONF:1098-27925;CONF:1098-27926;CONF:1098-27927;CONF:1098-27928;CONF:1098-27929;CONF:1098-27930;CONF:1098-27931;CONF:1098-27936;CONF:1098-27937;CONF:1098-28442;CONF:1098-32487' },</v>
       </c>
       <c r="N111" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.111',</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>228</v>
       </c>
@@ -11224,17 +11024,14 @@
       </c>
       <c r="M112" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '111', 'template_type': 'Entry', 'name': 'Deceased Observation   [2.16.840.1.113883.10.20.22.4.79[463-467', 'name2': 'Deceased Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.79', 'pageStart': '463', 'pages': '463-467', 'search': 'Deceased Observation   2.16.840.1.113883.10.20.22.4.79 CONF:1198-14851;CONF:1198-14852;CONF:1198-14871;CONF:1198-14872;CONF:1198-32541;CONF:1198-14873;CONF:1198-14853;CONF:1198-19135;CONF:1198-32158;CONF:1198-14854;CONF:1198-19095;CONF:1198-14855;CONF:1198-14874;CONF:1198-14857;CONF:1198-15142;CONF:1198-14868;CONF:1198-14875;CONF:1198-32900;CONF:1198-14870' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Deceased Observation   [2.16.840.1.113883.10.20.22.4.79[463-467', 'name2': 'Deceased Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.79', 'pageStart': '463', 'pages': '463-467', 'search': 'Deceased Observation   2.16.840.1.113883.10.20.22.4.79 CONF:1198-14851;CONF:1198-14852;CONF:1198-14871;CONF:1198-14872;CONF:1198-32541;CONF:1198-14873;CONF:1198-14853;CONF:1198-19135;CONF:1198-32158;CONF:1198-14854;CONF:1198-19095;CONF:1198-14855;CONF:1198-14874;CONF:1198-14857;CONF:1198-15142;CONF:1198-14868;CONF:1198-14875;CONF:1198-32900;CONF:1198-14870' },</v>
       </c>
       <c r="N112" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.79',</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>230</v>
       </c>
@@ -11266,17 +11063,14 @@
       </c>
       <c r="M113" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '112', 'template_type': 'Entry', 'name': 'Discharge Medication  [2.16.840.1.113883.10.20.22.4.35[467-470', 'name2': 'Discharge Medication ', 'template': '2.16.840.1.113883.10.20.22.4.35', 'pageStart': '467', 'pages': '467-470', 'search': 'Discharge Medication  2.16.840.1.113883.10.20.22.4.35 CONF:1198-7689;CONF:1198-7690;CONF:1198-16760;CONF:1198-16761;CONF:1198-32513;CONF:1198-7691;CONF:1198-19161;CONF:1198-32159;CONF:1198-32952;CONF:1198-32953;CONF:1198-32954;CONF:1198-32779;CONF:1198-32780;CONF:1198-7692;CONF:1198-7693;CONF:1198-15525' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Discharge Medication  [2.16.840.1.113883.10.20.22.4.35[467-470', 'name2': 'Discharge Medication ', 'template': '2.16.840.1.113883.10.20.22.4.35', 'pageStart': '467', 'pages': '467-470', 'search': 'Discharge Medication  2.16.840.1.113883.10.20.22.4.35 CONF:1198-7689;CONF:1198-7690;CONF:1198-16760;CONF:1198-16761;CONF:1198-32513;CONF:1198-7691;CONF:1198-19161;CONF:1198-32159;CONF:1198-32952;CONF:1198-32953;CONF:1198-32954;CONF:1198-32779;CONF:1198-32780;CONF:1198-7692;CONF:1198-7693;CONF:1198-15525' },</v>
       </c>
       <c r="N113" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.35',</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>232</v>
       </c>
@@ -11308,17 +11102,14 @@
       </c>
       <c r="M114" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '113', 'template_type': 'Entry', 'name': 'Drug Monitoring Act [2.16.840.1.113883.10.20.22.4.123[470-474', 'name2': 'Drug Monitoring Act', 'template': '2.16.840.1.113883.10.20.22.4.123', 'pageStart': '470', 'pages': '470-474', 'search': 'Drug Monitoring Act 2.16.840.1.113883.10.20.22.4.123 CONF:1098-30823;CONF:1098-28656;CONF:1098-28657;CONF:1098-28658;CONF:1098-31920;CONF:1098-28660;CONF:1098-30818;CONF:1098-30819;CONF:1098-31921;CONF:1098-32358;CONF:1098-31922;CONF:1098-28661;CONF:1098-28663;CONF:1098-28662;CONF:1098-28664;CONF:1098-28665;CONF:1098-28667;CONF:1098-28668;CONF:1098-28669' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Drug Monitoring Act [2.16.840.1.113883.10.20.22.4.123[470-474', 'name2': 'Drug Monitoring Act', 'template': '2.16.840.1.113883.10.20.22.4.123', 'pageStart': '470', 'pages': '470-474', 'search': 'Drug Monitoring Act 2.16.840.1.113883.10.20.22.4.123 CONF:1098-30823;CONF:1098-28656;CONF:1098-28657;CONF:1098-28658;CONF:1098-31920;CONF:1098-28660;CONF:1098-30818;CONF:1098-30819;CONF:1098-31921;CONF:1098-32358;CONF:1098-31922;CONF:1098-28661;CONF:1098-28663;CONF:1098-28662;CONF:1098-28664;CONF:1098-28665;CONF:1098-28667;CONF:1098-28668;CONF:1098-28669' },</v>
       </c>
       <c r="N114" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.123',</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>234</v>
       </c>
@@ -11350,17 +11141,14 @@
       </c>
       <c r="M115" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '114', 'template_type': 'Entry', 'name': 'Drug Vehicle  [2.16.840.1.113883.10.20.22.4.24[474-475', 'name2': 'Drug Vehicle ', 'template': '2.16.840.1.113883.10.20.22.4.24', 'pageStart': '474', 'pages': '474-475', 'search': 'Drug Vehicle  2.16.840.1.113883.10.20.22.4.24 CONF:81-7490;CONF:81-7495;CONF:81-10493;CONF:81-19137;CONF:81-19138;CONF:81-26502;CONF:81-7492;CONF:81-7493;CONF:81-7494;CONF:81-10087' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Drug Vehicle  [2.16.840.1.113883.10.20.22.4.24[474-475', 'name2': 'Drug Vehicle ', 'template': '2.16.840.1.113883.10.20.22.4.24', 'pageStart': '474', 'pages': '474-475', 'search': 'Drug Vehicle  2.16.840.1.113883.10.20.22.4.24 CONF:81-7490;CONF:81-7495;CONF:81-10493;CONF:81-19137;CONF:81-19138;CONF:81-26502;CONF:81-7492;CONF:81-7493;CONF:81-7494;CONF:81-10087' },</v>
       </c>
       <c r="N115" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.24',</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>236</v>
       </c>
@@ -11392,17 +11180,14 @@
       </c>
       <c r="M116" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '115', 'template_type': 'Entry', 'name': 'Encounter Activity  [2.16.840.1.113883.10.20.22.4.49[475-487', 'name2': 'Encounter Activity ', 'template': '2.16.840.1.113883.10.20.22.4.49', 'pageStart': '475', 'pages': '475-487', 'search': 'Encounter Activity  2.16.840.1.113883.10.20.22.4.49 CONF:1198-8710;CONF:1198-8711;CONF:1198-8712;CONF:1198-26353;CONF:1198-32546;CONF:1198-8713;CONF:1198-8714;CONF:1198-8719;CONF:1198-15970;CONF:1198-15971;CONF:1198-15972;CONF:1198-32323;CONF:1198-8715;CONF:1198-32176;CONF:1198-32177;CONF:1198-32377;CONF:1198-8725;CONF:1198-8726;CONF:1198-8727;CONF:1198-8738;CONF:1198-8740;CONF:1198-14903;CONF:1198-8722;CONF:1198-8723;CONF:1198-14899;CONF:1198-15492;CONF:1198-15973' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Encounter Activity  [2.16.840.1.113883.10.20.22.4.49[475-487', 'name2': 'Encounter Activity ', 'template': '2.16.840.1.113883.10.20.22.4.49', 'pageStart': '475', 'pages': '475-487', 'search': 'Encounter Activity  2.16.840.1.113883.10.20.22.4.49 CONF:1198-8710;CONF:1198-8711;CONF:1198-8712;CONF:1198-26353;CONF:1198-32546;CONF:1198-8713;CONF:1198-8714;CONF:1198-8719;CONF:1198-15970;CONF:1198-15971;CONF:1198-15972;CONF:1198-32323;CONF:1198-8715;CONF:1198-32176;CONF:1198-32177;CONF:1198-32377;CONF:1198-8725;CONF:1198-8726;CONF:1198-8727;CONF:1198-8738;CONF:1198-8740;CONF:1198-14903;CONF:1198-8722;CONF:1198-8723;CONF:1198-14899;CONF:1198-15492;CONF:1198-15973' },</v>
       </c>
       <c r="N116" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.49',</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>238</v>
       </c>
@@ -11434,17 +11219,14 @@
       </c>
       <c r="M117" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '116', 'template_type': 'Entry', 'name': 'Encounter Diagnosis  [2.16.840.1.113883.10.20.22.4.80[487-489', 'name2': 'Encounter Diagnosis ', 'template': '2.16.840.1.113883.10.20.22.4.80', 'pageStart': '487', 'pages': '487-489', 'search': 'Encounter Diagnosis  2.16.840.1.113883.10.20.22.4.80 CONF:1198-14889;CONF:1198-14890;CONF:1198-14895;CONF:1198-14896;CONF:1198-32542;CONF:1198-19182;CONF:1198-19183;CONF:1198-32160;CONF:1198-14892;CONF:1198-14893;CONF:1198-14898' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Encounter Diagnosis  [2.16.840.1.113883.10.20.22.4.80[487-489', 'name2': 'Encounter Diagnosis ', 'template': '2.16.840.1.113883.10.20.22.4.80', 'pageStart': '487', 'pages': '487-489', 'search': 'Encounter Diagnosis  2.16.840.1.113883.10.20.22.4.80 CONF:1198-14889;CONF:1198-14890;CONF:1198-14895;CONF:1198-14896;CONF:1198-32542;CONF:1198-19182;CONF:1198-19183;CONF:1198-32160;CONF:1198-14892;CONF:1198-14893;CONF:1198-14898' },</v>
       </c>
       <c r="N117" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.80',</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>240</v>
       </c>
@@ -11476,17 +11258,14 @@
       </c>
       <c r="M118" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '117', 'template_type': 'Entry', 'name': 'Entry Reference  [2.16.840.1.113883.10.20.22.4.122[489-494', 'name2': 'Entry Reference ', 'template': '2.16.840.1.113883.10.20.22.4.122', 'pageStart': '489', 'pages': '489-494', 'search': 'Entry Reference  2.16.840.1.113883.10.20.22.4.122 CONF:1098-31485;CONF:1098-31486;CONF:1098-31487;CONF:1098-31488;CONF:1098-31489;CONF:1098-31490;CONF:1098-31491;CONF:1098-31498;CONF:1098-31499' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Entry Reference  [2.16.840.1.113883.10.20.22.4.122[489-494', 'name2': 'Entry Reference ', 'template': '2.16.840.1.113883.10.20.22.4.122', 'pageStart': '489', 'pages': '489-494', 'search': 'Entry Reference  2.16.840.1.113883.10.20.22.4.122 CONF:1098-31485;CONF:1098-31486;CONF:1098-31487;CONF:1098-31488;CONF:1098-31489;CONF:1098-31490;CONF:1098-31491;CONF:1098-31498;CONF:1098-31499' },</v>
       </c>
       <c r="N118" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.122',</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>242</v>
       </c>
@@ -11518,17 +11297,14 @@
       </c>
       <c r="M119" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '118', 'template_type': 'Entry', 'name': 'Estimated Date of Delivery  [2.16.840.1.113883.10.20.15.3.1[494-495', 'name2': 'Estimated Date of Delivery ', 'template': '2.16.840.1.113883.10.20.15.3.1', 'pageStart': '494', 'pages': '494-495', 'search': 'Estimated Date of Delivery  2.16.840.1.113883.10.20.15.3.1 CONF:81-444;CONF:81-445;CONF:81-16762;CONF:81-16763;CONF:81-19139;CONF:81-19140;CONF:81-26503;CONF:81-448;CONF:81-19096;CONF:81-450' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Estimated Date of Delivery  [2.16.840.1.113883.10.20.15.3.1[494-495', 'name2': 'Estimated Date of Delivery ', 'template': '2.16.840.1.113883.10.20.15.3.1', 'pageStart': '494', 'pages': '494-495', 'search': 'Estimated Date of Delivery  2.16.840.1.113883.10.20.15.3.1 CONF:81-444;CONF:81-445;CONF:81-16762;CONF:81-16763;CONF:81-19139;CONF:81-19140;CONF:81-26503;CONF:81-448;CONF:81-19096;CONF:81-450' },</v>
       </c>
       <c r="N119" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.15.3.1',</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>244</v>
       </c>
@@ -11560,17 +11336,14 @@
       </c>
       <c r="M120" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '119', 'template_type': 'Entry', 'name': 'External Document Reference  [2.16.840.1.113883.10.20.22.4.115[495-497', 'name2': 'External Document Reference ', 'template': '2.16.840.1.113883.10.20.22.4.115', 'pageStart': '495', 'pages': '495-497', 'search': 'External Document Reference  2.16.840.1.113883.10.20.22.4.115 CONF:1098-31931;CONF:1098-31932;CONF:1098-32748;CONF:1098-32750;CONF:1098-32749;CONF:1098-32751;CONF:1098-31933;CONF:1098-32752;CONF:1098-32753' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'External Document Reference  [2.16.840.1.113883.10.20.22.4.115[495-497', 'name2': 'External Document Reference ', 'template': '2.16.840.1.113883.10.20.22.4.115', 'pageStart': '495', 'pages': '495-497', 'search': 'External Document Reference  2.16.840.1.113883.10.20.22.4.115 CONF:1098-31931;CONF:1098-31932;CONF:1098-32748;CONF:1098-32750;CONF:1098-32749;CONF:1098-32751;CONF:1098-31933;CONF:1098-32752;CONF:1098-32753' },</v>
       </c>
       <c r="N120" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.115',</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>246</v>
       </c>
@@ -11602,17 +11375,14 @@
       </c>
       <c r="M121" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '120', 'template_type': 'Entry', 'name': 'Family History Death Observation  [2.16.840.1.113883.10.20.22.4.47[497-499', 'name2': 'Family History Death Observation ', 'template': '2.16.840.1.113883.10.20.22.4.47', 'pageStart': '497', 'pages': '497-499', 'search': 'Family History Death Observation  2.16.840.1.113883.10.20.22.4.47 CONF:81-8621;CONF:81-8622;CONF:81-8623;CONF:81-10495;CONF:81-19141;CONF:81-19142;CONF:81-26504;CONF:81-8625;CONF:81-19097;CONF:81-8626;CONF:81-26470' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Family History Death Observation  [2.16.840.1.113883.10.20.22.4.47[497-499', 'name2': 'Family History Death Observation ', 'template': '2.16.840.1.113883.10.20.22.4.47', 'pageStart': '497', 'pages': '497-499', 'search': 'Family History Death Observation  2.16.840.1.113883.10.20.22.4.47 CONF:81-8621;CONF:81-8622;CONF:81-8623;CONF:81-10495;CONF:81-19141;CONF:81-19142;CONF:81-26504;CONF:81-8625;CONF:81-19097;CONF:81-8626;CONF:81-26470' },</v>
       </c>
       <c r="N121" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.47',</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>248</v>
       </c>
@@ -11644,17 +11414,14 @@
       </c>
       <c r="M122" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '121', 'template_type': 'Entry', 'name': 'Family History Observation   [2.16.840.1.113883.10.20.22.4.46[499-504', 'name2': 'Family History Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.46', 'pageStart': '499', 'pages': '499-504', 'search': 'Family History Observation   2.16.840.1.113883.10.20.22.4.46 CONF:1198-8586;CONF:1198-8587;CONF:1198-8599;CONF:1198-10496;CONF:1198-32605;CONF:1198-8592;CONF:1198-32427;CONF:1198-32847;CONF:1198-8590;CONF:1198-19098;CONF:1198-8593;CONF:1198-8591;CONF:1198-8675;CONF:1198-8676;CONF:1198-8677;CONF:1198-15526;CONF:1198-8678;CONF:1198-8679;CONF:1198-15527' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Family History Observation   [2.16.840.1.113883.10.20.22.4.46[499-504', 'name2': 'Family History Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.46', 'pageStart': '499', 'pages': '499-504', 'search': 'Family History Observation   2.16.840.1.113883.10.20.22.4.46 CONF:1198-8586;CONF:1198-8587;CONF:1198-8599;CONF:1198-10496;CONF:1198-32605;CONF:1198-8592;CONF:1198-32427;CONF:1198-32847;CONF:1198-8590;CONF:1198-19098;CONF:1198-8593;CONF:1198-8591;CONF:1198-8675;CONF:1198-8676;CONF:1198-8677;CONF:1198-15526;CONF:1198-8678;CONF:1198-8679;CONF:1198-15527' },</v>
       </c>
       <c r="N122" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.46',</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>250</v>
       </c>
@@ -11686,17 +11453,14 @@
       </c>
       <c r="M123" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '122', 'template_type': 'Entry', 'name': 'Family History Organizer  [2.16.840.1.113883.10.20.22.4.45[504-508', 'name2': 'Family History Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.45', 'pageStart': '504', 'pages': '504-508', 'search': 'Family History Organizer  2.16.840.1.113883.10.20.22.4.45 CONF:1198-8600;CONF:1198-8601;CONF:1198-8604;CONF:1198-10497;CONF:1198-32606;CONF:1198-32485;CONF:1198-8602;CONF:1198-19099;CONF:1198-8609;CONF:1198-15244;CONF:1198-15245;CONF:1198-15246;CONF:1198-15248;CONF:1198-15974;CONF:1198-15976;CONF:1198-15249;CONF:1198-15981;CONF:1198-15982;CONF:1198-15983;CONF:1198-32428;CONF:1198-32429' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Family History Organizer  [2.16.840.1.113883.10.20.22.4.45[504-508', 'name2': 'Family History Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.45', 'pageStart': '504', 'pages': '504-508', 'search': 'Family History Organizer  2.16.840.1.113883.10.20.22.4.45 CONF:1198-8600;CONF:1198-8601;CONF:1198-8604;CONF:1198-10497;CONF:1198-32606;CONF:1198-32485;CONF:1198-8602;CONF:1198-19099;CONF:1198-8609;CONF:1198-15244;CONF:1198-15245;CONF:1198-15246;CONF:1198-15248;CONF:1198-15974;CONF:1198-15976;CONF:1198-15249;CONF:1198-15981;CONF:1198-15982;CONF:1198-15983;CONF:1198-32428;CONF:1198-32429' },</v>
       </c>
       <c r="N123" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.45',</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>252</v>
       </c>
@@ -11728,17 +11492,14 @@
       </c>
       <c r="M124" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '123', 'template_type': 'Entry', 'name': 'Functional Status Observation   [2.16.840.1.113883.10.20.22.4.67[508-511', 'name2': 'Functional Status Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.67', 'pageStart': '508', 'pages': '508-511', 'search': 'Functional Status Observation   2.16.840.1.113883.10.20.22.4.67 CONF:1098-13905;CONF:1098-13906;CONF:1098-13889;CONF:1098-13890;CONF:1098-32568;CONF:1098-13907;CONF:1098-13908;CONF:1098-31522;CONF:1098-31523;CONF:1098-13929;CONF:1098-19101;CONF:1098-13930;CONF:1098-13932;CONF:1098-14234;CONF:1098-13936;CONF:1098-13892;CONF:1098-14596;CONF:1098-14218;CONF:1098-13895;CONF:1098-14597;CONF:1098-13897;CONF:1098-14465;CONF:1098-14598;CONF:1098-14466;CONF:1098-13937' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Functional Status Observation   [2.16.840.1.113883.10.20.22.4.67[508-511', 'name2': 'Functional Status Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.67', 'pageStart': '508', 'pages': '508-511', 'search': 'Functional Status Observation   2.16.840.1.113883.10.20.22.4.67 CONF:1098-13905;CONF:1098-13906;CONF:1098-13889;CONF:1098-13890;CONF:1098-32568;CONF:1098-13907;CONF:1098-13908;CONF:1098-31522;CONF:1098-31523;CONF:1098-13929;CONF:1098-19101;CONF:1098-13930;CONF:1098-13932;CONF:1098-14234;CONF:1098-13936;CONF:1098-13892;CONF:1098-14596;CONF:1098-14218;CONF:1098-13895;CONF:1098-14597;CONF:1098-13897;CONF:1098-14465;CONF:1098-14598;CONF:1098-14466;CONF:1098-13937' },</v>
       </c>
       <c r="N124" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.67',</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>254</v>
       </c>
@@ -11770,17 +11531,14 @@
       </c>
       <c r="M125" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '124', 'template_type': 'Entry', 'name': 'Functional Status Organizer  [2.16.840.1.113883.10.20.22.4.66[511-515', 'name2': 'Functional Status Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.66', 'pageStart': '511', 'pages': '511-515', 'search': 'Functional Status Organizer  2.16.840.1.113883.10.20.22.4.66 CONF:1098-14355;CONF:1098-14357;CONF:1098-14361;CONF:1098-14362;CONF:1098-32569;CONF:1098-14363;CONF:1098-14364;CONF:1098-31417;CONF:1098-14358;CONF:1098-31434;CONF:1098-31585;CONF:1098-14359;CONF:1098-14368;CONF:1098-31432;CONF:1098-31433' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Functional Status Organizer  [2.16.840.1.113883.10.20.22.4.66[511-515', 'name2': 'Functional Status Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.66', 'pageStart': '511', 'pages': '511-515', 'search': 'Functional Status Organizer  2.16.840.1.113883.10.20.22.4.66 CONF:1098-14355;CONF:1098-14357;CONF:1098-14361;CONF:1098-14362;CONF:1098-32569;CONF:1098-14363;CONF:1098-14364;CONF:1098-31417;CONF:1098-14358;CONF:1098-31434;CONF:1098-31585;CONF:1098-14359;CONF:1098-14368;CONF:1098-31432;CONF:1098-31433' },</v>
       </c>
       <c r="N125" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.66',</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>256</v>
       </c>
@@ -11812,19 +11570,16 @@
       </c>
       <c r="M126" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '125', 'template_type': 'Entry', 'name': 'Functional Status Problem Observation (DEPRECATED) [2.16.840.1.113883.10.20.22.4.68[515-518', 'name2': 'Functional Status Problem Observation (DEPRECATED)', 'template': '2.16.840.1.113883.10.20.22.4.68', 'pageStart': '515', 'pages': '515-518', 'search': 'Functional Status Problem Observation (DEPRECATED) 2.16.840.1.113883.10.20.22.4.68 CONF:1098-14282;CONF:1098-14283;CONF:1098-14307;CONF:1098-14312;CONF:1098-14313;CONF:1098-32601;CONF:1098-14284;CONF:1098-14314;CONF:1098-14315;CONF:1098-14304;CONF:1098-15552;CONF:1098-15553;CONF:1098-15554;CONF:1098-14286;CONF:1098-19100;CONF:1098-14287;CONF:1098-26456;CONF:1098-26457;CONF:1098-14291;CONF:1098-14292;CONF:1098-14293;CONF:1098-14316' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Functional Status Problem Observation (DEPRECATED) [2.16.840.1.113883.10.20.22.4.68[515-518', 'name2': 'Functional Status Problem Observation (DEPRECATED)', 'template': '2.16.840.1.113883.10.20.22.4.68', 'pageStart': '515', 'pages': '515-518', 'search': 'Functional Status Problem Observation (DEPRECATED) 2.16.840.1.113883.10.20.22.4.68 CONF:1098-14282;CONF:1098-14283;CONF:1098-14307;CONF:1098-14312;CONF:1098-14313;CONF:1098-32601;CONF:1098-14284;CONF:1098-14314;CONF:1098-14315;CONF:1098-14304;CONF:1098-15552;CONF:1098-15553;CONF:1098-15554;CONF:1098-14286;CONF:1098-19100;CONF:1098-14287;CONF:1098-26456;CONF:1098-26457;CONF:1098-14291;CONF:1098-14292;CONF:1098-14293;CONF:1098-14316' },</v>
       </c>
       <c r="N126" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.68',</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>258</v>
+        <v>1909</v>
       </c>
       <c r="C127" t="s">
         <v>432</v>
@@ -11833,11 +11588,14 @@
         <v>259</v>
       </c>
       <c r="E127">
-        <v>518</v>
-      </c>
-      <c r="G127" s="3" t="str">
-        <f>VLOOKUP(D127,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>518-524</v>
+        <v>1107</v>
+      </c>
+      <c r="F127">
+        <v>1115</v>
+      </c>
+      <c r="G127" t="str">
+        <f>"CG_A_"&amp;E127-1000&amp;"-"&amp;F127-1000</f>
+        <v>CG_A_107-115</v>
       </c>
       <c r="H127" t="s">
         <v>821</v>
@@ -11850,21 +11608,18 @@
       </c>
       <c r="K127" t="str">
         <f t="shared" si="3"/>
-        <v>Goal Observation  2.16.840.1.113883.10.20.22.4.121 CONF:1098-30418;CONF:1098-30419;CONF:1098-8583;CONF:1098-10512;CONF:1098-32332;CONF:1098-30784;CONF:1098-32333;CONF:1098-32334;CONF:1098-32335;CONF:1098-32743;CONF:1098-30995;CONF:1098-30701;CONF:1098-30702;CONF:1098-30703;CONF:1098-30704;CONF:1098-30705;CONF:1098-32879;CONF:1098-30785;CONF:1098-30786;CONF:1098-30787;CONF:1098-31448;CONF:1098-31449;CONF:1098-32880;CONF:1098-31559;CONF:1098-31560;CONF:1098-31588;CONF:1098-32754;CONF:1098-32755;CONF:1098-32756</v>
+        <v>Goal Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.121 CONF:1098-30418;CONF:1098-30419;CONF:1098-8583;CONF:1098-10512;CONF:1098-32332;CONF:1098-30784;CONF:1098-32333;CONF:1098-32334;CONF:1098-32335;CONF:1098-32743;CONF:1098-30995;CONF:1098-30701;CONF:1098-30702;CONF:1098-30703;CONF:1098-30704;CONF:1098-30705;CONF:1098-32879;CONF:1098-30785;CONF:1098-30786;CONF:1098-30787;CONF:1098-31448;CONF:1098-31449;CONF:1098-32880;CONF:1098-31559;CONF:1098-31560;CONF:1098-31588;CONF:1098-32754;CONF:1098-32755;CONF:1098-32756</v>
       </c>
       <c r="M127" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '126', 'template_type': 'Entry', 'name': 'Goal Observation  [2.16.840.1.113883.10.20.22.4.121[518-524', 'name2': 'Goal Observation ', 'template': '2.16.840.1.113883.10.20.22.4.121', 'pageStart': '518', 'pages': '518-524', 'search': 'Goal Observation  2.16.840.1.113883.10.20.22.4.121 CONF:1098-30418;CONF:1098-30419;CONF:1098-8583;CONF:1098-10512;CONF:1098-32332;CONF:1098-30784;CONF:1098-32333;CONF:1098-32334;CONF:1098-32335;CONF:1098-32743;CONF:1098-30995;CONF:1098-30701;CONF:1098-30702;CONF:1098-30703;CONF:1098-30704;CONF:1098-30705;CONF:1098-32879;CONF:1098-30785;CONF:1098-30786;CONF:1098-30787;CONF:1098-31448;CONF:1098-31449;CONF:1098-32880;CONF:1098-31559;CONF:1098-31560;CONF:1098-31588;CONF:1098-32754;CONF:1098-32755;CONF:1098-32756' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Goal Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.121[CG_A_107-115', 'name2': 'Goal Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.121', 'pageStart': '1107', 'pages': 'CG_A_107-115', 'search': 'Goal Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.121 CONF:1098-30418;CONF:1098-30419;CONF:1098-8583;CONF:1098-10512;CONF:1098-32332;CONF:1098-30784;CONF:1098-32333;CONF:1098-32334;CONF:1098-32335;CONF:1098-32743;CONF:1098-30995;CONF:1098-30701;CONF:1098-30702;CONF:1098-30703;CONF:1098-30704;CONF:1098-30705;CONF:1098-32879;CONF:1098-30785;CONF:1098-30786;CONF:1098-30787;CONF:1098-31448;CONF:1098-31449;CONF:1098-32880;CONF:1098-31559;CONF:1098-31560;CONF:1098-31588;CONF:1098-32754;CONF:1098-32755;CONF:1098-32756' },</v>
       </c>
       <c r="N127" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.121',</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>260</v>
       </c>
@@ -11896,19 +11651,16 @@
       </c>
       <c r="M128" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '127', 'template_type': 'Entry', 'name': 'Handoff Communication Participants  [2.16.840.1.113883.10.20.22.4.141[524-528', 'name2': 'Handoff Communication Participants ', 'template': '2.16.840.1.113883.10.20.22.4.141', 'pageStart': '524', 'pages': '524-528', 'search': 'Handoff Communication Participants  2.16.840.1.113883.10.20.22.4.141 CONF:1098-30832;CONF:1098-30833;CONF:1098-30834;CONF:1098-30835;CONF:1098-30836;CONF:1098-30837;CONF:1098-30838;CONF:1098-31668;CONF:1098-31669;CONF:1098-31670;CONF:1098-31672;CONF:1098-31673;CONF:1098-31674;CONF:1098-31675;CONF:1098-32422;CONF:1098-31676;CONF:1098-32392;CONF:1098-32393;CONF:1098-32394' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Handoff Communication Participants  [2.16.840.1.113883.10.20.22.4.141[524-528', 'name2': 'Handoff Communication Participants ', 'template': '2.16.840.1.113883.10.20.22.4.141', 'pageStart': '524', 'pages': '524-528', 'search': 'Handoff Communication Participants  2.16.840.1.113883.10.20.22.4.141 CONF:1098-30832;CONF:1098-30833;CONF:1098-30834;CONF:1098-30835;CONF:1098-30836;CONF:1098-30837;CONF:1098-30838;CONF:1098-31668;CONF:1098-31669;CONF:1098-31670;CONF:1098-31672;CONF:1098-31673;CONF:1098-31674;CONF:1098-31675;CONF:1098-32422;CONF:1098-31676;CONF:1098-32392;CONF:1098-32393;CONF:1098-32394' },</v>
       </c>
       <c r="N128" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.141',</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>262</v>
+        <v>1908</v>
       </c>
       <c r="C129" t="s">
         <v>432</v>
@@ -11917,11 +11669,14 @@
         <v>263</v>
       </c>
       <c r="E129">
-        <v>528</v>
-      </c>
-      <c r="G129" s="3" t="str">
-        <f>VLOOKUP(D129,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>528-544</v>
+        <v>1115</v>
+      </c>
+      <c r="F129">
+        <v>1133</v>
+      </c>
+      <c r="G129" t="str">
+        <f>"CG_A_"&amp;E129-1000&amp;"-"&amp;F129-1000</f>
+        <v>CG_A_115-133</v>
       </c>
       <c r="H129" t="s">
         <v>824</v>
@@ -11934,21 +11689,18 @@
       </c>
       <c r="K129" t="str">
         <f t="shared" si="3"/>
-        <v>Health Concern Act   2.16.840.1.113883.10.20.22.4.132 CONF:1198-30750;CONF:1198-30751;CONF:1198-30752;CONF:1198-30753;CONF:1198-32861;CONF:1198-30754;CONF:1198-32310;CONF:1198-32311;CONF:1198-32312;CONF:1198-30758;CONF:1198-32313;CONF:1198-30759;CONF:1198-31546;CONF:1198-30761;CONF:1198-30762;CONF:1198-31001;CONF:1198-31007;CONF:1198-31008;CONF:1198-31186;CONF:1198-31157;CONF:1198-31158;CONF:1198-32106;CONF:1198-32860;CONF:1198-31160;CONF:1198-31161;CONF:1198-32107;CONF:1198-32745;CONF:1198-31190;CONF:1198-31191;CONF:1198-31192;CONF:1198-31232;CONF:1198-31264;CONF:1198-31265;CONF:1198-31234;CONF:1198-31268;CONF:1198-31273;CONF:1198-31235;CONF:1198-31269;CONF:1198-31275;CONF:1198-31236;CONF:1198-31270;CONF:1198-31277;CONF:1198-31237;CONF:1198-31279;CONF:1198-31280;CONF:1198-31238;CONF:1198-31282;CONF:1198-31283;CONF:1198-31241;CONF:1198-31291;CONF:1198-31292;CONF:1198-31244;CONF:1198-31300;CONF:1198-31301;CONF:1198-31246;CONF:1198-31306;CONF:1198-31307;CONF:1198-31247;CONF:1198-31309;CONF:1198-31310;CONF:1198-31248;CONF:1198-31312;CONF:1198-31313;CONF:1198-31250;CONF:1198-31318;CONF:1198-31319;CONF:1198-31251;CONF:1198-31321;CONF:1198-31322;CONF:1198-31252;CONF:1198-31324;CONF:1198-31325;CONF:1198-31253;CONF:1198-31327;CONF:1198-31328;CONF:1198-31254;CONF:1198-32955;CONF:1198-31331;CONF:1198-31255;CONF:1198-31333;CONF:1198-31334;CONF:1198-31256;CONF:1198-31336;CONF:1198-31337;CONF:1198-31257;CONF:1198-31339;CONF:1198-31340;CONF:1198-31365;CONF:1198-31366;CONF:1198-31367;CONF:1198-31368;CONF:1198-31369;CONF:1198-31370;CONF:1198-31371;CONF:1198-31372;CONF:1198-31373;CONF:1198-31374;CONF:1198-31375;CONF:1198-31376;CONF:1198-31377;CONF:1198-31378;CONF:1198-31379;CONF:1198-31380;CONF:1198-31381;CONF:1198-31382;CONF:1198-31442;CONF:1198-31443;CONF:1198-31444;CONF:1198-31544;CONF:1198-31547;CONF:1198-31548;CONF:1198-31549;CONF:1198-31550;CONF:1198-31551;CONF:1198-32757;CONF:1198-32758;CONF:1198-32759</v>
+        <v>Health Concern Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.132 CONF:1198-30750;CONF:1198-30751;CONF:1198-30752;CONF:1198-30753;CONF:1198-32861;CONF:1198-30754;CONF:1198-32310;CONF:1198-32311;CONF:1198-32312;CONF:1198-30758;CONF:1198-32313;CONF:1198-30759;CONF:1198-31546;CONF:1198-30761;CONF:1198-30762;CONF:1198-31001;CONF:1198-31007;CONF:1198-31008;CONF:1198-31186;CONF:1198-31157;CONF:1198-31158;CONF:1198-32106;CONF:1198-32860;CONF:1198-31160;CONF:1198-31161;CONF:1198-32107;CONF:1198-32745;CONF:1198-31190;CONF:1198-31191;CONF:1198-31192;CONF:1198-31232;CONF:1198-31264;CONF:1198-31265;CONF:1198-31234;CONF:1198-31268;CONF:1198-31273;CONF:1198-31235;CONF:1198-31269;CONF:1198-31275;CONF:1198-31236;CONF:1198-31270;CONF:1198-31277;CONF:1198-31237;CONF:1198-31279;CONF:1198-31280;CONF:1198-31238;CONF:1198-31282;CONF:1198-31283;CONF:1198-31241;CONF:1198-31291;CONF:1198-31292;CONF:1198-31244;CONF:1198-31300;CONF:1198-31301;CONF:1198-31246;CONF:1198-31306;CONF:1198-31307;CONF:1198-31247;CONF:1198-31309;CONF:1198-31310;CONF:1198-31248;CONF:1198-31312;CONF:1198-31313;CONF:1198-31250;CONF:1198-31318;CONF:1198-31319;CONF:1198-31251;CONF:1198-31321;CONF:1198-31322;CONF:1198-31252;CONF:1198-31324;CONF:1198-31325;CONF:1198-31253;CONF:1198-31327;CONF:1198-31328;CONF:1198-31254;CONF:1198-32955;CONF:1198-31331;CONF:1198-31255;CONF:1198-31333;CONF:1198-31334;CONF:1198-31256;CONF:1198-31336;CONF:1198-31337;CONF:1198-31257;CONF:1198-31339;CONF:1198-31340;CONF:1198-31365;CONF:1198-31366;CONF:1198-31367;CONF:1198-31368;CONF:1198-31369;CONF:1198-31370;CONF:1198-31371;CONF:1198-31372;CONF:1198-31373;CONF:1198-31374;CONF:1198-31375;CONF:1198-31376;CONF:1198-31377;CONF:1198-31378;CONF:1198-31379;CONF:1198-31380;CONF:1198-31381;CONF:1198-31382;CONF:1198-31442;CONF:1198-31443;CONF:1198-31444;CONF:1198-31544;CONF:1198-31547;CONF:1198-31548;CONF:1198-31549;CONF:1198-31550;CONF:1198-31551;CONF:1198-32757;CONF:1198-32758;CONF:1198-32759</v>
       </c>
       <c r="M129" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '128', 'template_type': 'Entry', 'name': 'Health Concern Act   [2.16.840.1.113883.10.20.22.4.132[528-544', 'name2': 'Health Concern Act  ', 'template': '2.16.840.1.113883.10.20.22.4.132', 'pageStart': '528', 'pages': '528-544', 'search': 'Health Concern Act   2.16.840.1.113883.10.20.22.4.132 CONF:1198-30750;CONF:1198-30751;CONF:1198-30752;CONF:1198-30753;CONF:1198-32861;CONF:1198-30754;CONF:1198-32310;CONF:1198-32311;CONF:1198-32312;CONF:1198-30758;CONF:1198-32313;CONF:1198-30759;CONF:1198-31546;CONF:1198-30761;CONF:1198-30762;CONF:1198-31001;CONF:1198-31007;CONF:1198-31008;CONF:1198-31186;CONF:1198-31157;CONF:1198-31158;CONF:1198-32106;CONF:1198-32860;CONF:1198-31160;CONF:1198-31161;CONF:1198-32107;CONF:1198-32745;CONF:1198-31190;CONF:1198-31191;CONF:1198-31192;CONF:1198-31232;CONF:1198-31264;CONF:1198-31265;CONF:1198-31234;CONF:1198-31268;CONF:1198-31273;CONF:1198-31235;CONF:1198-31269;CONF:1198-31275;CONF:1198-31236;CONF:1198-31270;CONF:1198-31277;CONF:1198-31237;CONF:1198-31279;CONF:1198-31280;CONF:1198-31238;CONF:1198-31282;CONF:1198-31283;CONF:1198-31241;CONF:1198-31291;CONF:1198-31292;CONF:1198-31244;CONF:1198-31300;CONF:1198-31301;CONF:1198-31246;CONF:1198-31306;CONF:1198-31307;CONF:1198-31247;CONF:1198-31309;CONF:1198-31310;CONF:1198-31248;CONF:1198-31312;CONF:1198-31313;CONF:1198-31250;CONF:1198-31318;CONF:1198-31319;CONF:1198-31251;CONF:1198-31321;CONF:1198-31322;CONF:1198-31252;CONF:1198-31324;CONF:1198-31325;CONF:1198-31253;CONF:1198-31327;CONF:1198-31328;CONF:1198-31254;CONF:1198-32955;CONF:1198-31331;CONF:1198-31255;CONF:1198-31333;CONF:1198-31334;CONF:1198-31256;CONF:1198-31336;CONF:1198-31337;CONF:1198-31257;CONF:1198-31339;CONF:1198-31340;CONF:1198-31365;CONF:1198-31366;CONF:1198-31367;CONF:1198-31368;CONF:1198-31369;CONF:1198-31370;CONF:1198-31371;CONF:1198-31372;CONF:1198-31373;CONF:1198-31374;CONF:1198-31375;CONF:1198-31376;CONF:1198-31377;CONF:1198-31378;CONF:1198-31379;CONF:1198-31380;CONF:1198-31381;CONF:1198-31382;CONF:1198-31442;CONF:1198-31443;CONF:1198-31444;CONF:1198-31544;CONF:1198-31547;CONF:1198-31548;CONF:1198-31549;CONF:1198-31550;CONF:1198-31551;CONF:1198-32757;CONF:1198-32758;CONF:1198-32759' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Health Concern Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.132[CG_A_115-133', 'name2': 'Health Concern Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.132', 'pageStart': '1115', 'pages': 'CG_A_115-133', 'search': 'Health Concern Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.132 CONF:1198-30750;CONF:1198-30751;CONF:1198-30752;CONF:1198-30753;CONF:1198-32861;CONF:1198-30754;CONF:1198-32310;CONF:1198-32311;CONF:1198-32312;CONF:1198-30758;CONF:1198-32313;CONF:1198-30759;CONF:1198-31546;CONF:1198-30761;CONF:1198-30762;CONF:1198-31001;CONF:1198-31007;CONF:1198-31008;CONF:1198-31186;CONF:1198-31157;CONF:1198-31158;CONF:1198-32106;CONF:1198-32860;CONF:1198-31160;CONF:1198-31161;CONF:1198-32107;CONF:1198-32745;CONF:1198-31190;CONF:1198-31191;CONF:1198-31192;CONF:1198-31232;CONF:1198-31264;CONF:1198-31265;CONF:1198-31234;CONF:1198-31268;CONF:1198-31273;CONF:1198-31235;CONF:1198-31269;CONF:1198-31275;CONF:1198-31236;CONF:1198-31270;CONF:1198-31277;CONF:1198-31237;CONF:1198-31279;CONF:1198-31280;CONF:1198-31238;CONF:1198-31282;CONF:1198-31283;CONF:1198-31241;CONF:1198-31291;CONF:1198-31292;CONF:1198-31244;CONF:1198-31300;CONF:1198-31301;CONF:1198-31246;CONF:1198-31306;CONF:1198-31307;CONF:1198-31247;CONF:1198-31309;CONF:1198-31310;CONF:1198-31248;CONF:1198-31312;CONF:1198-31313;CONF:1198-31250;CONF:1198-31318;CONF:1198-31319;CONF:1198-31251;CONF:1198-31321;CONF:1198-31322;CONF:1198-31252;CONF:1198-31324;CONF:1198-31325;CONF:1198-31253;CONF:1198-31327;CONF:1198-31328;CONF:1198-31254;CONF:1198-32955;CONF:1198-31331;CONF:1198-31255;CONF:1198-31333;CONF:1198-31334;CONF:1198-31256;CONF:1198-31336;CONF:1198-31337;CONF:1198-31257;CONF:1198-31339;CONF:1198-31340;CONF:1198-31365;CONF:1198-31366;CONF:1198-31367;CONF:1198-31368;CONF:1198-31369;CONF:1198-31370;CONF:1198-31371;CONF:1198-31372;CONF:1198-31373;CONF:1198-31374;CONF:1198-31375;CONF:1198-31376;CONF:1198-31377;CONF:1198-31378;CONF:1198-31379;CONF:1198-31380;CONF:1198-31381;CONF:1198-31382;CONF:1198-31442;CONF:1198-31443;CONF:1198-31444;CONF:1198-31544;CONF:1198-31547;CONF:1198-31548;CONF:1198-31549;CONF:1198-31550;CONF:1198-31551;CONF:1198-32757;CONF:1198-32758;CONF:1198-32759' },</v>
       </c>
       <c r="N129" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.132',</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>264</v>
       </c>
@@ -11980,17 +11732,14 @@
       </c>
       <c r="M130" t="str">
         <f t="shared" si="4"/>
-        <v>{ 'id': '129', 'template_type': 'Entry', 'name': 'Health Status Observation  [2.16.840.1.113883.10.20.22.4.5[544-547', 'name2': 'Health Status Observation ', 'template': '2.16.840.1.113883.10.20.22.4.5', 'pageStart': '544', 'pages': '544-547', 'search': 'Health Status Observation  2.16.840.1.113883.10.20.22.4.5 CONF:1098-9057;CONF:1098-9072;CONF:1098-16756;CONF:1098-16757;CONF:1098-32558;CONF:1098-32486;CONF:1098-19143;CONF:1098-19144;CONF:1098-32161;CONF:1098-9074;CONF:1098-19103;CONF:1098-9075' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Health Status Observation  [2.16.840.1.113883.10.20.22.4.5[544-547', 'name2': 'Health Status Observation ', 'template': '2.16.840.1.113883.10.20.22.4.5', 'pageStart': '544', 'pages': '544-547', 'search': 'Health Status Observation  2.16.840.1.113883.10.20.22.4.5 CONF:1098-9057;CONF:1098-9072;CONF:1098-16756;CONF:1098-16757;CONF:1098-32558;CONF:1098-32486;CONF:1098-19143;CONF:1098-19144;CONF:1098-32161;CONF:1098-9074;CONF:1098-19103;CONF:1098-9075' },</v>
       </c>
       <c r="N130" t="str">
         <f t="shared" si="5"/>
         <v>'2.16.840.1.113883.10.20.22.4.5',</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>266</v>
       </c>
@@ -12022,17 +11771,14 @@
       </c>
       <c r="M131" t="str">
         <f t="shared" ref="M131:M194" si="7">"{ 'id': '"&amp;A131&amp;"', 'template_type': '"&amp;C131&amp;"', 'name': '"&amp;B131&amp;" ["&amp;D131&amp;"["&amp;G131&amp;"', 'name2': '"&amp;B131&amp;"', 'template': '"&amp;D131&amp;"', 'pageStart': '"&amp;E131&amp;"', 'pages': '"&amp;G131&amp;"', 'search': '"&amp;K131&amp;"' },"</f>
-        <v>{ 'id': '130', 'template_type': 'Entry', 'name': 'Highest Pressure Ulcer Stage [2.16.840.1.113883.10.20.22.4.77[547-548', 'name2': 'Highest Pressure Ulcer Stage', 'template': '2.16.840.1.113883.10.20.22.4.77', 'pageStart': '547', 'pages': '547-548', 'search': 'Highest Pressure Ulcer Stage 2.16.840.1.113883.10.20.22.4.77 CONF:81-14726;CONF:81-14727;CONF:81-14728;CONF:81-14729;CONF:81-14730;CONF:81-14731;CONF:81-14732;CONF:81-14733' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Highest Pressure Ulcer Stage [2.16.840.1.113883.10.20.22.4.77[547-548', 'name2': 'Highest Pressure Ulcer Stage', 'template': '2.16.840.1.113883.10.20.22.4.77', 'pageStart': '547', 'pages': '547-548', 'search': 'Highest Pressure Ulcer Stage 2.16.840.1.113883.10.20.22.4.77 CONF:81-14726;CONF:81-14727;CONF:81-14728;CONF:81-14729;CONF:81-14730;CONF:81-14731;CONF:81-14732;CONF:81-14733' },</v>
       </c>
       <c r="N131" t="str">
         <f t="shared" ref="N131:N194" si="8">"'"&amp;D131&amp;"',"</f>
         <v>'2.16.840.1.113883.10.20.22.4.77',</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>268</v>
       </c>
@@ -12064,17 +11810,14 @@
       </c>
       <c r="M132" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '131', 'template_type': 'Entry', 'name': 'Hospital Admission Diagnosis  [2.16.840.1.113883.10.20.22.4.34[548-550', 'name2': 'Hospital Admission Diagnosis ', 'template': '2.16.840.1.113883.10.20.22.4.34', 'pageStart': '548', 'pages': '548-550', 'search': 'Hospital Admission Diagnosis  2.16.840.1.113883.10.20.22.4.34 CONF:1198-7671;CONF:1198-7672;CONF:1198-16747;CONF:1198-16748;CONF:1198-32535;CONF:1198-19145;CONF:1198-19146;CONF:1198-32162;CONF:1198-7674;CONF:1198-7675;CONF:1198-15535' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Hospital Admission Diagnosis  [2.16.840.1.113883.10.20.22.4.34[548-550', 'name2': 'Hospital Admission Diagnosis ', 'template': '2.16.840.1.113883.10.20.22.4.34', 'pageStart': '548', 'pages': '548-550', 'search': 'Hospital Admission Diagnosis  2.16.840.1.113883.10.20.22.4.34 CONF:1198-7671;CONF:1198-7672;CONF:1198-16747;CONF:1198-16748;CONF:1198-32535;CONF:1198-19145;CONF:1198-19146;CONF:1198-32162;CONF:1198-7674;CONF:1198-7675;CONF:1198-15535' },</v>
       </c>
       <c r="N132" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.34',</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>270</v>
       </c>
@@ -12106,17 +11849,14 @@
       </c>
       <c r="M133" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '132', 'template_type': 'Entry', 'name': 'Hospital Discharge Diagnosis   [2.16.840.1.113883.10.20.22.4.33[550-553', 'name2': 'Hospital Discharge Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.33', 'pageStart': '550', 'pages': '550-553', 'search': 'Hospital Discharge Diagnosis   2.16.840.1.113883.10.20.22.4.33 CONF:1198-7663;CONF:1198-7664;CONF:1198-16764;CONF:1198-16765;CONF:1198-32534;CONF:1198-19147;CONF:1198-19148;CONF:1198-32163;CONF:1198-7666;CONF:1198-7667;CONF:1198-15536' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Hospital Discharge Diagnosis   [2.16.840.1.113883.10.20.22.4.33[550-553', 'name2': 'Hospital Discharge Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.33', 'pageStart': '550', 'pages': '550-553', 'search': 'Hospital Discharge Diagnosis   2.16.840.1.113883.10.20.22.4.33 CONF:1198-7663;CONF:1198-7664;CONF:1198-16764;CONF:1198-16765;CONF:1198-32534;CONF:1198-19147;CONF:1198-19148;CONF:1198-32163;CONF:1198-7666;CONF:1198-7667;CONF:1198-15536' },</v>
       </c>
       <c r="N133" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.33',</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>272</v>
       </c>
@@ -12148,17 +11888,14 @@
       </c>
       <c r="M134" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '133', 'template_type': 'Entry', 'name': 'Immunization Activity   [2.16.840.1.113883.10.20.22.4.52[553-567', 'name2': 'Immunization Activity  ', 'template': '2.16.840.1.113883.10.20.22.4.52', 'pageStart': '553', 'pages': '553-567', 'search': 'Immunization Activity   2.16.840.1.113883.10.20.22.4.52 CONF:1198-8826;CONF:1198-8827;CONF:1198-8985;CONF:1198-8828;CONF:1198-10498;CONF:1198-32528;CONF:1198-8829;CONF:1198-8830;CONF:1198-8833;CONF:1198-32359;CONF:1198-8834;CONF:1198-8838;CONF:1198-8839;CONF:1198-32960;CONF:1198-8840;CONF:1198-8841;CONF:1198-8842;CONF:1198-8846;CONF:1198-8847;CONF:1198-15546;CONF:1198-8849;CONF:1198-31151;CONF:1198-8850;CONF:1198-8851;CONF:1198-15547;CONF:1198-8853;CONF:1198-8854;CONF:1198-15537;CONF:1198-8856;CONF:1198-8857;CONF:1198-8858;CONF:1198-31392;CONF:1198-8860;CONF:1198-8861;CONF:1198-15539;CONF:1198-8863;CONF:1198-8864;CONF:1198-15540;CONF:1198-8866;CONF:1198-8867;CONF:1198-15541;CONF:1198-8988;CONF:1198-8989;CONF:1198-15542;CONF:1198-31510;CONF:1198-31511;CONF:1198-31512;CONF:1198-31513;CONF:1198-31514;CONF:1198-8869;CONF:1198-8870;CONF:1198-15548' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Immunization Activity   [2.16.840.1.113883.10.20.22.4.52[553-567', 'name2': 'Immunization Activity  ', 'template': '2.16.840.1.113883.10.20.22.4.52', 'pageStart': '553', 'pages': '553-567', 'search': 'Immunization Activity   2.16.840.1.113883.10.20.22.4.52 CONF:1198-8826;CONF:1198-8827;CONF:1198-8985;CONF:1198-8828;CONF:1198-10498;CONF:1198-32528;CONF:1198-8829;CONF:1198-8830;CONF:1198-8833;CONF:1198-32359;CONF:1198-8834;CONF:1198-8838;CONF:1198-8839;CONF:1198-32960;CONF:1198-8840;CONF:1198-8841;CONF:1198-8842;CONF:1198-8846;CONF:1198-8847;CONF:1198-15546;CONF:1198-8849;CONF:1198-31151;CONF:1198-8850;CONF:1198-8851;CONF:1198-15547;CONF:1198-8853;CONF:1198-8854;CONF:1198-15537;CONF:1198-8856;CONF:1198-8857;CONF:1198-8858;CONF:1198-31392;CONF:1198-8860;CONF:1198-8861;CONF:1198-15539;CONF:1198-8863;CONF:1198-8864;CONF:1198-15540;CONF:1198-8866;CONF:1198-8867;CONF:1198-15541;CONF:1198-8988;CONF:1198-8989;CONF:1198-15542;CONF:1198-31510;CONF:1198-31511;CONF:1198-31512;CONF:1198-31513;CONF:1198-31514;CONF:1198-8869;CONF:1198-8870;CONF:1198-15548' },</v>
       </c>
       <c r="N134" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.52',</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>274</v>
       </c>
@@ -12190,17 +11927,14 @@
       </c>
       <c r="M135" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '134', 'template_type': 'Entry', 'name': 'Immunization Medication Information   [2.16.840.1.113883.10.20.22.4.54[567-573', 'name2': 'Immunization Medication Information  ', 'template': '2.16.840.1.113883.10.20.22.4.54', 'pageStart': '567', 'pages': '567-573', 'search': 'Immunization Medication Information   2.16.840.1.113883.10.20.22.4.54 CONF:1098-9002;CONF:1098-9004;CONF:1098-10499;CONF:1098-32602;CONF:1098-9005;CONF:1098-9006;CONF:1098-9007;CONF:1098-31543;CONF:1098-31881;CONF:1098-9014;CONF:1098-9012' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Immunization Medication Information   [2.16.840.1.113883.10.20.22.4.54[567-573', 'name2': 'Immunization Medication Information  ', 'template': '2.16.840.1.113883.10.20.22.4.54', 'pageStart': '567', 'pages': '567-573', 'search': 'Immunization Medication Information   2.16.840.1.113883.10.20.22.4.54 CONF:1098-9002;CONF:1098-9004;CONF:1098-10499;CONF:1098-32602;CONF:1098-9005;CONF:1098-9006;CONF:1098-9007;CONF:1098-31543;CONF:1098-31881;CONF:1098-9014;CONF:1098-9012' },</v>
       </c>
       <c r="N135" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.54',</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>276</v>
       </c>
@@ -12232,19 +11966,16 @@
       </c>
       <c r="M136" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '135', 'template_type': 'Entry', 'name': 'Immunization Refusal Reason  [2.16.840.1.113883.10.20.22.4.53[573-575', 'name2': 'Immunization Refusal Reason ', 'template': '2.16.840.1.113883.10.20.22.4.53', 'pageStart': '573', 'pages': '573-575', 'search': 'Immunization Refusal Reason  2.16.840.1.113883.10.20.22.4.53 CONF:81-8991;CONF:81-8992;CONF:81-8993;CONF:81-10500;CONF:81-8994;CONF:81-8995;CONF:81-8996;CONF:81-19104' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Immunization Refusal Reason  [2.16.840.1.113883.10.20.22.4.53[573-575', 'name2': 'Immunization Refusal Reason ', 'template': '2.16.840.1.113883.10.20.22.4.53', 'pageStart': '573', 'pages': '573-575', 'search': 'Immunization Refusal Reason  2.16.840.1.113883.10.20.22.4.53 CONF:81-8991;CONF:81-8992;CONF:81-8993;CONF:81-10500;CONF:81-8994;CONF:81-8995;CONF:81-8996;CONF:81-19104' },</v>
       </c>
       <c r="N136" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.53',</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>278</v>
+        <v>1907</v>
       </c>
       <c r="C137" t="s">
         <v>432</v>
@@ -12253,11 +11984,14 @@
         <v>279</v>
       </c>
       <c r="E137">
-        <v>575</v>
-      </c>
-      <c r="G137" s="3" t="str">
-        <f>VLOOKUP(D137,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>575-578</v>
+        <v>1133</v>
+      </c>
+      <c r="F137">
+        <v>1138</v>
+      </c>
+      <c r="G137" t="str">
+        <f>"CG_A_"&amp;E137-1000&amp;"-"&amp;F137-1000</f>
+        <v>CG_A_133-138</v>
       </c>
       <c r="H137" t="s">
         <v>834</v>
@@ -12270,21 +12004,18 @@
       </c>
       <c r="K137" t="str">
         <f t="shared" si="6"/>
-        <v>Indication   2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489</v>
+        <v>Indication  (Companion Guide) (Companion Guide) 2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489</v>
       </c>
       <c r="M137" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '136', 'template_type': 'Entry', 'name': 'Indication   [2.16.840.1.113883.10.20.22.4.19[575-578', 'name2': 'Indication  ', 'template': '2.16.840.1.113883.10.20.22.4.19', 'pageStart': '575', 'pages': '575-578', 'search': 'Indication   2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Indication  (Companion Guide) (Companion Guide) [2.16.840.1.113883.10.20.22.4.19[CG_A_133-138', 'name2': 'Indication  (Companion Guide) (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.19', 'pageStart': '1133', 'pages': 'CG_A_133-138', 'search': 'Indication  (Companion Guide) (Companion Guide) 2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489' },</v>
       </c>
       <c r="N137" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.19',</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>280</v>
       </c>
@@ -12316,17 +12047,14 @@
       </c>
       <c r="M138" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '137', 'template_type': 'Entry', 'name': 'Instruction  [2.16.840.1.113883.10.20.22.4.20[578-581', 'name2': 'Instruction ', 'template': '2.16.840.1.113883.10.20.22.4.20', 'pageStart': '578', 'pages': '578-581', 'search': 'Instruction  2.16.840.1.113883.10.20.22.4.20 CONF:1098-7391;CONF:1098-7392;CONF:1098-7393;CONF:1098-10503;CONF:1098-32598;CONF:1098-16884;CONF:1098-7396;CONF:1098-19106' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Instruction  [2.16.840.1.113883.10.20.22.4.20[578-581', 'name2': 'Instruction ', 'template': '2.16.840.1.113883.10.20.22.4.20', 'pageStart': '578', 'pages': '578-581', 'search': 'Instruction  2.16.840.1.113883.10.20.22.4.20 CONF:1098-7391;CONF:1098-7392;CONF:1098-7393;CONF:1098-10503;CONF:1098-32598;CONF:1098-16884;CONF:1098-7396;CONF:1098-19106' },</v>
       </c>
       <c r="N138" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.20',</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>282</v>
       </c>
@@ -12358,17 +12086,14 @@
       </c>
       <c r="M139" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '138', 'template_type': 'Entry', 'name': 'Intervention Act   [2.16.840.1.113883.10.20.22.4.131[581-590', 'name2': 'Intervention Act  ', 'template': '2.16.840.1.113883.10.20.22.4.131', 'pageStart': '581', 'pages': '581-590', 'search': 'Intervention Act   2.16.840.1.113883.10.20.22.4.131 CONF:1198-30971;CONF:1198-30972;CONF:1198-30973;CONF:1198-30974;CONF:1198-32916;CONF:1198-30975;CONF:1198-30976;CONF:1198-30977;CONF:1198-30978;CONF:1198-30979;CONF:1198-32316;CONF:1198-31624;CONF:1198-31552;CONF:1198-30980;CONF:1198-30981;CONF:1198-30982;CONF:1198-30984;CONF:1198-30985;CONF:1198-30986;CONF:1198-30988;CONF:1198-30989;CONF:1198-30990;CONF:1198-30991;CONF:1198-30992;CONF:1198-30993;CONF:1198-31154;CONF:1198-31155;CONF:1198-32460;CONF:1198-31164;CONF:1198-31165;CONF:1198-31166;CONF:1198-31168;CONF:1198-31169;CONF:1198-31170;CONF:1198-31171;CONF:1198-31172;CONF:1198-31173;CONF:1198-31174;CONF:1198-32956;CONF:1198-31176;CONF:1198-31177;CONF:1198-31178;CONF:1198-31179;CONF:1198-31413;CONF:1198-31414;CONF:1198-31545;CONF:1198-31554;CONF:1198-31555;CONF:1198-31621;CONF:1198-31622;CONF:1198-31623;CONF:1198-32459;CONF:1198-32317;CONF:1198-32318;CONF:1198-32319;CONF:1198-32914;CONF:1198-32773;CONF:1198-32915;CONF:1198-32760;CONF:1198-32761;CONF:1198-32762' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Intervention Act   [2.16.840.1.113883.10.20.22.4.131[581-590', 'name2': 'Intervention Act  ', 'template': '2.16.840.1.113883.10.20.22.4.131', 'pageStart': '581', 'pages': '581-590', 'search': 'Intervention Act   2.16.840.1.113883.10.20.22.4.131 CONF:1198-30971;CONF:1198-30972;CONF:1198-30973;CONF:1198-30974;CONF:1198-32916;CONF:1198-30975;CONF:1198-30976;CONF:1198-30977;CONF:1198-30978;CONF:1198-30979;CONF:1198-32316;CONF:1198-31624;CONF:1198-31552;CONF:1198-30980;CONF:1198-30981;CONF:1198-30982;CONF:1198-30984;CONF:1198-30985;CONF:1198-30986;CONF:1198-30988;CONF:1198-30989;CONF:1198-30990;CONF:1198-30991;CONF:1198-30992;CONF:1198-30993;CONF:1198-31154;CONF:1198-31155;CONF:1198-32460;CONF:1198-31164;CONF:1198-31165;CONF:1198-31166;CONF:1198-31168;CONF:1198-31169;CONF:1198-31170;CONF:1198-31171;CONF:1198-31172;CONF:1198-31173;CONF:1198-31174;CONF:1198-32956;CONF:1198-31176;CONF:1198-31177;CONF:1198-31178;CONF:1198-31179;CONF:1198-31413;CONF:1198-31414;CONF:1198-31545;CONF:1198-31554;CONF:1198-31555;CONF:1198-31621;CONF:1198-31622;CONF:1198-31623;CONF:1198-32459;CONF:1198-32317;CONF:1198-32318;CONF:1198-32319;CONF:1198-32914;CONF:1198-32773;CONF:1198-32915;CONF:1198-32760;CONF:1198-32761;CONF:1198-32762' },</v>
       </c>
       <c r="N139" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.131',</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>284</v>
       </c>
@@ -12400,17 +12125,14 @@
       </c>
       <c r="M140" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '139', 'template_type': 'Entry', 'name': 'Medical Equipment Organizer [2.16.840.1.113883.10.20.22.4.135[590-594', 'name2': 'Medical Equipment Organizer', 'template': '2.16.840.1.113883.10.20.22.4.135', 'pageStart': '590', 'pages': '590-594', 'search': 'Medical Equipment Organizer 2.16.840.1.113883.10.20.22.4.135 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Medical Equipment Organizer [2.16.840.1.113883.10.20.22.4.135[590-594', 'name2': 'Medical Equipment Organizer', 'template': '2.16.840.1.113883.10.20.22.4.135', 'pageStart': '590', 'pages': '590-594', 'search': 'Medical Equipment Organizer 2.16.840.1.113883.10.20.22.4.135 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
       </c>
       <c r="N140" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.135',</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>285</v>
       </c>
@@ -12442,19 +12164,16 @@
       </c>
       <c r="M141" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '140', 'template_type': 'Entry', 'name': 'Medication Activity  [2.16.840.1.113883.10.20.22.4.16[594-604', 'name2': 'Medication Activity ', 'template': '2.16.840.1.113883.10.20.22.4.16', 'pageStart': '594', 'pages': '594-604', 'search': 'Medication Activity  2.16.840.1.113883.10.20.22.4.16 CONF:1098-7496;CONF:1098-7497;CONF:1098-7499;CONF:1098-10504;CONF:1098-32498;CONF:1098-7500;CONF:1098-7506;CONF:1098-7507;CONF:1098-32360;CONF:1098-7508;CONF:1098-32775;CONF:1098-32776;CONF:1098-32777;CONF:1098-32890;CONF:1098-7513;CONF:1098-9106;CONF:1098-28499;CONF:1098-7555;CONF:1098-7514;CONF:1098-32950;CONF:1098-7515;CONF:1098-7516;CONF:1098-7526;CONF:1098-16878;CONF:1098-16879;CONF:1098-7517;CONF:1098-7525;CONF:1098-7518;CONF:1098-7519;CONF:1098-7520;CONF:1098-16085;CONF:1098-7522;CONF:1098-31150;CONF:1098-7523;CONF:1098-7524;CONF:1098-16086;CONF:1098-7536;CONF:1098-7537;CONF:1098-16087;CONF:1098-7539;CONF:1098-7540;CONF:1098-7542;CONF:1098-31387;CONF:1098-7543;CONF:1098-7547;CONF:1098-16089;CONF:1098-7549;CONF:1098-7553;CONF:1098-16090;CONF:1098-7552;CONF:1098-7544;CONF:1098-16091;CONF:1098-30820;CONF:1098-30821;CONF:1098-30822;CONF:1098-31515;CONF:1098-31516;CONF:1098-31517;CONF:1098-31518;CONF:1098-31519;CONF:1098-32907;CONF:1098-32908;CONF:1098-32909;CONF:1098-31520;CONF:1098-31882;CONF:1098-31883;CONF:1098-30800' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Medication Activity  [2.16.840.1.113883.10.20.22.4.16[594-604', 'name2': 'Medication Activity ', 'template': '2.16.840.1.113883.10.20.22.4.16', 'pageStart': '594', 'pages': '594-604', 'search': 'Medication Activity  2.16.840.1.113883.10.20.22.4.16 CONF:1098-7496;CONF:1098-7497;CONF:1098-7499;CONF:1098-10504;CONF:1098-32498;CONF:1098-7500;CONF:1098-7506;CONF:1098-7507;CONF:1098-32360;CONF:1098-7508;CONF:1098-32775;CONF:1098-32776;CONF:1098-32777;CONF:1098-32890;CONF:1098-7513;CONF:1098-9106;CONF:1098-28499;CONF:1098-7555;CONF:1098-7514;CONF:1098-32950;CONF:1098-7515;CONF:1098-7516;CONF:1098-7526;CONF:1098-16878;CONF:1098-16879;CONF:1098-7517;CONF:1098-7525;CONF:1098-7518;CONF:1098-7519;CONF:1098-7520;CONF:1098-16085;CONF:1098-7522;CONF:1098-31150;CONF:1098-7523;CONF:1098-7524;CONF:1098-16086;CONF:1098-7536;CONF:1098-7537;CONF:1098-16087;CONF:1098-7539;CONF:1098-7540;CONF:1098-7542;CONF:1098-31387;CONF:1098-7543;CONF:1098-7547;CONF:1098-16089;CONF:1098-7549;CONF:1098-7553;CONF:1098-16090;CONF:1098-7552;CONF:1098-7544;CONF:1098-16091;CONF:1098-30820;CONF:1098-30821;CONF:1098-30822;CONF:1098-31515;CONF:1098-31516;CONF:1098-31517;CONF:1098-31518;CONF:1098-31519;CONF:1098-32907;CONF:1098-32908;CONF:1098-32909;CONF:1098-31520;CONF:1098-31882;CONF:1098-31883;CONF:1098-30800' },</v>
       </c>
       <c r="N141" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.16',</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>287</v>
+        <v>1906</v>
       </c>
       <c r="C142" t="s">
         <v>432</v>
@@ -12463,11 +12182,14 @@
         <v>288</v>
       </c>
       <c r="E142">
-        <v>604</v>
-      </c>
-      <c r="G142" s="3" t="str">
-        <f>VLOOKUP(D142,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>604-607</v>
+        <v>1138</v>
+      </c>
+      <c r="F142">
+        <v>1144</v>
+      </c>
+      <c r="G142" t="str">
+        <f>"CG_A_"&amp;E142-1000&amp;"-"&amp;F142-1000</f>
+        <v>CG_A_138-144</v>
       </c>
       <c r="H142" t="s">
         <v>840</v>
@@ -12480,21 +12202,18 @@
       </c>
       <c r="K142" t="str">
         <f t="shared" si="6"/>
-        <v>Medication Dispense   2.16.840.1.113883.10.20.22.4.18 CONF:1098-7451;CONF:1098-7452;CONF:1098-7453;CONF:1098-10505;CONF:1098-32580;CONF:1098-7454;CONF:1098-7455;CONF:1098-32361;CONF:1098-7456;CONF:1098-7457;CONF:1098-7458;CONF:1098-7459;CONF:1098-15607;CONF:1098-9331;CONF:1098-31696;CONF:1098-7461;CONF:1098-7467;CONF:1098-7468;CONF:1098-10565;CONF:1098-7473;CONF:1098-7474;CONF:1098-15606;CONF:1098-9333</v>
+        <v>Medication Dispense (Companion Guide) 2.16.840.1.113883.10.20.22.4.18 CONF:1098-7451;CONF:1098-7452;CONF:1098-7453;CONF:1098-10505;CONF:1098-32580;CONF:1098-7454;CONF:1098-7455;CONF:1098-32361;CONF:1098-7456;CONF:1098-7457;CONF:1098-7458;CONF:1098-7459;CONF:1098-15607;CONF:1098-9331;CONF:1098-31696;CONF:1098-7461;CONF:1098-7467;CONF:1098-7468;CONF:1098-10565;CONF:1098-7473;CONF:1098-7474;CONF:1098-15606;CONF:1098-9333</v>
       </c>
       <c r="M142" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '141', 'template_type': 'Entry', 'name': 'Medication Dispense   [2.16.840.1.113883.10.20.22.4.18[604-607', 'name2': 'Medication Dispense  ', 'template': '2.16.840.1.113883.10.20.22.4.18', 'pageStart': '604', 'pages': '604-607', 'search': 'Medication Dispense   2.16.840.1.113883.10.20.22.4.18 CONF:1098-7451;CONF:1098-7452;CONF:1098-7453;CONF:1098-10505;CONF:1098-32580;CONF:1098-7454;CONF:1098-7455;CONF:1098-32361;CONF:1098-7456;CONF:1098-7457;CONF:1098-7458;CONF:1098-7459;CONF:1098-15607;CONF:1098-9331;CONF:1098-31696;CONF:1098-7461;CONF:1098-7467;CONF:1098-7468;CONF:1098-10565;CONF:1098-7473;CONF:1098-7474;CONF:1098-15606;CONF:1098-9333' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Medication Dispense (Companion Guide) [2.16.840.1.113883.10.20.22.4.18[CG_A_138-144', 'name2': 'Medication Dispense (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.18', 'pageStart': '1138', 'pages': 'CG_A_138-144', 'search': 'Medication Dispense (Companion Guide) 2.16.840.1.113883.10.20.22.4.18 CONF:1098-7451;CONF:1098-7452;CONF:1098-7453;CONF:1098-10505;CONF:1098-32580;CONF:1098-7454;CONF:1098-7455;CONF:1098-32361;CONF:1098-7456;CONF:1098-7457;CONF:1098-7458;CONF:1098-7459;CONF:1098-15607;CONF:1098-9331;CONF:1098-31696;CONF:1098-7461;CONF:1098-7467;CONF:1098-7468;CONF:1098-10565;CONF:1098-7473;CONF:1098-7474;CONF:1098-15606;CONF:1098-9333' },</v>
       </c>
       <c r="N142" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.18',</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>289</v>
       </c>
@@ -12526,17 +12245,14 @@
       </c>
       <c r="M143" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '142', 'template_type': 'Entry', 'name': 'Medication Free Text Sig  [2.16.840.1.113883.10.20.22.4.147[607-609', 'name2': 'Medication Free Text Sig ', 'template': '2.16.840.1.113883.10.20.22.4.147', 'pageStart': '607', 'pages': '607-609', 'search': 'Medication Free Text Sig  2.16.840.1.113883.10.20.22.4.147 CONF:81-32770;CONF:81-32771;CONF:81-32753;CONF:81-32772;CONF:81-32775;CONF:81-32780;CONF:81-32781;CONF:81-32754;CONF:81-32755;CONF:81-32756;CONF:81-32774;CONF:81-32776;CONF:81-32777;CONF:81-32778;CONF:81-32779' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Medication Free Text Sig  [2.16.840.1.113883.10.20.22.4.147[607-609', 'name2': 'Medication Free Text Sig ', 'template': '2.16.840.1.113883.10.20.22.4.147', 'pageStart': '607', 'pages': '607-609', 'search': 'Medication Free Text Sig  2.16.840.1.113883.10.20.22.4.147 CONF:81-32770;CONF:81-32771;CONF:81-32753;CONF:81-32772;CONF:81-32775;CONF:81-32780;CONF:81-32781;CONF:81-32754;CONF:81-32755;CONF:81-32756;CONF:81-32774;CONF:81-32776;CONF:81-32777;CONF:81-32778;CONF:81-32779' },</v>
       </c>
       <c r="N143" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.147',</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>291</v>
       </c>
@@ -12568,17 +12284,14 @@
       </c>
       <c r="M144" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '143', 'template_type': 'Entry', 'name': 'Medication Information   [2.16.840.1.113883.10.20.22.4.23[609-617', 'name2': 'Medication Information  ', 'template': '2.16.840.1.113883.10.20.22.4.23', 'pageStart': '609', 'pages': '609-617', 'search': 'Medication Information   2.16.840.1.113883.10.20.22.4.23 CONF:1098-7408;CONF:1098-7409;CONF:1098-10506;CONF:1098-32579;CONF:1098-7410;CONF:1098-7411;CONF:1098-7412;CONF:1098-31884;CONF:1098-7416' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Medication Information   [2.16.840.1.113883.10.20.22.4.23[609-617', 'name2': 'Medication Information  ', 'template': '2.16.840.1.113883.10.20.22.4.23', 'pageStart': '609', 'pages': '609-617', 'search': 'Medication Information   2.16.840.1.113883.10.20.22.4.23 CONF:1098-7408;CONF:1098-7409;CONF:1098-10506;CONF:1098-32579;CONF:1098-7410;CONF:1098-7411;CONF:1098-7412;CONF:1098-31884;CONF:1098-7416' },</v>
       </c>
       <c r="N144" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.23',</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>293</v>
       </c>
@@ -12610,17 +12323,14 @@
       </c>
       <c r="M145" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '144', 'template_type': 'Entry', 'name': 'Medication Supply Order  [2.16.840.1.113883.10.20.22.4.17[617-620', 'name2': 'Medication Supply Order ', 'template': '2.16.840.1.113883.10.20.22.4.17', 'pageStart': '617', 'pages': '617-620', 'search': 'Medication Supply Order  2.16.840.1.113883.10.20.22.4.17 CONF:1098-7427;CONF:1098-7428;CONF:1098-7429;CONF:1098-10507;CONF:1098-32578;CONF:1098-7430;CONF:1098-7432;CONF:1098-32362;CONF:1098-15143;CONF:1098-15144;CONF:1098-7434;CONF:1098-7436;CONF:1098-7439;CONF:1098-16093;CONF:1098-9334;CONF:1098-31695;CONF:1098-16870;CONF:1098-7438;CONF:1098-7442;CONF:1098-7444;CONF:1098-7445;CONF:1098-31391' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Medication Supply Order  [2.16.840.1.113883.10.20.22.4.17[617-620', 'name2': 'Medication Supply Order ', 'template': '2.16.840.1.113883.10.20.22.4.17', 'pageStart': '617', 'pages': '617-620', 'search': 'Medication Supply Order  2.16.840.1.113883.10.20.22.4.17 CONF:1098-7427;CONF:1098-7428;CONF:1098-7429;CONF:1098-10507;CONF:1098-32578;CONF:1098-7430;CONF:1098-7432;CONF:1098-32362;CONF:1098-15143;CONF:1098-15144;CONF:1098-7434;CONF:1098-7436;CONF:1098-7439;CONF:1098-16093;CONF:1098-9334;CONF:1098-31695;CONF:1098-16870;CONF:1098-7438;CONF:1098-7442;CONF:1098-7444;CONF:1098-7445;CONF:1098-31391' },</v>
       </c>
       <c r="N145" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.17',</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>295</v>
       </c>
@@ -12652,17 +12362,14 @@
       </c>
       <c r="M146" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '145', 'template_type': 'Entry', 'name': 'Mental Status Observation   [2.16.840.1.113883.10.20.22.4.74[620-625', 'name2': 'Mental Status Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.74', 'pageStart': '620', 'pages': '620-625', 'search': 'Mental Status Observation   2.16.840.1.113883.10.20.22.4.74 CONF:1198-14249;CONF:1198-14250;CONF:1198-14255;CONF:1198-14256;CONF:1198-32565;CONF:1198-14257;CONF:1198-14591;CONF:1198-32788;CONF:1198-32789;CONF:1198-32790;CONF:1198-32791;CONF:1198-32792;CONF:1198-14254;CONF:1198-19092;CONF:1198-14261;CONF:1198-14263;CONF:1198-14271;CONF:1198-14266;CONF:1198-14469;CONF:1198-14595;CONF:1198-14470;CONF:1198-14267' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Mental Status Observation   [2.16.840.1.113883.10.20.22.4.74[620-625', 'name2': 'Mental Status Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.74', 'pageStart': '620', 'pages': '620-625', 'search': 'Mental Status Observation   2.16.840.1.113883.10.20.22.4.74 CONF:1198-14249;CONF:1198-14250;CONF:1198-14255;CONF:1198-14256;CONF:1198-32565;CONF:1198-14257;CONF:1198-14591;CONF:1198-32788;CONF:1198-32789;CONF:1198-32790;CONF:1198-32791;CONF:1198-32792;CONF:1198-14254;CONF:1198-19092;CONF:1198-14261;CONF:1198-14263;CONF:1198-14271;CONF:1198-14266;CONF:1198-14469;CONF:1198-14595;CONF:1198-14470;CONF:1198-14267' },</v>
       </c>
       <c r="N146" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.74',</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>297</v>
       </c>
@@ -12694,17 +12401,14 @@
       </c>
       <c r="M147" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '146', 'template_type': 'Entry', 'name': 'Mental Status Organizer  [2.16.840.1.113883.10.20.22.4.75[625-628', 'name2': 'Mental Status Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.75', 'pageStart': '625', 'pages': '625-628', 'search': 'Mental Status Organizer  2.16.840.1.113883.10.20.22.4.75 CONF:1198-14369;CONF:1198-14371;CONF:1198-14375;CONF:1198-14376;CONF:1198-32566;CONF:1198-14377;CONF:1198-14378;CONF:1198-14697;CONF:1198-14698;CONF:1198-14372;CONF:1198-19093;CONF:1198-32424;CONF:1198-32426;CONF:1198-14373;CONF:1198-14381' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Mental Status Organizer  [2.16.840.1.113883.10.20.22.4.75[625-628', 'name2': 'Mental Status Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.75', 'pageStart': '625', 'pages': '625-628', 'search': 'Mental Status Organizer  2.16.840.1.113883.10.20.22.4.75 CONF:1198-14369;CONF:1198-14371;CONF:1198-14375;CONF:1198-14376;CONF:1198-32566;CONF:1198-14377;CONF:1198-14378;CONF:1198-14697;CONF:1198-14698;CONF:1198-14372;CONF:1198-19093;CONF:1198-32424;CONF:1198-32426;CONF:1198-14373;CONF:1198-14381' },</v>
       </c>
       <c r="N147" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.75',</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>299</v>
       </c>
@@ -12736,17 +12440,14 @@
       </c>
       <c r="M148" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '147', 'template_type': 'Entry', 'name': 'Non-Medicinal Supply Activity  [2.16.840.1.113883.10.20.22.4.50[628-631', 'name2': 'Non-Medicinal Supply Activity ', 'template': '2.16.840.1.113883.10.20.22.4.50', 'pageStart': '628', 'pages': '628-631', 'search': 'Non-Medicinal Supply Activity  2.16.840.1.113883.10.20.22.4.50 CONF:1098-8745;CONF:1098-8746;CONF:1098-8747;CONF:1098-10509;CONF:1098-32514;CONF:1098-8748;CONF:1098-8749;CONF:1098-32363;CONF:1098-15498;CONF:1098-16867;CONF:1098-8751;CONF:1098-8752;CONF:1098-8754;CONF:1098-15900;CONF:1098-30277;CONF:1098-30278;CONF:1098-30279;CONF:1098-31393' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Non-Medicinal Supply Activity  [2.16.840.1.113883.10.20.22.4.50[628-631', 'name2': 'Non-Medicinal Supply Activity ', 'template': '2.16.840.1.113883.10.20.22.4.50', 'pageStart': '628', 'pages': '628-631', 'search': 'Non-Medicinal Supply Activity  2.16.840.1.113883.10.20.22.4.50 CONF:1098-8745;CONF:1098-8746;CONF:1098-8747;CONF:1098-10509;CONF:1098-32514;CONF:1098-8748;CONF:1098-8749;CONF:1098-32363;CONF:1098-15498;CONF:1098-16867;CONF:1098-8751;CONF:1098-8752;CONF:1098-8754;CONF:1098-15900;CONF:1098-30277;CONF:1098-30278;CONF:1098-30279;CONF:1098-31393' },</v>
       </c>
       <c r="N148" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.50',</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>301</v>
       </c>
@@ -12778,17 +12479,14 @@
       </c>
       <c r="M149" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '148', 'template_type': 'Entry', 'name': 'Number of Pressure Ulcers Observation  [2.16.840.1.113883.10.20.22.4.76[631-635', 'name2': 'Number of Pressure Ulcers Observation ', 'template': '2.16.840.1.113883.10.20.22.4.76', 'pageStart': '631', 'pages': '631-635', 'search': 'Number of Pressure Ulcers Observation  2.16.840.1.113883.10.20.22.4.76 CONF:1198-14705;CONF:1198-14706;CONF:1198-14707;CONF:1198-14708;CONF:1198-32604;CONF:1198-14709;CONF:1198-14767;CONF:1198-14768;CONF:1198-32164;CONF:1198-32849;CONF:1198-32850;CONF:1198-32851;CONF:1198-14714;CONF:1198-19108;CONF:1198-14715;CONF:1198-14771;CONF:1198-14717;CONF:1198-14718;CONF:1198-14719;CONF:1198-14720;CONF:1198-14721;CONF:1198-14722;CONF:1198-31930;CONF:1198-14725' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Number of Pressure Ulcers Observation  [2.16.840.1.113883.10.20.22.4.76[631-635', 'name2': 'Number of Pressure Ulcers Observation ', 'template': '2.16.840.1.113883.10.20.22.4.76', 'pageStart': '631', 'pages': '631-635', 'search': 'Number of Pressure Ulcers Observation  2.16.840.1.113883.10.20.22.4.76 CONF:1198-14705;CONF:1198-14706;CONF:1198-14707;CONF:1198-14708;CONF:1198-32604;CONF:1198-14709;CONF:1198-14767;CONF:1198-14768;CONF:1198-32164;CONF:1198-32849;CONF:1198-32850;CONF:1198-32851;CONF:1198-14714;CONF:1198-19108;CONF:1198-14715;CONF:1198-14771;CONF:1198-14717;CONF:1198-14718;CONF:1198-14719;CONF:1198-14720;CONF:1198-14721;CONF:1198-14722;CONF:1198-31930;CONF:1198-14725' },</v>
       </c>
       <c r="N149" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.76',</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>303</v>
       </c>
@@ -12820,17 +12518,14 @@
       </c>
       <c r="M150" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '149', 'template_type': 'Entry', 'name': 'Nutrition Assessment [2.16.840.1.113883.10.20.22.4.138[635-638', 'name2': 'Nutrition Assessment', 'template': '2.16.840.1.113883.10.20.22.4.138', 'pageStart': '635', 'pages': '635-638', 'search': 'Nutrition Assessment 2.16.840.1.113883.10.20.22.4.138 CONF:1098-32914;CONF:1098-32915;CONF:1098-32916;CONF:1098-32917;CONF:1098-32918;CONF:1098-32919;CONF:1098-32926;CONF:1098-32927;CONF:1098-32920;CONF:1098-32921;CONF:1098-32923;CONF:1098-32922;CONF:1098-32925;CONF:1098-32924' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Nutrition Assessment [2.16.840.1.113883.10.20.22.4.138[635-638', 'name2': 'Nutrition Assessment', 'template': '2.16.840.1.113883.10.20.22.4.138', 'pageStart': '635', 'pages': '635-638', 'search': 'Nutrition Assessment 2.16.840.1.113883.10.20.22.4.138 CONF:1098-32914;CONF:1098-32915;CONF:1098-32916;CONF:1098-32917;CONF:1098-32918;CONF:1098-32919;CONF:1098-32926;CONF:1098-32927;CONF:1098-32920;CONF:1098-32921;CONF:1098-32923;CONF:1098-32922;CONF:1098-32925;CONF:1098-32924' },</v>
       </c>
       <c r="N150" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.138',</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
-      </c>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>305</v>
       </c>
@@ -12862,17 +12557,14 @@
       </c>
       <c r="M151" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '150', 'template_type': 'Entry', 'name': 'Nutrition Recommendation [2.16.840.1.113883.10.20.22.4.130[638-643', 'name2': 'Nutrition Recommendation', 'template': '2.16.840.1.113883.10.20.22.4.130', 'pageStart': '638', 'pages': '638-643', 'search': 'Nutrition Recommendation 2.16.840.1.113883.10.20.22.4.130 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Nutrition Recommendation [2.16.840.1.113883.10.20.22.4.130[638-643', 'name2': 'Nutrition Recommendation', 'template': '2.16.840.1.113883.10.20.22.4.130', 'pageStart': '638', 'pages': '638-643', 'search': 'Nutrition Recommendation 2.16.840.1.113883.10.20.22.4.130 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
       </c>
       <c r="N151" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.130',</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>306</v>
       </c>
@@ -12904,17 +12596,14 @@
       </c>
       <c r="M152" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '151', 'template_type': 'Entry', 'name': 'Nutritional Status Observation [2.16.840.1.113883.10.20.22.4.124[643-647', 'name2': 'Nutritional Status Observation', 'template': '2.16.840.1.113883.10.20.22.4.124', 'pageStart': '643', 'pages': '643-647', 'search': 'Nutritional Status Observation 2.16.840.1.113883.10.20.22.4.124 CONF:1098-29841;CONF:1098-29842;CONF:1098-29843;CONF:1098-29844;CONF:1098-29845;CONF:1098-29846;CONF:1098-29897;CONF:1098-29898;CONF:1098-29852;CONF:1098-29853;CONF:1098-31867;CONF:1098-29854;CONF:1098-30323;CONF:1098-30335;CONF:1098-30336' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Nutritional Status Observation [2.16.840.1.113883.10.20.22.4.124[643-647', 'name2': 'Nutritional Status Observation', 'template': '2.16.840.1.113883.10.20.22.4.124', 'pageStart': '643', 'pages': '643-647', 'search': 'Nutritional Status Observation 2.16.840.1.113883.10.20.22.4.124 CONF:1098-29841;CONF:1098-29842;CONF:1098-29843;CONF:1098-29844;CONF:1098-29845;CONF:1098-29846;CONF:1098-29897;CONF:1098-29898;CONF:1098-29852;CONF:1098-29853;CONF:1098-31867;CONF:1098-29854;CONF:1098-30323;CONF:1098-30335;CONF:1098-30336' },</v>
       </c>
       <c r="N152" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.124',</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>308</v>
       </c>
@@ -12946,17 +12635,14 @@
       </c>
       <c r="M153" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '152', 'template_type': 'Entry', 'name': 'Outcome Observation [2.16.840.1.113883.10.20.22.4.144[647-651', 'name2': 'Outcome Observation', 'template': '2.16.840.1.113883.10.20.22.4.144', 'pageStart': '647', 'pages': '647-651', 'search': 'Outcome Observation 2.16.840.1.113883.10.20.22.4.144 CONF:1098-31219;CONF:1098-31220;CONF:1098-31221;CONF:1098-31222;CONF:1098-31223;CONF:1098-32746;CONF:1098-32747;CONF:1098-31553;CONF:1098-31224;CONF:1098-31225;CONF:1098-32465;CONF:1098-32461;CONF:1098-31427;CONF:1098-31428;CONF:1098-31429;CONF:1098-31430;CONF:1098-31688;CONF:1098-31689;CONF:1098-31690;CONF:1098-32462;CONF:1098-32763;CONF:1098-32764;CONF:1098-32765;CONF:1098-32782' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Outcome Observation [2.16.840.1.113883.10.20.22.4.144[647-651', 'name2': 'Outcome Observation', 'template': '2.16.840.1.113883.10.20.22.4.144', 'pageStart': '647', 'pages': '647-651', 'search': 'Outcome Observation 2.16.840.1.113883.10.20.22.4.144 CONF:1098-31219;CONF:1098-31220;CONF:1098-31221;CONF:1098-31222;CONF:1098-31223;CONF:1098-32746;CONF:1098-32747;CONF:1098-31553;CONF:1098-31224;CONF:1098-31225;CONF:1098-32465;CONF:1098-32461;CONF:1098-31427;CONF:1098-31428;CONF:1098-31429;CONF:1098-31430;CONF:1098-31688;CONF:1098-31689;CONF:1098-31690;CONF:1098-32462;CONF:1098-32763;CONF:1098-32764;CONF:1098-32765;CONF:1098-32782' },</v>
       </c>
       <c r="N153" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.144',</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>310</v>
       </c>
@@ -12988,17 +12674,14 @@
       </c>
       <c r="M154" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '153', 'template_type': 'Entry', 'name': 'Patient Referral Act  [2.16.840.1.113883.10.20.22.4.140[651-660', 'name2': 'Patient Referral Act ', 'template': '2.16.840.1.113883.10.20.22.4.140', 'pageStart': '651', 'pages': '651-660', 'search': 'Patient Referral Act  2.16.840.1.113883.10.20.22.4.140 CONF:1098-30884;CONF:1098-30885;CONF:1098-30886;CONF:1098-30887;CONF:1098-30888;CONF:1098-30889;CONF:1098-30892;CONF:1098-31598;CONF:1098-30893;CONF:1098-32623;CONF:1098-31612;CONF:1098-32635;CONF:1098-32638;CONF:1098-32636;CONF:1098-32637;CONF:1098-31604;CONF:1098-31613;CONF:1098-31605;CONF:1098-31606;CONF:1098-31607;CONF:1098-31608;CONF:1098-31619;CONF:1098-31620;CONF:1098-31614;CONF:1098-31615;CONF:1098-32443;CONF:1098-31611;CONF:1098-31635;CONF:1098-31636;CONF:1098-32634' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Patient Referral Act  [2.16.840.1.113883.10.20.22.4.140[651-660', 'name2': 'Patient Referral Act ', 'template': '2.16.840.1.113883.10.20.22.4.140', 'pageStart': '651', 'pages': '651-660', 'search': 'Patient Referral Act  2.16.840.1.113883.10.20.22.4.140 CONF:1098-30884;CONF:1098-30885;CONF:1098-30886;CONF:1098-30887;CONF:1098-30888;CONF:1098-30889;CONF:1098-30892;CONF:1098-31598;CONF:1098-30893;CONF:1098-32623;CONF:1098-31612;CONF:1098-32635;CONF:1098-32638;CONF:1098-32636;CONF:1098-32637;CONF:1098-31604;CONF:1098-31613;CONF:1098-31605;CONF:1098-31606;CONF:1098-31607;CONF:1098-31608;CONF:1098-31619;CONF:1098-31620;CONF:1098-31614;CONF:1098-31615;CONF:1098-32443;CONF:1098-31611;CONF:1098-31635;CONF:1098-31636;CONF:1098-32634' },</v>
       </c>
       <c r="N154" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.140',</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>312</v>
       </c>
@@ -13030,17 +12713,14 @@
       </c>
       <c r="M155" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '154', 'template_type': 'Entry', 'name': 'Planned Act   [2.16.840.1.113883.10.20.22.4.39[660-663', 'name2': 'Planned Act  ', 'template': '2.16.840.1.113883.10.20.22.4.39', 'pageStart': '660', 'pages': '660-663', 'search': 'Planned Act   2.16.840.1.113883.10.20.22.4.39 CONF:1098-8538;CONF:1098-8539;CONF:1098-30430;CONF:1098-30431;CONF:1098-32552;CONF:1098-8546;CONF:1098-31687;CONF:1098-32030;CONF:1098-30432;CONF:1098-32019;CONF:1098-30433;CONF:1098-30435;CONF:1098-32020;CONF:1098-31067;CONF:1098-31068;CONF:1098-31069;CONF:1098-32021;CONF:1098-32022;CONF:1098-32023;CONF:1098-32024;CONF:1098-32025;CONF:1098-32026' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Planned Act   [2.16.840.1.113883.10.20.22.4.39[660-663', 'name2': 'Planned Act  ', 'template': '2.16.840.1.113883.10.20.22.4.39', 'pageStart': '660', 'pages': '660-663', 'search': 'Planned Act   2.16.840.1.113883.10.20.22.4.39 CONF:1098-8538;CONF:1098-8539;CONF:1098-30430;CONF:1098-30431;CONF:1098-32552;CONF:1098-8546;CONF:1098-31687;CONF:1098-32030;CONF:1098-30432;CONF:1098-32019;CONF:1098-30433;CONF:1098-30435;CONF:1098-32020;CONF:1098-31067;CONF:1098-31068;CONF:1098-31069;CONF:1098-32021;CONF:1098-32022;CONF:1098-32023;CONF:1098-32024;CONF:1098-32025;CONF:1098-32026' },</v>
       </c>
       <c r="N155" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.39',</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>314</v>
       </c>
@@ -13072,17 +12752,14 @@
       </c>
       <c r="M156" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '155', 'template_type': 'Entry', 'name': 'Planned Coverage [2.16.840.1.113883.10.20.22.4.129[663-667', 'name2': 'Planned Coverage', 'template': '2.16.840.1.113883.10.20.22.4.129', 'pageStart': '663', 'pages': '663-667', 'search': 'Planned Coverage 2.16.840.1.113883.10.20.22.4.129 CONF:1098-31945;CONF:1098-31946;CONF:1098-31947;CONF:1098-31948;CONF:1098-31950;CONF:1098-31951;CONF:1098-31952;CONF:1098-31953;CONF:1098-31954;CONF:1098-31955;CONF:1098-32178;CONF:1098-31967;CONF:1098-31968;CONF:1098-31969;CONF:1098-31970;CONF:1098-31971;CONF:1098-31972;CONF:1098-31973;CONF:1098-31974;CONF:1098-31975' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Planned Coverage [2.16.840.1.113883.10.20.22.4.129[663-667', 'name2': 'Planned Coverage', 'template': '2.16.840.1.113883.10.20.22.4.129', 'pageStart': '663', 'pages': '663-667', 'search': 'Planned Coverage 2.16.840.1.113883.10.20.22.4.129 CONF:1098-31945;CONF:1098-31946;CONF:1098-31947;CONF:1098-31948;CONF:1098-31950;CONF:1098-31951;CONF:1098-31952;CONF:1098-31953;CONF:1098-31954;CONF:1098-31955;CONF:1098-32178;CONF:1098-31967;CONF:1098-31968;CONF:1098-31969;CONF:1098-31970;CONF:1098-31971;CONF:1098-31972;CONF:1098-31973;CONF:1098-31974;CONF:1098-31975' },</v>
       </c>
       <c r="N156" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.129',</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>316</v>
       </c>
@@ -13114,17 +12791,14 @@
       </c>
       <c r="M157" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '156', 'template_type': 'Entry', 'name': 'Planned Encounter   [2.16.840.1.113883.10.20.22.4.40[667-671', 'name2': 'Planned Encounter  ', 'template': '2.16.840.1.113883.10.20.22.4.40', 'pageStart': '667', 'pages': '667-671', 'search': 'Planned Encounter   2.16.840.1.113883.10.20.22.4.40 CONF:1098-8564;CONF:1098-8565;CONF:1098-30437;CONF:1098-30438;CONF:1098-32553;CONF:1098-8567;CONF:1098-31032;CONF:1098-30439;CONF:1098-31880;CONF:1098-30440;CONF:1098-30442;CONF:1098-31874;CONF:1098-32045;CONF:1098-30443;CONF:1098-31875;CONF:1098-31876;CONF:1098-31033;CONF:1098-31034;CONF:1098-31035;CONF:1098-31877;CONF:1098-31878;CONF:1098-31879' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Planned Encounter   [2.16.840.1.113883.10.20.22.4.40[667-671', 'name2': 'Planned Encounter  ', 'template': '2.16.840.1.113883.10.20.22.4.40', 'pageStart': '667', 'pages': '667-671', 'search': 'Planned Encounter   2.16.840.1.113883.10.20.22.4.40 CONF:1098-8564;CONF:1098-8565;CONF:1098-30437;CONF:1098-30438;CONF:1098-32553;CONF:1098-8567;CONF:1098-31032;CONF:1098-30439;CONF:1098-31880;CONF:1098-30440;CONF:1098-30442;CONF:1098-31874;CONF:1098-32045;CONF:1098-30443;CONF:1098-31875;CONF:1098-31876;CONF:1098-31033;CONF:1098-31034;CONF:1098-31035;CONF:1098-31877;CONF:1098-31878;CONF:1098-31879' },</v>
       </c>
       <c r="N157" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.40',</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>318</v>
       </c>
@@ -13156,17 +12830,14 @@
       </c>
       <c r="M158" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '157', 'template_type': 'Entry', 'name': 'Planned Immunization Activity  [2.16.840.1.113883.10.20.22.4.120[671-677', 'name2': 'Planned Immunization Activity ', 'template': '2.16.840.1.113883.10.20.22.4.120', 'pageStart': '671', 'pages': '671-677', 'search': 'Planned Immunization Activity  2.16.840.1.113883.10.20.22.4.120 CONF:1098-32091;CONF:1098-32097;CONF:1098-32098;CONF:1098-32099;CONF:1098-32100;CONF:1098-32101;CONF:1098-32102;CONF:1098-32103;CONF:1098-32126;CONF:1098-32127;CONF:1098-32951;CONF:1098-32128;CONF:1098-32129;CONF:1098-32130;CONF:1098-32131;CONF:1098-32132;CONF:1098-32104;CONF:1098-32105;CONF:1098-32108;CONF:1098-32109;CONF:1098-32110;CONF:1098-32114;CONF:1098-32115;CONF:1098-32116;CONF:1098-32117;CONF:1098-32118;CONF:1098-32119;CONF:1098-32123;CONF:1098-32124;CONF:1098-32125' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Planned Immunization Activity  [2.16.840.1.113883.10.20.22.4.120[671-677', 'name2': 'Planned Immunization Activity ', 'template': '2.16.840.1.113883.10.20.22.4.120', 'pageStart': '671', 'pages': '671-677', 'search': 'Planned Immunization Activity  2.16.840.1.113883.10.20.22.4.120 CONF:1098-32091;CONF:1098-32097;CONF:1098-32098;CONF:1098-32099;CONF:1098-32100;CONF:1098-32101;CONF:1098-32102;CONF:1098-32103;CONF:1098-32126;CONF:1098-32127;CONF:1098-32951;CONF:1098-32128;CONF:1098-32129;CONF:1098-32130;CONF:1098-32131;CONF:1098-32132;CONF:1098-32104;CONF:1098-32105;CONF:1098-32108;CONF:1098-32109;CONF:1098-32110;CONF:1098-32114;CONF:1098-32115;CONF:1098-32116;CONF:1098-32117;CONF:1098-32118;CONF:1098-32119;CONF:1098-32123;CONF:1098-32124;CONF:1098-32125' },</v>
       </c>
       <c r="N158" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.120',</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>320</v>
       </c>
@@ -13198,17 +12869,14 @@
       </c>
       <c r="M159" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '158', 'template_type': 'Entry', 'name': 'Planned Intervention Act   [2.16.840.1.113883.10.20.22.4.146[677-686', 'name2': 'Planned Intervention Act  ', 'template': '2.16.840.1.113883.10.20.22.4.146', 'pageStart': '677', 'pages': '677-686', 'search': 'Planned Intervention Act   2.16.840.1.113883.10.20.22.4.146 CONF:1198-32678;CONF:1198-32679;CONF:1198-32653;CONF:1198-32680;CONF:1198-32912;CONF:1198-32681;CONF:1198-32654;CONF:1198-32682;CONF:1198-32683;CONF:1198-32655;CONF:1198-32684;CONF:1198-32723;CONF:1198-32719;CONF:1198-32652;CONF:1198-32685;CONF:1198-32677;CONF:1198-32656;CONF:1198-32686;CONF:1198-32687;CONF:1198-32657;CONF:1198-32688;CONF:1198-32689;CONF:1198-32658;CONF:1198-32690;CONF:1198-32691;CONF:1198-32659;CONF:1198-32692;CONF:1198-32693;CONF:1198-32660;CONF:1198-32694;CONF:1198-32695;CONF:1198-32661;CONF:1198-32696;CONF:1198-32697;CONF:1198-32662;CONF:1198-32698;CONF:1198-32699;CONF:1198-32663;CONF:1198-32957;CONF:1198-32701;CONF:1198-32664;CONF:1198-32702;CONF:1198-32703;CONF:1198-32665;CONF:1198-32704;CONF:1198-32705;CONF:1198-32666;CONF:1198-32706;CONF:1198-32707;CONF:1198-32667;CONF:1198-32708;CONF:1198-32709;CONF:1198-32668;CONF:1198-32710;CONF:1198-32711;CONF:1198-32669;CONF:1198-32712;CONF:1198-32713;CONF:1198-32670;CONF:1198-32714;CONF:1198-32715;CONF:1198-32671;CONF:1198-32716;CONF:1198-32672;CONF:1198-32717;CONF:1198-32718;CONF:1198-32673;CONF:1198-32720;CONF:1198-32721;CONF:1198-32722;CONF:1198-32675;CONF:1198-32726;CONF:1198-32727;CONF:1198-32676;CONF:1198-32728;CONF:1198-32729;CONF:1198-32766;CONF:1198-32767;CONF:1198-32768' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Planned Intervention Act   [2.16.840.1.113883.10.20.22.4.146[677-686', 'name2': 'Planned Intervention Act  ', 'template': '2.16.840.1.113883.10.20.22.4.146', 'pageStart': '677', 'pages': '677-686', 'search': 'Planned Intervention Act   2.16.840.1.113883.10.20.22.4.146 CONF:1198-32678;CONF:1198-32679;CONF:1198-32653;CONF:1198-32680;CONF:1198-32912;CONF:1198-32681;CONF:1198-32654;CONF:1198-32682;CONF:1198-32683;CONF:1198-32655;CONF:1198-32684;CONF:1198-32723;CONF:1198-32719;CONF:1198-32652;CONF:1198-32685;CONF:1198-32677;CONF:1198-32656;CONF:1198-32686;CONF:1198-32687;CONF:1198-32657;CONF:1198-32688;CONF:1198-32689;CONF:1198-32658;CONF:1198-32690;CONF:1198-32691;CONF:1198-32659;CONF:1198-32692;CONF:1198-32693;CONF:1198-32660;CONF:1198-32694;CONF:1198-32695;CONF:1198-32661;CONF:1198-32696;CONF:1198-32697;CONF:1198-32662;CONF:1198-32698;CONF:1198-32699;CONF:1198-32663;CONF:1198-32957;CONF:1198-32701;CONF:1198-32664;CONF:1198-32702;CONF:1198-32703;CONF:1198-32665;CONF:1198-32704;CONF:1198-32705;CONF:1198-32666;CONF:1198-32706;CONF:1198-32707;CONF:1198-32667;CONF:1198-32708;CONF:1198-32709;CONF:1198-32668;CONF:1198-32710;CONF:1198-32711;CONF:1198-32669;CONF:1198-32712;CONF:1198-32713;CONF:1198-32670;CONF:1198-32714;CONF:1198-32715;CONF:1198-32671;CONF:1198-32716;CONF:1198-32672;CONF:1198-32717;CONF:1198-32718;CONF:1198-32673;CONF:1198-32720;CONF:1198-32721;CONF:1198-32722;CONF:1198-32675;CONF:1198-32726;CONF:1198-32727;CONF:1198-32676;CONF:1198-32728;CONF:1198-32729;CONF:1198-32766;CONF:1198-32767;CONF:1198-32768' },</v>
       </c>
       <c r="N159" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.146',</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>322</v>
       </c>
@@ -13240,17 +12908,14 @@
       </c>
       <c r="M160" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '159', 'template_type': 'Entry', 'name': 'Planned Medication Activity  [2.16.840.1.113883.10.20.22.4.42[686-692', 'name2': 'Planned Medication Activity ', 'template': '2.16.840.1.113883.10.20.22.4.42', 'pageStart': '686', 'pages': '686-692', 'search': 'Planned Medication Activity  2.16.840.1.113883.10.20.22.4.42 CONF:1098-8572;CONF:1098-8573;CONF:1098-30465;CONF:1098-30466;CONF:1098-32557;CONF:1098-8575;CONF:1098-32087;CONF:1098-32088;CONF:1098-30468;CONF:1098-32944;CONF:1098-32948;CONF:1098-32949;CONF:1098-32947;CONF:1098-32943;CONF:1098-32945;CONF:1098-32946;CONF:1098-32066;CONF:1098-32067;CONF:1098-32952;CONF:1098-32078;CONF:1098-32068;CONF:1098-32133;CONF:1098-32079;CONF:1098-32134;CONF:1098-32080;CONF:1098-32081;CONF:1098-32082;CONF:1098-32083;CONF:1098-30470;CONF:1098-32046;CONF:1098-31104;CONF:1098-31105;CONF:1098-31106;CONF:1098-32069;CONF:1098-32070;CONF:1098-32071;CONF:1098-32072;CONF:1098-32073;CONF:1098-32074;CONF:1098-32084;CONF:1098-32085;CONF:1098-32086' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Planned Medication Activity  [2.16.840.1.113883.10.20.22.4.42[686-692', 'name2': 'Planned Medication Activity ', 'template': '2.16.840.1.113883.10.20.22.4.42', 'pageStart': '686', 'pages': '686-692', 'search': 'Planned Medication Activity  2.16.840.1.113883.10.20.22.4.42 CONF:1098-8572;CONF:1098-8573;CONF:1098-30465;CONF:1098-30466;CONF:1098-32557;CONF:1098-8575;CONF:1098-32087;CONF:1098-32088;CONF:1098-30468;CONF:1098-32944;CONF:1098-32948;CONF:1098-32949;CONF:1098-32947;CONF:1098-32943;CONF:1098-32945;CONF:1098-32946;CONF:1098-32066;CONF:1098-32067;CONF:1098-32952;CONF:1098-32078;CONF:1098-32068;CONF:1098-32133;CONF:1098-32079;CONF:1098-32134;CONF:1098-32080;CONF:1098-32081;CONF:1098-32082;CONF:1098-32083;CONF:1098-30470;CONF:1098-32046;CONF:1098-31104;CONF:1098-31105;CONF:1098-31106;CONF:1098-32069;CONF:1098-32070;CONF:1098-32071;CONF:1098-32072;CONF:1098-32073;CONF:1098-32074;CONF:1098-32084;CONF:1098-32085;CONF:1098-32086' },</v>
       </c>
       <c r="N160" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.42',</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>324</v>
       </c>
@@ -13282,19 +12947,16 @@
       </c>
       <c r="M161" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '160', 'template_type': 'Entry', 'name': 'Planned Observation   [2.16.840.1.113883.10.20.22.4.44[692-697', 'name2': 'Planned Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.44', 'pageStart': '692', 'pages': '692-697', 'search': 'Planned Observation   2.16.840.1.113883.10.20.22.4.44 CONF:1098-8581;CONF:1098-8582;CONF:1098-30451;CONF:1098-30452;CONF:1098-32555;CONF:1098-8584;CONF:1098-31030;CONF:1098-30453;CONF:1098-32032;CONF:1098-30454;CONF:1098-31031;CONF:1098-32043;CONF:1098-32044;CONF:1098-30456;CONF:1098-32033;CONF:1098-31073;CONF:1098-31074;CONF:1098-31075;CONF:1098-32034;CONF:1098-32035;CONF:1098-32036;CONF:1098-32037;CONF:1098-32038;CONF:1098-32039;CONF:1098-32040;CONF:1098-32041;CONF:1098-32042' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Planned Observation   [2.16.840.1.113883.10.20.22.4.44[692-697', 'name2': 'Planned Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.44', 'pageStart': '692', 'pages': '692-697', 'search': 'Planned Observation   2.16.840.1.113883.10.20.22.4.44 CONF:1098-8581;CONF:1098-8582;CONF:1098-30451;CONF:1098-30452;CONF:1098-32555;CONF:1098-8584;CONF:1098-31030;CONF:1098-30453;CONF:1098-32032;CONF:1098-30454;CONF:1098-31031;CONF:1098-32043;CONF:1098-32044;CONF:1098-30456;CONF:1098-32033;CONF:1098-31073;CONF:1098-31074;CONF:1098-31075;CONF:1098-32034;CONF:1098-32035;CONF:1098-32036;CONF:1098-32037;CONF:1098-32038;CONF:1098-32039;CONF:1098-32040;CONF:1098-32041;CONF:1098-32042' },</v>
       </c>
       <c r="N161" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.44',</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>326</v>
+        <v>1905</v>
       </c>
       <c r="C162" t="s">
         <v>432</v>
@@ -13303,11 +12965,14 @@
         <v>327</v>
       </c>
       <c r="E162">
-        <v>697</v>
-      </c>
-      <c r="G162" s="3" t="str">
-        <f>VLOOKUP(D162,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>697-703</v>
+        <v>1153</v>
+      </c>
+      <c r="F162">
+        <v>1161</v>
+      </c>
+      <c r="G162" t="str">
+        <f>"CG_A_"&amp;E162-1000&amp;"-"&amp;F162-1000</f>
+        <v>CG_A_153-161</v>
       </c>
       <c r="H162" t="s">
         <v>868</v>
@@ -13320,21 +12985,18 @@
       </c>
       <c r="K162" t="str">
         <f t="shared" si="6"/>
-        <v>Planned Procedure   2.16.840.1.113883.10.20.22.4.41 CONF:1098-8568;CONF:1098-8569;CONF:1098-30444;CONF:1098-30445;CONF:1098-32554;CONF:1098-8571;CONF:1098-31976;CONF:1098-31977;CONF:1098-30446;CONF:1098-31978;CONF:1098-30447;CONF:1098-31980;CONF:1098-31981;CONF:1098-30449;CONF:1098-31979;CONF:1098-31079;CONF:1098-31080;CONF:1098-31081;CONF:1098-31982;CONF:1098-31983;CONF:1098-31984;CONF:1098-31985;CONF:1098-31986;CONF:1098-31987;CONF:1098-31989;CONF:1098-31990;CONF:1098-31991;CONF:1098-31992</v>
+        <v>Planned Procedure (Companion Guide) 2.16.840.1.113883.10.20.22.4.41 CONF:1098-8568;CONF:1098-8569;CONF:1098-30444;CONF:1098-30445;CONF:1098-32554;CONF:1098-8571;CONF:1098-31976;CONF:1098-31977;CONF:1098-30446;CONF:1098-31978;CONF:1098-30447;CONF:1098-31980;CONF:1098-31981;CONF:1098-30449;CONF:1098-31979;CONF:1098-31079;CONF:1098-31080;CONF:1098-31081;CONF:1098-31982;CONF:1098-31983;CONF:1098-31984;CONF:1098-31985;CONF:1098-31986;CONF:1098-31987;CONF:1098-31989;CONF:1098-31990;CONF:1098-31991;CONF:1098-31992</v>
       </c>
       <c r="M162" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '161', 'template_type': 'Entry', 'name': 'Planned Procedure   [2.16.840.1.113883.10.20.22.4.41[697-703', 'name2': 'Planned Procedure  ', 'template': '2.16.840.1.113883.10.20.22.4.41', 'pageStart': '697', 'pages': '697-703', 'search': 'Planned Procedure   2.16.840.1.113883.10.20.22.4.41 CONF:1098-8568;CONF:1098-8569;CONF:1098-30444;CONF:1098-30445;CONF:1098-32554;CONF:1098-8571;CONF:1098-31976;CONF:1098-31977;CONF:1098-30446;CONF:1098-31978;CONF:1098-30447;CONF:1098-31980;CONF:1098-31981;CONF:1098-30449;CONF:1098-31979;CONF:1098-31079;CONF:1098-31080;CONF:1098-31081;CONF:1098-31982;CONF:1098-31983;CONF:1098-31984;CONF:1098-31985;CONF:1098-31986;CONF:1098-31987;CONF:1098-31989;CONF:1098-31990;CONF:1098-31991;CONF:1098-31992' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Planned Procedure (Companion Guide) [2.16.840.1.113883.10.20.22.4.41[CG_A_153-161', 'name2': 'Planned Procedure (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.41', 'pageStart': '1153', 'pages': 'CG_A_153-161', 'search': 'Planned Procedure (Companion Guide) 2.16.840.1.113883.10.20.22.4.41 CONF:1098-8568;CONF:1098-8569;CONF:1098-30444;CONF:1098-30445;CONF:1098-32554;CONF:1098-8571;CONF:1098-31976;CONF:1098-31977;CONF:1098-30446;CONF:1098-31978;CONF:1098-30447;CONF:1098-31980;CONF:1098-31981;CONF:1098-30449;CONF:1098-31979;CONF:1098-31079;CONF:1098-31080;CONF:1098-31081;CONF:1098-31982;CONF:1098-31983;CONF:1098-31984;CONF:1098-31985;CONF:1098-31986;CONF:1098-31987;CONF:1098-31989;CONF:1098-31990;CONF:1098-31991;CONF:1098-31992' },</v>
       </c>
       <c r="N162" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.41',</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>328</v>
       </c>
@@ -13366,19 +13028,16 @@
       </c>
       <c r="M163" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '162', 'template_type': 'Entry', 'name': 'Planned Supply  [2.16.840.1.113883.10.20.22.4.43[703-709', 'name2': 'Planned Supply ', 'template': '2.16.840.1.113883.10.20.22.4.43', 'pageStart': '703', 'pages': '703-709', 'search': 'Planned Supply  2.16.840.1.113883.10.20.22.4.43 CONF:1098-8577;CONF:1098-8578;CONF:1098-30463;CONF:1098-30464;CONF:1098-32556;CONF:1098-8580;CONF:1098-30458;CONF:1098-32047;CONF:1098-30459;CONF:1098-32063;CONF:1098-32064;CONF:1098-32049;CONF:1098-32050;CONF:1098-32092;CONF:1098-32051;CONF:1098-32052;CONF:1098-32093;CONF:1098-32325;CONF:1098-32048;CONF:1098-31129;CONF:1098-32094;CONF:1098-32095;CONF:1098-32096;CONF:1098-31110;CONF:1098-31111;CONF:1098-31112;CONF:1098-32054;CONF:1098-32055;CONF:1098-32056;CONF:1098-32057;CONF:1098-32058;CONF:1098-32059;CONF:1098-32060;CONF:1098-32061;CONF:1098-32062' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Planned Supply  [2.16.840.1.113883.10.20.22.4.43[703-709', 'name2': 'Planned Supply ', 'template': '2.16.840.1.113883.10.20.22.4.43', 'pageStart': '703', 'pages': '703-709', 'search': 'Planned Supply  2.16.840.1.113883.10.20.22.4.43 CONF:1098-8577;CONF:1098-8578;CONF:1098-30463;CONF:1098-30464;CONF:1098-32556;CONF:1098-8580;CONF:1098-30458;CONF:1098-32047;CONF:1098-30459;CONF:1098-32063;CONF:1098-32064;CONF:1098-32049;CONF:1098-32050;CONF:1098-32092;CONF:1098-32051;CONF:1098-32052;CONF:1098-32093;CONF:1098-32325;CONF:1098-32048;CONF:1098-31129;CONF:1098-32094;CONF:1098-32095;CONF:1098-32096;CONF:1098-31110;CONF:1098-31111;CONF:1098-31112;CONF:1098-32054;CONF:1098-32055;CONF:1098-32056;CONF:1098-32057;CONF:1098-32058;CONF:1098-32059;CONF:1098-32060;CONF:1098-32061;CONF:1098-32062' },</v>
       </c>
       <c r="N163" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.43',</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>330</v>
+        <v>1904</v>
       </c>
       <c r="C164" t="s">
         <v>432</v>
@@ -13387,11 +13046,14 @@
         <v>331</v>
       </c>
       <c r="E164">
-        <v>709</v>
-      </c>
-      <c r="G164" s="3" t="str">
-        <f>VLOOKUP(D164,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>709-721</v>
+        <v>1161</v>
+      </c>
+      <c r="F164">
+        <v>1175</v>
+      </c>
+      <c r="G164" t="str">
+        <f>"CG_A_"&amp;E164-1000&amp;"-"&amp;F164-1000</f>
+        <v>CG_A_161-175</v>
       </c>
       <c r="H164" t="s">
         <v>757</v>
@@ -13404,21 +13066,18 @@
       </c>
       <c r="K164" t="str">
         <f t="shared" si="6"/>
-        <v>Policy Activity  2.16.840.1.113883.10.20.22.4.61 CONF:1198-8898;CONF:1198-8899;CONF:1198-8900;CONF:1198-10516;CONF:1198-32595;CONF:1198-8901;CONF:1198-8903;CONF:1198-32852;CONF:1198-8902;CONF:1198-19109;CONF:1198-8906;CONF:1198-8907;CONF:1198-16808;CONF:1198-16809;CONF:1198-8908;CONF:1198-8909;CONF:1198-8914;CONF:1198-15992;CONF:1198-8910;CONF:1198-8911;CONF:1198-8912;CONF:1198-8913;CONF:1198-8961;CONF:1198-16810;CONF:1198-16811;CONF:1198-8963;CONF:1198-8962;CONF:1198-8968;CONF:1198-16096;CONF:1198-32165;CONF:1198-8964;CONF:1198-8965;CONF:1198-8967;CONF:1198-8916;CONF:1198-8917;CONF:1198-16812;CONF:1198-16814;CONF:1198-8918;CONF:1198-8919;CONF:1198-8920;CONF:1198-8921;CONF:1198-8922;CONF:1198-8984;CONF:1198-8923;CONF:1198-16078;CONF:1198-8956;CONF:1198-10484;CONF:1198-8932;CONF:1198-8930;CONF:1198-31344;CONF:1198-31345;CONF:1198-8934;CONF:1198-8935;CONF:1198-16813;CONF:1198-16815;CONF:1198-8938;CONF:1198-8936;CONF:1198-8937;CONF:1198-10120;CONF:1198-8925;CONF:1198-10483;CONF:1198-17139;CONF:1198-8939;CONF:1198-8940;CONF:1198-8942;CONF:1198-8943</v>
+        <v>Policy Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.61 CONF:1198-8898;CONF:1198-8899;CONF:1198-8900;CONF:1198-10516;CONF:1198-32595;CONF:1198-8901;CONF:1198-8903;CONF:1198-32852;CONF:1198-8902;CONF:1198-19109;CONF:1198-8906;CONF:1198-8907;CONF:1198-16808;CONF:1198-16809;CONF:1198-8908;CONF:1198-8909;CONF:1198-8914;CONF:1198-15992;CONF:1198-8910;CONF:1198-8911;CONF:1198-8912;CONF:1198-8913;CONF:1198-8961;CONF:1198-16810;CONF:1198-16811;CONF:1198-8963;CONF:1198-8962;CONF:1198-8968;CONF:1198-16096;CONF:1198-32165;CONF:1198-8964;CONF:1198-8965;CONF:1198-8967;CONF:1198-8916;CONF:1198-8917;CONF:1198-16812;CONF:1198-16814;CONF:1198-8918;CONF:1198-8919;CONF:1198-8920;CONF:1198-8921;CONF:1198-8922;CONF:1198-8984;CONF:1198-8923;CONF:1198-16078;CONF:1198-8956;CONF:1198-10484;CONF:1198-8932;CONF:1198-8930;CONF:1198-31344;CONF:1198-31345;CONF:1198-8934;CONF:1198-8935;CONF:1198-16813;CONF:1198-16815;CONF:1198-8938;CONF:1198-8936;CONF:1198-8937;CONF:1198-10120;CONF:1198-8925;CONF:1198-10483;CONF:1198-17139;CONF:1198-8939;CONF:1198-8940;CONF:1198-8942;CONF:1198-8943</v>
       </c>
       <c r="M164" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '163', 'template_type': 'Entry', 'name': 'Policy Activity  [2.16.840.1.113883.10.20.22.4.61[709-721', 'name2': 'Policy Activity ', 'template': '2.16.840.1.113883.10.20.22.4.61', 'pageStart': '709', 'pages': '709-721', 'search': 'Policy Activity  2.16.840.1.113883.10.20.22.4.61 CONF:1198-8898;CONF:1198-8899;CONF:1198-8900;CONF:1198-10516;CONF:1198-32595;CONF:1198-8901;CONF:1198-8903;CONF:1198-32852;CONF:1198-8902;CONF:1198-19109;CONF:1198-8906;CONF:1198-8907;CONF:1198-16808;CONF:1198-16809;CONF:1198-8908;CONF:1198-8909;CONF:1198-8914;CONF:1198-15992;CONF:1198-8910;CONF:1198-8911;CONF:1198-8912;CONF:1198-8913;CONF:1198-8961;CONF:1198-16810;CONF:1198-16811;CONF:1198-8963;CONF:1198-8962;CONF:1198-8968;CONF:1198-16096;CONF:1198-32165;CONF:1198-8964;CONF:1198-8965;CONF:1198-8967;CONF:1198-8916;CONF:1198-8917;CONF:1198-16812;CONF:1198-16814;CONF:1198-8918;CONF:1198-8919;CONF:1198-8920;CONF:1198-8921;CONF:1198-8922;CONF:1198-8984;CONF:1198-8923;CONF:1198-16078;CONF:1198-8956;CONF:1198-10484;CONF:1198-8932;CONF:1198-8930;CONF:1198-31344;CONF:1198-31345;CONF:1198-8934;CONF:1198-8935;CONF:1198-16813;CONF:1198-16815;CONF:1198-8938;CONF:1198-8936;CONF:1198-8937;CONF:1198-10120;CONF:1198-8925;CONF:1198-10483;CONF:1198-17139;CONF:1198-8939;CONF:1198-8940;CONF:1198-8942;CONF:1198-8943' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Policy Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.61[CG_A_161-175', 'name2': 'Policy Activity (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.61', 'pageStart': '1161', 'pages': 'CG_A_161-175', 'search': 'Policy Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.61 CONF:1198-8898;CONF:1198-8899;CONF:1198-8900;CONF:1198-10516;CONF:1198-32595;CONF:1198-8901;CONF:1198-8903;CONF:1198-32852;CONF:1198-8902;CONF:1198-19109;CONF:1198-8906;CONF:1198-8907;CONF:1198-16808;CONF:1198-16809;CONF:1198-8908;CONF:1198-8909;CONF:1198-8914;CONF:1198-15992;CONF:1198-8910;CONF:1198-8911;CONF:1198-8912;CONF:1198-8913;CONF:1198-8961;CONF:1198-16810;CONF:1198-16811;CONF:1198-8963;CONF:1198-8962;CONF:1198-8968;CONF:1198-16096;CONF:1198-32165;CONF:1198-8964;CONF:1198-8965;CONF:1198-8967;CONF:1198-8916;CONF:1198-8917;CONF:1198-16812;CONF:1198-16814;CONF:1198-8918;CONF:1198-8919;CONF:1198-8920;CONF:1198-8921;CONF:1198-8922;CONF:1198-8984;CONF:1198-8923;CONF:1198-16078;CONF:1198-8956;CONF:1198-10484;CONF:1198-8932;CONF:1198-8930;CONF:1198-31344;CONF:1198-31345;CONF:1198-8934;CONF:1198-8935;CONF:1198-16813;CONF:1198-16815;CONF:1198-8938;CONF:1198-8936;CONF:1198-8937;CONF:1198-10120;CONF:1198-8925;CONF:1198-10483;CONF:1198-17139;CONF:1198-8939;CONF:1198-8940;CONF:1198-8942;CONF:1198-8943' },</v>
       </c>
       <c r="N164" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.61',</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>332</v>
       </c>
@@ -13450,17 +13109,14 @@
       </c>
       <c r="M165" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '164', 'template_type': 'Entry', 'name': 'Postprocedure Diagnosis   [2.16.840.1.113883.10.20.22.4.51[721-723', 'name2': 'Postprocedure Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.51', 'pageStart': '721', 'pages': '721-723', 'search': 'Postprocedure Diagnosis   2.16.840.1.113883.10.20.22.4.51 CONF:1198-8756;CONF:1198-8757;CONF:1198-16766;CONF:1198-16767;CONF:1198-32539;CONF:1198-19151;CONF:1198-19152;CONF:1198-32166;CONF:1198-8759;CONF:1198-8760;CONF:1198-15583' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Postprocedure Diagnosis   [2.16.840.1.113883.10.20.22.4.51[721-723', 'name2': 'Postprocedure Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.51', 'pageStart': '721', 'pages': '721-723', 'search': 'Postprocedure Diagnosis   2.16.840.1.113883.10.20.22.4.51 CONF:1198-8756;CONF:1198-8757;CONF:1198-16766;CONF:1198-16767;CONF:1198-32539;CONF:1198-19151;CONF:1198-19152;CONF:1198-32166;CONF:1198-8759;CONF:1198-8760;CONF:1198-15583' },</v>
       </c>
       <c r="N165" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.51',</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>334</v>
       </c>
@@ -13492,17 +13148,14 @@
       </c>
       <c r="M166" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '165', 'template_type': 'Entry', 'name': 'Precondition for Substance Administration   [2.16.840.1.113883.10.20.22.4.25[723-725', 'name2': 'Precondition for Substance Administration  ', 'template': '2.16.840.1.113883.10.20.22.4.25', 'pageStart': '723', 'pages': '723-725', 'search': 'Precondition for Substance Administration   2.16.840.1.113883.10.20.22.4.25 CONF:1098-7372;CONF:1098-10517;CONF:1098-32603;CONF:1098-32396;CONF:1098-32397;CONF:1098-32398;CONF:1098-7369' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Precondition for Substance Administration   [2.16.840.1.113883.10.20.22.4.25[723-725', 'name2': 'Precondition for Substance Administration  ', 'template': '2.16.840.1.113883.10.20.22.4.25', 'pageStart': '723', 'pages': '723-725', 'search': 'Precondition for Substance Administration   2.16.840.1.113883.10.20.22.4.25 CONF:1098-7372;CONF:1098-10517;CONF:1098-32603;CONF:1098-32396;CONF:1098-32397;CONF:1098-32398;CONF:1098-7369' },</v>
       </c>
       <c r="N166" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.25',</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>336</v>
       </c>
@@ -13534,17 +13187,14 @@
       </c>
       <c r="M167" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '166', 'template_type': 'Entry', 'name': 'Pregnancy Observation [2.16.840.1.113883.10.20.15.3.8[725-727', 'name2': 'Pregnancy Observation', 'template': '2.16.840.1.113883.10.20.15.3.8', 'pageStart': '725', 'pages': '725-727', 'search': 'Pregnancy Observation 2.16.840.1.113883.10.20.15.3.8 CONF:81-451;CONF:81-452;CONF:81-16768;CONF:81-16868;CONF:81-19153;CONF:81-19154;CONF:81-26505;CONF:81-455;CONF:81-19110;CONF:81-2018;CONF:81-457;CONF:81-458;CONF:81-459;CONF:81-15584' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Pregnancy Observation [2.16.840.1.113883.10.20.15.3.8[725-727', 'name2': 'Pregnancy Observation', 'template': '2.16.840.1.113883.10.20.15.3.8', 'pageStart': '725', 'pages': '725-727', 'search': 'Pregnancy Observation 2.16.840.1.113883.10.20.15.3.8 CONF:81-451;CONF:81-452;CONF:81-16768;CONF:81-16868;CONF:81-19153;CONF:81-19154;CONF:81-26505;CONF:81-455;CONF:81-19110;CONF:81-2018;CONF:81-457;CONF:81-458;CONF:81-459;CONF:81-15584' },</v>
       </c>
       <c r="N167" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.15.3.8',</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>338</v>
       </c>
@@ -13576,17 +13226,14 @@
       </c>
       <c r="M168" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '167', 'template_type': 'Entry', 'name': 'Preoperative Diagnosis   [2.16.840.1.113883.10.20.22.4.65[727-729', 'name2': 'Preoperative Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.65', 'pageStart': '727', 'pages': '727-729', 'search': 'Preoperative Diagnosis   2.16.840.1.113883.10.20.22.4.65 CONF:1198-10090;CONF:1198-10091;CONF:1198-16770;CONF:1198-16771;CONF:1198-32540;CONF:1198-19155;CONF:1198-19156;CONF:1198-32167;CONF:1198-10093;CONF:1198-10094;CONF:1198-15605' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Preoperative Diagnosis   [2.16.840.1.113883.10.20.22.4.65[727-729', 'name2': 'Preoperative Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.65', 'pageStart': '727', 'pages': '727-729', 'search': 'Preoperative Diagnosis   2.16.840.1.113883.10.20.22.4.65 CONF:1198-10090;CONF:1198-10091;CONF:1198-16770;CONF:1198-16771;CONF:1198-32540;CONF:1198-19155;CONF:1198-19156;CONF:1198-32167;CONF:1198-10093;CONF:1198-10094;CONF:1198-15605' },</v>
       </c>
       <c r="N168" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.65',</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>340</v>
       </c>
@@ -13618,17 +13265,14 @@
       </c>
       <c r="M169" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '168', 'template_type': 'Entry', 'name': 'Pressure Ulcer Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.70[729-735', 'name2': 'Pressure Ulcer Observation (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.4.70', 'pageStart': '729', 'pages': '729-735', 'search': 'Pressure Ulcer Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.70 CONF:1098-14383;CONF:1098-14384;CONF:1098-14385;CONF:1098-14387;CONF:1098-14388;CONF:1098-32594;CONF:1098-14389;CONF:1098-14759;CONF:1098-14760;CONF:1098-14391;CONF:1098-14392;CONF:1098-15585;CONF:1098-15586;CONF:1098-14394;CONF:1098-19111;CONF:1098-14395;CONF:1098-14396;CONF:1098-14797;CONF:1098-14798;CONF:1098-14799;CONF:1098-14800;CONF:1098-14801;CONF:1098-14802;CONF:1098-14803;CONF:1098-14410;CONF:1098-14411;CONF:1098-14619;CONF:1098-14685;CONF:1098-14686;CONF:1098-14620;CONF:1098-14621;CONF:1098-14622;CONF:1098-14601;CONF:1098-14602;CONF:1098-14623;CONF:1098-14687;CONF:1098-14688;CONF:1098-14624;CONF:1098-14625;CONF:1098-14626;CONF:1098-14605;CONF:1098-14606;CONF:1098-14627;CONF:1098-14689;CONF:1098-14690;CONF:1098-14628;CONF:1098-14629;CONF:1098-14630' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Pressure Ulcer Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.70[729-735', 'name2': 'Pressure Ulcer Observation (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.4.70', 'pageStart': '729', 'pages': '729-735', 'search': 'Pressure Ulcer Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.70 CONF:1098-14383;CONF:1098-14384;CONF:1098-14385;CONF:1098-14387;CONF:1098-14388;CONF:1098-32594;CONF:1098-14389;CONF:1098-14759;CONF:1098-14760;CONF:1098-14391;CONF:1098-14392;CONF:1098-15585;CONF:1098-15586;CONF:1098-14394;CONF:1098-19111;CONF:1098-14395;CONF:1098-14396;CONF:1098-14797;CONF:1098-14798;CONF:1098-14799;CONF:1098-14800;CONF:1098-14801;CONF:1098-14802;CONF:1098-14803;CONF:1098-14410;CONF:1098-14411;CONF:1098-14619;CONF:1098-14685;CONF:1098-14686;CONF:1098-14620;CONF:1098-14621;CONF:1098-14622;CONF:1098-14601;CONF:1098-14602;CONF:1098-14623;CONF:1098-14687;CONF:1098-14688;CONF:1098-14624;CONF:1098-14625;CONF:1098-14626;CONF:1098-14605;CONF:1098-14606;CONF:1098-14627;CONF:1098-14689;CONF:1098-14690;CONF:1098-14628;CONF:1098-14629;CONF:1098-14630' },</v>
       </c>
       <c r="N169" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.70',</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>342</v>
       </c>
@@ -13660,17 +13304,14 @@
       </c>
       <c r="M170" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '169', 'template_type': 'Entry', 'name': 'Priority Preference [2.16.840.1.113883.10.20.22.4.143[735-738', 'name2': 'Priority Preference', 'template': '2.16.840.1.113883.10.20.22.4.143', 'pageStart': '735', 'pages': '735-738', 'search': 'Priority Preference 2.16.840.1.113883.10.20.22.4.143 CONF:1098-30949;CONF:1098-30950;CONF:1098-30951;CONF:1098-30952;CONF:1098-30953;CONF:1098-30954;CONF:1098-30955;CONF:1098-30956;CONF:1098-32327;CONF:1098-30957;CONF:1098-30958' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Priority Preference [2.16.840.1.113883.10.20.22.4.143[735-738', 'name2': 'Priority Preference', 'template': '2.16.840.1.113883.10.20.22.4.143', 'pageStart': '735', 'pages': '735-738', 'search': 'Priority Preference 2.16.840.1.113883.10.20.22.4.143 CONF:1098-30949;CONF:1098-30950;CONF:1098-30951;CONF:1098-30952;CONF:1098-30953;CONF:1098-30954;CONF:1098-30955;CONF:1098-30956;CONF:1098-32327;CONF:1098-30957;CONF:1098-30958' },</v>
       </c>
       <c r="N170" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.143',</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>344</v>
       </c>
@@ -13702,19 +13343,16 @@
       </c>
       <c r="M171" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '170', 'template_type': 'Entry', 'name': 'Problem Concern Act  [2.16.840.1.113883.10.20.22.4.3[738-743', 'name2': 'Problem Concern Act ', 'template': '2.16.840.1.113883.10.20.22.4.3', 'pageStart': '738', 'pages': '738-743', 'search': 'Problem Concern Act  2.16.840.1.113883.10.20.22.4.3 CONF:1198-9024;CONF:1198-9025;CONF:1198-16772;CONF:1198-16773;CONF:1198-32509;CONF:1198-9026;CONF:1198-9027;CONF:1198-19184;CONF:1198-32168;CONF:1198-9029;CONF:1198-31525;CONF:1198-9030;CONF:1198-9032;CONF:1198-9033;CONF:1198-31146;CONF:1198-9034;CONF:1198-9035;CONF:1198-15980;CONF:1198-31638;CONF:1198-31639;CONF:1198-31640' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Problem Concern Act  [2.16.840.1.113883.10.20.22.4.3[738-743', 'name2': 'Problem Concern Act ', 'template': '2.16.840.1.113883.10.20.22.4.3', 'pageStart': '738', 'pages': '738-743', 'search': 'Problem Concern Act  2.16.840.1.113883.10.20.22.4.3 CONF:1198-9024;CONF:1198-9025;CONF:1198-16772;CONF:1198-16773;CONF:1198-32509;CONF:1198-9026;CONF:1198-9027;CONF:1198-19184;CONF:1198-32168;CONF:1198-9029;CONF:1198-31525;CONF:1198-9030;CONF:1198-9032;CONF:1198-9033;CONF:1198-31146;CONF:1198-9034;CONF:1198-9035;CONF:1198-15980;CONF:1198-31638;CONF:1198-31639;CONF:1198-31640' },</v>
       </c>
       <c r="N171" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.3',</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>346</v>
+        <v>1903</v>
       </c>
       <c r="C172" t="s">
         <v>432</v>
@@ -13723,11 +13361,14 @@
         <v>347</v>
       </c>
       <c r="E172">
-        <v>743</v>
-      </c>
-      <c r="G172" s="3" t="str">
-        <f>VLOOKUP(D172,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>743-750</v>
+        <v>1188</v>
+      </c>
+      <c r="F172">
+        <v>1198</v>
+      </c>
+      <c r="G172" t="str">
+        <f>"CG_A_"&amp;E172-1000&amp;"-"&amp;F172-1000</f>
+        <v>CG_A_188-198</v>
       </c>
       <c r="H172" t="s">
         <v>879</v>
@@ -13740,21 +13381,18 @@
       </c>
       <c r="K172" t="str">
         <f t="shared" si="6"/>
-        <v>Problem Observation   2.16.840.1.113883.10.20.22.4.4 CONF:1198-9041;CONF:1198-9042;CONF:1198-10139;CONF:1198-14926;CONF:1198-14927;CONF:1198-32508;CONF:1198-9043;CONF:1198-9045;CONF:1198-32950;CONF:1198-9049;CONF:1198-19112;CONF:1198-9050;CONF:1198-15603;CONF:1198-15604;CONF:1198-9058;CONF:1198-31871;CONF:1198-31870;CONF:1198-16749;CONF:1198-16750;CONF:1198-31147;CONF:1198-9059;CONF:1198-9060;CONF:1198-9069;CONF:1198-15590;CONF:1198-29951;CONF:1198-31531;CONF:1198-29952;CONF:1198-31063;CONF:1198-31532;CONF:1198-31064;CONF:1198-9063;CONF:1198-9068;CONF:1198-15591</v>
+        <v>Problem Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.4 CONF:1198-9041;CONF:1198-9042;CONF:1198-10139;CONF:1198-14926;CONF:1198-14927;CONF:1198-32508;CONF:1198-9043;CONF:1198-9045;CONF:1198-32950;CONF:1198-9049;CONF:1198-19112;CONF:1198-9050;CONF:1198-15603;CONF:1198-15604;CONF:1198-9058;CONF:1198-31871;CONF:1198-31870;CONF:1198-16749;CONF:1198-16750;CONF:1198-31147;CONF:1198-9059;CONF:1198-9060;CONF:1198-9069;CONF:1198-15590;CONF:1198-29951;CONF:1198-31531;CONF:1198-29952;CONF:1198-31063;CONF:1198-31532;CONF:1198-31064;CONF:1198-9063;CONF:1198-9068;CONF:1198-15591</v>
       </c>
       <c r="M172" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '171', 'template_type': 'Entry', 'name': 'Problem Observation   [2.16.840.1.113883.10.20.22.4.4[743-750', 'name2': 'Problem Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.4', 'pageStart': '743', 'pages': '743-750', 'search': 'Problem Observation   2.16.840.1.113883.10.20.22.4.4 CONF:1198-9041;CONF:1198-9042;CONF:1198-10139;CONF:1198-14926;CONF:1198-14927;CONF:1198-32508;CONF:1198-9043;CONF:1198-9045;CONF:1198-32950;CONF:1198-9049;CONF:1198-19112;CONF:1198-9050;CONF:1198-15603;CONF:1198-15604;CONF:1198-9058;CONF:1198-31871;CONF:1198-31870;CONF:1198-16749;CONF:1198-16750;CONF:1198-31147;CONF:1198-9059;CONF:1198-9060;CONF:1198-9069;CONF:1198-15590;CONF:1198-29951;CONF:1198-31531;CONF:1198-29952;CONF:1198-31063;CONF:1198-31532;CONF:1198-31064;CONF:1198-9063;CONF:1198-9068;CONF:1198-15591' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Problem Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.4[CG_A_188-198', 'name2': 'Problem Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.4', 'pageStart': '1188', 'pages': 'CG_A_188-198', 'search': 'Problem Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.4 CONF:1198-9041;CONF:1198-9042;CONF:1198-10139;CONF:1198-14926;CONF:1198-14927;CONF:1198-32508;CONF:1198-9043;CONF:1198-9045;CONF:1198-32950;CONF:1198-9049;CONF:1198-19112;CONF:1198-9050;CONF:1198-15603;CONF:1198-15604;CONF:1198-9058;CONF:1198-31871;CONF:1198-31870;CONF:1198-16749;CONF:1198-16750;CONF:1198-31147;CONF:1198-9059;CONF:1198-9060;CONF:1198-9069;CONF:1198-15590;CONF:1198-29951;CONF:1198-31531;CONF:1198-29952;CONF:1198-31063;CONF:1198-31532;CONF:1198-31064;CONF:1198-9063;CONF:1198-9068;CONF:1198-15591' },</v>
       </c>
       <c r="N172" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.4',</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>348</v>
       </c>
@@ -13786,17 +13424,14 @@
       </c>
       <c r="M173" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '172', 'template_type': 'Entry', 'name': 'Longitudinal Care Wound Observation   [2.16.840.1.113883.10.20.22.4.114[750-756', 'name2': 'Longitudinal Care Wound Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.114', 'pageStart': '750', 'pages': '750-756', 'search': 'Longitudinal Care Wound Observation   2.16.840.1.113883.10.20.22.4.114 CONF:1198-31012;CONF:1198-31013;CONF:1198-32947;CONF:1198-29474;CONF:1198-32913;CONF:1198-29476;CONF:1198-29477;CONF:1198-31010;CONF:1198-29485;CONF:1198-29488;CONF:1198-29490;CONF:1198-29491;CONF:1198-29492;CONF:1198-31524;CONF:1198-29493;CONF:1198-29494;CONF:1198-31542;CONF:1198-29495;CONF:1198-29496;CONF:1198-29497;CONF:1198-29503;CONF:1198-29504;CONF:1198-29505;CONF:1198-31890;CONF:1198-31891;CONF:1198-31892;CONF:1198-31893;CONF:1198-31894;CONF:1198-31919' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Longitudinal Care Wound Observation   [2.16.840.1.113883.10.20.22.4.114[750-756', 'name2': 'Longitudinal Care Wound Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.114', 'pageStart': '750', 'pages': '750-756', 'search': 'Longitudinal Care Wound Observation   2.16.840.1.113883.10.20.22.4.114 CONF:1198-31012;CONF:1198-31013;CONF:1198-32947;CONF:1198-29474;CONF:1198-32913;CONF:1198-29476;CONF:1198-29477;CONF:1198-31010;CONF:1198-29485;CONF:1198-29488;CONF:1198-29490;CONF:1198-29491;CONF:1198-29492;CONF:1198-31524;CONF:1198-29493;CONF:1198-29494;CONF:1198-31542;CONF:1198-29495;CONF:1198-29496;CONF:1198-29497;CONF:1198-29503;CONF:1198-29504;CONF:1198-29505;CONF:1198-31890;CONF:1198-31891;CONF:1198-31892;CONF:1198-31893;CONF:1198-31894;CONF:1198-31919' },</v>
       </c>
       <c r="N173" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.114',</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>350</v>
       </c>
@@ -13828,17 +13463,14 @@
       </c>
       <c r="M174" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '173', 'template_type': 'Entry', 'name': 'Problem Status  [2.16.840.1.113883.10.20.22.4.6[756-758', 'name2': 'Problem Status ', 'template': '2.16.840.1.113883.10.20.22.4.6', 'pageStart': '756', 'pages': '756-758', 'search': 'Problem Status  2.16.840.1.113883.10.20.22.4.6 CONF:1198-7357;CONF:1198-7358;CONF:1198-7359;CONF:1198-10518;CONF:1198-32961;CONF:1198-19162;CONF:1198-19163;CONF:1198-7364;CONF:1198-19113;CONF:1198-7365' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Problem Status  [2.16.840.1.113883.10.20.22.4.6[756-758', 'name2': 'Problem Status ', 'template': '2.16.840.1.113883.10.20.22.4.6', 'pageStart': '756', 'pages': '756-758', 'search': 'Problem Status  2.16.840.1.113883.10.20.22.4.6 CONF:1198-7357;CONF:1198-7358;CONF:1198-7359;CONF:1198-10518;CONF:1198-32961;CONF:1198-19162;CONF:1198-19163;CONF:1198-7364;CONF:1198-19113;CONF:1198-7365' },</v>
       </c>
       <c r="N174" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.6',</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>352</v>
       </c>
@@ -13870,17 +13502,14 @@
       </c>
       <c r="M175" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '174', 'template_type': 'Entry', 'name': 'Procedure Activity Act   [2.16.840.1.113883.10.20.22.4.12[758-765', 'name2': 'Procedure Activity Act  ', 'template': '2.16.840.1.113883.10.20.22.4.12', 'pageStart': '758', 'pages': '758-765', 'search': 'Procedure Activity Act   2.16.840.1.113883.10.20.22.4.12 CONF:1098-8289;CONF:1098-8290;CONF:1098-8291;CONF:1098-10519;CONF:1098-32505;CONF:1098-8292;CONF:1098-8293;CONF:1098-19186;CONF:1098-19187;CONF:1098-19188;CONF:1098-19189;CONF:1098-19190;CONF:1098-8298;CONF:1098-32364;CONF:1098-8299;CONF:1098-8300;CONF:1098-8301;CONF:1098-8302;CONF:1098-8303;CONF:1098-8304;CONF:1098-8305;CONF:1098-8306;CONF:1098-8307;CONF:1098-8308;CONF:1098-8310;CONF:1098-8309;CONF:1098-32477;CONF:1098-8311;CONF:1098-8312;CONF:1098-15599;CONF:1098-8314;CONF:1098-8315;CONF:1098-8316;CONF:1098-8317;CONF:1098-8318;CONF:1098-8319;CONF:1098-8320;CONF:1098-16849;CONF:1098-8322;CONF:1098-8323;CONF:1098-8324;CONF:1098-31396;CONF:1098-8326;CONF:1098-8327;CONF:1098-15601;CONF:1098-8329;CONF:1098-8330;CONF:1098-15602' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Procedure Activity Act   [2.16.840.1.113883.10.20.22.4.12[758-765', 'name2': 'Procedure Activity Act  ', 'template': '2.16.840.1.113883.10.20.22.4.12', 'pageStart': '758', 'pages': '758-765', 'search': 'Procedure Activity Act   2.16.840.1.113883.10.20.22.4.12 CONF:1098-8289;CONF:1098-8290;CONF:1098-8291;CONF:1098-10519;CONF:1098-32505;CONF:1098-8292;CONF:1098-8293;CONF:1098-19186;CONF:1098-19187;CONF:1098-19188;CONF:1098-19189;CONF:1098-19190;CONF:1098-8298;CONF:1098-32364;CONF:1098-8299;CONF:1098-8300;CONF:1098-8301;CONF:1098-8302;CONF:1098-8303;CONF:1098-8304;CONF:1098-8305;CONF:1098-8306;CONF:1098-8307;CONF:1098-8308;CONF:1098-8310;CONF:1098-8309;CONF:1098-32477;CONF:1098-8311;CONF:1098-8312;CONF:1098-15599;CONF:1098-8314;CONF:1098-8315;CONF:1098-8316;CONF:1098-8317;CONF:1098-8318;CONF:1098-8319;CONF:1098-8320;CONF:1098-16849;CONF:1098-8322;CONF:1098-8323;CONF:1098-8324;CONF:1098-31396;CONF:1098-8326;CONF:1098-8327;CONF:1098-15601;CONF:1098-8329;CONF:1098-8330;CONF:1098-15602' },</v>
       </c>
       <c r="N175" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.12',</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>354</v>
       </c>
@@ -13912,17 +13541,14 @@
       </c>
       <c r="M176" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '175', 'template_type': 'Entry', 'name': 'Procedure Activity Observation   [2.16.840.1.113883.10.20.22.4.13[765-772', 'name2': 'Procedure Activity Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.13', 'pageStart': '765', 'pages': '765-772', 'search': 'Procedure Activity Observation   2.16.840.1.113883.10.20.22.4.13 CONF:1098-8282;CONF:1098-8237;CONF:1098-8238;CONF:1098-10520;CONF:1098-32507;CONF:1098-8239;CONF:1098-19197;CONF:1098-19198;CONF:1098-19199;CONF:1098-19200;CONF:1098-19201;CONF:1098-19202;CONF:1098-8245;CONF:1098-32365;CONF:1098-8246;CONF:1098-8247;CONF:1098-16846;CONF:1098-32778;CONF:1098-8248;CONF:1098-8249;CONF:1098-8250;CONF:1098-8251;CONF:1098-8252;CONF:1098-8253;CONF:1098-8254;CONF:1098-8255;CONF:1098-8256;CONF:1098-8257;CONF:1098-8258;CONF:1098-8260;CONF:1098-8259;CONF:1098-32478;CONF:1098-8261;CONF:1098-8262;CONF:1098-15904;CONF:1098-8264;CONF:1098-8265;CONF:1098-8266;CONF:1098-8267;CONF:1098-8268;CONF:1098-8269;CONF:1098-8270;CONF:1098-16847;CONF:1098-8272;CONF:1098-8273;CONF:1098-8274;CONF:1098-31394;CONF:1098-8276;CONF:1098-8277;CONF:1098-15906;CONF:1098-8279;CONF:1098-8280;CONF:1098-15907;CONF:1098-32470;CONF:1098-32471;CONF:1098-32472' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Procedure Activity Observation   [2.16.840.1.113883.10.20.22.4.13[765-772', 'name2': 'Procedure Activity Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.13', 'pageStart': '765', 'pages': '765-772', 'search': 'Procedure Activity Observation   2.16.840.1.113883.10.20.22.4.13 CONF:1098-8282;CONF:1098-8237;CONF:1098-8238;CONF:1098-10520;CONF:1098-32507;CONF:1098-8239;CONF:1098-19197;CONF:1098-19198;CONF:1098-19199;CONF:1098-19200;CONF:1098-19201;CONF:1098-19202;CONF:1098-8245;CONF:1098-32365;CONF:1098-8246;CONF:1098-8247;CONF:1098-16846;CONF:1098-32778;CONF:1098-8248;CONF:1098-8249;CONF:1098-8250;CONF:1098-8251;CONF:1098-8252;CONF:1098-8253;CONF:1098-8254;CONF:1098-8255;CONF:1098-8256;CONF:1098-8257;CONF:1098-8258;CONF:1098-8260;CONF:1098-8259;CONF:1098-32478;CONF:1098-8261;CONF:1098-8262;CONF:1098-15904;CONF:1098-8264;CONF:1098-8265;CONF:1098-8266;CONF:1098-8267;CONF:1098-8268;CONF:1098-8269;CONF:1098-8270;CONF:1098-16847;CONF:1098-8272;CONF:1098-8273;CONF:1098-8274;CONF:1098-31394;CONF:1098-8276;CONF:1098-8277;CONF:1098-15906;CONF:1098-8279;CONF:1098-8280;CONF:1098-15907;CONF:1098-32470;CONF:1098-32471;CONF:1098-32472' },</v>
       </c>
       <c r="N176" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.13',</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>356</v>
       </c>
@@ -13954,17 +13580,14 @@
       </c>
       <c r="M177" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '176', 'template_type': 'Entry', 'name': 'Procedure Activity Procedure   [2.16.840.1.113883.10.20.22.4.14[772-779', 'name2': 'Procedure Activity Procedure  ', 'template': '2.16.840.1.113883.10.20.22.4.14', 'pageStart': '772', 'pages': '772-779', 'search': 'Procedure Activity Procedure   2.16.840.1.113883.10.20.22.4.14 CONF:1098-7652;CONF:1098-7653;CONF:1098-7654;CONF:1098-10521;CONF:1098-32506;CONF:1098-7655;CONF:1098-7656;CONF:1098-19203;CONF:1098-19204;CONF:1098-19205;CONF:1098-19206;CONF:1098-19207;CONF:1098-7661;CONF:1098-32366;CONF:1098-7662;CONF:1098-7668;CONF:1098-7670;CONF:1098-7890;CONF:1098-7683;CONF:1098-7697;CONF:1098-7704;CONF:1098-7716;CONF:1098-29744;CONF:1098-16842;CONF:1098-7718;CONF:1098-7720;CONF:1098-7722;CONF:1098-7731;CONF:1098-7732;CONF:1098-7733;CONF:1098-7734;CONF:1098-7735;CONF:1098-7737;CONF:1098-7736;CONF:1098-32479;CONF:1098-7751;CONF:1098-7752;CONF:1098-15911;CONF:1098-7765;CONF:1098-7766;CONF:1098-15912;CONF:1098-7768;CONF:1098-7769;CONF:1098-8009;CONF:1098-7770;CONF:1098-7771;CONF:1098-7772;CONF:1098-7773;CONF:1098-16843;CONF:1098-7775;CONF:1098-7776;CONF:1098-7777;CONF:1098-31395;CONF:1098-7779;CONF:1098-7780;CONF:1098-15914;CONF:1098-7886;CONF:1098-7887;CONF:1098-15915;CONF:1098-32473;CONF:1098-32474;CONF:1098-32475' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Procedure Activity Procedure   [2.16.840.1.113883.10.20.22.4.14[772-779', 'name2': 'Procedure Activity Procedure  ', 'template': '2.16.840.1.113883.10.20.22.4.14', 'pageStart': '772', 'pages': '772-779', 'search': 'Procedure Activity Procedure   2.16.840.1.113883.10.20.22.4.14 CONF:1098-7652;CONF:1098-7653;CONF:1098-7654;CONF:1098-10521;CONF:1098-32506;CONF:1098-7655;CONF:1098-7656;CONF:1098-19203;CONF:1098-19204;CONF:1098-19205;CONF:1098-19206;CONF:1098-19207;CONF:1098-7661;CONF:1098-32366;CONF:1098-7662;CONF:1098-7668;CONF:1098-7670;CONF:1098-7890;CONF:1098-7683;CONF:1098-7697;CONF:1098-7704;CONF:1098-7716;CONF:1098-29744;CONF:1098-16842;CONF:1098-7718;CONF:1098-7720;CONF:1098-7722;CONF:1098-7731;CONF:1098-7732;CONF:1098-7733;CONF:1098-7734;CONF:1098-7735;CONF:1098-7737;CONF:1098-7736;CONF:1098-32479;CONF:1098-7751;CONF:1098-7752;CONF:1098-15911;CONF:1098-7765;CONF:1098-7766;CONF:1098-15912;CONF:1098-7768;CONF:1098-7769;CONF:1098-8009;CONF:1098-7770;CONF:1098-7771;CONF:1098-7772;CONF:1098-7773;CONF:1098-16843;CONF:1098-7775;CONF:1098-7776;CONF:1098-7777;CONF:1098-31395;CONF:1098-7779;CONF:1098-7780;CONF:1098-15914;CONF:1098-7886;CONF:1098-7887;CONF:1098-15915;CONF:1098-32473;CONF:1098-32474;CONF:1098-32475' },</v>
       </c>
       <c r="N177" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.14',</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>358</v>
       </c>
@@ -13996,17 +13619,14 @@
       </c>
       <c r="M178" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '177', 'template_type': 'Entry', 'name': 'Procedure Context [2.16.840.1.113883.10.20.6.2.5[779-781', 'name2': 'Procedure Context', 'template': '2.16.840.1.113883.10.20.6.2.5', 'pageStart': '779', 'pages': '779-781', 'search': 'Procedure Context 2.16.840.1.113883.10.20.6.2.5 CONF:81-26452;CONF:81-26453;CONF:81-9200;CONF:81-10530;CONF:81-9201;CONF:81-9203;CONF:81-17173;CONF:81-9199' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Procedure Context [2.16.840.1.113883.10.20.6.2.5[779-781', 'name2': 'Procedure Context', 'template': '2.16.840.1.113883.10.20.6.2.5', 'pageStart': '779', 'pages': '779-781', 'search': 'Procedure Context 2.16.840.1.113883.10.20.6.2.5 CONF:81-26452;CONF:81-26453;CONF:81-9200;CONF:81-10530;CONF:81-9201;CONF:81-9203;CONF:81-17173;CONF:81-9199' },</v>
       </c>
       <c r="N178" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.6.2.5',</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>360</v>
       </c>
@@ -14038,17 +13658,14 @@
       </c>
       <c r="M179" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '178', 'template_type': 'Entry', 'name': 'Product Instance [2.16.840.1.113883.10.20.22.4.37[781-783', 'name2': 'Product Instance', 'template': '2.16.840.1.113883.10.20.22.4.37', 'pageStart': '781', 'pages': '781-783', 'search': 'Product Instance 2.16.840.1.113883.10.20.22.4.37 CONF:81-7900;CONF:81-7901;CONF:81-10522;CONF:81-7902;CONF:81-7903;CONF:81-16837;CONF:81-7905;CONF:81-7908' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Product Instance [2.16.840.1.113883.10.20.22.4.37[781-783', 'name2': 'Product Instance', 'template': '2.16.840.1.113883.10.20.22.4.37', 'pageStart': '781', 'pages': '781-783', 'search': 'Product Instance 2.16.840.1.113883.10.20.22.4.37 CONF:81-7900;CONF:81-7901;CONF:81-10522;CONF:81-7902;CONF:81-7903;CONF:81-16837;CONF:81-7905;CONF:81-7908' },</v>
       </c>
       <c r="N179" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.37',</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>362</v>
       </c>
@@ -14080,17 +13697,14 @@
       </c>
       <c r="M180" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '179', 'template_type': 'Entry', 'name': 'Prognosis Observation [2.16.840.1.113883.10.20.22.4.113[783-785', 'name2': 'Prognosis Observation', 'template': '2.16.840.1.113883.10.20.22.4.113', 'pageStart': '783', 'pages': '783-785', 'search': 'Prognosis Observation 2.16.840.1.113883.10.20.22.4.113 CONF:1098-29035;CONF:1098-29036;CONF:1098-29037;CONF:1098-29038;CONF:1098-29039;CONF:1098-29468;CONF:1098-31349;CONF:1098-31350;CONF:1098-31351;CONF:1098-31123;CONF:1098-29469' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Prognosis Observation [2.16.840.1.113883.10.20.22.4.113[783-785', 'name2': 'Prognosis Observation', 'template': '2.16.840.1.113883.10.20.22.4.113', 'pageStart': '783', 'pages': '783-785', 'search': 'Prognosis Observation 2.16.840.1.113883.10.20.22.4.113 CONF:1098-29035;CONF:1098-29036;CONF:1098-29037;CONF:1098-29038;CONF:1098-29039;CONF:1098-29468;CONF:1098-31349;CONF:1098-31350;CONF:1098-31351;CONF:1098-31123;CONF:1098-29469' },</v>
       </c>
       <c r="N180" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.113',</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>364</v>
       </c>
@@ -14122,17 +13736,14 @@
       </c>
       <c r="M181" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '180', 'template_type': 'Entry', 'name': 'Progress Toward Goal Observation  [2.16.840.1.113883.10.20.22.4.110[785-787', 'name2': 'Progress Toward Goal Observation ', 'template': '2.16.840.1.113883.10.20.22.4.110', 'pageStart': '785', 'pages': '785-787', 'search': 'Progress Toward Goal Observation  2.16.840.1.113883.10.20.22.4.110 CONF:1098-31418;CONF:1098-31419;CONF:1098-31420;CONF:1098-31421;CONF:1098-31422;CONF:1098-31423;CONF:1098-31424;CONF:1098-31425;CONF:1098-31609;CONF:1098-31610;CONF:1098-31426' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Progress Toward Goal Observation  [2.16.840.1.113883.10.20.22.4.110[785-787', 'name2': 'Progress Toward Goal Observation ', 'template': '2.16.840.1.113883.10.20.22.4.110', 'pageStart': '785', 'pages': '785-787', 'search': 'Progress Toward Goal Observation  2.16.840.1.113883.10.20.22.4.110 CONF:1098-31418;CONF:1098-31419;CONF:1098-31420;CONF:1098-31421;CONF:1098-31422;CONF:1098-31423;CONF:1098-31424;CONF:1098-31425;CONF:1098-31609;CONF:1098-31610;CONF:1098-31426' },</v>
       </c>
       <c r="N181" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.110',</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
-      </c>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>366</v>
       </c>
@@ -14164,17 +13775,14 @@
       </c>
       <c r="M182" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '181', 'template_type': 'Entry', 'name': 'Purpose of Reference Observation [2.16.840.1.113883.10.20.6.2.9[787-789', 'name2': 'Purpose of Reference Observation', 'template': '2.16.840.1.113883.10.20.6.2.9', 'pageStart': '787', 'pages': '787-789', 'search': 'Purpose of Reference Observation 2.16.840.1.113883.10.20.6.2.9 CONF:81-9264;CONF:81-9265;CONF:81-9266;CONF:81-10531;CONF:81-9267;CONF:81-19208;CONF:81-19209;CONF:81-9273' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Purpose of Reference Observation [2.16.840.1.113883.10.20.6.2.9[787-789', 'name2': 'Purpose of Reference Observation', 'template': '2.16.840.1.113883.10.20.6.2.9', 'pageStart': '787', 'pages': '787-789', 'search': 'Purpose of Reference Observation 2.16.840.1.113883.10.20.6.2.9 CONF:81-9264;CONF:81-9265;CONF:81-9266;CONF:81-10531;CONF:81-9267;CONF:81-19208;CONF:81-19209;CONF:81-9273' },</v>
       </c>
       <c r="N182" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.6.2.9',</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
-      </c>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>368</v>
       </c>
@@ -14206,17 +13814,14 @@
       </c>
       <c r="M183" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '182', 'template_type': 'Entry', 'name': 'Quantity Measurement Observation  [2.16.840.1.113883.10.20.6.2.14[789-793', 'name2': 'Quantity Measurement Observation ', 'template': '2.16.840.1.113883.10.20.6.2.14', 'pageStart': '789', 'pages': '789-793', 'search': 'Quantity Measurement Observation  2.16.840.1.113883.10.20.6.2.14 CONF:81-9317;CONF:81-9318;CONF:81-9319;CONF:81-10532;CONF:81-9320;CONF:81-19210;CONF:81-9326;CONF:81-9324;CONF:81-9327;CONF:81-9328;CONF:81-15916' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Quantity Measurement Observation  [2.16.840.1.113883.10.20.6.2.14[789-793', 'name2': 'Quantity Measurement Observation ', 'template': '2.16.840.1.113883.10.20.6.2.14', 'pageStart': '789', 'pages': '789-793', 'search': 'Quantity Measurement Observation  2.16.840.1.113883.10.20.6.2.14 CONF:81-9317;CONF:81-9318;CONF:81-9319;CONF:81-10532;CONF:81-9320;CONF:81-19210;CONF:81-9326;CONF:81-9324;CONF:81-9327;CONF:81-9328;CONF:81-15916' },</v>
       </c>
       <c r="N183" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.6.2.14',</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>370</v>
       </c>
@@ -14248,17 +13853,14 @@
       </c>
       <c r="M184" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '183', 'template_type': 'Entry', 'name': 'Reaction Observation   [2.16.840.1.113883.10.20.22.4.9[793-797', 'name2': 'Reaction Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.9', 'pageStart': '793', 'pages': '793-797', 'search': 'Reaction Observation   2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Reaction Observation   [2.16.840.1.113883.10.20.22.4.9[793-797', 'name2': 'Reaction Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.9', 'pageStart': '793', 'pages': '793-797', 'search': 'Reaction Observation   2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922' },</v>
       </c>
       <c r="N184" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.9',</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
-      </c>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>372</v>
       </c>
@@ -14290,17 +13892,14 @@
       </c>
       <c r="M185" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '184', 'template_type': 'Entry', 'name': 'Referenced Frames Observation [2.16.840.1.113883.10.20.6.2.10[797-798', 'name2': 'Referenced Frames Observation', 'template': '2.16.840.1.113883.10.20.6.2.10', 'pageStart': '797', 'pages': '797-798', 'search': 'Referenced Frames Observation 2.16.840.1.113883.10.20.6.2.10 CONF:81-9276;CONF:81-9277;CONF:81-19164;CONF:81-19165;CONF:81-9279;CONF:81-9280;CONF:81-15923' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Referenced Frames Observation [2.16.840.1.113883.10.20.6.2.10[797-798', 'name2': 'Referenced Frames Observation', 'template': '2.16.840.1.113883.10.20.6.2.10', 'pageStart': '797', 'pages': '797-798', 'search': 'Referenced Frames Observation 2.16.840.1.113883.10.20.6.2.10 CONF:81-9276;CONF:81-9277;CONF:81-19164;CONF:81-19165;CONF:81-9279;CONF:81-9280;CONF:81-15923' },</v>
       </c>
       <c r="N185" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.6.2.10',</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
-      </c>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>374</v>
       </c>
@@ -14332,19 +13931,16 @@
       </c>
       <c r="M186" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '185', 'template_type': 'Entry', 'name': 'Result Observation  [2.16.840.1.113883.10.20.22.4.2[798-803', 'name2': 'Result Observation ', 'template': '2.16.840.1.113883.10.20.22.4.2', 'pageStart': '798', 'pages': '798-803', 'search': 'Result Observation  2.16.840.1.113883.10.20.22.4.2 CONF:1198-7130;CONF:1198-7131;CONF:1198-7136;CONF:1198-9138;CONF:1198-32575;CONF:1198-7137;CONF:1198-7133;CONF:1198-19212;CONF:1198-7134;CONF:1198-14849;CONF:1198-7140;CONF:1198-7143;CONF:1198-31484;CONF:1198-31866;CONF:1198-32610;CONF:1198-7147;CONF:1198-32476;CONF:1198-7148;CONF:1198-7153;CONF:1198-7149;CONF:1198-7150;CONF:1198-7151;CONF:1198-7152;CONF:1198-32175' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Result Observation  [2.16.840.1.113883.10.20.22.4.2[798-803', 'name2': 'Result Observation ', 'template': '2.16.840.1.113883.10.20.22.4.2', 'pageStart': '798', 'pages': '798-803', 'search': 'Result Observation  2.16.840.1.113883.10.20.22.4.2 CONF:1198-7130;CONF:1198-7131;CONF:1198-7136;CONF:1198-9138;CONF:1198-32575;CONF:1198-7137;CONF:1198-7133;CONF:1198-19212;CONF:1198-7134;CONF:1198-14849;CONF:1198-7140;CONF:1198-7143;CONF:1198-31484;CONF:1198-31866;CONF:1198-32610;CONF:1198-7147;CONF:1198-32476;CONF:1198-7148;CONF:1198-7153;CONF:1198-7149;CONF:1198-7150;CONF:1198-7151;CONF:1198-7152;CONF:1198-32175' },</v>
       </c>
       <c r="N186" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.2',</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
-      </c>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>376</v>
+        <v>1901</v>
       </c>
       <c r="C187" t="s">
         <v>432</v>
@@ -14353,11 +13949,14 @@
         <v>377</v>
       </c>
       <c r="E187">
-        <v>803</v>
-      </c>
-      <c r="G187" s="3" t="str">
-        <f>VLOOKUP(D187,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>803-807</v>
+        <v>1200</v>
+      </c>
+      <c r="F187">
+        <v>1207</v>
+      </c>
+      <c r="G187" t="str">
+        <f>"CG_A_"&amp;E187-1000&amp;"-"&amp;F187-1000</f>
+        <v>CG_A_200-207</v>
       </c>
       <c r="H187" t="s">
         <v>895</v>
@@ -14370,23 +13969,20 @@
       </c>
       <c r="K187" t="str">
         <f t="shared" si="6"/>
-        <v>Result Organizer   2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850</v>
+        <v>Result Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850</v>
       </c>
       <c r="M187" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '186', 'template_type': 'Entry', 'name': 'Result Organizer   [2.16.840.1.113883.10.20.22.4.1[803-807', 'name2': 'Result Organizer  ', 'template': '2.16.840.1.113883.10.20.22.4.1', 'pageStart': '803', 'pages': '803-807', 'search': 'Result Organizer   2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Result Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.1[CG_A_200-207', 'name2': 'Result Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.1', 'pageStart': '1200', 'pages': 'CG_A_200-207', 'search': 'Result Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850' },</v>
       </c>
       <c r="N187" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.1',</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
-      </c>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>378</v>
+        <v>1902</v>
       </c>
       <c r="C188" t="s">
         <v>432</v>
@@ -14395,11 +13991,14 @@
         <v>379</v>
       </c>
       <c r="E188">
-        <v>807</v>
-      </c>
-      <c r="G188" s="3" t="str">
-        <f>VLOOKUP(D188,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>807-823</v>
+        <v>1207</v>
+      </c>
+      <c r="F188">
+        <v>1211</v>
+      </c>
+      <c r="G188" t="str">
+        <f>"CG_A_"&amp;E188-1000&amp;"-"&amp;F188-1000</f>
+        <v>CG_A_207-211</v>
       </c>
       <c r="H188" t="s">
         <v>824</v>
@@ -14412,21 +14011,18 @@
       </c>
       <c r="K188" t="str">
         <f t="shared" si="6"/>
-        <v>Risk Concern Act   2.16.840.1.113883.10.20.22.4.136 CONF:1198-32220;CONF:1198-32221;CONF:1198-32180;CONF:1198-32222;CONF:1198-32910;CONF:1198-32223;CONF:1198-32305;CONF:1198-32306;CONF:1198-32307;CONF:1198-32225;CONF:1198-32314;CONF:1198-32226;CONF:1198-32300;CONF:1198-32179;CONF:1198-32227;CONF:1198-32219;CONF:1198-32181;CONF:1198-32228;CONF:1198-32229;CONF:1198-32182;CONF:1198-32230;CONF:1198-32231;CONF:1198-32183;CONF:1198-32232;CONF:1198-32233;CONF:1198-32184;CONF:1198-32234;CONF:1198-32235;CONF:1198-32185;CONF:1198-32236;CONF:1198-32237;CONF:1198-32186;CONF:1198-32238;CONF:1198-32239;CONF:1198-32188;CONF:1198-32242;CONF:1198-32243;CONF:1198-32189;CONF:1198-32244;CONF:1198-32245;CONF:1198-32190;CONF:1198-32246;CONF:1198-32247;CONF:1198-32191;CONF:1198-32248;CONF:1198-32249;CONF:1198-32192;CONF:1198-32250;CONF:1198-32251;CONF:1198-32193;CONF:1198-32252;CONF:1198-32253;CONF:1198-32195;CONF:1198-32256;CONF:1198-32257;CONF:1198-32197;CONF:1198-32260;CONF:1198-32261;CONF:1198-32198;CONF:1198-32262;CONF:1198-32263;CONF:1198-32199;CONF:1198-32264;CONF:1198-32265;CONF:1198-32200;CONF:1198-32266;CONF:1198-32267;CONF:1198-32201;CONF:1198-32268;CONF:1198-32269;CONF:1198-32202;CONF:1198-32270;CONF:1198-32271;CONF:1198-32203;CONF:1198-32272;CONF:1198-32273;CONF:1198-32204;CONF:1198-32958;CONF:1198-32275;CONF:1198-32205;CONF:1198-32276;CONF:1198-32277;CONF:1198-32206;CONF:1198-32278;CONF:1198-32279;CONF:1198-32207;CONF:1198-32280;CONF:1198-32281;CONF:1198-32208;CONF:1198-32282;CONF:1198-32283;CONF:1198-32209;CONF:1198-32284;CONF:1198-32285;CONF:1198-32210;CONF:1198-32286;CONF:1198-32287;CONF:1198-32211;CONF:1198-32288;CONF:1198-32289;CONF:1198-32212;CONF:1198-32290;CONF:1198-32291;CONF:1198-32213;CONF:1198-32292;CONF:1198-32293;CONF:1198-32214;CONF:1198-32294;CONF:1198-32295;CONF:1198-32215;CONF:1198-32296;CONF:1198-32297;CONF:1198-32216;CONF:1198-32298;CONF:1198-32299;CONF:1198-32217;CONF:1198-32301;CONF:1198-32302;CONF:1198-32769;CONF:1198-32908;CONF:1198-32909</v>
+        <v>Risk Concern Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.136 CONF:1198-32220;CONF:1198-32221;CONF:1198-32180;CONF:1198-32222;CONF:1198-32910;CONF:1198-32223;CONF:1198-32305;CONF:1198-32306;CONF:1198-32307;CONF:1198-32225;CONF:1198-32314;CONF:1198-32226;CONF:1198-32300;CONF:1198-32179;CONF:1198-32227;CONF:1198-32219;CONF:1198-32181;CONF:1198-32228;CONF:1198-32229;CONF:1198-32182;CONF:1198-32230;CONF:1198-32231;CONF:1198-32183;CONF:1198-32232;CONF:1198-32233;CONF:1198-32184;CONF:1198-32234;CONF:1198-32235;CONF:1198-32185;CONF:1198-32236;CONF:1198-32237;CONF:1198-32186;CONF:1198-32238;CONF:1198-32239;CONF:1198-32188;CONF:1198-32242;CONF:1198-32243;CONF:1198-32189;CONF:1198-32244;CONF:1198-32245;CONF:1198-32190;CONF:1198-32246;CONF:1198-32247;CONF:1198-32191;CONF:1198-32248;CONF:1198-32249;CONF:1198-32192;CONF:1198-32250;CONF:1198-32251;CONF:1198-32193;CONF:1198-32252;CONF:1198-32253;CONF:1198-32195;CONF:1198-32256;CONF:1198-32257;CONF:1198-32197;CONF:1198-32260;CONF:1198-32261;CONF:1198-32198;CONF:1198-32262;CONF:1198-32263;CONF:1198-32199;CONF:1198-32264;CONF:1198-32265;CONF:1198-32200;CONF:1198-32266;CONF:1198-32267;CONF:1198-32201;CONF:1198-32268;CONF:1198-32269;CONF:1198-32202;CONF:1198-32270;CONF:1198-32271;CONF:1198-32203;CONF:1198-32272;CONF:1198-32273;CONF:1198-32204;CONF:1198-32958;CONF:1198-32275;CONF:1198-32205;CONF:1198-32276;CONF:1198-32277;CONF:1198-32206;CONF:1198-32278;CONF:1198-32279;CONF:1198-32207;CONF:1198-32280;CONF:1198-32281;CONF:1198-32208;CONF:1198-32282;CONF:1198-32283;CONF:1198-32209;CONF:1198-32284;CONF:1198-32285;CONF:1198-32210;CONF:1198-32286;CONF:1198-32287;CONF:1198-32211;CONF:1198-32288;CONF:1198-32289;CONF:1198-32212;CONF:1198-32290;CONF:1198-32291;CONF:1198-32213;CONF:1198-32292;CONF:1198-32293;CONF:1198-32214;CONF:1198-32294;CONF:1198-32295;CONF:1198-32215;CONF:1198-32296;CONF:1198-32297;CONF:1198-32216;CONF:1198-32298;CONF:1198-32299;CONF:1198-32217;CONF:1198-32301;CONF:1198-32302;CONF:1198-32769;CONF:1198-32908;CONF:1198-32909</v>
       </c>
       <c r="M188" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '187', 'template_type': 'Entry', 'name': 'Risk Concern Act   [2.16.840.1.113883.10.20.22.4.136[807-823', 'name2': 'Risk Concern Act  ', 'template': '2.16.840.1.113883.10.20.22.4.136', 'pageStart': '807', 'pages': '807-823', 'search': 'Risk Concern Act   2.16.840.1.113883.10.20.22.4.136 CONF:1198-32220;CONF:1198-32221;CONF:1198-32180;CONF:1198-32222;CONF:1198-32910;CONF:1198-32223;CONF:1198-32305;CONF:1198-32306;CONF:1198-32307;CONF:1198-32225;CONF:1198-32314;CONF:1198-32226;CONF:1198-32300;CONF:1198-32179;CONF:1198-32227;CONF:1198-32219;CONF:1198-32181;CONF:1198-32228;CONF:1198-32229;CONF:1198-32182;CONF:1198-32230;CONF:1198-32231;CONF:1198-32183;CONF:1198-32232;CONF:1198-32233;CONF:1198-32184;CONF:1198-32234;CONF:1198-32235;CONF:1198-32185;CONF:1198-32236;CONF:1198-32237;CONF:1198-32186;CONF:1198-32238;CONF:1198-32239;CONF:1198-32188;CONF:1198-32242;CONF:1198-32243;CONF:1198-32189;CONF:1198-32244;CONF:1198-32245;CONF:1198-32190;CONF:1198-32246;CONF:1198-32247;CONF:1198-32191;CONF:1198-32248;CONF:1198-32249;CONF:1198-32192;CONF:1198-32250;CONF:1198-32251;CONF:1198-32193;CONF:1198-32252;CONF:1198-32253;CONF:1198-32195;CONF:1198-32256;CONF:1198-32257;CONF:1198-32197;CONF:1198-32260;CONF:1198-32261;CONF:1198-32198;CONF:1198-32262;CONF:1198-32263;CONF:1198-32199;CONF:1198-32264;CONF:1198-32265;CONF:1198-32200;CONF:1198-32266;CONF:1198-32267;CONF:1198-32201;CONF:1198-32268;CONF:1198-32269;CONF:1198-32202;CONF:1198-32270;CONF:1198-32271;CONF:1198-32203;CONF:1198-32272;CONF:1198-32273;CONF:1198-32204;CONF:1198-32958;CONF:1198-32275;CONF:1198-32205;CONF:1198-32276;CONF:1198-32277;CONF:1198-32206;CONF:1198-32278;CONF:1198-32279;CONF:1198-32207;CONF:1198-32280;CONF:1198-32281;CONF:1198-32208;CONF:1198-32282;CONF:1198-32283;CONF:1198-32209;CONF:1198-32284;CONF:1198-32285;CONF:1198-32210;CONF:1198-32286;CONF:1198-32287;CONF:1198-32211;CONF:1198-32288;CONF:1198-32289;CONF:1198-32212;CONF:1198-32290;CONF:1198-32291;CONF:1198-32213;CONF:1198-32292;CONF:1198-32293;CONF:1198-32214;CONF:1198-32294;CONF:1198-32295;CONF:1198-32215;CONF:1198-32296;CONF:1198-32297;CONF:1198-32216;CONF:1198-32298;CONF:1198-32299;CONF:1198-32217;CONF:1198-32301;CONF:1198-32302;CONF:1198-32769;CONF:1198-32908;CONF:1198-32909' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Risk Concern Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.136[CG_A_207-211', 'name2': 'Risk Concern Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.136', 'pageStart': '1207', 'pages': 'CG_A_207-211', 'search': 'Risk Concern Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.136 CONF:1198-32220;CONF:1198-32221;CONF:1198-32180;CONF:1198-32222;CONF:1198-32910;CONF:1198-32223;CONF:1198-32305;CONF:1198-32306;CONF:1198-32307;CONF:1198-32225;CONF:1198-32314;CONF:1198-32226;CONF:1198-32300;CONF:1198-32179;CONF:1198-32227;CONF:1198-32219;CONF:1198-32181;CONF:1198-32228;CONF:1198-32229;CONF:1198-32182;CONF:1198-32230;CONF:1198-32231;CONF:1198-32183;CONF:1198-32232;CONF:1198-32233;CONF:1198-32184;CONF:1198-32234;CONF:1198-32235;CONF:1198-32185;CONF:1198-32236;CONF:1198-32237;CONF:1198-32186;CONF:1198-32238;CONF:1198-32239;CONF:1198-32188;CONF:1198-32242;CONF:1198-32243;CONF:1198-32189;CONF:1198-32244;CONF:1198-32245;CONF:1198-32190;CONF:1198-32246;CONF:1198-32247;CONF:1198-32191;CONF:1198-32248;CONF:1198-32249;CONF:1198-32192;CONF:1198-32250;CONF:1198-32251;CONF:1198-32193;CONF:1198-32252;CONF:1198-32253;CONF:1198-32195;CONF:1198-32256;CONF:1198-32257;CONF:1198-32197;CONF:1198-32260;CONF:1198-32261;CONF:1198-32198;CONF:1198-32262;CONF:1198-32263;CONF:1198-32199;CONF:1198-32264;CONF:1198-32265;CONF:1198-32200;CONF:1198-32266;CONF:1198-32267;CONF:1198-32201;CONF:1198-32268;CONF:1198-32269;CONF:1198-32202;CONF:1198-32270;CONF:1198-32271;CONF:1198-32203;CONF:1198-32272;CONF:1198-32273;CONF:1198-32204;CONF:1198-32958;CONF:1198-32275;CONF:1198-32205;CONF:1198-32276;CONF:1198-32277;CONF:1198-32206;CONF:1198-32278;CONF:1198-32279;CONF:1198-32207;CONF:1198-32280;CONF:1198-32281;CONF:1198-32208;CONF:1198-32282;CONF:1198-32283;CONF:1198-32209;CONF:1198-32284;CONF:1198-32285;CONF:1198-32210;CONF:1198-32286;CONF:1198-32287;CONF:1198-32211;CONF:1198-32288;CONF:1198-32289;CONF:1198-32212;CONF:1198-32290;CONF:1198-32291;CONF:1198-32213;CONF:1198-32292;CONF:1198-32293;CONF:1198-32214;CONF:1198-32294;CONF:1198-32295;CONF:1198-32215;CONF:1198-32296;CONF:1198-32297;CONF:1198-32216;CONF:1198-32298;CONF:1198-32299;CONF:1198-32217;CONF:1198-32301;CONF:1198-32302;CONF:1198-32769;CONF:1198-32908;CONF:1198-32909' },</v>
       </c>
       <c r="N188" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.136',</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
-      </c>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>380</v>
       </c>
@@ -14458,17 +14054,14 @@
       </c>
       <c r="M189" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '188', 'template_type': 'Entry', 'name': 'Self-Care Activities (ADL and IADL) [2.16.840.1.113883.10.20.22.4.128[823-826', 'name2': 'Self-Care Activities (ADL and IADL)', 'template': '2.16.840.1.113883.10.20.22.4.128', 'pageStart': '823', 'pages': '823-826', 'search': 'Self-Care Activities (ADL and IADL) 2.16.840.1.113883.10.20.22.4.128 CONF:1098-31389;CONF:1098-31390;CONF:1098-28190;CONF:1098-28457;CONF:1098-28153;CONF:1098-32490;CONF:1098-32491;CONF:1098-32492;CONF:1098-28042;CONF:1098-32469' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Self-Care Activities (ADL and IADL) [2.16.840.1.113883.10.20.22.4.128[823-826', 'name2': 'Self-Care Activities (ADL and IADL)', 'template': '2.16.840.1.113883.10.20.22.4.128', 'pageStart': '823', 'pages': '823-826', 'search': 'Self-Care Activities (ADL and IADL) 2.16.840.1.113883.10.20.22.4.128 CONF:1098-31389;CONF:1098-31390;CONF:1098-28190;CONF:1098-28457;CONF:1098-28153;CONF:1098-32490;CONF:1098-32491;CONF:1098-32492;CONF:1098-28042;CONF:1098-32469' },</v>
       </c>
       <c r="N189" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.128',</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
-      </c>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>382</v>
       </c>
@@ -14500,17 +14093,14 @@
       </c>
       <c r="M190" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '189', 'template_type': 'Entry', 'name': 'Sensory Status [2.16.840.1.113883.10.20.22.4.127[826-831', 'name2': 'Sensory Status', 'template': '2.16.840.1.113883.10.20.22.4.127', 'pageStart': '826', 'pages': '826-831', 'search': 'Sensory Status 2.16.840.1.113883.10.20.22.4.127 CONF:1098-31017;CONF:1098-31018;CONF:1098-27959;CONF:1098-27960;CONF:1098-27962;CONF:1098-31437;CONF:1098-31438;CONF:1098-31441;CONF:1098-32630;CONF:1098-32631;CONF:1098-27974;CONF:1098-31439;CONF:1098-27984;CONF:1098-27985;CONF:1098-27986' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Sensory Status [2.16.840.1.113883.10.20.22.4.127[826-831', 'name2': 'Sensory Status', 'template': '2.16.840.1.113883.10.20.22.4.127', 'pageStart': '826', 'pages': '826-831', 'search': 'Sensory Status 2.16.840.1.113883.10.20.22.4.127 CONF:1098-31017;CONF:1098-31018;CONF:1098-27959;CONF:1098-27960;CONF:1098-27962;CONF:1098-31437;CONF:1098-31438;CONF:1098-31441;CONF:1098-32630;CONF:1098-32631;CONF:1098-27974;CONF:1098-31439;CONF:1098-27984;CONF:1098-27985;CONF:1098-27986' },</v>
       </c>
       <c r="N190" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.127',</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
-      </c>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>384</v>
       </c>
@@ -14542,17 +14132,14 @@
       </c>
       <c r="M191" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '190', 'template_type': 'Entry', 'name': 'Series Act  [2.16.840.1.113883.10.20.22.4.63[831-834', 'name2': 'Series Act ', 'template': '2.16.840.1.113883.10.20.22.4.63', 'pageStart': '831', 'pages': '831-834', 'search': 'Series Act  2.16.840.1.113883.10.20.22.4.63 CONF:81-9222;CONF:81-9223;CONF:81-10918;CONF:81-10919;CONF:81-9224;CONF:81-9225;CONF:81-9226;CONF:81-19166;CONF:81-19167;CONF:81-26461;CONF:81-26462;CONF:81-26463;CONF:81-26464;CONF:81-26465;CONF:81-26466;CONF:81-9233;CONF:81-9235;CONF:81-9237;CONF:81-9238;CONF:81-15927' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Series Act  [2.16.840.1.113883.10.20.22.4.63[831-834', 'name2': 'Series Act ', 'template': '2.16.840.1.113883.10.20.22.4.63', 'pageStart': '831', 'pages': '831-834', 'search': 'Series Act  2.16.840.1.113883.10.20.22.4.63 CONF:81-9222;CONF:81-9223;CONF:81-10918;CONF:81-10919;CONF:81-9224;CONF:81-9225;CONF:81-9226;CONF:81-19166;CONF:81-19167;CONF:81-26461;CONF:81-26462;CONF:81-26463;CONF:81-26464;CONF:81-26465;CONF:81-26466;CONF:81-9233;CONF:81-9235;CONF:81-9237;CONF:81-9238;CONF:81-15927' },</v>
       </c>
       <c r="N191" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.63',</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
-      </c>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>386</v>
       </c>
@@ -14584,17 +14171,14 @@
       </c>
       <c r="M192" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '191', 'template_type': 'Entry', 'name': 'Service Delivery Location [2.16.840.1.113883.10.20.22.4.32[834-837', 'name2': 'Service Delivery Location', 'template': '2.16.840.1.113883.10.20.22.4.32', 'pageStart': '834', 'pages': '834-837', 'search': 'Service Delivery Location 2.16.840.1.113883.10.20.22.4.32 CONF:81-7758;CONF:81-7635;CONF:81-10524;CONF:81-16850;CONF:81-7760;CONF:81-7761;CONF:81-7762;CONF:81-7763;CONF:81-16037' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Service Delivery Location [2.16.840.1.113883.10.20.22.4.32[834-837', 'name2': 'Service Delivery Location', 'template': '2.16.840.1.113883.10.20.22.4.32', 'pageStart': '834', 'pages': '834-837', 'search': 'Service Delivery Location 2.16.840.1.113883.10.20.22.4.32 CONF:81-7758;CONF:81-7635;CONF:81-10524;CONF:81-16850;CONF:81-7760;CONF:81-7761;CONF:81-7762;CONF:81-7763;CONF:81-16037' },</v>
       </c>
       <c r="N192" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.32',</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
-      </c>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>388</v>
       </c>
@@ -14626,17 +14210,14 @@
       </c>
       <c r="M193" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '192', 'template_type': 'Entry', 'name': 'Severity Observation   [2.16.840.1.113883.10.20.22.4.8[837-840', 'name2': 'Severity Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.8', 'pageStart': '837', 'pages': '837-840', 'search': 'Severity Observation   2.16.840.1.113883.10.20.22.4.8 CONF:1098-7345;CONF:1098-7346;CONF:1098-7347;CONF:1098-10525;CONF:1098-32577;CONF:1098-19168;CONF:1098-19169;CONF:1098-32170;CONF:1098-7352;CONF:1098-19115;CONF:1098-7356' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Severity Observation   [2.16.840.1.113883.10.20.22.4.8[837-840', 'name2': 'Severity Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.8', 'pageStart': '837', 'pages': '837-840', 'search': 'Severity Observation   2.16.840.1.113883.10.20.22.4.8 CONF:1098-7345;CONF:1098-7346;CONF:1098-7347;CONF:1098-10525;CONF:1098-32577;CONF:1098-19168;CONF:1098-19169;CONF:1098-32170;CONF:1098-7352;CONF:1098-19115;CONF:1098-7356' },</v>
       </c>
       <c r="N193" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.8',</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>193</v>
-      </c>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>390</v>
       </c>
@@ -14663,24 +14244,21 @@
         <v>553</v>
       </c>
       <c r="K194" t="str">
-        <f t="shared" ref="K194:K240" si="9">B194&amp;" "&amp;D194&amp;" "&amp;J194</f>
+        <f t="shared" ref="K194:K241" si="9">B194&amp;" "&amp;D194&amp;" "&amp;J194</f>
         <v>Smoking Status - Meaningful Use  2.16.840.1.113883.10.20.22.4.78 CONF:1098-14806;CONF:1098-14807;CONF:1098-14815;CONF:1098-14816;CONF:1098-32573;CONF:1098-32401;CONF:1098-19170;CONF:1098-31039;CONF:1098-32157;CONF:1098-14809;CONF:1098-19116;CONF:1098-31928;CONF:1098-32894;CONF:1098-32895;CONF:1098-32896;CONF:1098-32897;CONF:1098-14810;CONF:1098-14817;CONF:1098-31019;CONF:1098-31148</v>
       </c>
       <c r="M194" t="str">
         <f t="shared" si="7"/>
-        <v>{ 'id': '193', 'template_type': 'Entry', 'name': 'Smoking Status - Meaningful Use  [2.16.840.1.113883.10.20.22.4.78[840-844', 'name2': 'Smoking Status - Meaningful Use ', 'template': '2.16.840.1.113883.10.20.22.4.78', 'pageStart': '840', 'pages': '840-844', 'search': 'Smoking Status - Meaningful Use  2.16.840.1.113883.10.20.22.4.78 CONF:1098-14806;CONF:1098-14807;CONF:1098-14815;CONF:1098-14816;CONF:1098-32573;CONF:1098-32401;CONF:1098-19170;CONF:1098-31039;CONF:1098-32157;CONF:1098-14809;CONF:1098-19116;CONF:1098-31928;CONF:1098-32894;CONF:1098-32895;CONF:1098-32896;CONF:1098-32897;CONF:1098-14810;CONF:1098-14817;CONF:1098-31019;CONF:1098-31148' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Smoking Status - Meaningful Use  [2.16.840.1.113883.10.20.22.4.78[840-844', 'name2': 'Smoking Status - Meaningful Use ', 'template': '2.16.840.1.113883.10.20.22.4.78', 'pageStart': '840', 'pages': '840-844', 'search': 'Smoking Status - Meaningful Use  2.16.840.1.113883.10.20.22.4.78 CONF:1098-14806;CONF:1098-14807;CONF:1098-14815;CONF:1098-14816;CONF:1098-32573;CONF:1098-32401;CONF:1098-19170;CONF:1098-31039;CONF:1098-32157;CONF:1098-14809;CONF:1098-19116;CONF:1098-31928;CONF:1098-32894;CONF:1098-32895;CONF:1098-32896;CONF:1098-32897;CONF:1098-14810;CONF:1098-14817;CONF:1098-31019;CONF:1098-31148' },</v>
       </c>
       <c r="N194" t="str">
         <f t="shared" si="8"/>
         <v>'2.16.840.1.113883.10.20.22.4.78',</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
-      </c>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>392</v>
+        <v>1900</v>
       </c>
       <c r="C195" t="s">
         <v>432</v>
@@ -14689,11 +14267,14 @@
         <v>393</v>
       </c>
       <c r="E195">
-        <v>844</v>
-      </c>
-      <c r="G195" s="3" t="str">
-        <f>VLOOKUP(D195,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>844-848</v>
+        <v>1216</v>
+      </c>
+      <c r="F195">
+        <v>1222</v>
+      </c>
+      <c r="G195" t="str">
+        <f>"CG_A_"&amp;E195-1000&amp;"-"&amp;F195-1000</f>
+        <v>CG_A_216-222</v>
       </c>
       <c r="H195" t="s">
         <v>903</v>
@@ -14706,21 +14287,18 @@
       </c>
       <c r="K195" t="str">
         <f t="shared" si="9"/>
-        <v>Social History Observation   2.16.840.1.113883.10.20.22.4.38 CONF:1198-8548;CONF:1198-8549;CONF:1198-8550;CONF:1198-10526;CONF:1198-32495;CONF:1198-8551;CONF:1198-8558;CONF:1198-32951;CONF:1198-8553;CONF:1198-19117;CONF:1198-31868;CONF:1198-8559;CONF:1198-8555;CONF:1198-31869</v>
+        <v>Social History Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.38 CONF:1198-8548;CONF:1198-8549;CONF:1198-8550;CONF:1198-10526;CONF:1198-32495;CONF:1198-8551;CONF:1198-8558;CONF:1198-32951;CONF:1198-8553;CONF:1198-19117;CONF:1198-31868;CONF:1198-8559;CONF:1198-8555;CONF:1198-31869</v>
       </c>
       <c r="M195" t="str">
-        <f t="shared" ref="M195:M240" si="10">"{ 'id': '"&amp;A195&amp;"', 'template_type': '"&amp;C195&amp;"', 'name': '"&amp;B195&amp;" ["&amp;D195&amp;"["&amp;G195&amp;"', 'name2': '"&amp;B195&amp;"', 'template': '"&amp;D195&amp;"', 'pageStart': '"&amp;E195&amp;"', 'pages': '"&amp;G195&amp;"', 'search': '"&amp;K195&amp;"' },"</f>
-        <v>{ 'id': '194', 'template_type': 'Entry', 'name': 'Social History Observation   [2.16.840.1.113883.10.20.22.4.38[844-848', 'name2': 'Social History Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.38', 'pageStart': '844', 'pages': '844-848', 'search': 'Social History Observation   2.16.840.1.113883.10.20.22.4.38 CONF:1198-8548;CONF:1198-8549;CONF:1198-8550;CONF:1198-10526;CONF:1198-32495;CONF:1198-8551;CONF:1198-8558;CONF:1198-32951;CONF:1198-8553;CONF:1198-19117;CONF:1198-31868;CONF:1198-8559;CONF:1198-8555;CONF:1198-31869' },</v>
+        <f t="shared" ref="M195:M252" si="10">"{ 'id': '"&amp;A195&amp;"', 'template_type': '"&amp;C195&amp;"', 'name': '"&amp;B195&amp;" ["&amp;D195&amp;"["&amp;G195&amp;"', 'name2': '"&amp;B195&amp;"', 'template': '"&amp;D195&amp;"', 'pageStart': '"&amp;E195&amp;"', 'pages': '"&amp;G195&amp;"', 'search': '"&amp;K195&amp;"' },"</f>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Social History Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.38[CG_A_216-222', 'name2': 'Social History Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.38', 'pageStart': '1216', 'pages': 'CG_A_216-222', 'search': 'Social History Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.38 CONF:1198-8548;CONF:1198-8549;CONF:1198-8550;CONF:1198-10526;CONF:1198-32495;CONF:1198-8551;CONF:1198-8558;CONF:1198-32951;CONF:1198-8553;CONF:1198-19117;CONF:1198-31868;CONF:1198-8559;CONF:1198-8555;CONF:1198-31869' },</v>
       </c>
       <c r="N195" t="str">
-        <f t="shared" ref="N195:N216" si="11">"'"&amp;D195&amp;"',"</f>
+        <f t="shared" ref="N195:N252" si="11">"'"&amp;D195&amp;"',"</f>
         <v>'2.16.840.1.113883.10.20.22.4.38',</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
-      </c>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>394</v>
       </c>
@@ -14752,17 +14330,14 @@
       </c>
       <c r="M196" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '195', 'template_type': 'Entry', 'name': 'SOP Instance Observation [2.16.840.1.113883.10.20.6.2.8[848-851', 'name2': 'SOP Instance Observation', 'template': '2.16.840.1.113883.10.20.6.2.8', 'pageStart': '848', 'pages': '848-851', 'search': 'SOP Instance Observation 2.16.840.1.113883.10.20.6.2.8 CONF:81-9240;CONF:81-9241;CONF:81-9242;CONF:81-9244;CONF:81-19225;CONF:81-19226;CONF:81-19227;CONF:81-9246;CONF:81-9247;CONF:81-9248;CONF:81-9249;CONF:81-9250;CONF:81-9251;CONF:81-9252;CONF:81-9253;CONF:81-9254;CONF:81-9255;CONF:81-9257;CONF:81-9258;CONF:81-15935;CONF:81-9260;CONF:81-9261;CONF:81-15936;CONF:81-9263' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'SOP Instance Observation [2.16.840.1.113883.10.20.6.2.8[848-851', 'name2': 'SOP Instance Observation', 'template': '2.16.840.1.113883.10.20.6.2.8', 'pageStart': '848', 'pages': '848-851', 'search': 'SOP Instance Observation 2.16.840.1.113883.10.20.6.2.8 CONF:81-9240;CONF:81-9241;CONF:81-9242;CONF:81-9244;CONF:81-19225;CONF:81-19226;CONF:81-19227;CONF:81-9246;CONF:81-9247;CONF:81-9248;CONF:81-9249;CONF:81-9250;CONF:81-9251;CONF:81-9252;CONF:81-9253;CONF:81-9254;CONF:81-9255;CONF:81-9257;CONF:81-9258;CONF:81-15935;CONF:81-9260;CONF:81-9261;CONF:81-15936;CONF:81-9263' },</v>
       </c>
       <c r="N196" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.6.2.8',</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
-      </c>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>396</v>
       </c>
@@ -14794,17 +14369,14 @@
       </c>
       <c r="M197" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '196', 'template_type': 'Entry', 'name': 'Study Act [2.16.840.1.113883.10.20.6.2.6[851-853', 'name2': 'Study Act', 'template': '2.16.840.1.113883.10.20.6.2.6', 'pageStart': '851', 'pages': '851-853', 'search': 'Study Act 2.16.840.1.113883.10.20.6.2.6 CONF:81-9207;CONF:81-9208;CONF:81-9209;CONF:81-10533;CONF:81-9210;CONF:81-9213;CONF:81-9211;CONF:81-19172;CONF:81-19173;CONF:81-26506;CONF:81-9215;CONF:81-15995;CONF:81-15996;CONF:81-15997;CONF:81-9216;CONF:81-9219;CONF:81-9220;CONF:81-15937' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Study Act [2.16.840.1.113883.10.20.6.2.6[851-853', 'name2': 'Study Act', 'template': '2.16.840.1.113883.10.20.6.2.6', 'pageStart': '851', 'pages': '851-853', 'search': 'Study Act 2.16.840.1.113883.10.20.6.2.6 CONF:81-9207;CONF:81-9208;CONF:81-9209;CONF:81-10533;CONF:81-9210;CONF:81-9213;CONF:81-9211;CONF:81-19172;CONF:81-19173;CONF:81-26506;CONF:81-9215;CONF:81-15995;CONF:81-15996;CONF:81-15997;CONF:81-9216;CONF:81-9219;CONF:81-9220;CONF:81-15937' },</v>
       </c>
       <c r="N197" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.6.2.6',</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
-      </c>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>398</v>
       </c>
@@ -14836,17 +14408,14 @@
       </c>
       <c r="M198" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '197', 'template_type': 'Entry', 'name': 'Substance Administered Act [2.16.840.1.113883.10.20.22.4.118[853-855', 'name2': 'Substance Administered Act', 'template': '2.16.840.1.113883.10.20.22.4.118', 'pageStart': '853', 'pages': '853-855', 'search': 'Substance Administered Act 2.16.840.1.113883.10.20.22.4.118 CONF:1098-31500;CONF:1098-31501;CONF:1098-31502;CONF:1098-31503;CONF:1098-31504;CONF:1098-31506;CONF:1098-31507;CONF:1098-31508;CONF:1098-31505;CONF:1098-31509' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Substance Administered Act [2.16.840.1.113883.10.20.22.4.118[853-855', 'name2': 'Substance Administered Act', 'template': '2.16.840.1.113883.10.20.22.4.118', 'pageStart': '853', 'pages': '853-855', 'search': 'Substance Administered Act 2.16.840.1.113883.10.20.22.4.118 CONF:1098-31500;CONF:1098-31501;CONF:1098-31502;CONF:1098-31503;CONF:1098-31504;CONF:1098-31506;CONF:1098-31507;CONF:1098-31508;CONF:1098-31505;CONF:1098-31509' },</v>
       </c>
       <c r="N198" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.4.118',</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>198</v>
-      </c>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>400</v>
       </c>
@@ -14878,17 +14447,14 @@
       </c>
       <c r="M199" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '198', 'template_type': 'Entry', 'name': 'Substance or Device Allergy - Intolerance Observation   [2.16.840.1.113883.10.20.24.3.90[855-862', 'name2': 'Substance or Device Allergy - Intolerance Observation  ', 'template': '2.16.840.1.113883.10.20.24.3.90', 'pageStart': '855', 'pages': '855-862', 'search': 'Substance or Device Allergy - Intolerance Observation   2.16.840.1.113883.10.20.24.3.90 CONF:1098-16303;CONF:1098-16304;CONF:1098-16305;CONF:1098-16306;CONF:1098-32527;CONF:1098-16307;CONF:1098-16345;CONF:1098-16346;CONF:1098-32171;CONF:1098-16308;CONF:1098-26354;CONF:1098-16309;CONF:1098-31536;CONF:1098-31537;CONF:1098-16312;CONF:1098-16317;CONF:1098-31144;CONF:1098-16318;CONF:1098-16319;CONF:1098-16320;CONF:1098-16321;CONF:1098-16322;CONF:1098-16323;CONF:1098-16324;CONF:1098-16333;CONF:1098-16335;CONF:1098-16334;CONF:1098-16336;CONF:1098-16337;CONF:1098-16339;CONF:1098-16338;CONF:1098-16340;CONF:1098-16341;CONF:1098-16342;CONF:1098-16343;CONF:1098-16344;CONF:1098-32935;CONF:1098-32936;CONF:1098-32937;CONF:1098-32938' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Substance or Device Allergy - Intolerance Observation   [2.16.840.1.113883.10.20.24.3.90[855-862', 'name2': 'Substance or Device Allergy - Intolerance Observation  ', 'template': '2.16.840.1.113883.10.20.24.3.90', 'pageStart': '855', 'pages': '855-862', 'search': 'Substance or Device Allergy - Intolerance Observation   2.16.840.1.113883.10.20.24.3.90 CONF:1098-16303;CONF:1098-16304;CONF:1098-16305;CONF:1098-16306;CONF:1098-32527;CONF:1098-16307;CONF:1098-16345;CONF:1098-16346;CONF:1098-32171;CONF:1098-16308;CONF:1098-26354;CONF:1098-16309;CONF:1098-31536;CONF:1098-31537;CONF:1098-16312;CONF:1098-16317;CONF:1098-31144;CONF:1098-16318;CONF:1098-16319;CONF:1098-16320;CONF:1098-16321;CONF:1098-16322;CONF:1098-16323;CONF:1098-16324;CONF:1098-16333;CONF:1098-16335;CONF:1098-16334;CONF:1098-16336;CONF:1098-16337;CONF:1098-16339;CONF:1098-16338;CONF:1098-16340;CONF:1098-16341;CONF:1098-16342;CONF:1098-16343;CONF:1098-16344;CONF:1098-32935;CONF:1098-32936;CONF:1098-32937;CONF:1098-32938' },</v>
       </c>
       <c r="N199" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.24.3.90',</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>199</v>
-      </c>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>402</v>
       </c>
@@ -14920,17 +14486,14 @@
       </c>
       <c r="M200" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '199', 'template_type': 'Entry', 'name': 'Allergy - Intolerance Observation  [2.16.840.1.113883.10.20.22.4.7[862-868', 'name2': 'Allergy - Intolerance Observation ', 'template': '2.16.840.1.113883.10.20.22.4.7', 'pageStart': '862', 'pages': '862-868', 'search': 'Allergy - Intolerance Observation  2.16.840.1.113883.10.20.22.4.7 CONF:1098-7379;CONF:1098-7380;CONF:1098-31526;CONF:1098-7381;CONF:1098-10488;CONF:1098-32526;CONF:1098-7382;CONF:1098-15947;CONF:1098-15948;CONF:1098-32153;CONF:1098-19084;CONF:1098-19085;CONF:1098-7387;CONF:1098-31538;CONF:1098-31539;CONF:1098-7390;CONF:1098-31143;CONF:1098-7402;CONF:1098-7403;CONF:1098-7404;CONF:1098-7405;CONF:1098-7406;CONF:1098-7407;CONF:1098-7419;CONF:1098-32939;CONF:1098-32940;CONF:1098-32941;CONF:1098-32942;CONF:1098-9961;CONF:1098-9962;CONF:1098-9964;CONF:1098-15956;CONF:1098-7447;CONF:1098-7907;CONF:1098-7449;CONF:1098-15955;CONF:1098-32910;CONF:1098-32911;CONF:1098-32912;CONF:1098-32913' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Allergy - Intolerance Observation  [2.16.840.1.113883.10.20.22.4.7[862-868', 'name2': 'Allergy - Intolerance Observation ', 'template': '2.16.840.1.113883.10.20.22.4.7', 'pageStart': '862', 'pages': '862-868', 'search': 'Allergy - Intolerance Observation  2.16.840.1.113883.10.20.22.4.7 CONF:1098-7379;CONF:1098-7380;CONF:1098-31526;CONF:1098-7381;CONF:1098-10488;CONF:1098-32526;CONF:1098-7382;CONF:1098-15947;CONF:1098-15948;CONF:1098-32153;CONF:1098-19084;CONF:1098-19085;CONF:1098-7387;CONF:1098-31538;CONF:1098-31539;CONF:1098-7390;CONF:1098-31143;CONF:1098-7402;CONF:1098-7403;CONF:1098-7404;CONF:1098-7405;CONF:1098-7406;CONF:1098-7407;CONF:1098-7419;CONF:1098-32939;CONF:1098-32940;CONF:1098-32941;CONF:1098-32942;CONF:1098-9961;CONF:1098-9962;CONF:1098-9964;CONF:1098-15956;CONF:1098-7447;CONF:1098-7907;CONF:1098-7449;CONF:1098-15955;CONF:1098-32910;CONF:1098-32911;CONF:1098-32912;CONF:1098-32913' },</v>
       </c>
       <c r="N200" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.4.7',</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>200</v>
-      </c>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>404</v>
       </c>
@@ -14962,17 +14525,14 @@
       </c>
       <c r="M201" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '200', 'template_type': 'Entry', 'name': 'Text Observation [2.16.840.1.113883.10.20.6.2.12[868-871', 'name2': 'Text Observation', 'template': '2.16.840.1.113883.10.20.6.2.12', 'pageStart': '868', 'pages': '868-871', 'search': 'Text Observation 2.16.840.1.113883.10.20.6.2.12 CONF:81-9288;CONF:81-9289;CONF:81-9290;CONF:81-10534;CONF:81-9291;CONF:81-9295;CONF:81-15938;CONF:81-15939;CONF:81-15940;CONF:81-9294;CONF:81-9292;CONF:81-9298;CONF:81-9299;CONF:81-15941;CONF:81-9301;CONF:81-9302;CONF:81-15942' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Text Observation [2.16.840.1.113883.10.20.6.2.12[868-871', 'name2': 'Text Observation', 'template': '2.16.840.1.113883.10.20.6.2.12', 'pageStart': '868', 'pages': '868-871', 'search': 'Text Observation 2.16.840.1.113883.10.20.6.2.12 CONF:81-9288;CONF:81-9289;CONF:81-9290;CONF:81-10534;CONF:81-9291;CONF:81-9295;CONF:81-15938;CONF:81-15939;CONF:81-15940;CONF:81-9294;CONF:81-9292;CONF:81-9298;CONF:81-9299;CONF:81-15941;CONF:81-9301;CONF:81-9302;CONF:81-15942' },</v>
       </c>
       <c r="N201" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.6.2.12',</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>201</v>
-      </c>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>406</v>
       </c>
@@ -15004,17 +14564,14 @@
       </c>
       <c r="M202" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '201', 'template_type': 'Entry', 'name': 'Tobacco Use  [2.16.840.1.113883.10.20.22.4.85[871-875', 'name2': 'Tobacco Use ', 'template': '2.16.840.1.113883.10.20.22.4.85', 'pageStart': '871', 'pages': '871-875', 'search': 'Tobacco Use  2.16.840.1.113883.10.20.22.4.85 CONF:1098-16558;CONF:1098-16559;CONF:1098-16566;CONF:1098-16567;CONF:1098-32589;CONF:1098-32400;CONF:1098-19174;CONF:1098-19175;CONF:1098-32172;CONF:1098-16561;CONF:1098-19118;CONF:1098-16564;CONF:1098-16565;CONF:1098-31431;CONF:1098-16562;CONF:1098-31152' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Tobacco Use  [2.16.840.1.113883.10.20.22.4.85[871-875', 'name2': 'Tobacco Use ', 'template': '2.16.840.1.113883.10.20.22.4.85', 'pageStart': '871', 'pages': '871-875', 'search': 'Tobacco Use  2.16.840.1.113883.10.20.22.4.85 CONF:1098-16558;CONF:1098-16559;CONF:1098-16566;CONF:1098-16567;CONF:1098-32589;CONF:1098-32400;CONF:1098-19174;CONF:1098-19175;CONF:1098-32172;CONF:1098-16561;CONF:1098-19118;CONF:1098-16564;CONF:1098-16565;CONF:1098-31431;CONF:1098-16562;CONF:1098-31152' },</v>
       </c>
       <c r="N202" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.4.85',</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>202</v>
-      </c>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>408</v>
       </c>
@@ -15046,17 +14603,14 @@
       </c>
       <c r="M203" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '202', 'template_type': 'Entry', 'name': 'Vital Sign Observation  [2.16.840.1.113883.10.20.22.4.27[875-879', 'name2': 'Vital Sign Observation ', 'template': '2.16.840.1.113883.10.20.22.4.27', 'pageStart': '875', 'pages': '875-879', 'search': 'Vital Sign Observation  2.16.840.1.113883.10.20.22.4.27 CONF:1098-7297;CONF:1098-7298;CONF:1098-7299;CONF:1098-10527;CONF:1098-32574;CONF:1098-7300;CONF:1098-7301;CONF:1098-32934;CONF:1098-7303;CONF:1098-19119;CONF:1098-7304;CONF:1098-7305;CONF:1098-31579;CONF:1098-7307;CONF:1098-32886;CONF:1098-7308;CONF:1098-7309;CONF:1098-7310' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Vital Sign Observation  [2.16.840.1.113883.10.20.22.4.27[875-879', 'name2': 'Vital Sign Observation ', 'template': '2.16.840.1.113883.10.20.22.4.27', 'pageStart': '875', 'pages': '875-879', 'search': 'Vital Sign Observation  2.16.840.1.113883.10.20.22.4.27 CONF:1098-7297;CONF:1098-7298;CONF:1098-7299;CONF:1098-10527;CONF:1098-32574;CONF:1098-7300;CONF:1098-7301;CONF:1098-32934;CONF:1098-7303;CONF:1098-19119;CONF:1098-7304;CONF:1098-7305;CONF:1098-31579;CONF:1098-7307;CONF:1098-32886;CONF:1098-7308;CONF:1098-7309;CONF:1098-7310' },</v>
       </c>
       <c r="N203" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.4.27',</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>203</v>
-      </c>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>410</v>
       </c>
@@ -15088,17 +14642,14 @@
       </c>
       <c r="M204" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '203', 'template_type': 'Entry', 'name': 'Vital Signs Organizer  [2.16.840.1.113883.10.20.22.4.26[879-883', 'name2': 'Vital Signs Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.26', 'pageStart': '879', 'pages': '879-883', 'search': 'Vital Signs Organizer  2.16.840.1.113883.10.20.22.4.26 CONF:1198-7279;CONF:1198-7280;CONF:1198-7281;CONF:1198-10528;CONF:1198-32582;CONF:1198-7282;CONF:1198-32740;CONF:1198-32741;CONF:1198-32742;CONF:1198-32743;CONF:1198-32744;CONF:1198-32746;CONF:1198-7284;CONF:1198-19120;CONF:1198-7288;CONF:1198-31153;CONF:1198-7285;CONF:1198-15946' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Vital Signs Organizer  [2.16.840.1.113883.10.20.22.4.26[879-883', 'name2': 'Vital Signs Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.26', 'pageStart': '879', 'pages': '879-883', 'search': 'Vital Signs Organizer  2.16.840.1.113883.10.20.22.4.26 CONF:1198-7279;CONF:1198-7280;CONF:1198-7281;CONF:1198-10528;CONF:1198-32582;CONF:1198-7282;CONF:1198-32740;CONF:1198-32741;CONF:1198-32742;CONF:1198-32743;CONF:1198-32744;CONF:1198-32746;CONF:1198-7284;CONF:1198-19120;CONF:1198-7288;CONF:1198-31153;CONF:1198-7285;CONF:1198-15946' },</v>
       </c>
       <c r="N204" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.4.26',</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>204</v>
-      </c>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>412</v>
       </c>
@@ -15130,17 +14681,14 @@
       </c>
       <c r="M205" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '204', 'template_type': 'Entry', 'name': 'Wound Characteristic [2.16.840.1.113883.10.20.22.4.134[883-885', 'name2': 'Wound Characteristic', 'template': '2.16.840.1.113883.10.20.22.4.134', 'pageStart': '883', 'pages': '883-885', 'search': 'Wound Characteristic 2.16.840.1.113883.10.20.22.4.134 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Wound Characteristic [2.16.840.1.113883.10.20.22.4.134[883-885', 'name2': 'Wound Characteristic', 'template': '2.16.840.1.113883.10.20.22.4.134', 'pageStart': '883', 'pages': '883-885', 'search': 'Wound Characteristic 2.16.840.1.113883.10.20.22.4.134 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
       </c>
       <c r="N205" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.4.134',</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>205</v>
-      </c>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>414</v>
       </c>
@@ -15172,19 +14720,16 @@
       </c>
       <c r="M206" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '205', 'template_type': 'Entry', 'name': 'Wound Measurement Observation [2.16.840.1.113883.10.20.22.4.133[885-888', 'name2': 'Wound Measurement Observation', 'template': '2.16.840.1.113883.10.20.22.4.133', 'pageStart': '885', 'pages': '885-888', 'search': 'Wound Measurement Observation 2.16.840.1.113883.10.20.22.4.133 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Wound Measurement Observation [2.16.840.1.113883.10.20.22.4.133[885-888', 'name2': 'Wound Measurement Observation', 'template': '2.16.840.1.113883.10.20.22.4.133', 'pageStart': '885', 'pages': '885-888', 'search': 'Wound Measurement Observation 2.16.840.1.113883.10.20.22.4.133 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
       </c>
       <c r="N206" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.4.133',</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>206</v>
-      </c>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>5</v>
+        <v>1869</v>
       </c>
       <c r="C207" t="s">
         <v>431</v>
@@ -15193,11 +14738,13 @@
         <v>6</v>
       </c>
       <c r="E207">
-        <v>41</v>
-      </c>
-      <c r="G207" s="3" t="str">
-        <f>VLOOKUP(D207,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>41-87</v>
+        <v>1010</v>
+      </c>
+      <c r="F207">
+        <v>1061</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>1875</v>
       </c>
       <c r="H207" t="s">
         <v>660</v>
@@ -15210,23 +14757,20 @@
       </c>
       <c r="K207" t="str">
         <f t="shared" si="9"/>
-        <v>US Realm Header  2.16.840.1.113883.10.20.22.1.1 CONF:1198-16791;CONF:1198-5361;CONF:1198-5250;CONF:1198-5251;CONF:1198-5252;CONF:1198-10036;CONF:1198-32503;CONF:1198-5363;CONF:1198-9991;CONF:1198-5253;CONF:1198-9992;CONF:1198-32948;CONF:1198-5254;CONF:1198-5256;CONF:1198-5259;CONF:1198-5372;CONF:1198-5261;CONF:1198-6380;CONF:1198-5264;CONF:1198-6387;CONF:1198-5266;CONF:1198-5267;CONF:1198-5268;CONF:1198-5271;CONF:1198-5280;CONF:1198-5375;CONF:1198-5283;CONF:1198-5284;CONF:1198-6394;CONF:1198-5298;CONF:1198-5299;CONF:1198-5300;CONF:1198-32418;CONF:1198-5303;CONF:1198-5317;CONF:1198-5322;CONF:1198-7263;CONF:1198-31347;CONF:1198-5323;CONF:1198-32901;CONF:1198-5325;CONF:1198-5326;CONF:1198-5359;CONF:1198-5382;CONF:1198-7993;CONF:1198-5385;CONF:1198-5386;CONF:1198-5395;CONF:1198-5396;CONF:1198-5397;CONF:1198-5404;CONF:1198-5402;CONF:1198-5403;CONF:1198-5406;CONF:1198-5407;CONF:1198-5409;CONF:1198-9965;CONF:1198-5414;CONF:1198-5416;CONF:1198-5417;CONF:1198-16820;CONF:1198-5419;CONF:1198-5420;CONF:1198-7994;CONF:1198-5422;CONF:1198-5444;CONF:1198-5445;CONF:1198-5448;CONF:1198-5449;CONF:1198-32882;CONF:1198-32883;CONF:1198-32884;CONF:1198-32885;CONF:1198-16787;CONF:1198-16788;CONF:1198-5452;CONF:1198-5428;CONF:1198-7995;CONF:1198-5430;CONF:1198-16789;CONF:1198-16783;CONF:1198-16784;CONF:1198-16785;CONF:1198-16790;CONF:1198-5441;CONF:1198-5442;CONF:1198-5443;CONF:1198-16821;CONF:1198-32173;CONF:1198-5460;CONF:1198-5466;CONF:1198-7996;CONF:1198-5469;CONF:1198-5470;CONF:1198-8001;CONF:1198-8002;CONF:1198-9945;CONF:1198-9946;CONF:1198-32174;CONF:1198-8220;CONF:1198-8221;CONF:1198-8222;CONF:1198-31355;CONF:1198-31356;CONF:1198-5519;CONF:1198-5520;CONF:1198-5521;CONF:1198-5522;CONF:1198-16822;CONF:1198-5524;CONF:1198-5525;CONF:1198-7998;CONF:1198-5559;CONF:1198-5565;CONF:1198-5566;CONF:1198-32399;CONF:1198-5567;CONF:1198-5568;CONF:1198-5577;CONF:1198-5578;CONF:1198-5579;CONF:1198-5580;CONF:1198-5583;CONF:1198-5584;CONF:1198-30810;CONF:1198-5585;CONF:1198-5586;CONF:1198-16823;CONF:1198-17000;CONF:1198-5589;CONF:1198-5595;CONF:1198-7999;CONF:1198-5597;CONF:1198-5598;CONF:1198-5607;CONF:1198-5608;CONF:1198-5610;CONF:1198-5611;CONF:1198-30811;CONF:1198-5612;CONF:1198-5613;CONF:1198-16824;CONF:1198-16825;CONF:1198-16826;CONF:1198-5616;CONF:1198-5622;CONF:1198-8000;CONF:1198-5624;CONF:1198-5625;CONF:1198-10003;CONF:1198-10004;CONF:1198-10006;CONF:1198-10007;CONF:1198-9952;CONF:1198-9953;CONF:1198-9954;CONF:1198-14835;CONF:1198-14836;CONF:1198-14837;CONF:1198-14838;CONF:1198-14839;CONF:1198-14840;CONF:1198-16818;CONF:1198-32889;CONF:1198-14841;CONF:1198-14846;CONF:1198-14847;CONF:1198-14842;CONF:1198-16792;CONF:1198-16793;CONF:1198-16794;CONF:1198-16795;CONF:1198-16797;CONF:1198-16798;CONF:1198-9955;CONF:1198-9956;CONF:1198-9959;CONF:1198-9958</v>
+        <v>US Realm Header (Companion Guide) 2.16.840.1.113883.10.20.22.1.1 CONF:1198-16791;CONF:1198-5361;CONF:1198-5250;CONF:1198-5251;CONF:1198-5252;CONF:1198-10036;CONF:1198-32503;CONF:1198-5363;CONF:1198-9991;CONF:1198-5253;CONF:1198-9992;CONF:1198-32948;CONF:1198-5254;CONF:1198-5256;CONF:1198-5259;CONF:1198-5372;CONF:1198-5261;CONF:1198-6380;CONF:1198-5264;CONF:1198-6387;CONF:1198-5266;CONF:1198-5267;CONF:1198-5268;CONF:1198-5271;CONF:1198-5280;CONF:1198-5375;CONF:1198-5283;CONF:1198-5284;CONF:1198-6394;CONF:1198-5298;CONF:1198-5299;CONF:1198-5300;CONF:1198-32418;CONF:1198-5303;CONF:1198-5317;CONF:1198-5322;CONF:1198-7263;CONF:1198-31347;CONF:1198-5323;CONF:1198-32901;CONF:1198-5325;CONF:1198-5326;CONF:1198-5359;CONF:1198-5382;CONF:1198-7993;CONF:1198-5385;CONF:1198-5386;CONF:1198-5395;CONF:1198-5396;CONF:1198-5397;CONF:1198-5404;CONF:1198-5402;CONF:1198-5403;CONF:1198-5406;CONF:1198-5407;CONF:1198-5409;CONF:1198-9965;CONF:1198-5414;CONF:1198-5416;CONF:1198-5417;CONF:1198-16820;CONF:1198-5419;CONF:1198-5420;CONF:1198-7994;CONF:1198-5422;CONF:1198-5444;CONF:1198-5445;CONF:1198-5448;CONF:1198-5449;CONF:1198-32882;CONF:1198-32883;CONF:1198-32884;CONF:1198-32885;CONF:1198-16787;CONF:1198-16788;CONF:1198-5452;CONF:1198-5428;CONF:1198-7995;CONF:1198-5430;CONF:1198-16789;CONF:1198-16783;CONF:1198-16784;CONF:1198-16785;CONF:1198-16790;CONF:1198-5441;CONF:1198-5442;CONF:1198-5443;CONF:1198-16821;CONF:1198-32173;CONF:1198-5460;CONF:1198-5466;CONF:1198-7996;CONF:1198-5469;CONF:1198-5470;CONF:1198-8001;CONF:1198-8002;CONF:1198-9945;CONF:1198-9946;CONF:1198-32174;CONF:1198-8220;CONF:1198-8221;CONF:1198-8222;CONF:1198-31355;CONF:1198-31356;CONF:1198-5519;CONF:1198-5520;CONF:1198-5521;CONF:1198-5522;CONF:1198-16822;CONF:1198-5524;CONF:1198-5525;CONF:1198-7998;CONF:1198-5559;CONF:1198-5565;CONF:1198-5566;CONF:1198-32399;CONF:1198-5567;CONF:1198-5568;CONF:1198-5577;CONF:1198-5578;CONF:1198-5579;CONF:1198-5580;CONF:1198-5583;CONF:1198-5584;CONF:1198-30810;CONF:1198-5585;CONF:1198-5586;CONF:1198-16823;CONF:1198-17000;CONF:1198-5589;CONF:1198-5595;CONF:1198-7999;CONF:1198-5597;CONF:1198-5598;CONF:1198-5607;CONF:1198-5608;CONF:1198-5610;CONF:1198-5611;CONF:1198-30811;CONF:1198-5612;CONF:1198-5613;CONF:1198-16824;CONF:1198-16825;CONF:1198-16826;CONF:1198-5616;CONF:1198-5622;CONF:1198-8000;CONF:1198-5624;CONF:1198-5625;CONF:1198-10003;CONF:1198-10004;CONF:1198-10006;CONF:1198-10007;CONF:1198-9952;CONF:1198-9953;CONF:1198-9954;CONF:1198-14835;CONF:1198-14836;CONF:1198-14837;CONF:1198-14838;CONF:1198-14839;CONF:1198-14840;CONF:1198-16818;CONF:1198-32889;CONF:1198-14841;CONF:1198-14846;CONF:1198-14847;CONF:1198-14842;CONF:1198-16792;CONF:1198-16793;CONF:1198-16794;CONF:1198-16795;CONF:1198-16797;CONF:1198-16798;CONF:1198-9955;CONF:1198-9956;CONF:1198-9959;CONF:1198-9958</v>
       </c>
       <c r="M207" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '206', 'template_type': 'Other', 'name': 'US Realm Header  [2.16.840.1.113883.10.20.22.1.1[41-87', 'name2': 'US Realm Header ', 'template': '2.16.840.1.113883.10.20.22.1.1', 'pageStart': '41', 'pages': '41-87', 'search': 'US Realm Header  2.16.840.1.113883.10.20.22.1.1 CONF:1198-16791;CONF:1198-5361;CONF:1198-5250;CONF:1198-5251;CONF:1198-5252;CONF:1198-10036;CONF:1198-32503;CONF:1198-5363;CONF:1198-9991;CONF:1198-5253;CONF:1198-9992;CONF:1198-32948;CONF:1198-5254;CONF:1198-5256;CONF:1198-5259;CONF:1198-5372;CONF:1198-5261;CONF:1198-6380;CONF:1198-5264;CONF:1198-6387;CONF:1198-5266;CONF:1198-5267;CONF:1198-5268;CONF:1198-5271;CONF:1198-5280;CONF:1198-5375;CONF:1198-5283;CONF:1198-5284;CONF:1198-6394;CONF:1198-5298;CONF:1198-5299;CONF:1198-5300;CONF:1198-32418;CONF:1198-5303;CONF:1198-5317;CONF:1198-5322;CONF:1198-7263;CONF:1198-31347;CONF:1198-5323;CONF:1198-32901;CONF:1198-5325;CONF:1198-5326;CONF:1198-5359;CONF:1198-5382;CONF:1198-7993;CONF:1198-5385;CONF:1198-5386;CONF:1198-5395;CONF:1198-5396;CONF:1198-5397;CONF:1198-5404;CONF:1198-5402;CONF:1198-5403;CONF:1198-5406;CONF:1198-5407;CONF:1198-5409;CONF:1198-9965;CONF:1198-5414;CONF:1198-5416;CONF:1198-5417;CONF:1198-16820;CONF:1198-5419;CONF:1198-5420;CONF:1198-7994;CONF:1198-5422;CONF:1198-5444;CONF:1198-5445;CONF:1198-5448;CONF:1198-5449;CONF:1198-32882;CONF:1198-32883;CONF:1198-32884;CONF:1198-32885;CONF:1198-16787;CONF:1198-16788;CONF:1198-5452;CONF:1198-5428;CONF:1198-7995;CONF:1198-5430;CONF:1198-16789;CONF:1198-16783;CONF:1198-16784;CONF:1198-16785;CONF:1198-16790;CONF:1198-5441;CONF:1198-5442;CONF:1198-5443;CONF:1198-16821;CONF:1198-32173;CONF:1198-5460;CONF:1198-5466;CONF:1198-7996;CONF:1198-5469;CONF:1198-5470;CONF:1198-8001;CONF:1198-8002;CONF:1198-9945;CONF:1198-9946;CONF:1198-32174;CONF:1198-8220;CONF:1198-8221;CONF:1198-8222;CONF:1198-31355;CONF:1198-31356;CONF:1198-5519;CONF:1198-5520;CONF:1198-5521;CONF:1198-5522;CONF:1198-16822;CONF:1198-5524;CONF:1198-5525;CONF:1198-7998;CONF:1198-5559;CONF:1198-5565;CONF:1198-5566;CONF:1198-32399;CONF:1198-5567;CONF:1198-5568;CONF:1198-5577;CONF:1198-5578;CONF:1198-5579;CONF:1198-5580;CONF:1198-5583;CONF:1198-5584;CONF:1198-30810;CONF:1198-5585;CONF:1198-5586;CONF:1198-16823;CONF:1198-17000;CONF:1198-5589;CONF:1198-5595;CONF:1198-7999;CONF:1198-5597;CONF:1198-5598;CONF:1198-5607;CONF:1198-5608;CONF:1198-5610;CONF:1198-5611;CONF:1198-30811;CONF:1198-5612;CONF:1198-5613;CONF:1198-16824;CONF:1198-16825;CONF:1198-16826;CONF:1198-5616;CONF:1198-5622;CONF:1198-8000;CONF:1198-5624;CONF:1198-5625;CONF:1198-10003;CONF:1198-10004;CONF:1198-10006;CONF:1198-10007;CONF:1198-9952;CONF:1198-9953;CONF:1198-9954;CONF:1198-14835;CONF:1198-14836;CONF:1198-14837;CONF:1198-14838;CONF:1198-14839;CONF:1198-14840;CONF:1198-16818;CONF:1198-32889;CONF:1198-14841;CONF:1198-14846;CONF:1198-14847;CONF:1198-14842;CONF:1198-16792;CONF:1198-16793;CONF:1198-16794;CONF:1198-16795;CONF:1198-16797;CONF:1198-16798;CONF:1198-9955;CONF:1198-9956;CONF:1198-9959;CONF:1198-9958' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'US Realm Header (Companion Guide) [2.16.840.1.113883.10.20.22.1.1[CG_A_10-61', 'name2': 'US Realm Header (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.1.1', 'pageStart': '1010', 'pages': 'CG_A_10-61', 'search': 'US Realm Header (Companion Guide) 2.16.840.1.113883.10.20.22.1.1 CONF:1198-16791;CONF:1198-5361;CONF:1198-5250;CONF:1198-5251;CONF:1198-5252;CONF:1198-10036;CONF:1198-32503;CONF:1198-5363;CONF:1198-9991;CONF:1198-5253;CONF:1198-9992;CONF:1198-32948;CONF:1198-5254;CONF:1198-5256;CONF:1198-5259;CONF:1198-5372;CONF:1198-5261;CONF:1198-6380;CONF:1198-5264;CONF:1198-6387;CONF:1198-5266;CONF:1198-5267;CONF:1198-5268;CONF:1198-5271;CONF:1198-5280;CONF:1198-5375;CONF:1198-5283;CONF:1198-5284;CONF:1198-6394;CONF:1198-5298;CONF:1198-5299;CONF:1198-5300;CONF:1198-32418;CONF:1198-5303;CONF:1198-5317;CONF:1198-5322;CONF:1198-7263;CONF:1198-31347;CONF:1198-5323;CONF:1198-32901;CONF:1198-5325;CONF:1198-5326;CONF:1198-5359;CONF:1198-5382;CONF:1198-7993;CONF:1198-5385;CONF:1198-5386;CONF:1198-5395;CONF:1198-5396;CONF:1198-5397;CONF:1198-5404;CONF:1198-5402;CONF:1198-5403;CONF:1198-5406;CONF:1198-5407;CONF:1198-5409;CONF:1198-9965;CONF:1198-5414;CONF:1198-5416;CONF:1198-5417;CONF:1198-16820;CONF:1198-5419;CONF:1198-5420;CONF:1198-7994;CONF:1198-5422;CONF:1198-5444;CONF:1198-5445;CONF:1198-5448;CONF:1198-5449;CONF:1198-32882;CONF:1198-32883;CONF:1198-32884;CONF:1198-32885;CONF:1198-16787;CONF:1198-16788;CONF:1198-5452;CONF:1198-5428;CONF:1198-7995;CONF:1198-5430;CONF:1198-16789;CONF:1198-16783;CONF:1198-16784;CONF:1198-16785;CONF:1198-16790;CONF:1198-5441;CONF:1198-5442;CONF:1198-5443;CONF:1198-16821;CONF:1198-32173;CONF:1198-5460;CONF:1198-5466;CONF:1198-7996;CONF:1198-5469;CONF:1198-5470;CONF:1198-8001;CONF:1198-8002;CONF:1198-9945;CONF:1198-9946;CONF:1198-32174;CONF:1198-8220;CONF:1198-8221;CONF:1198-8222;CONF:1198-31355;CONF:1198-31356;CONF:1198-5519;CONF:1198-5520;CONF:1198-5521;CONF:1198-5522;CONF:1198-16822;CONF:1198-5524;CONF:1198-5525;CONF:1198-7998;CONF:1198-5559;CONF:1198-5565;CONF:1198-5566;CONF:1198-32399;CONF:1198-5567;CONF:1198-5568;CONF:1198-5577;CONF:1198-5578;CONF:1198-5579;CONF:1198-5580;CONF:1198-5583;CONF:1198-5584;CONF:1198-30810;CONF:1198-5585;CONF:1198-5586;CONF:1198-16823;CONF:1198-17000;CONF:1198-5589;CONF:1198-5595;CONF:1198-7999;CONF:1198-5597;CONF:1198-5598;CONF:1198-5607;CONF:1198-5608;CONF:1198-5610;CONF:1198-5611;CONF:1198-30811;CONF:1198-5612;CONF:1198-5613;CONF:1198-16824;CONF:1198-16825;CONF:1198-16826;CONF:1198-5616;CONF:1198-5622;CONF:1198-8000;CONF:1198-5624;CONF:1198-5625;CONF:1198-10003;CONF:1198-10004;CONF:1198-10006;CONF:1198-10007;CONF:1198-9952;CONF:1198-9953;CONF:1198-9954;CONF:1198-14835;CONF:1198-14836;CONF:1198-14837;CONF:1198-14838;CONF:1198-14839;CONF:1198-14840;CONF:1198-16818;CONF:1198-32889;CONF:1198-14841;CONF:1198-14846;CONF:1198-14847;CONF:1198-14842;CONF:1198-16792;CONF:1198-16793;CONF:1198-16794;CONF:1198-16795;CONF:1198-16797;CONF:1198-16798;CONF:1198-9955;CONF:1198-9956;CONF:1198-9959;CONF:1198-9958' },</v>
       </c>
       <c r="N207" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.1.1',</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>207</v>
-      </c>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>31</v>
+        <v>1870</v>
       </c>
       <c r="C208" t="s">
         <v>431</v>
@@ -15252,21 +14796,18 @@
       </c>
       <c r="K208" t="str">
         <f t="shared" si="9"/>
-        <v>US Realm Header for Patient Generated Document  2.16.840.1.113883.10.20.29.1 CONF:1198-28458;CONF:1198-28459;CONF:1198-32917;CONF:1198-32945;CONF:1198-28460;CONF:1198-28461;CONF:1198-28462;CONF:1198-28465;CONF:1198-28469;CONF:1198-28470;CONF:1198-28473;CONF:1198-28474;CONF:1198-28475;CONF:1198-28476;CONF:1198-28477;CONF:1198-28478;CONF:1198-28479;CONF:1198-28481;CONF:1198-28676;CONF:1198-28678;CONF:1198-28679;CONF:1198-28680;CONF:1198-28681;CONF:1198-28682;CONF:1198-28683;CONF:1198-28684;CONF:1198-28685;CONF:1198-28686;CONF:1198-28687;CONF:1198-28688;CONF:1198-28690;CONF:1198-28691;CONF:1198-28692;CONF:1198-28693;CONF:1198-28694;CONF:1198-28695;CONF:1198-28696;CONF:1198-28697;CONF:1198-28698;CONF:1198-28699;CONF:1198-28700;CONF:1198-28701;CONF:1198-28702;CONF:1198-28703;CONF:1198-28704;CONF:1198-28705;CONF:1198-28706;CONF:1198-28707;CONF:1198-28708;CONF:1198-28709;CONF:1198-28710;CONF:1198-28711;CONF:1198-28712;CONF:1198-28713;CONF:1198-28714;CONF:1198-28715;CONF:1198-28716;CONF:1198-28718</v>
+        <v>US Realm Header for Patient Generated Document (Companion Guide) 2.16.840.1.113883.10.20.29.1 CONF:1198-28458;CONF:1198-28459;CONF:1198-32917;CONF:1198-32945;CONF:1198-28460;CONF:1198-28461;CONF:1198-28462;CONF:1198-28465;CONF:1198-28469;CONF:1198-28470;CONF:1198-28473;CONF:1198-28474;CONF:1198-28475;CONF:1198-28476;CONF:1198-28477;CONF:1198-28478;CONF:1198-28479;CONF:1198-28481;CONF:1198-28676;CONF:1198-28678;CONF:1198-28679;CONF:1198-28680;CONF:1198-28681;CONF:1198-28682;CONF:1198-28683;CONF:1198-28684;CONF:1198-28685;CONF:1198-28686;CONF:1198-28687;CONF:1198-28688;CONF:1198-28690;CONF:1198-28691;CONF:1198-28692;CONF:1198-28693;CONF:1198-28694;CONF:1198-28695;CONF:1198-28696;CONF:1198-28697;CONF:1198-28698;CONF:1198-28699;CONF:1198-28700;CONF:1198-28701;CONF:1198-28702;CONF:1198-28703;CONF:1198-28704;CONF:1198-28705;CONF:1198-28706;CONF:1198-28707;CONF:1198-28708;CONF:1198-28709;CONF:1198-28710;CONF:1198-28711;CONF:1198-28712;CONF:1198-28713;CONF:1198-28714;CONF:1198-28715;CONF:1198-28716;CONF:1198-28718</v>
       </c>
       <c r="M208" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '207', 'template_type': 'Other', 'name': 'US Realm Header for Patient Generated Document  [2.16.840.1.113883.10.20.29.1[233-255', 'name2': 'US Realm Header for Patient Generated Document ', 'template': '2.16.840.1.113883.10.20.29.1', 'pageStart': '233', 'pages': '233-255', 'search': 'US Realm Header for Patient Generated Document  2.16.840.1.113883.10.20.29.1 CONF:1198-28458;CONF:1198-28459;CONF:1198-32917;CONF:1198-32945;CONF:1198-28460;CONF:1198-28461;CONF:1198-28462;CONF:1198-28465;CONF:1198-28469;CONF:1198-28470;CONF:1198-28473;CONF:1198-28474;CONF:1198-28475;CONF:1198-28476;CONF:1198-28477;CONF:1198-28478;CONF:1198-28479;CONF:1198-28481;CONF:1198-28676;CONF:1198-28678;CONF:1198-28679;CONF:1198-28680;CONF:1198-28681;CONF:1198-28682;CONF:1198-28683;CONF:1198-28684;CONF:1198-28685;CONF:1198-28686;CONF:1198-28687;CONF:1198-28688;CONF:1198-28690;CONF:1198-28691;CONF:1198-28692;CONF:1198-28693;CONF:1198-28694;CONF:1198-28695;CONF:1198-28696;CONF:1198-28697;CONF:1198-28698;CONF:1198-28699;CONF:1198-28700;CONF:1198-28701;CONF:1198-28702;CONF:1198-28703;CONF:1198-28704;CONF:1198-28705;CONF:1198-28706;CONF:1198-28707;CONF:1198-28708;CONF:1198-28709;CONF:1198-28710;CONF:1198-28711;CONF:1198-28712;CONF:1198-28713;CONF:1198-28714;CONF:1198-28715;CONF:1198-28716;CONF:1198-28718' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'US Realm Header for Patient Generated Document (Companion Guide) [2.16.840.1.113883.10.20.29.1[233-255', 'name2': 'US Realm Header for Patient Generated Document (Companion Guide)', 'template': '2.16.840.1.113883.10.20.29.1', 'pageStart': '233', 'pages': '233-255', 'search': 'US Realm Header for Patient Generated Document (Companion Guide) 2.16.840.1.113883.10.20.29.1 CONF:1198-28458;CONF:1198-28459;CONF:1198-32917;CONF:1198-32945;CONF:1198-28460;CONF:1198-28461;CONF:1198-28462;CONF:1198-28465;CONF:1198-28469;CONF:1198-28470;CONF:1198-28473;CONF:1198-28474;CONF:1198-28475;CONF:1198-28476;CONF:1198-28477;CONF:1198-28478;CONF:1198-28479;CONF:1198-28481;CONF:1198-28676;CONF:1198-28678;CONF:1198-28679;CONF:1198-28680;CONF:1198-28681;CONF:1198-28682;CONF:1198-28683;CONF:1198-28684;CONF:1198-28685;CONF:1198-28686;CONF:1198-28687;CONF:1198-28688;CONF:1198-28690;CONF:1198-28691;CONF:1198-28692;CONF:1198-28693;CONF:1198-28694;CONF:1198-28695;CONF:1198-28696;CONF:1198-28697;CONF:1198-28698;CONF:1198-28699;CONF:1198-28700;CONF:1198-28701;CONF:1198-28702;CONF:1198-28703;CONF:1198-28704;CONF:1198-28705;CONF:1198-28706;CONF:1198-28707;CONF:1198-28708;CONF:1198-28709;CONF:1198-28710;CONF:1198-28711;CONF:1198-28712;CONF:1198-28713;CONF:1198-28714;CONF:1198-28715;CONF:1198-28716;CONF:1198-28718' },</v>
       </c>
       <c r="N208" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.29.1',</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>208</v>
-      </c>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>415</v>
       </c>
@@ -15298,17 +14839,14 @@
       </c>
       <c r="M209" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '208', 'template_type': 'Other', 'name': 'Author Participation [2.16.840.1.113883.10.20.22.4.119[888-892', 'name2': 'Author Participation', 'template': '2.16.840.1.113883.10.20.22.4.119', 'pageStart': '888', 'pages': '888-892', 'search': 'Author Participation 2.16.840.1.113883.10.20.22.4.119 CONF:1098-32017;CONF:1098-32018;CONF:1098-31471;CONF:1098-31472;CONF:1098-31473;CONF:1098-32628;CONF:1098-31671;CONF:1098-32315;CONF:1098-31474;CONF:1098-31475;CONF:1098-31476;CONF:1098-31478;CONF:1098-31479;CONF:1098-31480;CONF:1098-31481' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'Author Participation [2.16.840.1.113883.10.20.22.4.119[888-892', 'name2': 'Author Participation', 'template': '2.16.840.1.113883.10.20.22.4.119', 'pageStart': '888', 'pages': '888-892', 'search': 'Author Participation 2.16.840.1.113883.10.20.22.4.119 CONF:1098-32017;CONF:1098-32018;CONF:1098-31471;CONF:1098-31472;CONF:1098-31473;CONF:1098-32628;CONF:1098-31671;CONF:1098-32315;CONF:1098-31474;CONF:1098-31475;CONF:1098-31476;CONF:1098-31478;CONF:1098-31479;CONF:1098-31480;CONF:1098-31481' },</v>
       </c>
       <c r="N209" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.4.119',</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>209</v>
-      </c>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>417</v>
       </c>
@@ -15340,17 +14878,14 @@
       </c>
       <c r="M210" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '209', 'template_type': 'Other', 'name': 'Physician of Record Participant   [2.16.840.1.113883.10.20.6.2.2[892-894', 'name2': 'Physician of Record Participant  ', 'template': '2.16.840.1.113883.10.20.6.2.2', 'pageStart': '892', 'pages': '892-894', 'search': 'Physician of Record Participant   2.16.840.1.113883.10.20.6.2.2 CONF:1098-8881;CONF:1098-16072;CONF:1098-16073;CONF:1098-32586;CONF:1098-8886;CONF:1098-8887;CONF:1098-31203;CONF:1098-8888;CONF:1098-8889;CONF:1098-30928;CONF:1098-30929;CONF:1098-16074;CONF:1098-16075' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'Physician of Record Participant   [2.16.840.1.113883.10.20.6.2.2[892-894', 'name2': 'Physician of Record Participant  ', 'template': '2.16.840.1.113883.10.20.6.2.2', 'pageStart': '892', 'pages': '892-894', 'search': 'Physician of Record Participant   2.16.840.1.113883.10.20.6.2.2 CONF:1098-8881;CONF:1098-16072;CONF:1098-16073;CONF:1098-32586;CONF:1098-8886;CONF:1098-8887;CONF:1098-31203;CONF:1098-8888;CONF:1098-8889;CONF:1098-30928;CONF:1098-30929;CONF:1098-16074;CONF:1098-16075' },</v>
       </c>
       <c r="N210" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.6.2.2',</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>210</v>
-      </c>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>419</v>
       </c>
@@ -15382,17 +14917,14 @@
       </c>
       <c r="M211" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '210', 'template_type': 'Other', 'name': 'Physician Reading Study Performer   [2.16.840.1.113883.10.20.6.2.1[894-896', 'name2': 'Physician Reading Study Performer  ', 'template': '2.16.840.1.113883.10.20.6.2.1', 'pageStart': '894', 'pages': '894-896', 'search': 'Physician Reading Study Performer   2.16.840.1.113883.10.20.6.2.1 CONF:1098-8424;CONF:1098-30773;CONF:1098-30774;CONF:1098-32564;CONF:1098-8425;CONF:1098-8426;CONF:1098-10033;CONF:1098-8427;CONF:1098-8428;CONF:1098-8429;CONF:1098-32135' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'Physician Reading Study Performer   [2.16.840.1.113883.10.20.6.2.1[894-896', 'name2': 'Physician Reading Study Performer  ', 'template': '2.16.840.1.113883.10.20.6.2.1', 'pageStart': '894', 'pages': '894-896', 'search': 'Physician Reading Study Performer   2.16.840.1.113883.10.20.6.2.1 CONF:1098-8424;CONF:1098-30773;CONF:1098-30774;CONF:1098-32564;CONF:1098-8425;CONF:1098-8426;CONF:1098-10033;CONF:1098-8427;CONF:1098-8428;CONF:1098-8429;CONF:1098-32135' },</v>
       </c>
       <c r="N211" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.6.2.1',</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>211</v>
-      </c>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>421</v>
       </c>
@@ -15424,17 +14956,14 @@
       </c>
       <c r="M212" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '211', 'template_type': 'Other', 'name': 'US Realm Address (AD.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.2[896-900', 'name2': 'US Realm Address (AD.US.FIELDED) ', 'template': '2.16.840.1.113883.10.20.22.5.2', 'pageStart': '896', 'pages': '896-900', 'search': 'US Realm Address (AD.US.FIELDED)  2.16.840.1.113883.10.20.22.5.2 CONF:81-7290;CONF:81-7295;CONF:81-7293;CONF:81-10024;CONF:81-7292;CONF:81-7294;CONF:81-10025;CONF:81-7291;CONF:81-7296' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'US Realm Address (AD.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.2[896-900', 'name2': 'US Realm Address (AD.US.FIELDED) ', 'template': '2.16.840.1.113883.10.20.22.5.2', 'pageStart': '896', 'pages': '896-900', 'search': 'US Realm Address (AD.US.FIELDED)  2.16.840.1.113883.10.20.22.5.2 CONF:81-7290;CONF:81-7295;CONF:81-7293;CONF:81-10024;CONF:81-7292;CONF:81-7294;CONF:81-10025;CONF:81-7291;CONF:81-7296' },</v>
       </c>
       <c r="N212" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.5.2',</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>212</v>
-      </c>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>423</v>
       </c>
@@ -15466,17 +14995,14 @@
       </c>
       <c r="M213" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '212', 'template_type': 'Other', 'name': 'US Realm Date and Time (DT.US.FIELDED) [2.16.840.1.113883.10.20.22.5.3[900-900', 'name2': 'US Realm Date and Time (DT.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.3', 'pageStart': '900', 'pages': '900-900', 'search': 'US Realm Date and Time (DT.US.FIELDED) 2.16.840.1.113883.10.20.22.5.3 CONF:81-10078;CONF:81-10079;CONF:81-10080;CONF:81-10081' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'US Realm Date and Time (DT.US.FIELDED) [2.16.840.1.113883.10.20.22.5.3[900-900', 'name2': 'US Realm Date and Time (DT.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.3', 'pageStart': '900', 'pages': '900-900', 'search': 'US Realm Date and Time (DT.US.FIELDED) 2.16.840.1.113883.10.20.22.5.3 CONF:81-10078;CONF:81-10079;CONF:81-10080;CONF:81-10081' },</v>
       </c>
       <c r="N213" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.5.3',</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>213</v>
-      </c>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>425</v>
       </c>
@@ -15508,17 +15034,14 @@
       </c>
       <c r="M214" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '213', 'template_type': 'Other', 'name': 'US Realm Date and Time (DTM.US.FIELDED) [2.16.840.1.113883.10.20.22.5.4[900-901', 'name2': 'US Realm Date and Time (DTM.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.4', 'pageStart': '900', 'pages': '900-901', 'search': 'US Realm Date and Time (DTM.US.FIELDED) 2.16.840.1.113883.10.20.22.5.4 CONF:81-10127;CONF:81-10128;CONF:81-10129;CONF:81-10130' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'US Realm Date and Time (DTM.US.FIELDED) [2.16.840.1.113883.10.20.22.5.4[900-901', 'name2': 'US Realm Date and Time (DTM.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.4', 'pageStart': '900', 'pages': '900-901', 'search': 'US Realm Date and Time (DTM.US.FIELDED) 2.16.840.1.113883.10.20.22.5.4 CONF:81-10127;CONF:81-10128;CONF:81-10129;CONF:81-10130' },</v>
       </c>
       <c r="N214" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.5.4',</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>214</v>
-      </c>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>427</v>
       </c>
@@ -15550,17 +15073,14 @@
       </c>
       <c r="M215" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '214', 'template_type': 'Other', 'name': 'US Realm Patient Name (PTN.US.FIELDED) [2.16.840.1.113883.10.20.22.5.1[901-904', 'name2': 'US Realm Patient Name (PTN.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.1', 'pageStart': '901', 'pages': '901-904', 'search': 'US Realm Patient Name (PTN.US.FIELDED) 2.16.840.1.113883.10.20.22.5.1 CONF:81-7154;CONF:81-7159;CONF:81-7160;CONF:81-7157;CONF:81-7158;CONF:81-7163;CONF:81-7155;CONF:81-7156;CONF:81-7161;CONF:81-7162;CONF:81-7278' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'US Realm Patient Name (PTN.US.FIELDED) [2.16.840.1.113883.10.20.22.5.1[901-904', 'name2': 'US Realm Patient Name (PTN.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.1', 'pageStart': '901', 'pages': '901-904', 'search': 'US Realm Patient Name (PTN.US.FIELDED) 2.16.840.1.113883.10.20.22.5.1 CONF:81-7154;CONF:81-7159;CONF:81-7160;CONF:81-7157;CONF:81-7158;CONF:81-7163;CONF:81-7155;CONF:81-7156;CONF:81-7161;CONF:81-7162;CONF:81-7278' },</v>
       </c>
       <c r="N215" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.5.1',</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>215</v>
-      </c>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>429</v>
       </c>
@@ -15592,17 +15112,14 @@
       </c>
       <c r="M216" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '215', 'template_type': 'Other', 'name': 'US Realm Person Name (PN.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.1.1[904-904', 'name2': 'US Realm Person Name (PN.US.FIELDED) ', 'template': '2.16.840.1.113883.10.20.22.5.1.1', 'pageStart': '904', 'pages': '904-904', 'search': 'US Realm Person Name (PN.US.FIELDED)  2.16.840.1.113883.10.20.22.5.1.1 CONF:81-9368;CONF:81-9371;CONF:81-9372' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'US Realm Person Name (PN.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.1.1[904-904', 'name2': 'US Realm Person Name (PN.US.FIELDED) ', 'template': '2.16.840.1.113883.10.20.22.5.1.1', 'pageStart': '904', 'pages': '904-904', 'search': 'US Realm Person Name (PN.US.FIELDED)  2.16.840.1.113883.10.20.22.5.1.1 CONF:81-9368;CONF:81-9371;CONF:81-9372' },</v>
       </c>
       <c r="N216" t="str">
         <f t="shared" si="11"/>
         <v>'2.16.840.1.113883.10.20.22.5.1.1',</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>216</v>
-      </c>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>951</v>
       </c>
@@ -15613,14 +15130,14 @@
         <v>924</v>
       </c>
       <c r="E217">
-        <v>1005</v>
+        <v>1061</v>
       </c>
       <c r="F217">
-        <v>1007</v>
+        <v>1063</v>
       </c>
       <c r="G217" t="str">
         <f>"CG_A_"&amp;E217-1000&amp;"-"&amp;F217-1000</f>
-        <v>CG_A_5-7</v>
+        <v>CG_A_61-63</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>1438</v>
@@ -15631,14 +15148,14 @@
       </c>
       <c r="M217" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '216', 'template_type': 'Section', 'name': 'Care Teams Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.500[CG_A_5-7', 'name2': 'Care Teams Section (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.2.500', 'pageStart': '1005', 'pages': 'CG_A_5-7', 'search': 'Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 CONF:4435-3;CONF:4435-7;CONF:4435-8;CONF:4435-5;CONF:4435-9;CONF:4435-10;CONF:4435-4;CONF:4435-6;CONF:4435-1;CONF:4435-159;' },</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <f>+A217+1</f>
-        <v>217</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Care Teams Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.500[CG_A_61-63', 'name2': 'Care Teams Section (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.2.500', 'pageStart': '1061', 'pages': 'CG_A_61-63', 'search': 'Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 CONF:4435-3;CONF:4435-7;CONF:4435-8;CONF:4435-5;CONF:4435-9;CONF:4435-10;CONF:4435-4;CONF:4435-6;CONF:4435-1;CONF:4435-159;' },</v>
+      </c>
+      <c r="N217" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.2.500',</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>952</v>
       </c>
@@ -15649,14 +15166,14 @@
         <v>925</v>
       </c>
       <c r="E218">
-        <v>1007</v>
+        <v>1063</v>
       </c>
       <c r="F218">
-        <v>1009</v>
+        <v>1068</v>
       </c>
       <c r="G218" t="str">
-        <f t="shared" ref="G218:G225" si="12">"CG_A_"&amp;E218-1000&amp;"-"&amp;F218-1000</f>
-        <v>CG_A_7-9</v>
+        <f t="shared" ref="G218:G226" si="12">"CG_A_"&amp;E218-1000&amp;"-"&amp;F218-1000</f>
+        <v>CG_A_63-68</v>
       </c>
       <c r="J218" t="str">
         <f>VLOOKUP(D218,Sheet1!$A$86:$E$96,5,0)</f>
@@ -15668,14 +15185,14 @@
       </c>
       <c r="M218" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '217', 'template_type': 'Section', 'name': 'Notes Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.65[CG_A_7-9', 'name2': 'Notes Section (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.2.65', 'pageStart': '1007', 'pages': 'CG_A_7-9', 'search': 'Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;' },</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <f t="shared" ref="A219:A240" si="13">+A218+1</f>
-        <v>218</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Section', 'name': 'Notes Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.65[CG_A_63-68', 'name2': 'Notes Section (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.2.65', 'pageStart': '1063', 'pages': 'CG_A_63-68', 'search': 'Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;' },</v>
+      </c>
+      <c r="N218" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.2.65',</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>953</v>
       </c>
@@ -15686,14 +15203,14 @@
         <v>926</v>
       </c>
       <c r="E219">
-        <v>1010</v>
+        <v>1074</v>
       </c>
       <c r="F219">
-        <v>1011</v>
+        <v>1077</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="12"/>
-        <v>CG_A_10-11</v>
+        <v>CG_A_74-77</v>
       </c>
       <c r="J219" t="str">
         <f>VLOOKUP(D219,Sheet1!$A$86:$E$96,5,0)</f>
@@ -15705,14 +15222,14 @@
       </c>
       <c r="M219" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '218', 'template_type': 'Entry', 'name': 'Birth Sex Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.200[CG_A_10-11', 'name2': 'Birth Sex Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.200', 'pageStart': '1010', 'pages': 'CG_A_10-11', 'search': 'Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;' },</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <f t="shared" si="13"/>
-        <v>219</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Birth Sex Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.200[CG_A_74-77', 'name2': 'Birth Sex Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.200', 'pageStart': '1074', 'pages': 'CG_A_74-77', 'search': 'Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;' },</v>
+      </c>
+      <c r="N219" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.200',</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>954</v>
       </c>
@@ -15723,14 +15240,14 @@
         <v>927</v>
       </c>
       <c r="E220">
-        <v>1012</v>
+        <v>1077</v>
       </c>
       <c r="F220">
-        <v>1016</v>
+        <v>1085</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="12"/>
-        <v>CG_A_12-16</v>
+        <v>CG_A_77-85</v>
       </c>
       <c r="J220" t="s">
         <v>1288</v>
@@ -15741,14 +15258,14 @@
       </c>
       <c r="M220" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '219', 'template_type': 'Entry', 'name': 'Care Team Member Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.1[CG_A_12-16', 'name2': 'Care Team Member Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.1', 'pageStart': '1012', 'pages': 'CG_A_12-16', 'search': 'Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;' },</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <f t="shared" si="13"/>
-        <v>220</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Care Team Member Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.1[CG_A_77-85', 'name2': 'Care Team Member Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.1', 'pageStart': '1077', 'pages': 'CG_A_77-85', 'search': 'Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;' },</v>
+      </c>
+      <c r="N220" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.500.1',</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>955</v>
       </c>
@@ -15759,14 +15276,14 @@
         <v>928</v>
       </c>
       <c r="E221">
-        <v>1017</v>
+        <v>1085</v>
       </c>
       <c r="F221">
-        <v>1018</v>
+        <v>1087</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="12"/>
-        <v>CG_A_17-18</v>
+        <v>CG_A_85-87</v>
       </c>
       <c r="J221" t="s">
         <v>1289</v>
@@ -15777,14 +15294,14 @@
       </c>
       <c r="M221" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '220', 'template_type': 'Entry', 'name': 'Care Team Member Schedule Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.3[CG_A_17-18', 'name2': 'Care Team Member Schedule Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.3', 'pageStart': '1017', 'pages': 'CG_A_17-18', 'search': 'Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;' },</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <f t="shared" si="13"/>
-        <v>221</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Care Team Member Schedule Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.3[CG_A_85-87', 'name2': 'Care Team Member Schedule Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.3', 'pageStart': '1085', 'pages': 'CG_A_85-87', 'search': 'Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;' },</v>
+      </c>
+      <c r="N221" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.500.3',</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>956</v>
       </c>
@@ -15795,14 +15312,14 @@
         <v>929</v>
       </c>
       <c r="E222">
-        <v>1018</v>
+        <v>1087</v>
       </c>
       <c r="F222">
-        <v>1024</v>
+        <v>1097</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="12"/>
-        <v>CG_A_18-24</v>
+        <v>CG_A_87-97</v>
       </c>
       <c r="J222" t="s">
         <v>1290</v>
@@ -15813,14 +15330,14 @@
       </c>
       <c r="M222" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '221', 'template_type': 'Entry', 'name': 'Care Team Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.500[CG_A_18-24', 'name2': 'Care Team Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500', 'pageStart': '1018', 'pages': 'CG_A_18-24', 'search': 'Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;' },</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <f t="shared" si="13"/>
-        <v>222</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Care Team Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.500[CG_A_87-97', 'name2': 'Care Team Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500', 'pageStart': '1087', 'pages': 'CG_A_87-97', 'search': 'Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;' },</v>
+      </c>
+      <c r="N222" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.500',</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>957</v>
       </c>
@@ -15831,14 +15348,14 @@
         <v>930</v>
       </c>
       <c r="E223">
-        <v>1025</v>
+        <v>1094</v>
       </c>
       <c r="F223">
-        <v>1026</v>
+        <v>1097</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="12"/>
-        <v>CG_A_25-26</v>
+        <v>CG_A_94-97</v>
       </c>
       <c r="J223" t="s">
         <v>1291</v>
@@ -15849,14 +15366,14 @@
       </c>
       <c r="M223" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '222', 'template_type': 'Entry', 'name': 'Care Team Type Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.2[CG_A_25-26', 'name2': 'Care Team Type Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.2', 'pageStart': '1025', 'pages': 'CG_A_25-26', 'search': 'Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;' },</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <f t="shared" si="13"/>
-        <v>223</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Care Team Type Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.2[CG_A_94-97', 'name2': 'Care Team Type Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.2', 'pageStart': '1094', 'pages': 'CG_A_94-97', 'search': 'Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;' },</v>
+      </c>
+      <c r="N223" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.500.2',</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>950</v>
       </c>
@@ -15867,14 +15384,14 @@
         <v>931</v>
       </c>
       <c r="E224">
-        <v>1026</v>
+        <v>1144</v>
       </c>
       <c r="F224">
-        <v>1035</v>
+        <v>1153</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="12"/>
-        <v>CG_A_26-35</v>
+        <v>CG_A_144-153</v>
       </c>
       <c r="J224" t="s">
         <v>1292</v>
@@ -15885,14 +15402,14 @@
       </c>
       <c r="M224" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '223', 'template_type': 'Entry', 'name': 'Note Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.202[CG_A_26-35', 'name2': 'Note Activity (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.202', 'pageStart': '1026', 'pages': 'CG_A_26-35', 'search': 'Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;' },</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <f t="shared" si="13"/>
-        <v>224</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Note Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.202[CG_A_144-153', 'name2': 'Note Activity (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.202', 'pageStart': '1144', 'pages': 'CG_A_144-153', 'search': 'Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;' },</v>
+      </c>
+      <c r="N224" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.202',</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>949</v>
       </c>
@@ -15903,14 +15420,14 @@
         <v>932</v>
       </c>
       <c r="E225">
-        <v>1035</v>
+        <v>1211</v>
       </c>
       <c r="F225">
-        <v>1037</v>
+        <v>1213</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="12"/>
-        <v>CG_A_35-37</v>
+        <v>CG_A_211-213</v>
       </c>
       <c r="J225" t="s">
         <v>1293</v>
@@ -15921,14 +15438,14 @@
       </c>
       <c r="M225" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '224', 'template_type': 'Entry', 'name': 'Section Time Range Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.201[CG_A_35-37', 'name2': 'Section Time Range Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.201', 'pageStart': '1035', 'pages': 'CG_A_35-37', 'search': 'Section Time Range Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.201 CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;' },</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <f t="shared" si="13"/>
-        <v>225</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Section Time Range Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.201[CG_A_211-213', 'name2': 'Section Time Range Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.201', 'pageStart': '1211', 'pages': 'CG_A_211-213', 'search': 'Section Time Range Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.201 CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;' },</v>
+      </c>
+      <c r="N225" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.201',</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>948</v>
       </c>
@@ -15939,13 +15456,13 @@
         <v>958</v>
       </c>
       <c r="E226">
-        <v>1106</v>
+        <v>2006</v>
       </c>
       <c r="F226">
-        <v>1116</v>
+        <v>2016</v>
       </c>
       <c r="G226" t="str">
-        <f>"CG_B_"&amp;E226-1100&amp;"-"&amp;F226-1100</f>
+        <f>"CG_B_"&amp;E226-2000&amp;"-"&amp;F226-2000</f>
         <v>CG_B_6-16</v>
       </c>
       <c r="J226" t="s">
@@ -15957,31 +15474,31 @@
       </c>
       <c r="M226" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '225', 'template_type': 'Entry', 'name': 'UDI Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.311[CG_B_6-16', 'name2': 'UDI Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.311', 'pageStart': '1106', 'pages': 'CG_B_6-16', 'search': 'UDI Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.311 CONF:4437-3482;CONF:4437-3483;CONF:4437-3480;CONF:4437-3484;CONF:4437-3485;CONF:4437-3541;CONF:4437-3542;CONF:4437-3481;CONF:4437-3486;CONF:4437-3487;CONF:4437-3490;CONF:4437-3543;CONF:4437-3488;CONF:4437-3489;CONF:4437-3513;CONF:4437-3514;CONF:4437-3515;CONF:4437-3516;CONF:4437-3517;CONF:4437-3518;CONF:4437-3525;CONF:4437-3526;CONF:4437-3523;CONF:4437-3524;CONF:4437-3521;CONF:4437-3522;CONF:4437-3519;CONF:4437-3520;CONF:4437-3535;CONF:4437-3536;CONF:4437-3527;CONF:4437-3528;CONF:4437-3529;CONF:4437-3530;CONF:4437-3533;CONF:4437-3534;CONF:4437-3531;CONF:4437-3532;' },</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <f t="shared" si="13"/>
-        <v>226</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'UDI Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.311[CG_B_6-16', 'name2': 'UDI Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.311', 'pageStart': '2006', 'pages': 'CG_B_6-16', 'search': 'UDI Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.311 CONF:4437-3482;CONF:4437-3483;CONF:4437-3480;CONF:4437-3484;CONF:4437-3485;CONF:4437-3541;CONF:4437-3542;CONF:4437-3481;CONF:4437-3486;CONF:4437-3487;CONF:4437-3490;CONF:4437-3543;CONF:4437-3488;CONF:4437-3489;CONF:4437-3513;CONF:4437-3514;CONF:4437-3515;CONF:4437-3516;CONF:4437-3517;CONF:4437-3518;CONF:4437-3525;CONF:4437-3526;CONF:4437-3523;CONF:4437-3524;CONF:4437-3521;CONF:4437-3522;CONF:4437-3519;CONF:4437-3520;CONF:4437-3535;CONF:4437-3536;CONF:4437-3527;CONF:4437-3528;CONF:4437-3529;CONF:4437-3530;CONF:4437-3533;CONF:4437-3534;CONF:4437-3531;CONF:4437-3532;' },</v>
+      </c>
+      <c r="N226" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.311',</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>947</v>
       </c>
       <c r="C227" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D227" t="s">
         <v>959</v>
       </c>
       <c r="E227">
-        <v>1117</v>
+        <v>2017</v>
       </c>
       <c r="F227">
-        <v>1118</v>
+        <v>2018</v>
       </c>
       <c r="G227" t="str">
-        <f t="shared" ref="G227:G239" si="14">"CG_B_"&amp;E227-1100&amp;"-"&amp;F227-1100</f>
+        <f t="shared" ref="G227:G239" si="13">"CG_B_"&amp;E227-2000&amp;"-"&amp;F227-2000</f>
         <v>CG_B_17-18</v>
       </c>
       <c r="J227" s="2" t="s">
@@ -15993,31 +15510,31 @@
       </c>
       <c r="M227" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '226', 'template_type': 'Other', 'name': 'Brand Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.301[CG_B_17-18', 'name2': 'Brand Name Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.301', 'pageStart': '1117', 'pages': 'CG_B_17-18', 'search': 'Brand Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.301 CONF:4437-3403;CONF:4437-3405;CONF:4437-3406;CONF:4437-3404;CONF:4437-3407;CONF:4437-3408;CONF:4437-3409;CONF:4437-3410;CONF:4437-3411;' },</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <f t="shared" si="13"/>
-        <v>227</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Brand Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.301[CG_B_17-18', 'name2': 'Brand Name Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.301', 'pageStart': '2017', 'pages': 'CG_B_17-18', 'search': 'Brand Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.301 CONF:4437-3403;CONF:4437-3405;CONF:4437-3406;CONF:4437-3404;CONF:4437-3407;CONF:4437-3408;CONF:4437-3409;CONF:4437-3410;CONF:4437-3411;' },</v>
+      </c>
+      <c r="N227" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.301',</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>946</v>
       </c>
       <c r="C228" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D228" t="s">
         <v>960</v>
       </c>
       <c r="E228">
-        <v>1118</v>
+        <v>2018</v>
       </c>
       <c r="F228">
-        <v>1120</v>
+        <v>2020</v>
       </c>
       <c r="G228" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_18-20</v>
       </c>
       <c r="J228" s="2" t="s">
@@ -16029,31 +15546,31 @@
       </c>
       <c r="M228" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '227', 'template_type': 'Other', 'name': 'Catalog Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.302[CG_B_18-20', 'name2': 'Catalog Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.302', 'pageStart': '1118', 'pages': 'CG_B_18-20', 'search': 'Catalog Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.302 CONF:4437-3432;CONF:4437-3434;CONF:4437-3435;CONF:4437-3433;CONF:4437-3436;CONF:4437-3437;CONF:4437-3438;CONF:4437-3439;CONF:4437-3440;' },</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <f t="shared" si="13"/>
-        <v>228</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Catalog Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.302[CG_B_18-20', 'name2': 'Catalog Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.302', 'pageStart': '2018', 'pages': 'CG_B_18-20', 'search': 'Catalog Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.302 CONF:4437-3432;CONF:4437-3434;CONF:4437-3435;CONF:4437-3433;CONF:4437-3436;CONF:4437-3437;CONF:4437-3438;CONF:4437-3439;CONF:4437-3440;' },</v>
+      </c>
+      <c r="N228" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.302',</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>945</v>
       </c>
       <c r="C229" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D229" t="s">
         <v>961</v>
       </c>
       <c r="E229">
-        <v>1120</v>
+        <v>2020</v>
       </c>
       <c r="F229">
-        <v>1122</v>
+        <v>2022</v>
       </c>
       <c r="G229" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_20-22</v>
       </c>
       <c r="J229" s="2" t="s">
@@ -16065,31 +15582,31 @@
       </c>
       <c r="M229" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '228', 'template_type': 'Other', 'name': 'Company Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.303[CG_B_20-22', 'name2': 'Company Name Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.303', 'pageStart': '1120', 'pages': 'CG_B_20-22', 'search': 'Company Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.303 CONF:4437-3441;CONF:4437-3443;CONF:4437-3444;CONF:4437-3442;CONF:4437-3445;CONF:4437-3446;CONF:4437-3447;CONF:4437-3448;CONF:4437-3449;' },</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <f t="shared" si="13"/>
-        <v>229</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Company Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.303[CG_B_20-22', 'name2': 'Company Name Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.303', 'pageStart': '2020', 'pages': 'CG_B_20-22', 'search': 'Company Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.303 CONF:4437-3441;CONF:4437-3443;CONF:4437-3444;CONF:4437-3442;CONF:4437-3445;CONF:4437-3446;CONF:4437-3447;CONF:4437-3448;CONF:4437-3449;' },</v>
+      </c>
+      <c r="N229" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.303',</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>944</v>
       </c>
       <c r="C230" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D230" t="s">
         <v>962</v>
       </c>
       <c r="E230">
-        <v>1122</v>
+        <v>2022</v>
       </c>
       <c r="F230">
-        <v>1124</v>
+        <v>2024</v>
       </c>
       <c r="G230" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_22-24</v>
       </c>
       <c r="J230" s="2" t="s">
@@ -16101,31 +15618,31 @@
       </c>
       <c r="M230" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '229', 'template_type': 'Other', 'name': 'Device Identifier Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.304[CG_B_22-24', 'name2': 'Device Identifier Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.304', 'pageStart': '1122', 'pages': 'CG_B_22-24', 'search': 'Device Identifier Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.304 CONF:4437-3421;CONF:4437-3424;CONF:4437-3425;CONF:4437-3422;CONF:4437-3426;CONF:4437-3427;CONF:4437-3428;CONF:4437-3429;CONF:4437-3423;CONF:4437-3430;CONF:4437-3431;CONF:4437-3540;' },</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <f t="shared" si="13"/>
-        <v>230</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Device Identifier Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.304[CG_B_22-24', 'name2': 'Device Identifier Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.304', 'pageStart': '2022', 'pages': 'CG_B_22-24', 'search': 'Device Identifier Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.304 CONF:4437-3421;CONF:4437-3424;CONF:4437-3425;CONF:4437-3422;CONF:4437-3426;CONF:4437-3427;CONF:4437-3428;CONF:4437-3429;CONF:4437-3423;CONF:4437-3430;CONF:4437-3431;CONF:4437-3540;' },</v>
+      </c>
+      <c r="N230" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.304',</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>943</v>
       </c>
       <c r="C231" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D231" t="s">
         <v>963</v>
       </c>
       <c r="E231">
-        <v>1125</v>
+        <v>2025</v>
       </c>
       <c r="F231">
-        <v>1126</v>
+        <v>2026</v>
       </c>
       <c r="G231" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_25-26</v>
       </c>
       <c r="J231" s="2" t="s">
@@ -16137,31 +15654,31 @@
       </c>
       <c r="M231" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '230', 'template_type': 'Other', 'name': 'Distinct Identification Code Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.308[CG_B_25-26', 'name2': 'Distinct Identification Code Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.308', 'pageStart': '1125', 'pages': 'CG_B_25-26', 'search': 'Distinct Identification Code Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.308 CONF:4437-3348;CONF:4437-3350;CONF:4437-3351;CONF:4437-3349;CONF:4437-3355;CONF:4437-3352;CONF:4437-3353;CONF:4437-3354;CONF:4437-3340;' },</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <f t="shared" si="13"/>
-        <v>231</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Distinct Identification Code Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.308[CG_B_25-26', 'name2': 'Distinct Identification Code Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.308', 'pageStart': '2025', 'pages': 'CG_B_25-26', 'search': 'Distinct Identification Code Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.308 CONF:4437-3348;CONF:4437-3350;CONF:4437-3351;CONF:4437-3349;CONF:4437-3355;CONF:4437-3352;CONF:4437-3353;CONF:4437-3354;CONF:4437-3340;' },</v>
+      </c>
+      <c r="N231" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.308',</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>942</v>
       </c>
       <c r="C232" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D232" t="s">
         <v>964</v>
       </c>
       <c r="E232">
-        <v>1126</v>
+        <v>2026</v>
       </c>
       <c r="F232">
-        <v>1128</v>
+        <v>2028</v>
       </c>
       <c r="G232" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_26-28</v>
       </c>
       <c r="J232" s="2" t="s">
@@ -16173,31 +15690,31 @@
       </c>
       <c r="M232" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '231', 'template_type': 'Other', 'name': 'Expiration Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.309[CG_B_26-28', 'name2': 'Expiration Date Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.309', 'pageStart': '1126', 'pages': 'CG_B_26-28', 'search': 'Expiration Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.309 CONF:4437-3393;CONF:4437-3396;CONF:4437-3397;CONF:4437-3394;CONF:4437-3398;CONF:4437-3399;CONF:4437-3400;CONF:4437-3401;CONF:4437-3395;CONF:4437-3402;' },</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <f t="shared" si="13"/>
-        <v>232</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Expiration Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.309[CG_B_26-28', 'name2': 'Expiration Date Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.309', 'pageStart': '2026', 'pages': 'CG_B_26-28', 'search': 'Expiration Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.309 CONF:4437-3393;CONF:4437-3396;CONF:4437-3397;CONF:4437-3394;CONF:4437-3398;CONF:4437-3399;CONF:4437-3400;CONF:4437-3401;CONF:4437-3395;CONF:4437-3402;' },</v>
+      </c>
+      <c r="N232" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.309',</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>941</v>
       </c>
       <c r="C233" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D233" t="s">
         <v>965</v>
       </c>
       <c r="E233">
-        <v>1128</v>
+        <v>2028</v>
       </c>
       <c r="F233">
-        <v>1130</v>
+        <v>2030</v>
       </c>
       <c r="G233" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_28-30</v>
       </c>
       <c r="J233" s="2" t="s">
@@ -16209,31 +15726,31 @@
       </c>
       <c r="M233" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '232', 'template_type': 'Other', 'name': 'Implantable Device Status Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.305[CG_B_28-30', 'name2': 'Implantable Device Status Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.305', 'pageStart': '1128', 'pages': 'CG_B_28-30', 'search': 'Implantable Device Status Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.305 CONF:4437-3502;CONF:4437-3505;CONF:4437-3506;CONF:4437-3503;CONF:4437-3507;CONF:4437-3508;CONF:4437-3509;CONF:4437-3510;CONF:4437-3504;CONF:4437-3511;CONF:4437-3512;CONF:4437-3539;' },</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <f t="shared" si="13"/>
-        <v>233</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Implantable Device Status Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.305[CG_B_28-30', 'name2': 'Implantable Device Status Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.305', 'pageStart': '2028', 'pages': 'CG_B_28-30', 'search': 'Implantable Device Status Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.305 CONF:4437-3502;CONF:4437-3505;CONF:4437-3506;CONF:4437-3503;CONF:4437-3507;CONF:4437-3508;CONF:4437-3509;CONF:4437-3510;CONF:4437-3504;CONF:4437-3511;CONF:4437-3512;CONF:4437-3539;' },</v>
+      </c>
+      <c r="N233" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.305',</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>940</v>
       </c>
       <c r="C234" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D234" t="s">
         <v>966</v>
       </c>
       <c r="E234">
-        <v>1131</v>
+        <v>2031</v>
       </c>
       <c r="F234">
-        <v>1133</v>
+        <v>2033</v>
       </c>
       <c r="G234" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_31-33</v>
       </c>
       <c r="J234" s="2" t="s">
@@ -16245,31 +15762,31 @@
       </c>
       <c r="M234" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '233', 'template_type': 'Other', 'name': 'Latex Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.314[CG_B_31-33', 'name2': 'Latex Safety Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.314', 'pageStart': '1131', 'pages': 'CG_B_31-33', 'search': 'Latex Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.314 CONF:4437-3491;CONF:4437-3494;CONF:4437-3495;CONF:4437-3492;CONF:4437-3496;CONF:4437-3497;CONF:4437-3498;CONF:4437-3499;CONF:4437-3493;CONF:4437-3500;CONF:4437-3501;CONF:4437-3538;' },</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <f t="shared" si="13"/>
-        <v>234</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Latex Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.314[CG_B_31-33', 'name2': 'Latex Safety Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.314', 'pageStart': '2031', 'pages': 'CG_B_31-33', 'search': 'Latex Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.314 CONF:4437-3491;CONF:4437-3494;CONF:4437-3495;CONF:4437-3492;CONF:4437-3496;CONF:4437-3497;CONF:4437-3498;CONF:4437-3499;CONF:4437-3493;CONF:4437-3500;CONF:4437-3501;CONF:4437-3538;' },</v>
+      </c>
+      <c r="N234" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.314',</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>939</v>
       </c>
       <c r="C235" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D235" t="s">
         <v>967</v>
       </c>
       <c r="E235">
-        <v>1133</v>
+        <v>2033</v>
       </c>
       <c r="F235">
-        <v>1135</v>
+        <v>2035</v>
       </c>
       <c r="G235" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_33-35</v>
       </c>
       <c r="J235" s="2" t="s">
@@ -16281,31 +15798,31 @@
       </c>
       <c r="M235" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '234', 'template_type': 'Other', 'name': 'Lot or Batch Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.315[CG_B_33-35', 'name2': 'Lot or Batch Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.315', 'pageStart': '1133', 'pages': 'CG_B_33-35', 'search': 'Lot or Batch Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.315 CONF:4437-3450;CONF:4437-3452;CONF:4437-3453;CONF:4437-3451;CONF:4437-3454;CONF:4437-3455;CONF:4437-3456;CONF:4437-3457;CONF:4437-3458;' },</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <f t="shared" si="13"/>
-        <v>235</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Lot or Batch Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.315[CG_B_33-35', 'name2': 'Lot or Batch Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.315', 'pageStart': '2033', 'pages': 'CG_B_33-35', 'search': 'Lot or Batch Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.315 CONF:4437-3450;CONF:4437-3452;CONF:4437-3453;CONF:4437-3451;CONF:4437-3454;CONF:4437-3455;CONF:4437-3456;CONF:4437-3457;CONF:4437-3458;' },</v>
+      </c>
+      <c r="N235" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.315',</v>
+      </c>
+    </row>
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>938</v>
       </c>
       <c r="C236" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D236" t="s">
         <v>968</v>
       </c>
       <c r="E236">
-        <v>1135</v>
+        <v>2035</v>
       </c>
       <c r="F236">
-        <v>1137</v>
+        <v>2037</v>
       </c>
       <c r="G236" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_35-37</v>
       </c>
       <c r="J236" s="2" t="s">
@@ -16317,31 +15834,31 @@
       </c>
       <c r="M236" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '235', 'template_type': 'Other', 'name': 'Manufacturing Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.316[CG_B_35-37', 'name2': 'Manufacturing Date Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.316', 'pageStart': '1135', 'pages': 'CG_B_35-37', 'search': 'Manufacturing Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.316 CONF:4437-3459;CONF:4437-3462;CONF:4437-3463;CONF:4437-3460;CONF:4437-3464;CONF:4437-3465;CONF:4437-3466;CONF:4437-3467;CONF:4437-3461;CONF:4437-3468;' },</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <f t="shared" si="13"/>
-        <v>236</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Manufacturing Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.316[CG_B_35-37', 'name2': 'Manufacturing Date Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.316', 'pageStart': '2035', 'pages': 'CG_B_35-37', 'search': 'Manufacturing Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.316 CONF:4437-3459;CONF:4437-3462;CONF:4437-3463;CONF:4437-3460;CONF:4437-3464;CONF:4437-3465;CONF:4437-3466;CONF:4437-3467;CONF:4437-3461;CONF:4437-3468;' },</v>
+      </c>
+      <c r="N236" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.316',</v>
+      </c>
+    </row>
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>937</v>
       </c>
       <c r="C237" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D237" t="s">
         <v>969</v>
       </c>
       <c r="E237">
-        <v>1137</v>
+        <v>2037</v>
       </c>
       <c r="F237">
-        <v>1139</v>
+        <v>2039</v>
       </c>
       <c r="G237" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_37-39</v>
       </c>
       <c r="J237" s="2" t="s">
@@ -16353,31 +15870,31 @@
       </c>
       <c r="M237" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '236', 'template_type': 'Other', 'name': 'Model Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.317[CG_B_37-39', 'name2': 'Model Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.317', 'pageStart': '1137', 'pages': 'CG_B_37-39', 'search': 'Model Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.317 CONF:4437-3412;CONF:4437-3414;CONF:4437-3415;CONF:4437-3413;CONF:4437-3416;CONF:4437-3417;CONF:4437-3418;CONF:4437-3419;CONF:4437-3420;' },</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <f t="shared" si="13"/>
-        <v>237</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Model Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.317[CG_B_37-39', 'name2': 'Model Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.317', 'pageStart': '2037', 'pages': 'CG_B_37-39', 'search': 'Model Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.317 CONF:4437-3412;CONF:4437-3414;CONF:4437-3415;CONF:4437-3413;CONF:4437-3416;CONF:4437-3417;CONF:4437-3418;CONF:4437-3419;CONF:4437-3420;' },</v>
+      </c>
+      <c r="N237" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.317',</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>936</v>
       </c>
       <c r="C238" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D238" t="s">
         <v>970</v>
       </c>
       <c r="E238">
-        <v>1139</v>
+        <v>2039</v>
       </c>
       <c r="F238">
-        <v>1141</v>
+        <v>2041</v>
       </c>
       <c r="G238" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_39-41</v>
       </c>
       <c r="J238" s="2" t="s">
@@ -16389,31 +15906,31 @@
       </c>
       <c r="M238" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '237', 'template_type': 'Other', 'name': 'MRI Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.318[CG_B_39-41', 'name2': 'MRI Safety Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.318', 'pageStart': '1139', 'pages': 'CG_B_39-41', 'search': 'MRI Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.318 CONF:4437-3469;CONF:4437-3471;CONF:4437-3472;CONF:4437-3470;CONF:4437-3473;CONF:4437-3474;CONF:4437-3475;CONF:4437-3476;CONF:4437-3477;CONF:4437-3478;CONF:4437-3479;CONF:4437-3537;' },</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <f t="shared" si="13"/>
-        <v>238</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'MRI Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.318[CG_B_39-41', 'name2': 'MRI Safety Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.318', 'pageStart': '2039', 'pages': 'CG_B_39-41', 'search': 'MRI Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.318 CONF:4437-3469;CONF:4437-3471;CONF:4437-3472;CONF:4437-3470;CONF:4437-3473;CONF:4437-3474;CONF:4437-3475;CONF:4437-3476;CONF:4437-3477;CONF:4437-3478;CONF:4437-3479;CONF:4437-3537;' },</v>
+      </c>
+      <c r="N238" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.318',</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>935</v>
       </c>
       <c r="C239" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D239" t="s">
         <v>971</v>
       </c>
       <c r="E239">
-        <v>1141</v>
+        <v>2041</v>
       </c>
       <c r="F239">
-        <v>1143</v>
+        <v>2043</v>
       </c>
       <c r="G239" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>CG_B_41-43</v>
       </c>
       <c r="J239" s="2" t="s">
@@ -16425,43 +15942,396 @@
       </c>
       <c r="M239" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '238', 'template_type': 'Other', 'name': 'Serial Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.319[CG_B_41-43', 'name2': 'Serial Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.319', 'pageStart': '1141', 'pages': 'CG_B_41-43', 'search': 'Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 CONF:4437-3373;CONF:4437-3377;CONF:4437-3368;CONF:4437-3374;CONF:4437-3378;CONF:4437-3369;CONF:4437-3370;CONF:4437-3379;CONF:4437-3372;' },</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <f t="shared" si="13"/>
-        <v>239</v>
-      </c>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Serial Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.319[CG_B_41-43', 'name2': 'Serial Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.319', 'pageStart': '2041', 'pages': 'CG_B_41-43', 'search': 'Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 CONF:4437-3373;CONF:4437-3377;CONF:4437-3368;CONF:4437-3374;CONF:4437-3378;CONF:4437-3369;CONF:4437-3370;CONF:4437-3379;CONF:4437-3372;' },</v>
+      </c>
+      <c r="N239" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.319',</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>934</v>
+        <v>1877</v>
       </c>
       <c r="C240" t="s">
         <v>431</v>
       </c>
       <c r="D240" t="s">
-        <v>933</v>
+        <v>1193</v>
       </c>
       <c r="E240">
-        <v>1205</v>
+        <v>1239</v>
       </c>
       <c r="F240">
-        <v>1207</v>
+        <v>1241</v>
       </c>
       <c r="G240" t="str">
-        <f>"CG_C_"&amp;E240-1200&amp;"-"&amp;F240-1200</f>
-        <v>CG_C_5-7</v>
-      </c>
-      <c r="J240" t="s">
-        <v>1287</v>
-      </c>
-      <c r="K240" t="str">
-        <f t="shared" si="9"/>
-        <v>Author Provenance (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</v>
-      </c>
+        <f>"CG_A_"&amp;E240-1000&amp;"-"&amp;F240-1000</f>
+        <v>CG_A_239-241</v>
+      </c>
+      <c r="J240" s="2"/>
       <c r="M240" t="str">
         <f t="shared" si="10"/>
-        <v>{ 'id': '239', 'template_type': 'Other', 'name': 'Author Provenance (Companion Guide) [2.16.840.1.113883.10.20.22.5.6[CG_C_5-7', 'name2': 'Author Provenance (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.5.6', 'pageStart': '1205', 'pages': 'CG_C_5-7', 'search': 'Author Provenance (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;' },</v>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'Provenance - Assembler Participation (Companion Guide) [2.16.840.1.113883.10.20.22.5.7[CG_A_239-241', 'name2': 'Provenance - Assembler Participation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.5.7', 'pageStart': '1239', 'pages': 'CG_A_239-241', 'search': '' },</v>
+      </c>
+      <c r="N240" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.5.7',</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C241" t="s">
+        <v>431</v>
+      </c>
+      <c r="D241" t="s">
+        <v>933</v>
+      </c>
+      <c r="E241">
+        <v>1241</v>
+      </c>
+      <c r="F241">
+        <v>1246</v>
+      </c>
+      <c r="G241" t="str">
+        <f>"CG_A_"&amp;E241-1000&amp;"-"&amp;F241-1000</f>
+        <v>CG_A_241-246</v>
+      </c>
+      <c r="J241" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K241" t="str">
+        <f t="shared" si="9"/>
+        <v>Provenance - Author Participation (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</v>
+      </c>
+      <c r="M241" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'Provenance - Author Participation (Companion Guide) [2.16.840.1.113883.10.20.22.5.6[CG_A_241-246', 'name2': 'Provenance - Author Participation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.5.6', 'pageStart': '1241', 'pages': 'CG_A_241-246', 'search': 'Provenance - Author Participation (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;' },</v>
+      </c>
+      <c r="N241" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.5.6',</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C242" t="s">
+        <v>431</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E242">
+        <v>1246</v>
+      </c>
+      <c r="F242">
+        <v>1249</v>
+      </c>
+      <c r="G242" t="str">
+        <f>"CG_A_"&amp;E242-1000&amp;"-"&amp;F242-1000</f>
+        <v>CG_A_246-249</v>
+      </c>
+      <c r="M242" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Other', 'name': 'Related Person Relationship and Name Participant (Companion Guide) [:2.16.840.1.113883.10.20.22.5.8[CG_A_246-249', 'name2': 'Related Person Relationship and Name Participant (Companion Guide)', 'template': ':2.16.840.1.113883.10.20.22.5.8', 'pageStart': '1246', 'pages': 'CG_A_246-249', 'search': '' },</v>
+      </c>
+      <c r="N242" t="str">
+        <f t="shared" si="11"/>
+        <v>':2.16.840.1.113883.10.20.22.5.8',</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C243" t="s">
+        <v>432</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E243">
+        <v>1100</v>
+      </c>
+      <c r="F243">
+        <v>1102</v>
+      </c>
+      <c r="G243" t="str">
+        <f>"CG_A_"&amp;E243-1000&amp;"-"&amp;F243-1000</f>
+        <v>CG_A_100-102</v>
+      </c>
+      <c r="M243" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Date of Diagnosis Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.502[CG_A_100-102', 'name2': 'Date of Diagnosis Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.502', 'pageStart': '1100', 'pages': 'CG_A_100-102', 'search': '' },</v>
+      </c>
+      <c r="N243" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.502',</v>
+      </c>
+    </row>
+    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C244" t="s">
+        <v>432</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E244">
+        <v>1102</v>
+      </c>
+      <c r="F244">
+        <v>1107</v>
+      </c>
+      <c r="G244" t="str">
+        <f>"CG_A_"&amp;E244-1000&amp;"-"&amp;F244-1000</f>
+        <v>CG_A_102-107</v>
+      </c>
+      <c r="M244" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Disability Status Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.505[CG_A_102-107', 'name2': 'Disability Status Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.505', 'pageStart': '1102', 'pages': 'CG_A_102-107', 'search': '' },</v>
+      </c>
+      <c r="N244" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.505',</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C245" t="s">
+        <v>432</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E245">
+        <v>1175</v>
+      </c>
+      <c r="F245">
+        <v>1178</v>
+      </c>
+      <c r="G245" t="str">
+        <f>"CG_A_"&amp;E245-1000&amp;"-"&amp;F245-1000</f>
+        <v>CG_A_175-178</v>
+      </c>
+      <c r="M245" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Pregnancy Intention in Next Year (Companion Guide) [2.16.840.1.113883.10.20.22.4.281[CG_A_175-178', 'name2': 'Pregnancy Intention in Next Year (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.281', 'pageStart': '1175', 'pages': 'CG_A_175-178', 'search': '' },</v>
+      </c>
+      <c r="N245" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.281',</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C246" t="s">
+        <v>432</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E246">
+        <v>1198</v>
+      </c>
+      <c r="F246">
+        <v>1200</v>
+      </c>
+      <c r="G246" t="str">
+        <f>"CG_A_"&amp;E246-1000&amp;"-"&amp;F246-1000</f>
+        <v>CG_A_198-200</v>
+      </c>
+      <c r="M246" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Reason (Companion Guide) [2.16.840.1.113883.10.20.24.3.88[CG_A_198-200', 'name2': 'Reason (Companion Guide)', 'template': '2.16.840.1.113883.10.20.24.3.88', 'pageStart': '1198', 'pages': 'CG_A_198-200', 'search': '' },</v>
+      </c>
+      <c r="N246" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.24.3.88',</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C247" t="s">
+        <v>432</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E247">
+        <v>1213</v>
+      </c>
+      <c r="F247">
+        <v>1216</v>
+      </c>
+      <c r="G247" t="str">
+        <f>"CG_A_"&amp;E247-1000&amp;"-"&amp;F247-1000</f>
+        <v>CG_A_213-216</v>
+      </c>
+      <c r="M247" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Sex Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.507[CG_A_213-216', 'name2': 'Sex Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.507', 'pageStart': '1213', 'pages': 'CG_A_213-216', 'search': '' },</v>
+      </c>
+      <c r="N247" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.507',</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C248" t="s">
+        <v>432</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E248">
+        <v>1222</v>
+      </c>
+      <c r="F248">
+        <v>1224</v>
+      </c>
+      <c r="G248" t="str">
+        <f>"CG_A_"&amp;E248-1000&amp;"-"&amp;F248-1000</f>
+        <v>CG_A_222-224</v>
+      </c>
+      <c r="M248" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Basic Industry Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.504[CG_A_222-224', 'name2': 'Basic Industry Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.504', 'pageStart': '1222', 'pages': 'CG_A_222-224', 'search': '' },</v>
+      </c>
+      <c r="N248" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.504',</v>
+      </c>
+    </row>
+    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C249" t="s">
+        <v>432</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E249">
+        <v>1224</v>
+      </c>
+      <c r="F249">
+        <v>1228</v>
+      </c>
+      <c r="G249" t="str">
+        <f>"CG_A_"&amp;E249-1000&amp;"-"&amp;F249-1000</f>
+        <v>CG_A_224-228</v>
+      </c>
+      <c r="M249" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Basic Occupation Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.503[CG_A_224-228', 'name2': 'Basic Occupation Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.503', 'pageStart': '1224', 'pages': 'CG_A_224-228', 'search': '' },</v>
+      </c>
+      <c r="N249" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.503',</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C250" t="s">
+        <v>432</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E250">
+        <v>1228</v>
+      </c>
+      <c r="F250">
+        <v>1232</v>
+      </c>
+      <c r="G250" t="str">
+        <f>"CG_A_"&amp;E250-1000&amp;"-"&amp;F250-1000</f>
+        <v>CG_A_228-232</v>
+      </c>
+      <c r="M250" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Gender Identity Observation (Companion Guide) [2.16.840.1.113883.10.20.34.3.45[CG_A_228-232', 'name2': 'Gender Identity Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.34.3.45', 'pageStart': '1228', 'pages': 'CG_A_228-232', 'search': '' },</v>
+      </c>
+      <c r="N250" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.34.3.45',</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C251" t="s">
+        <v>432</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E251">
+        <v>1232</v>
+      </c>
+      <c r="F251">
+        <v>1235</v>
+      </c>
+      <c r="G251" t="str">
+        <f>"CG_A_"&amp;E251-1000&amp;"-"&amp;F251-1000</f>
+        <v>CG_A_232-235</v>
+      </c>
+      <c r="M251" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Sexual Orientation Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.501[CG_A_232-235', 'name2': 'Sexual Orientation Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.501', 'pageStart': '1232', 'pages': 'CG_A_232-235', 'search': '' },</v>
+      </c>
+      <c r="N251" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.501',</v>
+      </c>
+    </row>
+    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C252" t="s">
+        <v>432</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E252">
+        <v>1235</v>
+      </c>
+      <c r="F252">
+        <v>1239</v>
+      </c>
+      <c r="G252" t="str">
+        <f>"CG_A_"&amp;E252-1000&amp;"-"&amp;F252-1000</f>
+        <v>CG_A_235-239</v>
+      </c>
+      <c r="M252" t="str">
+        <f t="shared" si="10"/>
+        <v>{ 'id': '', 'template_type': 'Entry', 'name': 'Tribal Affiliation Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.506[CG_A_235-239', 'name2': 'Tribal Affiliation Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.506', 'pageStart': '1235', 'pages': 'CG_A_235-239', 'search': '' },</v>
+      </c>
+      <c r="N252" t="str">
+        <f t="shared" si="11"/>
+        <v>'2.16.840.1.113883.10.20.22.4.506',</v>
       </c>
     </row>
   </sheetData>
@@ -35468,7 +35338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16808B2F-A187-4C43-8DFB-56A6B23E538C}">
   <dimension ref="H16:K230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+    <sheetView topLeftCell="A176" workbookViewId="0">
       <selection activeCell="K16" sqref="K16:K230"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnD'Amore\Source\Repos\ccda-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159FE4FE-FCF0-4F29-AF56-395313310099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0AE666-4AA4-492C-8054-AE7809B41C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5758,9 +5758,6 @@
     <t>Medication Dispense (Companion Guide)</t>
   </si>
   <si>
-    <t>Indication  (Companion Guide) (Companion Guide)</t>
-  </si>
-  <si>
     <t>Health Concern Act (Companion Guide)</t>
   </si>
   <si>
@@ -5807,6 +5804,9 @@
   </si>
   <si>
     <t>CONF:4547-33088;CONF:4547-33089;CONF:4547-33078;CONF:4547-33083;CONF:4547-33084;CONF:4547-33079;CONF:4547-33085;CONF:4547-33086;CONF:4547-33077;CONF:4547-33081;CONF:4547-33090;CONF:4547-33091;CONF:4547-33092;CONF:4547-33093;CONF:4547-33080;CONF:4547-33094;CONF:4547-33098;</t>
+  </si>
+  <si>
+    <t>Indication  (Companion Guide)</t>
   </si>
 </sst>
 </file>
@@ -6756,8 +6756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M252" sqref="M2:M252"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6850,15 +6850,15 @@
         <v>440</v>
       </c>
       <c r="K2" t="str">
-        <f>B2&amp;" "&amp;D2&amp;" "&amp;J2</f>
+        <f t="shared" ref="K2:K65" si="0">B2&amp;" "&amp;D2&amp;" "&amp;J2</f>
         <v>Care Plan  2.16.840.1.113883.10.20.22.1.15 CONF:1198-28741;CONF:1198-28742;CONF:1198-32877;CONF:1198-32934;CONF:1198-28745;CONF:1198-32959;CONF:1198-32321;CONF:1198-32322;CONF:1198-31993;CONF:1198-31994;CONF:1198-31996;CONF:1198-31997;CONF:1198-31998;CONF:1198-31999;CONF:1198-32320;CONF:1198-32000;CONF:1198-32001;CONF:1198-32002;CONF:1198-32003;CONF:1198-31910;CONF:1198-31911;CONF:1198-31912;CONF:1198-31913;CONF:1198-31914;CONF:1198-31915;CONF:1198-31916;CONF:1198-31917;CONF:1198-31918;CONF:1198-31677;CONF:1198-31678;CONF:1198-31679;CONF:1198-31680;CONF:1198-31681;CONF:1198-31682;CONF:1198-31683;CONF:1198-31686;CONF:1198-31684;CONF:1198-31685;CONF:1198-32367;CONF:1198-31895;CONF:1198-31896;CONF:1198-31897;CONF:1198-31898;CONF:1198-31899;CONF:1198-31900;CONF:1198-31901;CONF:1198-31902;CONF:1198-31903;CONF:1198-31904;CONF:1198-32330;CONF:1198-32331;CONF:1198-31905;CONF:1198-31907;CONF:1198-31908;CONF:1198-31909;CONF:1198-32328;CONF:1198-32329;CONF:1198-29893;CONF:1198-31889;CONF:1198-29894;CONF:1198-32949;CONF:1198-29895;CONF:1198-29896;CONF:1198-32004;CONF:1198-32005;CONF:1198-32007;CONF:1198-28753;CONF:1198-28754;CONF:1198-28755;CONF:1198-28756;CONF:1198-28761;CONF:1198-28762;CONF:1198-28763;CONF:1198-28764;CONF:1198-29596;CONF:1198-29597;CONF:1198-31044</v>
       </c>
       <c r="M2" t="str">
-        <f>"{ 'id': '"&amp;A2&amp;"', 'template_type': '"&amp;C2&amp;"', 'name': '"&amp;B2&amp;" ["&amp;D2&amp;"["&amp;G2&amp;"', 'name2': '"&amp;B2&amp;"', 'template': '"&amp;D2&amp;"', 'pageStart': '"&amp;E2&amp;"', 'pages': '"&amp;G2&amp;"', 'search': '"&amp;K2&amp;"' },"</f>
+        <f t="shared" ref="M2:M65" si="1">"{ 'id': '"&amp;A2&amp;"', 'template_type': '"&amp;C2&amp;"', 'name': '"&amp;B2&amp;" ["&amp;D2&amp;"["&amp;G2&amp;"', 'name2': '"&amp;B2&amp;"', 'template': '"&amp;D2&amp;"', 'pageStart': '"&amp;E2&amp;"', 'pages': '"&amp;G2&amp;"', 'search': '"&amp;K2&amp;"' },"</f>
         <v>{ 'id': '1', 'template_type': 'Document', 'name': 'Care Plan  [2.16.840.1.113883.10.20.22.1.15[87-101', 'name2': 'Care Plan ', 'template': '2.16.840.1.113883.10.20.22.1.15', 'pageStart': '87', 'pages': '87-101', 'search': 'Care Plan  2.16.840.1.113883.10.20.22.1.15 CONF:1198-28741;CONF:1198-28742;CONF:1198-32877;CONF:1198-32934;CONF:1198-28745;CONF:1198-32959;CONF:1198-32321;CONF:1198-32322;CONF:1198-31993;CONF:1198-31994;CONF:1198-31996;CONF:1198-31997;CONF:1198-31998;CONF:1198-31999;CONF:1198-32320;CONF:1198-32000;CONF:1198-32001;CONF:1198-32002;CONF:1198-32003;CONF:1198-31910;CONF:1198-31911;CONF:1198-31912;CONF:1198-31913;CONF:1198-31914;CONF:1198-31915;CONF:1198-31916;CONF:1198-31917;CONF:1198-31918;CONF:1198-31677;CONF:1198-31678;CONF:1198-31679;CONF:1198-31680;CONF:1198-31681;CONF:1198-31682;CONF:1198-31683;CONF:1198-31686;CONF:1198-31684;CONF:1198-31685;CONF:1198-32367;CONF:1198-31895;CONF:1198-31896;CONF:1198-31897;CONF:1198-31898;CONF:1198-31899;CONF:1198-31900;CONF:1198-31901;CONF:1198-31902;CONF:1198-31903;CONF:1198-31904;CONF:1198-32330;CONF:1198-32331;CONF:1198-31905;CONF:1198-31907;CONF:1198-31908;CONF:1198-31909;CONF:1198-32328;CONF:1198-32329;CONF:1198-29893;CONF:1198-31889;CONF:1198-29894;CONF:1198-32949;CONF:1198-29895;CONF:1198-29896;CONF:1198-32004;CONF:1198-32005;CONF:1198-32007;CONF:1198-28753;CONF:1198-28754;CONF:1198-28755;CONF:1198-28756;CONF:1198-28761;CONF:1198-28762;CONF:1198-28763;CONF:1198-28764;CONF:1198-29596;CONF:1198-29597;CONF:1198-31044' },</v>
       </c>
       <c r="N2" t="str">
-        <f>"'"&amp;D2&amp;"',"</f>
+        <f t="shared" ref="N2:N65" si="2">"'"&amp;D2&amp;"',"</f>
         <v>'2.16.840.1.113883.10.20.22.1.15',</v>
       </c>
     </row>
@@ -6893,21 +6893,21 @@
         <v>441</v>
       </c>
       <c r="K3" t="str">
-        <f>B3&amp;" "&amp;D3&amp;" "&amp;J3</f>
+        <f t="shared" si="0"/>
         <v>Consultation Note   2.16.840.1.113883.10.20.22.1.4 CONF:1198-8375;CONF:1198-10040;CONF:1198-32502;CONF:1198-32935;CONF:1198-17176;CONF:1198-31656;CONF:1198-31657;CONF:1198-31658;CONF:1198-31659;CONF:1198-31660;CONF:1198-31661;CONF:1198-31662;CONF:1198-31663;CONF:1198-31664;CONF:1198-31665;CONF:1198-8382;CONF:1198-29923;CONF:1198-29924;CONF:1198-8386;CONF:1198-8387;CONF:1198-8388;CONF:1198-8389;CONF:1198-8391;CONF:1198-32904;CONF:1198-32905;CONF:1198-8392;CONF:1198-32902;CONF:1198-32906;CONF:1198-8397;CONF:1198-28895;CONF:1198-28896;CONF:1198-28897;CONF:1198-28898;CONF:1198-28899;CONF:1198-28900;CONF:1198-28901;CONF:1198-28904;CONF:1198-28905;CONF:1198-28906;CONF:1198-28907;CONF:1198-28908;CONF:1198-28909;CONF:1198-28910;CONF:1198-28911;CONF:1198-28912;CONF:1198-28913;CONF:1198-28915;CONF:1198-28916;CONF:1198-28917;CONF:1198-28918;CONF:1198-28919;CONF:1198-28920;CONF:1198-28921;CONF:1198-28922;CONF:1198-28923;CONF:1198-28924;CONF:1198-28925;CONF:1198-28926;CONF:1198-28928;CONF:1198-28929;CONF:1198-28930;CONF:1198-28931;CONF:1198-28932;CONF:1198-28933;CONF:1198-28934;CONF:1198-28935;CONF:1198-28936;CONF:1198-28937;CONF:1198-28942;CONF:1198-28943;CONF:1198-28944;CONF:1198-28945;CONF:1198-30237;CONF:1198-30238;CONF:1198-30904;CONF:1198-30905;CONF:1198-30906;CONF:1198-30907;CONF:1198-30909;CONF:1198-30910;CONF:1198-28939;CONF:1198-28940;CONF:1198-9504;CONF:1198-9501</v>
       </c>
       <c r="M3" t="str">
-        <f>"{ 'id': '"&amp;A3&amp;"', 'template_type': '"&amp;C3&amp;"', 'name': '"&amp;B3&amp;" ["&amp;D3&amp;"["&amp;G3&amp;"', 'name2': '"&amp;B3&amp;"', 'template': '"&amp;D3&amp;"', 'pageStart': '"&amp;E3&amp;"', 'pages': '"&amp;G3&amp;"', 'search': '"&amp;K3&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '2', 'template_type': 'Document', 'name': 'Consultation Note   [2.16.840.1.113883.10.20.22.1.4[101-117', 'name2': 'Consultation Note  ', 'template': '2.16.840.1.113883.10.20.22.1.4', 'pageStart': '101', 'pages': '101-117', 'search': 'Consultation Note   2.16.840.1.113883.10.20.22.1.4 CONF:1198-8375;CONF:1198-10040;CONF:1198-32502;CONF:1198-32935;CONF:1198-17176;CONF:1198-31656;CONF:1198-31657;CONF:1198-31658;CONF:1198-31659;CONF:1198-31660;CONF:1198-31661;CONF:1198-31662;CONF:1198-31663;CONF:1198-31664;CONF:1198-31665;CONF:1198-8382;CONF:1198-29923;CONF:1198-29924;CONF:1198-8386;CONF:1198-8387;CONF:1198-8388;CONF:1198-8389;CONF:1198-8391;CONF:1198-32904;CONF:1198-32905;CONF:1198-8392;CONF:1198-32902;CONF:1198-32906;CONF:1198-8397;CONF:1198-28895;CONF:1198-28896;CONF:1198-28897;CONF:1198-28898;CONF:1198-28899;CONF:1198-28900;CONF:1198-28901;CONF:1198-28904;CONF:1198-28905;CONF:1198-28906;CONF:1198-28907;CONF:1198-28908;CONF:1198-28909;CONF:1198-28910;CONF:1198-28911;CONF:1198-28912;CONF:1198-28913;CONF:1198-28915;CONF:1198-28916;CONF:1198-28917;CONF:1198-28918;CONF:1198-28919;CONF:1198-28920;CONF:1198-28921;CONF:1198-28922;CONF:1198-28923;CONF:1198-28924;CONF:1198-28925;CONF:1198-28926;CONF:1198-28928;CONF:1198-28929;CONF:1198-28930;CONF:1198-28931;CONF:1198-28932;CONF:1198-28933;CONF:1198-28934;CONF:1198-28935;CONF:1198-28936;CONF:1198-28937;CONF:1198-28942;CONF:1198-28943;CONF:1198-28944;CONF:1198-28945;CONF:1198-30237;CONF:1198-30238;CONF:1198-30904;CONF:1198-30905;CONF:1198-30906;CONF:1198-30907;CONF:1198-30909;CONF:1198-30910;CONF:1198-28939;CONF:1198-28940;CONF:1198-9504;CONF:1198-9501' },</v>
       </c>
       <c r="N3" t="str">
-        <f>"'"&amp;D3&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.4',</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">+A3+1</f>
+        <f t="shared" ref="A4:A67" si="3">+A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -6936,21 +6936,21 @@
         <v>442</v>
       </c>
       <c r="K4" t="str">
-        <f>B4&amp;" "&amp;D4&amp;" "&amp;J4</f>
+        <f t="shared" si="0"/>
         <v>Continuity of Care Document (CCD)   2.16.840.1.113883.10.20.22.1.2 CONF:1198-8450;CONF:1198-10038;CONF:1198-32516;CONF:1198-32936;CONF:1198-17180;CONF:1198-17181;CONF:1198-32138;CONF:1198-9442;CONF:1198-9443;CONF:1198-8456;CONF:1198-8457;CONF:1198-8452;CONF:1198-8480;CONF:1198-8453;CONF:1198-8481;CONF:1198-8454;CONF:1198-8455;CONF:1198-8482;CONF:1198-8458;CONF:1198-8459;CONF:1198-30882;CONF:1198-32466;CONF:1198-32467;CONF:1198-30659;CONF:1198-30660;CONF:1198-30661;CONF:1198-30662;CONF:1198-30663;CONF:1198-30664;CONF:1198-30665;CONF:1198-30666;CONF:1198-30667;CONF:1198-30668;CONF:1198-30669;CONF:1198-30670;CONF:1198-30671;CONF:1198-30672;CONF:1198-30673;CONF:1198-30674;CONF:1198-30675;CONF:1198-30676;CONF:1198-30677;CONF:1198-30678;CONF:1198-30679;CONF:1198-30680;CONF:1198-30681;CONF:1198-30682;CONF:1198-30683;CONF:1198-30684;CONF:1198-30685;CONF:1198-30686;CONF:1198-30687;CONF:1198-30688;CONF:1198-30689;CONF:1198-30690;CONF:1198-32143;CONF:1198-32144;CONF:1198-32624;CONF:1198-32625</v>
       </c>
       <c r="M4" t="str">
-        <f>"{ 'id': '"&amp;A4&amp;"', 'template_type': '"&amp;C4&amp;"', 'name': '"&amp;B4&amp;" ["&amp;D4&amp;"["&amp;G4&amp;"', 'name2': '"&amp;B4&amp;"', 'template': '"&amp;D4&amp;"', 'pageStart': '"&amp;E4&amp;"', 'pages': '"&amp;G4&amp;"', 'search': '"&amp;K4&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '3', 'template_type': 'Document', 'name': 'Continuity of Care Document (CCD)   [2.16.840.1.113883.10.20.22.1.2[117-127', 'name2': 'Continuity of Care Document (CCD)  ', 'template': '2.16.840.1.113883.10.20.22.1.2', 'pageStart': '117', 'pages': '117-127', 'search': 'Continuity of Care Document (CCD)   2.16.840.1.113883.10.20.22.1.2 CONF:1198-8450;CONF:1198-10038;CONF:1198-32516;CONF:1198-32936;CONF:1198-17180;CONF:1198-17181;CONF:1198-32138;CONF:1198-9442;CONF:1198-9443;CONF:1198-8456;CONF:1198-8457;CONF:1198-8452;CONF:1198-8480;CONF:1198-8453;CONF:1198-8481;CONF:1198-8454;CONF:1198-8455;CONF:1198-8482;CONF:1198-8458;CONF:1198-8459;CONF:1198-30882;CONF:1198-32466;CONF:1198-32467;CONF:1198-30659;CONF:1198-30660;CONF:1198-30661;CONF:1198-30662;CONF:1198-30663;CONF:1198-30664;CONF:1198-30665;CONF:1198-30666;CONF:1198-30667;CONF:1198-30668;CONF:1198-30669;CONF:1198-30670;CONF:1198-30671;CONF:1198-30672;CONF:1198-30673;CONF:1198-30674;CONF:1198-30675;CONF:1198-30676;CONF:1198-30677;CONF:1198-30678;CONF:1198-30679;CONF:1198-30680;CONF:1198-30681;CONF:1198-30682;CONF:1198-30683;CONF:1198-30684;CONF:1198-30685;CONF:1198-30686;CONF:1198-30687;CONF:1198-30688;CONF:1198-30689;CONF:1198-30690;CONF:1198-32143;CONF:1198-32144;CONF:1198-32624;CONF:1198-32625' },</v>
       </c>
       <c r="N4" t="str">
-        <f>"'"&amp;D4&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.2',</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -6979,21 +6979,21 @@
         <v>443</v>
       </c>
       <c r="K5" t="str">
-        <f>B5&amp;" "&amp;D5&amp;" "&amp;J5</f>
+        <f t="shared" si="0"/>
         <v>Diagnostic Imaging Report   2.16.840.1.113883.10.20.22.1.5 CONF:1198-8404;CONF:1198-10042;CONF:1198-32515;CONF:1198-32937;CONF:1198-30932;CONF:1198-30933;CONF:1198-30934;CONF:1198-30935;CONF:1198-14833;CONF:1198-14834;CONF:1198-8410;CONF:1198-8411;CONF:1198-8412;CONF:1198-8413;CONF:1198-8414;CONF:1198-31198;CONF:1198-31199;CONF:1198-31200;CONF:1198-30936;CONF:1198-30937;CONF:1198-30938;CONF:1198-8416;CONF:1198-8431;CONF:1198-8430;CONF:1198-8418;CONF:1198-8419;CONF:1198-8420;CONF:1198-8422;CONF:1198-8432;CONF:1198-32089;CONF:1198-32090;CONF:1198-10031;CONF:1198-10032;CONF:1198-8433;CONF:1198-30939;CONF:1198-30940;CONF:1198-30941;CONF:1198-30942;CONF:1198-30943;CONF:1198-30945;CONF:1198-30946;CONF:1198-30947;CONF:1198-30948;CONF:1198-14907;CONF:1198-30695;CONF:1198-30696;CONF:1198-30697;CONF:1198-30698;CONF:1198-30699;CONF:1198-31206;CONF:1198-31055;CONF:1198-31056;CONF:1198-31057;CONF:1198-31207;CONF:1198-31058;CONF:1198-31059;CONF:1198-31060;CONF:1198-31061;CONF:1198-31062;CONF:1198-31215;CONF:1198-31216;CONF:1198-31217;CONF:1198-31218;CONF:1198-31213;CONF:1198-31214;CONF:1198-31357;CONF:1198-31358;CONF:1198-31359;CONF:1198-31360;CONF:1198-31361;CONF:1198-31362;CONF:1198-31363;CONF:1198-31364;CONF:1198-31208;CONF:1198-31210;CONF:1198-31211;CONF:1198-31212</v>
       </c>
       <c r="M5" t="str">
-        <f>"{ 'id': '"&amp;A5&amp;"', 'template_type': '"&amp;C5&amp;"', 'name': '"&amp;B5&amp;" ["&amp;D5&amp;"["&amp;G5&amp;"', 'name2': '"&amp;B5&amp;"', 'template': '"&amp;D5&amp;"', 'pageStart': '"&amp;E5&amp;"', 'pages': '"&amp;G5&amp;"', 'search': '"&amp;K5&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '4', 'template_type': 'Document', 'name': 'Diagnostic Imaging Report   [2.16.840.1.113883.10.20.22.1.5[127-139', 'name2': 'Diagnostic Imaging Report  ', 'template': '2.16.840.1.113883.10.20.22.1.5', 'pageStart': '127', 'pages': '127-139', 'search': 'Diagnostic Imaging Report   2.16.840.1.113883.10.20.22.1.5 CONF:1198-8404;CONF:1198-10042;CONF:1198-32515;CONF:1198-32937;CONF:1198-30932;CONF:1198-30933;CONF:1198-30934;CONF:1198-30935;CONF:1198-14833;CONF:1198-14834;CONF:1198-8410;CONF:1198-8411;CONF:1198-8412;CONF:1198-8413;CONF:1198-8414;CONF:1198-31198;CONF:1198-31199;CONF:1198-31200;CONF:1198-30936;CONF:1198-30937;CONF:1198-30938;CONF:1198-8416;CONF:1198-8431;CONF:1198-8430;CONF:1198-8418;CONF:1198-8419;CONF:1198-8420;CONF:1198-8422;CONF:1198-8432;CONF:1198-32089;CONF:1198-32090;CONF:1198-10031;CONF:1198-10032;CONF:1198-8433;CONF:1198-30939;CONF:1198-30940;CONF:1198-30941;CONF:1198-30942;CONF:1198-30943;CONF:1198-30945;CONF:1198-30946;CONF:1198-30947;CONF:1198-30948;CONF:1198-14907;CONF:1198-30695;CONF:1198-30696;CONF:1198-30697;CONF:1198-30698;CONF:1198-30699;CONF:1198-31206;CONF:1198-31055;CONF:1198-31056;CONF:1198-31057;CONF:1198-31207;CONF:1198-31058;CONF:1198-31059;CONF:1198-31060;CONF:1198-31061;CONF:1198-31062;CONF:1198-31215;CONF:1198-31216;CONF:1198-31217;CONF:1198-31218;CONF:1198-31213;CONF:1198-31214;CONF:1198-31357;CONF:1198-31358;CONF:1198-31359;CONF:1198-31360;CONF:1198-31361;CONF:1198-31362;CONF:1198-31363;CONF:1198-31364;CONF:1198-31208;CONF:1198-31210;CONF:1198-31211;CONF:1198-31212' },</v>
       </c>
       <c r="N5" t="str">
-        <f>"'"&amp;D5&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.5',</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -7022,21 +7022,21 @@
         <v>444</v>
       </c>
       <c r="K6" t="str">
-        <f>B6&amp;" "&amp;D6&amp;" "&amp;J6</f>
+        <f t="shared" si="0"/>
         <v>Discharge Summary  2.16.840.1.113883.10.20.22.1.8 CONF:1198-8463;CONF:1198-10044;CONF:1198-32517;CONF:1198-32938;CONF:1198-17178;CONF:1198-17179;CONF:1198-8467;CONF:1198-8469;CONF:1198-8471;CONF:1198-8472;CONF:1198-32611;CONF:1198-8473;CONF:1198-8475;CONF:1198-8476;CONF:1198-8479;CONF:1198-32613;CONF:1198-32898;CONF:1198-8478;CONF:1198-32615;CONF:1198-32899;CONF:1198-9539;CONF:1198-30518;CONF:1198-30519;CONF:1198-30520;CONF:1198-30521;CONF:1198-30522;CONF:1198-30523;CONF:1198-30524;CONF:1198-30525;CONF:1198-30526;CONF:1198-30527;CONF:1198-30528;CONF:1198-30529;CONF:1198-30530;CONF:1198-30531;CONF:1198-30532;CONF:1198-30533;CONF:1198-30534;CONF:1198-30535;CONF:1198-30536;CONF:1198-30537;CONF:1198-30538;CONF:1198-30539;CONF:1198-30540;CONF:1198-30541;CONF:1198-30542;CONF:1198-30543;CONF:1198-30544;CONF:1198-30545;CONF:1198-30546;CONF:1198-30547;CONF:1198-30548;CONF:1198-30549;CONF:1198-30550;CONF:1198-30551;CONF:1198-30552;CONF:1198-30553;CONF:1198-30554;CONF:1198-30555;CONF:1198-30556;CONF:1198-30557;CONF:1198-30558;CONF:1198-30559;CONF:1198-30560;CONF:1198-30561;CONF:1198-30562;CONF:1198-30563;CONF:1198-30564;CONF:1198-30565;CONF:1198-30566;CONF:1198-30567;CONF:1198-30568;CONF:1198-31586;CONF:1198-31587;CONF:1198-30569</v>
       </c>
       <c r="M6" t="str">
-        <f>"{ 'id': '"&amp;A6&amp;"', 'template_type': '"&amp;C6&amp;"', 'name': '"&amp;B6&amp;" ["&amp;D6&amp;"["&amp;G6&amp;"', 'name2': '"&amp;B6&amp;"', 'template': '"&amp;D6&amp;"', 'pageStart': '"&amp;E6&amp;"', 'pages': '"&amp;G6&amp;"', 'search': '"&amp;K6&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '5', 'template_type': 'Document', 'name': 'Discharge Summary  [2.16.840.1.113883.10.20.22.1.8[139-153', 'name2': 'Discharge Summary ', 'template': '2.16.840.1.113883.10.20.22.1.8', 'pageStart': '139', 'pages': '139-153', 'search': 'Discharge Summary  2.16.840.1.113883.10.20.22.1.8 CONF:1198-8463;CONF:1198-10044;CONF:1198-32517;CONF:1198-32938;CONF:1198-17178;CONF:1198-17179;CONF:1198-8467;CONF:1198-8469;CONF:1198-8471;CONF:1198-8472;CONF:1198-32611;CONF:1198-8473;CONF:1198-8475;CONF:1198-8476;CONF:1198-8479;CONF:1198-32613;CONF:1198-32898;CONF:1198-8478;CONF:1198-32615;CONF:1198-32899;CONF:1198-9539;CONF:1198-30518;CONF:1198-30519;CONF:1198-30520;CONF:1198-30521;CONF:1198-30522;CONF:1198-30523;CONF:1198-30524;CONF:1198-30525;CONF:1198-30526;CONF:1198-30527;CONF:1198-30528;CONF:1198-30529;CONF:1198-30530;CONF:1198-30531;CONF:1198-30532;CONF:1198-30533;CONF:1198-30534;CONF:1198-30535;CONF:1198-30536;CONF:1198-30537;CONF:1198-30538;CONF:1198-30539;CONF:1198-30540;CONF:1198-30541;CONF:1198-30542;CONF:1198-30543;CONF:1198-30544;CONF:1198-30545;CONF:1198-30546;CONF:1198-30547;CONF:1198-30548;CONF:1198-30549;CONF:1198-30550;CONF:1198-30551;CONF:1198-30552;CONF:1198-30553;CONF:1198-30554;CONF:1198-30555;CONF:1198-30556;CONF:1198-30557;CONF:1198-30558;CONF:1198-30559;CONF:1198-30560;CONF:1198-30561;CONF:1198-30562;CONF:1198-30563;CONF:1198-30564;CONF:1198-30565;CONF:1198-30566;CONF:1198-30567;CONF:1198-30568;CONF:1198-31586;CONF:1198-31587;CONF:1198-30569' },</v>
       </c>
       <c r="N6" t="str">
-        <f>"'"&amp;D6&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.8',</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -7065,21 +7065,21 @@
         <v>445</v>
       </c>
       <c r="K7" t="str">
-        <f>B7&amp;" "&amp;D7&amp;" "&amp;J7</f>
+        <f t="shared" si="0"/>
         <v>History and Physical   2.16.840.1.113883.10.20.22.1.3 CONF:1198-8283;CONF:1198-10046;CONF:1198-32518;CONF:1198-32939;CONF:1198-17185;CONF:1198-17186;CONF:1198-32482;CONF:1198-32483;CONF:1198-8286;CONF:1198-8333;CONF:1198-8336;CONF:1198-8338;CONF:1198-8339;CONF:1198-8340;CONF:1198-8341;CONF:1198-8345;CONF:1198-8348;CONF:1198-8342;CONF:1198-8343;CONF:1198-8344;CONF:1198-8349;CONF:1198-30570;CONF:1198-30571;CONF:1198-30572;CONF:1198-30573;CONF:1198-30574;CONF:1198-30575;CONF:1198-30576;CONF:1198-30577;CONF:1198-30578;CONF:1198-30579;CONF:1198-30580;CONF:1198-30581;CONF:1198-30582;CONF:1198-30583;CONF:1198-30584;CONF:1198-30585;CONF:1198-30586;CONF:1198-30587;CONF:1198-30588;CONF:1198-30589;CONF:1198-30590;CONF:1198-30591;CONF:1198-30592;CONF:1198-30593;CONF:1198-31385;CONF:1198-30595;CONF:1198-30596;CONF:1198-30597;CONF:1198-30598;CONF:1198-30599;CONF:1198-30600;CONF:1198-30601;CONF:1198-30602;CONF:1198-30603;CONF:1198-30604;CONF:1198-30605;CONF:1198-30606;CONF:1198-30607;CONF:1198-30608;CONF:1198-30609;CONF:1198-30610;CONF:1198-30611;CONF:1198-30612;CONF:1198-30613;CONF:1198-30614;CONF:1198-30615;CONF:1198-30616</v>
       </c>
       <c r="M7" t="str">
-        <f>"{ 'id': '"&amp;A7&amp;"', 'template_type': '"&amp;C7&amp;"', 'name': '"&amp;B7&amp;" ["&amp;D7&amp;"["&amp;G7&amp;"', 'name2': '"&amp;B7&amp;"', 'template': '"&amp;D7&amp;"', 'pageStart': '"&amp;E7&amp;"', 'pages': '"&amp;G7&amp;"', 'search': '"&amp;K7&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '6', 'template_type': 'Document', 'name': 'History and Physical   [2.16.840.1.113883.10.20.22.1.3[153-164', 'name2': 'History and Physical  ', 'template': '2.16.840.1.113883.10.20.22.1.3', 'pageStart': '153', 'pages': '153-164', 'search': 'History and Physical   2.16.840.1.113883.10.20.22.1.3 CONF:1198-8283;CONF:1198-10046;CONF:1198-32518;CONF:1198-32939;CONF:1198-17185;CONF:1198-17186;CONF:1198-32482;CONF:1198-32483;CONF:1198-8286;CONF:1198-8333;CONF:1198-8336;CONF:1198-8338;CONF:1198-8339;CONF:1198-8340;CONF:1198-8341;CONF:1198-8345;CONF:1198-8348;CONF:1198-8342;CONF:1198-8343;CONF:1198-8344;CONF:1198-8349;CONF:1198-30570;CONF:1198-30571;CONF:1198-30572;CONF:1198-30573;CONF:1198-30574;CONF:1198-30575;CONF:1198-30576;CONF:1198-30577;CONF:1198-30578;CONF:1198-30579;CONF:1198-30580;CONF:1198-30581;CONF:1198-30582;CONF:1198-30583;CONF:1198-30584;CONF:1198-30585;CONF:1198-30586;CONF:1198-30587;CONF:1198-30588;CONF:1198-30589;CONF:1198-30590;CONF:1198-30591;CONF:1198-30592;CONF:1198-30593;CONF:1198-31385;CONF:1198-30595;CONF:1198-30596;CONF:1198-30597;CONF:1198-30598;CONF:1198-30599;CONF:1198-30600;CONF:1198-30601;CONF:1198-30602;CONF:1198-30603;CONF:1198-30604;CONF:1198-30605;CONF:1198-30606;CONF:1198-30607;CONF:1198-30608;CONF:1198-30609;CONF:1198-30610;CONF:1198-30611;CONF:1198-30612;CONF:1198-30613;CONF:1198-30614;CONF:1198-30615;CONF:1198-30616' },</v>
       </c>
       <c r="N7" t="str">
-        <f>"'"&amp;D7&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.3',</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -7108,21 +7108,21 @@
         <v>446</v>
       </c>
       <c r="K8" t="str">
-        <f>B8&amp;" "&amp;D8&amp;" "&amp;J8</f>
+        <f t="shared" si="0"/>
         <v>Operative Note   2.16.840.1.113883.10.20.22.1.7 CONF:1198-8483;CONF:1198-10048;CONF:1198-32519;CONF:1198-32940;CONF:1198-17187;CONF:1198-17188;CONF:1198-8486;CONF:1198-8493;CONF:1198-8494;CONF:1198-8488;CONF:1198-10058;CONF:1198-10060;CONF:1198-8489;CONF:1198-8495;CONF:1198-32963;CONF:1198-10917;CONF:1198-8490;CONF:1198-32736;CONF:1198-32738;CONF:1198-32964;CONF:1198-32737;CONF:1198-32739;CONF:1198-8487;CONF:1198-32404;CONF:1198-32408;CONF:1198-32405;CONF:1198-32409;CONF:1198-32410;CONF:1198-32411;CONF:1198-9585;CONF:1198-30485;CONF:1198-30486;CONF:1198-30487;CONF:1198-30488;CONF:1198-30489;CONF:1198-30490;CONF:1198-30491;CONF:1198-30492;CONF:1198-30493;CONF:1198-30494;CONF:1198-30495;CONF:1198-30496;CONF:1198-30497;CONF:1198-30498;CONF:1198-30499;CONF:1198-30500;CONF:1198-30501;CONF:1198-30502;CONF:1198-30503;CONF:1198-30504;CONF:1198-30505;CONF:1198-30506;CONF:1198-30507;CONF:1198-30508;CONF:1198-30509;CONF:1198-30510;CONF:1198-30511;CONF:1198-30512;CONF:1198-30513;CONF:1198-30514;CONF:1198-30515;CONF:1198-30516;CONF:1198-30517</v>
       </c>
       <c r="M8" t="str">
-        <f>"{ 'id': '"&amp;A8&amp;"', 'template_type': '"&amp;C8&amp;"', 'name': '"&amp;B8&amp;" ["&amp;D8&amp;"["&amp;G8&amp;"', 'name2': '"&amp;B8&amp;"', 'template': '"&amp;D8&amp;"', 'pageStart': '"&amp;E8&amp;"', 'pages': '"&amp;G8&amp;"', 'search': '"&amp;K8&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '7', 'template_type': 'Document', 'name': 'Operative Note   [2.16.840.1.113883.10.20.22.1.7[164-176', 'name2': 'Operative Note  ', 'template': '2.16.840.1.113883.10.20.22.1.7', 'pageStart': '164', 'pages': '164-176', 'search': 'Operative Note   2.16.840.1.113883.10.20.22.1.7 CONF:1198-8483;CONF:1198-10048;CONF:1198-32519;CONF:1198-32940;CONF:1198-17187;CONF:1198-17188;CONF:1198-8486;CONF:1198-8493;CONF:1198-8494;CONF:1198-8488;CONF:1198-10058;CONF:1198-10060;CONF:1198-8489;CONF:1198-8495;CONF:1198-32963;CONF:1198-10917;CONF:1198-8490;CONF:1198-32736;CONF:1198-32738;CONF:1198-32964;CONF:1198-32737;CONF:1198-32739;CONF:1198-8487;CONF:1198-32404;CONF:1198-32408;CONF:1198-32405;CONF:1198-32409;CONF:1198-32410;CONF:1198-32411;CONF:1198-9585;CONF:1198-30485;CONF:1198-30486;CONF:1198-30487;CONF:1198-30488;CONF:1198-30489;CONF:1198-30490;CONF:1198-30491;CONF:1198-30492;CONF:1198-30493;CONF:1198-30494;CONF:1198-30495;CONF:1198-30496;CONF:1198-30497;CONF:1198-30498;CONF:1198-30499;CONF:1198-30500;CONF:1198-30501;CONF:1198-30502;CONF:1198-30503;CONF:1198-30504;CONF:1198-30505;CONF:1198-30506;CONF:1198-30507;CONF:1198-30508;CONF:1198-30509;CONF:1198-30510;CONF:1198-30511;CONF:1198-30512;CONF:1198-30513;CONF:1198-30514;CONF:1198-30515;CONF:1198-30516;CONF:1198-30517' },</v>
       </c>
       <c r="N8" t="str">
-        <f>"'"&amp;D8&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.7',</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -7151,21 +7151,21 @@
         <v>447</v>
       </c>
       <c r="K9" t="str">
-        <f>B9&amp;" "&amp;D9&amp;" "&amp;J9</f>
+        <f t="shared" si="0"/>
         <v>Procedure Note   2.16.840.1.113883.10.20.22.1.6 CONF:1198-8496;CONF:1198-10050;CONF:1198-32520;CONF:1198-32941;CONF:1198-17182;CONF:1198-17183;CONF:1198-8504;CONF:1198-8505;CONF:1198-8506;CONF:1198-8507;CONF:1198-8508;CONF:1198-8510;CONF:1198-10061;CONF:1198-10062;CONF:1198-26449;CONF:1198-8513;CONF:1198-8514;CONF:1198-8515;CONF:1198-8520;CONF:1198-8521;CONF:1198-14911;CONF:1198-14912;CONF:1198-32732;CONF:1198-32734;CONF:1198-32733;CONF:1198-32735;CONF:1198-8511;CONF:1198-32412;CONF:1198-32413;CONF:1198-32414;CONF:1198-32415;CONF:1198-32416;CONF:1198-32417;CONF:1198-30871;CONF:1198-30872;CONF:1198-32395;CONF:1198-30873;CONF:1198-30874;CONF:1198-30875;CONF:1198-30876;CONF:1198-30877;CONF:1198-30878;CONF:1198-9588;CONF:1198-30352;CONF:1198-30353;CONF:1198-30387;CONF:1198-30355;CONF:1198-30356;CONF:1198-30357;CONF:1198-30358;CONF:1198-30359;CONF:1198-30360;CONF:1198-30361;CONF:1198-30362;CONF:1198-30363;CONF:1198-30364;CONF:1198-30365;CONF:1198-30366;CONF:1198-30367;CONF:1198-30368;CONF:1198-30369;CONF:1198-30370;CONF:1198-30371;CONF:1198-30372;CONF:1198-30373;CONF:1198-30374;CONF:1198-30375;CONF:1198-30376;CONF:1198-30377;CONF:1198-30378;CONF:1198-30379;CONF:1198-30380;CONF:1198-30381;CONF:1198-30382;CONF:1198-30383;CONF:1198-30384;CONF:1198-30388;CONF:1198-30389;CONF:1198-30390;CONF:1198-30391;CONF:1198-30392;CONF:1198-30393;CONF:1198-30394;CONF:1198-30395;CONF:1198-30396;CONF:1198-30397;CONF:1198-30398;CONF:1198-30399;CONF:1198-30400;CONF:1198-30401;CONF:1198-30402;CONF:1198-30403;CONF:1198-30404;CONF:1198-30405;CONF:1198-30406;CONF:1198-30407;CONF:1198-30408;CONF:1198-30409;CONF:1198-30410;CONF:1198-30411;CONF:1198-30412;CONF:1198-30414;CONF:1198-30415</v>
       </c>
       <c r="M9" t="str">
-        <f>"{ 'id': '"&amp;A9&amp;"', 'template_type': '"&amp;C9&amp;"', 'name': '"&amp;B9&amp;" ["&amp;D9&amp;"["&amp;G9&amp;"', 'name2': '"&amp;B9&amp;"', 'template': '"&amp;D9&amp;"', 'pageStart': '"&amp;E9&amp;"', 'pages': '"&amp;G9&amp;"', 'search': '"&amp;K9&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '8', 'template_type': 'Document', 'name': 'Procedure Note   [2.16.840.1.113883.10.20.22.1.6[176-192', 'name2': 'Procedure Note  ', 'template': '2.16.840.1.113883.10.20.22.1.6', 'pageStart': '176', 'pages': '176-192', 'search': 'Procedure Note   2.16.840.1.113883.10.20.22.1.6 CONF:1198-8496;CONF:1198-10050;CONF:1198-32520;CONF:1198-32941;CONF:1198-17182;CONF:1198-17183;CONF:1198-8504;CONF:1198-8505;CONF:1198-8506;CONF:1198-8507;CONF:1198-8508;CONF:1198-8510;CONF:1198-10061;CONF:1198-10062;CONF:1198-26449;CONF:1198-8513;CONF:1198-8514;CONF:1198-8515;CONF:1198-8520;CONF:1198-8521;CONF:1198-14911;CONF:1198-14912;CONF:1198-32732;CONF:1198-32734;CONF:1198-32733;CONF:1198-32735;CONF:1198-8511;CONF:1198-32412;CONF:1198-32413;CONF:1198-32414;CONF:1198-32415;CONF:1198-32416;CONF:1198-32417;CONF:1198-30871;CONF:1198-30872;CONF:1198-32395;CONF:1198-30873;CONF:1198-30874;CONF:1198-30875;CONF:1198-30876;CONF:1198-30877;CONF:1198-30878;CONF:1198-9588;CONF:1198-30352;CONF:1198-30353;CONF:1198-30387;CONF:1198-30355;CONF:1198-30356;CONF:1198-30357;CONF:1198-30358;CONF:1198-30359;CONF:1198-30360;CONF:1198-30361;CONF:1198-30362;CONF:1198-30363;CONF:1198-30364;CONF:1198-30365;CONF:1198-30366;CONF:1198-30367;CONF:1198-30368;CONF:1198-30369;CONF:1198-30370;CONF:1198-30371;CONF:1198-30372;CONF:1198-30373;CONF:1198-30374;CONF:1198-30375;CONF:1198-30376;CONF:1198-30377;CONF:1198-30378;CONF:1198-30379;CONF:1198-30380;CONF:1198-30381;CONF:1198-30382;CONF:1198-30383;CONF:1198-30384;CONF:1198-30388;CONF:1198-30389;CONF:1198-30390;CONF:1198-30391;CONF:1198-30392;CONF:1198-30393;CONF:1198-30394;CONF:1198-30395;CONF:1198-30396;CONF:1198-30397;CONF:1198-30398;CONF:1198-30399;CONF:1198-30400;CONF:1198-30401;CONF:1198-30402;CONF:1198-30403;CONF:1198-30404;CONF:1198-30405;CONF:1198-30406;CONF:1198-30407;CONF:1198-30408;CONF:1198-30409;CONF:1198-30410;CONF:1198-30411;CONF:1198-30412;CONF:1198-30414;CONF:1198-30415' },</v>
       </c>
       <c r="N9" t="str">
-        <f>"'"&amp;D9&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.6',</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -7194,21 +7194,21 @@
         <v>448</v>
       </c>
       <c r="K10" t="str">
-        <f>B10&amp;" "&amp;D10&amp;" "&amp;J10</f>
+        <f t="shared" si="0"/>
         <v>Progress Note  2.16.840.1.113883.10.20.22.1.9 CONF:1198-7588;CONF:1198-10052;CONF:1198-32521;CONF:1198-32942;CONF:1198-17189;CONF:1198-17190;CONF:1198-7603;CONF:1198-7604;CONF:1198-26420;CONF:1198-9480;CONF:1198-10068;CONF:1198-9481;CONF:1198-9482;CONF:1198-10066;CONF:1198-7595;CONF:1198-7596;CONF:1198-7597;CONF:1198-7598;CONF:1198-7599;CONF:1198-30879;CONF:1198-30880;CONF:1198-30881;CONF:1198-9591;CONF:1198-30617;CONF:1198-30618;CONF:1198-30619;CONF:1198-30620;CONF:1198-30621;CONF:1198-30622;CONF:1198-30623;CONF:1198-30624;CONF:1198-30625;CONF:1198-30626;CONF:1198-30627;CONF:1198-30628;CONF:1198-30629;CONF:1198-30639;CONF:1198-31386;CONF:1198-30641;CONF:1198-30642;CONF:1198-30643;CONF:1198-30644;CONF:1198-30645;CONF:1198-30646;CONF:1198-30647;CONF:1198-30648;CONF:1198-30649;CONF:1198-30650;CONF:1198-30651;CONF:1198-30652;CONF:1198-30653;CONF:1198-30654;CONF:1198-30655;CONF:1198-30656;CONF:1198-32626;CONF:1198-32627;CONF:1198-30657;CONF:1198-30658</v>
       </c>
       <c r="M10" t="str">
-        <f>"{ 'id': '"&amp;A10&amp;"', 'template_type': '"&amp;C10&amp;"', 'name': '"&amp;B10&amp;" ["&amp;D10&amp;"["&amp;G10&amp;"', 'name2': '"&amp;B10&amp;"', 'template': '"&amp;D10&amp;"', 'pageStart': '"&amp;E10&amp;"', 'pages': '"&amp;G10&amp;"', 'search': '"&amp;K10&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '9', 'template_type': 'Document', 'name': 'Progress Note  [2.16.840.1.113883.10.20.22.1.9[192-202', 'name2': 'Progress Note ', 'template': '2.16.840.1.113883.10.20.22.1.9', 'pageStart': '192', 'pages': '192-202', 'search': 'Progress Note  2.16.840.1.113883.10.20.22.1.9 CONF:1198-7588;CONF:1198-10052;CONF:1198-32521;CONF:1198-32942;CONF:1198-17189;CONF:1198-17190;CONF:1198-7603;CONF:1198-7604;CONF:1198-26420;CONF:1198-9480;CONF:1198-10068;CONF:1198-9481;CONF:1198-9482;CONF:1198-10066;CONF:1198-7595;CONF:1198-7596;CONF:1198-7597;CONF:1198-7598;CONF:1198-7599;CONF:1198-30879;CONF:1198-30880;CONF:1198-30881;CONF:1198-9591;CONF:1198-30617;CONF:1198-30618;CONF:1198-30619;CONF:1198-30620;CONF:1198-30621;CONF:1198-30622;CONF:1198-30623;CONF:1198-30624;CONF:1198-30625;CONF:1198-30626;CONF:1198-30627;CONF:1198-30628;CONF:1198-30629;CONF:1198-30639;CONF:1198-31386;CONF:1198-30641;CONF:1198-30642;CONF:1198-30643;CONF:1198-30644;CONF:1198-30645;CONF:1198-30646;CONF:1198-30647;CONF:1198-30648;CONF:1198-30649;CONF:1198-30650;CONF:1198-30651;CONF:1198-30652;CONF:1198-30653;CONF:1198-30654;CONF:1198-30655;CONF:1198-30656;CONF:1198-32626;CONF:1198-32627;CONF:1198-30657;CONF:1198-30658' },</v>
       </c>
       <c r="N10" t="str">
-        <f>"'"&amp;D10&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.9',</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -7237,21 +7237,21 @@
         <v>449</v>
       </c>
       <c r="K11" t="str">
-        <f>B11&amp;" "&amp;D11&amp;" "&amp;J11</f>
+        <f t="shared" si="0"/>
         <v>Referral Note  2.16.840.1.113883.10.20.22.1.14 CONF:1198-28947;CONF:1198-28948;CONF:1198-32911;CONF:1198-32943;CONF:1198-28949;CONF:1198-31589;CONF:1198-31590;CONF:1198-31591;CONF:1198-31592;CONF:1198-31593;CONF:1198-31594;CONF:1198-31642;CONF:1198-31924;CONF:1198-31643;CONF:1198-31925;CONF:1198-31644;CONF:1198-31645;CONF:1198-31647;CONF:1198-31648;CONF:1198-31649;CONF:1198-32419;CONF:1198-31650;CONF:1198-31651;CONF:1198-31652;CONF:1198-31653;CONF:1198-31654;CONF:1198-31655;CONF:1198-29062;CONF:1198-29063;CONF:1198-29066;CONF:1198-29067;CONF:1198-29068;CONF:1198-29069;CONF:1198-29074;CONF:1198-29075;CONF:1198-29076;CONF:1198-29077;CONF:1198-29082;CONF:1198-29083;CONF:1198-29086;CONF:1198-29087;CONF:1198-29088;CONF:1198-29089;CONF:1198-29090;CONF:1198-29091;CONF:1198-29092;CONF:1198-29093;CONF:1198-29094;CONF:1198-29095;CONF:1198-29096;CONF:1198-29097;CONF:1198-29098;CONF:1198-29099;CONF:1198-29100;CONF:1198-29101;CONF:1198-30780;CONF:1198-30781;CONF:1198-30796;CONF:1198-30926;CONF:1198-30798;CONF:1198-30799;CONF:1198-30911;CONF:1198-30912;CONF:1198-30913;CONF:1198-30914;CONF:1198-30915;CONF:1198-30916;CONF:1198-30917;CONF:1198-30918;CONF:1198-30919;CONF:1198-30920;CONF:1198-30922;CONF:1198-30923;CONF:1198-30924;CONF:1198-30925;CONF:1198-29102;CONF:1198-29103</v>
       </c>
       <c r="M11" t="str">
-        <f>"{ 'id': '"&amp;A11&amp;"', 'template_type': '"&amp;C11&amp;"', 'name': '"&amp;B11&amp;" ["&amp;D11&amp;"["&amp;G11&amp;"', 'name2': '"&amp;B11&amp;"', 'template': '"&amp;D11&amp;"', 'pageStart': '"&amp;E11&amp;"', 'pages': '"&amp;G11&amp;"', 'search': '"&amp;K11&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '10', 'template_type': 'Document', 'name': 'Referral Note  [2.16.840.1.113883.10.20.22.1.14[202-215', 'name2': 'Referral Note ', 'template': '2.16.840.1.113883.10.20.22.1.14', 'pageStart': '202', 'pages': '202-215', 'search': 'Referral Note  2.16.840.1.113883.10.20.22.1.14 CONF:1198-28947;CONF:1198-28948;CONF:1198-32911;CONF:1198-32943;CONF:1198-28949;CONF:1198-31589;CONF:1198-31590;CONF:1198-31591;CONF:1198-31592;CONF:1198-31593;CONF:1198-31594;CONF:1198-31642;CONF:1198-31924;CONF:1198-31643;CONF:1198-31925;CONF:1198-31644;CONF:1198-31645;CONF:1198-31647;CONF:1198-31648;CONF:1198-31649;CONF:1198-32419;CONF:1198-31650;CONF:1198-31651;CONF:1198-31652;CONF:1198-31653;CONF:1198-31654;CONF:1198-31655;CONF:1198-29062;CONF:1198-29063;CONF:1198-29066;CONF:1198-29067;CONF:1198-29068;CONF:1198-29069;CONF:1198-29074;CONF:1198-29075;CONF:1198-29076;CONF:1198-29077;CONF:1198-29082;CONF:1198-29083;CONF:1198-29086;CONF:1198-29087;CONF:1198-29088;CONF:1198-29089;CONF:1198-29090;CONF:1198-29091;CONF:1198-29092;CONF:1198-29093;CONF:1198-29094;CONF:1198-29095;CONF:1198-29096;CONF:1198-29097;CONF:1198-29098;CONF:1198-29099;CONF:1198-29100;CONF:1198-29101;CONF:1198-30780;CONF:1198-30781;CONF:1198-30796;CONF:1198-30926;CONF:1198-30798;CONF:1198-30799;CONF:1198-30911;CONF:1198-30912;CONF:1198-30913;CONF:1198-30914;CONF:1198-30915;CONF:1198-30916;CONF:1198-30917;CONF:1198-30918;CONF:1198-30919;CONF:1198-30920;CONF:1198-30922;CONF:1198-30923;CONF:1198-30924;CONF:1198-30925;CONF:1198-29102;CONF:1198-29103' },</v>
       </c>
       <c r="N11" t="str">
-        <f>"'"&amp;D11&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.14',</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -7280,21 +7280,21 @@
         <v>450</v>
       </c>
       <c r="K12" t="str">
-        <f>B12&amp;" "&amp;D12&amp;" "&amp;J12</f>
+        <f t="shared" si="0"/>
         <v>Transfer Summary   2.16.840.1.113883.10.20.22.1.13 CONF:1198-28239;CONF:1198-28240;CONF:1198-32907;CONF:1198-32946;CONF:1198-28243;CONF:1198-29838;CONF:1198-31599;CONF:1198-31872;CONF:1198-31600;CONF:1198-31873;CONF:1198-31601;CONF:1198-31602;CONF:1198-31626;CONF:1198-31627;CONF:1198-31628;CONF:1198-31641;CONF:1198-31629;CONF:1198-31630;CONF:1198-31631;CONF:1198-31632;CONF:1198-31633;CONF:1198-31634;CONF:1198-31570;CONF:1198-31571;CONF:1198-31572;CONF:1198-32650;CONF:1198-31574;CONF:1198-31575;CONF:1198-32651;CONF:1198-28251;CONF:1198-28252;CONF:1198-28253;CONF:1198-28254;CONF:1198-28255;CONF:1198-28256;CONF:1198-28257;CONF:1198-28258;CONF:1198-28261;CONF:1198-28262;CONF:1198-28263;CONF:1198-28264;CONF:1198-28265;CONF:1198-28266;CONF:1198-28271;CONF:1198-28272;CONF:1198-28273;CONF:1198-28274;CONF:1198-28275;CONF:1198-28276;CONF:1198-28277;CONF:1198-28278;CONF:1198-28279;CONF:1198-28280;CONF:1198-28281;CONF:1198-28282;CONF:1198-28283;CONF:1198-28284;CONF:1198-28285;CONF:1198-28286;CONF:1198-28287;CONF:1198-28288;CONF:1198-28289;CONF:1198-28290;CONF:1198-28291;CONF:1198-28292;CONF:1198-28327;CONF:1198-28328;CONF:1198-28838;CONF:1198-28839;CONF:1198-30239;CONF:1198-30240;CONF:1198-30776;CONF:1198-30777;CONF:1198-31342;CONF:1198-31343;CONF:1198-31561;CONF:1198-31562;CONF:1198-31563;CONF:1198-31564;CONF:1198-31565;CONF:1198-31566;CONF:1198-31567;CONF:1198-31568;CONF:1198-32445;CONF:1198-32446;CONF:1198-32447;CONF:1198-32448;CONF:1198-32648;CONF:1198-32649;CONF:1198-31582;CONF:1198-31583</v>
       </c>
       <c r="M12" t="str">
-        <f>"{ 'id': '"&amp;A12&amp;"', 'template_type': '"&amp;C12&amp;"', 'name': '"&amp;B12&amp;" ["&amp;D12&amp;"["&amp;G12&amp;"', 'name2': '"&amp;B12&amp;"', 'template': '"&amp;D12&amp;"', 'pageStart': '"&amp;E12&amp;"', 'pages': '"&amp;G12&amp;"', 'search': '"&amp;K12&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '11', 'template_type': 'Document', 'name': 'Transfer Summary   [2.16.840.1.113883.10.20.22.1.13[215-229', 'name2': 'Transfer Summary  ', 'template': '2.16.840.1.113883.10.20.22.1.13', 'pageStart': '215', 'pages': '215-229', 'search': 'Transfer Summary   2.16.840.1.113883.10.20.22.1.13 CONF:1198-28239;CONF:1198-28240;CONF:1198-32907;CONF:1198-32946;CONF:1198-28243;CONF:1198-29838;CONF:1198-31599;CONF:1198-31872;CONF:1198-31600;CONF:1198-31873;CONF:1198-31601;CONF:1198-31602;CONF:1198-31626;CONF:1198-31627;CONF:1198-31628;CONF:1198-31641;CONF:1198-31629;CONF:1198-31630;CONF:1198-31631;CONF:1198-31632;CONF:1198-31633;CONF:1198-31634;CONF:1198-31570;CONF:1198-31571;CONF:1198-31572;CONF:1198-32650;CONF:1198-31574;CONF:1198-31575;CONF:1198-32651;CONF:1198-28251;CONF:1198-28252;CONF:1198-28253;CONF:1198-28254;CONF:1198-28255;CONF:1198-28256;CONF:1198-28257;CONF:1198-28258;CONF:1198-28261;CONF:1198-28262;CONF:1198-28263;CONF:1198-28264;CONF:1198-28265;CONF:1198-28266;CONF:1198-28271;CONF:1198-28272;CONF:1198-28273;CONF:1198-28274;CONF:1198-28275;CONF:1198-28276;CONF:1198-28277;CONF:1198-28278;CONF:1198-28279;CONF:1198-28280;CONF:1198-28281;CONF:1198-28282;CONF:1198-28283;CONF:1198-28284;CONF:1198-28285;CONF:1198-28286;CONF:1198-28287;CONF:1198-28288;CONF:1198-28289;CONF:1198-28290;CONF:1198-28291;CONF:1198-28292;CONF:1198-28327;CONF:1198-28328;CONF:1198-28838;CONF:1198-28839;CONF:1198-30239;CONF:1198-30240;CONF:1198-30776;CONF:1198-30777;CONF:1198-31342;CONF:1198-31343;CONF:1198-31561;CONF:1198-31562;CONF:1198-31563;CONF:1198-31564;CONF:1198-31565;CONF:1198-31566;CONF:1198-31567;CONF:1198-31568;CONF:1198-32445;CONF:1198-32446;CONF:1198-32447;CONF:1198-32448;CONF:1198-32648;CONF:1198-32649;CONF:1198-31582;CONF:1198-31583' },</v>
       </c>
       <c r="N12" t="str">
-        <f>"'"&amp;D12&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.13',</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -7323,21 +7323,21 @@
         <v>451</v>
       </c>
       <c r="K13" t="str">
-        <f>B13&amp;" "&amp;D13&amp;" "&amp;J13</f>
+        <f t="shared" si="0"/>
         <v>Unstructured Document   2.16.840.1.113883.10.20.22.1.10 CONF:1198-7710;CONF:1198-10054;CONF:1198-32522;CONF:1198-32944;CONF:1198-31089;CONF:1198-31090;CONF:1198-31091;CONF:1198-31096;CONF:1198-31097;CONF:1198-31098;CONF:1198-31085;CONF:1198-31086;CONF:1198-31087;CONF:1198-7624;CONF:1198-7623</v>
       </c>
       <c r="M13" t="str">
-        <f>"{ 'id': '"&amp;A13&amp;"', 'template_type': '"&amp;C13&amp;"', 'name': '"&amp;B13&amp;" ["&amp;D13&amp;"["&amp;G13&amp;"', 'name2': '"&amp;B13&amp;"', 'template': '"&amp;D13&amp;"', 'pageStart': '"&amp;E13&amp;"', 'pages': '"&amp;G13&amp;"', 'search': '"&amp;K13&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '12', 'template_type': 'Document', 'name': 'Unstructured Document   [2.16.840.1.113883.10.20.22.1.10[229-233', 'name2': 'Unstructured Document  ', 'template': '2.16.840.1.113883.10.20.22.1.10', 'pageStart': '229', 'pages': '229-233', 'search': 'Unstructured Document   2.16.840.1.113883.10.20.22.1.10 CONF:1198-7710;CONF:1198-10054;CONF:1198-32522;CONF:1198-32944;CONF:1198-31089;CONF:1198-31090;CONF:1198-31091;CONF:1198-31096;CONF:1198-31097;CONF:1198-31098;CONF:1198-31085;CONF:1198-31086;CONF:1198-31087;CONF:1198-7624;CONF:1198-7623' },</v>
       </c>
       <c r="N13" t="str">
-        <f>"'"&amp;D13&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.1.10',</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -7366,21 +7366,21 @@
         <v>564</v>
       </c>
       <c r="K14" t="str">
-        <f>B14&amp;" "&amp;D14&amp;" "&amp;J14</f>
+        <f t="shared" si="0"/>
         <v>Admission Diagnosis Section  2.16.840.1.113883.10.20.22.2.43 CONF:1198-9930;CONF:1198-10391;CONF:1198-32563;CONF:1198-15479;CONF:1198-15480;CONF:1198-30865;CONF:1198-32749;CONF:1198-32750;CONF:1198-32751;CONF:1198-9932;CONF:1198-9933;CONF:1198-9934;CONF:1198-15481</v>
       </c>
       <c r="M14" t="str">
-        <f>"{ 'id': '"&amp;A14&amp;"', 'template_type': '"&amp;C14&amp;"', 'name': '"&amp;B14&amp;" ["&amp;D14&amp;"["&amp;G14&amp;"', 'name2': '"&amp;B14&amp;"', 'template': '"&amp;D14&amp;"', 'pageStart': '"&amp;E14&amp;"', 'pages': '"&amp;G14&amp;"', 'search': '"&amp;K14&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '13', 'template_type': 'Section', 'name': 'Admission Diagnosis Section  [2.16.840.1.113883.10.20.22.2.43[255-257', 'name2': 'Admission Diagnosis Section ', 'template': '2.16.840.1.113883.10.20.22.2.43', 'pageStart': '255', 'pages': '255-257', 'search': 'Admission Diagnosis Section  2.16.840.1.113883.10.20.22.2.43 CONF:1198-9930;CONF:1198-10391;CONF:1198-32563;CONF:1198-15479;CONF:1198-15480;CONF:1198-30865;CONF:1198-32749;CONF:1198-32750;CONF:1198-32751;CONF:1198-9932;CONF:1198-9933;CONF:1198-9934;CONF:1198-15481' },</v>
       </c>
       <c r="N14" t="str">
-        <f>"'"&amp;D14&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.43',</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -7409,21 +7409,21 @@
         <v>565</v>
       </c>
       <c r="K15" t="str">
-        <f>B15&amp;" "&amp;D15&amp;" "&amp;J15</f>
+        <f t="shared" si="0"/>
         <v>Admission Medications Section (entries optional)   2.16.840.1.113883.10.20.22.2.44 CONF:1198-10098;CONF:1198-10392;CONF:1198-32560;CONF:1198-15482;CONF:1198-15483;CONF:1198-32142;CONF:1198-10100;CONF:1198-10101;CONF:1198-10102;CONF:1198-15484</v>
       </c>
       <c r="M15" t="str">
-        <f>"{ 'id': '"&amp;A15&amp;"', 'template_type': '"&amp;C15&amp;"', 'name': '"&amp;B15&amp;" ["&amp;D15&amp;"["&amp;G15&amp;"', 'name2': '"&amp;B15&amp;"', 'template': '"&amp;D15&amp;"', 'pageStart': '"&amp;E15&amp;"', 'pages': '"&amp;G15&amp;"', 'search': '"&amp;K15&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '14', 'template_type': 'Section', 'name': 'Admission Medications Section (entries optional)   [2.16.840.1.113883.10.20.22.2.44[257-258', 'name2': 'Admission Medications Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.44', 'pageStart': '257', 'pages': '257-258', 'search': 'Admission Medications Section (entries optional)   2.16.840.1.113883.10.20.22.2.44 CONF:1198-10098;CONF:1198-10392;CONF:1198-32560;CONF:1198-15482;CONF:1198-15483;CONF:1198-32142;CONF:1198-10100;CONF:1198-10101;CONF:1198-10102;CONF:1198-15484' },</v>
       </c>
       <c r="N15" t="str">
-        <f>"'"&amp;D15&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.44',</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -7452,21 +7452,21 @@
         <v>566</v>
       </c>
       <c r="K16" t="str">
-        <f>B16&amp;" "&amp;D16&amp;" "&amp;J16</f>
+        <f t="shared" si="0"/>
         <v>Advance Directives Section (entries optional)  2.16.840.1.113883.10.20.22.2.21 CONF:1198-7928;CONF:1198-10376;CONF:1198-32497;CONF:1198-15340;CONF:1198-15342;CONF:1198-30812;CONF:1198-7930;CONF:1198-7931;CONF:1198-7957;CONF:1198-15443;CONF:1198-32891;CONF:1198-32892</v>
       </c>
       <c r="M16" t="str">
-        <f>"{ 'id': '"&amp;A16&amp;"', 'template_type': '"&amp;C16&amp;"', 'name': '"&amp;B16&amp;" ["&amp;D16&amp;"["&amp;G16&amp;"', 'name2': '"&amp;B16&amp;"', 'template': '"&amp;D16&amp;"', 'pageStart': '"&amp;E16&amp;"', 'pages': '"&amp;G16&amp;"', 'search': '"&amp;K16&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '15', 'template_type': 'Section', 'name': 'Advance Directives Section (entries optional)  [2.16.840.1.113883.10.20.22.2.21[258-260', 'name2': 'Advance Directives Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.21', 'pageStart': '258', 'pages': '258-260', 'search': 'Advance Directives Section (entries optional)  2.16.840.1.113883.10.20.22.2.21 CONF:1198-7928;CONF:1198-10376;CONF:1198-32497;CONF:1198-15340;CONF:1198-15342;CONF:1198-30812;CONF:1198-7930;CONF:1198-7931;CONF:1198-7957;CONF:1198-15443;CONF:1198-32891;CONF:1198-32892' },</v>
       </c>
       <c r="N16" t="str">
-        <f>"'"&amp;D16&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.21',</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -7495,21 +7495,21 @@
         <v>567</v>
       </c>
       <c r="K17" t="str">
-        <f>B17&amp;" "&amp;D17&amp;" "&amp;J17</f>
+        <f t="shared" si="0"/>
         <v>Advance Directives Section (entries required)  2.16.840.1.113883.10.20.22.2.21.1 CONF:1198-32800;CONF:1198-30227;CONF:1198-30228;CONF:1198-32512;CONF:1198-32929;CONF:1198-32930;CONF:1198-32931;CONF:1198-32932;CONF:1198-32933;CONF:1198-30235;CONF:1198-30236;CONF:1198-32420;CONF:1198-32881</v>
       </c>
       <c r="M17" t="str">
-        <f>"{ 'id': '"&amp;A17&amp;"', 'template_type': '"&amp;C17&amp;"', 'name': '"&amp;B17&amp;" ["&amp;D17&amp;"["&amp;G17&amp;"', 'name2': '"&amp;B17&amp;"', 'template': '"&amp;D17&amp;"', 'pageStart': '"&amp;E17&amp;"', 'pages': '"&amp;G17&amp;"', 'search': '"&amp;K17&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '16', 'template_type': 'Section', 'name': 'Advance Directives Section (entries required)  [2.16.840.1.113883.10.20.22.2.21.1[260-263', 'name2': 'Advance Directives Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.21.1', 'pageStart': '260', 'pages': '260-263', 'search': 'Advance Directives Section (entries required)  2.16.840.1.113883.10.20.22.2.21.1 CONF:1198-32800;CONF:1198-30227;CONF:1198-30228;CONF:1198-32512;CONF:1198-32929;CONF:1198-32930;CONF:1198-32931;CONF:1198-32932;CONF:1198-32933;CONF:1198-30235;CONF:1198-30236;CONF:1198-32420;CONF:1198-32881' },</v>
       </c>
       <c r="N17" t="str">
-        <f>"'"&amp;D17&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.21.1',</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -7538,21 +7538,21 @@
         <v>568</v>
       </c>
       <c r="K18" t="str">
-        <f>B18&amp;" "&amp;D18&amp;" "&amp;J18</f>
+        <f t="shared" si="0"/>
         <v>Allergies and Intolerances Section (entries optional)   2.16.840.1.113883.10.20.22.2.6 CONF:1198-7800;CONF:1198-10378;CONF:1198-32544;CONF:1198-15345;CONF:1198-15346;CONF:1198-32139;CONF:1198-7802;CONF:1198-7803;CONF:1198-7804;CONF:1198-15444</v>
       </c>
       <c r="M18" t="str">
-        <f>"{ 'id': '"&amp;A18&amp;"', 'template_type': '"&amp;C18&amp;"', 'name': '"&amp;B18&amp;" ["&amp;D18&amp;"["&amp;G18&amp;"', 'name2': '"&amp;B18&amp;"', 'template': '"&amp;D18&amp;"', 'pageStart': '"&amp;E18&amp;"', 'pages': '"&amp;G18&amp;"', 'search': '"&amp;K18&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '17', 'template_type': 'Section', 'name': 'Allergies and Intolerances Section (entries optional)   [2.16.840.1.113883.10.20.22.2.6[263-264', 'name2': 'Allergies and Intolerances Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.6', 'pageStart': '263', 'pages': '263-264', 'search': 'Allergies and Intolerances Section (entries optional)   2.16.840.1.113883.10.20.22.2.6 CONF:1198-7800;CONF:1198-10378;CONF:1198-32544;CONF:1198-15345;CONF:1198-15346;CONF:1198-32139;CONF:1198-7802;CONF:1198-7803;CONF:1198-7804;CONF:1198-15444' },</v>
       </c>
       <c r="N18" t="str">
-        <f>"'"&amp;D18&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.6',</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -7581,21 +7581,21 @@
         <v>569</v>
       </c>
       <c r="K19" t="str">
-        <f>B19&amp;" "&amp;D19&amp;" "&amp;J19</f>
+        <f t="shared" si="0"/>
         <v>Allergies and Intolerances Section (entries required)  2.16.840.1.113883.10.20.22.2.6.1 CONF:1198-32824;CONF:1198-7527;CONF:1198-10379;CONF:1198-32545;CONF:1198-15349;CONF:1198-15350;CONF:1198-32140;CONF:1198-7534;CONF:1198-7530;CONF:1198-7531;CONF:1198-15446</v>
       </c>
       <c r="M19" t="str">
-        <f>"{ 'id': '"&amp;A19&amp;"', 'template_type': '"&amp;C19&amp;"', 'name': '"&amp;B19&amp;" ["&amp;D19&amp;"["&amp;G19&amp;"', 'name2': '"&amp;B19&amp;"', 'template': '"&amp;D19&amp;"', 'pageStart': '"&amp;E19&amp;"', 'pages': '"&amp;G19&amp;"', 'search': '"&amp;K19&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '18', 'template_type': 'Section', 'name': 'Allergies and Intolerances Section (entries required)  [2.16.840.1.113883.10.20.22.2.6.1[264-266', 'name2': 'Allergies and Intolerances Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.6.1', 'pageStart': '264', 'pages': '264-266', 'search': 'Allergies and Intolerances Section (entries required)  2.16.840.1.113883.10.20.22.2.6.1 CONF:1198-32824;CONF:1198-7527;CONF:1198-10379;CONF:1198-32545;CONF:1198-15349;CONF:1198-15350;CONF:1198-32140;CONF:1198-7534;CONF:1198-7530;CONF:1198-7531;CONF:1198-15446' },</v>
       </c>
       <c r="N19" t="str">
-        <f>"'"&amp;D19&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.6.1',</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -7624,21 +7624,21 @@
         <v>570</v>
       </c>
       <c r="K20" t="str">
-        <f>B20&amp;" "&amp;D20&amp;" "&amp;J20</f>
+        <f t="shared" si="0"/>
         <v>Anesthesia Section  2.16.840.1.113883.10.20.22.2.25 CONF:1098-8066;CONF:1098-10380;CONF:1098-32531;CONF:1098-15351;CONF:1098-15352;CONF:1098-30830;CONF:1098-8068;CONF:1098-8069;CONF:1098-8092;CONF:1098-15447;CONF:1098-8094;CONF:1098-31127</v>
       </c>
       <c r="M20" t="str">
-        <f>"{ 'id': '"&amp;A20&amp;"', 'template_type': '"&amp;C20&amp;"', 'name': '"&amp;B20&amp;" ["&amp;D20&amp;"["&amp;G20&amp;"', 'name2': '"&amp;B20&amp;"', 'template': '"&amp;D20&amp;"', 'pageStart': '"&amp;E20&amp;"', 'pages': '"&amp;G20&amp;"', 'search': '"&amp;K20&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '19', 'template_type': 'Section', 'name': 'Anesthesia Section  [2.16.840.1.113883.10.20.22.2.25[266-269', 'name2': 'Anesthesia Section ', 'template': '2.16.840.1.113883.10.20.22.2.25', 'pageStart': '266', 'pages': '266-269', 'search': 'Anesthesia Section  2.16.840.1.113883.10.20.22.2.25 CONF:1098-8066;CONF:1098-10380;CONF:1098-32531;CONF:1098-15351;CONF:1098-15352;CONF:1098-30830;CONF:1098-8068;CONF:1098-8069;CONF:1098-8092;CONF:1098-15447;CONF:1098-8094;CONF:1098-31127' },</v>
       </c>
       <c r="N20" t="str">
-        <f>"'"&amp;D20&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.25',</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -7667,21 +7667,21 @@
         <v>571</v>
       </c>
       <c r="K21" t="str">
-        <f>B21&amp;" "&amp;D21&amp;" "&amp;J21</f>
+        <f t="shared" si="0"/>
         <v>Assessment and Plan Section   2.16.840.1.113883.10.20.22.2.9 CONF:1098-7705;CONF:1098-10381;CONF:1098-32583;CONF:1098-15353;CONF:1098-15354;CONF:1098-32141;CONF:1098-7707;CONF:1098-7708;CONF:1098-15448</v>
       </c>
       <c r="M21" t="str">
-        <f>"{ 'id': '"&amp;A21&amp;"', 'template_type': '"&amp;C21&amp;"', 'name': '"&amp;B21&amp;" ["&amp;D21&amp;"["&amp;G21&amp;"', 'name2': '"&amp;B21&amp;"', 'template': '"&amp;D21&amp;"', 'pageStart': '"&amp;E21&amp;"', 'pages': '"&amp;G21&amp;"', 'search': '"&amp;K21&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '20', 'template_type': 'Section', 'name': 'Assessment and Plan Section   [2.16.840.1.113883.10.20.22.2.9[269-270', 'name2': 'Assessment and Plan Section  ', 'template': '2.16.840.1.113883.10.20.22.2.9', 'pageStart': '269', 'pages': '269-270', 'search': 'Assessment and Plan Section   2.16.840.1.113883.10.20.22.2.9 CONF:1098-7705;CONF:1098-10381;CONF:1098-32583;CONF:1098-15353;CONF:1098-15354;CONF:1098-32141;CONF:1098-7707;CONF:1098-7708;CONF:1098-15448' },</v>
       </c>
       <c r="N21" t="str">
-        <f>"'"&amp;D21&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.9',</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -7710,21 +7710,21 @@
         <v>572</v>
       </c>
       <c r="K22" t="str">
-        <f>B22&amp;" "&amp;D22&amp;" "&amp;J22</f>
+        <f t="shared" si="0"/>
         <v>Assessment Section  2.16.840.1.113883.10.20.22.2.8 CONF:81-7711;CONF:81-10382;CONF:81-14757;CONF:81-14758;CONF:81-26472;CONF:81-16774;CONF:81-7713</v>
       </c>
       <c r="M22" t="str">
-        <f>"{ 'id': '"&amp;A22&amp;"', 'template_type': '"&amp;C22&amp;"', 'name': '"&amp;B22&amp;" ["&amp;D22&amp;"["&amp;G22&amp;"', 'name2': '"&amp;B22&amp;"', 'template': '"&amp;D22&amp;"', 'pageStart': '"&amp;E22&amp;"', 'pages': '"&amp;G22&amp;"', 'search': '"&amp;K22&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '21', 'template_type': 'Section', 'name': 'Assessment Section  [2.16.840.1.113883.10.20.22.2.8[270-272', 'name2': 'Assessment Section ', 'template': '2.16.840.1.113883.10.20.22.2.8', 'pageStart': '270', 'pages': '270-272', 'search': 'Assessment Section  2.16.840.1.113883.10.20.22.2.8 CONF:81-7711;CONF:81-10382;CONF:81-14757;CONF:81-14758;CONF:81-26472;CONF:81-16774;CONF:81-7713' },</v>
       </c>
       <c r="N22" t="str">
-        <f>"'"&amp;D22&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.8',</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -7750,21 +7750,21 @@
         <v>1438</v>
       </c>
       <c r="K23" t="str">
-        <f>B23&amp;" "&amp;D23&amp;" "&amp;J23</f>
+        <f t="shared" si="0"/>
         <v>Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 CONF:4435-3;CONF:4435-7;CONF:4435-8;CONF:4435-5;CONF:4435-9;CONF:4435-10;CONF:4435-4;CONF:4435-6;CONF:4435-1;CONF:4435-159;</v>
       </c>
       <c r="M23" t="str">
-        <f>"{ 'id': '"&amp;A23&amp;"', 'template_type': '"&amp;C23&amp;"', 'name': '"&amp;B23&amp;" ["&amp;D23&amp;"["&amp;G23&amp;"', 'name2': '"&amp;B23&amp;"', 'template': '"&amp;D23&amp;"', 'pageStart': '"&amp;E23&amp;"', 'pages': '"&amp;G23&amp;"', 'search': '"&amp;K23&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '22', 'template_type': 'Section', 'name': 'Care Teams Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.500[CG_A_61-63', 'name2': 'Care Teams Section (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.2.500', 'pageStart': '1061', 'pages': 'CG_A_61-63', 'search': 'Care Teams Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.500 CONF:4435-3;CONF:4435-7;CONF:4435-8;CONF:4435-5;CONF:4435-9;CONF:4435-10;CONF:4435-4;CONF:4435-6;CONF:4435-1;CONF:4435-159;' },</v>
       </c>
       <c r="N23" t="str">
-        <f>"'"&amp;D23&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.500',</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -7793,21 +7793,21 @@
         <v>573</v>
       </c>
       <c r="K24" t="str">
-        <f>B24&amp;" "&amp;D24&amp;" "&amp;J24</f>
+        <f t="shared" si="0"/>
         <v>Chief Complaint and Reason for Visit Section  2.16.840.1.113883.10.20.22.2.13 CONF:81-7840;CONF:81-10383;CONF:81-15449;CONF:81-15450;CONF:81-26473;CONF:81-7842;CONF:81-7843</v>
       </c>
       <c r="M24" t="str">
-        <f>"{ 'id': '"&amp;A24&amp;"', 'template_type': '"&amp;C24&amp;"', 'name': '"&amp;B24&amp;" ["&amp;D24&amp;"["&amp;G24&amp;"', 'name2': '"&amp;B24&amp;"', 'template': '"&amp;D24&amp;"', 'pageStart': '"&amp;E24&amp;"', 'pages': '"&amp;G24&amp;"', 'search': '"&amp;K24&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '23', 'template_type': 'Section', 'name': 'Chief Complaint and Reason for Visit Section  [2.16.840.1.113883.10.20.22.2.13[272-273', 'name2': 'Chief Complaint and Reason for Visit Section ', 'template': '2.16.840.1.113883.10.20.22.2.13', 'pageStart': '272', 'pages': '272-273', 'search': 'Chief Complaint and Reason for Visit Section  2.16.840.1.113883.10.20.22.2.13 CONF:81-7840;CONF:81-10383;CONF:81-15449;CONF:81-15450;CONF:81-26473;CONF:81-7842;CONF:81-7843' },</v>
       </c>
       <c r="N24" t="str">
-        <f>"'"&amp;D24&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.13',</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -7836,21 +7836,21 @@
         <v>574</v>
       </c>
       <c r="K25" t="str">
-        <f>B25&amp;" "&amp;D25&amp;" "&amp;J25</f>
+        <f t="shared" si="0"/>
         <v>Chief Complaint Section 1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1 CONF:81-7832;CONF:81-10453;CONF:81-15451;CONF:81-15452;CONF:81-26474;CONF:81-7834;CONF:81-7835</v>
       </c>
       <c r="M25" t="str">
-        <f>"{ 'id': '"&amp;A25&amp;"', 'template_type': '"&amp;C25&amp;"', 'name': '"&amp;B25&amp;" ["&amp;D25&amp;"["&amp;G25&amp;"', 'name2': '"&amp;B25&amp;"', 'template': '"&amp;D25&amp;"', 'pageStart': '"&amp;E25&amp;"', 'pages': '"&amp;G25&amp;"', 'search': '"&amp;K25&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '24', 'template_type': 'Section', 'name': 'Chief Complaint Section [1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1[273-274', 'name2': 'Chief Complaint Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1', 'pageStart': '273', 'pages': '273-274', 'search': 'Chief Complaint Section 1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1 CONF:81-7832;CONF:81-10453;CONF:81-15451;CONF:81-15452;CONF:81-26474;CONF:81-7834;CONF:81-7835' },</v>
       </c>
       <c r="N25" t="str">
-        <f>"'"&amp;D25&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1',</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -7879,21 +7879,21 @@
         <v>575</v>
       </c>
       <c r="K26" t="str">
-        <f>B26&amp;" "&amp;D26&amp;" "&amp;J26</f>
+        <f t="shared" si="0"/>
         <v>Complications Section  2.16.840.1.113883.10.20.22.2.37 CONF:1198-8174;CONF:1198-10384;CONF:1198-32538;CONF:1198-15453;CONF:1198-15454;CONF:1198-30860;CONF:1198-8176;CONF:1198-8177;CONF:1198-8795;CONF:1198-15455</v>
       </c>
       <c r="M26" t="str">
-        <f>"{ 'id': '"&amp;A26&amp;"', 'template_type': '"&amp;C26&amp;"', 'name': '"&amp;B26&amp;" ["&amp;D26&amp;"["&amp;G26&amp;"', 'name2': '"&amp;B26&amp;"', 'template': '"&amp;D26&amp;"', 'pageStart': '"&amp;E26&amp;"', 'pages': '"&amp;G26&amp;"', 'search': '"&amp;K26&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '25', 'template_type': 'Section', 'name': 'Complications Section  [2.16.840.1.113883.10.20.22.2.37[274-276', 'name2': 'Complications Section ', 'template': '2.16.840.1.113883.10.20.22.2.37', 'pageStart': '274', 'pages': '274-276', 'search': 'Complications Section  2.16.840.1.113883.10.20.22.2.37 CONF:1198-8174;CONF:1198-10384;CONF:1198-32538;CONF:1198-15453;CONF:1198-15454;CONF:1198-30860;CONF:1198-8176;CONF:1198-8177;CONF:1198-8795;CONF:1198-15455' },</v>
       </c>
       <c r="N26" t="str">
-        <f>"'"&amp;D26&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.37',</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -7922,21 +7922,21 @@
         <v>576</v>
       </c>
       <c r="K27" t="str">
-        <f>B27&amp;" "&amp;D27&amp;" "&amp;J27</f>
+        <f t="shared" si="0"/>
         <v>Course of Care Section 2.16.840.1.113883.10.20.22.2.64 CONF:1098-32640;CONF:1098-32642;CONF:1098-32641;CONF:1098-32645;CONF:1098-32646;CONF:1098-32643;CONF:1098-32644</v>
       </c>
       <c r="M27" t="str">
-        <f>"{ 'id': '"&amp;A27&amp;"', 'template_type': '"&amp;C27&amp;"', 'name': '"&amp;B27&amp;" ["&amp;D27&amp;"["&amp;G27&amp;"', 'name2': '"&amp;B27&amp;"', 'template': '"&amp;D27&amp;"', 'pageStart': '"&amp;E27&amp;"', 'pages': '"&amp;G27&amp;"', 'search': '"&amp;K27&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '26', 'template_type': 'Section', 'name': 'Course of Care Section [2.16.840.1.113883.10.20.22.2.64[276-278', 'name2': 'Course of Care Section', 'template': '2.16.840.1.113883.10.20.22.2.64', 'pageStart': '276', 'pages': '276-278', 'search': 'Course of Care Section 2.16.840.1.113883.10.20.22.2.64 CONF:1098-32640;CONF:1098-32642;CONF:1098-32641;CONF:1098-32645;CONF:1098-32646;CONF:1098-32643;CONF:1098-32644' },</v>
       </c>
       <c r="N27" t="str">
-        <f>"'"&amp;D27&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.64',</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -7965,21 +7965,21 @@
         <v>577</v>
       </c>
       <c r="K28" t="str">
-        <f>B28&amp;" "&amp;D28&amp;" "&amp;J28</f>
+        <f t="shared" si="0"/>
         <v>DICOM Object Catalog Section - DCM 121181  2.16.840.1.113883.10.20.6.1.1 CONF:81-8525;CONF:81-10454;CONF:81-15456;CONF:81-15457;CONF:81-26475;CONF:81-8530;CONF:81-15458;CONF:81-8527</v>
       </c>
       <c r="M28" t="str">
-        <f>"{ 'id': '"&amp;A28&amp;"', 'template_type': '"&amp;C28&amp;"', 'name': '"&amp;B28&amp;" ["&amp;D28&amp;"["&amp;G28&amp;"', 'name2': '"&amp;B28&amp;"', 'template': '"&amp;D28&amp;"', 'pageStart': '"&amp;E28&amp;"', 'pages': '"&amp;G28&amp;"', 'search': '"&amp;K28&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '27', 'template_type': 'Section', 'name': 'DICOM Object Catalog Section - DCM 121181  [2.16.840.1.113883.10.20.6.1.1[278-281', 'name2': 'DICOM Object Catalog Section - DCM 121181 ', 'template': '2.16.840.1.113883.10.20.6.1.1', 'pageStart': '278', 'pages': '278-281', 'search': 'DICOM Object Catalog Section - DCM 121181  2.16.840.1.113883.10.20.6.1.1 CONF:81-8525;CONF:81-10454;CONF:81-15456;CONF:81-15457;CONF:81-26475;CONF:81-8530;CONF:81-15458;CONF:81-8527' },</v>
       </c>
       <c r="N28" t="str">
-        <f>"'"&amp;D28&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.6.1.1',</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -8008,21 +8008,21 @@
         <v>578</v>
       </c>
       <c r="K29" t="str">
-        <f>B29&amp;" "&amp;D29&amp;" "&amp;J29</f>
+        <f t="shared" si="0"/>
         <v>Discharge Diagnosis Section  2.16.840.1.113883.10.20.22.2.24 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978</v>
       </c>
       <c r="M29" t="str">
-        <f>"{ 'id': '"&amp;A29&amp;"', 'template_type': '"&amp;C29&amp;"', 'name': '"&amp;B29&amp;" ["&amp;D29&amp;"["&amp;G29&amp;"', 'name2': '"&amp;B29&amp;"', 'template': '"&amp;D29&amp;"', 'pageStart': '"&amp;E29&amp;"', 'pages': '"&amp;G29&amp;"', 'search': '"&amp;K29&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '28', 'template_type': 'Section', 'name': 'Discharge Diagnosis Section  [2.16.840.1.113883.10.20.22.2.24[281-283', 'name2': 'Discharge Diagnosis Section ', 'template': '2.16.840.1.113883.10.20.22.2.24', 'pageStart': '281', 'pages': '281-283', 'search': 'Discharge Diagnosis Section  2.16.840.1.113883.10.20.22.2.24 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
       </c>
       <c r="N29" t="str">
-        <f>"'"&amp;D29&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.24',</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -8051,21 +8051,21 @@
         <v>578</v>
       </c>
       <c r="K30" t="str">
-        <f>B30&amp;" "&amp;D30&amp;" "&amp;J30</f>
+        <f t="shared" si="0"/>
         <v>Discharge Diet Section (DEPRECATED)  1.3.6.1.4.1.19376.1.5.3.1.3.33 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978</v>
       </c>
       <c r="M30" t="str">
-        <f>"{ 'id': '"&amp;A30&amp;"', 'template_type': '"&amp;C30&amp;"', 'name': '"&amp;B30&amp;" ["&amp;D30&amp;"["&amp;G30&amp;"', 'name2': '"&amp;B30&amp;"', 'template': '"&amp;D30&amp;"', 'pageStart': '"&amp;E30&amp;"', 'pages': '"&amp;G30&amp;"', 'search': '"&amp;K30&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '29', 'template_type': 'Section', 'name': 'Discharge Diet Section (DEPRECATED)  [1.3.6.1.4.1.19376.1.5.3.1.3.33[283-284', 'name2': 'Discharge Diet Section (DEPRECATED) ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.33', 'pageStart': '283', 'pages': '283-284', 'search': 'Discharge Diet Section (DEPRECATED)  1.3.6.1.4.1.19376.1.5.3.1.3.33 CONF:1098-7975;CONF:1098-10455;CONF:1098-32593;CONF:1098-15459;CONF:1098-15460;CONF:1098-31140;CONF:1098-7977;CONF:1098-7978' },</v>
       </c>
       <c r="N30" t="str">
-        <f>"'"&amp;D30&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.33',</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -8094,21 +8094,21 @@
         <v>579</v>
       </c>
       <c r="K31" t="str">
-        <f>B31&amp;" "&amp;D31&amp;" "&amp;J31</f>
+        <f t="shared" si="0"/>
         <v>Discharge Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.11 CONF:1198-7816;CONF:1198-10396;CONF:1198-32561;CONF:1198-15359;CONF:1198-15360;CONF:1198-32480;CONF:1198-32854;CONF:1198-32855;CONF:1198-32856;CONF:1198-7818;CONF:1198-7819;CONF:1198-7820;CONF:1198-15490</v>
       </c>
       <c r="M31" t="str">
-        <f>"{ 'id': '"&amp;A31&amp;"', 'template_type': '"&amp;C31&amp;"', 'name': '"&amp;B31&amp;" ["&amp;D31&amp;"["&amp;G31&amp;"', 'name2': '"&amp;B31&amp;"', 'template': '"&amp;D31&amp;"', 'pageStart': '"&amp;E31&amp;"', 'pages': '"&amp;G31&amp;"', 'search': '"&amp;K31&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '30', 'template_type': 'Section', 'name': 'Discharge Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.11[284-286', 'name2': 'Discharge Medications Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.11', 'pageStart': '284', 'pages': '284-286', 'search': 'Discharge Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.11 CONF:1198-7816;CONF:1198-10396;CONF:1198-32561;CONF:1198-15359;CONF:1198-15360;CONF:1198-32480;CONF:1198-32854;CONF:1198-32855;CONF:1198-32856;CONF:1198-7818;CONF:1198-7819;CONF:1198-7820;CONF:1198-15490' },</v>
       </c>
       <c r="N31" t="str">
-        <f>"'"&amp;D31&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.11',</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -8137,21 +8137,21 @@
         <v>580</v>
       </c>
       <c r="K32" t="str">
-        <f>B32&amp;" "&amp;D32&amp;" "&amp;J32</f>
+        <f t="shared" si="0"/>
         <v>Discharge Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.11.1 CONF:1198-32812;CONF:1198-7822;CONF:1198-10397;CONF:1198-32562;CONF:1198-15361;CONF:1198-15362;CONF:1198-32145;CONF:1198-32857;CONF:1198-32858;CONF:1198-32859;CONF:1198-7824;CONF:1198-7825;CONF:1198-7826;CONF:1198-15491</v>
       </c>
       <c r="M32" t="str">
-        <f>"{ 'id': '"&amp;A32&amp;"', 'template_type': '"&amp;C32&amp;"', 'name': '"&amp;B32&amp;" ["&amp;D32&amp;"["&amp;G32&amp;"', 'name2': '"&amp;B32&amp;"', 'template': '"&amp;D32&amp;"', 'pageStart': '"&amp;E32&amp;"', 'pages': '"&amp;G32&amp;"', 'search': '"&amp;K32&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '31', 'template_type': 'Section', 'name': 'Discharge Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.11.1[286-289', 'name2': 'Discharge Medications Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.11.1', 'pageStart': '286', 'pages': '286-289', 'search': 'Discharge Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.11.1 CONF:1198-32812;CONF:1198-7822;CONF:1198-10397;CONF:1198-32562;CONF:1198-15361;CONF:1198-15362;CONF:1198-32145;CONF:1198-32857;CONF:1198-32858;CONF:1198-32859;CONF:1198-7824;CONF:1198-7825;CONF:1198-7826;CONF:1198-15491' },</v>
       </c>
       <c r="N32" t="str">
-        <f>"'"&amp;D32&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.11.1',</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -8180,21 +8180,21 @@
         <v>581</v>
       </c>
       <c r="K33" t="str">
-        <f>B33&amp;" "&amp;D33&amp;" "&amp;J33</f>
+        <f t="shared" si="0"/>
         <v>Encounters Section (entries optional)  2.16.840.1.113883.10.20.22.2.22 CONF:1198-7940;CONF:1198-10386;CONF:1198-32547;CONF:1198-15461;CONF:1198-15462;CONF:1198-31136;CONF:1198-7942;CONF:1198-7943;CONF:1198-7951;CONF:1198-15465</v>
       </c>
       <c r="M33" t="str">
-        <f>"{ 'id': '"&amp;A33&amp;"', 'template_type': '"&amp;C33&amp;"', 'name': '"&amp;B33&amp;" ["&amp;D33&amp;"["&amp;G33&amp;"', 'name2': '"&amp;B33&amp;"', 'template': '"&amp;D33&amp;"', 'pageStart': '"&amp;E33&amp;"', 'pages': '"&amp;G33&amp;"', 'search': '"&amp;K33&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '32', 'template_type': 'Section', 'name': 'Encounters Section (entries optional)  [2.16.840.1.113883.10.20.22.2.22[289-290', 'name2': 'Encounters Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.22', 'pageStart': '289', 'pages': '289-290', 'search': 'Encounters Section (entries optional)  2.16.840.1.113883.10.20.22.2.22 CONF:1198-7940;CONF:1198-10386;CONF:1198-32547;CONF:1198-15461;CONF:1198-15462;CONF:1198-31136;CONF:1198-7942;CONF:1198-7943;CONF:1198-7951;CONF:1198-15465' },</v>
       </c>
       <c r="N33" t="str">
-        <f>"'"&amp;D33&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.22',</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -8223,21 +8223,21 @@
         <v>582</v>
       </c>
       <c r="K34" t="str">
-        <f>B34&amp;" "&amp;D34&amp;" "&amp;J34</f>
+        <f t="shared" si="0"/>
         <v>Encounters Section (entries required)   2.16.840.1.113883.10.20.22.2.22.1 CONF:1198-32815;CONF:1198-8705;CONF:1198-10387;CONF:1198-32548;CONF:1198-15466;CONF:1198-15467;CONF:1198-31137;CONF:1198-8707;CONF:1198-8708;CONF:1198-8709;CONF:1198-15468</v>
       </c>
       <c r="M34" t="str">
-        <f>"{ 'id': '"&amp;A34&amp;"', 'template_type': '"&amp;C34&amp;"', 'name': '"&amp;B34&amp;" ["&amp;D34&amp;"["&amp;G34&amp;"', 'name2': '"&amp;B34&amp;"', 'template': '"&amp;D34&amp;"', 'pageStart': '"&amp;E34&amp;"', 'pages': '"&amp;G34&amp;"', 'search': '"&amp;K34&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '33', 'template_type': 'Section', 'name': 'Encounters Section (entries required)   [2.16.840.1.113883.10.20.22.2.22.1[290-292', 'name2': 'Encounters Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.22.1', 'pageStart': '290', 'pages': '290-292', 'search': 'Encounters Section (entries required)   2.16.840.1.113883.10.20.22.2.22.1 CONF:1198-32815;CONF:1198-8705;CONF:1198-10387;CONF:1198-32548;CONF:1198-15466;CONF:1198-15467;CONF:1198-31137;CONF:1198-8707;CONF:1198-8708;CONF:1198-8709;CONF:1198-15468' },</v>
       </c>
       <c r="N34" t="str">
-        <f>"'"&amp;D34&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.22.1',</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -8266,21 +8266,21 @@
         <v>583</v>
       </c>
       <c r="K35" t="str">
-        <f>B35&amp;" "&amp;D35&amp;" "&amp;J35</f>
+        <f t="shared" si="0"/>
         <v>Family History Section   2.16.840.1.113883.10.20.22.2.15 CONF:1198-7932;CONF:1198-10388;CONF:1198-32607;CONF:1198-15469;CONF:1198-15470;CONF:1198-32481;CONF:1198-7934;CONF:1198-7935;CONF:1198-32430;CONF:1198-32431</v>
       </c>
       <c r="M35" t="str">
-        <f>"{ 'id': '"&amp;A35&amp;"', 'template_type': '"&amp;C35&amp;"', 'name': '"&amp;B35&amp;" ["&amp;D35&amp;"["&amp;G35&amp;"', 'name2': '"&amp;B35&amp;"', 'template': '"&amp;D35&amp;"', 'pageStart': '"&amp;E35&amp;"', 'pages': '"&amp;G35&amp;"', 'search': '"&amp;K35&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '34', 'template_type': 'Section', 'name': 'Family History Section   [2.16.840.1.113883.10.20.22.2.15[292-294', 'name2': 'Family History Section  ', 'template': '2.16.840.1.113883.10.20.22.2.15', 'pageStart': '292', 'pages': '292-294', 'search': 'Family History Section   2.16.840.1.113883.10.20.22.2.15 CONF:1198-7932;CONF:1198-10388;CONF:1198-32607;CONF:1198-15469;CONF:1198-15470;CONF:1198-32481;CONF:1198-7934;CONF:1198-7935;CONF:1198-32430;CONF:1198-32431' },</v>
       </c>
       <c r="N35" t="str">
-        <f>"'"&amp;D35&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.15',</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -8309,21 +8309,21 @@
         <v>584</v>
       </c>
       <c r="K36" t="str">
-        <f>B36&amp;" "&amp;D36&amp;" "&amp;J36</f>
+        <f t="shared" si="0"/>
         <v>Fetus Subject Context 2.16.840.1.113883.10.20.6.2.3 CONF:81-9189;CONF:81-10535;CONF:81-9190;CONF:81-26455;CONF:81-26476;CONF:81-9191;CONF:81-15347</v>
       </c>
       <c r="M36" t="str">
-        <f>"{ 'id': '"&amp;A36&amp;"', 'template_type': '"&amp;C36&amp;"', 'name': '"&amp;B36&amp;" ["&amp;D36&amp;"["&amp;G36&amp;"', 'name2': '"&amp;B36&amp;"', 'template': '"&amp;D36&amp;"', 'pageStart': '"&amp;E36&amp;"', 'pages': '"&amp;G36&amp;"', 'search': '"&amp;K36&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '35', 'template_type': 'Section', 'name': 'Fetus Subject Context [2.16.840.1.113883.10.20.6.2.3[294-296', 'name2': 'Fetus Subject Context', 'template': '2.16.840.1.113883.10.20.6.2.3', 'pageStart': '294', 'pages': '294-296', 'search': 'Fetus Subject Context 2.16.840.1.113883.10.20.6.2.3 CONF:81-9189;CONF:81-10535;CONF:81-9190;CONF:81-26455;CONF:81-26476;CONF:81-9191;CONF:81-15347' },</v>
       </c>
       <c r="N36" t="str">
-        <f>"'"&amp;D36&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.6.2.3',</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -8352,21 +8352,21 @@
         <v>585</v>
       </c>
       <c r="K37" t="str">
-        <f>B37&amp;" "&amp;D37&amp;" "&amp;J37</f>
+        <f t="shared" si="0"/>
         <v>Findings Section (DIR) 2.16.840.1.113883.10.20.6.1.2 CONF:81-8531;CONF:81-10456;CONF:81-8532</v>
       </c>
       <c r="M37" t="str">
-        <f>"{ 'id': '"&amp;A37&amp;"', 'template_type': '"&amp;C37&amp;"', 'name': '"&amp;B37&amp;" ["&amp;D37&amp;"["&amp;G37&amp;"', 'name2': '"&amp;B37&amp;"', 'template': '"&amp;D37&amp;"', 'pageStart': '"&amp;E37&amp;"', 'pages': '"&amp;G37&amp;"', 'search': '"&amp;K37&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '36', 'template_type': 'Section', 'name': 'Findings Section (DIR) [2.16.840.1.113883.10.20.6.1.2[296-297', 'name2': 'Findings Section (DIR)', 'template': '2.16.840.1.113883.10.20.6.1.2', 'pageStart': '296', 'pages': '296-297', 'search': 'Findings Section (DIR) 2.16.840.1.113883.10.20.6.1.2 CONF:81-8531;CONF:81-10456;CONF:81-8532' },</v>
       </c>
       <c r="N37" t="str">
-        <f>"'"&amp;D37&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.6.1.2',</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -8395,21 +8395,21 @@
         <v>586</v>
       </c>
       <c r="K38" t="str">
-        <f>B38&amp;" "&amp;D38&amp;" "&amp;J38</f>
+        <f t="shared" si="0"/>
         <v>Functional Status Section   2.16.840.1.113883.10.20.22.2.14 CONF:1098-7920;CONF:1098-10389;CONF:1098-32567;CONF:1098-14578;CONF:1098-14579;CONF:1098-30866;CONF:1098-7922;CONF:1098-7923;CONF:1098-14414;CONF:1098-14415;CONF:1098-14418;CONF:1098-14419;CONF:1098-14426;CONF:1098-14427;CONF:1098-14580;CONF:1098-14581;CONF:1098-14582;CONF:1098-30783;CONF:1098-32792;CONF:1098-31009;CONF:1098-16779;CONF:1098-31011;CONF:1098-14424;CONF:1098-14425;CONF:1098-14422;CONF:1098-14423;CONF:1098-16777;CONF:1098-16778</v>
       </c>
       <c r="M38" t="str">
-        <f>"{ 'id': '"&amp;A38&amp;"', 'template_type': '"&amp;C38&amp;"', 'name': '"&amp;B38&amp;" ["&amp;D38&amp;"["&amp;G38&amp;"', 'name2': '"&amp;B38&amp;"', 'template': '"&amp;D38&amp;"', 'pageStart': '"&amp;E38&amp;"', 'pages': '"&amp;G38&amp;"', 'search': '"&amp;K38&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '37', 'template_type': 'Section', 'name': 'Functional Status Section   [2.16.840.1.113883.10.20.22.2.14[297-302', 'name2': 'Functional Status Section  ', 'template': '2.16.840.1.113883.10.20.22.2.14', 'pageStart': '297', 'pages': '297-302', 'search': 'Functional Status Section   2.16.840.1.113883.10.20.22.2.14 CONF:1098-7920;CONF:1098-10389;CONF:1098-32567;CONF:1098-14578;CONF:1098-14579;CONF:1098-30866;CONF:1098-7922;CONF:1098-7923;CONF:1098-14414;CONF:1098-14415;CONF:1098-14418;CONF:1098-14419;CONF:1098-14426;CONF:1098-14427;CONF:1098-14580;CONF:1098-14581;CONF:1098-14582;CONF:1098-30783;CONF:1098-32792;CONF:1098-31009;CONF:1098-16779;CONF:1098-31011;CONF:1098-14424;CONF:1098-14425;CONF:1098-14422;CONF:1098-14423;CONF:1098-16777;CONF:1098-16778' },</v>
       </c>
       <c r="N38" t="str">
-        <f>"'"&amp;D38&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.14',</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -8438,21 +8438,21 @@
         <v>587</v>
       </c>
       <c r="K39" t="str">
-        <f>B39&amp;" "&amp;D39&amp;" "&amp;J39</f>
+        <f t="shared" si="0"/>
         <v>General Status Section 2.16.840.1.113883.10.20.2.5 CONF:81-7985;CONF:81-10457;CONF:81-15472;CONF:81-15473;CONF:81-26477;CONF:81-7987;CONF:81-7988</v>
       </c>
       <c r="M39" t="str">
-        <f>"{ 'id': '"&amp;A39&amp;"', 'template_type': '"&amp;C39&amp;"', 'name': '"&amp;B39&amp;" ["&amp;D39&amp;"["&amp;G39&amp;"', 'name2': '"&amp;B39&amp;"', 'template': '"&amp;D39&amp;"', 'pageStart': '"&amp;E39&amp;"', 'pages': '"&amp;G39&amp;"', 'search': '"&amp;K39&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '38', 'template_type': 'Section', 'name': 'General Status Section [2.16.840.1.113883.10.20.2.5[302-303', 'name2': 'General Status Section', 'template': '2.16.840.1.113883.10.20.2.5', 'pageStart': '302', 'pages': '302-303', 'search': 'General Status Section 2.16.840.1.113883.10.20.2.5 CONF:81-7985;CONF:81-10457;CONF:81-15472;CONF:81-15473;CONF:81-26477;CONF:81-7987;CONF:81-7988' },</v>
       </c>
       <c r="N39" t="str">
-        <f>"'"&amp;D39&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.2.5',</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -8481,21 +8481,21 @@
         <v>588</v>
       </c>
       <c r="K40" t="str">
-        <f>B40&amp;" "&amp;D40&amp;" "&amp;J40</f>
+        <f t="shared" si="0"/>
         <v>Goals Section 2.16.840.1.113883.10.20.22.2.60 CONF:1098-32819;CONF:1098-29584;CONF:1098-29585;CONF:1098-29586;CONF:1098-29587;CONF:1098-29588;CONF:1098-30721;CONF:1098-30722;CONF:1098-30719;CONF:1098-30720</v>
       </c>
       <c r="M40" t="str">
-        <f>"{ 'id': '"&amp;A40&amp;"', 'template_type': '"&amp;C40&amp;"', 'name': '"&amp;B40&amp;" ["&amp;D40&amp;"["&amp;G40&amp;"', 'name2': '"&amp;B40&amp;"', 'template': '"&amp;D40&amp;"', 'pageStart': '"&amp;E40&amp;"', 'pages': '"&amp;G40&amp;"', 'search': '"&amp;K40&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '39', 'template_type': 'Section', 'name': 'Goals Section [2.16.840.1.113883.10.20.22.2.60[303-305', 'name2': 'Goals Section', 'template': '2.16.840.1.113883.10.20.22.2.60', 'pageStart': '303', 'pages': '303-305', 'search': 'Goals Section 2.16.840.1.113883.10.20.22.2.60 CONF:1098-32819;CONF:1098-29584;CONF:1098-29585;CONF:1098-29586;CONF:1098-29587;CONF:1098-29588;CONF:1098-30721;CONF:1098-30722;CONF:1098-30719;CONF:1098-30720' },</v>
       </c>
       <c r="N40" t="str">
-        <f>"'"&amp;D40&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.60',</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -8524,21 +8524,21 @@
         <v>589</v>
       </c>
       <c r="K41" t="str">
-        <f>B41&amp;" "&amp;D41&amp;" "&amp;J41</f>
+        <f t="shared" si="0"/>
         <v>Health Concerns Section   2.16.840.1.113883.10.20.22.2.58 CONF:1198-32802;CONF:1198-28804;CONF:1198-28805;CONF:1198-32862;CONF:1198-28806;CONF:1198-28807;CONF:1198-28808;CONF:1198-28809;CONF:1198-28810;CONF:1198-30483;CONF:1198-30484;CONF:1198-30768;CONF:1198-30769;CONF:1198-32308;CONF:1198-32309</v>
       </c>
       <c r="M41" t="str">
-        <f>"{ 'id': '"&amp;A41&amp;"', 'template_type': '"&amp;C41&amp;"', 'name': '"&amp;B41&amp;" ["&amp;D41&amp;"["&amp;G41&amp;"', 'name2': '"&amp;B41&amp;"', 'template': '"&amp;D41&amp;"', 'pageStart': '"&amp;E41&amp;"', 'pages': '"&amp;G41&amp;"', 'search': '"&amp;K41&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '40', 'template_type': 'Section', 'name': 'Health Concerns Section   [2.16.840.1.113883.10.20.22.2.58[305-308', 'name2': 'Health Concerns Section  ', 'template': '2.16.840.1.113883.10.20.22.2.58', 'pageStart': '305', 'pages': '305-308', 'search': 'Health Concerns Section   2.16.840.1.113883.10.20.22.2.58 CONF:1198-32802;CONF:1198-28804;CONF:1198-28805;CONF:1198-32862;CONF:1198-28806;CONF:1198-28807;CONF:1198-28808;CONF:1198-28809;CONF:1198-28810;CONF:1198-30483;CONF:1198-30484;CONF:1198-30768;CONF:1198-30769;CONF:1198-32308;CONF:1198-32309' },</v>
       </c>
       <c r="N41" t="str">
-        <f>"'"&amp;D41&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.58',</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -8567,21 +8567,21 @@
         <v>590</v>
       </c>
       <c r="K42" t="str">
-        <f>B42&amp;" "&amp;D42&amp;" "&amp;J42</f>
+        <f t="shared" si="0"/>
         <v>Health Status Evaluations and Outcomes Section 2.16.840.1.113883.10.20.22.2.61 CONF:1098-32821;CONF:1098-29578;CONF:1098-29579;CONF:1098-29580;CONF:1098-29581;CONF:1098-29582;CONF:1098-29589;CONF:1098-29590;CONF:1098-31227;CONF:1098-31228</v>
       </c>
       <c r="M42" t="str">
-        <f>"{ 'id': '"&amp;A42&amp;"', 'template_type': '"&amp;C42&amp;"', 'name': '"&amp;B42&amp;" ["&amp;D42&amp;"["&amp;G42&amp;"', 'name2': '"&amp;B42&amp;"', 'template': '"&amp;D42&amp;"', 'pageStart': '"&amp;E42&amp;"', 'pages': '"&amp;G42&amp;"', 'search': '"&amp;K42&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '41', 'template_type': 'Section', 'name': 'Health Status Evaluations and Outcomes Section [2.16.840.1.113883.10.20.22.2.61[308-310', 'name2': 'Health Status Evaluations and Outcomes Section', 'template': '2.16.840.1.113883.10.20.22.2.61', 'pageStart': '308', 'pages': '308-310', 'search': 'Health Status Evaluations and Outcomes Section 2.16.840.1.113883.10.20.22.2.61 CONF:1098-32821;CONF:1098-29578;CONF:1098-29579;CONF:1098-29580;CONF:1098-29581;CONF:1098-29582;CONF:1098-29589;CONF:1098-29590;CONF:1098-31227;CONF:1098-31228' },</v>
       </c>
       <c r="N42" t="str">
-        <f>"'"&amp;D42&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.61',</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -8610,21 +8610,21 @@
         <v>591</v>
       </c>
       <c r="K43" t="str">
-        <f>B43&amp;" "&amp;D43&amp;" "&amp;J43</f>
+        <f t="shared" si="0"/>
         <v>History of Present Illness Section 1.3.6.1.4.1.19376.1.5.3.1.3.4 CONF:81-7848;CONF:81-10458;CONF:81-15477;CONF:81-15478;CONF:81-26478;CONF:81-7850;CONF:81-7851</v>
       </c>
       <c r="M43" t="str">
-        <f>"{ 'id': '"&amp;A43&amp;"', 'template_type': '"&amp;C43&amp;"', 'name': '"&amp;B43&amp;" ["&amp;D43&amp;"["&amp;G43&amp;"', 'name2': '"&amp;B43&amp;"', 'template': '"&amp;D43&amp;"', 'pageStart': '"&amp;E43&amp;"', 'pages': '"&amp;G43&amp;"', 'search': '"&amp;K43&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '42', 'template_type': 'Section', 'name': 'History of Present Illness Section [1.3.6.1.4.1.19376.1.5.3.1.3.4[310-312', 'name2': 'History of Present Illness Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.4', 'pageStart': '310', 'pages': '310-312', 'search': 'History of Present Illness Section 1.3.6.1.4.1.19376.1.5.3.1.3.4 CONF:81-7848;CONF:81-10458;CONF:81-15477;CONF:81-15478;CONF:81-26478;CONF:81-7850;CONF:81-7851' },</v>
       </c>
       <c r="N43" t="str">
-        <f>"'"&amp;D43&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.4',</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -8653,21 +8653,21 @@
         <v>592</v>
       </c>
       <c r="K44" t="str">
-        <f>B44&amp;" "&amp;D44&amp;" "&amp;J44</f>
+        <f t="shared" si="0"/>
         <v>Hospital Consultations Section 2.16.840.1.113883.10.20.22.2.42 CONF:81-9915;CONF:81-10393;CONF:81-15485;CONF:81-15486;CONF:81-26479;CONF:81-9917;CONF:81-9918</v>
       </c>
       <c r="M44" t="str">
-        <f>"{ 'id': '"&amp;A44&amp;"', 'template_type': '"&amp;C44&amp;"', 'name': '"&amp;B44&amp;" ["&amp;D44&amp;"["&amp;G44&amp;"', 'name2': '"&amp;B44&amp;"', 'template': '"&amp;D44&amp;"', 'pageStart': '"&amp;E44&amp;"', 'pages': '"&amp;G44&amp;"', 'search': '"&amp;K44&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '43', 'template_type': 'Section', 'name': 'Hospital Consultations Section [2.16.840.1.113883.10.20.22.2.42[312-314', 'name2': 'Hospital Consultations Section', 'template': '2.16.840.1.113883.10.20.22.2.42', 'pageStart': '312', 'pages': '312-314', 'search': 'Hospital Consultations Section 2.16.840.1.113883.10.20.22.2.42 CONF:81-9915;CONF:81-10393;CONF:81-15485;CONF:81-15486;CONF:81-26479;CONF:81-9917;CONF:81-9918' },</v>
       </c>
       <c r="N44" t="str">
-        <f>"'"&amp;D44&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.42',</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -8696,21 +8696,21 @@
         <v>593</v>
       </c>
       <c r="K45" t="str">
-        <f>B45&amp;" "&amp;D45&amp;" "&amp;J45</f>
+        <f t="shared" si="0"/>
         <v>Hospital Course Section  1.3.6.1.4.1.19376.1.5.3.1.3.5 CONF:81-7852;CONF:81-10459;CONF:81-15487;CONF:81-15488;CONF:81-26480;CONF:81-7854;CONF:81-7855</v>
       </c>
       <c r="M45" t="str">
-        <f>"{ 'id': '"&amp;A45&amp;"', 'template_type': '"&amp;C45&amp;"', 'name': '"&amp;B45&amp;" ["&amp;D45&amp;"["&amp;G45&amp;"', 'name2': '"&amp;B45&amp;"', 'template': '"&amp;D45&amp;"', 'pageStart': '"&amp;E45&amp;"', 'pages': '"&amp;G45&amp;"', 'search': '"&amp;K45&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '44', 'template_type': 'Section', 'name': 'Hospital Course Section  [1.3.6.1.4.1.19376.1.5.3.1.3.5[314-315', 'name2': 'Hospital Course Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.5', 'pageStart': '314', 'pages': '314-315', 'search': 'Hospital Course Section  1.3.6.1.4.1.19376.1.5.3.1.3.5 CONF:81-7852;CONF:81-10459;CONF:81-15487;CONF:81-15488;CONF:81-26480;CONF:81-7854;CONF:81-7855' },</v>
       </c>
       <c r="N45" t="str">
-        <f>"'"&amp;D45&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.5',</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -8739,21 +8739,21 @@
         <v>594</v>
       </c>
       <c r="K46" t="str">
-        <f>B46&amp;" "&amp;D46&amp;" "&amp;J46</f>
+        <f t="shared" si="0"/>
         <v>Hospital Discharge Instructions Section  2.16.840.1.113883.10.20.22.2.41 CONF:81-9919;CONF:81-10395;CONF:81-15357;CONF:81-15358;CONF:81-26481;CONF:81-9921;CONF:81-9922</v>
       </c>
       <c r="M46" t="str">
-        <f>"{ 'id': '"&amp;A46&amp;"', 'template_type': '"&amp;C46&amp;"', 'name': '"&amp;B46&amp;" ["&amp;D46&amp;"["&amp;G46&amp;"', 'name2': '"&amp;B46&amp;"', 'template': '"&amp;D46&amp;"', 'pageStart': '"&amp;E46&amp;"', 'pages': '"&amp;G46&amp;"', 'search': '"&amp;K46&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '45', 'template_type': 'Section', 'name': 'Hospital Discharge Instructions Section  [2.16.840.1.113883.10.20.22.2.41[315-316', 'name2': 'Hospital Discharge Instructions Section ', 'template': '2.16.840.1.113883.10.20.22.2.41', 'pageStart': '315', 'pages': '315-316', 'search': 'Hospital Discharge Instructions Section  2.16.840.1.113883.10.20.22.2.41 CONF:81-9919;CONF:81-10395;CONF:81-15357;CONF:81-15358;CONF:81-26481;CONF:81-9921;CONF:81-9922' },</v>
       </c>
       <c r="N46" t="str">
-        <f>"'"&amp;D46&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.41',</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -8782,21 +8782,21 @@
         <v>595</v>
       </c>
       <c r="K47" t="str">
-        <f>B47&amp;" "&amp;D47&amp;" "&amp;J47</f>
+        <f t="shared" si="0"/>
         <v>Hospital Discharge Physical Section  1.3.6.1.4.1.19376.1.5.3.1.3.26 CONF:81-7971;CONF:81-10460;CONF:81-15363;CONF:81-15364;CONF:81-26482;CONF:81-7973;CONF:81-7974</v>
       </c>
       <c r="M47" t="str">
-        <f>"{ 'id': '"&amp;A47&amp;"', 'template_type': '"&amp;C47&amp;"', 'name': '"&amp;B47&amp;" ["&amp;D47&amp;"["&amp;G47&amp;"', 'name2': '"&amp;B47&amp;"', 'template': '"&amp;D47&amp;"', 'pageStart': '"&amp;E47&amp;"', 'pages': '"&amp;G47&amp;"', 'search': '"&amp;K47&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '46', 'template_type': 'Section', 'name': 'Hospital Discharge Physical Section  [1.3.6.1.4.1.19376.1.5.3.1.3.26[316-318', 'name2': 'Hospital Discharge Physical Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.26', 'pageStart': '316', 'pages': '316-318', 'search': 'Hospital Discharge Physical Section  1.3.6.1.4.1.19376.1.5.3.1.3.26 CONF:81-7971;CONF:81-10460;CONF:81-15363;CONF:81-15364;CONF:81-26482;CONF:81-7973;CONF:81-7974' },</v>
       </c>
       <c r="N47" t="str">
-        <f>"'"&amp;D47&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.26',</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -8825,21 +8825,21 @@
         <v>596</v>
       </c>
       <c r="K48" t="str">
-        <f>B48&amp;" "&amp;D48&amp;" "&amp;J48</f>
+        <f t="shared" si="0"/>
         <v>Hospital Discharge Studies Summary Section 2.16.840.1.113883.10.20.22.2.16 CONF:81-7910;CONF:81-10398;CONF:81-15365;CONF:81-15366;CONF:81-26483;CONF:81-7912;CONF:81-7913</v>
       </c>
       <c r="M48" t="str">
-        <f>"{ 'id': '"&amp;A48&amp;"', 'template_type': '"&amp;C48&amp;"', 'name': '"&amp;B48&amp;" ["&amp;D48&amp;"["&amp;G48&amp;"', 'name2': '"&amp;B48&amp;"', 'template': '"&amp;D48&amp;"', 'pageStart': '"&amp;E48&amp;"', 'pages': '"&amp;G48&amp;"', 'search': '"&amp;K48&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '47', 'template_type': 'Section', 'name': 'Hospital Discharge Studies Summary Section [2.16.840.1.113883.10.20.22.2.16[318-320', 'name2': 'Hospital Discharge Studies Summary Section', 'template': '2.16.840.1.113883.10.20.22.2.16', 'pageStart': '318', 'pages': '318-320', 'search': 'Hospital Discharge Studies Summary Section 2.16.840.1.113883.10.20.22.2.16 CONF:81-7910;CONF:81-10398;CONF:81-15365;CONF:81-15366;CONF:81-26483;CONF:81-7912;CONF:81-7913' },</v>
       </c>
       <c r="N48" t="str">
-        <f>"'"&amp;D48&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.16',</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -8868,21 +8868,21 @@
         <v>597</v>
       </c>
       <c r="K49" t="str">
-        <f>B49&amp;" "&amp;D49&amp;" "&amp;J49</f>
+        <f t="shared" si="0"/>
         <v>Immunizations Section (entries optional)   2.16.840.1.113883.10.20.22.2.2 CONF:1198-7965;CONF:1198-10399;CONF:1198-32529;CONF:1198-15367;CONF:1198-15368;CONF:1198-32146;CONF:1198-7967;CONF:1198-7968;CONF:1198-7969;CONF:1198-15494</v>
       </c>
       <c r="M49" t="str">
-        <f>"{ 'id': '"&amp;A49&amp;"', 'template_type': '"&amp;C49&amp;"', 'name': '"&amp;B49&amp;" ["&amp;D49&amp;"["&amp;G49&amp;"', 'name2': '"&amp;B49&amp;"', 'template': '"&amp;D49&amp;"', 'pageStart': '"&amp;E49&amp;"', 'pages': '"&amp;G49&amp;"', 'search': '"&amp;K49&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '48', 'template_type': 'Section', 'name': 'Immunizations Section (entries optional)   [2.16.840.1.113883.10.20.22.2.2[320-321', 'name2': 'Immunizations Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.2', 'pageStart': '320', 'pages': '320-321', 'search': 'Immunizations Section (entries optional)   2.16.840.1.113883.10.20.22.2.2 CONF:1198-7965;CONF:1198-10399;CONF:1198-32529;CONF:1198-15367;CONF:1198-15368;CONF:1198-32146;CONF:1198-7967;CONF:1198-7968;CONF:1198-7969;CONF:1198-15494' },</v>
       </c>
       <c r="N49" t="str">
-        <f>"'"&amp;D49&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.2',</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -8911,21 +8911,21 @@
         <v>598</v>
       </c>
       <c r="K50" t="str">
-        <f>B50&amp;" "&amp;D50&amp;" "&amp;J50</f>
+        <f t="shared" si="0"/>
         <v>Immunizations Section (entries required)  2.16.840.1.113883.10.20.22.2.2.1 CONF:1198-32833;CONF:1198-9015;CONF:1198-10400;CONF:1198-32530;CONF:1198-15369;CONF:1198-15370;CONF:1198-32147;CONF:1198-9017;CONF:1198-9018;CONF:1198-9019;CONF:1198-15495</v>
       </c>
       <c r="M50" t="str">
-        <f>"{ 'id': '"&amp;A50&amp;"', 'template_type': '"&amp;C50&amp;"', 'name': '"&amp;B50&amp;" ["&amp;D50&amp;"["&amp;G50&amp;"', 'name2': '"&amp;B50&amp;"', 'template': '"&amp;D50&amp;"', 'pageStart': '"&amp;E50&amp;"', 'pages': '"&amp;G50&amp;"', 'search': '"&amp;K50&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '49', 'template_type': 'Section', 'name': 'Immunizations Section (entries required)  [2.16.840.1.113883.10.20.22.2.2.1[321-325', 'name2': 'Immunizations Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.2.1', 'pageStart': '321', 'pages': '321-325', 'search': 'Immunizations Section (entries required)  2.16.840.1.113883.10.20.22.2.2.1 CONF:1198-32833;CONF:1198-9015;CONF:1198-10400;CONF:1198-32530;CONF:1198-15369;CONF:1198-15370;CONF:1198-32147;CONF:1198-9017;CONF:1198-9018;CONF:1198-9019;CONF:1198-15495' },</v>
       </c>
       <c r="N50" t="str">
-        <f>"'"&amp;D50&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.2.1',</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -8954,21 +8954,21 @@
         <v>599</v>
       </c>
       <c r="K51" t="str">
-        <f>B51&amp;" "&amp;D51&amp;" "&amp;J51</f>
+        <f t="shared" si="0"/>
         <v>Implants Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.33 CONF:1098-8042;CONF:1098-32608;CONF:1098-32609;CONF:1098-15371;CONF:1098-15372;CONF:1098-26471;CONF:1098-8044;CONF:1098-8045</v>
       </c>
       <c r="M51" t="str">
-        <f>"{ 'id': '"&amp;A51&amp;"', 'template_type': '"&amp;C51&amp;"', 'name': '"&amp;B51&amp;" ["&amp;D51&amp;"["&amp;G51&amp;"', 'name2': '"&amp;B51&amp;"', 'template': '"&amp;D51&amp;"', 'pageStart': '"&amp;E51&amp;"', 'pages': '"&amp;G51&amp;"', 'search': '"&amp;K51&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '50', 'template_type': 'Section', 'name': 'Implants Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.33[325-326', 'name2': 'Implants Section (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.2.33', 'pageStart': '325', 'pages': '325-326', 'search': 'Implants Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.33 CONF:1098-8042;CONF:1098-32608;CONF:1098-32609;CONF:1098-15371;CONF:1098-15372;CONF:1098-26471;CONF:1098-8044;CONF:1098-8045' },</v>
       </c>
       <c r="N51" t="str">
-        <f>"'"&amp;D51&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.33',</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -8997,21 +8997,21 @@
         <v>600</v>
       </c>
       <c r="K52" t="str">
-        <f>B52&amp;" "&amp;D52&amp;" "&amp;J52</f>
+        <f t="shared" si="0"/>
         <v>Instructions Section   2.16.840.1.113883.10.20.22.2.45 CONF:1098-32835;CONF:1098-10112;CONF:1098-31384;CONF:1098-32599;CONF:1098-15375;CONF:1098-15376;CONF:1098-32148;CONF:1098-10114;CONF:1098-10115;CONF:1098-10116;CONF:1098-31398</v>
       </c>
       <c r="M52" t="str">
-        <f>"{ 'id': '"&amp;A52&amp;"', 'template_type': '"&amp;C52&amp;"', 'name': '"&amp;B52&amp;" ["&amp;D52&amp;"["&amp;G52&amp;"', 'name2': '"&amp;B52&amp;"', 'template': '"&amp;D52&amp;"', 'pageStart': '"&amp;E52&amp;"', 'pages': '"&amp;G52&amp;"', 'search': '"&amp;K52&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '51', 'template_type': 'Section', 'name': 'Instructions Section   [2.16.840.1.113883.10.20.22.2.45[326-328', 'name2': 'Instructions Section  ', 'template': '2.16.840.1.113883.10.20.22.2.45', 'pageStart': '326', 'pages': '326-328', 'search': 'Instructions Section   2.16.840.1.113883.10.20.22.2.45 CONF:1098-32835;CONF:1098-10112;CONF:1098-31384;CONF:1098-32599;CONF:1098-15375;CONF:1098-15376;CONF:1098-32148;CONF:1098-10114;CONF:1098-10115;CONF:1098-10116;CONF:1098-31398' },</v>
       </c>
       <c r="N52" t="str">
-        <f>"'"&amp;D52&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.45',</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -9040,21 +9040,21 @@
         <v>601</v>
       </c>
       <c r="K53" t="str">
-        <f>B53&amp;" "&amp;D53&amp;" "&amp;J53</f>
+        <f t="shared" si="0"/>
         <v>Interventions Section  2.16.840.1.113883.10.20.21.2.3 CONF:1198-8680;CONF:1198-10461;CONF:1198-32559;CONF:1198-15377;CONF:1198-15378;CONF:1198-30864;CONF:1198-8682;CONF:1198-8683;CONF:1198-30996;CONF:1198-30997;CONF:1198-32730;CONF:1198-32731;CONF:1198-32402;CONF:1198-32403</v>
       </c>
       <c r="M53" t="str">
-        <f>"{ 'id': '"&amp;A53&amp;"', 'template_type': '"&amp;C53&amp;"', 'name': '"&amp;B53&amp;" ["&amp;D53&amp;"["&amp;G53&amp;"', 'name2': '"&amp;B53&amp;"', 'template': '"&amp;D53&amp;"', 'pageStart': '"&amp;E53&amp;"', 'pages': '"&amp;G53&amp;"', 'search': '"&amp;K53&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '52', 'template_type': 'Section', 'name': 'Interventions Section  [2.16.840.1.113883.10.20.21.2.3[328-330', 'name2': 'Interventions Section ', 'template': '2.16.840.1.113883.10.20.21.2.3', 'pageStart': '328', 'pages': '328-330', 'search': 'Interventions Section  2.16.840.1.113883.10.20.21.2.3 CONF:1198-8680;CONF:1198-10461;CONF:1198-32559;CONF:1198-15377;CONF:1198-15378;CONF:1198-30864;CONF:1198-8682;CONF:1198-8683;CONF:1198-30996;CONF:1198-30997;CONF:1198-32730;CONF:1198-32731;CONF:1198-32402;CONF:1198-32403' },</v>
       </c>
       <c r="N53" t="str">
-        <f>"'"&amp;D53&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.21.2.3',</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -9083,21 +9083,21 @@
         <v>602</v>
       </c>
       <c r="K54" t="str">
-        <f>B54&amp;" "&amp;D54&amp;" "&amp;J54</f>
+        <f t="shared" si="0"/>
         <v>Medical (General) History Section  2.16.840.1.113883.10.20.22.2.39 CONF:81-8160;CONF:81-10403;CONF:81-15379;CONF:81-15380;CONF:81-26484;CONF:81-8162;CONF:81-8163</v>
       </c>
       <c r="M54" t="str">
-        <f>"{ 'id': '"&amp;A54&amp;"', 'template_type': '"&amp;C54&amp;"', 'name': '"&amp;B54&amp;" ["&amp;D54&amp;"["&amp;G54&amp;"', 'name2': '"&amp;B54&amp;"', 'template': '"&amp;D54&amp;"', 'pageStart': '"&amp;E54&amp;"', 'pages': '"&amp;G54&amp;"', 'search': '"&amp;K54&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '53', 'template_type': 'Section', 'name': 'Medical (General) History Section  [2.16.840.1.113883.10.20.22.2.39[330-331', 'name2': 'Medical (General) History Section ', 'template': '2.16.840.1.113883.10.20.22.2.39', 'pageStart': '330', 'pages': '330-331', 'search': 'Medical (General) History Section  2.16.840.1.113883.10.20.22.2.39 CONF:81-8160;CONF:81-10403;CONF:81-15379;CONF:81-15380;CONF:81-26484;CONF:81-8162;CONF:81-8163' },</v>
       </c>
       <c r="N54" t="str">
-        <f>"'"&amp;D54&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.39',</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -9126,21 +9126,21 @@
         <v>603</v>
       </c>
       <c r="K55" t="str">
-        <f>B55&amp;" "&amp;D55&amp;" "&amp;J55</f>
+        <f t="shared" si="0"/>
         <v>Medical Equipment Section   2.16.840.1.113883.10.20.22.2.23 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886</v>
       </c>
       <c r="M55" t="str">
-        <f>"{ 'id': '"&amp;A55&amp;"', 'template_type': '"&amp;C55&amp;"', 'name': '"&amp;B55&amp;" ["&amp;D55&amp;"["&amp;G55&amp;"', 'name2': '"&amp;B55&amp;"', 'template': '"&amp;D55&amp;"', 'pageStart': '"&amp;E55&amp;"', 'pages': '"&amp;G55&amp;"', 'search': '"&amp;K55&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '54', 'template_type': 'Section', 'name': 'Medical Equipment Section   [2.16.840.1.113883.10.20.22.2.23[331-334', 'name2': 'Medical Equipment Section  ', 'template': '2.16.840.1.113883.10.20.22.2.23', 'pageStart': '331', 'pages': '331-334', 'search': 'Medical Equipment Section   2.16.840.1.113883.10.20.22.2.23 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
       </c>
       <c r="N55" t="str">
-        <f>"'"&amp;D55&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.23',</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -9169,21 +9169,21 @@
         <v>604</v>
       </c>
       <c r="K56" t="str">
-        <f>B56&amp;" "&amp;D56&amp;" "&amp;J56</f>
+        <f t="shared" si="0"/>
         <v>Medications Administered Section   2.16.840.1.113883.10.20.22.2.38 CONF:1098-8152;CONF:1098-10405;CONF:1098-32525;CONF:1098-15383;CONF:1098-15384;CONF:1098-30829;CONF:1098-8154;CONF:1098-8155;CONF:1098-8156;CONF:1098-15499</v>
       </c>
       <c r="M56" t="str">
-        <f>"{ 'id': '"&amp;A56&amp;"', 'template_type': '"&amp;C56&amp;"', 'name': '"&amp;B56&amp;" ["&amp;D56&amp;"["&amp;G56&amp;"', 'name2': '"&amp;B56&amp;"', 'template': '"&amp;D56&amp;"', 'pageStart': '"&amp;E56&amp;"', 'pages': '"&amp;G56&amp;"', 'search': '"&amp;K56&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '55', 'template_type': 'Section', 'name': 'Medications Administered Section   [2.16.840.1.113883.10.20.22.2.38[334-337', 'name2': 'Medications Administered Section  ', 'template': '2.16.840.1.113883.10.20.22.2.38', 'pageStart': '334', 'pages': '334-337', 'search': 'Medications Administered Section   2.16.840.1.113883.10.20.22.2.38 CONF:1098-8152;CONF:1098-10405;CONF:1098-32525;CONF:1098-15383;CONF:1098-15384;CONF:1098-30829;CONF:1098-8154;CONF:1098-8155;CONF:1098-8156;CONF:1098-15499' },</v>
       </c>
       <c r="N56" t="str">
-        <f>"'"&amp;D56&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.38',</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -9212,21 +9212,21 @@
         <v>605</v>
       </c>
       <c r="K57" t="str">
-        <f>B57&amp;" "&amp;D57&amp;" "&amp;J57</f>
+        <f t="shared" si="0"/>
         <v>Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.1 CONF:1098-7791;CONF:1098-10432;CONF:1098-32500;CONF:1098-15385;CONF:1098-15386;CONF:1098-30824;CONF:1098-7793;CONF:1098-7794;CONF:1098-7795;CONF:1098-10076</v>
       </c>
       <c r="M57" t="str">
-        <f>"{ 'id': '"&amp;A57&amp;"', 'template_type': '"&amp;C57&amp;"', 'name': '"&amp;B57&amp;" ["&amp;D57&amp;"["&amp;G57&amp;"', 'name2': '"&amp;B57&amp;"', 'template': '"&amp;D57&amp;"', 'pageStart': '"&amp;E57&amp;"', 'pages': '"&amp;G57&amp;"', 'search': '"&amp;K57&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '56', 'template_type': 'Section', 'name': 'Medications Section (entries optional)  [2.16.840.1.113883.10.20.22.2.1[337-338', 'name2': 'Medications Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.1', 'pageStart': '337', 'pages': '337-338', 'search': 'Medications Section (entries optional)  2.16.840.1.113883.10.20.22.2.1 CONF:1098-7791;CONF:1098-10432;CONF:1098-32500;CONF:1098-15385;CONF:1098-15386;CONF:1098-30824;CONF:1098-7793;CONF:1098-7794;CONF:1098-7795;CONF:1098-10076' },</v>
       </c>
       <c r="N57" t="str">
-        <f>"'"&amp;D57&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.1',</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -9255,21 +9255,21 @@
         <v>606</v>
       </c>
       <c r="K58" t="str">
-        <f>B58&amp;" "&amp;D58&amp;" "&amp;J58</f>
+        <f t="shared" si="0"/>
         <v>Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.1.1 CONF:1098-32845;CONF:1098-7568;CONF:1098-10433;CONF:1098-32499;CONF:1098-15387;CONF:1098-15388;CONF:1098-30825;CONF:1098-7570;CONF:1098-7571;CONF:1098-7572;CONF:1098-10077</v>
       </c>
       <c r="M58" t="str">
-        <f>"{ 'id': '"&amp;A58&amp;"', 'template_type': '"&amp;C58&amp;"', 'name': '"&amp;B58&amp;" ["&amp;D58&amp;"["&amp;G58&amp;"', 'name2': '"&amp;B58&amp;"', 'template': '"&amp;D58&amp;"', 'pageStart': '"&amp;E58&amp;"', 'pages': '"&amp;G58&amp;"', 'search': '"&amp;K58&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '57', 'template_type': 'Section', 'name': 'Medications Section (entries required)   [2.16.840.1.113883.10.20.22.2.1.1[338-340', 'name2': 'Medications Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.1.1', 'pageStart': '338', 'pages': '338-340', 'search': 'Medications Section (entries required)   2.16.840.1.113883.10.20.22.2.1.1 CONF:1098-32845;CONF:1098-7568;CONF:1098-10433;CONF:1098-32499;CONF:1098-15387;CONF:1098-15388;CONF:1098-30825;CONF:1098-7570;CONF:1098-7571;CONF:1098-7572;CONF:1098-10077' },</v>
       </c>
       <c r="N58" t="str">
-        <f>"'"&amp;D58&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.1.1',</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -9298,21 +9298,21 @@
         <v>607</v>
       </c>
       <c r="K59" t="str">
-        <f>B59&amp;" "&amp;D59&amp;" "&amp;J59</f>
+        <f t="shared" si="0"/>
         <v>Mental Status Section   2.16.840.1.113883.10.20.22.2.56 CONF:1198-28293;CONF:1198-28294;CONF:1198-32793;CONF:1198-28295;CONF:1198-28296;CONF:1198-30826;CONF:1198-28297;CONF:1198-28298;CONF:1198-28301;CONF:1198-28302;CONF:1198-28305;CONF:1198-28306;CONF:1198-28313;CONF:1198-28314</v>
       </c>
       <c r="M59" t="str">
-        <f>"{ 'id': '"&amp;A59&amp;"', 'template_type': '"&amp;C59&amp;"', 'name': '"&amp;B59&amp;" ["&amp;D59&amp;"["&amp;G59&amp;"', 'name2': '"&amp;B59&amp;"', 'template': '"&amp;D59&amp;"', 'pageStart': '"&amp;E59&amp;"', 'pages': '"&amp;G59&amp;"', 'search': '"&amp;K59&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '58', 'template_type': 'Section', 'name': 'Mental Status Section   [2.16.840.1.113883.10.20.22.2.56[340-345', 'name2': 'Mental Status Section  ', 'template': '2.16.840.1.113883.10.20.22.2.56', 'pageStart': '340', 'pages': '340-345', 'search': 'Mental Status Section   2.16.840.1.113883.10.20.22.2.56 CONF:1198-28293;CONF:1198-28294;CONF:1198-32793;CONF:1198-28295;CONF:1198-28296;CONF:1198-30826;CONF:1198-28297;CONF:1198-28298;CONF:1198-28301;CONF:1198-28302;CONF:1198-28305;CONF:1198-28306;CONF:1198-28313;CONF:1198-28314' },</v>
       </c>
       <c r="N59" t="str">
-        <f>"'"&amp;D59&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.56',</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -9339,21 +9339,21 @@
         <v>CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;</v>
       </c>
       <c r="K60" t="str">
-        <f>B60&amp;" "&amp;D60&amp;" "&amp;J60</f>
+        <f t="shared" si="0"/>
         <v>Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;</v>
       </c>
       <c r="M60" t="str">
-        <f>"{ 'id': '"&amp;A60&amp;"', 'template_type': '"&amp;C60&amp;"', 'name': '"&amp;B60&amp;" ["&amp;D60&amp;"["&amp;G60&amp;"', 'name2': '"&amp;B60&amp;"', 'template': '"&amp;D60&amp;"', 'pageStart': '"&amp;E60&amp;"', 'pages': '"&amp;G60&amp;"', 'search': '"&amp;K60&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '59', 'template_type': 'Section', 'name': 'Notes Section (Companion Guide) [2.16.840.1.113883.10.20.22.2.65[CG_A_63-68', 'name2': 'Notes Section (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.2.65', 'pageStart': '1063', 'pages': 'CG_A_63-68', 'search': 'Notes Section (Companion Guide) 2.16.840.1.113883.10.20.22.2.65 CONF:3250-16935;CONF:3250-16936;CONF:3250-16938;CONF:3250-16892;CONF:3250-16891;CONF:3250-16894;CONF:3250-16904;CONF:3250-16905;' },</v>
       </c>
       <c r="N60" t="str">
-        <f>"'"&amp;D60&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.65',</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -9382,21 +9382,21 @@
         <v>608</v>
       </c>
       <c r="K61" t="str">
-        <f>B61&amp;" "&amp;D61&amp;" "&amp;J61</f>
+        <f t="shared" si="0"/>
         <v>Nutrition Section 2.16.840.1.113883.10.20.22.2.57 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322</v>
       </c>
       <c r="M61" t="str">
-        <f>"{ 'id': '"&amp;A61&amp;"', 'template_type': '"&amp;C61&amp;"', 'name': '"&amp;B61&amp;" ["&amp;D61&amp;"["&amp;G61&amp;"', 'name2': '"&amp;B61&amp;"', 'template': '"&amp;D61&amp;"', 'pageStart': '"&amp;E61&amp;"', 'pages': '"&amp;G61&amp;"', 'search': '"&amp;K61&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '60', 'template_type': 'Section', 'name': 'Nutrition Section [2.16.840.1.113883.10.20.22.2.57[345-347', 'name2': 'Nutrition Section', 'template': '2.16.840.1.113883.10.20.22.2.57', 'pageStart': '345', 'pages': '345-347', 'search': 'Nutrition Section 2.16.840.1.113883.10.20.22.2.57 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
       </c>
       <c r="N61" t="str">
-        <f>"'"&amp;D61&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.22.2.57',</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -9425,21 +9425,21 @@
         <v>609</v>
       </c>
       <c r="K62" t="str">
-        <f>B62&amp;" "&amp;D62&amp;" "&amp;J62</f>
+        <f t="shared" si="0"/>
         <v>Objective Section 2.16.840.1.113883.10.20.21.2.1 CONF:81-7869;CONF:81-10462;CONF:81-15389;CONF:81-15390;CONF:81-26485;CONF:81-7871;CONF:81-7872</v>
       </c>
       <c r="M62" t="str">
-        <f>"{ 'id': '"&amp;A62&amp;"', 'template_type': '"&amp;C62&amp;"', 'name': '"&amp;B62&amp;" ["&amp;D62&amp;"["&amp;G62&amp;"', 'name2': '"&amp;B62&amp;"', 'template': '"&amp;D62&amp;"', 'pageStart': '"&amp;E62&amp;"', 'pages': '"&amp;G62&amp;"', 'search': '"&amp;K62&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '61', 'template_type': 'Section', 'name': 'Objective Section [2.16.840.1.113883.10.20.21.2.1[347-348', 'name2': 'Objective Section', 'template': '2.16.840.1.113883.10.20.21.2.1', 'pageStart': '347', 'pages': '347-348', 'search': 'Objective Section 2.16.840.1.113883.10.20.21.2.1 CONF:81-7869;CONF:81-10462;CONF:81-15389;CONF:81-15390;CONF:81-26485;CONF:81-7871;CONF:81-7872' },</v>
       </c>
       <c r="N62" t="str">
-        <f>"'"&amp;D62&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.21.2.1',</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -9468,21 +9468,21 @@
         <v>610</v>
       </c>
       <c r="K63" t="str">
-        <f>B63&amp;" "&amp;D63&amp;" "&amp;J63</f>
+        <f t="shared" si="0"/>
         <v>Observer Context  2.16.840.1.113883.10.20.6.2.4 CONF:81-9194;CONF:81-10536;CONF:81-9196;CONF:81-9198</v>
       </c>
       <c r="M63" t="str">
-        <f>"{ 'id': '"&amp;A63&amp;"', 'template_type': '"&amp;C63&amp;"', 'name': '"&amp;B63&amp;" ["&amp;D63&amp;"["&amp;G63&amp;"', 'name2': '"&amp;B63&amp;"', 'template': '"&amp;D63&amp;"', 'pageStart': '"&amp;E63&amp;"', 'pages': '"&amp;G63&amp;"', 'search': '"&amp;K63&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '62', 'template_type': 'Section', 'name': 'Observer Context  [2.16.840.1.113883.10.20.6.2.4[348-349', 'name2': 'Observer Context ', 'template': '2.16.840.1.113883.10.20.6.2.4', 'pageStart': '348', 'pages': '348-349', 'search': 'Observer Context  2.16.840.1.113883.10.20.6.2.4 CONF:81-9194;CONF:81-10536;CONF:81-9196;CONF:81-9198' },</v>
       </c>
       <c r="N63" t="str">
-        <f>"'"&amp;D63&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.6.2.4',</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -9511,21 +9511,21 @@
         <v>611</v>
       </c>
       <c r="K64" t="str">
-        <f>B64&amp;" "&amp;D64&amp;" "&amp;J64</f>
+        <f t="shared" si="0"/>
         <v>Operative Note Fluids Section 2.16.840.1.113883.10.20.7.12 CONF:81-8030;CONF:81-10463;CONF:81-15391;CONF:81-15392;CONF:81-26486;CONF:81-8032;CONF:81-8033;CONF:81-8052</v>
       </c>
       <c r="M64" t="str">
-        <f>"{ 'id': '"&amp;A64&amp;"', 'template_type': '"&amp;C64&amp;"', 'name': '"&amp;B64&amp;" ["&amp;D64&amp;"["&amp;G64&amp;"', 'name2': '"&amp;B64&amp;"', 'template': '"&amp;D64&amp;"', 'pageStart': '"&amp;E64&amp;"', 'pages': '"&amp;G64&amp;"', 'search': '"&amp;K64&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '63', 'template_type': 'Section', 'name': 'Operative Note Fluids Section [2.16.840.1.113883.10.20.7.12[349-350', 'name2': 'Operative Note Fluids Section', 'template': '2.16.840.1.113883.10.20.7.12', 'pageStart': '349', 'pages': '349-350', 'search': 'Operative Note Fluids Section 2.16.840.1.113883.10.20.7.12 CONF:81-8030;CONF:81-10463;CONF:81-15391;CONF:81-15392;CONF:81-26486;CONF:81-8032;CONF:81-8033;CONF:81-8052' },</v>
       </c>
       <c r="N64" t="str">
-        <f>"'"&amp;D64&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.7.12',</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -9554,21 +9554,21 @@
         <v>612</v>
       </c>
       <c r="K65" t="str">
-        <f>B65&amp;" "&amp;D65&amp;" "&amp;J65</f>
+        <f t="shared" si="0"/>
         <v>Operative Note Surgical Procedure Section 2.16.840.1.113883.10.20.7.14 CONF:81-8034;CONF:81-10464;CONF:81-15393;CONF:81-15394;CONF:81-26487;CONF:81-8036;CONF:81-8037;CONF:81-8054</v>
       </c>
       <c r="M65" t="str">
-        <f>"{ 'id': '"&amp;A65&amp;"', 'template_type': '"&amp;C65&amp;"', 'name': '"&amp;B65&amp;" ["&amp;D65&amp;"["&amp;G65&amp;"', 'name2': '"&amp;B65&amp;"', 'template': '"&amp;D65&amp;"', 'pageStart': '"&amp;E65&amp;"', 'pages': '"&amp;G65&amp;"', 'search': '"&amp;K65&amp;"' },"</f>
+        <f t="shared" si="1"/>
         <v>{ 'id': '64', 'template_type': 'Section', 'name': 'Operative Note Surgical Procedure Section [2.16.840.1.113883.10.20.7.14[350-352', 'name2': 'Operative Note Surgical Procedure Section', 'template': '2.16.840.1.113883.10.20.7.14', 'pageStart': '350', 'pages': '350-352', 'search': 'Operative Note Surgical Procedure Section 2.16.840.1.113883.10.20.7.14 CONF:81-8034;CONF:81-10464;CONF:81-15393;CONF:81-15394;CONF:81-26487;CONF:81-8036;CONF:81-8037;CONF:81-8054' },</v>
       </c>
       <c r="N65" t="str">
-        <f>"'"&amp;D65&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'2.16.840.1.113883.10.20.7.14',</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -9597,21 +9597,21 @@
         <v>613</v>
       </c>
       <c r="K66" t="str">
-        <f>B66&amp;" "&amp;D66&amp;" "&amp;J66</f>
+        <f t="shared" ref="K66:K129" si="4">B66&amp;" "&amp;D66&amp;" "&amp;J66</f>
         <v>Past Medical History  2.16.840.1.113883.10.20.22.2.20 CONF:1198-7828;CONF:1198-10390;CONF:1198-32536;CONF:1198-15474;CONF:1198-15475;CONF:1198-30831;CONF:1198-7830;CONF:1198-7831;CONF:1198-8791;CONF:1198-15476</v>
       </c>
       <c r="M66" t="str">
-        <f>"{ 'id': '"&amp;A66&amp;"', 'template_type': '"&amp;C66&amp;"', 'name': '"&amp;B66&amp;" ["&amp;D66&amp;"["&amp;G66&amp;"', 'name2': '"&amp;B66&amp;"', 'template': '"&amp;D66&amp;"', 'pageStart': '"&amp;E66&amp;"', 'pages': '"&amp;G66&amp;"', 'search': '"&amp;K66&amp;"' },"</f>
+        <f t="shared" ref="M66:M129" si="5">"{ 'id': '"&amp;A66&amp;"', 'template_type': '"&amp;C66&amp;"', 'name': '"&amp;B66&amp;" ["&amp;D66&amp;"["&amp;G66&amp;"', 'name2': '"&amp;B66&amp;"', 'template': '"&amp;D66&amp;"', 'pageStart': '"&amp;E66&amp;"', 'pages': '"&amp;G66&amp;"', 'search': '"&amp;K66&amp;"' },"</f>
         <v>{ 'id': '65', 'template_type': 'Section', 'name': 'Past Medical History  [2.16.840.1.113883.10.20.22.2.20[352-353', 'name2': 'Past Medical History ', 'template': '2.16.840.1.113883.10.20.22.2.20', 'pageStart': '352', 'pages': '352-353', 'search': 'Past Medical History  2.16.840.1.113883.10.20.22.2.20 CONF:1198-7828;CONF:1198-10390;CONF:1198-32536;CONF:1198-15474;CONF:1198-15475;CONF:1198-30831;CONF:1198-7830;CONF:1198-7831;CONF:1198-8791;CONF:1198-15476' },</v>
       </c>
       <c r="N66" t="str">
-        <f>"'"&amp;D66&amp;"',"</f>
+        <f t="shared" ref="N66:N129" si="6">"'"&amp;D66&amp;"',"</f>
         <v>'2.16.840.1.113883.10.20.22.2.20',</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -9640,21 +9640,21 @@
         <v>614</v>
       </c>
       <c r="K67" t="str">
-        <f>B67&amp;" "&amp;D67&amp;" "&amp;J67</f>
+        <f t="shared" si="4"/>
         <v>Payers Section  2.16.840.1.113883.10.20.22.2.18 CONF:1198-7924;CONF:1198-10434;CONF:1198-32597;CONF:1198-15395;CONF:1198-15396;CONF:1198-32149;CONF:1198-7926;CONF:1198-7927;CONF:1198-7959;CONF:1198-15501</v>
       </c>
       <c r="M67" t="str">
-        <f>"{ 'id': '"&amp;A67&amp;"', 'template_type': '"&amp;C67&amp;"', 'name': '"&amp;B67&amp;" ["&amp;D67&amp;"["&amp;G67&amp;"', 'name2': '"&amp;B67&amp;"', 'template': '"&amp;D67&amp;"', 'pageStart': '"&amp;E67&amp;"', 'pages': '"&amp;G67&amp;"', 'search': '"&amp;K67&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '66', 'template_type': 'Section', 'name': 'Payers Section  [2.16.840.1.113883.10.20.22.2.18[353-356', 'name2': 'Payers Section ', 'template': '2.16.840.1.113883.10.20.22.2.18', 'pageStart': '353', 'pages': '353-356', 'search': 'Payers Section  2.16.840.1.113883.10.20.22.2.18 CONF:1198-7924;CONF:1198-10434;CONF:1198-32597;CONF:1198-15395;CONF:1198-15396;CONF:1198-32149;CONF:1198-7926;CONF:1198-7927;CONF:1198-7959;CONF:1198-15501' },</v>
       </c>
       <c r="N67" t="str">
-        <f>"'"&amp;D67&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.18',</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="1">+A67+1</f>
+        <f t="shared" ref="A68:A131" si="7">+A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -9683,21 +9683,21 @@
         <v>615</v>
       </c>
       <c r="K68" t="str">
-        <f>B68&amp;" "&amp;D68&amp;" "&amp;J68</f>
+        <f t="shared" si="4"/>
         <v>Physical Exam Section   2.16.840.1.113883.10.20.2.10 CONF:1198-7806;CONF:1198-10465;CONF:1198-32587;CONF:1198-15397;CONF:1198-15398;CONF:1198-30931;CONF:1198-7808;CONF:1198-7809;CONF:1198-31926;CONF:1198-31927;CONF:1198-32434;CONF:1198-32435;CONF:1198-32436;CONF:1198-32437;CONF:1198-32438</v>
       </c>
       <c r="M68" t="str">
-        <f>"{ 'id': '"&amp;A68&amp;"', 'template_type': '"&amp;C68&amp;"', 'name': '"&amp;B68&amp;" ["&amp;D68&amp;"["&amp;G68&amp;"', 'name2': '"&amp;B68&amp;"', 'template': '"&amp;D68&amp;"', 'pageStart': '"&amp;E68&amp;"', 'pages': '"&amp;G68&amp;"', 'search': '"&amp;K68&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '67', 'template_type': 'Section', 'name': 'Physical Exam Section   [2.16.840.1.113883.10.20.2.10[356-360', 'name2': 'Physical Exam Section  ', 'template': '2.16.840.1.113883.10.20.2.10', 'pageStart': '356', 'pages': '356-360', 'search': 'Physical Exam Section   2.16.840.1.113883.10.20.2.10 CONF:1198-7806;CONF:1198-10465;CONF:1198-32587;CONF:1198-15397;CONF:1198-15398;CONF:1198-30931;CONF:1198-7808;CONF:1198-7809;CONF:1198-31926;CONF:1198-31927;CONF:1198-32434;CONF:1198-32435;CONF:1198-32436;CONF:1198-32437;CONF:1198-32438' },</v>
       </c>
       <c r="N68" t="str">
-        <f>"'"&amp;D68&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.2.10',</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -9726,21 +9726,21 @@
         <v>616</v>
       </c>
       <c r="K69" t="str">
-        <f>B69&amp;" "&amp;D69&amp;" "&amp;J69</f>
+        <f t="shared" si="4"/>
         <v>Plan of Treatment Section  2.16.840.1.113883.10.20.22.2.10 CONF:1098-7723;CONF:1098-10435;CONF:1098-32501;CONF:1098-14749;CONF:1098-14750;CONF:1098-30813;CONF:1098-16986;CONF:1098-7725;CONF:1098-7726;CONF:1098-14751;CONF:1098-8805;CONF:1098-30472;CONF:1098-8807;CONF:1098-30473;CONF:1098-8809;CONF:1098-30474;CONF:1098-8811;CONF:1098-30475;CONF:1098-8813;CONF:1098-30476;CONF:1098-14695;CONF:1098-31397;CONF:1098-29621;CONF:1098-30868;CONF:1098-31841;CONF:1098-31864;CONF:1098-32353;CONF:1098-32354;CONF:1098-32887;CONF:1098-32888</v>
       </c>
       <c r="M69" t="str">
-        <f>"{ 'id': '"&amp;A69&amp;"', 'template_type': '"&amp;C69&amp;"', 'name': '"&amp;B69&amp;" ["&amp;D69&amp;"["&amp;G69&amp;"', 'name2': '"&amp;B69&amp;"', 'template': '"&amp;D69&amp;"', 'pageStart': '"&amp;E69&amp;"', 'pages': '"&amp;G69&amp;"', 'search': '"&amp;K69&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '68', 'template_type': 'Section', 'name': 'Plan of Treatment Section  [2.16.840.1.113883.10.20.22.2.10[360-365', 'name2': 'Plan of Treatment Section ', 'template': '2.16.840.1.113883.10.20.22.2.10', 'pageStart': '360', 'pages': '360-365', 'search': 'Plan of Treatment Section  2.16.840.1.113883.10.20.22.2.10 CONF:1098-7723;CONF:1098-10435;CONF:1098-32501;CONF:1098-14749;CONF:1098-14750;CONF:1098-30813;CONF:1098-16986;CONF:1098-7725;CONF:1098-7726;CONF:1098-14751;CONF:1098-8805;CONF:1098-30472;CONF:1098-8807;CONF:1098-30473;CONF:1098-8809;CONF:1098-30474;CONF:1098-8811;CONF:1098-30475;CONF:1098-8813;CONF:1098-30476;CONF:1098-14695;CONF:1098-31397;CONF:1098-29621;CONF:1098-30868;CONF:1098-31841;CONF:1098-31864;CONF:1098-32353;CONF:1098-32354;CONF:1098-32887;CONF:1098-32888' },</v>
       </c>
       <c r="N69" t="str">
-        <f>"'"&amp;D69&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.10',</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -9769,21 +9769,21 @@
         <v>617</v>
       </c>
       <c r="K70" t="str">
-        <f>B70&amp;" "&amp;D70&amp;" "&amp;J70</f>
+        <f t="shared" si="4"/>
         <v>Planned Procedure Section   2.16.840.1.113883.10.20.22.2.30 CONF:1098-8082;CONF:1098-10436;CONF:1098-32590;CONF:1098-15399;CONF:1098-15400;CONF:1098-32151;CONF:1098-8084;CONF:1098-8085;CONF:1098-8744;CONF:1098-15502</v>
       </c>
       <c r="M70" t="str">
-        <f>"{ 'id': '"&amp;A70&amp;"', 'template_type': '"&amp;C70&amp;"', 'name': '"&amp;B70&amp;" ["&amp;D70&amp;"["&amp;G70&amp;"', 'name2': '"&amp;B70&amp;"', 'template': '"&amp;D70&amp;"', 'pageStart': '"&amp;E70&amp;"', 'pages': '"&amp;G70&amp;"', 'search': '"&amp;K70&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '69', 'template_type': 'Section', 'name': 'Planned Procedure Section   [2.16.840.1.113883.10.20.22.2.30[365-367', 'name2': 'Planned Procedure Section  ', 'template': '2.16.840.1.113883.10.20.22.2.30', 'pageStart': '365', 'pages': '365-367', 'search': 'Planned Procedure Section   2.16.840.1.113883.10.20.22.2.30 CONF:1098-8082;CONF:1098-10436;CONF:1098-32590;CONF:1098-15399;CONF:1098-15400;CONF:1098-32151;CONF:1098-8084;CONF:1098-8085;CONF:1098-8744;CONF:1098-15502' },</v>
       </c>
       <c r="N70" t="str">
-        <f>"'"&amp;D70&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.30',</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -9812,21 +9812,21 @@
         <v>618</v>
       </c>
       <c r="K71" t="str">
-        <f>B71&amp;" "&amp;D71&amp;" "&amp;J71</f>
+        <f t="shared" si="4"/>
         <v>Postoperative Diagnosis Section 2.16.840.1.113883.10.20.22.2.35 CONF:81-8101;CONF:81-10437;CONF:81-15401;CONF:81-15402;CONF:81-26488;CONF:81-8103;CONF:81-8104</v>
       </c>
       <c r="M71" t="str">
-        <f>"{ 'id': '"&amp;A71&amp;"', 'template_type': '"&amp;C71&amp;"', 'name': '"&amp;B71&amp;" ["&amp;D71&amp;"["&amp;G71&amp;"', 'name2': '"&amp;B71&amp;"', 'template': '"&amp;D71&amp;"', 'pageStart': '"&amp;E71&amp;"', 'pages': '"&amp;G71&amp;"', 'search': '"&amp;K71&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '70', 'template_type': 'Section', 'name': 'Postoperative Diagnosis Section [2.16.840.1.113883.10.20.22.2.35[367-368', 'name2': 'Postoperative Diagnosis Section', 'template': '2.16.840.1.113883.10.20.22.2.35', 'pageStart': '367', 'pages': '367-368', 'search': 'Postoperative Diagnosis Section 2.16.840.1.113883.10.20.22.2.35 CONF:81-8101;CONF:81-10437;CONF:81-15401;CONF:81-15402;CONF:81-26488;CONF:81-8103;CONF:81-8104' },</v>
       </c>
       <c r="N71" t="str">
-        <f>"'"&amp;D71&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.35',</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -9855,21 +9855,21 @@
         <v>619</v>
       </c>
       <c r="K72" t="str">
-        <f>B72&amp;" "&amp;D72&amp;" "&amp;J72</f>
+        <f t="shared" si="4"/>
         <v>Postprocedure Diagnosis Section   2.16.840.1.113883.10.20.22.2.36 CONF:1198-8167;CONF:1198-10438;CONF:1198-32550;CONF:1198-15403;CONF:1198-15404;CONF:1198-30862;CONF:1198-8170;CONF:1198-8171;CONF:1198-8762;CONF:1198-15503</v>
       </c>
       <c r="M72" t="str">
-        <f>"{ 'id': '"&amp;A72&amp;"', 'template_type': '"&amp;C72&amp;"', 'name': '"&amp;B72&amp;" ["&amp;D72&amp;"["&amp;G72&amp;"', 'name2': '"&amp;B72&amp;"', 'template': '"&amp;D72&amp;"', 'pageStart': '"&amp;E72&amp;"', 'pages': '"&amp;G72&amp;"', 'search': '"&amp;K72&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '71', 'template_type': 'Section', 'name': 'Postprocedure Diagnosis Section   [2.16.840.1.113883.10.20.22.2.36[368-370', 'name2': 'Postprocedure Diagnosis Section  ', 'template': '2.16.840.1.113883.10.20.22.2.36', 'pageStart': '368', 'pages': '368-370', 'search': 'Postprocedure Diagnosis Section   2.16.840.1.113883.10.20.22.2.36 CONF:1198-8167;CONF:1198-10438;CONF:1198-32550;CONF:1198-15403;CONF:1198-15404;CONF:1198-30862;CONF:1198-8170;CONF:1198-8171;CONF:1198-8762;CONF:1198-15503' },</v>
       </c>
       <c r="N72" t="str">
-        <f>"'"&amp;D72&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.36',</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -9898,21 +9898,21 @@
         <v>620</v>
       </c>
       <c r="K73" t="str">
-        <f>B73&amp;" "&amp;D73&amp;" "&amp;J73</f>
+        <f t="shared" si="4"/>
         <v>Preoperative Diagnosis Section   2.16.840.1.113883.10.20.22.2.34 CONF:1198-8097;CONF:1198-10439;CONF:1198-32551;CONF:1198-15405;CONF:1198-15406;CONF:1198-30863;CONF:1198-8099;CONF:1198-8100;CONF:1198-10096;CONF:1198-15504</v>
       </c>
       <c r="M73" t="str">
-        <f>"{ 'id': '"&amp;A73&amp;"', 'template_type': '"&amp;C73&amp;"', 'name': '"&amp;B73&amp;" ["&amp;D73&amp;"["&amp;G73&amp;"', 'name2': '"&amp;B73&amp;"', 'template': '"&amp;D73&amp;"', 'pageStart': '"&amp;E73&amp;"', 'pages': '"&amp;G73&amp;"', 'search': '"&amp;K73&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '72', 'template_type': 'Section', 'name': 'Preoperative Diagnosis Section   [2.16.840.1.113883.10.20.22.2.34[370-372', 'name2': 'Preoperative Diagnosis Section  ', 'template': '2.16.840.1.113883.10.20.22.2.34', 'pageStart': '370', 'pages': '370-372', 'search': 'Preoperative Diagnosis Section   2.16.840.1.113883.10.20.22.2.34 CONF:1198-8097;CONF:1198-10439;CONF:1198-32551;CONF:1198-15405;CONF:1198-15406;CONF:1198-30863;CONF:1198-8099;CONF:1198-8100;CONF:1198-10096;CONF:1198-15504' },</v>
       </c>
       <c r="N73" t="str">
-        <f>"'"&amp;D73&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.34',</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -9941,21 +9941,21 @@
         <v>621</v>
       </c>
       <c r="K74" t="str">
-        <f>B74&amp;" "&amp;D74&amp;" "&amp;J74</f>
+        <f t="shared" si="4"/>
         <v>Problem Section (entries optional)  2.16.840.1.113883.10.20.22.2.5 CONF:1198-7877;CONF:1198-10440;CONF:1198-32511;CONF:1198-15407;CONF:1198-15408;CONF:1198-31141;CONF:1198-7879;CONF:1198-7880;CONF:1198-7881;CONF:1198-15505;CONF:1198-30481;CONF:1198-30482</v>
       </c>
       <c r="M74" t="str">
-        <f>"{ 'id': '"&amp;A74&amp;"', 'template_type': '"&amp;C74&amp;"', 'name': '"&amp;B74&amp;" ["&amp;D74&amp;"["&amp;G74&amp;"', 'name2': '"&amp;B74&amp;"', 'template': '"&amp;D74&amp;"', 'pageStart': '"&amp;E74&amp;"', 'pages': '"&amp;G74&amp;"', 'search': '"&amp;K74&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '73', 'template_type': 'Section', 'name': 'Problem Section (entries optional)  [2.16.840.1.113883.10.20.22.2.5[372-374', 'name2': 'Problem Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.5', 'pageStart': '372', 'pages': '372-374', 'search': 'Problem Section (entries optional)  2.16.840.1.113883.10.20.22.2.5 CONF:1198-7877;CONF:1198-10440;CONF:1198-32511;CONF:1198-15407;CONF:1198-15408;CONF:1198-31141;CONF:1198-7879;CONF:1198-7880;CONF:1198-7881;CONF:1198-15505;CONF:1198-30481;CONF:1198-30482' },</v>
       </c>
       <c r="N74" t="str">
-        <f>"'"&amp;D74&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.5',</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -9984,21 +9984,21 @@
         <v>622</v>
       </c>
       <c r="K75" t="str">
-        <f>B75&amp;" "&amp;D75&amp;" "&amp;J75</f>
+        <f t="shared" si="4"/>
         <v>Problem Section (entries required)   2.16.840.1.113883.10.20.22.2.5.1 CONF:1198-32864;CONF:1198-9179;CONF:1198-10441;CONF:1198-32510;CONF:1198-15409;CONF:1198-15410;CONF:1198-31142;CONF:1198-9181;CONF:1198-9182;CONF:1198-9183;CONF:1198-15506;CONF:1198-30479;CONF:1198-30480</v>
       </c>
       <c r="M75" t="str">
-        <f>"{ 'id': '"&amp;A75&amp;"', 'template_type': '"&amp;C75&amp;"', 'name': '"&amp;B75&amp;" ["&amp;D75&amp;"["&amp;G75&amp;"', 'name2': '"&amp;B75&amp;"', 'template': '"&amp;D75&amp;"', 'pageStart': '"&amp;E75&amp;"', 'pages': '"&amp;G75&amp;"', 'search': '"&amp;K75&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '74', 'template_type': 'Section', 'name': 'Problem Section (entries required)   [2.16.840.1.113883.10.20.22.2.5.1[374-378', 'name2': 'Problem Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.5.1', 'pageStart': '374', 'pages': '374-378', 'search': 'Problem Section (entries required)   2.16.840.1.113883.10.20.22.2.5.1 CONF:1198-32864;CONF:1198-9179;CONF:1198-10441;CONF:1198-32510;CONF:1198-15409;CONF:1198-15410;CONF:1198-31142;CONF:1198-9181;CONF:1198-9182;CONF:1198-9183;CONF:1198-15506;CONF:1198-30479;CONF:1198-30480' },</v>
       </c>
       <c r="N75" t="str">
-        <f>"'"&amp;D75&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.5.1',</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -10027,21 +10027,21 @@
         <v>623</v>
       </c>
       <c r="K76" t="str">
-        <f>B76&amp;" "&amp;D76&amp;" "&amp;J76</f>
+        <f t="shared" si="4"/>
         <v>Procedure Description Section 2.16.840.1.113883.10.20.22.2.27 CONF:81-8062;CONF:81-10442;CONF:81-15411;CONF:81-15412;CONF:81-26489;CONF:81-8064;CONF:81-8065</v>
       </c>
       <c r="M76" t="str">
-        <f>"{ 'id': '"&amp;A76&amp;"', 'template_type': '"&amp;C76&amp;"', 'name': '"&amp;B76&amp;" ["&amp;D76&amp;"["&amp;G76&amp;"', 'name2': '"&amp;B76&amp;"', 'template': '"&amp;D76&amp;"', 'pageStart': '"&amp;E76&amp;"', 'pages': '"&amp;G76&amp;"', 'search': '"&amp;K76&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '75', 'template_type': 'Section', 'name': 'Procedure Description Section [2.16.840.1.113883.10.20.22.2.27[378-380', 'name2': 'Procedure Description Section', 'template': '2.16.840.1.113883.10.20.22.2.27', 'pageStart': '378', 'pages': '378-380', 'search': 'Procedure Description Section 2.16.840.1.113883.10.20.22.2.27 CONF:81-8062;CONF:81-10442;CONF:81-15411;CONF:81-15412;CONF:81-26489;CONF:81-8064;CONF:81-8065' },</v>
       </c>
       <c r="N76" t="str">
-        <f>"'"&amp;D76&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.27',</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -10070,21 +10070,21 @@
         <v>624</v>
       </c>
       <c r="K77" t="str">
-        <f>B77&amp;" "&amp;D77&amp;" "&amp;J77</f>
+        <f t="shared" si="4"/>
         <v>Procedure Disposition Section  2.16.840.1.113883.10.20.18.2.12 CONF:81-8070;CONF:81-10466;CONF:81-15413;CONF:81-15414;CONF:81-26490;CONF:81-8072;CONF:81-8073</v>
       </c>
       <c r="M77" t="str">
-        <f>"{ 'id': '"&amp;A77&amp;"', 'template_type': '"&amp;C77&amp;"', 'name': '"&amp;B77&amp;" ["&amp;D77&amp;"["&amp;G77&amp;"', 'name2': '"&amp;B77&amp;"', 'template': '"&amp;D77&amp;"', 'pageStart': '"&amp;E77&amp;"', 'pages': '"&amp;G77&amp;"', 'search': '"&amp;K77&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '76', 'template_type': 'Section', 'name': 'Procedure Disposition Section  [2.16.840.1.113883.10.20.18.2.12[380-381', 'name2': 'Procedure Disposition Section ', 'template': '2.16.840.1.113883.10.20.18.2.12', 'pageStart': '380', 'pages': '380-381', 'search': 'Procedure Disposition Section  2.16.840.1.113883.10.20.18.2.12 CONF:81-8070;CONF:81-10466;CONF:81-15413;CONF:81-15414;CONF:81-26490;CONF:81-8072;CONF:81-8073' },</v>
       </c>
       <c r="N77" t="str">
-        <f>"'"&amp;D77&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.18.2.12',</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -10113,21 +10113,21 @@
         <v>625</v>
       </c>
       <c r="K78" t="str">
-        <f>B78&amp;" "&amp;D78&amp;" "&amp;J78</f>
+        <f t="shared" si="4"/>
         <v>Procedure Estimated Blood Loss Section 2.16.840.1.113883.10.20.18.2.9 CONF:81-8074;CONF:81-10467;CONF:81-15415;CONF:81-15416;CONF:81-26491;CONF:81-8076;CONF:81-8077;CONF:81-8741</v>
       </c>
       <c r="M78" t="str">
-        <f>"{ 'id': '"&amp;A78&amp;"', 'template_type': '"&amp;C78&amp;"', 'name': '"&amp;B78&amp;" ["&amp;D78&amp;"["&amp;G78&amp;"', 'name2': '"&amp;B78&amp;"', 'template': '"&amp;D78&amp;"', 'pageStart': '"&amp;E78&amp;"', 'pages': '"&amp;G78&amp;"', 'search': '"&amp;K78&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '77', 'template_type': 'Section', 'name': 'Procedure Estimated Blood Loss Section [2.16.840.1.113883.10.20.18.2.9[381-382', 'name2': 'Procedure Estimated Blood Loss Section', 'template': '2.16.840.1.113883.10.20.18.2.9', 'pageStart': '381', 'pages': '381-382', 'search': 'Procedure Estimated Blood Loss Section 2.16.840.1.113883.10.20.18.2.9 CONF:81-8074;CONF:81-10467;CONF:81-15415;CONF:81-15416;CONF:81-26491;CONF:81-8076;CONF:81-8077;CONF:81-8741' },</v>
       </c>
       <c r="N78" t="str">
-        <f>"'"&amp;D78&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.18.2.9',</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -10156,21 +10156,21 @@
         <v>626</v>
       </c>
       <c r="K79" t="str">
-        <f>B79&amp;" "&amp;D79&amp;" "&amp;J79</f>
+        <f t="shared" si="4"/>
         <v>Procedure Findings Section   2.16.840.1.113883.10.20.22.2.28 CONF:1198-8078;CONF:1198-10443;CONF:1198-32537;CONF:1198-15417;CONF:1198-15418;CONF:1198-30859;CONF:1198-8080;CONF:1198-8081;CONF:1198-8090;CONF:1198-15507</v>
       </c>
       <c r="M79" t="str">
-        <f>"{ 'id': '"&amp;A79&amp;"', 'template_type': '"&amp;C79&amp;"', 'name': '"&amp;B79&amp;" ["&amp;D79&amp;"["&amp;G79&amp;"', 'name2': '"&amp;B79&amp;"', 'template': '"&amp;D79&amp;"', 'pageStart': '"&amp;E79&amp;"', 'pages': '"&amp;G79&amp;"', 'search': '"&amp;K79&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '78', 'template_type': 'Section', 'name': 'Procedure Findings Section   [2.16.840.1.113883.10.20.22.2.28[382-384', 'name2': 'Procedure Findings Section  ', 'template': '2.16.840.1.113883.10.20.22.2.28', 'pageStart': '382', 'pages': '382-384', 'search': 'Procedure Findings Section   2.16.840.1.113883.10.20.22.2.28 CONF:1198-8078;CONF:1198-10443;CONF:1198-32537;CONF:1198-15417;CONF:1198-15418;CONF:1198-30859;CONF:1198-8080;CONF:1198-8081;CONF:1198-8090;CONF:1198-15507' },</v>
       </c>
       <c r="N79" t="str">
-        <f>"'"&amp;D79&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.28',</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -10199,21 +10199,21 @@
         <v>627</v>
       </c>
       <c r="K80" t="str">
-        <f>B80&amp;" "&amp;D80&amp;" "&amp;J80</f>
+        <f t="shared" si="4"/>
         <v>Procedure Implants Section 2.16.840.1.113883.10.20.22.2.40 CONF:81-8178;CONF:81-10444;CONF:81-15373;CONF:81-15374;CONF:81-26492;CONF:81-8180;CONF:81-8181;CONF:81-8769</v>
       </c>
       <c r="M80" t="str">
-        <f>"{ 'id': '"&amp;A80&amp;"', 'template_type': '"&amp;C80&amp;"', 'name': '"&amp;B80&amp;" ["&amp;D80&amp;"["&amp;G80&amp;"', 'name2': '"&amp;B80&amp;"', 'template': '"&amp;D80&amp;"', 'pageStart': '"&amp;E80&amp;"', 'pages': '"&amp;G80&amp;"', 'search': '"&amp;K80&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '79', 'template_type': 'Section', 'name': 'Procedure Implants Section [2.16.840.1.113883.10.20.22.2.40[384-385', 'name2': 'Procedure Implants Section', 'template': '2.16.840.1.113883.10.20.22.2.40', 'pageStart': '384', 'pages': '384-385', 'search': 'Procedure Implants Section 2.16.840.1.113883.10.20.22.2.40 CONF:81-8178;CONF:81-10444;CONF:81-15373;CONF:81-15374;CONF:81-26492;CONF:81-8180;CONF:81-8181;CONF:81-8769' },</v>
       </c>
       <c r="N80" t="str">
-        <f>"'"&amp;D80&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.40',</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -10242,21 +10242,21 @@
         <v>628</v>
       </c>
       <c r="K81" t="str">
-        <f>B81&amp;" "&amp;D81&amp;" "&amp;J81</f>
+        <f t="shared" si="4"/>
         <v>Procedure Indications Section  2.16.840.1.113883.10.20.22.2.29 CONF:1098-8058;CONF:1098-10445;CONF:1098-32572;CONF:1098-15419;CONF:1098-15420;CONF:1098-30827;CONF:1098-8060;CONF:1098-8061;CONF:1098-8743;CONF:1098-15508</v>
       </c>
       <c r="M81" t="str">
-        <f>"{ 'id': '"&amp;A81&amp;"', 'template_type': '"&amp;C81&amp;"', 'name': '"&amp;B81&amp;" ["&amp;D81&amp;"["&amp;G81&amp;"', 'name2': '"&amp;B81&amp;"', 'template': '"&amp;D81&amp;"', 'pageStart': '"&amp;E81&amp;"', 'pages': '"&amp;G81&amp;"', 'search': '"&amp;K81&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '80', 'template_type': 'Section', 'name': 'Procedure Indications Section  [2.16.840.1.113883.10.20.22.2.29[385-387', 'name2': 'Procedure Indications Section ', 'template': '2.16.840.1.113883.10.20.22.2.29', 'pageStart': '385', 'pages': '385-387', 'search': 'Procedure Indications Section  2.16.840.1.113883.10.20.22.2.29 CONF:1098-8058;CONF:1098-10445;CONF:1098-32572;CONF:1098-15419;CONF:1098-15420;CONF:1098-30827;CONF:1098-8060;CONF:1098-8061;CONF:1098-8743;CONF:1098-15508' },</v>
       </c>
       <c r="N81" t="str">
-        <f>"'"&amp;D81&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.29',</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -10285,21 +10285,21 @@
         <v>629</v>
       </c>
       <c r="K82" t="str">
-        <f>B82&amp;" "&amp;D82&amp;" "&amp;J82</f>
+        <f t="shared" si="4"/>
         <v>Procedure Specimens Taken Section 2.16.840.1.113883.10.20.22.2.31 CONF:81-8086;CONF:81-10446;CONF:81-15421;CONF:81-15422;CONF:81-26493;CONF:81-8088;CONF:81-8089;CONF:81-8742</v>
       </c>
       <c r="M82" t="str">
-        <f>"{ 'id': '"&amp;A82&amp;"', 'template_type': '"&amp;C82&amp;"', 'name': '"&amp;B82&amp;" ["&amp;D82&amp;"["&amp;G82&amp;"', 'name2': '"&amp;B82&amp;"', 'template': '"&amp;D82&amp;"', 'pageStart': '"&amp;E82&amp;"', 'pages': '"&amp;G82&amp;"', 'search': '"&amp;K82&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '81', 'template_type': 'Section', 'name': 'Procedure Specimens Taken Section [2.16.840.1.113883.10.20.22.2.31[387-388', 'name2': 'Procedure Specimens Taken Section', 'template': '2.16.840.1.113883.10.20.22.2.31', 'pageStart': '387', 'pages': '387-388', 'search': 'Procedure Specimens Taken Section 2.16.840.1.113883.10.20.22.2.31 CONF:81-8086;CONF:81-10446;CONF:81-15421;CONF:81-15422;CONF:81-26493;CONF:81-8088;CONF:81-8089;CONF:81-8742' },</v>
       </c>
       <c r="N82" t="str">
-        <f>"'"&amp;D82&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.31',</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -10328,21 +10328,21 @@
         <v>630</v>
       </c>
       <c r="K83" t="str">
-        <f>B83&amp;" "&amp;D83&amp;" "&amp;J83</f>
+        <f t="shared" si="4"/>
         <v>Procedures Section (entries optional)   2.16.840.1.113883.10.20.22.2.7 CONF:1098-6270;CONF:1098-6271;CONF:1098-32532;CONF:1098-15423;CONF:1098-15424;CONF:1098-31139;CONF:1098-17184;CONF:1098-6273;CONF:1098-6274;CONF:1098-15509;CONF:1098-6278;CONF:1098-15510;CONF:1098-8533;CONF:1098-15511</v>
       </c>
       <c r="M83" t="str">
-        <f>"{ 'id': '"&amp;A83&amp;"', 'template_type': '"&amp;C83&amp;"', 'name': '"&amp;B83&amp;" ["&amp;D83&amp;"["&amp;G83&amp;"', 'name2': '"&amp;B83&amp;"', 'template': '"&amp;D83&amp;"', 'pageStart': '"&amp;E83&amp;"', 'pages': '"&amp;G83&amp;"', 'search': '"&amp;K83&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '82', 'template_type': 'Section', 'name': 'Procedures Section (entries optional)   [2.16.840.1.113883.10.20.22.2.7[388-390', 'name2': 'Procedures Section (entries optional)  ', 'template': '2.16.840.1.113883.10.20.22.2.7', 'pageStart': '388', 'pages': '388-390', 'search': 'Procedures Section (entries optional)   2.16.840.1.113883.10.20.22.2.7 CONF:1098-6270;CONF:1098-6271;CONF:1098-32532;CONF:1098-15423;CONF:1098-15424;CONF:1098-31139;CONF:1098-17184;CONF:1098-6273;CONF:1098-6274;CONF:1098-15509;CONF:1098-6278;CONF:1098-15510;CONF:1098-8533;CONF:1098-15511' },</v>
       </c>
       <c r="N83" t="str">
-        <f>"'"&amp;D83&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.7',</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -10371,21 +10371,21 @@
         <v>631</v>
       </c>
       <c r="K84" t="str">
-        <f>B84&amp;" "&amp;D84&amp;" "&amp;J84</f>
+        <f t="shared" si="4"/>
         <v>Procedures Section (entries required)  2.16.840.1.113883.10.20.22.2.7.1 CONF:1098-32876;CONF:1098-7891;CONF:1098-10447;CONF:1098-32533;CONF:1098-15425;CONF:1098-15426;CONF:1098-31138;CONF:1098-7893;CONF:1098-7894;CONF:1098-7895;CONF:1098-32877;CONF:1098-32878;CONF:1098-15512</v>
       </c>
       <c r="M84" t="str">
-        <f>"{ 'id': '"&amp;A84&amp;"', 'template_type': '"&amp;C84&amp;"', 'name': '"&amp;B84&amp;" ["&amp;D84&amp;"["&amp;G84&amp;"', 'name2': '"&amp;B84&amp;"', 'template': '"&amp;D84&amp;"', 'pageStart': '"&amp;E84&amp;"', 'pages': '"&amp;G84&amp;"', 'search': '"&amp;K84&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '83', 'template_type': 'Section', 'name': 'Procedures Section (entries required)  [2.16.840.1.113883.10.20.22.2.7.1[390-393', 'name2': 'Procedures Section (entries required) ', 'template': '2.16.840.1.113883.10.20.22.2.7.1', 'pageStart': '390', 'pages': '390-393', 'search': 'Procedures Section (entries required)  2.16.840.1.113883.10.20.22.2.7.1 CONF:1098-32876;CONF:1098-7891;CONF:1098-10447;CONF:1098-32533;CONF:1098-15425;CONF:1098-15426;CONF:1098-31138;CONF:1098-7893;CONF:1098-7894;CONF:1098-7895;CONF:1098-32877;CONF:1098-32878;CONF:1098-15512' },</v>
       </c>
       <c r="N84" t="str">
-        <f>"'"&amp;D84&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.7.1',</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -10414,21 +10414,21 @@
         <v>632</v>
       </c>
       <c r="K85" t="str">
-        <f>B85&amp;" "&amp;D85&amp;" "&amp;J85</f>
+        <f t="shared" si="4"/>
         <v>Reason for Referral Section  1.3.6.1.4.1.19376.1.5.3.1.3.1 CONF:1098-7844;CONF:1098-10468;CONF:1098-32571;CONF:1098-15427;CONF:1098-15428;CONF:1098-30867;CONF:1098-7846;CONF:1098-7847;CONF:1098-30808;CONF:1098-30897</v>
       </c>
       <c r="M85" t="str">
-        <f>"{ 'id': '"&amp;A85&amp;"', 'template_type': '"&amp;C85&amp;"', 'name': '"&amp;B85&amp;" ["&amp;D85&amp;"["&amp;G85&amp;"', 'name2': '"&amp;B85&amp;"', 'template': '"&amp;D85&amp;"', 'pageStart': '"&amp;E85&amp;"', 'pages': '"&amp;G85&amp;"', 'search': '"&amp;K85&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '84', 'template_type': 'Section', 'name': 'Reason for Referral Section  [1.3.6.1.4.1.19376.1.5.3.1.3.1[393-395', 'name2': 'Reason for Referral Section ', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.1', 'pageStart': '393', 'pages': '393-395', 'search': 'Reason for Referral Section  1.3.6.1.4.1.19376.1.5.3.1.3.1 CONF:1098-7844;CONF:1098-10468;CONF:1098-32571;CONF:1098-15427;CONF:1098-15428;CONF:1098-30867;CONF:1098-7846;CONF:1098-7847;CONF:1098-30808;CONF:1098-30897' },</v>
       </c>
       <c r="N85" t="str">
-        <f>"'"&amp;D85&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.1',</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -10457,21 +10457,21 @@
         <v>633</v>
       </c>
       <c r="K86" t="str">
-        <f>B86&amp;" "&amp;D86&amp;" "&amp;J86</f>
+        <f t="shared" si="4"/>
         <v>Reason for Visit Section 2.16.840.1.113883.10.20.22.2.12 CONF:81-7836;CONF:81-10448;CONF:81-15429;CONF:81-15430;CONF:81-26494;CONF:81-7838;CONF:81-7839</v>
       </c>
       <c r="M86" t="str">
-        <f>"{ 'id': '"&amp;A86&amp;"', 'template_type': '"&amp;C86&amp;"', 'name': '"&amp;B86&amp;" ["&amp;D86&amp;"["&amp;G86&amp;"', 'name2': '"&amp;B86&amp;"', 'template': '"&amp;D86&amp;"', 'pageStart': '"&amp;E86&amp;"', 'pages': '"&amp;G86&amp;"', 'search': '"&amp;K86&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '85', 'template_type': 'Section', 'name': 'Reason for Visit Section [2.16.840.1.113883.10.20.22.2.12[395-397', 'name2': 'Reason for Visit Section', 'template': '2.16.840.1.113883.10.20.22.2.12', 'pageStart': '395', 'pages': '395-397', 'search': 'Reason for Visit Section 2.16.840.1.113883.10.20.22.2.12 CONF:81-7836;CONF:81-10448;CONF:81-15429;CONF:81-15430;CONF:81-26494;CONF:81-7838;CONF:81-7839' },</v>
       </c>
       <c r="N86" t="str">
-        <f>"'"&amp;D86&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.12',</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -10500,21 +10500,21 @@
         <v>634</v>
       </c>
       <c r="K87" t="str">
-        <f>B87&amp;" "&amp;D87&amp;" "&amp;J87</f>
+        <f t="shared" si="4"/>
         <v>Results Section (entries optional)  2.16.840.1.113883.10.20.22.2.3 CONF:1198-7116;CONF:1198-9136;CONF:1198-32591;CONF:1198-15431;CONF:1198-15432;CONF:1198-31041;CONF:1198-8891;CONF:1198-7118;CONF:1198-7119;CONF:1198-15515</v>
       </c>
       <c r="M87" t="str">
-        <f>"{ 'id': '"&amp;A87&amp;"', 'template_type': '"&amp;C87&amp;"', 'name': '"&amp;B87&amp;" ["&amp;D87&amp;"["&amp;G87&amp;"', 'name2': '"&amp;B87&amp;"', 'template': '"&amp;D87&amp;"', 'pageStart': '"&amp;E87&amp;"', 'pages': '"&amp;G87&amp;"', 'search': '"&amp;K87&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '86', 'template_type': 'Section', 'name': 'Results Section (entries optional)  [2.16.840.1.113883.10.20.22.2.3[397-399', 'name2': 'Results Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.3', 'pageStart': '397', 'pages': '397-399', 'search': 'Results Section (entries optional)  2.16.840.1.113883.10.20.22.2.3 CONF:1198-7116;CONF:1198-9136;CONF:1198-32591;CONF:1198-15431;CONF:1198-15432;CONF:1198-31041;CONF:1198-8891;CONF:1198-7118;CONF:1198-7119;CONF:1198-15515' },</v>
       </c>
       <c r="N87" t="str">
-        <f>"'"&amp;D87&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.3',</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -10543,21 +10543,21 @@
         <v>635</v>
       </c>
       <c r="K88" t="str">
-        <f>B88&amp;" "&amp;D88&amp;" "&amp;J88</f>
+        <f t="shared" si="4"/>
         <v>Results Section (entries required)   2.16.840.1.113883.10.20.22.2.3.1 CONF:1198-32875;CONF:1198-7108;CONF:1198-9137;CONF:1198-32592;CONF:1198-15433;CONF:1198-15434;CONF:1198-31040;CONF:1198-8892;CONF:1198-7111;CONF:1198-7112;CONF:1198-15516</v>
       </c>
       <c r="M88" t="str">
-        <f>"{ 'id': '"&amp;A88&amp;"', 'template_type': '"&amp;C88&amp;"', 'name': '"&amp;B88&amp;" ["&amp;D88&amp;"["&amp;G88&amp;"', 'name2': '"&amp;B88&amp;"', 'template': '"&amp;D88&amp;"', 'pageStart': '"&amp;E88&amp;"', 'pages': '"&amp;G88&amp;"', 'search': '"&amp;K88&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '87', 'template_type': 'Section', 'name': 'Results Section (entries required)   [2.16.840.1.113883.10.20.22.2.3.1[399-401', 'name2': 'Results Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.3.1', 'pageStart': '399', 'pages': '399-401', 'search': 'Results Section (entries required)   2.16.840.1.113883.10.20.22.2.3.1 CONF:1198-32875;CONF:1198-7108;CONF:1198-9137;CONF:1198-32592;CONF:1198-15433;CONF:1198-15434;CONF:1198-31040;CONF:1198-8892;CONF:1198-7111;CONF:1198-7112;CONF:1198-15516' },</v>
       </c>
       <c r="N88" t="str">
-        <f>"'"&amp;D88&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.3.1',</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -10586,21 +10586,21 @@
         <v>636</v>
       </c>
       <c r="K89" t="str">
-        <f>B89&amp;" "&amp;D89&amp;" "&amp;J89</f>
+        <f t="shared" si="4"/>
         <v>Review of Systems Section 1.3.6.1.4.1.19376.1.5.3.1.3.18 CONF:81-7812;CONF:81-10469;CONF:81-15435;CONF:81-15436;CONF:81-26495;CONF:81-7814;CONF:81-7815</v>
       </c>
       <c r="M89" t="str">
-        <f>"{ 'id': '"&amp;A89&amp;"', 'template_type': '"&amp;C89&amp;"', 'name': '"&amp;B89&amp;" ["&amp;D89&amp;"["&amp;G89&amp;"', 'name2': '"&amp;B89&amp;"', 'template': '"&amp;D89&amp;"', 'pageStart': '"&amp;E89&amp;"', 'pages': '"&amp;G89&amp;"', 'search': '"&amp;K89&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '88', 'template_type': 'Section', 'name': 'Review of Systems Section [1.3.6.1.4.1.19376.1.5.3.1.3.18[401-403', 'name2': 'Review of Systems Section', 'template': '1.3.6.1.4.1.19376.1.5.3.1.3.18', 'pageStart': '401', 'pages': '401-403', 'search': 'Review of Systems Section 1.3.6.1.4.1.19376.1.5.3.1.3.18 CONF:81-7812;CONF:81-10469;CONF:81-15435;CONF:81-15436;CONF:81-26495;CONF:81-7814;CONF:81-7815' },</v>
       </c>
       <c r="N89" t="str">
-        <f>"'"&amp;D89&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'1.3.6.1.4.1.19376.1.5.3.1.3.18',</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -10629,21 +10629,21 @@
         <v>637</v>
       </c>
       <c r="K90" t="str">
-        <f>B90&amp;" "&amp;D90&amp;" "&amp;J90</f>
+        <f t="shared" si="4"/>
         <v>Social History Section  2.16.840.1.113883.10.20.22.2.17 CONF:1198-7936;CONF:1198-10449;CONF:1198-32494;CONF:1198-14819;CONF:1198-14820;CONF:1198-30814;CONF:1198-7938;CONF:1198-7939;CONF:1198-7953;CONF:1198-14821;CONF:1198-9132;CONF:1198-14822;CONF:1198-14823;CONF:1198-14824;CONF:1198-16816;CONF:1198-16817;CONF:1198-28361;CONF:1198-28362;CONF:1198-28366;CONF:1198-28367;CONF:1198-28825;CONF:1198-28826</v>
       </c>
       <c r="M90" t="str">
-        <f>"{ 'id': '"&amp;A90&amp;"', 'template_type': '"&amp;C90&amp;"', 'name': '"&amp;B90&amp;" ["&amp;D90&amp;"["&amp;G90&amp;"', 'name2': '"&amp;B90&amp;"', 'template': '"&amp;D90&amp;"', 'pageStart': '"&amp;E90&amp;"', 'pages': '"&amp;G90&amp;"', 'search': '"&amp;K90&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '89', 'template_type': 'Section', 'name': 'Social History Section  [2.16.840.1.113883.10.20.22.2.17[403-407', 'name2': 'Social History Section ', 'template': '2.16.840.1.113883.10.20.22.2.17', 'pageStart': '403', 'pages': '403-407', 'search': 'Social History Section  2.16.840.1.113883.10.20.22.2.17 CONF:1198-7936;CONF:1198-10449;CONF:1198-32494;CONF:1198-14819;CONF:1198-14820;CONF:1198-30814;CONF:1198-7938;CONF:1198-7939;CONF:1198-7953;CONF:1198-14821;CONF:1198-9132;CONF:1198-14822;CONF:1198-14823;CONF:1198-14824;CONF:1198-16816;CONF:1198-16817;CONF:1198-28361;CONF:1198-28362;CONF:1198-28366;CONF:1198-28367;CONF:1198-28825;CONF:1198-28826' },</v>
       </c>
       <c r="N90" t="str">
-        <f>"'"&amp;D90&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.17',</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -10672,21 +10672,21 @@
         <v>638</v>
       </c>
       <c r="K91" t="str">
-        <f>B91&amp;" "&amp;D91&amp;" "&amp;J91</f>
+        <f t="shared" si="4"/>
         <v>Subjective Section 2.16.840.1.113883.10.20.21.2.2 CONF:81-7873;CONF:81-10470;CONF:81-15437;CONF:81-15438;CONF:81-26496;CONF:81-7875;CONF:81-7876</v>
       </c>
       <c r="M91" t="str">
-        <f>"{ 'id': '"&amp;A91&amp;"', 'template_type': '"&amp;C91&amp;"', 'name': '"&amp;B91&amp;" ["&amp;D91&amp;"["&amp;G91&amp;"', 'name2': '"&amp;B91&amp;"', 'template': '"&amp;D91&amp;"', 'pageStart': '"&amp;E91&amp;"', 'pages': '"&amp;G91&amp;"', 'search': '"&amp;K91&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '90', 'template_type': 'Section', 'name': 'Subjective Section [2.16.840.1.113883.10.20.21.2.2[407-408', 'name2': 'Subjective Section', 'template': '2.16.840.1.113883.10.20.21.2.2', 'pageStart': '407', 'pages': '407-408', 'search': 'Subjective Section 2.16.840.1.113883.10.20.21.2.2 CONF:81-7873;CONF:81-10470;CONF:81-15437;CONF:81-15438;CONF:81-26496;CONF:81-7875;CONF:81-7876' },</v>
       </c>
       <c r="N91" t="str">
-        <f>"'"&amp;D91&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.21.2.2',</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -10715,21 +10715,21 @@
         <v>639</v>
       </c>
       <c r="K92" t="str">
-        <f>B92&amp;" "&amp;D92&amp;" "&amp;J92</f>
+        <f t="shared" si="4"/>
         <v>Surgery Description Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.26 CONF:1098-8022;CONF:1098-10450;CONF:1098-32893;CONF:1098-15439;CONF:1098-15440;CONF:1098-26497;CONF:1098-8024;CONF:1098-8025</v>
       </c>
       <c r="M92" t="str">
-        <f>"{ 'id': '"&amp;A92&amp;"', 'template_type': '"&amp;C92&amp;"', 'name': '"&amp;B92&amp;" ["&amp;D92&amp;"["&amp;G92&amp;"', 'name2': '"&amp;B92&amp;"', 'template': '"&amp;D92&amp;"', 'pageStart': '"&amp;E92&amp;"', 'pages': '"&amp;G92&amp;"', 'search': '"&amp;K92&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '91', 'template_type': 'Section', 'name': 'Surgery Description Section (DEPRECATED)  [2.16.840.1.113883.10.20.22.2.26[408-409', 'name2': 'Surgery Description Section (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.2.26', 'pageStart': '408', 'pages': '408-409', 'search': 'Surgery Description Section (DEPRECATED)  2.16.840.1.113883.10.20.22.2.26 CONF:1098-8022;CONF:1098-10450;CONF:1098-32893;CONF:1098-15439;CONF:1098-15440;CONF:1098-26497;CONF:1098-8024;CONF:1098-8025' },</v>
       </c>
       <c r="N92" t="str">
-        <f>"'"&amp;D92&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.26',</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -10758,21 +10758,21 @@
         <v>640</v>
       </c>
       <c r="K93" t="str">
-        <f>B93&amp;" "&amp;D93&amp;" "&amp;J93</f>
+        <f t="shared" si="4"/>
         <v>Surgical Drains Section 2.16.840.1.113883.10.20.7.13 CONF:81-8038;CONF:81-10473;CONF:81-15441;CONF:81-15442;CONF:81-26498;CONF:81-8040;CONF:81-8041;CONF:81-8056</v>
       </c>
       <c r="M93" t="str">
-        <f>"{ 'id': '"&amp;A93&amp;"', 'template_type': '"&amp;C93&amp;"', 'name': '"&amp;B93&amp;" ["&amp;D93&amp;"["&amp;G93&amp;"', 'name2': '"&amp;B93&amp;"', 'template': '"&amp;D93&amp;"', 'pageStart': '"&amp;E93&amp;"', 'pages': '"&amp;G93&amp;"', 'search': '"&amp;K93&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '92', 'template_type': 'Section', 'name': 'Surgical Drains Section [2.16.840.1.113883.10.20.7.13[409-411', 'name2': 'Surgical Drains Section', 'template': '2.16.840.1.113883.10.20.7.13', 'pageStart': '409', 'pages': '409-411', 'search': 'Surgical Drains Section 2.16.840.1.113883.10.20.7.13 CONF:81-8038;CONF:81-10473;CONF:81-15441;CONF:81-15442;CONF:81-26498;CONF:81-8040;CONF:81-8041;CONF:81-8056' },</v>
       </c>
       <c r="N93" t="str">
-        <f>"'"&amp;D93&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.7.13',</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -10801,21 +10801,21 @@
         <v>641</v>
       </c>
       <c r="K94" t="str">
-        <f>B94&amp;" "&amp;D94&amp;" "&amp;J94</f>
+        <f t="shared" si="4"/>
         <v>Vital Signs Section (entries optional)  2.16.840.1.113883.10.20.22.2.4 CONF:1198-7268;CONF:1198-10451;CONF:1198-32584;CONF:1198-15242;CONF:1198-15243;CONF:1198-30902;CONF:1198-9966;CONF:1198-7270;CONF:1198-7271;CONF:1198-15517</v>
       </c>
       <c r="M94" t="str">
-        <f>"{ 'id': '"&amp;A94&amp;"', 'template_type': '"&amp;C94&amp;"', 'name': '"&amp;B94&amp;" ["&amp;D94&amp;"["&amp;G94&amp;"', 'name2': '"&amp;B94&amp;"', 'template': '"&amp;D94&amp;"', 'pageStart': '"&amp;E94&amp;"', 'pages': '"&amp;G94&amp;"', 'search': '"&amp;K94&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '93', 'template_type': 'Section', 'name': 'Vital Signs Section (entries optional)  [2.16.840.1.113883.10.20.22.2.4[411-412', 'name2': 'Vital Signs Section (entries optional) ', 'template': '2.16.840.1.113883.10.20.22.2.4', 'pageStart': '411', 'pages': '411-412', 'search': 'Vital Signs Section (entries optional)  2.16.840.1.113883.10.20.22.2.4 CONF:1198-7268;CONF:1198-10451;CONF:1198-32584;CONF:1198-15242;CONF:1198-15243;CONF:1198-30902;CONF:1198-9966;CONF:1198-7270;CONF:1198-7271;CONF:1198-15517' },</v>
       </c>
       <c r="N94" t="str">
-        <f>"'"&amp;D94&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.4',</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -10844,21 +10844,21 @@
         <v>642</v>
       </c>
       <c r="K95" t="str">
-        <f>B95&amp;" "&amp;D95&amp;" "&amp;J95</f>
+        <f t="shared" si="4"/>
         <v>Vital Signs Section (entries required)   2.16.840.1.113883.10.20.22.2.4.1 CONF:1198-32874;CONF:1198-7273;CONF:1198-10452;CONF:1198-32585;CONF:1198-15962;CONF:1198-15963;CONF:1198-30903;CONF:1198-9967;CONF:1198-7275;CONF:1198-7276;CONF:1198-15964</v>
       </c>
       <c r="M95" t="str">
-        <f>"{ 'id': '"&amp;A95&amp;"', 'template_type': '"&amp;C95&amp;"', 'name': '"&amp;B95&amp;" ["&amp;D95&amp;"["&amp;G95&amp;"', 'name2': '"&amp;B95&amp;"', 'template': '"&amp;D95&amp;"', 'pageStart': '"&amp;E95&amp;"', 'pages': '"&amp;G95&amp;"', 'search': '"&amp;K95&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '94', 'template_type': 'Section', 'name': 'Vital Signs Section (entries required)   [2.16.840.1.113883.10.20.22.2.4.1[412-415', 'name2': 'Vital Signs Section (entries required)  ', 'template': '2.16.840.1.113883.10.20.22.2.4.1', 'pageStart': '412', 'pages': '412-415', 'search': 'Vital Signs Section (entries required)   2.16.840.1.113883.10.20.22.2.4.1 CONF:1198-32874;CONF:1198-7273;CONF:1198-10452;CONF:1198-32585;CONF:1198-15962;CONF:1198-15963;CONF:1198-30903;CONF:1198-9967;CONF:1198-7275;CONF:1198-7276;CONF:1198-15964' },</v>
       </c>
       <c r="N95" t="str">
-        <f>"'"&amp;D95&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.2.4.1',</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -10887,21 +10887,21 @@
         <v>454</v>
       </c>
       <c r="K96" t="str">
-        <f>B96&amp;" "&amp;D96&amp;" "&amp;J96</f>
+        <f t="shared" si="4"/>
         <v>Admission Medication   2.16.840.1.113883.10.20.22.4.36 CONF:1098-7698;CONF:1098-7699;CONF:1098-16758;CONF:1098-16759;CONF:1098-32524;CONF:1098-15518;CONF:1098-15519;CONF:1098-32152;CONF:1098-7701;CONF:1098-7702;CONF:1098-15520</v>
       </c>
       <c r="M96" t="str">
-        <f>"{ 'id': '"&amp;A96&amp;"', 'template_type': '"&amp;C96&amp;"', 'name': '"&amp;B96&amp;" ["&amp;D96&amp;"["&amp;G96&amp;"', 'name2': '"&amp;B96&amp;"', 'template': '"&amp;D96&amp;"', 'pageStart': '"&amp;E96&amp;"', 'pages': '"&amp;G96&amp;"', 'search': '"&amp;K96&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '95', 'template_type': 'Entry', 'name': 'Admission Medication   [2.16.840.1.113883.10.20.22.4.36[415-417', 'name2': 'Admission Medication  ', 'template': '2.16.840.1.113883.10.20.22.4.36', 'pageStart': '415', 'pages': '415-417', 'search': 'Admission Medication   2.16.840.1.113883.10.20.22.4.36 CONF:1098-7698;CONF:1098-7699;CONF:1098-16758;CONF:1098-16759;CONF:1098-32524;CONF:1098-15518;CONF:1098-15519;CONF:1098-32152;CONF:1098-7701;CONF:1098-7702;CONF:1098-15520' },</v>
       </c>
       <c r="N96" t="str">
-        <f>"'"&amp;D96&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.36',</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -10930,21 +10930,21 @@
         <v>455</v>
       </c>
       <c r="K97" t="str">
-        <f>B97&amp;" "&amp;D97&amp;" "&amp;J97</f>
+        <f t="shared" si="4"/>
         <v>Advance Directive Observation   2.16.840.1.113883.10.20.22.4.48 CONF:1198-8648;CONF:1198-8649;CONF:1198-8655;CONF:1198-10485;CONF:1198-32496;CONF:1198-8654;CONF:1198-8651;CONF:1198-32842;CONF:1198-32843;CONF:1198-32844;CONF:1198-8652;CONF:1198-19082;CONF:1198-8656;CONF:1198-28719;CONF:1198-15521;CONF:1198-32449;CONF:1198-30804;CONF:1198-32493;CONF:1198-32406;CONF:1198-8662;CONF:1198-8663;CONF:1198-8664;CONF:1198-10486;CONF:1198-8665;CONF:1198-8666;CONF:1198-8825;CONF:1198-28446;CONF:1198-28451;CONF:1198-28428;CONF:1198-28454;CONF:1198-8667;CONF:1198-8668;CONF:1198-8669;CONF:1198-8670;CONF:1198-28440;CONF:1198-8671;CONF:1198-8672;CONF:1198-8824;CONF:1198-28444;CONF:1198-8673;CONF:1198-8692;CONF:1198-8694;CONF:1198-8693;CONF:1198-8695;CONF:1198-8696;CONF:1198-8697;CONF:1198-8698;CONF:1198-8699</v>
       </c>
       <c r="M97" t="str">
-        <f>"{ 'id': '"&amp;A97&amp;"', 'template_type': '"&amp;C97&amp;"', 'name': '"&amp;B97&amp;" ["&amp;D97&amp;"["&amp;G97&amp;"', 'name2': '"&amp;B97&amp;"', 'template': '"&amp;D97&amp;"', 'pageStart': '"&amp;E97&amp;"', 'pages': '"&amp;G97&amp;"', 'search': '"&amp;K97&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '96', 'template_type': 'Entry', 'name': 'Advance Directive Observation   [2.16.840.1.113883.10.20.22.4.48[417-426', 'name2': 'Advance Directive Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.48', 'pageStart': '417', 'pages': '417-426', 'search': 'Advance Directive Observation   2.16.840.1.113883.10.20.22.4.48 CONF:1198-8648;CONF:1198-8649;CONF:1198-8655;CONF:1198-10485;CONF:1198-32496;CONF:1198-8654;CONF:1198-8651;CONF:1198-32842;CONF:1198-32843;CONF:1198-32844;CONF:1198-8652;CONF:1198-19082;CONF:1198-8656;CONF:1198-28719;CONF:1198-15521;CONF:1198-32449;CONF:1198-30804;CONF:1198-32493;CONF:1198-32406;CONF:1198-8662;CONF:1198-8663;CONF:1198-8664;CONF:1198-10486;CONF:1198-8665;CONF:1198-8666;CONF:1198-8825;CONF:1198-28446;CONF:1198-28451;CONF:1198-28428;CONF:1198-28454;CONF:1198-8667;CONF:1198-8668;CONF:1198-8669;CONF:1198-8670;CONF:1198-28440;CONF:1198-8671;CONF:1198-8672;CONF:1198-8824;CONF:1198-28444;CONF:1198-8673;CONF:1198-8692;CONF:1198-8694;CONF:1198-8693;CONF:1198-8695;CONF:1198-8696;CONF:1198-8697;CONF:1198-8698;CONF:1198-8699' },</v>
       </c>
       <c r="N97" t="str">
-        <f>"'"&amp;D97&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.48',</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -10973,21 +10973,21 @@
         <v>456</v>
       </c>
       <c r="K98" t="str">
-        <f>B98&amp;" "&amp;D98&amp;" "&amp;J98</f>
+        <f t="shared" si="4"/>
         <v>Advance Directive Organizer  2.16.840.1.113883.10.20.22.4.108 CONF:1198-28410;CONF:1198-28411;CONF:1198-28412;CONF:1198-28413;CONF:1198-32876;CONF:1198-28414;CONF:1198-28415;CONF:1198-31230;CONF:1198-31231;CONF:1198-28418;CONF:1198-31346;CONF:1198-32407;CONF:1198-28420;CONF:1198-28421</v>
       </c>
       <c r="M98" t="str">
-        <f>"{ 'id': '"&amp;A98&amp;"', 'template_type': '"&amp;C98&amp;"', 'name': '"&amp;B98&amp;" ["&amp;D98&amp;"["&amp;G98&amp;"', 'name2': '"&amp;B98&amp;"', 'template': '"&amp;D98&amp;"', 'pageStart': '"&amp;E98&amp;"', 'pages': '"&amp;G98&amp;"', 'search': '"&amp;K98&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '97', 'template_type': 'Entry', 'name': 'Advance Directive Organizer  [2.16.840.1.113883.10.20.22.4.108[426-430', 'name2': 'Advance Directive Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.108', 'pageStart': '426', 'pages': '426-430', 'search': 'Advance Directive Organizer  2.16.840.1.113883.10.20.22.4.108 CONF:1198-28410;CONF:1198-28411;CONF:1198-28412;CONF:1198-28413;CONF:1198-32876;CONF:1198-28414;CONF:1198-28415;CONF:1198-31230;CONF:1198-31231;CONF:1198-28418;CONF:1198-31346;CONF:1198-32407;CONF:1198-28420;CONF:1198-28421' },</v>
       </c>
       <c r="N98" t="str">
-        <f>"'"&amp;D98&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.108',</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -11016,21 +11016,21 @@
         <v>457</v>
       </c>
       <c r="K99" t="str">
-        <f>B99&amp;" "&amp;D99&amp;" "&amp;J99</f>
+        <f t="shared" si="4"/>
         <v>Age Observation 2.16.840.1.113883.10.20.22.4.31 CONF:81-7613;CONF:81-7614;CONF:81-7899;CONF:81-10487;CONF:81-7615;CONF:81-16776;CONF:81-26499;CONF:81-15965;CONF:81-15966;CONF:81-7617;CONF:81-7618</v>
       </c>
       <c r="M99" t="str">
-        <f>"{ 'id': '"&amp;A99&amp;"', 'template_type': '"&amp;C99&amp;"', 'name': '"&amp;B99&amp;" ["&amp;D99&amp;"["&amp;G99&amp;"', 'name2': '"&amp;B99&amp;"', 'template': '"&amp;D99&amp;"', 'pageStart': '"&amp;E99&amp;"', 'pages': '"&amp;G99&amp;"', 'search': '"&amp;K99&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '98', 'template_type': 'Entry', 'name': 'Age Observation [2.16.840.1.113883.10.20.22.4.31[430-432', 'name2': 'Age Observation', 'template': '2.16.840.1.113883.10.20.22.4.31', 'pageStart': '430', 'pages': '430-432', 'search': 'Age Observation 2.16.840.1.113883.10.20.22.4.31 CONF:81-7613;CONF:81-7614;CONF:81-7899;CONF:81-10487;CONF:81-7615;CONF:81-16776;CONF:81-26499;CONF:81-15965;CONF:81-15966;CONF:81-7617;CONF:81-7618' },</v>
       </c>
       <c r="N99" t="str">
-        <f>"'"&amp;D99&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.31',</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -11059,21 +11059,21 @@
         <v>458</v>
       </c>
       <c r="K100" t="str">
-        <f>B100&amp;" "&amp;D100&amp;" "&amp;J100</f>
+        <f t="shared" si="4"/>
         <v>Allergy - Intolerance Observation  2.16.840.1.113883.10.20.22.4.7 CONF:1098-7379;CONF:1098-7380;CONF:1098-31526;CONF:1098-7381;CONF:1098-10488;CONF:1098-32526;CONF:1098-7382;CONF:1098-15947;CONF:1098-15948;CONF:1098-32153;CONF:1098-19084;CONF:1098-19085;CONF:1098-7387;CONF:1098-31538;CONF:1098-31539;CONF:1098-7390;CONF:1098-31143;CONF:1098-7402;CONF:1098-7403;CONF:1098-7404;CONF:1098-7405;CONF:1098-7406;CONF:1098-7407;CONF:1098-7419;CONF:1098-32939;CONF:1098-32940;CONF:1098-32941;CONF:1098-32942;CONF:1098-9961;CONF:1098-9962;CONF:1098-9964;CONF:1098-15956;CONF:1098-7447;CONF:1098-7907;CONF:1098-7449;CONF:1098-15955;CONF:1098-32910;CONF:1098-32911;CONF:1098-32912;CONF:1098-32913</v>
       </c>
       <c r="M100" t="str">
-        <f>"{ 'id': '"&amp;A100&amp;"', 'template_type': '"&amp;C100&amp;"', 'name': '"&amp;B100&amp;" ["&amp;D100&amp;"["&amp;G100&amp;"', 'name2': '"&amp;B100&amp;"', 'template': '"&amp;D100&amp;"', 'pageStart': '"&amp;E100&amp;"', 'pages': '"&amp;G100&amp;"', 'search': '"&amp;K100&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '99', 'template_type': 'Entry', 'name': 'Allergy - Intolerance Observation  [2.16.840.1.113883.10.20.22.4.7[862-868', 'name2': 'Allergy - Intolerance Observation ', 'template': '2.16.840.1.113883.10.20.22.4.7', 'pageStart': '862', 'pages': '862-868', 'search': 'Allergy - Intolerance Observation  2.16.840.1.113883.10.20.22.4.7 CONF:1098-7379;CONF:1098-7380;CONF:1098-31526;CONF:1098-7381;CONF:1098-10488;CONF:1098-32526;CONF:1098-7382;CONF:1098-15947;CONF:1098-15948;CONF:1098-32153;CONF:1098-19084;CONF:1098-19085;CONF:1098-7387;CONF:1098-31538;CONF:1098-31539;CONF:1098-7390;CONF:1098-31143;CONF:1098-7402;CONF:1098-7403;CONF:1098-7404;CONF:1098-7405;CONF:1098-7406;CONF:1098-7407;CONF:1098-7419;CONF:1098-32939;CONF:1098-32940;CONF:1098-32941;CONF:1098-32942;CONF:1098-9961;CONF:1098-9962;CONF:1098-9964;CONF:1098-15956;CONF:1098-7447;CONF:1098-7907;CONF:1098-7449;CONF:1098-15955;CONF:1098-32910;CONF:1098-32911;CONF:1098-32912;CONF:1098-32913' },</v>
       </c>
       <c r="N100" t="str">
-        <f>"'"&amp;D100&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.7',</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -11102,21 +11102,21 @@
         <v>459</v>
       </c>
       <c r="K101" t="str">
-        <f>B101&amp;" "&amp;D101&amp;" "&amp;J101</f>
+        <f t="shared" si="4"/>
         <v>Allergy Concern Act  2.16.840.1.113883.10.20.22.4.30 CONF:1198-7469;CONF:1198-7470;CONF:1198-7471;CONF:1198-10489;CONF:1198-32543;CONF:1198-7472;CONF:1198-7477;CONF:1198-19158;CONF:1198-32154;CONF:1198-7485;CONF:1198-19086;CONF:1198-7498;CONF:1198-7504;CONF:1198-10085;CONF:1198-31145;CONF:1198-7509;CONF:1198-7915;CONF:1198-14925</v>
       </c>
       <c r="M101" t="str">
-        <f>"{ 'id': '"&amp;A101&amp;"', 'template_type': '"&amp;C101&amp;"', 'name': '"&amp;B101&amp;" ["&amp;D101&amp;"["&amp;G101&amp;"', 'name2': '"&amp;B101&amp;"', 'template': '"&amp;D101&amp;"', 'pageStart': '"&amp;E101&amp;"', 'pages': '"&amp;G101&amp;"', 'search': '"&amp;K101&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '100', 'template_type': 'Entry', 'name': 'Allergy Concern Act  [2.16.840.1.113883.10.20.22.4.30[432-436', 'name2': 'Allergy Concern Act ', 'template': '2.16.840.1.113883.10.20.22.4.30', 'pageStart': '432', 'pages': '432-436', 'search': 'Allergy Concern Act  2.16.840.1.113883.10.20.22.4.30 CONF:1198-7469;CONF:1198-7470;CONF:1198-7471;CONF:1198-10489;CONF:1198-32543;CONF:1198-7472;CONF:1198-7477;CONF:1198-19158;CONF:1198-32154;CONF:1198-7485;CONF:1198-19086;CONF:1198-7498;CONF:1198-7504;CONF:1198-10085;CONF:1198-31145;CONF:1198-7509;CONF:1198-7915;CONF:1198-14925' },</v>
       </c>
       <c r="N101" t="str">
-        <f>"'"&amp;D101&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.30',</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -11145,21 +11145,21 @@
         <v>460</v>
       </c>
       <c r="K102" t="str">
-        <f>B102&amp;" "&amp;D102&amp;" "&amp;J102</f>
+        <f t="shared" si="4"/>
         <v>Allergy Status Observation  2.16.840.1.113883.10.20.22.4.28 CONF:1198-7318;CONF:1198-7319;CONF:1198-7317;CONF:1198-10490;CONF:1198-32962;CONF:1198-7320;CONF:1198-19131;CONF:1198-32155;CONF:1198-7321;CONF:1198-19087;CONF:1198-7322</v>
       </c>
       <c r="M102" t="str">
-        <f>"{ 'id': '"&amp;A102&amp;"', 'template_type': '"&amp;C102&amp;"', 'name': '"&amp;B102&amp;" ["&amp;D102&amp;"["&amp;G102&amp;"', 'name2': '"&amp;B102&amp;"', 'template': '"&amp;D102&amp;"', 'pageStart': '"&amp;E102&amp;"', 'pages': '"&amp;G102&amp;"', 'search': '"&amp;K102&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '101', 'template_type': 'Entry', 'name': 'Allergy Status Observation  [2.16.840.1.113883.10.20.22.4.28[436-438', 'name2': 'Allergy Status Observation ', 'template': '2.16.840.1.113883.10.20.22.4.28', 'pageStart': '436', 'pages': '436-438', 'search': 'Allergy Status Observation  2.16.840.1.113883.10.20.22.4.28 CONF:1198-7318;CONF:1198-7319;CONF:1198-7317;CONF:1198-10490;CONF:1198-32962;CONF:1198-7320;CONF:1198-19131;CONF:1198-32155;CONF:1198-7321;CONF:1198-19087;CONF:1198-7322' },</v>
       </c>
       <c r="N102" t="str">
-        <f>"'"&amp;D102&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.28',</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -11190,21 +11190,21 @@
         <v>461</v>
       </c>
       <c r="K103" t="str">
-        <f>B103&amp;" "&amp;D103&amp;" "&amp;J103</f>
+        <f t="shared" si="4"/>
         <v>Assessment Scale Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.69 CONF:81-14434;CONF:81-14435;CONF:81-14436;CONF:81-14437;CONF:81-14438;CONF:81-14439;CONF:81-14440;CONF:81-14637;CONF:81-14444;CONF:81-19088;CONF:81-14445;CONF:81-14450;CONF:81-14459;CONF:81-14888;CONF:81-14460;CONF:81-14451;CONF:81-16741;CONF:81-16742;CONF:81-16799;CONF:81-16800;CONF:81-16801;CONF:81-16802;CONF:81-16803;CONF:81-16804</v>
       </c>
       <c r="M103" t="str">
-        <f>"{ 'id': '"&amp;A103&amp;"', 'template_type': '"&amp;C103&amp;"', 'name': '"&amp;B103&amp;" ["&amp;D103&amp;"["&amp;G103&amp;"', 'name2': '"&amp;B103&amp;"', 'template': '"&amp;D103&amp;"', 'pageStart': '"&amp;E103&amp;"', 'pages': '"&amp;G103&amp;"', 'search': '"&amp;K103&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '102', 'template_type': 'Entry', 'name': 'Assessment Scale Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.69[CG_A_68-73', 'name2': 'Assessment Scale Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.69', 'pageStart': '1068', 'pages': 'CG_A_68-73', 'search': 'Assessment Scale Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.69 CONF:81-14434;CONF:81-14435;CONF:81-14436;CONF:81-14437;CONF:81-14438;CONF:81-14439;CONF:81-14440;CONF:81-14637;CONF:81-14444;CONF:81-19088;CONF:81-14445;CONF:81-14450;CONF:81-14459;CONF:81-14888;CONF:81-14460;CONF:81-14451;CONF:81-16741;CONF:81-16742;CONF:81-16799;CONF:81-16800;CONF:81-16801;CONF:81-16802;CONF:81-16803;CONF:81-16804' },</v>
       </c>
       <c r="N103" t="str">
-        <f>"'"&amp;D103&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.69',</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -11235,21 +11235,21 @@
         <v>462</v>
       </c>
       <c r="K104" t="str">
-        <f>B104&amp;" "&amp;D104&amp;" "&amp;J104</f>
+        <f t="shared" si="4"/>
         <v>Assessment Scale Supporting Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.86 CONF:81-16715;CONF:81-16716;CONF:81-16722;CONF:81-16723;CONF:81-16724;CONF:81-19178;CONF:81-19179;CONF:81-19180;CONF:81-16720;CONF:81-19089;CONF:81-16754;CONF:81-16755</v>
       </c>
       <c r="M104" t="str">
-        <f>"{ 'id': '"&amp;A104&amp;"', 'template_type': '"&amp;C104&amp;"', 'name': '"&amp;B104&amp;" ["&amp;D104&amp;"["&amp;G104&amp;"', 'name2': '"&amp;B104&amp;"', 'template': '"&amp;D104&amp;"', 'pageStart': '"&amp;E104&amp;"', 'pages': '"&amp;G104&amp;"', 'search': '"&amp;K104&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '103', 'template_type': 'Entry', 'name': 'Assessment Scale Supporting Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.86[CG_A_73-74', 'name2': 'Assessment Scale Supporting Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.86', 'pageStart': '1073', 'pages': 'CG_A_73-74', 'search': 'Assessment Scale Supporting Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.86 CONF:81-16715;CONF:81-16716;CONF:81-16722;CONF:81-16723;CONF:81-16724;CONF:81-19178;CONF:81-19179;CONF:81-19180;CONF:81-16720;CONF:81-19089;CONF:81-16754;CONF:81-16755' },</v>
       </c>
       <c r="N104" t="str">
-        <f>"'"&amp;D104&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.86',</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -11278,21 +11278,21 @@
         <v>463</v>
       </c>
       <c r="K105" t="str">
-        <f>B105&amp;" "&amp;D105&amp;" "&amp;J105</f>
+        <f t="shared" si="4"/>
         <v>Authorization Activity 2.16.840.1.113883.10.20.1.19 CONF:81-8944;CONF:81-8945;CONF:81-8946;CONF:81-10529;CONF:81-8947;CONF:81-8948;CONF:81-8949;CONF:81-8951;CONF:81-8952</v>
       </c>
       <c r="M105" t="str">
-        <f>"{ 'id': '"&amp;A105&amp;"', 'template_type': '"&amp;C105&amp;"', 'name': '"&amp;B105&amp;" ["&amp;D105&amp;"["&amp;G105&amp;"', 'name2': '"&amp;B105&amp;"', 'template': '"&amp;D105&amp;"', 'pageStart': '"&amp;E105&amp;"', 'pages': '"&amp;G105&amp;"', 'search': '"&amp;K105&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '104', 'template_type': 'Entry', 'name': 'Authorization Activity [2.16.840.1.113883.10.20.1.19[443-444', 'name2': 'Authorization Activity', 'template': '2.16.840.1.113883.10.20.1.19', 'pageStart': '443', 'pages': '443-444', 'search': 'Authorization Activity 2.16.840.1.113883.10.20.1.19 CONF:81-8944;CONF:81-8945;CONF:81-8946;CONF:81-10529;CONF:81-8947;CONF:81-8948;CONF:81-8949;CONF:81-8951;CONF:81-8952' },</v>
       </c>
       <c r="N105" t="str">
-        <f>"'"&amp;D105&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.1.19',</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -11315,24 +11315,24 @@
         <v>CG_A_222-224</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="K106" t="str">
-        <f>B106&amp;" "&amp;D106&amp;" "&amp;J106</f>
+        <f t="shared" si="4"/>
         <v>Basic Industry Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.504 CONF:4537-33018;CONF:4537-33019;CONF:4537-33009;CONF:4537-33013;CONF:4537-33014;CONF:4537-33010;CONF:4537-33015;CONF:4537-33016;CONF:4537-33011;CONF:4537-33017;CONF:4537-33022;</v>
       </c>
       <c r="M106" t="str">
-        <f>"{ 'id': '"&amp;A106&amp;"', 'template_type': '"&amp;C106&amp;"', 'name': '"&amp;B106&amp;" ["&amp;D106&amp;"["&amp;G106&amp;"', 'name2': '"&amp;B106&amp;"', 'template': '"&amp;D106&amp;"', 'pageStart': '"&amp;E106&amp;"', 'pages': '"&amp;G106&amp;"', 'search': '"&amp;K106&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '105', 'template_type': 'Entry', 'name': 'Basic Industry Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.504[CG_A_222-224', 'name2': 'Basic Industry Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.504', 'pageStart': '1222', 'pages': 'CG_A_222-224', 'search': 'Basic Industry Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.504 CONF:4537-33018;CONF:4537-33019;CONF:4537-33009;CONF:4537-33013;CONF:4537-33014;CONF:4537-33010;CONF:4537-33015;CONF:4537-33016;CONF:4537-33011;CONF:4537-33017;CONF:4537-33022;' },</v>
       </c>
       <c r="N106" t="str">
-        <f>"'"&amp;D106&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.504',</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -11355,24 +11355,24 @@
         <v>CG_A_224-228</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="K107" t="str">
-        <f>B107&amp;" "&amp;D107&amp;" "&amp;J107</f>
+        <f t="shared" si="4"/>
         <v>Basic Occupation Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.503 CONF:4537-33000;CONF:4537-33001;CONF:4537-32995;CONF:4537-32998;CONF:4537-32999;CONF:4537-32996;CONF:4537-33002;CONF:4537-33003;CONF:4537-32997;CONF:4537-33004;CONF:4537-33005;CONF:4537-33007;CONF:4537-33008;CONF:4537-33006;CONF:4537-33058;CONF:4537-33059;CONF:4537-33060;CONF:4537-33062;CONF:4537-33063;</v>
       </c>
       <c r="M107" t="str">
-        <f>"{ 'id': '"&amp;A107&amp;"', 'template_type': '"&amp;C107&amp;"', 'name': '"&amp;B107&amp;" ["&amp;D107&amp;"["&amp;G107&amp;"', 'name2': '"&amp;B107&amp;"', 'template': '"&amp;D107&amp;"', 'pageStart': '"&amp;E107&amp;"', 'pages': '"&amp;G107&amp;"', 'search': '"&amp;K107&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '106', 'template_type': 'Entry', 'name': 'Basic Occupation Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.503[CG_A_224-228', 'name2': 'Basic Occupation Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.503', 'pageStart': '1224', 'pages': 'CG_A_224-228', 'search': 'Basic Occupation Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.503 CONF:4537-33000;CONF:4537-33001;CONF:4537-32995;CONF:4537-32998;CONF:4537-32999;CONF:4537-32996;CONF:4537-33002;CONF:4537-33003;CONF:4537-32997;CONF:4537-33004;CONF:4537-33005;CONF:4537-33007;CONF:4537-33008;CONF:4537-33006;CONF:4537-33058;CONF:4537-33059;CONF:4537-33060;CONF:4537-33062;CONF:4537-33063;' },</v>
       </c>
       <c r="N107" t="str">
-        <f>"'"&amp;D107&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.503',</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -11399,21 +11399,21 @@
         <v>CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;</v>
       </c>
       <c r="K108" t="str">
-        <f>B108&amp;" "&amp;D108&amp;" "&amp;J108</f>
+        <f t="shared" si="4"/>
         <v>Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;</v>
       </c>
       <c r="M108" t="str">
-        <f>"{ 'id': '"&amp;A108&amp;"', 'template_type': '"&amp;C108&amp;"', 'name': '"&amp;B108&amp;" ["&amp;D108&amp;"["&amp;G108&amp;"', 'name2': '"&amp;B108&amp;"', 'template': '"&amp;D108&amp;"', 'pageStart': '"&amp;E108&amp;"', 'pages': '"&amp;G108&amp;"', 'search': '"&amp;K108&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '107', 'template_type': 'Entry', 'name': 'Birth Sex Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.200[CG_A_74-77', 'name2': 'Birth Sex Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.200', 'pageStart': '1074', 'pages': 'CG_A_74-77', 'search': 'Birth Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.200 CONF:3250-18230;CONF:3250-18231;CONF:3250-18232;CONF:3250-18233;CONF:3250-32949;CONF:3250-18234;CONF:3250-18235;CONF:3250-21163;CONF:3250-18124;CONF:3250-18125;CONF:3250-32947;CONF:3250-32948;' },</v>
       </c>
       <c r="N108" t="str">
-        <f>"'"&amp;D108&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.200',</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -11442,21 +11442,21 @@
         <v>464</v>
       </c>
       <c r="K109" t="str">
-        <f>B109&amp;" "&amp;D109&amp;" "&amp;J109</f>
+        <f t="shared" si="4"/>
         <v>Boundary Observation  2.16.840.1.113883.10.20.6.2.11 CONF:81-9282;CONF:81-9283;CONF:81-9284;CONF:81-19157;CONF:81-9285</v>
       </c>
       <c r="M109" t="str">
-        <f>"{ 'id': '"&amp;A109&amp;"', 'template_type': '"&amp;C109&amp;"', 'name': '"&amp;B109&amp;" ["&amp;D109&amp;"["&amp;G109&amp;"', 'name2': '"&amp;B109&amp;"', 'template': '"&amp;D109&amp;"', 'pageStart': '"&amp;E109&amp;"', 'pages': '"&amp;G109&amp;"', 'search': '"&amp;K109&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '108', 'template_type': 'Entry', 'name': 'Boundary Observation  [2.16.840.1.113883.10.20.6.2.11[444-445', 'name2': 'Boundary Observation ', 'template': '2.16.840.1.113883.10.20.6.2.11', 'pageStart': '444', 'pages': '444-445', 'search': 'Boundary Observation  2.16.840.1.113883.10.20.6.2.11 CONF:81-9282;CONF:81-9283;CONF:81-9284;CONF:81-19157;CONF:81-9285' },</v>
       </c>
       <c r="N109" t="str">
-        <f>"'"&amp;D109&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.6.2.11',</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -11482,21 +11482,21 @@
         <v>1425</v>
       </c>
       <c r="K110" t="str">
-        <f>B110&amp;" "&amp;D110&amp;" "&amp;J110</f>
+        <f t="shared" si="4"/>
         <v>Brand Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.301 CONF:4437-3403;CONF:4437-3405;CONF:4437-3406;CONF:4437-3404;CONF:4437-3407;CONF:4437-3408;CONF:4437-3409;CONF:4437-3410;CONF:4437-3411;</v>
       </c>
       <c r="M110" t="str">
-        <f>"{ 'id': '"&amp;A110&amp;"', 'template_type': '"&amp;C110&amp;"', 'name': '"&amp;B110&amp;" ["&amp;D110&amp;"["&amp;G110&amp;"', 'name2': '"&amp;B110&amp;"', 'template': '"&amp;D110&amp;"', 'pageStart': '"&amp;E110&amp;"', 'pages': '"&amp;G110&amp;"', 'search': '"&amp;K110&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '109', 'template_type': 'Entry', 'name': 'Brand Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.301[CG_B_17-18', 'name2': 'Brand Name Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.301', 'pageStart': '2017', 'pages': 'CG_B_17-18', 'search': 'Brand Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.301 CONF:4437-3403;CONF:4437-3405;CONF:4437-3406;CONF:4437-3404;CONF:4437-3407;CONF:4437-3408;CONF:4437-3409;CONF:4437-3410;CONF:4437-3411;' },</v>
       </c>
       <c r="N110" t="str">
-        <f>"'"&amp;D110&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.301',</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -11522,21 +11522,21 @@
         <v>1288</v>
       </c>
       <c r="K111" t="str">
-        <f>B111&amp;" "&amp;D111&amp;" "&amp;J111</f>
+        <f t="shared" si="4"/>
         <v>Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;</v>
       </c>
       <c r="M111" t="str">
-        <f>"{ 'id': '"&amp;A111&amp;"', 'template_type': '"&amp;C111&amp;"', 'name': '"&amp;B111&amp;" ["&amp;D111&amp;"["&amp;G111&amp;"', 'name2': '"&amp;B111&amp;"', 'template': '"&amp;D111&amp;"', 'pageStart': '"&amp;E111&amp;"', 'pages': '"&amp;G111&amp;"', 'search': '"&amp;K111&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '110', 'template_type': 'Entry', 'name': 'Care Team Member Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.1[CG_A_77-85', 'name2': 'Care Team Member Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.1', 'pageStart': '1077', 'pages': 'CG_A_77-85', 'search': 'Care Team Member Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.1 CONF:4435-53;CONF:4435-54;CONF:4435-45;CONF:4435-66;CONF:4435-67;CONF:4435-162;CONF:4435-27;CONF:4435-48;CONF:4435-49;CONF:4435-62;CONF:4435-68;CONF:4435-33;CONF:4435-167;CONF:4435-168;CONF:4435-160;CONF:4435-161;CONF:4435-76;CONF:4435-78;CONF:4435-169;CONF:4435-172;CONF:4435-171;CONF:4435-174;CONF:4435-173;CONF:4435-86;CONF:4435-87;CONF:4435-88;CONF:4435-89;CONF:4435-90;CONF:4435-91;CONF:4435-92;CONF:4435-93;CONF:4435-94;CONF:4435-96;CONF:4435-95;' },</v>
       </c>
       <c r="N111" t="str">
-        <f>"'"&amp;D111&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.500.1',</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -11562,21 +11562,21 @@
         <v>1289</v>
       </c>
       <c r="K112" t="str">
-        <f>B112&amp;" "&amp;D112&amp;" "&amp;J112</f>
+        <f t="shared" si="4"/>
         <v>Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;</v>
       </c>
       <c r="M112" t="str">
-        <f>"{ 'id': '"&amp;A112&amp;"', 'template_type': '"&amp;C112&amp;"', 'name': '"&amp;B112&amp;" ["&amp;D112&amp;"["&amp;G112&amp;"', 'name2': '"&amp;B112&amp;"', 'template': '"&amp;D112&amp;"', 'pageStart': '"&amp;E112&amp;"', 'pages': '"&amp;G112&amp;"', 'search': '"&amp;K112&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '111', 'template_type': 'Entry', 'name': 'Care Team Member Schedule Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.3[CG_A_85-87', 'name2': 'Care Team Member Schedule Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.3', 'pageStart': '1085', 'pages': 'CG_A_85-87', 'search': 'Care Team Member Schedule Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.3 CONF:4435-24;CONF:4435-25;CONF:4435-12;CONF:4435-18;CONF:4435-19;CONF:4435-13;CONF:4435-20;CONF:4435-21;CONF:4435-15;CONF:4435-16;CONF:4435-26;CONF:4435-11;CONF:4435-17;CONF:4435-14;' },</v>
       </c>
       <c r="N112" t="str">
-        <f>"'"&amp;D112&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.500.3',</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -11602,21 +11602,21 @@
         <v>1290</v>
       </c>
       <c r="K113" t="str">
-        <f>B113&amp;" "&amp;D113&amp;" "&amp;J113</f>
+        <f t="shared" si="4"/>
         <v>Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;</v>
       </c>
       <c r="M113" t="str">
-        <f>"{ 'id': '"&amp;A113&amp;"', 'template_type': '"&amp;C113&amp;"', 'name': '"&amp;B113&amp;" ["&amp;D113&amp;"["&amp;G113&amp;"', 'name2': '"&amp;B113&amp;"', 'template': '"&amp;D113&amp;"', 'pageStart': '"&amp;E113&amp;"', 'pages': '"&amp;G113&amp;"', 'search': '"&amp;K113&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '112', 'template_type': 'Entry', 'name': 'Care Team Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.500[CG_A_87-97', 'name2': 'Care Team Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500', 'pageStart': '1087', 'pages': 'CG_A_87-97', 'search': 'Care Team Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.500 CONF:4435-124;CONF:4435-125;CONF:4435-112;CONF:4435-117;CONF:4435-118;CONF:4435-126;CONF:4435-114;CONF:4435-120;CONF:4435-121;CONF:4435-154;CONF:4435-155;CONF:4435-156;CONF:4435-113;CONF:4435-119;CONF:4435-127;CONF:4435-157;CONF:4435-158;CONF:4435-116;CONF:4435-128;CONF:4435-129;CONF:4435-130;CONF:4435-131;CONF:4435-132;CONF:4435-133;CONF:4435-134;CONF:4435-137;CONF:4435-135;CONF:4435-138;CONF:4435-139;CONF:4435-140;CONF:4435-136;CONF:4435-141;CONF:4435-142;CONF:4435-110;CONF:4435-163;CONF:4435-146;CONF:4435-147;CONF:4435-148;CONF:4435-164;CONF:4435-165;CONF:4435-145;CONF:4435-150;CONF:4435-151;CONF:4435-152;CONF:4435-166;' },</v>
       </c>
       <c r="N113" t="str">
-        <f>"'"&amp;D113&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.500',</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -11642,21 +11642,21 @@
         <v>1291</v>
       </c>
       <c r="K114" t="str">
-        <f>B114&amp;" "&amp;D114&amp;" "&amp;J114</f>
+        <f t="shared" si="4"/>
         <v>Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;</v>
       </c>
       <c r="M114" t="str">
-        <f>"{ 'id': '"&amp;A114&amp;"', 'template_type': '"&amp;C114&amp;"', 'name': '"&amp;B114&amp;" ["&amp;D114&amp;"["&amp;G114&amp;"', 'name2': '"&amp;B114&amp;"', 'template': '"&amp;D114&amp;"', 'pageStart': '"&amp;E114&amp;"', 'pages': '"&amp;G114&amp;"', 'search': '"&amp;K114&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '113', 'template_type': 'Entry', 'name': 'Care Team Type Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.500.2[CG_A_94-97', 'name2': 'Care Team Type Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.500.2', 'pageStart': '1094', 'pages': 'CG_A_94-97', 'search': 'Care Team Type Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.500.2 CONF:4435-101;CONF:4435-102;CONF:4435-99;CONF:4435-106;CONF:4435-108;CONF:4435-97;CONF:4435-103;CONF:4435-104;CONF:4435-100;CONF:4435-107;CONF:4435-98;CONF:4435-109;' },</v>
       </c>
       <c r="N114" t="str">
-        <f>"'"&amp;D114&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.500.2',</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -11685,21 +11685,21 @@
         <v>465</v>
       </c>
       <c r="K115" t="str">
-        <f>B115&amp;" "&amp;D115&amp;" "&amp;J115</f>
+        <f t="shared" si="4"/>
         <v>Caregiver Characteristics  2.16.840.1.113883.10.20.22.4.72 CONF:81-14219;CONF:81-14220;CONF:81-14221;CONF:81-14222;CONF:81-14223;CONF:81-14230;CONF:81-26513;CONF:81-14233;CONF:81-19090;CONF:81-14599;CONF:81-14600;CONF:81-14227;CONF:81-26451;CONF:81-14830;CONF:81-14831;CONF:81-14832;CONF:81-14228;CONF:81-14229</v>
       </c>
       <c r="M115" t="str">
-        <f>"{ 'id': '"&amp;A115&amp;"', 'template_type': '"&amp;C115&amp;"', 'name': '"&amp;B115&amp;" ["&amp;D115&amp;"["&amp;G115&amp;"', 'name2': '"&amp;B115&amp;"', 'template': '"&amp;D115&amp;"', 'pageStart': '"&amp;E115&amp;"', 'pages': '"&amp;G115&amp;"', 'search': '"&amp;K115&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '114', 'template_type': 'Entry', 'name': 'Caregiver Characteristics  [2.16.840.1.113883.10.20.22.4.72[445-447', 'name2': 'Caregiver Characteristics ', 'template': '2.16.840.1.113883.10.20.22.4.72', 'pageStart': '445', 'pages': '445-447', 'search': 'Caregiver Characteristics  2.16.840.1.113883.10.20.22.4.72 CONF:81-14219;CONF:81-14220;CONF:81-14221;CONF:81-14222;CONF:81-14223;CONF:81-14230;CONF:81-26513;CONF:81-14233;CONF:81-19090;CONF:81-14599;CONF:81-14600;CONF:81-14227;CONF:81-26451;CONF:81-14830;CONF:81-14831;CONF:81-14832;CONF:81-14228;CONF:81-14229' },</v>
       </c>
       <c r="N115" t="str">
-        <f>"'"&amp;D115&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.72',</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -11725,21 +11725,21 @@
         <v>1426</v>
       </c>
       <c r="K116" t="str">
-        <f>B116&amp;" "&amp;D116&amp;" "&amp;J116</f>
+        <f t="shared" si="4"/>
         <v>Catalog Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.302 CONF:4437-3432;CONF:4437-3434;CONF:4437-3435;CONF:4437-3433;CONF:4437-3436;CONF:4437-3437;CONF:4437-3438;CONF:4437-3439;CONF:4437-3440;</v>
       </c>
       <c r="M116" t="str">
-        <f>"{ 'id': '"&amp;A116&amp;"', 'template_type': '"&amp;C116&amp;"', 'name': '"&amp;B116&amp;" ["&amp;D116&amp;"["&amp;G116&amp;"', 'name2': '"&amp;B116&amp;"', 'template': '"&amp;D116&amp;"', 'pageStart': '"&amp;E116&amp;"', 'pages': '"&amp;G116&amp;"', 'search': '"&amp;K116&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '115', 'template_type': 'Entry', 'name': 'Catalog Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.302[CG_B_18-20', 'name2': 'Catalog Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.302', 'pageStart': '2018', 'pages': 'CG_B_18-20', 'search': 'Catalog Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.302 CONF:4437-3432;CONF:4437-3434;CONF:4437-3435;CONF:4437-3433;CONF:4437-3436;CONF:4437-3437;CONF:4437-3438;CONF:4437-3439;CONF:4437-3440;' },</v>
       </c>
       <c r="N116" t="str">
-        <f>"'"&amp;D116&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.302',</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -11768,21 +11768,21 @@
         <v>466</v>
       </c>
       <c r="K117" t="str">
-        <f>B117&amp;" "&amp;D117&amp;" "&amp;J117</f>
+        <f t="shared" si="4"/>
         <v>Characteristics of Home Environment 2.16.840.1.113883.10.20.22.4.109 CONF:1098-27890;CONF:1098-27891;CONF:1098-27892;CONF:1098-27893;CONF:1098-27894;CONF:1098-31352;CONF:1098-31353;CONF:1098-31354;CONF:1098-27901;CONF:1098-27902;CONF:1098-28823</v>
       </c>
       <c r="M117" t="str">
-        <f>"{ 'id': '"&amp;A117&amp;"', 'template_type': '"&amp;C117&amp;"', 'name': '"&amp;B117&amp;" ["&amp;D117&amp;"["&amp;G117&amp;"', 'name2': '"&amp;B117&amp;"', 'template': '"&amp;D117&amp;"', 'pageStart': '"&amp;E117&amp;"', 'pages': '"&amp;G117&amp;"', 'search': '"&amp;K117&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '116', 'template_type': 'Entry', 'name': 'Characteristics of Home Environment [2.16.840.1.113883.10.20.22.4.109[447-450', 'name2': 'Characteristics of Home Environment', 'template': '2.16.840.1.113883.10.20.22.4.109', 'pageStart': '447', 'pages': '447-450', 'search': 'Characteristics of Home Environment 2.16.840.1.113883.10.20.22.4.109 CONF:1098-27890;CONF:1098-27891;CONF:1098-27892;CONF:1098-27893;CONF:1098-27894;CONF:1098-31352;CONF:1098-31353;CONF:1098-31354;CONF:1098-27901;CONF:1098-27902;CONF:1098-28823' },</v>
       </c>
       <c r="N117" t="str">
-        <f>"'"&amp;D117&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.109',</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -11811,21 +11811,21 @@
         <v>467</v>
       </c>
       <c r="K118" t="str">
-        <f>B118&amp;" "&amp;D118&amp;" "&amp;J118</f>
+        <f t="shared" si="4"/>
         <v>Code Observations  2.16.840.1.113883.10.20.6.2.13 CONF:81-9304;CONF:81-9305;CONF:81-15523;CONF:81-15524;CONF:81-19181;CONF:81-9309;CONF:81-9308;CONF:81-9311;CONF:81-9312;CONF:81-16083;CONF:81-9314;CONF:81-9315;CONF:81-16084;CONF:81-9310</v>
       </c>
       <c r="M118" t="str">
-        <f>"{ 'id': '"&amp;A118&amp;"', 'template_type': '"&amp;C118&amp;"', 'name': '"&amp;B118&amp;" ["&amp;D118&amp;"["&amp;G118&amp;"', 'name2': '"&amp;B118&amp;"', 'template': '"&amp;D118&amp;"', 'pageStart': '"&amp;E118&amp;"', 'pages': '"&amp;G118&amp;"', 'search': '"&amp;K118&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '117', 'template_type': 'Entry', 'name': 'Code Observations  [2.16.840.1.113883.10.20.6.2.13[450-452', 'name2': 'Code Observations ', 'template': '2.16.840.1.113883.10.20.6.2.13', 'pageStart': '450', 'pages': '450-452', 'search': 'Code Observations  2.16.840.1.113883.10.20.6.2.13 CONF:81-9304;CONF:81-9305;CONF:81-15523;CONF:81-15524;CONF:81-19181;CONF:81-9309;CONF:81-9308;CONF:81-9311;CONF:81-9312;CONF:81-16083;CONF:81-9314;CONF:81-9315;CONF:81-16084;CONF:81-9310' },</v>
       </c>
       <c r="N118" t="str">
-        <f>"'"&amp;D118&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.6.2.13',</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -11854,21 +11854,21 @@
         <v>468</v>
       </c>
       <c r="K119" t="str">
-        <f>B119&amp;" "&amp;D119&amp;" "&amp;J119</f>
+        <f t="shared" si="4"/>
         <v>Cognitive Status Problem Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.73 CONF:1098-14319;CONF:1098-14320;CONF:1098-14344;CONF:1098-14346;CONF:1098-14347;CONF:1098-32600;CONF:1098-14321;CONF:1098-14804;CONF:1098-14805;CONF:1098-14341;CONF:1098-15532;CONF:1098-15533;CONF:1098-15534;CONF:1098-14323;CONF:1098-19091;CONF:1098-14324;CONF:1098-26458;CONF:1098-26459;CONF:1098-14349;CONF:1098-14693</v>
       </c>
       <c r="M119" t="str">
-        <f>"{ 'id': '"&amp;A119&amp;"', 'template_type': '"&amp;C119&amp;"', 'name': '"&amp;B119&amp;" ["&amp;D119&amp;"["&amp;G119&amp;"', 'name2': '"&amp;B119&amp;"', 'template': '"&amp;D119&amp;"', 'pageStart': '"&amp;E119&amp;"', 'pages': '"&amp;G119&amp;"', 'search': '"&amp;K119&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '118', 'template_type': 'Entry', 'name': 'Cognitive Status Problem Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.73[452-455', 'name2': 'Cognitive Status Problem Observation (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.4.73', 'pageStart': '452', 'pages': '452-455', 'search': 'Cognitive Status Problem Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.73 CONF:1098-14319;CONF:1098-14320;CONF:1098-14344;CONF:1098-14346;CONF:1098-14347;CONF:1098-32600;CONF:1098-14321;CONF:1098-14804;CONF:1098-14805;CONF:1098-14341;CONF:1098-15532;CONF:1098-15533;CONF:1098-15534;CONF:1098-14323;CONF:1098-19091;CONF:1098-14324;CONF:1098-26458;CONF:1098-26459;CONF:1098-14349;CONF:1098-14693' },</v>
       </c>
       <c r="N119" t="str">
-        <f>"'"&amp;D119&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.73',</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -11897,21 +11897,21 @@
         <v>469</v>
       </c>
       <c r="K120" t="str">
-        <f>B120&amp;" "&amp;D120&amp;" "&amp;J120</f>
+        <f t="shared" si="4"/>
         <v>Comment Activity 2.16.840.1.113883.10.20.22.4.64 CONF:81-9425;CONF:81-9426;CONF:81-9427;CONF:81-10491;CONF:81-9428;CONF:81-19159;CONF:81-26501;CONF:81-9430;CONF:81-15967;CONF:81-15968;CONF:81-15969;CONF:81-9431;CONF:81-9433;CONF:81-9429</v>
       </c>
       <c r="M120" t="str">
-        <f>"{ 'id': '"&amp;A120&amp;"', 'template_type': '"&amp;C120&amp;"', 'name': '"&amp;B120&amp;" ["&amp;D120&amp;"["&amp;G120&amp;"', 'name2': '"&amp;B120&amp;"', 'template': '"&amp;D120&amp;"', 'pageStart': '"&amp;E120&amp;"', 'pages': '"&amp;G120&amp;"', 'search': '"&amp;K120&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '119', 'template_type': 'Entry', 'name': 'Comment Activity [2.16.840.1.113883.10.20.22.4.64[455-457', 'name2': 'Comment Activity', 'template': '2.16.840.1.113883.10.20.22.4.64', 'pageStart': '455', 'pages': '455-457', 'search': 'Comment Activity 2.16.840.1.113883.10.20.22.4.64 CONF:81-9425;CONF:81-9426;CONF:81-9427;CONF:81-10491;CONF:81-9428;CONF:81-19159;CONF:81-26501;CONF:81-9430;CONF:81-15967;CONF:81-15968;CONF:81-15969;CONF:81-9431;CONF:81-9433;CONF:81-9429' },</v>
       </c>
       <c r="N120" t="str">
-        <f>"'"&amp;D120&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.64',</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -11937,25 +11937,25 @@
         <v>1427</v>
       </c>
       <c r="K121" t="str">
-        <f>B121&amp;" "&amp;D121&amp;" "&amp;J121</f>
+        <f t="shared" si="4"/>
         <v>Company Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.303 CONF:4437-3441;CONF:4437-3443;CONF:4437-3444;CONF:4437-3442;CONF:4437-3445;CONF:4437-3446;CONF:4437-3447;CONF:4437-3448;CONF:4437-3449;</v>
       </c>
       <c r="M121" t="str">
-        <f>"{ 'id': '"&amp;A121&amp;"', 'template_type': '"&amp;C121&amp;"', 'name': '"&amp;B121&amp;" ["&amp;D121&amp;"["&amp;G121&amp;"', 'name2': '"&amp;B121&amp;"', 'template': '"&amp;D121&amp;"', 'pageStart': '"&amp;E121&amp;"', 'pages': '"&amp;G121&amp;"', 'search': '"&amp;K121&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '120', 'template_type': 'Entry', 'name': 'Company Name Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.303[CG_B_20-22', 'name2': 'Company Name Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.303', 'pageStart': '2020', 'pages': 'CG_B_20-22', 'search': 'Company Name Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.303 CONF:4437-3441;CONF:4437-3443;CONF:4437-3444;CONF:4437-3442;CONF:4437-3445;CONF:4437-3446;CONF:4437-3447;CONF:4437-3448;CONF:4437-3449;' },</v>
       </c>
       <c r="N121" t="str">
-        <f>"'"&amp;D121&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.303',</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C122" t="s">
         <v>432</v>
@@ -11983,21 +11983,21 @@
         <v>470</v>
       </c>
       <c r="K122" t="str">
-        <f>B122&amp;" "&amp;D122&amp;" "&amp;J122</f>
+        <f t="shared" si="4"/>
         <v>Coverage Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.60 CONF:1198-8872;CONF:1198-8873;CONF:1198-8897;CONF:1198-10492;CONF:1198-32596;CONF:1198-8874;CONF:1198-8876;CONF:1198-19160;CONF:1198-32156;CONF:1198-8875;CONF:1198-19094;CONF:1198-8878;CONF:1198-8879;CONF:1198-17174;CONF:1198-17175;CONF:1198-15528</v>
       </c>
       <c r="M122" t="str">
-        <f>"{ 'id': '"&amp;A122&amp;"', 'template_type': '"&amp;C122&amp;"', 'name': '"&amp;B122&amp;" ["&amp;D122&amp;"["&amp;G122&amp;"', 'name2': '"&amp;B122&amp;"', 'template': '"&amp;D122&amp;"', 'pageStart': '"&amp;E122&amp;"', 'pages': '"&amp;G122&amp;"', 'search': '"&amp;K122&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '121', 'template_type': 'Entry', 'name': 'Coverage Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.60[CG_A_97-100', 'name2': 'Coverage Activity (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.60', 'pageStart': '1097', 'pages': 'CG_A_97-100', 'search': 'Coverage Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.60 CONF:1198-8872;CONF:1198-8873;CONF:1198-8897;CONF:1198-10492;CONF:1198-32596;CONF:1198-8874;CONF:1198-8876;CONF:1198-19160;CONF:1198-32156;CONF:1198-8875;CONF:1198-19094;CONF:1198-8878;CONF:1198-8879;CONF:1198-17174;CONF:1198-17175;CONF:1198-15528' },</v>
       </c>
       <c r="N122" t="str">
-        <f>"'"&amp;D122&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.60',</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -12026,21 +12026,21 @@
         <v>471</v>
       </c>
       <c r="K123" t="str">
-        <f>B123&amp;" "&amp;D123&amp;" "&amp;J123</f>
+        <f t="shared" si="4"/>
         <v>Criticality Observation 2.16.840.1.113883.10.20.22.4.145 CONF:81-32921;CONF:81-32922;CONF:81-32918;CONF:81-32923;CONF:81-32919;CONF:81-32925;CONF:81-32926;CONF:81-32920;CONF:81-32927;CONF:81-32928</v>
       </c>
       <c r="M123" t="str">
-        <f>"{ 'id': '"&amp;A123&amp;"', 'template_type': '"&amp;C123&amp;"', 'name': '"&amp;B123&amp;" ["&amp;D123&amp;"["&amp;G123&amp;"', 'name2': '"&amp;B123&amp;"', 'template': '"&amp;D123&amp;"', 'pageStart': '"&amp;E123&amp;"', 'pages': '"&amp;G123&amp;"', 'search': '"&amp;K123&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '122', 'template_type': 'Entry', 'name': 'Criticality Observation [2.16.840.1.113883.10.20.22.4.145[460-462', 'name2': 'Criticality Observation', 'template': '2.16.840.1.113883.10.20.22.4.145', 'pageStart': '460', 'pages': '460-462', 'search': 'Criticality Observation 2.16.840.1.113883.10.20.22.4.145 CONF:81-32921;CONF:81-32922;CONF:81-32918;CONF:81-32923;CONF:81-32919;CONF:81-32925;CONF:81-32926;CONF:81-32920;CONF:81-32927;CONF:81-32928' },</v>
       </c>
       <c r="N123" t="str">
-        <f>"'"&amp;D123&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.145',</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -12069,21 +12069,21 @@
         <v>472</v>
       </c>
       <c r="K124" t="str">
-        <f>B124&amp;" "&amp;D124&amp;" "&amp;J124</f>
+        <f t="shared" si="4"/>
         <v>Cultural and Religious Observation  2.16.840.1.113883.10.20.22.4.111 CONF:1098-27924;CONF:1098-27925;CONF:1098-27926;CONF:1098-27927;CONF:1098-27928;CONF:1098-27929;CONF:1098-27930;CONF:1098-27931;CONF:1098-27936;CONF:1098-27937;CONF:1098-28442;CONF:1098-32487</v>
       </c>
       <c r="M124" t="str">
-        <f>"{ 'id': '"&amp;A124&amp;"', 'template_type': '"&amp;C124&amp;"', 'name': '"&amp;B124&amp;" ["&amp;D124&amp;"["&amp;G124&amp;"', 'name2': '"&amp;B124&amp;"', 'template': '"&amp;D124&amp;"', 'pageStart': '"&amp;E124&amp;"', 'pages': '"&amp;G124&amp;"', 'search': '"&amp;K124&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '123', 'template_type': 'Entry', 'name': 'Cultural and Religious Observation  [2.16.840.1.113883.10.20.22.4.111[462-463', 'name2': 'Cultural and Religious Observation ', 'template': '2.16.840.1.113883.10.20.22.4.111', 'pageStart': '462', 'pages': '462-463', 'search': 'Cultural and Religious Observation  2.16.840.1.113883.10.20.22.4.111 CONF:1098-27924;CONF:1098-27925;CONF:1098-27926;CONF:1098-27927;CONF:1098-27928;CONF:1098-27929;CONF:1098-27930;CONF:1098-27931;CONF:1098-27936;CONF:1098-27937;CONF:1098-28442;CONF:1098-32487' },</v>
       </c>
       <c r="N124" t="str">
-        <f>"'"&amp;D124&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.111',</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -12106,24 +12106,24 @@
         <v>CG_A_100-102</v>
       </c>
       <c r="J125" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="K125" t="str">
-        <f>B125&amp;" "&amp;D125&amp;" "&amp;J125</f>
+        <f t="shared" si="4"/>
         <v>Date of Diagnosis Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.502 CONF:4515-33010;CONF:4515-33011;CONF:4515-33000;CONF:4515-33002;CONF:4515-33003;CONF:4515-33001;CONF:4515-33004;CONF:4515-33005;CONF:4515-33006;CONF:4515-33007;CONF:4515-33008;CONF:4515-33016;CONF:4515-33017</v>
       </c>
       <c r="M125" t="str">
-        <f>"{ 'id': '"&amp;A125&amp;"', 'template_type': '"&amp;C125&amp;"', 'name': '"&amp;B125&amp;" ["&amp;D125&amp;"["&amp;G125&amp;"', 'name2': '"&amp;B125&amp;"', 'template': '"&amp;D125&amp;"', 'pageStart': '"&amp;E125&amp;"', 'pages': '"&amp;G125&amp;"', 'search': '"&amp;K125&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '124', 'template_type': 'Entry', 'name': 'Date of Diagnosis Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.502[CG_A_100-102', 'name2': 'Date of Diagnosis Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.502', 'pageStart': '1100', 'pages': 'CG_A_100-102', 'search': 'Date of Diagnosis Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.502 CONF:4515-33010;CONF:4515-33011;CONF:4515-33000;CONF:4515-33002;CONF:4515-33003;CONF:4515-33001;CONF:4515-33004;CONF:4515-33005;CONF:4515-33006;CONF:4515-33007;CONF:4515-33008;CONF:4515-33016;CONF:4515-33017' },</v>
       </c>
       <c r="N125" t="str">
-        <f>"'"&amp;D125&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.502',</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -12152,21 +12152,21 @@
         <v>473</v>
       </c>
       <c r="K126" t="str">
-        <f>B126&amp;" "&amp;D126&amp;" "&amp;J126</f>
+        <f t="shared" si="4"/>
         <v>Deceased Observation   2.16.840.1.113883.10.20.22.4.79 CONF:1198-14851;CONF:1198-14852;CONF:1198-14871;CONF:1198-14872;CONF:1198-32541;CONF:1198-14873;CONF:1198-14853;CONF:1198-19135;CONF:1198-32158;CONF:1198-14854;CONF:1198-19095;CONF:1198-14855;CONF:1198-14874;CONF:1198-14857;CONF:1198-15142;CONF:1198-14868;CONF:1198-14875;CONF:1198-32900;CONF:1198-14870</v>
       </c>
       <c r="M126" t="str">
-        <f>"{ 'id': '"&amp;A126&amp;"', 'template_type': '"&amp;C126&amp;"', 'name': '"&amp;B126&amp;" ["&amp;D126&amp;"["&amp;G126&amp;"', 'name2': '"&amp;B126&amp;"', 'template': '"&amp;D126&amp;"', 'pageStart': '"&amp;E126&amp;"', 'pages': '"&amp;G126&amp;"', 'search': '"&amp;K126&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '125', 'template_type': 'Entry', 'name': 'Deceased Observation   [2.16.840.1.113883.10.20.22.4.79[463-467', 'name2': 'Deceased Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.79', 'pageStart': '463', 'pages': '463-467', 'search': 'Deceased Observation   2.16.840.1.113883.10.20.22.4.79 CONF:1198-14851;CONF:1198-14852;CONF:1198-14871;CONF:1198-14872;CONF:1198-32541;CONF:1198-14873;CONF:1198-14853;CONF:1198-19135;CONF:1198-32158;CONF:1198-14854;CONF:1198-19095;CONF:1198-14855;CONF:1198-14874;CONF:1198-14857;CONF:1198-15142;CONF:1198-14868;CONF:1198-14875;CONF:1198-32900;CONF:1198-14870' },</v>
       </c>
       <c r="N126" t="str">
-        <f>"'"&amp;D126&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.79',</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -12192,21 +12192,21 @@
         <v>1428</v>
       </c>
       <c r="K127" t="str">
-        <f>B127&amp;" "&amp;D127&amp;" "&amp;J127</f>
+        <f t="shared" si="4"/>
         <v>Device Identifier Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.304 CONF:4437-3421;CONF:4437-3424;CONF:4437-3425;CONF:4437-3422;CONF:4437-3426;CONF:4437-3427;CONF:4437-3428;CONF:4437-3429;CONF:4437-3423;CONF:4437-3430;CONF:4437-3431;CONF:4437-3540;</v>
       </c>
       <c r="M127" t="str">
-        <f>"{ 'id': '"&amp;A127&amp;"', 'template_type': '"&amp;C127&amp;"', 'name': '"&amp;B127&amp;" ["&amp;D127&amp;"["&amp;G127&amp;"', 'name2': '"&amp;B127&amp;"', 'template': '"&amp;D127&amp;"', 'pageStart': '"&amp;E127&amp;"', 'pages': '"&amp;G127&amp;"', 'search': '"&amp;K127&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '126', 'template_type': 'Entry', 'name': 'Device Identifier Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.304[CG_B_22-24', 'name2': 'Device Identifier Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.304', 'pageStart': '2022', 'pages': 'CG_B_22-24', 'search': 'Device Identifier Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.304 CONF:4437-3421;CONF:4437-3424;CONF:4437-3425;CONF:4437-3422;CONF:4437-3426;CONF:4437-3427;CONF:4437-3428;CONF:4437-3429;CONF:4437-3423;CONF:4437-3430;CONF:4437-3431;CONF:4437-3540;' },</v>
       </c>
       <c r="N127" t="str">
-        <f>"'"&amp;D127&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.304',</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -12229,24 +12229,24 @@
         <v>CG_A_102-107</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="K128" t="str">
-        <f>B128&amp;" "&amp;D128&amp;" "&amp;J128</f>
+        <f t="shared" si="4"/>
         <v>Disability Status Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.505 CONF:4537-32620;CONF:4537-32621;CONF:4537-32619;CONF:4537-32622;CONF:4537-32623;CONF:4537-32624;CONF:4537-33023;CONF:4537-33024;CONF:4537-32625;CONF:4537-32626;CONF:4537-32627;CONF:4537-32628;CONF:4537-32629;CONF:4537-32631;CONF:4537-32630;</v>
       </c>
       <c r="M128" t="str">
-        <f>"{ 'id': '"&amp;A128&amp;"', 'template_type': '"&amp;C128&amp;"', 'name': '"&amp;B128&amp;" ["&amp;D128&amp;"["&amp;G128&amp;"', 'name2': '"&amp;B128&amp;"', 'template': '"&amp;D128&amp;"', 'pageStart': '"&amp;E128&amp;"', 'pages': '"&amp;G128&amp;"', 'search': '"&amp;K128&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '127', 'template_type': 'Entry', 'name': 'Disability Status Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.505[CG_A_102-107', 'name2': 'Disability Status Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.505', 'pageStart': '1102', 'pages': 'CG_A_102-107', 'search': 'Disability Status Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.505 CONF:4537-32620;CONF:4537-32621;CONF:4537-32619;CONF:4537-32622;CONF:4537-32623;CONF:4537-32624;CONF:4537-33023;CONF:4537-33024;CONF:4537-32625;CONF:4537-32626;CONF:4537-32627;CONF:4537-32628;CONF:4537-32629;CONF:4537-32631;CONF:4537-32630;' },</v>
       </c>
       <c r="N128" t="str">
-        <f>"'"&amp;D128&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.505',</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -12275,21 +12275,21 @@
         <v>474</v>
       </c>
       <c r="K129" t="str">
-        <f>B129&amp;" "&amp;D129&amp;" "&amp;J129</f>
+        <f t="shared" si="4"/>
         <v>Discharge Medication  2.16.840.1.113883.10.20.22.4.35 CONF:1198-7689;CONF:1198-7690;CONF:1198-16760;CONF:1198-16761;CONF:1198-32513;CONF:1198-7691;CONF:1198-19161;CONF:1198-32159;CONF:1198-32952;CONF:1198-32953;CONF:1198-32954;CONF:1198-32779;CONF:1198-32780;CONF:1198-7692;CONF:1198-7693;CONF:1198-15525</v>
       </c>
       <c r="M129" t="str">
-        <f>"{ 'id': '"&amp;A129&amp;"', 'template_type': '"&amp;C129&amp;"', 'name': '"&amp;B129&amp;" ["&amp;D129&amp;"["&amp;G129&amp;"', 'name2': '"&amp;B129&amp;"', 'template': '"&amp;D129&amp;"', 'pageStart': '"&amp;E129&amp;"', 'pages': '"&amp;G129&amp;"', 'search': '"&amp;K129&amp;"' },"</f>
+        <f t="shared" si="5"/>
         <v>{ 'id': '128', 'template_type': 'Entry', 'name': 'Discharge Medication  [2.16.840.1.113883.10.20.22.4.35[467-470', 'name2': 'Discharge Medication ', 'template': '2.16.840.1.113883.10.20.22.4.35', 'pageStart': '467', 'pages': '467-470', 'search': 'Discharge Medication  2.16.840.1.113883.10.20.22.4.35 CONF:1198-7689;CONF:1198-7690;CONF:1198-16760;CONF:1198-16761;CONF:1198-32513;CONF:1198-7691;CONF:1198-19161;CONF:1198-32159;CONF:1198-32952;CONF:1198-32953;CONF:1198-32954;CONF:1198-32779;CONF:1198-32780;CONF:1198-7692;CONF:1198-7693;CONF:1198-15525' },</v>
       </c>
       <c r="N129" t="str">
-        <f>"'"&amp;D129&amp;"',"</f>
+        <f t="shared" si="6"/>
         <v>'2.16.840.1.113883.10.20.22.4.35',</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -12315,21 +12315,21 @@
         <v>1429</v>
       </c>
       <c r="K130" t="str">
-        <f>B130&amp;" "&amp;D130&amp;" "&amp;J130</f>
+        <f t="shared" ref="K130:K193" si="8">B130&amp;" "&amp;D130&amp;" "&amp;J130</f>
         <v>Distinct Identification Code Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.308 CONF:4437-3348;CONF:4437-3350;CONF:4437-3351;CONF:4437-3349;CONF:4437-3355;CONF:4437-3352;CONF:4437-3353;CONF:4437-3354;CONF:4437-3340;</v>
       </c>
       <c r="M130" t="str">
-        <f>"{ 'id': '"&amp;A130&amp;"', 'template_type': '"&amp;C130&amp;"', 'name': '"&amp;B130&amp;" ["&amp;D130&amp;"["&amp;G130&amp;"', 'name2': '"&amp;B130&amp;"', 'template': '"&amp;D130&amp;"', 'pageStart': '"&amp;E130&amp;"', 'pages': '"&amp;G130&amp;"', 'search': '"&amp;K130&amp;"' },"</f>
+        <f t="shared" ref="M130:M193" si="9">"{ 'id': '"&amp;A130&amp;"', 'template_type': '"&amp;C130&amp;"', 'name': '"&amp;B130&amp;" ["&amp;D130&amp;"["&amp;G130&amp;"', 'name2': '"&amp;B130&amp;"', 'template': '"&amp;D130&amp;"', 'pageStart': '"&amp;E130&amp;"', 'pages': '"&amp;G130&amp;"', 'search': '"&amp;K130&amp;"' },"</f>
         <v>{ 'id': '129', 'template_type': 'Entry', 'name': 'Distinct Identification Code Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.308[CG_B_25-26', 'name2': 'Distinct Identification Code Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.308', 'pageStart': '2025', 'pages': 'CG_B_25-26', 'search': 'Distinct Identification Code Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.308 CONF:4437-3348;CONF:4437-3350;CONF:4437-3351;CONF:4437-3349;CONF:4437-3355;CONF:4437-3352;CONF:4437-3353;CONF:4437-3354;CONF:4437-3340;' },</v>
       </c>
       <c r="N130" t="str">
-        <f>"'"&amp;D130&amp;"',"</f>
+        <f t="shared" ref="N130:N193" si="10">"'"&amp;D130&amp;"',"</f>
         <v>'2.16.840.1.113883.10.20.22.4.308',</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -12358,21 +12358,21 @@
         <v>475</v>
       </c>
       <c r="K131" t="str">
-        <f>B131&amp;" "&amp;D131&amp;" "&amp;J131</f>
+        <f t="shared" si="8"/>
         <v>Drug Monitoring Act 2.16.840.1.113883.10.20.22.4.123 CONF:1098-30823;CONF:1098-28656;CONF:1098-28657;CONF:1098-28658;CONF:1098-31920;CONF:1098-28660;CONF:1098-30818;CONF:1098-30819;CONF:1098-31921;CONF:1098-32358;CONF:1098-31922;CONF:1098-28661;CONF:1098-28663;CONF:1098-28662;CONF:1098-28664;CONF:1098-28665;CONF:1098-28667;CONF:1098-28668;CONF:1098-28669</v>
       </c>
       <c r="M131" t="str">
-        <f>"{ 'id': '"&amp;A131&amp;"', 'template_type': '"&amp;C131&amp;"', 'name': '"&amp;B131&amp;" ["&amp;D131&amp;"["&amp;G131&amp;"', 'name2': '"&amp;B131&amp;"', 'template': '"&amp;D131&amp;"', 'pageStart': '"&amp;E131&amp;"', 'pages': '"&amp;G131&amp;"', 'search': '"&amp;K131&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '130', 'template_type': 'Entry', 'name': 'Drug Monitoring Act [2.16.840.1.113883.10.20.22.4.123[470-474', 'name2': 'Drug Monitoring Act', 'template': '2.16.840.1.113883.10.20.22.4.123', 'pageStart': '470', 'pages': '470-474', 'search': 'Drug Monitoring Act 2.16.840.1.113883.10.20.22.4.123 CONF:1098-30823;CONF:1098-28656;CONF:1098-28657;CONF:1098-28658;CONF:1098-31920;CONF:1098-28660;CONF:1098-30818;CONF:1098-30819;CONF:1098-31921;CONF:1098-32358;CONF:1098-31922;CONF:1098-28661;CONF:1098-28663;CONF:1098-28662;CONF:1098-28664;CONF:1098-28665;CONF:1098-28667;CONF:1098-28668;CONF:1098-28669' },</v>
       </c>
       <c r="N131" t="str">
-        <f>"'"&amp;D131&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.123',</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="2">+A131+1</f>
+        <f t="shared" ref="A132:A195" si="11">+A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -12401,21 +12401,21 @@
         <v>476</v>
       </c>
       <c r="K132" t="str">
-        <f>B132&amp;" "&amp;D132&amp;" "&amp;J132</f>
+        <f t="shared" si="8"/>
         <v>Drug Vehicle  2.16.840.1.113883.10.20.22.4.24 CONF:81-7490;CONF:81-7495;CONF:81-10493;CONF:81-19137;CONF:81-19138;CONF:81-26502;CONF:81-7492;CONF:81-7493;CONF:81-7494;CONF:81-10087</v>
       </c>
       <c r="M132" t="str">
-        <f>"{ 'id': '"&amp;A132&amp;"', 'template_type': '"&amp;C132&amp;"', 'name': '"&amp;B132&amp;" ["&amp;D132&amp;"["&amp;G132&amp;"', 'name2': '"&amp;B132&amp;"', 'template': '"&amp;D132&amp;"', 'pageStart': '"&amp;E132&amp;"', 'pages': '"&amp;G132&amp;"', 'search': '"&amp;K132&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '131', 'template_type': 'Entry', 'name': 'Drug Vehicle  [2.16.840.1.113883.10.20.22.4.24[474-475', 'name2': 'Drug Vehicle ', 'template': '2.16.840.1.113883.10.20.22.4.24', 'pageStart': '474', 'pages': '474-475', 'search': 'Drug Vehicle  2.16.840.1.113883.10.20.22.4.24 CONF:81-7490;CONF:81-7495;CONF:81-10493;CONF:81-19137;CONF:81-19138;CONF:81-26502;CONF:81-7492;CONF:81-7493;CONF:81-7494;CONF:81-10087' },</v>
       </c>
       <c r="N132" t="str">
-        <f>"'"&amp;D132&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.24',</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -12444,21 +12444,21 @@
         <v>477</v>
       </c>
       <c r="K133" t="str">
-        <f>B133&amp;" "&amp;D133&amp;" "&amp;J133</f>
+        <f t="shared" si="8"/>
         <v>Encounter Activity  2.16.840.1.113883.10.20.22.4.49 CONF:1198-8710;CONF:1198-8711;CONF:1198-8712;CONF:1198-26353;CONF:1198-32546;CONF:1198-8713;CONF:1198-8714;CONF:1198-8719;CONF:1198-15970;CONF:1198-15971;CONF:1198-15972;CONF:1198-32323;CONF:1198-8715;CONF:1198-32176;CONF:1198-32177;CONF:1198-32377;CONF:1198-8725;CONF:1198-8726;CONF:1198-8727;CONF:1198-8738;CONF:1198-8740;CONF:1198-14903;CONF:1198-8722;CONF:1198-8723;CONF:1198-14899;CONF:1198-15492;CONF:1198-15973</v>
       </c>
       <c r="M133" t="str">
-        <f>"{ 'id': '"&amp;A133&amp;"', 'template_type': '"&amp;C133&amp;"', 'name': '"&amp;B133&amp;" ["&amp;D133&amp;"["&amp;G133&amp;"', 'name2': '"&amp;B133&amp;"', 'template': '"&amp;D133&amp;"', 'pageStart': '"&amp;E133&amp;"', 'pages': '"&amp;G133&amp;"', 'search': '"&amp;K133&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '132', 'template_type': 'Entry', 'name': 'Encounter Activity  [2.16.840.1.113883.10.20.22.4.49[475-487', 'name2': 'Encounter Activity ', 'template': '2.16.840.1.113883.10.20.22.4.49', 'pageStart': '475', 'pages': '475-487', 'search': 'Encounter Activity  2.16.840.1.113883.10.20.22.4.49 CONF:1198-8710;CONF:1198-8711;CONF:1198-8712;CONF:1198-26353;CONF:1198-32546;CONF:1198-8713;CONF:1198-8714;CONF:1198-8719;CONF:1198-15970;CONF:1198-15971;CONF:1198-15972;CONF:1198-32323;CONF:1198-8715;CONF:1198-32176;CONF:1198-32177;CONF:1198-32377;CONF:1198-8725;CONF:1198-8726;CONF:1198-8727;CONF:1198-8738;CONF:1198-8740;CONF:1198-14903;CONF:1198-8722;CONF:1198-8723;CONF:1198-14899;CONF:1198-15492;CONF:1198-15973' },</v>
       </c>
       <c r="N133" t="str">
-        <f>"'"&amp;D133&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.49',</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -12487,21 +12487,21 @@
         <v>478</v>
       </c>
       <c r="K134" t="str">
-        <f>B134&amp;" "&amp;D134&amp;" "&amp;J134</f>
+        <f t="shared" si="8"/>
         <v>Encounter Diagnosis  2.16.840.1.113883.10.20.22.4.80 CONF:1198-14889;CONF:1198-14890;CONF:1198-14895;CONF:1198-14896;CONF:1198-32542;CONF:1198-19182;CONF:1198-19183;CONF:1198-32160;CONF:1198-14892;CONF:1198-14893;CONF:1198-14898</v>
       </c>
       <c r="M134" t="str">
-        <f>"{ 'id': '"&amp;A134&amp;"', 'template_type': '"&amp;C134&amp;"', 'name': '"&amp;B134&amp;" ["&amp;D134&amp;"["&amp;G134&amp;"', 'name2': '"&amp;B134&amp;"', 'template': '"&amp;D134&amp;"', 'pageStart': '"&amp;E134&amp;"', 'pages': '"&amp;G134&amp;"', 'search': '"&amp;K134&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '133', 'template_type': 'Entry', 'name': 'Encounter Diagnosis  [2.16.840.1.113883.10.20.22.4.80[487-489', 'name2': 'Encounter Diagnosis ', 'template': '2.16.840.1.113883.10.20.22.4.80', 'pageStart': '487', 'pages': '487-489', 'search': 'Encounter Diagnosis  2.16.840.1.113883.10.20.22.4.80 CONF:1198-14889;CONF:1198-14890;CONF:1198-14895;CONF:1198-14896;CONF:1198-32542;CONF:1198-19182;CONF:1198-19183;CONF:1198-32160;CONF:1198-14892;CONF:1198-14893;CONF:1198-14898' },</v>
       </c>
       <c r="N134" t="str">
-        <f>"'"&amp;D134&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.80',</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -12530,21 +12530,21 @@
         <v>479</v>
       </c>
       <c r="K135" t="str">
-        <f>B135&amp;" "&amp;D135&amp;" "&amp;J135</f>
+        <f t="shared" si="8"/>
         <v>Entry Reference  2.16.840.1.113883.10.20.22.4.122 CONF:1098-31485;CONF:1098-31486;CONF:1098-31487;CONF:1098-31488;CONF:1098-31489;CONF:1098-31490;CONF:1098-31491;CONF:1098-31498;CONF:1098-31499</v>
       </c>
       <c r="M135" t="str">
-        <f>"{ 'id': '"&amp;A135&amp;"', 'template_type': '"&amp;C135&amp;"', 'name': '"&amp;B135&amp;" ["&amp;D135&amp;"["&amp;G135&amp;"', 'name2': '"&amp;B135&amp;"', 'template': '"&amp;D135&amp;"', 'pageStart': '"&amp;E135&amp;"', 'pages': '"&amp;G135&amp;"', 'search': '"&amp;K135&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '134', 'template_type': 'Entry', 'name': 'Entry Reference  [2.16.840.1.113883.10.20.22.4.122[489-494', 'name2': 'Entry Reference ', 'template': '2.16.840.1.113883.10.20.22.4.122', 'pageStart': '489', 'pages': '489-494', 'search': 'Entry Reference  2.16.840.1.113883.10.20.22.4.122 CONF:1098-31485;CONF:1098-31486;CONF:1098-31487;CONF:1098-31488;CONF:1098-31489;CONF:1098-31490;CONF:1098-31491;CONF:1098-31498;CONF:1098-31499' },</v>
       </c>
       <c r="N135" t="str">
-        <f>"'"&amp;D135&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.122',</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -12573,21 +12573,21 @@
         <v>480</v>
       </c>
       <c r="K136" t="str">
-        <f>B136&amp;" "&amp;D136&amp;" "&amp;J136</f>
+        <f t="shared" si="8"/>
         <v>Estimated Date of Delivery  2.16.840.1.113883.10.20.15.3.1 CONF:81-444;CONF:81-445;CONF:81-16762;CONF:81-16763;CONF:81-19139;CONF:81-19140;CONF:81-26503;CONF:81-448;CONF:81-19096;CONF:81-450</v>
       </c>
       <c r="M136" t="str">
-        <f>"{ 'id': '"&amp;A136&amp;"', 'template_type': '"&amp;C136&amp;"', 'name': '"&amp;B136&amp;" ["&amp;D136&amp;"["&amp;G136&amp;"', 'name2': '"&amp;B136&amp;"', 'template': '"&amp;D136&amp;"', 'pageStart': '"&amp;E136&amp;"', 'pages': '"&amp;G136&amp;"', 'search': '"&amp;K136&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '135', 'template_type': 'Entry', 'name': 'Estimated Date of Delivery  [2.16.840.1.113883.10.20.15.3.1[494-495', 'name2': 'Estimated Date of Delivery ', 'template': '2.16.840.1.113883.10.20.15.3.1', 'pageStart': '494', 'pages': '494-495', 'search': 'Estimated Date of Delivery  2.16.840.1.113883.10.20.15.3.1 CONF:81-444;CONF:81-445;CONF:81-16762;CONF:81-16763;CONF:81-19139;CONF:81-19140;CONF:81-26503;CONF:81-448;CONF:81-19096;CONF:81-450' },</v>
       </c>
       <c r="N136" t="str">
-        <f>"'"&amp;D136&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.15.3.1',</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -12613,21 +12613,21 @@
         <v>1430</v>
       </c>
       <c r="K137" t="str">
-        <f>B137&amp;" "&amp;D137&amp;" "&amp;J137</f>
+        <f t="shared" si="8"/>
         <v>Expiration Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.309 CONF:4437-3393;CONF:4437-3396;CONF:4437-3397;CONF:4437-3394;CONF:4437-3398;CONF:4437-3399;CONF:4437-3400;CONF:4437-3401;CONF:4437-3395;CONF:4437-3402;</v>
       </c>
       <c r="M137" t="str">
-        <f>"{ 'id': '"&amp;A137&amp;"', 'template_type': '"&amp;C137&amp;"', 'name': '"&amp;B137&amp;" ["&amp;D137&amp;"["&amp;G137&amp;"', 'name2': '"&amp;B137&amp;"', 'template': '"&amp;D137&amp;"', 'pageStart': '"&amp;E137&amp;"', 'pages': '"&amp;G137&amp;"', 'search': '"&amp;K137&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '136', 'template_type': 'Entry', 'name': 'Expiration Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.309[CG_B_26-28', 'name2': 'Expiration Date Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.309', 'pageStart': '2026', 'pages': 'CG_B_26-28', 'search': 'Expiration Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.309 CONF:4437-3393;CONF:4437-3396;CONF:4437-3397;CONF:4437-3394;CONF:4437-3398;CONF:4437-3399;CONF:4437-3400;CONF:4437-3401;CONF:4437-3395;CONF:4437-3402;' },</v>
       </c>
       <c r="N137" t="str">
-        <f>"'"&amp;D137&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.309',</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -12656,21 +12656,21 @@
         <v>481</v>
       </c>
       <c r="K138" t="str">
-        <f>B138&amp;" "&amp;D138&amp;" "&amp;J138</f>
+        <f t="shared" si="8"/>
         <v>External Document Reference  2.16.840.1.113883.10.20.22.4.115 CONF:1098-31931;CONF:1098-31932;CONF:1098-32748;CONF:1098-32750;CONF:1098-32749;CONF:1098-32751;CONF:1098-31933;CONF:1098-32752;CONF:1098-32753</v>
       </c>
       <c r="M138" t="str">
-        <f>"{ 'id': '"&amp;A138&amp;"', 'template_type': '"&amp;C138&amp;"', 'name': '"&amp;B138&amp;" ["&amp;D138&amp;"["&amp;G138&amp;"', 'name2': '"&amp;B138&amp;"', 'template': '"&amp;D138&amp;"', 'pageStart': '"&amp;E138&amp;"', 'pages': '"&amp;G138&amp;"', 'search': '"&amp;K138&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '137', 'template_type': 'Entry', 'name': 'External Document Reference  [2.16.840.1.113883.10.20.22.4.115[495-497', 'name2': 'External Document Reference ', 'template': '2.16.840.1.113883.10.20.22.4.115', 'pageStart': '495', 'pages': '495-497', 'search': 'External Document Reference  2.16.840.1.113883.10.20.22.4.115 CONF:1098-31931;CONF:1098-31932;CONF:1098-32748;CONF:1098-32750;CONF:1098-32749;CONF:1098-32751;CONF:1098-31933;CONF:1098-32752;CONF:1098-32753' },</v>
       </c>
       <c r="N138" t="str">
-        <f>"'"&amp;D138&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.115',</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="B139" t="s">
@@ -12699,21 +12699,21 @@
         <v>482</v>
       </c>
       <c r="K139" t="str">
-        <f>B139&amp;" "&amp;D139&amp;" "&amp;J139</f>
+        <f t="shared" si="8"/>
         <v>Family History Death Observation  2.16.840.1.113883.10.20.22.4.47 CONF:81-8621;CONF:81-8622;CONF:81-8623;CONF:81-10495;CONF:81-19141;CONF:81-19142;CONF:81-26504;CONF:81-8625;CONF:81-19097;CONF:81-8626;CONF:81-26470</v>
       </c>
       <c r="M139" t="str">
-        <f>"{ 'id': '"&amp;A139&amp;"', 'template_type': '"&amp;C139&amp;"', 'name': '"&amp;B139&amp;" ["&amp;D139&amp;"["&amp;G139&amp;"', 'name2': '"&amp;B139&amp;"', 'template': '"&amp;D139&amp;"', 'pageStart': '"&amp;E139&amp;"', 'pages': '"&amp;G139&amp;"', 'search': '"&amp;K139&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '138', 'template_type': 'Entry', 'name': 'Family History Death Observation  [2.16.840.1.113883.10.20.22.4.47[497-499', 'name2': 'Family History Death Observation ', 'template': '2.16.840.1.113883.10.20.22.4.47', 'pageStart': '497', 'pages': '497-499', 'search': 'Family History Death Observation  2.16.840.1.113883.10.20.22.4.47 CONF:81-8621;CONF:81-8622;CONF:81-8623;CONF:81-10495;CONF:81-19141;CONF:81-19142;CONF:81-26504;CONF:81-8625;CONF:81-19097;CONF:81-8626;CONF:81-26470' },</v>
       </c>
       <c r="N139" t="str">
-        <f>"'"&amp;D139&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.47',</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
@@ -12742,21 +12742,21 @@
         <v>483</v>
       </c>
       <c r="K140" t="str">
-        <f>B140&amp;" "&amp;D140&amp;" "&amp;J140</f>
+        <f t="shared" si="8"/>
         <v>Family History Observation   2.16.840.1.113883.10.20.22.4.46 CONF:1198-8586;CONF:1198-8587;CONF:1198-8599;CONF:1198-10496;CONF:1198-32605;CONF:1198-8592;CONF:1198-32427;CONF:1198-32847;CONF:1198-8590;CONF:1198-19098;CONF:1198-8593;CONF:1198-8591;CONF:1198-8675;CONF:1198-8676;CONF:1198-8677;CONF:1198-15526;CONF:1198-8678;CONF:1198-8679;CONF:1198-15527</v>
       </c>
       <c r="M140" t="str">
-        <f>"{ 'id': '"&amp;A140&amp;"', 'template_type': '"&amp;C140&amp;"', 'name': '"&amp;B140&amp;" ["&amp;D140&amp;"["&amp;G140&amp;"', 'name2': '"&amp;B140&amp;"', 'template': '"&amp;D140&amp;"', 'pageStart': '"&amp;E140&amp;"', 'pages': '"&amp;G140&amp;"', 'search': '"&amp;K140&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '139', 'template_type': 'Entry', 'name': 'Family History Observation   [2.16.840.1.113883.10.20.22.4.46[499-504', 'name2': 'Family History Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.46', 'pageStart': '499', 'pages': '499-504', 'search': 'Family History Observation   2.16.840.1.113883.10.20.22.4.46 CONF:1198-8586;CONF:1198-8587;CONF:1198-8599;CONF:1198-10496;CONF:1198-32605;CONF:1198-8592;CONF:1198-32427;CONF:1198-32847;CONF:1198-8590;CONF:1198-19098;CONF:1198-8593;CONF:1198-8591;CONF:1198-8675;CONF:1198-8676;CONF:1198-8677;CONF:1198-15526;CONF:1198-8678;CONF:1198-8679;CONF:1198-15527' },</v>
       </c>
       <c r="N140" t="str">
-        <f>"'"&amp;D140&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.46',</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
@@ -12785,21 +12785,21 @@
         <v>484</v>
       </c>
       <c r="K141" t="str">
-        <f>B141&amp;" "&amp;D141&amp;" "&amp;J141</f>
+        <f t="shared" si="8"/>
         <v>Family History Organizer  2.16.840.1.113883.10.20.22.4.45 CONF:1198-8600;CONF:1198-8601;CONF:1198-8604;CONF:1198-10497;CONF:1198-32606;CONF:1198-32485;CONF:1198-8602;CONF:1198-19099;CONF:1198-8609;CONF:1198-15244;CONF:1198-15245;CONF:1198-15246;CONF:1198-15248;CONF:1198-15974;CONF:1198-15976;CONF:1198-15249;CONF:1198-15981;CONF:1198-15982;CONF:1198-15983;CONF:1198-32428;CONF:1198-32429</v>
       </c>
       <c r="M141" t="str">
-        <f>"{ 'id': '"&amp;A141&amp;"', 'template_type': '"&amp;C141&amp;"', 'name': '"&amp;B141&amp;" ["&amp;D141&amp;"["&amp;G141&amp;"', 'name2': '"&amp;B141&amp;"', 'template': '"&amp;D141&amp;"', 'pageStart': '"&amp;E141&amp;"', 'pages': '"&amp;G141&amp;"', 'search': '"&amp;K141&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '140', 'template_type': 'Entry', 'name': 'Family History Organizer  [2.16.840.1.113883.10.20.22.4.45[504-508', 'name2': 'Family History Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.45', 'pageStart': '504', 'pages': '504-508', 'search': 'Family History Organizer  2.16.840.1.113883.10.20.22.4.45 CONF:1198-8600;CONF:1198-8601;CONF:1198-8604;CONF:1198-10497;CONF:1198-32606;CONF:1198-32485;CONF:1198-8602;CONF:1198-19099;CONF:1198-8609;CONF:1198-15244;CONF:1198-15245;CONF:1198-15246;CONF:1198-15248;CONF:1198-15974;CONF:1198-15976;CONF:1198-15249;CONF:1198-15981;CONF:1198-15982;CONF:1198-15983;CONF:1198-32428;CONF:1198-32429' },</v>
       </c>
       <c r="N141" t="str">
-        <f>"'"&amp;D141&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.45',</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -12828,21 +12828,21 @@
         <v>485</v>
       </c>
       <c r="K142" t="str">
-        <f>B142&amp;" "&amp;D142&amp;" "&amp;J142</f>
+        <f t="shared" si="8"/>
         <v>Functional Status Observation   2.16.840.1.113883.10.20.22.4.67 CONF:1098-13905;CONF:1098-13906;CONF:1098-13889;CONF:1098-13890;CONF:1098-32568;CONF:1098-13907;CONF:1098-13908;CONF:1098-31522;CONF:1098-31523;CONF:1098-13929;CONF:1098-19101;CONF:1098-13930;CONF:1098-13932;CONF:1098-14234;CONF:1098-13936;CONF:1098-13892;CONF:1098-14596;CONF:1098-14218;CONF:1098-13895;CONF:1098-14597;CONF:1098-13897;CONF:1098-14465;CONF:1098-14598;CONF:1098-14466;CONF:1098-13937</v>
       </c>
       <c r="M142" t="str">
-        <f>"{ 'id': '"&amp;A142&amp;"', 'template_type': '"&amp;C142&amp;"', 'name': '"&amp;B142&amp;" ["&amp;D142&amp;"["&amp;G142&amp;"', 'name2': '"&amp;B142&amp;"', 'template': '"&amp;D142&amp;"', 'pageStart': '"&amp;E142&amp;"', 'pages': '"&amp;G142&amp;"', 'search': '"&amp;K142&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '141', 'template_type': 'Entry', 'name': 'Functional Status Observation   [2.16.840.1.113883.10.20.22.4.67[508-511', 'name2': 'Functional Status Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.67', 'pageStart': '508', 'pages': '508-511', 'search': 'Functional Status Observation   2.16.840.1.113883.10.20.22.4.67 CONF:1098-13905;CONF:1098-13906;CONF:1098-13889;CONF:1098-13890;CONF:1098-32568;CONF:1098-13907;CONF:1098-13908;CONF:1098-31522;CONF:1098-31523;CONF:1098-13929;CONF:1098-19101;CONF:1098-13930;CONF:1098-13932;CONF:1098-14234;CONF:1098-13936;CONF:1098-13892;CONF:1098-14596;CONF:1098-14218;CONF:1098-13895;CONF:1098-14597;CONF:1098-13897;CONF:1098-14465;CONF:1098-14598;CONF:1098-14466;CONF:1098-13937' },</v>
       </c>
       <c r="N142" t="str">
-        <f>"'"&amp;D142&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.67',</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
@@ -12871,21 +12871,21 @@
         <v>486</v>
       </c>
       <c r="K143" t="str">
-        <f>B143&amp;" "&amp;D143&amp;" "&amp;J143</f>
+        <f t="shared" si="8"/>
         <v>Functional Status Organizer  2.16.840.1.113883.10.20.22.4.66 CONF:1098-14355;CONF:1098-14357;CONF:1098-14361;CONF:1098-14362;CONF:1098-32569;CONF:1098-14363;CONF:1098-14364;CONF:1098-31417;CONF:1098-14358;CONF:1098-31434;CONF:1098-31585;CONF:1098-14359;CONF:1098-14368;CONF:1098-31432;CONF:1098-31433</v>
       </c>
       <c r="M143" t="str">
-        <f>"{ 'id': '"&amp;A143&amp;"', 'template_type': '"&amp;C143&amp;"', 'name': '"&amp;B143&amp;" ["&amp;D143&amp;"["&amp;G143&amp;"', 'name2': '"&amp;B143&amp;"', 'template': '"&amp;D143&amp;"', 'pageStart': '"&amp;E143&amp;"', 'pages': '"&amp;G143&amp;"', 'search': '"&amp;K143&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '142', 'template_type': 'Entry', 'name': 'Functional Status Organizer  [2.16.840.1.113883.10.20.22.4.66[511-515', 'name2': 'Functional Status Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.66', 'pageStart': '511', 'pages': '511-515', 'search': 'Functional Status Organizer  2.16.840.1.113883.10.20.22.4.66 CONF:1098-14355;CONF:1098-14357;CONF:1098-14361;CONF:1098-14362;CONF:1098-32569;CONF:1098-14363;CONF:1098-14364;CONF:1098-31417;CONF:1098-14358;CONF:1098-31434;CONF:1098-31585;CONF:1098-14359;CONF:1098-14368;CONF:1098-31432;CONF:1098-31433' },</v>
       </c>
       <c r="N143" t="str">
-        <f>"'"&amp;D143&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.66',</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -12914,21 +12914,21 @@
         <v>487</v>
       </c>
       <c r="K144" t="str">
-        <f>B144&amp;" "&amp;D144&amp;" "&amp;J144</f>
+        <f t="shared" si="8"/>
         <v>Functional Status Problem Observation (DEPRECATED) 2.16.840.1.113883.10.20.22.4.68 CONF:1098-14282;CONF:1098-14283;CONF:1098-14307;CONF:1098-14312;CONF:1098-14313;CONF:1098-32601;CONF:1098-14284;CONF:1098-14314;CONF:1098-14315;CONF:1098-14304;CONF:1098-15552;CONF:1098-15553;CONF:1098-15554;CONF:1098-14286;CONF:1098-19100;CONF:1098-14287;CONF:1098-26456;CONF:1098-26457;CONF:1098-14291;CONF:1098-14292;CONF:1098-14293;CONF:1098-14316</v>
       </c>
       <c r="M144" t="str">
-        <f>"{ 'id': '"&amp;A144&amp;"', 'template_type': '"&amp;C144&amp;"', 'name': '"&amp;B144&amp;" ["&amp;D144&amp;"["&amp;G144&amp;"', 'name2': '"&amp;B144&amp;"', 'template': '"&amp;D144&amp;"', 'pageStart': '"&amp;E144&amp;"', 'pages': '"&amp;G144&amp;"', 'search': '"&amp;K144&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '143', 'template_type': 'Entry', 'name': 'Functional Status Problem Observation (DEPRECATED) [2.16.840.1.113883.10.20.22.4.68[515-518', 'name2': 'Functional Status Problem Observation (DEPRECATED)', 'template': '2.16.840.1.113883.10.20.22.4.68', 'pageStart': '515', 'pages': '515-518', 'search': 'Functional Status Problem Observation (DEPRECATED) 2.16.840.1.113883.10.20.22.4.68 CONF:1098-14282;CONF:1098-14283;CONF:1098-14307;CONF:1098-14312;CONF:1098-14313;CONF:1098-32601;CONF:1098-14284;CONF:1098-14314;CONF:1098-14315;CONF:1098-14304;CONF:1098-15552;CONF:1098-15553;CONF:1098-15554;CONF:1098-14286;CONF:1098-19100;CONF:1098-14287;CONF:1098-26456;CONF:1098-26457;CONF:1098-14291;CONF:1098-14292;CONF:1098-14293;CONF:1098-14316' },</v>
       </c>
       <c r="N144" t="str">
-        <f>"'"&amp;D144&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.68',</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="B145" t="s">
@@ -12951,28 +12951,28 @@
         <v>CG_A_228-232</v>
       </c>
       <c r="J145" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="K145" t="str">
-        <f>B145&amp;" "&amp;D145&amp;" "&amp;J145</f>
+        <f t="shared" si="8"/>
         <v>Gender Identity Observation (Companion Guide) 2.16.840.1.113883.10.20.34.3.45 CONF:4515-1230;CONF:4515-1231;CONF:4515-1221;CONF:4515-1225;CONF:4515-1226;CONF:4515-1222;CONF:4515-1227;CONF:4515-1228;CONF:4515-33031;CONF:4515-33032;CONF:4515-33033;CONF:4515-33034;CONF:4515-33035;CONF:4515-1223;CONF:4515-1232;CONF:4537-33058;CONF:4537-33059;CONF:4537-33060;CONF:4537-33062;CONF:4537-33063;</v>
       </c>
       <c r="M145" t="str">
-        <f>"{ 'id': '"&amp;A145&amp;"', 'template_type': '"&amp;C145&amp;"', 'name': '"&amp;B145&amp;" ["&amp;D145&amp;"["&amp;G145&amp;"', 'name2': '"&amp;B145&amp;"', 'template': '"&amp;D145&amp;"', 'pageStart': '"&amp;E145&amp;"', 'pages': '"&amp;G145&amp;"', 'search': '"&amp;K145&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '144', 'template_type': 'Entry', 'name': 'Gender Identity Observation (Companion Guide) [2.16.840.1.113883.10.20.34.3.45[CG_A_228-232', 'name2': 'Gender Identity Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.34.3.45', 'pageStart': '1228', 'pages': 'CG_A_228-232', 'search': 'Gender Identity Observation (Companion Guide) 2.16.840.1.113883.10.20.34.3.45 CONF:4515-1230;CONF:4515-1231;CONF:4515-1221;CONF:4515-1225;CONF:4515-1226;CONF:4515-1222;CONF:4515-1227;CONF:4515-1228;CONF:4515-33031;CONF:4515-33032;CONF:4515-33033;CONF:4515-33034;CONF:4515-33035;CONF:4515-1223;CONF:4515-1232;CONF:4537-33058;CONF:4537-33059;CONF:4537-33060;CONF:4537-33062;CONF:4537-33063;' },</v>
       </c>
       <c r="N145" t="str">
-        <f>"'"&amp;D145&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.34.3.45',</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C146" t="s">
         <v>432</v>
@@ -13000,21 +13000,21 @@
         <v>488</v>
       </c>
       <c r="K146" t="str">
-        <f>B146&amp;" "&amp;D146&amp;" "&amp;J146</f>
+        <f t="shared" si="8"/>
         <v>Goal Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.121 CONF:1098-30418;CONF:1098-30419;CONF:1098-8583;CONF:1098-10512;CONF:1098-32332;CONF:1098-30784;CONF:1098-32333;CONF:1098-32334;CONF:1098-32335;CONF:1098-32743;CONF:1098-30995;CONF:1098-30701;CONF:1098-30702;CONF:1098-30703;CONF:1098-30704;CONF:1098-30705;CONF:1098-32879;CONF:1098-30785;CONF:1098-30786;CONF:1098-30787;CONF:1098-31448;CONF:1098-31449;CONF:1098-32880;CONF:1098-31559;CONF:1098-31560;CONF:1098-31588;CONF:1098-32754;CONF:1098-32755;CONF:1098-32756</v>
       </c>
       <c r="M146" t="str">
-        <f>"{ 'id': '"&amp;A146&amp;"', 'template_type': '"&amp;C146&amp;"', 'name': '"&amp;B146&amp;" ["&amp;D146&amp;"["&amp;G146&amp;"', 'name2': '"&amp;B146&amp;"', 'template': '"&amp;D146&amp;"', 'pageStart': '"&amp;E146&amp;"', 'pages': '"&amp;G146&amp;"', 'search': '"&amp;K146&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '145', 'template_type': 'Entry', 'name': 'Goal Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.121[CG_A_107-115', 'name2': 'Goal Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.121', 'pageStart': '1107', 'pages': 'CG_A_107-115', 'search': 'Goal Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.121 CONF:1098-30418;CONF:1098-30419;CONF:1098-8583;CONF:1098-10512;CONF:1098-32332;CONF:1098-30784;CONF:1098-32333;CONF:1098-32334;CONF:1098-32335;CONF:1098-32743;CONF:1098-30995;CONF:1098-30701;CONF:1098-30702;CONF:1098-30703;CONF:1098-30704;CONF:1098-30705;CONF:1098-32879;CONF:1098-30785;CONF:1098-30786;CONF:1098-30787;CONF:1098-31448;CONF:1098-31449;CONF:1098-32880;CONF:1098-31559;CONF:1098-31560;CONF:1098-31588;CONF:1098-32754;CONF:1098-32755;CONF:1098-32756' },</v>
       </c>
       <c r="N146" t="str">
-        <f>"'"&amp;D146&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.121',</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>146</v>
       </c>
       <c r="B147" t="s">
@@ -13043,25 +13043,25 @@
         <v>489</v>
       </c>
       <c r="K147" t="str">
-        <f>B147&amp;" "&amp;D147&amp;" "&amp;J147</f>
+        <f t="shared" si="8"/>
         <v>Handoff Communication Participants  2.16.840.1.113883.10.20.22.4.141 CONF:1098-30832;CONF:1098-30833;CONF:1098-30834;CONF:1098-30835;CONF:1098-30836;CONF:1098-30837;CONF:1098-30838;CONF:1098-31668;CONF:1098-31669;CONF:1098-31670;CONF:1098-31672;CONF:1098-31673;CONF:1098-31674;CONF:1098-31675;CONF:1098-32422;CONF:1098-31676;CONF:1098-32392;CONF:1098-32393;CONF:1098-32394</v>
       </c>
       <c r="M147" t="str">
-        <f>"{ 'id': '"&amp;A147&amp;"', 'template_type': '"&amp;C147&amp;"', 'name': '"&amp;B147&amp;" ["&amp;D147&amp;"["&amp;G147&amp;"', 'name2': '"&amp;B147&amp;"', 'template': '"&amp;D147&amp;"', 'pageStart': '"&amp;E147&amp;"', 'pages': '"&amp;G147&amp;"', 'search': '"&amp;K147&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '146', 'template_type': 'Entry', 'name': 'Handoff Communication Participants  [2.16.840.1.113883.10.20.22.4.141[524-528', 'name2': 'Handoff Communication Participants ', 'template': '2.16.840.1.113883.10.20.22.4.141', 'pageStart': '524', 'pages': '524-528', 'search': 'Handoff Communication Participants  2.16.840.1.113883.10.20.22.4.141 CONF:1098-30832;CONF:1098-30833;CONF:1098-30834;CONF:1098-30835;CONF:1098-30836;CONF:1098-30837;CONF:1098-30838;CONF:1098-31668;CONF:1098-31669;CONF:1098-31670;CONF:1098-31672;CONF:1098-31673;CONF:1098-31674;CONF:1098-31675;CONF:1098-32422;CONF:1098-31676;CONF:1098-32392;CONF:1098-32393;CONF:1098-32394' },</v>
       </c>
       <c r="N147" t="str">
-        <f>"'"&amp;D147&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.141',</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C148" t="s">
         <v>432</v>
@@ -13089,21 +13089,21 @@
         <v>490</v>
       </c>
       <c r="K148" t="str">
-        <f>B148&amp;" "&amp;D148&amp;" "&amp;J148</f>
+        <f t="shared" si="8"/>
         <v>Health Concern Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.132 CONF:1198-30750;CONF:1198-30751;CONF:1198-30752;CONF:1198-30753;CONF:1198-32861;CONF:1198-30754;CONF:1198-32310;CONF:1198-32311;CONF:1198-32312;CONF:1198-30758;CONF:1198-32313;CONF:1198-30759;CONF:1198-31546;CONF:1198-30761;CONF:1198-30762;CONF:1198-31001;CONF:1198-31007;CONF:1198-31008;CONF:1198-31186;CONF:1198-31157;CONF:1198-31158;CONF:1198-32106;CONF:1198-32860;CONF:1198-31160;CONF:1198-31161;CONF:1198-32107;CONF:1198-32745;CONF:1198-31190;CONF:1198-31191;CONF:1198-31192;CONF:1198-31232;CONF:1198-31264;CONF:1198-31265;CONF:1198-31234;CONF:1198-31268;CONF:1198-31273;CONF:1198-31235;CONF:1198-31269;CONF:1198-31275;CONF:1198-31236;CONF:1198-31270;CONF:1198-31277;CONF:1198-31237;CONF:1198-31279;CONF:1198-31280;CONF:1198-31238;CONF:1198-31282;CONF:1198-31283;CONF:1198-31241;CONF:1198-31291;CONF:1198-31292;CONF:1198-31244;CONF:1198-31300;CONF:1198-31301;CONF:1198-31246;CONF:1198-31306;CONF:1198-31307;CONF:1198-31247;CONF:1198-31309;CONF:1198-31310;CONF:1198-31248;CONF:1198-31312;CONF:1198-31313;CONF:1198-31250;CONF:1198-31318;CONF:1198-31319;CONF:1198-31251;CONF:1198-31321;CONF:1198-31322;CONF:1198-31252;CONF:1198-31324;CONF:1198-31325;CONF:1198-31253;CONF:1198-31327;CONF:1198-31328;CONF:1198-31254;CONF:1198-32955;CONF:1198-31331;CONF:1198-31255;CONF:1198-31333;CONF:1198-31334;CONF:1198-31256;CONF:1198-31336;CONF:1198-31337;CONF:1198-31257;CONF:1198-31339;CONF:1198-31340;CONF:1198-31365;CONF:1198-31366;CONF:1198-31367;CONF:1198-31368;CONF:1198-31369;CONF:1198-31370;CONF:1198-31371;CONF:1198-31372;CONF:1198-31373;CONF:1198-31374;CONF:1198-31375;CONF:1198-31376;CONF:1198-31377;CONF:1198-31378;CONF:1198-31379;CONF:1198-31380;CONF:1198-31381;CONF:1198-31382;CONF:1198-31442;CONF:1198-31443;CONF:1198-31444;CONF:1198-31544;CONF:1198-31547;CONF:1198-31548;CONF:1198-31549;CONF:1198-31550;CONF:1198-31551;CONF:1198-32757;CONF:1198-32758;CONF:1198-32759</v>
       </c>
       <c r="M148" t="str">
-        <f>"{ 'id': '"&amp;A148&amp;"', 'template_type': '"&amp;C148&amp;"', 'name': '"&amp;B148&amp;" ["&amp;D148&amp;"["&amp;G148&amp;"', 'name2': '"&amp;B148&amp;"', 'template': '"&amp;D148&amp;"', 'pageStart': '"&amp;E148&amp;"', 'pages': '"&amp;G148&amp;"', 'search': '"&amp;K148&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '147', 'template_type': 'Entry', 'name': 'Health Concern Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.132[CG_A_115-133', 'name2': 'Health Concern Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.132', 'pageStart': '1115', 'pages': 'CG_A_115-133', 'search': 'Health Concern Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.132 CONF:1198-30750;CONF:1198-30751;CONF:1198-30752;CONF:1198-30753;CONF:1198-32861;CONF:1198-30754;CONF:1198-32310;CONF:1198-32311;CONF:1198-32312;CONF:1198-30758;CONF:1198-32313;CONF:1198-30759;CONF:1198-31546;CONF:1198-30761;CONF:1198-30762;CONF:1198-31001;CONF:1198-31007;CONF:1198-31008;CONF:1198-31186;CONF:1198-31157;CONF:1198-31158;CONF:1198-32106;CONF:1198-32860;CONF:1198-31160;CONF:1198-31161;CONF:1198-32107;CONF:1198-32745;CONF:1198-31190;CONF:1198-31191;CONF:1198-31192;CONF:1198-31232;CONF:1198-31264;CONF:1198-31265;CONF:1198-31234;CONF:1198-31268;CONF:1198-31273;CONF:1198-31235;CONF:1198-31269;CONF:1198-31275;CONF:1198-31236;CONF:1198-31270;CONF:1198-31277;CONF:1198-31237;CONF:1198-31279;CONF:1198-31280;CONF:1198-31238;CONF:1198-31282;CONF:1198-31283;CONF:1198-31241;CONF:1198-31291;CONF:1198-31292;CONF:1198-31244;CONF:1198-31300;CONF:1198-31301;CONF:1198-31246;CONF:1198-31306;CONF:1198-31307;CONF:1198-31247;CONF:1198-31309;CONF:1198-31310;CONF:1198-31248;CONF:1198-31312;CONF:1198-31313;CONF:1198-31250;CONF:1198-31318;CONF:1198-31319;CONF:1198-31251;CONF:1198-31321;CONF:1198-31322;CONF:1198-31252;CONF:1198-31324;CONF:1198-31325;CONF:1198-31253;CONF:1198-31327;CONF:1198-31328;CONF:1198-31254;CONF:1198-32955;CONF:1198-31331;CONF:1198-31255;CONF:1198-31333;CONF:1198-31334;CONF:1198-31256;CONF:1198-31336;CONF:1198-31337;CONF:1198-31257;CONF:1198-31339;CONF:1198-31340;CONF:1198-31365;CONF:1198-31366;CONF:1198-31367;CONF:1198-31368;CONF:1198-31369;CONF:1198-31370;CONF:1198-31371;CONF:1198-31372;CONF:1198-31373;CONF:1198-31374;CONF:1198-31375;CONF:1198-31376;CONF:1198-31377;CONF:1198-31378;CONF:1198-31379;CONF:1198-31380;CONF:1198-31381;CONF:1198-31382;CONF:1198-31442;CONF:1198-31443;CONF:1198-31444;CONF:1198-31544;CONF:1198-31547;CONF:1198-31548;CONF:1198-31549;CONF:1198-31550;CONF:1198-31551;CONF:1198-32757;CONF:1198-32758;CONF:1198-32759' },</v>
       </c>
       <c r="N148" t="str">
-        <f>"'"&amp;D148&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.132',</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>148</v>
       </c>
       <c r="B149" t="s">
@@ -13132,21 +13132,21 @@
         <v>491</v>
       </c>
       <c r="K149" t="str">
-        <f>B149&amp;" "&amp;D149&amp;" "&amp;J149</f>
+        <f t="shared" si="8"/>
         <v>Health Status Observation  2.16.840.1.113883.10.20.22.4.5 CONF:1098-9057;CONF:1098-9072;CONF:1098-16756;CONF:1098-16757;CONF:1098-32558;CONF:1098-32486;CONF:1098-19143;CONF:1098-19144;CONF:1098-32161;CONF:1098-9074;CONF:1098-19103;CONF:1098-9075</v>
       </c>
       <c r="M149" t="str">
-        <f>"{ 'id': '"&amp;A149&amp;"', 'template_type': '"&amp;C149&amp;"', 'name': '"&amp;B149&amp;" ["&amp;D149&amp;"["&amp;G149&amp;"', 'name2': '"&amp;B149&amp;"', 'template': '"&amp;D149&amp;"', 'pageStart': '"&amp;E149&amp;"', 'pages': '"&amp;G149&amp;"', 'search': '"&amp;K149&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '148', 'template_type': 'Entry', 'name': 'Health Status Observation  [2.16.840.1.113883.10.20.22.4.5[544-547', 'name2': 'Health Status Observation ', 'template': '2.16.840.1.113883.10.20.22.4.5', 'pageStart': '544', 'pages': '544-547', 'search': 'Health Status Observation  2.16.840.1.113883.10.20.22.4.5 CONF:1098-9057;CONF:1098-9072;CONF:1098-16756;CONF:1098-16757;CONF:1098-32558;CONF:1098-32486;CONF:1098-19143;CONF:1098-19144;CONF:1098-32161;CONF:1098-9074;CONF:1098-19103;CONF:1098-9075' },</v>
       </c>
       <c r="N149" t="str">
-        <f>"'"&amp;D149&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.5',</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>149</v>
       </c>
       <c r="B150" t="s">
@@ -13175,21 +13175,21 @@
         <v>492</v>
       </c>
       <c r="K150" t="str">
-        <f>B150&amp;" "&amp;D150&amp;" "&amp;J150</f>
+        <f t="shared" si="8"/>
         <v>Highest Pressure Ulcer Stage 2.16.840.1.113883.10.20.22.4.77 CONF:81-14726;CONF:81-14727;CONF:81-14728;CONF:81-14729;CONF:81-14730;CONF:81-14731;CONF:81-14732;CONF:81-14733</v>
       </c>
       <c r="M150" t="str">
-        <f>"{ 'id': '"&amp;A150&amp;"', 'template_type': '"&amp;C150&amp;"', 'name': '"&amp;B150&amp;" ["&amp;D150&amp;"["&amp;G150&amp;"', 'name2': '"&amp;B150&amp;"', 'template': '"&amp;D150&amp;"', 'pageStart': '"&amp;E150&amp;"', 'pages': '"&amp;G150&amp;"', 'search': '"&amp;K150&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '149', 'template_type': 'Entry', 'name': 'Highest Pressure Ulcer Stage [2.16.840.1.113883.10.20.22.4.77[547-548', 'name2': 'Highest Pressure Ulcer Stage', 'template': '2.16.840.1.113883.10.20.22.4.77', 'pageStart': '547', 'pages': '547-548', 'search': 'Highest Pressure Ulcer Stage 2.16.840.1.113883.10.20.22.4.77 CONF:81-14726;CONF:81-14727;CONF:81-14728;CONF:81-14729;CONF:81-14730;CONF:81-14731;CONF:81-14732;CONF:81-14733' },</v>
       </c>
       <c r="N150" t="str">
-        <f>"'"&amp;D150&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.77',</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="B151" t="s">
@@ -13218,21 +13218,21 @@
         <v>493</v>
       </c>
       <c r="K151" t="str">
-        <f>B151&amp;" "&amp;D151&amp;" "&amp;J151</f>
+        <f t="shared" si="8"/>
         <v>Hospital Admission Diagnosis  2.16.840.1.113883.10.20.22.4.34 CONF:1198-7671;CONF:1198-7672;CONF:1198-16747;CONF:1198-16748;CONF:1198-32535;CONF:1198-19145;CONF:1198-19146;CONF:1198-32162;CONF:1198-7674;CONF:1198-7675;CONF:1198-15535</v>
       </c>
       <c r="M151" t="str">
-        <f>"{ 'id': '"&amp;A151&amp;"', 'template_type': '"&amp;C151&amp;"', 'name': '"&amp;B151&amp;" ["&amp;D151&amp;"["&amp;G151&amp;"', 'name2': '"&amp;B151&amp;"', 'template': '"&amp;D151&amp;"', 'pageStart': '"&amp;E151&amp;"', 'pages': '"&amp;G151&amp;"', 'search': '"&amp;K151&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '150', 'template_type': 'Entry', 'name': 'Hospital Admission Diagnosis  [2.16.840.1.113883.10.20.22.4.34[548-550', 'name2': 'Hospital Admission Diagnosis ', 'template': '2.16.840.1.113883.10.20.22.4.34', 'pageStart': '548', 'pages': '548-550', 'search': 'Hospital Admission Diagnosis  2.16.840.1.113883.10.20.22.4.34 CONF:1198-7671;CONF:1198-7672;CONF:1198-16747;CONF:1198-16748;CONF:1198-32535;CONF:1198-19145;CONF:1198-19146;CONF:1198-32162;CONF:1198-7674;CONF:1198-7675;CONF:1198-15535' },</v>
       </c>
       <c r="N151" t="str">
-        <f>"'"&amp;D151&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.34',</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>151</v>
       </c>
       <c r="B152" t="s">
@@ -13261,21 +13261,21 @@
         <v>494</v>
       </c>
       <c r="K152" t="str">
-        <f>B152&amp;" "&amp;D152&amp;" "&amp;J152</f>
+        <f t="shared" si="8"/>
         <v>Hospital Discharge Diagnosis   2.16.840.1.113883.10.20.22.4.33 CONF:1198-7663;CONF:1198-7664;CONF:1198-16764;CONF:1198-16765;CONF:1198-32534;CONF:1198-19147;CONF:1198-19148;CONF:1198-32163;CONF:1198-7666;CONF:1198-7667;CONF:1198-15536</v>
       </c>
       <c r="M152" t="str">
-        <f>"{ 'id': '"&amp;A152&amp;"', 'template_type': '"&amp;C152&amp;"', 'name': '"&amp;B152&amp;" ["&amp;D152&amp;"["&amp;G152&amp;"', 'name2': '"&amp;B152&amp;"', 'template': '"&amp;D152&amp;"', 'pageStart': '"&amp;E152&amp;"', 'pages': '"&amp;G152&amp;"', 'search': '"&amp;K152&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '151', 'template_type': 'Entry', 'name': 'Hospital Discharge Diagnosis   [2.16.840.1.113883.10.20.22.4.33[550-553', 'name2': 'Hospital Discharge Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.33', 'pageStart': '550', 'pages': '550-553', 'search': 'Hospital Discharge Diagnosis   2.16.840.1.113883.10.20.22.4.33 CONF:1198-7663;CONF:1198-7664;CONF:1198-16764;CONF:1198-16765;CONF:1198-32534;CONF:1198-19147;CONF:1198-19148;CONF:1198-32163;CONF:1198-7666;CONF:1198-7667;CONF:1198-15536' },</v>
       </c>
       <c r="N152" t="str">
-        <f>"'"&amp;D152&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.33',</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>152</v>
       </c>
       <c r="B153" t="s">
@@ -13304,21 +13304,21 @@
         <v>495</v>
       </c>
       <c r="K153" t="str">
-        <f>B153&amp;" "&amp;D153&amp;" "&amp;J153</f>
+        <f t="shared" si="8"/>
         <v>Immunization Activity   2.16.840.1.113883.10.20.22.4.52 CONF:1198-8826;CONF:1198-8827;CONF:1198-8985;CONF:1198-8828;CONF:1198-10498;CONF:1198-32528;CONF:1198-8829;CONF:1198-8830;CONF:1198-8833;CONF:1198-32359;CONF:1198-8834;CONF:1198-8838;CONF:1198-8839;CONF:1198-32960;CONF:1198-8840;CONF:1198-8841;CONF:1198-8842;CONF:1198-8846;CONF:1198-8847;CONF:1198-15546;CONF:1198-8849;CONF:1198-31151;CONF:1198-8850;CONF:1198-8851;CONF:1198-15547;CONF:1198-8853;CONF:1198-8854;CONF:1198-15537;CONF:1198-8856;CONF:1198-8857;CONF:1198-8858;CONF:1198-31392;CONF:1198-8860;CONF:1198-8861;CONF:1198-15539;CONF:1198-8863;CONF:1198-8864;CONF:1198-15540;CONF:1198-8866;CONF:1198-8867;CONF:1198-15541;CONF:1198-8988;CONF:1198-8989;CONF:1198-15542;CONF:1198-31510;CONF:1198-31511;CONF:1198-31512;CONF:1198-31513;CONF:1198-31514;CONF:1198-8869;CONF:1198-8870;CONF:1198-15548</v>
       </c>
       <c r="M153" t="str">
-        <f>"{ 'id': '"&amp;A153&amp;"', 'template_type': '"&amp;C153&amp;"', 'name': '"&amp;B153&amp;" ["&amp;D153&amp;"["&amp;G153&amp;"', 'name2': '"&amp;B153&amp;"', 'template': '"&amp;D153&amp;"', 'pageStart': '"&amp;E153&amp;"', 'pages': '"&amp;G153&amp;"', 'search': '"&amp;K153&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '152', 'template_type': 'Entry', 'name': 'Immunization Activity   [2.16.840.1.113883.10.20.22.4.52[553-567', 'name2': 'Immunization Activity  ', 'template': '2.16.840.1.113883.10.20.22.4.52', 'pageStart': '553', 'pages': '553-567', 'search': 'Immunization Activity   2.16.840.1.113883.10.20.22.4.52 CONF:1198-8826;CONF:1198-8827;CONF:1198-8985;CONF:1198-8828;CONF:1198-10498;CONF:1198-32528;CONF:1198-8829;CONF:1198-8830;CONF:1198-8833;CONF:1198-32359;CONF:1198-8834;CONF:1198-8838;CONF:1198-8839;CONF:1198-32960;CONF:1198-8840;CONF:1198-8841;CONF:1198-8842;CONF:1198-8846;CONF:1198-8847;CONF:1198-15546;CONF:1198-8849;CONF:1198-31151;CONF:1198-8850;CONF:1198-8851;CONF:1198-15547;CONF:1198-8853;CONF:1198-8854;CONF:1198-15537;CONF:1198-8856;CONF:1198-8857;CONF:1198-8858;CONF:1198-31392;CONF:1198-8860;CONF:1198-8861;CONF:1198-15539;CONF:1198-8863;CONF:1198-8864;CONF:1198-15540;CONF:1198-8866;CONF:1198-8867;CONF:1198-15541;CONF:1198-8988;CONF:1198-8989;CONF:1198-15542;CONF:1198-31510;CONF:1198-31511;CONF:1198-31512;CONF:1198-31513;CONF:1198-31514;CONF:1198-8869;CONF:1198-8870;CONF:1198-15548' },</v>
       </c>
       <c r="N153" t="str">
-        <f>"'"&amp;D153&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.52',</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>153</v>
       </c>
       <c r="B154" t="s">
@@ -13347,21 +13347,21 @@
         <v>496</v>
       </c>
       <c r="K154" t="str">
-        <f>B154&amp;" "&amp;D154&amp;" "&amp;J154</f>
+        <f t="shared" si="8"/>
         <v>Immunization Medication Information   2.16.840.1.113883.10.20.22.4.54 CONF:1098-9002;CONF:1098-9004;CONF:1098-10499;CONF:1098-32602;CONF:1098-9005;CONF:1098-9006;CONF:1098-9007;CONF:1098-31543;CONF:1098-31881;CONF:1098-9014;CONF:1098-9012</v>
       </c>
       <c r="M154" t="str">
-        <f>"{ 'id': '"&amp;A154&amp;"', 'template_type': '"&amp;C154&amp;"', 'name': '"&amp;B154&amp;" ["&amp;D154&amp;"["&amp;G154&amp;"', 'name2': '"&amp;B154&amp;"', 'template': '"&amp;D154&amp;"', 'pageStart': '"&amp;E154&amp;"', 'pages': '"&amp;G154&amp;"', 'search': '"&amp;K154&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '153', 'template_type': 'Entry', 'name': 'Immunization Medication Information   [2.16.840.1.113883.10.20.22.4.54[567-573', 'name2': 'Immunization Medication Information  ', 'template': '2.16.840.1.113883.10.20.22.4.54', 'pageStart': '567', 'pages': '567-573', 'search': 'Immunization Medication Information   2.16.840.1.113883.10.20.22.4.54 CONF:1098-9002;CONF:1098-9004;CONF:1098-10499;CONF:1098-32602;CONF:1098-9005;CONF:1098-9006;CONF:1098-9007;CONF:1098-31543;CONF:1098-31881;CONF:1098-9014;CONF:1098-9012' },</v>
       </c>
       <c r="N154" t="str">
-        <f>"'"&amp;D154&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.54',</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>154</v>
       </c>
       <c r="B155" t="s">
@@ -13390,21 +13390,21 @@
         <v>497</v>
       </c>
       <c r="K155" t="str">
-        <f>B155&amp;" "&amp;D155&amp;" "&amp;J155</f>
+        <f t="shared" si="8"/>
         <v>Immunization Refusal Reason  2.16.840.1.113883.10.20.22.4.53 CONF:81-8991;CONF:81-8992;CONF:81-8993;CONF:81-10500;CONF:81-8994;CONF:81-8995;CONF:81-8996;CONF:81-19104</v>
       </c>
       <c r="M155" t="str">
-        <f>"{ 'id': '"&amp;A155&amp;"', 'template_type': '"&amp;C155&amp;"', 'name': '"&amp;B155&amp;" ["&amp;D155&amp;"["&amp;G155&amp;"', 'name2': '"&amp;B155&amp;"', 'template': '"&amp;D155&amp;"', 'pageStart': '"&amp;E155&amp;"', 'pages': '"&amp;G155&amp;"', 'search': '"&amp;K155&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '154', 'template_type': 'Entry', 'name': 'Immunization Refusal Reason  [2.16.840.1.113883.10.20.22.4.53[573-575', 'name2': 'Immunization Refusal Reason ', 'template': '2.16.840.1.113883.10.20.22.4.53', 'pageStart': '573', 'pages': '573-575', 'search': 'Immunization Refusal Reason  2.16.840.1.113883.10.20.22.4.53 CONF:81-8991;CONF:81-8992;CONF:81-8993;CONF:81-10500;CONF:81-8994;CONF:81-8995;CONF:81-8996;CONF:81-19104' },</v>
       </c>
       <c r="N155" t="str">
-        <f>"'"&amp;D155&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.53',</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>155</v>
       </c>
       <c r="B156" t="s">
@@ -13430,25 +13430,25 @@
         <v>1431</v>
       </c>
       <c r="K156" t="str">
-        <f>B156&amp;" "&amp;D156&amp;" "&amp;J156</f>
+        <f t="shared" si="8"/>
         <v>Implantable Device Status Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.305 CONF:4437-3502;CONF:4437-3505;CONF:4437-3506;CONF:4437-3503;CONF:4437-3507;CONF:4437-3508;CONF:4437-3509;CONF:4437-3510;CONF:4437-3504;CONF:4437-3511;CONF:4437-3512;CONF:4437-3539;</v>
       </c>
       <c r="M156" t="str">
-        <f>"{ 'id': '"&amp;A156&amp;"', 'template_type': '"&amp;C156&amp;"', 'name': '"&amp;B156&amp;" ["&amp;D156&amp;"["&amp;G156&amp;"', 'name2': '"&amp;B156&amp;"', 'template': '"&amp;D156&amp;"', 'pageStart': '"&amp;E156&amp;"', 'pages': '"&amp;G156&amp;"', 'search': '"&amp;K156&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '155', 'template_type': 'Entry', 'name': 'Implantable Device Status Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.305[CG_B_28-30', 'name2': 'Implantable Device Status Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.305', 'pageStart': '2028', 'pages': 'CG_B_28-30', 'search': 'Implantable Device Status Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.305 CONF:4437-3502;CONF:4437-3505;CONF:4437-3506;CONF:4437-3503;CONF:4437-3507;CONF:4437-3508;CONF:4437-3509;CONF:4437-3510;CONF:4437-3504;CONF:4437-3511;CONF:4437-3512;CONF:4437-3539;' },</v>
       </c>
       <c r="N156" t="str">
-        <f>"'"&amp;D156&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.305',</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1906</v>
+        <v>1922</v>
       </c>
       <c r="C157" t="s">
         <v>432</v>
@@ -13476,21 +13476,21 @@
         <v>498</v>
       </c>
       <c r="K157" t="str">
-        <f>B157&amp;" "&amp;D157&amp;" "&amp;J157</f>
-        <v>Indication  (Companion Guide) (Companion Guide) 2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489</v>
+        <f t="shared" si="8"/>
+        <v>Indication  (Companion Guide) 2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489</v>
       </c>
       <c r="M157" t="str">
-        <f>"{ 'id': '"&amp;A157&amp;"', 'template_type': '"&amp;C157&amp;"', 'name': '"&amp;B157&amp;" ["&amp;D157&amp;"["&amp;G157&amp;"', 'name2': '"&amp;B157&amp;"', 'template': '"&amp;D157&amp;"', 'pageStart': '"&amp;E157&amp;"', 'pages': '"&amp;G157&amp;"', 'search': '"&amp;K157&amp;"' },"</f>
-        <v>{ 'id': '156', 'template_type': 'Entry', 'name': 'Indication  (Companion Guide) (Companion Guide) [2.16.840.1.113883.10.20.22.4.19[CG_A_133-138', 'name2': 'Indication  (Companion Guide) (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.19', 'pageStart': '1133', 'pages': 'CG_A_133-138', 'search': 'Indication  (Companion Guide) (Companion Guide) 2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489' },</v>
+        <f t="shared" si="9"/>
+        <v>{ 'id': '156', 'template_type': 'Entry', 'name': 'Indication  (Companion Guide) [2.16.840.1.113883.10.20.22.4.19[CG_A_133-138', 'name2': 'Indication  (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.19', 'pageStart': '1133', 'pages': 'CG_A_133-138', 'search': 'Indication  (Companion Guide) 2.16.840.1.113883.10.20.22.4.19 CONF:1098-7480;CONF:1098-7481;CONF:1098-7482;CONF:1098-10502;CONF:1098-32570;CONF:1098-7483;CONF:1098-31229;CONF:1098-7487;CONF:1098-19105;CONF:1098-7488;CONF:1098-7489' },</v>
       </c>
       <c r="N157" t="str">
-        <f>"'"&amp;D157&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.19',</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>157</v>
       </c>
       <c r="B158" t="s">
@@ -13519,21 +13519,21 @@
         <v>499</v>
       </c>
       <c r="K158" t="str">
-        <f>B158&amp;" "&amp;D158&amp;" "&amp;J158</f>
+        <f t="shared" si="8"/>
         <v>Instruction  2.16.840.1.113883.10.20.22.4.20 CONF:1098-7391;CONF:1098-7392;CONF:1098-7393;CONF:1098-10503;CONF:1098-32598;CONF:1098-16884;CONF:1098-7396;CONF:1098-19106</v>
       </c>
       <c r="M158" t="str">
-        <f>"{ 'id': '"&amp;A158&amp;"', 'template_type': '"&amp;C158&amp;"', 'name': '"&amp;B158&amp;" ["&amp;D158&amp;"["&amp;G158&amp;"', 'name2': '"&amp;B158&amp;"', 'template': '"&amp;D158&amp;"', 'pageStart': '"&amp;E158&amp;"', 'pages': '"&amp;G158&amp;"', 'search': '"&amp;K158&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '157', 'template_type': 'Entry', 'name': 'Instruction  [2.16.840.1.113883.10.20.22.4.20[578-581', 'name2': 'Instruction ', 'template': '2.16.840.1.113883.10.20.22.4.20', 'pageStart': '578', 'pages': '578-581', 'search': 'Instruction  2.16.840.1.113883.10.20.22.4.20 CONF:1098-7391;CONF:1098-7392;CONF:1098-7393;CONF:1098-10503;CONF:1098-32598;CONF:1098-16884;CONF:1098-7396;CONF:1098-19106' },</v>
       </c>
       <c r="N158" t="str">
-        <f>"'"&amp;D158&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.20',</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>158</v>
       </c>
       <c r="B159" t="s">
@@ -13562,21 +13562,21 @@
         <v>500</v>
       </c>
       <c r="K159" t="str">
-        <f>B159&amp;" "&amp;D159&amp;" "&amp;J159</f>
+        <f t="shared" si="8"/>
         <v>Intervention Act   2.16.840.1.113883.10.20.22.4.131 CONF:1198-30971;CONF:1198-30972;CONF:1198-30973;CONF:1198-30974;CONF:1198-32916;CONF:1198-30975;CONF:1198-30976;CONF:1198-30977;CONF:1198-30978;CONF:1198-30979;CONF:1198-32316;CONF:1198-31624;CONF:1198-31552;CONF:1198-30980;CONF:1198-30981;CONF:1198-30982;CONF:1198-30984;CONF:1198-30985;CONF:1198-30986;CONF:1198-30988;CONF:1198-30989;CONF:1198-30990;CONF:1198-30991;CONF:1198-30992;CONF:1198-30993;CONF:1198-31154;CONF:1198-31155;CONF:1198-32460;CONF:1198-31164;CONF:1198-31165;CONF:1198-31166;CONF:1198-31168;CONF:1198-31169;CONF:1198-31170;CONF:1198-31171;CONF:1198-31172;CONF:1198-31173;CONF:1198-31174;CONF:1198-32956;CONF:1198-31176;CONF:1198-31177;CONF:1198-31178;CONF:1198-31179;CONF:1198-31413;CONF:1198-31414;CONF:1198-31545;CONF:1198-31554;CONF:1198-31555;CONF:1198-31621;CONF:1198-31622;CONF:1198-31623;CONF:1198-32459;CONF:1198-32317;CONF:1198-32318;CONF:1198-32319;CONF:1198-32914;CONF:1198-32773;CONF:1198-32915;CONF:1198-32760;CONF:1198-32761;CONF:1198-32762</v>
       </c>
       <c r="M159" t="str">
-        <f>"{ 'id': '"&amp;A159&amp;"', 'template_type': '"&amp;C159&amp;"', 'name': '"&amp;B159&amp;" ["&amp;D159&amp;"["&amp;G159&amp;"', 'name2': '"&amp;B159&amp;"', 'template': '"&amp;D159&amp;"', 'pageStart': '"&amp;E159&amp;"', 'pages': '"&amp;G159&amp;"', 'search': '"&amp;K159&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '158', 'template_type': 'Entry', 'name': 'Intervention Act   [2.16.840.1.113883.10.20.22.4.131[581-590', 'name2': 'Intervention Act  ', 'template': '2.16.840.1.113883.10.20.22.4.131', 'pageStart': '581', 'pages': '581-590', 'search': 'Intervention Act   2.16.840.1.113883.10.20.22.4.131 CONF:1198-30971;CONF:1198-30972;CONF:1198-30973;CONF:1198-30974;CONF:1198-32916;CONF:1198-30975;CONF:1198-30976;CONF:1198-30977;CONF:1198-30978;CONF:1198-30979;CONF:1198-32316;CONF:1198-31624;CONF:1198-31552;CONF:1198-30980;CONF:1198-30981;CONF:1198-30982;CONF:1198-30984;CONF:1198-30985;CONF:1198-30986;CONF:1198-30988;CONF:1198-30989;CONF:1198-30990;CONF:1198-30991;CONF:1198-30992;CONF:1198-30993;CONF:1198-31154;CONF:1198-31155;CONF:1198-32460;CONF:1198-31164;CONF:1198-31165;CONF:1198-31166;CONF:1198-31168;CONF:1198-31169;CONF:1198-31170;CONF:1198-31171;CONF:1198-31172;CONF:1198-31173;CONF:1198-31174;CONF:1198-32956;CONF:1198-31176;CONF:1198-31177;CONF:1198-31178;CONF:1198-31179;CONF:1198-31413;CONF:1198-31414;CONF:1198-31545;CONF:1198-31554;CONF:1198-31555;CONF:1198-31621;CONF:1198-31622;CONF:1198-31623;CONF:1198-32459;CONF:1198-32317;CONF:1198-32318;CONF:1198-32319;CONF:1198-32914;CONF:1198-32773;CONF:1198-32915;CONF:1198-32760;CONF:1198-32761;CONF:1198-32762' },</v>
       </c>
       <c r="N159" t="str">
-        <f>"'"&amp;D159&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.131',</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>159</v>
       </c>
       <c r="B160" t="s">
@@ -13602,21 +13602,21 @@
         <v>1432</v>
       </c>
       <c r="K160" t="str">
-        <f>B160&amp;" "&amp;D160&amp;" "&amp;J160</f>
+        <f t="shared" si="8"/>
         <v>Latex Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.314 CONF:4437-3491;CONF:4437-3494;CONF:4437-3495;CONF:4437-3492;CONF:4437-3496;CONF:4437-3497;CONF:4437-3498;CONF:4437-3499;CONF:4437-3493;CONF:4437-3500;CONF:4437-3501;CONF:4437-3538;</v>
       </c>
       <c r="M160" t="str">
-        <f>"{ 'id': '"&amp;A160&amp;"', 'template_type': '"&amp;C160&amp;"', 'name': '"&amp;B160&amp;" ["&amp;D160&amp;"["&amp;G160&amp;"', 'name2': '"&amp;B160&amp;"', 'template': '"&amp;D160&amp;"', 'pageStart': '"&amp;E160&amp;"', 'pages': '"&amp;G160&amp;"', 'search': '"&amp;K160&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '159', 'template_type': 'Entry', 'name': 'Latex Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.314[CG_B_31-33', 'name2': 'Latex Safety Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.314', 'pageStart': '2031', 'pages': 'CG_B_31-33', 'search': 'Latex Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.314 CONF:4437-3491;CONF:4437-3494;CONF:4437-3495;CONF:4437-3492;CONF:4437-3496;CONF:4437-3497;CONF:4437-3498;CONF:4437-3499;CONF:4437-3493;CONF:4437-3500;CONF:4437-3501;CONF:4437-3538;' },</v>
       </c>
       <c r="N160" t="str">
-        <f>"'"&amp;D160&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.314',</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="B161" t="s">
@@ -13645,21 +13645,21 @@
         <v>501</v>
       </c>
       <c r="K161" t="str">
-        <f>B161&amp;" "&amp;D161&amp;" "&amp;J161</f>
+        <f t="shared" si="8"/>
         <v>Longitudinal Care Wound Observation   2.16.840.1.113883.10.20.22.4.114 CONF:1198-31012;CONF:1198-31013;CONF:1198-32947;CONF:1198-29474;CONF:1198-32913;CONF:1198-29476;CONF:1198-29477;CONF:1198-31010;CONF:1198-29485;CONF:1198-29488;CONF:1198-29490;CONF:1198-29491;CONF:1198-29492;CONF:1198-31524;CONF:1198-29493;CONF:1198-29494;CONF:1198-31542;CONF:1198-29495;CONF:1198-29496;CONF:1198-29497;CONF:1198-29503;CONF:1198-29504;CONF:1198-29505;CONF:1198-31890;CONF:1198-31891;CONF:1198-31892;CONF:1198-31893;CONF:1198-31894;CONF:1198-31919</v>
       </c>
       <c r="M161" t="str">
-        <f>"{ 'id': '"&amp;A161&amp;"', 'template_type': '"&amp;C161&amp;"', 'name': '"&amp;B161&amp;" ["&amp;D161&amp;"["&amp;G161&amp;"', 'name2': '"&amp;B161&amp;"', 'template': '"&amp;D161&amp;"', 'pageStart': '"&amp;E161&amp;"', 'pages': '"&amp;G161&amp;"', 'search': '"&amp;K161&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '160', 'template_type': 'Entry', 'name': 'Longitudinal Care Wound Observation   [2.16.840.1.113883.10.20.22.4.114[750-756', 'name2': 'Longitudinal Care Wound Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.114', 'pageStart': '750', 'pages': '750-756', 'search': 'Longitudinal Care Wound Observation   2.16.840.1.113883.10.20.22.4.114 CONF:1198-31012;CONF:1198-31013;CONF:1198-32947;CONF:1198-29474;CONF:1198-32913;CONF:1198-29476;CONF:1198-29477;CONF:1198-31010;CONF:1198-29485;CONF:1198-29488;CONF:1198-29490;CONF:1198-29491;CONF:1198-29492;CONF:1198-31524;CONF:1198-29493;CONF:1198-29494;CONF:1198-31542;CONF:1198-29495;CONF:1198-29496;CONF:1198-29497;CONF:1198-29503;CONF:1198-29504;CONF:1198-29505;CONF:1198-31890;CONF:1198-31891;CONF:1198-31892;CONF:1198-31893;CONF:1198-31894;CONF:1198-31919' },</v>
       </c>
       <c r="N161" t="str">
-        <f>"'"&amp;D161&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.114',</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>161</v>
       </c>
       <c r="B162" t="s">
@@ -13685,21 +13685,21 @@
         <v>1433</v>
       </c>
       <c r="K162" t="str">
-        <f>B162&amp;" "&amp;D162&amp;" "&amp;J162</f>
+        <f t="shared" si="8"/>
         <v>Lot or Batch Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.315 CONF:4437-3450;CONF:4437-3452;CONF:4437-3453;CONF:4437-3451;CONF:4437-3454;CONF:4437-3455;CONF:4437-3456;CONF:4437-3457;CONF:4437-3458;</v>
       </c>
       <c r="M162" t="str">
-        <f>"{ 'id': '"&amp;A162&amp;"', 'template_type': '"&amp;C162&amp;"', 'name': '"&amp;B162&amp;" ["&amp;D162&amp;"["&amp;G162&amp;"', 'name2': '"&amp;B162&amp;"', 'template': '"&amp;D162&amp;"', 'pageStart': '"&amp;E162&amp;"', 'pages': '"&amp;G162&amp;"', 'search': '"&amp;K162&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '161', 'template_type': 'Entry', 'name': 'Lot or Batch Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.315[CG_B_33-35', 'name2': 'Lot or Batch Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.315', 'pageStart': '2033', 'pages': 'CG_B_33-35', 'search': 'Lot or Batch Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.315 CONF:4437-3450;CONF:4437-3452;CONF:4437-3453;CONF:4437-3451;CONF:4437-3454;CONF:4437-3455;CONF:4437-3456;CONF:4437-3457;CONF:4437-3458;' },</v>
       </c>
       <c r="N162" t="str">
-        <f>"'"&amp;D162&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.315',</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>162</v>
       </c>
       <c r="B163" t="s">
@@ -13725,21 +13725,21 @@
         <v>1434</v>
       </c>
       <c r="K163" t="str">
-        <f>B163&amp;" "&amp;D163&amp;" "&amp;J163</f>
+        <f t="shared" si="8"/>
         <v>Manufacturing Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.316 CONF:4437-3459;CONF:4437-3462;CONF:4437-3463;CONF:4437-3460;CONF:4437-3464;CONF:4437-3465;CONF:4437-3466;CONF:4437-3467;CONF:4437-3461;CONF:4437-3468;</v>
       </c>
       <c r="M163" t="str">
-        <f>"{ 'id': '"&amp;A163&amp;"', 'template_type': '"&amp;C163&amp;"', 'name': '"&amp;B163&amp;" ["&amp;D163&amp;"["&amp;G163&amp;"', 'name2': '"&amp;B163&amp;"', 'template': '"&amp;D163&amp;"', 'pageStart': '"&amp;E163&amp;"', 'pages': '"&amp;G163&amp;"', 'search': '"&amp;K163&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '162', 'template_type': 'Entry', 'name': 'Manufacturing Date Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.316[CG_B_35-37', 'name2': 'Manufacturing Date Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.316', 'pageStart': '2035', 'pages': 'CG_B_35-37', 'search': 'Manufacturing Date Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.316 CONF:4437-3459;CONF:4437-3462;CONF:4437-3463;CONF:4437-3460;CONF:4437-3464;CONF:4437-3465;CONF:4437-3466;CONF:4437-3467;CONF:4437-3461;CONF:4437-3468;' },</v>
       </c>
       <c r="N163" t="str">
-        <f>"'"&amp;D163&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.316',</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>163</v>
       </c>
       <c r="B164" t="s">
@@ -13768,21 +13768,21 @@
         <v>603</v>
       </c>
       <c r="K164" t="str">
-        <f>B164&amp;" "&amp;D164&amp;" "&amp;J164</f>
+        <f t="shared" si="8"/>
         <v>Medical Equipment Organizer 2.16.840.1.113883.10.20.22.4.135 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886</v>
       </c>
       <c r="M164" t="str">
-        <f>"{ 'id': '"&amp;A164&amp;"', 'template_type': '"&amp;C164&amp;"', 'name': '"&amp;B164&amp;" ["&amp;D164&amp;"["&amp;G164&amp;"', 'name2': '"&amp;B164&amp;"', 'template': '"&amp;D164&amp;"', 'pageStart': '"&amp;E164&amp;"', 'pages': '"&amp;G164&amp;"', 'search': '"&amp;K164&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '163', 'template_type': 'Entry', 'name': 'Medical Equipment Organizer [2.16.840.1.113883.10.20.22.4.135[590-594', 'name2': 'Medical Equipment Organizer', 'template': '2.16.840.1.113883.10.20.22.4.135', 'pageStart': '590', 'pages': '590-594', 'search': 'Medical Equipment Organizer 2.16.840.1.113883.10.20.22.4.135 CONF:1098-7944;CONF:1098-10404;CONF:1098-32523;CONF:1098-15381;CONF:1098-15382;CONF:1098-30828;CONF:1098-7946;CONF:1098-7947;CONF:1098-7948;CONF:1098-30351;CONF:1098-31125;CONF:1098-31861;CONF:1098-31885;CONF:1098-31886' },</v>
       </c>
       <c r="N164" t="str">
-        <f>"'"&amp;D164&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.135',</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>164</v>
       </c>
       <c r="B165" t="s">
@@ -13811,21 +13811,21 @@
         <v>502</v>
       </c>
       <c r="K165" t="str">
-        <f>B165&amp;" "&amp;D165&amp;" "&amp;J165</f>
+        <f t="shared" si="8"/>
         <v>Medication Activity  2.16.840.1.113883.10.20.22.4.16 CONF:1098-7496;CONF:1098-7497;CONF:1098-7499;CONF:1098-10504;CONF:1098-32498;CONF:1098-7500;CONF:1098-7506;CONF:1098-7507;CONF:1098-32360;CONF:1098-7508;CONF:1098-32775;CONF:1098-32776;CONF:1098-32777;CONF:1098-32890;CONF:1098-7513;CONF:1098-9106;CONF:1098-28499;CONF:1098-7555;CONF:1098-7514;CONF:1098-32950;CONF:1098-7515;CONF:1098-7516;CONF:1098-7526;CONF:1098-16878;CONF:1098-16879;CONF:1098-7517;CONF:1098-7525;CONF:1098-7518;CONF:1098-7519;CONF:1098-7520;CONF:1098-16085;CONF:1098-7522;CONF:1098-31150;CONF:1098-7523;CONF:1098-7524;CONF:1098-16086;CONF:1098-7536;CONF:1098-7537;CONF:1098-16087;CONF:1098-7539;CONF:1098-7540;CONF:1098-7542;CONF:1098-31387;CONF:1098-7543;CONF:1098-7547;CONF:1098-16089;CONF:1098-7549;CONF:1098-7553;CONF:1098-16090;CONF:1098-7552;CONF:1098-7544;CONF:1098-16091;CONF:1098-30820;CONF:1098-30821;CONF:1098-30822;CONF:1098-31515;CONF:1098-31516;CONF:1098-31517;CONF:1098-31518;CONF:1098-31519;CONF:1098-32907;CONF:1098-32908;CONF:1098-32909;CONF:1098-31520;CONF:1098-31882;CONF:1098-31883;CONF:1098-30800</v>
       </c>
       <c r="M165" t="str">
-        <f>"{ 'id': '"&amp;A165&amp;"', 'template_type': '"&amp;C165&amp;"', 'name': '"&amp;B165&amp;" ["&amp;D165&amp;"["&amp;G165&amp;"', 'name2': '"&amp;B165&amp;"', 'template': '"&amp;D165&amp;"', 'pageStart': '"&amp;E165&amp;"', 'pages': '"&amp;G165&amp;"', 'search': '"&amp;K165&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '164', 'template_type': 'Entry', 'name': 'Medication Activity  [2.16.840.1.113883.10.20.22.4.16[594-604', 'name2': 'Medication Activity ', 'template': '2.16.840.1.113883.10.20.22.4.16', 'pageStart': '594', 'pages': '594-604', 'search': 'Medication Activity  2.16.840.1.113883.10.20.22.4.16 CONF:1098-7496;CONF:1098-7497;CONF:1098-7499;CONF:1098-10504;CONF:1098-32498;CONF:1098-7500;CONF:1098-7506;CONF:1098-7507;CONF:1098-32360;CONF:1098-7508;CONF:1098-32775;CONF:1098-32776;CONF:1098-32777;CONF:1098-32890;CONF:1098-7513;CONF:1098-9106;CONF:1098-28499;CONF:1098-7555;CONF:1098-7514;CONF:1098-32950;CONF:1098-7515;CONF:1098-7516;CONF:1098-7526;CONF:1098-16878;CONF:1098-16879;CONF:1098-7517;CONF:1098-7525;CONF:1098-7518;CONF:1098-7519;CONF:1098-7520;CONF:1098-16085;CONF:1098-7522;CONF:1098-31150;CONF:1098-7523;CONF:1098-7524;CONF:1098-16086;CONF:1098-7536;CONF:1098-7537;CONF:1098-16087;CONF:1098-7539;CONF:1098-7540;CONF:1098-7542;CONF:1098-31387;CONF:1098-7543;CONF:1098-7547;CONF:1098-16089;CONF:1098-7549;CONF:1098-7553;CONF:1098-16090;CONF:1098-7552;CONF:1098-7544;CONF:1098-16091;CONF:1098-30820;CONF:1098-30821;CONF:1098-30822;CONF:1098-31515;CONF:1098-31516;CONF:1098-31517;CONF:1098-31518;CONF:1098-31519;CONF:1098-32907;CONF:1098-32908;CONF:1098-32909;CONF:1098-31520;CONF:1098-31882;CONF:1098-31883;CONF:1098-30800' },</v>
       </c>
       <c r="N165" t="str">
-        <f>"'"&amp;D165&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.16',</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>165</v>
       </c>
       <c r="B166" t="s">
@@ -13857,21 +13857,21 @@
         <v>503</v>
       </c>
       <c r="K166" t="str">
-        <f>B166&amp;" "&amp;D166&amp;" "&amp;J166</f>
+        <f t="shared" si="8"/>
         <v>Medication Dispense (Companion Guide) 2.16.840.1.113883.10.20.22.4.18 CONF:1098-7451;CONF:1098-7452;CONF:1098-7453;CONF:1098-10505;CONF:1098-32580;CONF:1098-7454;CONF:1098-7455;CONF:1098-32361;CONF:1098-7456;CONF:1098-7457;CONF:1098-7458;CONF:1098-7459;CONF:1098-15607;CONF:1098-9331;CONF:1098-31696;CONF:1098-7461;CONF:1098-7467;CONF:1098-7468;CONF:1098-10565;CONF:1098-7473;CONF:1098-7474;CONF:1098-15606;CONF:1098-9333</v>
       </c>
       <c r="M166" t="str">
-        <f>"{ 'id': '"&amp;A166&amp;"', 'template_type': '"&amp;C166&amp;"', 'name': '"&amp;B166&amp;" ["&amp;D166&amp;"["&amp;G166&amp;"', 'name2': '"&amp;B166&amp;"', 'template': '"&amp;D166&amp;"', 'pageStart': '"&amp;E166&amp;"', 'pages': '"&amp;G166&amp;"', 'search': '"&amp;K166&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '165', 'template_type': 'Entry', 'name': 'Medication Dispense (Companion Guide) [2.16.840.1.113883.10.20.22.4.18[CG_A_138-144', 'name2': 'Medication Dispense (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.18', 'pageStart': '1138', 'pages': 'CG_A_138-144', 'search': 'Medication Dispense (Companion Guide) 2.16.840.1.113883.10.20.22.4.18 CONF:1098-7451;CONF:1098-7452;CONF:1098-7453;CONF:1098-10505;CONF:1098-32580;CONF:1098-7454;CONF:1098-7455;CONF:1098-32361;CONF:1098-7456;CONF:1098-7457;CONF:1098-7458;CONF:1098-7459;CONF:1098-15607;CONF:1098-9331;CONF:1098-31696;CONF:1098-7461;CONF:1098-7467;CONF:1098-7468;CONF:1098-10565;CONF:1098-7473;CONF:1098-7474;CONF:1098-15606;CONF:1098-9333' },</v>
       </c>
       <c r="N166" t="str">
-        <f>"'"&amp;D166&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.18',</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>166</v>
       </c>
       <c r="B167" t="s">
@@ -13900,21 +13900,21 @@
         <v>504</v>
       </c>
       <c r="K167" t="str">
-        <f>B167&amp;" "&amp;D167&amp;" "&amp;J167</f>
+        <f t="shared" si="8"/>
         <v>Medication Free Text Sig  2.16.840.1.113883.10.20.22.4.147 CONF:81-32770;CONF:81-32771;CONF:81-32753;CONF:81-32772;CONF:81-32775;CONF:81-32780;CONF:81-32781;CONF:81-32754;CONF:81-32755;CONF:81-32756;CONF:81-32774;CONF:81-32776;CONF:81-32777;CONF:81-32778;CONF:81-32779</v>
       </c>
       <c r="M167" t="str">
-        <f>"{ 'id': '"&amp;A167&amp;"', 'template_type': '"&amp;C167&amp;"', 'name': '"&amp;B167&amp;" ["&amp;D167&amp;"["&amp;G167&amp;"', 'name2': '"&amp;B167&amp;"', 'template': '"&amp;D167&amp;"', 'pageStart': '"&amp;E167&amp;"', 'pages': '"&amp;G167&amp;"', 'search': '"&amp;K167&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '166', 'template_type': 'Entry', 'name': 'Medication Free Text Sig  [2.16.840.1.113883.10.20.22.4.147[607-609', 'name2': 'Medication Free Text Sig ', 'template': '2.16.840.1.113883.10.20.22.4.147', 'pageStart': '607', 'pages': '607-609', 'search': 'Medication Free Text Sig  2.16.840.1.113883.10.20.22.4.147 CONF:81-32770;CONF:81-32771;CONF:81-32753;CONF:81-32772;CONF:81-32775;CONF:81-32780;CONF:81-32781;CONF:81-32754;CONF:81-32755;CONF:81-32756;CONF:81-32774;CONF:81-32776;CONF:81-32777;CONF:81-32778;CONF:81-32779' },</v>
       </c>
       <c r="N167" t="str">
-        <f>"'"&amp;D167&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.147',</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>167</v>
       </c>
       <c r="B168" t="s">
@@ -13943,21 +13943,21 @@
         <v>505</v>
       </c>
       <c r="K168" t="str">
-        <f>B168&amp;" "&amp;D168&amp;" "&amp;J168</f>
+        <f t="shared" si="8"/>
         <v>Medication Information   2.16.840.1.113883.10.20.22.4.23 CONF:1098-7408;CONF:1098-7409;CONF:1098-10506;CONF:1098-32579;CONF:1098-7410;CONF:1098-7411;CONF:1098-7412;CONF:1098-31884;CONF:1098-7416</v>
       </c>
       <c r="M168" t="str">
-        <f>"{ 'id': '"&amp;A168&amp;"', 'template_type': '"&amp;C168&amp;"', 'name': '"&amp;B168&amp;" ["&amp;D168&amp;"["&amp;G168&amp;"', 'name2': '"&amp;B168&amp;"', 'template': '"&amp;D168&amp;"', 'pageStart': '"&amp;E168&amp;"', 'pages': '"&amp;G168&amp;"', 'search': '"&amp;K168&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '167', 'template_type': 'Entry', 'name': 'Medication Information   [2.16.840.1.113883.10.20.22.4.23[609-617', 'name2': 'Medication Information  ', 'template': '2.16.840.1.113883.10.20.22.4.23', 'pageStart': '609', 'pages': '609-617', 'search': 'Medication Information   2.16.840.1.113883.10.20.22.4.23 CONF:1098-7408;CONF:1098-7409;CONF:1098-10506;CONF:1098-32579;CONF:1098-7410;CONF:1098-7411;CONF:1098-7412;CONF:1098-31884;CONF:1098-7416' },</v>
       </c>
       <c r="N168" t="str">
-        <f>"'"&amp;D168&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.23',</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>168</v>
       </c>
       <c r="B169" t="s">
@@ -13986,21 +13986,21 @@
         <v>506</v>
       </c>
       <c r="K169" t="str">
-        <f>B169&amp;" "&amp;D169&amp;" "&amp;J169</f>
+        <f t="shared" si="8"/>
         <v>Medication Supply Order  2.16.840.1.113883.10.20.22.4.17 CONF:1098-7427;CONF:1098-7428;CONF:1098-7429;CONF:1098-10507;CONF:1098-32578;CONF:1098-7430;CONF:1098-7432;CONF:1098-32362;CONF:1098-15143;CONF:1098-15144;CONF:1098-7434;CONF:1098-7436;CONF:1098-7439;CONF:1098-16093;CONF:1098-9334;CONF:1098-31695;CONF:1098-16870;CONF:1098-7438;CONF:1098-7442;CONF:1098-7444;CONF:1098-7445;CONF:1098-31391</v>
       </c>
       <c r="M169" t="str">
-        <f>"{ 'id': '"&amp;A169&amp;"', 'template_type': '"&amp;C169&amp;"', 'name': '"&amp;B169&amp;" ["&amp;D169&amp;"["&amp;G169&amp;"', 'name2': '"&amp;B169&amp;"', 'template': '"&amp;D169&amp;"', 'pageStart': '"&amp;E169&amp;"', 'pages': '"&amp;G169&amp;"', 'search': '"&amp;K169&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '168', 'template_type': 'Entry', 'name': 'Medication Supply Order  [2.16.840.1.113883.10.20.22.4.17[617-620', 'name2': 'Medication Supply Order ', 'template': '2.16.840.1.113883.10.20.22.4.17', 'pageStart': '617', 'pages': '617-620', 'search': 'Medication Supply Order  2.16.840.1.113883.10.20.22.4.17 CONF:1098-7427;CONF:1098-7428;CONF:1098-7429;CONF:1098-10507;CONF:1098-32578;CONF:1098-7430;CONF:1098-7432;CONF:1098-32362;CONF:1098-15143;CONF:1098-15144;CONF:1098-7434;CONF:1098-7436;CONF:1098-7439;CONF:1098-16093;CONF:1098-9334;CONF:1098-31695;CONF:1098-16870;CONF:1098-7438;CONF:1098-7442;CONF:1098-7444;CONF:1098-7445;CONF:1098-31391' },</v>
       </c>
       <c r="N169" t="str">
-        <f>"'"&amp;D169&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.17',</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>169</v>
       </c>
       <c r="B170" t="s">
@@ -14029,21 +14029,21 @@
         <v>507</v>
       </c>
       <c r="K170" t="str">
-        <f>B170&amp;" "&amp;D170&amp;" "&amp;J170</f>
+        <f t="shared" si="8"/>
         <v>Mental Status Observation   2.16.840.1.113883.10.20.22.4.74 CONF:1198-14249;CONF:1198-14250;CONF:1198-14255;CONF:1198-14256;CONF:1198-32565;CONF:1198-14257;CONF:1198-14591;CONF:1198-32788;CONF:1198-32789;CONF:1198-32790;CONF:1198-32791;CONF:1198-32792;CONF:1198-14254;CONF:1198-19092;CONF:1198-14261;CONF:1198-14263;CONF:1198-14271;CONF:1198-14266;CONF:1198-14469;CONF:1198-14595;CONF:1198-14470;CONF:1198-14267</v>
       </c>
       <c r="M170" t="str">
-        <f>"{ 'id': '"&amp;A170&amp;"', 'template_type': '"&amp;C170&amp;"', 'name': '"&amp;B170&amp;" ["&amp;D170&amp;"["&amp;G170&amp;"', 'name2': '"&amp;B170&amp;"', 'template': '"&amp;D170&amp;"', 'pageStart': '"&amp;E170&amp;"', 'pages': '"&amp;G170&amp;"', 'search': '"&amp;K170&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '169', 'template_type': 'Entry', 'name': 'Mental Status Observation   [2.16.840.1.113883.10.20.22.4.74[620-625', 'name2': 'Mental Status Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.74', 'pageStart': '620', 'pages': '620-625', 'search': 'Mental Status Observation   2.16.840.1.113883.10.20.22.4.74 CONF:1198-14249;CONF:1198-14250;CONF:1198-14255;CONF:1198-14256;CONF:1198-32565;CONF:1198-14257;CONF:1198-14591;CONF:1198-32788;CONF:1198-32789;CONF:1198-32790;CONF:1198-32791;CONF:1198-32792;CONF:1198-14254;CONF:1198-19092;CONF:1198-14261;CONF:1198-14263;CONF:1198-14271;CONF:1198-14266;CONF:1198-14469;CONF:1198-14595;CONF:1198-14470;CONF:1198-14267' },</v>
       </c>
       <c r="N170" t="str">
-        <f>"'"&amp;D170&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.74',</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>170</v>
       </c>
       <c r="B171" t="s">
@@ -14072,21 +14072,21 @@
         <v>508</v>
       </c>
       <c r="K171" t="str">
-        <f>B171&amp;" "&amp;D171&amp;" "&amp;J171</f>
+        <f t="shared" si="8"/>
         <v>Mental Status Organizer  2.16.840.1.113883.10.20.22.4.75 CONF:1198-14369;CONF:1198-14371;CONF:1198-14375;CONF:1198-14376;CONF:1198-32566;CONF:1198-14377;CONF:1198-14378;CONF:1198-14697;CONF:1198-14698;CONF:1198-14372;CONF:1198-19093;CONF:1198-32424;CONF:1198-32426;CONF:1198-14373;CONF:1198-14381</v>
       </c>
       <c r="M171" t="str">
-        <f>"{ 'id': '"&amp;A171&amp;"', 'template_type': '"&amp;C171&amp;"', 'name': '"&amp;B171&amp;" ["&amp;D171&amp;"["&amp;G171&amp;"', 'name2': '"&amp;B171&amp;"', 'template': '"&amp;D171&amp;"', 'pageStart': '"&amp;E171&amp;"', 'pages': '"&amp;G171&amp;"', 'search': '"&amp;K171&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '170', 'template_type': 'Entry', 'name': 'Mental Status Organizer  [2.16.840.1.113883.10.20.22.4.75[625-628', 'name2': 'Mental Status Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.75', 'pageStart': '625', 'pages': '625-628', 'search': 'Mental Status Organizer  2.16.840.1.113883.10.20.22.4.75 CONF:1198-14369;CONF:1198-14371;CONF:1198-14375;CONF:1198-14376;CONF:1198-32566;CONF:1198-14377;CONF:1198-14378;CONF:1198-14697;CONF:1198-14698;CONF:1198-14372;CONF:1198-19093;CONF:1198-32424;CONF:1198-32426;CONF:1198-14373;CONF:1198-14381' },</v>
       </c>
       <c r="N171" t="str">
-        <f>"'"&amp;D171&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.75',</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>171</v>
       </c>
       <c r="B172" t="s">
@@ -14112,21 +14112,21 @@
         <v>1435</v>
       </c>
       <c r="K172" t="str">
-        <f>B172&amp;" "&amp;D172&amp;" "&amp;J172</f>
+        <f t="shared" si="8"/>
         <v>Model Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.317 CONF:4437-3412;CONF:4437-3414;CONF:4437-3415;CONF:4437-3413;CONF:4437-3416;CONF:4437-3417;CONF:4437-3418;CONF:4437-3419;CONF:4437-3420;</v>
       </c>
       <c r="M172" t="str">
-        <f>"{ 'id': '"&amp;A172&amp;"', 'template_type': '"&amp;C172&amp;"', 'name': '"&amp;B172&amp;" ["&amp;D172&amp;"["&amp;G172&amp;"', 'name2': '"&amp;B172&amp;"', 'template': '"&amp;D172&amp;"', 'pageStart': '"&amp;E172&amp;"', 'pages': '"&amp;G172&amp;"', 'search': '"&amp;K172&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '171', 'template_type': 'Entry', 'name': 'Model Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.317[CG_B_37-39', 'name2': 'Model Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.317', 'pageStart': '2037', 'pages': 'CG_B_37-39', 'search': 'Model Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.317 CONF:4437-3412;CONF:4437-3414;CONF:4437-3415;CONF:4437-3413;CONF:4437-3416;CONF:4437-3417;CONF:4437-3418;CONF:4437-3419;CONF:4437-3420;' },</v>
       </c>
       <c r="N172" t="str">
-        <f>"'"&amp;D172&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.317',</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>172</v>
       </c>
       <c r="B173" t="s">
@@ -14152,21 +14152,21 @@
         <v>1436</v>
       </c>
       <c r="K173" t="str">
-        <f>B173&amp;" "&amp;D173&amp;" "&amp;J173</f>
+        <f t="shared" si="8"/>
         <v>MRI Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.318 CONF:4437-3469;CONF:4437-3471;CONF:4437-3472;CONF:4437-3470;CONF:4437-3473;CONF:4437-3474;CONF:4437-3475;CONF:4437-3476;CONF:4437-3477;CONF:4437-3478;CONF:4437-3479;CONF:4437-3537;</v>
       </c>
       <c r="M173" t="str">
-        <f>"{ 'id': '"&amp;A173&amp;"', 'template_type': '"&amp;C173&amp;"', 'name': '"&amp;B173&amp;" ["&amp;D173&amp;"["&amp;G173&amp;"', 'name2': '"&amp;B173&amp;"', 'template': '"&amp;D173&amp;"', 'pageStart': '"&amp;E173&amp;"', 'pages': '"&amp;G173&amp;"', 'search': '"&amp;K173&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '172', 'template_type': 'Entry', 'name': 'MRI Safety Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.318[CG_B_39-41', 'name2': 'MRI Safety Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.318', 'pageStart': '2039', 'pages': 'CG_B_39-41', 'search': 'MRI Safety Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.318 CONF:4437-3469;CONF:4437-3471;CONF:4437-3472;CONF:4437-3470;CONF:4437-3473;CONF:4437-3474;CONF:4437-3475;CONF:4437-3476;CONF:4437-3477;CONF:4437-3478;CONF:4437-3479;CONF:4437-3537;' },</v>
       </c>
       <c r="N173" t="str">
-        <f>"'"&amp;D173&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.318',</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>173</v>
       </c>
       <c r="B174" t="s">
@@ -14195,21 +14195,21 @@
         <v>509</v>
       </c>
       <c r="K174" t="str">
-        <f>B174&amp;" "&amp;D174&amp;" "&amp;J174</f>
+        <f t="shared" si="8"/>
         <v>Non-Medicinal Supply Activity  2.16.840.1.113883.10.20.22.4.50 CONF:1098-8745;CONF:1098-8746;CONF:1098-8747;CONF:1098-10509;CONF:1098-32514;CONF:1098-8748;CONF:1098-8749;CONF:1098-32363;CONF:1098-15498;CONF:1098-16867;CONF:1098-8751;CONF:1098-8752;CONF:1098-8754;CONF:1098-15900;CONF:1098-30277;CONF:1098-30278;CONF:1098-30279;CONF:1098-31393</v>
       </c>
       <c r="M174" t="str">
-        <f>"{ 'id': '"&amp;A174&amp;"', 'template_type': '"&amp;C174&amp;"', 'name': '"&amp;B174&amp;" ["&amp;D174&amp;"["&amp;G174&amp;"', 'name2': '"&amp;B174&amp;"', 'template': '"&amp;D174&amp;"', 'pageStart': '"&amp;E174&amp;"', 'pages': '"&amp;G174&amp;"', 'search': '"&amp;K174&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '173', 'template_type': 'Entry', 'name': 'Non-Medicinal Supply Activity  [2.16.840.1.113883.10.20.22.4.50[628-631', 'name2': 'Non-Medicinal Supply Activity ', 'template': '2.16.840.1.113883.10.20.22.4.50', 'pageStart': '628', 'pages': '628-631', 'search': 'Non-Medicinal Supply Activity  2.16.840.1.113883.10.20.22.4.50 CONF:1098-8745;CONF:1098-8746;CONF:1098-8747;CONF:1098-10509;CONF:1098-32514;CONF:1098-8748;CONF:1098-8749;CONF:1098-32363;CONF:1098-15498;CONF:1098-16867;CONF:1098-8751;CONF:1098-8752;CONF:1098-8754;CONF:1098-15900;CONF:1098-30277;CONF:1098-30278;CONF:1098-30279;CONF:1098-31393' },</v>
       </c>
       <c r="N174" t="str">
-        <f>"'"&amp;D174&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.50',</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>174</v>
       </c>
       <c r="B175" t="s">
@@ -14235,21 +14235,21 @@
         <v>1292</v>
       </c>
       <c r="K175" t="str">
-        <f>B175&amp;" "&amp;D175&amp;" "&amp;J175</f>
+        <f t="shared" si="8"/>
         <v>Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;</v>
       </c>
       <c r="M175" t="str">
-        <f>"{ 'id': '"&amp;A175&amp;"', 'template_type': '"&amp;C175&amp;"', 'name': '"&amp;B175&amp;" ["&amp;D175&amp;"["&amp;G175&amp;"', 'name2': '"&amp;B175&amp;"', 'template': '"&amp;D175&amp;"', 'pageStart': '"&amp;E175&amp;"', 'pages': '"&amp;G175&amp;"', 'search': '"&amp;K175&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '174', 'template_type': 'Entry', 'name': 'Note Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.202[CG_A_144-153', 'name2': 'Note Activity (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.202', 'pageStart': '1144', 'pages': 'CG_A_144-153', 'search': 'Note Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.202 CONF:3250-16899;CONF:3250-16900;CONF:3250-16933;CONF:3250-16934;CONF:3250-16937;CONF:3250-16895;CONF:3250-16940;CONF:3250-16941;CONF:3250-16939;CONF:3250-16942;CONF:3250-16943;CONF:3250-16896;CONF:3250-16906;CONF:3250-16912;CONF:3250-16897;CONF:3250-16920;CONF:3250-16898;CONF:3250-16902;CONF:3250-16916;CONF:3250-16903;CONF:3250-16917;CONF:3250-16913;CONF:3250-16923;CONF:3250-16925;CONF:3250-16926;CONF:3250-16924;CONF:3250-16927;CONF:3250-16928;CONF:3250-16929;CONF:3250-16930;CONF:3250-16907;CONF:3250-16921;CONF:3250-16922;CONF:3250-16931;CONF:3250-16908;CONF:3250-16909;CONF:3250-16914;CONF:3250-16910;CONF:3250-16911;CONF:3250-16915;CONF:3250-16918;' },</v>
       </c>
       <c r="N175" t="str">
-        <f>"'"&amp;D175&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.202',</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>175</v>
       </c>
       <c r="B176" t="s">
@@ -14278,21 +14278,21 @@
         <v>510</v>
       </c>
       <c r="K176" t="str">
-        <f>B176&amp;" "&amp;D176&amp;" "&amp;J176</f>
+        <f t="shared" si="8"/>
         <v>Number of Pressure Ulcers Observation  2.16.840.1.113883.10.20.22.4.76 CONF:1198-14705;CONF:1198-14706;CONF:1198-14707;CONF:1198-14708;CONF:1198-32604;CONF:1198-14709;CONF:1198-14767;CONF:1198-14768;CONF:1198-32164;CONF:1198-32849;CONF:1198-32850;CONF:1198-32851;CONF:1198-14714;CONF:1198-19108;CONF:1198-14715;CONF:1198-14771;CONF:1198-14717;CONF:1198-14718;CONF:1198-14719;CONF:1198-14720;CONF:1198-14721;CONF:1198-14722;CONF:1198-31930;CONF:1198-14725</v>
       </c>
       <c r="M176" t="str">
-        <f>"{ 'id': '"&amp;A176&amp;"', 'template_type': '"&amp;C176&amp;"', 'name': '"&amp;B176&amp;" ["&amp;D176&amp;"["&amp;G176&amp;"', 'name2': '"&amp;B176&amp;"', 'template': '"&amp;D176&amp;"', 'pageStart': '"&amp;E176&amp;"', 'pages': '"&amp;G176&amp;"', 'search': '"&amp;K176&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '175', 'template_type': 'Entry', 'name': 'Number of Pressure Ulcers Observation  [2.16.840.1.113883.10.20.22.4.76[631-635', 'name2': 'Number of Pressure Ulcers Observation ', 'template': '2.16.840.1.113883.10.20.22.4.76', 'pageStart': '631', 'pages': '631-635', 'search': 'Number of Pressure Ulcers Observation  2.16.840.1.113883.10.20.22.4.76 CONF:1198-14705;CONF:1198-14706;CONF:1198-14707;CONF:1198-14708;CONF:1198-32604;CONF:1198-14709;CONF:1198-14767;CONF:1198-14768;CONF:1198-32164;CONF:1198-32849;CONF:1198-32850;CONF:1198-32851;CONF:1198-14714;CONF:1198-19108;CONF:1198-14715;CONF:1198-14771;CONF:1198-14717;CONF:1198-14718;CONF:1198-14719;CONF:1198-14720;CONF:1198-14721;CONF:1198-14722;CONF:1198-31930;CONF:1198-14725' },</v>
       </c>
       <c r="N176" t="str">
-        <f>"'"&amp;D176&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.76',</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
       <c r="B177" t="s">
@@ -14321,21 +14321,21 @@
         <v>511</v>
       </c>
       <c r="K177" t="str">
-        <f>B177&amp;" "&amp;D177&amp;" "&amp;J177</f>
+        <f t="shared" si="8"/>
         <v>Nutrition Assessment 2.16.840.1.113883.10.20.22.4.138 CONF:1098-32914;CONF:1098-32915;CONF:1098-32916;CONF:1098-32917;CONF:1098-32918;CONF:1098-32919;CONF:1098-32926;CONF:1098-32927;CONF:1098-32920;CONF:1098-32921;CONF:1098-32923;CONF:1098-32922;CONF:1098-32925;CONF:1098-32924</v>
       </c>
       <c r="M177" t="str">
-        <f>"{ 'id': '"&amp;A177&amp;"', 'template_type': '"&amp;C177&amp;"', 'name': '"&amp;B177&amp;" ["&amp;D177&amp;"["&amp;G177&amp;"', 'name2': '"&amp;B177&amp;"', 'template': '"&amp;D177&amp;"', 'pageStart': '"&amp;E177&amp;"', 'pages': '"&amp;G177&amp;"', 'search': '"&amp;K177&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '176', 'template_type': 'Entry', 'name': 'Nutrition Assessment [2.16.840.1.113883.10.20.22.4.138[635-638', 'name2': 'Nutrition Assessment', 'template': '2.16.840.1.113883.10.20.22.4.138', 'pageStart': '635', 'pages': '635-638', 'search': 'Nutrition Assessment 2.16.840.1.113883.10.20.22.4.138 CONF:1098-32914;CONF:1098-32915;CONF:1098-32916;CONF:1098-32917;CONF:1098-32918;CONF:1098-32919;CONF:1098-32926;CONF:1098-32927;CONF:1098-32920;CONF:1098-32921;CONF:1098-32923;CONF:1098-32922;CONF:1098-32925;CONF:1098-32924' },</v>
       </c>
       <c r="N177" t="str">
-        <f>"'"&amp;D177&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.138',</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>177</v>
       </c>
       <c r="B178" t="s">
@@ -14364,21 +14364,21 @@
         <v>608</v>
       </c>
       <c r="K178" t="str">
-        <f>B178&amp;" "&amp;D178&amp;" "&amp;J178</f>
+        <f t="shared" si="8"/>
         <v>Nutrition Recommendation 2.16.840.1.113883.10.20.22.4.130 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322</v>
       </c>
       <c r="M178" t="str">
-        <f>"{ 'id': '"&amp;A178&amp;"', 'template_type': '"&amp;C178&amp;"', 'name': '"&amp;B178&amp;" ["&amp;D178&amp;"["&amp;G178&amp;"', 'name2': '"&amp;B178&amp;"', 'template': '"&amp;D178&amp;"', 'pageStart': '"&amp;E178&amp;"', 'pages': '"&amp;G178&amp;"', 'search': '"&amp;K178&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '177', 'template_type': 'Entry', 'name': 'Nutrition Recommendation [2.16.840.1.113883.10.20.22.4.130[638-643', 'name2': 'Nutrition Recommendation', 'template': '2.16.840.1.113883.10.20.22.4.130', 'pageStart': '638', 'pages': '638-643', 'search': 'Nutrition Recommendation 2.16.840.1.113883.10.20.22.4.130 CONF:1098-30477;CONF:1098-30478;CONF:1098-30318;CONF:1098-30319;CONF:1098-30320;CONF:1098-31042;CONF:1098-31043;CONF:1098-30321;CONF:1098-30322' },</v>
       </c>
       <c r="N178" t="str">
-        <f>"'"&amp;D178&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.130',</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>178</v>
       </c>
       <c r="B179" t="s">
@@ -14407,21 +14407,21 @@
         <v>512</v>
       </c>
       <c r="K179" t="str">
-        <f>B179&amp;" "&amp;D179&amp;" "&amp;J179</f>
+        <f t="shared" si="8"/>
         <v>Nutritional Status Observation 2.16.840.1.113883.10.20.22.4.124 CONF:1098-29841;CONF:1098-29842;CONF:1098-29843;CONF:1098-29844;CONF:1098-29845;CONF:1098-29846;CONF:1098-29897;CONF:1098-29898;CONF:1098-29852;CONF:1098-29853;CONF:1098-31867;CONF:1098-29854;CONF:1098-30323;CONF:1098-30335;CONF:1098-30336</v>
       </c>
       <c r="M179" t="str">
-        <f>"{ 'id': '"&amp;A179&amp;"', 'template_type': '"&amp;C179&amp;"', 'name': '"&amp;B179&amp;" ["&amp;D179&amp;"["&amp;G179&amp;"', 'name2': '"&amp;B179&amp;"', 'template': '"&amp;D179&amp;"', 'pageStart': '"&amp;E179&amp;"', 'pages': '"&amp;G179&amp;"', 'search': '"&amp;K179&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '178', 'template_type': 'Entry', 'name': 'Nutritional Status Observation [2.16.840.1.113883.10.20.22.4.124[643-647', 'name2': 'Nutritional Status Observation', 'template': '2.16.840.1.113883.10.20.22.4.124', 'pageStart': '643', 'pages': '643-647', 'search': 'Nutritional Status Observation 2.16.840.1.113883.10.20.22.4.124 CONF:1098-29841;CONF:1098-29842;CONF:1098-29843;CONF:1098-29844;CONF:1098-29845;CONF:1098-29846;CONF:1098-29897;CONF:1098-29898;CONF:1098-29852;CONF:1098-29853;CONF:1098-31867;CONF:1098-29854;CONF:1098-30323;CONF:1098-30335;CONF:1098-30336' },</v>
       </c>
       <c r="N179" t="str">
-        <f>"'"&amp;D179&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.124',</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>179</v>
       </c>
       <c r="B180" t="s">
@@ -14450,21 +14450,21 @@
         <v>513</v>
       </c>
       <c r="K180" t="str">
-        <f>B180&amp;" "&amp;D180&amp;" "&amp;J180</f>
+        <f t="shared" si="8"/>
         <v>Outcome Observation 2.16.840.1.113883.10.20.22.4.144 CONF:1098-31219;CONF:1098-31220;CONF:1098-31221;CONF:1098-31222;CONF:1098-31223;CONF:1098-32746;CONF:1098-32747;CONF:1098-31553;CONF:1098-31224;CONF:1098-31225;CONF:1098-32465;CONF:1098-32461;CONF:1098-31427;CONF:1098-31428;CONF:1098-31429;CONF:1098-31430;CONF:1098-31688;CONF:1098-31689;CONF:1098-31690;CONF:1098-32462;CONF:1098-32763;CONF:1098-32764;CONF:1098-32765;CONF:1098-32782</v>
       </c>
       <c r="M180" t="str">
-        <f>"{ 'id': '"&amp;A180&amp;"', 'template_type': '"&amp;C180&amp;"', 'name': '"&amp;B180&amp;" ["&amp;D180&amp;"["&amp;G180&amp;"', 'name2': '"&amp;B180&amp;"', 'template': '"&amp;D180&amp;"', 'pageStart': '"&amp;E180&amp;"', 'pages': '"&amp;G180&amp;"', 'search': '"&amp;K180&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '179', 'template_type': 'Entry', 'name': 'Outcome Observation [2.16.840.1.113883.10.20.22.4.144[647-651', 'name2': 'Outcome Observation', 'template': '2.16.840.1.113883.10.20.22.4.144', 'pageStart': '647', 'pages': '647-651', 'search': 'Outcome Observation 2.16.840.1.113883.10.20.22.4.144 CONF:1098-31219;CONF:1098-31220;CONF:1098-31221;CONF:1098-31222;CONF:1098-31223;CONF:1098-32746;CONF:1098-32747;CONF:1098-31553;CONF:1098-31224;CONF:1098-31225;CONF:1098-32465;CONF:1098-32461;CONF:1098-31427;CONF:1098-31428;CONF:1098-31429;CONF:1098-31430;CONF:1098-31688;CONF:1098-31689;CONF:1098-31690;CONF:1098-32462;CONF:1098-32763;CONF:1098-32764;CONF:1098-32765;CONF:1098-32782' },</v>
       </c>
       <c r="N180" t="str">
-        <f>"'"&amp;D180&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.144',</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
       <c r="B181" t="s">
@@ -14493,21 +14493,21 @@
         <v>514</v>
       </c>
       <c r="K181" t="str">
-        <f>B181&amp;" "&amp;D181&amp;" "&amp;J181</f>
+        <f t="shared" si="8"/>
         <v>Patient Referral Act  2.16.840.1.113883.10.20.22.4.140 CONF:1098-30884;CONF:1098-30885;CONF:1098-30886;CONF:1098-30887;CONF:1098-30888;CONF:1098-30889;CONF:1098-30892;CONF:1098-31598;CONF:1098-30893;CONF:1098-32623;CONF:1098-31612;CONF:1098-32635;CONF:1098-32638;CONF:1098-32636;CONF:1098-32637;CONF:1098-31604;CONF:1098-31613;CONF:1098-31605;CONF:1098-31606;CONF:1098-31607;CONF:1098-31608;CONF:1098-31619;CONF:1098-31620;CONF:1098-31614;CONF:1098-31615;CONF:1098-32443;CONF:1098-31611;CONF:1098-31635;CONF:1098-31636;CONF:1098-32634</v>
       </c>
       <c r="M181" t="str">
-        <f>"{ 'id': '"&amp;A181&amp;"', 'template_type': '"&amp;C181&amp;"', 'name': '"&amp;B181&amp;" ["&amp;D181&amp;"["&amp;G181&amp;"', 'name2': '"&amp;B181&amp;"', 'template': '"&amp;D181&amp;"', 'pageStart': '"&amp;E181&amp;"', 'pages': '"&amp;G181&amp;"', 'search': '"&amp;K181&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '180', 'template_type': 'Entry', 'name': 'Patient Referral Act  [2.16.840.1.113883.10.20.22.4.140[651-660', 'name2': 'Patient Referral Act ', 'template': '2.16.840.1.113883.10.20.22.4.140', 'pageStart': '651', 'pages': '651-660', 'search': 'Patient Referral Act  2.16.840.1.113883.10.20.22.4.140 CONF:1098-30884;CONF:1098-30885;CONF:1098-30886;CONF:1098-30887;CONF:1098-30888;CONF:1098-30889;CONF:1098-30892;CONF:1098-31598;CONF:1098-30893;CONF:1098-32623;CONF:1098-31612;CONF:1098-32635;CONF:1098-32638;CONF:1098-32636;CONF:1098-32637;CONF:1098-31604;CONF:1098-31613;CONF:1098-31605;CONF:1098-31606;CONF:1098-31607;CONF:1098-31608;CONF:1098-31619;CONF:1098-31620;CONF:1098-31614;CONF:1098-31615;CONF:1098-32443;CONF:1098-31611;CONF:1098-31635;CONF:1098-31636;CONF:1098-32634' },</v>
       </c>
       <c r="N181" t="str">
-        <f>"'"&amp;D181&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.140',</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>181</v>
       </c>
       <c r="B182" t="s">
@@ -14536,21 +14536,21 @@
         <v>515</v>
       </c>
       <c r="K182" t="str">
-        <f>B182&amp;" "&amp;D182&amp;" "&amp;J182</f>
+        <f t="shared" si="8"/>
         <v>Planned Act   2.16.840.1.113883.10.20.22.4.39 CONF:1098-8538;CONF:1098-8539;CONF:1098-30430;CONF:1098-30431;CONF:1098-32552;CONF:1098-8546;CONF:1098-31687;CONF:1098-32030;CONF:1098-30432;CONF:1098-32019;CONF:1098-30433;CONF:1098-30435;CONF:1098-32020;CONF:1098-31067;CONF:1098-31068;CONF:1098-31069;CONF:1098-32021;CONF:1098-32022;CONF:1098-32023;CONF:1098-32024;CONF:1098-32025;CONF:1098-32026</v>
       </c>
       <c r="M182" t="str">
-        <f>"{ 'id': '"&amp;A182&amp;"', 'template_type': '"&amp;C182&amp;"', 'name': '"&amp;B182&amp;" ["&amp;D182&amp;"["&amp;G182&amp;"', 'name2': '"&amp;B182&amp;"', 'template': '"&amp;D182&amp;"', 'pageStart': '"&amp;E182&amp;"', 'pages': '"&amp;G182&amp;"', 'search': '"&amp;K182&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '181', 'template_type': 'Entry', 'name': 'Planned Act   [2.16.840.1.113883.10.20.22.4.39[660-663', 'name2': 'Planned Act  ', 'template': '2.16.840.1.113883.10.20.22.4.39', 'pageStart': '660', 'pages': '660-663', 'search': 'Planned Act   2.16.840.1.113883.10.20.22.4.39 CONF:1098-8538;CONF:1098-8539;CONF:1098-30430;CONF:1098-30431;CONF:1098-32552;CONF:1098-8546;CONF:1098-31687;CONF:1098-32030;CONF:1098-30432;CONF:1098-32019;CONF:1098-30433;CONF:1098-30435;CONF:1098-32020;CONF:1098-31067;CONF:1098-31068;CONF:1098-31069;CONF:1098-32021;CONF:1098-32022;CONF:1098-32023;CONF:1098-32024;CONF:1098-32025;CONF:1098-32026' },</v>
       </c>
       <c r="N182" t="str">
-        <f>"'"&amp;D182&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.39',</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>182</v>
       </c>
       <c r="B183" t="s">
@@ -14579,21 +14579,21 @@
         <v>516</v>
       </c>
       <c r="K183" t="str">
-        <f>B183&amp;" "&amp;D183&amp;" "&amp;J183</f>
+        <f t="shared" si="8"/>
         <v>Planned Coverage 2.16.840.1.113883.10.20.22.4.129 CONF:1098-31945;CONF:1098-31946;CONF:1098-31947;CONF:1098-31948;CONF:1098-31950;CONF:1098-31951;CONF:1098-31952;CONF:1098-31953;CONF:1098-31954;CONF:1098-31955;CONF:1098-32178;CONF:1098-31967;CONF:1098-31968;CONF:1098-31969;CONF:1098-31970;CONF:1098-31971;CONF:1098-31972;CONF:1098-31973;CONF:1098-31974;CONF:1098-31975</v>
       </c>
       <c r="M183" t="str">
-        <f>"{ 'id': '"&amp;A183&amp;"', 'template_type': '"&amp;C183&amp;"', 'name': '"&amp;B183&amp;" ["&amp;D183&amp;"["&amp;G183&amp;"', 'name2': '"&amp;B183&amp;"', 'template': '"&amp;D183&amp;"', 'pageStart': '"&amp;E183&amp;"', 'pages': '"&amp;G183&amp;"', 'search': '"&amp;K183&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '182', 'template_type': 'Entry', 'name': 'Planned Coverage [2.16.840.1.113883.10.20.22.4.129[663-667', 'name2': 'Planned Coverage', 'template': '2.16.840.1.113883.10.20.22.4.129', 'pageStart': '663', 'pages': '663-667', 'search': 'Planned Coverage 2.16.840.1.113883.10.20.22.4.129 CONF:1098-31945;CONF:1098-31946;CONF:1098-31947;CONF:1098-31948;CONF:1098-31950;CONF:1098-31951;CONF:1098-31952;CONF:1098-31953;CONF:1098-31954;CONF:1098-31955;CONF:1098-32178;CONF:1098-31967;CONF:1098-31968;CONF:1098-31969;CONF:1098-31970;CONF:1098-31971;CONF:1098-31972;CONF:1098-31973;CONF:1098-31974;CONF:1098-31975' },</v>
       </c>
       <c r="N183" t="str">
-        <f>"'"&amp;D183&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.129',</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -14622,21 +14622,21 @@
         <v>517</v>
       </c>
       <c r="K184" t="str">
-        <f>B184&amp;" "&amp;D184&amp;" "&amp;J184</f>
+        <f t="shared" si="8"/>
         <v>Planned Encounter   2.16.840.1.113883.10.20.22.4.40 CONF:1098-8564;CONF:1098-8565;CONF:1098-30437;CONF:1098-30438;CONF:1098-32553;CONF:1098-8567;CONF:1098-31032;CONF:1098-30439;CONF:1098-31880;CONF:1098-30440;CONF:1098-30442;CONF:1098-31874;CONF:1098-32045;CONF:1098-30443;CONF:1098-31875;CONF:1098-31876;CONF:1098-31033;CONF:1098-31034;CONF:1098-31035;CONF:1098-31877;CONF:1098-31878;CONF:1098-31879</v>
       </c>
       <c r="M184" t="str">
-        <f>"{ 'id': '"&amp;A184&amp;"', 'template_type': '"&amp;C184&amp;"', 'name': '"&amp;B184&amp;" ["&amp;D184&amp;"["&amp;G184&amp;"', 'name2': '"&amp;B184&amp;"', 'template': '"&amp;D184&amp;"', 'pageStart': '"&amp;E184&amp;"', 'pages': '"&amp;G184&amp;"', 'search': '"&amp;K184&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '183', 'template_type': 'Entry', 'name': 'Planned Encounter   [2.16.840.1.113883.10.20.22.4.40[667-671', 'name2': 'Planned Encounter  ', 'template': '2.16.840.1.113883.10.20.22.4.40', 'pageStart': '667', 'pages': '667-671', 'search': 'Planned Encounter   2.16.840.1.113883.10.20.22.4.40 CONF:1098-8564;CONF:1098-8565;CONF:1098-30437;CONF:1098-30438;CONF:1098-32553;CONF:1098-8567;CONF:1098-31032;CONF:1098-30439;CONF:1098-31880;CONF:1098-30440;CONF:1098-30442;CONF:1098-31874;CONF:1098-32045;CONF:1098-30443;CONF:1098-31875;CONF:1098-31876;CONF:1098-31033;CONF:1098-31034;CONF:1098-31035;CONF:1098-31877;CONF:1098-31878;CONF:1098-31879' },</v>
       </c>
       <c r="N184" t="str">
-        <f>"'"&amp;D184&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.40',</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -14665,21 +14665,21 @@
         <v>518</v>
       </c>
       <c r="K185" t="str">
-        <f>B185&amp;" "&amp;D185&amp;" "&amp;J185</f>
+        <f t="shared" si="8"/>
         <v>Planned Immunization Activity  2.16.840.1.113883.10.20.22.4.120 CONF:1098-32091;CONF:1098-32097;CONF:1098-32098;CONF:1098-32099;CONF:1098-32100;CONF:1098-32101;CONF:1098-32102;CONF:1098-32103;CONF:1098-32126;CONF:1098-32127;CONF:1098-32951;CONF:1098-32128;CONF:1098-32129;CONF:1098-32130;CONF:1098-32131;CONF:1098-32132;CONF:1098-32104;CONF:1098-32105;CONF:1098-32108;CONF:1098-32109;CONF:1098-32110;CONF:1098-32114;CONF:1098-32115;CONF:1098-32116;CONF:1098-32117;CONF:1098-32118;CONF:1098-32119;CONF:1098-32123;CONF:1098-32124;CONF:1098-32125</v>
       </c>
       <c r="M185" t="str">
-        <f>"{ 'id': '"&amp;A185&amp;"', 'template_type': '"&amp;C185&amp;"', 'name': '"&amp;B185&amp;" ["&amp;D185&amp;"["&amp;G185&amp;"', 'name2': '"&amp;B185&amp;"', 'template': '"&amp;D185&amp;"', 'pageStart': '"&amp;E185&amp;"', 'pages': '"&amp;G185&amp;"', 'search': '"&amp;K185&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '184', 'template_type': 'Entry', 'name': 'Planned Immunization Activity  [2.16.840.1.113883.10.20.22.4.120[671-677', 'name2': 'Planned Immunization Activity ', 'template': '2.16.840.1.113883.10.20.22.4.120', 'pageStart': '671', 'pages': '671-677', 'search': 'Planned Immunization Activity  2.16.840.1.113883.10.20.22.4.120 CONF:1098-32091;CONF:1098-32097;CONF:1098-32098;CONF:1098-32099;CONF:1098-32100;CONF:1098-32101;CONF:1098-32102;CONF:1098-32103;CONF:1098-32126;CONF:1098-32127;CONF:1098-32951;CONF:1098-32128;CONF:1098-32129;CONF:1098-32130;CONF:1098-32131;CONF:1098-32132;CONF:1098-32104;CONF:1098-32105;CONF:1098-32108;CONF:1098-32109;CONF:1098-32110;CONF:1098-32114;CONF:1098-32115;CONF:1098-32116;CONF:1098-32117;CONF:1098-32118;CONF:1098-32119;CONF:1098-32123;CONF:1098-32124;CONF:1098-32125' },</v>
       </c>
       <c r="N185" t="str">
-        <f>"'"&amp;D185&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.120',</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -14708,21 +14708,21 @@
         <v>519</v>
       </c>
       <c r="K186" t="str">
-        <f>B186&amp;" "&amp;D186&amp;" "&amp;J186</f>
+        <f t="shared" si="8"/>
         <v>Planned Intervention Act   2.16.840.1.113883.10.20.22.4.146 CONF:1198-32678;CONF:1198-32679;CONF:1198-32653;CONF:1198-32680;CONF:1198-32912;CONF:1198-32681;CONF:1198-32654;CONF:1198-32682;CONF:1198-32683;CONF:1198-32655;CONF:1198-32684;CONF:1198-32723;CONF:1198-32719;CONF:1198-32652;CONF:1198-32685;CONF:1198-32677;CONF:1198-32656;CONF:1198-32686;CONF:1198-32687;CONF:1198-32657;CONF:1198-32688;CONF:1198-32689;CONF:1198-32658;CONF:1198-32690;CONF:1198-32691;CONF:1198-32659;CONF:1198-32692;CONF:1198-32693;CONF:1198-32660;CONF:1198-32694;CONF:1198-32695;CONF:1198-32661;CONF:1198-32696;CONF:1198-32697;CONF:1198-32662;CONF:1198-32698;CONF:1198-32699;CONF:1198-32663;CONF:1198-32957;CONF:1198-32701;CONF:1198-32664;CONF:1198-32702;CONF:1198-32703;CONF:1198-32665;CONF:1198-32704;CONF:1198-32705;CONF:1198-32666;CONF:1198-32706;CONF:1198-32707;CONF:1198-32667;CONF:1198-32708;CONF:1198-32709;CONF:1198-32668;CONF:1198-32710;CONF:1198-32711;CONF:1198-32669;CONF:1198-32712;CONF:1198-32713;CONF:1198-32670;CONF:1198-32714;CONF:1198-32715;CONF:1198-32671;CONF:1198-32716;CONF:1198-32672;CONF:1198-32717;CONF:1198-32718;CONF:1198-32673;CONF:1198-32720;CONF:1198-32721;CONF:1198-32722;CONF:1198-32675;CONF:1198-32726;CONF:1198-32727;CONF:1198-32676;CONF:1198-32728;CONF:1198-32729;CONF:1198-32766;CONF:1198-32767;CONF:1198-32768</v>
       </c>
       <c r="M186" t="str">
-        <f>"{ 'id': '"&amp;A186&amp;"', 'template_type': '"&amp;C186&amp;"', 'name': '"&amp;B186&amp;" ["&amp;D186&amp;"["&amp;G186&amp;"', 'name2': '"&amp;B186&amp;"', 'template': '"&amp;D186&amp;"', 'pageStart': '"&amp;E186&amp;"', 'pages': '"&amp;G186&amp;"', 'search': '"&amp;K186&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '185', 'template_type': 'Entry', 'name': 'Planned Intervention Act   [2.16.840.1.113883.10.20.22.4.146[677-686', 'name2': 'Planned Intervention Act  ', 'template': '2.16.840.1.113883.10.20.22.4.146', 'pageStart': '677', 'pages': '677-686', 'search': 'Planned Intervention Act   2.16.840.1.113883.10.20.22.4.146 CONF:1198-32678;CONF:1198-32679;CONF:1198-32653;CONF:1198-32680;CONF:1198-32912;CONF:1198-32681;CONF:1198-32654;CONF:1198-32682;CONF:1198-32683;CONF:1198-32655;CONF:1198-32684;CONF:1198-32723;CONF:1198-32719;CONF:1198-32652;CONF:1198-32685;CONF:1198-32677;CONF:1198-32656;CONF:1198-32686;CONF:1198-32687;CONF:1198-32657;CONF:1198-32688;CONF:1198-32689;CONF:1198-32658;CONF:1198-32690;CONF:1198-32691;CONF:1198-32659;CONF:1198-32692;CONF:1198-32693;CONF:1198-32660;CONF:1198-32694;CONF:1198-32695;CONF:1198-32661;CONF:1198-32696;CONF:1198-32697;CONF:1198-32662;CONF:1198-32698;CONF:1198-32699;CONF:1198-32663;CONF:1198-32957;CONF:1198-32701;CONF:1198-32664;CONF:1198-32702;CONF:1198-32703;CONF:1198-32665;CONF:1198-32704;CONF:1198-32705;CONF:1198-32666;CONF:1198-32706;CONF:1198-32707;CONF:1198-32667;CONF:1198-32708;CONF:1198-32709;CONF:1198-32668;CONF:1198-32710;CONF:1198-32711;CONF:1198-32669;CONF:1198-32712;CONF:1198-32713;CONF:1198-32670;CONF:1198-32714;CONF:1198-32715;CONF:1198-32671;CONF:1198-32716;CONF:1198-32672;CONF:1198-32717;CONF:1198-32718;CONF:1198-32673;CONF:1198-32720;CONF:1198-32721;CONF:1198-32722;CONF:1198-32675;CONF:1198-32726;CONF:1198-32727;CONF:1198-32676;CONF:1198-32728;CONF:1198-32729;CONF:1198-32766;CONF:1198-32767;CONF:1198-32768' },</v>
       </c>
       <c r="N186" t="str">
-        <f>"'"&amp;D186&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.146',</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -14751,21 +14751,21 @@
         <v>520</v>
       </c>
       <c r="K187" t="str">
-        <f>B187&amp;" "&amp;D187&amp;" "&amp;J187</f>
+        <f t="shared" si="8"/>
         <v>Planned Medication Activity  2.16.840.1.113883.10.20.22.4.42 CONF:1098-8572;CONF:1098-8573;CONF:1098-30465;CONF:1098-30466;CONF:1098-32557;CONF:1098-8575;CONF:1098-32087;CONF:1098-32088;CONF:1098-30468;CONF:1098-32944;CONF:1098-32948;CONF:1098-32949;CONF:1098-32947;CONF:1098-32943;CONF:1098-32945;CONF:1098-32946;CONF:1098-32066;CONF:1098-32067;CONF:1098-32952;CONF:1098-32078;CONF:1098-32068;CONF:1098-32133;CONF:1098-32079;CONF:1098-32134;CONF:1098-32080;CONF:1098-32081;CONF:1098-32082;CONF:1098-32083;CONF:1098-30470;CONF:1098-32046;CONF:1098-31104;CONF:1098-31105;CONF:1098-31106;CONF:1098-32069;CONF:1098-32070;CONF:1098-32071;CONF:1098-32072;CONF:1098-32073;CONF:1098-32074;CONF:1098-32084;CONF:1098-32085;CONF:1098-32086</v>
       </c>
       <c r="M187" t="str">
-        <f>"{ 'id': '"&amp;A187&amp;"', 'template_type': '"&amp;C187&amp;"', 'name': '"&amp;B187&amp;" ["&amp;D187&amp;"["&amp;G187&amp;"', 'name2': '"&amp;B187&amp;"', 'template': '"&amp;D187&amp;"', 'pageStart': '"&amp;E187&amp;"', 'pages': '"&amp;G187&amp;"', 'search': '"&amp;K187&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '186', 'template_type': 'Entry', 'name': 'Planned Medication Activity  [2.16.840.1.113883.10.20.22.4.42[686-692', 'name2': 'Planned Medication Activity ', 'template': '2.16.840.1.113883.10.20.22.4.42', 'pageStart': '686', 'pages': '686-692', 'search': 'Planned Medication Activity  2.16.840.1.113883.10.20.22.4.42 CONF:1098-8572;CONF:1098-8573;CONF:1098-30465;CONF:1098-30466;CONF:1098-32557;CONF:1098-8575;CONF:1098-32087;CONF:1098-32088;CONF:1098-30468;CONF:1098-32944;CONF:1098-32948;CONF:1098-32949;CONF:1098-32947;CONF:1098-32943;CONF:1098-32945;CONF:1098-32946;CONF:1098-32066;CONF:1098-32067;CONF:1098-32952;CONF:1098-32078;CONF:1098-32068;CONF:1098-32133;CONF:1098-32079;CONF:1098-32134;CONF:1098-32080;CONF:1098-32081;CONF:1098-32082;CONF:1098-32083;CONF:1098-30470;CONF:1098-32046;CONF:1098-31104;CONF:1098-31105;CONF:1098-31106;CONF:1098-32069;CONF:1098-32070;CONF:1098-32071;CONF:1098-32072;CONF:1098-32073;CONF:1098-32074;CONF:1098-32084;CONF:1098-32085;CONF:1098-32086' },</v>
       </c>
       <c r="N187" t="str">
-        <f>"'"&amp;D187&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.42',</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -14794,21 +14794,21 @@
         <v>521</v>
       </c>
       <c r="K188" t="str">
-        <f>B188&amp;" "&amp;D188&amp;" "&amp;J188</f>
+        <f t="shared" si="8"/>
         <v>Planned Observation   2.16.840.1.113883.10.20.22.4.44 CONF:1098-8581;CONF:1098-8582;CONF:1098-30451;CONF:1098-30452;CONF:1098-32555;CONF:1098-8584;CONF:1098-31030;CONF:1098-30453;CONF:1098-32032;CONF:1098-30454;CONF:1098-31031;CONF:1098-32043;CONF:1098-32044;CONF:1098-30456;CONF:1098-32033;CONF:1098-31073;CONF:1098-31074;CONF:1098-31075;CONF:1098-32034;CONF:1098-32035;CONF:1098-32036;CONF:1098-32037;CONF:1098-32038;CONF:1098-32039;CONF:1098-32040;CONF:1098-32041;CONF:1098-32042</v>
       </c>
       <c r="M188" t="str">
-        <f>"{ 'id': '"&amp;A188&amp;"', 'template_type': '"&amp;C188&amp;"', 'name': '"&amp;B188&amp;" ["&amp;D188&amp;"["&amp;G188&amp;"', 'name2': '"&amp;B188&amp;"', 'template': '"&amp;D188&amp;"', 'pageStart': '"&amp;E188&amp;"', 'pages': '"&amp;G188&amp;"', 'search': '"&amp;K188&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '187', 'template_type': 'Entry', 'name': 'Planned Observation   [2.16.840.1.113883.10.20.22.4.44[692-697', 'name2': 'Planned Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.44', 'pageStart': '692', 'pages': '692-697', 'search': 'Planned Observation   2.16.840.1.113883.10.20.22.4.44 CONF:1098-8581;CONF:1098-8582;CONF:1098-30451;CONF:1098-30452;CONF:1098-32555;CONF:1098-8584;CONF:1098-31030;CONF:1098-30453;CONF:1098-32032;CONF:1098-30454;CONF:1098-31031;CONF:1098-32043;CONF:1098-32044;CONF:1098-30456;CONF:1098-32033;CONF:1098-31073;CONF:1098-31074;CONF:1098-31075;CONF:1098-32034;CONF:1098-32035;CONF:1098-32036;CONF:1098-32037;CONF:1098-32038;CONF:1098-32039;CONF:1098-32040;CONF:1098-32041;CONF:1098-32042' },</v>
       </c>
       <c r="N188" t="str">
-        <f>"'"&amp;D188&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.44',</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -14840,21 +14840,21 @@
         <v>522</v>
       </c>
       <c r="K189" t="str">
-        <f>B189&amp;" "&amp;D189&amp;" "&amp;J189</f>
+        <f t="shared" si="8"/>
         <v>Planned Procedure (Companion Guide) 2.16.840.1.113883.10.20.22.4.41 CONF:1098-8568;CONF:1098-8569;CONF:1098-30444;CONF:1098-30445;CONF:1098-32554;CONF:1098-8571;CONF:1098-31976;CONF:1098-31977;CONF:1098-30446;CONF:1098-31978;CONF:1098-30447;CONF:1098-31980;CONF:1098-31981;CONF:1098-30449;CONF:1098-31979;CONF:1098-31079;CONF:1098-31080;CONF:1098-31081;CONF:1098-31982;CONF:1098-31983;CONF:1098-31984;CONF:1098-31985;CONF:1098-31986;CONF:1098-31987;CONF:1098-31989;CONF:1098-31990;CONF:1098-31991;CONF:1098-31992</v>
       </c>
       <c r="M189" t="str">
-        <f>"{ 'id': '"&amp;A189&amp;"', 'template_type': '"&amp;C189&amp;"', 'name': '"&amp;B189&amp;" ["&amp;D189&amp;"["&amp;G189&amp;"', 'name2': '"&amp;B189&amp;"', 'template': '"&amp;D189&amp;"', 'pageStart': '"&amp;E189&amp;"', 'pages': '"&amp;G189&amp;"', 'search': '"&amp;K189&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '188', 'template_type': 'Entry', 'name': 'Planned Procedure (Companion Guide) [2.16.840.1.113883.10.20.22.4.41[CG_A_153-161', 'name2': 'Planned Procedure (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.41', 'pageStart': '1153', 'pages': 'CG_A_153-161', 'search': 'Planned Procedure (Companion Guide) 2.16.840.1.113883.10.20.22.4.41 CONF:1098-8568;CONF:1098-8569;CONF:1098-30444;CONF:1098-30445;CONF:1098-32554;CONF:1098-8571;CONF:1098-31976;CONF:1098-31977;CONF:1098-30446;CONF:1098-31978;CONF:1098-30447;CONF:1098-31980;CONF:1098-31981;CONF:1098-30449;CONF:1098-31979;CONF:1098-31079;CONF:1098-31080;CONF:1098-31081;CONF:1098-31982;CONF:1098-31983;CONF:1098-31984;CONF:1098-31985;CONF:1098-31986;CONF:1098-31987;CONF:1098-31989;CONF:1098-31990;CONF:1098-31991;CONF:1098-31992' },</v>
       </c>
       <c r="N189" t="str">
-        <f>"'"&amp;D189&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.41',</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -14883,21 +14883,21 @@
         <v>523</v>
       </c>
       <c r="K190" t="str">
-        <f>B190&amp;" "&amp;D190&amp;" "&amp;J190</f>
+        <f t="shared" si="8"/>
         <v>Planned Supply  2.16.840.1.113883.10.20.22.4.43 CONF:1098-8577;CONF:1098-8578;CONF:1098-30463;CONF:1098-30464;CONF:1098-32556;CONF:1098-8580;CONF:1098-30458;CONF:1098-32047;CONF:1098-30459;CONF:1098-32063;CONF:1098-32064;CONF:1098-32049;CONF:1098-32050;CONF:1098-32092;CONF:1098-32051;CONF:1098-32052;CONF:1098-32093;CONF:1098-32325;CONF:1098-32048;CONF:1098-31129;CONF:1098-32094;CONF:1098-32095;CONF:1098-32096;CONF:1098-31110;CONF:1098-31111;CONF:1098-31112;CONF:1098-32054;CONF:1098-32055;CONF:1098-32056;CONF:1098-32057;CONF:1098-32058;CONF:1098-32059;CONF:1098-32060;CONF:1098-32061;CONF:1098-32062</v>
       </c>
       <c r="M190" t="str">
-        <f>"{ 'id': '"&amp;A190&amp;"', 'template_type': '"&amp;C190&amp;"', 'name': '"&amp;B190&amp;" ["&amp;D190&amp;"["&amp;G190&amp;"', 'name2': '"&amp;B190&amp;"', 'template': '"&amp;D190&amp;"', 'pageStart': '"&amp;E190&amp;"', 'pages': '"&amp;G190&amp;"', 'search': '"&amp;K190&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '189', 'template_type': 'Entry', 'name': 'Planned Supply  [2.16.840.1.113883.10.20.22.4.43[703-709', 'name2': 'Planned Supply ', 'template': '2.16.840.1.113883.10.20.22.4.43', 'pageStart': '703', 'pages': '703-709', 'search': 'Planned Supply  2.16.840.1.113883.10.20.22.4.43 CONF:1098-8577;CONF:1098-8578;CONF:1098-30463;CONF:1098-30464;CONF:1098-32556;CONF:1098-8580;CONF:1098-30458;CONF:1098-32047;CONF:1098-30459;CONF:1098-32063;CONF:1098-32064;CONF:1098-32049;CONF:1098-32050;CONF:1098-32092;CONF:1098-32051;CONF:1098-32052;CONF:1098-32093;CONF:1098-32325;CONF:1098-32048;CONF:1098-31129;CONF:1098-32094;CONF:1098-32095;CONF:1098-32096;CONF:1098-31110;CONF:1098-31111;CONF:1098-31112;CONF:1098-32054;CONF:1098-32055;CONF:1098-32056;CONF:1098-32057;CONF:1098-32058;CONF:1098-32059;CONF:1098-32060;CONF:1098-32061;CONF:1098-32062' },</v>
       </c>
       <c r="N190" t="str">
-        <f>"'"&amp;D190&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.43',</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -14929,21 +14929,21 @@
         <v>524</v>
       </c>
       <c r="K191" t="str">
-        <f>B191&amp;" "&amp;D191&amp;" "&amp;J191</f>
+        <f t="shared" si="8"/>
         <v>Policy Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.61 CONF:1198-8898;CONF:1198-8899;CONF:1198-8900;CONF:1198-10516;CONF:1198-32595;CONF:1198-8901;CONF:1198-8903;CONF:1198-32852;CONF:1198-8902;CONF:1198-19109;CONF:1198-8906;CONF:1198-8907;CONF:1198-16808;CONF:1198-16809;CONF:1198-8908;CONF:1198-8909;CONF:1198-8914;CONF:1198-15992;CONF:1198-8910;CONF:1198-8911;CONF:1198-8912;CONF:1198-8913;CONF:1198-8961;CONF:1198-16810;CONF:1198-16811;CONF:1198-8963;CONF:1198-8962;CONF:1198-8968;CONF:1198-16096;CONF:1198-32165;CONF:1198-8964;CONF:1198-8965;CONF:1198-8967;CONF:1198-8916;CONF:1198-8917;CONF:1198-16812;CONF:1198-16814;CONF:1198-8918;CONF:1198-8919;CONF:1198-8920;CONF:1198-8921;CONF:1198-8922;CONF:1198-8984;CONF:1198-8923;CONF:1198-16078;CONF:1198-8956;CONF:1198-10484;CONF:1198-8932;CONF:1198-8930;CONF:1198-31344;CONF:1198-31345;CONF:1198-8934;CONF:1198-8935;CONF:1198-16813;CONF:1198-16815;CONF:1198-8938;CONF:1198-8936;CONF:1198-8937;CONF:1198-10120;CONF:1198-8925;CONF:1198-10483;CONF:1198-17139;CONF:1198-8939;CONF:1198-8940;CONF:1198-8942;CONF:1198-8943</v>
       </c>
       <c r="M191" t="str">
-        <f>"{ 'id': '"&amp;A191&amp;"', 'template_type': '"&amp;C191&amp;"', 'name': '"&amp;B191&amp;" ["&amp;D191&amp;"["&amp;G191&amp;"', 'name2': '"&amp;B191&amp;"', 'template': '"&amp;D191&amp;"', 'pageStart': '"&amp;E191&amp;"', 'pages': '"&amp;G191&amp;"', 'search': '"&amp;K191&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '190', 'template_type': 'Entry', 'name': 'Policy Activity (Companion Guide) [2.16.840.1.113883.10.20.22.4.61[CG_A_161-175', 'name2': 'Policy Activity (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.61', 'pageStart': '1161', 'pages': 'CG_A_161-175', 'search': 'Policy Activity (Companion Guide) 2.16.840.1.113883.10.20.22.4.61 CONF:1198-8898;CONF:1198-8899;CONF:1198-8900;CONF:1198-10516;CONF:1198-32595;CONF:1198-8901;CONF:1198-8903;CONF:1198-32852;CONF:1198-8902;CONF:1198-19109;CONF:1198-8906;CONF:1198-8907;CONF:1198-16808;CONF:1198-16809;CONF:1198-8908;CONF:1198-8909;CONF:1198-8914;CONF:1198-15992;CONF:1198-8910;CONF:1198-8911;CONF:1198-8912;CONF:1198-8913;CONF:1198-8961;CONF:1198-16810;CONF:1198-16811;CONF:1198-8963;CONF:1198-8962;CONF:1198-8968;CONF:1198-16096;CONF:1198-32165;CONF:1198-8964;CONF:1198-8965;CONF:1198-8967;CONF:1198-8916;CONF:1198-8917;CONF:1198-16812;CONF:1198-16814;CONF:1198-8918;CONF:1198-8919;CONF:1198-8920;CONF:1198-8921;CONF:1198-8922;CONF:1198-8984;CONF:1198-8923;CONF:1198-16078;CONF:1198-8956;CONF:1198-10484;CONF:1198-8932;CONF:1198-8930;CONF:1198-31344;CONF:1198-31345;CONF:1198-8934;CONF:1198-8935;CONF:1198-16813;CONF:1198-16815;CONF:1198-8938;CONF:1198-8936;CONF:1198-8937;CONF:1198-10120;CONF:1198-8925;CONF:1198-10483;CONF:1198-17139;CONF:1198-8939;CONF:1198-8940;CONF:1198-8942;CONF:1198-8943' },</v>
       </c>
       <c r="N191" t="str">
-        <f>"'"&amp;D191&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.61',</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -14972,21 +14972,21 @@
         <v>525</v>
       </c>
       <c r="K192" t="str">
-        <f>B192&amp;" "&amp;D192&amp;" "&amp;J192</f>
+        <f t="shared" si="8"/>
         <v>Postprocedure Diagnosis   2.16.840.1.113883.10.20.22.4.51 CONF:1198-8756;CONF:1198-8757;CONF:1198-16766;CONF:1198-16767;CONF:1198-32539;CONF:1198-19151;CONF:1198-19152;CONF:1198-32166;CONF:1198-8759;CONF:1198-8760;CONF:1198-15583</v>
       </c>
       <c r="M192" t="str">
-        <f>"{ 'id': '"&amp;A192&amp;"', 'template_type': '"&amp;C192&amp;"', 'name': '"&amp;B192&amp;" ["&amp;D192&amp;"["&amp;G192&amp;"', 'name2': '"&amp;B192&amp;"', 'template': '"&amp;D192&amp;"', 'pageStart': '"&amp;E192&amp;"', 'pages': '"&amp;G192&amp;"', 'search': '"&amp;K192&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '191', 'template_type': 'Entry', 'name': 'Postprocedure Diagnosis   [2.16.840.1.113883.10.20.22.4.51[721-723', 'name2': 'Postprocedure Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.51', 'pageStart': '721', 'pages': '721-723', 'search': 'Postprocedure Diagnosis   2.16.840.1.113883.10.20.22.4.51 CONF:1198-8756;CONF:1198-8757;CONF:1198-16766;CONF:1198-16767;CONF:1198-32539;CONF:1198-19151;CONF:1198-19152;CONF:1198-32166;CONF:1198-8759;CONF:1198-8760;CONF:1198-15583' },</v>
       </c>
       <c r="N192" t="str">
-        <f>"'"&amp;D192&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.51',</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -15015,21 +15015,21 @@
         <v>526</v>
       </c>
       <c r="K193" t="str">
-        <f>B193&amp;" "&amp;D193&amp;" "&amp;J193</f>
+        <f t="shared" si="8"/>
         <v>Precondition for Substance Administration   2.16.840.1.113883.10.20.22.4.25 CONF:1098-7372;CONF:1098-10517;CONF:1098-32603;CONF:1098-32396;CONF:1098-32397;CONF:1098-32398;CONF:1098-7369</v>
       </c>
       <c r="M193" t="str">
-        <f>"{ 'id': '"&amp;A193&amp;"', 'template_type': '"&amp;C193&amp;"', 'name': '"&amp;B193&amp;" ["&amp;D193&amp;"["&amp;G193&amp;"', 'name2': '"&amp;B193&amp;"', 'template': '"&amp;D193&amp;"', 'pageStart': '"&amp;E193&amp;"', 'pages': '"&amp;G193&amp;"', 'search': '"&amp;K193&amp;"' },"</f>
+        <f t="shared" si="9"/>
         <v>{ 'id': '192', 'template_type': 'Entry', 'name': 'Precondition for Substance Administration   [2.16.840.1.113883.10.20.22.4.25[723-725', 'name2': 'Precondition for Substance Administration  ', 'template': '2.16.840.1.113883.10.20.22.4.25', 'pageStart': '723', 'pages': '723-725', 'search': 'Precondition for Substance Administration   2.16.840.1.113883.10.20.22.4.25 CONF:1098-7372;CONF:1098-10517;CONF:1098-32603;CONF:1098-32396;CONF:1098-32397;CONF:1098-32398;CONF:1098-7369' },</v>
       </c>
       <c r="N193" t="str">
-        <f>"'"&amp;D193&amp;"',"</f>
+        <f t="shared" si="10"/>
         <v>'2.16.840.1.113883.10.20.22.4.25',</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -15052,24 +15052,24 @@
         <v>CG_A_175-178</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K194" t="str">
-        <f>B194&amp;" "&amp;D194&amp;" "&amp;J194</f>
+        <f t="shared" ref="K194:K257" si="12">B194&amp;" "&amp;D194&amp;" "&amp;J194</f>
         <v>Pregnancy Intention in Next Year (Companion Guide) 2.16.840.1.113883.10.20.22.4.281 CONF:4537-26557;CONF:4537-26558;CONF:4537-26549;CONF:4537-26552;CONF:4537-26553;CONF:4537-26981;CONF:4537-26550;CONF:4537-26554;CONF:4537-26555;CONF:4537-26551;CONF:4537-26556;CONF:4537-26560;CONF:4537-26821;CONF:4537-26822;CONF:4537-26559;</v>
       </c>
       <c r="M194" t="str">
-        <f>"{ 'id': '"&amp;A194&amp;"', 'template_type': '"&amp;C194&amp;"', 'name': '"&amp;B194&amp;" ["&amp;D194&amp;"["&amp;G194&amp;"', 'name2': '"&amp;B194&amp;"', 'template': '"&amp;D194&amp;"', 'pageStart': '"&amp;E194&amp;"', 'pages': '"&amp;G194&amp;"', 'search': '"&amp;K194&amp;"' },"</f>
+        <f t="shared" ref="M194:M252" si="13">"{ 'id': '"&amp;A194&amp;"', 'template_type': '"&amp;C194&amp;"', 'name': '"&amp;B194&amp;" ["&amp;D194&amp;"["&amp;G194&amp;"', 'name2': '"&amp;B194&amp;"', 'template': '"&amp;D194&amp;"', 'pageStart': '"&amp;E194&amp;"', 'pages': '"&amp;G194&amp;"', 'search': '"&amp;K194&amp;"' },"</f>
         <v>{ 'id': '193', 'template_type': 'Entry', 'name': 'Pregnancy Intention in Next Year (Companion Guide) [2.16.840.1.113883.10.20.22.4.281[CG_A_175-178', 'name2': 'Pregnancy Intention in Next Year (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.281', 'pageStart': '1175', 'pages': 'CG_A_175-178', 'search': 'Pregnancy Intention in Next Year (Companion Guide) 2.16.840.1.113883.10.20.22.4.281 CONF:4537-26557;CONF:4537-26558;CONF:4537-26549;CONF:4537-26552;CONF:4537-26553;CONF:4537-26981;CONF:4537-26550;CONF:4537-26554;CONF:4537-26555;CONF:4537-26551;CONF:4537-26556;CONF:4537-26560;CONF:4537-26821;CONF:4537-26822;CONF:4537-26559;' },</v>
       </c>
       <c r="N194" t="str">
-        <f>"'"&amp;D194&amp;"',"</f>
+        <f t="shared" ref="N194:N252" si="14">"'"&amp;D194&amp;"',"</f>
         <v>'2.16.840.1.113883.10.20.22.4.281',</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -15098,21 +15098,21 @@
         <v>527</v>
       </c>
       <c r="K195" t="str">
-        <f>B195&amp;" "&amp;D195&amp;" "&amp;J195</f>
+        <f t="shared" si="12"/>
         <v>Pregnancy Observation 2.16.840.1.113883.10.20.15.3.8 CONF:81-451;CONF:81-452;CONF:81-16768;CONF:81-16868;CONF:81-19153;CONF:81-19154;CONF:81-26505;CONF:81-455;CONF:81-19110;CONF:81-2018;CONF:81-457;CONF:81-458;CONF:81-459;CONF:81-15584</v>
       </c>
       <c r="M195" t="str">
-        <f>"{ 'id': '"&amp;A195&amp;"', 'template_type': '"&amp;C195&amp;"', 'name': '"&amp;B195&amp;" ["&amp;D195&amp;"["&amp;G195&amp;"', 'name2': '"&amp;B195&amp;"', 'template': '"&amp;D195&amp;"', 'pageStart': '"&amp;E195&amp;"', 'pages': '"&amp;G195&amp;"', 'search': '"&amp;K195&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '194', 'template_type': 'Entry', 'name': 'Pregnancy Observation [2.16.840.1.113883.10.20.15.3.8[725-727', 'name2': 'Pregnancy Observation', 'template': '2.16.840.1.113883.10.20.15.3.8', 'pageStart': '725', 'pages': '725-727', 'search': 'Pregnancy Observation 2.16.840.1.113883.10.20.15.3.8 CONF:81-451;CONF:81-452;CONF:81-16768;CONF:81-16868;CONF:81-19153;CONF:81-19154;CONF:81-26505;CONF:81-455;CONF:81-19110;CONF:81-2018;CONF:81-457;CONF:81-458;CONF:81-459;CONF:81-15584' },</v>
       </c>
       <c r="N195" t="str">
-        <f>"'"&amp;D195&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.15.3.8',</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" ref="A196:A252" si="3">+A195+1</f>
+        <f t="shared" ref="A196:A252" si="15">+A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -15141,21 +15141,21 @@
         <v>528</v>
       </c>
       <c r="K196" t="str">
-        <f>B196&amp;" "&amp;D196&amp;" "&amp;J196</f>
+        <f t="shared" si="12"/>
         <v>Preoperative Diagnosis   2.16.840.1.113883.10.20.22.4.65 CONF:1198-10090;CONF:1198-10091;CONF:1198-16770;CONF:1198-16771;CONF:1198-32540;CONF:1198-19155;CONF:1198-19156;CONF:1198-32167;CONF:1198-10093;CONF:1198-10094;CONF:1198-15605</v>
       </c>
       <c r="M196" t="str">
-        <f>"{ 'id': '"&amp;A196&amp;"', 'template_type': '"&amp;C196&amp;"', 'name': '"&amp;B196&amp;" ["&amp;D196&amp;"["&amp;G196&amp;"', 'name2': '"&amp;B196&amp;"', 'template': '"&amp;D196&amp;"', 'pageStart': '"&amp;E196&amp;"', 'pages': '"&amp;G196&amp;"', 'search': '"&amp;K196&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '195', 'template_type': 'Entry', 'name': 'Preoperative Diagnosis   [2.16.840.1.113883.10.20.22.4.65[727-729', 'name2': 'Preoperative Diagnosis  ', 'template': '2.16.840.1.113883.10.20.22.4.65', 'pageStart': '727', 'pages': '727-729', 'search': 'Preoperative Diagnosis   2.16.840.1.113883.10.20.22.4.65 CONF:1198-10090;CONF:1198-10091;CONF:1198-16770;CONF:1198-16771;CONF:1198-32540;CONF:1198-19155;CONF:1198-19156;CONF:1198-32167;CONF:1198-10093;CONF:1198-10094;CONF:1198-15605' },</v>
       </c>
       <c r="N196" t="str">
-        <f>"'"&amp;D196&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.65',</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -15184,21 +15184,21 @@
         <v>529</v>
       </c>
       <c r="K197" t="str">
-        <f>B197&amp;" "&amp;D197&amp;" "&amp;J197</f>
+        <f t="shared" si="12"/>
         <v>Pressure Ulcer Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.70 CONF:1098-14383;CONF:1098-14384;CONF:1098-14385;CONF:1098-14387;CONF:1098-14388;CONF:1098-32594;CONF:1098-14389;CONF:1098-14759;CONF:1098-14760;CONF:1098-14391;CONF:1098-14392;CONF:1098-15585;CONF:1098-15586;CONF:1098-14394;CONF:1098-19111;CONF:1098-14395;CONF:1098-14396;CONF:1098-14797;CONF:1098-14798;CONF:1098-14799;CONF:1098-14800;CONF:1098-14801;CONF:1098-14802;CONF:1098-14803;CONF:1098-14410;CONF:1098-14411;CONF:1098-14619;CONF:1098-14685;CONF:1098-14686;CONF:1098-14620;CONF:1098-14621;CONF:1098-14622;CONF:1098-14601;CONF:1098-14602;CONF:1098-14623;CONF:1098-14687;CONF:1098-14688;CONF:1098-14624;CONF:1098-14625;CONF:1098-14626;CONF:1098-14605;CONF:1098-14606;CONF:1098-14627;CONF:1098-14689;CONF:1098-14690;CONF:1098-14628;CONF:1098-14629;CONF:1098-14630</v>
       </c>
       <c r="M197" t="str">
-        <f>"{ 'id': '"&amp;A197&amp;"', 'template_type': '"&amp;C197&amp;"', 'name': '"&amp;B197&amp;" ["&amp;D197&amp;"["&amp;G197&amp;"', 'name2': '"&amp;B197&amp;"', 'template': '"&amp;D197&amp;"', 'pageStart': '"&amp;E197&amp;"', 'pages': '"&amp;G197&amp;"', 'search': '"&amp;K197&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '196', 'template_type': 'Entry', 'name': 'Pressure Ulcer Observation (DEPRECATED)  [2.16.840.1.113883.10.20.22.4.70[729-735', 'name2': 'Pressure Ulcer Observation (DEPRECATED) ', 'template': '2.16.840.1.113883.10.20.22.4.70', 'pageStart': '729', 'pages': '729-735', 'search': 'Pressure Ulcer Observation (DEPRECATED)  2.16.840.1.113883.10.20.22.4.70 CONF:1098-14383;CONF:1098-14384;CONF:1098-14385;CONF:1098-14387;CONF:1098-14388;CONF:1098-32594;CONF:1098-14389;CONF:1098-14759;CONF:1098-14760;CONF:1098-14391;CONF:1098-14392;CONF:1098-15585;CONF:1098-15586;CONF:1098-14394;CONF:1098-19111;CONF:1098-14395;CONF:1098-14396;CONF:1098-14797;CONF:1098-14798;CONF:1098-14799;CONF:1098-14800;CONF:1098-14801;CONF:1098-14802;CONF:1098-14803;CONF:1098-14410;CONF:1098-14411;CONF:1098-14619;CONF:1098-14685;CONF:1098-14686;CONF:1098-14620;CONF:1098-14621;CONF:1098-14622;CONF:1098-14601;CONF:1098-14602;CONF:1098-14623;CONF:1098-14687;CONF:1098-14688;CONF:1098-14624;CONF:1098-14625;CONF:1098-14626;CONF:1098-14605;CONF:1098-14606;CONF:1098-14627;CONF:1098-14689;CONF:1098-14690;CONF:1098-14628;CONF:1098-14629;CONF:1098-14630' },</v>
       </c>
       <c r="N197" t="str">
-        <f>"'"&amp;D197&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.70',</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -15227,21 +15227,21 @@
         <v>530</v>
       </c>
       <c r="K198" t="str">
-        <f>B198&amp;" "&amp;D198&amp;" "&amp;J198</f>
+        <f t="shared" si="12"/>
         <v>Priority Preference 2.16.840.1.113883.10.20.22.4.143 CONF:1098-30949;CONF:1098-30950;CONF:1098-30951;CONF:1098-30952;CONF:1098-30953;CONF:1098-30954;CONF:1098-30955;CONF:1098-30956;CONF:1098-32327;CONF:1098-30957;CONF:1098-30958</v>
       </c>
       <c r="M198" t="str">
-        <f>"{ 'id': '"&amp;A198&amp;"', 'template_type': '"&amp;C198&amp;"', 'name': '"&amp;B198&amp;" ["&amp;D198&amp;"["&amp;G198&amp;"', 'name2': '"&amp;B198&amp;"', 'template': '"&amp;D198&amp;"', 'pageStart': '"&amp;E198&amp;"', 'pages': '"&amp;G198&amp;"', 'search': '"&amp;K198&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '197', 'template_type': 'Entry', 'name': 'Priority Preference [2.16.840.1.113883.10.20.22.4.143[735-738', 'name2': 'Priority Preference', 'template': '2.16.840.1.113883.10.20.22.4.143', 'pageStart': '735', 'pages': '735-738', 'search': 'Priority Preference 2.16.840.1.113883.10.20.22.4.143 CONF:1098-30949;CONF:1098-30950;CONF:1098-30951;CONF:1098-30952;CONF:1098-30953;CONF:1098-30954;CONF:1098-30955;CONF:1098-30956;CONF:1098-32327;CONF:1098-30957;CONF:1098-30958' },</v>
       </c>
       <c r="N198" t="str">
-        <f>"'"&amp;D198&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.143',</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -15270,21 +15270,21 @@
         <v>531</v>
       </c>
       <c r="K199" t="str">
-        <f>B199&amp;" "&amp;D199&amp;" "&amp;J199</f>
+        <f t="shared" si="12"/>
         <v>Problem Concern Act  2.16.840.1.113883.10.20.22.4.3 CONF:1198-9024;CONF:1198-9025;CONF:1198-16772;CONF:1198-16773;CONF:1198-32509;CONF:1198-9026;CONF:1198-9027;CONF:1198-19184;CONF:1198-32168;CONF:1198-9029;CONF:1198-31525;CONF:1198-9030;CONF:1198-9032;CONF:1198-9033;CONF:1198-31146;CONF:1198-9034;CONF:1198-9035;CONF:1198-15980;CONF:1198-31638;CONF:1198-31639;CONF:1198-31640</v>
       </c>
       <c r="M199" t="str">
-        <f>"{ 'id': '"&amp;A199&amp;"', 'template_type': '"&amp;C199&amp;"', 'name': '"&amp;B199&amp;" ["&amp;D199&amp;"["&amp;G199&amp;"', 'name2': '"&amp;B199&amp;"', 'template': '"&amp;D199&amp;"', 'pageStart': '"&amp;E199&amp;"', 'pages': '"&amp;G199&amp;"', 'search': '"&amp;K199&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '198', 'template_type': 'Entry', 'name': 'Problem Concern Act  [2.16.840.1.113883.10.20.22.4.3[738-743', 'name2': 'Problem Concern Act ', 'template': '2.16.840.1.113883.10.20.22.4.3', 'pageStart': '738', 'pages': '738-743', 'search': 'Problem Concern Act  2.16.840.1.113883.10.20.22.4.3 CONF:1198-9024;CONF:1198-9025;CONF:1198-16772;CONF:1198-16773;CONF:1198-32509;CONF:1198-9026;CONF:1198-9027;CONF:1198-19184;CONF:1198-32168;CONF:1198-9029;CONF:1198-31525;CONF:1198-9030;CONF:1198-9032;CONF:1198-9033;CONF:1198-31146;CONF:1198-9034;CONF:1198-9035;CONF:1198-15980;CONF:1198-31638;CONF:1198-31639;CONF:1198-31640' },</v>
       </c>
       <c r="N199" t="str">
-        <f>"'"&amp;D199&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.3',</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -15316,21 +15316,21 @@
         <v>532</v>
       </c>
       <c r="K200" t="str">
-        <f>B200&amp;" "&amp;D200&amp;" "&amp;J200</f>
+        <f t="shared" si="12"/>
         <v>Problem Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.4 CONF:1198-9041;CONF:1198-9042;CONF:1198-10139;CONF:1198-14926;CONF:1198-14927;CONF:1198-32508;CONF:1198-9043;CONF:1198-9045;CONF:1198-32950;CONF:1198-9049;CONF:1198-19112;CONF:1198-9050;CONF:1198-15603;CONF:1198-15604;CONF:1198-9058;CONF:1198-31871;CONF:1198-31870;CONF:1198-16749;CONF:1198-16750;CONF:1198-31147;CONF:1198-9059;CONF:1198-9060;CONF:1198-9069;CONF:1198-15590;CONF:1198-29951;CONF:1198-31531;CONF:1198-29952;CONF:1198-31063;CONF:1198-31532;CONF:1198-31064;CONF:1198-9063;CONF:1198-9068;CONF:1198-15591</v>
       </c>
       <c r="M200" t="str">
-        <f>"{ 'id': '"&amp;A200&amp;"', 'template_type': '"&amp;C200&amp;"', 'name': '"&amp;B200&amp;" ["&amp;D200&amp;"["&amp;G200&amp;"', 'name2': '"&amp;B200&amp;"', 'template': '"&amp;D200&amp;"', 'pageStart': '"&amp;E200&amp;"', 'pages': '"&amp;G200&amp;"', 'search': '"&amp;K200&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '199', 'template_type': 'Entry', 'name': 'Problem Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.4[CG_A_188-198', 'name2': 'Problem Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.4', 'pageStart': '1188', 'pages': 'CG_A_188-198', 'search': 'Problem Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.4 CONF:1198-9041;CONF:1198-9042;CONF:1198-10139;CONF:1198-14926;CONF:1198-14927;CONF:1198-32508;CONF:1198-9043;CONF:1198-9045;CONF:1198-32950;CONF:1198-9049;CONF:1198-19112;CONF:1198-9050;CONF:1198-15603;CONF:1198-15604;CONF:1198-9058;CONF:1198-31871;CONF:1198-31870;CONF:1198-16749;CONF:1198-16750;CONF:1198-31147;CONF:1198-9059;CONF:1198-9060;CONF:1198-9069;CONF:1198-15590;CONF:1198-29951;CONF:1198-31531;CONF:1198-29952;CONF:1198-31063;CONF:1198-31532;CONF:1198-31064;CONF:1198-9063;CONF:1198-9068;CONF:1198-15591' },</v>
       </c>
       <c r="N200" t="str">
-        <f>"'"&amp;D200&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.4',</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -15359,21 +15359,21 @@
         <v>533</v>
       </c>
       <c r="K201" t="str">
-        <f>B201&amp;" "&amp;D201&amp;" "&amp;J201</f>
+        <f t="shared" si="12"/>
         <v>Problem Status  2.16.840.1.113883.10.20.22.4.6 CONF:1198-7357;CONF:1198-7358;CONF:1198-7359;CONF:1198-10518;CONF:1198-32961;CONF:1198-19162;CONF:1198-19163;CONF:1198-7364;CONF:1198-19113;CONF:1198-7365</v>
       </c>
       <c r="M201" t="str">
-        <f>"{ 'id': '"&amp;A201&amp;"', 'template_type': '"&amp;C201&amp;"', 'name': '"&amp;B201&amp;" ["&amp;D201&amp;"["&amp;G201&amp;"', 'name2': '"&amp;B201&amp;"', 'template': '"&amp;D201&amp;"', 'pageStart': '"&amp;E201&amp;"', 'pages': '"&amp;G201&amp;"', 'search': '"&amp;K201&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '200', 'template_type': 'Entry', 'name': 'Problem Status  [2.16.840.1.113883.10.20.22.4.6[756-758', 'name2': 'Problem Status ', 'template': '2.16.840.1.113883.10.20.22.4.6', 'pageStart': '756', 'pages': '756-758', 'search': 'Problem Status  2.16.840.1.113883.10.20.22.4.6 CONF:1198-7357;CONF:1198-7358;CONF:1198-7359;CONF:1198-10518;CONF:1198-32961;CONF:1198-19162;CONF:1198-19163;CONF:1198-7364;CONF:1198-19113;CONF:1198-7365' },</v>
       </c>
       <c r="N201" t="str">
-        <f>"'"&amp;D201&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.6',</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -15402,21 +15402,21 @@
         <v>534</v>
       </c>
       <c r="K202" t="str">
-        <f>B202&amp;" "&amp;D202&amp;" "&amp;J202</f>
+        <f t="shared" si="12"/>
         <v>Procedure Activity Act   2.16.840.1.113883.10.20.22.4.12 CONF:1098-8289;CONF:1098-8290;CONF:1098-8291;CONF:1098-10519;CONF:1098-32505;CONF:1098-8292;CONF:1098-8293;CONF:1098-19186;CONF:1098-19187;CONF:1098-19188;CONF:1098-19189;CONF:1098-19190;CONF:1098-8298;CONF:1098-32364;CONF:1098-8299;CONF:1098-8300;CONF:1098-8301;CONF:1098-8302;CONF:1098-8303;CONF:1098-8304;CONF:1098-8305;CONF:1098-8306;CONF:1098-8307;CONF:1098-8308;CONF:1098-8310;CONF:1098-8309;CONF:1098-32477;CONF:1098-8311;CONF:1098-8312;CONF:1098-15599;CONF:1098-8314;CONF:1098-8315;CONF:1098-8316;CONF:1098-8317;CONF:1098-8318;CONF:1098-8319;CONF:1098-8320;CONF:1098-16849;CONF:1098-8322;CONF:1098-8323;CONF:1098-8324;CONF:1098-31396;CONF:1098-8326;CONF:1098-8327;CONF:1098-15601;CONF:1098-8329;CONF:1098-8330;CONF:1098-15602</v>
       </c>
       <c r="M202" t="str">
-        <f>"{ 'id': '"&amp;A202&amp;"', 'template_type': '"&amp;C202&amp;"', 'name': '"&amp;B202&amp;" ["&amp;D202&amp;"["&amp;G202&amp;"', 'name2': '"&amp;B202&amp;"', 'template': '"&amp;D202&amp;"', 'pageStart': '"&amp;E202&amp;"', 'pages': '"&amp;G202&amp;"', 'search': '"&amp;K202&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '201', 'template_type': 'Entry', 'name': 'Procedure Activity Act   [2.16.840.1.113883.10.20.22.4.12[758-765', 'name2': 'Procedure Activity Act  ', 'template': '2.16.840.1.113883.10.20.22.4.12', 'pageStart': '758', 'pages': '758-765', 'search': 'Procedure Activity Act   2.16.840.1.113883.10.20.22.4.12 CONF:1098-8289;CONF:1098-8290;CONF:1098-8291;CONF:1098-10519;CONF:1098-32505;CONF:1098-8292;CONF:1098-8293;CONF:1098-19186;CONF:1098-19187;CONF:1098-19188;CONF:1098-19189;CONF:1098-19190;CONF:1098-8298;CONF:1098-32364;CONF:1098-8299;CONF:1098-8300;CONF:1098-8301;CONF:1098-8302;CONF:1098-8303;CONF:1098-8304;CONF:1098-8305;CONF:1098-8306;CONF:1098-8307;CONF:1098-8308;CONF:1098-8310;CONF:1098-8309;CONF:1098-32477;CONF:1098-8311;CONF:1098-8312;CONF:1098-15599;CONF:1098-8314;CONF:1098-8315;CONF:1098-8316;CONF:1098-8317;CONF:1098-8318;CONF:1098-8319;CONF:1098-8320;CONF:1098-16849;CONF:1098-8322;CONF:1098-8323;CONF:1098-8324;CONF:1098-31396;CONF:1098-8326;CONF:1098-8327;CONF:1098-15601;CONF:1098-8329;CONF:1098-8330;CONF:1098-15602' },</v>
       </c>
       <c r="N202" t="str">
-        <f>"'"&amp;D202&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.12',</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -15445,21 +15445,21 @@
         <v>535</v>
       </c>
       <c r="K203" t="str">
-        <f>B203&amp;" "&amp;D203&amp;" "&amp;J203</f>
+        <f t="shared" si="12"/>
         <v>Procedure Activity Observation   2.16.840.1.113883.10.20.22.4.13 CONF:1098-8282;CONF:1098-8237;CONF:1098-8238;CONF:1098-10520;CONF:1098-32507;CONF:1098-8239;CONF:1098-19197;CONF:1098-19198;CONF:1098-19199;CONF:1098-19200;CONF:1098-19201;CONF:1098-19202;CONF:1098-8245;CONF:1098-32365;CONF:1098-8246;CONF:1098-8247;CONF:1098-16846;CONF:1098-32778;CONF:1098-8248;CONF:1098-8249;CONF:1098-8250;CONF:1098-8251;CONF:1098-8252;CONF:1098-8253;CONF:1098-8254;CONF:1098-8255;CONF:1098-8256;CONF:1098-8257;CONF:1098-8258;CONF:1098-8260;CONF:1098-8259;CONF:1098-32478;CONF:1098-8261;CONF:1098-8262;CONF:1098-15904;CONF:1098-8264;CONF:1098-8265;CONF:1098-8266;CONF:1098-8267;CONF:1098-8268;CONF:1098-8269;CONF:1098-8270;CONF:1098-16847;CONF:1098-8272;CONF:1098-8273;CONF:1098-8274;CONF:1098-31394;CONF:1098-8276;CONF:1098-8277;CONF:1098-15906;CONF:1098-8279;CONF:1098-8280;CONF:1098-15907;CONF:1098-32470;CONF:1098-32471;CONF:1098-32472</v>
       </c>
       <c r="M203" t="str">
-        <f>"{ 'id': '"&amp;A203&amp;"', 'template_type': '"&amp;C203&amp;"', 'name': '"&amp;B203&amp;" ["&amp;D203&amp;"["&amp;G203&amp;"', 'name2': '"&amp;B203&amp;"', 'template': '"&amp;D203&amp;"', 'pageStart': '"&amp;E203&amp;"', 'pages': '"&amp;G203&amp;"', 'search': '"&amp;K203&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '202', 'template_type': 'Entry', 'name': 'Procedure Activity Observation   [2.16.840.1.113883.10.20.22.4.13[765-772', 'name2': 'Procedure Activity Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.13', 'pageStart': '765', 'pages': '765-772', 'search': 'Procedure Activity Observation   2.16.840.1.113883.10.20.22.4.13 CONF:1098-8282;CONF:1098-8237;CONF:1098-8238;CONF:1098-10520;CONF:1098-32507;CONF:1098-8239;CONF:1098-19197;CONF:1098-19198;CONF:1098-19199;CONF:1098-19200;CONF:1098-19201;CONF:1098-19202;CONF:1098-8245;CONF:1098-32365;CONF:1098-8246;CONF:1098-8247;CONF:1098-16846;CONF:1098-32778;CONF:1098-8248;CONF:1098-8249;CONF:1098-8250;CONF:1098-8251;CONF:1098-8252;CONF:1098-8253;CONF:1098-8254;CONF:1098-8255;CONF:1098-8256;CONF:1098-8257;CONF:1098-8258;CONF:1098-8260;CONF:1098-8259;CONF:1098-32478;CONF:1098-8261;CONF:1098-8262;CONF:1098-15904;CONF:1098-8264;CONF:1098-8265;CONF:1098-8266;CONF:1098-8267;CONF:1098-8268;CONF:1098-8269;CONF:1098-8270;CONF:1098-16847;CONF:1098-8272;CONF:1098-8273;CONF:1098-8274;CONF:1098-31394;CONF:1098-8276;CONF:1098-8277;CONF:1098-15906;CONF:1098-8279;CONF:1098-8280;CONF:1098-15907;CONF:1098-32470;CONF:1098-32471;CONF:1098-32472' },</v>
       </c>
       <c r="N203" t="str">
-        <f>"'"&amp;D203&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.13',</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -15488,21 +15488,21 @@
         <v>536</v>
       </c>
       <c r="K204" t="str">
-        <f>B204&amp;" "&amp;D204&amp;" "&amp;J204</f>
+        <f t="shared" si="12"/>
         <v>Procedure Activity Procedure   2.16.840.1.113883.10.20.22.4.14 CONF:1098-7652;CONF:1098-7653;CONF:1098-7654;CONF:1098-10521;CONF:1098-32506;CONF:1098-7655;CONF:1098-7656;CONF:1098-19203;CONF:1098-19204;CONF:1098-19205;CONF:1098-19206;CONF:1098-19207;CONF:1098-7661;CONF:1098-32366;CONF:1098-7662;CONF:1098-7668;CONF:1098-7670;CONF:1098-7890;CONF:1098-7683;CONF:1098-7697;CONF:1098-7704;CONF:1098-7716;CONF:1098-29744;CONF:1098-16842;CONF:1098-7718;CONF:1098-7720;CONF:1098-7722;CONF:1098-7731;CONF:1098-7732;CONF:1098-7733;CONF:1098-7734;CONF:1098-7735;CONF:1098-7737;CONF:1098-7736;CONF:1098-32479;CONF:1098-7751;CONF:1098-7752;CONF:1098-15911;CONF:1098-7765;CONF:1098-7766;CONF:1098-15912;CONF:1098-7768;CONF:1098-7769;CONF:1098-8009;CONF:1098-7770;CONF:1098-7771;CONF:1098-7772;CONF:1098-7773;CONF:1098-16843;CONF:1098-7775;CONF:1098-7776;CONF:1098-7777;CONF:1098-31395;CONF:1098-7779;CONF:1098-7780;CONF:1098-15914;CONF:1098-7886;CONF:1098-7887;CONF:1098-15915;CONF:1098-32473;CONF:1098-32474;CONF:1098-32475</v>
       </c>
       <c r="M204" t="str">
-        <f>"{ 'id': '"&amp;A204&amp;"', 'template_type': '"&amp;C204&amp;"', 'name': '"&amp;B204&amp;" ["&amp;D204&amp;"["&amp;G204&amp;"', 'name2': '"&amp;B204&amp;"', 'template': '"&amp;D204&amp;"', 'pageStart': '"&amp;E204&amp;"', 'pages': '"&amp;G204&amp;"', 'search': '"&amp;K204&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '203', 'template_type': 'Entry', 'name': 'Procedure Activity Procedure   [2.16.840.1.113883.10.20.22.4.14[772-779', 'name2': 'Procedure Activity Procedure  ', 'template': '2.16.840.1.113883.10.20.22.4.14', 'pageStart': '772', 'pages': '772-779', 'search': 'Procedure Activity Procedure   2.16.840.1.113883.10.20.22.4.14 CONF:1098-7652;CONF:1098-7653;CONF:1098-7654;CONF:1098-10521;CONF:1098-32506;CONF:1098-7655;CONF:1098-7656;CONF:1098-19203;CONF:1098-19204;CONF:1098-19205;CONF:1098-19206;CONF:1098-19207;CONF:1098-7661;CONF:1098-32366;CONF:1098-7662;CONF:1098-7668;CONF:1098-7670;CONF:1098-7890;CONF:1098-7683;CONF:1098-7697;CONF:1098-7704;CONF:1098-7716;CONF:1098-29744;CONF:1098-16842;CONF:1098-7718;CONF:1098-7720;CONF:1098-7722;CONF:1098-7731;CONF:1098-7732;CONF:1098-7733;CONF:1098-7734;CONF:1098-7735;CONF:1098-7737;CONF:1098-7736;CONF:1098-32479;CONF:1098-7751;CONF:1098-7752;CONF:1098-15911;CONF:1098-7765;CONF:1098-7766;CONF:1098-15912;CONF:1098-7768;CONF:1098-7769;CONF:1098-8009;CONF:1098-7770;CONF:1098-7771;CONF:1098-7772;CONF:1098-7773;CONF:1098-16843;CONF:1098-7775;CONF:1098-7776;CONF:1098-7777;CONF:1098-31395;CONF:1098-7779;CONF:1098-7780;CONF:1098-15914;CONF:1098-7886;CONF:1098-7887;CONF:1098-15915;CONF:1098-32473;CONF:1098-32474;CONF:1098-32475' },</v>
       </c>
       <c r="N204" t="str">
-        <f>"'"&amp;D204&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.14',</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>204</v>
       </c>
       <c r="B205" t="s">
@@ -15531,21 +15531,21 @@
         <v>537</v>
       </c>
       <c r="K205" t="str">
-        <f>B205&amp;" "&amp;D205&amp;" "&amp;J205</f>
+        <f t="shared" si="12"/>
         <v>Procedure Context 2.16.840.1.113883.10.20.6.2.5 CONF:81-26452;CONF:81-26453;CONF:81-9200;CONF:81-10530;CONF:81-9201;CONF:81-9203;CONF:81-17173;CONF:81-9199</v>
       </c>
       <c r="M205" t="str">
-        <f>"{ 'id': '"&amp;A205&amp;"', 'template_type': '"&amp;C205&amp;"', 'name': '"&amp;B205&amp;" ["&amp;D205&amp;"["&amp;G205&amp;"', 'name2': '"&amp;B205&amp;"', 'template': '"&amp;D205&amp;"', 'pageStart': '"&amp;E205&amp;"', 'pages': '"&amp;G205&amp;"', 'search': '"&amp;K205&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '204', 'template_type': 'Entry', 'name': 'Procedure Context [2.16.840.1.113883.10.20.6.2.5[779-781', 'name2': 'Procedure Context', 'template': '2.16.840.1.113883.10.20.6.2.5', 'pageStart': '779', 'pages': '779-781', 'search': 'Procedure Context 2.16.840.1.113883.10.20.6.2.5 CONF:81-26452;CONF:81-26453;CONF:81-9200;CONF:81-10530;CONF:81-9201;CONF:81-9203;CONF:81-17173;CONF:81-9199' },</v>
       </c>
       <c r="N205" t="str">
-        <f>"'"&amp;D205&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.6.2.5',</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>205</v>
       </c>
       <c r="B206" t="s">
@@ -15574,21 +15574,21 @@
         <v>538</v>
       </c>
       <c r="K206" t="str">
-        <f>B206&amp;" "&amp;D206&amp;" "&amp;J206</f>
+        <f t="shared" si="12"/>
         <v>Product Instance 2.16.840.1.113883.10.20.22.4.37 CONF:81-7900;CONF:81-7901;CONF:81-10522;CONF:81-7902;CONF:81-7903;CONF:81-16837;CONF:81-7905;CONF:81-7908</v>
       </c>
       <c r="M206" t="str">
-        <f>"{ 'id': '"&amp;A206&amp;"', 'template_type': '"&amp;C206&amp;"', 'name': '"&amp;B206&amp;" ["&amp;D206&amp;"["&amp;G206&amp;"', 'name2': '"&amp;B206&amp;"', 'template': '"&amp;D206&amp;"', 'pageStart': '"&amp;E206&amp;"', 'pages': '"&amp;G206&amp;"', 'search': '"&amp;K206&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '205', 'template_type': 'Entry', 'name': 'Product Instance [2.16.840.1.113883.10.20.22.4.37[781-783', 'name2': 'Product Instance', 'template': '2.16.840.1.113883.10.20.22.4.37', 'pageStart': '781', 'pages': '781-783', 'search': 'Product Instance 2.16.840.1.113883.10.20.22.4.37 CONF:81-7900;CONF:81-7901;CONF:81-10522;CONF:81-7902;CONF:81-7903;CONF:81-16837;CONF:81-7905;CONF:81-7908' },</v>
       </c>
       <c r="N206" t="str">
-        <f>"'"&amp;D206&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.37',</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>206</v>
       </c>
       <c r="B207" t="s">
@@ -15617,21 +15617,21 @@
         <v>539</v>
       </c>
       <c r="K207" t="str">
-        <f>B207&amp;" "&amp;D207&amp;" "&amp;J207</f>
+        <f t="shared" si="12"/>
         <v>Prognosis Observation 2.16.840.1.113883.10.20.22.4.113 CONF:1098-29035;CONF:1098-29036;CONF:1098-29037;CONF:1098-29038;CONF:1098-29039;CONF:1098-29468;CONF:1098-31349;CONF:1098-31350;CONF:1098-31351;CONF:1098-31123;CONF:1098-29469</v>
       </c>
       <c r="M207" t="str">
-        <f>"{ 'id': '"&amp;A207&amp;"', 'template_type': '"&amp;C207&amp;"', 'name': '"&amp;B207&amp;" ["&amp;D207&amp;"["&amp;G207&amp;"', 'name2': '"&amp;B207&amp;"', 'template': '"&amp;D207&amp;"', 'pageStart': '"&amp;E207&amp;"', 'pages': '"&amp;G207&amp;"', 'search': '"&amp;K207&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '206', 'template_type': 'Entry', 'name': 'Prognosis Observation [2.16.840.1.113883.10.20.22.4.113[783-785', 'name2': 'Prognosis Observation', 'template': '2.16.840.1.113883.10.20.22.4.113', 'pageStart': '783', 'pages': '783-785', 'search': 'Prognosis Observation 2.16.840.1.113883.10.20.22.4.113 CONF:1098-29035;CONF:1098-29036;CONF:1098-29037;CONF:1098-29038;CONF:1098-29039;CONF:1098-29468;CONF:1098-31349;CONF:1098-31350;CONF:1098-31351;CONF:1098-31123;CONF:1098-29469' },</v>
       </c>
       <c r="N207" t="str">
-        <f>"'"&amp;D207&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.113',</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -15660,21 +15660,21 @@
         <v>540</v>
       </c>
       <c r="K208" t="str">
-        <f>B208&amp;" "&amp;D208&amp;" "&amp;J208</f>
+        <f t="shared" si="12"/>
         <v>Progress Toward Goal Observation  2.16.840.1.113883.10.20.22.4.110 CONF:1098-31418;CONF:1098-31419;CONF:1098-31420;CONF:1098-31421;CONF:1098-31422;CONF:1098-31423;CONF:1098-31424;CONF:1098-31425;CONF:1098-31609;CONF:1098-31610;CONF:1098-31426</v>
       </c>
       <c r="M208" t="str">
-        <f>"{ 'id': '"&amp;A208&amp;"', 'template_type': '"&amp;C208&amp;"', 'name': '"&amp;B208&amp;" ["&amp;D208&amp;"["&amp;G208&amp;"', 'name2': '"&amp;B208&amp;"', 'template': '"&amp;D208&amp;"', 'pageStart': '"&amp;E208&amp;"', 'pages': '"&amp;G208&amp;"', 'search': '"&amp;K208&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '207', 'template_type': 'Entry', 'name': 'Progress Toward Goal Observation  [2.16.840.1.113883.10.20.22.4.110[785-787', 'name2': 'Progress Toward Goal Observation ', 'template': '2.16.840.1.113883.10.20.22.4.110', 'pageStart': '785', 'pages': '785-787', 'search': 'Progress Toward Goal Observation  2.16.840.1.113883.10.20.22.4.110 CONF:1098-31418;CONF:1098-31419;CONF:1098-31420;CONF:1098-31421;CONF:1098-31422;CONF:1098-31423;CONF:1098-31424;CONF:1098-31425;CONF:1098-31609;CONF:1098-31610;CONF:1098-31426' },</v>
       </c>
       <c r="N208" t="str">
-        <f>"'"&amp;D208&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.110',</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -15703,21 +15703,21 @@
         <v>541</v>
       </c>
       <c r="K209" t="str">
-        <f>B209&amp;" "&amp;D209&amp;" "&amp;J209</f>
+        <f t="shared" si="12"/>
         <v>Purpose of Reference Observation 2.16.840.1.113883.10.20.6.2.9 CONF:81-9264;CONF:81-9265;CONF:81-9266;CONF:81-10531;CONF:81-9267;CONF:81-19208;CONF:81-19209;CONF:81-9273</v>
       </c>
       <c r="M209" t="str">
-        <f>"{ 'id': '"&amp;A209&amp;"', 'template_type': '"&amp;C209&amp;"', 'name': '"&amp;B209&amp;" ["&amp;D209&amp;"["&amp;G209&amp;"', 'name2': '"&amp;B209&amp;"', 'template': '"&amp;D209&amp;"', 'pageStart': '"&amp;E209&amp;"', 'pages': '"&amp;G209&amp;"', 'search': '"&amp;K209&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '208', 'template_type': 'Entry', 'name': 'Purpose of Reference Observation [2.16.840.1.113883.10.20.6.2.9[787-789', 'name2': 'Purpose of Reference Observation', 'template': '2.16.840.1.113883.10.20.6.2.9', 'pageStart': '787', 'pages': '787-789', 'search': 'Purpose of Reference Observation 2.16.840.1.113883.10.20.6.2.9 CONF:81-9264;CONF:81-9265;CONF:81-9266;CONF:81-10531;CONF:81-9267;CONF:81-19208;CONF:81-19209;CONF:81-9273' },</v>
       </c>
       <c r="N209" t="str">
-        <f>"'"&amp;D209&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.6.2.9',</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -15746,21 +15746,21 @@
         <v>542</v>
       </c>
       <c r="K210" t="str">
-        <f>B210&amp;" "&amp;D210&amp;" "&amp;J210</f>
+        <f t="shared" si="12"/>
         <v>Quantity Measurement Observation  2.16.840.1.113883.10.20.6.2.14 CONF:81-9317;CONF:81-9318;CONF:81-9319;CONF:81-10532;CONF:81-9320;CONF:81-19210;CONF:81-9326;CONF:81-9324;CONF:81-9327;CONF:81-9328;CONF:81-15916</v>
       </c>
       <c r="M210" t="str">
-        <f>"{ 'id': '"&amp;A210&amp;"', 'template_type': '"&amp;C210&amp;"', 'name': '"&amp;B210&amp;" ["&amp;D210&amp;"["&amp;G210&amp;"', 'name2': '"&amp;B210&amp;"', 'template': '"&amp;D210&amp;"', 'pageStart': '"&amp;E210&amp;"', 'pages': '"&amp;G210&amp;"', 'search': '"&amp;K210&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '209', 'template_type': 'Entry', 'name': 'Quantity Measurement Observation  [2.16.840.1.113883.10.20.6.2.14[789-793', 'name2': 'Quantity Measurement Observation ', 'template': '2.16.840.1.113883.10.20.6.2.14', 'pageStart': '789', 'pages': '789-793', 'search': 'Quantity Measurement Observation  2.16.840.1.113883.10.20.6.2.14 CONF:81-9317;CONF:81-9318;CONF:81-9319;CONF:81-10532;CONF:81-9320;CONF:81-19210;CONF:81-9326;CONF:81-9324;CONF:81-9327;CONF:81-9328;CONF:81-15916' },</v>
       </c>
       <c r="N210" t="str">
-        <f>"'"&amp;D210&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.6.2.14',</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -15789,21 +15789,21 @@
         <v>543</v>
       </c>
       <c r="K211" t="str">
-        <f>B211&amp;" "&amp;D211&amp;" "&amp;J211</f>
+        <f t="shared" si="12"/>
         <v>Reaction Observation   2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922</v>
       </c>
       <c r="M211" t="str">
-        <f>"{ 'id': '"&amp;A211&amp;"', 'template_type': '"&amp;C211&amp;"', 'name': '"&amp;B211&amp;" ["&amp;D211&amp;"["&amp;G211&amp;"', 'name2': '"&amp;B211&amp;"', 'template': '"&amp;D211&amp;"', 'pageStart': '"&amp;E211&amp;"', 'pages': '"&amp;G211&amp;"', 'search': '"&amp;K211&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '210', 'template_type': 'Entry', 'name': 'Reaction Observation   [2.16.840.1.113883.10.20.22.4.9[793-797', 'name2': 'Reaction Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.9', 'pageStart': '793', 'pages': '793-797', 'search': 'Reaction Observation   2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922' },</v>
       </c>
       <c r="N211" t="str">
-        <f>"'"&amp;D211&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.9',</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -15826,24 +15826,24 @@
         <v>CG_A_198-200</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="K212" t="str">
-        <f>B212&amp;" "&amp;D212&amp;" "&amp;J212</f>
+        <f t="shared" si="12"/>
         <v>Reason (Companion Guide) 2.16.840.1.113883.10.20.24.3.88 CONF:4537-11357;CONF:4537-11358;CONF:4537-11359;CONF:4537-11360;CONF:4537-27027;CONF:4537-26998;CONF:4537-11361;CONF:4537-11362;CONF:4537-27028;CONF:4537-11364;CONF:4537-11365;CONF:4537-11366;CONF:4537-27551;CONF:4537-27552;CONF:4537-11367;CONF:4537-27657;</v>
       </c>
       <c r="M212" t="str">
-        <f>"{ 'id': '"&amp;A212&amp;"', 'template_type': '"&amp;C212&amp;"', 'name': '"&amp;B212&amp;" ["&amp;D212&amp;"["&amp;G212&amp;"', 'name2': '"&amp;B212&amp;"', 'template': '"&amp;D212&amp;"', 'pageStart': '"&amp;E212&amp;"', 'pages': '"&amp;G212&amp;"', 'search': '"&amp;K212&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '211', 'template_type': 'Entry', 'name': 'Reason (Companion Guide) [2.16.840.1.113883.10.20.24.3.88[CG_A_198-200', 'name2': 'Reason (Companion Guide)', 'template': '2.16.840.1.113883.10.20.24.3.88', 'pageStart': '1198', 'pages': 'CG_A_198-200', 'search': 'Reason (Companion Guide) 2.16.840.1.113883.10.20.24.3.88 CONF:4537-11357;CONF:4537-11358;CONF:4537-11359;CONF:4537-11360;CONF:4537-27027;CONF:4537-26998;CONF:4537-11361;CONF:4537-11362;CONF:4537-27028;CONF:4537-11364;CONF:4537-11365;CONF:4537-11366;CONF:4537-27551;CONF:4537-27552;CONF:4537-11367;CONF:4537-27657;' },</v>
       </c>
       <c r="N212" t="str">
-        <f>"'"&amp;D212&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.24.3.88',</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -15872,21 +15872,21 @@
         <v>544</v>
       </c>
       <c r="K213" t="str">
-        <f>B213&amp;" "&amp;D213&amp;" "&amp;J213</f>
+        <f t="shared" si="12"/>
         <v>Referenced Frames Observation 2.16.840.1.113883.10.20.6.2.10 CONF:81-9276;CONF:81-9277;CONF:81-19164;CONF:81-19165;CONF:81-9279;CONF:81-9280;CONF:81-15923</v>
       </c>
       <c r="M213" t="str">
-        <f>"{ 'id': '"&amp;A213&amp;"', 'template_type': '"&amp;C213&amp;"', 'name': '"&amp;B213&amp;" ["&amp;D213&amp;"["&amp;G213&amp;"', 'name2': '"&amp;B213&amp;"', 'template': '"&amp;D213&amp;"', 'pageStart': '"&amp;E213&amp;"', 'pages': '"&amp;G213&amp;"', 'search': '"&amp;K213&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '212', 'template_type': 'Entry', 'name': 'Referenced Frames Observation [2.16.840.1.113883.10.20.6.2.10[797-798', 'name2': 'Referenced Frames Observation', 'template': '2.16.840.1.113883.10.20.6.2.10', 'pageStart': '797', 'pages': '797-798', 'search': 'Referenced Frames Observation 2.16.840.1.113883.10.20.6.2.10 CONF:81-9276;CONF:81-9277;CONF:81-19164;CONF:81-19165;CONF:81-9279;CONF:81-9280;CONF:81-15923' },</v>
       </c>
       <c r="N213" t="str">
-        <f>"'"&amp;D213&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.6.2.10',</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -15915,21 +15915,21 @@
         <v>545</v>
       </c>
       <c r="K214" t="str">
-        <f>B214&amp;" "&amp;D214&amp;" "&amp;J214</f>
+        <f t="shared" si="12"/>
         <v>Result Observation  2.16.840.1.113883.10.20.22.4.2 CONF:1198-7130;CONF:1198-7131;CONF:1198-7136;CONF:1198-9138;CONF:1198-32575;CONF:1198-7137;CONF:1198-7133;CONF:1198-19212;CONF:1198-7134;CONF:1198-14849;CONF:1198-7140;CONF:1198-7143;CONF:1198-31484;CONF:1198-31866;CONF:1198-32610;CONF:1198-7147;CONF:1198-32476;CONF:1198-7148;CONF:1198-7153;CONF:1198-7149;CONF:1198-7150;CONF:1198-7151;CONF:1198-7152;CONF:1198-32175</v>
       </c>
       <c r="M214" t="str">
-        <f>"{ 'id': '"&amp;A214&amp;"', 'template_type': '"&amp;C214&amp;"', 'name': '"&amp;B214&amp;" ["&amp;D214&amp;"["&amp;G214&amp;"', 'name2': '"&amp;B214&amp;"', 'template': '"&amp;D214&amp;"', 'pageStart': '"&amp;E214&amp;"', 'pages': '"&amp;G214&amp;"', 'search': '"&amp;K214&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '213', 'template_type': 'Entry', 'name': 'Result Observation  [2.16.840.1.113883.10.20.22.4.2[798-803', 'name2': 'Result Observation ', 'template': '2.16.840.1.113883.10.20.22.4.2', 'pageStart': '798', 'pages': '798-803', 'search': 'Result Observation  2.16.840.1.113883.10.20.22.4.2 CONF:1198-7130;CONF:1198-7131;CONF:1198-7136;CONF:1198-9138;CONF:1198-32575;CONF:1198-7137;CONF:1198-7133;CONF:1198-19212;CONF:1198-7134;CONF:1198-14849;CONF:1198-7140;CONF:1198-7143;CONF:1198-31484;CONF:1198-31866;CONF:1198-32610;CONF:1198-7147;CONF:1198-32476;CONF:1198-7148;CONF:1198-7153;CONF:1198-7149;CONF:1198-7150;CONF:1198-7151;CONF:1198-7152;CONF:1198-32175' },</v>
       </c>
       <c r="N214" t="str">
-        <f>"'"&amp;D214&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.2',</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -15961,21 +15961,21 @@
         <v>546</v>
       </c>
       <c r="K215" t="str">
-        <f>B215&amp;" "&amp;D215&amp;" "&amp;J215</f>
+        <f t="shared" si="12"/>
         <v>Result Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850</v>
       </c>
       <c r="M215" t="str">
-        <f>"{ 'id': '"&amp;A215&amp;"', 'template_type': '"&amp;C215&amp;"', 'name': '"&amp;B215&amp;" ["&amp;D215&amp;"["&amp;G215&amp;"', 'name2': '"&amp;B215&amp;"', 'template': '"&amp;D215&amp;"', 'pageStart': '"&amp;E215&amp;"', 'pages': '"&amp;G215&amp;"', 'search': '"&amp;K215&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '214', 'template_type': 'Entry', 'name': 'Result Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.1[CG_A_200-207', 'name2': 'Result Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.1', 'pageStart': '1200', 'pages': 'CG_A_200-207', 'search': 'Result Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850' },</v>
       </c>
       <c r="N215" t="str">
-        <f>"'"&amp;D215&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.1',</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -16007,21 +16007,21 @@
         <v>547</v>
       </c>
       <c r="K216" t="str">
-        <f>B216&amp;" "&amp;D216&amp;" "&amp;J216</f>
+        <f t="shared" si="12"/>
         <v>Risk Concern Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.136 CONF:1198-32220;CONF:1198-32221;CONF:1198-32180;CONF:1198-32222;CONF:1198-32910;CONF:1198-32223;CONF:1198-32305;CONF:1198-32306;CONF:1198-32307;CONF:1198-32225;CONF:1198-32314;CONF:1198-32226;CONF:1198-32300;CONF:1198-32179;CONF:1198-32227;CONF:1198-32219;CONF:1198-32181;CONF:1198-32228;CONF:1198-32229;CONF:1198-32182;CONF:1198-32230;CONF:1198-32231;CONF:1198-32183;CONF:1198-32232;CONF:1198-32233;CONF:1198-32184;CONF:1198-32234;CONF:1198-32235;CONF:1198-32185;CONF:1198-32236;CONF:1198-32237;CONF:1198-32186;CONF:1198-32238;CONF:1198-32239;CONF:1198-32188;CONF:1198-32242;CONF:1198-32243;CONF:1198-32189;CONF:1198-32244;CONF:1198-32245;CONF:1198-32190;CONF:1198-32246;CONF:1198-32247;CONF:1198-32191;CONF:1198-32248;CONF:1198-32249;CONF:1198-32192;CONF:1198-32250;CONF:1198-32251;CONF:1198-32193;CONF:1198-32252;CONF:1198-32253;CONF:1198-32195;CONF:1198-32256;CONF:1198-32257;CONF:1198-32197;CONF:1198-32260;CONF:1198-32261;CONF:1198-32198;CONF:1198-32262;CONF:1198-32263;CONF:1198-32199;CONF:1198-32264;CONF:1198-32265;CONF:1198-32200;CONF:1198-32266;CONF:1198-32267;CONF:1198-32201;CONF:1198-32268;CONF:1198-32269;CONF:1198-32202;CONF:1198-32270;CONF:1198-32271;CONF:1198-32203;CONF:1198-32272;CONF:1198-32273;CONF:1198-32204;CONF:1198-32958;CONF:1198-32275;CONF:1198-32205;CONF:1198-32276;CONF:1198-32277;CONF:1198-32206;CONF:1198-32278;CONF:1198-32279;CONF:1198-32207;CONF:1198-32280;CONF:1198-32281;CONF:1198-32208;CONF:1198-32282;CONF:1198-32283;CONF:1198-32209;CONF:1198-32284;CONF:1198-32285;CONF:1198-32210;CONF:1198-32286;CONF:1198-32287;CONF:1198-32211;CONF:1198-32288;CONF:1198-32289;CONF:1198-32212;CONF:1198-32290;CONF:1198-32291;CONF:1198-32213;CONF:1198-32292;CONF:1198-32293;CONF:1198-32214;CONF:1198-32294;CONF:1198-32295;CONF:1198-32215;CONF:1198-32296;CONF:1198-32297;CONF:1198-32216;CONF:1198-32298;CONF:1198-32299;CONF:1198-32217;CONF:1198-32301;CONF:1198-32302;CONF:1198-32769;CONF:1198-32908;CONF:1198-32909</v>
       </c>
       <c r="M216" t="str">
-        <f>"{ 'id': '"&amp;A216&amp;"', 'template_type': '"&amp;C216&amp;"', 'name': '"&amp;B216&amp;" ["&amp;D216&amp;"["&amp;G216&amp;"', 'name2': '"&amp;B216&amp;"', 'template': '"&amp;D216&amp;"', 'pageStart': '"&amp;E216&amp;"', 'pages': '"&amp;G216&amp;"', 'search': '"&amp;K216&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '215', 'template_type': 'Entry', 'name': 'Risk Concern Act (Companion Guide) [2.16.840.1.113883.10.20.22.4.136[CG_A_207-211', 'name2': 'Risk Concern Act (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.136', 'pageStart': '1207', 'pages': 'CG_A_207-211', 'search': 'Risk Concern Act (Companion Guide) 2.16.840.1.113883.10.20.22.4.136 CONF:1198-32220;CONF:1198-32221;CONF:1198-32180;CONF:1198-32222;CONF:1198-32910;CONF:1198-32223;CONF:1198-32305;CONF:1198-32306;CONF:1198-32307;CONF:1198-32225;CONF:1198-32314;CONF:1198-32226;CONF:1198-32300;CONF:1198-32179;CONF:1198-32227;CONF:1198-32219;CONF:1198-32181;CONF:1198-32228;CONF:1198-32229;CONF:1198-32182;CONF:1198-32230;CONF:1198-32231;CONF:1198-32183;CONF:1198-32232;CONF:1198-32233;CONF:1198-32184;CONF:1198-32234;CONF:1198-32235;CONF:1198-32185;CONF:1198-32236;CONF:1198-32237;CONF:1198-32186;CONF:1198-32238;CONF:1198-32239;CONF:1198-32188;CONF:1198-32242;CONF:1198-32243;CONF:1198-32189;CONF:1198-32244;CONF:1198-32245;CONF:1198-32190;CONF:1198-32246;CONF:1198-32247;CONF:1198-32191;CONF:1198-32248;CONF:1198-32249;CONF:1198-32192;CONF:1198-32250;CONF:1198-32251;CONF:1198-32193;CONF:1198-32252;CONF:1198-32253;CONF:1198-32195;CONF:1198-32256;CONF:1198-32257;CONF:1198-32197;CONF:1198-32260;CONF:1198-32261;CONF:1198-32198;CONF:1198-32262;CONF:1198-32263;CONF:1198-32199;CONF:1198-32264;CONF:1198-32265;CONF:1198-32200;CONF:1198-32266;CONF:1198-32267;CONF:1198-32201;CONF:1198-32268;CONF:1198-32269;CONF:1198-32202;CONF:1198-32270;CONF:1198-32271;CONF:1198-32203;CONF:1198-32272;CONF:1198-32273;CONF:1198-32204;CONF:1198-32958;CONF:1198-32275;CONF:1198-32205;CONF:1198-32276;CONF:1198-32277;CONF:1198-32206;CONF:1198-32278;CONF:1198-32279;CONF:1198-32207;CONF:1198-32280;CONF:1198-32281;CONF:1198-32208;CONF:1198-32282;CONF:1198-32283;CONF:1198-32209;CONF:1198-32284;CONF:1198-32285;CONF:1198-32210;CONF:1198-32286;CONF:1198-32287;CONF:1198-32211;CONF:1198-32288;CONF:1198-32289;CONF:1198-32212;CONF:1198-32290;CONF:1198-32291;CONF:1198-32213;CONF:1198-32292;CONF:1198-32293;CONF:1198-32214;CONF:1198-32294;CONF:1198-32295;CONF:1198-32215;CONF:1198-32296;CONF:1198-32297;CONF:1198-32216;CONF:1198-32298;CONF:1198-32299;CONF:1198-32217;CONF:1198-32301;CONF:1198-32302;CONF:1198-32769;CONF:1198-32908;CONF:1198-32909' },</v>
       </c>
       <c r="N216" t="str">
-        <f>"'"&amp;D216&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.136',</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -16047,21 +16047,21 @@
         <v>1293</v>
       </c>
       <c r="K217" t="str">
-        <f>B217&amp;" "&amp;D217&amp;" "&amp;J217</f>
+        <f t="shared" si="12"/>
         <v>Section Time Range Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.201 CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;</v>
       </c>
       <c r="M217" t="str">
-        <f>"{ 'id': '"&amp;A217&amp;"', 'template_type': '"&amp;C217&amp;"', 'name': '"&amp;B217&amp;" ["&amp;D217&amp;"["&amp;G217&amp;"', 'name2': '"&amp;B217&amp;"', 'template': '"&amp;D217&amp;"', 'pageStart': '"&amp;E217&amp;"', 'pages': '"&amp;G217&amp;"', 'search': '"&amp;K217&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '216', 'template_type': 'Entry', 'name': 'Section Time Range Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.201[CG_A_211-213', 'name2': 'Section Time Range Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.201', 'pageStart': '1211', 'pages': 'CG_A_211-213', 'search': 'Section Time Range Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.201 CONF:3250-32960;CONF:3250-32961;CONF:3250-32951;CONF:3250-32955;CONF:3250-32956;CONF:3250-32952;CONF:3250-32957;CONF:3250-32958;CONF:3250-32962;CONF:3250-32963;CONF:3250-32964;CONF:3250-32950;CONF:3250-32954;CONF:3250-32953;CONF:3250-32965;CONF:3250-32966;' },</v>
       </c>
       <c r="N217" t="str">
-        <f>"'"&amp;D217&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.201',</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -16090,21 +16090,21 @@
         <v>548</v>
       </c>
       <c r="K218" t="str">
-        <f>B218&amp;" "&amp;D218&amp;" "&amp;J218</f>
+        <f t="shared" si="12"/>
         <v>Self-Care Activities (ADL and IADL) 2.16.840.1.113883.10.20.22.4.128 CONF:1098-31389;CONF:1098-31390;CONF:1098-28190;CONF:1098-28457;CONF:1098-28153;CONF:1098-32490;CONF:1098-32491;CONF:1098-32492;CONF:1098-28042;CONF:1098-32469</v>
       </c>
       <c r="M218" t="str">
-        <f>"{ 'id': '"&amp;A218&amp;"', 'template_type': '"&amp;C218&amp;"', 'name': '"&amp;B218&amp;" ["&amp;D218&amp;"["&amp;G218&amp;"', 'name2': '"&amp;B218&amp;"', 'template': '"&amp;D218&amp;"', 'pageStart': '"&amp;E218&amp;"', 'pages': '"&amp;G218&amp;"', 'search': '"&amp;K218&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '217', 'template_type': 'Entry', 'name': 'Self-Care Activities (ADL and IADL) [2.16.840.1.113883.10.20.22.4.128[823-826', 'name2': 'Self-Care Activities (ADL and IADL)', 'template': '2.16.840.1.113883.10.20.22.4.128', 'pageStart': '823', 'pages': '823-826', 'search': 'Self-Care Activities (ADL and IADL) 2.16.840.1.113883.10.20.22.4.128 CONF:1098-31389;CONF:1098-31390;CONF:1098-28190;CONF:1098-28457;CONF:1098-28153;CONF:1098-32490;CONF:1098-32491;CONF:1098-32492;CONF:1098-28042;CONF:1098-32469' },</v>
       </c>
       <c r="N218" t="str">
-        <f>"'"&amp;D218&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.128',</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -16133,21 +16133,21 @@
         <v>549</v>
       </c>
       <c r="K219" t="str">
-        <f>B219&amp;" "&amp;D219&amp;" "&amp;J219</f>
+        <f t="shared" si="12"/>
         <v>Sensory Status 2.16.840.1.113883.10.20.22.4.127 CONF:1098-31017;CONF:1098-31018;CONF:1098-27959;CONF:1098-27960;CONF:1098-27962;CONF:1098-31437;CONF:1098-31438;CONF:1098-31441;CONF:1098-32630;CONF:1098-32631;CONF:1098-27974;CONF:1098-31439;CONF:1098-27984;CONF:1098-27985;CONF:1098-27986</v>
       </c>
       <c r="M219" t="str">
-        <f>"{ 'id': '"&amp;A219&amp;"', 'template_type': '"&amp;C219&amp;"', 'name': '"&amp;B219&amp;" ["&amp;D219&amp;"["&amp;G219&amp;"', 'name2': '"&amp;B219&amp;"', 'template': '"&amp;D219&amp;"', 'pageStart': '"&amp;E219&amp;"', 'pages': '"&amp;G219&amp;"', 'search': '"&amp;K219&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '218', 'template_type': 'Entry', 'name': 'Sensory Status [2.16.840.1.113883.10.20.22.4.127[826-831', 'name2': 'Sensory Status', 'template': '2.16.840.1.113883.10.20.22.4.127', 'pageStart': '826', 'pages': '826-831', 'search': 'Sensory Status 2.16.840.1.113883.10.20.22.4.127 CONF:1098-31017;CONF:1098-31018;CONF:1098-27959;CONF:1098-27960;CONF:1098-27962;CONF:1098-31437;CONF:1098-31438;CONF:1098-31441;CONF:1098-32630;CONF:1098-32631;CONF:1098-27974;CONF:1098-31439;CONF:1098-27984;CONF:1098-27985;CONF:1098-27986' },</v>
       </c>
       <c r="N219" t="str">
-        <f>"'"&amp;D219&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.127',</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -16173,21 +16173,21 @@
         <v>1437</v>
       </c>
       <c r="K220" t="str">
-        <f>B220&amp;" "&amp;D220&amp;" "&amp;J220</f>
+        <f t="shared" si="12"/>
         <v>Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 CONF:4437-3373;CONF:4437-3377;CONF:4437-3368;CONF:4437-3374;CONF:4437-3378;CONF:4437-3369;CONF:4437-3370;CONF:4437-3379;CONF:4437-3372;</v>
       </c>
       <c r="M220" t="str">
-        <f>"{ 'id': '"&amp;A220&amp;"', 'template_type': '"&amp;C220&amp;"', 'name': '"&amp;B220&amp;" ["&amp;D220&amp;"["&amp;G220&amp;"', 'name2': '"&amp;B220&amp;"', 'template': '"&amp;D220&amp;"', 'pageStart': '"&amp;E220&amp;"', 'pages': '"&amp;G220&amp;"', 'search': '"&amp;K220&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '219', 'template_type': 'Entry', 'name': 'Serial Number Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.319[CG_B_41-43', 'name2': 'Serial Number Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.319', 'pageStart': '2041', 'pages': 'CG_B_41-43', 'search': 'Serial Number Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.319 CONF:4437-3373;CONF:4437-3377;CONF:4437-3368;CONF:4437-3374;CONF:4437-3378;CONF:4437-3369;CONF:4437-3370;CONF:4437-3379;CONF:4437-3372;' },</v>
       </c>
       <c r="N220" t="str">
-        <f>"'"&amp;D220&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.319',</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -16216,21 +16216,21 @@
         <v>550</v>
       </c>
       <c r="K221" t="str">
-        <f>B221&amp;" "&amp;D221&amp;" "&amp;J221</f>
+        <f t="shared" si="12"/>
         <v>Series Act  2.16.840.1.113883.10.20.22.4.63 CONF:81-9222;CONF:81-9223;CONF:81-10918;CONF:81-10919;CONF:81-9224;CONF:81-9225;CONF:81-9226;CONF:81-19166;CONF:81-19167;CONF:81-26461;CONF:81-26462;CONF:81-26463;CONF:81-26464;CONF:81-26465;CONF:81-26466;CONF:81-9233;CONF:81-9235;CONF:81-9237;CONF:81-9238;CONF:81-15927</v>
       </c>
       <c r="M221" t="str">
-        <f>"{ 'id': '"&amp;A221&amp;"', 'template_type': '"&amp;C221&amp;"', 'name': '"&amp;B221&amp;" ["&amp;D221&amp;"["&amp;G221&amp;"', 'name2': '"&amp;B221&amp;"', 'template': '"&amp;D221&amp;"', 'pageStart': '"&amp;E221&amp;"', 'pages': '"&amp;G221&amp;"', 'search': '"&amp;K221&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '220', 'template_type': 'Entry', 'name': 'Series Act  [2.16.840.1.113883.10.20.22.4.63[831-834', 'name2': 'Series Act ', 'template': '2.16.840.1.113883.10.20.22.4.63', 'pageStart': '831', 'pages': '831-834', 'search': 'Series Act  2.16.840.1.113883.10.20.22.4.63 CONF:81-9222;CONF:81-9223;CONF:81-10918;CONF:81-10919;CONF:81-9224;CONF:81-9225;CONF:81-9226;CONF:81-19166;CONF:81-19167;CONF:81-26461;CONF:81-26462;CONF:81-26463;CONF:81-26464;CONF:81-26465;CONF:81-26466;CONF:81-9233;CONF:81-9235;CONF:81-9237;CONF:81-9238;CONF:81-15927' },</v>
       </c>
       <c r="N221" t="str">
-        <f>"'"&amp;D221&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.63',</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -16259,21 +16259,21 @@
         <v>551</v>
       </c>
       <c r="K222" t="str">
-        <f>B222&amp;" "&amp;D222&amp;" "&amp;J222</f>
+        <f t="shared" si="12"/>
         <v>Service Delivery Location 2.16.840.1.113883.10.20.22.4.32 CONF:81-7758;CONF:81-7635;CONF:81-10524;CONF:81-16850;CONF:81-7760;CONF:81-7761;CONF:81-7762;CONF:81-7763;CONF:81-16037</v>
       </c>
       <c r="M222" t="str">
-        <f>"{ 'id': '"&amp;A222&amp;"', 'template_type': '"&amp;C222&amp;"', 'name': '"&amp;B222&amp;" ["&amp;D222&amp;"["&amp;G222&amp;"', 'name2': '"&amp;B222&amp;"', 'template': '"&amp;D222&amp;"', 'pageStart': '"&amp;E222&amp;"', 'pages': '"&amp;G222&amp;"', 'search': '"&amp;K222&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '221', 'template_type': 'Entry', 'name': 'Service Delivery Location [2.16.840.1.113883.10.20.22.4.32[834-837', 'name2': 'Service Delivery Location', 'template': '2.16.840.1.113883.10.20.22.4.32', 'pageStart': '834', 'pages': '834-837', 'search': 'Service Delivery Location 2.16.840.1.113883.10.20.22.4.32 CONF:81-7758;CONF:81-7635;CONF:81-10524;CONF:81-16850;CONF:81-7760;CONF:81-7761;CONF:81-7762;CONF:81-7763;CONF:81-16037' },</v>
       </c>
       <c r="N222" t="str">
-        <f>"'"&amp;D222&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.32',</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -16302,21 +16302,21 @@
         <v>552</v>
       </c>
       <c r="K223" t="str">
-        <f>B223&amp;" "&amp;D223&amp;" "&amp;J223</f>
+        <f t="shared" si="12"/>
         <v>Severity Observation   2.16.840.1.113883.10.20.22.4.8 CONF:1098-7345;CONF:1098-7346;CONF:1098-7347;CONF:1098-10525;CONF:1098-32577;CONF:1098-19168;CONF:1098-19169;CONF:1098-32170;CONF:1098-7352;CONF:1098-19115;CONF:1098-7356</v>
       </c>
       <c r="M223" t="str">
-        <f>"{ 'id': '"&amp;A223&amp;"', 'template_type': '"&amp;C223&amp;"', 'name': '"&amp;B223&amp;" ["&amp;D223&amp;"["&amp;G223&amp;"', 'name2': '"&amp;B223&amp;"', 'template': '"&amp;D223&amp;"', 'pageStart': '"&amp;E223&amp;"', 'pages': '"&amp;G223&amp;"', 'search': '"&amp;K223&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '222', 'template_type': 'Entry', 'name': 'Severity Observation   [2.16.840.1.113883.10.20.22.4.8[837-840', 'name2': 'Severity Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.8', 'pageStart': '837', 'pages': '837-840', 'search': 'Severity Observation   2.16.840.1.113883.10.20.22.4.8 CONF:1098-7345;CONF:1098-7346;CONF:1098-7347;CONF:1098-10525;CONF:1098-32577;CONF:1098-19168;CONF:1098-19169;CONF:1098-32170;CONF:1098-7352;CONF:1098-19115;CONF:1098-7356' },</v>
       </c>
       <c r="N223" t="str">
-        <f>"'"&amp;D223&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.8',</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -16339,24 +16339,24 @@
         <v>CG_A_213-216</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="K224" t="str">
-        <f>B224&amp;" "&amp;D224&amp;" "&amp;J224</f>
+        <f t="shared" si="12"/>
         <v>Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.507 CONF:4547-33088;CONF:4547-33089;CONF:4547-33078;CONF:4547-33083;CONF:4547-33084;CONF:4547-33079;CONF:4547-33085;CONF:4547-33086;CONF:4547-33077;CONF:4547-33081;CONF:4547-33090;CONF:4547-33091;CONF:4547-33092;CONF:4547-33093;CONF:4547-33080;CONF:4547-33094;CONF:4547-33098;</v>
       </c>
       <c r="M224" t="str">
-        <f>"{ 'id': '"&amp;A224&amp;"', 'template_type': '"&amp;C224&amp;"', 'name': '"&amp;B224&amp;" ["&amp;D224&amp;"["&amp;G224&amp;"', 'name2': '"&amp;B224&amp;"', 'template': '"&amp;D224&amp;"', 'pageStart': '"&amp;E224&amp;"', 'pages': '"&amp;G224&amp;"', 'search': '"&amp;K224&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '223', 'template_type': 'Entry', 'name': 'Sex Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.507[CG_A_213-216', 'name2': 'Sex Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.507', 'pageStart': '1213', 'pages': 'CG_A_213-216', 'search': 'Sex Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.507 CONF:4547-33088;CONF:4547-33089;CONF:4547-33078;CONF:4547-33083;CONF:4547-33084;CONF:4547-33079;CONF:4547-33085;CONF:4547-33086;CONF:4547-33077;CONF:4547-33081;CONF:4547-33090;CONF:4547-33091;CONF:4547-33092;CONF:4547-33093;CONF:4547-33080;CONF:4547-33094;CONF:4547-33098;' },</v>
       </c>
       <c r="N224" t="str">
-        <f>"'"&amp;D224&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.507',</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -16379,24 +16379,24 @@
         <v>CG_A_232-235</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="K225" t="str">
-        <f>B225&amp;" "&amp;D225&amp;" "&amp;J225</f>
+        <f t="shared" si="12"/>
         <v>Sexual Orientation Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.501 CONF:4515-193;CONF:4515-194;CONF:4515-185;CONF:4515-188;CONF:4515-189;CONF:4515-186;CONF:4515-190;CONF:4515-191;CONF:4515-32881;CONF:4515-32883;CONF:4515-32882;CONF:4515-32884;CONF:4515-32885;CONF:4515-187;CONF:4515-192;</v>
       </c>
       <c r="M225" t="str">
-        <f>"{ 'id': '"&amp;A225&amp;"', 'template_type': '"&amp;C225&amp;"', 'name': '"&amp;B225&amp;" ["&amp;D225&amp;"["&amp;G225&amp;"', 'name2': '"&amp;B225&amp;"', 'template': '"&amp;D225&amp;"', 'pageStart': '"&amp;E225&amp;"', 'pages': '"&amp;G225&amp;"', 'search': '"&amp;K225&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '224', 'template_type': 'Entry', 'name': 'Sexual Orientation Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.501[CG_A_232-235', 'name2': 'Sexual Orientation Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.501', 'pageStart': '1232', 'pages': 'CG_A_232-235', 'search': 'Sexual Orientation Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.501 CONF:4515-193;CONF:4515-194;CONF:4515-185;CONF:4515-188;CONF:4515-189;CONF:4515-186;CONF:4515-190;CONF:4515-191;CONF:4515-32881;CONF:4515-32883;CONF:4515-32882;CONF:4515-32884;CONF:4515-32885;CONF:4515-187;CONF:4515-192;' },</v>
       </c>
       <c r="N225" t="str">
-        <f>"'"&amp;D225&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.501',</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>225</v>
       </c>
       <c r="B226" t="s">
@@ -16425,21 +16425,21 @@
         <v>553</v>
       </c>
       <c r="K226" t="str">
-        <f>B226&amp;" "&amp;D226&amp;" "&amp;J226</f>
+        <f t="shared" si="12"/>
         <v>Smoking Status - Meaningful Use  2.16.840.1.113883.10.20.22.4.78 CONF:1098-14806;CONF:1098-14807;CONF:1098-14815;CONF:1098-14816;CONF:1098-32573;CONF:1098-32401;CONF:1098-19170;CONF:1098-31039;CONF:1098-32157;CONF:1098-14809;CONF:1098-19116;CONF:1098-31928;CONF:1098-32894;CONF:1098-32895;CONF:1098-32896;CONF:1098-32897;CONF:1098-14810;CONF:1098-14817;CONF:1098-31019;CONF:1098-31148</v>
       </c>
       <c r="M226" t="str">
-        <f>"{ 'id': '"&amp;A226&amp;"', 'template_type': '"&amp;C226&amp;"', 'name': '"&amp;B226&amp;" ["&amp;D226&amp;"["&amp;G226&amp;"', 'name2': '"&amp;B226&amp;"', 'template': '"&amp;D226&amp;"', 'pageStart': '"&amp;E226&amp;"', 'pages': '"&amp;G226&amp;"', 'search': '"&amp;K226&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '225', 'template_type': 'Entry', 'name': 'Smoking Status - Meaningful Use  [2.16.840.1.113883.10.20.22.4.78[840-844', 'name2': 'Smoking Status - Meaningful Use ', 'template': '2.16.840.1.113883.10.20.22.4.78', 'pageStart': '840', 'pages': '840-844', 'search': 'Smoking Status - Meaningful Use  2.16.840.1.113883.10.20.22.4.78 CONF:1098-14806;CONF:1098-14807;CONF:1098-14815;CONF:1098-14816;CONF:1098-32573;CONF:1098-32401;CONF:1098-19170;CONF:1098-31039;CONF:1098-32157;CONF:1098-14809;CONF:1098-19116;CONF:1098-31928;CONF:1098-32894;CONF:1098-32895;CONF:1098-32896;CONF:1098-32897;CONF:1098-14810;CONF:1098-14817;CONF:1098-31019;CONF:1098-31148' },</v>
       </c>
       <c r="N226" t="str">
-        <f>"'"&amp;D226&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.78',</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>226</v>
       </c>
       <c r="B227" t="s">
@@ -16471,21 +16471,21 @@
         <v>554</v>
       </c>
       <c r="K227" t="str">
-        <f>B227&amp;" "&amp;D227&amp;" "&amp;J227</f>
+        <f t="shared" si="12"/>
         <v>Social History Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.38 CONF:1198-8548;CONF:1198-8549;CONF:1198-8550;CONF:1198-10526;CONF:1198-32495;CONF:1198-8551;CONF:1198-8558;CONF:1198-32951;CONF:1198-8553;CONF:1198-19117;CONF:1198-31868;CONF:1198-8559;CONF:1198-8555;CONF:1198-31869</v>
       </c>
       <c r="M227" t="str">
-        <f>"{ 'id': '"&amp;A227&amp;"', 'template_type': '"&amp;C227&amp;"', 'name': '"&amp;B227&amp;" ["&amp;D227&amp;"["&amp;G227&amp;"', 'name2': '"&amp;B227&amp;"', 'template': '"&amp;D227&amp;"', 'pageStart': '"&amp;E227&amp;"', 'pages': '"&amp;G227&amp;"', 'search': '"&amp;K227&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '226', 'template_type': 'Entry', 'name': 'Social History Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.38[CG_A_216-222', 'name2': 'Social History Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.38', 'pageStart': '1216', 'pages': 'CG_A_216-222', 'search': 'Social History Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.38 CONF:1198-8548;CONF:1198-8549;CONF:1198-8550;CONF:1198-10526;CONF:1198-32495;CONF:1198-8551;CONF:1198-8558;CONF:1198-32951;CONF:1198-8553;CONF:1198-19117;CONF:1198-31868;CONF:1198-8559;CONF:1198-8555;CONF:1198-31869' },</v>
       </c>
       <c r="N227" t="str">
-        <f>"'"&amp;D227&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.38',</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>227</v>
       </c>
       <c r="B228" t="s">
@@ -16514,21 +16514,21 @@
         <v>555</v>
       </c>
       <c r="K228" t="str">
-        <f>B228&amp;" "&amp;D228&amp;" "&amp;J228</f>
+        <f t="shared" si="12"/>
         <v>SOP Instance Observation 2.16.840.1.113883.10.20.6.2.8 CONF:81-9240;CONF:81-9241;CONF:81-9242;CONF:81-9244;CONF:81-19225;CONF:81-19226;CONF:81-19227;CONF:81-9246;CONF:81-9247;CONF:81-9248;CONF:81-9249;CONF:81-9250;CONF:81-9251;CONF:81-9252;CONF:81-9253;CONF:81-9254;CONF:81-9255;CONF:81-9257;CONF:81-9258;CONF:81-15935;CONF:81-9260;CONF:81-9261;CONF:81-15936;CONF:81-9263</v>
       </c>
       <c r="M228" t="str">
-        <f>"{ 'id': '"&amp;A228&amp;"', 'template_type': '"&amp;C228&amp;"', 'name': '"&amp;B228&amp;" ["&amp;D228&amp;"["&amp;G228&amp;"', 'name2': '"&amp;B228&amp;"', 'template': '"&amp;D228&amp;"', 'pageStart': '"&amp;E228&amp;"', 'pages': '"&amp;G228&amp;"', 'search': '"&amp;K228&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '227', 'template_type': 'Entry', 'name': 'SOP Instance Observation [2.16.840.1.113883.10.20.6.2.8[848-851', 'name2': 'SOP Instance Observation', 'template': '2.16.840.1.113883.10.20.6.2.8', 'pageStart': '848', 'pages': '848-851', 'search': 'SOP Instance Observation 2.16.840.1.113883.10.20.6.2.8 CONF:81-9240;CONF:81-9241;CONF:81-9242;CONF:81-9244;CONF:81-19225;CONF:81-19226;CONF:81-19227;CONF:81-9246;CONF:81-9247;CONF:81-9248;CONF:81-9249;CONF:81-9250;CONF:81-9251;CONF:81-9252;CONF:81-9253;CONF:81-9254;CONF:81-9255;CONF:81-9257;CONF:81-9258;CONF:81-15935;CONF:81-9260;CONF:81-9261;CONF:81-15936;CONF:81-9263' },</v>
       </c>
       <c r="N228" t="str">
-        <f>"'"&amp;D228&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.6.2.8',</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>228</v>
       </c>
       <c r="B229" t="s">
@@ -16557,21 +16557,21 @@
         <v>556</v>
       </c>
       <c r="K229" t="str">
-        <f>B229&amp;" "&amp;D229&amp;" "&amp;J229</f>
+        <f t="shared" si="12"/>
         <v>Study Act 2.16.840.1.113883.10.20.6.2.6 CONF:81-9207;CONF:81-9208;CONF:81-9209;CONF:81-10533;CONF:81-9210;CONF:81-9213;CONF:81-9211;CONF:81-19172;CONF:81-19173;CONF:81-26506;CONF:81-9215;CONF:81-15995;CONF:81-15996;CONF:81-15997;CONF:81-9216;CONF:81-9219;CONF:81-9220;CONF:81-15937</v>
       </c>
       <c r="M229" t="str">
-        <f>"{ 'id': '"&amp;A229&amp;"', 'template_type': '"&amp;C229&amp;"', 'name': '"&amp;B229&amp;" ["&amp;D229&amp;"["&amp;G229&amp;"', 'name2': '"&amp;B229&amp;"', 'template': '"&amp;D229&amp;"', 'pageStart': '"&amp;E229&amp;"', 'pages': '"&amp;G229&amp;"', 'search': '"&amp;K229&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '228', 'template_type': 'Entry', 'name': 'Study Act [2.16.840.1.113883.10.20.6.2.6[851-853', 'name2': 'Study Act', 'template': '2.16.840.1.113883.10.20.6.2.6', 'pageStart': '851', 'pages': '851-853', 'search': 'Study Act 2.16.840.1.113883.10.20.6.2.6 CONF:81-9207;CONF:81-9208;CONF:81-9209;CONF:81-10533;CONF:81-9210;CONF:81-9213;CONF:81-9211;CONF:81-19172;CONF:81-19173;CONF:81-26506;CONF:81-9215;CONF:81-15995;CONF:81-15996;CONF:81-15997;CONF:81-9216;CONF:81-9219;CONF:81-9220;CONF:81-15937' },</v>
       </c>
       <c r="N229" t="str">
-        <f>"'"&amp;D229&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.6.2.6',</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>229</v>
       </c>
       <c r="B230" t="s">
@@ -16600,21 +16600,21 @@
         <v>557</v>
       </c>
       <c r="K230" t="str">
-        <f>B230&amp;" "&amp;D230&amp;" "&amp;J230</f>
+        <f t="shared" si="12"/>
         <v>Substance Administered Act 2.16.840.1.113883.10.20.22.4.118 CONF:1098-31500;CONF:1098-31501;CONF:1098-31502;CONF:1098-31503;CONF:1098-31504;CONF:1098-31506;CONF:1098-31507;CONF:1098-31508;CONF:1098-31505;CONF:1098-31509</v>
       </c>
       <c r="M230" t="str">
-        <f>"{ 'id': '"&amp;A230&amp;"', 'template_type': '"&amp;C230&amp;"', 'name': '"&amp;B230&amp;" ["&amp;D230&amp;"["&amp;G230&amp;"', 'name2': '"&amp;B230&amp;"', 'template': '"&amp;D230&amp;"', 'pageStart': '"&amp;E230&amp;"', 'pages': '"&amp;G230&amp;"', 'search': '"&amp;K230&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '229', 'template_type': 'Entry', 'name': 'Substance Administered Act [2.16.840.1.113883.10.20.22.4.118[853-855', 'name2': 'Substance Administered Act', 'template': '2.16.840.1.113883.10.20.22.4.118', 'pageStart': '853', 'pages': '853-855', 'search': 'Substance Administered Act 2.16.840.1.113883.10.20.22.4.118 CONF:1098-31500;CONF:1098-31501;CONF:1098-31502;CONF:1098-31503;CONF:1098-31504;CONF:1098-31506;CONF:1098-31507;CONF:1098-31508;CONF:1098-31505;CONF:1098-31509' },</v>
       </c>
       <c r="N230" t="str">
-        <f>"'"&amp;D230&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.118',</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>230</v>
       </c>
       <c r="B231" t="s">
@@ -16643,21 +16643,21 @@
         <v>558</v>
       </c>
       <c r="K231" t="str">
-        <f>B231&amp;" "&amp;D231&amp;" "&amp;J231</f>
+        <f t="shared" si="12"/>
         <v>Substance or Device Allergy - Intolerance Observation   2.16.840.1.113883.10.20.24.3.90 CONF:1098-16303;CONF:1098-16304;CONF:1098-16305;CONF:1098-16306;CONF:1098-32527;CONF:1098-16307;CONF:1098-16345;CONF:1098-16346;CONF:1098-32171;CONF:1098-16308;CONF:1098-26354;CONF:1098-16309;CONF:1098-31536;CONF:1098-31537;CONF:1098-16312;CONF:1098-16317;CONF:1098-31144;CONF:1098-16318;CONF:1098-16319;CONF:1098-16320;CONF:1098-16321;CONF:1098-16322;CONF:1098-16323;CONF:1098-16324;CONF:1098-16333;CONF:1098-16335;CONF:1098-16334;CONF:1098-16336;CONF:1098-16337;CONF:1098-16339;CONF:1098-16338;CONF:1098-16340;CONF:1098-16341;CONF:1098-16342;CONF:1098-16343;CONF:1098-16344;CONF:1098-32935;CONF:1098-32936;CONF:1098-32937;CONF:1098-32938</v>
       </c>
       <c r="M231" t="str">
-        <f>"{ 'id': '"&amp;A231&amp;"', 'template_type': '"&amp;C231&amp;"', 'name': '"&amp;B231&amp;" ["&amp;D231&amp;"["&amp;G231&amp;"', 'name2': '"&amp;B231&amp;"', 'template': '"&amp;D231&amp;"', 'pageStart': '"&amp;E231&amp;"', 'pages': '"&amp;G231&amp;"', 'search': '"&amp;K231&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '230', 'template_type': 'Entry', 'name': 'Substance or Device Allergy - Intolerance Observation   [2.16.840.1.113883.10.20.24.3.90[855-862', 'name2': 'Substance or Device Allergy - Intolerance Observation  ', 'template': '2.16.840.1.113883.10.20.24.3.90', 'pageStart': '855', 'pages': '855-862', 'search': 'Substance or Device Allergy - Intolerance Observation   2.16.840.1.113883.10.20.24.3.90 CONF:1098-16303;CONF:1098-16304;CONF:1098-16305;CONF:1098-16306;CONF:1098-32527;CONF:1098-16307;CONF:1098-16345;CONF:1098-16346;CONF:1098-32171;CONF:1098-16308;CONF:1098-26354;CONF:1098-16309;CONF:1098-31536;CONF:1098-31537;CONF:1098-16312;CONF:1098-16317;CONF:1098-31144;CONF:1098-16318;CONF:1098-16319;CONF:1098-16320;CONF:1098-16321;CONF:1098-16322;CONF:1098-16323;CONF:1098-16324;CONF:1098-16333;CONF:1098-16335;CONF:1098-16334;CONF:1098-16336;CONF:1098-16337;CONF:1098-16339;CONF:1098-16338;CONF:1098-16340;CONF:1098-16341;CONF:1098-16342;CONF:1098-16343;CONF:1098-16344;CONF:1098-32935;CONF:1098-32936;CONF:1098-32937;CONF:1098-32938' },</v>
       </c>
       <c r="N231" t="str">
-        <f>"'"&amp;D231&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.24.3.90',</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>231</v>
       </c>
       <c r="B232" t="s">
@@ -16686,21 +16686,21 @@
         <v>559</v>
       </c>
       <c r="K232" t="str">
-        <f>B232&amp;" "&amp;D232&amp;" "&amp;J232</f>
+        <f t="shared" si="12"/>
         <v>Text Observation 2.16.840.1.113883.10.20.6.2.12 CONF:81-9288;CONF:81-9289;CONF:81-9290;CONF:81-10534;CONF:81-9291;CONF:81-9295;CONF:81-15938;CONF:81-15939;CONF:81-15940;CONF:81-9294;CONF:81-9292;CONF:81-9298;CONF:81-9299;CONF:81-15941;CONF:81-9301;CONF:81-9302;CONF:81-15942</v>
       </c>
       <c r="M232" t="str">
-        <f>"{ 'id': '"&amp;A232&amp;"', 'template_type': '"&amp;C232&amp;"', 'name': '"&amp;B232&amp;" ["&amp;D232&amp;"["&amp;G232&amp;"', 'name2': '"&amp;B232&amp;"', 'template': '"&amp;D232&amp;"', 'pageStart': '"&amp;E232&amp;"', 'pages': '"&amp;G232&amp;"', 'search': '"&amp;K232&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '231', 'template_type': 'Entry', 'name': 'Text Observation [2.16.840.1.113883.10.20.6.2.12[868-871', 'name2': 'Text Observation', 'template': '2.16.840.1.113883.10.20.6.2.12', 'pageStart': '868', 'pages': '868-871', 'search': 'Text Observation 2.16.840.1.113883.10.20.6.2.12 CONF:81-9288;CONF:81-9289;CONF:81-9290;CONF:81-10534;CONF:81-9291;CONF:81-9295;CONF:81-15938;CONF:81-15939;CONF:81-15940;CONF:81-9294;CONF:81-9292;CONF:81-9298;CONF:81-9299;CONF:81-15941;CONF:81-9301;CONF:81-9302;CONF:81-15942' },</v>
       </c>
       <c r="N232" t="str">
-        <f>"'"&amp;D232&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.6.2.12',</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>232</v>
       </c>
       <c r="B233" t="s">
@@ -16729,21 +16729,21 @@
         <v>560</v>
       </c>
       <c r="K233" t="str">
-        <f>B233&amp;" "&amp;D233&amp;" "&amp;J233</f>
+        <f t="shared" si="12"/>
         <v>Tobacco Use  2.16.840.1.113883.10.20.22.4.85 CONF:1098-16558;CONF:1098-16559;CONF:1098-16566;CONF:1098-16567;CONF:1098-32589;CONF:1098-32400;CONF:1098-19174;CONF:1098-19175;CONF:1098-32172;CONF:1098-16561;CONF:1098-19118;CONF:1098-16564;CONF:1098-16565;CONF:1098-31431;CONF:1098-16562;CONF:1098-31152</v>
       </c>
       <c r="M233" t="str">
-        <f>"{ 'id': '"&amp;A233&amp;"', 'template_type': '"&amp;C233&amp;"', 'name': '"&amp;B233&amp;" ["&amp;D233&amp;"["&amp;G233&amp;"', 'name2': '"&amp;B233&amp;"', 'template': '"&amp;D233&amp;"', 'pageStart': '"&amp;E233&amp;"', 'pages': '"&amp;G233&amp;"', 'search': '"&amp;K233&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '232', 'template_type': 'Entry', 'name': 'Tobacco Use  [2.16.840.1.113883.10.20.22.4.85[871-875', 'name2': 'Tobacco Use ', 'template': '2.16.840.1.113883.10.20.22.4.85', 'pageStart': '871', 'pages': '871-875', 'search': 'Tobacco Use  2.16.840.1.113883.10.20.22.4.85 CONF:1098-16558;CONF:1098-16559;CONF:1098-16566;CONF:1098-16567;CONF:1098-32589;CONF:1098-32400;CONF:1098-19174;CONF:1098-19175;CONF:1098-32172;CONF:1098-16561;CONF:1098-19118;CONF:1098-16564;CONF:1098-16565;CONF:1098-31431;CONF:1098-16562;CONF:1098-31152' },</v>
       </c>
       <c r="N233" t="str">
-        <f>"'"&amp;D233&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.85',</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>233</v>
       </c>
       <c r="B234" t="s">
@@ -16766,24 +16766,24 @@
         <v>CG_A_235-239</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="K234" t="str">
-        <f>B234&amp;" "&amp;D234&amp;" "&amp;J234</f>
+        <f t="shared" si="12"/>
         <v>Tribal Affiliation Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.506 CONF:4537-2;CONF:4537-3;CONF:4537-1;CONF:4537-4;CONF:4537-5;CONF:4537-6;CONF:4537-7;CONF:4537-8;CONF:4537-9;CONF:4537-10;CONF:4537-11;CONF:4537-33048;CONF:4537-33049;CONF:4537-33050;CONF:4537-33051;CONF:4537-12;CONF:4537-33060;CONF:4537-33062;CONF:4537-33063;</v>
       </c>
       <c r="M234" t="str">
-        <f>"{ 'id': '"&amp;A234&amp;"', 'template_type': '"&amp;C234&amp;"', 'name': '"&amp;B234&amp;" ["&amp;D234&amp;"["&amp;G234&amp;"', 'name2': '"&amp;B234&amp;"', 'template': '"&amp;D234&amp;"', 'pageStart': '"&amp;E234&amp;"', 'pages': '"&amp;G234&amp;"', 'search': '"&amp;K234&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '233', 'template_type': 'Entry', 'name': 'Tribal Affiliation Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.506[CG_A_235-239', 'name2': 'Tribal Affiliation Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.506', 'pageStart': '1235', 'pages': 'CG_A_235-239', 'search': 'Tribal Affiliation Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.506 CONF:4537-2;CONF:4537-3;CONF:4537-1;CONF:4537-4;CONF:4537-5;CONF:4537-6;CONF:4537-7;CONF:4537-8;CONF:4537-9;CONF:4537-10;CONF:4537-11;CONF:4537-33048;CONF:4537-33049;CONF:4537-33050;CONF:4537-33051;CONF:4537-12;CONF:4537-33060;CONF:4537-33062;CONF:4537-33063;' },</v>
       </c>
       <c r="N234" t="str">
-        <f>"'"&amp;D234&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.506',</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>234</v>
       </c>
       <c r="B235" t="s">
@@ -16809,21 +16809,21 @@
         <v>1424</v>
       </c>
       <c r="K235" t="str">
-        <f>B235&amp;" "&amp;D235&amp;" "&amp;J235</f>
+        <f t="shared" si="12"/>
         <v>UDI Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.311 CONF:4437-3482;CONF:4437-3483;CONF:4437-3480;CONF:4437-3484;CONF:4437-3485;CONF:4437-3541;CONF:4437-3542;CONF:4437-3481;CONF:4437-3486;CONF:4437-3487;CONF:4437-3490;CONF:4437-3543;CONF:4437-3488;CONF:4437-3489;CONF:4437-3513;CONF:4437-3514;CONF:4437-3515;CONF:4437-3516;CONF:4437-3517;CONF:4437-3518;CONF:4437-3525;CONF:4437-3526;CONF:4437-3523;CONF:4437-3524;CONF:4437-3521;CONF:4437-3522;CONF:4437-3519;CONF:4437-3520;CONF:4437-3535;CONF:4437-3536;CONF:4437-3527;CONF:4437-3528;CONF:4437-3529;CONF:4437-3530;CONF:4437-3533;CONF:4437-3534;CONF:4437-3531;CONF:4437-3532;</v>
       </c>
       <c r="M235" t="str">
-        <f>"{ 'id': '"&amp;A235&amp;"', 'template_type': '"&amp;C235&amp;"', 'name': '"&amp;B235&amp;" ["&amp;D235&amp;"["&amp;G235&amp;"', 'name2': '"&amp;B235&amp;"', 'template': '"&amp;D235&amp;"', 'pageStart': '"&amp;E235&amp;"', 'pages': '"&amp;G235&amp;"', 'search': '"&amp;K235&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '234', 'template_type': 'Entry', 'name': 'UDI Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.311[CG_B_6-16', 'name2': 'UDI Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.311', 'pageStart': '2006', 'pages': 'CG_B_6-16', 'search': 'UDI Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.311 CONF:4437-3482;CONF:4437-3483;CONF:4437-3480;CONF:4437-3484;CONF:4437-3485;CONF:4437-3541;CONF:4437-3542;CONF:4437-3481;CONF:4437-3486;CONF:4437-3487;CONF:4437-3490;CONF:4437-3543;CONF:4437-3488;CONF:4437-3489;CONF:4437-3513;CONF:4437-3514;CONF:4437-3515;CONF:4437-3516;CONF:4437-3517;CONF:4437-3518;CONF:4437-3525;CONF:4437-3526;CONF:4437-3523;CONF:4437-3524;CONF:4437-3521;CONF:4437-3522;CONF:4437-3519;CONF:4437-3520;CONF:4437-3535;CONF:4437-3536;CONF:4437-3527;CONF:4437-3528;CONF:4437-3529;CONF:4437-3530;CONF:4437-3533;CONF:4437-3534;CONF:4437-3531;CONF:4437-3532;' },</v>
       </c>
       <c r="N235" t="str">
-        <f>"'"&amp;D235&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.311',</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>235</v>
       </c>
       <c r="B236" t="s">
@@ -16852,21 +16852,21 @@
         <v>561</v>
       </c>
       <c r="K236" t="str">
-        <f>B236&amp;" "&amp;D236&amp;" "&amp;J236</f>
+        <f t="shared" si="12"/>
         <v>Vital Sign Observation  2.16.840.1.113883.10.20.22.4.27 CONF:1098-7297;CONF:1098-7298;CONF:1098-7299;CONF:1098-10527;CONF:1098-32574;CONF:1098-7300;CONF:1098-7301;CONF:1098-32934;CONF:1098-7303;CONF:1098-19119;CONF:1098-7304;CONF:1098-7305;CONF:1098-31579;CONF:1098-7307;CONF:1098-32886;CONF:1098-7308;CONF:1098-7309;CONF:1098-7310</v>
       </c>
       <c r="M236" t="str">
-        <f>"{ 'id': '"&amp;A236&amp;"', 'template_type': '"&amp;C236&amp;"', 'name': '"&amp;B236&amp;" ["&amp;D236&amp;"["&amp;G236&amp;"', 'name2': '"&amp;B236&amp;"', 'template': '"&amp;D236&amp;"', 'pageStart': '"&amp;E236&amp;"', 'pages': '"&amp;G236&amp;"', 'search': '"&amp;K236&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '235', 'template_type': 'Entry', 'name': 'Vital Sign Observation  [2.16.840.1.113883.10.20.22.4.27[875-879', 'name2': 'Vital Sign Observation ', 'template': '2.16.840.1.113883.10.20.22.4.27', 'pageStart': '875', 'pages': '875-879', 'search': 'Vital Sign Observation  2.16.840.1.113883.10.20.22.4.27 CONF:1098-7297;CONF:1098-7298;CONF:1098-7299;CONF:1098-10527;CONF:1098-32574;CONF:1098-7300;CONF:1098-7301;CONF:1098-32934;CONF:1098-7303;CONF:1098-19119;CONF:1098-7304;CONF:1098-7305;CONF:1098-31579;CONF:1098-7307;CONF:1098-32886;CONF:1098-7308;CONF:1098-7309;CONF:1098-7310' },</v>
       </c>
       <c r="N236" t="str">
-        <f>"'"&amp;D236&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.27',</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>236</v>
       </c>
       <c r="B237" t="s">
@@ -16895,21 +16895,21 @@
         <v>562</v>
       </c>
       <c r="K237" t="str">
-        <f>B237&amp;" "&amp;D237&amp;" "&amp;J237</f>
+        <f t="shared" si="12"/>
         <v>Vital Signs Organizer  2.16.840.1.113883.10.20.22.4.26 CONF:1198-7279;CONF:1198-7280;CONF:1198-7281;CONF:1198-10528;CONF:1198-32582;CONF:1198-7282;CONF:1198-32740;CONF:1198-32741;CONF:1198-32742;CONF:1198-32743;CONF:1198-32744;CONF:1198-32746;CONF:1198-7284;CONF:1198-19120;CONF:1198-7288;CONF:1198-31153;CONF:1198-7285;CONF:1198-15946</v>
       </c>
       <c r="M237" t="str">
-        <f>"{ 'id': '"&amp;A237&amp;"', 'template_type': '"&amp;C237&amp;"', 'name': '"&amp;B237&amp;" ["&amp;D237&amp;"["&amp;G237&amp;"', 'name2': '"&amp;B237&amp;"', 'template': '"&amp;D237&amp;"', 'pageStart': '"&amp;E237&amp;"', 'pages': '"&amp;G237&amp;"', 'search': '"&amp;K237&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '236', 'template_type': 'Entry', 'name': 'Vital Signs Organizer  [2.16.840.1.113883.10.20.22.4.26[879-883', 'name2': 'Vital Signs Organizer ', 'template': '2.16.840.1.113883.10.20.22.4.26', 'pageStart': '879', 'pages': '879-883', 'search': 'Vital Signs Organizer  2.16.840.1.113883.10.20.22.4.26 CONF:1198-7279;CONF:1198-7280;CONF:1198-7281;CONF:1198-10528;CONF:1198-32582;CONF:1198-7282;CONF:1198-32740;CONF:1198-32741;CONF:1198-32742;CONF:1198-32743;CONF:1198-32744;CONF:1198-32746;CONF:1198-7284;CONF:1198-19120;CONF:1198-7288;CONF:1198-31153;CONF:1198-7285;CONF:1198-15946' },</v>
       </c>
       <c r="N237" t="str">
-        <f>"'"&amp;D237&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.26',</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>237</v>
       </c>
       <c r="B238" t="s">
@@ -16938,21 +16938,21 @@
         <v>563</v>
       </c>
       <c r="K238" t="str">
-        <f>B238&amp;" "&amp;D238&amp;" "&amp;J238</f>
+        <f t="shared" si="12"/>
         <v>Wound Characteristic 2.16.840.1.113883.10.20.22.4.134 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947</v>
       </c>
       <c r="M238" t="str">
-        <f>"{ 'id': '"&amp;A238&amp;"', 'template_type': '"&amp;C238&amp;"', 'name': '"&amp;B238&amp;" ["&amp;D238&amp;"["&amp;G238&amp;"', 'name2': '"&amp;B238&amp;"', 'template': '"&amp;D238&amp;"', 'pageStart': '"&amp;E238&amp;"', 'pages': '"&amp;G238&amp;"', 'search': '"&amp;K238&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '237', 'template_type': 'Entry', 'name': 'Wound Characteristic [2.16.840.1.113883.10.20.22.4.134[883-885', 'name2': 'Wound Characteristic', 'template': '2.16.840.1.113883.10.20.22.4.134', 'pageStart': '883', 'pages': '883-885', 'search': 'Wound Characteristic 2.16.840.1.113883.10.20.22.4.134 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
       </c>
       <c r="N238" t="str">
-        <f>"'"&amp;D238&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.134',</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>238</v>
       </c>
       <c r="B239" t="s">
@@ -16981,21 +16981,21 @@
         <v>563</v>
       </c>
       <c r="K239" t="str">
-        <f>B239&amp;" "&amp;D239&amp;" "&amp;J239</f>
+        <f t="shared" si="12"/>
         <v>Wound Measurement Observation 2.16.840.1.113883.10.20.22.4.133 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947</v>
       </c>
       <c r="M239" t="str">
-        <f>"{ 'id': '"&amp;A239&amp;"', 'template_type': '"&amp;C239&amp;"', 'name': '"&amp;B239&amp;" ["&amp;D239&amp;"["&amp;G239&amp;"', 'name2': '"&amp;B239&amp;"', 'template': '"&amp;D239&amp;"', 'pageStart': '"&amp;E239&amp;"', 'pages': '"&amp;G239&amp;"', 'search': '"&amp;K239&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '238', 'template_type': 'Entry', 'name': 'Wound Measurement Observation [2.16.840.1.113883.10.20.22.4.133[885-888', 'name2': 'Wound Measurement Observation', 'template': '2.16.840.1.113883.10.20.22.4.133', 'pageStart': '885', 'pages': '885-888', 'search': 'Wound Measurement Observation 2.16.840.1.113883.10.20.22.4.133 CONF:1098-29938;CONF:1098-29939;CONF:1098-29940;CONF:1098-29941;CONF:1098-29942;CONF:1098-29943;CONF:1098-31540;CONF:1098-31541;CONF:1098-29944;CONF:1098-29946;CONF:1098-29947' },</v>
       </c>
       <c r="N239" t="str">
-        <f>"'"&amp;D239&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.133',</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>239</v>
       </c>
       <c r="B240" t="s">
@@ -17024,21 +17024,21 @@
         <v>643</v>
       </c>
       <c r="K240" t="str">
-        <f>B240&amp;" "&amp;D240&amp;" "&amp;J240</f>
+        <f t="shared" si="12"/>
         <v>Author Participation 2.16.840.1.113883.10.20.22.4.119 CONF:1098-32017;CONF:1098-32018;CONF:1098-31471;CONF:1098-31472;CONF:1098-31473;CONF:1098-32628;CONF:1098-31671;CONF:1098-32315;CONF:1098-31474;CONF:1098-31475;CONF:1098-31476;CONF:1098-31478;CONF:1098-31479;CONF:1098-31480;CONF:1098-31481</v>
       </c>
       <c r="M240" t="str">
-        <f>"{ 'id': '"&amp;A240&amp;"', 'template_type': '"&amp;C240&amp;"', 'name': '"&amp;B240&amp;" ["&amp;D240&amp;"["&amp;G240&amp;"', 'name2': '"&amp;B240&amp;"', 'template': '"&amp;D240&amp;"', 'pageStart': '"&amp;E240&amp;"', 'pages': '"&amp;G240&amp;"', 'search': '"&amp;K240&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '239', 'template_type': 'Other', 'name': 'Author Participation [2.16.840.1.113883.10.20.22.4.119[888-892', 'name2': 'Author Participation', 'template': '2.16.840.1.113883.10.20.22.4.119', 'pageStart': '888', 'pages': '888-892', 'search': 'Author Participation 2.16.840.1.113883.10.20.22.4.119 CONF:1098-32017;CONF:1098-32018;CONF:1098-31471;CONF:1098-31472;CONF:1098-31473;CONF:1098-32628;CONF:1098-31671;CONF:1098-32315;CONF:1098-31474;CONF:1098-31475;CONF:1098-31476;CONF:1098-31478;CONF:1098-31479;CONF:1098-31480;CONF:1098-31481' },</v>
       </c>
       <c r="N240" t="str">
-        <f>"'"&amp;D240&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.4.119',</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>240</v>
       </c>
       <c r="B241" t="s">
@@ -17067,21 +17067,21 @@
         <v>644</v>
       </c>
       <c r="K241" t="str">
-        <f>B241&amp;" "&amp;D241&amp;" "&amp;J241</f>
+        <f t="shared" si="12"/>
         <v>Physician of Record Participant   2.16.840.1.113883.10.20.6.2.2 CONF:1098-8881;CONF:1098-16072;CONF:1098-16073;CONF:1098-32586;CONF:1098-8886;CONF:1098-8887;CONF:1098-31203;CONF:1098-8888;CONF:1098-8889;CONF:1098-30928;CONF:1098-30929;CONF:1098-16074;CONF:1098-16075</v>
       </c>
       <c r="M241" t="str">
-        <f>"{ 'id': '"&amp;A241&amp;"', 'template_type': '"&amp;C241&amp;"', 'name': '"&amp;B241&amp;" ["&amp;D241&amp;"["&amp;G241&amp;"', 'name2': '"&amp;B241&amp;"', 'template': '"&amp;D241&amp;"', 'pageStart': '"&amp;E241&amp;"', 'pages': '"&amp;G241&amp;"', 'search': '"&amp;K241&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '240', 'template_type': 'Other', 'name': 'Physician of Record Participant   [2.16.840.1.113883.10.20.6.2.2[892-894', 'name2': 'Physician of Record Participant  ', 'template': '2.16.840.1.113883.10.20.6.2.2', 'pageStart': '892', 'pages': '892-894', 'search': 'Physician of Record Participant   2.16.840.1.113883.10.20.6.2.2 CONF:1098-8881;CONF:1098-16072;CONF:1098-16073;CONF:1098-32586;CONF:1098-8886;CONF:1098-8887;CONF:1098-31203;CONF:1098-8888;CONF:1098-8889;CONF:1098-30928;CONF:1098-30929;CONF:1098-16074;CONF:1098-16075' },</v>
       </c>
       <c r="N241" t="str">
-        <f>"'"&amp;D241&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.6.2.2',</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>241</v>
       </c>
       <c r="B242" t="s">
@@ -17110,21 +17110,21 @@
         <v>645</v>
       </c>
       <c r="K242" t="str">
-        <f>B242&amp;" "&amp;D242&amp;" "&amp;J242</f>
+        <f t="shared" si="12"/>
         <v>Physician Reading Study Performer   2.16.840.1.113883.10.20.6.2.1 CONF:1098-8424;CONF:1098-30773;CONF:1098-30774;CONF:1098-32564;CONF:1098-8425;CONF:1098-8426;CONF:1098-10033;CONF:1098-8427;CONF:1098-8428;CONF:1098-8429;CONF:1098-32135</v>
       </c>
       <c r="M242" t="str">
-        <f>"{ 'id': '"&amp;A242&amp;"', 'template_type': '"&amp;C242&amp;"', 'name': '"&amp;B242&amp;" ["&amp;D242&amp;"["&amp;G242&amp;"', 'name2': '"&amp;B242&amp;"', 'template': '"&amp;D242&amp;"', 'pageStart': '"&amp;E242&amp;"', 'pages': '"&amp;G242&amp;"', 'search': '"&amp;K242&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '241', 'template_type': 'Other', 'name': 'Physician Reading Study Performer   [2.16.840.1.113883.10.20.6.2.1[894-896', 'name2': 'Physician Reading Study Performer  ', 'template': '2.16.840.1.113883.10.20.6.2.1', 'pageStart': '894', 'pages': '894-896', 'search': 'Physician Reading Study Performer   2.16.840.1.113883.10.20.6.2.1 CONF:1098-8424;CONF:1098-30773;CONF:1098-30774;CONF:1098-32564;CONF:1098-8425;CONF:1098-8426;CONF:1098-10033;CONF:1098-8427;CONF:1098-8428;CONF:1098-8429;CONF:1098-32135' },</v>
       </c>
       <c r="N242" t="str">
-        <f>"'"&amp;D242&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.6.2.1',</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>242</v>
       </c>
       <c r="B243" t="s">
@@ -17147,24 +17147,24 @@
         <v>CG_A_239-241</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="K243" t="str">
-        <f>B243&amp;" "&amp;D243&amp;" "&amp;J243</f>
+        <f t="shared" si="12"/>
         <v>Provenance - Assembler Participation (Companion Guide) 2.16.840.1.113883.10.20.22.5.7 CONF:4537-55;CONF:4537-40;CONF:4537-44;CONF:4537-33025;CONF:4537-38;CONF:4537-32972;CONF:4537-41;CONF:4537-42;CONF:4537-39;CONF:4537-32973;CONF:4537-43;CONF:4537-50;CONF:4537-51;CONF:4537-52;CONF:4537-47;CONF:4537-12;CONF:4537-33060;CONF:4537-33062;CONF:4537-33063;</v>
       </c>
       <c r="M243" t="str">
-        <f>"{ 'id': '"&amp;A243&amp;"', 'template_type': '"&amp;C243&amp;"', 'name': '"&amp;B243&amp;" ["&amp;D243&amp;"["&amp;G243&amp;"', 'name2': '"&amp;B243&amp;"', 'template': '"&amp;D243&amp;"', 'pageStart': '"&amp;E243&amp;"', 'pages': '"&amp;G243&amp;"', 'search': '"&amp;K243&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '242', 'template_type': 'Other', 'name': 'Provenance - Assembler Participation (Companion Guide) [2.16.840.1.113883.10.20.22.5.7[CG_A_239-241', 'name2': 'Provenance - Assembler Participation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.5.7', 'pageStart': '1239', 'pages': 'CG_A_239-241', 'search': 'Provenance - Assembler Participation (Companion Guide) 2.16.840.1.113883.10.20.22.5.7 CONF:4537-55;CONF:4537-40;CONF:4537-44;CONF:4537-33025;CONF:4537-38;CONF:4537-32972;CONF:4537-41;CONF:4537-42;CONF:4537-39;CONF:4537-32973;CONF:4537-43;CONF:4537-50;CONF:4537-51;CONF:4537-52;CONF:4537-47;CONF:4537-12;CONF:4537-33060;CONF:4537-33062;CONF:4537-33063;' },</v>
       </c>
       <c r="N243" t="str">
-        <f>"'"&amp;D243&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.5.7',</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>243</v>
       </c>
       <c r="B244" t="s">
@@ -17190,21 +17190,21 @@
         <v>1287</v>
       </c>
       <c r="K244" t="str">
-        <f>B244&amp;" "&amp;D244&amp;" "&amp;J244</f>
+        <f t="shared" si="12"/>
         <v>Provenance - Author Participation (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;</v>
       </c>
       <c r="M244" t="str">
-        <f>"{ 'id': '"&amp;A244&amp;"', 'template_type': '"&amp;C244&amp;"', 'name': '"&amp;B244&amp;" ["&amp;D244&amp;"["&amp;G244&amp;"', 'name2': '"&amp;B244&amp;"', 'template': '"&amp;D244&amp;"', 'pageStart': '"&amp;E244&amp;"', 'pages': '"&amp;G244&amp;"', 'search': '"&amp;K244&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '243', 'template_type': 'Other', 'name': 'Provenance - Author Participation (Companion Guide) [2.16.840.1.113883.10.20.22.5.6[CG_A_241-246', 'name2': 'Provenance - Author Participation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.5.6', 'pageStart': '1241', 'pages': 'CG_A_241-246', 'search': 'Provenance - Author Participation (Companion Guide) 2.16.840.1.113883.10.20.22.5.6 CONF:4440-6;CONF:4440-15;CONF:4440-36;CONF:4440-7;CONF:4440-1;CONF:4440-2;CONF:4440-20;CONF:4440-21;CONF:4440-22;CONF:4440-23;CONF:4440-33;CONF:4440-34;CONF:4440-3;CONF:4440-9;CONF:4440-17;CONF:4440-18;CONF:4440-32;CONF:4440-4;CONF:4440-35;CONF:4440-10;CONF:4440-24;CONF:4440-25;CONF:4440-26;CONF:4440-27;CONF:4440-28;CONF:4440-29;CONF:4440-30;CONF:4440-31;CONF:4440-11;CONF:4440-12;' },</v>
       </c>
       <c r="N244" t="str">
-        <f>"'"&amp;D244&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.5.6',</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>244</v>
       </c>
       <c r="B245" t="s">
@@ -17214,7 +17214,7 @@
         <v>431</v>
       </c>
       <c r="D245" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E245">
         <v>1246</v>
@@ -17227,24 +17227,24 @@
         <v>CG_A_246-249</v>
       </c>
       <c r="J245" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="K245" t="str">
-        <f>B245&amp;" "&amp;D245&amp;" "&amp;J245</f>
+        <f t="shared" si="12"/>
         <v>Related Person Relationship and Name Participant (Companion Guide) 2.16.840.1.113883.10.20.22.5.8 CONF:4537-32982;CONF:4537-32977;CONF:4537-32983;CONF:4537-32984;CONF:4537-32978;CONF:4537-32985;CONF:4537-32979;CONF:4537-32986;CONF:4537-32980;CONF:4537-32987;</v>
       </c>
       <c r="M245" t="str">
-        <f>"{ 'id': '"&amp;A245&amp;"', 'template_type': '"&amp;C245&amp;"', 'name': '"&amp;B245&amp;" ["&amp;D245&amp;"["&amp;G245&amp;"', 'name2': '"&amp;B245&amp;"', 'template': '"&amp;D245&amp;"', 'pageStart': '"&amp;E245&amp;"', 'pages': '"&amp;G245&amp;"', 'search': '"&amp;K245&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '244', 'template_type': 'Other', 'name': 'Related Person Relationship and Name Participant (Companion Guide) [2.16.840.1.113883.10.20.22.5.8[CG_A_246-249', 'name2': 'Related Person Relationship and Name Participant (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.5.8', 'pageStart': '1246', 'pages': 'CG_A_246-249', 'search': 'Related Person Relationship and Name Participant (Companion Guide) 2.16.840.1.113883.10.20.22.5.8 CONF:4537-32982;CONF:4537-32977;CONF:4537-32983;CONF:4537-32984;CONF:4537-32978;CONF:4537-32985;CONF:4537-32979;CONF:4537-32986;CONF:4537-32980;CONF:4537-32987;' },</v>
       </c>
       <c r="N245" t="str">
-        <f>"'"&amp;D245&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.5.8',</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>245</v>
       </c>
       <c r="B246" t="s">
@@ -17273,21 +17273,21 @@
         <v>646</v>
       </c>
       <c r="K246" t="str">
-        <f>B246&amp;" "&amp;D246&amp;" "&amp;J246</f>
+        <f t="shared" si="12"/>
         <v>US Realm Address (AD.US.FIELDED)  2.16.840.1.113883.10.20.22.5.2 CONF:81-7290;CONF:81-7295;CONF:81-7293;CONF:81-10024;CONF:81-7292;CONF:81-7294;CONF:81-10025;CONF:81-7291;CONF:81-7296</v>
       </c>
       <c r="M246" t="str">
-        <f>"{ 'id': '"&amp;A246&amp;"', 'template_type': '"&amp;C246&amp;"', 'name': '"&amp;B246&amp;" ["&amp;D246&amp;"["&amp;G246&amp;"', 'name2': '"&amp;B246&amp;"', 'template': '"&amp;D246&amp;"', 'pageStart': '"&amp;E246&amp;"', 'pages': '"&amp;G246&amp;"', 'search': '"&amp;K246&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '245', 'template_type': 'Other', 'name': 'US Realm Address (AD.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.2[896-900', 'name2': 'US Realm Address (AD.US.FIELDED) ', 'template': '2.16.840.1.113883.10.20.22.5.2', 'pageStart': '896', 'pages': '896-900', 'search': 'US Realm Address (AD.US.FIELDED)  2.16.840.1.113883.10.20.22.5.2 CONF:81-7290;CONF:81-7295;CONF:81-7293;CONF:81-10024;CONF:81-7292;CONF:81-7294;CONF:81-10025;CONF:81-7291;CONF:81-7296' },</v>
       </c>
       <c r="N246" t="str">
-        <f>"'"&amp;D246&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.5.2',</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>246</v>
       </c>
       <c r="B247" t="s">
@@ -17316,21 +17316,21 @@
         <v>647</v>
       </c>
       <c r="K247" t="str">
-        <f>B247&amp;" "&amp;D247&amp;" "&amp;J247</f>
+        <f t="shared" si="12"/>
         <v>US Realm Date and Time (DT.US.FIELDED) 2.16.840.1.113883.10.20.22.5.3 CONF:81-10078;CONF:81-10079;CONF:81-10080;CONF:81-10081</v>
       </c>
       <c r="M247" t="str">
-        <f>"{ 'id': '"&amp;A247&amp;"', 'template_type': '"&amp;C247&amp;"', 'name': '"&amp;B247&amp;" ["&amp;D247&amp;"["&amp;G247&amp;"', 'name2': '"&amp;B247&amp;"', 'template': '"&amp;D247&amp;"', 'pageStart': '"&amp;E247&amp;"', 'pages': '"&amp;G247&amp;"', 'search': '"&amp;K247&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '246', 'template_type': 'Other', 'name': 'US Realm Date and Time (DT.US.FIELDED) [2.16.840.1.113883.10.20.22.5.3[900-900', 'name2': 'US Realm Date and Time (DT.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.3', 'pageStart': '900', 'pages': '900-900', 'search': 'US Realm Date and Time (DT.US.FIELDED) 2.16.840.1.113883.10.20.22.5.3 CONF:81-10078;CONF:81-10079;CONF:81-10080;CONF:81-10081' },</v>
       </c>
       <c r="N247" t="str">
-        <f>"'"&amp;D247&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.5.3',</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>247</v>
       </c>
       <c r="B248" t="s">
@@ -17359,21 +17359,21 @@
         <v>648</v>
       </c>
       <c r="K248" t="str">
-        <f>B248&amp;" "&amp;D248&amp;" "&amp;J248</f>
+        <f t="shared" si="12"/>
         <v>US Realm Date and Time (DTM.US.FIELDED) 2.16.840.1.113883.10.20.22.5.4 CONF:81-10127;CONF:81-10128;CONF:81-10129;CONF:81-10130</v>
       </c>
       <c r="M248" t="str">
-        <f>"{ 'id': '"&amp;A248&amp;"', 'template_type': '"&amp;C248&amp;"', 'name': '"&amp;B248&amp;" ["&amp;D248&amp;"["&amp;G248&amp;"', 'name2': '"&amp;B248&amp;"', 'template': '"&amp;D248&amp;"', 'pageStart': '"&amp;E248&amp;"', 'pages': '"&amp;G248&amp;"', 'search': '"&amp;K248&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '247', 'template_type': 'Other', 'name': 'US Realm Date and Time (DTM.US.FIELDED) [2.16.840.1.113883.10.20.22.5.4[900-901', 'name2': 'US Realm Date and Time (DTM.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.4', 'pageStart': '900', 'pages': '900-901', 'search': 'US Realm Date and Time (DTM.US.FIELDED) 2.16.840.1.113883.10.20.22.5.4 CONF:81-10127;CONF:81-10128;CONF:81-10129;CONF:81-10130' },</v>
       </c>
       <c r="N248" t="str">
-        <f>"'"&amp;D248&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.5.4',</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>248</v>
       </c>
       <c r="B249" t="s">
@@ -17404,21 +17404,21 @@
         <v>452</v>
       </c>
       <c r="K249" t="str">
-        <f>B249&amp;" "&amp;D249&amp;" "&amp;J249</f>
+        <f t="shared" si="12"/>
         <v>US Realm Header (Companion Guide) 2.16.840.1.113883.10.20.22.1.1 CONF:1198-16791;CONF:1198-5361;CONF:1198-5250;CONF:1198-5251;CONF:1198-5252;CONF:1198-10036;CONF:1198-32503;CONF:1198-5363;CONF:1198-9991;CONF:1198-5253;CONF:1198-9992;CONF:1198-32948;CONF:1198-5254;CONF:1198-5256;CONF:1198-5259;CONF:1198-5372;CONF:1198-5261;CONF:1198-6380;CONF:1198-5264;CONF:1198-6387;CONF:1198-5266;CONF:1198-5267;CONF:1198-5268;CONF:1198-5271;CONF:1198-5280;CONF:1198-5375;CONF:1198-5283;CONF:1198-5284;CONF:1198-6394;CONF:1198-5298;CONF:1198-5299;CONF:1198-5300;CONF:1198-32418;CONF:1198-5303;CONF:1198-5317;CONF:1198-5322;CONF:1198-7263;CONF:1198-31347;CONF:1198-5323;CONF:1198-32901;CONF:1198-5325;CONF:1198-5326;CONF:1198-5359;CONF:1198-5382;CONF:1198-7993;CONF:1198-5385;CONF:1198-5386;CONF:1198-5395;CONF:1198-5396;CONF:1198-5397;CONF:1198-5404;CONF:1198-5402;CONF:1198-5403;CONF:1198-5406;CONF:1198-5407;CONF:1198-5409;CONF:1198-9965;CONF:1198-5414;CONF:1198-5416;CONF:1198-5417;CONF:1198-16820;CONF:1198-5419;CONF:1198-5420;CONF:1198-7994;CONF:1198-5422;CONF:1198-5444;CONF:1198-5445;CONF:1198-5448;CONF:1198-5449;CONF:1198-32882;CONF:1198-32883;CONF:1198-32884;CONF:1198-32885;CONF:1198-16787;CONF:1198-16788;CONF:1198-5452;CONF:1198-5428;CONF:1198-7995;CONF:1198-5430;CONF:1198-16789;CONF:1198-16783;CONF:1198-16784;CONF:1198-16785;CONF:1198-16790;CONF:1198-5441;CONF:1198-5442;CONF:1198-5443;CONF:1198-16821;CONF:1198-32173;CONF:1198-5460;CONF:1198-5466;CONF:1198-7996;CONF:1198-5469;CONF:1198-5470;CONF:1198-8001;CONF:1198-8002;CONF:1198-9945;CONF:1198-9946;CONF:1198-32174;CONF:1198-8220;CONF:1198-8221;CONF:1198-8222;CONF:1198-31355;CONF:1198-31356;CONF:1198-5519;CONF:1198-5520;CONF:1198-5521;CONF:1198-5522;CONF:1198-16822;CONF:1198-5524;CONF:1198-5525;CONF:1198-7998;CONF:1198-5559;CONF:1198-5565;CONF:1198-5566;CONF:1198-32399;CONF:1198-5567;CONF:1198-5568;CONF:1198-5577;CONF:1198-5578;CONF:1198-5579;CONF:1198-5580;CONF:1198-5583;CONF:1198-5584;CONF:1198-30810;CONF:1198-5585;CONF:1198-5586;CONF:1198-16823;CONF:1198-17000;CONF:1198-5589;CONF:1198-5595;CONF:1198-7999;CONF:1198-5597;CONF:1198-5598;CONF:1198-5607;CONF:1198-5608;CONF:1198-5610;CONF:1198-5611;CONF:1198-30811;CONF:1198-5612;CONF:1198-5613;CONF:1198-16824;CONF:1198-16825;CONF:1198-16826;CONF:1198-5616;CONF:1198-5622;CONF:1198-8000;CONF:1198-5624;CONF:1198-5625;CONF:1198-10003;CONF:1198-10004;CONF:1198-10006;CONF:1198-10007;CONF:1198-9952;CONF:1198-9953;CONF:1198-9954;CONF:1198-14835;CONF:1198-14836;CONF:1198-14837;CONF:1198-14838;CONF:1198-14839;CONF:1198-14840;CONF:1198-16818;CONF:1198-32889;CONF:1198-14841;CONF:1198-14846;CONF:1198-14847;CONF:1198-14842;CONF:1198-16792;CONF:1198-16793;CONF:1198-16794;CONF:1198-16795;CONF:1198-16797;CONF:1198-16798;CONF:1198-9955;CONF:1198-9956;CONF:1198-9959;CONF:1198-9958</v>
       </c>
       <c r="M249" t="str">
-        <f>"{ 'id': '"&amp;A249&amp;"', 'template_type': '"&amp;C249&amp;"', 'name': '"&amp;B249&amp;" ["&amp;D249&amp;"["&amp;G249&amp;"', 'name2': '"&amp;B249&amp;"', 'template': '"&amp;D249&amp;"', 'pageStart': '"&amp;E249&amp;"', 'pages': '"&amp;G249&amp;"', 'search': '"&amp;K249&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '248', 'template_type': 'Other', 'name': 'US Realm Header (Companion Guide) [2.16.840.1.113883.10.20.22.1.1[CG_A_10-61', 'name2': 'US Realm Header (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.1.1', 'pageStart': '1010', 'pages': 'CG_A_10-61', 'search': 'US Realm Header (Companion Guide) 2.16.840.1.113883.10.20.22.1.1 CONF:1198-16791;CONF:1198-5361;CONF:1198-5250;CONF:1198-5251;CONF:1198-5252;CONF:1198-10036;CONF:1198-32503;CONF:1198-5363;CONF:1198-9991;CONF:1198-5253;CONF:1198-9992;CONF:1198-32948;CONF:1198-5254;CONF:1198-5256;CONF:1198-5259;CONF:1198-5372;CONF:1198-5261;CONF:1198-6380;CONF:1198-5264;CONF:1198-6387;CONF:1198-5266;CONF:1198-5267;CONF:1198-5268;CONF:1198-5271;CONF:1198-5280;CONF:1198-5375;CONF:1198-5283;CONF:1198-5284;CONF:1198-6394;CONF:1198-5298;CONF:1198-5299;CONF:1198-5300;CONF:1198-32418;CONF:1198-5303;CONF:1198-5317;CONF:1198-5322;CONF:1198-7263;CONF:1198-31347;CONF:1198-5323;CONF:1198-32901;CONF:1198-5325;CONF:1198-5326;CONF:1198-5359;CONF:1198-5382;CONF:1198-7993;CONF:1198-5385;CONF:1198-5386;CONF:1198-5395;CONF:1198-5396;CONF:1198-5397;CONF:1198-5404;CONF:1198-5402;CONF:1198-5403;CONF:1198-5406;CONF:1198-5407;CONF:1198-5409;CONF:1198-9965;CONF:1198-5414;CONF:1198-5416;CONF:1198-5417;CONF:1198-16820;CONF:1198-5419;CONF:1198-5420;CONF:1198-7994;CONF:1198-5422;CONF:1198-5444;CONF:1198-5445;CONF:1198-5448;CONF:1198-5449;CONF:1198-32882;CONF:1198-32883;CONF:1198-32884;CONF:1198-32885;CONF:1198-16787;CONF:1198-16788;CONF:1198-5452;CONF:1198-5428;CONF:1198-7995;CONF:1198-5430;CONF:1198-16789;CONF:1198-16783;CONF:1198-16784;CONF:1198-16785;CONF:1198-16790;CONF:1198-5441;CONF:1198-5442;CONF:1198-5443;CONF:1198-16821;CONF:1198-32173;CONF:1198-5460;CONF:1198-5466;CONF:1198-7996;CONF:1198-5469;CONF:1198-5470;CONF:1198-8001;CONF:1198-8002;CONF:1198-9945;CONF:1198-9946;CONF:1198-32174;CONF:1198-8220;CONF:1198-8221;CONF:1198-8222;CONF:1198-31355;CONF:1198-31356;CONF:1198-5519;CONF:1198-5520;CONF:1198-5521;CONF:1198-5522;CONF:1198-16822;CONF:1198-5524;CONF:1198-5525;CONF:1198-7998;CONF:1198-5559;CONF:1198-5565;CONF:1198-5566;CONF:1198-32399;CONF:1198-5567;CONF:1198-5568;CONF:1198-5577;CONF:1198-5578;CONF:1198-5579;CONF:1198-5580;CONF:1198-5583;CONF:1198-5584;CONF:1198-30810;CONF:1198-5585;CONF:1198-5586;CONF:1198-16823;CONF:1198-17000;CONF:1198-5589;CONF:1198-5595;CONF:1198-7999;CONF:1198-5597;CONF:1198-5598;CONF:1198-5607;CONF:1198-5608;CONF:1198-5610;CONF:1198-5611;CONF:1198-30811;CONF:1198-5612;CONF:1198-5613;CONF:1198-16824;CONF:1198-16825;CONF:1198-16826;CONF:1198-5616;CONF:1198-5622;CONF:1198-8000;CONF:1198-5624;CONF:1198-5625;CONF:1198-10003;CONF:1198-10004;CONF:1198-10006;CONF:1198-10007;CONF:1198-9952;CONF:1198-9953;CONF:1198-9954;CONF:1198-14835;CONF:1198-14836;CONF:1198-14837;CONF:1198-14838;CONF:1198-14839;CONF:1198-14840;CONF:1198-16818;CONF:1198-32889;CONF:1198-14841;CONF:1198-14846;CONF:1198-14847;CONF:1198-14842;CONF:1198-16792;CONF:1198-16793;CONF:1198-16794;CONF:1198-16795;CONF:1198-16797;CONF:1198-16798;CONF:1198-9955;CONF:1198-9956;CONF:1198-9959;CONF:1198-9958' },</v>
       </c>
       <c r="N249" t="str">
-        <f>"'"&amp;D249&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.1.1',</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>249</v>
       </c>
       <c r="B250" t="s">
@@ -17447,21 +17447,21 @@
         <v>453</v>
       </c>
       <c r="K250" t="str">
-        <f>B250&amp;" "&amp;D250&amp;" "&amp;J250</f>
+        <f t="shared" si="12"/>
         <v>US Realm Header for Patient Generated Document (Companion Guide) 2.16.840.1.113883.10.20.29.1 CONF:1198-28458;CONF:1198-28459;CONF:1198-32917;CONF:1198-32945;CONF:1198-28460;CONF:1198-28461;CONF:1198-28462;CONF:1198-28465;CONF:1198-28469;CONF:1198-28470;CONF:1198-28473;CONF:1198-28474;CONF:1198-28475;CONF:1198-28476;CONF:1198-28477;CONF:1198-28478;CONF:1198-28479;CONF:1198-28481;CONF:1198-28676;CONF:1198-28678;CONF:1198-28679;CONF:1198-28680;CONF:1198-28681;CONF:1198-28682;CONF:1198-28683;CONF:1198-28684;CONF:1198-28685;CONF:1198-28686;CONF:1198-28687;CONF:1198-28688;CONF:1198-28690;CONF:1198-28691;CONF:1198-28692;CONF:1198-28693;CONF:1198-28694;CONF:1198-28695;CONF:1198-28696;CONF:1198-28697;CONF:1198-28698;CONF:1198-28699;CONF:1198-28700;CONF:1198-28701;CONF:1198-28702;CONF:1198-28703;CONF:1198-28704;CONF:1198-28705;CONF:1198-28706;CONF:1198-28707;CONF:1198-28708;CONF:1198-28709;CONF:1198-28710;CONF:1198-28711;CONF:1198-28712;CONF:1198-28713;CONF:1198-28714;CONF:1198-28715;CONF:1198-28716;CONF:1198-28718</v>
       </c>
       <c r="M250" t="str">
-        <f>"{ 'id': '"&amp;A250&amp;"', 'template_type': '"&amp;C250&amp;"', 'name': '"&amp;B250&amp;" ["&amp;D250&amp;"["&amp;G250&amp;"', 'name2': '"&amp;B250&amp;"', 'template': '"&amp;D250&amp;"', 'pageStart': '"&amp;E250&amp;"', 'pages': '"&amp;G250&amp;"', 'search': '"&amp;K250&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '249', 'template_type': 'Other', 'name': 'US Realm Header for Patient Generated Document (Companion Guide) [2.16.840.1.113883.10.20.29.1[233-255', 'name2': 'US Realm Header for Patient Generated Document (Companion Guide)', 'template': '2.16.840.1.113883.10.20.29.1', 'pageStart': '233', 'pages': '233-255', 'search': 'US Realm Header for Patient Generated Document (Companion Guide) 2.16.840.1.113883.10.20.29.1 CONF:1198-28458;CONF:1198-28459;CONF:1198-32917;CONF:1198-32945;CONF:1198-28460;CONF:1198-28461;CONF:1198-28462;CONF:1198-28465;CONF:1198-28469;CONF:1198-28470;CONF:1198-28473;CONF:1198-28474;CONF:1198-28475;CONF:1198-28476;CONF:1198-28477;CONF:1198-28478;CONF:1198-28479;CONF:1198-28481;CONF:1198-28676;CONF:1198-28678;CONF:1198-28679;CONF:1198-28680;CONF:1198-28681;CONF:1198-28682;CONF:1198-28683;CONF:1198-28684;CONF:1198-28685;CONF:1198-28686;CONF:1198-28687;CONF:1198-28688;CONF:1198-28690;CONF:1198-28691;CONF:1198-28692;CONF:1198-28693;CONF:1198-28694;CONF:1198-28695;CONF:1198-28696;CONF:1198-28697;CONF:1198-28698;CONF:1198-28699;CONF:1198-28700;CONF:1198-28701;CONF:1198-28702;CONF:1198-28703;CONF:1198-28704;CONF:1198-28705;CONF:1198-28706;CONF:1198-28707;CONF:1198-28708;CONF:1198-28709;CONF:1198-28710;CONF:1198-28711;CONF:1198-28712;CONF:1198-28713;CONF:1198-28714;CONF:1198-28715;CONF:1198-28716;CONF:1198-28718' },</v>
       </c>
       <c r="N250" t="str">
-        <f>"'"&amp;D250&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.29.1',</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="B251" t="s">
@@ -17490,21 +17490,21 @@
         <v>649</v>
       </c>
       <c r="K251" t="str">
-        <f>B251&amp;" "&amp;D251&amp;" "&amp;J251</f>
+        <f t="shared" si="12"/>
         <v>US Realm Patient Name (PTN.US.FIELDED) 2.16.840.1.113883.10.20.22.5.1 CONF:81-7154;CONF:81-7159;CONF:81-7160;CONF:81-7157;CONF:81-7158;CONF:81-7163;CONF:81-7155;CONF:81-7156;CONF:81-7161;CONF:81-7162;CONF:81-7278</v>
       </c>
       <c r="M251" t="str">
-        <f>"{ 'id': '"&amp;A251&amp;"', 'template_type': '"&amp;C251&amp;"', 'name': '"&amp;B251&amp;" ["&amp;D251&amp;"["&amp;G251&amp;"', 'name2': '"&amp;B251&amp;"', 'template': '"&amp;D251&amp;"', 'pageStart': '"&amp;E251&amp;"', 'pages': '"&amp;G251&amp;"', 'search': '"&amp;K251&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '250', 'template_type': 'Other', 'name': 'US Realm Patient Name (PTN.US.FIELDED) [2.16.840.1.113883.10.20.22.5.1[901-904', 'name2': 'US Realm Patient Name (PTN.US.FIELDED)', 'template': '2.16.840.1.113883.10.20.22.5.1', 'pageStart': '901', 'pages': '901-904', 'search': 'US Realm Patient Name (PTN.US.FIELDED) 2.16.840.1.113883.10.20.22.5.1 CONF:81-7154;CONF:81-7159;CONF:81-7160;CONF:81-7157;CONF:81-7158;CONF:81-7163;CONF:81-7155;CONF:81-7156;CONF:81-7161;CONF:81-7162;CONF:81-7278' },</v>
       </c>
       <c r="N251" t="str">
-        <f>"'"&amp;D251&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.5.1',</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>251</v>
       </c>
       <c r="B252" t="s">
@@ -17533,15 +17533,15 @@
         <v>650</v>
       </c>
       <c r="K252" t="str">
-        <f>B252&amp;" "&amp;D252&amp;" "&amp;J252</f>
+        <f t="shared" si="12"/>
         <v>US Realm Person Name (PN.US.FIELDED)  2.16.840.1.113883.10.20.22.5.1.1 CONF:81-9368;CONF:81-9371;CONF:81-9372</v>
       </c>
       <c r="M252" t="str">
-        <f>"{ 'id': '"&amp;A252&amp;"', 'template_type': '"&amp;C252&amp;"', 'name': '"&amp;B252&amp;" ["&amp;D252&amp;"["&amp;G252&amp;"', 'name2': '"&amp;B252&amp;"', 'template': '"&amp;D252&amp;"', 'pageStart': '"&amp;E252&amp;"', 'pages': '"&amp;G252&amp;"', 'search': '"&amp;K252&amp;"' },"</f>
+        <f t="shared" si="13"/>
         <v>{ 'id': '251', 'template_type': 'Other', 'name': 'US Realm Person Name (PN.US.FIELDED)  [2.16.840.1.113883.10.20.22.5.1.1[904-904', 'name2': 'US Realm Person Name (PN.US.FIELDED) ', 'template': '2.16.840.1.113883.10.20.22.5.1.1', 'pageStart': '904', 'pages': '904-904', 'search': 'US Realm Person Name (PN.US.FIELDED)  2.16.840.1.113883.10.20.22.5.1.1 CONF:81-9368;CONF:81-9371;CONF:81-9372' },</v>
       </c>
       <c r="N252" t="str">
-        <f>"'"&amp;D252&amp;"',"</f>
+        <f t="shared" si="14"/>
         <v>'2.16.840.1.113883.10.20.22.5.1.1',</v>
       </c>
     </row>
@@ -17608,7 +17608,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M20" si="0">"CONF:"&amp;J2</f>
+        <f t="shared" ref="M2:M17" si="0">"CONF:"&amp;J2</f>
         <v>CONF:</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnD'Amore\Source\Repos\ccda-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0AE666-4AA4-492C-8054-AE7809B41C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3977121-4CEC-4600-A9DA-1B81A36A9C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="1924">
   <si>
     <t>Template_Type</t>
   </si>
@@ -5807,6 +5807,9 @@
   </si>
   <si>
     <t>Indication  (Companion Guide)</t>
+  </si>
+  <si>
+    <t>Reaction Observation (Companion Guide)</t>
   </si>
 </sst>
 </file>
@@ -6756,8 +6759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15055,7 +15058,7 @@
         <v>1918</v>
       </c>
       <c r="K194" t="str">
-        <f t="shared" ref="K194:K257" si="12">B194&amp;" "&amp;D194&amp;" "&amp;J194</f>
+        <f t="shared" ref="K194:K252" si="12">B194&amp;" "&amp;D194&amp;" "&amp;J194</f>
         <v>Pregnancy Intention in Next Year (Companion Guide) 2.16.840.1.113883.10.20.22.4.281 CONF:4537-26557;CONF:4537-26558;CONF:4537-26549;CONF:4537-26552;CONF:4537-26553;CONF:4537-26981;CONF:4537-26550;CONF:4537-26554;CONF:4537-26555;CONF:4537-26551;CONF:4537-26556;CONF:4537-26560;CONF:4537-26821;CONF:4537-26822;CONF:4537-26559;</v>
       </c>
       <c r="M194" t="str">
@@ -15764,7 +15767,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>370</v>
+        <v>1923</v>
       </c>
       <c r="C211" t="s">
         <v>432</v>
@@ -15790,11 +15793,11 @@
       </c>
       <c r="K211" t="str">
         <f t="shared" si="12"/>
-        <v>Reaction Observation   2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922</v>
+        <v>Reaction Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922</v>
       </c>
       <c r="M211" t="str">
         <f t="shared" si="13"/>
-        <v>{ 'id': '210', 'template_type': 'Entry', 'name': 'Reaction Observation   [2.16.840.1.113883.10.20.22.4.9[793-797', 'name2': 'Reaction Observation  ', 'template': '2.16.840.1.113883.10.20.22.4.9', 'pageStart': '793', 'pages': '793-797', 'search': 'Reaction Observation   2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922' },</v>
+        <v>{ 'id': '210', 'template_type': 'Entry', 'name': 'Reaction Observation (Companion Guide) [2.16.840.1.113883.10.20.22.4.9[793-797', 'name2': 'Reaction Observation (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.9', 'pageStart': '793', 'pages': '793-797', 'search': 'Reaction Observation (Companion Guide) 2.16.840.1.113883.10.20.22.4.9 CONF:1098-7325;CONF:1098-7326;CONF:1098-7323;CONF:1098-10523;CONF:1098-32504;CONF:1098-7329;CONF:1098-16851;CONF:1098-31124;CONF:1098-32169;CONF:1098-7328;CONF:1098-19114;CONF:1098-7332;CONF:1098-7333;CONF:1098-7334;CONF:1098-7335;CONF:1098-7337;CONF:1098-7338;CONF:1098-7343;CONF:1098-15920;CONF:1098-7340;CONF:1098-7341;CONF:1098-7344;CONF:1098-15921;CONF:1098-7580;CONF:1098-7581;CONF:1098-10375;CONF:1098-15922' },</v>
       </c>
       <c r="N211" t="str">
         <f t="shared" si="14"/>
@@ -15899,11 +15902,14 @@
         <v>375</v>
       </c>
       <c r="E214">
-        <v>798</v>
-      </c>
-      <c r="G214" s="3" t="str">
-        <f>VLOOKUP(D214,'2022_New_Pages'!$H$1:$I$215,2,0)</f>
-        <v>798-803</v>
+        <v>1200</v>
+      </c>
+      <c r="F214">
+        <v>1207</v>
+      </c>
+      <c r="G214" t="str">
+        <f>"CG_A_"&amp;E214-1000&amp;"-"&amp;F214-1000</f>
+        <v>CG_A_200-207</v>
       </c>
       <c r="H214" t="s">
         <v>894</v>
@@ -15920,7 +15926,7 @@
       </c>
       <c r="M214" t="str">
         <f t="shared" si="13"/>
-        <v>{ 'id': '213', 'template_type': 'Entry', 'name': 'Result Observation  [2.16.840.1.113883.10.20.22.4.2[798-803', 'name2': 'Result Observation ', 'template': '2.16.840.1.113883.10.20.22.4.2', 'pageStart': '798', 'pages': '798-803', 'search': 'Result Observation  2.16.840.1.113883.10.20.22.4.2 CONF:1198-7130;CONF:1198-7131;CONF:1198-7136;CONF:1198-9138;CONF:1198-32575;CONF:1198-7137;CONF:1198-7133;CONF:1198-19212;CONF:1198-7134;CONF:1198-14849;CONF:1198-7140;CONF:1198-7143;CONF:1198-31484;CONF:1198-31866;CONF:1198-32610;CONF:1198-7147;CONF:1198-32476;CONF:1198-7148;CONF:1198-7153;CONF:1198-7149;CONF:1198-7150;CONF:1198-7151;CONF:1198-7152;CONF:1198-32175' },</v>
+        <v>{ 'id': '213', 'template_type': 'Entry', 'name': 'Result Observation  [2.16.840.1.113883.10.20.22.4.2[CG_A_200-207', 'name2': 'Result Observation ', 'template': '2.16.840.1.113883.10.20.22.4.2', 'pageStart': '1200', 'pages': 'CG_A_200-207', 'search': 'Result Observation  2.16.840.1.113883.10.20.22.4.2 CONF:1198-7130;CONF:1198-7131;CONF:1198-7136;CONF:1198-9138;CONF:1198-32575;CONF:1198-7137;CONF:1198-7133;CONF:1198-19212;CONF:1198-7134;CONF:1198-14849;CONF:1198-7140;CONF:1198-7143;CONF:1198-31484;CONF:1198-31866;CONF:1198-32610;CONF:1198-7147;CONF:1198-32476;CONF:1198-7148;CONF:1198-7153;CONF:1198-7149;CONF:1198-7150;CONF:1198-7151;CONF:1198-7152;CONF:1198-32175' },</v>
       </c>
       <c r="N214" t="str">
         <f t="shared" si="14"/>
@@ -15942,14 +15948,14 @@
         <v>377</v>
       </c>
       <c r="E215">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="F215">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="G215" t="str">
         <f>"CG_A_"&amp;E215-1000&amp;"-"&amp;F215-1000</f>
-        <v>CG_A_200-207</v>
+        <v>CG_A_207-211</v>
       </c>
       <c r="H215" t="s">
         <v>895</v>
@@ -15966,7 +15972,7 @@
       </c>
       <c r="M215" t="str">
         <f t="shared" si="13"/>
-        <v>{ 'id': '214', 'template_type': 'Entry', 'name': 'Result Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.1[CG_A_200-207', 'name2': 'Result Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.1', 'pageStart': '1200', 'pages': 'CG_A_200-207', 'search': 'Result Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850' },</v>
+        <v>{ 'id': '214', 'template_type': 'Entry', 'name': 'Result Organizer (Companion Guide) [2.16.840.1.113883.10.20.22.4.1[CG_A_207-211', 'name2': 'Result Organizer (Companion Guide)', 'template': '2.16.840.1.113883.10.20.22.4.1', 'pageStart': '1207', 'pages': 'CG_A_207-211', 'search': 'Result Organizer (Companion Guide) 2.16.840.1.113883.10.20.22.4.1 CONF:1198-7121;CONF:1198-7122;CONF:1198-7126;CONF:1198-9134;CONF:1198-32588;CONF:1198-7127;CONF:1198-7128;CONF:1198-19218;CONF:1198-19219;CONF:1198-7123;CONF:1198-14848;CONF:1198-31865;CONF:1198-32488;CONF:1198-32489;CONF:1198-31149;CONF:1198-7124;CONF:1198-14850' },</v>
       </c>
       <c r="N215" t="str">
         <f t="shared" si="14"/>
